--- a/data/gems/Parameters.xlsx
+++ b/data/gems/Parameters.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bras5181\Desktop\Labprojects\CulturedMeat\iSusS\data\gems\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6D1EA6EB-2800-4526-B665-A0E5E47AB9C8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{25D3B150-3027-457D-B96E-180049AF46D1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -393,145 +393,145 @@
     <t>https://doi.org/10.1042/bj3590443</t>
   </si>
   <si>
+    <t>e</t>
+  </si>
+  <si>
+    <t>Saccharomyces cerevisiae</t>
+  </si>
+  <si>
+    <t>BIOMASS_psc</t>
+  </si>
+  <si>
+    <t>EX_aa_e</t>
+  </si>
+  <si>
+    <t>Estimated</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> https://doi.org/10.4233/uuid:177e9f4c-f847-436d-9fd4-9ed97ba709d9</t>
+  </si>
+  <si>
+    <t>DOI: 10.1371/journal.pone.0018457</t>
+  </si>
+  <si>
+    <t>ATPM</t>
+  </si>
+  <si>
+    <t>Km(mM)</t>
+  </si>
+  <si>
+    <t>DOI: 10.1042/bj3490787</t>
+  </si>
+  <si>
+    <t>EX_ser__L_e</t>
+  </si>
+  <si>
+    <t>EX_gln__L_e</t>
+  </si>
+  <si>
+    <t>DOI: 10.1074/jbc.274.28.19745</t>
+  </si>
+  <si>
+    <t>EX_thr__L_e</t>
+  </si>
+  <si>
+    <t>EX_leu__L_e</t>
+  </si>
+  <si>
+    <t>organism</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Homo sapiens </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rattus norvegicus </t>
+  </si>
+  <si>
+    <t>EX_arg__L_e</t>
+  </si>
+  <si>
+    <t>DOI: 10.1111/j.1432-1033.1977.tb11404.x</t>
+  </si>
+  <si>
+    <t>EX_ala__L_e</t>
+  </si>
+  <si>
+    <t>DOI: 10.1074/jbc.274.28.19738</t>
+  </si>
+  <si>
+    <t>EX_ile__L_e</t>
+  </si>
+  <si>
+    <t>DOI: 10.1016/s0005-2736(01)00384-4</t>
+  </si>
+  <si>
+    <t>EX_tyr__L_e</t>
+  </si>
+  <si>
+    <t>DOI: 10.1016/j.neulet.2008.01.028</t>
+  </si>
+  <si>
+    <t>EX_val__L_e</t>
+  </si>
+  <si>
+    <t>DOI: 10.1016/0896-6273(92)90207-t</t>
+  </si>
+  <si>
+    <t>EX_gly_e</t>
+  </si>
+  <si>
+    <t>EX_glu__L_e</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mus musculus </t>
+  </si>
+  <si>
+    <t>DOI: 10.1074/jbc.M104578200</t>
+  </si>
+  <si>
+    <t>EX_asn__L_e</t>
+  </si>
+  <si>
+    <t>EX_asp__L_e</t>
+  </si>
+  <si>
+    <t>EX_his__L_e</t>
+  </si>
+  <si>
+    <t>EX_cys__L_e</t>
+  </si>
+  <si>
+    <t>EX_lys__L_e</t>
+  </si>
+  <si>
+    <t>Gallus gallus</t>
+  </si>
+  <si>
+    <t>DOI: 10.1016/j.cbpb.2010.04.005</t>
+  </si>
+  <si>
+    <t>EX_met__L_e</t>
+  </si>
+  <si>
+    <t>EX_phe__L_e</t>
+  </si>
+  <si>
+    <t>EX_pro__L_e</t>
+  </si>
+  <si>
+    <t>DOI: 10.1074/jbc.M200374200</t>
+  </si>
+  <si>
+    <t>EX_trp__L_e</t>
+  </si>
+  <si>
+    <t>Average value</t>
+  </si>
+  <si>
     <t>EX_lac__L_e</t>
   </si>
   <si>
     <t>EX_lac__D_e</t>
-  </si>
-  <si>
-    <t>e</t>
-  </si>
-  <si>
-    <t>Saccharomyces cerevisiae</t>
-  </si>
-  <si>
-    <t>BIOMASS_psc</t>
-  </si>
-  <si>
-    <t>EX_aa_e</t>
-  </si>
-  <si>
-    <t>Estimated</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> https://doi.org/10.4233/uuid:177e9f4c-f847-436d-9fd4-9ed97ba709d9</t>
-  </si>
-  <si>
-    <t>DOI: 10.1371/journal.pone.0018457</t>
-  </si>
-  <si>
-    <t>ATPM</t>
-  </si>
-  <si>
-    <t>Km(mM)</t>
-  </si>
-  <si>
-    <t>DOI: 10.1042/bj3490787</t>
-  </si>
-  <si>
-    <t>EX_ser__L_e</t>
-  </si>
-  <si>
-    <t>EX_gln__L_e</t>
-  </si>
-  <si>
-    <t>DOI: 10.1074/jbc.274.28.19745</t>
-  </si>
-  <si>
-    <t>EX_thr__L_e</t>
-  </si>
-  <si>
-    <t>EX_leu__L_e</t>
-  </si>
-  <si>
-    <t>organism</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Homo sapiens </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Rattus norvegicus </t>
-  </si>
-  <si>
-    <t>EX_arg__L_e</t>
-  </si>
-  <si>
-    <t>DOI: 10.1111/j.1432-1033.1977.tb11404.x</t>
-  </si>
-  <si>
-    <t>EX_ala__L_e</t>
-  </si>
-  <si>
-    <t>DOI: 10.1074/jbc.274.28.19738</t>
-  </si>
-  <si>
-    <t>EX_ile__L_e</t>
-  </si>
-  <si>
-    <t>DOI: 10.1016/s0005-2736(01)00384-4</t>
-  </si>
-  <si>
-    <t>EX_tyr__L_e</t>
-  </si>
-  <si>
-    <t>DOI: 10.1016/j.neulet.2008.01.028</t>
-  </si>
-  <si>
-    <t>EX_val__L_e</t>
-  </si>
-  <si>
-    <t>DOI: 10.1016/0896-6273(92)90207-t</t>
-  </si>
-  <si>
-    <t>EX_gly_e</t>
-  </si>
-  <si>
-    <t>EX_glu__L_e</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mus musculus </t>
-  </si>
-  <si>
-    <t>DOI: 10.1074/jbc.M104578200</t>
-  </si>
-  <si>
-    <t>EX_asn__L_e</t>
-  </si>
-  <si>
-    <t>EX_asp__L_e</t>
-  </si>
-  <si>
-    <t>EX_his__L_e</t>
-  </si>
-  <si>
-    <t>EX_cys__L_e</t>
-  </si>
-  <si>
-    <t>EX_lys__L_e</t>
-  </si>
-  <si>
-    <t>Gallus gallus</t>
-  </si>
-  <si>
-    <t>DOI: 10.1016/j.cbpb.2010.04.005</t>
-  </si>
-  <si>
-    <t>EX_met__L_e</t>
-  </si>
-  <si>
-    <t>EX_phe__L_e</t>
-  </si>
-  <si>
-    <t>EX_pro__L_e</t>
-  </si>
-  <si>
-    <t>DOI: 10.1074/jbc.M200374200</t>
-  </si>
-  <si>
-    <t>EX_trp__L_e</t>
-  </si>
-  <si>
-    <t>Average value</t>
   </si>
 </sst>
 </file>
@@ -869,8 +869,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G43"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A32" workbookViewId="0">
-      <selection activeCell="H44" sqref="H44"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="M9" sqref="M9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -903,7 +903,7 @@
         <v>115</v>
       </c>
       <c r="B2" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="C2" t="s">
         <v>116</v>
@@ -923,16 +923,16 @@
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
+        <v>163</v>
+      </c>
+      <c r="B3" t="s">
         <v>118</v>
-      </c>
-      <c r="B3" t="s">
-        <v>120</v>
       </c>
       <c r="C3" t="s">
         <v>116</v>
       </c>
       <c r="D3" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="E3" t="s">
         <v>116</v>
@@ -941,21 +941,21 @@
         <v>6360</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>119</v>
+        <v>164</v>
       </c>
       <c r="B4" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="C4" t="s">
         <v>116</v>
       </c>
       <c r="D4" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="E4" t="s">
         <v>116</v>
@@ -964,21 +964,21 @@
         <v>6360</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="B5" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="C5" t="s">
         <v>116</v>
       </c>
       <c r="D5" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="E5">
         <v>3.8699999999999998E-2</v>
@@ -988,7 +988,7 @@
         <v>2.3220000000000001</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.35">
@@ -1857,7 +1857,7 @@
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A42" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="B42" t="s">
         <v>16</v>
@@ -1875,12 +1875,12 @@
         <v>100</v>
       </c>
       <c r="G42" s="2" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A43" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="B43" t="s">
         <v>16</v>
@@ -1898,7 +1898,7 @@
         <v>25</v>
       </c>
       <c r="G43" s="2" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
     </row>
   </sheetData>
@@ -1929,10 +1929,10 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="C1" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="D1" t="s">
         <v>3</v>
@@ -1946,281 +1946,281 @@
         <v>30</v>
       </c>
       <c r="C2" t="s">
+        <v>135</v>
+      </c>
+      <c r="D2" t="s">
         <v>137</v>
-      </c>
-      <c r="D2" t="s">
-        <v>139</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="B3">
         <v>0.29499999999999998</v>
       </c>
       <c r="C3" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="D3" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="B4">
         <v>0.11600000000000001</v>
       </c>
       <c r="C4" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="D4" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="B5">
         <v>6.8599999999999994E-2</v>
       </c>
       <c r="C5" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="D5" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="B6">
         <v>0.23599999999999999</v>
       </c>
       <c r="C6" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="D6" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="B7">
         <v>0.12</v>
       </c>
       <c r="C7" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="D7" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="B8">
         <v>0.97799999999999998</v>
       </c>
       <c r="C8" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="D8" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="B9">
         <v>2.5100000000000001E-2</v>
       </c>
       <c r="C9" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="D9" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="B10">
         <v>1.6400000000000001E-2</v>
       </c>
       <c r="C10" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="D10" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="B11">
         <v>0.123</v>
       </c>
       <c r="C11" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="D11" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="B12">
         <v>4.7199999999999999E-2</v>
       </c>
       <c r="C12" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="D12" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="B13">
         <v>1.1000000000000001</v>
       </c>
       <c r="C13" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="D13" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="B14">
         <v>2.15</v>
       </c>
       <c r="C14" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="D14" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="B15">
         <v>1.2699999999999999E-2</v>
       </c>
       <c r="C15" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="D15" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="B16">
         <v>0.109</v>
       </c>
       <c r="C16" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="D16" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="B17">
         <v>2.6440000000000001</v>
       </c>
       <c r="C17" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="D17" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="B18">
         <v>0.02</v>
       </c>
       <c r="C18" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="D18" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="B19">
         <v>1.4200000000000001E-2</v>
       </c>
       <c r="C19" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="D19" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="B20">
         <v>0.12</v>
       </c>
       <c r="C20" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="D20" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="B21">
         <v>2.1399999999999999E-2</v>
       </c>
       <c r="C21" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="D21" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="B22">
         <v>0.43</v>
@@ -2229,7 +2229,7 @@
         <v>116</v>
       </c>
       <c r="D22" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
     </row>
   </sheetData>

--- a/data/gems/Parameters.xlsx
+++ b/data/gems/Parameters.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bras5181\Desktop\Labprojects\CulturedMeat\iSusS\data\gems\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{25D3B150-3027-457D-B96E-180049AF46D1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{34501FB7-84AC-4E3A-91B6-6BD1B9463C57}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="288" uniqueCount="165">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="298" uniqueCount="169">
   <si>
     <t>Rxn</t>
   </si>
@@ -532,6 +532,18 @@
   </si>
   <si>
     <t>EX_lac__D_e</t>
+  </si>
+  <si>
+    <t>OXP_nadh</t>
+  </si>
+  <si>
+    <t>OXP_fadh2</t>
+  </si>
+  <si>
+    <t>7.2.2.19</t>
+  </si>
+  <si>
+    <t>DOI: 10.1093/jb/mvi127</t>
   </si>
 </sst>
 </file>
@@ -867,10 +879,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G43"/>
+  <dimension ref="A1:G45"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M9" sqref="M9"/>
+    <sheetView tabSelected="1" topLeftCell="A32" workbookViewId="0">
+      <selection activeCell="K42" sqref="K42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1032,7 +1044,7 @@
         <v>620</v>
       </c>
       <c r="F7">
-        <f t="shared" ref="F7:F41" si="0">E7*60</f>
+        <f t="shared" ref="F7:F43" si="0">E7*60</f>
         <v>37200</v>
       </c>
       <c r="G7" t="s">
@@ -1857,47 +1869,95 @@
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A42" t="s">
-        <v>120</v>
+        <v>165</v>
       </c>
       <c r="B42" t="s">
-        <v>16</v>
+        <v>40</v>
       </c>
       <c r="C42" t="s">
-        <v>116</v>
+        <v>167</v>
       </c>
       <c r="D42" t="s">
-        <v>116</v>
-      </c>
-      <c r="E42" t="s">
-        <v>116</v>
+        <v>47</v>
+      </c>
+      <c r="E42">
+        <v>7.5</v>
       </c>
       <c r="F42">
-        <v>100</v>
-      </c>
-      <c r="G42" s="2" t="s">
-        <v>122</v>
+        <f t="shared" si="0"/>
+        <v>450</v>
+      </c>
+      <c r="G42" t="s">
+        <v>168</v>
       </c>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A43" t="s">
+        <v>166</v>
+      </c>
+      <c r="B43" t="s">
+        <v>40</v>
+      </c>
+      <c r="C43" t="s">
+        <v>167</v>
+      </c>
+      <c r="D43" t="s">
+        <v>47</v>
+      </c>
+      <c r="E43">
+        <v>7.5</v>
+      </c>
+      <c r="F43">
+        <f t="shared" si="0"/>
+        <v>450</v>
+      </c>
+      <c r="G43" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A44" t="s">
+        <v>120</v>
+      </c>
+      <c r="B44" t="s">
+        <v>16</v>
+      </c>
+      <c r="C44" t="s">
+        <v>116</v>
+      </c>
+      <c r="D44" t="s">
+        <v>116</v>
+      </c>
+      <c r="E44" t="s">
+        <v>116</v>
+      </c>
+      <c r="F44">
+        <v>100</v>
+      </c>
+      <c r="G44" s="2" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A45" t="s">
         <v>125</v>
       </c>
-      <c r="B43" t="s">
-        <v>16</v>
-      </c>
-      <c r="C43" t="s">
+      <c r="B45" t="s">
+        <v>16</v>
+      </c>
+      <c r="C45" t="s">
         <v>116</v>
       </c>
-      <c r="D43" t="s">
+      <c r="D45" t="s">
         <v>116</v>
       </c>
-      <c r="E43" t="s">
+      <c r="E45" t="s">
         <v>116</v>
       </c>
-      <c r="F43">
+      <c r="F45">
         <v>25</v>
       </c>
-      <c r="G43" s="2" t="s">
+      <c r="G45" s="2" t="s">
         <v>122</v>
       </c>
     </row>

--- a/data/gems/Parameters.xlsx
+++ b/data/gems/Parameters.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28429"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28526"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bras5181\Desktop\Labprojects\CulturedMeat\iSusS\data\gems\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{34501FB7-84AC-4E3A-91B6-6BD1B9463C57}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6CEA6E96-F2B6-488B-A3A6-8DEDFDEF9892}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="298" uniqueCount="169">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="283" uniqueCount="163">
   <si>
     <t>Rxn</t>
   </si>
@@ -114,15 +114,9 @@
     <t>PRPPS</t>
   </si>
   <si>
-    <t>PPM</t>
-  </si>
-  <si>
     <t>LDH_L</t>
   </si>
   <si>
-    <t>LDH_D</t>
-  </si>
-  <si>
     <t>PDHm</t>
   </si>
   <si>
@@ -255,9 +249,6 @@
     <t>1.1.1.27</t>
   </si>
   <si>
-    <t>1.1.1.28</t>
-  </si>
-  <si>
     <t>1.1.1.49</t>
   </si>
   <si>
@@ -309,12 +300,6 @@
     <t>DOI: 10.1074/jbc.271.33.19894</t>
   </si>
   <si>
-    <t>5.4.2.2</t>
-  </si>
-  <si>
-    <t>DOI: 10.1080/00327489008050198</t>
-  </si>
-  <si>
     <t>1.2.4.1</t>
   </si>
   <si>
@@ -376,9 +361,6 @@
   </si>
   <si>
     <t>DOI: 10.1042/bj2290399</t>
-  </si>
-  <si>
-    <t>LDH_Lm</t>
   </si>
   <si>
     <t>Activity(mmol/hr/g)</t>
@@ -879,10 +861,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G45"/>
+  <dimension ref="A1:G42"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A32" workbookViewId="0">
-      <selection activeCell="K42" sqref="K42"/>
+    <sheetView tabSelected="1" topLeftCell="A12" workbookViewId="0">
+      <selection activeCell="N19" sqref="N19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -901,10 +883,10 @@
         <v>2</v>
       </c>
       <c r="E1" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="F1" t="s">
-        <v>114</v>
+        <v>108</v>
       </c>
       <c r="G1" t="s">
         <v>3</v>
@@ -912,16 +894,16 @@
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
       <c r="B2" t="s">
-        <v>118</v>
+        <v>112</v>
       </c>
       <c r="C2" t="s">
-        <v>116</v>
+        <v>110</v>
       </c>
       <c r="D2" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="E2">
         <v>0.12</v>
@@ -930,67 +912,67 @@
         <v>7.1999999999999993</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>117</v>
+        <v>111</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>163</v>
+        <v>157</v>
       </c>
       <c r="B3" t="s">
-        <v>118</v>
+        <v>112</v>
       </c>
       <c r="C3" t="s">
-        <v>116</v>
+        <v>110</v>
       </c>
       <c r="D3" t="s">
-        <v>119</v>
+        <v>113</v>
       </c>
       <c r="E3" t="s">
-        <v>116</v>
+        <v>110</v>
       </c>
       <c r="F3">
         <v>6360</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>123</v>
+        <v>117</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>164</v>
+        <v>158</v>
       </c>
       <c r="B4" t="s">
-        <v>118</v>
+        <v>112</v>
       </c>
       <c r="C4" t="s">
-        <v>116</v>
+        <v>110</v>
       </c>
       <c r="D4" t="s">
-        <v>119</v>
+        <v>113</v>
       </c>
       <c r="E4" t="s">
-        <v>116</v>
+        <v>110</v>
       </c>
       <c r="F4">
         <v>6360</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>123</v>
+        <v>117</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>121</v>
+        <v>115</v>
       </c>
       <c r="B5" t="s">
-        <v>118</v>
+        <v>112</v>
       </c>
       <c r="C5" t="s">
-        <v>116</v>
+        <v>110</v>
       </c>
       <c r="D5" t="s">
-        <v>119</v>
+        <v>113</v>
       </c>
       <c r="E5">
         <v>3.8699999999999998E-2</v>
@@ -1000,7 +982,7 @@
         <v>2.3220000000000001</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>124</v>
+        <v>118</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.35">
@@ -1011,10 +993,10 @@
         <v>16</v>
       </c>
       <c r="C6" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="D6" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="E6">
         <v>191.5</v>
@@ -1024,7 +1006,7 @@
         <v>11490</v>
       </c>
       <c r="G6" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.35">
@@ -1035,20 +1017,20 @@
         <v>16</v>
       </c>
       <c r="C7" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="D7" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="E7">
         <v>620</v>
       </c>
       <c r="F7">
-        <f t="shared" ref="F7:F43" si="0">E7*60</f>
+        <f t="shared" ref="F7:F40" si="0">E7*60</f>
         <v>37200</v>
       </c>
       <c r="G7" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.35">
@@ -1059,10 +1041,10 @@
         <v>16</v>
       </c>
       <c r="C8" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="D8" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="E8">
         <v>128</v>
@@ -1072,7 +1054,7 @@
         <v>7680</v>
       </c>
       <c r="G8" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.35">
@@ -1083,10 +1065,10 @@
         <v>16</v>
       </c>
       <c r="C9" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="D9" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="E9">
         <v>22.3</v>
@@ -1096,7 +1078,7 @@
         <v>1338</v>
       </c>
       <c r="G9" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.35">
@@ -1107,10 +1089,10 @@
         <v>16</v>
       </c>
       <c r="C10" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="D10" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="E10">
         <v>10240</v>
@@ -1120,7 +1102,7 @@
         <v>614400</v>
       </c>
       <c r="G10" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.35">
@@ -1131,10 +1113,10 @@
         <v>16</v>
       </c>
       <c r="C11" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="D11" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="E11">
         <v>80</v>
@@ -1144,7 +1126,7 @@
         <v>4800</v>
       </c>
       <c r="G11" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.35">
@@ -1155,10 +1137,10 @@
         <v>16</v>
       </c>
       <c r="C12" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="D12" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="E12">
         <v>1000</v>
@@ -1168,7 +1150,7 @@
         <v>60000</v>
       </c>
       <c r="G12" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.35">
@@ -1179,10 +1161,10 @@
         <v>16</v>
       </c>
       <c r="C13" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="D13" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="E13">
         <v>210</v>
@@ -1192,7 +1174,7 @@
         <v>12600</v>
       </c>
       <c r="G13" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.35">
@@ -1203,10 +1185,10 @@
         <v>16</v>
       </c>
       <c r="C14" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="D14" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="E14">
         <v>91</v>
@@ -1216,7 +1198,7 @@
         <v>5460</v>
       </c>
       <c r="G14" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.35">
@@ -1227,10 +1209,10 @@
         <v>16</v>
       </c>
       <c r="C15" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="D15" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="E15">
         <v>191</v>
@@ -1240,21 +1222,21 @@
         <v>11460</v>
       </c>
       <c r="G15" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B16" t="s">
         <v>16</v>
       </c>
       <c r="C16" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="D16" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="E16">
         <v>1.7470000000000001</v>
@@ -1264,706 +1246,634 @@
         <v>104.82000000000001</v>
       </c>
       <c r="G16" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
-        <v>27</v>
+        <v>5</v>
       </c>
       <c r="B17" t="s">
         <v>16</v>
       </c>
       <c r="C17" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="D17" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="E17">
-        <v>1.7470000000000001</v>
+        <v>201</v>
       </c>
       <c r="F17">
         <f t="shared" si="0"/>
-        <v>104.82000000000001</v>
+        <v>12060</v>
       </c>
       <c r="G17" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
-        <v>113</v>
+        <v>17</v>
       </c>
       <c r="B18" t="s">
+        <v>16</v>
+      </c>
+      <c r="C18" t="s">
+        <v>72</v>
+      </c>
+      <c r="D18" t="s">
         <v>40</v>
       </c>
-      <c r="C18" t="s">
-        <v>71</v>
-      </c>
-      <c r="D18" t="s">
-        <v>42</v>
-      </c>
       <c r="E18">
-        <v>1.7470000000000001</v>
+        <v>1065</v>
       </c>
       <c r="F18">
-        <f>E18*60</f>
-        <v>104.82000000000001</v>
+        <f t="shared" si="0"/>
+        <v>63900</v>
       </c>
       <c r="G18" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
-        <v>5</v>
+        <v>18</v>
       </c>
       <c r="B19" t="s">
         <v>16</v>
       </c>
       <c r="C19" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="D19" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="E19">
-        <v>201</v>
+        <v>1.89</v>
       </c>
       <c r="F19">
         <f t="shared" si="0"/>
-        <v>12060</v>
-      </c>
-      <c r="G19" t="s">
-        <v>74</v>
+        <v>113.39999999999999</v>
+      </c>
+      <c r="G19" s="1" t="s">
+        <v>75</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B20" t="s">
         <v>16</v>
       </c>
       <c r="C20" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="D20" t="s">
-        <v>42</v>
+        <v>77</v>
       </c>
       <c r="E20">
-        <v>1065</v>
+        <v>1700</v>
       </c>
       <c r="F20">
         <f t="shared" si="0"/>
-        <v>63900</v>
+        <v>102000</v>
       </c>
       <c r="G20" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B21" t="s">
         <v>16</v>
       </c>
       <c r="C21" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="D21" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="E21">
-        <v>1.89</v>
+        <v>6570</v>
       </c>
       <c r="F21">
         <f t="shared" si="0"/>
-        <v>113.39999999999999</v>
-      </c>
-      <c r="G21" s="1" t="s">
-        <v>78</v>
+        <v>394200</v>
+      </c>
+      <c r="G21" t="s">
+        <v>80</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B22" t="s">
         <v>16</v>
       </c>
       <c r="C22" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="D22" t="s">
-        <v>80</v>
+        <v>45</v>
       </c>
       <c r="E22">
-        <v>1700</v>
+        <v>0.88</v>
       </c>
       <c r="F22">
         <f t="shared" si="0"/>
-        <v>102000</v>
+        <v>52.8</v>
       </c>
       <c r="G22" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B23" t="s">
         <v>16</v>
       </c>
       <c r="C23" t="s">
+        <v>81</v>
+      </c>
+      <c r="D23" t="s">
+        <v>45</v>
+      </c>
+      <c r="E23">
+        <v>0.88</v>
+      </c>
+      <c r="F23">
+        <f t="shared" si="0"/>
+        <v>52.8</v>
+      </c>
+      <c r="G23" t="s">
         <v>82</v>
-      </c>
-      <c r="D23" t="s">
-        <v>44</v>
-      </c>
-      <c r="E23">
-        <v>6570</v>
-      </c>
-      <c r="F23">
-        <f t="shared" si="0"/>
-        <v>394200</v>
-      </c>
-      <c r="G23" t="s">
-        <v>83</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B24" t="s">
         <v>16</v>
       </c>
       <c r="C24" t="s">
+        <v>83</v>
+      </c>
+      <c r="D24" t="s">
+        <v>40</v>
+      </c>
+      <c r="E24">
+        <v>15</v>
+      </c>
+      <c r="F24">
+        <f t="shared" si="0"/>
+        <v>900</v>
+      </c>
+      <c r="G24" t="s">
         <v>84</v>
-      </c>
-      <c r="D24" t="s">
-        <v>47</v>
-      </c>
-      <c r="E24">
-        <v>0.88</v>
-      </c>
-      <c r="F24">
-        <f t="shared" si="0"/>
-        <v>52.8</v>
-      </c>
-      <c r="G24" t="s">
-        <v>85</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B25" t="s">
         <v>16</v>
       </c>
       <c r="C25" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="D25" t="s">
-        <v>47</v>
+        <v>40</v>
       </c>
       <c r="E25">
-        <v>0.88</v>
+        <v>22.2</v>
       </c>
       <c r="F25">
         <f t="shared" si="0"/>
-        <v>52.8</v>
+        <v>1332</v>
       </c>
       <c r="G25" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="B26" t="s">
-        <v>16</v>
+        <v>38</v>
       </c>
       <c r="C26" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="D26" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="E26">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="F26">
         <f t="shared" si="0"/>
-        <v>900</v>
+        <v>660</v>
       </c>
       <c r="G26" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="B27" t="s">
-        <v>16</v>
+        <v>38</v>
       </c>
       <c r="C27" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="D27" t="s">
-        <v>42</v>
+        <v>89</v>
       </c>
       <c r="E27">
-        <v>22.2</v>
+        <v>0.127</v>
       </c>
       <c r="F27">
         <f t="shared" si="0"/>
-        <v>1332</v>
+        <v>7.62</v>
       </c>
       <c r="G27" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="B28" t="s">
-        <v>16</v>
+        <v>38</v>
       </c>
       <c r="C28" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="D28" t="s">
-        <v>42</v>
+        <v>92</v>
       </c>
       <c r="E28">
-        <v>1442</v>
+        <v>6.13</v>
       </c>
       <c r="F28">
         <f t="shared" si="0"/>
-        <v>86520</v>
+        <v>367.8</v>
       </c>
       <c r="G28" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B29" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C29" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="D29" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="E29">
-        <v>11</v>
+        <v>31</v>
       </c>
       <c r="F29">
         <f t="shared" si="0"/>
-        <v>660</v>
+        <v>1860</v>
       </c>
       <c r="G29" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B30" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C30" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="D30" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="E30">
-        <v>0.127</v>
+        <v>252</v>
       </c>
       <c r="F30">
         <f t="shared" si="0"/>
-        <v>7.62</v>
+        <v>15120</v>
       </c>
       <c r="G30" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B31" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C31" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="D31" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="E31">
-        <v>6.13</v>
+        <v>22.1</v>
       </c>
       <c r="F31">
         <f t="shared" si="0"/>
-        <v>367.8</v>
+        <v>1326</v>
       </c>
       <c r="G31" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B32" t="s">
+        <v>38</v>
+      </c>
+      <c r="C32" t="s">
+        <v>103</v>
+      </c>
+      <c r="D32" t="s">
         <v>40</v>
       </c>
-      <c r="C32" t="s">
-        <v>100</v>
-      </c>
-      <c r="D32" t="s">
-        <v>47</v>
-      </c>
       <c r="E32">
-        <v>31</v>
+        <v>3.9E-2</v>
       </c>
       <c r="F32">
         <f t="shared" si="0"/>
-        <v>1860</v>
+        <v>2.34</v>
       </c>
       <c r="G32" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B33" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C33" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="D33" t="s">
-        <v>102</v>
+        <v>45</v>
       </c>
       <c r="E33">
-        <v>252</v>
+        <v>450</v>
       </c>
       <c r="F33">
         <f t="shared" si="0"/>
-        <v>15120</v>
+        <v>27000</v>
       </c>
       <c r="G33" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B34" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C34" t="s">
-        <v>106</v>
+        <v>47</v>
       </c>
       <c r="D34" t="s">
-        <v>105</v>
+        <v>45</v>
       </c>
       <c r="E34">
-        <v>22.1</v>
+        <v>182</v>
       </c>
       <c r="F34">
         <f t="shared" si="0"/>
-        <v>1326</v>
+        <v>10920</v>
       </c>
       <c r="G34" t="s">
-        <v>107</v>
+        <v>48</v>
       </c>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B35" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C35" t="s">
-        <v>108</v>
+        <v>41</v>
       </c>
       <c r="D35" t="s">
-        <v>42</v>
+        <v>89</v>
       </c>
       <c r="E35">
-        <v>3.9E-2</v>
+        <v>345</v>
       </c>
       <c r="F35">
         <f t="shared" si="0"/>
-        <v>2.34</v>
+        <v>20700</v>
       </c>
       <c r="G35" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B36" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C36" t="s">
-        <v>110</v>
+        <v>43</v>
       </c>
       <c r="D36" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="E36">
-        <v>450</v>
+        <v>170</v>
       </c>
       <c r="F36">
         <f t="shared" si="0"/>
-        <v>27000</v>
+        <v>10200</v>
       </c>
       <c r="G36" t="s">
-        <v>111</v>
+        <v>46</v>
       </c>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A37" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B37" t="s">
-        <v>40</v>
+        <v>16</v>
       </c>
       <c r="C37" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="D37" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="E37">
-        <v>182</v>
+        <v>170</v>
       </c>
       <c r="F37">
         <f t="shared" si="0"/>
-        <v>10920</v>
+        <v>10200</v>
       </c>
       <c r="G37" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A38" t="s">
-        <v>37</v>
+        <v>44</v>
       </c>
       <c r="B38" t="s">
-        <v>40</v>
+        <v>16</v>
       </c>
       <c r="C38" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="D38" t="s">
-        <v>94</v>
+        <v>45</v>
       </c>
       <c r="E38">
-        <v>345</v>
+        <v>182</v>
       </c>
       <c r="F38">
         <f t="shared" si="0"/>
-        <v>20700</v>
+        <v>10920</v>
       </c>
       <c r="G38" t="s">
-        <v>112</v>
+        <v>48</v>
       </c>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A39" t="s">
+        <v>159</v>
+      </c>
+      <c r="B39" t="s">
         <v>38</v>
       </c>
-      <c r="B39" t="s">
-        <v>40</v>
-      </c>
       <c r="C39" t="s">
+        <v>161</v>
+      </c>
+      <c r="D39" t="s">
         <v>45</v>
       </c>
-      <c r="D39" t="s">
-        <v>47</v>
-      </c>
       <c r="E39">
-        <v>170</v>
+        <v>7.5</v>
       </c>
       <c r="F39">
         <f t="shared" si="0"/>
-        <v>10200</v>
+        <v>450</v>
       </c>
       <c r="G39" t="s">
-        <v>48</v>
+        <v>162</v>
       </c>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A40" t="s">
-        <v>39</v>
+        <v>160</v>
       </c>
       <c r="B40" t="s">
-        <v>16</v>
+        <v>38</v>
       </c>
       <c r="C40" t="s">
+        <v>161</v>
+      </c>
+      <c r="D40" t="s">
         <v>45</v>
       </c>
-      <c r="D40" t="s">
-        <v>47</v>
-      </c>
       <c r="E40">
-        <v>170</v>
+        <v>7.5</v>
       </c>
       <c r="F40">
         <f t="shared" si="0"/>
-        <v>10200</v>
+        <v>450</v>
       </c>
       <c r="G40" t="s">
-        <v>48</v>
+        <v>162</v>
       </c>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A41" t="s">
-        <v>46</v>
+        <v>114</v>
       </c>
       <c r="B41" t="s">
         <v>16</v>
       </c>
       <c r="C41" t="s">
-        <v>49</v>
+        <v>110</v>
       </c>
       <c r="D41" t="s">
-        <v>47</v>
-      </c>
-      <c r="E41">
-        <v>182</v>
+        <v>110</v>
+      </c>
+      <c r="E41" t="s">
+        <v>110</v>
       </c>
       <c r="F41">
-        <f t="shared" si="0"/>
-        <v>10920</v>
-      </c>
-      <c r="G41" t="s">
-        <v>50</v>
+        <v>100</v>
+      </c>
+      <c r="G41" s="2" t="s">
+        <v>116</v>
       </c>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A42" t="s">
-        <v>165</v>
+        <v>119</v>
       </c>
       <c r="B42" t="s">
-        <v>40</v>
+        <v>16</v>
       </c>
       <c r="C42" t="s">
-        <v>167</v>
+        <v>110</v>
       </c>
       <c r="D42" t="s">
-        <v>47</v>
-      </c>
-      <c r="E42">
-        <v>7.5</v>
+        <v>110</v>
+      </c>
+      <c r="E42" t="s">
+        <v>110</v>
       </c>
       <c r="F42">
-        <f t="shared" si="0"/>
-        <v>450</v>
-      </c>
-      <c r="G42" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A43" t="s">
-        <v>166</v>
-      </c>
-      <c r="B43" t="s">
-        <v>40</v>
-      </c>
-      <c r="C43" t="s">
-        <v>167</v>
-      </c>
-      <c r="D43" t="s">
-        <v>47</v>
-      </c>
-      <c r="E43">
-        <v>7.5</v>
-      </c>
-      <c r="F43">
-        <f t="shared" si="0"/>
-        <v>450</v>
-      </c>
-      <c r="G43" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A44" t="s">
-        <v>120</v>
-      </c>
-      <c r="B44" t="s">
-        <v>16</v>
-      </c>
-      <c r="C44" t="s">
+        <v>25</v>
+      </c>
+      <c r="G42" s="2" t="s">
         <v>116</v>
-      </c>
-      <c r="D44" t="s">
-        <v>116</v>
-      </c>
-      <c r="E44" t="s">
-        <v>116</v>
-      </c>
-      <c r="F44">
-        <v>100</v>
-      </c>
-      <c r="G44" s="2" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A45" t="s">
-        <v>125</v>
-      </c>
-      <c r="B45" t="s">
-        <v>16</v>
-      </c>
-      <c r="C45" t="s">
-        <v>116</v>
-      </c>
-      <c r="D45" t="s">
-        <v>116</v>
-      </c>
-      <c r="E45" t="s">
-        <v>116</v>
-      </c>
-      <c r="F45">
-        <v>25</v>
-      </c>
-      <c r="G45" s="2" t="s">
-        <v>122</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="G21" r:id="rId1" xr:uid="{60D2E9C6-9172-4D4D-B418-CC567356E033}"/>
+    <hyperlink ref="G19" r:id="rId1" xr:uid="{60D2E9C6-9172-4D4D-B418-CC567356E033}"/>
     <hyperlink ref="G2" r:id="rId2" xr:uid="{96642BA6-12F8-4451-8DFA-16265959FEFA}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1989,10 +1899,10 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>126</v>
+        <v>120</v>
       </c>
       <c r="C1" t="s">
-        <v>133</v>
+        <v>127</v>
       </c>
       <c r="D1" t="s">
         <v>3</v>
@@ -2000,296 +1910,296 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
       <c r="B2">
         <v>30</v>
       </c>
       <c r="C2" t="s">
-        <v>135</v>
+        <v>129</v>
       </c>
       <c r="D2" t="s">
-        <v>137</v>
+        <v>131</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>129</v>
+        <v>123</v>
       </c>
       <c r="B3">
         <v>0.29499999999999998</v>
       </c>
       <c r="C3" t="s">
-        <v>134</v>
+        <v>128</v>
       </c>
       <c r="D3" t="s">
-        <v>127</v>
+        <v>121</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>128</v>
+        <v>122</v>
       </c>
       <c r="B4">
         <v>0.11600000000000001</v>
       </c>
       <c r="C4" t="s">
-        <v>135</v>
+        <v>129</v>
       </c>
       <c r="D4" t="s">
-        <v>130</v>
+        <v>124</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>131</v>
+        <v>125</v>
       </c>
       <c r="B5">
         <v>6.8599999999999994E-2</v>
       </c>
       <c r="C5" t="s">
-        <v>135</v>
+        <v>129</v>
       </c>
       <c r="D5" t="s">
-        <v>130</v>
+        <v>124</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>132</v>
+        <v>126</v>
       </c>
       <c r="B6">
         <v>0.23599999999999999</v>
       </c>
       <c r="C6" t="s">
-        <v>134</v>
+        <v>128</v>
       </c>
       <c r="D6" t="s">
-        <v>127</v>
+        <v>121</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>136</v>
+        <v>130</v>
       </c>
       <c r="B7">
         <v>0.12</v>
       </c>
       <c r="C7" t="s">
-        <v>134</v>
+        <v>128</v>
       </c>
       <c r="D7" t="s">
-        <v>127</v>
+        <v>121</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
-        <v>138</v>
+        <v>132</v>
       </c>
       <c r="B8">
         <v>0.97799999999999998</v>
       </c>
       <c r="C8" t="s">
-        <v>134</v>
+        <v>128</v>
       </c>
       <c r="D8" t="s">
-        <v>139</v>
+        <v>133</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
-        <v>140</v>
+        <v>134</v>
       </c>
       <c r="B9">
         <v>2.5100000000000001E-2</v>
       </c>
       <c r="C9" t="s">
-        <v>134</v>
+        <v>128</v>
       </c>
       <c r="D9" t="s">
-        <v>141</v>
+        <v>135</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
-        <v>142</v>
+        <v>136</v>
       </c>
       <c r="B10">
         <v>1.6400000000000001E-2</v>
       </c>
       <c r="C10" t="s">
-        <v>134</v>
+        <v>128</v>
       </c>
       <c r="D10" t="s">
-        <v>143</v>
+        <v>137</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
-        <v>146</v>
+        <v>140</v>
       </c>
       <c r="B11">
         <v>0.123</v>
       </c>
       <c r="C11" t="s">
-        <v>135</v>
+        <v>129</v>
       </c>
       <c r="D11" t="s">
-        <v>145</v>
+        <v>139</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
-        <v>144</v>
+        <v>138</v>
       </c>
       <c r="B12">
         <v>4.7199999999999999E-2</v>
       </c>
       <c r="C12" t="s">
-        <v>134</v>
+        <v>128</v>
       </c>
       <c r="D12" t="s">
-        <v>141</v>
+        <v>135</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
-        <v>147</v>
+        <v>141</v>
       </c>
       <c r="B13">
         <v>1.1000000000000001</v>
       </c>
       <c r="C13" t="s">
-        <v>148</v>
+        <v>142</v>
       </c>
       <c r="D13" t="s">
-        <v>149</v>
+        <v>143</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
-        <v>150</v>
+        <v>144</v>
       </c>
       <c r="B14">
         <v>2.15</v>
       </c>
       <c r="C14" t="s">
-        <v>134</v>
+        <v>128</v>
       </c>
       <c r="D14" t="s">
-        <v>141</v>
+        <v>135</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
-        <v>152</v>
+        <v>146</v>
       </c>
       <c r="B15">
         <v>1.2699999999999999E-2</v>
       </c>
       <c r="C15" t="s">
-        <v>134</v>
+        <v>128</v>
       </c>
       <c r="D15" t="s">
-        <v>141</v>
+        <v>135</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
-        <v>153</v>
+        <v>147</v>
       </c>
       <c r="B16">
         <v>0.109</v>
       </c>
       <c r="C16" t="s">
-        <v>135</v>
+        <v>129</v>
       </c>
       <c r="D16" t="s">
-        <v>130</v>
+        <v>124</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
-        <v>154</v>
+        <v>148</v>
       </c>
       <c r="B17">
         <v>2.6440000000000001</v>
       </c>
       <c r="C17" t="s">
-        <v>155</v>
+        <v>149</v>
       </c>
       <c r="D17" t="s">
-        <v>156</v>
+        <v>150</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
-        <v>157</v>
+        <v>151</v>
       </c>
       <c r="B18">
         <v>0.02</v>
       </c>
       <c r="C18" t="s">
-        <v>134</v>
+        <v>128</v>
       </c>
       <c r="D18" t="s">
-        <v>141</v>
+        <v>135</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
-        <v>158</v>
+        <v>152</v>
       </c>
       <c r="B19">
         <v>1.4200000000000001E-2</v>
       </c>
       <c r="C19" t="s">
-        <v>134</v>
+        <v>128</v>
       </c>
       <c r="D19" t="s">
-        <v>141</v>
+        <v>135</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
-        <v>159</v>
+        <v>153</v>
       </c>
       <c r="B20">
         <v>0.12</v>
       </c>
       <c r="C20" t="s">
-        <v>148</v>
+        <v>142</v>
       </c>
       <c r="D20" t="s">
-        <v>160</v>
+        <v>154</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
-        <v>161</v>
+        <v>155</v>
       </c>
       <c r="B21">
         <v>2.1399999999999999E-2</v>
       </c>
       <c r="C21" t="s">
-        <v>134</v>
+        <v>128</v>
       </c>
       <c r="D21" t="s">
-        <v>141</v>
+        <v>135</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
-        <v>151</v>
+        <v>145</v>
       </c>
       <c r="B22">
         <v>0.43</v>
       </c>
       <c r="C22" t="s">
-        <v>116</v>
+        <v>110</v>
       </c>
       <c r="D22" t="s">
-        <v>162</v>
+        <v>156</v>
       </c>
     </row>
   </sheetData>

--- a/data/gems/Parameters.xlsx
+++ b/data/gems/Parameters.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bras5181\Desktop\Labprojects\CulturedMeat\iSusS\data\gems\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6CEA6E96-F2B6-488B-A3A6-8DEDFDEF9892}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{42513CA2-F2C0-4196-B2FB-F240480A70B7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="283" uniqueCount="163">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="373" uniqueCount="211">
   <si>
     <t>Rxn</t>
   </si>
@@ -381,9 +381,6 @@
     <t>Saccharomyces cerevisiae</t>
   </si>
   <si>
-    <t>BIOMASS_psc</t>
-  </si>
-  <si>
     <t>EX_aa_e</t>
   </si>
   <si>
@@ -513,9 +510,6 @@
     <t>EX_lac__L_e</t>
   </si>
   <si>
-    <t>EX_lac__D_e</t>
-  </si>
-  <si>
     <t>OXP_nadh</t>
   </si>
   <si>
@@ -526,6 +520,156 @@
   </si>
   <si>
     <t>DOI: 10.1093/jb/mvi127</t>
+  </si>
+  <si>
+    <t>BIOMASS</t>
+  </si>
+  <si>
+    <t>GLUDym</t>
+  </si>
+  <si>
+    <t>P5CDm</t>
+  </si>
+  <si>
+    <t>GDHm</t>
+  </si>
+  <si>
+    <t>PRO1xm</t>
+  </si>
+  <si>
+    <t>ACONT</t>
+  </si>
+  <si>
+    <t>CITL</t>
+  </si>
+  <si>
+    <t>4.1.3.6</t>
+  </si>
+  <si>
+    <t>Rubrivivax gelatinosus</t>
+  </si>
+  <si>
+    <t>DOI: 10.1007/BF00446325</t>
+  </si>
+  <si>
+    <t>1.5.1.2</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1016/0076-6879(71)17051-6</t>
+  </si>
+  <si>
+    <t>1.2.1.88</t>
+  </si>
+  <si>
+    <t>1.4.1.2</t>
+  </si>
+  <si>
+    <t>DOI: 10.1038/emm.2005.47</t>
+  </si>
+  <si>
+    <t>DOI: 10.1016/0167-4838(85)90307-3</t>
+  </si>
+  <si>
+    <t>1.4.1.3</t>
+  </si>
+  <si>
+    <t>ACOAH</t>
+  </si>
+  <si>
+    <t>3.1.2.1</t>
+  </si>
+  <si>
+    <t>DOI: 10.1046/j.1432-1327.2001.02162.x</t>
+  </si>
+  <si>
+    <t>EX_ac_e</t>
+  </si>
+  <si>
+    <t>P5CR</t>
+  </si>
+  <si>
+    <t>ARGNm</t>
+  </si>
+  <si>
+    <t>ORNTArm</t>
+  </si>
+  <si>
+    <t>ICDHym</t>
+  </si>
+  <si>
+    <t>P5CRx</t>
+  </si>
+  <si>
+    <t>3.5.3.1</t>
+  </si>
+  <si>
+    <t>PMID: 19636440</t>
+  </si>
+  <si>
+    <t>2.6.1.13</t>
+  </si>
+  <si>
+    <t>DOI: 10.1203/00006450-200107000-00019</t>
+  </si>
+  <si>
+    <t>1.1.1.42</t>
+  </si>
+  <si>
+    <t>DOI: 10.1016/S0003-9861(02)00041-3</t>
+  </si>
+  <si>
+    <t>HISDr</t>
+  </si>
+  <si>
+    <t>URCN</t>
+  </si>
+  <si>
+    <t>IZPN</t>
+  </si>
+  <si>
+    <t>GluForTx</t>
+  </si>
+  <si>
+    <t>FTCD</t>
+  </si>
+  <si>
+    <t>ASNN</t>
+  </si>
+  <si>
+    <t>3.5.1.1</t>
+  </si>
+  <si>
+    <t>DOI: 10.1038/srep36239</t>
+  </si>
+  <si>
+    <t>4.3.1.3</t>
+  </si>
+  <si>
+    <t>DOI: 10.1021/bi00654a005</t>
+  </si>
+  <si>
+    <t>4.2.1.49</t>
+  </si>
+  <si>
+    <t>PMID: 33176</t>
+  </si>
+  <si>
+    <t>3.5.2.7</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1016/0076-6879(71)17015-2</t>
+  </si>
+  <si>
+    <t>2.1.2.5</t>
+  </si>
+  <si>
+    <t>DOI: 10.1016/0005-2744(75)90227-2</t>
+  </si>
+  <si>
+    <t>4.3.1.4</t>
+  </si>
+  <si>
+    <t>DOI: 10.1016/0076-6879(80)66516-1</t>
   </si>
 </sst>
 </file>
@@ -576,10 +720,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -861,10 +1007,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G42"/>
+  <dimension ref="A1:G60"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A12" workbookViewId="0">
-      <selection activeCell="N19" sqref="N19"/>
+    <sheetView tabSelected="1" topLeftCell="A48" workbookViewId="0">
+      <selection activeCell="L60" sqref="L60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -917,7 +1063,7 @@
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="B3" t="s">
         <v>112</v>
@@ -935,12 +1081,12 @@
         <v>6360</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>158</v>
+        <v>181</v>
       </c>
       <c r="B4" t="s">
         <v>112</v>
@@ -949,7 +1095,7 @@
         <v>110</v>
       </c>
       <c r="D4" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="E4" t="s">
         <v>110</v>
@@ -958,12 +1104,12 @@
         <v>6360</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B5" t="s">
         <v>112</v>
@@ -982,7 +1128,7 @@
         <v>2.3220000000000001</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.35">
@@ -1026,7 +1172,7 @@
         <v>620</v>
       </c>
       <c r="F7">
-        <f t="shared" ref="F7:F40" si="0">E7*60</f>
+        <f t="shared" ref="F7:F58" si="0">E7*60</f>
         <v>37200</v>
       </c>
       <c r="G7" t="s">
@@ -1467,417 +1613,854 @@
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
-        <v>26</v>
+        <v>166</v>
       </c>
       <c r="B26" t="s">
-        <v>38</v>
+        <v>16</v>
       </c>
       <c r="C26" t="s">
-        <v>87</v>
+        <v>93</v>
       </c>
       <c r="D26" t="s">
-        <v>45</v>
+        <v>92</v>
       </c>
       <c r="E26">
-        <v>11</v>
+        <v>6.13</v>
       </c>
       <c r="F26">
-        <f t="shared" si="0"/>
-        <v>660</v>
+        <f t="shared" ref="F26:F36" si="1">E26*60</f>
+        <v>367.8</v>
       </c>
       <c r="G26" t="s">
-        <v>88</v>
+        <v>94</v>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
-        <v>27</v>
+        <v>167</v>
       </c>
       <c r="B27" t="s">
-        <v>38</v>
+        <v>16</v>
       </c>
       <c r="C27" t="s">
-        <v>90</v>
+        <v>168</v>
       </c>
       <c r="D27" t="s">
-        <v>89</v>
+        <v>169</v>
       </c>
       <c r="E27">
-        <v>0.127</v>
+        <v>138.80000000000001</v>
       </c>
       <c r="F27">
-        <f t="shared" si="0"/>
-        <v>7.62</v>
+        <f t="shared" si="1"/>
+        <v>8328</v>
       </c>
       <c r="G27" t="s">
-        <v>91</v>
+        <v>170</v>
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
-        <v>28</v>
+        <v>178</v>
       </c>
       <c r="B28" t="s">
-        <v>38</v>
+        <v>16</v>
       </c>
       <c r="C28" t="s">
-        <v>93</v>
+        <v>179</v>
       </c>
       <c r="D28" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="E28">
-        <v>6.13</v>
+        <v>329</v>
       </c>
       <c r="F28">
-        <f t="shared" si="0"/>
-        <v>367.8</v>
+        <f t="shared" si="1"/>
+        <v>19740</v>
       </c>
       <c r="G28" t="s">
-        <v>94</v>
+        <v>180</v>
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
-        <v>29</v>
+        <v>182</v>
       </c>
       <c r="B29" t="s">
-        <v>38</v>
+        <v>16</v>
       </c>
       <c r="C29" t="s">
-        <v>95</v>
+        <v>171</v>
       </c>
       <c r="D29" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="E29">
-        <v>31</v>
+        <v>7.1</v>
       </c>
       <c r="F29">
-        <f t="shared" si="0"/>
-        <v>1860</v>
-      </c>
-      <c r="G29" t="s">
-        <v>96</v>
+        <f t="shared" si="1"/>
+        <v>426</v>
+      </c>
+      <c r="G29" s="1" t="s">
+        <v>172</v>
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
-        <v>30</v>
+        <v>186</v>
       </c>
       <c r="B30" t="s">
-        <v>38</v>
+        <v>16</v>
       </c>
       <c r="C30" t="s">
-        <v>98</v>
+        <v>171</v>
       </c>
       <c r="D30" t="s">
-        <v>97</v>
+        <v>42</v>
       </c>
       <c r="E30">
-        <v>252</v>
+        <v>7.1</v>
       </c>
       <c r="F30">
-        <f t="shared" si="0"/>
-        <v>15120</v>
-      </c>
-      <c r="G30" t="s">
-        <v>99</v>
+        <f t="shared" si="1"/>
+        <v>426</v>
+      </c>
+      <c r="G30" s="1" t="s">
+        <v>172</v>
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
-        <v>31</v>
+        <v>193</v>
       </c>
       <c r="B31" t="s">
-        <v>38</v>
+        <v>16</v>
       </c>
       <c r="C31" t="s">
-        <v>101</v>
+        <v>201</v>
       </c>
       <c r="D31" t="s">
-        <v>100</v>
+        <v>89</v>
       </c>
       <c r="E31">
-        <v>22.1</v>
+        <v>9.94</v>
       </c>
       <c r="F31">
-        <f t="shared" si="0"/>
-        <v>1326</v>
-      </c>
-      <c r="G31" t="s">
-        <v>102</v>
+        <f t="shared" si="1"/>
+        <v>596.4</v>
+      </c>
+      <c r="G31" s="1" t="s">
+        <v>202</v>
       </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
-        <v>32</v>
+        <v>194</v>
       </c>
       <c r="B32" t="s">
-        <v>38</v>
+        <v>16</v>
       </c>
       <c r="C32" t="s">
-        <v>103</v>
+        <v>203</v>
       </c>
       <c r="D32" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="E32">
-        <v>3.9E-2</v>
+        <v>1.6</v>
       </c>
       <c r="F32">
-        <f t="shared" si="0"/>
-        <v>2.34</v>
-      </c>
-      <c r="G32" t="s">
-        <v>104</v>
+        <f t="shared" si="1"/>
+        <v>96</v>
+      </c>
+      <c r="G32" s="1" t="s">
+        <v>204</v>
       </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
-        <v>33</v>
+        <v>195</v>
       </c>
       <c r="B33" t="s">
-        <v>38</v>
+        <v>16</v>
       </c>
       <c r="C33" t="s">
-        <v>105</v>
+        <v>205</v>
       </c>
       <c r="D33" t="s">
-        <v>45</v>
+        <v>89</v>
       </c>
       <c r="E33">
-        <v>450</v>
+        <v>1.54</v>
       </c>
       <c r="F33">
-        <f t="shared" si="0"/>
-        <v>27000</v>
-      </c>
-      <c r="G33" t="s">
-        <v>106</v>
+        <f t="shared" si="1"/>
+        <v>92.4</v>
+      </c>
+      <c r="G33" s="1" t="s">
+        <v>206</v>
       </c>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
-        <v>34</v>
+        <v>196</v>
       </c>
       <c r="B34" t="s">
-        <v>38</v>
+        <v>16</v>
       </c>
       <c r="C34" t="s">
-        <v>47</v>
+        <v>207</v>
       </c>
       <c r="D34" t="s">
         <v>45</v>
       </c>
       <c r="E34">
-        <v>182</v>
+        <v>45</v>
       </c>
       <c r="F34">
-        <f t="shared" si="0"/>
-        <v>10920</v>
-      </c>
-      <c r="G34" t="s">
-        <v>48</v>
+        <f t="shared" si="1"/>
+        <v>2700</v>
+      </c>
+      <c r="G34" s="1" t="s">
+        <v>208</v>
       </c>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
-        <v>35</v>
+        <v>197</v>
       </c>
       <c r="B35" t="s">
-        <v>38</v>
+        <v>16</v>
       </c>
       <c r="C35" t="s">
-        <v>41</v>
+        <v>209</v>
       </c>
       <c r="D35" t="s">
-        <v>89</v>
+        <v>45</v>
       </c>
       <c r="E35">
-        <v>345</v>
+        <v>25</v>
       </c>
       <c r="F35">
-        <f t="shared" si="0"/>
-        <v>20700</v>
-      </c>
-      <c r="G35" t="s">
-        <v>107</v>
+        <f t="shared" si="1"/>
+        <v>1500</v>
+      </c>
+      <c r="G35" s="1" t="s">
+        <v>210</v>
       </c>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
-        <v>36</v>
+        <v>198</v>
       </c>
       <c r="B36" t="s">
-        <v>38</v>
+        <v>16</v>
       </c>
       <c r="C36" t="s">
-        <v>43</v>
+        <v>199</v>
       </c>
       <c r="D36" t="s">
-        <v>45</v>
+        <v>113</v>
       </c>
       <c r="E36">
-        <v>170</v>
+        <v>196.2</v>
       </c>
       <c r="F36">
-        <f t="shared" si="0"/>
-        <v>10200</v>
-      </c>
-      <c r="G36" t="s">
-        <v>46</v>
+        <f t="shared" si="1"/>
+        <v>11772</v>
+      </c>
+      <c r="G36" s="1" t="s">
+        <v>200</v>
       </c>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A37" t="s">
-        <v>37</v>
+        <v>26</v>
       </c>
       <c r="B37" t="s">
-        <v>16</v>
+        <v>38</v>
       </c>
       <c r="C37" t="s">
-        <v>43</v>
+        <v>87</v>
       </c>
       <c r="D37" t="s">
         <v>45</v>
       </c>
       <c r="E37">
-        <v>170</v>
+        <v>11</v>
       </c>
       <c r="F37">
         <f t="shared" si="0"/>
-        <v>10200</v>
+        <v>660</v>
       </c>
       <c r="G37" t="s">
-        <v>46</v>
+        <v>88</v>
       </c>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A38" t="s">
-        <v>44</v>
+        <v>27</v>
       </c>
       <c r="B38" t="s">
-        <v>16</v>
+        <v>38</v>
       </c>
       <c r="C38" t="s">
-        <v>47</v>
+        <v>90</v>
       </c>
       <c r="D38" t="s">
-        <v>45</v>
+        <v>89</v>
       </c>
       <c r="E38">
-        <v>182</v>
+        <v>0.127</v>
       </c>
       <c r="F38">
         <f t="shared" si="0"/>
-        <v>10920</v>
+        <v>7.62</v>
       </c>
       <c r="G38" t="s">
-        <v>48</v>
+        <v>91</v>
       </c>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A39" t="s">
-        <v>159</v>
+        <v>28</v>
       </c>
       <c r="B39" t="s">
         <v>38</v>
       </c>
       <c r="C39" t="s">
-        <v>161</v>
+        <v>93</v>
       </c>
       <c r="D39" t="s">
-        <v>45</v>
+        <v>92</v>
       </c>
       <c r="E39">
-        <v>7.5</v>
+        <v>6.13</v>
       </c>
       <c r="F39">
         <f t="shared" si="0"/>
-        <v>450</v>
+        <v>367.8</v>
       </c>
       <c r="G39" t="s">
-        <v>162</v>
+        <v>94</v>
       </c>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A40" t="s">
-        <v>160</v>
+        <v>29</v>
       </c>
       <c r="B40" t="s">
         <v>38</v>
       </c>
       <c r="C40" t="s">
-        <v>161</v>
+        <v>95</v>
       </c>
       <c r="D40" t="s">
         <v>45</v>
       </c>
       <c r="E40">
-        <v>7.5</v>
+        <v>31</v>
       </c>
       <c r="F40">
         <f t="shared" si="0"/>
-        <v>450</v>
+        <v>1860</v>
       </c>
       <c r="G40" t="s">
-        <v>162</v>
+        <v>96</v>
       </c>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A41" t="s">
-        <v>114</v>
+        <v>30</v>
       </c>
       <c r="B41" t="s">
-        <v>16</v>
+        <v>38</v>
       </c>
       <c r="C41" t="s">
-        <v>110</v>
+        <v>98</v>
       </c>
       <c r="D41" t="s">
-        <v>110</v>
-      </c>
-      <c r="E41" t="s">
-        <v>110</v>
+        <v>97</v>
+      </c>
+      <c r="E41">
+        <v>252</v>
       </c>
       <c r="F41">
-        <v>100</v>
-      </c>
-      <c r="G41" s="2" t="s">
-        <v>116</v>
+        <f t="shared" si="0"/>
+        <v>15120</v>
+      </c>
+      <c r="G41" t="s">
+        <v>99</v>
       </c>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A42" t="s">
-        <v>119</v>
+        <v>31</v>
       </c>
       <c r="B42" t="s">
-        <v>16</v>
+        <v>38</v>
       </c>
       <c r="C42" t="s">
+        <v>101</v>
+      </c>
+      <c r="D42" t="s">
+        <v>100</v>
+      </c>
+      <c r="E42">
+        <v>22.1</v>
+      </c>
+      <c r="F42">
+        <f t="shared" si="0"/>
+        <v>1326</v>
+      </c>
+      <c r="G42" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A43" t="s">
+        <v>32</v>
+      </c>
+      <c r="B43" t="s">
+        <v>38</v>
+      </c>
+      <c r="C43" t="s">
+        <v>103</v>
+      </c>
+      <c r="D43" t="s">
+        <v>40</v>
+      </c>
+      <c r="E43">
+        <v>3.9E-2</v>
+      </c>
+      <c r="F43">
+        <f t="shared" si="0"/>
+        <v>2.34</v>
+      </c>
+      <c r="G43" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A44" t="s">
+        <v>33</v>
+      </c>
+      <c r="B44" t="s">
+        <v>38</v>
+      </c>
+      <c r="C44" t="s">
+        <v>105</v>
+      </c>
+      <c r="D44" t="s">
+        <v>45</v>
+      </c>
+      <c r="E44">
+        <v>450</v>
+      </c>
+      <c r="F44">
+        <f t="shared" si="0"/>
+        <v>27000</v>
+      </c>
+      <c r="G44" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A45" t="s">
+        <v>34</v>
+      </c>
+      <c r="B45" t="s">
+        <v>38</v>
+      </c>
+      <c r="C45" t="s">
+        <v>47</v>
+      </c>
+      <c r="D45" t="s">
+        <v>45</v>
+      </c>
+      <c r="E45">
+        <v>182</v>
+      </c>
+      <c r="F45">
+        <f t="shared" si="0"/>
+        <v>10920</v>
+      </c>
+      <c r="G45" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A46" t="s">
+        <v>35</v>
+      </c>
+      <c r="B46" t="s">
+        <v>38</v>
+      </c>
+      <c r="C46" t="s">
+        <v>41</v>
+      </c>
+      <c r="D46" t="s">
+        <v>89</v>
+      </c>
+      <c r="E46">
+        <v>345</v>
+      </c>
+      <c r="F46">
+        <f t="shared" si="0"/>
+        <v>20700</v>
+      </c>
+      <c r="G46" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A47" t="s">
+        <v>36</v>
+      </c>
+      <c r="B47" t="s">
+        <v>38</v>
+      </c>
+      <c r="C47" t="s">
+        <v>43</v>
+      </c>
+      <c r="D47" t="s">
+        <v>45</v>
+      </c>
+      <c r="E47">
+        <v>170</v>
+      </c>
+      <c r="F47">
+        <f t="shared" si="0"/>
+        <v>10200</v>
+      </c>
+      <c r="G47" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A48" t="s">
+        <v>37</v>
+      </c>
+      <c r="B48" t="s">
+        <v>16</v>
+      </c>
+      <c r="C48" t="s">
+        <v>43</v>
+      </c>
+      <c r="D48" t="s">
+        <v>45</v>
+      </c>
+      <c r="E48">
+        <v>170</v>
+      </c>
+      <c r="F48">
+        <f t="shared" si="0"/>
+        <v>10200</v>
+      </c>
+      <c r="G48" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A49" t="s">
+        <v>44</v>
+      </c>
+      <c r="B49" t="s">
+        <v>16</v>
+      </c>
+      <c r="C49" t="s">
+        <v>47</v>
+      </c>
+      <c r="D49" t="s">
+        <v>45</v>
+      </c>
+      <c r="E49">
+        <v>182</v>
+      </c>
+      <c r="F49">
+        <f t="shared" si="0"/>
+        <v>10920</v>
+      </c>
+      <c r="G49" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A50" t="s">
+        <v>162</v>
+      </c>
+      <c r="B50" t="s">
+        <v>38</v>
+      </c>
+      <c r="C50" t="s">
+        <v>177</v>
+      </c>
+      <c r="D50" t="s">
+        <v>42</v>
+      </c>
+      <c r="E50">
+        <v>40</v>
+      </c>
+      <c r="F50">
+        <f t="shared" si="0"/>
+        <v>2400</v>
+      </c>
+      <c r="G50" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A51" t="s">
+        <v>164</v>
+      </c>
+      <c r="B51" t="s">
+        <v>38</v>
+      </c>
+      <c r="C51" t="s">
+        <v>174</v>
+      </c>
+      <c r="D51" t="s">
+        <v>89</v>
+      </c>
+      <c r="E51">
+        <v>0.84</v>
+      </c>
+      <c r="F51">
+        <f t="shared" si="0"/>
+        <v>50.4</v>
+      </c>
+      <c r="G51" s="3" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A52" t="s">
+        <v>163</v>
+      </c>
+      <c r="B52" t="s">
+        <v>38</v>
+      </c>
+      <c r="C52" t="s">
+        <v>173</v>
+      </c>
+      <c r="D52" t="s">
+        <v>42</v>
+      </c>
+      <c r="E52">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="F52">
+        <f t="shared" si="0"/>
+        <v>33</v>
+      </c>
+      <c r="G52" s="4" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A53" t="s">
+        <v>165</v>
+      </c>
+      <c r="B53" t="s">
+        <v>38</v>
+      </c>
+      <c r="C53" t="s">
+        <v>171</v>
+      </c>
+      <c r="D53" t="s">
+        <v>42</v>
+      </c>
+      <c r="E53">
+        <v>7.1</v>
+      </c>
+      <c r="F53">
+        <f t="shared" si="0"/>
+        <v>426</v>
+      </c>
+      <c r="G53" s="4" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A54" t="s">
+        <v>183</v>
+      </c>
+      <c r="B54" t="s">
+        <v>38</v>
+      </c>
+      <c r="C54" t="s">
+        <v>187</v>
+      </c>
+      <c r="D54" t="s">
+        <v>40</v>
+      </c>
+      <c r="E54">
+        <v>2300</v>
+      </c>
+      <c r="F54">
+        <f t="shared" si="0"/>
+        <v>138000</v>
+      </c>
+      <c r="G54" s="4" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A55" t="s">
+        <v>184</v>
+      </c>
+      <c r="B55" t="s">
+        <v>38</v>
+      </c>
+      <c r="C55" t="s">
+        <v>189</v>
+      </c>
+      <c r="D55" t="s">
+        <v>45</v>
+      </c>
+      <c r="E55">
+        <v>0.22800000000000001</v>
+      </c>
+      <c r="F55">
+        <f t="shared" si="0"/>
+        <v>13.68</v>
+      </c>
+      <c r="G55" s="4" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A56" t="s">
+        <v>185</v>
+      </c>
+      <c r="B56" t="s">
+        <v>38</v>
+      </c>
+      <c r="C56" t="s">
+        <v>191</v>
+      </c>
+      <c r="D56" t="s">
+        <v>45</v>
+      </c>
+      <c r="E56">
+        <v>38.6</v>
+      </c>
+      <c r="F56">
+        <f t="shared" si="0"/>
+        <v>2316</v>
+      </c>
+      <c r="G56" s="4" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A57" t="s">
+        <v>157</v>
+      </c>
+      <c r="B57" t="s">
+        <v>38</v>
+      </c>
+      <c r="C57" t="s">
+        <v>159</v>
+      </c>
+      <c r="D57" t="s">
+        <v>45</v>
+      </c>
+      <c r="E57">
+        <v>7.5</v>
+      </c>
+      <c r="F57">
+        <f t="shared" si="0"/>
+        <v>450</v>
+      </c>
+      <c r="G57" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A58" t="s">
+        <v>158</v>
+      </c>
+      <c r="B58" t="s">
+        <v>38</v>
+      </c>
+      <c r="C58" t="s">
+        <v>159</v>
+      </c>
+      <c r="D58" t="s">
+        <v>45</v>
+      </c>
+      <c r="E58">
+        <v>7.5</v>
+      </c>
+      <c r="F58">
+        <f t="shared" si="0"/>
+        <v>450</v>
+      </c>
+      <c r="G58" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A59" t="s">
+        <v>161</v>
+      </c>
+      <c r="B59" t="s">
+        <v>16</v>
+      </c>
+      <c r="C59" t="s">
         <v>110</v>
       </c>
-      <c r="D42" t="s">
+      <c r="D59" t="s">
         <v>110</v>
       </c>
-      <c r="E42" t="s">
+      <c r="E59" t="s">
         <v>110</v>
       </c>
-      <c r="F42">
-        <v>25</v>
-      </c>
-      <c r="G42" s="2" t="s">
-        <v>116</v>
+      <c r="F59">
+        <v>100</v>
+      </c>
+      <c r="G59" s="2" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A60" t="s">
+        <v>118</v>
+      </c>
+      <c r="B60" t="s">
+        <v>16</v>
+      </c>
+      <c r="C60" t="s">
+        <v>110</v>
+      </c>
+      <c r="D60" t="s">
+        <v>110</v>
+      </c>
+      <c r="E60" t="s">
+        <v>110</v>
+      </c>
+      <c r="F60">
+        <v>50</v>
+      </c>
+      <c r="G60" s="2" t="s">
+        <v>115</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="G19" r:id="rId1" xr:uid="{60D2E9C6-9172-4D4D-B418-CC567356E033}"/>
     <hyperlink ref="G2" r:id="rId2" xr:uid="{96642BA6-12F8-4451-8DFA-16265959FEFA}"/>
+    <hyperlink ref="G53" r:id="rId3" xr:uid="{DBD518FF-06AA-4F59-B32D-3D580FD3488C}"/>
+    <hyperlink ref="G52" r:id="rId4" xr:uid="{3C873BD8-C205-4B23-B8F2-C8E28D105704}"/>
+    <hyperlink ref="G29" r:id="rId5" xr:uid="{3CCDC09F-65EC-46AB-A5B6-06698DF90FD6}"/>
+    <hyperlink ref="G30" r:id="rId6" xr:uid="{45B7FFC2-C775-45F6-B5E2-92E39C1EFAC1}"/>
+    <hyperlink ref="G33" r:id="rId7" xr:uid="{C0F23788-2A31-4EA5-B6D6-A12E3C45A7E7}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId3"/>
+  <pageSetup orientation="portrait" r:id="rId8"/>
 </worksheet>
 </file>
 
@@ -1899,10 +2482,10 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C1" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D1" t="s">
         <v>3</v>
@@ -1916,281 +2499,281 @@
         <v>30</v>
       </c>
       <c r="C2" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D2" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B3">
         <v>0.29499999999999998</v>
       </c>
       <c r="C3" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D3" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B4">
         <v>0.11600000000000001</v>
       </c>
       <c r="C4" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D4" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B5">
         <v>6.8599999999999994E-2</v>
       </c>
       <c r="C5" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D5" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B6">
         <v>0.23599999999999999</v>
       </c>
       <c r="C6" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D6" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B7">
         <v>0.12</v>
       </c>
       <c r="C7" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D7" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B8">
         <v>0.97799999999999998</v>
       </c>
       <c r="C8" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D8" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B9">
         <v>2.5100000000000001E-2</v>
       </c>
       <c r="C9" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D9" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B10">
         <v>1.6400000000000001E-2</v>
       </c>
       <c r="C10" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D10" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B11">
         <v>0.123</v>
       </c>
       <c r="C11" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D11" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B12">
         <v>4.7199999999999999E-2</v>
       </c>
       <c r="C12" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D12" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B13">
         <v>1.1000000000000001</v>
       </c>
       <c r="C13" t="s">
+        <v>141</v>
+      </c>
+      <c r="D13" t="s">
         <v>142</v>
-      </c>
-      <c r="D13" t="s">
-        <v>143</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B14">
         <v>2.15</v>
       </c>
       <c r="C14" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D14" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B15">
         <v>1.2699999999999999E-2</v>
       </c>
       <c r="C15" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D15" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B16">
         <v>0.109</v>
       </c>
       <c r="C16" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D16" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B17">
         <v>2.6440000000000001</v>
       </c>
       <c r="C17" t="s">
+        <v>148</v>
+      </c>
+      <c r="D17" t="s">
         <v>149</v>
-      </c>
-      <c r="D17" t="s">
-        <v>150</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B18">
         <v>0.02</v>
       </c>
       <c r="C18" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D18" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B19">
         <v>1.4200000000000001E-2</v>
       </c>
       <c r="C19" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D19" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B20">
         <v>0.12</v>
       </c>
       <c r="C20" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="D20" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B21">
         <v>2.1399999999999999E-2</v>
       </c>
       <c r="C21" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D21" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B22">
         <v>0.43</v>
@@ -2199,7 +2782,7 @@
         <v>110</v>
       </c>
       <c r="D22" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
   </sheetData>

--- a/data/gems/Parameters.xlsx
+++ b/data/gems/Parameters.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bras5181\Desktop\Labprojects\CulturedMeat\iSusS\data\gems\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{42513CA2-F2C0-4196-B2FB-F240480A70B7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B6FC9678-F22F-4F47-B521-0C4D2BCC8DB1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="373" uniqueCount="211">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="424" uniqueCount="240">
   <si>
     <t>Rxn</t>
   </si>
@@ -243,9 +243,6 @@
     <t>DOI: 10.1016/1357-2725(95)00090-c</t>
   </si>
   <si>
-    <t>DOI: 10.1186/s12935-015-0171-7</t>
-  </si>
-  <si>
     <t>1.1.1.27</t>
   </si>
   <si>
@@ -670,6 +667,96 @@
   </si>
   <si>
     <t>DOI: 10.1016/0076-6879(80)66516-1</t>
+  </si>
+  <si>
+    <t>Mus musculus</t>
+  </si>
+  <si>
+    <t>DOI: 10.1016/s0076-6879(82)89063-0</t>
+  </si>
+  <si>
+    <t>SACCD3m</t>
+  </si>
+  <si>
+    <t>1.5.1.8</t>
+  </si>
+  <si>
+    <t>DOI: 10.1016/0005-2744(78)90225-5</t>
+  </si>
+  <si>
+    <t>SACCD4m</t>
+  </si>
+  <si>
+    <t>1.5.1.9</t>
+  </si>
+  <si>
+    <t>DOI: 10.1042/bj1360329</t>
+  </si>
+  <si>
+    <t>AASAD3m</t>
+  </si>
+  <si>
+    <t>1.2.1.31</t>
+  </si>
+  <si>
+    <t>PMID: 4369906</t>
+  </si>
+  <si>
+    <t>AATA</t>
+  </si>
+  <si>
+    <t>2.6.1.39</t>
+  </si>
+  <si>
+    <t>PMID: 873907</t>
+  </si>
+  <si>
+    <t>2OXOADOXm</t>
+  </si>
+  <si>
+    <t>1.8.1.4</t>
+  </si>
+  <si>
+    <t>DOI: 10.1093/oxfordjournals.jbchem.a121891</t>
+  </si>
+  <si>
+    <t>GLUTCOADHm</t>
+  </si>
+  <si>
+    <t>1.3.8.6</t>
+  </si>
+  <si>
+    <t>PMID: 3081514</t>
+  </si>
+  <si>
+    <t>4.2.1.17</t>
+  </si>
+  <si>
+    <t>ECOAH1m</t>
+  </si>
+  <si>
+    <t>PMID: 833142</t>
+  </si>
+  <si>
+    <t>HACD1m</t>
+  </si>
+  <si>
+    <t>1.1.1.35</t>
+  </si>
+  <si>
+    <t>DOI: 10.1016/0076-6879(75)35147-1</t>
+  </si>
+  <si>
+    <t>ACACT1m</t>
+  </si>
+  <si>
+    <t>2.3.1.9</t>
+  </si>
+  <si>
+    <t>DOI: 10.1042/bj1750999</t>
+  </si>
+  <si>
+    <t>EX_urea_e</t>
   </si>
 </sst>
 </file>
@@ -1007,10 +1094,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G60"/>
+  <dimension ref="A1:G70"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A48" workbookViewId="0">
-      <selection activeCell="L60" sqref="L60"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L8" sqref="L8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1032,7 +1119,7 @@
         <v>39</v>
       </c>
       <c r="F1" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="G1" t="s">
         <v>3</v>
@@ -1040,13 +1127,13 @@
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
+        <v>108</v>
+      </c>
+      <c r="B2" t="s">
+        <v>111</v>
+      </c>
+      <c r="C2" t="s">
         <v>109</v>
-      </c>
-      <c r="B2" t="s">
-        <v>112</v>
-      </c>
-      <c r="C2" t="s">
-        <v>110</v>
       </c>
       <c r="D2" t="s">
         <v>40</v>
@@ -1058,496 +1145,495 @@
         <v>7.1999999999999993</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B3" t="s">
+        <v>111</v>
+      </c>
+      <c r="C3" t="s">
+        <v>109</v>
+      </c>
+      <c r="D3" t="s">
         <v>112</v>
       </c>
-      <c r="C3" t="s">
-        <v>110</v>
-      </c>
-      <c r="D3" t="s">
-        <v>113</v>
-      </c>
       <c r="E3" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="F3">
         <v>6360</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B4" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C4" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D4" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="E4" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="F4">
         <v>6360</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>114</v>
+        <v>239</v>
       </c>
       <c r="B5" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C5" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D5" t="s">
-        <v>113</v>
-      </c>
-      <c r="E5">
-        <v>3.8699999999999998E-2</v>
+        <v>109</v>
+      </c>
+      <c r="E5" t="s">
+        <v>109</v>
       </c>
       <c r="F5">
-        <f>E5*60</f>
-        <v>2.3220000000000001</v>
-      </c>
-      <c r="G5" s="2" t="s">
-        <v>117</v>
+        <v>6360</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>109</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>4</v>
+        <v>113</v>
       </c>
       <c r="B6" t="s">
-        <v>16</v>
+        <v>111</v>
       </c>
       <c r="C6" t="s">
-        <v>49</v>
+        <v>109</v>
       </c>
       <c r="D6" t="s">
-        <v>45</v>
+        <v>112</v>
       </c>
       <c r="E6">
-        <v>191.5</v>
+        <v>3.8699999999999998E-2</v>
       </c>
       <c r="F6">
         <f>E6*60</f>
-        <v>11490</v>
-      </c>
-      <c r="G6" t="s">
-        <v>50</v>
+        <v>2.3220000000000001</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>116</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B7" t="s">
         <v>16</v>
       </c>
       <c r="C7" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="D7" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="E7">
-        <v>620</v>
+        <v>191.5</v>
       </c>
       <c r="F7">
-        <f t="shared" ref="F7:F58" si="0">E7*60</f>
-        <v>37200</v>
+        <f>E7*60</f>
+        <v>11490</v>
       </c>
       <c r="G7" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B8" t="s">
         <v>16</v>
       </c>
       <c r="C8" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="D8" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="E8">
-        <v>128</v>
+        <v>620</v>
       </c>
       <c r="F8">
-        <f t="shared" si="0"/>
-        <v>7680</v>
+        <f t="shared" ref="F8:F68" si="0">E8*60</f>
+        <v>37200</v>
       </c>
       <c r="G8" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B9" t="s">
         <v>16</v>
       </c>
       <c r="C9" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="D9" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="E9">
-        <v>22.3</v>
+        <v>128</v>
       </c>
       <c r="F9">
         <f t="shared" si="0"/>
-        <v>1338</v>
+        <v>7680</v>
       </c>
       <c r="G9" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B10" t="s">
         <v>16</v>
       </c>
       <c r="C10" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="D10" t="s">
         <v>40</v>
       </c>
       <c r="E10">
-        <v>10240</v>
+        <v>22.3</v>
       </c>
       <c r="F10">
         <f t="shared" si="0"/>
-        <v>614400</v>
+        <v>1338</v>
       </c>
       <c r="G10" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B11" t="s">
         <v>16</v>
       </c>
       <c r="C11" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="D11" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="E11">
-        <v>80</v>
+        <v>10240</v>
       </c>
       <c r="F11">
         <f t="shared" si="0"/>
-        <v>4800</v>
+        <v>614400</v>
       </c>
       <c r="G11" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B12" t="s">
         <v>16</v>
       </c>
       <c r="C12" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="D12" t="s">
         <v>45</v>
       </c>
       <c r="E12">
-        <v>1000</v>
+        <v>80</v>
       </c>
       <c r="F12">
         <f t="shared" si="0"/>
-        <v>60000</v>
+        <v>4800</v>
       </c>
       <c r="G12" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B13" t="s">
         <v>16</v>
       </c>
       <c r="C13" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D13" t="s">
         <v>45</v>
       </c>
       <c r="E13">
-        <v>210</v>
+        <v>1000</v>
       </c>
       <c r="F13">
         <f t="shared" si="0"/>
-        <v>12600</v>
+        <v>60000</v>
       </c>
       <c r="G13" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B14" t="s">
         <v>16</v>
       </c>
       <c r="C14" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D14" t="s">
         <v>45</v>
       </c>
       <c r="E14">
-        <v>91</v>
+        <v>210</v>
       </c>
       <c r="F14">
         <f t="shared" si="0"/>
-        <v>5460</v>
+        <v>12600</v>
       </c>
       <c r="G14" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B15" t="s">
         <v>16</v>
       </c>
       <c r="C15" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="D15" t="s">
         <v>45</v>
       </c>
       <c r="E15">
-        <v>191</v>
+        <v>91</v>
       </c>
       <c r="F15">
         <f t="shared" si="0"/>
-        <v>11460</v>
+        <v>5460</v>
       </c>
       <c r="G15" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
-        <v>25</v>
+        <v>14</v>
       </c>
       <c r="B16" t="s">
         <v>16</v>
       </c>
       <c r="C16" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="D16" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="E16">
-        <v>1.7470000000000001</v>
+        <v>191</v>
       </c>
       <c r="F16">
         <f t="shared" si="0"/>
-        <v>104.82000000000001</v>
+        <v>11460</v>
       </c>
       <c r="G16" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
-        <v>5</v>
+        <v>25</v>
       </c>
       <c r="B17" t="s">
         <v>16</v>
       </c>
       <c r="C17" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="D17" t="s">
-        <v>45</v>
+        <v>210</v>
       </c>
       <c r="E17">
-        <v>201</v>
+        <v>80</v>
       </c>
       <c r="F17">
         <f t="shared" si="0"/>
-        <v>12060</v>
+        <v>4800</v>
       </c>
       <c r="G17" t="s">
-        <v>71</v>
+        <v>211</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
-        <v>17</v>
+        <v>5</v>
       </c>
       <c r="B18" t="s">
         <v>16</v>
       </c>
       <c r="C18" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="D18" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="E18">
-        <v>1065</v>
+        <v>201</v>
       </c>
       <c r="F18">
         <f t="shared" si="0"/>
-        <v>63900</v>
+        <v>12060</v>
       </c>
       <c r="G18" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B19" t="s">
         <v>16</v>
       </c>
       <c r="C19" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="D19" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="E19">
-        <v>1.89</v>
+        <v>1065</v>
       </c>
       <c r="F19">
         <f t="shared" si="0"/>
-        <v>113.39999999999999</v>
-      </c>
-      <c r="G19" s="1" t="s">
-        <v>75</v>
+        <v>63900</v>
+      </c>
+      <c r="G19" t="s">
+        <v>72</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B20" t="s">
         <v>16</v>
       </c>
       <c r="C20" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="D20" t="s">
-        <v>77</v>
+        <v>45</v>
       </c>
       <c r="E20">
-        <v>1700</v>
+        <v>1.89</v>
       </c>
       <c r="F20">
         <f t="shared" si="0"/>
-        <v>102000</v>
-      </c>
-      <c r="G20" t="s">
-        <v>78</v>
+        <v>113.39999999999999</v>
+      </c>
+      <c r="G20" s="1" t="s">
+        <v>74</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B21" t="s">
         <v>16</v>
       </c>
       <c r="C21" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="D21" t="s">
-        <v>42</v>
+        <v>76</v>
       </c>
       <c r="E21">
-        <v>6570</v>
+        <v>1700</v>
       </c>
       <c r="F21">
         <f t="shared" si="0"/>
-        <v>394200</v>
+        <v>102000</v>
       </c>
       <c r="G21" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B22" t="s">
         <v>16</v>
       </c>
       <c r="C22" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="D22" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="E22">
-        <v>0.88</v>
+        <v>6570</v>
       </c>
       <c r="F22">
         <f t="shared" si="0"/>
-        <v>52.8</v>
+        <v>394200</v>
       </c>
       <c r="G22" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B23" t="s">
         <v>16</v>
       </c>
       <c r="C23" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D23" t="s">
         <v>45</v>
@@ -1560,162 +1646,162 @@
         <v>52.8</v>
       </c>
       <c r="G23" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B24" t="s">
         <v>16</v>
       </c>
       <c r="C24" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="D24" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="E24">
-        <v>15</v>
+        <v>0.88</v>
       </c>
       <c r="F24">
         <f t="shared" si="0"/>
-        <v>900</v>
+        <v>52.8</v>
       </c>
       <c r="G24" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B25" t="s">
         <v>16</v>
       </c>
       <c r="C25" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="D25" t="s">
         <v>40</v>
       </c>
       <c r="E25">
-        <v>22.2</v>
+        <v>15</v>
       </c>
       <c r="F25">
         <f t="shared" si="0"/>
-        <v>1332</v>
+        <v>900</v>
       </c>
       <c r="G25" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
-        <v>166</v>
+        <v>24</v>
       </c>
       <c r="B26" t="s">
         <v>16</v>
       </c>
       <c r="C26" t="s">
-        <v>93</v>
+        <v>84</v>
       </c>
       <c r="D26" t="s">
-        <v>92</v>
+        <v>40</v>
       </c>
       <c r="E26">
-        <v>6.13</v>
+        <v>22.2</v>
       </c>
       <c r="F26">
-        <f t="shared" ref="F26:F36" si="1">E26*60</f>
-        <v>367.8</v>
+        <f t="shared" si="0"/>
+        <v>1332</v>
       </c>
       <c r="G26" t="s">
-        <v>94</v>
+        <v>85</v>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
+        <v>165</v>
+      </c>
+      <c r="B27" t="s">
+        <v>16</v>
+      </c>
+      <c r="C27" t="s">
+        <v>92</v>
+      </c>
+      <c r="D27" t="s">
+        <v>91</v>
+      </c>
+      <c r="E27">
+        <v>6.13</v>
+      </c>
+      <c r="F27">
+        <f t="shared" ref="F27:F38" si="1">E27*60</f>
+        <v>367.8</v>
+      </c>
+      <c r="G27" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A28" t="s">
+        <v>166</v>
+      </c>
+      <c r="B28" t="s">
+        <v>16</v>
+      </c>
+      <c r="C28" t="s">
         <v>167</v>
       </c>
-      <c r="B27" t="s">
-        <v>16</v>
-      </c>
-      <c r="C27" t="s">
+      <c r="D28" t="s">
         <v>168</v>
       </c>
-      <c r="D27" t="s">
-        <v>169</v>
-      </c>
-      <c r="E27">
+      <c r="E28">
         <v>138.80000000000001</v>
       </c>
-      <c r="F27">
+      <c r="F28">
         <f t="shared" si="1"/>
         <v>8328</v>
       </c>
-      <c r="G27" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A28" t="s">
+      <c r="G28" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A29" t="s">
+        <v>177</v>
+      </c>
+      <c r="B29" t="s">
+        <v>16</v>
+      </c>
+      <c r="C29" t="s">
         <v>178</v>
       </c>
-      <c r="B28" t="s">
-        <v>16</v>
-      </c>
-      <c r="C28" t="s">
-        <v>179</v>
-      </c>
-      <c r="D28" t="s">
-        <v>89</v>
-      </c>
-      <c r="E28">
+      <c r="D29" t="s">
+        <v>88</v>
+      </c>
+      <c r="E29">
         <v>329</v>
       </c>
-      <c r="F28">
+      <c r="F29">
         <f t="shared" si="1"/>
         <v>19740</v>
       </c>
-      <c r="G28" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A29" t="s">
-        <v>182</v>
-      </c>
-      <c r="B29" t="s">
-        <v>16</v>
-      </c>
-      <c r="C29" t="s">
-        <v>171</v>
-      </c>
-      <c r="D29" t="s">
-        <v>42</v>
-      </c>
-      <c r="E29">
-        <v>7.1</v>
-      </c>
-      <c r="F29">
-        <f t="shared" si="1"/>
-        <v>426</v>
-      </c>
-      <c r="G29" s="1" t="s">
-        <v>172</v>
+      <c r="G29" t="s">
+        <v>179</v>
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
-        <v>186</v>
+        <v>181</v>
       </c>
       <c r="B30" t="s">
         <v>16</v>
       </c>
       <c r="C30" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="D30" t="s">
         <v>42</v>
@@ -1728,736 +1814,976 @@
         <v>426</v>
       </c>
       <c r="G30" s="1" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
-        <v>193</v>
+        <v>185</v>
       </c>
       <c r="B31" t="s">
         <v>16</v>
       </c>
       <c r="C31" t="s">
-        <v>201</v>
+        <v>170</v>
       </c>
       <c r="D31" t="s">
-        <v>89</v>
+        <v>42</v>
       </c>
       <c r="E31">
-        <v>9.94</v>
+        <v>7.1</v>
       </c>
       <c r="F31">
         <f t="shared" si="1"/>
-        <v>596.4</v>
+        <v>426</v>
       </c>
       <c r="G31" s="1" t="s">
-        <v>202</v>
+        <v>171</v>
       </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="B32" t="s">
         <v>16</v>
       </c>
       <c r="C32" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="D32" t="s">
-        <v>42</v>
+        <v>88</v>
       </c>
       <c r="E32">
-        <v>1.6</v>
+        <v>9.94</v>
       </c>
       <c r="F32">
         <f t="shared" si="1"/>
-        <v>96</v>
+        <v>596.4</v>
       </c>
       <c r="G32" s="1" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="B33" t="s">
         <v>16</v>
       </c>
       <c r="C33" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="D33" t="s">
-        <v>89</v>
+        <v>42</v>
       </c>
       <c r="E33">
-        <v>1.54</v>
+        <v>1.6</v>
       </c>
       <c r="F33">
         <f t="shared" si="1"/>
-        <v>92.4</v>
+        <v>96</v>
       </c>
       <c r="G33" s="1" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="B34" t="s">
         <v>16</v>
       </c>
       <c r="C34" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="D34" t="s">
-        <v>45</v>
+        <v>88</v>
       </c>
       <c r="E34">
-        <v>45</v>
+        <v>1.54</v>
       </c>
       <c r="F34">
         <f t="shared" si="1"/>
-        <v>2700</v>
+        <v>92.4</v>
       </c>
       <c r="G34" s="1" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="B35" t="s">
         <v>16</v>
       </c>
       <c r="C35" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="D35" t="s">
         <v>45</v>
       </c>
       <c r="E35">
-        <v>25</v>
+        <v>45</v>
       </c>
       <c r="F35">
         <f t="shared" si="1"/>
-        <v>1500</v>
+        <v>2700</v>
       </c>
       <c r="G35" s="1" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="B36" t="s">
         <v>16</v>
       </c>
       <c r="C36" t="s">
-        <v>199</v>
+        <v>208</v>
       </c>
       <c r="D36" t="s">
-        <v>113</v>
+        <v>45</v>
       </c>
       <c r="E36">
-        <v>196.2</v>
+        <v>25</v>
       </c>
       <c r="F36">
         <f t="shared" si="1"/>
-        <v>11772</v>
+        <v>1500</v>
       </c>
       <c r="G36" s="1" t="s">
-        <v>200</v>
+        <v>209</v>
       </c>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A37" t="s">
-        <v>26</v>
+        <v>197</v>
       </c>
       <c r="B37" t="s">
-        <v>38</v>
+        <v>16</v>
       </c>
       <c r="C37" t="s">
-        <v>87</v>
+        <v>198</v>
       </c>
       <c r="D37" t="s">
-        <v>45</v>
+        <v>112</v>
       </c>
       <c r="E37">
-        <v>11</v>
+        <v>196.2</v>
       </c>
       <c r="F37">
-        <f t="shared" si="0"/>
-        <v>660</v>
-      </c>
-      <c r="G37" t="s">
-        <v>88</v>
+        <f t="shared" si="1"/>
+        <v>11772</v>
+      </c>
+      <c r="G37" s="1" t="s">
+        <v>199</v>
       </c>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A38" t="s">
-        <v>27</v>
+        <v>221</v>
       </c>
       <c r="B38" t="s">
-        <v>38</v>
+        <v>16</v>
       </c>
       <c r="C38" t="s">
-        <v>90</v>
+        <v>222</v>
       </c>
       <c r="D38" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="E38">
-        <v>0.127</v>
+        <v>26.1</v>
       </c>
       <c r="F38">
-        <f t="shared" si="0"/>
-        <v>7.62</v>
-      </c>
-      <c r="G38" t="s">
-        <v>91</v>
+        <f t="shared" si="1"/>
+        <v>1566</v>
+      </c>
+      <c r="G38" s="1" t="s">
+        <v>223</v>
       </c>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A39" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B39" t="s">
         <v>38</v>
       </c>
       <c r="C39" t="s">
-        <v>93</v>
+        <v>86</v>
       </c>
       <c r="D39" t="s">
-        <v>92</v>
+        <v>45</v>
       </c>
       <c r="E39">
-        <v>6.13</v>
+        <v>11</v>
       </c>
       <c r="F39">
         <f t="shared" si="0"/>
-        <v>367.8</v>
+        <v>660</v>
       </c>
       <c r="G39" t="s">
-        <v>94</v>
+        <v>87</v>
       </c>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A40" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B40" t="s">
         <v>38</v>
       </c>
       <c r="C40" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="D40" t="s">
-        <v>45</v>
+        <v>88</v>
       </c>
       <c r="E40">
-        <v>31</v>
+        <v>0.127</v>
       </c>
       <c r="F40">
         <f t="shared" si="0"/>
-        <v>1860</v>
+        <v>7.62</v>
       </c>
       <c r="G40" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A41" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B41" t="s">
         <v>38</v>
       </c>
       <c r="C41" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="D41" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="E41">
-        <v>252</v>
+        <v>6.13</v>
       </c>
       <c r="F41">
         <f t="shared" si="0"/>
-        <v>15120</v>
+        <v>367.8</v>
       </c>
       <c r="G41" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A42" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B42" t="s">
         <v>38</v>
       </c>
       <c r="C42" t="s">
-        <v>101</v>
+        <v>94</v>
       </c>
       <c r="D42" t="s">
-        <v>100</v>
+        <v>45</v>
       </c>
       <c r="E42">
-        <v>22.1</v>
+        <v>31</v>
       </c>
       <c r="F42">
         <f t="shared" si="0"/>
-        <v>1326</v>
+        <v>1860</v>
       </c>
       <c r="G42" t="s">
-        <v>102</v>
+        <v>95</v>
       </c>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A43" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B43" t="s">
         <v>38</v>
       </c>
       <c r="C43" t="s">
-        <v>103</v>
+        <v>97</v>
       </c>
       <c r="D43" t="s">
-        <v>40</v>
+        <v>96</v>
       </c>
       <c r="E43">
-        <v>3.9E-2</v>
+        <v>252</v>
       </c>
       <c r="F43">
         <f t="shared" si="0"/>
-        <v>2.34</v>
+        <v>15120</v>
       </c>
       <c r="G43" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A44" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B44" t="s">
         <v>38</v>
       </c>
       <c r="C44" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="D44" t="s">
-        <v>45</v>
+        <v>99</v>
       </c>
       <c r="E44">
-        <v>450</v>
+        <v>22.1</v>
       </c>
       <c r="F44">
         <f t="shared" si="0"/>
-        <v>27000</v>
+        <v>1326</v>
       </c>
       <c r="G44" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A45" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B45" t="s">
         <v>38</v>
       </c>
       <c r="C45" t="s">
-        <v>47</v>
+        <v>102</v>
       </c>
       <c r="D45" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="E45">
-        <v>182</v>
+        <v>3.9E-2</v>
       </c>
       <c r="F45">
         <f t="shared" si="0"/>
-        <v>10920</v>
+        <v>2.34</v>
       </c>
       <c r="G45" t="s">
-        <v>48</v>
+        <v>103</v>
       </c>
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A46" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B46" t="s">
         <v>38</v>
       </c>
       <c r="C46" t="s">
-        <v>41</v>
+        <v>104</v>
       </c>
       <c r="D46" t="s">
-        <v>89</v>
+        <v>45</v>
       </c>
       <c r="E46">
-        <v>345</v>
+        <v>450</v>
       </c>
       <c r="F46">
         <f t="shared" si="0"/>
-        <v>20700</v>
+        <v>27000</v>
       </c>
       <c r="G46" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A47" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B47" t="s">
         <v>38</v>
       </c>
       <c r="C47" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="D47" t="s">
         <v>45</v>
       </c>
       <c r="E47">
-        <v>170</v>
+        <v>182</v>
       </c>
       <c r="F47">
         <f t="shared" si="0"/>
-        <v>10200</v>
+        <v>10920</v>
       </c>
       <c r="G47" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A48" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B48" t="s">
-        <v>16</v>
+        <v>38</v>
       </c>
       <c r="C48" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="D48" t="s">
-        <v>45</v>
+        <v>88</v>
       </c>
       <c r="E48">
-        <v>170</v>
+        <v>345</v>
       </c>
       <c r="F48">
         <f t="shared" si="0"/>
-        <v>10200</v>
+        <v>20700</v>
       </c>
       <c r="G48" t="s">
-        <v>46</v>
+        <v>106</v>
       </c>
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A49" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="B49" t="s">
-        <v>16</v>
+        <v>38</v>
       </c>
       <c r="C49" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="D49" t="s">
         <v>45</v>
       </c>
       <c r="E49">
-        <v>182</v>
+        <v>170</v>
       </c>
       <c r="F49">
         <f t="shared" si="0"/>
-        <v>10920</v>
+        <v>10200</v>
       </c>
       <c r="G49" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A50" t="s">
-        <v>162</v>
+        <v>37</v>
       </c>
       <c r="B50" t="s">
-        <v>38</v>
+        <v>16</v>
       </c>
       <c r="C50" t="s">
-        <v>177</v>
+        <v>43</v>
       </c>
       <c r="D50" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="E50">
-        <v>40</v>
+        <v>170</v>
       </c>
       <c r="F50">
         <f t="shared" si="0"/>
-        <v>2400</v>
+        <v>10200</v>
       </c>
       <c r="G50" t="s">
-        <v>176</v>
+        <v>46</v>
       </c>
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A51" t="s">
-        <v>164</v>
+        <v>44</v>
       </c>
       <c r="B51" t="s">
-        <v>38</v>
+        <v>16</v>
       </c>
       <c r="C51" t="s">
-        <v>174</v>
+        <v>47</v>
       </c>
       <c r="D51" t="s">
-        <v>89</v>
+        <v>45</v>
       </c>
       <c r="E51">
-        <v>0.84</v>
+        <v>182</v>
       </c>
       <c r="F51">
         <f t="shared" si="0"/>
-        <v>50.4</v>
-      </c>
-      <c r="G51" s="3" t="s">
-        <v>175</v>
+        <v>10920</v>
+      </c>
+      <c r="G51" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A52" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="B52" t="s">
         <v>38</v>
       </c>
       <c r="C52" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="D52" t="s">
         <v>42</v>
       </c>
       <c r="E52">
-        <v>0.55000000000000004</v>
+        <v>40</v>
       </c>
       <c r="F52">
         <f t="shared" si="0"/>
-        <v>33</v>
-      </c>
-      <c r="G52" s="4" t="s">
-        <v>172</v>
+        <v>2400</v>
+      </c>
+      <c r="G52" t="s">
+        <v>175</v>
       </c>
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A53" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="B53" t="s">
         <v>38</v>
       </c>
       <c r="C53" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="D53" t="s">
-        <v>42</v>
+        <v>88</v>
       </c>
       <c r="E53">
-        <v>7.1</v>
+        <v>0.84</v>
       </c>
       <c r="F53">
         <f t="shared" si="0"/>
-        <v>426</v>
-      </c>
-      <c r="G53" s="4" t="s">
-        <v>172</v>
+        <v>50.4</v>
+      </c>
+      <c r="G53" s="3" t="s">
+        <v>174</v>
       </c>
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A54" t="s">
-        <v>183</v>
+        <v>162</v>
       </c>
       <c r="B54" t="s">
         <v>38</v>
       </c>
       <c r="C54" t="s">
-        <v>187</v>
+        <v>172</v>
       </c>
       <c r="D54" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="E54">
-        <v>2300</v>
+        <v>0.55000000000000004</v>
       </c>
       <c r="F54">
         <f t="shared" si="0"/>
-        <v>138000</v>
+        <v>33</v>
       </c>
       <c r="G54" s="4" t="s">
-        <v>188</v>
+        <v>171</v>
       </c>
     </row>
     <row r="55" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A55" t="s">
-        <v>184</v>
+        <v>164</v>
       </c>
       <c r="B55" t="s">
         <v>38</v>
       </c>
       <c r="C55" t="s">
-        <v>189</v>
+        <v>170</v>
       </c>
       <c r="D55" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="E55">
-        <v>0.22800000000000001</v>
+        <v>7.1</v>
       </c>
       <c r="F55">
         <f t="shared" si="0"/>
-        <v>13.68</v>
+        <v>426</v>
       </c>
       <c r="G55" s="4" t="s">
-        <v>190</v>
+        <v>171</v>
       </c>
     </row>
     <row r="56" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A56" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="B56" t="s">
         <v>38</v>
       </c>
       <c r="C56" t="s">
-        <v>191</v>
+        <v>186</v>
       </c>
       <c r="D56" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="E56">
-        <v>38.6</v>
+        <v>2300</v>
       </c>
       <c r="F56">
         <f t="shared" si="0"/>
-        <v>2316</v>
+        <v>138000</v>
       </c>
       <c r="G56" s="4" t="s">
-        <v>192</v>
+        <v>187</v>
       </c>
     </row>
     <row r="57" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A57" t="s">
-        <v>157</v>
+        <v>183</v>
       </c>
       <c r="B57" t="s">
         <v>38</v>
       </c>
       <c r="C57" t="s">
-        <v>159</v>
+        <v>188</v>
       </c>
       <c r="D57" t="s">
         <v>45</v>
       </c>
       <c r="E57">
-        <v>7.5</v>
+        <v>0.22800000000000001</v>
       </c>
       <c r="F57">
         <f t="shared" si="0"/>
-        <v>450</v>
-      </c>
-      <c r="G57" t="s">
-        <v>160</v>
+        <v>13.68</v>
+      </c>
+      <c r="G57" s="4" t="s">
+        <v>189</v>
       </c>
     </row>
     <row r="58" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A58" t="s">
-        <v>158</v>
+        <v>184</v>
       </c>
       <c r="B58" t="s">
         <v>38</v>
       </c>
       <c r="C58" t="s">
-        <v>159</v>
+        <v>190</v>
       </c>
       <c r="D58" t="s">
         <v>45</v>
       </c>
       <c r="E58">
-        <v>7.5</v>
+        <v>38.6</v>
       </c>
       <c r="F58">
         <f t="shared" si="0"/>
-        <v>450</v>
-      </c>
-      <c r="G58" t="s">
-        <v>160</v>
+        <v>2316</v>
+      </c>
+      <c r="G58" s="4" t="s">
+        <v>191</v>
       </c>
     </row>
     <row r="59" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A59" t="s">
-        <v>161</v>
+        <v>212</v>
       </c>
       <c r="B59" t="s">
-        <v>16</v>
+        <v>38</v>
       </c>
       <c r="C59" t="s">
-        <v>110</v>
+        <v>213</v>
       </c>
       <c r="D59" t="s">
-        <v>110</v>
-      </c>
-      <c r="E59" t="s">
-        <v>110</v>
+        <v>88</v>
+      </c>
+      <c r="E59">
+        <v>28.3</v>
       </c>
       <c r="F59">
-        <v>100</v>
-      </c>
-      <c r="G59" s="2" t="s">
-        <v>115</v>
+        <f t="shared" si="0"/>
+        <v>1698</v>
+      </c>
+      <c r="G59" s="4" t="s">
+        <v>214</v>
       </c>
     </row>
     <row r="60" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A60" t="s">
-        <v>118</v>
+        <v>215</v>
       </c>
       <c r="B60" t="s">
-        <v>16</v>
+        <v>38</v>
       </c>
       <c r="C60" t="s">
-        <v>110</v>
+        <v>216</v>
       </c>
       <c r="D60" t="s">
-        <v>110</v>
-      </c>
-      <c r="E60" t="s">
-        <v>110</v>
+        <v>45</v>
+      </c>
+      <c r="E60">
+        <v>5.7999999999999996E-3</v>
       </c>
       <c r="F60">
+        <f t="shared" si="0"/>
+        <v>0.34799999999999998</v>
+      </c>
+      <c r="G60" s="4" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A61" t="s">
+        <v>218</v>
+      </c>
+      <c r="B61" t="s">
+        <v>38</v>
+      </c>
+      <c r="C61" t="s">
+        <v>219</v>
+      </c>
+      <c r="D61" t="s">
+        <v>88</v>
+      </c>
+      <c r="E61">
+        <v>0.185</v>
+      </c>
+      <c r="F61">
+        <f t="shared" si="0"/>
+        <v>11.1</v>
+      </c>
+      <c r="G61" s="4" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A62" t="s">
+        <v>224</v>
+      </c>
+      <c r="B62" t="s">
+        <v>38</v>
+      </c>
+      <c r="C62" t="s">
+        <v>225</v>
+      </c>
+      <c r="D62" t="s">
+        <v>88</v>
+      </c>
+      <c r="E62">
+        <v>133</v>
+      </c>
+      <c r="F62">
+        <f t="shared" si="0"/>
+        <v>7980</v>
+      </c>
+      <c r="G62" s="4" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A63" t="s">
+        <v>227</v>
+      </c>
+      <c r="B63" t="s">
+        <v>38</v>
+      </c>
+      <c r="C63" t="s">
+        <v>228</v>
+      </c>
+      <c r="D63" t="s">
+        <v>45</v>
+      </c>
+      <c r="E63">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="F63">
+        <f t="shared" si="0"/>
+        <v>138</v>
+      </c>
+      <c r="G63" s="4" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A64" t="s">
+        <v>231</v>
+      </c>
+      <c r="B64" t="s">
+        <v>38</v>
+      </c>
+      <c r="C64" t="s">
+        <v>230</v>
+      </c>
+      <c r="D64" t="s">
+        <v>45</v>
+      </c>
+      <c r="E64">
+        <v>1334</v>
+      </c>
+      <c r="F64">
+        <f t="shared" si="0"/>
+        <v>80040</v>
+      </c>
+      <c r="G64" s="4" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A65" t="s">
+        <v>233</v>
+      </c>
+      <c r="B65" t="s">
+        <v>38</v>
+      </c>
+      <c r="C65" t="s">
+        <v>234</v>
+      </c>
+      <c r="D65" t="s">
+        <v>45</v>
+      </c>
+      <c r="E65">
+        <v>220</v>
+      </c>
+      <c r="F65">
+        <f t="shared" si="0"/>
+        <v>13200</v>
+      </c>
+      <c r="G65" s="4" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A66" t="s">
+        <v>236</v>
+      </c>
+      <c r="B66" t="s">
+        <v>38</v>
+      </c>
+      <c r="C66" t="s">
+        <v>237</v>
+      </c>
+      <c r="D66" t="s">
+        <v>45</v>
+      </c>
+      <c r="E66">
+        <v>58.2</v>
+      </c>
+      <c r="F66">
+        <f t="shared" si="0"/>
+        <v>3492</v>
+      </c>
+      <c r="G66" s="4" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A67" t="s">
+        <v>156</v>
+      </c>
+      <c r="B67" t="s">
+        <v>38</v>
+      </c>
+      <c r="C67" t="s">
+        <v>158</v>
+      </c>
+      <c r="D67" t="s">
+        <v>45</v>
+      </c>
+      <c r="E67">
+        <v>7.5</v>
+      </c>
+      <c r="F67">
+        <f t="shared" si="0"/>
+        <v>450</v>
+      </c>
+      <c r="G67" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A68" t="s">
+        <v>157</v>
+      </c>
+      <c r="B68" t="s">
+        <v>38</v>
+      </c>
+      <c r="C68" t="s">
+        <v>158</v>
+      </c>
+      <c r="D68" t="s">
+        <v>45</v>
+      </c>
+      <c r="E68">
+        <v>7.5</v>
+      </c>
+      <c r="F68">
+        <f t="shared" si="0"/>
+        <v>450</v>
+      </c>
+      <c r="G68" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A69" t="s">
+        <v>160</v>
+      </c>
+      <c r="B69" t="s">
+        <v>16</v>
+      </c>
+      <c r="C69" t="s">
+        <v>109</v>
+      </c>
+      <c r="D69" t="s">
+        <v>109</v>
+      </c>
+      <c r="E69" t="s">
+        <v>109</v>
+      </c>
+      <c r="F69">
+        <v>100</v>
+      </c>
+      <c r="G69" s="2" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A70" t="s">
+        <v>117</v>
+      </c>
+      <c r="B70" t="s">
+        <v>16</v>
+      </c>
+      <c r="C70" t="s">
+        <v>109</v>
+      </c>
+      <c r="D70" t="s">
+        <v>109</v>
+      </c>
+      <c r="E70" t="s">
+        <v>109</v>
+      </c>
+      <c r="F70">
         <v>50</v>
       </c>
-      <c r="G60" s="2" t="s">
-        <v>115</v>
+      <c r="G70" s="2" t="s">
+        <v>114</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="G19" r:id="rId1" xr:uid="{60D2E9C6-9172-4D4D-B418-CC567356E033}"/>
+    <hyperlink ref="G20" r:id="rId1" xr:uid="{60D2E9C6-9172-4D4D-B418-CC567356E033}"/>
     <hyperlink ref="G2" r:id="rId2" xr:uid="{96642BA6-12F8-4451-8DFA-16265959FEFA}"/>
-    <hyperlink ref="G53" r:id="rId3" xr:uid="{DBD518FF-06AA-4F59-B32D-3D580FD3488C}"/>
-    <hyperlink ref="G52" r:id="rId4" xr:uid="{3C873BD8-C205-4B23-B8F2-C8E28D105704}"/>
-    <hyperlink ref="G29" r:id="rId5" xr:uid="{3CCDC09F-65EC-46AB-A5B6-06698DF90FD6}"/>
-    <hyperlink ref="G30" r:id="rId6" xr:uid="{45B7FFC2-C775-45F6-B5E2-92E39C1EFAC1}"/>
-    <hyperlink ref="G33" r:id="rId7" xr:uid="{C0F23788-2A31-4EA5-B6D6-A12E3C45A7E7}"/>
+    <hyperlink ref="G55" r:id="rId3" xr:uid="{DBD518FF-06AA-4F59-B32D-3D580FD3488C}"/>
+    <hyperlink ref="G54" r:id="rId4" xr:uid="{3C873BD8-C205-4B23-B8F2-C8E28D105704}"/>
+    <hyperlink ref="G30" r:id="rId5" xr:uid="{3CCDC09F-65EC-46AB-A5B6-06698DF90FD6}"/>
+    <hyperlink ref="G31" r:id="rId6" xr:uid="{45B7FFC2-C775-45F6-B5E2-92E39C1EFAC1}"/>
+    <hyperlink ref="G34" r:id="rId7" xr:uid="{C0F23788-2A31-4EA5-B6D6-A12E3C45A7E7}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId8"/>
@@ -2482,10 +2808,10 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C1" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D1" t="s">
         <v>3</v>
@@ -2493,296 +2819,296 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B2">
         <v>30</v>
       </c>
       <c r="C2" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D2" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B3">
         <v>0.29499999999999998</v>
       </c>
       <c r="C3" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D3" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B4">
         <v>0.11600000000000001</v>
       </c>
       <c r="C4" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D4" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B5">
         <v>6.8599999999999994E-2</v>
       </c>
       <c r="C5" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D5" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B6">
         <v>0.23599999999999999</v>
       </c>
       <c r="C6" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D6" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B7">
         <v>0.12</v>
       </c>
       <c r="C7" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D7" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B8">
         <v>0.97799999999999998</v>
       </c>
       <c r="C8" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D8" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B9">
         <v>2.5100000000000001E-2</v>
       </c>
       <c r="C9" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D9" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B10">
         <v>1.6400000000000001E-2</v>
       </c>
       <c r="C10" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D10" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B11">
         <v>0.123</v>
       </c>
       <c r="C11" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D11" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B12">
         <v>4.7199999999999999E-2</v>
       </c>
       <c r="C12" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D12" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B13">
         <v>1.1000000000000001</v>
       </c>
       <c r="C13" t="s">
+        <v>140</v>
+      </c>
+      <c r="D13" t="s">
         <v>141</v>
-      </c>
-      <c r="D13" t="s">
-        <v>142</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B14">
         <v>2.15</v>
       </c>
       <c r="C14" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D14" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B15">
         <v>1.2699999999999999E-2</v>
       </c>
       <c r="C15" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D15" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B16">
         <v>0.109</v>
       </c>
       <c r="C16" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D16" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B17">
         <v>2.6440000000000001</v>
       </c>
       <c r="C17" t="s">
+        <v>147</v>
+      </c>
+      <c r="D17" t="s">
         <v>148</v>
-      </c>
-      <c r="D17" t="s">
-        <v>149</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B18">
         <v>0.02</v>
       </c>
       <c r="C18" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D18" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B19">
         <v>1.4200000000000001E-2</v>
       </c>
       <c r="C19" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D19" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B20">
         <v>0.12</v>
       </c>
       <c r="C20" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D20" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B21">
         <v>2.1399999999999999E-2</v>
       </c>
       <c r="C21" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D21" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B22">
         <v>0.43</v>
       </c>
       <c r="C22" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D22" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
   </sheetData>

--- a/data/gems/Parameters.xlsx
+++ b/data/gems/Parameters.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bras5181\Desktop\Labprojects\CulturedMeat\iSusS\data\gems\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B6FC9678-F22F-4F47-B521-0C4D2BCC8DB1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A0EB5D1-5CB6-40C1-9BC7-B35D05F9BB33}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="424" uniqueCount="240">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="877" uniqueCount="467">
   <si>
     <t>Rxn</t>
   </si>
@@ -757,6 +757,687 @@
   </si>
   <si>
     <t>EX_urea_e</t>
+  </si>
+  <si>
+    <t>ACITL</t>
+  </si>
+  <si>
+    <t>PCLAD</t>
+  </si>
+  <si>
+    <t>LTDCL</t>
+  </si>
+  <si>
+    <t>MAOX</t>
+  </si>
+  <si>
+    <t>PROD2</t>
+  </si>
+  <si>
+    <t>MHISOR</t>
+  </si>
+  <si>
+    <t>3SALATAi</t>
+  </si>
+  <si>
+    <t>KYN</t>
+  </si>
+  <si>
+    <t>ADMDC</t>
+  </si>
+  <si>
+    <t>HGNTOR</t>
+  </si>
+  <si>
+    <t>CYSTS</t>
+  </si>
+  <si>
+    <t>41R2A1H12BOOX</t>
+  </si>
+  <si>
+    <t>METS</t>
+  </si>
+  <si>
+    <t>TYRDOPO3</t>
+  </si>
+  <si>
+    <t>MACACI</t>
+  </si>
+  <si>
+    <t>BBHOX</t>
+  </si>
+  <si>
+    <t>NRPPHRSULT</t>
+  </si>
+  <si>
+    <t>MAOLNOR</t>
+  </si>
+  <si>
+    <t>AACTOOR</t>
+  </si>
+  <si>
+    <t>IDHPOXOX3</t>
+  </si>
+  <si>
+    <t>TRYPTAOX</t>
+  </si>
+  <si>
+    <t>PRO1x</t>
+  </si>
+  <si>
+    <t>3HLYTCL</t>
+  </si>
+  <si>
+    <t>NORANMT</t>
+  </si>
+  <si>
+    <t>H2O2syn</t>
+  </si>
+  <si>
+    <t>MMCD</t>
+  </si>
+  <si>
+    <t>TMLYSOX</t>
+  </si>
+  <si>
+    <t>BETALDHx</t>
+  </si>
+  <si>
+    <t>34HPPOR</t>
+  </si>
+  <si>
+    <t>SERHL</t>
+  </si>
+  <si>
+    <t>SRTNACT</t>
+  </si>
+  <si>
+    <t>SALMCOM2</t>
+  </si>
+  <si>
+    <t>THRD_L</t>
+  </si>
+  <si>
+    <t>HISTASE</t>
+  </si>
+  <si>
+    <t>ALDD19x_P</t>
+  </si>
+  <si>
+    <t>CACNAO2</t>
+  </si>
+  <si>
+    <t>ALDD20x</t>
+  </si>
+  <si>
+    <t>3MOX4HOXPGALDOX</t>
+  </si>
+  <si>
+    <t>PGCD</t>
+  </si>
+  <si>
+    <t>5HLTDL</t>
+  </si>
+  <si>
+    <t>EHGLAT</t>
+  </si>
+  <si>
+    <t>34DHXMANDACOX</t>
+  </si>
+  <si>
+    <t>DOPAMT</t>
+  </si>
+  <si>
+    <t>SRTNMTX</t>
+  </si>
+  <si>
+    <t>PEAMNO</t>
+  </si>
+  <si>
+    <t>TRPO2</t>
+  </si>
+  <si>
+    <t>TMABADH</t>
+  </si>
+  <si>
+    <t>5HTRPDOX</t>
+  </si>
+  <si>
+    <t>SALMCOM</t>
+  </si>
+  <si>
+    <t>MELATN23DOX</t>
+  </si>
+  <si>
+    <t>TRPOX</t>
+  </si>
+  <si>
+    <t>METOX</t>
+  </si>
+  <si>
+    <t>PHEOX</t>
+  </si>
+  <si>
+    <t>HOLYSK</t>
+  </si>
+  <si>
+    <t>FTHFDH</t>
+  </si>
+  <si>
+    <t>2AMACHYD</t>
+  </si>
+  <si>
+    <t>DHPR</t>
+  </si>
+  <si>
+    <t>CHOLK</t>
+  </si>
+  <si>
+    <t>MI3PP</t>
+  </si>
+  <si>
+    <t>FKYNH</t>
+  </si>
+  <si>
+    <t>MAN1PT2</t>
+  </si>
+  <si>
+    <t>GF6PTA</t>
+  </si>
+  <si>
+    <t>ACGAM6PS</t>
+  </si>
+  <si>
+    <t>UAGDP</t>
+  </si>
+  <si>
+    <t>UAG2EMA</t>
+  </si>
+  <si>
+    <t>AMANK</t>
+  </si>
+  <si>
+    <t>ACNAM9PL</t>
+  </si>
+  <si>
+    <t>ACNAMPH</t>
+  </si>
+  <si>
+    <t>ACNMCT</t>
+  </si>
+  <si>
+    <t>GMAND</t>
+  </si>
+  <si>
+    <t>MAN1PT</t>
+  </si>
+  <si>
+    <t>THRA</t>
+  </si>
+  <si>
+    <t>ASPO1</t>
+  </si>
+  <si>
+    <t>5HXKYNOXDA</t>
+  </si>
+  <si>
+    <t>MELATNOX</t>
+  </si>
+  <si>
+    <t>TYMSULT</t>
+  </si>
+  <si>
+    <t>MCPST</t>
+  </si>
+  <si>
+    <t>ACSRTNMT</t>
+  </si>
+  <si>
+    <t>IDHPOXOX4</t>
+  </si>
+  <si>
+    <t>TRPHYDRO2</t>
+  </si>
+  <si>
+    <t>41R1H2MAE12BOOX</t>
+  </si>
+  <si>
+    <t>NOS2</t>
+  </si>
+  <si>
+    <t>GHMT3</t>
+  </si>
+  <si>
+    <t>IMACTD</t>
+  </si>
+  <si>
+    <t>IDHPOXOXb</t>
+  </si>
+  <si>
+    <t>PSERT</t>
+  </si>
+  <si>
+    <t>BHMT</t>
+  </si>
+  <si>
+    <t>KYNAKGAT</t>
+  </si>
+  <si>
+    <t>MACOXO</t>
+  </si>
+  <si>
+    <t>FUMAC</t>
+  </si>
+  <si>
+    <t>HISDC</t>
+  </si>
+  <si>
+    <t>5HOXINDACTO2OX</t>
+  </si>
+  <si>
+    <t>3MOXTYROX</t>
+  </si>
+  <si>
+    <t>TYRDOPO</t>
+  </si>
+  <si>
+    <t>ALDD19xr</t>
+  </si>
+  <si>
+    <t>HKYNH</t>
+  </si>
+  <si>
+    <t>5HXKYNDCL</t>
+  </si>
+  <si>
+    <t>DOPABMO</t>
+  </si>
+  <si>
+    <t>KYN3OX</t>
+  </si>
+  <si>
+    <t>TRDR</t>
+  </si>
+  <si>
+    <t>CTPS1</t>
+  </si>
+  <si>
+    <t>CTPS2</t>
+  </si>
+  <si>
+    <t>RNDR1</t>
+  </si>
+  <si>
+    <t>RNDR2</t>
+  </si>
+  <si>
+    <t>RNDR3</t>
+  </si>
+  <si>
+    <t>RNDR4</t>
+  </si>
+  <si>
+    <t>TMDS</t>
+  </si>
+  <si>
+    <t>NADK</t>
+  </si>
+  <si>
+    <t>NNDPR</t>
+  </si>
+  <si>
+    <t>NADS2</t>
+  </si>
+  <si>
+    <t>HXPRT</t>
+  </si>
+  <si>
+    <t>PPA</t>
+  </si>
+  <si>
+    <t>DHORD_NAD</t>
+  </si>
+  <si>
+    <t>THRD</t>
+  </si>
+  <si>
+    <t>GTHOr</t>
+  </si>
+  <si>
+    <t>AMCOXO</t>
+  </si>
+  <si>
+    <t>3HAO</t>
+  </si>
+  <si>
+    <t>PSP_L</t>
+  </si>
+  <si>
+    <t>42A12BOOX</t>
+  </si>
+  <si>
+    <t>TYRCBOX</t>
+  </si>
+  <si>
+    <t>OMPDC</t>
+  </si>
+  <si>
+    <t>TRIODTHYSULT</t>
+  </si>
+  <si>
+    <t>CBPS</t>
+  </si>
+  <si>
+    <t>IMPD</t>
+  </si>
+  <si>
+    <t>ICDHyr</t>
+  </si>
+  <si>
+    <t>FBP</t>
+  </si>
+  <si>
+    <t>ALDD2y</t>
+  </si>
+  <si>
+    <t>ACS</t>
+  </si>
+  <si>
+    <t>ALCD2y</t>
+  </si>
+  <si>
+    <t>ACYP</t>
+  </si>
+  <si>
+    <t>ETOHMO</t>
+  </si>
+  <si>
+    <t>ALDD2x</t>
+  </si>
+  <si>
+    <t>ALCD2x</t>
+  </si>
+  <si>
+    <t>PEPCK_re</t>
+  </si>
+  <si>
+    <t>DPGase</t>
+  </si>
+  <si>
+    <t>RBK</t>
+  </si>
+  <si>
+    <t>DRBK</t>
+  </si>
+  <si>
+    <t>ARGSS</t>
+  </si>
+  <si>
+    <t>GLUPRT</t>
+  </si>
+  <si>
+    <t>PRFGS</t>
+  </si>
+  <si>
+    <t>PRAIS</t>
+  </si>
+  <si>
+    <t>ADSL2r</t>
+  </si>
+  <si>
+    <t>ADSS</t>
+  </si>
+  <si>
+    <t>ADSL1r</t>
+  </si>
+  <si>
+    <t>GMPS2</t>
+  </si>
+  <si>
+    <t>GLUDC</t>
+  </si>
+  <si>
+    <t>CACNAO</t>
+  </si>
+  <si>
+    <t>SULFOX</t>
+  </si>
+  <si>
+    <t>LFORKYNHYD</t>
+  </si>
+  <si>
+    <t>IDHPOXOX2b</t>
+  </si>
+  <si>
+    <t>34DHALDD</t>
+  </si>
+  <si>
+    <t>CYSTGL</t>
+  </si>
+  <si>
+    <t>5HOXINDACTOX</t>
+  </si>
+  <si>
+    <t>3HXKYNDCL</t>
+  </si>
+  <si>
+    <t>GNMT</t>
+  </si>
+  <si>
+    <t>THYPX</t>
+  </si>
+  <si>
+    <t>METAT</t>
+  </si>
+  <si>
+    <t>ALR</t>
+  </si>
+  <si>
+    <t>PHETHPTOX2</t>
+  </si>
+  <si>
+    <t>SAMHISTA</t>
+  </si>
+  <si>
+    <t>PPOR</t>
+  </si>
+  <si>
+    <t>PTRCOX1</t>
+  </si>
+  <si>
+    <t>5HOXINOXDA</t>
+  </si>
+  <si>
+    <t>PHYCBOXL</t>
+  </si>
+  <si>
+    <t>3HXKYNOXDA</t>
+  </si>
+  <si>
+    <t>GLNS</t>
+  </si>
+  <si>
+    <t>SRTN23OX</t>
+  </si>
+  <si>
+    <t>TYR3MO2</t>
+  </si>
+  <si>
+    <t>ACSOMT</t>
+  </si>
+  <si>
+    <t>NOS1</t>
+  </si>
+  <si>
+    <t>THRS</t>
+  </si>
+  <si>
+    <t>TYROXDAc</t>
+  </si>
+  <si>
+    <t>ASNS1</t>
+  </si>
+  <si>
+    <t>DOPASULT</t>
+  </si>
+  <si>
+    <t>PHACCOAGLYACm</t>
+  </si>
+  <si>
+    <t>KYNAKGATm</t>
+  </si>
+  <si>
+    <t>3HBCOAHLm</t>
+  </si>
+  <si>
+    <t>OCBTm</t>
+  </si>
+  <si>
+    <t>PEPCKm</t>
+  </si>
+  <si>
+    <t>Htm</t>
+  </si>
+  <si>
+    <t>HMGLm</t>
+  </si>
+  <si>
+    <t>PSFLIPm</t>
+  </si>
+  <si>
+    <t>PSDm</t>
+  </si>
+  <si>
+    <t>G3PD2m</t>
+  </si>
+  <si>
+    <t>BETALDHxm</t>
+  </si>
+  <si>
+    <t>SARDHm</t>
+  </si>
+  <si>
+    <t>ACOAD10m</t>
+  </si>
+  <si>
+    <t>3SALATAim</t>
+  </si>
+  <si>
+    <t>ALDD2xm</t>
+  </si>
+  <si>
+    <t>ACSm</t>
+  </si>
+  <si>
+    <t>ATPtm</t>
+  </si>
+  <si>
+    <t>CBPSam</t>
+  </si>
+  <si>
+    <t>AGMTm</t>
+  </si>
+  <si>
+    <t>3HKYNAKGATm</t>
+  </si>
+  <si>
+    <t>OIVD2m</t>
+  </si>
+  <si>
+    <t>P5CRxm</t>
+  </si>
+  <si>
+    <t>DMGDHm</t>
+  </si>
+  <si>
+    <t>ARGDCm</t>
+  </si>
+  <si>
+    <t>ASNNm</t>
+  </si>
+  <si>
+    <t>EHGLATm</t>
+  </si>
+  <si>
+    <t>GCCbim</t>
+  </si>
+  <si>
+    <t>MMCDm</t>
+  </si>
+  <si>
+    <t>MMSAD1m</t>
+  </si>
+  <si>
+    <t>OIVD3m</t>
+  </si>
+  <si>
+    <t>IMACTD_m</t>
+  </si>
+  <si>
+    <t>PPCOACm</t>
+  </si>
+  <si>
+    <t>GHMT3m</t>
+  </si>
+  <si>
+    <t>EHGLAT2m</t>
+  </si>
+  <si>
+    <t>GCC2bim</t>
+  </si>
+  <si>
+    <t>OIVD1m</t>
+  </si>
+  <si>
+    <t>5HOXINDACTOXm</t>
+  </si>
+  <si>
+    <t>ACOAD8m</t>
+  </si>
+  <si>
+    <t>ALDD20xm</t>
+  </si>
+  <si>
+    <t>SSALxm</t>
+  </si>
+  <si>
+    <t>AGTim</t>
+  </si>
+  <si>
+    <t>NABTNOm</t>
+  </si>
+  <si>
+    <t>PHCDm</t>
+  </si>
+  <si>
+    <t>CYANSTm</t>
+  </si>
+  <si>
+    <t>P5CRm</t>
+  </si>
+  <si>
+    <t>PROD2m</t>
+  </si>
+  <si>
+    <t>ACOAD9m</t>
+  </si>
+  <si>
+    <t>CHOLD2m</t>
+  </si>
+  <si>
+    <t>ALASm</t>
+  </si>
+  <si>
+    <t>HPROxm</t>
+  </si>
+  <si>
+    <t>GTHOm</t>
+  </si>
+  <si>
+    <t>1.8.1.7</t>
+  </si>
+  <si>
+    <t>DOI: 10.1016/0003-2697(79)90150-7</t>
   </si>
 </sst>
 </file>
@@ -1094,10 +1775,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G70"/>
+  <dimension ref="A1:G295"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L8" sqref="L8"/>
+      <selection activeCell="M288" sqref="M288"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1282,7 +1963,7 @@
         <v>620</v>
       </c>
       <c r="F8">
-        <f t="shared" ref="F8:F68" si="0">E8*60</f>
+        <f t="shared" ref="F8:F293" si="0">E8*60</f>
         <v>37200</v>
       </c>
       <c r="G8" t="s">
@@ -2011,767 +2692,2583 @@
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A39" t="s">
+        <v>240</v>
+      </c>
+      <c r="B39" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A40" t="s">
+        <v>241</v>
+      </c>
+      <c r="B40" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A41" t="s">
+        <v>242</v>
+      </c>
+      <c r="B41" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A42" t="s">
+        <v>243</v>
+      </c>
+      <c r="B42" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A43" t="s">
+        <v>244</v>
+      </c>
+      <c r="B43" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A44" t="s">
+        <v>245</v>
+      </c>
+      <c r="B44" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A45" t="s">
+        <v>246</v>
+      </c>
+      <c r="B45" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A46" t="s">
+        <v>247</v>
+      </c>
+      <c r="B46" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A47" t="s">
+        <v>248</v>
+      </c>
+      <c r="B47" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A48" t="s">
+        <v>249</v>
+      </c>
+      <c r="B48" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A49" t="s">
+        <v>250</v>
+      </c>
+      <c r="B49" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A50" t="s">
+        <v>251</v>
+      </c>
+      <c r="B50" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A51" t="s">
+        <v>252</v>
+      </c>
+      <c r="B51" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A52" t="s">
+        <v>253</v>
+      </c>
+      <c r="B52" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A53" t="s">
+        <v>254</v>
+      </c>
+      <c r="B53" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A54" t="s">
+        <v>255</v>
+      </c>
+      <c r="B54" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A55" t="s">
+        <v>256</v>
+      </c>
+      <c r="B55" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A56" t="s">
+        <v>257</v>
+      </c>
+      <c r="B56" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A57" t="s">
+        <v>258</v>
+      </c>
+      <c r="B57" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A58" t="s">
+        <v>259</v>
+      </c>
+      <c r="B58" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A59" t="s">
+        <v>260</v>
+      </c>
+      <c r="B59" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A60" t="s">
+        <v>261</v>
+      </c>
+      <c r="B60" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A61" t="s">
+        <v>262</v>
+      </c>
+      <c r="B61" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A62" t="s">
+        <v>263</v>
+      </c>
+      <c r="B62" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A63" t="s">
+        <v>264</v>
+      </c>
+      <c r="B63" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A64" t="s">
+        <v>265</v>
+      </c>
+      <c r="B64" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A65" t="s">
+        <v>266</v>
+      </c>
+      <c r="B65" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A66" t="s">
+        <v>267</v>
+      </c>
+      <c r="B66" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A67" t="s">
+        <v>268</v>
+      </c>
+      <c r="B67" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A68" t="s">
+        <v>269</v>
+      </c>
+      <c r="B68" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A69" t="s">
+        <v>270</v>
+      </c>
+      <c r="B69" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A70" t="s">
+        <v>271</v>
+      </c>
+      <c r="B70" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A71" t="s">
+        <v>272</v>
+      </c>
+      <c r="B71" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A72" t="s">
+        <v>273</v>
+      </c>
+      <c r="B72" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A73" t="s">
+        <v>274</v>
+      </c>
+      <c r="B73" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A74" t="s">
+        <v>275</v>
+      </c>
+      <c r="B74" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A75" t="s">
+        <v>276</v>
+      </c>
+      <c r="B75" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A76" t="s">
+        <v>277</v>
+      </c>
+      <c r="B76" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A77" t="s">
+        <v>278</v>
+      </c>
+      <c r="B77" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="78" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A78" t="s">
+        <v>279</v>
+      </c>
+      <c r="B78" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="79" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A79" t="s">
+        <v>280</v>
+      </c>
+      <c r="B79" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="80" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A80" t="s">
+        <v>281</v>
+      </c>
+      <c r="B80" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="81" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A81" t="s">
+        <v>282</v>
+      </c>
+      <c r="B81" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="82" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A82" t="s">
+        <v>283</v>
+      </c>
+      <c r="B82" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="83" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A83" t="s">
+        <v>284</v>
+      </c>
+      <c r="B83" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="84" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A84" t="s">
+        <v>285</v>
+      </c>
+      <c r="B84" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="85" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A85" t="s">
+        <v>286</v>
+      </c>
+      <c r="B85" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="86" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A86" t="s">
+        <v>287</v>
+      </c>
+      <c r="B86" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="87" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A87" t="s">
+        <v>288</v>
+      </c>
+      <c r="B87" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="88" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A88" t="s">
+        <v>289</v>
+      </c>
+      <c r="B88" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="89" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A89" t="s">
+        <v>290</v>
+      </c>
+      <c r="B89" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="90" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A90" t="s">
+        <v>291</v>
+      </c>
+      <c r="B90" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="91" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A91" t="s">
+        <v>292</v>
+      </c>
+      <c r="B91" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="92" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A92" t="s">
+        <v>293</v>
+      </c>
+      <c r="B92" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="93" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A93" t="s">
+        <v>294</v>
+      </c>
+      <c r="B93" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="94" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A94" t="s">
+        <v>295</v>
+      </c>
+      <c r="B94" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="95" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A95" t="s">
+        <v>296</v>
+      </c>
+      <c r="B95" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="96" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A96" t="s">
+        <v>297</v>
+      </c>
+      <c r="B96" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="97" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A97" t="s">
+        <v>298</v>
+      </c>
+      <c r="B97" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="98" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A98" t="s">
+        <v>299</v>
+      </c>
+      <c r="B98" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="99" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A99" t="s">
+        <v>300</v>
+      </c>
+      <c r="B99" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="100" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A100" t="s">
+        <v>301</v>
+      </c>
+      <c r="B100" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="101" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A101" t="s">
+        <v>302</v>
+      </c>
+      <c r="B101" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="102" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A102" t="s">
+        <v>303</v>
+      </c>
+      <c r="B102" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="103" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A103" t="s">
+        <v>304</v>
+      </c>
+      <c r="B103" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="104" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A104" t="s">
+        <v>305</v>
+      </c>
+      <c r="B104" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="105" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A105" t="s">
+        <v>306</v>
+      </c>
+      <c r="B105" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="106" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A106" t="s">
+        <v>307</v>
+      </c>
+      <c r="B106" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="107" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A107" t="s">
+        <v>308</v>
+      </c>
+      <c r="B107" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="108" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A108" t="s">
+        <v>309</v>
+      </c>
+      <c r="B108" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="109" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A109" t="s">
+        <v>310</v>
+      </c>
+      <c r="B109" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="110" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A110" t="s">
+        <v>311</v>
+      </c>
+      <c r="B110" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="111" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A111" t="s">
+        <v>312</v>
+      </c>
+      <c r="B111" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="112" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A112" t="s">
+        <v>313</v>
+      </c>
+      <c r="B112" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="113" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A113" t="s">
+        <v>314</v>
+      </c>
+      <c r="B113" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="114" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A114" t="s">
+        <v>315</v>
+      </c>
+      <c r="B114" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="115" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A115" t="s">
+        <v>316</v>
+      </c>
+      <c r="B115" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="116" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A116" t="s">
+        <v>317</v>
+      </c>
+      <c r="B116" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="117" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A117" t="s">
+        <v>318</v>
+      </c>
+      <c r="B117" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="118" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A118" t="s">
+        <v>319</v>
+      </c>
+      <c r="B118" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="119" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A119" t="s">
+        <v>320</v>
+      </c>
+      <c r="B119" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="120" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A120" t="s">
+        <v>321</v>
+      </c>
+      <c r="B120" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="121" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A121" t="s">
+        <v>322</v>
+      </c>
+      <c r="B121" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="122" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A122" t="s">
+        <v>323</v>
+      </c>
+      <c r="B122" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="123" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A123" t="s">
+        <v>324</v>
+      </c>
+      <c r="B123" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="124" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A124" t="s">
+        <v>325</v>
+      </c>
+      <c r="B124" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="125" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A125" t="s">
+        <v>326</v>
+      </c>
+      <c r="B125" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="126" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A126" t="s">
+        <v>327</v>
+      </c>
+      <c r="B126" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="127" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A127" t="s">
+        <v>328</v>
+      </c>
+      <c r="B127" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="128" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A128" t="s">
+        <v>329</v>
+      </c>
+      <c r="B128" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="129" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A129" t="s">
+        <v>330</v>
+      </c>
+      <c r="B129" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="130" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A130" t="s">
+        <v>331</v>
+      </c>
+      <c r="B130" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="131" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A131" t="s">
+        <v>332</v>
+      </c>
+      <c r="B131" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="132" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A132" t="s">
+        <v>333</v>
+      </c>
+      <c r="B132" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="133" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A133" t="s">
+        <v>334</v>
+      </c>
+      <c r="B133" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="134" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A134" t="s">
+        <v>335</v>
+      </c>
+      <c r="B134" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="135" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A135" t="s">
+        <v>336</v>
+      </c>
+      <c r="B135" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="136" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A136" t="s">
+        <v>337</v>
+      </c>
+      <c r="B136" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="137" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A137" t="s">
+        <v>338</v>
+      </c>
+      <c r="B137" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="138" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A138" t="s">
+        <v>339</v>
+      </c>
+      <c r="B138" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="139" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A139" t="s">
+        <v>340</v>
+      </c>
+      <c r="B139" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="140" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A140" t="s">
+        <v>341</v>
+      </c>
+      <c r="B140" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="141" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A141" t="s">
+        <v>342</v>
+      </c>
+      <c r="B141" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="142" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A142" t="s">
+        <v>343</v>
+      </c>
+      <c r="B142" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="143" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A143" t="s">
+        <v>344</v>
+      </c>
+      <c r="B143" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="144" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A144" t="s">
+        <v>345</v>
+      </c>
+      <c r="B144" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="145" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A145" t="s">
+        <v>346</v>
+      </c>
+      <c r="B145" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="146" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A146" t="s">
+        <v>347</v>
+      </c>
+      <c r="B146" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="147" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A147" t="s">
+        <v>348</v>
+      </c>
+      <c r="B147" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="148" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A148" t="s">
+        <v>349</v>
+      </c>
+      <c r="B148" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="149" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A149" t="s">
+        <v>350</v>
+      </c>
+      <c r="B149" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="150" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A150" t="s">
+        <v>351</v>
+      </c>
+      <c r="B150" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="151" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A151" t="s">
+        <v>352</v>
+      </c>
+      <c r="B151" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="152" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A152" t="s">
+        <v>353</v>
+      </c>
+      <c r="B152" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="153" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A153" t="s">
+        <v>354</v>
+      </c>
+      <c r="B153" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="154" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A154" t="s">
+        <v>355</v>
+      </c>
+      <c r="B154" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="155" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A155" t="s">
+        <v>356</v>
+      </c>
+      <c r="B155" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="156" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A156" t="s">
+        <v>357</v>
+      </c>
+      <c r="B156" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="157" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A157" t="s">
+        <v>358</v>
+      </c>
+      <c r="B157" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="158" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A158" t="s">
+        <v>359</v>
+      </c>
+      <c r="B158" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="159" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A159" t="s">
+        <v>360</v>
+      </c>
+      <c r="B159" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="160" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A160" t="s">
+        <v>361</v>
+      </c>
+      <c r="B160" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="161" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A161" t="s">
+        <v>362</v>
+      </c>
+      <c r="B161" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="162" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A162" t="s">
+        <v>363</v>
+      </c>
+      <c r="B162" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="163" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A163" t="s">
+        <v>364</v>
+      </c>
+      <c r="B163" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="164" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A164" t="s">
+        <v>365</v>
+      </c>
+      <c r="B164" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="165" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A165" t="s">
+        <v>366</v>
+      </c>
+      <c r="B165" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="166" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A166" t="s">
+        <v>367</v>
+      </c>
+      <c r="B166" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="167" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A167" t="s">
+        <v>368</v>
+      </c>
+      <c r="B167" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="168" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A168" t="s">
+        <v>369</v>
+      </c>
+      <c r="B168" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="169" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A169" t="s">
+        <v>370</v>
+      </c>
+      <c r="B169" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="170" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A170" t="s">
+        <v>371</v>
+      </c>
+      <c r="B170" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="171" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A171" t="s">
+        <v>372</v>
+      </c>
+      <c r="B171" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="172" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A172" t="s">
+        <v>373</v>
+      </c>
+      <c r="B172" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="173" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A173" t="s">
+        <v>374</v>
+      </c>
+      <c r="B173" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="174" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A174" t="s">
+        <v>375</v>
+      </c>
+      <c r="B174" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="175" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A175" t="s">
+        <v>376</v>
+      </c>
+      <c r="B175" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="176" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A176" t="s">
+        <v>377</v>
+      </c>
+      <c r="B176" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="177" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A177" t="s">
+        <v>378</v>
+      </c>
+      <c r="B177" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="178" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A178" t="s">
+        <v>379</v>
+      </c>
+      <c r="B178" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="179" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A179" t="s">
+        <v>380</v>
+      </c>
+      <c r="B179" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="180" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A180" t="s">
+        <v>381</v>
+      </c>
+      <c r="B180" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="181" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A181" t="s">
+        <v>382</v>
+      </c>
+      <c r="B181" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="182" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A182" t="s">
+        <v>383</v>
+      </c>
+      <c r="B182" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="183" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A183" t="s">
+        <v>384</v>
+      </c>
+      <c r="B183" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="184" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A184" t="s">
+        <v>385</v>
+      </c>
+      <c r="B184" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="185" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A185" t="s">
+        <v>386</v>
+      </c>
+      <c r="B185" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="186" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A186" t="s">
+        <v>387</v>
+      </c>
+      <c r="B186" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="187" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A187" t="s">
+        <v>388</v>
+      </c>
+      <c r="B187" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="188" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A188" t="s">
+        <v>389</v>
+      </c>
+      <c r="B188" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="189" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A189" t="s">
+        <v>390</v>
+      </c>
+      <c r="B189" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="190" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A190" t="s">
+        <v>391</v>
+      </c>
+      <c r="B190" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="191" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A191" t="s">
+        <v>392</v>
+      </c>
+      <c r="B191" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="192" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A192" t="s">
+        <v>393</v>
+      </c>
+      <c r="B192" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="193" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A193" t="s">
+        <v>394</v>
+      </c>
+      <c r="B193" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="194" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A194" t="s">
+        <v>395</v>
+      </c>
+      <c r="B194" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="195" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A195" t="s">
+        <v>396</v>
+      </c>
+      <c r="B195" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="196" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A196" t="s">
+        <v>397</v>
+      </c>
+      <c r="B196" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="197" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A197" t="s">
+        <v>398</v>
+      </c>
+      <c r="B197" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="198" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A198" t="s">
+        <v>399</v>
+      </c>
+      <c r="B198" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="199" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A199" t="s">
+        <v>400</v>
+      </c>
+      <c r="B199" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="200" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A200" t="s">
+        <v>401</v>
+      </c>
+      <c r="B200" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="201" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A201" t="s">
+        <v>402</v>
+      </c>
+      <c r="B201" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="202" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A202" t="s">
+        <v>403</v>
+      </c>
+      <c r="B202" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="203" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A203" t="s">
+        <v>404</v>
+      </c>
+      <c r="B203" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="204" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A204" t="s">
+        <v>405</v>
+      </c>
+      <c r="B204" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="205" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A205" t="s">
+        <v>406</v>
+      </c>
+      <c r="B205" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="206" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A206" t="s">
+        <v>407</v>
+      </c>
+      <c r="B206" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="207" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A207" t="s">
+        <v>408</v>
+      </c>
+      <c r="B207" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="208" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A208" t="s">
+        <v>409</v>
+      </c>
+      <c r="B208" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="209" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A209" t="s">
+        <v>410</v>
+      </c>
+      <c r="B209" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="210" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A210" t="s">
+        <v>411</v>
+      </c>
+      <c r="B210" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="211" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A211" t="s">
+        <v>412</v>
+      </c>
+      <c r="B211" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="212" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A212" t="s">
+        <v>413</v>
+      </c>
+      <c r="B212" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="213" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A213" t="s">
         <v>26</v>
       </c>
-      <c r="B39" t="s">
-        <v>38</v>
-      </c>
-      <c r="C39" t="s">
+      <c r="B213" t="s">
+        <v>38</v>
+      </c>
+      <c r="C213" t="s">
         <v>86</v>
       </c>
-      <c r="D39" t="s">
+      <c r="D213" t="s">
         <v>45</v>
       </c>
-      <c r="E39">
+      <c r="E213">
         <v>11</v>
       </c>
-      <c r="F39">
+      <c r="F213">
         <f t="shared" si="0"/>
         <v>660</v>
       </c>
-      <c r="G39" t="s">
+      <c r="G213" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A40" t="s">
+    <row r="214" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A214" t="s">
         <v>27</v>
       </c>
-      <c r="B40" t="s">
-        <v>38</v>
-      </c>
-      <c r="C40" t="s">
+      <c r="B214" t="s">
+        <v>38</v>
+      </c>
+      <c r="C214" t="s">
         <v>89</v>
       </c>
-      <c r="D40" t="s">
+      <c r="D214" t="s">
         <v>88</v>
       </c>
-      <c r="E40">
+      <c r="E214">
         <v>0.127</v>
       </c>
-      <c r="F40">
+      <c r="F214">
         <f t="shared" si="0"/>
         <v>7.62</v>
       </c>
-      <c r="G40" t="s">
+      <c r="G214" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A41" t="s">
+    <row r="215" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A215" t="s">
         <v>28</v>
       </c>
-      <c r="B41" t="s">
-        <v>38</v>
-      </c>
-      <c r="C41" t="s">
+      <c r="B215" t="s">
+        <v>38</v>
+      </c>
+      <c r="C215" t="s">
         <v>92</v>
       </c>
-      <c r="D41" t="s">
+      <c r="D215" t="s">
         <v>91</v>
       </c>
-      <c r="E41">
+      <c r="E215">
         <v>6.13</v>
       </c>
-      <c r="F41">
+      <c r="F215">
         <f t="shared" si="0"/>
         <v>367.8</v>
       </c>
-      <c r="G41" t="s">
+      <c r="G215" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A42" t="s">
+    <row r="216" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A216" t="s">
         <v>29</v>
       </c>
-      <c r="B42" t="s">
-        <v>38</v>
-      </c>
-      <c r="C42" t="s">
+      <c r="B216" t="s">
+        <v>38</v>
+      </c>
+      <c r="C216" t="s">
         <v>94</v>
       </c>
-      <c r="D42" t="s">
+      <c r="D216" t="s">
         <v>45</v>
       </c>
-      <c r="E42">
+      <c r="E216">
         <v>31</v>
       </c>
-      <c r="F42">
+      <c r="F216">
         <f t="shared" si="0"/>
         <v>1860</v>
       </c>
-      <c r="G42" t="s">
+      <c r="G216" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A43" t="s">
+    <row r="217" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A217" t="s">
         <v>30</v>
       </c>
-      <c r="B43" t="s">
-        <v>38</v>
-      </c>
-      <c r="C43" t="s">
+      <c r="B217" t="s">
+        <v>38</v>
+      </c>
+      <c r="C217" t="s">
         <v>97</v>
       </c>
-      <c r="D43" t="s">
+      <c r="D217" t="s">
         <v>96</v>
       </c>
-      <c r="E43">
+      <c r="E217">
         <v>252</v>
       </c>
-      <c r="F43">
+      <c r="F217">
         <f t="shared" si="0"/>
         <v>15120</v>
       </c>
-      <c r="G43" t="s">
+      <c r="G217" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A44" t="s">
+    <row r="218" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A218" t="s">
         <v>31</v>
       </c>
-      <c r="B44" t="s">
-        <v>38</v>
-      </c>
-      <c r="C44" t="s">
+      <c r="B218" t="s">
+        <v>38</v>
+      </c>
+      <c r="C218" t="s">
         <v>100</v>
       </c>
-      <c r="D44" t="s">
+      <c r="D218" t="s">
         <v>99</v>
       </c>
-      <c r="E44">
+      <c r="E218">
         <v>22.1</v>
       </c>
-      <c r="F44">
+      <c r="F218">
         <f t="shared" si="0"/>
         <v>1326</v>
       </c>
-      <c r="G44" t="s">
+      <c r="G218" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A45" t="s">
+    <row r="219" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A219" t="s">
         <v>32</v>
       </c>
-      <c r="B45" t="s">
-        <v>38</v>
-      </c>
-      <c r="C45" t="s">
+      <c r="B219" t="s">
+        <v>38</v>
+      </c>
+      <c r="C219" t="s">
         <v>102</v>
       </c>
-      <c r="D45" t="s">
+      <c r="D219" t="s">
         <v>40</v>
       </c>
-      <c r="E45">
+      <c r="E219">
         <v>3.9E-2</v>
       </c>
-      <c r="F45">
+      <c r="F219">
         <f t="shared" si="0"/>
         <v>2.34</v>
       </c>
-      <c r="G45" t="s">
+      <c r="G219" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A46" t="s">
+    <row r="220" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A220" t="s">
         <v>33</v>
       </c>
-      <c r="B46" t="s">
-        <v>38</v>
-      </c>
-      <c r="C46" t="s">
+      <c r="B220" t="s">
+        <v>38</v>
+      </c>
+      <c r="C220" t="s">
         <v>104</v>
       </c>
-      <c r="D46" t="s">
+      <c r="D220" t="s">
         <v>45</v>
       </c>
-      <c r="E46">
+      <c r="E220">
         <v>450</v>
       </c>
-      <c r="F46">
+      <c r="F220">
         <f t="shared" si="0"/>
         <v>27000</v>
       </c>
-      <c r="G46" t="s">
+      <c r="G220" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A47" t="s">
+    <row r="221" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A221" t="s">
         <v>34</v>
       </c>
-      <c r="B47" t="s">
-        <v>38</v>
-      </c>
-      <c r="C47" t="s">
+      <c r="B221" t="s">
+        <v>38</v>
+      </c>
+      <c r="C221" t="s">
         <v>47</v>
       </c>
-      <c r="D47" t="s">
+      <c r="D221" t="s">
         <v>45</v>
       </c>
-      <c r="E47">
+      <c r="E221">
         <v>182</v>
       </c>
-      <c r="F47">
+      <c r="F221">
         <f t="shared" si="0"/>
         <v>10920</v>
       </c>
-      <c r="G47" t="s">
+      <c r="G221" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A48" t="s">
+    <row r="222" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A222" t="s">
         <v>35</v>
       </c>
-      <c r="B48" t="s">
-        <v>38</v>
-      </c>
-      <c r="C48" t="s">
+      <c r="B222" t="s">
+        <v>38</v>
+      </c>
+      <c r="C222" t="s">
         <v>41</v>
       </c>
-      <c r="D48" t="s">
+      <c r="D222" t="s">
         <v>88</v>
       </c>
-      <c r="E48">
+      <c r="E222">
         <v>345</v>
       </c>
-      <c r="F48">
+      <c r="F222">
         <f t="shared" si="0"/>
         <v>20700</v>
       </c>
-      <c r="G48" t="s">
+      <c r="G222" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A49" t="s">
+    <row r="223" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A223" t="s">
         <v>36</v>
       </c>
-      <c r="B49" t="s">
-        <v>38</v>
-      </c>
-      <c r="C49" t="s">
+      <c r="B223" t="s">
+        <v>38</v>
+      </c>
+      <c r="C223" t="s">
         <v>43</v>
       </c>
-      <c r="D49" t="s">
+      <c r="D223" t="s">
         <v>45</v>
       </c>
-      <c r="E49">
+      <c r="E223">
         <v>170</v>
       </c>
-      <c r="F49">
+      <c r="F223">
         <f t="shared" si="0"/>
         <v>10200</v>
       </c>
-      <c r="G49" t="s">
+      <c r="G223" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A50" t="s">
+    <row r="224" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A224" t="s">
         <v>37</v>
       </c>
-      <c r="B50" t="s">
-        <v>16</v>
-      </c>
-      <c r="C50" t="s">
+      <c r="B224" t="s">
+        <v>16</v>
+      </c>
+      <c r="C224" t="s">
         <v>43</v>
       </c>
-      <c r="D50" t="s">
+      <c r="D224" t="s">
         <v>45</v>
       </c>
-      <c r="E50">
+      <c r="E224">
         <v>170</v>
       </c>
-      <c r="F50">
+      <c r="F224">
         <f t="shared" si="0"/>
         <v>10200</v>
       </c>
-      <c r="G50" t="s">
+      <c r="G224" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A51" t="s">
+    <row r="225" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A225" t="s">
         <v>44</v>
       </c>
-      <c r="B51" t="s">
-        <v>16</v>
-      </c>
-      <c r="C51" t="s">
+      <c r="B225" t="s">
+        <v>16</v>
+      </c>
+      <c r="C225" t="s">
         <v>47</v>
       </c>
-      <c r="D51" t="s">
+      <c r="D225" t="s">
         <v>45</v>
       </c>
-      <c r="E51">
+      <c r="E225">
         <v>182</v>
       </c>
-      <c r="F51">
+      <c r="F225">
         <f t="shared" si="0"/>
         <v>10920</v>
       </c>
-      <c r="G51" t="s">
+      <c r="G225" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A52" t="s">
+    <row r="226" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A226" t="s">
         <v>161</v>
       </c>
-      <c r="B52" t="s">
-        <v>38</v>
-      </c>
-      <c r="C52" t="s">
+      <c r="B226" t="s">
+        <v>38</v>
+      </c>
+      <c r="C226" t="s">
         <v>176</v>
       </c>
-      <c r="D52" t="s">
+      <c r="D226" t="s">
         <v>42</v>
       </c>
-      <c r="E52">
+      <c r="E226">
         <v>40</v>
       </c>
-      <c r="F52">
+      <c r="F226">
         <f t="shared" si="0"/>
         <v>2400</v>
       </c>
-      <c r="G52" t="s">
+      <c r="G226" t="s">
         <v>175</v>
       </c>
     </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A53" t="s">
+    <row r="227" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A227" t="s">
         <v>163</v>
       </c>
-      <c r="B53" t="s">
-        <v>38</v>
-      </c>
-      <c r="C53" t="s">
+      <c r="B227" t="s">
+        <v>38</v>
+      </c>
+      <c r="C227" t="s">
         <v>173</v>
       </c>
-      <c r="D53" t="s">
+      <c r="D227" t="s">
         <v>88</v>
       </c>
-      <c r="E53">
+      <c r="E227">
         <v>0.84</v>
       </c>
-      <c r="F53">
+      <c r="F227">
         <f t="shared" si="0"/>
         <v>50.4</v>
       </c>
-      <c r="G53" s="3" t="s">
+      <c r="G227" s="3" t="s">
         <v>174</v>
       </c>
     </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A54" t="s">
+    <row r="228" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A228" t="s">
         <v>162</v>
       </c>
-      <c r="B54" t="s">
-        <v>38</v>
-      </c>
-      <c r="C54" t="s">
+      <c r="B228" t="s">
+        <v>38</v>
+      </c>
+      <c r="C228" t="s">
         <v>172</v>
       </c>
-      <c r="D54" t="s">
+      <c r="D228" t="s">
         <v>42</v>
       </c>
-      <c r="E54">
+      <c r="E228">
         <v>0.55000000000000004</v>
       </c>
-      <c r="F54">
+      <c r="F228">
         <f t="shared" si="0"/>
         <v>33</v>
       </c>
-      <c r="G54" s="4" t="s">
+      <c r="G228" s="4" t="s">
         <v>171</v>
       </c>
     </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A55" t="s">
+    <row r="229" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A229" t="s">
         <v>164</v>
       </c>
-      <c r="B55" t="s">
-        <v>38</v>
-      </c>
-      <c r="C55" t="s">
+      <c r="B229" t="s">
+        <v>38</v>
+      </c>
+      <c r="C229" t="s">
         <v>170</v>
       </c>
-      <c r="D55" t="s">
+      <c r="D229" t="s">
         <v>42</v>
       </c>
-      <c r="E55">
+      <c r="E229">
         <v>7.1</v>
       </c>
-      <c r="F55">
+      <c r="F229">
         <f t="shared" si="0"/>
         <v>426</v>
       </c>
-      <c r="G55" s="4" t="s">
+      <c r="G229" s="4" t="s">
         <v>171</v>
       </c>
     </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A56" t="s">
+    <row r="230" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A230" t="s">
         <v>182</v>
       </c>
-      <c r="B56" t="s">
-        <v>38</v>
-      </c>
-      <c r="C56" t="s">
+      <c r="B230" t="s">
+        <v>38</v>
+      </c>
+      <c r="C230" t="s">
         <v>186</v>
       </c>
-      <c r="D56" t="s">
+      <c r="D230" t="s">
         <v>40</v>
       </c>
-      <c r="E56">
+      <c r="E230">
         <v>2300</v>
       </c>
-      <c r="F56">
+      <c r="F230">
         <f t="shared" si="0"/>
         <v>138000</v>
       </c>
-      <c r="G56" s="4" t="s">
+      <c r="G230" s="4" t="s">
         <v>187</v>
       </c>
     </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A57" t="s">
+    <row r="231" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A231" t="s">
         <v>183</v>
       </c>
-      <c r="B57" t="s">
-        <v>38</v>
-      </c>
-      <c r="C57" t="s">
+      <c r="B231" t="s">
+        <v>38</v>
+      </c>
+      <c r="C231" t="s">
         <v>188</v>
       </c>
-      <c r="D57" t="s">
+      <c r="D231" t="s">
         <v>45</v>
       </c>
-      <c r="E57">
+      <c r="E231">
         <v>0.22800000000000001</v>
       </c>
-      <c r="F57">
+      <c r="F231">
         <f t="shared" si="0"/>
         <v>13.68</v>
       </c>
-      <c r="G57" s="4" t="s">
+      <c r="G231" s="4" t="s">
         <v>189</v>
       </c>
     </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A58" t="s">
+    <row r="232" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A232" t="s">
         <v>184</v>
       </c>
-      <c r="B58" t="s">
-        <v>38</v>
-      </c>
-      <c r="C58" t="s">
+      <c r="B232" t="s">
+        <v>38</v>
+      </c>
+      <c r="C232" t="s">
         <v>190</v>
       </c>
-      <c r="D58" t="s">
+      <c r="D232" t="s">
         <v>45</v>
       </c>
-      <c r="E58">
+      <c r="E232">
         <v>38.6</v>
       </c>
-      <c r="F58">
+      <c r="F232">
         <f t="shared" si="0"/>
         <v>2316</v>
       </c>
-      <c r="G58" s="4" t="s">
+      <c r="G232" s="4" t="s">
         <v>191</v>
       </c>
     </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A59" t="s">
+    <row r="233" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A233" t="s">
         <v>212</v>
       </c>
-      <c r="B59" t="s">
-        <v>38</v>
-      </c>
-      <c r="C59" t="s">
+      <c r="B233" t="s">
+        <v>38</v>
+      </c>
+      <c r="C233" t="s">
         <v>213</v>
       </c>
-      <c r="D59" t="s">
+      <c r="D233" t="s">
         <v>88</v>
       </c>
-      <c r="E59">
+      <c r="E233">
         <v>28.3</v>
       </c>
-      <c r="F59">
+      <c r="F233">
         <f t="shared" si="0"/>
         <v>1698</v>
       </c>
-      <c r="G59" s="4" t="s">
+      <c r="G233" s="4" t="s">
         <v>214</v>
       </c>
     </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A60" t="s">
+    <row r="234" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A234" t="s">
         <v>215</v>
       </c>
-      <c r="B60" t="s">
-        <v>38</v>
-      </c>
-      <c r="C60" t="s">
+      <c r="B234" t="s">
+        <v>38</v>
+      </c>
+      <c r="C234" t="s">
         <v>216</v>
       </c>
-      <c r="D60" t="s">
+      <c r="D234" t="s">
         <v>45</v>
       </c>
-      <c r="E60">
+      <c r="E234">
         <v>5.7999999999999996E-3</v>
       </c>
-      <c r="F60">
+      <c r="F234">
         <f t="shared" si="0"/>
         <v>0.34799999999999998</v>
       </c>
-      <c r="G60" s="4" t="s">
+      <c r="G234" s="4" t="s">
         <v>217</v>
       </c>
     </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A61" t="s">
+    <row r="235" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A235" t="s">
         <v>218</v>
       </c>
-      <c r="B61" t="s">
-        <v>38</v>
-      </c>
-      <c r="C61" t="s">
+      <c r="B235" t="s">
+        <v>38</v>
+      </c>
+      <c r="C235" t="s">
         <v>219</v>
       </c>
-      <c r="D61" t="s">
+      <c r="D235" t="s">
         <v>88</v>
       </c>
-      <c r="E61">
+      <c r="E235">
         <v>0.185</v>
       </c>
-      <c r="F61">
+      <c r="F235">
         <f t="shared" si="0"/>
         <v>11.1</v>
       </c>
-      <c r="G61" s="4" t="s">
+      <c r="G235" s="4" t="s">
         <v>220</v>
       </c>
     </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A62" t="s">
+    <row r="236" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A236" t="s">
         <v>224</v>
       </c>
-      <c r="B62" t="s">
-        <v>38</v>
-      </c>
-      <c r="C62" t="s">
+      <c r="B236" t="s">
+        <v>38</v>
+      </c>
+      <c r="C236" t="s">
         <v>225</v>
       </c>
-      <c r="D62" t="s">
+      <c r="D236" t="s">
         <v>88</v>
       </c>
-      <c r="E62">
+      <c r="E236">
         <v>133</v>
       </c>
-      <c r="F62">
+      <c r="F236">
         <f t="shared" si="0"/>
         <v>7980</v>
       </c>
-      <c r="G62" s="4" t="s">
+      <c r="G236" s="4" t="s">
         <v>226</v>
       </c>
     </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A63" t="s">
+    <row r="237" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A237" t="s">
         <v>227</v>
       </c>
-      <c r="B63" t="s">
-        <v>38</v>
-      </c>
-      <c r="C63" t="s">
+      <c r="B237" t="s">
+        <v>38</v>
+      </c>
+      <c r="C237" t="s">
         <v>228</v>
       </c>
-      <c r="D63" t="s">
+      <c r="D237" t="s">
         <v>45</v>
       </c>
-      <c r="E63">
+      <c r="E237">
         <v>2.2999999999999998</v>
       </c>
-      <c r="F63">
+      <c r="F237">
         <f t="shared" si="0"/>
         <v>138</v>
       </c>
-      <c r="G63" s="4" t="s">
+      <c r="G237" s="4" t="s">
         <v>229</v>
       </c>
     </row>
-    <row r="64" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A64" t="s">
+    <row r="238" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A238" t="s">
         <v>231</v>
       </c>
-      <c r="B64" t="s">
-        <v>38</v>
-      </c>
-      <c r="C64" t="s">
+      <c r="B238" t="s">
+        <v>38</v>
+      </c>
+      <c r="C238" t="s">
         <v>230</v>
       </c>
-      <c r="D64" t="s">
+      <c r="D238" t="s">
         <v>45</v>
       </c>
-      <c r="E64">
+      <c r="E238">
         <v>1334</v>
       </c>
-      <c r="F64">
+      <c r="F238">
         <f t="shared" si="0"/>
         <v>80040</v>
       </c>
-      <c r="G64" s="4" t="s">
+      <c r="G238" s="4" t="s">
         <v>232</v>
       </c>
     </row>
-    <row r="65" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A65" t="s">
+    <row r="239" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A239" t="s">
         <v>233</v>
       </c>
-      <c r="B65" t="s">
-        <v>38</v>
-      </c>
-      <c r="C65" t="s">
+      <c r="B239" t="s">
+        <v>38</v>
+      </c>
+      <c r="C239" t="s">
         <v>234</v>
       </c>
-      <c r="D65" t="s">
+      <c r="D239" t="s">
         <v>45</v>
       </c>
-      <c r="E65">
+      <c r="E239">
         <v>220</v>
       </c>
-      <c r="F65">
+      <c r="F239">
         <f t="shared" si="0"/>
         <v>13200</v>
       </c>
-      <c r="G65" s="4" t="s">
+      <c r="G239" s="4" t="s">
         <v>235</v>
       </c>
     </row>
-    <row r="66" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A66" t="s">
+    <row r="240" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A240" t="s">
         <v>236</v>
       </c>
-      <c r="B66" t="s">
-        <v>38</v>
-      </c>
-      <c r="C66" t="s">
+      <c r="B240" t="s">
+        <v>38</v>
+      </c>
+      <c r="C240" t="s">
         <v>237</v>
       </c>
-      <c r="D66" t="s">
+      <c r="D240" t="s">
         <v>45</v>
       </c>
-      <c r="E66">
+      <c r="E240">
         <v>58.2</v>
       </c>
-      <c r="F66">
+      <c r="F240">
         <f t="shared" si="0"/>
         <v>3492</v>
       </c>
-      <c r="G66" s="4" t="s">
+      <c r="G240" s="4" t="s">
         <v>238</v>
       </c>
     </row>
-    <row r="67" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A67" t="s">
+    <row r="241" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A241" t="s">
+        <v>414</v>
+      </c>
+      <c r="B241" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="242" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A242" t="s">
+        <v>415</v>
+      </c>
+      <c r="B242" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="243" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A243" t="s">
+        <v>416</v>
+      </c>
+      <c r="B243" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="244" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A244" t="s">
+        <v>417</v>
+      </c>
+      <c r="B244" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="245" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A245" t="s">
+        <v>418</v>
+      </c>
+      <c r="B245" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="246" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A246" t="s">
+        <v>419</v>
+      </c>
+      <c r="B246" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="247" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A247" t="s">
+        <v>420</v>
+      </c>
+      <c r="B247" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="248" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A248" t="s">
+        <v>421</v>
+      </c>
+      <c r="B248" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="249" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A249" t="s">
+        <v>422</v>
+      </c>
+      <c r="B249" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="250" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A250" t="s">
+        <v>423</v>
+      </c>
+      <c r="B250" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="251" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A251" t="s">
+        <v>424</v>
+      </c>
+      <c r="B251" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="252" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A252" t="s">
+        <v>425</v>
+      </c>
+      <c r="B252" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="253" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A253" t="s">
+        <v>426</v>
+      </c>
+      <c r="B253" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="254" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A254" t="s">
+        <v>427</v>
+      </c>
+      <c r="B254" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="255" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A255" t="s">
+        <v>428</v>
+      </c>
+      <c r="B255" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="256" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A256" t="s">
+        <v>429</v>
+      </c>
+      <c r="B256" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="257" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A257" t="s">
+        <v>430</v>
+      </c>
+      <c r="B257" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="258" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A258" t="s">
+        <v>431</v>
+      </c>
+      <c r="B258" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="259" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A259" t="s">
+        <v>432</v>
+      </c>
+      <c r="B259" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="260" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A260" t="s">
+        <v>433</v>
+      </c>
+      <c r="B260" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="261" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A261" t="s">
+        <v>434</v>
+      </c>
+      <c r="B261" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="262" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A262" t="s">
+        <v>435</v>
+      </c>
+      <c r="B262" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="263" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A263" t="s">
+        <v>436</v>
+      </c>
+      <c r="B263" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="264" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A264" t="s">
+        <v>437</v>
+      </c>
+      <c r="B264" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="265" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A265" t="s">
+        <v>438</v>
+      </c>
+      <c r="B265" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="266" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A266" t="s">
+        <v>439</v>
+      </c>
+      <c r="B266" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="267" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A267" t="s">
+        <v>440</v>
+      </c>
+      <c r="B267" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="268" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A268" t="s">
+        <v>441</v>
+      </c>
+      <c r="B268" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="269" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A269" t="s">
+        <v>442</v>
+      </c>
+      <c r="B269" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="270" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A270" t="s">
+        <v>443</v>
+      </c>
+      <c r="B270" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="271" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A271" t="s">
+        <v>444</v>
+      </c>
+      <c r="B271" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="272" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A272" t="s">
+        <v>445</v>
+      </c>
+      <c r="B272" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="273" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A273" t="s">
+        <v>446</v>
+      </c>
+      <c r="B273" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="274" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A274" t="s">
+        <v>447</v>
+      </c>
+      <c r="B274" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="275" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A275" t="s">
+        <v>448</v>
+      </c>
+      <c r="B275" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="276" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A276" t="s">
+        <v>449</v>
+      </c>
+      <c r="B276" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="277" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A277" t="s">
+        <v>450</v>
+      </c>
+      <c r="B277" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="278" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A278" t="s">
+        <v>451</v>
+      </c>
+      <c r="B278" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="279" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A279" t="s">
+        <v>452</v>
+      </c>
+      <c r="B279" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="280" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A280" t="s">
+        <v>453</v>
+      </c>
+      <c r="B280" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="281" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A281" t="s">
+        <v>454</v>
+      </c>
+      <c r="B281" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="282" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A282" t="s">
+        <v>455</v>
+      </c>
+      <c r="B282" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="283" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A283" t="s">
+        <v>456</v>
+      </c>
+      <c r="B283" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="284" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A284" t="s">
+        <v>457</v>
+      </c>
+      <c r="B284" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="285" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A285" t="s">
+        <v>458</v>
+      </c>
+      <c r="B285" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="286" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A286" t="s">
+        <v>459</v>
+      </c>
+      <c r="B286" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="287" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A287" t="s">
+        <v>460</v>
+      </c>
+      <c r="B287" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="288" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A288" t="s">
+        <v>461</v>
+      </c>
+      <c r="B288" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="289" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A289" t="s">
+        <v>462</v>
+      </c>
+      <c r="B289" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="290" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A290" t="s">
+        <v>463</v>
+      </c>
+      <c r="B290" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="291" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A291" t="s">
+        <v>464</v>
+      </c>
+      <c r="B291" t="s">
+        <v>38</v>
+      </c>
+      <c r="C291" t="s">
+        <v>465</v>
+      </c>
+      <c r="D291" t="s">
+        <v>45</v>
+      </c>
+      <c r="E291">
+        <v>221</v>
+      </c>
+      <c r="F291">
+        <f t="shared" si="0"/>
+        <v>13260</v>
+      </c>
+      <c r="G291" t="s">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="292" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A292" t="s">
         <v>156</v>
       </c>
-      <c r="B67" t="s">
-        <v>38</v>
-      </c>
-      <c r="C67" t="s">
+      <c r="B292" t="s">
+        <v>38</v>
+      </c>
+      <c r="C292" t="s">
         <v>158</v>
       </c>
-      <c r="D67" t="s">
+      <c r="D292" t="s">
         <v>45</v>
       </c>
-      <c r="E67">
+      <c r="E292">
         <v>7.5</v>
       </c>
-      <c r="F67">
+      <c r="F292">
         <f t="shared" si="0"/>
         <v>450</v>
       </c>
-      <c r="G67" t="s">
+      <c r="G292" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="68" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A68" t="s">
+    <row r="293" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A293" t="s">
         <v>157</v>
       </c>
-      <c r="B68" t="s">
-        <v>38</v>
-      </c>
-      <c r="C68" t="s">
+      <c r="B293" t="s">
+        <v>38</v>
+      </c>
+      <c r="C293" t="s">
         <v>158</v>
       </c>
-      <c r="D68" t="s">
+      <c r="D293" t="s">
         <v>45</v>
       </c>
-      <c r="E68">
+      <c r="E293">
         <v>7.5</v>
       </c>
-      <c r="F68">
+      <c r="F293">
         <f t="shared" si="0"/>
         <v>450</v>
       </c>
-      <c r="G68" t="s">
+      <c r="G293" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="69" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A69" t="s">
+    <row r="294" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A294" t="s">
         <v>160</v>
       </c>
-      <c r="B69" t="s">
-        <v>16</v>
-      </c>
-      <c r="C69" t="s">
+      <c r="B294" t="s">
+        <v>16</v>
+      </c>
+      <c r="C294" t="s">
         <v>109</v>
       </c>
-      <c r="D69" t="s">
+      <c r="D294" t="s">
         <v>109</v>
       </c>
-      <c r="E69" t="s">
+      <c r="E294" t="s">
         <v>109</v>
       </c>
-      <c r="F69">
+      <c r="F294">
         <v>100</v>
       </c>
-      <c r="G69" s="2" t="s">
+      <c r="G294" s="2" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="70" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A70" t="s">
+    <row r="295" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A295" t="s">
         <v>117</v>
       </c>
-      <c r="B70" t="s">
-        <v>16</v>
-      </c>
-      <c r="C70" t="s">
+      <c r="B295" t="s">
+        <v>16</v>
+      </c>
+      <c r="C295" t="s">
         <v>109</v>
       </c>
-      <c r="D70" t="s">
+      <c r="D295" t="s">
         <v>109</v>
       </c>
-      <c r="E70" t="s">
+      <c r="E295" t="s">
         <v>109</v>
       </c>
-      <c r="F70">
+      <c r="F295">
         <v>50</v>
       </c>
-      <c r="G70" s="2" t="s">
+      <c r="G295" s="2" t="s">
         <v>114</v>
       </c>
     </row>
@@ -2779,8 +5276,8 @@
   <hyperlinks>
     <hyperlink ref="G20" r:id="rId1" xr:uid="{60D2E9C6-9172-4D4D-B418-CC567356E033}"/>
     <hyperlink ref="G2" r:id="rId2" xr:uid="{96642BA6-12F8-4451-8DFA-16265959FEFA}"/>
-    <hyperlink ref="G55" r:id="rId3" xr:uid="{DBD518FF-06AA-4F59-B32D-3D580FD3488C}"/>
-    <hyperlink ref="G54" r:id="rId4" xr:uid="{3C873BD8-C205-4B23-B8F2-C8E28D105704}"/>
+    <hyperlink ref="G229" r:id="rId3" xr:uid="{DBD518FF-06AA-4F59-B32D-3D580FD3488C}"/>
+    <hyperlink ref="G228" r:id="rId4" xr:uid="{3C873BD8-C205-4B23-B8F2-C8E28D105704}"/>
     <hyperlink ref="G30" r:id="rId5" xr:uid="{3CCDC09F-65EC-46AB-A5B6-06698DF90FD6}"/>
     <hyperlink ref="G31" r:id="rId6" xr:uid="{45B7FFC2-C775-45F6-B5E2-92E39C1EFAC1}"/>
     <hyperlink ref="G34" r:id="rId7" xr:uid="{C0F23788-2A31-4EA5-B6D6-A12E3C45A7E7}"/>

--- a/data/gems/Parameters.xlsx
+++ b/data/gems/Parameters.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bras5181\Desktop\Labprojects\CulturedMeat\iSusS\data\gems\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A0EB5D1-5CB6-40C1-9BC7-B35D05F9BB33}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8ACC2DD6-BD5D-4418-AC23-00EF0346C10E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="877" uniqueCount="467">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="949" uniqueCount="506">
   <si>
     <t>Rxn</t>
   </si>
@@ -774,9 +774,6 @@
     <t>PROD2</t>
   </si>
   <si>
-    <t>MHISOR</t>
-  </si>
-  <si>
     <t>3SALATAi</t>
   </si>
   <si>
@@ -801,15 +798,9 @@
     <t>TYRDOPO3</t>
   </si>
   <si>
-    <t>MACACI</t>
-  </si>
-  <si>
     <t>BBHOX</t>
   </si>
   <si>
-    <t>NRPPHRSULT</t>
-  </si>
-  <si>
     <t>MAOLNOR</t>
   </si>
   <si>
@@ -1438,13 +1429,139 @@
   </si>
   <si>
     <t>DOI: 10.1016/0003-2697(79)90150-7</t>
+  </si>
+  <si>
+    <t>2.3.3.8</t>
+  </si>
+  <si>
+    <t>DOI: 10.1042/bj2240437</t>
+  </si>
+  <si>
+    <t>4.1.1.45</t>
+  </si>
+  <si>
+    <t>DOI: 10.3177/jnsv.42.173</t>
+  </si>
+  <si>
+    <t>4.1.1.28</t>
+  </si>
+  <si>
+    <t>DOI: 10.1111/j.1432-1033.1979.tb12809.x</t>
+  </si>
+  <si>
+    <t>1.4.3.21</t>
+  </si>
+  <si>
+    <t>DOI: 10.1139/o88-094</t>
+  </si>
+  <si>
+    <t>1.5.5.2</t>
+  </si>
+  <si>
+    <t>Escherichia coli</t>
+  </si>
+  <si>
+    <t>PMID: 355248</t>
+  </si>
+  <si>
+    <t>3.7.1.3</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1515/bchm2.1956.304.1-2.232</t>
+  </si>
+  <si>
+    <t>4.1.1.50</t>
+  </si>
+  <si>
+    <t>DOI: 10.1515/BC.2003.132</t>
+  </si>
+  <si>
+    <t>1.13.11.5</t>
+  </si>
+  <si>
+    <t>DOI: 10.1016/j.compbiolchem.2017.08.008</t>
+  </si>
+  <si>
+    <t>4.2.1.22</t>
+  </si>
+  <si>
+    <t>DOI: 10.1271/bbb.80231</t>
+  </si>
+  <si>
+    <t>1.4.3.4</t>
+  </si>
+  <si>
+    <t>DOI: 10.1006/prep.2001.1546</t>
+  </si>
+  <si>
+    <t>2.1.1.13</t>
+  </si>
+  <si>
+    <t>DOI: 10.3945/jn.109.105411</t>
+  </si>
+  <si>
+    <t>1.14.18.1</t>
+  </si>
+  <si>
+    <t>DOI: 10.1002/cpps.37</t>
+  </si>
+  <si>
+    <t>1.14.11.1</t>
+  </si>
+  <si>
+    <t>DOI: 10.1016/j.cbpa.2009.03.005</t>
+  </si>
+  <si>
+    <t>1.11.1.8</t>
+  </si>
+  <si>
+    <t>DOI: 10.1016/0076-6879(84)07031-2</t>
+  </si>
+  <si>
+    <t>DOI: 10.1016/j.pep.2006.02.019</t>
+  </si>
+  <si>
+    <t>2.1.1.28</t>
+  </si>
+  <si>
+    <t>DOI: 10.1016/0006-291x(83)91726-6</t>
+  </si>
+  <si>
+    <t>1.6.3.1</t>
+  </si>
+  <si>
+    <t>DOI: 10.1016/s0300-9084(99)80084-4</t>
+  </si>
+  <si>
+    <t>4.1.1.9</t>
+  </si>
+  <si>
+    <t>DOI: 10.1016/0005-2744(73)90043-0</t>
+  </si>
+  <si>
+    <t>1.14.11.8</t>
+  </si>
+  <si>
+    <t>DOI: 10.1074/jbc.M105929200</t>
+  </si>
+  <si>
+    <t>1.2.1.8</t>
+  </si>
+  <si>
+    <t>PMID: 10505788</t>
+  </si>
+  <si>
+    <t>1.13.11.27</t>
+  </si>
+  <si>
+    <t>DOI: 10.1016/s0076-6879(87)42020-x</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1461,6 +1578,13 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
       <sz val="11"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -1488,12 +1612,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1775,13 +1901,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G295"/>
+  <dimension ref="A1:G292"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M288" sqref="M288"/>
+    <sheetView tabSelected="1" topLeftCell="A55" workbookViewId="0">
+      <selection activeCell="M66" sqref="M66"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="7" max="7" width="8.7265625" style="3"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
@@ -1802,7 +1931,7 @@
       <c r="F1" t="s">
         <v>107</v>
       </c>
-      <c r="G1" t="s">
+      <c r="G1" s="3" t="s">
         <v>3</v>
       </c>
     </row>
@@ -1825,7 +1954,7 @@
       <c r="F2">
         <v>7.1999999999999993</v>
       </c>
-      <c r="G2" s="1" t="s">
+      <c r="G2" s="4" t="s">
         <v>110</v>
       </c>
     </row>
@@ -1848,7 +1977,7 @@
       <c r="F3">
         <v>6360</v>
       </c>
-      <c r="G3" s="1" t="s">
+      <c r="G3" s="4" t="s">
         <v>115</v>
       </c>
     </row>
@@ -1871,7 +2000,7 @@
       <c r="F4">
         <v>6360</v>
       </c>
-      <c r="G4" s="1" t="s">
+      <c r="G4" s="4" t="s">
         <v>115</v>
       </c>
     </row>
@@ -1894,7 +2023,7 @@
       <c r="F5">
         <v>6360</v>
       </c>
-      <c r="G5" s="1" t="s">
+      <c r="G5" s="4" t="s">
         <v>109</v>
       </c>
     </row>
@@ -1942,7 +2071,7 @@
         <f>E7*60</f>
         <v>11490</v>
       </c>
-      <c r="G7" t="s">
+      <c r="G7" s="3" t="s">
         <v>50</v>
       </c>
     </row>
@@ -1963,10 +2092,10 @@
         <v>620</v>
       </c>
       <c r="F8">
-        <f t="shared" ref="F8:F293" si="0">E8*60</f>
+        <f t="shared" ref="F8:F290" si="0">E8*60</f>
         <v>37200</v>
       </c>
-      <c r="G8" t="s">
+      <c r="G8" s="3" t="s">
         <v>52</v>
       </c>
     </row>
@@ -1990,7 +2119,7 @@
         <f t="shared" si="0"/>
         <v>7680</v>
       </c>
-      <c r="G9" t="s">
+      <c r="G9" s="3" t="s">
         <v>54</v>
       </c>
     </row>
@@ -2014,7 +2143,7 @@
         <f t="shared" si="0"/>
         <v>1338</v>
       </c>
-      <c r="G10" t="s">
+      <c r="G10" s="3" t="s">
         <v>56</v>
       </c>
     </row>
@@ -2038,7 +2167,7 @@
         <f t="shared" si="0"/>
         <v>614400</v>
       </c>
-      <c r="G11" t="s">
+      <c r="G11" s="3" t="s">
         <v>58</v>
       </c>
     </row>
@@ -2062,7 +2191,7 @@
         <f t="shared" si="0"/>
         <v>4800</v>
       </c>
-      <c r="G12" t="s">
+      <c r="G12" s="3" t="s">
         <v>60</v>
       </c>
     </row>
@@ -2086,7 +2215,7 @@
         <f t="shared" si="0"/>
         <v>60000</v>
       </c>
-      <c r="G13" t="s">
+      <c r="G13" s="3" t="s">
         <v>61</v>
       </c>
     </row>
@@ -2110,7 +2239,7 @@
         <f t="shared" si="0"/>
         <v>12600</v>
       </c>
-      <c r="G14" t="s">
+      <c r="G14" s="3" t="s">
         <v>60</v>
       </c>
     </row>
@@ -2134,7 +2263,7 @@
         <f t="shared" si="0"/>
         <v>5460</v>
       </c>
-      <c r="G15" t="s">
+      <c r="G15" s="3" t="s">
         <v>65</v>
       </c>
     </row>
@@ -2158,7 +2287,7 @@
         <f t="shared" si="0"/>
         <v>11460</v>
       </c>
-      <c r="G16" t="s">
+      <c r="G16" s="3" t="s">
         <v>67</v>
       </c>
     </row>
@@ -2182,7 +2311,7 @@
         <f t="shared" si="0"/>
         <v>4800</v>
       </c>
-      <c r="G17" t="s">
+      <c r="G17" s="3" t="s">
         <v>211</v>
       </c>
     </row>
@@ -2206,7 +2335,7 @@
         <f t="shared" si="0"/>
         <v>12060</v>
       </c>
-      <c r="G18" t="s">
+      <c r="G18" s="3" t="s">
         <v>70</v>
       </c>
     </row>
@@ -2230,7 +2359,7 @@
         <f t="shared" si="0"/>
         <v>63900</v>
       </c>
-      <c r="G19" t="s">
+      <c r="G19" s="3" t="s">
         <v>72</v>
       </c>
     </row>
@@ -2254,7 +2383,7 @@
         <f t="shared" si="0"/>
         <v>113.39999999999999</v>
       </c>
-      <c r="G20" s="1" t="s">
+      <c r="G20" s="4" t="s">
         <v>74</v>
       </c>
     </row>
@@ -2278,7 +2407,7 @@
         <f t="shared" si="0"/>
         <v>102000</v>
       </c>
-      <c r="G21" t="s">
+      <c r="G21" s="3" t="s">
         <v>77</v>
       </c>
     </row>
@@ -2302,7 +2431,7 @@
         <f t="shared" si="0"/>
         <v>394200</v>
       </c>
-      <c r="G22" t="s">
+      <c r="G22" s="3" t="s">
         <v>79</v>
       </c>
     </row>
@@ -2326,7 +2455,7 @@
         <f t="shared" si="0"/>
         <v>52.8</v>
       </c>
-      <c r="G23" t="s">
+      <c r="G23" s="3" t="s">
         <v>81</v>
       </c>
     </row>
@@ -2350,7 +2479,7 @@
         <f t="shared" si="0"/>
         <v>52.8</v>
       </c>
-      <c r="G24" t="s">
+      <c r="G24" s="3" t="s">
         <v>81</v>
       </c>
     </row>
@@ -2374,7 +2503,7 @@
         <f t="shared" si="0"/>
         <v>900</v>
       </c>
-      <c r="G25" t="s">
+      <c r="G25" s="3" t="s">
         <v>83</v>
       </c>
     </row>
@@ -2398,7 +2527,7 @@
         <f t="shared" si="0"/>
         <v>1332</v>
       </c>
-      <c r="G26" t="s">
+      <c r="G26" s="3" t="s">
         <v>85</v>
       </c>
     </row>
@@ -2419,10 +2548,10 @@
         <v>6.13</v>
       </c>
       <c r="F27">
-        <f t="shared" ref="F27:F38" si="1">E27*60</f>
+        <f t="shared" ref="F27:F52" si="1">E27*60</f>
         <v>367.8</v>
       </c>
-      <c r="G27" t="s">
+      <c r="G27" s="3" t="s">
         <v>93</v>
       </c>
     </row>
@@ -2446,7 +2575,7 @@
         <f t="shared" si="1"/>
         <v>8328</v>
       </c>
-      <c r="G28" t="s">
+      <c r="G28" s="3" t="s">
         <v>169</v>
       </c>
     </row>
@@ -2470,7 +2599,7 @@
         <f t="shared" si="1"/>
         <v>19740</v>
       </c>
-      <c r="G29" t="s">
+      <c r="G29" s="3" t="s">
         <v>179</v>
       </c>
     </row>
@@ -2494,7 +2623,7 @@
         <f t="shared" si="1"/>
         <v>426</v>
       </c>
-      <c r="G30" s="1" t="s">
+      <c r="G30" s="4" t="s">
         <v>171</v>
       </c>
     </row>
@@ -2518,7 +2647,7 @@
         <f t="shared" si="1"/>
         <v>426</v>
       </c>
-      <c r="G31" s="1" t="s">
+      <c r="G31" s="4" t="s">
         <v>171</v>
       </c>
     </row>
@@ -2542,7 +2671,7 @@
         <f t="shared" si="1"/>
         <v>596.4</v>
       </c>
-      <c r="G32" s="1" t="s">
+      <c r="G32" s="4" t="s">
         <v>201</v>
       </c>
     </row>
@@ -2566,7 +2695,7 @@
         <f t="shared" si="1"/>
         <v>96</v>
       </c>
-      <c r="G33" s="1" t="s">
+      <c r="G33" s="4" t="s">
         <v>203</v>
       </c>
     </row>
@@ -2590,7 +2719,7 @@
         <f t="shared" si="1"/>
         <v>92.4</v>
       </c>
-      <c r="G34" s="1" t="s">
+      <c r="G34" s="4" t="s">
         <v>205</v>
       </c>
     </row>
@@ -2614,7 +2743,7 @@
         <f t="shared" si="1"/>
         <v>2700</v>
       </c>
-      <c r="G35" s="1" t="s">
+      <c r="G35" s="4" t="s">
         <v>207</v>
       </c>
     </row>
@@ -2638,7 +2767,7 @@
         <f t="shared" si="1"/>
         <v>1500</v>
       </c>
-      <c r="G36" s="1" t="s">
+      <c r="G36" s="4" t="s">
         <v>209</v>
       </c>
     </row>
@@ -2662,7 +2791,7 @@
         <f t="shared" si="1"/>
         <v>11772</v>
       </c>
-      <c r="G37" s="1" t="s">
+      <c r="G37" s="4" t="s">
         <v>199</v>
       </c>
     </row>
@@ -2686,7 +2815,7 @@
         <f t="shared" si="1"/>
         <v>1566</v>
       </c>
-      <c r="G38" s="1" t="s">
+      <c r="G38" s="4" t="s">
         <v>223</v>
       </c>
     </row>
@@ -2697,6 +2826,22 @@
       <c r="B39" t="s">
         <v>16</v>
       </c>
+      <c r="C39" t="s">
+        <v>464</v>
+      </c>
+      <c r="D39" t="s">
+        <v>88</v>
+      </c>
+      <c r="E39">
+        <v>13.6</v>
+      </c>
+      <c r="F39">
+        <f t="shared" si="1"/>
+        <v>816</v>
+      </c>
+      <c r="G39" s="3" t="s">
+        <v>465</v>
+      </c>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A40" t="s">
@@ -2705,6 +2850,22 @@
       <c r="B40" t="s">
         <v>16</v>
       </c>
+      <c r="C40" t="s">
+        <v>466</v>
+      </c>
+      <c r="D40" t="s">
+        <v>45</v>
+      </c>
+      <c r="E40">
+        <v>3.7890000000000001</v>
+      </c>
+      <c r="F40">
+        <f t="shared" si="1"/>
+        <v>227.34</v>
+      </c>
+      <c r="G40" s="3" t="s">
+        <v>467</v>
+      </c>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A41" t="s">
@@ -2713,6 +2874,22 @@
       <c r="B41" t="s">
         <v>16</v>
       </c>
+      <c r="C41" t="s">
+        <v>468</v>
+      </c>
+      <c r="D41" t="s">
+        <v>45</v>
+      </c>
+      <c r="E41">
+        <v>3.069</v>
+      </c>
+      <c r="F41">
+        <f t="shared" si="1"/>
+        <v>184.14</v>
+      </c>
+      <c r="G41" s="3" t="s">
+        <v>469</v>
+      </c>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A42" t="s">
@@ -2721,6 +2898,22 @@
       <c r="B42" t="s">
         <v>16</v>
       </c>
+      <c r="C42" t="s">
+        <v>470</v>
+      </c>
+      <c r="D42" t="s">
+        <v>45</v>
+      </c>
+      <c r="E42">
+        <v>2.08</v>
+      </c>
+      <c r="F42">
+        <f t="shared" si="1"/>
+        <v>124.80000000000001</v>
+      </c>
+      <c r="G42" s="3" t="s">
+        <v>471</v>
+      </c>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A43" t="s">
@@ -2729,6 +2922,22 @@
       <c r="B43" t="s">
         <v>16</v>
       </c>
+      <c r="C43" t="s">
+        <v>472</v>
+      </c>
+      <c r="D43" t="s">
+        <v>473</v>
+      </c>
+      <c r="E43">
+        <v>7.3</v>
+      </c>
+      <c r="F43">
+        <f t="shared" si="1"/>
+        <v>438</v>
+      </c>
+      <c r="G43" s="3" t="s">
+        <v>474</v>
+      </c>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A44" t="s">
@@ -2737,6 +2946,22 @@
       <c r="B44" t="s">
         <v>16</v>
       </c>
+      <c r="C44" t="s">
+        <v>43</v>
+      </c>
+      <c r="D44" t="s">
+        <v>45</v>
+      </c>
+      <c r="E44">
+        <v>170</v>
+      </c>
+      <c r="F44">
+        <f t="shared" si="1"/>
+        <v>10200</v>
+      </c>
+      <c r="G44" s="3" t="s">
+        <v>46</v>
+      </c>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A45" t="s">
@@ -2745,6 +2970,22 @@
       <c r="B45" t="s">
         <v>16</v>
       </c>
+      <c r="C45" t="s">
+        <v>475</v>
+      </c>
+      <c r="D45" t="s">
+        <v>45</v>
+      </c>
+      <c r="E45">
+        <v>68.3</v>
+      </c>
+      <c r="F45">
+        <f t="shared" si="1"/>
+        <v>4098</v>
+      </c>
+      <c r="G45" s="1" t="s">
+        <v>476</v>
+      </c>
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A46" t="s">
@@ -2753,6 +2994,22 @@
       <c r="B46" t="s">
         <v>16</v>
       </c>
+      <c r="C46" t="s">
+        <v>477</v>
+      </c>
+      <c r="D46" t="s">
+        <v>40</v>
+      </c>
+      <c r="E46">
+        <v>410</v>
+      </c>
+      <c r="F46">
+        <f t="shared" si="1"/>
+        <v>24600</v>
+      </c>
+      <c r="G46" s="3" t="s">
+        <v>478</v>
+      </c>
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A47" t="s">
@@ -2761,6 +3018,22 @@
       <c r="B47" t="s">
         <v>16</v>
       </c>
+      <c r="C47" t="s">
+        <v>479</v>
+      </c>
+      <c r="D47" t="s">
+        <v>40</v>
+      </c>
+      <c r="E47">
+        <v>20.931999999999999</v>
+      </c>
+      <c r="F47">
+        <f t="shared" si="1"/>
+        <v>1255.9199999999998</v>
+      </c>
+      <c r="G47" s="3" t="s">
+        <v>480</v>
+      </c>
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A48" t="s">
@@ -2769,133 +3042,405 @@
       <c r="B48" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C48" t="s">
+        <v>481</v>
+      </c>
+      <c r="D48" t="s">
+        <v>40</v>
+      </c>
+      <c r="E48">
+        <v>10.3</v>
+      </c>
+      <c r="F48">
+        <f t="shared" si="1"/>
+        <v>618</v>
+      </c>
+      <c r="G48" s="3" t="s">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A49" t="s">
         <v>250</v>
       </c>
       <c r="B49" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C49" t="s">
+        <v>483</v>
+      </c>
+      <c r="D49" t="s">
+        <v>40</v>
+      </c>
+      <c r="E49">
+        <v>1.76</v>
+      </c>
+      <c r="F49">
+        <f t="shared" si="1"/>
+        <v>105.6</v>
+      </c>
+      <c r="G49" s="3" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A50" t="s">
         <v>251</v>
       </c>
       <c r="B50" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C50" t="s">
+        <v>485</v>
+      </c>
+      <c r="D50" t="s">
+        <v>45</v>
+      </c>
+      <c r="E50">
+        <v>3.27E-2</v>
+      </c>
+      <c r="F50">
+        <f t="shared" si="1"/>
+        <v>1.962</v>
+      </c>
+      <c r="G50" s="3" t="s">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A51" t="s">
         <v>252</v>
       </c>
       <c r="B51" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C51" t="s">
+        <v>487</v>
+      </c>
+      <c r="D51" t="s">
+        <v>40</v>
+      </c>
+      <c r="E51">
+        <v>350.02</v>
+      </c>
+      <c r="F51">
+        <f t="shared" si="1"/>
+        <v>21001.199999999997</v>
+      </c>
+      <c r="G51" s="3" t="s">
+        <v>488</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A52" t="s">
         <v>253</v>
       </c>
       <c r="B52" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C52" t="s">
+        <v>489</v>
+      </c>
+      <c r="D52" t="s">
+        <v>45</v>
+      </c>
+      <c r="E52">
+        <v>2.3999999999999998E-3</v>
+      </c>
+      <c r="F52">
+        <f t="shared" si="1"/>
+        <v>0.14399999999999999</v>
+      </c>
+      <c r="G52" s="3" t="s">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A53" t="s">
         <v>254</v>
       </c>
       <c r="B53" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C53" t="s">
+        <v>483</v>
+      </c>
+      <c r="D53" t="s">
+        <v>40</v>
+      </c>
+      <c r="E53">
+        <v>1.76</v>
+      </c>
+      <c r="F53">
+        <f t="shared" ref="F53:F64" si="2">E53*60</f>
+        <v>105.6</v>
+      </c>
+      <c r="G53" s="3" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A54" t="s">
         <v>255</v>
       </c>
       <c r="B54" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C54" t="s">
+        <v>470</v>
+      </c>
+      <c r="D54" t="s">
+        <v>45</v>
+      </c>
+      <c r="E54">
+        <v>2.08</v>
+      </c>
+      <c r="F54">
+        <f t="shared" si="2"/>
+        <v>124.80000000000001</v>
+      </c>
+      <c r="G54" s="3" t="s">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A55" t="s">
         <v>256</v>
       </c>
       <c r="B55" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C55" t="s">
+        <v>491</v>
+      </c>
+      <c r="D55" t="s">
+        <v>45</v>
+      </c>
+      <c r="E55">
+        <v>138</v>
+      </c>
+      <c r="F55">
+        <f t="shared" si="2"/>
+        <v>8280</v>
+      </c>
+      <c r="G55" s="3" t="s">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A56" t="s">
         <v>257</v>
       </c>
       <c r="B56" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C56" t="s">
+        <v>470</v>
+      </c>
+      <c r="D56" t="s">
+        <v>45</v>
+      </c>
+      <c r="E56">
+        <v>2.08</v>
+      </c>
+      <c r="F56">
+        <f t="shared" si="2"/>
+        <v>124.80000000000001</v>
+      </c>
+      <c r="G56" s="3" t="s">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A57" t="s">
         <v>258</v>
       </c>
       <c r="B57" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C57" t="s">
+        <v>170</v>
+      </c>
+      <c r="D57" t="s">
+        <v>40</v>
+      </c>
+      <c r="E57">
+        <v>32</v>
+      </c>
+      <c r="F57">
+        <f t="shared" si="2"/>
+        <v>1920</v>
+      </c>
+      <c r="G57" s="3" t="s">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A58" t="s">
         <v>259</v>
       </c>
       <c r="B58" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C58" t="s">
+        <v>468</v>
+      </c>
+      <c r="D58" t="s">
+        <v>45</v>
+      </c>
+      <c r="E58">
+        <v>3.069</v>
+      </c>
+      <c r="F58">
+        <f t="shared" si="2"/>
+        <v>184.14</v>
+      </c>
+      <c r="G58" s="3" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A59" t="s">
         <v>260</v>
       </c>
       <c r="B59" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C59" t="s">
+        <v>494</v>
+      </c>
+      <c r="D59" t="s">
+        <v>42</v>
+      </c>
+      <c r="E59">
+        <v>6.5799999999999999E-3</v>
+      </c>
+      <c r="F59">
+        <f t="shared" si="2"/>
+        <v>0.39479999999999998</v>
+      </c>
+      <c r="G59" s="3" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A60" t="s">
         <v>261</v>
       </c>
       <c r="B60" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C60" t="s">
+        <v>496</v>
+      </c>
+      <c r="D60" t="s">
+        <v>45</v>
+      </c>
+      <c r="E60">
+        <v>2E-3</v>
+      </c>
+      <c r="F60">
+        <f t="shared" si="2"/>
+        <v>0.12</v>
+      </c>
+      <c r="G60" s="3" t="s">
+        <v>497</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A61" t="s">
         <v>262</v>
       </c>
       <c r="B61" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C61" t="s">
+        <v>498</v>
+      </c>
+      <c r="D61" t="s">
+        <v>42</v>
+      </c>
+      <c r="E61">
+        <v>206</v>
+      </c>
+      <c r="F61">
+        <f t="shared" si="2"/>
+        <v>12360</v>
+      </c>
+      <c r="G61" s="3" t="s">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A62" t="s">
         <v>263</v>
       </c>
       <c r="B62" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C62" t="s">
+        <v>500</v>
+      </c>
+      <c r="D62" t="s">
+        <v>88</v>
+      </c>
+      <c r="E62">
+        <v>5.8599999999999999E-2</v>
+      </c>
+      <c r="F62">
+        <f t="shared" si="2"/>
+        <v>3.516</v>
+      </c>
+      <c r="G62" s="3" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A63" t="s">
         <v>264</v>
       </c>
       <c r="B63" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C63" t="s">
+        <v>502</v>
+      </c>
+      <c r="D63" t="s">
+        <v>88</v>
+      </c>
+      <c r="E63">
+        <v>3.3</v>
+      </c>
+      <c r="F63">
+        <f t="shared" si="2"/>
+        <v>198</v>
+      </c>
+      <c r="G63" s="3" t="s">
+        <v>503</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A64" t="s">
         <v>265</v>
       </c>
       <c r="B64" t="s">
         <v>16</v>
+      </c>
+      <c r="C64" t="s">
+        <v>504</v>
+      </c>
+      <c r="D64" t="s">
+        <v>45</v>
+      </c>
+      <c r="E64">
+        <v>51</v>
+      </c>
+      <c r="F64">
+        <f t="shared" si="2"/>
+        <v>3060</v>
+      </c>
+      <c r="G64" s="3" t="s">
+        <v>505</v>
       </c>
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.35">
@@ -4060,698 +4605,698 @@
     </row>
     <row r="210" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A210" t="s">
-        <v>411</v>
+        <v>26</v>
       </c>
       <c r="B210" t="s">
-        <v>16</v>
+        <v>38</v>
+      </c>
+      <c r="C210" t="s">
+        <v>86</v>
+      </c>
+      <c r="D210" t="s">
+        <v>45</v>
+      </c>
+      <c r="E210">
+        <v>11</v>
+      </c>
+      <c r="F210">
+        <f t="shared" si="0"/>
+        <v>660</v>
+      </c>
+      <c r="G210" s="3" t="s">
+        <v>87</v>
       </c>
     </row>
     <row r="211" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A211" t="s">
-        <v>412</v>
+        <v>27</v>
       </c>
       <c r="B211" t="s">
-        <v>16</v>
+        <v>38</v>
+      </c>
+      <c r="C211" t="s">
+        <v>89</v>
+      </c>
+      <c r="D211" t="s">
+        <v>88</v>
+      </c>
+      <c r="E211">
+        <v>0.127</v>
+      </c>
+      <c r="F211">
+        <f t="shared" si="0"/>
+        <v>7.62</v>
+      </c>
+      <c r="G211" s="3" t="s">
+        <v>90</v>
       </c>
     </row>
     <row r="212" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A212" t="s">
-        <v>413</v>
+        <v>28</v>
       </c>
       <c r="B212" t="s">
-        <v>16</v>
+        <v>38</v>
+      </c>
+      <c r="C212" t="s">
+        <v>92</v>
+      </c>
+      <c r="D212" t="s">
+        <v>91</v>
+      </c>
+      <c r="E212">
+        <v>6.13</v>
+      </c>
+      <c r="F212">
+        <f t="shared" si="0"/>
+        <v>367.8</v>
+      </c>
+      <c r="G212" s="3" t="s">
+        <v>93</v>
       </c>
     </row>
     <row r="213" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A213" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="B213" t="s">
         <v>38</v>
       </c>
       <c r="C213" t="s">
-        <v>86</v>
+        <v>94</v>
       </c>
       <c r="D213" t="s">
         <v>45</v>
       </c>
       <c r="E213">
-        <v>11</v>
+        <v>31</v>
       </c>
       <c r="F213">
         <f t="shared" si="0"/>
-        <v>660</v>
-      </c>
-      <c r="G213" t="s">
-        <v>87</v>
+        <v>1860</v>
+      </c>
+      <c r="G213" s="3" t="s">
+        <v>95</v>
       </c>
     </row>
     <row r="214" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A214" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="B214" t="s">
         <v>38</v>
       </c>
       <c r="C214" t="s">
-        <v>89</v>
+        <v>97</v>
       </c>
       <c r="D214" t="s">
-        <v>88</v>
+        <v>96</v>
       </c>
       <c r="E214">
-        <v>0.127</v>
+        <v>252</v>
       </c>
       <c r="F214">
         <f t="shared" si="0"/>
-        <v>7.62</v>
-      </c>
-      <c r="G214" t="s">
-        <v>90</v>
+        <v>15120</v>
+      </c>
+      <c r="G214" s="3" t="s">
+        <v>98</v>
       </c>
     </row>
     <row r="215" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A215" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="B215" t="s">
         <v>38</v>
       </c>
       <c r="C215" t="s">
-        <v>92</v>
+        <v>100</v>
       </c>
       <c r="D215" t="s">
-        <v>91</v>
+        <v>99</v>
       </c>
       <c r="E215">
-        <v>6.13</v>
+        <v>22.1</v>
       </c>
       <c r="F215">
         <f t="shared" si="0"/>
-        <v>367.8</v>
-      </c>
-      <c r="G215" t="s">
-        <v>93</v>
+        <v>1326</v>
+      </c>
+      <c r="G215" s="3" t="s">
+        <v>101</v>
       </c>
     </row>
     <row r="216" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A216" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="B216" t="s">
         <v>38</v>
       </c>
       <c r="C216" t="s">
-        <v>94</v>
+        <v>102</v>
       </c>
       <c r="D216" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="E216">
-        <v>31</v>
+        <v>3.9E-2</v>
       </c>
       <c r="F216">
         <f t="shared" si="0"/>
-        <v>1860</v>
-      </c>
-      <c r="G216" t="s">
-        <v>95</v>
+        <v>2.34</v>
+      </c>
+      <c r="G216" s="3" t="s">
+        <v>103</v>
       </c>
     </row>
     <row r="217" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A217" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="B217" t="s">
         <v>38</v>
       </c>
       <c r="C217" t="s">
-        <v>97</v>
+        <v>104</v>
       </c>
       <c r="D217" t="s">
-        <v>96</v>
+        <v>45</v>
       </c>
       <c r="E217">
-        <v>252</v>
+        <v>450</v>
       </c>
       <c r="F217">
         <f t="shared" si="0"/>
-        <v>15120</v>
-      </c>
-      <c r="G217" t="s">
-        <v>98</v>
+        <v>27000</v>
+      </c>
+      <c r="G217" s="3" t="s">
+        <v>105</v>
       </c>
     </row>
     <row r="218" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A218" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="B218" t="s">
         <v>38</v>
       </c>
       <c r="C218" t="s">
-        <v>100</v>
+        <v>47</v>
       </c>
       <c r="D218" t="s">
-        <v>99</v>
+        <v>45</v>
       </c>
       <c r="E218">
-        <v>22.1</v>
+        <v>182</v>
       </c>
       <c r="F218">
         <f t="shared" si="0"/>
-        <v>1326</v>
-      </c>
-      <c r="G218" t="s">
-        <v>101</v>
+        <v>10920</v>
+      </c>
+      <c r="G218" s="3" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="219" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A219" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="B219" t="s">
         <v>38</v>
       </c>
       <c r="C219" t="s">
-        <v>102</v>
+        <v>41</v>
       </c>
       <c r="D219" t="s">
-        <v>40</v>
+        <v>88</v>
       </c>
       <c r="E219">
-        <v>3.9E-2</v>
+        <v>345</v>
       </c>
       <c r="F219">
         <f t="shared" si="0"/>
-        <v>2.34</v>
-      </c>
-      <c r="G219" t="s">
-        <v>103</v>
+        <v>20700</v>
+      </c>
+      <c r="G219" s="3" t="s">
+        <v>106</v>
       </c>
     </row>
     <row r="220" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A220" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="B220" t="s">
         <v>38</v>
       </c>
       <c r="C220" t="s">
-        <v>104</v>
+        <v>43</v>
       </c>
       <c r="D220" t="s">
         <v>45</v>
       </c>
       <c r="E220">
-        <v>450</v>
+        <v>170</v>
       </c>
       <c r="F220">
         <f t="shared" si="0"/>
-        <v>27000</v>
-      </c>
-      <c r="G220" t="s">
-        <v>105</v>
+        <v>10200</v>
+      </c>
+      <c r="G220" s="3" t="s">
+        <v>46</v>
       </c>
     </row>
     <row r="221" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A221" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="B221" t="s">
-        <v>38</v>
+        <v>16</v>
       </c>
       <c r="C221" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="D221" t="s">
         <v>45</v>
       </c>
       <c r="E221">
-        <v>182</v>
+        <v>170</v>
       </c>
       <c r="F221">
         <f t="shared" si="0"/>
-        <v>10920</v>
-      </c>
-      <c r="G221" t="s">
-        <v>48</v>
+        <v>10200</v>
+      </c>
+      <c r="G221" s="3" t="s">
+        <v>46</v>
       </c>
     </row>
     <row r="222" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A222" t="s">
-        <v>35</v>
+        <v>44</v>
       </c>
       <c r="B222" t="s">
-        <v>38</v>
+        <v>16</v>
       </c>
       <c r="C222" t="s">
-        <v>41</v>
+        <v>47</v>
       </c>
       <c r="D222" t="s">
-        <v>88</v>
+        <v>45</v>
       </c>
       <c r="E222">
-        <v>345</v>
+        <v>182</v>
       </c>
       <c r="F222">
         <f t="shared" si="0"/>
-        <v>20700</v>
-      </c>
-      <c r="G222" t="s">
-        <v>106</v>
+        <v>10920</v>
+      </c>
+      <c r="G222" s="3" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="223" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A223" t="s">
-        <v>36</v>
+        <v>161</v>
       </c>
       <c r="B223" t="s">
         <v>38</v>
       </c>
       <c r="C223" t="s">
-        <v>43</v>
+        <v>176</v>
       </c>
       <c r="D223" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="E223">
-        <v>170</v>
+        <v>40</v>
       </c>
       <c r="F223">
         <f t="shared" si="0"/>
-        <v>10200</v>
-      </c>
-      <c r="G223" t="s">
-        <v>46</v>
+        <v>2400</v>
+      </c>
+      <c r="G223" s="3" t="s">
+        <v>175</v>
       </c>
     </row>
     <row r="224" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A224" t="s">
-        <v>37</v>
+        <v>163</v>
       </c>
       <c r="B224" t="s">
-        <v>16</v>
+        <v>38</v>
       </c>
       <c r="C224" t="s">
-        <v>43</v>
+        <v>173</v>
       </c>
       <c r="D224" t="s">
-        <v>45</v>
+        <v>88</v>
       </c>
       <c r="E224">
-        <v>170</v>
+        <v>0.84</v>
       </c>
       <c r="F224">
         <f t="shared" si="0"/>
-        <v>10200</v>
-      </c>
-      <c r="G224" t="s">
-        <v>46</v>
+        <v>50.4</v>
+      </c>
+      <c r="G224" s="5" t="s">
+        <v>174</v>
       </c>
     </row>
     <row r="225" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A225" t="s">
-        <v>44</v>
+        <v>162</v>
       </c>
       <c r="B225" t="s">
-        <v>16</v>
+        <v>38</v>
       </c>
       <c r="C225" t="s">
-        <v>47</v>
+        <v>172</v>
       </c>
       <c r="D225" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="E225">
-        <v>182</v>
+        <v>0.55000000000000004</v>
       </c>
       <c r="F225">
         <f t="shared" si="0"/>
-        <v>10920</v>
-      </c>
-      <c r="G225" t="s">
-        <v>48</v>
+        <v>33</v>
+      </c>
+      <c r="G225" s="6" t="s">
+        <v>171</v>
       </c>
     </row>
     <row r="226" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A226" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="B226" t="s">
         <v>38</v>
       </c>
       <c r="C226" t="s">
-        <v>176</v>
+        <v>170</v>
       </c>
       <c r="D226" t="s">
         <v>42</v>
       </c>
       <c r="E226">
-        <v>40</v>
+        <v>7.1</v>
       </c>
       <c r="F226">
         <f t="shared" si="0"/>
-        <v>2400</v>
-      </c>
-      <c r="G226" t="s">
-        <v>175</v>
+        <v>426</v>
+      </c>
+      <c r="G226" s="6" t="s">
+        <v>171</v>
       </c>
     </row>
     <row r="227" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A227" t="s">
-        <v>163</v>
+        <v>182</v>
       </c>
       <c r="B227" t="s">
         <v>38</v>
       </c>
       <c r="C227" t="s">
-        <v>173</v>
+        <v>186</v>
       </c>
       <c r="D227" t="s">
-        <v>88</v>
+        <v>40</v>
       </c>
       <c r="E227">
-        <v>0.84</v>
+        <v>2300</v>
       </c>
       <c r="F227">
         <f t="shared" si="0"/>
-        <v>50.4</v>
-      </c>
-      <c r="G227" s="3" t="s">
-        <v>174</v>
+        <v>138000</v>
+      </c>
+      <c r="G227" s="6" t="s">
+        <v>187</v>
       </c>
     </row>
     <row r="228" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A228" t="s">
-        <v>162</v>
+        <v>183</v>
       </c>
       <c r="B228" t="s">
         <v>38</v>
       </c>
       <c r="C228" t="s">
-        <v>172</v>
+        <v>188</v>
       </c>
       <c r="D228" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="E228">
-        <v>0.55000000000000004</v>
+        <v>0.22800000000000001</v>
       </c>
       <c r="F228">
         <f t="shared" si="0"/>
-        <v>33</v>
-      </c>
-      <c r="G228" s="4" t="s">
-        <v>171</v>
+        <v>13.68</v>
+      </c>
+      <c r="G228" s="6" t="s">
+        <v>189</v>
       </c>
     </row>
     <row r="229" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A229" t="s">
-        <v>164</v>
+        <v>184</v>
       </c>
       <c r="B229" t="s">
         <v>38</v>
       </c>
       <c r="C229" t="s">
-        <v>170</v>
+        <v>190</v>
       </c>
       <c r="D229" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="E229">
-        <v>7.1</v>
+        <v>38.6</v>
       </c>
       <c r="F229">
         <f t="shared" si="0"/>
-        <v>426</v>
-      </c>
-      <c r="G229" s="4" t="s">
-        <v>171</v>
+        <v>2316</v>
+      </c>
+      <c r="G229" s="6" t="s">
+        <v>191</v>
       </c>
     </row>
     <row r="230" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A230" t="s">
-        <v>182</v>
+        <v>212</v>
       </c>
       <c r="B230" t="s">
         <v>38</v>
       </c>
       <c r="C230" t="s">
-        <v>186</v>
+        <v>213</v>
       </c>
       <c r="D230" t="s">
-        <v>40</v>
+        <v>88</v>
       </c>
       <c r="E230">
-        <v>2300</v>
+        <v>28.3</v>
       </c>
       <c r="F230">
         <f t="shared" si="0"/>
-        <v>138000</v>
-      </c>
-      <c r="G230" s="4" t="s">
-        <v>187</v>
+        <v>1698</v>
+      </c>
+      <c r="G230" s="6" t="s">
+        <v>214</v>
       </c>
     </row>
     <row r="231" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A231" t="s">
-        <v>183</v>
+        <v>215</v>
       </c>
       <c r="B231" t="s">
         <v>38</v>
       </c>
       <c r="C231" t="s">
-        <v>188</v>
+        <v>216</v>
       </c>
       <c r="D231" t="s">
         <v>45</v>
       </c>
       <c r="E231">
-        <v>0.22800000000000001</v>
+        <v>5.7999999999999996E-3</v>
       </c>
       <c r="F231">
         <f t="shared" si="0"/>
-        <v>13.68</v>
-      </c>
-      <c r="G231" s="4" t="s">
-        <v>189</v>
+        <v>0.34799999999999998</v>
+      </c>
+      <c r="G231" s="6" t="s">
+        <v>217</v>
       </c>
     </row>
     <row r="232" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A232" t="s">
-        <v>184</v>
+        <v>218</v>
       </c>
       <c r="B232" t="s">
         <v>38</v>
       </c>
       <c r="C232" t="s">
-        <v>190</v>
+        <v>219</v>
       </c>
       <c r="D232" t="s">
-        <v>45</v>
+        <v>88</v>
       </c>
       <c r="E232">
-        <v>38.6</v>
+        <v>0.185</v>
       </c>
       <c r="F232">
         <f t="shared" si="0"/>
-        <v>2316</v>
-      </c>
-      <c r="G232" s="4" t="s">
-        <v>191</v>
+        <v>11.1</v>
+      </c>
+      <c r="G232" s="6" t="s">
+        <v>220</v>
       </c>
     </row>
     <row r="233" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A233" t="s">
-        <v>212</v>
+        <v>224</v>
       </c>
       <c r="B233" t="s">
         <v>38</v>
       </c>
       <c r="C233" t="s">
-        <v>213</v>
+        <v>225</v>
       </c>
       <c r="D233" t="s">
         <v>88</v>
       </c>
       <c r="E233">
-        <v>28.3</v>
+        <v>133</v>
       </c>
       <c r="F233">
         <f t="shared" si="0"/>
-        <v>1698</v>
-      </c>
-      <c r="G233" s="4" t="s">
-        <v>214</v>
+        <v>7980</v>
+      </c>
+      <c r="G233" s="6" t="s">
+        <v>226</v>
       </c>
     </row>
     <row r="234" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A234" t="s">
-        <v>215</v>
+        <v>227</v>
       </c>
       <c r="B234" t="s">
         <v>38</v>
       </c>
       <c r="C234" t="s">
-        <v>216</v>
+        <v>228</v>
       </c>
       <c r="D234" t="s">
         <v>45</v>
       </c>
       <c r="E234">
-        <v>5.7999999999999996E-3</v>
+        <v>2.2999999999999998</v>
       </c>
       <c r="F234">
         <f t="shared" si="0"/>
-        <v>0.34799999999999998</v>
-      </c>
-      <c r="G234" s="4" t="s">
-        <v>217</v>
+        <v>138</v>
+      </c>
+      <c r="G234" s="6" t="s">
+        <v>229</v>
       </c>
     </row>
     <row r="235" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A235" t="s">
-        <v>218</v>
+        <v>231</v>
       </c>
       <c r="B235" t="s">
         <v>38</v>
       </c>
       <c r="C235" t="s">
-        <v>219</v>
+        <v>230</v>
       </c>
       <c r="D235" t="s">
-        <v>88</v>
+        <v>45</v>
       </c>
       <c r="E235">
-        <v>0.185</v>
+        <v>1334</v>
       </c>
       <c r="F235">
         <f t="shared" si="0"/>
-        <v>11.1</v>
-      </c>
-      <c r="G235" s="4" t="s">
-        <v>220</v>
+        <v>80040</v>
+      </c>
+      <c r="G235" s="6" t="s">
+        <v>232</v>
       </c>
     </row>
     <row r="236" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A236" t="s">
-        <v>224</v>
+        <v>233</v>
       </c>
       <c r="B236" t="s">
         <v>38</v>
       </c>
       <c r="C236" t="s">
-        <v>225</v>
+        <v>234</v>
       </c>
       <c r="D236" t="s">
-        <v>88</v>
+        <v>45</v>
       </c>
       <c r="E236">
-        <v>133</v>
+        <v>220</v>
       </c>
       <c r="F236">
         <f t="shared" si="0"/>
-        <v>7980</v>
-      </c>
-      <c r="G236" s="4" t="s">
-        <v>226</v>
+        <v>13200</v>
+      </c>
+      <c r="G236" s="6" t="s">
+        <v>235</v>
       </c>
     </row>
     <row r="237" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A237" t="s">
-        <v>227</v>
+        <v>236</v>
       </c>
       <c r="B237" t="s">
         <v>38</v>
       </c>
       <c r="C237" t="s">
-        <v>228</v>
+        <v>237</v>
       </c>
       <c r="D237" t="s">
         <v>45</v>
       </c>
       <c r="E237">
-        <v>2.2999999999999998</v>
+        <v>58.2</v>
       </c>
       <c r="F237">
         <f t="shared" si="0"/>
-        <v>138</v>
-      </c>
-      <c r="G237" s="4" t="s">
-        <v>229</v>
+        <v>3492</v>
+      </c>
+      <c r="G237" s="6" t="s">
+        <v>238</v>
       </c>
     </row>
     <row r="238" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A238" t="s">
-        <v>231</v>
+        <v>411</v>
       </c>
       <c r="B238" t="s">
         <v>38</v>
-      </c>
-      <c r="C238" t="s">
-        <v>230</v>
-      </c>
-      <c r="D238" t="s">
-        <v>45</v>
-      </c>
-      <c r="E238">
-        <v>1334</v>
-      </c>
-      <c r="F238">
-        <f t="shared" si="0"/>
-        <v>80040</v>
-      </c>
-      <c r="G238" s="4" t="s">
-        <v>232</v>
       </c>
     </row>
     <row r="239" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A239" t="s">
-        <v>233</v>
+        <v>412</v>
       </c>
       <c r="B239" t="s">
         <v>38</v>
-      </c>
-      <c r="C239" t="s">
-        <v>234</v>
-      </c>
-      <c r="D239" t="s">
-        <v>45</v>
-      </c>
-      <c r="E239">
-        <v>220</v>
-      </c>
-      <c r="F239">
-        <f t="shared" si="0"/>
-        <v>13200</v>
-      </c>
-      <c r="G239" s="4" t="s">
-        <v>235</v>
       </c>
     </row>
     <row r="240" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A240" t="s">
-        <v>236</v>
+        <v>413</v>
       </c>
       <c r="B240" t="s">
         <v>38</v>
-      </c>
-      <c r="C240" t="s">
-        <v>237</v>
-      </c>
-      <c r="D240" t="s">
-        <v>45</v>
-      </c>
-      <c r="E240">
-        <v>58.2</v>
-      </c>
-      <c r="F240">
-        <f t="shared" si="0"/>
-        <v>3492</v>
-      </c>
-      <c r="G240" s="4" t="s">
-        <v>238</v>
       </c>
     </row>
     <row r="241" spans="1:2" x14ac:dyDescent="0.35">
@@ -5010,7 +5555,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="273" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="273" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A273" t="s">
         <v>446</v>
       </c>
@@ -5018,7 +5563,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="274" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="274" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A274" t="s">
         <v>447</v>
       </c>
@@ -5026,7 +5571,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="275" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="275" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A275" t="s">
         <v>448</v>
       </c>
@@ -5034,7 +5579,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="276" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="276" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A276" t="s">
         <v>449</v>
       </c>
@@ -5042,7 +5587,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="277" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="277" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A277" t="s">
         <v>450</v>
       </c>
@@ -5050,7 +5595,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="278" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="278" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A278" t="s">
         <v>451</v>
       </c>
@@ -5058,7 +5603,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="279" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="279" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A279" t="s">
         <v>452</v>
       </c>
@@ -5066,7 +5611,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="280" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="280" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A280" t="s">
         <v>453</v>
       </c>
@@ -5074,7 +5619,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="281" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="281" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A281" t="s">
         <v>454</v>
       </c>
@@ -5082,7 +5627,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="282" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="282" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A282" t="s">
         <v>455</v>
       </c>
@@ -5090,7 +5635,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="283" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="283" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A283" t="s">
         <v>456</v>
       </c>
@@ -5098,7 +5643,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="284" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="284" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A284" t="s">
         <v>457</v>
       </c>
@@ -5106,7 +5651,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="285" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="285" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A285" t="s">
         <v>458</v>
       </c>
@@ -5114,7 +5659,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="286" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="286" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A286" t="s">
         <v>459</v>
       </c>
@@ -5122,7 +5667,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="287" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="287" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A287" t="s">
         <v>460</v>
       </c>
@@ -5130,145 +5675,121 @@
         <v>38</v>
       </c>
     </row>
-    <row r="288" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="288" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A288" t="s">
         <v>461</v>
       </c>
       <c r="B288" t="s">
         <v>38</v>
       </c>
+      <c r="C288" t="s">
+        <v>462</v>
+      </c>
+      <c r="D288" t="s">
+        <v>45</v>
+      </c>
+      <c r="E288">
+        <v>221</v>
+      </c>
+      <c r="F288">
+        <f t="shared" si="0"/>
+        <v>13260</v>
+      </c>
+      <c r="G288" s="3" t="s">
+        <v>463</v>
+      </c>
     </row>
     <row r="289" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A289" t="s">
-        <v>462</v>
+        <v>156</v>
       </c>
       <c r="B289" t="s">
         <v>38</v>
+      </c>
+      <c r="C289" t="s">
+        <v>158</v>
+      </c>
+      <c r="D289" t="s">
+        <v>45</v>
+      </c>
+      <c r="E289">
+        <v>7.5</v>
+      </c>
+      <c r="F289">
+        <f t="shared" si="0"/>
+        <v>450</v>
+      </c>
+      <c r="G289" s="3" t="s">
+        <v>159</v>
       </c>
     </row>
     <row r="290" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A290" t="s">
-        <v>463</v>
+        <v>157</v>
       </c>
       <c r="B290" t="s">
         <v>38</v>
+      </c>
+      <c r="C290" t="s">
+        <v>158</v>
+      </c>
+      <c r="D290" t="s">
+        <v>45</v>
+      </c>
+      <c r="E290">
+        <v>7.5</v>
+      </c>
+      <c r="F290">
+        <f t="shared" si="0"/>
+        <v>450</v>
+      </c>
+      <c r="G290" s="3" t="s">
+        <v>159</v>
       </c>
     </row>
     <row r="291" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A291" t="s">
-        <v>464</v>
+        <v>160</v>
       </c>
       <c r="B291" t="s">
-        <v>38</v>
+        <v>16</v>
       </c>
       <c r="C291" t="s">
-        <v>465</v>
+        <v>109</v>
       </c>
       <c r="D291" t="s">
-        <v>45</v>
-      </c>
-      <c r="E291">
-        <v>221</v>
+        <v>109</v>
+      </c>
+      <c r="E291" t="s">
+        <v>109</v>
       </c>
       <c r="F291">
-        <f t="shared" si="0"/>
-        <v>13260</v>
-      </c>
-      <c r="G291" t="s">
-        <v>466</v>
+        <v>100</v>
+      </c>
+      <c r="G291" s="2" t="s">
+        <v>114</v>
       </c>
     </row>
     <row r="292" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A292" t="s">
-        <v>156</v>
+        <v>117</v>
       </c>
       <c r="B292" t="s">
-        <v>38</v>
+        <v>16</v>
       </c>
       <c r="C292" t="s">
-        <v>158</v>
+        <v>109</v>
       </c>
       <c r="D292" t="s">
-        <v>45</v>
-      </c>
-      <c r="E292">
-        <v>7.5</v>
+        <v>109</v>
+      </c>
+      <c r="E292" t="s">
+        <v>109</v>
       </c>
       <c r="F292">
-        <f t="shared" si="0"/>
-        <v>450</v>
-      </c>
-      <c r="G292" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="293" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A293" t="s">
-        <v>157</v>
-      </c>
-      <c r="B293" t="s">
-        <v>38</v>
-      </c>
-      <c r="C293" t="s">
-        <v>158</v>
-      </c>
-      <c r="D293" t="s">
-        <v>45</v>
-      </c>
-      <c r="E293">
-        <v>7.5</v>
-      </c>
-      <c r="F293">
-        <f t="shared" si="0"/>
-        <v>450</v>
-      </c>
-      <c r="G293" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="294" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A294" t="s">
-        <v>160</v>
-      </c>
-      <c r="B294" t="s">
-        <v>16</v>
-      </c>
-      <c r="C294" t="s">
-        <v>109</v>
-      </c>
-      <c r="D294" t="s">
-        <v>109</v>
-      </c>
-      <c r="E294" t="s">
-        <v>109</v>
-      </c>
-      <c r="F294">
-        <v>100</v>
-      </c>
-      <c r="G294" s="2" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="295" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A295" t="s">
-        <v>117</v>
-      </c>
-      <c r="B295" t="s">
-        <v>16</v>
-      </c>
-      <c r="C295" t="s">
-        <v>109</v>
-      </c>
-      <c r="D295" t="s">
-        <v>109</v>
-      </c>
-      <c r="E295" t="s">
-        <v>109</v>
-      </c>
-      <c r="F295">
         <v>50</v>
       </c>
-      <c r="G295" s="2" t="s">
+      <c r="G292" s="2" t="s">
         <v>114</v>
       </c>
     </row>
@@ -5276,14 +5797,15 @@
   <hyperlinks>
     <hyperlink ref="G20" r:id="rId1" xr:uid="{60D2E9C6-9172-4D4D-B418-CC567356E033}"/>
     <hyperlink ref="G2" r:id="rId2" xr:uid="{96642BA6-12F8-4451-8DFA-16265959FEFA}"/>
-    <hyperlink ref="G229" r:id="rId3" xr:uid="{DBD518FF-06AA-4F59-B32D-3D580FD3488C}"/>
-    <hyperlink ref="G228" r:id="rId4" xr:uid="{3C873BD8-C205-4B23-B8F2-C8E28D105704}"/>
+    <hyperlink ref="G226" r:id="rId3" xr:uid="{DBD518FF-06AA-4F59-B32D-3D580FD3488C}"/>
+    <hyperlink ref="G225" r:id="rId4" xr:uid="{3C873BD8-C205-4B23-B8F2-C8E28D105704}"/>
     <hyperlink ref="G30" r:id="rId5" xr:uid="{3CCDC09F-65EC-46AB-A5B6-06698DF90FD6}"/>
     <hyperlink ref="G31" r:id="rId6" xr:uid="{45B7FFC2-C775-45F6-B5E2-92E39C1EFAC1}"/>
     <hyperlink ref="G34" r:id="rId7" xr:uid="{C0F23788-2A31-4EA5-B6D6-A12E3C45A7E7}"/>
+    <hyperlink ref="G45" r:id="rId8" xr:uid="{E16DED46-B1DD-492F-AAE6-8FA6CA99D4AD}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId8"/>
+  <pageSetup orientation="portrait" r:id="rId9"/>
 </worksheet>
 </file>
 

--- a/data/gems/Parameters.xlsx
+++ b/data/gems/Parameters.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bras5181\Desktop\Labprojects\CulturedMeat\iSusS\data\gems\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8ACC2DD6-BD5D-4418-AC23-00EF0346C10E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E516B9D9-FC49-4416-81EC-B91797C14C56}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="949" uniqueCount="506">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1023" uniqueCount="537">
   <si>
     <t>Rxn</t>
   </si>
@@ -840,9 +840,6 @@
     <t>SERHL</t>
   </si>
   <si>
-    <t>SRTNACT</t>
-  </si>
-  <si>
     <t>SALMCOM2</t>
   </si>
   <si>
@@ -879,9 +876,6 @@
     <t>DOPAMT</t>
   </si>
   <si>
-    <t>SRTNMTX</t>
-  </si>
-  <si>
     <t>PEAMNO</t>
   </si>
   <si>
@@ -1555,6 +1549,105 @@
   </si>
   <si>
     <t>DOI: 10.1016/s0076-6879(87)42020-x</t>
+  </si>
+  <si>
+    <t>4.3.1.17</t>
+  </si>
+  <si>
+    <t>DOI: 10.1016/j.biocel.2004.08.004</t>
+  </si>
+  <si>
+    <t>2.1.1.6</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1016/j.molcatb.2009.04.014</t>
+  </si>
+  <si>
+    <t>4.3.1.19</t>
+  </si>
+  <si>
+    <t>DOI: 10.1016/0165-022x(90)90068-n</t>
+  </si>
+  <si>
+    <t>1.4.3.22</t>
+  </si>
+  <si>
+    <t>DOI: 10.1016/0014-5793(71)80388-5</t>
+  </si>
+  <si>
+    <t>1.2.1.5</t>
+  </si>
+  <si>
+    <t>PMID: 8260946</t>
+  </si>
+  <si>
+    <t>1.14.18.2</t>
+  </si>
+  <si>
+    <t>DOI: 10.1093/glycob/4.5.675</t>
+  </si>
+  <si>
+    <t>1.2.1.3</t>
+  </si>
+  <si>
+    <t>DOI: 10.1016/0167-4838(94)90249-6</t>
+  </si>
+  <si>
+    <t>1.1.1.95</t>
+  </si>
+  <si>
+    <t>PMID: 564904</t>
+  </si>
+  <si>
+    <t>2.6.1.23</t>
+  </si>
+  <si>
+    <t>PMID: 13948827</t>
+  </si>
+  <si>
+    <t>1.13.11.11</t>
+  </si>
+  <si>
+    <t>DOI: 10.1016/j.bioorg.2020.104348</t>
+  </si>
+  <si>
+    <t>1.2.1.47</t>
+  </si>
+  <si>
+    <t>PMID: 7356654</t>
+  </si>
+  <si>
+    <t>1.13.11.52</t>
+  </si>
+  <si>
+    <t>DOI: 10.1007/s00726-008-0037-6</t>
+  </si>
+  <si>
+    <t>1.4.3.2</t>
+  </si>
+  <si>
+    <t>Naja oxiana</t>
+  </si>
+  <si>
+    <t>DOI: 10.1016/j.cbpb.2007.11.008</t>
+  </si>
+  <si>
+    <t>2.7.1.81</t>
+  </si>
+  <si>
+    <t>PMID: 4621658</t>
+  </si>
+  <si>
+    <t>1.5.1.6</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1016/S0076-6879(71)18156-6</t>
+  </si>
+  <si>
+    <t>1.5.1.34</t>
+  </si>
+  <si>
+    <t>DOI: 10.1016/0006-291x(83)91083-5</t>
   </si>
 </sst>
 </file>
@@ -1901,10 +1994,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G292"/>
+  <dimension ref="A1:G290"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A55" workbookViewId="0">
-      <selection activeCell="M66" sqref="M66"/>
+    <sheetView tabSelected="1" topLeftCell="A79" workbookViewId="0">
+      <selection activeCell="H95" sqref="H95"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2092,7 +2185,7 @@
         <v>620</v>
       </c>
       <c r="F8">
-        <f t="shared" ref="F8:F290" si="0">E8*60</f>
+        <f t="shared" ref="F8:F288" si="0">E8*60</f>
         <v>37200</v>
       </c>
       <c r="G8" s="3" t="s">
@@ -2827,7 +2920,7 @@
         <v>16</v>
       </c>
       <c r="C39" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
       <c r="D39" t="s">
         <v>88</v>
@@ -2840,7 +2933,7 @@
         <v>816</v>
       </c>
       <c r="G39" s="3" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.35">
@@ -2851,7 +2944,7 @@
         <v>16</v>
       </c>
       <c r="C40" t="s">
-        <v>466</v>
+        <v>464</v>
       </c>
       <c r="D40" t="s">
         <v>45</v>
@@ -2864,7 +2957,7 @@
         <v>227.34</v>
       </c>
       <c r="G40" s="3" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.35">
@@ -2875,7 +2968,7 @@
         <v>16</v>
       </c>
       <c r="C41" t="s">
-        <v>468</v>
+        <v>466</v>
       </c>
       <c r="D41" t="s">
         <v>45</v>
@@ -2888,7 +2981,7 @@
         <v>184.14</v>
       </c>
       <c r="G41" s="3" t="s">
-        <v>469</v>
+        <v>467</v>
       </c>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.35">
@@ -2899,7 +2992,7 @@
         <v>16</v>
       </c>
       <c r="C42" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
       <c r="D42" t="s">
         <v>45</v>
@@ -2912,7 +3005,7 @@
         <v>124.80000000000001</v>
       </c>
       <c r="G42" s="3" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.35">
@@ -2923,10 +3016,10 @@
         <v>16</v>
       </c>
       <c r="C43" t="s">
-        <v>472</v>
+        <v>470</v>
       </c>
       <c r="D43" t="s">
-        <v>473</v>
+        <v>471</v>
       </c>
       <c r="E43">
         <v>7.3</v>
@@ -2936,7 +3029,7 @@
         <v>438</v>
       </c>
       <c r="G43" s="3" t="s">
-        <v>474</v>
+        <v>472</v>
       </c>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.35">
@@ -2971,7 +3064,7 @@
         <v>16</v>
       </c>
       <c r="C45" t="s">
-        <v>475</v>
+        <v>473</v>
       </c>
       <c r="D45" t="s">
         <v>45</v>
@@ -2984,7 +3077,7 @@
         <v>4098</v>
       </c>
       <c r="G45" s="1" t="s">
-        <v>476</v>
+        <v>474</v>
       </c>
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.35">
@@ -2995,7 +3088,7 @@
         <v>16</v>
       </c>
       <c r="C46" t="s">
-        <v>477</v>
+        <v>475</v>
       </c>
       <c r="D46" t="s">
         <v>40</v>
@@ -3008,7 +3101,7 @@
         <v>24600</v>
       </c>
       <c r="G46" s="3" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.35">
@@ -3019,7 +3112,7 @@
         <v>16</v>
       </c>
       <c r="C47" t="s">
-        <v>479</v>
+        <v>477</v>
       </c>
       <c r="D47" t="s">
         <v>40</v>
@@ -3032,7 +3125,7 @@
         <v>1255.9199999999998</v>
       </c>
       <c r="G47" s="3" t="s">
-        <v>480</v>
+        <v>478</v>
       </c>
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.35">
@@ -3043,7 +3136,7 @@
         <v>16</v>
       </c>
       <c r="C48" t="s">
-        <v>481</v>
+        <v>479</v>
       </c>
       <c r="D48" t="s">
         <v>40</v>
@@ -3056,7 +3149,7 @@
         <v>618</v>
       </c>
       <c r="G48" s="3" t="s">
-        <v>482</v>
+        <v>480</v>
       </c>
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.35">
@@ -3067,7 +3160,7 @@
         <v>16</v>
       </c>
       <c r="C49" t="s">
-        <v>483</v>
+        <v>481</v>
       </c>
       <c r="D49" t="s">
         <v>40</v>
@@ -3080,7 +3173,7 @@
         <v>105.6</v>
       </c>
       <c r="G49" s="3" t="s">
-        <v>484</v>
+        <v>482</v>
       </c>
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.35">
@@ -3091,7 +3184,7 @@
         <v>16</v>
       </c>
       <c r="C50" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
       <c r="D50" t="s">
         <v>45</v>
@@ -3104,7 +3197,7 @@
         <v>1.962</v>
       </c>
       <c r="G50" s="3" t="s">
-        <v>486</v>
+        <v>484</v>
       </c>
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.35">
@@ -3115,7 +3208,7 @@
         <v>16</v>
       </c>
       <c r="C51" t="s">
-        <v>487</v>
+        <v>485</v>
       </c>
       <c r="D51" t="s">
         <v>40</v>
@@ -3128,7 +3221,7 @@
         <v>21001.199999999997</v>
       </c>
       <c r="G51" s="3" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.35">
@@ -3139,7 +3232,7 @@
         <v>16</v>
       </c>
       <c r="C52" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
       <c r="D52" t="s">
         <v>45</v>
@@ -3152,7 +3245,7 @@
         <v>0.14399999999999999</v>
       </c>
       <c r="G52" s="3" t="s">
-        <v>490</v>
+        <v>488</v>
       </c>
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.35">
@@ -3163,7 +3256,7 @@
         <v>16</v>
       </c>
       <c r="C53" t="s">
-        <v>483</v>
+        <v>481</v>
       </c>
       <c r="D53" t="s">
         <v>40</v>
@@ -3172,11 +3265,11 @@
         <v>1.76</v>
       </c>
       <c r="F53">
-        <f t="shared" ref="F53:F64" si="2">E53*60</f>
+        <f t="shared" ref="F53:F71" si="2">E53*60</f>
         <v>105.6</v>
       </c>
       <c r="G53" s="3" t="s">
-        <v>484</v>
+        <v>482</v>
       </c>
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.35">
@@ -3187,7 +3280,7 @@
         <v>16</v>
       </c>
       <c r="C54" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
       <c r="D54" t="s">
         <v>45</v>
@@ -3200,7 +3293,7 @@
         <v>124.80000000000001</v>
       </c>
       <c r="G54" s="3" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
     </row>
     <row r="55" spans="1:7" x14ac:dyDescent="0.35">
@@ -3211,7 +3304,7 @@
         <v>16</v>
       </c>
       <c r="C55" t="s">
-        <v>491</v>
+        <v>489</v>
       </c>
       <c r="D55" t="s">
         <v>45</v>
@@ -3224,7 +3317,7 @@
         <v>8280</v>
       </c>
       <c r="G55" s="3" t="s">
-        <v>492</v>
+        <v>490</v>
       </c>
     </row>
     <row r="56" spans="1:7" x14ac:dyDescent="0.35">
@@ -3235,7 +3328,7 @@
         <v>16</v>
       </c>
       <c r="C56" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
       <c r="D56" t="s">
         <v>45</v>
@@ -3248,7 +3341,7 @@
         <v>124.80000000000001</v>
       </c>
       <c r="G56" s="3" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
     </row>
     <row r="57" spans="1:7" x14ac:dyDescent="0.35">
@@ -3272,7 +3365,7 @@
         <v>1920</v>
       </c>
       <c r="G57" s="3" t="s">
-        <v>493</v>
+        <v>491</v>
       </c>
     </row>
     <row r="58" spans="1:7" x14ac:dyDescent="0.35">
@@ -3283,7 +3376,7 @@
         <v>16</v>
       </c>
       <c r="C58" t="s">
-        <v>468</v>
+        <v>466</v>
       </c>
       <c r="D58" t="s">
         <v>45</v>
@@ -3296,7 +3389,7 @@
         <v>184.14</v>
       </c>
       <c r="G58" s="3" t="s">
-        <v>469</v>
+        <v>467</v>
       </c>
     </row>
     <row r="59" spans="1:7" x14ac:dyDescent="0.35">
@@ -3307,7 +3400,7 @@
         <v>16</v>
       </c>
       <c r="C59" t="s">
-        <v>494</v>
+        <v>492</v>
       </c>
       <c r="D59" t="s">
         <v>42</v>
@@ -3320,7 +3413,7 @@
         <v>0.39479999999999998</v>
       </c>
       <c r="G59" s="3" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
     </row>
     <row r="60" spans="1:7" x14ac:dyDescent="0.35">
@@ -3331,7 +3424,7 @@
         <v>16</v>
       </c>
       <c r="C60" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
       <c r="D60" t="s">
         <v>45</v>
@@ -3344,7 +3437,7 @@
         <v>0.12</v>
       </c>
       <c r="G60" s="3" t="s">
-        <v>497</v>
+        <v>495</v>
       </c>
     </row>
     <row r="61" spans="1:7" x14ac:dyDescent="0.35">
@@ -3355,7 +3448,7 @@
         <v>16</v>
       </c>
       <c r="C61" t="s">
-        <v>498</v>
+        <v>496</v>
       </c>
       <c r="D61" t="s">
         <v>42</v>
@@ -3368,7 +3461,7 @@
         <v>12360</v>
       </c>
       <c r="G61" s="3" t="s">
-        <v>499</v>
+        <v>497</v>
       </c>
     </row>
     <row r="62" spans="1:7" x14ac:dyDescent="0.35">
@@ -3379,7 +3472,7 @@
         <v>16</v>
       </c>
       <c r="C62" t="s">
-        <v>500</v>
+        <v>498</v>
       </c>
       <c r="D62" t="s">
         <v>88</v>
@@ -3392,7 +3485,7 @@
         <v>3.516</v>
       </c>
       <c r="G62" s="3" t="s">
-        <v>501</v>
+        <v>499</v>
       </c>
     </row>
     <row r="63" spans="1:7" x14ac:dyDescent="0.35">
@@ -3403,7 +3496,7 @@
         <v>16</v>
       </c>
       <c r="C63" t="s">
-        <v>502</v>
+        <v>500</v>
       </c>
       <c r="D63" t="s">
         <v>88</v>
@@ -3416,7 +3509,7 @@
         <v>198</v>
       </c>
       <c r="G63" s="3" t="s">
-        <v>503</v>
+        <v>501</v>
       </c>
     </row>
     <row r="64" spans="1:7" x14ac:dyDescent="0.35">
@@ -3427,7 +3520,7 @@
         <v>16</v>
       </c>
       <c r="C64" t="s">
-        <v>504</v>
+        <v>502</v>
       </c>
       <c r="D64" t="s">
         <v>45</v>
@@ -3440,218 +3533,634 @@
         <v>3060</v>
       </c>
       <c r="G64" s="3" t="s">
-        <v>505</v>
-      </c>
-    </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.35">
+        <v>503</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A65" t="s">
         <v>266</v>
       </c>
       <c r="B65" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C65" t="s">
+        <v>504</v>
+      </c>
+      <c r="D65" t="s">
+        <v>40</v>
+      </c>
+      <c r="E65">
+        <v>137</v>
+      </c>
+      <c r="F65">
+        <f t="shared" si="2"/>
+        <v>8220</v>
+      </c>
+      <c r="G65" s="3" t="s">
+        <v>505</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A66" t="s">
         <v>267</v>
       </c>
       <c r="B66" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C66" t="s">
+        <v>506</v>
+      </c>
+      <c r="D66" t="s">
+        <v>45</v>
+      </c>
+      <c r="E66">
+        <v>1.07E-3</v>
+      </c>
+      <c r="F66">
+        <f t="shared" si="2"/>
+        <v>6.4199999999999993E-2</v>
+      </c>
+      <c r="G66" s="1" t="s">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A67" t="s">
         <v>268</v>
       </c>
       <c r="B67" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C67" t="s">
+        <v>508</v>
+      </c>
+      <c r="D67" t="s">
+        <v>88</v>
+      </c>
+      <c r="E67">
+        <v>989</v>
+      </c>
+      <c r="F67">
+        <f t="shared" si="2"/>
+        <v>59340</v>
+      </c>
+      <c r="G67" s="3" t="s">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A68" t="s">
         <v>269</v>
       </c>
       <c r="B68" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C68" t="s">
+        <v>510</v>
+      </c>
+      <c r="D68" t="s">
+        <v>45</v>
+      </c>
+      <c r="E68">
+        <v>0.31</v>
+      </c>
+      <c r="F68">
+        <f t="shared" si="2"/>
+        <v>18.600000000000001</v>
+      </c>
+      <c r="G68" s="3" t="s">
+        <v>511</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A69" t="s">
         <v>270</v>
       </c>
       <c r="B69" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="70" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C69" t="s">
+        <v>512</v>
+      </c>
+      <c r="D69" t="s">
+        <v>40</v>
+      </c>
+      <c r="E69">
+        <v>46</v>
+      </c>
+      <c r="F69">
+        <f t="shared" si="2"/>
+        <v>2760</v>
+      </c>
+      <c r="G69" s="3" t="s">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A70" t="s">
         <v>271</v>
       </c>
       <c r="B70" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="71" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C70" t="s">
+        <v>514</v>
+      </c>
+      <c r="D70" t="s">
+        <v>45</v>
+      </c>
+      <c r="E70">
+        <v>0.81599999999999995</v>
+      </c>
+      <c r="F70">
+        <f t="shared" si="2"/>
+        <v>48.959999999999994</v>
+      </c>
+      <c r="G70" s="3" t="s">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A71" t="s">
         <v>272</v>
       </c>
       <c r="B71" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="72" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C71" t="s">
+        <v>516</v>
+      </c>
+      <c r="D71" t="s">
+        <v>40</v>
+      </c>
+      <c r="E71">
+        <v>5.5</v>
+      </c>
+      <c r="F71">
+        <f t="shared" si="2"/>
+        <v>330</v>
+      </c>
+      <c r="G71" s="3" t="s">
+        <v>517</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A72" t="s">
         <v>273</v>
       </c>
       <c r="B72" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="73" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C72" t="s">
+        <v>512</v>
+      </c>
+      <c r="D72" t="s">
+        <v>40</v>
+      </c>
+      <c r="E72">
+        <v>46</v>
+      </c>
+      <c r="F72">
+        <f t="shared" ref="F72:F82" si="3">E72*60</f>
+        <v>2760</v>
+      </c>
+      <c r="G72" s="3" t="s">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A73" t="s">
         <v>274</v>
       </c>
       <c r="B73" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="74" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C73" t="s">
+        <v>518</v>
+      </c>
+      <c r="D73" t="s">
+        <v>147</v>
+      </c>
+      <c r="E73">
+        <v>71</v>
+      </c>
+      <c r="F73">
+        <f t="shared" si="3"/>
+        <v>4260</v>
+      </c>
+      <c r="G73" s="3" t="s">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A74" t="s">
         <v>275</v>
       </c>
       <c r="B74" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="75" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C74" t="s">
+        <v>466</v>
+      </c>
+      <c r="D74" t="s">
+        <v>45</v>
+      </c>
+      <c r="E74">
+        <v>3.069</v>
+      </c>
+      <c r="F74">
+        <f t="shared" si="3"/>
+        <v>184.14</v>
+      </c>
+      <c r="G74" s="3" t="s">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A75" t="s">
         <v>276</v>
       </c>
       <c r="B75" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="76" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C75" t="s">
+        <v>520</v>
+      </c>
+      <c r="D75" t="s">
+        <v>88</v>
+      </c>
+      <c r="E75">
+        <v>0.49</v>
+      </c>
+      <c r="F75">
+        <f t="shared" si="3"/>
+        <v>29.4</v>
+      </c>
+      <c r="G75" s="3" t="s">
+        <v>521</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A76" t="s">
         <v>277</v>
       </c>
       <c r="B76" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="77" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C76" t="s">
+        <v>512</v>
+      </c>
+      <c r="D76" t="s">
+        <v>40</v>
+      </c>
+      <c r="E76">
+        <v>46</v>
+      </c>
+      <c r="F76">
+        <f t="shared" si="3"/>
+        <v>2760</v>
+      </c>
+      <c r="G76" s="3" t="s">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A77" t="s">
         <v>278</v>
       </c>
       <c r="B77" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="78" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C77" t="s">
+        <v>506</v>
+      </c>
+      <c r="D77" t="s">
+        <v>45</v>
+      </c>
+      <c r="E77">
+        <v>1.07E-3</v>
+      </c>
+      <c r="F77">
+        <f t="shared" si="3"/>
+        <v>6.4199999999999993E-2</v>
+      </c>
+      <c r="G77" s="1" t="s">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="78" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A78" t="s">
         <v>279</v>
       </c>
       <c r="B78" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="79" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C78" t="s">
+        <v>468</v>
+      </c>
+      <c r="D78" t="s">
+        <v>45</v>
+      </c>
+      <c r="E78">
+        <v>2.08</v>
+      </c>
+      <c r="F78">
+        <f t="shared" si="3"/>
+        <v>124.80000000000001</v>
+      </c>
+      <c r="G78" s="3" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="79" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A79" t="s">
         <v>280</v>
       </c>
       <c r="B79" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="80" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C79" t="s">
+        <v>522</v>
+      </c>
+      <c r="D79" t="s">
+        <v>40</v>
+      </c>
+      <c r="E79">
+        <v>3.2712232620320854</v>
+      </c>
+      <c r="F79">
+        <f t="shared" si="3"/>
+        <v>196.27339572192511</v>
+      </c>
+      <c r="G79" s="3" t="s">
+        <v>523</v>
+      </c>
+    </row>
+    <row r="80" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A80" t="s">
         <v>281</v>
       </c>
       <c r="B80" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="81" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C80" t="s">
+        <v>524</v>
+      </c>
+      <c r="D80" t="s">
+        <v>42</v>
+      </c>
+      <c r="E80">
+        <v>5.0999999999999996</v>
+      </c>
+      <c r="F80">
+        <f t="shared" si="3"/>
+        <v>306</v>
+      </c>
+      <c r="G80" s="3" t="s">
+        <v>525</v>
+      </c>
+    </row>
+    <row r="81" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A81" t="s">
         <v>282</v>
       </c>
       <c r="B81" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="82" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C81" t="s">
+        <v>526</v>
+      </c>
+      <c r="D81" t="s">
+        <v>40</v>
+      </c>
+      <c r="E81">
+        <v>4.7</v>
+      </c>
+      <c r="F81">
+        <f t="shared" si="3"/>
+        <v>282</v>
+      </c>
+      <c r="G81" s="3" t="s">
+        <v>527</v>
+      </c>
+    </row>
+    <row r="82" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A82" t="s">
         <v>283</v>
       </c>
       <c r="B82" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="83" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C82" t="s">
+        <v>506</v>
+      </c>
+      <c r="D82" t="s">
+        <v>45</v>
+      </c>
+      <c r="E82">
+        <v>1.07E-3</v>
+      </c>
+      <c r="F82">
+        <f t="shared" si="3"/>
+        <v>6.4199999999999993E-2</v>
+      </c>
+      <c r="G82" s="1" t="s">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="83" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A83" t="s">
         <v>284</v>
       </c>
       <c r="B83" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="84" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C83" t="s">
+        <v>526</v>
+      </c>
+      <c r="D83" t="s">
+        <v>40</v>
+      </c>
+      <c r="E83">
+        <v>4.7</v>
+      </c>
+      <c r="F83">
+        <f t="shared" ref="F83:F90" si="4">E83*60</f>
+        <v>282</v>
+      </c>
+      <c r="G83" s="3" t="s">
+        <v>527</v>
+      </c>
+    </row>
+    <row r="84" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A84" t="s">
         <v>285</v>
       </c>
       <c r="B84" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="85" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C84" t="s">
+        <v>528</v>
+      </c>
+      <c r="D84" t="s">
+        <v>529</v>
+      </c>
+      <c r="E84">
+        <v>8.75</v>
+      </c>
+      <c r="F84">
+        <f t="shared" si="4"/>
+        <v>525</v>
+      </c>
+      <c r="G84" s="3" t="s">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="85" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A85" t="s">
         <v>286</v>
       </c>
       <c r="B85" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="86" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C85" t="s">
+        <v>528</v>
+      </c>
+      <c r="D85" t="s">
+        <v>529</v>
+      </c>
+      <c r="E85">
+        <v>21</v>
+      </c>
+      <c r="F85">
+        <f t="shared" si="4"/>
+        <v>1260</v>
+      </c>
+      <c r="G85" s="3" t="s">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="86" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A86" t="s">
         <v>287</v>
       </c>
       <c r="B86" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="87" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C86" t="s">
+        <v>528</v>
+      </c>
+      <c r="D86" t="s">
+        <v>529</v>
+      </c>
+      <c r="E86">
+        <v>9.3800000000000008</v>
+      </c>
+      <c r="F86">
+        <f t="shared" si="4"/>
+        <v>562.80000000000007</v>
+      </c>
+      <c r="G86" s="3" t="s">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="87" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A87" t="s">
         <v>288</v>
       </c>
       <c r="B87" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="88" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C87" t="s">
+        <v>531</v>
+      </c>
+      <c r="D87" t="s">
+        <v>529</v>
+      </c>
+      <c r="E87">
+        <v>0.114</v>
+      </c>
+      <c r="F87">
+        <f t="shared" si="4"/>
+        <v>6.84</v>
+      </c>
+      <c r="G87" s="3" t="s">
+        <v>532</v>
+      </c>
+    </row>
+    <row r="88" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A88" t="s">
         <v>289</v>
       </c>
       <c r="B88" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="89" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C88" t="s">
+        <v>533</v>
+      </c>
+      <c r="D88" t="s">
+        <v>45</v>
+      </c>
+      <c r="E88">
+        <v>0.98</v>
+      </c>
+      <c r="F88">
+        <f t="shared" si="4"/>
+        <v>58.8</v>
+      </c>
+      <c r="G88" s="1" t="s">
+        <v>534</v>
+      </c>
+    </row>
+    <row r="89" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A89" t="s">
         <v>290</v>
       </c>
       <c r="B89" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="90" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C89" t="s">
+        <v>504</v>
+      </c>
+      <c r="D89" t="s">
+        <v>40</v>
+      </c>
+      <c r="E89">
+        <v>137</v>
+      </c>
+      <c r="F89">
+        <f t="shared" si="4"/>
+        <v>8220</v>
+      </c>
+      <c r="G89" s="3" t="s">
+        <v>505</v>
+      </c>
+    </row>
+    <row r="90" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A90" t="s">
         <v>291</v>
       </c>
       <c r="B90" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="91" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C90" t="s">
+        <v>535</v>
+      </c>
+      <c r="D90" t="s">
+        <v>40</v>
+      </c>
+      <c r="E90">
+        <v>1180</v>
+      </c>
+      <c r="F90">
+        <f t="shared" si="4"/>
+        <v>70800</v>
+      </c>
+      <c r="G90" s="3" t="s">
+        <v>536</v>
+      </c>
+    </row>
+    <row r="91" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A91" t="s">
         <v>292</v>
       </c>
@@ -3659,7 +4168,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="92" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="92" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A92" t="s">
         <v>293</v>
       </c>
@@ -3667,7 +4176,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="93" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="93" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A93" t="s">
         <v>294</v>
       </c>
@@ -3675,7 +4184,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="94" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="94" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A94" t="s">
         <v>295</v>
       </c>
@@ -3683,7 +4192,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="95" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="95" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A95" t="s">
         <v>296</v>
       </c>
@@ -3691,7 +4200,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="96" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="96" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A96" t="s">
         <v>297</v>
       </c>
@@ -4467,7 +4976,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="193" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="193" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A193" t="s">
         <v>394</v>
       </c>
@@ -4475,7 +4984,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="194" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="194" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A194" t="s">
         <v>395</v>
       </c>
@@ -4483,7 +4992,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="195" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="195" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A195" t="s">
         <v>396</v>
       </c>
@@ -4491,7 +5000,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="196" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="196" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A196" t="s">
         <v>397</v>
       </c>
@@ -4499,7 +5008,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="197" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="197" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A197" t="s">
         <v>398</v>
       </c>
@@ -4507,7 +5016,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="198" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="198" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A198" t="s">
         <v>399</v>
       </c>
@@ -4515,7 +5024,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="199" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="199" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A199" t="s">
         <v>400</v>
       </c>
@@ -4523,7 +5032,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="200" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="200" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A200" t="s">
         <v>401</v>
       </c>
@@ -4531,7 +5040,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="201" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="201" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A201" t="s">
         <v>402</v>
       </c>
@@ -4539,7 +5048,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="202" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="202" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A202" t="s">
         <v>403</v>
       </c>
@@ -4547,7 +5056,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="203" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="203" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A203" t="s">
         <v>404</v>
       </c>
@@ -4555,7 +5064,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="204" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="204" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A204" t="s">
         <v>405</v>
       </c>
@@ -4563,7 +5072,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="205" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="205" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A205" t="s">
         <v>406</v>
       </c>
@@ -4571,7 +5080,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="206" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="206" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A206" t="s">
         <v>407</v>
       </c>
@@ -4579,7 +5088,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="207" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="207" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A207" t="s">
         <v>408</v>
       </c>
@@ -4587,692 +5096,692 @@
         <v>16</v>
       </c>
     </row>
-    <row r="208" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="208" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A208" t="s">
-        <v>409</v>
+        <v>26</v>
       </c>
       <c r="B208" t="s">
-        <v>16</v>
+        <v>38</v>
+      </c>
+      <c r="C208" t="s">
+        <v>86</v>
+      </c>
+      <c r="D208" t="s">
+        <v>45</v>
+      </c>
+      <c r="E208">
+        <v>11</v>
+      </c>
+      <c r="F208">
+        <f t="shared" si="0"/>
+        <v>660</v>
+      </c>
+      <c r="G208" s="3" t="s">
+        <v>87</v>
       </c>
     </row>
     <row r="209" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A209" t="s">
-        <v>410</v>
+        <v>27</v>
       </c>
       <c r="B209" t="s">
-        <v>16</v>
+        <v>38</v>
+      </c>
+      <c r="C209" t="s">
+        <v>89</v>
+      </c>
+      <c r="D209" t="s">
+        <v>88</v>
+      </c>
+      <c r="E209">
+        <v>0.127</v>
+      </c>
+      <c r="F209">
+        <f t="shared" si="0"/>
+        <v>7.62</v>
+      </c>
+      <c r="G209" s="3" t="s">
+        <v>90</v>
       </c>
     </row>
     <row r="210" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A210" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B210" t="s">
         <v>38</v>
       </c>
       <c r="C210" t="s">
-        <v>86</v>
+        <v>92</v>
       </c>
       <c r="D210" t="s">
-        <v>45</v>
+        <v>91</v>
       </c>
       <c r="E210">
-        <v>11</v>
+        <v>6.13</v>
       </c>
       <c r="F210">
         <f t="shared" si="0"/>
-        <v>660</v>
+        <v>367.8</v>
       </c>
       <c r="G210" s="3" t="s">
-        <v>87</v>
+        <v>93</v>
       </c>
     </row>
     <row r="211" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A211" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B211" t="s">
         <v>38</v>
       </c>
       <c r="C211" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="D211" t="s">
-        <v>88</v>
+        <v>45</v>
       </c>
       <c r="E211">
-        <v>0.127</v>
+        <v>31</v>
       </c>
       <c r="F211">
         <f t="shared" si="0"/>
-        <v>7.62</v>
+        <v>1860</v>
       </c>
       <c r="G211" s="3" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
     </row>
     <row r="212" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A212" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B212" t="s">
         <v>38</v>
       </c>
       <c r="C212" t="s">
-        <v>92</v>
+        <v>97</v>
       </c>
       <c r="D212" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="E212">
-        <v>6.13</v>
+        <v>252</v>
       </c>
       <c r="F212">
         <f t="shared" si="0"/>
-        <v>367.8</v>
+        <v>15120</v>
       </c>
       <c r="G212" s="3" t="s">
-        <v>93</v>
+        <v>98</v>
       </c>
     </row>
     <row r="213" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A213" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B213" t="s">
         <v>38</v>
       </c>
       <c r="C213" t="s">
-        <v>94</v>
+        <v>100</v>
       </c>
       <c r="D213" t="s">
-        <v>45</v>
+        <v>99</v>
       </c>
       <c r="E213">
-        <v>31</v>
+        <v>22.1</v>
       </c>
       <c r="F213">
         <f t="shared" si="0"/>
-        <v>1860</v>
+        <v>1326</v>
       </c>
       <c r="G213" s="3" t="s">
-        <v>95</v>
+        <v>101</v>
       </c>
     </row>
     <row r="214" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A214" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B214" t="s">
         <v>38</v>
       </c>
       <c r="C214" t="s">
-        <v>97</v>
+        <v>102</v>
       </c>
       <c r="D214" t="s">
-        <v>96</v>
+        <v>40</v>
       </c>
       <c r="E214">
-        <v>252</v>
+        <v>3.9E-2</v>
       </c>
       <c r="F214">
         <f t="shared" si="0"/>
-        <v>15120</v>
+        <v>2.34</v>
       </c>
       <c r="G214" s="3" t="s">
-        <v>98</v>
+        <v>103</v>
       </c>
     </row>
     <row r="215" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A215" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B215" t="s">
         <v>38</v>
       </c>
       <c r="C215" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="D215" t="s">
-        <v>99</v>
+        <v>45</v>
       </c>
       <c r="E215">
-        <v>22.1</v>
+        <v>450</v>
       </c>
       <c r="F215">
         <f t="shared" si="0"/>
-        <v>1326</v>
+        <v>27000</v>
       </c>
       <c r="G215" s="3" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
     </row>
     <row r="216" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A216" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B216" t="s">
         <v>38</v>
       </c>
       <c r="C216" t="s">
-        <v>102</v>
+        <v>47</v>
       </c>
       <c r="D216" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="E216">
-        <v>3.9E-2</v>
+        <v>182</v>
       </c>
       <c r="F216">
         <f t="shared" si="0"/>
-        <v>2.34</v>
+        <v>10920</v>
       </c>
       <c r="G216" s="3" t="s">
-        <v>103</v>
+        <v>48</v>
       </c>
     </row>
     <row r="217" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A217" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B217" t="s">
         <v>38</v>
       </c>
       <c r="C217" t="s">
-        <v>104</v>
+        <v>41</v>
       </c>
       <c r="D217" t="s">
-        <v>45</v>
+        <v>88</v>
       </c>
       <c r="E217">
-        <v>450</v>
+        <v>345</v>
       </c>
       <c r="F217">
         <f t="shared" si="0"/>
-        <v>27000</v>
+        <v>20700</v>
       </c>
       <c r="G217" s="3" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
     </row>
     <row r="218" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A218" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B218" t="s">
         <v>38</v>
       </c>
       <c r="C218" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="D218" t="s">
         <v>45</v>
       </c>
       <c r="E218">
-        <v>182</v>
+        <v>170</v>
       </c>
       <c r="F218">
         <f t="shared" si="0"/>
-        <v>10920</v>
+        <v>10200</v>
       </c>
       <c r="G218" s="3" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="219" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A219" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B219" t="s">
-        <v>38</v>
+        <v>16</v>
       </c>
       <c r="C219" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="D219" t="s">
-        <v>88</v>
+        <v>45</v>
       </c>
       <c r="E219">
-        <v>345</v>
+        <v>170</v>
       </c>
       <c r="F219">
         <f t="shared" si="0"/>
-        <v>20700</v>
+        <v>10200</v>
       </c>
       <c r="G219" s="3" t="s">
-        <v>106</v>
+        <v>46</v>
       </c>
     </row>
     <row r="220" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A220" t="s">
-        <v>36</v>
+        <v>44</v>
       </c>
       <c r="B220" t="s">
-        <v>38</v>
+        <v>16</v>
       </c>
       <c r="C220" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="D220" t="s">
         <v>45</v>
       </c>
       <c r="E220">
-        <v>170</v>
+        <v>182</v>
       </c>
       <c r="F220">
         <f t="shared" si="0"/>
-        <v>10200</v>
+        <v>10920</v>
       </c>
       <c r="G220" s="3" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
     </row>
     <row r="221" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A221" t="s">
-        <v>37</v>
+        <v>161</v>
       </c>
       <c r="B221" t="s">
-        <v>16</v>
+        <v>38</v>
       </c>
       <c r="C221" t="s">
-        <v>43</v>
+        <v>176</v>
       </c>
       <c r="D221" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="E221">
-        <v>170</v>
+        <v>40</v>
       </c>
       <c r="F221">
         <f t="shared" si="0"/>
-        <v>10200</v>
+        <v>2400</v>
       </c>
       <c r="G221" s="3" t="s">
-        <v>46</v>
+        <v>175</v>
       </c>
     </row>
     <row r="222" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A222" t="s">
-        <v>44</v>
+        <v>163</v>
       </c>
       <c r="B222" t="s">
-        <v>16</v>
+        <v>38</v>
       </c>
       <c r="C222" t="s">
-        <v>47</v>
+        <v>173</v>
       </c>
       <c r="D222" t="s">
-        <v>45</v>
+        <v>88</v>
       </c>
       <c r="E222">
-        <v>182</v>
+        <v>0.84</v>
       </c>
       <c r="F222">
         <f t="shared" si="0"/>
-        <v>10920</v>
-      </c>
-      <c r="G222" s="3" t="s">
-        <v>48</v>
+        <v>50.4</v>
+      </c>
+      <c r="G222" s="5" t="s">
+        <v>174</v>
       </c>
     </row>
     <row r="223" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A223" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="B223" t="s">
         <v>38</v>
       </c>
       <c r="C223" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="D223" t="s">
         <v>42</v>
       </c>
       <c r="E223">
-        <v>40</v>
+        <v>0.55000000000000004</v>
       </c>
       <c r="F223">
         <f t="shared" si="0"/>
-        <v>2400</v>
-      </c>
-      <c r="G223" s="3" t="s">
-        <v>175</v>
+        <v>33</v>
+      </c>
+      <c r="G223" s="6" t="s">
+        <v>171</v>
       </c>
     </row>
     <row r="224" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A224" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="B224" t="s">
         <v>38</v>
       </c>
       <c r="C224" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="D224" t="s">
-        <v>88</v>
+        <v>42</v>
       </c>
       <c r="E224">
-        <v>0.84</v>
+        <v>7.1</v>
       </c>
       <c r="F224">
         <f t="shared" si="0"/>
-        <v>50.4</v>
-      </c>
-      <c r="G224" s="5" t="s">
-        <v>174</v>
+        <v>426</v>
+      </c>
+      <c r="G224" s="6" t="s">
+        <v>171</v>
       </c>
     </row>
     <row r="225" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A225" t="s">
-        <v>162</v>
+        <v>182</v>
       </c>
       <c r="B225" t="s">
         <v>38</v>
       </c>
       <c r="C225" t="s">
-        <v>172</v>
+        <v>186</v>
       </c>
       <c r="D225" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="E225">
-        <v>0.55000000000000004</v>
+        <v>2300</v>
       </c>
       <c r="F225">
         <f t="shared" si="0"/>
-        <v>33</v>
+        <v>138000</v>
       </c>
       <c r="G225" s="6" t="s">
-        <v>171</v>
+        <v>187</v>
       </c>
     </row>
     <row r="226" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A226" t="s">
-        <v>164</v>
+        <v>183</v>
       </c>
       <c r="B226" t="s">
         <v>38</v>
       </c>
       <c r="C226" t="s">
-        <v>170</v>
+        <v>188</v>
       </c>
       <c r="D226" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="E226">
-        <v>7.1</v>
+        <v>0.22800000000000001</v>
       </c>
       <c r="F226">
         <f t="shared" si="0"/>
-        <v>426</v>
+        <v>13.68</v>
       </c>
       <c r="G226" s="6" t="s">
-        <v>171</v>
+        <v>189</v>
       </c>
     </row>
     <row r="227" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A227" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="B227" t="s">
         <v>38</v>
       </c>
       <c r="C227" t="s">
-        <v>186</v>
+        <v>190</v>
       </c>
       <c r="D227" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="E227">
-        <v>2300</v>
+        <v>38.6</v>
       </c>
       <c r="F227">
         <f t="shared" si="0"/>
-        <v>138000</v>
+        <v>2316</v>
       </c>
       <c r="G227" s="6" t="s">
-        <v>187</v>
+        <v>191</v>
       </c>
     </row>
     <row r="228" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A228" t="s">
-        <v>183</v>
+        <v>212</v>
       </c>
       <c r="B228" t="s">
         <v>38</v>
       </c>
       <c r="C228" t="s">
-        <v>188</v>
+        <v>213</v>
       </c>
       <c r="D228" t="s">
-        <v>45</v>
+        <v>88</v>
       </c>
       <c r="E228">
-        <v>0.22800000000000001</v>
+        <v>28.3</v>
       </c>
       <c r="F228">
         <f t="shared" si="0"/>
-        <v>13.68</v>
+        <v>1698</v>
       </c>
       <c r="G228" s="6" t="s">
-        <v>189</v>
+        <v>214</v>
       </c>
     </row>
     <row r="229" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A229" t="s">
-        <v>184</v>
+        <v>215</v>
       </c>
       <c r="B229" t="s">
         <v>38</v>
       </c>
       <c r="C229" t="s">
-        <v>190</v>
+        <v>216</v>
       </c>
       <c r="D229" t="s">
         <v>45</v>
       </c>
       <c r="E229">
-        <v>38.6</v>
+        <v>5.7999999999999996E-3</v>
       </c>
       <c r="F229">
         <f t="shared" si="0"/>
-        <v>2316</v>
+        <v>0.34799999999999998</v>
       </c>
       <c r="G229" s="6" t="s">
-        <v>191</v>
+        <v>217</v>
       </c>
     </row>
     <row r="230" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A230" t="s">
-        <v>212</v>
+        <v>218</v>
       </c>
       <c r="B230" t="s">
         <v>38</v>
       </c>
       <c r="C230" t="s">
-        <v>213</v>
+        <v>219</v>
       </c>
       <c r="D230" t="s">
         <v>88</v>
       </c>
       <c r="E230">
-        <v>28.3</v>
+        <v>0.185</v>
       </c>
       <c r="F230">
         <f t="shared" si="0"/>
-        <v>1698</v>
+        <v>11.1</v>
       </c>
       <c r="G230" s="6" t="s">
-        <v>214</v>
+        <v>220</v>
       </c>
     </row>
     <row r="231" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A231" t="s">
-        <v>215</v>
+        <v>224</v>
       </c>
       <c r="B231" t="s">
         <v>38</v>
       </c>
       <c r="C231" t="s">
-        <v>216</v>
+        <v>225</v>
       </c>
       <c r="D231" t="s">
-        <v>45</v>
+        <v>88</v>
       </c>
       <c r="E231">
-        <v>5.7999999999999996E-3</v>
+        <v>133</v>
       </c>
       <c r="F231">
         <f t="shared" si="0"/>
-        <v>0.34799999999999998</v>
+        <v>7980</v>
       </c>
       <c r="G231" s="6" t="s">
-        <v>217</v>
+        <v>226</v>
       </c>
     </row>
     <row r="232" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A232" t="s">
-        <v>218</v>
+        <v>227</v>
       </c>
       <c r="B232" t="s">
         <v>38</v>
       </c>
       <c r="C232" t="s">
-        <v>219</v>
+        <v>228</v>
       </c>
       <c r="D232" t="s">
-        <v>88</v>
+        <v>45</v>
       </c>
       <c r="E232">
-        <v>0.185</v>
+        <v>2.2999999999999998</v>
       </c>
       <c r="F232">
         <f t="shared" si="0"/>
-        <v>11.1</v>
+        <v>138</v>
       </c>
       <c r="G232" s="6" t="s">
-        <v>220</v>
+        <v>229</v>
       </c>
     </row>
     <row r="233" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A233" t="s">
-        <v>224</v>
+        <v>231</v>
       </c>
       <c r="B233" t="s">
         <v>38</v>
       </c>
       <c r="C233" t="s">
-        <v>225</v>
+        <v>230</v>
       </c>
       <c r="D233" t="s">
-        <v>88</v>
+        <v>45</v>
       </c>
       <c r="E233">
-        <v>133</v>
+        <v>1334</v>
       </c>
       <c r="F233">
         <f t="shared" si="0"/>
-        <v>7980</v>
+        <v>80040</v>
       </c>
       <c r="G233" s="6" t="s">
-        <v>226</v>
+        <v>232</v>
       </c>
     </row>
     <row r="234" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A234" t="s">
-        <v>227</v>
+        <v>233</v>
       </c>
       <c r="B234" t="s">
         <v>38</v>
       </c>
       <c r="C234" t="s">
-        <v>228</v>
+        <v>234</v>
       </c>
       <c r="D234" t="s">
         <v>45</v>
       </c>
       <c r="E234">
-        <v>2.2999999999999998</v>
+        <v>220</v>
       </c>
       <c r="F234">
         <f t="shared" si="0"/>
-        <v>138</v>
+        <v>13200</v>
       </c>
       <c r="G234" s="6" t="s">
-        <v>229</v>
+        <v>235</v>
       </c>
     </row>
     <row r="235" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A235" t="s">
-        <v>231</v>
+        <v>236</v>
       </c>
       <c r="B235" t="s">
         <v>38</v>
       </c>
       <c r="C235" t="s">
-        <v>230</v>
+        <v>237</v>
       </c>
       <c r="D235" t="s">
         <v>45</v>
       </c>
       <c r="E235">
-        <v>1334</v>
+        <v>58.2</v>
       </c>
       <c r="F235">
         <f t="shared" si="0"/>
-        <v>80040</v>
+        <v>3492</v>
       </c>
       <c r="G235" s="6" t="s">
-        <v>232</v>
+        <v>238</v>
       </c>
     </row>
     <row r="236" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A236" t="s">
-        <v>233</v>
+        <v>409</v>
       </c>
       <c r="B236" t="s">
         <v>38</v>
-      </c>
-      <c r="C236" t="s">
-        <v>234</v>
-      </c>
-      <c r="D236" t="s">
-        <v>45</v>
-      </c>
-      <c r="E236">
-        <v>220</v>
-      </c>
-      <c r="F236">
-        <f t="shared" si="0"/>
-        <v>13200</v>
-      </c>
-      <c r="G236" s="6" t="s">
-        <v>235</v>
       </c>
     </row>
     <row r="237" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A237" t="s">
-        <v>236</v>
+        <v>410</v>
       </c>
       <c r="B237" t="s">
         <v>38</v>
-      </c>
-      <c r="C237" t="s">
-        <v>237</v>
-      </c>
-      <c r="D237" t="s">
-        <v>45</v>
-      </c>
-      <c r="E237">
-        <v>58.2</v>
-      </c>
-      <c r="F237">
-        <f t="shared" si="0"/>
-        <v>3492</v>
-      </c>
-      <c r="G237" s="6" t="s">
-        <v>238</v>
       </c>
     </row>
     <row r="238" spans="1:7" x14ac:dyDescent="0.35">
@@ -5666,130 +6175,114 @@
       <c r="B286" t="s">
         <v>38</v>
       </c>
+      <c r="C286" t="s">
+        <v>460</v>
+      </c>
+      <c r="D286" t="s">
+        <v>45</v>
+      </c>
+      <c r="E286">
+        <v>221</v>
+      </c>
+      <c r="F286">
+        <f t="shared" si="0"/>
+        <v>13260</v>
+      </c>
+      <c r="G286" s="3" t="s">
+        <v>461</v>
+      </c>
     </row>
     <row r="287" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A287" t="s">
-        <v>460</v>
+        <v>156</v>
       </c>
       <c r="B287" t="s">
         <v>38</v>
+      </c>
+      <c r="C287" t="s">
+        <v>158</v>
+      </c>
+      <c r="D287" t="s">
+        <v>45</v>
+      </c>
+      <c r="E287">
+        <v>7.5</v>
+      </c>
+      <c r="F287">
+        <f t="shared" si="0"/>
+        <v>450</v>
+      </c>
+      <c r="G287" s="3" t="s">
+        <v>159</v>
       </c>
     </row>
     <row r="288" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A288" t="s">
-        <v>461</v>
+        <v>157</v>
       </c>
       <c r="B288" t="s">
         <v>38</v>
       </c>
       <c r="C288" t="s">
-        <v>462</v>
+        <v>158</v>
       </c>
       <c r="D288" t="s">
         <v>45</v>
       </c>
       <c r="E288">
-        <v>221</v>
+        <v>7.5</v>
       </c>
       <c r="F288">
         <f t="shared" si="0"/>
-        <v>13260</v>
+        <v>450</v>
       </c>
       <c r="G288" s="3" t="s">
-        <v>463</v>
+        <v>159</v>
       </c>
     </row>
     <row r="289" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A289" t="s">
-        <v>156</v>
+        <v>160</v>
       </c>
       <c r="B289" t="s">
-        <v>38</v>
+        <v>16</v>
       </c>
       <c r="C289" t="s">
-        <v>158</v>
+        <v>109</v>
       </c>
       <c r="D289" t="s">
-        <v>45</v>
-      </c>
-      <c r="E289">
-        <v>7.5</v>
+        <v>109</v>
+      </c>
+      <c r="E289" t="s">
+        <v>109</v>
       </c>
       <c r="F289">
-        <f t="shared" si="0"/>
-        <v>450</v>
-      </c>
-      <c r="G289" s="3" t="s">
-        <v>159</v>
+        <v>100</v>
+      </c>
+      <c r="G289" s="2" t="s">
+        <v>114</v>
       </c>
     </row>
     <row r="290" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A290" t="s">
-        <v>157</v>
+        <v>117</v>
       </c>
       <c r="B290" t="s">
-        <v>38</v>
+        <v>16</v>
       </c>
       <c r="C290" t="s">
-        <v>158</v>
+        <v>109</v>
       </c>
       <c r="D290" t="s">
-        <v>45</v>
-      </c>
-      <c r="E290">
-        <v>7.5</v>
+        <v>109</v>
+      </c>
+      <c r="E290" t="s">
+        <v>109</v>
       </c>
       <c r="F290">
-        <f t="shared" si="0"/>
-        <v>450</v>
-      </c>
-      <c r="G290" s="3" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="291" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A291" t="s">
-        <v>160</v>
-      </c>
-      <c r="B291" t="s">
-        <v>16</v>
-      </c>
-      <c r="C291" t="s">
-        <v>109</v>
-      </c>
-      <c r="D291" t="s">
-        <v>109</v>
-      </c>
-      <c r="E291" t="s">
-        <v>109</v>
-      </c>
-      <c r="F291">
-        <v>100</v>
-      </c>
-      <c r="G291" s="2" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="292" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A292" t="s">
-        <v>117</v>
-      </c>
-      <c r="B292" t="s">
-        <v>16</v>
-      </c>
-      <c r="C292" t="s">
-        <v>109</v>
-      </c>
-      <c r="D292" t="s">
-        <v>109</v>
-      </c>
-      <c r="E292" t="s">
-        <v>109</v>
-      </c>
-      <c r="F292">
         <v>50</v>
       </c>
-      <c r="G292" s="2" t="s">
+      <c r="G290" s="2" t="s">
         <v>114</v>
       </c>
     </row>
@@ -5797,15 +6290,19 @@
   <hyperlinks>
     <hyperlink ref="G20" r:id="rId1" xr:uid="{60D2E9C6-9172-4D4D-B418-CC567356E033}"/>
     <hyperlink ref="G2" r:id="rId2" xr:uid="{96642BA6-12F8-4451-8DFA-16265959FEFA}"/>
-    <hyperlink ref="G226" r:id="rId3" xr:uid="{DBD518FF-06AA-4F59-B32D-3D580FD3488C}"/>
-    <hyperlink ref="G225" r:id="rId4" xr:uid="{3C873BD8-C205-4B23-B8F2-C8E28D105704}"/>
+    <hyperlink ref="G224" r:id="rId3" xr:uid="{DBD518FF-06AA-4F59-B32D-3D580FD3488C}"/>
+    <hyperlink ref="G223" r:id="rId4" xr:uid="{3C873BD8-C205-4B23-B8F2-C8E28D105704}"/>
     <hyperlink ref="G30" r:id="rId5" xr:uid="{3CCDC09F-65EC-46AB-A5B6-06698DF90FD6}"/>
     <hyperlink ref="G31" r:id="rId6" xr:uid="{45B7FFC2-C775-45F6-B5E2-92E39C1EFAC1}"/>
     <hyperlink ref="G34" r:id="rId7" xr:uid="{C0F23788-2A31-4EA5-B6D6-A12E3C45A7E7}"/>
     <hyperlink ref="G45" r:id="rId8" xr:uid="{E16DED46-B1DD-492F-AAE6-8FA6CA99D4AD}"/>
+    <hyperlink ref="G66" r:id="rId9" xr:uid="{8712DF9D-4B59-405A-AA32-2B4423750FF0}"/>
+    <hyperlink ref="G77" r:id="rId10" xr:uid="{6C3143F8-EECE-493B-A808-BC8B1FB906E4}"/>
+    <hyperlink ref="G82" r:id="rId11" xr:uid="{5F7C4001-6F89-479B-983C-BDB24868961F}"/>
+    <hyperlink ref="G88" r:id="rId12" xr:uid="{B65497F5-375F-4E2A-86C4-B4310250B40D}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId9"/>
+  <pageSetup orientation="portrait" r:id="rId13"/>
 </worksheet>
 </file>
 

--- a/data/gems/Parameters.xlsx
+++ b/data/gems/Parameters.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bras5181\Desktop\Labprojects\CulturedMeat\iSusS\data\gems\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E516B9D9-FC49-4416-81EC-B91797C14C56}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1D40EC35-6D37-445D-AEC6-2D11C238F084}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1023" uniqueCount="537">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1163" uniqueCount="599">
   <si>
     <t>Rxn</t>
   </si>
@@ -924,9 +924,6 @@
     <t>FKYNH</t>
   </si>
   <si>
-    <t>MAN1PT2</t>
-  </si>
-  <si>
     <t>GF6PTA</t>
   </si>
   <si>
@@ -966,24 +963,12 @@
     <t>5HXKYNOXDA</t>
   </si>
   <si>
-    <t>MELATNOX</t>
-  </si>
-  <si>
-    <t>TYMSULT</t>
-  </si>
-  <si>
     <t>MCPST</t>
   </si>
   <si>
-    <t>ACSRTNMT</t>
-  </si>
-  <si>
     <t>IDHPOXOX4</t>
   </si>
   <si>
-    <t>TRPHYDRO2</t>
-  </si>
-  <si>
     <t>41R1H2MAE12BOOX</t>
   </si>
   <si>
@@ -1281,27 +1266,15 @@
     <t>PEPCKm</t>
   </si>
   <si>
-    <t>Htm</t>
-  </si>
-  <si>
     <t>HMGLm</t>
   </si>
   <si>
-    <t>PSFLIPm</t>
-  </si>
-  <si>
-    <t>PSDm</t>
-  </si>
-  <si>
     <t>G3PD2m</t>
   </si>
   <si>
     <t>BETALDHxm</t>
   </si>
   <si>
-    <t>SARDHm</t>
-  </si>
-  <si>
     <t>ACOAD10m</t>
   </si>
   <si>
@@ -1314,9 +1287,6 @@
     <t>ACSm</t>
   </si>
   <si>
-    <t>ATPtm</t>
-  </si>
-  <si>
     <t>CBPSam</t>
   </si>
   <si>
@@ -1326,15 +1296,9 @@
     <t>3HKYNAKGATm</t>
   </si>
   <si>
-    <t>OIVD2m</t>
-  </si>
-  <si>
     <t>P5CRxm</t>
   </si>
   <si>
-    <t>DMGDHm</t>
-  </si>
-  <si>
     <t>ARGDCm</t>
   </si>
   <si>
@@ -1353,27 +1317,15 @@
     <t>MMSAD1m</t>
   </si>
   <si>
-    <t>OIVD3m</t>
-  </si>
-  <si>
     <t>IMACTD_m</t>
   </si>
   <si>
     <t>PPCOACm</t>
   </si>
   <si>
-    <t>GHMT3m</t>
-  </si>
-  <si>
-    <t>EHGLAT2m</t>
-  </si>
-  <si>
     <t>GCC2bim</t>
   </si>
   <si>
-    <t>OIVD1m</t>
-  </si>
-  <si>
     <t>5HOXINDACTOXm</t>
   </si>
   <si>
@@ -1404,9 +1356,6 @@
     <t>PROD2m</t>
   </si>
   <si>
-    <t>ACOAD9m</t>
-  </si>
-  <si>
     <t>CHOLD2m</t>
   </si>
   <si>
@@ -1648,6 +1597,243 @@
   </si>
   <si>
     <t>DOI: 10.1016/0006-291x(83)91083-5</t>
+  </si>
+  <si>
+    <t>2.7.1.32</t>
+  </si>
+  <si>
+    <t>PMID: 2152925</t>
+  </si>
+  <si>
+    <t>3.1.3.25</t>
+  </si>
+  <si>
+    <t>DOI: 10.5483/bmbrep.2005.38.1.058</t>
+  </si>
+  <si>
+    <t>3.5.1.9</t>
+  </si>
+  <si>
+    <t>DOI: 10.1016/0005-2744(77)90068-7</t>
+  </si>
+  <si>
+    <t>2.6.1.16</t>
+  </si>
+  <si>
+    <t>DOI: 10.1016/0005-2744(76)90023-1</t>
+  </si>
+  <si>
+    <t>2.3.1.4</t>
+  </si>
+  <si>
+    <t>DOI: 10.1042/BJ20081000</t>
+  </si>
+  <si>
+    <t>2.7.7.23</t>
+  </si>
+  <si>
+    <t>DOI: 10.1074/jbc.271.22.13147</t>
+  </si>
+  <si>
+    <t>3.2.1.183</t>
+  </si>
+  <si>
+    <t>DOI: 10.1038/srep23274</t>
+  </si>
+  <si>
+    <t>2.7.1.60</t>
+  </si>
+  <si>
+    <t>DOI: 10.1074/jbc.M111.318170</t>
+  </si>
+  <si>
+    <t>2.5.1.57</t>
+  </si>
+  <si>
+    <t>PMID: 5928202</t>
+  </si>
+  <si>
+    <t>3.1.3.29</t>
+  </si>
+  <si>
+    <t>DOI: 10.1093/glycob/cwj050</t>
+  </si>
+  <si>
+    <t>2.7.7.43</t>
+  </si>
+  <si>
+    <t>PMID: 4288894</t>
+  </si>
+  <si>
+    <t>4.2.1.47</t>
+  </si>
+  <si>
+    <t>DOI: 10.1111/j.1432-1033.1985.tb09315.x</t>
+  </si>
+  <si>
+    <t>2.7.7.13</t>
+  </si>
+  <si>
+    <t>DOI: 10.1111/j.1432-1033.1985.tb08810.x</t>
+  </si>
+  <si>
+    <t>4.1.2.48</t>
+  </si>
+  <si>
+    <t>DOI: 10.1111/j.1432-1033.1997.00289.x</t>
+  </si>
+  <si>
+    <t>Chlamydomonas reinhardtii</t>
+  </si>
+  <si>
+    <t>DOI: 10.1111/j.1432-1033.1993.tb18041.x</t>
+  </si>
+  <si>
+    <t>2.8.1.2</t>
+  </si>
+  <si>
+    <t>DOI: 10.1016/s0076-6879(81)77040-x</t>
+  </si>
+  <si>
+    <t>1.14.13.39</t>
+  </si>
+  <si>
+    <t>DOI: 10.1016/0014-5793(90)80848-d</t>
+  </si>
+  <si>
+    <t>2.3.1.13</t>
+  </si>
+  <si>
+    <t>DOI: 10.1006/bbrc.1994.2817</t>
+  </si>
+  <si>
+    <t>2.6.1.7</t>
+  </si>
+  <si>
+    <t>DOI: 10.3389/fmolb.2019.00007</t>
+  </si>
+  <si>
+    <t>1.1.5.3</t>
+  </si>
+  <si>
+    <t>DOI: 10.1042/bj1920009</t>
+  </si>
+  <si>
+    <t>4.1.3.4</t>
+  </si>
+  <si>
+    <t>PMID: 13271348</t>
+  </si>
+  <si>
+    <t>3.1.2.4</t>
+  </si>
+  <si>
+    <t>DOI: 10.1016/s0076-6879(00)24235-3</t>
+  </si>
+  <si>
+    <t>2.1.3.3</t>
+  </si>
+  <si>
+    <t>DOI: 10.1006/abbi.1994.1116</t>
+  </si>
+  <si>
+    <t>4.1.1.32</t>
+  </si>
+  <si>
+    <t>DOI: 10.1021/bi00618a001</t>
+  </si>
+  <si>
+    <t>1.3.99.3</t>
+  </si>
+  <si>
+    <t>DOI: 10.1111/j.1432-1033.1997.00548.x</t>
+  </si>
+  <si>
+    <t>6.2.1.1</t>
+  </si>
+  <si>
+    <t>DOI: 10.1074/jbc.M008782200</t>
+  </si>
+  <si>
+    <t>6.3.4.16</t>
+  </si>
+  <si>
+    <t>PMID: 6249820</t>
+  </si>
+  <si>
+    <t>3.5.3.11</t>
+  </si>
+  <si>
+    <t>Methanocaldococcus jannaschii</t>
+  </si>
+  <si>
+    <t>DOI: 10.1021/bi300039f</t>
+  </si>
+  <si>
+    <t>4.1.1.19</t>
+  </si>
+  <si>
+    <t>PMID: 4870599</t>
+  </si>
+  <si>
+    <t>DOI: 10.1016/j.jmb.2014.04.016</t>
+  </si>
+  <si>
+    <t>2.1.2.10</t>
+  </si>
+  <si>
+    <t>DOI: 10.1042/bj2550169</t>
+  </si>
+  <si>
+    <t>1.2.1.27</t>
+  </si>
+  <si>
+    <t>PMID: 2768248</t>
+  </si>
+  <si>
+    <t>6.4.1.3</t>
+  </si>
+  <si>
+    <t>PMID: 13752080</t>
+  </si>
+  <si>
+    <t>1.3.8.4</t>
+  </si>
+  <si>
+    <t>DOI: 10.1021/bi973096r</t>
+  </si>
+  <si>
+    <t>1.2.1.24</t>
+  </si>
+  <si>
+    <t>PMID: 217872</t>
+  </si>
+  <si>
+    <t>2.6.1.44</t>
+  </si>
+  <si>
+    <t>DOI: 10.1074/jbc.M006693200</t>
+  </si>
+  <si>
+    <t>2.3.1.37</t>
+  </si>
+  <si>
+    <t>DOI: 10.1093/oxfordjournals.jbchem.a124123</t>
+  </si>
+  <si>
+    <t>1.1.99.1</t>
+  </si>
+  <si>
+    <t>DOI: 10.1016/0005-2744(80)90217-x</t>
+  </si>
+  <si>
+    <t>PMID: 2211729</t>
+  </si>
+  <si>
+    <t>2.8.1.1</t>
+  </si>
+  <si>
+    <t>DOI: 10.1074/jbc.RA117.000826</t>
   </si>
 </sst>
 </file>
@@ -1994,10 +2180,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G290"/>
+  <dimension ref="A1:G273"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A79" workbookViewId="0">
-      <selection activeCell="H95" sqref="H95"/>
+    <sheetView tabSelected="1" topLeftCell="A107" workbookViewId="0">
+      <selection activeCell="F118" sqref="F118"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2185,7 +2371,7 @@
         <v>620</v>
       </c>
       <c r="F8">
-        <f t="shared" ref="F8:F288" si="0">E8*60</f>
+        <f t="shared" ref="F8:F271" si="0">E8*60</f>
         <v>37200</v>
       </c>
       <c r="G8" s="3" t="s">
@@ -2920,7 +3106,7 @@
         <v>16</v>
       </c>
       <c r="C39" t="s">
-        <v>462</v>
+        <v>445</v>
       </c>
       <c r="D39" t="s">
         <v>88</v>
@@ -2933,7 +3119,7 @@
         <v>816</v>
       </c>
       <c r="G39" s="3" t="s">
-        <v>463</v>
+        <v>446</v>
       </c>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.35">
@@ -2944,7 +3130,7 @@
         <v>16</v>
       </c>
       <c r="C40" t="s">
-        <v>464</v>
+        <v>447</v>
       </c>
       <c r="D40" t="s">
         <v>45</v>
@@ -2957,7 +3143,7 @@
         <v>227.34</v>
       </c>
       <c r="G40" s="3" t="s">
-        <v>465</v>
+        <v>448</v>
       </c>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.35">
@@ -2968,7 +3154,7 @@
         <v>16</v>
       </c>
       <c r="C41" t="s">
-        <v>466</v>
+        <v>449</v>
       </c>
       <c r="D41" t="s">
         <v>45</v>
@@ -2981,7 +3167,7 @@
         <v>184.14</v>
       </c>
       <c r="G41" s="3" t="s">
-        <v>467</v>
+        <v>450</v>
       </c>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.35">
@@ -2992,7 +3178,7 @@
         <v>16</v>
       </c>
       <c r="C42" t="s">
-        <v>468</v>
+        <v>451</v>
       </c>
       <c r="D42" t="s">
         <v>45</v>
@@ -3005,7 +3191,7 @@
         <v>124.80000000000001</v>
       </c>
       <c r="G42" s="3" t="s">
-        <v>469</v>
+        <v>452</v>
       </c>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.35">
@@ -3016,10 +3202,10 @@
         <v>16</v>
       </c>
       <c r="C43" t="s">
-        <v>470</v>
+        <v>453</v>
       </c>
       <c r="D43" t="s">
-        <v>471</v>
+        <v>454</v>
       </c>
       <c r="E43">
         <v>7.3</v>
@@ -3029,7 +3215,7 @@
         <v>438</v>
       </c>
       <c r="G43" s="3" t="s">
-        <v>472</v>
+        <v>455</v>
       </c>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.35">
@@ -3064,7 +3250,7 @@
         <v>16</v>
       </c>
       <c r="C45" t="s">
-        <v>473</v>
+        <v>456</v>
       </c>
       <c r="D45" t="s">
         <v>45</v>
@@ -3077,7 +3263,7 @@
         <v>4098</v>
       </c>
       <c r="G45" s="1" t="s">
-        <v>474</v>
+        <v>457</v>
       </c>
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.35">
@@ -3088,7 +3274,7 @@
         <v>16</v>
       </c>
       <c r="C46" t="s">
-        <v>475</v>
+        <v>458</v>
       </c>
       <c r="D46" t="s">
         <v>40</v>
@@ -3101,7 +3287,7 @@
         <v>24600</v>
       </c>
       <c r="G46" s="3" t="s">
-        <v>476</v>
+        <v>459</v>
       </c>
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.35">
@@ -3112,7 +3298,7 @@
         <v>16</v>
       </c>
       <c r="C47" t="s">
-        <v>477</v>
+        <v>460</v>
       </c>
       <c r="D47" t="s">
         <v>40</v>
@@ -3125,7 +3311,7 @@
         <v>1255.9199999999998</v>
       </c>
       <c r="G47" s="3" t="s">
-        <v>478</v>
+        <v>461</v>
       </c>
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.35">
@@ -3136,7 +3322,7 @@
         <v>16</v>
       </c>
       <c r="C48" t="s">
-        <v>479</v>
+        <v>462</v>
       </c>
       <c r="D48" t="s">
         <v>40</v>
@@ -3149,7 +3335,7 @@
         <v>618</v>
       </c>
       <c r="G48" s="3" t="s">
-        <v>480</v>
+        <v>463</v>
       </c>
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.35">
@@ -3160,7 +3346,7 @@
         <v>16</v>
       </c>
       <c r="C49" t="s">
-        <v>481</v>
+        <v>464</v>
       </c>
       <c r="D49" t="s">
         <v>40</v>
@@ -3173,7 +3359,7 @@
         <v>105.6</v>
       </c>
       <c r="G49" s="3" t="s">
-        <v>482</v>
+        <v>465</v>
       </c>
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.35">
@@ -3184,7 +3370,7 @@
         <v>16</v>
       </c>
       <c r="C50" t="s">
-        <v>483</v>
+        <v>466</v>
       </c>
       <c r="D50" t="s">
         <v>45</v>
@@ -3197,7 +3383,7 @@
         <v>1.962</v>
       </c>
       <c r="G50" s="3" t="s">
-        <v>484</v>
+        <v>467</v>
       </c>
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.35">
@@ -3208,7 +3394,7 @@
         <v>16</v>
       </c>
       <c r="C51" t="s">
-        <v>485</v>
+        <v>468</v>
       </c>
       <c r="D51" t="s">
         <v>40</v>
@@ -3221,7 +3407,7 @@
         <v>21001.199999999997</v>
       </c>
       <c r="G51" s="3" t="s">
-        <v>486</v>
+        <v>469</v>
       </c>
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.35">
@@ -3232,7 +3418,7 @@
         <v>16</v>
       </c>
       <c r="C52" t="s">
-        <v>487</v>
+        <v>470</v>
       </c>
       <c r="D52" t="s">
         <v>45</v>
@@ -3245,7 +3431,7 @@
         <v>0.14399999999999999</v>
       </c>
       <c r="G52" s="3" t="s">
-        <v>488</v>
+        <v>471</v>
       </c>
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.35">
@@ -3256,7 +3442,7 @@
         <v>16</v>
       </c>
       <c r="C53" t="s">
-        <v>481</v>
+        <v>464</v>
       </c>
       <c r="D53" t="s">
         <v>40</v>
@@ -3269,7 +3455,7 @@
         <v>105.6</v>
       </c>
       <c r="G53" s="3" t="s">
-        <v>482</v>
+        <v>465</v>
       </c>
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.35">
@@ -3280,7 +3466,7 @@
         <v>16</v>
       </c>
       <c r="C54" t="s">
-        <v>468</v>
+        <v>451</v>
       </c>
       <c r="D54" t="s">
         <v>45</v>
@@ -3293,7 +3479,7 @@
         <v>124.80000000000001</v>
       </c>
       <c r="G54" s="3" t="s">
-        <v>469</v>
+        <v>452</v>
       </c>
     </row>
     <row r="55" spans="1:7" x14ac:dyDescent="0.35">
@@ -3304,7 +3490,7 @@
         <v>16</v>
       </c>
       <c r="C55" t="s">
-        <v>489</v>
+        <v>472</v>
       </c>
       <c r="D55" t="s">
         <v>45</v>
@@ -3317,7 +3503,7 @@
         <v>8280</v>
       </c>
       <c r="G55" s="3" t="s">
-        <v>490</v>
+        <v>473</v>
       </c>
     </row>
     <row r="56" spans="1:7" x14ac:dyDescent="0.35">
@@ -3328,7 +3514,7 @@
         <v>16</v>
       </c>
       <c r="C56" t="s">
-        <v>468</v>
+        <v>451</v>
       </c>
       <c r="D56" t="s">
         <v>45</v>
@@ -3341,7 +3527,7 @@
         <v>124.80000000000001</v>
       </c>
       <c r="G56" s="3" t="s">
-        <v>469</v>
+        <v>452</v>
       </c>
     </row>
     <row r="57" spans="1:7" x14ac:dyDescent="0.35">
@@ -3365,7 +3551,7 @@
         <v>1920</v>
       </c>
       <c r="G57" s="3" t="s">
-        <v>491</v>
+        <v>474</v>
       </c>
     </row>
     <row r="58" spans="1:7" x14ac:dyDescent="0.35">
@@ -3376,7 +3562,7 @@
         <v>16</v>
       </c>
       <c r="C58" t="s">
-        <v>466</v>
+        <v>449</v>
       </c>
       <c r="D58" t="s">
         <v>45</v>
@@ -3389,7 +3575,7 @@
         <v>184.14</v>
       </c>
       <c r="G58" s="3" t="s">
-        <v>467</v>
+        <v>450</v>
       </c>
     </row>
     <row r="59" spans="1:7" x14ac:dyDescent="0.35">
@@ -3400,7 +3586,7 @@
         <v>16</v>
       </c>
       <c r="C59" t="s">
-        <v>492</v>
+        <v>475</v>
       </c>
       <c r="D59" t="s">
         <v>42</v>
@@ -3413,7 +3599,7 @@
         <v>0.39479999999999998</v>
       </c>
       <c r="G59" s="3" t="s">
-        <v>493</v>
+        <v>476</v>
       </c>
     </row>
     <row r="60" spans="1:7" x14ac:dyDescent="0.35">
@@ -3424,7 +3610,7 @@
         <v>16</v>
       </c>
       <c r="C60" t="s">
-        <v>494</v>
+        <v>477</v>
       </c>
       <c r="D60" t="s">
         <v>45</v>
@@ -3437,7 +3623,7 @@
         <v>0.12</v>
       </c>
       <c r="G60" s="3" t="s">
-        <v>495</v>
+        <v>478</v>
       </c>
     </row>
     <row r="61" spans="1:7" x14ac:dyDescent="0.35">
@@ -3448,7 +3634,7 @@
         <v>16</v>
       </c>
       <c r="C61" t="s">
-        <v>496</v>
+        <v>479</v>
       </c>
       <c r="D61" t="s">
         <v>42</v>
@@ -3461,7 +3647,7 @@
         <v>12360</v>
       </c>
       <c r="G61" s="3" t="s">
-        <v>497</v>
+        <v>480</v>
       </c>
     </row>
     <row r="62" spans="1:7" x14ac:dyDescent="0.35">
@@ -3472,7 +3658,7 @@
         <v>16</v>
       </c>
       <c r="C62" t="s">
-        <v>498</v>
+        <v>481</v>
       </c>
       <c r="D62" t="s">
         <v>88</v>
@@ -3485,7 +3671,7 @@
         <v>3.516</v>
       </c>
       <c r="G62" s="3" t="s">
-        <v>499</v>
+        <v>482</v>
       </c>
     </row>
     <row r="63" spans="1:7" x14ac:dyDescent="0.35">
@@ -3496,7 +3682,7 @@
         <v>16</v>
       </c>
       <c r="C63" t="s">
-        <v>500</v>
+        <v>483</v>
       </c>
       <c r="D63" t="s">
         <v>88</v>
@@ -3509,7 +3695,7 @@
         <v>198</v>
       </c>
       <c r="G63" s="3" t="s">
-        <v>501</v>
+        <v>484</v>
       </c>
     </row>
     <row r="64" spans="1:7" x14ac:dyDescent="0.35">
@@ -3520,7 +3706,7 @@
         <v>16</v>
       </c>
       <c r="C64" t="s">
-        <v>502</v>
+        <v>485</v>
       </c>
       <c r="D64" t="s">
         <v>45</v>
@@ -3533,7 +3719,7 @@
         <v>3060</v>
       </c>
       <c r="G64" s="3" t="s">
-        <v>503</v>
+        <v>486</v>
       </c>
     </row>
     <row r="65" spans="1:7" x14ac:dyDescent="0.35">
@@ -3544,7 +3730,7 @@
         <v>16</v>
       </c>
       <c r="C65" t="s">
-        <v>504</v>
+        <v>487</v>
       </c>
       <c r="D65" t="s">
         <v>40</v>
@@ -3557,7 +3743,7 @@
         <v>8220</v>
       </c>
       <c r="G65" s="3" t="s">
-        <v>505</v>
+        <v>488</v>
       </c>
     </row>
     <row r="66" spans="1:7" x14ac:dyDescent="0.35">
@@ -3568,7 +3754,7 @@
         <v>16</v>
       </c>
       <c r="C66" t="s">
-        <v>506</v>
+        <v>489</v>
       </c>
       <c r="D66" t="s">
         <v>45</v>
@@ -3581,7 +3767,7 @@
         <v>6.4199999999999993E-2</v>
       </c>
       <c r="G66" s="1" t="s">
-        <v>507</v>
+        <v>490</v>
       </c>
     </row>
     <row r="67" spans="1:7" x14ac:dyDescent="0.35">
@@ -3592,7 +3778,7 @@
         <v>16</v>
       </c>
       <c r="C67" t="s">
-        <v>508</v>
+        <v>491</v>
       </c>
       <c r="D67" t="s">
         <v>88</v>
@@ -3605,7 +3791,7 @@
         <v>59340</v>
       </c>
       <c r="G67" s="3" t="s">
-        <v>509</v>
+        <v>492</v>
       </c>
     </row>
     <row r="68" spans="1:7" x14ac:dyDescent="0.35">
@@ -3616,7 +3802,7 @@
         <v>16</v>
       </c>
       <c r="C68" t="s">
-        <v>510</v>
+        <v>493</v>
       </c>
       <c r="D68" t="s">
         <v>45</v>
@@ -3629,7 +3815,7 @@
         <v>18.600000000000001</v>
       </c>
       <c r="G68" s="3" t="s">
-        <v>511</v>
+        <v>494</v>
       </c>
     </row>
     <row r="69" spans="1:7" x14ac:dyDescent="0.35">
@@ -3640,7 +3826,7 @@
         <v>16</v>
       </c>
       <c r="C69" t="s">
-        <v>512</v>
+        <v>495</v>
       </c>
       <c r="D69" t="s">
         <v>40</v>
@@ -3653,7 +3839,7 @@
         <v>2760</v>
       </c>
       <c r="G69" s="3" t="s">
-        <v>513</v>
+        <v>496</v>
       </c>
     </row>
     <row r="70" spans="1:7" x14ac:dyDescent="0.35">
@@ -3664,7 +3850,7 @@
         <v>16</v>
       </c>
       <c r="C70" t="s">
-        <v>514</v>
+        <v>497</v>
       </c>
       <c r="D70" t="s">
         <v>45</v>
@@ -3677,7 +3863,7 @@
         <v>48.959999999999994</v>
       </c>
       <c r="G70" s="3" t="s">
-        <v>515</v>
+        <v>498</v>
       </c>
     </row>
     <row r="71" spans="1:7" x14ac:dyDescent="0.35">
@@ -3688,7 +3874,7 @@
         <v>16</v>
       </c>
       <c r="C71" t="s">
-        <v>516</v>
+        <v>499</v>
       </c>
       <c r="D71" t="s">
         <v>40</v>
@@ -3701,7 +3887,7 @@
         <v>330</v>
       </c>
       <c r="G71" s="3" t="s">
-        <v>517</v>
+        <v>500</v>
       </c>
     </row>
     <row r="72" spans="1:7" x14ac:dyDescent="0.35">
@@ -3712,7 +3898,7 @@
         <v>16</v>
       </c>
       <c r="C72" t="s">
-        <v>512</v>
+        <v>495</v>
       </c>
       <c r="D72" t="s">
         <v>40</v>
@@ -3725,7 +3911,7 @@
         <v>2760</v>
       </c>
       <c r="G72" s="3" t="s">
-        <v>513</v>
+        <v>496</v>
       </c>
     </row>
     <row r="73" spans="1:7" x14ac:dyDescent="0.35">
@@ -3736,7 +3922,7 @@
         <v>16</v>
       </c>
       <c r="C73" t="s">
-        <v>518</v>
+        <v>501</v>
       </c>
       <c r="D73" t="s">
         <v>147</v>
@@ -3749,7 +3935,7 @@
         <v>4260</v>
       </c>
       <c r="G73" s="3" t="s">
-        <v>519</v>
+        <v>502</v>
       </c>
     </row>
     <row r="74" spans="1:7" x14ac:dyDescent="0.35">
@@ -3760,7 +3946,7 @@
         <v>16</v>
       </c>
       <c r="C74" t="s">
-        <v>466</v>
+        <v>449</v>
       </c>
       <c r="D74" t="s">
         <v>45</v>
@@ -3773,7 +3959,7 @@
         <v>184.14</v>
       </c>
       <c r="G74" s="3" t="s">
-        <v>467</v>
+        <v>450</v>
       </c>
     </row>
     <row r="75" spans="1:7" x14ac:dyDescent="0.35">
@@ -3784,7 +3970,7 @@
         <v>16</v>
       </c>
       <c r="C75" t="s">
-        <v>520</v>
+        <v>503</v>
       </c>
       <c r="D75" t="s">
         <v>88</v>
@@ -3797,7 +3983,7 @@
         <v>29.4</v>
       </c>
       <c r="G75" s="3" t="s">
-        <v>521</v>
+        <v>504</v>
       </c>
     </row>
     <row r="76" spans="1:7" x14ac:dyDescent="0.35">
@@ -3808,7 +3994,7 @@
         <v>16</v>
       </c>
       <c r="C76" t="s">
-        <v>512</v>
+        <v>495</v>
       </c>
       <c r="D76" t="s">
         <v>40</v>
@@ -3821,7 +4007,7 @@
         <v>2760</v>
       </c>
       <c r="G76" s="3" t="s">
-        <v>513</v>
+        <v>496</v>
       </c>
     </row>
     <row r="77" spans="1:7" x14ac:dyDescent="0.35">
@@ -3832,7 +4018,7 @@
         <v>16</v>
       </c>
       <c r="C77" t="s">
-        <v>506</v>
+        <v>489</v>
       </c>
       <c r="D77" t="s">
         <v>45</v>
@@ -3845,7 +4031,7 @@
         <v>6.4199999999999993E-2</v>
       </c>
       <c r="G77" s="1" t="s">
-        <v>507</v>
+        <v>490</v>
       </c>
     </row>
     <row r="78" spans="1:7" x14ac:dyDescent="0.35">
@@ -3856,7 +4042,7 @@
         <v>16</v>
       </c>
       <c r="C78" t="s">
-        <v>468</v>
+        <v>451</v>
       </c>
       <c r="D78" t="s">
         <v>45</v>
@@ -3869,7 +4055,7 @@
         <v>124.80000000000001</v>
       </c>
       <c r="G78" s="3" t="s">
-        <v>469</v>
+        <v>452</v>
       </c>
     </row>
     <row r="79" spans="1:7" x14ac:dyDescent="0.35">
@@ -3880,7 +4066,7 @@
         <v>16</v>
       </c>
       <c r="C79" t="s">
-        <v>522</v>
+        <v>505</v>
       </c>
       <c r="D79" t="s">
         <v>40</v>
@@ -3893,7 +4079,7 @@
         <v>196.27339572192511</v>
       </c>
       <c r="G79" s="3" t="s">
-        <v>523</v>
+        <v>506</v>
       </c>
     </row>
     <row r="80" spans="1:7" x14ac:dyDescent="0.35">
@@ -3904,7 +4090,7 @@
         <v>16</v>
       </c>
       <c r="C80" t="s">
-        <v>524</v>
+        <v>507</v>
       </c>
       <c r="D80" t="s">
         <v>42</v>
@@ -3917,7 +4103,7 @@
         <v>306</v>
       </c>
       <c r="G80" s="3" t="s">
-        <v>525</v>
+        <v>508</v>
       </c>
     </row>
     <row r="81" spans="1:7" x14ac:dyDescent="0.35">
@@ -3928,7 +4114,7 @@
         <v>16</v>
       </c>
       <c r="C81" t="s">
-        <v>526</v>
+        <v>509</v>
       </c>
       <c r="D81" t="s">
         <v>40</v>
@@ -3941,7 +4127,7 @@
         <v>282</v>
       </c>
       <c r="G81" s="3" t="s">
-        <v>527</v>
+        <v>510</v>
       </c>
     </row>
     <row r="82" spans="1:7" x14ac:dyDescent="0.35">
@@ -3952,7 +4138,7 @@
         <v>16</v>
       </c>
       <c r="C82" t="s">
-        <v>506</v>
+        <v>489</v>
       </c>
       <c r="D82" t="s">
         <v>45</v>
@@ -3965,7 +4151,7 @@
         <v>6.4199999999999993E-2</v>
       </c>
       <c r="G82" s="1" t="s">
-        <v>507</v>
+        <v>490</v>
       </c>
     </row>
     <row r="83" spans="1:7" x14ac:dyDescent="0.35">
@@ -3976,7 +4162,7 @@
         <v>16</v>
       </c>
       <c r="C83" t="s">
-        <v>526</v>
+        <v>509</v>
       </c>
       <c r="D83" t="s">
         <v>40</v>
@@ -3985,11 +4171,11 @@
         <v>4.7</v>
       </c>
       <c r="F83">
-        <f t="shared" ref="F83:F90" si="4">E83*60</f>
+        <f t="shared" ref="F83:F108" si="4">E83*60</f>
         <v>282</v>
       </c>
       <c r="G83" s="3" t="s">
-        <v>527</v>
+        <v>510</v>
       </c>
     </row>
     <row r="84" spans="1:7" x14ac:dyDescent="0.35">
@@ -4000,10 +4186,10 @@
         <v>16</v>
       </c>
       <c r="C84" t="s">
-        <v>528</v>
+        <v>511</v>
       </c>
       <c r="D84" t="s">
-        <v>529</v>
+        <v>512</v>
       </c>
       <c r="E84">
         <v>8.75</v>
@@ -4013,7 +4199,7 @@
         <v>525</v>
       </c>
       <c r="G84" s="3" t="s">
-        <v>530</v>
+        <v>513</v>
       </c>
     </row>
     <row r="85" spans="1:7" x14ac:dyDescent="0.35">
@@ -4024,10 +4210,10 @@
         <v>16</v>
       </c>
       <c r="C85" t="s">
-        <v>528</v>
+        <v>511</v>
       </c>
       <c r="D85" t="s">
-        <v>529</v>
+        <v>512</v>
       </c>
       <c r="E85">
         <v>21</v>
@@ -4037,7 +4223,7 @@
         <v>1260</v>
       </c>
       <c r="G85" s="3" t="s">
-        <v>530</v>
+        <v>513</v>
       </c>
     </row>
     <row r="86" spans="1:7" x14ac:dyDescent="0.35">
@@ -4048,10 +4234,10 @@
         <v>16</v>
       </c>
       <c r="C86" t="s">
-        <v>528</v>
+        <v>511</v>
       </c>
       <c r="D86" t="s">
-        <v>529</v>
+        <v>512</v>
       </c>
       <c r="E86">
         <v>9.3800000000000008</v>
@@ -4061,7 +4247,7 @@
         <v>562.80000000000007</v>
       </c>
       <c r="G86" s="3" t="s">
-        <v>530</v>
+        <v>513</v>
       </c>
     </row>
     <row r="87" spans="1:7" x14ac:dyDescent="0.35">
@@ -4072,10 +4258,10 @@
         <v>16</v>
       </c>
       <c r="C87" t="s">
-        <v>531</v>
+        <v>514</v>
       </c>
       <c r="D87" t="s">
-        <v>529</v>
+        <v>512</v>
       </c>
       <c r="E87">
         <v>0.114</v>
@@ -4085,7 +4271,7 @@
         <v>6.84</v>
       </c>
       <c r="G87" s="3" t="s">
-        <v>532</v>
+        <v>515</v>
       </c>
     </row>
     <row r="88" spans="1:7" x14ac:dyDescent="0.35">
@@ -4096,7 +4282,7 @@
         <v>16</v>
       </c>
       <c r="C88" t="s">
-        <v>533</v>
+        <v>516</v>
       </c>
       <c r="D88" t="s">
         <v>45</v>
@@ -4109,7 +4295,7 @@
         <v>58.8</v>
       </c>
       <c r="G88" s="1" t="s">
-        <v>534</v>
+        <v>517</v>
       </c>
     </row>
     <row r="89" spans="1:7" x14ac:dyDescent="0.35">
@@ -4120,7 +4306,7 @@
         <v>16</v>
       </c>
       <c r="C89" t="s">
-        <v>504</v>
+        <v>487</v>
       </c>
       <c r="D89" t="s">
         <v>40</v>
@@ -4133,7 +4319,7 @@
         <v>8220</v>
       </c>
       <c r="G89" s="3" t="s">
-        <v>505</v>
+        <v>488</v>
       </c>
     </row>
     <row r="90" spans="1:7" x14ac:dyDescent="0.35">
@@ -4144,7 +4330,7 @@
         <v>16</v>
       </c>
       <c r="C90" t="s">
-        <v>535</v>
+        <v>518</v>
       </c>
       <c r="D90" t="s">
         <v>40</v>
@@ -4157,7 +4343,7 @@
         <v>70800</v>
       </c>
       <c r="G90" s="3" t="s">
-        <v>536</v>
+        <v>519</v>
       </c>
     </row>
     <row r="91" spans="1:7" x14ac:dyDescent="0.35">
@@ -4167,6 +4353,22 @@
       <c r="B91" t="s">
         <v>16</v>
       </c>
+      <c r="C91" t="s">
+        <v>520</v>
+      </c>
+      <c r="D91" t="s">
+        <v>88</v>
+      </c>
+      <c r="E91">
+        <v>143</v>
+      </c>
+      <c r="F91">
+        <f t="shared" si="4"/>
+        <v>8580</v>
+      </c>
+      <c r="G91" s="3" t="s">
+        <v>521</v>
+      </c>
     </row>
     <row r="92" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A92" t="s">
@@ -4175,6 +4377,22 @@
       <c r="B92" t="s">
         <v>16</v>
       </c>
+      <c r="C92" t="s">
+        <v>522</v>
+      </c>
+      <c r="D92" t="s">
+        <v>45</v>
+      </c>
+      <c r="E92">
+        <v>1.7</v>
+      </c>
+      <c r="F92">
+        <f t="shared" si="4"/>
+        <v>102</v>
+      </c>
+      <c r="G92" s="3" t="s">
+        <v>523</v>
+      </c>
     </row>
     <row r="93" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A93" t="s">
@@ -4183,6 +4401,22 @@
       <c r="B93" t="s">
         <v>16</v>
       </c>
+      <c r="C93" t="s">
+        <v>524</v>
+      </c>
+      <c r="D93" t="s">
+        <v>45</v>
+      </c>
+      <c r="E93">
+        <v>0.33</v>
+      </c>
+      <c r="F93">
+        <f t="shared" si="4"/>
+        <v>19.8</v>
+      </c>
+      <c r="G93" s="3" t="s">
+        <v>525</v>
+      </c>
     </row>
     <row r="94" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A94" t="s">
@@ -4191,6 +4425,22 @@
       <c r="B94" t="s">
         <v>16</v>
       </c>
+      <c r="C94" t="s">
+        <v>526</v>
+      </c>
+      <c r="D94" t="s">
+        <v>40</v>
+      </c>
+      <c r="E94">
+        <v>34.799999999999997</v>
+      </c>
+      <c r="F94">
+        <f t="shared" si="4"/>
+        <v>2088</v>
+      </c>
+      <c r="G94" s="3" t="s">
+        <v>527</v>
+      </c>
     </row>
     <row r="95" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A95" t="s">
@@ -4199,6 +4449,22 @@
       <c r="B95" t="s">
         <v>16</v>
       </c>
+      <c r="C95" t="s">
+        <v>528</v>
+      </c>
+      <c r="D95" t="s">
+        <v>40</v>
+      </c>
+      <c r="E95">
+        <v>25</v>
+      </c>
+      <c r="F95">
+        <f t="shared" si="4"/>
+        <v>1500</v>
+      </c>
+      <c r="G95" s="3" t="s">
+        <v>529</v>
+      </c>
     </row>
     <row r="96" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A96" t="s">
@@ -4207,120 +4473,360 @@
       <c r="B96" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="97" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C96" t="s">
+        <v>530</v>
+      </c>
+      <c r="D96" t="s">
+        <v>45</v>
+      </c>
+      <c r="E96">
+        <v>14.9</v>
+      </c>
+      <c r="F96">
+        <f t="shared" si="4"/>
+        <v>894</v>
+      </c>
+      <c r="G96" s="3" t="s">
+        <v>531</v>
+      </c>
+    </row>
+    <row r="97" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A97" t="s">
         <v>298</v>
       </c>
       <c r="B97" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="98" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C97" t="s">
+        <v>532</v>
+      </c>
+      <c r="D97" t="s">
+        <v>40</v>
+      </c>
+      <c r="E97">
+        <v>8.9309366130558185</v>
+      </c>
+      <c r="F97">
+        <f t="shared" si="4"/>
+        <v>535.85619678334911</v>
+      </c>
+      <c r="G97" s="3" t="s">
+        <v>533</v>
+      </c>
+    </row>
+    <row r="98" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A98" t="s">
         <v>299</v>
       </c>
       <c r="B98" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="99" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C98" t="s">
+        <v>534</v>
+      </c>
+      <c r="D98" t="s">
+        <v>40</v>
+      </c>
+      <c r="E98">
+        <v>2.6</v>
+      </c>
+      <c r="F98">
+        <f t="shared" si="4"/>
+        <v>156</v>
+      </c>
+      <c r="G98" s="3" t="s">
+        <v>535</v>
+      </c>
+    </row>
+    <row r="99" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A99" t="s">
         <v>300</v>
       </c>
       <c r="B99" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="100" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C99" t="s">
+        <v>536</v>
+      </c>
+      <c r="D99" t="s">
+        <v>45</v>
+      </c>
+      <c r="E99">
+        <v>0.83</v>
+      </c>
+      <c r="F99">
+        <f t="shared" si="4"/>
+        <v>49.8</v>
+      </c>
+      <c r="G99" s="3" t="s">
+        <v>537</v>
+      </c>
+    </row>
+    <row r="100" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A100" t="s">
         <v>301</v>
       </c>
       <c r="B100" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="101" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C100" t="s">
+        <v>538</v>
+      </c>
+      <c r="D100" t="s">
+        <v>88</v>
+      </c>
+      <c r="E100">
+        <v>684</v>
+      </c>
+      <c r="F100">
+        <f t="shared" si="4"/>
+        <v>41040</v>
+      </c>
+      <c r="G100" s="3" t="s">
+        <v>539</v>
+      </c>
+    </row>
+    <row r="101" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A101" t="s">
         <v>302</v>
       </c>
       <c r="B101" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="102" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C101" t="s">
+        <v>540</v>
+      </c>
+      <c r="D101" t="s">
+        <v>45</v>
+      </c>
+      <c r="E101">
+        <v>3.17</v>
+      </c>
+      <c r="F101">
+        <f t="shared" si="4"/>
+        <v>190.2</v>
+      </c>
+      <c r="G101" s="3" t="s">
+        <v>541</v>
+      </c>
+    </row>
+    <row r="102" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A102" t="s">
         <v>303</v>
       </c>
       <c r="B102" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="103" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C102" t="s">
+        <v>542</v>
+      </c>
+      <c r="D102" t="s">
+        <v>45</v>
+      </c>
+      <c r="E102">
+        <v>3.5999999999999997E-2</v>
+      </c>
+      <c r="F102">
+        <f t="shared" si="4"/>
+        <v>2.1599999999999997</v>
+      </c>
+      <c r="G102" s="3" t="s">
+        <v>543</v>
+      </c>
+    </row>
+    <row r="103" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A103" t="s">
         <v>304</v>
       </c>
       <c r="B103" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="104" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C103" t="s">
+        <v>544</v>
+      </c>
+      <c r="D103" t="s">
+        <v>45</v>
+      </c>
+      <c r="E103">
+        <v>24.1</v>
+      </c>
+      <c r="F103">
+        <f t="shared" si="4"/>
+        <v>1446</v>
+      </c>
+      <c r="G103" s="3" t="s">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="104" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A104" t="s">
         <v>305</v>
       </c>
       <c r="B104" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="105" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C104" t="s">
+        <v>546</v>
+      </c>
+      <c r="D104" t="s">
+        <v>112</v>
+      </c>
+      <c r="E104">
+        <v>2.5</v>
+      </c>
+      <c r="F104">
+        <f t="shared" si="4"/>
+        <v>150</v>
+      </c>
+      <c r="G104" s="3" t="s">
+        <v>547</v>
+      </c>
+    </row>
+    <row r="105" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A105" t="s">
         <v>306</v>
       </c>
       <c r="B105" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="106" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C105" t="s">
+        <v>511</v>
+      </c>
+      <c r="D105" t="s">
+        <v>548</v>
+      </c>
+      <c r="E105">
+        <v>4.9000000000000004</v>
+      </c>
+      <c r="F105">
+        <f t="shared" si="4"/>
+        <v>294</v>
+      </c>
+      <c r="G105" s="3" t="s">
+        <v>549</v>
+      </c>
+    </row>
+    <row r="106" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A106" t="s">
         <v>307</v>
       </c>
       <c r="B106" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="107" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C106" t="s">
+        <v>464</v>
+      </c>
+      <c r="D106" t="s">
+        <v>40</v>
+      </c>
+      <c r="E106">
+        <v>1.76</v>
+      </c>
+      <c r="F106">
+        <f t="shared" si="4"/>
+        <v>105.6</v>
+      </c>
+      <c r="G106" s="3" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="107" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A107" t="s">
         <v>308</v>
       </c>
       <c r="B107" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="108" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C107" t="s">
+        <v>550</v>
+      </c>
+      <c r="D107" t="s">
+        <v>42</v>
+      </c>
+      <c r="E107">
+        <v>1240</v>
+      </c>
+      <c r="F107">
+        <f t="shared" si="4"/>
+        <v>74400</v>
+      </c>
+      <c r="G107" s="3" t="s">
+        <v>551</v>
+      </c>
+    </row>
+    <row r="108" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A108" t="s">
         <v>309</v>
       </c>
       <c r="B108" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="109" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C108" t="s">
+        <v>472</v>
+      </c>
+      <c r="D108" t="s">
+        <v>45</v>
+      </c>
+      <c r="E108">
+        <v>138</v>
+      </c>
+      <c r="F108">
+        <f t="shared" si="4"/>
+        <v>8280</v>
+      </c>
+      <c r="G108" s="3" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="109" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A109" t="s">
         <v>310</v>
       </c>
       <c r="B109" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="110" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C109" t="s">
+        <v>464</v>
+      </c>
+      <c r="D109" t="s">
+        <v>40</v>
+      </c>
+      <c r="E109">
+        <v>1.76</v>
+      </c>
+      <c r="F109">
+        <f t="shared" ref="F109:F110" si="5">E109*60</f>
+        <v>105.6</v>
+      </c>
+      <c r="G109" s="3" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="110" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A110" t="s">
         <v>311</v>
       </c>
       <c r="B110" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="111" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C110" t="s">
+        <v>552</v>
+      </c>
+      <c r="D110" t="s">
+        <v>45</v>
+      </c>
+      <c r="E110">
+        <v>0.73</v>
+      </c>
+      <c r="F110">
+        <f t="shared" si="5"/>
+        <v>43.8</v>
+      </c>
+      <c r="G110" s="3" t="s">
+        <v>553</v>
+      </c>
+    </row>
+    <row r="111" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A111" t="s">
         <v>312</v>
       </c>
@@ -4328,7 +4834,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="112" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="112" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A112" t="s">
         <v>313</v>
       </c>
@@ -5058,714 +5564,794 @@
     </row>
     <row r="203" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A203" t="s">
-        <v>404</v>
+        <v>26</v>
       </c>
       <c r="B203" t="s">
-        <v>16</v>
+        <v>38</v>
+      </c>
+      <c r="C203" t="s">
+        <v>86</v>
+      </c>
+      <c r="D203" t="s">
+        <v>45</v>
+      </c>
+      <c r="E203">
+        <v>11</v>
+      </c>
+      <c r="F203">
+        <f t="shared" si="0"/>
+        <v>660</v>
+      </c>
+      <c r="G203" s="3" t="s">
+        <v>87</v>
       </c>
     </row>
     <row r="204" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A204" t="s">
-        <v>405</v>
+        <v>27</v>
       </c>
       <c r="B204" t="s">
-        <v>16</v>
+        <v>38</v>
+      </c>
+      <c r="C204" t="s">
+        <v>89</v>
+      </c>
+      <c r="D204" t="s">
+        <v>88</v>
+      </c>
+      <c r="E204">
+        <v>0.127</v>
+      </c>
+      <c r="F204">
+        <f t="shared" si="0"/>
+        <v>7.62</v>
+      </c>
+      <c r="G204" s="3" t="s">
+        <v>90</v>
       </c>
     </row>
     <row r="205" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A205" t="s">
-        <v>406</v>
+        <v>28</v>
       </c>
       <c r="B205" t="s">
-        <v>16</v>
+        <v>38</v>
+      </c>
+      <c r="C205" t="s">
+        <v>92</v>
+      </c>
+      <c r="D205" t="s">
+        <v>91</v>
+      </c>
+      <c r="E205">
+        <v>6.13</v>
+      </c>
+      <c r="F205">
+        <f t="shared" si="0"/>
+        <v>367.8</v>
+      </c>
+      <c r="G205" s="3" t="s">
+        <v>93</v>
       </c>
     </row>
     <row r="206" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A206" t="s">
-        <v>407</v>
+        <v>29</v>
       </c>
       <c r="B206" t="s">
-        <v>16</v>
+        <v>38</v>
+      </c>
+      <c r="C206" t="s">
+        <v>94</v>
+      </c>
+      <c r="D206" t="s">
+        <v>45</v>
+      </c>
+      <c r="E206">
+        <v>31</v>
+      </c>
+      <c r="F206">
+        <f t="shared" si="0"/>
+        <v>1860</v>
+      </c>
+      <c r="G206" s="3" t="s">
+        <v>95</v>
       </c>
     </row>
     <row r="207" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A207" t="s">
-        <v>408</v>
+        <v>30</v>
       </c>
       <c r="B207" t="s">
-        <v>16</v>
+        <v>38</v>
+      </c>
+      <c r="C207" t="s">
+        <v>97</v>
+      </c>
+      <c r="D207" t="s">
+        <v>96</v>
+      </c>
+      <c r="E207">
+        <v>252</v>
+      </c>
+      <c r="F207">
+        <f t="shared" si="0"/>
+        <v>15120</v>
+      </c>
+      <c r="G207" s="3" t="s">
+        <v>98</v>
       </c>
     </row>
     <row r="208" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A208" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="B208" t="s">
         <v>38</v>
       </c>
       <c r="C208" t="s">
-        <v>86</v>
+        <v>100</v>
       </c>
       <c r="D208" t="s">
-        <v>45</v>
+        <v>99</v>
       </c>
       <c r="E208">
-        <v>11</v>
+        <v>22.1</v>
       </c>
       <c r="F208">
         <f t="shared" si="0"/>
-        <v>660</v>
+        <v>1326</v>
       </c>
       <c r="G208" s="3" t="s">
-        <v>87</v>
+        <v>101</v>
       </c>
     </row>
     <row r="209" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A209" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="B209" t="s">
         <v>38</v>
       </c>
       <c r="C209" t="s">
-        <v>89</v>
+        <v>102</v>
       </c>
       <c r="D209" t="s">
-        <v>88</v>
+        <v>40</v>
       </c>
       <c r="E209">
-        <v>0.127</v>
+        <v>3.9E-2</v>
       </c>
       <c r="F209">
         <f t="shared" si="0"/>
-        <v>7.62</v>
+        <v>2.34</v>
       </c>
       <c r="G209" s="3" t="s">
-        <v>90</v>
+        <v>103</v>
       </c>
     </row>
     <row r="210" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A210" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="B210" t="s">
         <v>38</v>
       </c>
       <c r="C210" t="s">
-        <v>92</v>
+        <v>104</v>
       </c>
       <c r="D210" t="s">
-        <v>91</v>
+        <v>45</v>
       </c>
       <c r="E210">
-        <v>6.13</v>
+        <v>450</v>
       </c>
       <c r="F210">
         <f t="shared" si="0"/>
-        <v>367.8</v>
+        <v>27000</v>
       </c>
       <c r="G210" s="3" t="s">
-        <v>93</v>
+        <v>105</v>
       </c>
     </row>
     <row r="211" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A211" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="B211" t="s">
         <v>38</v>
       </c>
       <c r="C211" t="s">
-        <v>94</v>
+        <v>47</v>
       </c>
       <c r="D211" t="s">
         <v>45</v>
       </c>
       <c r="E211">
-        <v>31</v>
+        <v>182</v>
       </c>
       <c r="F211">
         <f t="shared" si="0"/>
-        <v>1860</v>
+        <v>10920</v>
       </c>
       <c r="G211" s="3" t="s">
-        <v>95</v>
+        <v>48</v>
       </c>
     </row>
     <row r="212" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A212" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="B212" t="s">
         <v>38</v>
       </c>
       <c r="C212" t="s">
-        <v>97</v>
+        <v>41</v>
       </c>
       <c r="D212" t="s">
-        <v>96</v>
+        <v>88</v>
       </c>
       <c r="E212">
-        <v>252</v>
+        <v>345</v>
       </c>
       <c r="F212">
         <f t="shared" si="0"/>
-        <v>15120</v>
+        <v>20700</v>
       </c>
       <c r="G212" s="3" t="s">
-        <v>98</v>
+        <v>106</v>
       </c>
     </row>
     <row r="213" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A213" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="B213" t="s">
         <v>38</v>
       </c>
       <c r="C213" t="s">
-        <v>100</v>
+        <v>43</v>
       </c>
       <c r="D213" t="s">
-        <v>99</v>
+        <v>45</v>
       </c>
       <c r="E213">
-        <v>22.1</v>
+        <v>170</v>
       </c>
       <c r="F213">
         <f t="shared" si="0"/>
-        <v>1326</v>
+        <v>10200</v>
       </c>
       <c r="G213" s="3" t="s">
-        <v>101</v>
+        <v>46</v>
       </c>
     </row>
     <row r="214" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A214" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="B214" t="s">
-        <v>38</v>
+        <v>16</v>
       </c>
       <c r="C214" t="s">
-        <v>102</v>
+        <v>43</v>
       </c>
       <c r="D214" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="E214">
-        <v>3.9E-2</v>
+        <v>170</v>
       </c>
       <c r="F214">
         <f t="shared" si="0"/>
-        <v>2.34</v>
+        <v>10200</v>
       </c>
       <c r="G214" s="3" t="s">
-        <v>103</v>
+        <v>46</v>
       </c>
     </row>
     <row r="215" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A215" t="s">
-        <v>33</v>
+        <v>44</v>
       </c>
       <c r="B215" t="s">
-        <v>38</v>
+        <v>16</v>
       </c>
       <c r="C215" t="s">
-        <v>104</v>
+        <v>47</v>
       </c>
       <c r="D215" t="s">
         <v>45</v>
       </c>
       <c r="E215">
-        <v>450</v>
+        <v>182</v>
       </c>
       <c r="F215">
         <f t="shared" si="0"/>
-        <v>27000</v>
+        <v>10920</v>
       </c>
       <c r="G215" s="3" t="s">
-        <v>105</v>
+        <v>48</v>
       </c>
     </row>
     <row r="216" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A216" t="s">
-        <v>34</v>
+        <v>161</v>
       </c>
       <c r="B216" t="s">
         <v>38</v>
       </c>
       <c r="C216" t="s">
-        <v>47</v>
+        <v>176</v>
       </c>
       <c r="D216" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="E216">
-        <v>182</v>
+        <v>40</v>
       </c>
       <c r="F216">
         <f t="shared" si="0"/>
-        <v>10920</v>
+        <v>2400</v>
       </c>
       <c r="G216" s="3" t="s">
-        <v>48</v>
+        <v>175</v>
       </c>
     </row>
     <row r="217" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A217" t="s">
-        <v>35</v>
+        <v>163</v>
       </c>
       <c r="B217" t="s">
         <v>38</v>
       </c>
       <c r="C217" t="s">
-        <v>41</v>
+        <v>173</v>
       </c>
       <c r="D217" t="s">
         <v>88</v>
       </c>
       <c r="E217">
-        <v>345</v>
+        <v>0.84</v>
       </c>
       <c r="F217">
         <f t="shared" si="0"/>
-        <v>20700</v>
-      </c>
-      <c r="G217" s="3" t="s">
-        <v>106</v>
+        <v>50.4</v>
+      </c>
+      <c r="G217" s="5" t="s">
+        <v>174</v>
       </c>
     </row>
     <row r="218" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A218" t="s">
-        <v>36</v>
+        <v>162</v>
       </c>
       <c r="B218" t="s">
         <v>38</v>
       </c>
       <c r="C218" t="s">
-        <v>43</v>
+        <v>172</v>
       </c>
       <c r="D218" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="E218">
-        <v>170</v>
+        <v>0.55000000000000004</v>
       </c>
       <c r="F218">
         <f t="shared" si="0"/>
-        <v>10200</v>
-      </c>
-      <c r="G218" s="3" t="s">
-        <v>46</v>
+        <v>33</v>
+      </c>
+      <c r="G218" s="6" t="s">
+        <v>171</v>
       </c>
     </row>
     <row r="219" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A219" t="s">
-        <v>37</v>
+        <v>164</v>
       </c>
       <c r="B219" t="s">
-        <v>16</v>
+        <v>38</v>
       </c>
       <c r="C219" t="s">
-        <v>43</v>
+        <v>170</v>
       </c>
       <c r="D219" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="E219">
-        <v>170</v>
+        <v>7.1</v>
       </c>
       <c r="F219">
         <f t="shared" si="0"/>
-        <v>10200</v>
-      </c>
-      <c r="G219" s="3" t="s">
-        <v>46</v>
+        <v>426</v>
+      </c>
+      <c r="G219" s="6" t="s">
+        <v>171</v>
       </c>
     </row>
     <row r="220" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A220" t="s">
-        <v>44</v>
+        <v>182</v>
       </c>
       <c r="B220" t="s">
-        <v>16</v>
+        <v>38</v>
       </c>
       <c r="C220" t="s">
-        <v>47</v>
+        <v>186</v>
       </c>
       <c r="D220" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="E220">
-        <v>182</v>
+        <v>2300</v>
       </c>
       <c r="F220">
         <f t="shared" si="0"/>
-        <v>10920</v>
-      </c>
-      <c r="G220" s="3" t="s">
-        <v>48</v>
+        <v>138000</v>
+      </c>
+      <c r="G220" s="6" t="s">
+        <v>187</v>
       </c>
     </row>
     <row r="221" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A221" t="s">
-        <v>161</v>
+        <v>183</v>
       </c>
       <c r="B221" t="s">
         <v>38</v>
       </c>
       <c r="C221" t="s">
-        <v>176</v>
+        <v>188</v>
       </c>
       <c r="D221" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="E221">
-        <v>40</v>
+        <v>0.22800000000000001</v>
       </c>
       <c r="F221">
         <f t="shared" si="0"/>
-        <v>2400</v>
-      </c>
-      <c r="G221" s="3" t="s">
-        <v>175</v>
+        <v>13.68</v>
+      </c>
+      <c r="G221" s="6" t="s">
+        <v>189</v>
       </c>
     </row>
     <row r="222" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A222" t="s">
-        <v>163</v>
+        <v>184</v>
       </c>
       <c r="B222" t="s">
         <v>38</v>
       </c>
       <c r="C222" t="s">
-        <v>173</v>
+        <v>190</v>
       </c>
       <c r="D222" t="s">
-        <v>88</v>
+        <v>45</v>
       </c>
       <c r="E222">
-        <v>0.84</v>
+        <v>38.6</v>
       </c>
       <c r="F222">
         <f t="shared" si="0"/>
-        <v>50.4</v>
-      </c>
-      <c r="G222" s="5" t="s">
-        <v>174</v>
+        <v>2316</v>
+      </c>
+      <c r="G222" s="6" t="s">
+        <v>191</v>
       </c>
     </row>
     <row r="223" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A223" t="s">
-        <v>162</v>
+        <v>212</v>
       </c>
       <c r="B223" t="s">
         <v>38</v>
       </c>
       <c r="C223" t="s">
-        <v>172</v>
+        <v>213</v>
       </c>
       <c r="D223" t="s">
-        <v>42</v>
+        <v>88</v>
       </c>
       <c r="E223">
-        <v>0.55000000000000004</v>
+        <v>28.3</v>
       </c>
       <c r="F223">
         <f t="shared" si="0"/>
-        <v>33</v>
+        <v>1698</v>
       </c>
       <c r="G223" s="6" t="s">
-        <v>171</v>
+        <v>214</v>
       </c>
     </row>
     <row r="224" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A224" t="s">
-        <v>164</v>
+        <v>215</v>
       </c>
       <c r="B224" t="s">
         <v>38</v>
       </c>
       <c r="C224" t="s">
-        <v>170</v>
+        <v>216</v>
       </c>
       <c r="D224" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="E224">
-        <v>7.1</v>
+        <v>5.7999999999999996E-3</v>
       </c>
       <c r="F224">
         <f t="shared" si="0"/>
-        <v>426</v>
+        <v>0.34799999999999998</v>
       </c>
       <c r="G224" s="6" t="s">
-        <v>171</v>
+        <v>217</v>
       </c>
     </row>
     <row r="225" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A225" t="s">
-        <v>182</v>
+        <v>218</v>
       </c>
       <c r="B225" t="s">
         <v>38</v>
       </c>
       <c r="C225" t="s">
-        <v>186</v>
+        <v>219</v>
       </c>
       <c r="D225" t="s">
-        <v>40</v>
+        <v>88</v>
       </c>
       <c r="E225">
-        <v>2300</v>
+        <v>0.185</v>
       </c>
       <c r="F225">
         <f t="shared" si="0"/>
-        <v>138000</v>
+        <v>11.1</v>
       </c>
       <c r="G225" s="6" t="s">
-        <v>187</v>
+        <v>220</v>
       </c>
     </row>
     <row r="226" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A226" t="s">
-        <v>183</v>
+        <v>224</v>
       </c>
       <c r="B226" t="s">
         <v>38</v>
       </c>
       <c r="C226" t="s">
-        <v>188</v>
+        <v>225</v>
       </c>
       <c r="D226" t="s">
-        <v>45</v>
+        <v>88</v>
       </c>
       <c r="E226">
-        <v>0.22800000000000001</v>
+        <v>133</v>
       </c>
       <c r="F226">
         <f t="shared" si="0"/>
-        <v>13.68</v>
+        <v>7980</v>
       </c>
       <c r="G226" s="6" t="s">
-        <v>189</v>
+        <v>226</v>
       </c>
     </row>
     <row r="227" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A227" t="s">
-        <v>184</v>
+        <v>227</v>
       </c>
       <c r="B227" t="s">
         <v>38</v>
       </c>
       <c r="C227" t="s">
-        <v>190</v>
+        <v>228</v>
       </c>
       <c r="D227" t="s">
         <v>45</v>
       </c>
       <c r="E227">
-        <v>38.6</v>
+        <v>2.2999999999999998</v>
       </c>
       <c r="F227">
         <f t="shared" si="0"/>
-        <v>2316</v>
+        <v>138</v>
       </c>
       <c r="G227" s="6" t="s">
-        <v>191</v>
+        <v>229</v>
       </c>
     </row>
     <row r="228" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A228" t="s">
-        <v>212</v>
+        <v>231</v>
       </c>
       <c r="B228" t="s">
         <v>38</v>
       </c>
       <c r="C228" t="s">
-        <v>213</v>
+        <v>230</v>
       </c>
       <c r="D228" t="s">
-        <v>88</v>
+        <v>45</v>
       </c>
       <c r="E228">
-        <v>28.3</v>
+        <v>1334</v>
       </c>
       <c r="F228">
         <f t="shared" si="0"/>
-        <v>1698</v>
+        <v>80040</v>
       </c>
       <c r="G228" s="6" t="s">
-        <v>214</v>
+        <v>232</v>
       </c>
     </row>
     <row r="229" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A229" t="s">
-        <v>215</v>
+        <v>233</v>
       </c>
       <c r="B229" t="s">
         <v>38</v>
       </c>
       <c r="C229" t="s">
-        <v>216</v>
+        <v>234</v>
       </c>
       <c r="D229" t="s">
         <v>45</v>
       </c>
       <c r="E229">
-        <v>5.7999999999999996E-3</v>
+        <v>220</v>
       </c>
       <c r="F229">
         <f t="shared" si="0"/>
-        <v>0.34799999999999998</v>
+        <v>13200</v>
       </c>
       <c r="G229" s="6" t="s">
-        <v>217</v>
+        <v>235</v>
       </c>
     </row>
     <row r="230" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A230" t="s">
-        <v>218</v>
+        <v>236</v>
       </c>
       <c r="B230" t="s">
         <v>38</v>
       </c>
       <c r="C230" t="s">
-        <v>219</v>
+        <v>237</v>
       </c>
       <c r="D230" t="s">
-        <v>88</v>
+        <v>45</v>
       </c>
       <c r="E230">
-        <v>0.185</v>
+        <v>58.2</v>
       </c>
       <c r="F230">
         <f t="shared" si="0"/>
-        <v>11.1</v>
+        <v>3492</v>
       </c>
       <c r="G230" s="6" t="s">
-        <v>220</v>
+        <v>238</v>
       </c>
     </row>
     <row r="231" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A231" t="s">
-        <v>224</v>
+        <v>404</v>
       </c>
       <c r="B231" t="s">
         <v>38</v>
       </c>
       <c r="C231" t="s">
-        <v>225</v>
+        <v>554</v>
       </c>
       <c r="D231" t="s">
-        <v>88</v>
+        <v>40</v>
       </c>
       <c r="E231">
-        <v>133</v>
+        <v>13.9</v>
       </c>
       <c r="F231">
         <f t="shared" si="0"/>
-        <v>7980</v>
-      </c>
-      <c r="G231" s="6" t="s">
-        <v>226</v>
+        <v>834</v>
+      </c>
+      <c r="G231" s="3" t="s">
+        <v>555</v>
       </c>
     </row>
     <row r="232" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A232" t="s">
-        <v>227</v>
+        <v>405</v>
       </c>
       <c r="B232" t="s">
         <v>38</v>
       </c>
       <c r="C232" t="s">
-        <v>228</v>
+        <v>556</v>
       </c>
       <c r="D232" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="E232">
-        <v>2.2999999999999998</v>
+        <v>3.9</v>
       </c>
       <c r="F232">
         <f t="shared" si="0"/>
-        <v>138</v>
-      </c>
-      <c r="G232" s="6" t="s">
-        <v>229</v>
+        <v>234</v>
+      </c>
+      <c r="G232" s="3" t="s">
+        <v>557</v>
       </c>
     </row>
     <row r="233" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A233" t="s">
-        <v>231</v>
+        <v>406</v>
       </c>
       <c r="B233" t="s">
         <v>38</v>
       </c>
       <c r="C233" t="s">
-        <v>230</v>
+        <v>562</v>
       </c>
       <c r="D233" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="E233">
-        <v>1334</v>
+        <v>430</v>
       </c>
       <c r="F233">
         <f t="shared" si="0"/>
-        <v>80040</v>
-      </c>
-      <c r="G233" s="6" t="s">
-        <v>232</v>
+        <v>25800</v>
+      </c>
+      <c r="G233" s="3" t="s">
+        <v>563</v>
       </c>
     </row>
     <row r="234" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A234" t="s">
-        <v>233</v>
+        <v>407</v>
       </c>
       <c r="B234" t="s">
         <v>38</v>
       </c>
       <c r="C234" t="s">
-        <v>234</v>
+        <v>564</v>
       </c>
       <c r="D234" t="s">
         <v>45</v>
       </c>
       <c r="E234">
-        <v>220</v>
+        <v>26.4</v>
       </c>
       <c r="F234">
         <f t="shared" si="0"/>
-        <v>13200</v>
-      </c>
-      <c r="G234" s="6" t="s">
-        <v>235</v>
+        <v>1584</v>
+      </c>
+      <c r="G234" s="3" t="s">
+        <v>565</v>
       </c>
     </row>
     <row r="235" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A235" t="s">
-        <v>236</v>
+        <v>408</v>
       </c>
       <c r="B235" t="s">
         <v>38</v>
       </c>
       <c r="C235" t="s">
-        <v>237</v>
+        <v>566</v>
       </c>
       <c r="D235" t="s">
-        <v>45</v>
+        <v>88</v>
       </c>
       <c r="E235">
-        <v>58.2</v>
+        <v>19.899999999999999</v>
       </c>
       <c r="F235">
-        <f t="shared" si="0"/>
-        <v>3492</v>
-      </c>
-      <c r="G235" s="6" t="s">
-        <v>238</v>
+        <f>E235*60</f>
+        <v>1194</v>
+      </c>
+      <c r="G235" s="3" t="s">
+        <v>567</v>
       </c>
     </row>
     <row r="236" spans="1:7" x14ac:dyDescent="0.35">
@@ -5775,6 +6361,22 @@
       <c r="B236" t="s">
         <v>38</v>
       </c>
+      <c r="C236" t="s">
+        <v>560</v>
+      </c>
+      <c r="D236" t="s">
+        <v>45</v>
+      </c>
+      <c r="E236">
+        <v>7</v>
+      </c>
+      <c r="F236">
+        <f t="shared" ref="F236:F252" si="6">E236*60</f>
+        <v>420</v>
+      </c>
+      <c r="G236" s="3" t="s">
+        <v>561</v>
+      </c>
     </row>
     <row r="237" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A237" t="s">
@@ -5783,6 +6385,22 @@
       <c r="B237" t="s">
         <v>38</v>
       </c>
+      <c r="C237" t="s">
+        <v>558</v>
+      </c>
+      <c r="D237" t="s">
+        <v>45</v>
+      </c>
+      <c r="E237">
+        <v>2.9</v>
+      </c>
+      <c r="F237">
+        <f t="shared" si="6"/>
+        <v>174</v>
+      </c>
+      <c r="G237" s="3" t="s">
+        <v>559</v>
+      </c>
     </row>
     <row r="238" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A238" t="s">
@@ -5791,6 +6409,22 @@
       <c r="B238" t="s">
         <v>38</v>
       </c>
+      <c r="C238" t="s">
+        <v>483</v>
+      </c>
+      <c r="D238" t="s">
+        <v>88</v>
+      </c>
+      <c r="E238">
+        <v>3.3</v>
+      </c>
+      <c r="F238">
+        <f t="shared" si="6"/>
+        <v>198</v>
+      </c>
+      <c r="G238" s="3" t="s">
+        <v>484</v>
+      </c>
     </row>
     <row r="239" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A239" t="s">
@@ -5799,6 +6433,22 @@
       <c r="B239" t="s">
         <v>38</v>
       </c>
+      <c r="C239" t="s">
+        <v>568</v>
+      </c>
+      <c r="D239" t="s">
+        <v>40</v>
+      </c>
+      <c r="E239">
+        <v>24.9</v>
+      </c>
+      <c r="F239">
+        <f t="shared" si="6"/>
+        <v>1494</v>
+      </c>
+      <c r="G239" s="3" t="s">
+        <v>569</v>
+      </c>
     </row>
     <row r="240" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A240" t="s">
@@ -5807,482 +6457,802 @@
       <c r="B240" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="241" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C240" t="s">
+        <v>43</v>
+      </c>
+      <c r="D240" t="s">
+        <v>45</v>
+      </c>
+      <c r="E240">
+        <v>170</v>
+      </c>
+      <c r="F240">
+        <f t="shared" si="6"/>
+        <v>10200</v>
+      </c>
+      <c r="G240" s="3" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="241" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A241" t="s">
         <v>414</v>
       </c>
       <c r="B241" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="242" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C241" t="s">
+        <v>499</v>
+      </c>
+      <c r="D241" t="s">
+        <v>40</v>
+      </c>
+      <c r="E241">
+        <v>5.5</v>
+      </c>
+      <c r="F241">
+        <f t="shared" si="6"/>
+        <v>330</v>
+      </c>
+      <c r="G241" s="3" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="242" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A242" t="s">
         <v>415</v>
       </c>
       <c r="B242" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="243" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C242" t="s">
+        <v>570</v>
+      </c>
+      <c r="D242" t="s">
+        <v>210</v>
+      </c>
+      <c r="E242">
+        <v>26.8</v>
+      </c>
+      <c r="F242">
+        <f t="shared" si="6"/>
+        <v>1608</v>
+      </c>
+      <c r="G242" s="3" t="s">
+        <v>571</v>
+      </c>
+    </row>
+    <row r="243" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A243" t="s">
         <v>416</v>
       </c>
       <c r="B243" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="244" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C243" t="s">
+        <v>572</v>
+      </c>
+      <c r="D243" t="s">
+        <v>40</v>
+      </c>
+      <c r="E243">
+        <v>1.5</v>
+      </c>
+      <c r="F243">
+        <f t="shared" si="6"/>
+        <v>90</v>
+      </c>
+      <c r="G243" s="3" t="s">
+        <v>573</v>
+      </c>
+    </row>
+    <row r="244" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A244" t="s">
         <v>417</v>
       </c>
       <c r="B244" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="245" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C244" t="s">
+        <v>574</v>
+      </c>
+      <c r="D244" t="s">
+        <v>575</v>
+      </c>
+      <c r="E244">
+        <v>0.45</v>
+      </c>
+      <c r="F244">
+        <f t="shared" si="6"/>
+        <v>27</v>
+      </c>
+      <c r="G244" s="3" t="s">
+        <v>576</v>
+      </c>
+    </row>
+    <row r="245" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A245" t="s">
         <v>418</v>
       </c>
       <c r="B245" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="246" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C245" t="s">
+        <v>556</v>
+      </c>
+      <c r="D245" t="s">
+        <v>40</v>
+      </c>
+      <c r="E245">
+        <v>3.9</v>
+      </c>
+      <c r="F245">
+        <f t="shared" si="6"/>
+        <v>234</v>
+      </c>
+      <c r="G245" s="3" t="s">
+        <v>557</v>
+      </c>
+    </row>
+    <row r="246" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A246" t="s">
         <v>419</v>
       </c>
       <c r="B246" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="247" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C246" t="s">
+        <v>170</v>
+      </c>
+      <c r="D246" t="s">
+        <v>42</v>
+      </c>
+      <c r="E246">
+        <v>7.1</v>
+      </c>
+      <c r="F246">
+        <f t="shared" si="6"/>
+        <v>426</v>
+      </c>
+      <c r="G246" s="4" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="247" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A247" t="s">
         <v>420</v>
       </c>
       <c r="B247" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="248" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C247" t="s">
+        <v>577</v>
+      </c>
+      <c r="D247" t="s">
+        <v>454</v>
+      </c>
+      <c r="E247">
+        <v>410</v>
+      </c>
+      <c r="F247">
+        <f t="shared" si="6"/>
+        <v>24600</v>
+      </c>
+      <c r="G247" s="3" t="s">
+        <v>578</v>
+      </c>
+    </row>
+    <row r="248" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A248" t="s">
         <v>421</v>
       </c>
       <c r="B248" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="249" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C248" t="s">
+        <v>198</v>
+      </c>
+      <c r="D248" t="s">
+        <v>40</v>
+      </c>
+      <c r="E248">
+        <v>5.9709873654656063</v>
+      </c>
+      <c r="F248">
+        <f t="shared" si="6"/>
+        <v>358.25924192793639</v>
+      </c>
+      <c r="G248" s="3" t="s">
+        <v>579</v>
+      </c>
+    </row>
+    <row r="249" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A249" t="s">
         <v>422</v>
       </c>
       <c r="B249" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="250" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C249" t="s">
+        <v>503</v>
+      </c>
+      <c r="D249" t="s">
+        <v>88</v>
+      </c>
+      <c r="E249">
+        <v>8.1999999999999993</v>
+      </c>
+      <c r="F249">
+        <f t="shared" si="6"/>
+        <v>491.99999999999994</v>
+      </c>
+      <c r="G249" s="3" t="s">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="250" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A250" t="s">
         <v>423</v>
       </c>
       <c r="B250" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="251" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C250" t="s">
+        <v>580</v>
+      </c>
+      <c r="D250" t="s">
+        <v>76</v>
+      </c>
+      <c r="E250">
+        <v>1.08</v>
+      </c>
+      <c r="F250">
+        <f t="shared" si="6"/>
+        <v>64.800000000000011</v>
+      </c>
+      <c r="G250" s="3" t="s">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="251" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A251" t="s">
         <v>424</v>
       </c>
       <c r="B251" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="252" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C251" t="s">
+        <v>479</v>
+      </c>
+      <c r="D251" t="s">
+        <v>42</v>
+      </c>
+      <c r="E251">
+        <v>206</v>
+      </c>
+      <c r="F251">
+        <f t="shared" si="6"/>
+        <v>12360</v>
+      </c>
+      <c r="G251" s="3" t="s">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="252" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A252" t="s">
         <v>425</v>
       </c>
       <c r="B252" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="253" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C252" t="s">
+        <v>582</v>
+      </c>
+      <c r="D252" t="s">
+        <v>88</v>
+      </c>
+      <c r="E252">
+        <v>1.83</v>
+      </c>
+      <c r="F252">
+        <f t="shared" si="6"/>
+        <v>109.80000000000001</v>
+      </c>
+      <c r="G252" s="3" t="s">
+        <v>583</v>
+      </c>
+    </row>
+    <row r="253" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A253" t="s">
         <v>426</v>
       </c>
       <c r="B253" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="254" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C253" t="s">
+        <v>499</v>
+      </c>
+      <c r="D253" t="s">
+        <v>40</v>
+      </c>
+      <c r="E253">
+        <v>5.5</v>
+      </c>
+      <c r="F253">
+        <f t="shared" ref="F253:F255" si="7">E253*60</f>
+        <v>330</v>
+      </c>
+      <c r="G253" s="3" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="254" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A254" t="s">
         <v>427</v>
       </c>
       <c r="B254" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="255" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C254" t="s">
+        <v>584</v>
+      </c>
+      <c r="D254" t="s">
+        <v>45</v>
+      </c>
+      <c r="E254">
+        <v>5.6</v>
+      </c>
+      <c r="F254">
+        <f t="shared" si="7"/>
+        <v>336</v>
+      </c>
+      <c r="G254" s="3" t="s">
+        <v>585</v>
+      </c>
+    </row>
+    <row r="255" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A255" t="s">
         <v>428</v>
       </c>
       <c r="B255" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="256" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C255" t="s">
+        <v>580</v>
+      </c>
+      <c r="D255" t="s">
+        <v>76</v>
+      </c>
+      <c r="E255">
+        <v>1.08</v>
+      </c>
+      <c r="F255">
+        <f t="shared" si="7"/>
+        <v>64.800000000000011</v>
+      </c>
+      <c r="G255" s="3" t="s">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="256" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A256" t="s">
         <v>429</v>
       </c>
       <c r="B256" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="257" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C256" t="s">
+        <v>499</v>
+      </c>
+      <c r="D256" t="s">
+        <v>40</v>
+      </c>
+      <c r="E256">
+        <v>5.5</v>
+      </c>
+      <c r="F256">
+        <f t="shared" ref="F256:F257" si="8">E256*60</f>
+        <v>330</v>
+      </c>
+      <c r="G256" s="3" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="257" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A257" t="s">
         <v>430</v>
       </c>
       <c r="B257" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="258" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C257" t="s">
+        <v>586</v>
+      </c>
+      <c r="D257" t="s">
+        <v>40</v>
+      </c>
+      <c r="E257">
+        <v>11.7</v>
+      </c>
+      <c r="F257">
+        <f t="shared" si="8"/>
+        <v>702</v>
+      </c>
+      <c r="G257" s="3" t="s">
+        <v>587</v>
+      </c>
+    </row>
+    <row r="258" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A258" t="s">
         <v>431</v>
       </c>
       <c r="B258" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="259" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C258" t="s">
+        <v>499</v>
+      </c>
+      <c r="D258" t="s">
+        <v>40</v>
+      </c>
+      <c r="E258">
+        <v>5.5</v>
+      </c>
+      <c r="F258">
+        <f t="shared" ref="F258:F260" si="9">E258*60</f>
+        <v>330</v>
+      </c>
+      <c r="G258" s="3" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="259" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A259" t="s">
         <v>432</v>
       </c>
       <c r="B259" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="260" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C259" t="s">
+        <v>588</v>
+      </c>
+      <c r="D259" t="s">
+        <v>45</v>
+      </c>
+      <c r="E259">
+        <v>5.3</v>
+      </c>
+      <c r="F259">
+        <f t="shared" si="9"/>
+        <v>318</v>
+      </c>
+      <c r="G259" s="3" t="s">
+        <v>589</v>
+      </c>
+    </row>
+    <row r="260" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A260" t="s">
         <v>433</v>
       </c>
       <c r="B260" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="261" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C260" t="s">
+        <v>590</v>
+      </c>
+      <c r="D260" t="s">
+        <v>40</v>
+      </c>
+      <c r="E260">
+        <v>51.8</v>
+      </c>
+      <c r="F260">
+        <f t="shared" si="9"/>
+        <v>3108</v>
+      </c>
+      <c r="G260" s="3" t="s">
+        <v>591</v>
+      </c>
+    </row>
+    <row r="261" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A261" t="s">
         <v>434</v>
       </c>
       <c r="B261" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="262" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C261" t="s">
+        <v>499</v>
+      </c>
+      <c r="D261" t="s">
+        <v>40</v>
+      </c>
+      <c r="E261">
+        <v>5.5</v>
+      </c>
+      <c r="F261">
+        <f t="shared" ref="F261:F265" si="10">E261*60</f>
+        <v>330</v>
+      </c>
+      <c r="G261" s="3" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="262" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A262" t="s">
         <v>435</v>
       </c>
       <c r="B262" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="263" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C262" t="s">
+        <v>172</v>
+      </c>
+      <c r="D262" t="s">
+        <v>88</v>
+      </c>
+      <c r="E262">
+        <v>27.1</v>
+      </c>
+      <c r="F262">
+        <f t="shared" si="10"/>
+        <v>1626</v>
+      </c>
+      <c r="G262" s="3" t="s">
+        <v>596</v>
+      </c>
+    </row>
+    <row r="263" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A263" t="s">
         <v>436</v>
       </c>
       <c r="B263" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="264" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C263" t="s">
+        <v>597</v>
+      </c>
+      <c r="D263" t="s">
+        <v>40</v>
+      </c>
+      <c r="E263">
+        <v>2.6</v>
+      </c>
+      <c r="F263">
+        <f t="shared" si="10"/>
+        <v>156</v>
+      </c>
+      <c r="G263" s="3" t="s">
+        <v>598</v>
+      </c>
+    </row>
+    <row r="264" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A264" t="s">
         <v>437</v>
       </c>
       <c r="B264" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="265" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C264" t="s">
+        <v>170</v>
+      </c>
+      <c r="D264" t="s">
+        <v>42</v>
+      </c>
+      <c r="E264">
+        <v>7.1</v>
+      </c>
+      <c r="F264">
+        <f t="shared" si="10"/>
+        <v>426</v>
+      </c>
+      <c r="G264" s="4" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="265" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A265" t="s">
         <v>438</v>
       </c>
       <c r="B265" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="266" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C265" t="s">
+        <v>453</v>
+      </c>
+      <c r="D265" t="s">
+        <v>454</v>
+      </c>
+      <c r="E265">
+        <v>7.3</v>
+      </c>
+      <c r="F265">
+        <f t="shared" si="10"/>
+        <v>438</v>
+      </c>
+      <c r="G265" s="3" t="s">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="266" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A266" t="s">
         <v>439</v>
       </c>
       <c r="B266" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="267" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C266" t="s">
+        <v>594</v>
+      </c>
+      <c r="D266" t="s">
+        <v>88</v>
+      </c>
+      <c r="E266">
+        <v>6.3</v>
+      </c>
+      <c r="G266" s="3" t="s">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="267" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A267" t="s">
         <v>440</v>
       </c>
       <c r="B267" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="268" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C267" t="s">
+        <v>592</v>
+      </c>
+      <c r="D267" t="s">
+        <v>88</v>
+      </c>
+      <c r="E267">
+        <v>1.87</v>
+      </c>
+      <c r="G267" s="3" t="s">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="268" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A268" t="s">
         <v>441</v>
       </c>
       <c r="B268" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="269" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C268" t="s">
+        <v>170</v>
+      </c>
+      <c r="D268" t="s">
+        <v>40</v>
+      </c>
+      <c r="E268">
+        <v>32</v>
+      </c>
+      <c r="F268">
+        <f t="shared" ref="F268" si="11">E268*60</f>
+        <v>1920</v>
+      </c>
+      <c r="G268" s="3" t="s">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="269" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A269" t="s">
         <v>442</v>
       </c>
       <c r="B269" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="270" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C269" t="s">
+        <v>443</v>
+      </c>
+      <c r="D269" t="s">
+        <v>45</v>
+      </c>
+      <c r="E269">
+        <v>221</v>
+      </c>
+      <c r="F269">
+        <f t="shared" si="0"/>
+        <v>13260</v>
+      </c>
+      <c r="G269" s="3" t="s">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="270" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A270" t="s">
-        <v>443</v>
+        <v>156</v>
       </c>
       <c r="B270" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="271" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C270" t="s">
+        <v>158</v>
+      </c>
+      <c r="D270" t="s">
+        <v>45</v>
+      </c>
+      <c r="E270">
+        <v>7.5</v>
+      </c>
+      <c r="F270">
+        <f t="shared" si="0"/>
+        <v>450</v>
+      </c>
+      <c r="G270" s="3" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="271" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A271" t="s">
-        <v>444</v>
+        <v>157</v>
       </c>
       <c r="B271" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="272" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C271" t="s">
+        <v>158</v>
+      </c>
+      <c r="D271" t="s">
+        <v>45</v>
+      </c>
+      <c r="E271">
+        <v>7.5</v>
+      </c>
+      <c r="F271">
+        <f t="shared" si="0"/>
+        <v>450</v>
+      </c>
+      <c r="G271" s="3" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="272" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A272" t="s">
-        <v>445</v>
+        <v>160</v>
       </c>
       <c r="B272" t="s">
-        <v>38</v>
+        <v>16</v>
+      </c>
+      <c r="C272" t="s">
+        <v>109</v>
+      </c>
+      <c r="D272" t="s">
+        <v>109</v>
+      </c>
+      <c r="E272" t="s">
+        <v>109</v>
+      </c>
+      <c r="F272">
+        <v>100</v>
+      </c>
+      <c r="G272" s="2" t="s">
+        <v>114</v>
       </c>
     </row>
     <row r="273" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A273" t="s">
-        <v>446</v>
+        <v>117</v>
       </c>
       <c r="B273" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="274" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A274" t="s">
-        <v>447</v>
-      </c>
-      <c r="B274" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="275" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A275" t="s">
-        <v>448</v>
-      </c>
-      <c r="B275" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="276" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A276" t="s">
-        <v>449</v>
-      </c>
-      <c r="B276" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="277" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A277" t="s">
-        <v>450</v>
-      </c>
-      <c r="B277" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="278" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A278" t="s">
-        <v>451</v>
-      </c>
-      <c r="B278" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="279" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A279" t="s">
-        <v>452</v>
-      </c>
-      <c r="B279" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="280" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A280" t="s">
-        <v>453</v>
-      </c>
-      <c r="B280" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="281" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A281" t="s">
-        <v>454</v>
-      </c>
-      <c r="B281" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="282" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A282" t="s">
-        <v>455</v>
-      </c>
-      <c r="B282" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="283" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A283" t="s">
-        <v>456</v>
-      </c>
-      <c r="B283" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="284" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A284" t="s">
-        <v>457</v>
-      </c>
-      <c r="B284" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="285" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A285" t="s">
-        <v>458</v>
-      </c>
-      <c r="B285" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="286" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A286" t="s">
-        <v>459</v>
-      </c>
-      <c r="B286" t="s">
-        <v>38</v>
-      </c>
-      <c r="C286" t="s">
-        <v>460</v>
-      </c>
-      <c r="D286" t="s">
-        <v>45</v>
-      </c>
-      <c r="E286">
-        <v>221</v>
-      </c>
-      <c r="F286">
-        <f t="shared" si="0"/>
-        <v>13260</v>
-      </c>
-      <c r="G286" s="3" t="s">
-        <v>461</v>
-      </c>
-    </row>
-    <row r="287" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A287" t="s">
-        <v>156</v>
-      </c>
-      <c r="B287" t="s">
-        <v>38</v>
-      </c>
-      <c r="C287" t="s">
-        <v>158</v>
-      </c>
-      <c r="D287" t="s">
-        <v>45</v>
-      </c>
-      <c r="E287">
-        <v>7.5</v>
-      </c>
-      <c r="F287">
-        <f t="shared" si="0"/>
-        <v>450</v>
-      </c>
-      <c r="G287" s="3" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="288" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A288" t="s">
-        <v>157</v>
-      </c>
-      <c r="B288" t="s">
-        <v>38</v>
-      </c>
-      <c r="C288" t="s">
-        <v>158</v>
-      </c>
-      <c r="D288" t="s">
-        <v>45</v>
-      </c>
-      <c r="E288">
-        <v>7.5</v>
-      </c>
-      <c r="F288">
-        <f t="shared" si="0"/>
-        <v>450</v>
-      </c>
-      <c r="G288" s="3" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="289" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A289" t="s">
-        <v>160</v>
-      </c>
-      <c r="B289" t="s">
-        <v>16</v>
-      </c>
-      <c r="C289" t="s">
+        <v>16</v>
+      </c>
+      <c r="C273" t="s">
         <v>109</v>
       </c>
-      <c r="D289" t="s">
+      <c r="D273" t="s">
         <v>109</v>
       </c>
-      <c r="E289" t="s">
+      <c r="E273" t="s">
         <v>109</v>
       </c>
-      <c r="F289">
-        <v>100</v>
-      </c>
-      <c r="G289" s="2" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="290" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A290" t="s">
-        <v>117</v>
-      </c>
-      <c r="B290" t="s">
-        <v>16</v>
-      </c>
-      <c r="C290" t="s">
-        <v>109</v>
-      </c>
-      <c r="D290" t="s">
-        <v>109</v>
-      </c>
-      <c r="E290" t="s">
-        <v>109</v>
-      </c>
-      <c r="F290">
+      <c r="F273">
         <v>50</v>
       </c>
-      <c r="G290" s="2" t="s">
+      <c r="G273" s="2" t="s">
         <v>114</v>
       </c>
     </row>
@@ -6290,8 +7260,8 @@
   <hyperlinks>
     <hyperlink ref="G20" r:id="rId1" xr:uid="{60D2E9C6-9172-4D4D-B418-CC567356E033}"/>
     <hyperlink ref="G2" r:id="rId2" xr:uid="{96642BA6-12F8-4451-8DFA-16265959FEFA}"/>
-    <hyperlink ref="G224" r:id="rId3" xr:uid="{DBD518FF-06AA-4F59-B32D-3D580FD3488C}"/>
-    <hyperlink ref="G223" r:id="rId4" xr:uid="{3C873BD8-C205-4B23-B8F2-C8E28D105704}"/>
+    <hyperlink ref="G219" r:id="rId3" xr:uid="{DBD518FF-06AA-4F59-B32D-3D580FD3488C}"/>
+    <hyperlink ref="G218" r:id="rId4" xr:uid="{3C873BD8-C205-4B23-B8F2-C8E28D105704}"/>
     <hyperlink ref="G30" r:id="rId5" xr:uid="{3CCDC09F-65EC-46AB-A5B6-06698DF90FD6}"/>
     <hyperlink ref="G31" r:id="rId6" xr:uid="{45B7FFC2-C775-45F6-B5E2-92E39C1EFAC1}"/>
     <hyperlink ref="G34" r:id="rId7" xr:uid="{C0F23788-2A31-4EA5-B6D6-A12E3C45A7E7}"/>
@@ -6300,9 +7270,11 @@
     <hyperlink ref="G77" r:id="rId10" xr:uid="{6C3143F8-EECE-493B-A808-BC8B1FB906E4}"/>
     <hyperlink ref="G82" r:id="rId11" xr:uid="{5F7C4001-6F89-479B-983C-BDB24868961F}"/>
     <hyperlink ref="G88" r:id="rId12" xr:uid="{B65497F5-375F-4E2A-86C4-B4310250B40D}"/>
+    <hyperlink ref="G246" r:id="rId13" xr:uid="{B850A642-752F-4050-BE9D-FD6DEF1A1A28}"/>
+    <hyperlink ref="G264" r:id="rId14" xr:uid="{733CCEAC-FE6D-4E5A-890C-C556E3FD7098}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId13"/>
+  <pageSetup orientation="portrait" r:id="rId15"/>
 </worksheet>
 </file>
 

--- a/data/gems/Parameters.xlsx
+++ b/data/gems/Parameters.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bras5181\Desktop\Labprojects\CulturedMeat\iSusS\data\gems\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1D40EC35-6D37-445D-AEC6-2D11C238F084}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BE03BED5-4C15-4865-A583-B94C69F06502}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1163" uniqueCount="599">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1291" uniqueCount="648">
   <si>
     <t>Rxn</t>
   </si>
@@ -975,9 +975,6 @@
     <t>NOS2</t>
   </si>
   <si>
-    <t>GHMT3</t>
-  </si>
-  <si>
     <t>IMACTD</t>
   </si>
   <si>
@@ -993,9 +990,6 @@
     <t>KYNAKGAT</t>
   </si>
   <si>
-    <t>MACOXO</t>
-  </si>
-  <si>
     <t>FUMAC</t>
   </si>
   <si>
@@ -1065,18 +1059,12 @@
     <t>PPA</t>
   </si>
   <si>
-    <t>DHORD_NAD</t>
-  </si>
-  <si>
     <t>THRD</t>
   </si>
   <si>
     <t>GTHOr</t>
   </si>
   <si>
-    <t>AMCOXO</t>
-  </si>
-  <si>
     <t>3HAO</t>
   </si>
   <si>
@@ -1170,9 +1158,6 @@
     <t>CACNAO</t>
   </si>
   <si>
-    <t>SULFOX</t>
-  </si>
-  <si>
     <t>LFORKYNHYD</t>
   </si>
   <si>
@@ -1834,6 +1819,168 @@
   </si>
   <si>
     <t>DOI: 10.1074/jbc.RA117.000826</t>
+  </si>
+  <si>
+    <t>2.6.1.52</t>
+  </si>
+  <si>
+    <t>DOI: 10.1080/713803557</t>
+  </si>
+  <si>
+    <t>2.1.1.5</t>
+  </si>
+  <si>
+    <t>3.7.1.2</t>
+  </si>
+  <si>
+    <t>DOI: 10.1016/0165-022x(90)90093-r</t>
+  </si>
+  <si>
+    <t>4.1.1.22</t>
+  </si>
+  <si>
+    <t>DOI: 10.1042/bj2340349</t>
+  </si>
+  <si>
+    <t>1.2.3.1</t>
+  </si>
+  <si>
+    <t>DOI: 10.1124/dmd.117.075937</t>
+  </si>
+  <si>
+    <t>1.14.17.1</t>
+  </si>
+  <si>
+    <t>DOI: 10.1016/0003-9861(87)90009-9</t>
+  </si>
+  <si>
+    <t>1.14.13.9</t>
+  </si>
+  <si>
+    <t>DOI: 10.1016/0006-291x(67)90469-x</t>
+  </si>
+  <si>
+    <t>1.6.4.5</t>
+  </si>
+  <si>
+    <t>DOI: 10.1073/pnas.78.12.7478</t>
+  </si>
+  <si>
+    <t>6.3.4.2</t>
+  </si>
+  <si>
+    <t>DOI: 10.1016/s0076-6879(78)51015-x</t>
+  </si>
+  <si>
+    <t>1.17.4.1</t>
+  </si>
+  <si>
+    <t>DOI: 10.1074/jbc.M604598200</t>
+  </si>
+  <si>
+    <t>2.1.1.45</t>
+  </si>
+  <si>
+    <t>DOI: 10.1073/pnas.76.2.750</t>
+  </si>
+  <si>
+    <t>2.7.1.23</t>
+  </si>
+  <si>
+    <t>DOI: 10.1006/bbrc.2001.5735</t>
+  </si>
+  <si>
+    <t>2.4.2.19</t>
+  </si>
+  <si>
+    <t>DOI: 10.1016/0005-2744(80)90063-7</t>
+  </si>
+  <si>
+    <t>6.3.5.1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">	Homo sapiens</t>
+  </si>
+  <si>
+    <t>PMID: 2107886</t>
+  </si>
+  <si>
+    <t>2.4.2.8</t>
+  </si>
+  <si>
+    <t>DOI: 10.1016/s0166-6851(98)00139-x</t>
+  </si>
+  <si>
+    <t>3.6.1.1</t>
+  </si>
+  <si>
+    <t>DOI: 10.1093/oxfordjournals.jbchem.a134161</t>
+  </si>
+  <si>
+    <t>1.1.1.103</t>
+  </si>
+  <si>
+    <t>DOI: 10.1006/prep.1994.1061</t>
+  </si>
+  <si>
+    <t>1.13.11.6</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1016/S0021-9258(17)33888-7</t>
+  </si>
+  <si>
+    <t>3.1.3.3</t>
+  </si>
+  <si>
+    <t>DOI: 10.1016/0005-2744(74)90110-7</t>
+  </si>
+  <si>
+    <t>3.1.3.11</t>
+  </si>
+  <si>
+    <t>DOI: 10.1016/0076-6879(75)42144-9</t>
+  </si>
+  <si>
+    <t>4.1.1.23</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Homo sapiens	</t>
+  </si>
+  <si>
+    <t>PMID: 1165245</t>
+  </si>
+  <si>
+    <t>2.8.2.1</t>
+  </si>
+  <si>
+    <t>DOI: 10.1002/jcph.658</t>
+  </si>
+  <si>
+    <t>6.3.5.5</t>
+  </si>
+  <si>
+    <t>Neurospora crassa</t>
+  </si>
+  <si>
+    <t>PMID: 2420793</t>
+  </si>
+  <si>
+    <t>1.1.1.205</t>
+  </si>
+  <si>
+    <t>DOI: 10.1016/0305-0491(93)90245-z</t>
+  </si>
+  <si>
+    <t>3.6.1.7</t>
+  </si>
+  <si>
+    <t>DOI: 10.1007/pl00000585</t>
+  </si>
+  <si>
+    <t>1.1.1.2</t>
+  </si>
+  <si>
+    <t>DOI: 10.1042/bj1910619</t>
   </si>
 </sst>
 </file>
@@ -2180,10 +2327,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G273"/>
+  <dimension ref="A1:G268"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A107" workbookViewId="0">
-      <selection activeCell="F118" sqref="F118"/>
+    <sheetView tabSelected="1" topLeftCell="A140" workbookViewId="0">
+      <selection activeCell="K156" sqref="K156"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2371,7 +2518,7 @@
         <v>620</v>
       </c>
       <c r="F8">
-        <f t="shared" ref="F8:F271" si="0">E8*60</f>
+        <f t="shared" ref="F8:F266" si="0">E8*60</f>
         <v>37200</v>
       </c>
       <c r="G8" s="3" t="s">
@@ -3106,7 +3253,7 @@
         <v>16</v>
       </c>
       <c r="C39" t="s">
-        <v>445</v>
+        <v>440</v>
       </c>
       <c r="D39" t="s">
         <v>88</v>
@@ -3119,7 +3266,7 @@
         <v>816</v>
       </c>
       <c r="G39" s="3" t="s">
-        <v>446</v>
+        <v>441</v>
       </c>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.35">
@@ -3130,7 +3277,7 @@
         <v>16</v>
       </c>
       <c r="C40" t="s">
-        <v>447</v>
+        <v>442</v>
       </c>
       <c r="D40" t="s">
         <v>45</v>
@@ -3143,7 +3290,7 @@
         <v>227.34</v>
       </c>
       <c r="G40" s="3" t="s">
-        <v>448</v>
+        <v>443</v>
       </c>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.35">
@@ -3154,7 +3301,7 @@
         <v>16</v>
       </c>
       <c r="C41" t="s">
-        <v>449</v>
+        <v>444</v>
       </c>
       <c r="D41" t="s">
         <v>45</v>
@@ -3167,7 +3314,7 @@
         <v>184.14</v>
       </c>
       <c r="G41" s="3" t="s">
-        <v>450</v>
+        <v>445</v>
       </c>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.35">
@@ -3178,7 +3325,7 @@
         <v>16</v>
       </c>
       <c r="C42" t="s">
-        <v>451</v>
+        <v>446</v>
       </c>
       <c r="D42" t="s">
         <v>45</v>
@@ -3191,7 +3338,7 @@
         <v>124.80000000000001</v>
       </c>
       <c r="G42" s="3" t="s">
-        <v>452</v>
+        <v>447</v>
       </c>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.35">
@@ -3202,10 +3349,10 @@
         <v>16</v>
       </c>
       <c r="C43" t="s">
-        <v>453</v>
+        <v>448</v>
       </c>
       <c r="D43" t="s">
-        <v>454</v>
+        <v>449</v>
       </c>
       <c r="E43">
         <v>7.3</v>
@@ -3215,7 +3362,7 @@
         <v>438</v>
       </c>
       <c r="G43" s="3" t="s">
-        <v>455</v>
+        <v>450</v>
       </c>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.35">
@@ -3250,7 +3397,7 @@
         <v>16</v>
       </c>
       <c r="C45" t="s">
-        <v>456</v>
+        <v>451</v>
       </c>
       <c r="D45" t="s">
         <v>45</v>
@@ -3263,7 +3410,7 @@
         <v>4098</v>
       </c>
       <c r="G45" s="1" t="s">
-        <v>457</v>
+        <v>452</v>
       </c>
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.35">
@@ -3274,7 +3421,7 @@
         <v>16</v>
       </c>
       <c r="C46" t="s">
-        <v>458</v>
+        <v>453</v>
       </c>
       <c r="D46" t="s">
         <v>40</v>
@@ -3287,7 +3434,7 @@
         <v>24600</v>
       </c>
       <c r="G46" s="3" t="s">
-        <v>459</v>
+        <v>454</v>
       </c>
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.35">
@@ -3298,7 +3445,7 @@
         <v>16</v>
       </c>
       <c r="C47" t="s">
-        <v>460</v>
+        <v>455</v>
       </c>
       <c r="D47" t="s">
         <v>40</v>
@@ -3311,7 +3458,7 @@
         <v>1255.9199999999998</v>
       </c>
       <c r="G47" s="3" t="s">
-        <v>461</v>
+        <v>456</v>
       </c>
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.35">
@@ -3322,7 +3469,7 @@
         <v>16</v>
       </c>
       <c r="C48" t="s">
-        <v>462</v>
+        <v>457</v>
       </c>
       <c r="D48" t="s">
         <v>40</v>
@@ -3335,7 +3482,7 @@
         <v>618</v>
       </c>
       <c r="G48" s="3" t="s">
-        <v>463</v>
+        <v>458</v>
       </c>
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.35">
@@ -3346,7 +3493,7 @@
         <v>16</v>
       </c>
       <c r="C49" t="s">
-        <v>464</v>
+        <v>459</v>
       </c>
       <c r="D49" t="s">
         <v>40</v>
@@ -3359,7 +3506,7 @@
         <v>105.6</v>
       </c>
       <c r="G49" s="3" t="s">
-        <v>465</v>
+        <v>460</v>
       </c>
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.35">
@@ -3370,7 +3517,7 @@
         <v>16</v>
       </c>
       <c r="C50" t="s">
-        <v>466</v>
+        <v>461</v>
       </c>
       <c r="D50" t="s">
         <v>45</v>
@@ -3383,7 +3530,7 @@
         <v>1.962</v>
       </c>
       <c r="G50" s="3" t="s">
-        <v>467</v>
+        <v>462</v>
       </c>
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.35">
@@ -3394,7 +3541,7 @@
         <v>16</v>
       </c>
       <c r="C51" t="s">
-        <v>468</v>
+        <v>463</v>
       </c>
       <c r="D51" t="s">
         <v>40</v>
@@ -3407,7 +3554,7 @@
         <v>21001.199999999997</v>
       </c>
       <c r="G51" s="3" t="s">
-        <v>469</v>
+        <v>464</v>
       </c>
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.35">
@@ -3418,7 +3565,7 @@
         <v>16</v>
       </c>
       <c r="C52" t="s">
-        <v>470</v>
+        <v>465</v>
       </c>
       <c r="D52" t="s">
         <v>45</v>
@@ -3431,7 +3578,7 @@
         <v>0.14399999999999999</v>
       </c>
       <c r="G52" s="3" t="s">
-        <v>471</v>
+        <v>466</v>
       </c>
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.35">
@@ -3442,7 +3589,7 @@
         <v>16</v>
       </c>
       <c r="C53" t="s">
-        <v>464</v>
+        <v>459</v>
       </c>
       <c r="D53" t="s">
         <v>40</v>
@@ -3455,7 +3602,7 @@
         <v>105.6</v>
       </c>
       <c r="G53" s="3" t="s">
-        <v>465</v>
+        <v>460</v>
       </c>
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.35">
@@ -3466,7 +3613,7 @@
         <v>16</v>
       </c>
       <c r="C54" t="s">
-        <v>451</v>
+        <v>446</v>
       </c>
       <c r="D54" t="s">
         <v>45</v>
@@ -3479,7 +3626,7 @@
         <v>124.80000000000001</v>
       </c>
       <c r="G54" s="3" t="s">
-        <v>452</v>
+        <v>447</v>
       </c>
     </row>
     <row r="55" spans="1:7" x14ac:dyDescent="0.35">
@@ -3490,7 +3637,7 @@
         <v>16</v>
       </c>
       <c r="C55" t="s">
-        <v>472</v>
+        <v>467</v>
       </c>
       <c r="D55" t="s">
         <v>45</v>
@@ -3503,7 +3650,7 @@
         <v>8280</v>
       </c>
       <c r="G55" s="3" t="s">
-        <v>473</v>
+        <v>468</v>
       </c>
     </row>
     <row r="56" spans="1:7" x14ac:dyDescent="0.35">
@@ -3514,7 +3661,7 @@
         <v>16</v>
       </c>
       <c r="C56" t="s">
-        <v>451</v>
+        <v>446</v>
       </c>
       <c r="D56" t="s">
         <v>45</v>
@@ -3527,7 +3674,7 @@
         <v>124.80000000000001</v>
       </c>
       <c r="G56" s="3" t="s">
-        <v>452</v>
+        <v>447</v>
       </c>
     </row>
     <row r="57" spans="1:7" x14ac:dyDescent="0.35">
@@ -3551,7 +3698,7 @@
         <v>1920</v>
       </c>
       <c r="G57" s="3" t="s">
-        <v>474</v>
+        <v>469</v>
       </c>
     </row>
     <row r="58" spans="1:7" x14ac:dyDescent="0.35">
@@ -3562,7 +3709,7 @@
         <v>16</v>
       </c>
       <c r="C58" t="s">
-        <v>449</v>
+        <v>444</v>
       </c>
       <c r="D58" t="s">
         <v>45</v>
@@ -3575,7 +3722,7 @@
         <v>184.14</v>
       </c>
       <c r="G58" s="3" t="s">
-        <v>450</v>
+        <v>445</v>
       </c>
     </row>
     <row r="59" spans="1:7" x14ac:dyDescent="0.35">
@@ -3586,7 +3733,7 @@
         <v>16</v>
       </c>
       <c r="C59" t="s">
-        <v>475</v>
+        <v>470</v>
       </c>
       <c r="D59" t="s">
         <v>42</v>
@@ -3599,7 +3746,7 @@
         <v>0.39479999999999998</v>
       </c>
       <c r="G59" s="3" t="s">
-        <v>476</v>
+        <v>471</v>
       </c>
     </row>
     <row r="60" spans="1:7" x14ac:dyDescent="0.35">
@@ -3610,7 +3757,7 @@
         <v>16</v>
       </c>
       <c r="C60" t="s">
-        <v>477</v>
+        <v>472</v>
       </c>
       <c r="D60" t="s">
         <v>45</v>
@@ -3623,7 +3770,7 @@
         <v>0.12</v>
       </c>
       <c r="G60" s="3" t="s">
-        <v>478</v>
+        <v>473</v>
       </c>
     </row>
     <row r="61" spans="1:7" x14ac:dyDescent="0.35">
@@ -3634,7 +3781,7 @@
         <v>16</v>
       </c>
       <c r="C61" t="s">
-        <v>479</v>
+        <v>474</v>
       </c>
       <c r="D61" t="s">
         <v>42</v>
@@ -3647,7 +3794,7 @@
         <v>12360</v>
       </c>
       <c r="G61" s="3" t="s">
-        <v>480</v>
+        <v>475</v>
       </c>
     </row>
     <row r="62" spans="1:7" x14ac:dyDescent="0.35">
@@ -3658,7 +3805,7 @@
         <v>16</v>
       </c>
       <c r="C62" t="s">
-        <v>481</v>
+        <v>476</v>
       </c>
       <c r="D62" t="s">
         <v>88</v>
@@ -3671,7 +3818,7 @@
         <v>3.516</v>
       </c>
       <c r="G62" s="3" t="s">
-        <v>482</v>
+        <v>477</v>
       </c>
     </row>
     <row r="63" spans="1:7" x14ac:dyDescent="0.35">
@@ -3682,7 +3829,7 @@
         <v>16</v>
       </c>
       <c r="C63" t="s">
-        <v>483</v>
+        <v>478</v>
       </c>
       <c r="D63" t="s">
         <v>88</v>
@@ -3695,7 +3842,7 @@
         <v>198</v>
       </c>
       <c r="G63" s="3" t="s">
-        <v>484</v>
+        <v>479</v>
       </c>
     </row>
     <row r="64" spans="1:7" x14ac:dyDescent="0.35">
@@ -3706,7 +3853,7 @@
         <v>16</v>
       </c>
       <c r="C64" t="s">
-        <v>485</v>
+        <v>480</v>
       </c>
       <c r="D64" t="s">
         <v>45</v>
@@ -3719,7 +3866,7 @@
         <v>3060</v>
       </c>
       <c r="G64" s="3" t="s">
-        <v>486</v>
+        <v>481</v>
       </c>
     </row>
     <row r="65" spans="1:7" x14ac:dyDescent="0.35">
@@ -3730,7 +3877,7 @@
         <v>16</v>
       </c>
       <c r="C65" t="s">
-        <v>487</v>
+        <v>482</v>
       </c>
       <c r="D65" t="s">
         <v>40</v>
@@ -3743,7 +3890,7 @@
         <v>8220</v>
       </c>
       <c r="G65" s="3" t="s">
-        <v>488</v>
+        <v>483</v>
       </c>
     </row>
     <row r="66" spans="1:7" x14ac:dyDescent="0.35">
@@ -3754,7 +3901,7 @@
         <v>16</v>
       </c>
       <c r="C66" t="s">
-        <v>489</v>
+        <v>484</v>
       </c>
       <c r="D66" t="s">
         <v>45</v>
@@ -3767,7 +3914,7 @@
         <v>6.4199999999999993E-2</v>
       </c>
       <c r="G66" s="1" t="s">
-        <v>490</v>
+        <v>485</v>
       </c>
     </row>
     <row r="67" spans="1:7" x14ac:dyDescent="0.35">
@@ -3778,7 +3925,7 @@
         <v>16</v>
       </c>
       <c r="C67" t="s">
-        <v>491</v>
+        <v>486</v>
       </c>
       <c r="D67" t="s">
         <v>88</v>
@@ -3791,7 +3938,7 @@
         <v>59340</v>
       </c>
       <c r="G67" s="3" t="s">
-        <v>492</v>
+        <v>487</v>
       </c>
     </row>
     <row r="68" spans="1:7" x14ac:dyDescent="0.35">
@@ -3802,7 +3949,7 @@
         <v>16</v>
       </c>
       <c r="C68" t="s">
-        <v>493</v>
+        <v>488</v>
       </c>
       <c r="D68" t="s">
         <v>45</v>
@@ -3815,7 +3962,7 @@
         <v>18.600000000000001</v>
       </c>
       <c r="G68" s="3" t="s">
-        <v>494</v>
+        <v>489</v>
       </c>
     </row>
     <row r="69" spans="1:7" x14ac:dyDescent="0.35">
@@ -3826,7 +3973,7 @@
         <v>16</v>
       </c>
       <c r="C69" t="s">
-        <v>495</v>
+        <v>490</v>
       </c>
       <c r="D69" t="s">
         <v>40</v>
@@ -3839,7 +3986,7 @@
         <v>2760</v>
       </c>
       <c r="G69" s="3" t="s">
-        <v>496</v>
+        <v>491</v>
       </c>
     </row>
     <row r="70" spans="1:7" x14ac:dyDescent="0.35">
@@ -3850,7 +3997,7 @@
         <v>16</v>
       </c>
       <c r="C70" t="s">
-        <v>497</v>
+        <v>492</v>
       </c>
       <c r="D70" t="s">
         <v>45</v>
@@ -3863,7 +4010,7 @@
         <v>48.959999999999994</v>
       </c>
       <c r="G70" s="3" t="s">
-        <v>498</v>
+        <v>493</v>
       </c>
     </row>
     <row r="71" spans="1:7" x14ac:dyDescent="0.35">
@@ -3874,7 +4021,7 @@
         <v>16</v>
       </c>
       <c r="C71" t="s">
-        <v>499</v>
+        <v>494</v>
       </c>
       <c r="D71" t="s">
         <v>40</v>
@@ -3887,7 +4034,7 @@
         <v>330</v>
       </c>
       <c r="G71" s="3" t="s">
-        <v>500</v>
+        <v>495</v>
       </c>
     </row>
     <row r="72" spans="1:7" x14ac:dyDescent="0.35">
@@ -3898,7 +4045,7 @@
         <v>16</v>
       </c>
       <c r="C72" t="s">
-        <v>495</v>
+        <v>490</v>
       </c>
       <c r="D72" t="s">
         <v>40</v>
@@ -3911,7 +4058,7 @@
         <v>2760</v>
       </c>
       <c r="G72" s="3" t="s">
-        <v>496</v>
+        <v>491</v>
       </c>
     </row>
     <row r="73" spans="1:7" x14ac:dyDescent="0.35">
@@ -3922,7 +4069,7 @@
         <v>16</v>
       </c>
       <c r="C73" t="s">
-        <v>501</v>
+        <v>496</v>
       </c>
       <c r="D73" t="s">
         <v>147</v>
@@ -3935,7 +4082,7 @@
         <v>4260</v>
       </c>
       <c r="G73" s="3" t="s">
-        <v>502</v>
+        <v>497</v>
       </c>
     </row>
     <row r="74" spans="1:7" x14ac:dyDescent="0.35">
@@ -3946,7 +4093,7 @@
         <v>16</v>
       </c>
       <c r="C74" t="s">
-        <v>449</v>
+        <v>444</v>
       </c>
       <c r="D74" t="s">
         <v>45</v>
@@ -3959,7 +4106,7 @@
         <v>184.14</v>
       </c>
       <c r="G74" s="3" t="s">
-        <v>450</v>
+        <v>445</v>
       </c>
     </row>
     <row r="75" spans="1:7" x14ac:dyDescent="0.35">
@@ -3970,7 +4117,7 @@
         <v>16</v>
       </c>
       <c r="C75" t="s">
-        <v>503</v>
+        <v>498</v>
       </c>
       <c r="D75" t="s">
         <v>88</v>
@@ -3983,7 +4130,7 @@
         <v>29.4</v>
       </c>
       <c r="G75" s="3" t="s">
-        <v>504</v>
+        <v>499</v>
       </c>
     </row>
     <row r="76" spans="1:7" x14ac:dyDescent="0.35">
@@ -3994,7 +4141,7 @@
         <v>16</v>
       </c>
       <c r="C76" t="s">
-        <v>495</v>
+        <v>490</v>
       </c>
       <c r="D76" t="s">
         <v>40</v>
@@ -4007,7 +4154,7 @@
         <v>2760</v>
       </c>
       <c r="G76" s="3" t="s">
-        <v>496</v>
+        <v>491</v>
       </c>
     </row>
     <row r="77" spans="1:7" x14ac:dyDescent="0.35">
@@ -4018,7 +4165,7 @@
         <v>16</v>
       </c>
       <c r="C77" t="s">
-        <v>489</v>
+        <v>484</v>
       </c>
       <c r="D77" t="s">
         <v>45</v>
@@ -4031,7 +4178,7 @@
         <v>6.4199999999999993E-2</v>
       </c>
       <c r="G77" s="1" t="s">
-        <v>490</v>
+        <v>485</v>
       </c>
     </row>
     <row r="78" spans="1:7" x14ac:dyDescent="0.35">
@@ -4042,7 +4189,7 @@
         <v>16</v>
       </c>
       <c r="C78" t="s">
-        <v>451</v>
+        <v>446</v>
       </c>
       <c r="D78" t="s">
         <v>45</v>
@@ -4055,7 +4202,7 @@
         <v>124.80000000000001</v>
       </c>
       <c r="G78" s="3" t="s">
-        <v>452</v>
+        <v>447</v>
       </c>
     </row>
     <row r="79" spans="1:7" x14ac:dyDescent="0.35">
@@ -4066,7 +4213,7 @@
         <v>16</v>
       </c>
       <c r="C79" t="s">
-        <v>505</v>
+        <v>500</v>
       </c>
       <c r="D79" t="s">
         <v>40</v>
@@ -4079,7 +4226,7 @@
         <v>196.27339572192511</v>
       </c>
       <c r="G79" s="3" t="s">
-        <v>506</v>
+        <v>501</v>
       </c>
     </row>
     <row r="80" spans="1:7" x14ac:dyDescent="0.35">
@@ -4090,7 +4237,7 @@
         <v>16</v>
       </c>
       <c r="C80" t="s">
-        <v>507</v>
+        <v>502</v>
       </c>
       <c r="D80" t="s">
         <v>42</v>
@@ -4103,7 +4250,7 @@
         <v>306</v>
       </c>
       <c r="G80" s="3" t="s">
-        <v>508</v>
+        <v>503</v>
       </c>
     </row>
     <row r="81" spans="1:7" x14ac:dyDescent="0.35">
@@ -4114,7 +4261,7 @@
         <v>16</v>
       </c>
       <c r="C81" t="s">
-        <v>509</v>
+        <v>504</v>
       </c>
       <c r="D81" t="s">
         <v>40</v>
@@ -4127,7 +4274,7 @@
         <v>282</v>
       </c>
       <c r="G81" s="3" t="s">
-        <v>510</v>
+        <v>505</v>
       </c>
     </row>
     <row r="82" spans="1:7" x14ac:dyDescent="0.35">
@@ -4138,7 +4285,7 @@
         <v>16</v>
       </c>
       <c r="C82" t="s">
-        <v>489</v>
+        <v>484</v>
       </c>
       <c r="D82" t="s">
         <v>45</v>
@@ -4151,7 +4298,7 @@
         <v>6.4199999999999993E-2</v>
       </c>
       <c r="G82" s="1" t="s">
-        <v>490</v>
+        <v>485</v>
       </c>
     </row>
     <row r="83" spans="1:7" x14ac:dyDescent="0.35">
@@ -4162,7 +4309,7 @@
         <v>16</v>
       </c>
       <c r="C83" t="s">
-        <v>509</v>
+        <v>504</v>
       </c>
       <c r="D83" t="s">
         <v>40</v>
@@ -4175,7 +4322,7 @@
         <v>282</v>
       </c>
       <c r="G83" s="3" t="s">
-        <v>510</v>
+        <v>505</v>
       </c>
     </row>
     <row r="84" spans="1:7" x14ac:dyDescent="0.35">
@@ -4186,10 +4333,10 @@
         <v>16</v>
       </c>
       <c r="C84" t="s">
-        <v>511</v>
+        <v>506</v>
       </c>
       <c r="D84" t="s">
-        <v>512</v>
+        <v>507</v>
       </c>
       <c r="E84">
         <v>8.75</v>
@@ -4199,7 +4346,7 @@
         <v>525</v>
       </c>
       <c r="G84" s="3" t="s">
-        <v>513</v>
+        <v>508</v>
       </c>
     </row>
     <row r="85" spans="1:7" x14ac:dyDescent="0.35">
@@ -4210,10 +4357,10 @@
         <v>16</v>
       </c>
       <c r="C85" t="s">
-        <v>511</v>
+        <v>506</v>
       </c>
       <c r="D85" t="s">
-        <v>512</v>
+        <v>507</v>
       </c>
       <c r="E85">
         <v>21</v>
@@ -4223,7 +4370,7 @@
         <v>1260</v>
       </c>
       <c r="G85" s="3" t="s">
-        <v>513</v>
+        <v>508</v>
       </c>
     </row>
     <row r="86" spans="1:7" x14ac:dyDescent="0.35">
@@ -4234,10 +4381,10 @@
         <v>16</v>
       </c>
       <c r="C86" t="s">
-        <v>511</v>
+        <v>506</v>
       </c>
       <c r="D86" t="s">
-        <v>512</v>
+        <v>507</v>
       </c>
       <c r="E86">
         <v>9.3800000000000008</v>
@@ -4247,7 +4394,7 @@
         <v>562.80000000000007</v>
       </c>
       <c r="G86" s="3" t="s">
-        <v>513</v>
+        <v>508</v>
       </c>
     </row>
     <row r="87" spans="1:7" x14ac:dyDescent="0.35">
@@ -4258,10 +4405,10 @@
         <v>16</v>
       </c>
       <c r="C87" t="s">
-        <v>514</v>
+        <v>509</v>
       </c>
       <c r="D87" t="s">
-        <v>512</v>
+        <v>507</v>
       </c>
       <c r="E87">
         <v>0.114</v>
@@ -4271,7 +4418,7 @@
         <v>6.84</v>
       </c>
       <c r="G87" s="3" t="s">
-        <v>515</v>
+        <v>510</v>
       </c>
     </row>
     <row r="88" spans="1:7" x14ac:dyDescent="0.35">
@@ -4282,7 +4429,7 @@
         <v>16</v>
       </c>
       <c r="C88" t="s">
-        <v>516</v>
+        <v>511</v>
       </c>
       <c r="D88" t="s">
         <v>45</v>
@@ -4295,7 +4442,7 @@
         <v>58.8</v>
       </c>
       <c r="G88" s="1" t="s">
-        <v>517</v>
+        <v>512</v>
       </c>
     </row>
     <row r="89" spans="1:7" x14ac:dyDescent="0.35">
@@ -4306,7 +4453,7 @@
         <v>16</v>
       </c>
       <c r="C89" t="s">
-        <v>487</v>
+        <v>482</v>
       </c>
       <c r="D89" t="s">
         <v>40</v>
@@ -4319,7 +4466,7 @@
         <v>8220</v>
       </c>
       <c r="G89" s="3" t="s">
-        <v>488</v>
+        <v>483</v>
       </c>
     </row>
     <row r="90" spans="1:7" x14ac:dyDescent="0.35">
@@ -4330,7 +4477,7 @@
         <v>16</v>
       </c>
       <c r="C90" t="s">
-        <v>518</v>
+        <v>513</v>
       </c>
       <c r="D90" t="s">
         <v>40</v>
@@ -4343,7 +4490,7 @@
         <v>70800</v>
       </c>
       <c r="G90" s="3" t="s">
-        <v>519</v>
+        <v>514</v>
       </c>
     </row>
     <row r="91" spans="1:7" x14ac:dyDescent="0.35">
@@ -4354,7 +4501,7 @@
         <v>16</v>
       </c>
       <c r="C91" t="s">
-        <v>520</v>
+        <v>515</v>
       </c>
       <c r="D91" t="s">
         <v>88</v>
@@ -4367,7 +4514,7 @@
         <v>8580</v>
       </c>
       <c r="G91" s="3" t="s">
-        <v>521</v>
+        <v>516</v>
       </c>
     </row>
     <row r="92" spans="1:7" x14ac:dyDescent="0.35">
@@ -4378,7 +4525,7 @@
         <v>16</v>
       </c>
       <c r="C92" t="s">
-        <v>522</v>
+        <v>517</v>
       </c>
       <c r="D92" t="s">
         <v>45</v>
@@ -4391,7 +4538,7 @@
         <v>102</v>
       </c>
       <c r="G92" s="3" t="s">
-        <v>523</v>
+        <v>518</v>
       </c>
     </row>
     <row r="93" spans="1:7" x14ac:dyDescent="0.35">
@@ -4402,7 +4549,7 @@
         <v>16</v>
       </c>
       <c r="C93" t="s">
-        <v>524</v>
+        <v>519</v>
       </c>
       <c r="D93" t="s">
         <v>45</v>
@@ -4415,7 +4562,7 @@
         <v>19.8</v>
       </c>
       <c r="G93" s="3" t="s">
-        <v>525</v>
+        <v>520</v>
       </c>
     </row>
     <row r="94" spans="1:7" x14ac:dyDescent="0.35">
@@ -4426,7 +4573,7 @@
         <v>16</v>
       </c>
       <c r="C94" t="s">
-        <v>526</v>
+        <v>521</v>
       </c>
       <c r="D94" t="s">
         <v>40</v>
@@ -4439,7 +4586,7 @@
         <v>2088</v>
       </c>
       <c r="G94" s="3" t="s">
-        <v>527</v>
+        <v>522</v>
       </c>
     </row>
     <row r="95" spans="1:7" x14ac:dyDescent="0.35">
@@ -4450,7 +4597,7 @@
         <v>16</v>
       </c>
       <c r="C95" t="s">
-        <v>528</v>
+        <v>523</v>
       </c>
       <c r="D95" t="s">
         <v>40</v>
@@ -4463,7 +4610,7 @@
         <v>1500</v>
       </c>
       <c r="G95" s="3" t="s">
-        <v>529</v>
+        <v>524</v>
       </c>
     </row>
     <row r="96" spans="1:7" x14ac:dyDescent="0.35">
@@ -4474,7 +4621,7 @@
         <v>16</v>
       </c>
       <c r="C96" t="s">
-        <v>530</v>
+        <v>525</v>
       </c>
       <c r="D96" t="s">
         <v>45</v>
@@ -4487,7 +4634,7 @@
         <v>894</v>
       </c>
       <c r="G96" s="3" t="s">
-        <v>531</v>
+        <v>526</v>
       </c>
     </row>
     <row r="97" spans="1:7" x14ac:dyDescent="0.35">
@@ -4498,7 +4645,7 @@
         <v>16</v>
       </c>
       <c r="C97" t="s">
-        <v>532</v>
+        <v>527</v>
       </c>
       <c r="D97" t="s">
         <v>40</v>
@@ -4511,7 +4658,7 @@
         <v>535.85619678334911</v>
       </c>
       <c r="G97" s="3" t="s">
-        <v>533</v>
+        <v>528</v>
       </c>
     </row>
     <row r="98" spans="1:7" x14ac:dyDescent="0.35">
@@ -4522,7 +4669,7 @@
         <v>16</v>
       </c>
       <c r="C98" t="s">
-        <v>534</v>
+        <v>529</v>
       </c>
       <c r="D98" t="s">
         <v>40</v>
@@ -4535,7 +4682,7 @@
         <v>156</v>
       </c>
       <c r="G98" s="3" t="s">
-        <v>535</v>
+        <v>530</v>
       </c>
     </row>
     <row r="99" spans="1:7" x14ac:dyDescent="0.35">
@@ -4546,7 +4693,7 @@
         <v>16</v>
       </c>
       <c r="C99" t="s">
-        <v>536</v>
+        <v>531</v>
       </c>
       <c r="D99" t="s">
         <v>45</v>
@@ -4559,7 +4706,7 @@
         <v>49.8</v>
       </c>
       <c r="G99" s="3" t="s">
-        <v>537</v>
+        <v>532</v>
       </c>
     </row>
     <row r="100" spans="1:7" x14ac:dyDescent="0.35">
@@ -4570,7 +4717,7 @@
         <v>16</v>
       </c>
       <c r="C100" t="s">
-        <v>538</v>
+        <v>533</v>
       </c>
       <c r="D100" t="s">
         <v>88</v>
@@ -4583,7 +4730,7 @@
         <v>41040</v>
       </c>
       <c r="G100" s="3" t="s">
-        <v>539</v>
+        <v>534</v>
       </c>
     </row>
     <row r="101" spans="1:7" x14ac:dyDescent="0.35">
@@ -4594,7 +4741,7 @@
         <v>16</v>
       </c>
       <c r="C101" t="s">
-        <v>540</v>
+        <v>535</v>
       </c>
       <c r="D101" t="s">
         <v>45</v>
@@ -4607,7 +4754,7 @@
         <v>190.2</v>
       </c>
       <c r="G101" s="3" t="s">
-        <v>541</v>
+        <v>536</v>
       </c>
     </row>
     <row r="102" spans="1:7" x14ac:dyDescent="0.35">
@@ -4618,7 +4765,7 @@
         <v>16</v>
       </c>
       <c r="C102" t="s">
-        <v>542</v>
+        <v>537</v>
       </c>
       <c r="D102" t="s">
         <v>45</v>
@@ -4631,7 +4778,7 @@
         <v>2.1599999999999997</v>
       </c>
       <c r="G102" s="3" t="s">
-        <v>543</v>
+        <v>538</v>
       </c>
     </row>
     <row r="103" spans="1:7" x14ac:dyDescent="0.35">
@@ -4642,7 +4789,7 @@
         <v>16</v>
       </c>
       <c r="C103" t="s">
-        <v>544</v>
+        <v>539</v>
       </c>
       <c r="D103" t="s">
         <v>45</v>
@@ -4655,7 +4802,7 @@
         <v>1446</v>
       </c>
       <c r="G103" s="3" t="s">
-        <v>545</v>
+        <v>540</v>
       </c>
     </row>
     <row r="104" spans="1:7" x14ac:dyDescent="0.35">
@@ -4666,7 +4813,7 @@
         <v>16</v>
       </c>
       <c r="C104" t="s">
-        <v>546</v>
+        <v>541</v>
       </c>
       <c r="D104" t="s">
         <v>112</v>
@@ -4679,7 +4826,7 @@
         <v>150</v>
       </c>
       <c r="G104" s="3" t="s">
-        <v>547</v>
+        <v>542</v>
       </c>
     </row>
     <row r="105" spans="1:7" x14ac:dyDescent="0.35">
@@ -4690,10 +4837,10 @@
         <v>16</v>
       </c>
       <c r="C105" t="s">
-        <v>511</v>
+        <v>506</v>
       </c>
       <c r="D105" t="s">
-        <v>548</v>
+        <v>543</v>
       </c>
       <c r="E105">
         <v>4.9000000000000004</v>
@@ -4703,7 +4850,7 @@
         <v>294</v>
       </c>
       <c r="G105" s="3" t="s">
-        <v>549</v>
+        <v>544</v>
       </c>
     </row>
     <row r="106" spans="1:7" x14ac:dyDescent="0.35">
@@ -4714,7 +4861,7 @@
         <v>16</v>
       </c>
       <c r="C106" t="s">
-        <v>464</v>
+        <v>459</v>
       </c>
       <c r="D106" t="s">
         <v>40</v>
@@ -4727,7 +4874,7 @@
         <v>105.6</v>
       </c>
       <c r="G106" s="3" t="s">
-        <v>465</v>
+        <v>460</v>
       </c>
     </row>
     <row r="107" spans="1:7" x14ac:dyDescent="0.35">
@@ -4738,7 +4885,7 @@
         <v>16</v>
       </c>
       <c r="C107" t="s">
-        <v>550</v>
+        <v>545</v>
       </c>
       <c r="D107" t="s">
         <v>42</v>
@@ -4751,7 +4898,7 @@
         <v>74400</v>
       </c>
       <c r="G107" s="3" t="s">
-        <v>551</v>
+        <v>546</v>
       </c>
     </row>
     <row r="108" spans="1:7" x14ac:dyDescent="0.35">
@@ -4762,7 +4909,7 @@
         <v>16</v>
       </c>
       <c r="C108" t="s">
-        <v>472</v>
+        <v>467</v>
       </c>
       <c r="D108" t="s">
         <v>45</v>
@@ -4775,7 +4922,7 @@
         <v>8280</v>
       </c>
       <c r="G108" s="3" t="s">
-        <v>473</v>
+        <v>468</v>
       </c>
     </row>
     <row r="109" spans="1:7" x14ac:dyDescent="0.35">
@@ -4786,7 +4933,7 @@
         <v>16</v>
       </c>
       <c r="C109" t="s">
-        <v>464</v>
+        <v>459</v>
       </c>
       <c r="D109" t="s">
         <v>40</v>
@@ -4795,11 +4942,11 @@
         <v>1.76</v>
       </c>
       <c r="F109">
-        <f t="shared" ref="F109:F110" si="5">E109*60</f>
+        <f t="shared" ref="F109:F118" si="5">E109*60</f>
         <v>105.6</v>
       </c>
       <c r="G109" s="3" t="s">
-        <v>465</v>
+        <v>460</v>
       </c>
     </row>
     <row r="110" spans="1:7" x14ac:dyDescent="0.35">
@@ -4810,7 +4957,7 @@
         <v>16</v>
       </c>
       <c r="C110" t="s">
-        <v>552</v>
+        <v>547</v>
       </c>
       <c r="D110" t="s">
         <v>45</v>
@@ -4823,7 +4970,7 @@
         <v>43.8</v>
       </c>
       <c r="G110" s="3" t="s">
-        <v>553</v>
+        <v>548</v>
       </c>
     </row>
     <row r="111" spans="1:7" x14ac:dyDescent="0.35">
@@ -4833,6 +4980,22 @@
       <c r="B111" t="s">
         <v>16</v>
       </c>
+      <c r="C111" t="s">
+        <v>494</v>
+      </c>
+      <c r="D111" t="s">
+        <v>40</v>
+      </c>
+      <c r="E111">
+        <v>5.5</v>
+      </c>
+      <c r="F111">
+        <f t="shared" si="5"/>
+        <v>330</v>
+      </c>
+      <c r="G111" s="3" t="s">
+        <v>495</v>
+      </c>
     </row>
     <row r="112" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A112" t="s">
@@ -4841,344 +5004,1032 @@
       <c r="B112" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="113" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C112" t="s">
+        <v>467</v>
+      </c>
+      <c r="D112" t="s">
+        <v>45</v>
+      </c>
+      <c r="E112">
+        <v>138</v>
+      </c>
+      <c r="F112">
+        <f t="shared" si="5"/>
+        <v>8280</v>
+      </c>
+      <c r="G112" s="3" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="113" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A113" t="s">
         <v>314</v>
       </c>
       <c r="B113" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="114" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C113" t="s">
+        <v>594</v>
+      </c>
+      <c r="D113" t="s">
+        <v>42</v>
+      </c>
+      <c r="E113">
+        <v>15</v>
+      </c>
+      <c r="F113">
+        <f t="shared" si="5"/>
+        <v>900</v>
+      </c>
+      <c r="G113" s="3" t="s">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="114" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A114" t="s">
         <v>315</v>
       </c>
       <c r="B114" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="115" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C114" t="s">
+        <v>596</v>
+      </c>
+      <c r="D114" t="s">
+        <v>45</v>
+      </c>
+      <c r="E114">
+        <v>3.9199999999999999E-2</v>
+      </c>
+      <c r="F114">
+        <f t="shared" si="5"/>
+        <v>2.3519999999999999</v>
+      </c>
+      <c r="G114" s="3" t="s">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="115" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A115" t="s">
         <v>316</v>
       </c>
       <c r="B115" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="116" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C115" t="s">
+        <v>551</v>
+      </c>
+      <c r="D115" t="s">
+        <v>40</v>
+      </c>
+      <c r="E115">
+        <v>3.9</v>
+      </c>
+      <c r="F115">
+        <f t="shared" si="5"/>
+        <v>234</v>
+      </c>
+      <c r="G115" s="3" t="s">
+        <v>552</v>
+      </c>
+    </row>
+    <row r="116" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A116" t="s">
         <v>317</v>
       </c>
       <c r="B116" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="117" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C116" t="s">
+        <v>597</v>
+      </c>
+      <c r="D116" t="s">
+        <v>40</v>
+      </c>
+      <c r="E116">
+        <v>1558</v>
+      </c>
+      <c r="F116">
+        <f t="shared" si="5"/>
+        <v>93480</v>
+      </c>
+      <c r="G116" s="3" t="s">
+        <v>598</v>
+      </c>
+    </row>
+    <row r="117" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A117" t="s">
         <v>318</v>
       </c>
       <c r="B117" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="118" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C117" t="s">
+        <v>599</v>
+      </c>
+      <c r="D117" t="s">
+        <v>210</v>
+      </c>
+      <c r="E117">
+        <v>166</v>
+      </c>
+      <c r="F117">
+        <f t="shared" si="5"/>
+        <v>9960</v>
+      </c>
+      <c r="G117" s="3" t="s">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="118" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A118" t="s">
         <v>319</v>
       </c>
       <c r="B118" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="119" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C118" t="s">
+        <v>601</v>
+      </c>
+      <c r="D118" t="s">
+        <v>210</v>
+      </c>
+      <c r="E118">
+        <v>0.88</v>
+      </c>
+      <c r="F118">
+        <f t="shared" si="5"/>
+        <v>52.8</v>
+      </c>
+      <c r="G118" s="3" t="s">
+        <v>602</v>
+      </c>
+    </row>
+    <row r="119" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A119" t="s">
         <v>320</v>
       </c>
       <c r="B119" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="120" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C119" t="s">
+        <v>459</v>
+      </c>
+      <c r="D119" t="s">
+        <v>40</v>
+      </c>
+      <c r="E119">
+        <v>1.76</v>
+      </c>
+      <c r="F119">
+        <f t="shared" ref="F119:F127" si="6">E119*60</f>
+        <v>105.6</v>
+      </c>
+      <c r="G119" s="3" t="s">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="120" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A120" t="s">
         <v>321</v>
       </c>
       <c r="B120" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="121" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C120" t="s">
+        <v>463</v>
+      </c>
+      <c r="D120" t="s">
+        <v>40</v>
+      </c>
+      <c r="E120">
+        <v>350.02</v>
+      </c>
+      <c r="F120">
+        <f t="shared" si="6"/>
+        <v>21001.199999999997</v>
+      </c>
+      <c r="G120" s="3" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="121" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A121" t="s">
         <v>322</v>
       </c>
       <c r="B121" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="122" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C121" t="s">
+        <v>490</v>
+      </c>
+      <c r="D121" t="s">
+        <v>40</v>
+      </c>
+      <c r="E121">
+        <v>46</v>
+      </c>
+      <c r="F121">
+        <f t="shared" si="6"/>
+        <v>2760</v>
+      </c>
+      <c r="G121" s="3" t="s">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="122" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A122" t="s">
         <v>323</v>
       </c>
       <c r="B122" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="123" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C122" t="s">
+        <v>451</v>
+      </c>
+      <c r="D122" t="s">
+        <v>45</v>
+      </c>
+      <c r="E122">
+        <v>68.3</v>
+      </c>
+      <c r="F122">
+        <f t="shared" si="6"/>
+        <v>4098</v>
+      </c>
+      <c r="G122" s="1" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="123" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A123" t="s">
         <v>324</v>
       </c>
       <c r="B123" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="124" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C123" t="s">
+        <v>444</v>
+      </c>
+      <c r="D123" t="s">
+        <v>45</v>
+      </c>
+      <c r="E123">
+        <v>3.069</v>
+      </c>
+      <c r="F123">
+        <f t="shared" si="6"/>
+        <v>184.14</v>
+      </c>
+      <c r="G123" s="3" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="124" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A124" t="s">
         <v>325</v>
       </c>
       <c r="B124" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="125" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C124" t="s">
+        <v>603</v>
+      </c>
+      <c r="D124" t="s">
+        <v>42</v>
+      </c>
+      <c r="E124">
+        <v>69</v>
+      </c>
+      <c r="F124">
+        <f t="shared" si="6"/>
+        <v>4140</v>
+      </c>
+      <c r="G124" s="3" t="s">
+        <v>604</v>
+      </c>
+    </row>
+    <row r="125" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A125" t="s">
         <v>326</v>
       </c>
       <c r="B125" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="126" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C125" t="s">
+        <v>605</v>
+      </c>
+      <c r="D125" t="s">
+        <v>88</v>
+      </c>
+      <c r="E125">
+        <v>47</v>
+      </c>
+      <c r="F125">
+        <f t="shared" si="6"/>
+        <v>2820</v>
+      </c>
+      <c r="G125" s="3" t="s">
+        <v>606</v>
+      </c>
+    </row>
+    <row r="126" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A126" t="s">
         <v>327</v>
       </c>
       <c r="B126" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="127" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C126" t="s">
+        <v>607</v>
+      </c>
+      <c r="D126" t="s">
+        <v>40</v>
+      </c>
+      <c r="E126">
+        <v>42</v>
+      </c>
+      <c r="F126">
+        <f t="shared" si="6"/>
+        <v>2520</v>
+      </c>
+      <c r="G126" s="3" t="s">
+        <v>608</v>
+      </c>
+    </row>
+    <row r="127" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A127" t="s">
         <v>328</v>
       </c>
       <c r="B127" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="128" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C127" t="s">
+        <v>609</v>
+      </c>
+      <c r="D127" t="s">
+        <v>42</v>
+      </c>
+      <c r="E127">
+        <v>1.4999999999999999E-2</v>
+      </c>
+      <c r="F127">
+        <f t="shared" si="6"/>
+        <v>0.89999999999999991</v>
+      </c>
+      <c r="G127" s="3" t="s">
+        <v>610</v>
+      </c>
+    </row>
+    <row r="128" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A128" t="s">
         <v>329</v>
       </c>
       <c r="B128" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="129" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C128" t="s">
+        <v>609</v>
+      </c>
+      <c r="D128" t="s">
+        <v>42</v>
+      </c>
+      <c r="E128">
+        <v>1.4999999999999999E-2</v>
+      </c>
+      <c r="F128">
+        <f t="shared" ref="F128:F151" si="7">E128*60</f>
+        <v>0.89999999999999991</v>
+      </c>
+      <c r="G128" s="3" t="s">
+        <v>610</v>
+      </c>
+    </row>
+    <row r="129" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A129" t="s">
         <v>330</v>
       </c>
       <c r="B129" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="130" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C129" t="s">
+        <v>611</v>
+      </c>
+      <c r="D129" t="s">
+        <v>210</v>
+      </c>
+      <c r="E129">
+        <v>2750</v>
+      </c>
+      <c r="F129">
+        <f t="shared" si="7"/>
+        <v>165000</v>
+      </c>
+      <c r="G129" s="3" t="s">
+        <v>612</v>
+      </c>
+    </row>
+    <row r="130" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A130" t="s">
         <v>331</v>
       </c>
       <c r="B130" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="131" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C130" t="s">
+        <v>611</v>
+      </c>
+      <c r="D130" t="s">
+        <v>210</v>
+      </c>
+      <c r="E130">
+        <v>2750</v>
+      </c>
+      <c r="F130">
+        <f t="shared" si="7"/>
+        <v>165000</v>
+      </c>
+      <c r="G130" s="3" t="s">
+        <v>612</v>
+      </c>
+    </row>
+    <row r="131" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A131" t="s">
         <v>332</v>
       </c>
       <c r="B131" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="132" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C131" t="s">
+        <v>611</v>
+      </c>
+      <c r="D131" t="s">
+        <v>210</v>
+      </c>
+      <c r="E131">
+        <v>2750</v>
+      </c>
+      <c r="F131">
+        <f t="shared" si="7"/>
+        <v>165000</v>
+      </c>
+      <c r="G131" s="3" t="s">
+        <v>612</v>
+      </c>
+    </row>
+    <row r="132" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A132" t="s">
         <v>333</v>
       </c>
       <c r="B132" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="133" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C132" t="s">
+        <v>611</v>
+      </c>
+      <c r="D132" t="s">
+        <v>210</v>
+      </c>
+      <c r="E132">
+        <v>2750</v>
+      </c>
+      <c r="F132">
+        <f t="shared" si="7"/>
+        <v>165000</v>
+      </c>
+      <c r="G132" s="3" t="s">
+        <v>612</v>
+      </c>
+    </row>
+    <row r="133" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A133" t="s">
         <v>334</v>
       </c>
       <c r="B133" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="134" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C133" t="s">
+        <v>613</v>
+      </c>
+      <c r="D133" t="s">
+        <v>40</v>
+      </c>
+      <c r="E133">
+        <v>3.8</v>
+      </c>
+      <c r="F133">
+        <f t="shared" si="7"/>
+        <v>228</v>
+      </c>
+      <c r="G133" s="3" t="s">
+        <v>614</v>
+      </c>
+    </row>
+    <row r="134" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A134" t="s">
         <v>335</v>
       </c>
       <c r="B134" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="135" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C134" t="s">
+        <v>615</v>
+      </c>
+      <c r="D134" t="s">
+        <v>40</v>
+      </c>
+      <c r="E134">
+        <v>6.7</v>
+      </c>
+      <c r="F134">
+        <f t="shared" si="7"/>
+        <v>402</v>
+      </c>
+      <c r="G134" s="3" t="s">
+        <v>616</v>
+      </c>
+    </row>
+    <row r="135" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A135" t="s">
         <v>336</v>
       </c>
       <c r="B135" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="136" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C135" t="s">
+        <v>617</v>
+      </c>
+      <c r="D135" t="s">
+        <v>45</v>
+      </c>
+      <c r="E135">
+        <v>9.0999999999999998E-2</v>
+      </c>
+      <c r="F135">
+        <f t="shared" si="7"/>
+        <v>5.46</v>
+      </c>
+      <c r="G135" s="3" t="s">
+        <v>618</v>
+      </c>
+    </row>
+    <row r="136" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A136" t="s">
         <v>337</v>
       </c>
       <c r="B136" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="137" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C136" t="s">
+        <v>619</v>
+      </c>
+      <c r="D136" t="s">
+        <v>620</v>
+      </c>
+      <c r="E136">
+        <v>1.7000000000000001E-2</v>
+      </c>
+      <c r="F136">
+        <f t="shared" si="7"/>
+        <v>1.02</v>
+      </c>
+      <c r="G136" s="3" t="s">
+        <v>621</v>
+      </c>
+    </row>
+    <row r="137" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A137" t="s">
         <v>338</v>
       </c>
       <c r="B137" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="138" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C137" t="s">
+        <v>622</v>
+      </c>
+      <c r="D137" t="s">
+        <v>620</v>
+      </c>
+      <c r="E137">
+        <v>27</v>
+      </c>
+      <c r="F137">
+        <f t="shared" si="7"/>
+        <v>1620</v>
+      </c>
+      <c r="G137" s="3" t="s">
+        <v>623</v>
+      </c>
+    </row>
+    <row r="138" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A138" t="s">
         <v>339</v>
       </c>
       <c r="B138" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="139" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C138" t="s">
+        <v>624</v>
+      </c>
+      <c r="D138" t="s">
+        <v>45</v>
+      </c>
+      <c r="E138">
+        <v>1986</v>
+      </c>
+      <c r="F138">
+        <f t="shared" si="7"/>
+        <v>119160</v>
+      </c>
+      <c r="G138" s="3" t="s">
+        <v>625</v>
+      </c>
+    </row>
+    <row r="139" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A139" t="s">
         <v>340</v>
       </c>
       <c r="B139" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="140" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C139" t="s">
+        <v>626</v>
+      </c>
+      <c r="D139" t="s">
+        <v>45</v>
+      </c>
+      <c r="E139">
+        <v>380</v>
+      </c>
+      <c r="F139">
+        <f t="shared" si="7"/>
+        <v>22800</v>
+      </c>
+      <c r="G139" s="3" t="s">
+        <v>627</v>
+      </c>
+    </row>
+    <row r="140" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A140" t="s">
         <v>341</v>
       </c>
       <c r="B140" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="141" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C140" t="s">
+        <v>438</v>
+      </c>
+      <c r="D140" t="s">
+        <v>45</v>
+      </c>
+      <c r="E140">
+        <v>221</v>
+      </c>
+      <c r="F140">
+        <f t="shared" si="7"/>
+        <v>13260</v>
+      </c>
+      <c r="G140" s="3" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="141" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A141" t="s">
         <v>342</v>
       </c>
       <c r="B141" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="142" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C141" t="s">
+        <v>628</v>
+      </c>
+      <c r="D141" t="s">
+        <v>42</v>
+      </c>
+      <c r="E141">
+        <v>140</v>
+      </c>
+      <c r="F141">
+        <f t="shared" si="7"/>
+        <v>8400</v>
+      </c>
+      <c r="G141" s="1" t="s">
+        <v>629</v>
+      </c>
+    </row>
+    <row r="142" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A142" t="s">
         <v>343</v>
       </c>
       <c r="B142" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="143" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C142" t="s">
+        <v>630</v>
+      </c>
+      <c r="D142" t="s">
+        <v>42</v>
+      </c>
+      <c r="E142">
+        <v>0.13</v>
+      </c>
+      <c r="F142">
+        <f t="shared" si="7"/>
+        <v>7.8000000000000007</v>
+      </c>
+      <c r="G142" s="3" t="s">
+        <v>631</v>
+      </c>
+    </row>
+    <row r="143" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A143" t="s">
         <v>344</v>
       </c>
       <c r="B143" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="144" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C143" t="s">
+        <v>446</v>
+      </c>
+      <c r="D143" t="s">
+        <v>45</v>
+      </c>
+      <c r="E143">
+        <v>2.08</v>
+      </c>
+      <c r="F143">
+        <f t="shared" si="7"/>
+        <v>124.80000000000001</v>
+      </c>
+      <c r="G143" s="3" t="s">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="144" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A144" t="s">
         <v>345</v>
       </c>
       <c r="B144" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="145" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C144" t="s">
+        <v>444</v>
+      </c>
+      <c r="D144" t="s">
+        <v>45</v>
+      </c>
+      <c r="E144">
+        <v>3.069</v>
+      </c>
+      <c r="F144">
+        <f t="shared" si="7"/>
+        <v>184.14</v>
+      </c>
+      <c r="G144" s="3" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="145" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A145" t="s">
         <v>346</v>
       </c>
       <c r="B145" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="146" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C145" t="s">
+        <v>634</v>
+      </c>
+      <c r="D145" t="s">
+        <v>635</v>
+      </c>
+      <c r="E145">
+        <v>1.6999999999999999E-3</v>
+      </c>
+      <c r="F145">
+        <f t="shared" si="7"/>
+        <v>0.10199999999999999</v>
+      </c>
+      <c r="G145" s="3" t="s">
+        <v>636</v>
+      </c>
+    </row>
+    <row r="146" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A146" t="s">
         <v>347</v>
       </c>
       <c r="B146" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="147" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C146" t="s">
+        <v>637</v>
+      </c>
+      <c r="D146" t="s">
+        <v>40</v>
+      </c>
+      <c r="E146">
+        <v>29.1</v>
+      </c>
+      <c r="F146">
+        <f t="shared" si="7"/>
+        <v>1746</v>
+      </c>
+      <c r="G146" s="3" t="s">
+        <v>638</v>
+      </c>
+    </row>
+    <row r="147" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A147" t="s">
         <v>348</v>
       </c>
       <c r="B147" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="148" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C147" t="s">
+        <v>639</v>
+      </c>
+      <c r="D147" t="s">
+        <v>640</v>
+      </c>
+      <c r="E147">
+        <v>509</v>
+      </c>
+      <c r="F147">
+        <f t="shared" si="7"/>
+        <v>30540</v>
+      </c>
+      <c r="G147" s="3" t="s">
+        <v>641</v>
+      </c>
+    </row>
+    <row r="148" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A148" t="s">
         <v>349</v>
       </c>
       <c r="B148" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="149" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C148" t="s">
+        <v>642</v>
+      </c>
+      <c r="D148" t="s">
+        <v>45</v>
+      </c>
+      <c r="E148">
+        <v>0.56999999999999995</v>
+      </c>
+      <c r="F148">
+        <f t="shared" si="7"/>
+        <v>34.199999999999996</v>
+      </c>
+      <c r="G148" s="3" t="s">
+        <v>643</v>
+      </c>
+    </row>
+    <row r="149" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A149" t="s">
         <v>350</v>
       </c>
       <c r="B149" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="150" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C149" t="s">
+        <v>190</v>
+      </c>
+      <c r="D149" t="s">
+        <v>45</v>
+      </c>
+      <c r="E149">
+        <v>38.6</v>
+      </c>
+      <c r="F149">
+        <f t="shared" si="7"/>
+        <v>2316</v>
+      </c>
+      <c r="G149" s="3" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="150" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A150" t="s">
         <v>351</v>
       </c>
       <c r="B150" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="151" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C150" t="s">
+        <v>632</v>
+      </c>
+      <c r="D150" t="s">
+        <v>45</v>
+      </c>
+      <c r="E150">
+        <v>48.6</v>
+      </c>
+      <c r="F150">
+        <f t="shared" si="7"/>
+        <v>2916</v>
+      </c>
+      <c r="G150" s="3" t="s">
+        <v>633</v>
+      </c>
+    </row>
+    <row r="151" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A151" t="s">
         <v>352</v>
       </c>
       <c r="B151" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="152" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C151" t="s">
+        <v>490</v>
+      </c>
+      <c r="D151" t="s">
+        <v>40</v>
+      </c>
+      <c r="E151">
+        <v>46</v>
+      </c>
+      <c r="F151">
+        <f t="shared" si="7"/>
+        <v>2760</v>
+      </c>
+      <c r="G151" s="3" t="s">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="152" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A152" t="s">
         <v>353</v>
       </c>
       <c r="B152" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="153" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C152" t="s">
+        <v>565</v>
+      </c>
+      <c r="D152" t="s">
+        <v>210</v>
+      </c>
+      <c r="E152">
+        <v>26.8</v>
+      </c>
+      <c r="F152">
+        <f t="shared" ref="F152:F154" si="8">E152*60</f>
+        <v>1608</v>
+      </c>
+      <c r="G152" s="3" t="s">
+        <v>566</v>
+      </c>
+    </row>
+    <row r="153" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A153" t="s">
         <v>354</v>
       </c>
       <c r="B153" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="154" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C153" t="s">
+        <v>646</v>
+      </c>
+      <c r="D153" t="s">
+        <v>45</v>
+      </c>
+      <c r="E153">
+        <v>21</v>
+      </c>
+      <c r="F153">
+        <f t="shared" si="8"/>
+        <v>1260</v>
+      </c>
+      <c r="G153" s="3" t="s">
+        <v>647</v>
+      </c>
+    </row>
+    <row r="154" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A154" t="s">
         <v>355</v>
       </c>
       <c r="B154" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="155" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C154" t="s">
+        <v>644</v>
+      </c>
+      <c r="D154" t="s">
+        <v>40</v>
+      </c>
+      <c r="E154">
+        <v>1570</v>
+      </c>
+      <c r="F154">
+        <f t="shared" si="8"/>
+        <v>94200</v>
+      </c>
+      <c r="G154" s="3" t="s">
+        <v>645</v>
+      </c>
+    </row>
+    <row r="155" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A155" t="s">
         <v>356</v>
       </c>
@@ -5186,7 +6037,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="156" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="156" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A156" t="s">
         <v>357</v>
       </c>
@@ -5194,7 +6045,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="157" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="157" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A157" t="s">
         <v>358</v>
       </c>
@@ -5202,7 +6053,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="158" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="158" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A158" t="s">
         <v>359</v>
       </c>
@@ -5210,7 +6061,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="159" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="159" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A159" t="s">
         <v>360</v>
       </c>
@@ -5218,7 +6069,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="160" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="160" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A160" t="s">
         <v>361</v>
       </c>
@@ -5226,7 +6077,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="161" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="161" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A161" t="s">
         <v>362</v>
       </c>
@@ -5234,7 +6085,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="162" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="162" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A162" t="s">
         <v>363</v>
       </c>
@@ -5242,7 +6093,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="163" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="163" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A163" t="s">
         <v>364</v>
       </c>
@@ -5250,7 +6101,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="164" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="164" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A164" t="s">
         <v>365</v>
       </c>
@@ -5258,7 +6109,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="165" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="165" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A165" t="s">
         <v>366</v>
       </c>
@@ -5266,7 +6117,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="166" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="166" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A166" t="s">
         <v>367</v>
       </c>
@@ -5274,7 +6125,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="167" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="167" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A167" t="s">
         <v>368</v>
       </c>
@@ -5282,7 +6133,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="168" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="168" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A168" t="s">
         <v>369</v>
       </c>
@@ -5290,7 +6141,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="169" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="169" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A169" t="s">
         <v>370</v>
       </c>
@@ -5298,7 +6149,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="170" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="170" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A170" t="s">
         <v>371</v>
       </c>
@@ -5306,7 +6157,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="171" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="171" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A171" t="s">
         <v>372</v>
       </c>
@@ -5314,23 +6165,55 @@
         <v>16</v>
       </c>
     </row>
-    <row r="172" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="172" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A172" t="s">
         <v>373</v>
       </c>
       <c r="B172" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="173" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C172" t="s">
+        <v>451</v>
+      </c>
+      <c r="D172" t="s">
+        <v>45</v>
+      </c>
+      <c r="E172">
+        <v>68.3</v>
+      </c>
+      <c r="F172">
+        <f t="shared" ref="F172:F173" si="9">E172*60</f>
+        <v>4098</v>
+      </c>
+      <c r="G172" s="1" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="173" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A173" t="s">
         <v>374</v>
       </c>
       <c r="B173" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="174" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C173" t="s">
+        <v>467</v>
+      </c>
+      <c r="D173" t="s">
+        <v>45</v>
+      </c>
+      <c r="E173">
+        <v>138</v>
+      </c>
+      <c r="F173">
+        <f t="shared" si="9"/>
+        <v>8280</v>
+      </c>
+      <c r="G173" s="3" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="174" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A174" t="s">
         <v>375</v>
       </c>
@@ -5338,7 +6221,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="175" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="175" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A175" t="s">
         <v>376</v>
       </c>
@@ -5346,7 +6229,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="176" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="176" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A176" t="s">
         <v>377</v>
       </c>
@@ -5524,714 +6407,794 @@
     </row>
     <row r="198" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A198" t="s">
-        <v>399</v>
+        <v>26</v>
       </c>
       <c r="B198" t="s">
-        <v>16</v>
+        <v>38</v>
+      </c>
+      <c r="C198" t="s">
+        <v>86</v>
+      </c>
+      <c r="D198" t="s">
+        <v>45</v>
+      </c>
+      <c r="E198">
+        <v>11</v>
+      </c>
+      <c r="F198">
+        <f t="shared" si="0"/>
+        <v>660</v>
+      </c>
+      <c r="G198" s="3" t="s">
+        <v>87</v>
       </c>
     </row>
     <row r="199" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A199" t="s">
-        <v>400</v>
+        <v>27</v>
       </c>
       <c r="B199" t="s">
-        <v>16</v>
+        <v>38</v>
+      </c>
+      <c r="C199" t="s">
+        <v>89</v>
+      </c>
+      <c r="D199" t="s">
+        <v>88</v>
+      </c>
+      <c r="E199">
+        <v>0.127</v>
+      </c>
+      <c r="F199">
+        <f t="shared" si="0"/>
+        <v>7.62</v>
+      </c>
+      <c r="G199" s="3" t="s">
+        <v>90</v>
       </c>
     </row>
     <row r="200" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A200" t="s">
-        <v>401</v>
+        <v>28</v>
       </c>
       <c r="B200" t="s">
-        <v>16</v>
+        <v>38</v>
+      </c>
+      <c r="C200" t="s">
+        <v>92</v>
+      </c>
+      <c r="D200" t="s">
+        <v>91</v>
+      </c>
+      <c r="E200">
+        <v>6.13</v>
+      </c>
+      <c r="F200">
+        <f t="shared" si="0"/>
+        <v>367.8</v>
+      </c>
+      <c r="G200" s="3" t="s">
+        <v>93</v>
       </c>
     </row>
     <row r="201" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A201" t="s">
-        <v>402</v>
+        <v>29</v>
       </c>
       <c r="B201" t="s">
-        <v>16</v>
+        <v>38</v>
+      </c>
+      <c r="C201" t="s">
+        <v>94</v>
+      </c>
+      <c r="D201" t="s">
+        <v>45</v>
+      </c>
+      <c r="E201">
+        <v>31</v>
+      </c>
+      <c r="F201">
+        <f t="shared" si="0"/>
+        <v>1860</v>
+      </c>
+      <c r="G201" s="3" t="s">
+        <v>95</v>
       </c>
     </row>
     <row r="202" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A202" t="s">
-        <v>403</v>
+        <v>30</v>
       </c>
       <c r="B202" t="s">
-        <v>16</v>
+        <v>38</v>
+      </c>
+      <c r="C202" t="s">
+        <v>97</v>
+      </c>
+      <c r="D202" t="s">
+        <v>96</v>
+      </c>
+      <c r="E202">
+        <v>252</v>
+      </c>
+      <c r="F202">
+        <f t="shared" si="0"/>
+        <v>15120</v>
+      </c>
+      <c r="G202" s="3" t="s">
+        <v>98</v>
       </c>
     </row>
     <row r="203" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A203" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="B203" t="s">
         <v>38</v>
       </c>
       <c r="C203" t="s">
-        <v>86</v>
+        <v>100</v>
       </c>
       <c r="D203" t="s">
-        <v>45</v>
+        <v>99</v>
       </c>
       <c r="E203">
-        <v>11</v>
+        <v>22.1</v>
       </c>
       <c r="F203">
         <f t="shared" si="0"/>
-        <v>660</v>
+        <v>1326</v>
       </c>
       <c r="G203" s="3" t="s">
-        <v>87</v>
+        <v>101</v>
       </c>
     </row>
     <row r="204" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A204" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="B204" t="s">
         <v>38</v>
       </c>
       <c r="C204" t="s">
-        <v>89</v>
+        <v>102</v>
       </c>
       <c r="D204" t="s">
-        <v>88</v>
+        <v>40</v>
       </c>
       <c r="E204">
-        <v>0.127</v>
+        <v>3.9E-2</v>
       </c>
       <c r="F204">
         <f t="shared" si="0"/>
-        <v>7.62</v>
+        <v>2.34</v>
       </c>
       <c r="G204" s="3" t="s">
-        <v>90</v>
+        <v>103</v>
       </c>
     </row>
     <row r="205" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A205" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="B205" t="s">
         <v>38</v>
       </c>
       <c r="C205" t="s">
-        <v>92</v>
+        <v>104</v>
       </c>
       <c r="D205" t="s">
-        <v>91</v>
+        <v>45</v>
       </c>
       <c r="E205">
-        <v>6.13</v>
+        <v>450</v>
       </c>
       <c r="F205">
         <f t="shared" si="0"/>
-        <v>367.8</v>
+        <v>27000</v>
       </c>
       <c r="G205" s="3" t="s">
-        <v>93</v>
+        <v>105</v>
       </c>
     </row>
     <row r="206" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A206" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="B206" t="s">
         <v>38</v>
       </c>
       <c r="C206" t="s">
-        <v>94</v>
+        <v>47</v>
       </c>
       <c r="D206" t="s">
         <v>45</v>
       </c>
       <c r="E206">
-        <v>31</v>
+        <v>182</v>
       </c>
       <c r="F206">
         <f t="shared" si="0"/>
-        <v>1860</v>
+        <v>10920</v>
       </c>
       <c r="G206" s="3" t="s">
-        <v>95</v>
+        <v>48</v>
       </c>
     </row>
     <row r="207" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A207" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="B207" t="s">
         <v>38</v>
       </c>
       <c r="C207" t="s">
-        <v>97</v>
+        <v>41</v>
       </c>
       <c r="D207" t="s">
-        <v>96</v>
+        <v>88</v>
       </c>
       <c r="E207">
-        <v>252</v>
+        <v>345</v>
       </c>
       <c r="F207">
         <f t="shared" si="0"/>
-        <v>15120</v>
+        <v>20700</v>
       </c>
       <c r="G207" s="3" t="s">
-        <v>98</v>
+        <v>106</v>
       </c>
     </row>
     <row r="208" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A208" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="B208" t="s">
         <v>38</v>
       </c>
       <c r="C208" t="s">
-        <v>100</v>
+        <v>43</v>
       </c>
       <c r="D208" t="s">
-        <v>99</v>
+        <v>45</v>
       </c>
       <c r="E208">
-        <v>22.1</v>
+        <v>170</v>
       </c>
       <c r="F208">
         <f t="shared" si="0"/>
-        <v>1326</v>
+        <v>10200</v>
       </c>
       <c r="G208" s="3" t="s">
-        <v>101</v>
+        <v>46</v>
       </c>
     </row>
     <row r="209" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A209" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="B209" t="s">
-        <v>38</v>
+        <v>16</v>
       </c>
       <c r="C209" t="s">
-        <v>102</v>
+        <v>43</v>
       </c>
       <c r="D209" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="E209">
-        <v>3.9E-2</v>
+        <v>170</v>
       </c>
       <c r="F209">
         <f t="shared" si="0"/>
-        <v>2.34</v>
+        <v>10200</v>
       </c>
       <c r="G209" s="3" t="s">
-        <v>103</v>
+        <v>46</v>
       </c>
     </row>
     <row r="210" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A210" t="s">
-        <v>33</v>
+        <v>44</v>
       </c>
       <c r="B210" t="s">
-        <v>38</v>
+        <v>16</v>
       </c>
       <c r="C210" t="s">
-        <v>104</v>
+        <v>47</v>
       </c>
       <c r="D210" t="s">
         <v>45</v>
       </c>
       <c r="E210">
-        <v>450</v>
+        <v>182</v>
       </c>
       <c r="F210">
         <f t="shared" si="0"/>
-        <v>27000</v>
+        <v>10920</v>
       </c>
       <c r="G210" s="3" t="s">
-        <v>105</v>
+        <v>48</v>
       </c>
     </row>
     <row r="211" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A211" t="s">
-        <v>34</v>
+        <v>161</v>
       </c>
       <c r="B211" t="s">
         <v>38</v>
       </c>
       <c r="C211" t="s">
-        <v>47</v>
+        <v>176</v>
       </c>
       <c r="D211" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="E211">
-        <v>182</v>
+        <v>40</v>
       </c>
       <c r="F211">
         <f t="shared" si="0"/>
-        <v>10920</v>
+        <v>2400</v>
       </c>
       <c r="G211" s="3" t="s">
-        <v>48</v>
+        <v>175</v>
       </c>
     </row>
     <row r="212" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A212" t="s">
-        <v>35</v>
+        <v>163</v>
       </c>
       <c r="B212" t="s">
         <v>38</v>
       </c>
       <c r="C212" t="s">
-        <v>41</v>
+        <v>173</v>
       </c>
       <c r="D212" t="s">
         <v>88</v>
       </c>
       <c r="E212">
-        <v>345</v>
+        <v>0.84</v>
       </c>
       <c r="F212">
         <f t="shared" si="0"/>
-        <v>20700</v>
-      </c>
-      <c r="G212" s="3" t="s">
-        <v>106</v>
+        <v>50.4</v>
+      </c>
+      <c r="G212" s="5" t="s">
+        <v>174</v>
       </c>
     </row>
     <row r="213" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A213" t="s">
-        <v>36</v>
+        <v>162</v>
       </c>
       <c r="B213" t="s">
         <v>38</v>
       </c>
       <c r="C213" t="s">
-        <v>43</v>
+        <v>172</v>
       </c>
       <c r="D213" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="E213">
-        <v>170</v>
+        <v>0.55000000000000004</v>
       </c>
       <c r="F213">
         <f t="shared" si="0"/>
-        <v>10200</v>
-      </c>
-      <c r="G213" s="3" t="s">
-        <v>46</v>
+        <v>33</v>
+      </c>
+      <c r="G213" s="6" t="s">
+        <v>171</v>
       </c>
     </row>
     <row r="214" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A214" t="s">
-        <v>37</v>
+        <v>164</v>
       </c>
       <c r="B214" t="s">
-        <v>16</v>
+        <v>38</v>
       </c>
       <c r="C214" t="s">
-        <v>43</v>
+        <v>170</v>
       </c>
       <c r="D214" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="E214">
-        <v>170</v>
+        <v>7.1</v>
       </c>
       <c r="F214">
         <f t="shared" si="0"/>
-        <v>10200</v>
-      </c>
-      <c r="G214" s="3" t="s">
-        <v>46</v>
+        <v>426</v>
+      </c>
+      <c r="G214" s="6" t="s">
+        <v>171</v>
       </c>
     </row>
     <row r="215" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A215" t="s">
-        <v>44</v>
+        <v>182</v>
       </c>
       <c r="B215" t="s">
-        <v>16</v>
+        <v>38</v>
       </c>
       <c r="C215" t="s">
-        <v>47</v>
+        <v>186</v>
       </c>
       <c r="D215" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="E215">
-        <v>182</v>
+        <v>2300</v>
       </c>
       <c r="F215">
         <f t="shared" si="0"/>
-        <v>10920</v>
-      </c>
-      <c r="G215" s="3" t="s">
-        <v>48</v>
+        <v>138000</v>
+      </c>
+      <c r="G215" s="6" t="s">
+        <v>187</v>
       </c>
     </row>
     <row r="216" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A216" t="s">
-        <v>161</v>
+        <v>183</v>
       </c>
       <c r="B216" t="s">
         <v>38</v>
       </c>
       <c r="C216" t="s">
-        <v>176</v>
+        <v>188</v>
       </c>
       <c r="D216" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="E216">
-        <v>40</v>
+        <v>0.22800000000000001</v>
       </c>
       <c r="F216">
         <f t="shared" si="0"/>
-        <v>2400</v>
-      </c>
-      <c r="G216" s="3" t="s">
-        <v>175</v>
+        <v>13.68</v>
+      </c>
+      <c r="G216" s="6" t="s">
+        <v>189</v>
       </c>
     </row>
     <row r="217" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A217" t="s">
-        <v>163</v>
+        <v>184</v>
       </c>
       <c r="B217" t="s">
         <v>38</v>
       </c>
       <c r="C217" t="s">
-        <v>173</v>
+        <v>190</v>
       </c>
       <c r="D217" t="s">
-        <v>88</v>
+        <v>45</v>
       </c>
       <c r="E217">
-        <v>0.84</v>
+        <v>38.6</v>
       </c>
       <c r="F217">
         <f t="shared" si="0"/>
-        <v>50.4</v>
-      </c>
-      <c r="G217" s="5" t="s">
-        <v>174</v>
+        <v>2316</v>
+      </c>
+      <c r="G217" s="6" t="s">
+        <v>191</v>
       </c>
     </row>
     <row r="218" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A218" t="s">
-        <v>162</v>
+        <v>212</v>
       </c>
       <c r="B218" t="s">
         <v>38</v>
       </c>
       <c r="C218" t="s">
-        <v>172</v>
+        <v>213</v>
       </c>
       <c r="D218" t="s">
-        <v>42</v>
+        <v>88</v>
       </c>
       <c r="E218">
-        <v>0.55000000000000004</v>
+        <v>28.3</v>
       </c>
       <c r="F218">
         <f t="shared" si="0"/>
-        <v>33</v>
+        <v>1698</v>
       </c>
       <c r="G218" s="6" t="s">
-        <v>171</v>
+        <v>214</v>
       </c>
     </row>
     <row r="219" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A219" t="s">
-        <v>164</v>
+        <v>215</v>
       </c>
       <c r="B219" t="s">
         <v>38</v>
       </c>
       <c r="C219" t="s">
-        <v>170</v>
+        <v>216</v>
       </c>
       <c r="D219" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="E219">
-        <v>7.1</v>
+        <v>5.7999999999999996E-3</v>
       </c>
       <c r="F219">
         <f t="shared" si="0"/>
-        <v>426</v>
+        <v>0.34799999999999998</v>
       </c>
       <c r="G219" s="6" t="s">
-        <v>171</v>
+        <v>217</v>
       </c>
     </row>
     <row r="220" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A220" t="s">
-        <v>182</v>
+        <v>218</v>
       </c>
       <c r="B220" t="s">
         <v>38</v>
       </c>
       <c r="C220" t="s">
-        <v>186</v>
+        <v>219</v>
       </c>
       <c r="D220" t="s">
-        <v>40</v>
+        <v>88</v>
       </c>
       <c r="E220">
-        <v>2300</v>
+        <v>0.185</v>
       </c>
       <c r="F220">
         <f t="shared" si="0"/>
-        <v>138000</v>
+        <v>11.1</v>
       </c>
       <c r="G220" s="6" t="s">
-        <v>187</v>
+        <v>220</v>
       </c>
     </row>
     <row r="221" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A221" t="s">
-        <v>183</v>
+        <v>224</v>
       </c>
       <c r="B221" t="s">
         <v>38</v>
       </c>
       <c r="C221" t="s">
-        <v>188</v>
+        <v>225</v>
       </c>
       <c r="D221" t="s">
-        <v>45</v>
+        <v>88</v>
       </c>
       <c r="E221">
-        <v>0.22800000000000001</v>
+        <v>133</v>
       </c>
       <c r="F221">
         <f t="shared" si="0"/>
-        <v>13.68</v>
+        <v>7980</v>
       </c>
       <c r="G221" s="6" t="s">
-        <v>189</v>
+        <v>226</v>
       </c>
     </row>
     <row r="222" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A222" t="s">
-        <v>184</v>
+        <v>227</v>
       </c>
       <c r="B222" t="s">
         <v>38</v>
       </c>
       <c r="C222" t="s">
-        <v>190</v>
+        <v>228</v>
       </c>
       <c r="D222" t="s">
         <v>45</v>
       </c>
       <c r="E222">
-        <v>38.6</v>
+        <v>2.2999999999999998</v>
       </c>
       <c r="F222">
         <f t="shared" si="0"/>
-        <v>2316</v>
+        <v>138</v>
       </c>
       <c r="G222" s="6" t="s">
-        <v>191</v>
+        <v>229</v>
       </c>
     </row>
     <row r="223" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A223" t="s">
-        <v>212</v>
+        <v>231</v>
       </c>
       <c r="B223" t="s">
         <v>38</v>
       </c>
       <c r="C223" t="s">
-        <v>213</v>
+        <v>230</v>
       </c>
       <c r="D223" t="s">
-        <v>88</v>
+        <v>45</v>
       </c>
       <c r="E223">
-        <v>28.3</v>
+        <v>1334</v>
       </c>
       <c r="F223">
         <f t="shared" si="0"/>
-        <v>1698</v>
+        <v>80040</v>
       </c>
       <c r="G223" s="6" t="s">
-        <v>214</v>
+        <v>232</v>
       </c>
     </row>
     <row r="224" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A224" t="s">
-        <v>215</v>
+        <v>233</v>
       </c>
       <c r="B224" t="s">
         <v>38</v>
       </c>
       <c r="C224" t="s">
-        <v>216</v>
+        <v>234</v>
       </c>
       <c r="D224" t="s">
         <v>45</v>
       </c>
       <c r="E224">
-        <v>5.7999999999999996E-3</v>
+        <v>220</v>
       </c>
       <c r="F224">
         <f t="shared" si="0"/>
-        <v>0.34799999999999998</v>
+        <v>13200</v>
       </c>
       <c r="G224" s="6" t="s">
-        <v>217</v>
+        <v>235</v>
       </c>
     </row>
     <row r="225" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A225" t="s">
-        <v>218</v>
+        <v>236</v>
       </c>
       <c r="B225" t="s">
         <v>38</v>
       </c>
       <c r="C225" t="s">
-        <v>219</v>
+        <v>237</v>
       </c>
       <c r="D225" t="s">
-        <v>88</v>
+        <v>45</v>
       </c>
       <c r="E225">
-        <v>0.185</v>
+        <v>58.2</v>
       </c>
       <c r="F225">
         <f t="shared" si="0"/>
-        <v>11.1</v>
+        <v>3492</v>
       </c>
       <c r="G225" s="6" t="s">
-        <v>220</v>
+        <v>238</v>
       </c>
     </row>
     <row r="226" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A226" t="s">
-        <v>224</v>
+        <v>399</v>
       </c>
       <c r="B226" t="s">
         <v>38</v>
       </c>
       <c r="C226" t="s">
-        <v>225</v>
+        <v>549</v>
       </c>
       <c r="D226" t="s">
-        <v>88</v>
+        <v>40</v>
       </c>
       <c r="E226">
-        <v>133</v>
+        <v>13.9</v>
       </c>
       <c r="F226">
         <f t="shared" si="0"/>
-        <v>7980</v>
-      </c>
-      <c r="G226" s="6" t="s">
-        <v>226</v>
+        <v>834</v>
+      </c>
+      <c r="G226" s="3" t="s">
+        <v>550</v>
       </c>
     </row>
     <row r="227" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A227" t="s">
-        <v>227</v>
+        <v>400</v>
       </c>
       <c r="B227" t="s">
         <v>38</v>
       </c>
       <c r="C227" t="s">
-        <v>228</v>
+        <v>551</v>
       </c>
       <c r="D227" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="E227">
-        <v>2.2999999999999998</v>
+        <v>3.9</v>
       </c>
       <c r="F227">
         <f t="shared" si="0"/>
-        <v>138</v>
-      </c>
-      <c r="G227" s="6" t="s">
-        <v>229</v>
+        <v>234</v>
+      </c>
+      <c r="G227" s="3" t="s">
+        <v>552</v>
       </c>
     </row>
     <row r="228" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A228" t="s">
-        <v>231</v>
+        <v>401</v>
       </c>
       <c r="B228" t="s">
         <v>38</v>
       </c>
       <c r="C228" t="s">
-        <v>230</v>
+        <v>557</v>
       </c>
       <c r="D228" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="E228">
-        <v>1334</v>
+        <v>430</v>
       </c>
       <c r="F228">
         <f t="shared" si="0"/>
-        <v>80040</v>
-      </c>
-      <c r="G228" s="6" t="s">
-        <v>232</v>
+        <v>25800</v>
+      </c>
+      <c r="G228" s="3" t="s">
+        <v>558</v>
       </c>
     </row>
     <row r="229" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A229" t="s">
-        <v>233</v>
+        <v>402</v>
       </c>
       <c r="B229" t="s">
         <v>38</v>
       </c>
       <c r="C229" t="s">
-        <v>234</v>
+        <v>559</v>
       </c>
       <c r="D229" t="s">
         <v>45</v>
       </c>
       <c r="E229">
-        <v>220</v>
+        <v>26.4</v>
       </c>
       <c r="F229">
         <f t="shared" si="0"/>
-        <v>13200</v>
-      </c>
-      <c r="G229" s="6" t="s">
-        <v>235</v>
+        <v>1584</v>
+      </c>
+      <c r="G229" s="3" t="s">
+        <v>560</v>
       </c>
     </row>
     <row r="230" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A230" t="s">
-        <v>236</v>
+        <v>403</v>
       </c>
       <c r="B230" t="s">
         <v>38</v>
       </c>
       <c r="C230" t="s">
-        <v>237</v>
+        <v>561</v>
       </c>
       <c r="D230" t="s">
-        <v>45</v>
+        <v>88</v>
       </c>
       <c r="E230">
-        <v>58.2</v>
+        <v>19.899999999999999</v>
       </c>
       <c r="F230">
-        <f t="shared" si="0"/>
-        <v>3492</v>
-      </c>
-      <c r="G230" s="6" t="s">
-        <v>238</v>
+        <f>E230*60</f>
+        <v>1194</v>
+      </c>
+      <c r="G230" s="3" t="s">
+        <v>562</v>
       </c>
     </row>
     <row r="231" spans="1:7" x14ac:dyDescent="0.35">
@@ -6242,20 +7205,20 @@
         <v>38</v>
       </c>
       <c r="C231" t="s">
-        <v>554</v>
+        <v>555</v>
       </c>
       <c r="D231" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="E231">
-        <v>13.9</v>
+        <v>7</v>
       </c>
       <c r="F231">
-        <f t="shared" si="0"/>
-        <v>834</v>
+        <f t="shared" ref="F231:F247" si="10">E231*60</f>
+        <v>420</v>
       </c>
       <c r="G231" s="3" t="s">
-        <v>555</v>
+        <v>556</v>
       </c>
     </row>
     <row r="232" spans="1:7" x14ac:dyDescent="0.35">
@@ -6266,20 +7229,20 @@
         <v>38</v>
       </c>
       <c r="C232" t="s">
-        <v>556</v>
+        <v>553</v>
       </c>
       <c r="D232" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="E232">
-        <v>3.9</v>
+        <v>2.9</v>
       </c>
       <c r="F232">
-        <f t="shared" si="0"/>
-        <v>234</v>
+        <f t="shared" si="10"/>
+        <v>174</v>
       </c>
       <c r="G232" s="3" t="s">
-        <v>557</v>
+        <v>554</v>
       </c>
     </row>
     <row r="233" spans="1:7" x14ac:dyDescent="0.35">
@@ -6290,20 +7253,20 @@
         <v>38</v>
       </c>
       <c r="C233" t="s">
-        <v>562</v>
+        <v>478</v>
       </c>
       <c r="D233" t="s">
-        <v>40</v>
+        <v>88</v>
       </c>
       <c r="E233">
-        <v>430</v>
+        <v>3.3</v>
       </c>
       <c r="F233">
-        <f t="shared" si="0"/>
-        <v>25800</v>
+        <f t="shared" si="10"/>
+        <v>198</v>
       </c>
       <c r="G233" s="3" t="s">
-        <v>563</v>
+        <v>479</v>
       </c>
     </row>
     <row r="234" spans="1:7" x14ac:dyDescent="0.35">
@@ -6314,20 +7277,20 @@
         <v>38</v>
       </c>
       <c r="C234" t="s">
+        <v>563</v>
+      </c>
+      <c r="D234" t="s">
+        <v>40</v>
+      </c>
+      <c r="E234">
+        <v>24.9</v>
+      </c>
+      <c r="F234">
+        <f t="shared" si="10"/>
+        <v>1494</v>
+      </c>
+      <c r="G234" s="3" t="s">
         <v>564</v>
-      </c>
-      <c r="D234" t="s">
-        <v>45</v>
-      </c>
-      <c r="E234">
-        <v>26.4</v>
-      </c>
-      <c r="F234">
-        <f t="shared" si="0"/>
-        <v>1584</v>
-      </c>
-      <c r="G234" s="3" t="s">
-        <v>565</v>
       </c>
     </row>
     <row r="235" spans="1:7" x14ac:dyDescent="0.35">
@@ -6338,20 +7301,20 @@
         <v>38</v>
       </c>
       <c r="C235" t="s">
-        <v>566</v>
+        <v>43</v>
       </c>
       <c r="D235" t="s">
-        <v>88</v>
+        <v>45</v>
       </c>
       <c r="E235">
-        <v>19.899999999999999</v>
+        <v>170</v>
       </c>
       <c r="F235">
-        <f>E235*60</f>
-        <v>1194</v>
+        <f t="shared" si="10"/>
+        <v>10200</v>
       </c>
       <c r="G235" s="3" t="s">
-        <v>567</v>
+        <v>46</v>
       </c>
     </row>
     <row r="236" spans="1:7" x14ac:dyDescent="0.35">
@@ -6362,20 +7325,20 @@
         <v>38</v>
       </c>
       <c r="C236" t="s">
-        <v>560</v>
+        <v>494</v>
       </c>
       <c r="D236" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="E236">
-        <v>7</v>
+        <v>5.5</v>
       </c>
       <c r="F236">
-        <f t="shared" ref="F236:F252" si="6">E236*60</f>
-        <v>420</v>
+        <f t="shared" si="10"/>
+        <v>330</v>
       </c>
       <c r="G236" s="3" t="s">
-        <v>561</v>
+        <v>495</v>
       </c>
     </row>
     <row r="237" spans="1:7" x14ac:dyDescent="0.35">
@@ -6386,20 +7349,20 @@
         <v>38</v>
       </c>
       <c r="C237" t="s">
-        <v>558</v>
+        <v>565</v>
       </c>
       <c r="D237" t="s">
-        <v>45</v>
+        <v>210</v>
       </c>
       <c r="E237">
-        <v>2.9</v>
+        <v>26.8</v>
       </c>
       <c r="F237">
-        <f t="shared" si="6"/>
-        <v>174</v>
+        <f t="shared" si="10"/>
+        <v>1608</v>
       </c>
       <c r="G237" s="3" t="s">
-        <v>559</v>
+        <v>566</v>
       </c>
     </row>
     <row r="238" spans="1:7" x14ac:dyDescent="0.35">
@@ -6410,20 +7373,20 @@
         <v>38</v>
       </c>
       <c r="C238" t="s">
-        <v>483</v>
+        <v>567</v>
       </c>
       <c r="D238" t="s">
-        <v>88</v>
+        <v>40</v>
       </c>
       <c r="E238">
-        <v>3.3</v>
+        <v>1.5</v>
       </c>
       <c r="F238">
-        <f t="shared" si="6"/>
-        <v>198</v>
+        <f t="shared" si="10"/>
+        <v>90</v>
       </c>
       <c r="G238" s="3" t="s">
-        <v>484</v>
+        <v>568</v>
       </c>
     </row>
     <row r="239" spans="1:7" x14ac:dyDescent="0.35">
@@ -6434,20 +7397,20 @@
         <v>38</v>
       </c>
       <c r="C239" t="s">
-        <v>568</v>
+        <v>569</v>
       </c>
       <c r="D239" t="s">
-        <v>40</v>
+        <v>570</v>
       </c>
       <c r="E239">
-        <v>24.9</v>
+        <v>0.45</v>
       </c>
       <c r="F239">
-        <f t="shared" si="6"/>
-        <v>1494</v>
+        <f t="shared" si="10"/>
+        <v>27</v>
       </c>
       <c r="G239" s="3" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="240" spans="1:7" x14ac:dyDescent="0.35">
@@ -6458,20 +7421,20 @@
         <v>38</v>
       </c>
       <c r="C240" t="s">
-        <v>43</v>
+        <v>551</v>
       </c>
       <c r="D240" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="E240">
-        <v>170</v>
+        <v>3.9</v>
       </c>
       <c r="F240">
-        <f t="shared" si="6"/>
-        <v>10200</v>
+        <f t="shared" si="10"/>
+        <v>234</v>
       </c>
       <c r="G240" s="3" t="s">
-        <v>46</v>
+        <v>552</v>
       </c>
     </row>
     <row r="241" spans="1:7" x14ac:dyDescent="0.35">
@@ -6482,20 +7445,20 @@
         <v>38</v>
       </c>
       <c r="C241" t="s">
-        <v>499</v>
+        <v>170</v>
       </c>
       <c r="D241" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="E241">
-        <v>5.5</v>
+        <v>7.1</v>
       </c>
       <c r="F241">
-        <f t="shared" si="6"/>
-        <v>330</v>
-      </c>
-      <c r="G241" s="3" t="s">
-        <v>500</v>
+        <f t="shared" si="10"/>
+        <v>426</v>
+      </c>
+      <c r="G241" s="4" t="s">
+        <v>171</v>
       </c>
     </row>
     <row r="242" spans="1:7" x14ac:dyDescent="0.35">
@@ -6506,20 +7469,20 @@
         <v>38</v>
       </c>
       <c r="C242" t="s">
-        <v>570</v>
+        <v>572</v>
       </c>
       <c r="D242" t="s">
-        <v>210</v>
+        <v>449</v>
       </c>
       <c r="E242">
-        <v>26.8</v>
+        <v>410</v>
       </c>
       <c r="F242">
-        <f t="shared" si="6"/>
-        <v>1608</v>
+        <f t="shared" si="10"/>
+        <v>24600</v>
       </c>
       <c r="G242" s="3" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="243" spans="1:7" x14ac:dyDescent="0.35">
@@ -6530,20 +7493,20 @@
         <v>38</v>
       </c>
       <c r="C243" t="s">
-        <v>572</v>
+        <v>198</v>
       </c>
       <c r="D243" t="s">
         <v>40</v>
       </c>
       <c r="E243">
-        <v>1.5</v>
+        <v>5.9709873654656063</v>
       </c>
       <c r="F243">
-        <f t="shared" si="6"/>
-        <v>90</v>
+        <f t="shared" si="10"/>
+        <v>358.25924192793639</v>
       </c>
       <c r="G243" s="3" t="s">
-        <v>573</v>
+        <v>574</v>
       </c>
     </row>
     <row r="244" spans="1:7" x14ac:dyDescent="0.35">
@@ -6554,20 +7517,20 @@
         <v>38</v>
       </c>
       <c r="C244" t="s">
-        <v>574</v>
+        <v>498</v>
       </c>
       <c r="D244" t="s">
-        <v>575</v>
+        <v>88</v>
       </c>
       <c r="E244">
-        <v>0.45</v>
+        <v>8.1999999999999993</v>
       </c>
       <c r="F244">
-        <f t="shared" si="6"/>
-        <v>27</v>
+        <f t="shared" si="10"/>
+        <v>491.99999999999994</v>
       </c>
       <c r="G244" s="3" t="s">
-        <v>576</v>
+        <v>499</v>
       </c>
     </row>
     <row r="245" spans="1:7" x14ac:dyDescent="0.35">
@@ -6578,20 +7541,20 @@
         <v>38</v>
       </c>
       <c r="C245" t="s">
-        <v>556</v>
+        <v>575</v>
       </c>
       <c r="D245" t="s">
-        <v>40</v>
+        <v>76</v>
       </c>
       <c r="E245">
-        <v>3.9</v>
+        <v>1.08</v>
       </c>
       <c r="F245">
-        <f t="shared" si="6"/>
-        <v>234</v>
+        <f t="shared" si="10"/>
+        <v>64.800000000000011</v>
       </c>
       <c r="G245" s="3" t="s">
-        <v>557</v>
+        <v>576</v>
       </c>
     </row>
     <row r="246" spans="1:7" x14ac:dyDescent="0.35">
@@ -6602,20 +7565,20 @@
         <v>38</v>
       </c>
       <c r="C246" t="s">
-        <v>170</v>
+        <v>474</v>
       </c>
       <c r="D246" t="s">
         <v>42</v>
       </c>
       <c r="E246">
-        <v>7.1</v>
+        <v>206</v>
       </c>
       <c r="F246">
-        <f t="shared" si="6"/>
-        <v>426</v>
-      </c>
-      <c r="G246" s="4" t="s">
-        <v>171</v>
+        <f t="shared" si="10"/>
+        <v>12360</v>
+      </c>
+      <c r="G246" s="3" t="s">
+        <v>475</v>
       </c>
     </row>
     <row r="247" spans="1:7" x14ac:dyDescent="0.35">
@@ -6629,14 +7592,14 @@
         <v>577</v>
       </c>
       <c r="D247" t="s">
-        <v>454</v>
+        <v>88</v>
       </c>
       <c r="E247">
-        <v>410</v>
+        <v>1.83</v>
       </c>
       <c r="F247">
-        <f t="shared" si="6"/>
-        <v>24600</v>
+        <f t="shared" si="10"/>
+        <v>109.80000000000001</v>
       </c>
       <c r="G247" s="3" t="s">
         <v>578</v>
@@ -6650,20 +7613,20 @@
         <v>38</v>
       </c>
       <c r="C248" t="s">
-        <v>198</v>
+        <v>494</v>
       </c>
       <c r="D248" t="s">
         <v>40</v>
       </c>
       <c r="E248">
-        <v>5.9709873654656063</v>
+        <v>5.5</v>
       </c>
       <c r="F248">
-        <f t="shared" si="6"/>
-        <v>358.25924192793639</v>
+        <f t="shared" ref="F248:F250" si="11">E248*60</f>
+        <v>330</v>
       </c>
       <c r="G248" s="3" t="s">
-        <v>579</v>
+        <v>495</v>
       </c>
     </row>
     <row r="249" spans="1:7" x14ac:dyDescent="0.35">
@@ -6674,20 +7637,20 @@
         <v>38</v>
       </c>
       <c r="C249" t="s">
-        <v>503</v>
+        <v>579</v>
       </c>
       <c r="D249" t="s">
-        <v>88</v>
+        <v>45</v>
       </c>
       <c r="E249">
-        <v>8.1999999999999993</v>
+        <v>5.6</v>
       </c>
       <c r="F249">
-        <f t="shared" si="6"/>
-        <v>491.99999999999994</v>
+        <f t="shared" si="11"/>
+        <v>336</v>
       </c>
       <c r="G249" s="3" t="s">
-        <v>504</v>
+        <v>580</v>
       </c>
     </row>
     <row r="250" spans="1:7" x14ac:dyDescent="0.35">
@@ -6698,7 +7661,7 @@
         <v>38</v>
       </c>
       <c r="C250" t="s">
-        <v>580</v>
+        <v>575</v>
       </c>
       <c r="D250" t="s">
         <v>76</v>
@@ -6707,11 +7670,11 @@
         <v>1.08</v>
       </c>
       <c r="F250">
-        <f t="shared" si="6"/>
+        <f t="shared" si="11"/>
         <v>64.800000000000011</v>
       </c>
       <c r="G250" s="3" t="s">
-        <v>581</v>
+        <v>576</v>
       </c>
     </row>
     <row r="251" spans="1:7" x14ac:dyDescent="0.35">
@@ -6722,20 +7685,20 @@
         <v>38</v>
       </c>
       <c r="C251" t="s">
-        <v>479</v>
+        <v>494</v>
       </c>
       <c r="D251" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="E251">
-        <v>206</v>
+        <v>5.5</v>
       </c>
       <c r="F251">
-        <f t="shared" si="6"/>
-        <v>12360</v>
+        <f t="shared" ref="F251:F252" si="12">E251*60</f>
+        <v>330</v>
       </c>
       <c r="G251" s="3" t="s">
-        <v>480</v>
+        <v>495</v>
       </c>
     </row>
     <row r="252" spans="1:7" x14ac:dyDescent="0.35">
@@ -6746,20 +7709,20 @@
         <v>38</v>
       </c>
       <c r="C252" t="s">
+        <v>581</v>
+      </c>
+      <c r="D252" t="s">
+        <v>40</v>
+      </c>
+      <c r="E252">
+        <v>11.7</v>
+      </c>
+      <c r="F252">
+        <f t="shared" si="12"/>
+        <v>702</v>
+      </c>
+      <c r="G252" s="3" t="s">
         <v>582</v>
-      </c>
-      <c r="D252" t="s">
-        <v>88</v>
-      </c>
-      <c r="E252">
-        <v>1.83</v>
-      </c>
-      <c r="F252">
-        <f t="shared" si="6"/>
-        <v>109.80000000000001</v>
-      </c>
-      <c r="G252" s="3" t="s">
-        <v>583</v>
       </c>
     </row>
     <row r="253" spans="1:7" x14ac:dyDescent="0.35">
@@ -6770,7 +7733,7 @@
         <v>38</v>
       </c>
       <c r="C253" t="s">
-        <v>499</v>
+        <v>494</v>
       </c>
       <c r="D253" t="s">
         <v>40</v>
@@ -6779,11 +7742,11 @@
         <v>5.5</v>
       </c>
       <c r="F253">
-        <f t="shared" ref="F253:F255" si="7">E253*60</f>
+        <f t="shared" ref="F253:F255" si="13">E253*60</f>
         <v>330</v>
       </c>
       <c r="G253" s="3" t="s">
-        <v>500</v>
+        <v>495</v>
       </c>
     </row>
     <row r="254" spans="1:7" x14ac:dyDescent="0.35">
@@ -6794,20 +7757,20 @@
         <v>38</v>
       </c>
       <c r="C254" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="D254" t="s">
         <v>45</v>
       </c>
       <c r="E254">
-        <v>5.6</v>
+        <v>5.3</v>
       </c>
       <c r="F254">
-        <f t="shared" si="7"/>
-        <v>336</v>
+        <f t="shared" si="13"/>
+        <v>318</v>
       </c>
       <c r="G254" s="3" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
     </row>
     <row r="255" spans="1:7" x14ac:dyDescent="0.35">
@@ -6818,20 +7781,20 @@
         <v>38</v>
       </c>
       <c r="C255" t="s">
-        <v>580</v>
+        <v>585</v>
       </c>
       <c r="D255" t="s">
-        <v>76</v>
+        <v>40</v>
       </c>
       <c r="E255">
-        <v>1.08</v>
+        <v>51.8</v>
       </c>
       <c r="F255">
-        <f t="shared" si="7"/>
-        <v>64.800000000000011</v>
+        <f t="shared" si="13"/>
+        <v>3108</v>
       </c>
       <c r="G255" s="3" t="s">
-        <v>581</v>
+        <v>586</v>
       </c>
     </row>
     <row r="256" spans="1:7" x14ac:dyDescent="0.35">
@@ -6842,7 +7805,7 @@
         <v>38</v>
       </c>
       <c r="C256" t="s">
-        <v>499</v>
+        <v>494</v>
       </c>
       <c r="D256" t="s">
         <v>40</v>
@@ -6851,11 +7814,11 @@
         <v>5.5</v>
       </c>
       <c r="F256">
-        <f t="shared" ref="F256:F257" si="8">E256*60</f>
+        <f t="shared" ref="F256:F260" si="14">E256*60</f>
         <v>330</v>
       </c>
       <c r="G256" s="3" t="s">
-        <v>500</v>
+        <v>495</v>
       </c>
     </row>
     <row r="257" spans="1:7" x14ac:dyDescent="0.35">
@@ -6866,20 +7829,20 @@
         <v>38</v>
       </c>
       <c r="C257" t="s">
-        <v>586</v>
+        <v>172</v>
       </c>
       <c r="D257" t="s">
-        <v>40</v>
+        <v>88</v>
       </c>
       <c r="E257">
-        <v>11.7</v>
+        <v>27.1</v>
       </c>
       <c r="F257">
-        <f t="shared" si="8"/>
-        <v>702</v>
+        <f t="shared" si="14"/>
+        <v>1626</v>
       </c>
       <c r="G257" s="3" t="s">
-        <v>587</v>
+        <v>591</v>
       </c>
     </row>
     <row r="258" spans="1:7" x14ac:dyDescent="0.35">
@@ -6890,20 +7853,20 @@
         <v>38</v>
       </c>
       <c r="C258" t="s">
-        <v>499</v>
+        <v>592</v>
       </c>
       <c r="D258" t="s">
         <v>40</v>
       </c>
       <c r="E258">
-        <v>5.5</v>
+        <v>2.6</v>
       </c>
       <c r="F258">
-        <f t="shared" ref="F258:F260" si="9">E258*60</f>
-        <v>330</v>
+        <f t="shared" si="14"/>
+        <v>156</v>
       </c>
       <c r="G258" s="3" t="s">
-        <v>500</v>
+        <v>593</v>
       </c>
     </row>
     <row r="259" spans="1:7" x14ac:dyDescent="0.35">
@@ -6914,20 +7877,20 @@
         <v>38</v>
       </c>
       <c r="C259" t="s">
-        <v>588</v>
+        <v>170</v>
       </c>
       <c r="D259" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="E259">
-        <v>5.3</v>
+        <v>7.1</v>
       </c>
       <c r="F259">
-        <f t="shared" si="9"/>
-        <v>318</v>
-      </c>
-      <c r="G259" s="3" t="s">
-        <v>589</v>
+        <f t="shared" si="14"/>
+        <v>426</v>
+      </c>
+      <c r="G259" s="4" t="s">
+        <v>171</v>
       </c>
     </row>
     <row r="260" spans="1:7" x14ac:dyDescent="0.35">
@@ -6938,20 +7901,20 @@
         <v>38</v>
       </c>
       <c r="C260" t="s">
-        <v>590</v>
+        <v>448</v>
       </c>
       <c r="D260" t="s">
-        <v>40</v>
+        <v>449</v>
       </c>
       <c r="E260">
-        <v>51.8</v>
+        <v>7.3</v>
       </c>
       <c r="F260">
-        <f t="shared" si="9"/>
-        <v>3108</v>
+        <f t="shared" si="14"/>
+        <v>438</v>
       </c>
       <c r="G260" s="3" t="s">
-        <v>591</v>
+        <v>450</v>
       </c>
     </row>
     <row r="261" spans="1:7" x14ac:dyDescent="0.35">
@@ -6962,20 +7925,16 @@
         <v>38</v>
       </c>
       <c r="C261" t="s">
-        <v>499</v>
+        <v>589</v>
       </c>
       <c r="D261" t="s">
-        <v>40</v>
+        <v>88</v>
       </c>
       <c r="E261">
-        <v>5.5</v>
-      </c>
-      <c r="F261">
-        <f t="shared" ref="F261:F265" si="10">E261*60</f>
-        <v>330</v>
+        <v>6.3</v>
       </c>
       <c r="G261" s="3" t="s">
-        <v>500</v>
+        <v>590</v>
       </c>
     </row>
     <row r="262" spans="1:7" x14ac:dyDescent="0.35">
@@ -6986,20 +7945,16 @@
         <v>38</v>
       </c>
       <c r="C262" t="s">
-        <v>172</v>
+        <v>587</v>
       </c>
       <c r="D262" t="s">
         <v>88</v>
       </c>
       <c r="E262">
-        <v>27.1</v>
-      </c>
-      <c r="F262">
-        <f t="shared" si="10"/>
-        <v>1626</v>
+        <v>1.87</v>
       </c>
       <c r="G262" s="3" t="s">
-        <v>596</v>
+        <v>588</v>
       </c>
     </row>
     <row r="263" spans="1:7" x14ac:dyDescent="0.35">
@@ -7010,20 +7965,20 @@
         <v>38</v>
       </c>
       <c r="C263" t="s">
-        <v>597</v>
+        <v>170</v>
       </c>
       <c r="D263" t="s">
         <v>40</v>
       </c>
       <c r="E263">
-        <v>2.6</v>
+        <v>32</v>
       </c>
       <c r="F263">
-        <f t="shared" si="10"/>
-        <v>156</v>
+        <f t="shared" ref="F263" si="15">E263*60</f>
+        <v>1920</v>
       </c>
       <c r="G263" s="3" t="s">
-        <v>598</v>
+        <v>469</v>
       </c>
     </row>
     <row r="264" spans="1:7" x14ac:dyDescent="0.35">
@@ -7034,225 +7989,113 @@
         <v>38</v>
       </c>
       <c r="C264" t="s">
-        <v>170</v>
+        <v>438</v>
       </c>
       <c r="D264" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="E264">
-        <v>7.1</v>
+        <v>221</v>
       </c>
       <c r="F264">
-        <f t="shared" si="10"/>
-        <v>426</v>
-      </c>
-      <c r="G264" s="4" t="s">
-        <v>171</v>
+        <f t="shared" si="0"/>
+        <v>13260</v>
+      </c>
+      <c r="G264" s="3" t="s">
+        <v>439</v>
       </c>
     </row>
     <row r="265" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A265" t="s">
-        <v>438</v>
+        <v>156</v>
       </c>
       <c r="B265" t="s">
         <v>38</v>
       </c>
       <c r="C265" t="s">
-        <v>453</v>
+        <v>158</v>
       </c>
       <c r="D265" t="s">
-        <v>454</v>
+        <v>45</v>
       </c>
       <c r="E265">
-        <v>7.3</v>
+        <v>7.5</v>
       </c>
       <c r="F265">
-        <f t="shared" si="10"/>
-        <v>438</v>
+        <f t="shared" si="0"/>
+        <v>450</v>
       </c>
       <c r="G265" s="3" t="s">
-        <v>455</v>
+        <v>159</v>
       </c>
     </row>
     <row r="266" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A266" t="s">
-        <v>439</v>
+        <v>157</v>
       </c>
       <c r="B266" t="s">
         <v>38</v>
       </c>
       <c r="C266" t="s">
-        <v>594</v>
+        <v>158</v>
       </c>
       <c r="D266" t="s">
-        <v>88</v>
+        <v>45</v>
       </c>
       <c r="E266">
-        <v>6.3</v>
+        <v>7.5</v>
+      </c>
+      <c r="F266">
+        <f t="shared" si="0"/>
+        <v>450</v>
       </c>
       <c r="G266" s="3" t="s">
-        <v>595</v>
+        <v>159</v>
       </c>
     </row>
     <row r="267" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A267" t="s">
-        <v>440</v>
+        <v>160</v>
       </c>
       <c r="B267" t="s">
-        <v>38</v>
+        <v>16</v>
       </c>
       <c r="C267" t="s">
-        <v>592</v>
+        <v>109</v>
       </c>
       <c r="D267" t="s">
-        <v>88</v>
-      </c>
-      <c r="E267">
-        <v>1.87</v>
-      </c>
-      <c r="G267" s="3" t="s">
-        <v>593</v>
+        <v>109</v>
+      </c>
+      <c r="E267" t="s">
+        <v>109</v>
+      </c>
+      <c r="F267">
+        <v>100</v>
+      </c>
+      <c r="G267" s="2" t="s">
+        <v>114</v>
       </c>
     </row>
     <row r="268" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A268" t="s">
-        <v>441</v>
+        <v>117</v>
       </c>
       <c r="B268" t="s">
-        <v>38</v>
+        <v>16</v>
       </c>
       <c r="C268" t="s">
-        <v>170</v>
+        <v>109</v>
       </c>
       <c r="D268" t="s">
-        <v>40</v>
-      </c>
-      <c r="E268">
-        <v>32</v>
+        <v>109</v>
+      </c>
+      <c r="E268" t="s">
+        <v>109</v>
       </c>
       <c r="F268">
-        <f t="shared" ref="F268" si="11">E268*60</f>
-        <v>1920</v>
-      </c>
-      <c r="G268" s="3" t="s">
-        <v>474</v>
-      </c>
-    </row>
-    <row r="269" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A269" t="s">
-        <v>442</v>
-      </c>
-      <c r="B269" t="s">
-        <v>38</v>
-      </c>
-      <c r="C269" t="s">
-        <v>443</v>
-      </c>
-      <c r="D269" t="s">
-        <v>45</v>
-      </c>
-      <c r="E269">
-        <v>221</v>
-      </c>
-      <c r="F269">
-        <f t="shared" si="0"/>
-        <v>13260</v>
-      </c>
-      <c r="G269" s="3" t="s">
-        <v>444</v>
-      </c>
-    </row>
-    <row r="270" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A270" t="s">
-        <v>156</v>
-      </c>
-      <c r="B270" t="s">
-        <v>38</v>
-      </c>
-      <c r="C270" t="s">
-        <v>158</v>
-      </c>
-      <c r="D270" t="s">
-        <v>45</v>
-      </c>
-      <c r="E270">
-        <v>7.5</v>
-      </c>
-      <c r="F270">
-        <f t="shared" si="0"/>
-        <v>450</v>
-      </c>
-      <c r="G270" s="3" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="271" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A271" t="s">
-        <v>157</v>
-      </c>
-      <c r="B271" t="s">
-        <v>38</v>
-      </c>
-      <c r="C271" t="s">
-        <v>158</v>
-      </c>
-      <c r="D271" t="s">
-        <v>45</v>
-      </c>
-      <c r="E271">
-        <v>7.5</v>
-      </c>
-      <c r="F271">
-        <f t="shared" si="0"/>
-        <v>450</v>
-      </c>
-      <c r="G271" s="3" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="272" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A272" t="s">
-        <v>160</v>
-      </c>
-      <c r="B272" t="s">
-        <v>16</v>
-      </c>
-      <c r="C272" t="s">
-        <v>109</v>
-      </c>
-      <c r="D272" t="s">
-        <v>109</v>
-      </c>
-      <c r="E272" t="s">
-        <v>109</v>
-      </c>
-      <c r="F272">
-        <v>100</v>
-      </c>
-      <c r="G272" s="2" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="273" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A273" t="s">
-        <v>117</v>
-      </c>
-      <c r="B273" t="s">
-        <v>16</v>
-      </c>
-      <c r="C273" t="s">
-        <v>109</v>
-      </c>
-      <c r="D273" t="s">
-        <v>109</v>
-      </c>
-      <c r="E273" t="s">
-        <v>109</v>
-      </c>
-      <c r="F273">
         <v>50</v>
       </c>
-      <c r="G273" s="2" t="s">
+      <c r="G268" s="2" t="s">
         <v>114</v>
       </c>
     </row>
@@ -7260,8 +8103,8 @@
   <hyperlinks>
     <hyperlink ref="G20" r:id="rId1" xr:uid="{60D2E9C6-9172-4D4D-B418-CC567356E033}"/>
     <hyperlink ref="G2" r:id="rId2" xr:uid="{96642BA6-12F8-4451-8DFA-16265959FEFA}"/>
-    <hyperlink ref="G219" r:id="rId3" xr:uid="{DBD518FF-06AA-4F59-B32D-3D580FD3488C}"/>
-    <hyperlink ref="G218" r:id="rId4" xr:uid="{3C873BD8-C205-4B23-B8F2-C8E28D105704}"/>
+    <hyperlink ref="G214" r:id="rId3" xr:uid="{DBD518FF-06AA-4F59-B32D-3D580FD3488C}"/>
+    <hyperlink ref="G213" r:id="rId4" xr:uid="{3C873BD8-C205-4B23-B8F2-C8E28D105704}"/>
     <hyperlink ref="G30" r:id="rId5" xr:uid="{3CCDC09F-65EC-46AB-A5B6-06698DF90FD6}"/>
     <hyperlink ref="G31" r:id="rId6" xr:uid="{45B7FFC2-C775-45F6-B5E2-92E39C1EFAC1}"/>
     <hyperlink ref="G34" r:id="rId7" xr:uid="{C0F23788-2A31-4EA5-B6D6-A12E3C45A7E7}"/>
@@ -7270,11 +8113,14 @@
     <hyperlink ref="G77" r:id="rId10" xr:uid="{6C3143F8-EECE-493B-A808-BC8B1FB906E4}"/>
     <hyperlink ref="G82" r:id="rId11" xr:uid="{5F7C4001-6F89-479B-983C-BDB24868961F}"/>
     <hyperlink ref="G88" r:id="rId12" xr:uid="{B65497F5-375F-4E2A-86C4-B4310250B40D}"/>
-    <hyperlink ref="G246" r:id="rId13" xr:uid="{B850A642-752F-4050-BE9D-FD6DEF1A1A28}"/>
-    <hyperlink ref="G264" r:id="rId14" xr:uid="{733CCEAC-FE6D-4E5A-890C-C556E3FD7098}"/>
+    <hyperlink ref="G241" r:id="rId13" xr:uid="{B850A642-752F-4050-BE9D-FD6DEF1A1A28}"/>
+    <hyperlink ref="G259" r:id="rId14" xr:uid="{733CCEAC-FE6D-4E5A-890C-C556E3FD7098}"/>
+    <hyperlink ref="G122" r:id="rId15" xr:uid="{3ACF0FFB-BCF3-4FD6-9FD5-CA9D90101625}"/>
+    <hyperlink ref="G172" r:id="rId16" xr:uid="{1167C813-88FC-4ED1-BAC3-35562E39F6B3}"/>
+    <hyperlink ref="G141" r:id="rId17" xr:uid="{0AC60904-9B6C-42FC-A0D6-DCDFCFACCDB7}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId15"/>
+  <pageSetup orientation="portrait" r:id="rId18"/>
 </worksheet>
 </file>
 

--- a/data/gems/Parameters.xlsx
+++ b/data/gems/Parameters.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bras5181\Desktop\Labprojects\CulturedMeat\iSusS\data\gems\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BE03BED5-4C15-4865-A583-B94C69F06502}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D60AB6F4-8BD8-4A35-8EDE-9DBBA59D4DA4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1291" uniqueCount="648">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1327" uniqueCount="665">
   <si>
     <t>Rxn</t>
   </si>
@@ -1107,9 +1107,6 @@
     <t>ACYP</t>
   </si>
   <si>
-    <t>ETOHMO</t>
-  </si>
-  <si>
     <t>ALDD2x</t>
   </si>
   <si>
@@ -1119,9 +1116,6 @@
     <t>PEPCK_re</t>
   </si>
   <si>
-    <t>DPGase</t>
-  </si>
-  <si>
     <t>RBK</t>
   </si>
   <si>
@@ -1155,9 +1149,6 @@
     <t>GLUDC</t>
   </si>
   <si>
-    <t>CACNAO</t>
-  </si>
-  <si>
     <t>LFORKYNHYD</t>
   </si>
   <si>
@@ -1981,6 +1972,66 @@
   </si>
   <si>
     <t>DOI: 10.1042/bj1910619</t>
+  </si>
+  <si>
+    <t>1.1.1.1</t>
+  </si>
+  <si>
+    <t>DOI: 10.1016/s0076-6879(75)41082-5</t>
+  </si>
+  <si>
+    <t>2.7.1.15</t>
+  </si>
+  <si>
+    <t>PMID: 13295274</t>
+  </si>
+  <si>
+    <t>6.3.4.5</t>
+  </si>
+  <si>
+    <t>DOI: 10.1021/bi00591a015</t>
+  </si>
+  <si>
+    <t>2.4.2.14</t>
+  </si>
+  <si>
+    <t>PMID: 447621</t>
+  </si>
+  <si>
+    <t>6.3.5.3</t>
+  </si>
+  <si>
+    <t>DOI: 10.1021/bi00356a061</t>
+  </si>
+  <si>
+    <t>6.3.3.1</t>
+  </si>
+  <si>
+    <t>DOI: 10.1021/bi00363a027</t>
+  </si>
+  <si>
+    <t>4.3.2.2</t>
+  </si>
+  <si>
+    <t>DOI: 10.1016/j.bbapap.2013.05.013</t>
+  </si>
+  <si>
+    <t>6.3.4.4</t>
+  </si>
+  <si>
+    <t>DOI: 10.1016/0005-2744(80)90151-5</t>
+  </si>
+  <si>
+    <t>6.3.5.2</t>
+  </si>
+  <si>
+    <t>DOI: 10.1006/prep.1995.1065</t>
+  </si>
+  <si>
+    <t>4.1.1.15</t>
+  </si>
+  <si>
+    <t>DOI: 10.1016/s0141-0229(00)00154-x</t>
   </si>
 </sst>
 </file>
@@ -2327,10 +2378,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G268"/>
+  <dimension ref="A1:G265"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A140" workbookViewId="0">
-      <selection activeCell="K156" sqref="K156"/>
+    <sheetView tabSelected="1" topLeftCell="A154" workbookViewId="0">
+      <selection activeCell="M162" sqref="M162"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2518,7 +2569,7 @@
         <v>620</v>
       </c>
       <c r="F8">
-        <f t="shared" ref="F8:F266" si="0">E8*60</f>
+        <f t="shared" ref="F8:F263" si="0">E8*60</f>
         <v>37200</v>
       </c>
       <c r="G8" s="3" t="s">
@@ -3253,7 +3304,7 @@
         <v>16</v>
       </c>
       <c r="C39" t="s">
-        <v>440</v>
+        <v>437</v>
       </c>
       <c r="D39" t="s">
         <v>88</v>
@@ -3266,7 +3317,7 @@
         <v>816</v>
       </c>
       <c r="G39" s="3" t="s">
-        <v>441</v>
+        <v>438</v>
       </c>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.35">
@@ -3277,7 +3328,7 @@
         <v>16</v>
       </c>
       <c r="C40" t="s">
-        <v>442</v>
+        <v>439</v>
       </c>
       <c r="D40" t="s">
         <v>45</v>
@@ -3290,7 +3341,7 @@
         <v>227.34</v>
       </c>
       <c r="G40" s="3" t="s">
-        <v>443</v>
+        <v>440</v>
       </c>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.35">
@@ -3301,7 +3352,7 @@
         <v>16</v>
       </c>
       <c r="C41" t="s">
-        <v>444</v>
+        <v>441</v>
       </c>
       <c r="D41" t="s">
         <v>45</v>
@@ -3314,7 +3365,7 @@
         <v>184.14</v>
       </c>
       <c r="G41" s="3" t="s">
-        <v>445</v>
+        <v>442</v>
       </c>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.35">
@@ -3325,7 +3376,7 @@
         <v>16</v>
       </c>
       <c r="C42" t="s">
-        <v>446</v>
+        <v>443</v>
       </c>
       <c r="D42" t="s">
         <v>45</v>
@@ -3338,7 +3389,7 @@
         <v>124.80000000000001</v>
       </c>
       <c r="G42" s="3" t="s">
-        <v>447</v>
+        <v>444</v>
       </c>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.35">
@@ -3349,10 +3400,10 @@
         <v>16</v>
       </c>
       <c r="C43" t="s">
-        <v>448</v>
+        <v>445</v>
       </c>
       <c r="D43" t="s">
-        <v>449</v>
+        <v>446</v>
       </c>
       <c r="E43">
         <v>7.3</v>
@@ -3362,7 +3413,7 @@
         <v>438</v>
       </c>
       <c r="G43" s="3" t="s">
-        <v>450</v>
+        <v>447</v>
       </c>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.35">
@@ -3397,7 +3448,7 @@
         <v>16</v>
       </c>
       <c r="C45" t="s">
-        <v>451</v>
+        <v>448</v>
       </c>
       <c r="D45" t="s">
         <v>45</v>
@@ -3410,7 +3461,7 @@
         <v>4098</v>
       </c>
       <c r="G45" s="1" t="s">
-        <v>452</v>
+        <v>449</v>
       </c>
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.35">
@@ -3421,7 +3472,7 @@
         <v>16</v>
       </c>
       <c r="C46" t="s">
-        <v>453</v>
+        <v>450</v>
       </c>
       <c r="D46" t="s">
         <v>40</v>
@@ -3434,7 +3485,7 @@
         <v>24600</v>
       </c>
       <c r="G46" s="3" t="s">
-        <v>454</v>
+        <v>451</v>
       </c>
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.35">
@@ -3445,7 +3496,7 @@
         <v>16</v>
       </c>
       <c r="C47" t="s">
-        <v>455</v>
+        <v>452</v>
       </c>
       <c r="D47" t="s">
         <v>40</v>
@@ -3458,7 +3509,7 @@
         <v>1255.9199999999998</v>
       </c>
       <c r="G47" s="3" t="s">
-        <v>456</v>
+        <v>453</v>
       </c>
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.35">
@@ -3469,7 +3520,7 @@
         <v>16</v>
       </c>
       <c r="C48" t="s">
-        <v>457</v>
+        <v>454</v>
       </c>
       <c r="D48" t="s">
         <v>40</v>
@@ -3482,7 +3533,7 @@
         <v>618</v>
       </c>
       <c r="G48" s="3" t="s">
-        <v>458</v>
+        <v>455</v>
       </c>
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.35">
@@ -3493,7 +3544,7 @@
         <v>16</v>
       </c>
       <c r="C49" t="s">
-        <v>459</v>
+        <v>456</v>
       </c>
       <c r="D49" t="s">
         <v>40</v>
@@ -3506,7 +3557,7 @@
         <v>105.6</v>
       </c>
       <c r="G49" s="3" t="s">
-        <v>460</v>
+        <v>457</v>
       </c>
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.35">
@@ -3517,7 +3568,7 @@
         <v>16</v>
       </c>
       <c r="C50" t="s">
-        <v>461</v>
+        <v>458</v>
       </c>
       <c r="D50" t="s">
         <v>45</v>
@@ -3530,7 +3581,7 @@
         <v>1.962</v>
       </c>
       <c r="G50" s="3" t="s">
-        <v>462</v>
+        <v>459</v>
       </c>
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.35">
@@ -3541,7 +3592,7 @@
         <v>16</v>
       </c>
       <c r="C51" t="s">
-        <v>463</v>
+        <v>460</v>
       </c>
       <c r="D51" t="s">
         <v>40</v>
@@ -3554,7 +3605,7 @@
         <v>21001.199999999997</v>
       </c>
       <c r="G51" s="3" t="s">
-        <v>464</v>
+        <v>461</v>
       </c>
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.35">
@@ -3565,7 +3616,7 @@
         <v>16</v>
       </c>
       <c r="C52" t="s">
-        <v>465</v>
+        <v>462</v>
       </c>
       <c r="D52" t="s">
         <v>45</v>
@@ -3578,7 +3629,7 @@
         <v>0.14399999999999999</v>
       </c>
       <c r="G52" s="3" t="s">
-        <v>466</v>
+        <v>463</v>
       </c>
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.35">
@@ -3589,7 +3640,7 @@
         <v>16</v>
       </c>
       <c r="C53" t="s">
-        <v>459</v>
+        <v>456</v>
       </c>
       <c r="D53" t="s">
         <v>40</v>
@@ -3602,7 +3653,7 @@
         <v>105.6</v>
       </c>
       <c r="G53" s="3" t="s">
-        <v>460</v>
+        <v>457</v>
       </c>
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.35">
@@ -3613,7 +3664,7 @@
         <v>16</v>
       </c>
       <c r="C54" t="s">
-        <v>446</v>
+        <v>443</v>
       </c>
       <c r="D54" t="s">
         <v>45</v>
@@ -3626,7 +3677,7 @@
         <v>124.80000000000001</v>
       </c>
       <c r="G54" s="3" t="s">
-        <v>447</v>
+        <v>444</v>
       </c>
     </row>
     <row r="55" spans="1:7" x14ac:dyDescent="0.35">
@@ -3637,7 +3688,7 @@
         <v>16</v>
       </c>
       <c r="C55" t="s">
-        <v>467</v>
+        <v>464</v>
       </c>
       <c r="D55" t="s">
         <v>45</v>
@@ -3650,7 +3701,7 @@
         <v>8280</v>
       </c>
       <c r="G55" s="3" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
     </row>
     <row r="56" spans="1:7" x14ac:dyDescent="0.35">
@@ -3661,7 +3712,7 @@
         <v>16</v>
       </c>
       <c r="C56" t="s">
-        <v>446</v>
+        <v>443</v>
       </c>
       <c r="D56" t="s">
         <v>45</v>
@@ -3674,7 +3725,7 @@
         <v>124.80000000000001</v>
       </c>
       <c r="G56" s="3" t="s">
-        <v>447</v>
+        <v>444</v>
       </c>
     </row>
     <row r="57" spans="1:7" x14ac:dyDescent="0.35">
@@ -3698,7 +3749,7 @@
         <v>1920</v>
       </c>
       <c r="G57" s="3" t="s">
-        <v>469</v>
+        <v>466</v>
       </c>
     </row>
     <row r="58" spans="1:7" x14ac:dyDescent="0.35">
@@ -3709,7 +3760,7 @@
         <v>16</v>
       </c>
       <c r="C58" t="s">
-        <v>444</v>
+        <v>441</v>
       </c>
       <c r="D58" t="s">
         <v>45</v>
@@ -3722,7 +3773,7 @@
         <v>184.14</v>
       </c>
       <c r="G58" s="3" t="s">
-        <v>445</v>
+        <v>442</v>
       </c>
     </row>
     <row r="59" spans="1:7" x14ac:dyDescent="0.35">
@@ -3733,7 +3784,7 @@
         <v>16</v>
       </c>
       <c r="C59" t="s">
-        <v>470</v>
+        <v>467</v>
       </c>
       <c r="D59" t="s">
         <v>42</v>
@@ -3746,7 +3797,7 @@
         <v>0.39479999999999998</v>
       </c>
       <c r="G59" s="3" t="s">
-        <v>471</v>
+        <v>468</v>
       </c>
     </row>
     <row r="60" spans="1:7" x14ac:dyDescent="0.35">
@@ -3757,7 +3808,7 @@
         <v>16</v>
       </c>
       <c r="C60" t="s">
-        <v>472</v>
+        <v>469</v>
       </c>
       <c r="D60" t="s">
         <v>45</v>
@@ -3770,7 +3821,7 @@
         <v>0.12</v>
       </c>
       <c r="G60" s="3" t="s">
-        <v>473</v>
+        <v>470</v>
       </c>
     </row>
     <row r="61" spans="1:7" x14ac:dyDescent="0.35">
@@ -3781,7 +3832,7 @@
         <v>16</v>
       </c>
       <c r="C61" t="s">
-        <v>474</v>
+        <v>471</v>
       </c>
       <c r="D61" t="s">
         <v>42</v>
@@ -3794,7 +3845,7 @@
         <v>12360</v>
       </c>
       <c r="G61" s="3" t="s">
-        <v>475</v>
+        <v>472</v>
       </c>
     </row>
     <row r="62" spans="1:7" x14ac:dyDescent="0.35">
@@ -3805,7 +3856,7 @@
         <v>16</v>
       </c>
       <c r="C62" t="s">
-        <v>476</v>
+        <v>473</v>
       </c>
       <c r="D62" t="s">
         <v>88</v>
@@ -3818,7 +3869,7 @@
         <v>3.516</v>
       </c>
       <c r="G62" s="3" t="s">
-        <v>477</v>
+        <v>474</v>
       </c>
     </row>
     <row r="63" spans="1:7" x14ac:dyDescent="0.35">
@@ -3829,7 +3880,7 @@
         <v>16</v>
       </c>
       <c r="C63" t="s">
-        <v>478</v>
+        <v>475</v>
       </c>
       <c r="D63" t="s">
         <v>88</v>
@@ -3842,7 +3893,7 @@
         <v>198</v>
       </c>
       <c r="G63" s="3" t="s">
-        <v>479</v>
+        <v>476</v>
       </c>
     </row>
     <row r="64" spans="1:7" x14ac:dyDescent="0.35">
@@ -3853,7 +3904,7 @@
         <v>16</v>
       </c>
       <c r="C64" t="s">
-        <v>480</v>
+        <v>477</v>
       </c>
       <c r="D64" t="s">
         <v>45</v>
@@ -3866,7 +3917,7 @@
         <v>3060</v>
       </c>
       <c r="G64" s="3" t="s">
-        <v>481</v>
+        <v>478</v>
       </c>
     </row>
     <row r="65" spans="1:7" x14ac:dyDescent="0.35">
@@ -3877,7 +3928,7 @@
         <v>16</v>
       </c>
       <c r="C65" t="s">
-        <v>482</v>
+        <v>479</v>
       </c>
       <c r="D65" t="s">
         <v>40</v>
@@ -3890,7 +3941,7 @@
         <v>8220</v>
       </c>
       <c r="G65" s="3" t="s">
-        <v>483</v>
+        <v>480</v>
       </c>
     </row>
     <row r="66" spans="1:7" x14ac:dyDescent="0.35">
@@ -3901,7 +3952,7 @@
         <v>16</v>
       </c>
       <c r="C66" t="s">
-        <v>484</v>
+        <v>481</v>
       </c>
       <c r="D66" t="s">
         <v>45</v>
@@ -3914,7 +3965,7 @@
         <v>6.4199999999999993E-2</v>
       </c>
       <c r="G66" s="1" t="s">
-        <v>485</v>
+        <v>482</v>
       </c>
     </row>
     <row r="67" spans="1:7" x14ac:dyDescent="0.35">
@@ -3925,7 +3976,7 @@
         <v>16</v>
       </c>
       <c r="C67" t="s">
-        <v>486</v>
+        <v>483</v>
       </c>
       <c r="D67" t="s">
         <v>88</v>
@@ -3938,7 +3989,7 @@
         <v>59340</v>
       </c>
       <c r="G67" s="3" t="s">
-        <v>487</v>
+        <v>484</v>
       </c>
     </row>
     <row r="68" spans="1:7" x14ac:dyDescent="0.35">
@@ -3949,7 +4000,7 @@
         <v>16</v>
       </c>
       <c r="C68" t="s">
-        <v>488</v>
+        <v>485</v>
       </c>
       <c r="D68" t="s">
         <v>45</v>
@@ -3962,7 +4013,7 @@
         <v>18.600000000000001</v>
       </c>
       <c r="G68" s="3" t="s">
-        <v>489</v>
+        <v>486</v>
       </c>
     </row>
     <row r="69" spans="1:7" x14ac:dyDescent="0.35">
@@ -3973,7 +4024,7 @@
         <v>16</v>
       </c>
       <c r="C69" t="s">
-        <v>490</v>
+        <v>487</v>
       </c>
       <c r="D69" t="s">
         <v>40</v>
@@ -3986,7 +4037,7 @@
         <v>2760</v>
       </c>
       <c r="G69" s="3" t="s">
-        <v>491</v>
+        <v>488</v>
       </c>
     </row>
     <row r="70" spans="1:7" x14ac:dyDescent="0.35">
@@ -3997,7 +4048,7 @@
         <v>16</v>
       </c>
       <c r="C70" t="s">
-        <v>492</v>
+        <v>489</v>
       </c>
       <c r="D70" t="s">
         <v>45</v>
@@ -4010,7 +4061,7 @@
         <v>48.959999999999994</v>
       </c>
       <c r="G70" s="3" t="s">
-        <v>493</v>
+        <v>490</v>
       </c>
     </row>
     <row r="71" spans="1:7" x14ac:dyDescent="0.35">
@@ -4021,7 +4072,7 @@
         <v>16</v>
       </c>
       <c r="C71" t="s">
-        <v>494</v>
+        <v>491</v>
       </c>
       <c r="D71" t="s">
         <v>40</v>
@@ -4034,7 +4085,7 @@
         <v>330</v>
       </c>
       <c r="G71" s="3" t="s">
-        <v>495</v>
+        <v>492</v>
       </c>
     </row>
     <row r="72" spans="1:7" x14ac:dyDescent="0.35">
@@ -4045,7 +4096,7 @@
         <v>16</v>
       </c>
       <c r="C72" t="s">
-        <v>490</v>
+        <v>487</v>
       </c>
       <c r="D72" t="s">
         <v>40</v>
@@ -4058,7 +4109,7 @@
         <v>2760</v>
       </c>
       <c r="G72" s="3" t="s">
-        <v>491</v>
+        <v>488</v>
       </c>
     </row>
     <row r="73" spans="1:7" x14ac:dyDescent="0.35">
@@ -4069,7 +4120,7 @@
         <v>16</v>
       </c>
       <c r="C73" t="s">
-        <v>496</v>
+        <v>493</v>
       </c>
       <c r="D73" t="s">
         <v>147</v>
@@ -4082,7 +4133,7 @@
         <v>4260</v>
       </c>
       <c r="G73" s="3" t="s">
-        <v>497</v>
+        <v>494</v>
       </c>
     </row>
     <row r="74" spans="1:7" x14ac:dyDescent="0.35">
@@ -4093,7 +4144,7 @@
         <v>16</v>
       </c>
       <c r="C74" t="s">
-        <v>444</v>
+        <v>441</v>
       </c>
       <c r="D74" t="s">
         <v>45</v>
@@ -4106,7 +4157,7 @@
         <v>184.14</v>
       </c>
       <c r="G74" s="3" t="s">
-        <v>445</v>
+        <v>442</v>
       </c>
     </row>
     <row r="75" spans="1:7" x14ac:dyDescent="0.35">
@@ -4117,7 +4168,7 @@
         <v>16</v>
       </c>
       <c r="C75" t="s">
-        <v>498</v>
+        <v>495</v>
       </c>
       <c r="D75" t="s">
         <v>88</v>
@@ -4130,7 +4181,7 @@
         <v>29.4</v>
       </c>
       <c r="G75" s="3" t="s">
-        <v>499</v>
+        <v>496</v>
       </c>
     </row>
     <row r="76" spans="1:7" x14ac:dyDescent="0.35">
@@ -4141,7 +4192,7 @@
         <v>16</v>
       </c>
       <c r="C76" t="s">
-        <v>490</v>
+        <v>487</v>
       </c>
       <c r="D76" t="s">
         <v>40</v>
@@ -4154,7 +4205,7 @@
         <v>2760</v>
       </c>
       <c r="G76" s="3" t="s">
-        <v>491</v>
+        <v>488</v>
       </c>
     </row>
     <row r="77" spans="1:7" x14ac:dyDescent="0.35">
@@ -4165,7 +4216,7 @@
         <v>16</v>
       </c>
       <c r="C77" t="s">
-        <v>484</v>
+        <v>481</v>
       </c>
       <c r="D77" t="s">
         <v>45</v>
@@ -4178,7 +4229,7 @@
         <v>6.4199999999999993E-2</v>
       </c>
       <c r="G77" s="1" t="s">
-        <v>485</v>
+        <v>482</v>
       </c>
     </row>
     <row r="78" spans="1:7" x14ac:dyDescent="0.35">
@@ -4189,7 +4240,7 @@
         <v>16</v>
       </c>
       <c r="C78" t="s">
-        <v>446</v>
+        <v>443</v>
       </c>
       <c r="D78" t="s">
         <v>45</v>
@@ -4202,7 +4253,7 @@
         <v>124.80000000000001</v>
       </c>
       <c r="G78" s="3" t="s">
-        <v>447</v>
+        <v>444</v>
       </c>
     </row>
     <row r="79" spans="1:7" x14ac:dyDescent="0.35">
@@ -4213,7 +4264,7 @@
         <v>16</v>
       </c>
       <c r="C79" t="s">
-        <v>500</v>
+        <v>497</v>
       </c>
       <c r="D79" t="s">
         <v>40</v>
@@ -4226,7 +4277,7 @@
         <v>196.27339572192511</v>
       </c>
       <c r="G79" s="3" t="s">
-        <v>501</v>
+        <v>498</v>
       </c>
     </row>
     <row r="80" spans="1:7" x14ac:dyDescent="0.35">
@@ -4237,7 +4288,7 @@
         <v>16</v>
       </c>
       <c r="C80" t="s">
-        <v>502</v>
+        <v>499</v>
       </c>
       <c r="D80" t="s">
         <v>42</v>
@@ -4250,7 +4301,7 @@
         <v>306</v>
       </c>
       <c r="G80" s="3" t="s">
-        <v>503</v>
+        <v>500</v>
       </c>
     </row>
     <row r="81" spans="1:7" x14ac:dyDescent="0.35">
@@ -4261,7 +4312,7 @@
         <v>16</v>
       </c>
       <c r="C81" t="s">
-        <v>504</v>
+        <v>501</v>
       </c>
       <c r="D81" t="s">
         <v>40</v>
@@ -4274,7 +4325,7 @@
         <v>282</v>
       </c>
       <c r="G81" s="3" t="s">
-        <v>505</v>
+        <v>502</v>
       </c>
     </row>
     <row r="82" spans="1:7" x14ac:dyDescent="0.35">
@@ -4285,7 +4336,7 @@
         <v>16</v>
       </c>
       <c r="C82" t="s">
-        <v>484</v>
+        <v>481</v>
       </c>
       <c r="D82" t="s">
         <v>45</v>
@@ -4298,7 +4349,7 @@
         <v>6.4199999999999993E-2</v>
       </c>
       <c r="G82" s="1" t="s">
-        <v>485</v>
+        <v>482</v>
       </c>
     </row>
     <row r="83" spans="1:7" x14ac:dyDescent="0.35">
@@ -4309,7 +4360,7 @@
         <v>16</v>
       </c>
       <c r="C83" t="s">
-        <v>504</v>
+        <v>501</v>
       </c>
       <c r="D83" t="s">
         <v>40</v>
@@ -4322,7 +4373,7 @@
         <v>282</v>
       </c>
       <c r="G83" s="3" t="s">
-        <v>505</v>
+        <v>502</v>
       </c>
     </row>
     <row r="84" spans="1:7" x14ac:dyDescent="0.35">
@@ -4333,10 +4384,10 @@
         <v>16</v>
       </c>
       <c r="C84" t="s">
-        <v>506</v>
+        <v>503</v>
       </c>
       <c r="D84" t="s">
-        <v>507</v>
+        <v>504</v>
       </c>
       <c r="E84">
         <v>8.75</v>
@@ -4346,7 +4397,7 @@
         <v>525</v>
       </c>
       <c r="G84" s="3" t="s">
-        <v>508</v>
+        <v>505</v>
       </c>
     </row>
     <row r="85" spans="1:7" x14ac:dyDescent="0.35">
@@ -4357,10 +4408,10 @@
         <v>16</v>
       </c>
       <c r="C85" t="s">
-        <v>506</v>
+        <v>503</v>
       </c>
       <c r="D85" t="s">
-        <v>507</v>
+        <v>504</v>
       </c>
       <c r="E85">
         <v>21</v>
@@ -4370,7 +4421,7 @@
         <v>1260</v>
       </c>
       <c r="G85" s="3" t="s">
-        <v>508</v>
+        <v>505</v>
       </c>
     </row>
     <row r="86" spans="1:7" x14ac:dyDescent="0.35">
@@ -4381,10 +4432,10 @@
         <v>16</v>
       </c>
       <c r="C86" t="s">
-        <v>506</v>
+        <v>503</v>
       </c>
       <c r="D86" t="s">
-        <v>507</v>
+        <v>504</v>
       </c>
       <c r="E86">
         <v>9.3800000000000008</v>
@@ -4394,7 +4445,7 @@
         <v>562.80000000000007</v>
       </c>
       <c r="G86" s="3" t="s">
-        <v>508</v>
+        <v>505</v>
       </c>
     </row>
     <row r="87" spans="1:7" x14ac:dyDescent="0.35">
@@ -4405,10 +4456,10 @@
         <v>16</v>
       </c>
       <c r="C87" t="s">
-        <v>509</v>
+        <v>506</v>
       </c>
       <c r="D87" t="s">
-        <v>507</v>
+        <v>504</v>
       </c>
       <c r="E87">
         <v>0.114</v>
@@ -4418,7 +4469,7 @@
         <v>6.84</v>
       </c>
       <c r="G87" s="3" t="s">
-        <v>510</v>
+        <v>507</v>
       </c>
     </row>
     <row r="88" spans="1:7" x14ac:dyDescent="0.35">
@@ -4429,7 +4480,7 @@
         <v>16</v>
       </c>
       <c r="C88" t="s">
-        <v>511</v>
+        <v>508</v>
       </c>
       <c r="D88" t="s">
         <v>45</v>
@@ -4442,7 +4493,7 @@
         <v>58.8</v>
       </c>
       <c r="G88" s="1" t="s">
-        <v>512</v>
+        <v>509</v>
       </c>
     </row>
     <row r="89" spans="1:7" x14ac:dyDescent="0.35">
@@ -4453,7 +4504,7 @@
         <v>16</v>
       </c>
       <c r="C89" t="s">
-        <v>482</v>
+        <v>479</v>
       </c>
       <c r="D89" t="s">
         <v>40</v>
@@ -4466,7 +4517,7 @@
         <v>8220</v>
       </c>
       <c r="G89" s="3" t="s">
-        <v>483</v>
+        <v>480</v>
       </c>
     </row>
     <row r="90" spans="1:7" x14ac:dyDescent="0.35">
@@ -4477,7 +4528,7 @@
         <v>16</v>
       </c>
       <c r="C90" t="s">
-        <v>513</v>
+        <v>510</v>
       </c>
       <c r="D90" t="s">
         <v>40</v>
@@ -4490,7 +4541,7 @@
         <v>70800</v>
       </c>
       <c r="G90" s="3" t="s">
-        <v>514</v>
+        <v>511</v>
       </c>
     </row>
     <row r="91" spans="1:7" x14ac:dyDescent="0.35">
@@ -4501,7 +4552,7 @@
         <v>16</v>
       </c>
       <c r="C91" t="s">
-        <v>515</v>
+        <v>512</v>
       </c>
       <c r="D91" t="s">
         <v>88</v>
@@ -4514,7 +4565,7 @@
         <v>8580</v>
       </c>
       <c r="G91" s="3" t="s">
-        <v>516</v>
+        <v>513</v>
       </c>
     </row>
     <row r="92" spans="1:7" x14ac:dyDescent="0.35">
@@ -4525,7 +4576,7 @@
         <v>16</v>
       </c>
       <c r="C92" t="s">
-        <v>517</v>
+        <v>514</v>
       </c>
       <c r="D92" t="s">
         <v>45</v>
@@ -4538,7 +4589,7 @@
         <v>102</v>
       </c>
       <c r="G92" s="3" t="s">
-        <v>518</v>
+        <v>515</v>
       </c>
     </row>
     <row r="93" spans="1:7" x14ac:dyDescent="0.35">
@@ -4549,7 +4600,7 @@
         <v>16</v>
       </c>
       <c r="C93" t="s">
-        <v>519</v>
+        <v>516</v>
       </c>
       <c r="D93" t="s">
         <v>45</v>
@@ -4562,7 +4613,7 @@
         <v>19.8</v>
       </c>
       <c r="G93" s="3" t="s">
-        <v>520</v>
+        <v>517</v>
       </c>
     </row>
     <row r="94" spans="1:7" x14ac:dyDescent="0.35">
@@ -4573,7 +4624,7 @@
         <v>16</v>
       </c>
       <c r="C94" t="s">
-        <v>521</v>
+        <v>518</v>
       </c>
       <c r="D94" t="s">
         <v>40</v>
@@ -4586,7 +4637,7 @@
         <v>2088</v>
       </c>
       <c r="G94" s="3" t="s">
-        <v>522</v>
+        <v>519</v>
       </c>
     </row>
     <row r="95" spans="1:7" x14ac:dyDescent="0.35">
@@ -4597,7 +4648,7 @@
         <v>16</v>
       </c>
       <c r="C95" t="s">
-        <v>523</v>
+        <v>520</v>
       </c>
       <c r="D95" t="s">
         <v>40</v>
@@ -4610,7 +4661,7 @@
         <v>1500</v>
       </c>
       <c r="G95" s="3" t="s">
-        <v>524</v>
+        <v>521</v>
       </c>
     </row>
     <row r="96" spans="1:7" x14ac:dyDescent="0.35">
@@ -4621,7 +4672,7 @@
         <v>16</v>
       </c>
       <c r="C96" t="s">
-        <v>525</v>
+        <v>522</v>
       </c>
       <c r="D96" t="s">
         <v>45</v>
@@ -4634,7 +4685,7 @@
         <v>894</v>
       </c>
       <c r="G96" s="3" t="s">
-        <v>526</v>
+        <v>523</v>
       </c>
     </row>
     <row r="97" spans="1:7" x14ac:dyDescent="0.35">
@@ -4645,7 +4696,7 @@
         <v>16</v>
       </c>
       <c r="C97" t="s">
-        <v>527</v>
+        <v>524</v>
       </c>
       <c r="D97" t="s">
         <v>40</v>
@@ -4658,7 +4709,7 @@
         <v>535.85619678334911</v>
       </c>
       <c r="G97" s="3" t="s">
-        <v>528</v>
+        <v>525</v>
       </c>
     </row>
     <row r="98" spans="1:7" x14ac:dyDescent="0.35">
@@ -4669,7 +4720,7 @@
         <v>16</v>
       </c>
       <c r="C98" t="s">
-        <v>529</v>
+        <v>526</v>
       </c>
       <c r="D98" t="s">
         <v>40</v>
@@ -4682,7 +4733,7 @@
         <v>156</v>
       </c>
       <c r="G98" s="3" t="s">
-        <v>530</v>
+        <v>527</v>
       </c>
     </row>
     <row r="99" spans="1:7" x14ac:dyDescent="0.35">
@@ -4693,7 +4744,7 @@
         <v>16</v>
       </c>
       <c r="C99" t="s">
-        <v>531</v>
+        <v>528</v>
       </c>
       <c r="D99" t="s">
         <v>45</v>
@@ -4706,7 +4757,7 @@
         <v>49.8</v>
       </c>
       <c r="G99" s="3" t="s">
-        <v>532</v>
+        <v>529</v>
       </c>
     </row>
     <row r="100" spans="1:7" x14ac:dyDescent="0.35">
@@ -4717,7 +4768,7 @@
         <v>16</v>
       </c>
       <c r="C100" t="s">
-        <v>533</v>
+        <v>530</v>
       </c>
       <c r="D100" t="s">
         <v>88</v>
@@ -4730,7 +4781,7 @@
         <v>41040</v>
       </c>
       <c r="G100" s="3" t="s">
-        <v>534</v>
+        <v>531</v>
       </c>
     </row>
     <row r="101" spans="1:7" x14ac:dyDescent="0.35">
@@ -4741,7 +4792,7 @@
         <v>16</v>
       </c>
       <c r="C101" t="s">
-        <v>535</v>
+        <v>532</v>
       </c>
       <c r="D101" t="s">
         <v>45</v>
@@ -4754,7 +4805,7 @@
         <v>190.2</v>
       </c>
       <c r="G101" s="3" t="s">
-        <v>536</v>
+        <v>533</v>
       </c>
     </row>
     <row r="102" spans="1:7" x14ac:dyDescent="0.35">
@@ -4765,7 +4816,7 @@
         <v>16</v>
       </c>
       <c r="C102" t="s">
-        <v>537</v>
+        <v>534</v>
       </c>
       <c r="D102" t="s">
         <v>45</v>
@@ -4778,7 +4829,7 @@
         <v>2.1599999999999997</v>
       </c>
       <c r="G102" s="3" t="s">
-        <v>538</v>
+        <v>535</v>
       </c>
     </row>
     <row r="103" spans="1:7" x14ac:dyDescent="0.35">
@@ -4789,7 +4840,7 @@
         <v>16</v>
       </c>
       <c r="C103" t="s">
-        <v>539</v>
+        <v>536</v>
       </c>
       <c r="D103" t="s">
         <v>45</v>
@@ -4802,7 +4853,7 @@
         <v>1446</v>
       </c>
       <c r="G103" s="3" t="s">
-        <v>540</v>
+        <v>537</v>
       </c>
     </row>
     <row r="104" spans="1:7" x14ac:dyDescent="0.35">
@@ -4813,7 +4864,7 @@
         <v>16</v>
       </c>
       <c r="C104" t="s">
-        <v>541</v>
+        <v>538</v>
       </c>
       <c r="D104" t="s">
         <v>112</v>
@@ -4826,7 +4877,7 @@
         <v>150</v>
       </c>
       <c r="G104" s="3" t="s">
-        <v>542</v>
+        <v>539</v>
       </c>
     </row>
     <row r="105" spans="1:7" x14ac:dyDescent="0.35">
@@ -4837,10 +4888,10 @@
         <v>16</v>
       </c>
       <c r="C105" t="s">
-        <v>506</v>
+        <v>503</v>
       </c>
       <c r="D105" t="s">
-        <v>543</v>
+        <v>540</v>
       </c>
       <c r="E105">
         <v>4.9000000000000004</v>
@@ -4850,7 +4901,7 @@
         <v>294</v>
       </c>
       <c r="G105" s="3" t="s">
-        <v>544</v>
+        <v>541</v>
       </c>
     </row>
     <row r="106" spans="1:7" x14ac:dyDescent="0.35">
@@ -4861,7 +4912,7 @@
         <v>16</v>
       </c>
       <c r="C106" t="s">
-        <v>459</v>
+        <v>456</v>
       </c>
       <c r="D106" t="s">
         <v>40</v>
@@ -4874,7 +4925,7 @@
         <v>105.6</v>
       </c>
       <c r="G106" s="3" t="s">
-        <v>460</v>
+        <v>457</v>
       </c>
     </row>
     <row r="107" spans="1:7" x14ac:dyDescent="0.35">
@@ -4885,7 +4936,7 @@
         <v>16</v>
       </c>
       <c r="C107" t="s">
-        <v>545</v>
+        <v>542</v>
       </c>
       <c r="D107" t="s">
         <v>42</v>
@@ -4898,7 +4949,7 @@
         <v>74400</v>
       </c>
       <c r="G107" s="3" t="s">
-        <v>546</v>
+        <v>543</v>
       </c>
     </row>
     <row r="108" spans="1:7" x14ac:dyDescent="0.35">
@@ -4909,7 +4960,7 @@
         <v>16</v>
       </c>
       <c r="C108" t="s">
-        <v>467</v>
+        <v>464</v>
       </c>
       <c r="D108" t="s">
         <v>45</v>
@@ -4922,7 +4973,7 @@
         <v>8280</v>
       </c>
       <c r="G108" s="3" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
     </row>
     <row r="109" spans="1:7" x14ac:dyDescent="0.35">
@@ -4933,7 +4984,7 @@
         <v>16</v>
       </c>
       <c r="C109" t="s">
-        <v>459</v>
+        <v>456</v>
       </c>
       <c r="D109" t="s">
         <v>40</v>
@@ -4946,7 +4997,7 @@
         <v>105.6</v>
       </c>
       <c r="G109" s="3" t="s">
-        <v>460</v>
+        <v>457</v>
       </c>
     </row>
     <row r="110" spans="1:7" x14ac:dyDescent="0.35">
@@ -4957,7 +5008,7 @@
         <v>16</v>
       </c>
       <c r="C110" t="s">
-        <v>547</v>
+        <v>544</v>
       </c>
       <c r="D110" t="s">
         <v>45</v>
@@ -4970,7 +5021,7 @@
         <v>43.8</v>
       </c>
       <c r="G110" s="3" t="s">
-        <v>548</v>
+        <v>545</v>
       </c>
     </row>
     <row r="111" spans="1:7" x14ac:dyDescent="0.35">
@@ -4981,7 +5032,7 @@
         <v>16</v>
       </c>
       <c r="C111" t="s">
-        <v>494</v>
+        <v>491</v>
       </c>
       <c r="D111" t="s">
         <v>40</v>
@@ -4994,7 +5045,7 @@
         <v>330</v>
       </c>
       <c r="G111" s="3" t="s">
-        <v>495</v>
+        <v>492</v>
       </c>
     </row>
     <row r="112" spans="1:7" x14ac:dyDescent="0.35">
@@ -5005,7 +5056,7 @@
         <v>16</v>
       </c>
       <c r="C112" t="s">
-        <v>467</v>
+        <v>464</v>
       </c>
       <c r="D112" t="s">
         <v>45</v>
@@ -5018,7 +5069,7 @@
         <v>8280</v>
       </c>
       <c r="G112" s="3" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
     </row>
     <row r="113" spans="1:7" x14ac:dyDescent="0.35">
@@ -5029,7 +5080,7 @@
         <v>16</v>
       </c>
       <c r="C113" t="s">
-        <v>594</v>
+        <v>591</v>
       </c>
       <c r="D113" t="s">
         <v>42</v>
@@ -5042,7 +5093,7 @@
         <v>900</v>
       </c>
       <c r="G113" s="3" t="s">
-        <v>595</v>
+        <v>592</v>
       </c>
     </row>
     <row r="114" spans="1:7" x14ac:dyDescent="0.35">
@@ -5053,7 +5104,7 @@
         <v>16</v>
       </c>
       <c r="C114" t="s">
-        <v>596</v>
+        <v>593</v>
       </c>
       <c r="D114" t="s">
         <v>45</v>
@@ -5066,7 +5117,7 @@
         <v>2.3519999999999999</v>
       </c>
       <c r="G114" s="3" t="s">
-        <v>462</v>
+        <v>459</v>
       </c>
     </row>
     <row r="115" spans="1:7" x14ac:dyDescent="0.35">
@@ -5077,7 +5128,7 @@
         <v>16</v>
       </c>
       <c r="C115" t="s">
-        <v>551</v>
+        <v>548</v>
       </c>
       <c r="D115" t="s">
         <v>40</v>
@@ -5090,7 +5141,7 @@
         <v>234</v>
       </c>
       <c r="G115" s="3" t="s">
-        <v>552</v>
+        <v>549</v>
       </c>
     </row>
     <row r="116" spans="1:7" x14ac:dyDescent="0.35">
@@ -5101,7 +5152,7 @@
         <v>16</v>
       </c>
       <c r="C116" t="s">
-        <v>597</v>
+        <v>594</v>
       </c>
       <c r="D116" t="s">
         <v>40</v>
@@ -5114,7 +5165,7 @@
         <v>93480</v>
       </c>
       <c r="G116" s="3" t="s">
-        <v>598</v>
+        <v>595</v>
       </c>
     </row>
     <row r="117" spans="1:7" x14ac:dyDescent="0.35">
@@ -5125,7 +5176,7 @@
         <v>16</v>
       </c>
       <c r="C117" t="s">
-        <v>599</v>
+        <v>596</v>
       </c>
       <c r="D117" t="s">
         <v>210</v>
@@ -5138,7 +5189,7 @@
         <v>9960</v>
       </c>
       <c r="G117" s="3" t="s">
-        <v>600</v>
+        <v>597</v>
       </c>
     </row>
     <row r="118" spans="1:7" x14ac:dyDescent="0.35">
@@ -5149,7 +5200,7 @@
         <v>16</v>
       </c>
       <c r="C118" t="s">
-        <v>601</v>
+        <v>598</v>
       </c>
       <c r="D118" t="s">
         <v>210</v>
@@ -5162,7 +5213,7 @@
         <v>52.8</v>
       </c>
       <c r="G118" s="3" t="s">
-        <v>602</v>
+        <v>599</v>
       </c>
     </row>
     <row r="119" spans="1:7" x14ac:dyDescent="0.35">
@@ -5173,7 +5224,7 @@
         <v>16</v>
       </c>
       <c r="C119" t="s">
-        <v>459</v>
+        <v>456</v>
       </c>
       <c r="D119" t="s">
         <v>40</v>
@@ -5186,7 +5237,7 @@
         <v>105.6</v>
       </c>
       <c r="G119" s="3" t="s">
-        <v>460</v>
+        <v>457</v>
       </c>
     </row>
     <row r="120" spans="1:7" x14ac:dyDescent="0.35">
@@ -5197,7 +5248,7 @@
         <v>16</v>
       </c>
       <c r="C120" t="s">
-        <v>463</v>
+        <v>460</v>
       </c>
       <c r="D120" t="s">
         <v>40</v>
@@ -5210,7 +5261,7 @@
         <v>21001.199999999997</v>
       </c>
       <c r="G120" s="3" t="s">
-        <v>464</v>
+        <v>461</v>
       </c>
     </row>
     <row r="121" spans="1:7" x14ac:dyDescent="0.35">
@@ -5221,7 +5272,7 @@
         <v>16</v>
       </c>
       <c r="C121" t="s">
-        <v>490</v>
+        <v>487</v>
       </c>
       <c r="D121" t="s">
         <v>40</v>
@@ -5234,7 +5285,7 @@
         <v>2760</v>
       </c>
       <c r="G121" s="3" t="s">
-        <v>491</v>
+        <v>488</v>
       </c>
     </row>
     <row r="122" spans="1:7" x14ac:dyDescent="0.35">
@@ -5245,7 +5296,7 @@
         <v>16</v>
       </c>
       <c r="C122" t="s">
-        <v>451</v>
+        <v>448</v>
       </c>
       <c r="D122" t="s">
         <v>45</v>
@@ -5258,7 +5309,7 @@
         <v>4098</v>
       </c>
       <c r="G122" s="1" t="s">
-        <v>452</v>
+        <v>449</v>
       </c>
     </row>
     <row r="123" spans="1:7" x14ac:dyDescent="0.35">
@@ -5269,7 +5320,7 @@
         <v>16</v>
       </c>
       <c r="C123" t="s">
-        <v>444</v>
+        <v>441</v>
       </c>
       <c r="D123" t="s">
         <v>45</v>
@@ -5282,7 +5333,7 @@
         <v>184.14</v>
       </c>
       <c r="G123" s="3" t="s">
-        <v>445</v>
+        <v>442</v>
       </c>
     </row>
     <row r="124" spans="1:7" x14ac:dyDescent="0.35">
@@ -5293,7 +5344,7 @@
         <v>16</v>
       </c>
       <c r="C124" t="s">
-        <v>603</v>
+        <v>600</v>
       </c>
       <c r="D124" t="s">
         <v>42</v>
@@ -5306,7 +5357,7 @@
         <v>4140</v>
       </c>
       <c r="G124" s="3" t="s">
-        <v>604</v>
+        <v>601</v>
       </c>
     </row>
     <row r="125" spans="1:7" x14ac:dyDescent="0.35">
@@ -5317,7 +5368,7 @@
         <v>16</v>
       </c>
       <c r="C125" t="s">
-        <v>605</v>
+        <v>602</v>
       </c>
       <c r="D125" t="s">
         <v>88</v>
@@ -5330,7 +5381,7 @@
         <v>2820</v>
       </c>
       <c r="G125" s="3" t="s">
-        <v>606</v>
+        <v>603</v>
       </c>
     </row>
     <row r="126" spans="1:7" x14ac:dyDescent="0.35">
@@ -5341,7 +5392,7 @@
         <v>16</v>
       </c>
       <c r="C126" t="s">
-        <v>607</v>
+        <v>604</v>
       </c>
       <c r="D126" t="s">
         <v>40</v>
@@ -5354,7 +5405,7 @@
         <v>2520</v>
       </c>
       <c r="G126" s="3" t="s">
-        <v>608</v>
+        <v>605</v>
       </c>
     </row>
     <row r="127" spans="1:7" x14ac:dyDescent="0.35">
@@ -5365,7 +5416,7 @@
         <v>16</v>
       </c>
       <c r="C127" t="s">
-        <v>609</v>
+        <v>606</v>
       </c>
       <c r="D127" t="s">
         <v>42</v>
@@ -5378,7 +5429,7 @@
         <v>0.89999999999999991</v>
       </c>
       <c r="G127" s="3" t="s">
-        <v>610</v>
+        <v>607</v>
       </c>
     </row>
     <row r="128" spans="1:7" x14ac:dyDescent="0.35">
@@ -5389,7 +5440,7 @@
         <v>16</v>
       </c>
       <c r="C128" t="s">
-        <v>609</v>
+        <v>606</v>
       </c>
       <c r="D128" t="s">
         <v>42</v>
@@ -5402,7 +5453,7 @@
         <v>0.89999999999999991</v>
       </c>
       <c r="G128" s="3" t="s">
-        <v>610</v>
+        <v>607</v>
       </c>
     </row>
     <row r="129" spans="1:7" x14ac:dyDescent="0.35">
@@ -5413,7 +5464,7 @@
         <v>16</v>
       </c>
       <c r="C129" t="s">
-        <v>611</v>
+        <v>608</v>
       </c>
       <c r="D129" t="s">
         <v>210</v>
@@ -5426,7 +5477,7 @@
         <v>165000</v>
       </c>
       <c r="G129" s="3" t="s">
-        <v>612</v>
+        <v>609</v>
       </c>
     </row>
     <row r="130" spans="1:7" x14ac:dyDescent="0.35">
@@ -5437,7 +5488,7 @@
         <v>16</v>
       </c>
       <c r="C130" t="s">
-        <v>611</v>
+        <v>608</v>
       </c>
       <c r="D130" t="s">
         <v>210</v>
@@ -5450,7 +5501,7 @@
         <v>165000</v>
       </c>
       <c r="G130" s="3" t="s">
-        <v>612</v>
+        <v>609</v>
       </c>
     </row>
     <row r="131" spans="1:7" x14ac:dyDescent="0.35">
@@ -5461,7 +5512,7 @@
         <v>16</v>
       </c>
       <c r="C131" t="s">
-        <v>611</v>
+        <v>608</v>
       </c>
       <c r="D131" t="s">
         <v>210</v>
@@ -5474,7 +5525,7 @@
         <v>165000</v>
       </c>
       <c r="G131" s="3" t="s">
-        <v>612</v>
+        <v>609</v>
       </c>
     </row>
     <row r="132" spans="1:7" x14ac:dyDescent="0.35">
@@ -5485,7 +5536,7 @@
         <v>16</v>
       </c>
       <c r="C132" t="s">
-        <v>611</v>
+        <v>608</v>
       </c>
       <c r="D132" t="s">
         <v>210</v>
@@ -5498,7 +5549,7 @@
         <v>165000</v>
       </c>
       <c r="G132" s="3" t="s">
-        <v>612</v>
+        <v>609</v>
       </c>
     </row>
     <row r="133" spans="1:7" x14ac:dyDescent="0.35">
@@ -5509,7 +5560,7 @@
         <v>16</v>
       </c>
       <c r="C133" t="s">
-        <v>613</v>
+        <v>610</v>
       </c>
       <c r="D133" t="s">
         <v>40</v>
@@ -5522,7 +5573,7 @@
         <v>228</v>
       </c>
       <c r="G133" s="3" t="s">
-        <v>614</v>
+        <v>611</v>
       </c>
     </row>
     <row r="134" spans="1:7" x14ac:dyDescent="0.35">
@@ -5533,7 +5584,7 @@
         <v>16</v>
       </c>
       <c r="C134" t="s">
-        <v>615</v>
+        <v>612</v>
       </c>
       <c r="D134" t="s">
         <v>40</v>
@@ -5546,7 +5597,7 @@
         <v>402</v>
       </c>
       <c r="G134" s="3" t="s">
-        <v>616</v>
+        <v>613</v>
       </c>
     </row>
     <row r="135" spans="1:7" x14ac:dyDescent="0.35">
@@ -5557,7 +5608,7 @@
         <v>16</v>
       </c>
       <c r="C135" t="s">
-        <v>617</v>
+        <v>614</v>
       </c>
       <c r="D135" t="s">
         <v>45</v>
@@ -5570,7 +5621,7 @@
         <v>5.46</v>
       </c>
       <c r="G135" s="3" t="s">
-        <v>618</v>
+        <v>615</v>
       </c>
     </row>
     <row r="136" spans="1:7" x14ac:dyDescent="0.35">
@@ -5581,10 +5632,10 @@
         <v>16</v>
       </c>
       <c r="C136" t="s">
-        <v>619</v>
+        <v>616</v>
       </c>
       <c r="D136" t="s">
-        <v>620</v>
+        <v>617</v>
       </c>
       <c r="E136">
         <v>1.7000000000000001E-2</v>
@@ -5594,7 +5645,7 @@
         <v>1.02</v>
       </c>
       <c r="G136" s="3" t="s">
-        <v>621</v>
+        <v>618</v>
       </c>
     </row>
     <row r="137" spans="1:7" x14ac:dyDescent="0.35">
@@ -5605,10 +5656,10 @@
         <v>16</v>
       </c>
       <c r="C137" t="s">
-        <v>622</v>
+        <v>619</v>
       </c>
       <c r="D137" t="s">
-        <v>620</v>
+        <v>617</v>
       </c>
       <c r="E137">
         <v>27</v>
@@ -5618,7 +5669,7 @@
         <v>1620</v>
       </c>
       <c r="G137" s="3" t="s">
-        <v>623</v>
+        <v>620</v>
       </c>
     </row>
     <row r="138" spans="1:7" x14ac:dyDescent="0.35">
@@ -5629,7 +5680,7 @@
         <v>16</v>
       </c>
       <c r="C138" t="s">
-        <v>624</v>
+        <v>621</v>
       </c>
       <c r="D138" t="s">
         <v>45</v>
@@ -5642,7 +5693,7 @@
         <v>119160</v>
       </c>
       <c r="G138" s="3" t="s">
-        <v>625</v>
+        <v>622</v>
       </c>
     </row>
     <row r="139" spans="1:7" x14ac:dyDescent="0.35">
@@ -5653,7 +5704,7 @@
         <v>16</v>
       </c>
       <c r="C139" t="s">
-        <v>626</v>
+        <v>623</v>
       </c>
       <c r="D139" t="s">
         <v>45</v>
@@ -5666,7 +5717,7 @@
         <v>22800</v>
       </c>
       <c r="G139" s="3" t="s">
-        <v>627</v>
+        <v>624</v>
       </c>
     </row>
     <row r="140" spans="1:7" x14ac:dyDescent="0.35">
@@ -5677,7 +5728,7 @@
         <v>16</v>
       </c>
       <c r="C140" t="s">
-        <v>438</v>
+        <v>435</v>
       </c>
       <c r="D140" t="s">
         <v>45</v>
@@ -5690,7 +5741,7 @@
         <v>13260</v>
       </c>
       <c r="G140" s="3" t="s">
-        <v>439</v>
+        <v>436</v>
       </c>
     </row>
     <row r="141" spans="1:7" x14ac:dyDescent="0.35">
@@ -5701,7 +5752,7 @@
         <v>16</v>
       </c>
       <c r="C141" t="s">
-        <v>628</v>
+        <v>625</v>
       </c>
       <c r="D141" t="s">
         <v>42</v>
@@ -5714,7 +5765,7 @@
         <v>8400</v>
       </c>
       <c r="G141" s="1" t="s">
-        <v>629</v>
+        <v>626</v>
       </c>
     </row>
     <row r="142" spans="1:7" x14ac:dyDescent="0.35">
@@ -5725,7 +5776,7 @@
         <v>16</v>
       </c>
       <c r="C142" t="s">
-        <v>630</v>
+        <v>627</v>
       </c>
       <c r="D142" t="s">
         <v>42</v>
@@ -5738,7 +5789,7 @@
         <v>7.8000000000000007</v>
       </c>
       <c r="G142" s="3" t="s">
-        <v>631</v>
+        <v>628</v>
       </c>
     </row>
     <row r="143" spans="1:7" x14ac:dyDescent="0.35">
@@ -5749,7 +5800,7 @@
         <v>16</v>
       </c>
       <c r="C143" t="s">
-        <v>446</v>
+        <v>443</v>
       </c>
       <c r="D143" t="s">
         <v>45</v>
@@ -5762,7 +5813,7 @@
         <v>124.80000000000001</v>
       </c>
       <c r="G143" s="3" t="s">
-        <v>447</v>
+        <v>444</v>
       </c>
     </row>
     <row r="144" spans="1:7" x14ac:dyDescent="0.35">
@@ -5773,7 +5824,7 @@
         <v>16</v>
       </c>
       <c r="C144" t="s">
-        <v>444</v>
+        <v>441</v>
       </c>
       <c r="D144" t="s">
         <v>45</v>
@@ -5786,7 +5837,7 @@
         <v>184.14</v>
       </c>
       <c r="G144" s="3" t="s">
-        <v>445</v>
+        <v>442</v>
       </c>
     </row>
     <row r="145" spans="1:7" x14ac:dyDescent="0.35">
@@ -5797,10 +5848,10 @@
         <v>16</v>
       </c>
       <c r="C145" t="s">
-        <v>634</v>
+        <v>631</v>
       </c>
       <c r="D145" t="s">
-        <v>635</v>
+        <v>632</v>
       </c>
       <c r="E145">
         <v>1.6999999999999999E-3</v>
@@ -5810,7 +5861,7 @@
         <v>0.10199999999999999</v>
       </c>
       <c r="G145" s="3" t="s">
-        <v>636</v>
+        <v>633</v>
       </c>
     </row>
     <row r="146" spans="1:7" x14ac:dyDescent="0.35">
@@ -5821,7 +5872,7 @@
         <v>16</v>
       </c>
       <c r="C146" t="s">
-        <v>637</v>
+        <v>634</v>
       </c>
       <c r="D146" t="s">
         <v>40</v>
@@ -5834,7 +5885,7 @@
         <v>1746</v>
       </c>
       <c r="G146" s="3" t="s">
-        <v>638</v>
+        <v>635</v>
       </c>
     </row>
     <row r="147" spans="1:7" x14ac:dyDescent="0.35">
@@ -5845,10 +5896,10 @@
         <v>16</v>
       </c>
       <c r="C147" t="s">
-        <v>639</v>
+        <v>636</v>
       </c>
       <c r="D147" t="s">
-        <v>640</v>
+        <v>637</v>
       </c>
       <c r="E147">
         <v>509</v>
@@ -5858,7 +5909,7 @@
         <v>30540</v>
       </c>
       <c r="G147" s="3" t="s">
-        <v>641</v>
+        <v>638</v>
       </c>
     </row>
     <row r="148" spans="1:7" x14ac:dyDescent="0.35">
@@ -5869,7 +5920,7 @@
         <v>16</v>
       </c>
       <c r="C148" t="s">
-        <v>642</v>
+        <v>639</v>
       </c>
       <c r="D148" t="s">
         <v>45</v>
@@ -5882,7 +5933,7 @@
         <v>34.199999999999996</v>
       </c>
       <c r="G148" s="3" t="s">
-        <v>643</v>
+        <v>640</v>
       </c>
     </row>
     <row r="149" spans="1:7" x14ac:dyDescent="0.35">
@@ -5917,7 +5968,7 @@
         <v>16</v>
       </c>
       <c r="C150" t="s">
-        <v>632</v>
+        <v>629</v>
       </c>
       <c r="D150" t="s">
         <v>45</v>
@@ -5930,7 +5981,7 @@
         <v>2916</v>
       </c>
       <c r="G150" s="3" t="s">
-        <v>633</v>
+        <v>630</v>
       </c>
     </row>
     <row r="151" spans="1:7" x14ac:dyDescent="0.35">
@@ -5941,7 +5992,7 @@
         <v>16</v>
       </c>
       <c r="C151" t="s">
-        <v>490</v>
+        <v>487</v>
       </c>
       <c r="D151" t="s">
         <v>40</v>
@@ -5954,7 +6005,7 @@
         <v>2760</v>
       </c>
       <c r="G151" s="3" t="s">
-        <v>491</v>
+        <v>488</v>
       </c>
     </row>
     <row r="152" spans="1:7" x14ac:dyDescent="0.35">
@@ -5965,7 +6016,7 @@
         <v>16</v>
       </c>
       <c r="C152" t="s">
-        <v>565</v>
+        <v>562</v>
       </c>
       <c r="D152" t="s">
         <v>210</v>
@@ -5974,11 +6025,11 @@
         <v>26.8</v>
       </c>
       <c r="F152">
-        <f t="shared" ref="F152:F154" si="8">E152*60</f>
+        <f t="shared" ref="F152:F156" si="8">E152*60</f>
         <v>1608</v>
       </c>
       <c r="G152" s="3" t="s">
-        <v>566</v>
+        <v>563</v>
       </c>
     </row>
     <row r="153" spans="1:7" x14ac:dyDescent="0.35">
@@ -5989,7 +6040,7 @@
         <v>16</v>
       </c>
       <c r="C153" t="s">
-        <v>646</v>
+        <v>643</v>
       </c>
       <c r="D153" t="s">
         <v>45</v>
@@ -6002,7 +6053,7 @@
         <v>1260</v>
       </c>
       <c r="G153" s="3" t="s">
-        <v>647</v>
+        <v>644</v>
       </c>
     </row>
     <row r="154" spans="1:7" x14ac:dyDescent="0.35">
@@ -6013,7 +6064,7 @@
         <v>16</v>
       </c>
       <c r="C154" t="s">
-        <v>644</v>
+        <v>641</v>
       </c>
       <c r="D154" t="s">
         <v>40</v>
@@ -6026,7 +6077,7 @@
         <v>94200</v>
       </c>
       <c r="G154" s="3" t="s">
-        <v>645</v>
+        <v>642</v>
       </c>
     </row>
     <row r="155" spans="1:7" x14ac:dyDescent="0.35">
@@ -6036,6 +6087,22 @@
       <c r="B155" t="s">
         <v>16</v>
       </c>
+      <c r="C155" t="s">
+        <v>491</v>
+      </c>
+      <c r="D155" t="s">
+        <v>40</v>
+      </c>
+      <c r="E155">
+        <v>5.5</v>
+      </c>
+      <c r="F155">
+        <f t="shared" si="8"/>
+        <v>330</v>
+      </c>
+      <c r="G155" s="3" t="s">
+        <v>492</v>
+      </c>
     </row>
     <row r="156" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A156" t="s">
@@ -6044,6 +6111,22 @@
       <c r="B156" t="s">
         <v>16</v>
       </c>
+      <c r="C156" t="s">
+        <v>645</v>
+      </c>
+      <c r="D156" t="s">
+        <v>40</v>
+      </c>
+      <c r="E156">
+        <v>3.3</v>
+      </c>
+      <c r="F156">
+        <f t="shared" si="8"/>
+        <v>198</v>
+      </c>
+      <c r="G156" s="3" t="s">
+        <v>646</v>
+      </c>
     </row>
     <row r="157" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A157" t="s">
@@ -6052,6 +6135,22 @@
       <c r="B157" t="s">
         <v>16</v>
       </c>
+      <c r="C157" t="s">
+        <v>558</v>
+      </c>
+      <c r="D157" t="s">
+        <v>88</v>
+      </c>
+      <c r="E157">
+        <v>19.899999999999999</v>
+      </c>
+      <c r="F157">
+        <f>E157*60</f>
+        <v>1194</v>
+      </c>
+      <c r="G157" s="3" t="s">
+        <v>559</v>
+      </c>
     </row>
     <row r="158" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A158" t="s">
@@ -6060,6 +6159,22 @@
       <c r="B158" t="s">
         <v>16</v>
       </c>
+      <c r="C158" t="s">
+        <v>647</v>
+      </c>
+      <c r="D158" t="s">
+        <v>42</v>
+      </c>
+      <c r="E158">
+        <v>23.2</v>
+      </c>
+      <c r="F158">
+        <f>E158*60</f>
+        <v>1392</v>
+      </c>
+      <c r="G158" s="3" t="s">
+        <v>648</v>
+      </c>
     </row>
     <row r="159" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A159" t="s">
@@ -6068,6 +6183,22 @@
       <c r="B159" t="s">
         <v>16</v>
       </c>
+      <c r="C159" t="s">
+        <v>647</v>
+      </c>
+      <c r="D159" t="s">
+        <v>42</v>
+      </c>
+      <c r="E159">
+        <v>23.2</v>
+      </c>
+      <c r="F159">
+        <f>E159*60</f>
+        <v>1392</v>
+      </c>
+      <c r="G159" s="3" t="s">
+        <v>648</v>
+      </c>
     </row>
     <row r="160" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A160" t="s">
@@ -6076,6 +6207,22 @@
       <c r="B160" t="s">
         <v>16</v>
       </c>
+      <c r="C160" t="s">
+        <v>649</v>
+      </c>
+      <c r="D160" t="s">
+        <v>40</v>
+      </c>
+      <c r="E160">
+        <v>4.2</v>
+      </c>
+      <c r="F160">
+        <f>E160*60</f>
+        <v>252</v>
+      </c>
+      <c r="G160" s="3" t="s">
+        <v>650</v>
+      </c>
     </row>
     <row r="161" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A161" t="s">
@@ -6084,6 +6231,22 @@
       <c r="B161" t="s">
         <v>16</v>
       </c>
+      <c r="C161" t="s">
+        <v>651</v>
+      </c>
+      <c r="D161" t="s">
+        <v>88</v>
+      </c>
+      <c r="E161">
+        <v>1.82</v>
+      </c>
+      <c r="F161">
+        <f>E161*60</f>
+        <v>109.2</v>
+      </c>
+      <c r="G161" s="3" t="s">
+        <v>652</v>
+      </c>
     </row>
     <row r="162" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A162" t="s">
@@ -6092,6 +6255,22 @@
       <c r="B162" t="s">
         <v>16</v>
       </c>
+      <c r="C162" t="s">
+        <v>653</v>
+      </c>
+      <c r="D162" t="s">
+        <v>147</v>
+      </c>
+      <c r="E162">
+        <v>0.16</v>
+      </c>
+      <c r="F162">
+        <f>E162*60</f>
+        <v>9.6</v>
+      </c>
+      <c r="G162" s="3" t="s">
+        <v>654</v>
+      </c>
     </row>
     <row r="163" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A163" t="s">
@@ -6100,6 +6279,22 @@
       <c r="B163" t="s">
         <v>16</v>
       </c>
+      <c r="C163" t="s">
+        <v>655</v>
+      </c>
+      <c r="D163" t="s">
+        <v>147</v>
+      </c>
+      <c r="E163">
+        <v>0.43</v>
+      </c>
+      <c r="F163">
+        <f>E163*60</f>
+        <v>25.8</v>
+      </c>
+      <c r="G163" s="3" t="s">
+        <v>656</v>
+      </c>
     </row>
     <row r="164" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A164" t="s">
@@ -6108,6 +6303,22 @@
       <c r="B164" t="s">
         <v>16</v>
       </c>
+      <c r="C164" t="s">
+        <v>657</v>
+      </c>
+      <c r="D164" t="s">
+        <v>40</v>
+      </c>
+      <c r="E164">
+        <v>23.3</v>
+      </c>
+      <c r="F164">
+        <f>E164*60</f>
+        <v>1398</v>
+      </c>
+      <c r="G164" s="3" t="s">
+        <v>658</v>
+      </c>
     </row>
     <row r="165" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A165" t="s">
@@ -6116,6 +6327,22 @@
       <c r="B165" t="s">
         <v>16</v>
       </c>
+      <c r="C165" t="s">
+        <v>659</v>
+      </c>
+      <c r="D165" t="s">
+        <v>88</v>
+      </c>
+      <c r="E165">
+        <v>2.36</v>
+      </c>
+      <c r="F165">
+        <f>E165*60</f>
+        <v>141.6</v>
+      </c>
+      <c r="G165" s="3" t="s">
+        <v>660</v>
+      </c>
     </row>
     <row r="166" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A166" t="s">
@@ -6124,6 +6351,22 @@
       <c r="B166" t="s">
         <v>16</v>
       </c>
+      <c r="C166" t="s">
+        <v>657</v>
+      </c>
+      <c r="D166" t="s">
+        <v>40</v>
+      </c>
+      <c r="E166">
+        <v>23.3</v>
+      </c>
+      <c r="F166">
+        <f>E166*60</f>
+        <v>1398</v>
+      </c>
+      <c r="G166" s="3" t="s">
+        <v>658</v>
+      </c>
     </row>
     <row r="167" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A167" t="s">
@@ -6132,6 +6375,22 @@
       <c r="B167" t="s">
         <v>16</v>
       </c>
+      <c r="C167" t="s">
+        <v>661</v>
+      </c>
+      <c r="D167" t="s">
+        <v>40</v>
+      </c>
+      <c r="E167">
+        <v>3.74</v>
+      </c>
+      <c r="F167">
+        <f>E167*60</f>
+        <v>224.4</v>
+      </c>
+      <c r="G167" s="3" t="s">
+        <v>662</v>
+      </c>
     </row>
     <row r="168" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A168" t="s">
@@ -6140,6 +6399,22 @@
       <c r="B168" t="s">
         <v>16</v>
       </c>
+      <c r="C168" t="s">
+        <v>663</v>
+      </c>
+      <c r="D168" t="s">
+        <v>40</v>
+      </c>
+      <c r="E168">
+        <v>2.956</v>
+      </c>
+      <c r="F168">
+        <f>E168*60</f>
+        <v>177.35999999999999</v>
+      </c>
+      <c r="G168" s="3" t="s">
+        <v>664</v>
+      </c>
     </row>
     <row r="169" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A169" t="s">
@@ -6148,6 +6423,22 @@
       <c r="B169" t="s">
         <v>16</v>
       </c>
+      <c r="C169" t="s">
+        <v>448</v>
+      </c>
+      <c r="D169" t="s">
+        <v>45</v>
+      </c>
+      <c r="E169">
+        <v>68.3</v>
+      </c>
+      <c r="F169">
+        <f t="shared" ref="F169:F170" si="9">E169*60</f>
+        <v>4098</v>
+      </c>
+      <c r="G169" s="1" t="s">
+        <v>449</v>
+      </c>
     </row>
     <row r="170" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A170" t="s">
@@ -6156,6 +6447,22 @@
       <c r="B170" t="s">
         <v>16</v>
       </c>
+      <c r="C170" t="s">
+        <v>464</v>
+      </c>
+      <c r="D170" t="s">
+        <v>45</v>
+      </c>
+      <c r="E170">
+        <v>138</v>
+      </c>
+      <c r="F170">
+        <f t="shared" si="9"/>
+        <v>8280</v>
+      </c>
+      <c r="G170" s="3" t="s">
+        <v>465</v>
+      </c>
     </row>
     <row r="171" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A171" t="s">
@@ -6172,22 +6479,6 @@
       <c r="B172" t="s">
         <v>16</v>
       </c>
-      <c r="C172" t="s">
-        <v>451</v>
-      </c>
-      <c r="D172" t="s">
-        <v>45</v>
-      </c>
-      <c r="E172">
-        <v>68.3</v>
-      </c>
-      <c r="F172">
-        <f t="shared" ref="F172:F173" si="9">E172*60</f>
-        <v>4098</v>
-      </c>
-      <c r="G172" s="1" t="s">
-        <v>452</v>
-      </c>
     </row>
     <row r="173" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A173" t="s">
@@ -6196,22 +6487,6 @@
       <c r="B173" t="s">
         <v>16</v>
       </c>
-      <c r="C173" t="s">
-        <v>467</v>
-      </c>
-      <c r="D173" t="s">
-        <v>45</v>
-      </c>
-      <c r="E173">
-        <v>138</v>
-      </c>
-      <c r="F173">
-        <f t="shared" si="9"/>
-        <v>8280</v>
-      </c>
-      <c r="G173" s="3" t="s">
-        <v>468</v>
-      </c>
     </row>
     <row r="174" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A174" t="s">
@@ -6383,698 +6658,746 @@
     </row>
     <row r="195" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A195" t="s">
-        <v>396</v>
+        <v>26</v>
       </c>
       <c r="B195" t="s">
-        <v>16</v>
+        <v>38</v>
+      </c>
+      <c r="C195" t="s">
+        <v>86</v>
+      </c>
+      <c r="D195" t="s">
+        <v>45</v>
+      </c>
+      <c r="E195">
+        <v>11</v>
+      </c>
+      <c r="F195">
+        <f t="shared" si="0"/>
+        <v>660</v>
+      </c>
+      <c r="G195" s="3" t="s">
+        <v>87</v>
       </c>
     </row>
     <row r="196" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A196" t="s">
-        <v>397</v>
+        <v>27</v>
       </c>
       <c r="B196" t="s">
-        <v>16</v>
+        <v>38</v>
+      </c>
+      <c r="C196" t="s">
+        <v>89</v>
+      </c>
+      <c r="D196" t="s">
+        <v>88</v>
+      </c>
+      <c r="E196">
+        <v>0.127</v>
+      </c>
+      <c r="F196">
+        <f t="shared" si="0"/>
+        <v>7.62</v>
+      </c>
+      <c r="G196" s="3" t="s">
+        <v>90</v>
       </c>
     </row>
     <row r="197" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A197" t="s">
-        <v>398</v>
+        <v>28</v>
       </c>
       <c r="B197" t="s">
-        <v>16</v>
+        <v>38</v>
+      </c>
+      <c r="C197" t="s">
+        <v>92</v>
+      </c>
+      <c r="D197" t="s">
+        <v>91</v>
+      </c>
+      <c r="E197">
+        <v>6.13</v>
+      </c>
+      <c r="F197">
+        <f t="shared" si="0"/>
+        <v>367.8</v>
+      </c>
+      <c r="G197" s="3" t="s">
+        <v>93</v>
       </c>
     </row>
     <row r="198" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A198" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="B198" t="s">
         <v>38</v>
       </c>
       <c r="C198" t="s">
-        <v>86</v>
+        <v>94</v>
       </c>
       <c r="D198" t="s">
         <v>45</v>
       </c>
       <c r="E198">
-        <v>11</v>
+        <v>31</v>
       </c>
       <c r="F198">
         <f t="shared" si="0"/>
-        <v>660</v>
+        <v>1860</v>
       </c>
       <c r="G198" s="3" t="s">
-        <v>87</v>
+        <v>95</v>
       </c>
     </row>
     <row r="199" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A199" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="B199" t="s">
         <v>38</v>
       </c>
       <c r="C199" t="s">
-        <v>89</v>
+        <v>97</v>
       </c>
       <c r="D199" t="s">
-        <v>88</v>
+        <v>96</v>
       </c>
       <c r="E199">
-        <v>0.127</v>
+        <v>252</v>
       </c>
       <c r="F199">
         <f t="shared" si="0"/>
-        <v>7.62</v>
+        <v>15120</v>
       </c>
       <c r="G199" s="3" t="s">
-        <v>90</v>
+        <v>98</v>
       </c>
     </row>
     <row r="200" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A200" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="B200" t="s">
         <v>38</v>
       </c>
       <c r="C200" t="s">
-        <v>92</v>
+        <v>100</v>
       </c>
       <c r="D200" t="s">
-        <v>91</v>
+        <v>99</v>
       </c>
       <c r="E200">
-        <v>6.13</v>
+        <v>22.1</v>
       </c>
       <c r="F200">
         <f t="shared" si="0"/>
-        <v>367.8</v>
+        <v>1326</v>
       </c>
       <c r="G200" s="3" t="s">
-        <v>93</v>
+        <v>101</v>
       </c>
     </row>
     <row r="201" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A201" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="B201" t="s">
         <v>38</v>
       </c>
       <c r="C201" t="s">
-        <v>94</v>
+        <v>102</v>
       </c>
       <c r="D201" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="E201">
-        <v>31</v>
+        <v>3.9E-2</v>
       </c>
       <c r="F201">
         <f t="shared" si="0"/>
-        <v>1860</v>
+        <v>2.34</v>
       </c>
       <c r="G201" s="3" t="s">
-        <v>95</v>
+        <v>103</v>
       </c>
     </row>
     <row r="202" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A202" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="B202" t="s">
         <v>38</v>
       </c>
       <c r="C202" t="s">
-        <v>97</v>
+        <v>104</v>
       </c>
       <c r="D202" t="s">
-        <v>96</v>
+        <v>45</v>
       </c>
       <c r="E202">
-        <v>252</v>
+        <v>450</v>
       </c>
       <c r="F202">
         <f t="shared" si="0"/>
-        <v>15120</v>
+        <v>27000</v>
       </c>
       <c r="G202" s="3" t="s">
-        <v>98</v>
+        <v>105</v>
       </c>
     </row>
     <row r="203" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A203" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="B203" t="s">
         <v>38</v>
       </c>
       <c r="C203" t="s">
-        <v>100</v>
+        <v>47</v>
       </c>
       <c r="D203" t="s">
-        <v>99</v>
+        <v>45</v>
       </c>
       <c r="E203">
-        <v>22.1</v>
+        <v>182</v>
       </c>
       <c r="F203">
         <f t="shared" si="0"/>
-        <v>1326</v>
+        <v>10920</v>
       </c>
       <c r="G203" s="3" t="s">
-        <v>101</v>
+        <v>48</v>
       </c>
     </row>
     <row r="204" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A204" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="B204" t="s">
         <v>38</v>
       </c>
       <c r="C204" t="s">
-        <v>102</v>
+        <v>41</v>
       </c>
       <c r="D204" t="s">
-        <v>40</v>
+        <v>88</v>
       </c>
       <c r="E204">
-        <v>3.9E-2</v>
+        <v>345</v>
       </c>
       <c r="F204">
         <f t="shared" si="0"/>
-        <v>2.34</v>
+        <v>20700</v>
       </c>
       <c r="G204" s="3" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
     </row>
     <row r="205" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A205" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="B205" t="s">
         <v>38</v>
       </c>
       <c r="C205" t="s">
-        <v>104</v>
+        <v>43</v>
       </c>
       <c r="D205" t="s">
         <v>45</v>
       </c>
       <c r="E205">
-        <v>450</v>
+        <v>170</v>
       </c>
       <c r="F205">
         <f t="shared" si="0"/>
-        <v>27000</v>
+        <v>10200</v>
       </c>
       <c r="G205" s="3" t="s">
-        <v>105</v>
+        <v>46</v>
       </c>
     </row>
     <row r="206" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A206" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="B206" t="s">
-        <v>38</v>
+        <v>16</v>
       </c>
       <c r="C206" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="D206" t="s">
         <v>45</v>
       </c>
       <c r="E206">
-        <v>182</v>
+        <v>170</v>
       </c>
       <c r="F206">
         <f t="shared" si="0"/>
-        <v>10920</v>
+        <v>10200</v>
       </c>
       <c r="G206" s="3" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="207" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A207" t="s">
-        <v>35</v>
+        <v>44</v>
       </c>
       <c r="B207" t="s">
-        <v>38</v>
+        <v>16</v>
       </c>
       <c r="C207" t="s">
-        <v>41</v>
+        <v>47</v>
       </c>
       <c r="D207" t="s">
-        <v>88</v>
+        <v>45</v>
       </c>
       <c r="E207">
-        <v>345</v>
+        <v>182</v>
       </c>
       <c r="F207">
         <f t="shared" si="0"/>
-        <v>20700</v>
+        <v>10920</v>
       </c>
       <c r="G207" s="3" t="s">
-        <v>106</v>
+        <v>48</v>
       </c>
     </row>
     <row r="208" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A208" t="s">
-        <v>36</v>
+        <v>161</v>
       </c>
       <c r="B208" t="s">
         <v>38</v>
       </c>
       <c r="C208" t="s">
-        <v>43</v>
+        <v>176</v>
       </c>
       <c r="D208" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="E208">
-        <v>170</v>
+        <v>40</v>
       </c>
       <c r="F208">
         <f t="shared" si="0"/>
-        <v>10200</v>
+        <v>2400</v>
       </c>
       <c r="G208" s="3" t="s">
-        <v>46</v>
+        <v>175</v>
       </c>
     </row>
     <row r="209" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A209" t="s">
-        <v>37</v>
+        <v>163</v>
       </c>
       <c r="B209" t="s">
-        <v>16</v>
+        <v>38</v>
       </c>
       <c r="C209" t="s">
-        <v>43</v>
+        <v>173</v>
       </c>
       <c r="D209" t="s">
-        <v>45</v>
+        <v>88</v>
       </c>
       <c r="E209">
-        <v>170</v>
+        <v>0.84</v>
       </c>
       <c r="F209">
         <f t="shared" si="0"/>
-        <v>10200</v>
-      </c>
-      <c r="G209" s="3" t="s">
-        <v>46</v>
+        <v>50.4</v>
+      </c>
+      <c r="G209" s="5" t="s">
+        <v>174</v>
       </c>
     </row>
     <row r="210" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A210" t="s">
-        <v>44</v>
+        <v>162</v>
       </c>
       <c r="B210" t="s">
-        <v>16</v>
+        <v>38</v>
       </c>
       <c r="C210" t="s">
-        <v>47</v>
+        <v>172</v>
       </c>
       <c r="D210" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="E210">
-        <v>182</v>
+        <v>0.55000000000000004</v>
       </c>
       <c r="F210">
         <f t="shared" si="0"/>
-        <v>10920</v>
-      </c>
-      <c r="G210" s="3" t="s">
-        <v>48</v>
+        <v>33</v>
+      </c>
+      <c r="G210" s="6" t="s">
+        <v>171</v>
       </c>
     </row>
     <row r="211" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A211" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="B211" t="s">
         <v>38</v>
       </c>
       <c r="C211" t="s">
-        <v>176</v>
+        <v>170</v>
       </c>
       <c r="D211" t="s">
         <v>42</v>
       </c>
       <c r="E211">
-        <v>40</v>
+        <v>7.1</v>
       </c>
       <c r="F211">
         <f t="shared" si="0"/>
-        <v>2400</v>
-      </c>
-      <c r="G211" s="3" t="s">
-        <v>175</v>
+        <v>426</v>
+      </c>
+      <c r="G211" s="6" t="s">
+        <v>171</v>
       </c>
     </row>
     <row r="212" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A212" t="s">
-        <v>163</v>
+        <v>182</v>
       </c>
       <c r="B212" t="s">
         <v>38</v>
       </c>
       <c r="C212" t="s">
-        <v>173</v>
+        <v>186</v>
       </c>
       <c r="D212" t="s">
-        <v>88</v>
+        <v>40</v>
       </c>
       <c r="E212">
-        <v>0.84</v>
+        <v>2300</v>
       </c>
       <c r="F212">
         <f t="shared" si="0"/>
-        <v>50.4</v>
-      </c>
-      <c r="G212" s="5" t="s">
-        <v>174</v>
+        <v>138000</v>
+      </c>
+      <c r="G212" s="6" t="s">
+        <v>187</v>
       </c>
     </row>
     <row r="213" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A213" t="s">
-        <v>162</v>
+        <v>183</v>
       </c>
       <c r="B213" t="s">
         <v>38</v>
       </c>
       <c r="C213" t="s">
-        <v>172</v>
+        <v>188</v>
       </c>
       <c r="D213" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="E213">
-        <v>0.55000000000000004</v>
+        <v>0.22800000000000001</v>
       </c>
       <c r="F213">
         <f t="shared" si="0"/>
-        <v>33</v>
+        <v>13.68</v>
       </c>
       <c r="G213" s="6" t="s">
-        <v>171</v>
+        <v>189</v>
       </c>
     </row>
     <row r="214" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A214" t="s">
-        <v>164</v>
+        <v>184</v>
       </c>
       <c r="B214" t="s">
         <v>38</v>
       </c>
       <c r="C214" t="s">
-        <v>170</v>
+        <v>190</v>
       </c>
       <c r="D214" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="E214">
-        <v>7.1</v>
+        <v>38.6</v>
       </c>
       <c r="F214">
         <f t="shared" si="0"/>
-        <v>426</v>
+        <v>2316</v>
       </c>
       <c r="G214" s="6" t="s">
-        <v>171</v>
+        <v>191</v>
       </c>
     </row>
     <row r="215" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A215" t="s">
-        <v>182</v>
+        <v>212</v>
       </c>
       <c r="B215" t="s">
         <v>38</v>
       </c>
       <c r="C215" t="s">
-        <v>186</v>
+        <v>213</v>
       </c>
       <c r="D215" t="s">
-        <v>40</v>
+        <v>88</v>
       </c>
       <c r="E215">
-        <v>2300</v>
+        <v>28.3</v>
       </c>
       <c r="F215">
         <f t="shared" si="0"/>
-        <v>138000</v>
+        <v>1698</v>
       </c>
       <c r="G215" s="6" t="s">
-        <v>187</v>
+        <v>214</v>
       </c>
     </row>
     <row r="216" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A216" t="s">
-        <v>183</v>
+        <v>215</v>
       </c>
       <c r="B216" t="s">
         <v>38</v>
       </c>
       <c r="C216" t="s">
-        <v>188</v>
+        <v>216</v>
       </c>
       <c r="D216" t="s">
         <v>45</v>
       </c>
       <c r="E216">
-        <v>0.22800000000000001</v>
+        <v>5.7999999999999996E-3</v>
       </c>
       <c r="F216">
         <f t="shared" si="0"/>
-        <v>13.68</v>
+        <v>0.34799999999999998</v>
       </c>
       <c r="G216" s="6" t="s">
-        <v>189</v>
+        <v>217</v>
       </c>
     </row>
     <row r="217" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A217" t="s">
-        <v>184</v>
+        <v>218</v>
       </c>
       <c r="B217" t="s">
         <v>38</v>
       </c>
       <c r="C217" t="s">
-        <v>190</v>
+        <v>219</v>
       </c>
       <c r="D217" t="s">
-        <v>45</v>
+        <v>88</v>
       </c>
       <c r="E217">
-        <v>38.6</v>
+        <v>0.185</v>
       </c>
       <c r="F217">
         <f t="shared" si="0"/>
-        <v>2316</v>
+        <v>11.1</v>
       </c>
       <c r="G217" s="6" t="s">
-        <v>191</v>
+        <v>220</v>
       </c>
     </row>
     <row r="218" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A218" t="s">
-        <v>212</v>
+        <v>224</v>
       </c>
       <c r="B218" t="s">
         <v>38</v>
       </c>
       <c r="C218" t="s">
-        <v>213</v>
+        <v>225</v>
       </c>
       <c r="D218" t="s">
         <v>88</v>
       </c>
       <c r="E218">
-        <v>28.3</v>
+        <v>133</v>
       </c>
       <c r="F218">
         <f t="shared" si="0"/>
-        <v>1698</v>
+        <v>7980</v>
       </c>
       <c r="G218" s="6" t="s">
-        <v>214</v>
+        <v>226</v>
       </c>
     </row>
     <row r="219" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A219" t="s">
-        <v>215</v>
+        <v>227</v>
       </c>
       <c r="B219" t="s">
         <v>38</v>
       </c>
       <c r="C219" t="s">
-        <v>216</v>
+        <v>228</v>
       </c>
       <c r="D219" t="s">
         <v>45</v>
       </c>
       <c r="E219">
-        <v>5.7999999999999996E-3</v>
+        <v>2.2999999999999998</v>
       </c>
       <c r="F219">
         <f t="shared" si="0"/>
-        <v>0.34799999999999998</v>
+        <v>138</v>
       </c>
       <c r="G219" s="6" t="s">
-        <v>217</v>
+        <v>229</v>
       </c>
     </row>
     <row r="220" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A220" t="s">
-        <v>218</v>
+        <v>231</v>
       </c>
       <c r="B220" t="s">
         <v>38</v>
       </c>
       <c r="C220" t="s">
-        <v>219</v>
+        <v>230</v>
       </c>
       <c r="D220" t="s">
-        <v>88</v>
+        <v>45</v>
       </c>
       <c r="E220">
-        <v>0.185</v>
+        <v>1334</v>
       </c>
       <c r="F220">
         <f t="shared" si="0"/>
-        <v>11.1</v>
+        <v>80040</v>
       </c>
       <c r="G220" s="6" t="s">
-        <v>220</v>
+        <v>232</v>
       </c>
     </row>
     <row r="221" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A221" t="s">
-        <v>224</v>
+        <v>233</v>
       </c>
       <c r="B221" t="s">
         <v>38</v>
       </c>
       <c r="C221" t="s">
-        <v>225</v>
+        <v>234</v>
       </c>
       <c r="D221" t="s">
-        <v>88</v>
+        <v>45</v>
       </c>
       <c r="E221">
-        <v>133</v>
+        <v>220</v>
       </c>
       <c r="F221">
         <f t="shared" si="0"/>
-        <v>7980</v>
+        <v>13200</v>
       </c>
       <c r="G221" s="6" t="s">
-        <v>226</v>
+        <v>235</v>
       </c>
     </row>
     <row r="222" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A222" t="s">
-        <v>227</v>
+        <v>236</v>
       </c>
       <c r="B222" t="s">
         <v>38</v>
       </c>
       <c r="C222" t="s">
-        <v>228</v>
+        <v>237</v>
       </c>
       <c r="D222" t="s">
         <v>45</v>
       </c>
       <c r="E222">
-        <v>2.2999999999999998</v>
+        <v>58.2</v>
       </c>
       <c r="F222">
         <f t="shared" si="0"/>
-        <v>138</v>
+        <v>3492</v>
       </c>
       <c r="G222" s="6" t="s">
-        <v>229</v>
+        <v>238</v>
       </c>
     </row>
     <row r="223" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A223" t="s">
-        <v>231</v>
+        <v>396</v>
       </c>
       <c r="B223" t="s">
         <v>38</v>
       </c>
       <c r="C223" t="s">
-        <v>230</v>
+        <v>546</v>
       </c>
       <c r="D223" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="E223">
-        <v>1334</v>
+        <v>13.9</v>
       </c>
       <c r="F223">
         <f t="shared" si="0"/>
-        <v>80040</v>
-      </c>
-      <c r="G223" s="6" t="s">
-        <v>232</v>
+        <v>834</v>
+      </c>
+      <c r="G223" s="3" t="s">
+        <v>547</v>
       </c>
     </row>
     <row r="224" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A224" t="s">
-        <v>233</v>
+        <v>397</v>
       </c>
       <c r="B224" t="s">
         <v>38</v>
       </c>
       <c r="C224" t="s">
-        <v>234</v>
+        <v>548</v>
       </c>
       <c r="D224" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="E224">
-        <v>220</v>
+        <v>3.9</v>
       </c>
       <c r="F224">
         <f t="shared" si="0"/>
-        <v>13200</v>
-      </c>
-      <c r="G224" s="6" t="s">
-        <v>235</v>
+        <v>234</v>
+      </c>
+      <c r="G224" s="3" t="s">
+        <v>549</v>
       </c>
     </row>
     <row r="225" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A225" t="s">
-        <v>236</v>
+        <v>398</v>
       </c>
       <c r="B225" t="s">
         <v>38</v>
       </c>
       <c r="C225" t="s">
-        <v>237</v>
+        <v>554</v>
       </c>
       <c r="D225" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="E225">
-        <v>58.2</v>
+        <v>430</v>
       </c>
       <c r="F225">
         <f t="shared" si="0"/>
-        <v>3492</v>
-      </c>
-      <c r="G225" s="6" t="s">
-        <v>238</v>
+        <v>25800</v>
+      </c>
+      <c r="G225" s="3" t="s">
+        <v>555</v>
       </c>
     </row>
     <row r="226" spans="1:7" x14ac:dyDescent="0.35">
@@ -7085,20 +7408,20 @@
         <v>38</v>
       </c>
       <c r="C226" t="s">
-        <v>549</v>
+        <v>556</v>
       </c>
       <c r="D226" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="E226">
-        <v>13.9</v>
+        <v>26.4</v>
       </c>
       <c r="F226">
         <f t="shared" si="0"/>
-        <v>834</v>
+        <v>1584</v>
       </c>
       <c r="G226" s="3" t="s">
-        <v>550</v>
+        <v>557</v>
       </c>
     </row>
     <row r="227" spans="1:7" x14ac:dyDescent="0.35">
@@ -7109,20 +7432,20 @@
         <v>38</v>
       </c>
       <c r="C227" t="s">
-        <v>551</v>
+        <v>558</v>
       </c>
       <c r="D227" t="s">
-        <v>40</v>
+        <v>88</v>
       </c>
       <c r="E227">
-        <v>3.9</v>
+        <v>19.899999999999999</v>
       </c>
       <c r="F227">
-        <f t="shared" si="0"/>
-        <v>234</v>
+        <f>E227*60</f>
+        <v>1194</v>
       </c>
       <c r="G227" s="3" t="s">
-        <v>552</v>
+        <v>559</v>
       </c>
     </row>
     <row r="228" spans="1:7" x14ac:dyDescent="0.35">
@@ -7133,20 +7456,20 @@
         <v>38</v>
       </c>
       <c r="C228" t="s">
-        <v>557</v>
+        <v>552</v>
       </c>
       <c r="D228" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="E228">
-        <v>430</v>
+        <v>7</v>
       </c>
       <c r="F228">
-        <f t="shared" si="0"/>
-        <v>25800</v>
+        <f t="shared" ref="F228:F244" si="10">E228*60</f>
+        <v>420</v>
       </c>
       <c r="G228" s="3" t="s">
-        <v>558</v>
+        <v>553</v>
       </c>
     </row>
     <row r="229" spans="1:7" x14ac:dyDescent="0.35">
@@ -7157,20 +7480,20 @@
         <v>38</v>
       </c>
       <c r="C229" t="s">
-        <v>559</v>
+        <v>550</v>
       </c>
       <c r="D229" t="s">
         <v>45</v>
       </c>
       <c r="E229">
-        <v>26.4</v>
+        <v>2.9</v>
       </c>
       <c r="F229">
-        <f t="shared" si="0"/>
-        <v>1584</v>
+        <f t="shared" si="10"/>
+        <v>174</v>
       </c>
       <c r="G229" s="3" t="s">
-        <v>560</v>
+        <v>551</v>
       </c>
     </row>
     <row r="230" spans="1:7" x14ac:dyDescent="0.35">
@@ -7181,20 +7504,20 @@
         <v>38</v>
       </c>
       <c r="C230" t="s">
-        <v>561</v>
+        <v>475</v>
       </c>
       <c r="D230" t="s">
         <v>88</v>
       </c>
       <c r="E230">
-        <v>19.899999999999999</v>
+        <v>3.3</v>
       </c>
       <c r="F230">
-        <f>E230*60</f>
-        <v>1194</v>
+        <f t="shared" si="10"/>
+        <v>198</v>
       </c>
       <c r="G230" s="3" t="s">
-        <v>562</v>
+        <v>476</v>
       </c>
     </row>
     <row r="231" spans="1:7" x14ac:dyDescent="0.35">
@@ -7205,20 +7528,20 @@
         <v>38</v>
       </c>
       <c r="C231" t="s">
-        <v>555</v>
+        <v>560</v>
       </c>
       <c r="D231" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="E231">
-        <v>7</v>
+        <v>24.9</v>
       </c>
       <c r="F231">
-        <f t="shared" ref="F231:F247" si="10">E231*60</f>
-        <v>420</v>
+        <f t="shared" si="10"/>
+        <v>1494</v>
       </c>
       <c r="G231" s="3" t="s">
-        <v>556</v>
+        <v>561</v>
       </c>
     </row>
     <row r="232" spans="1:7" x14ac:dyDescent="0.35">
@@ -7229,20 +7552,20 @@
         <v>38</v>
       </c>
       <c r="C232" t="s">
-        <v>553</v>
+        <v>43</v>
       </c>
       <c r="D232" t="s">
         <v>45</v>
       </c>
       <c r="E232">
-        <v>2.9</v>
+        <v>170</v>
       </c>
       <c r="F232">
         <f t="shared" si="10"/>
-        <v>174</v>
+        <v>10200</v>
       </c>
       <c r="G232" s="3" t="s">
-        <v>554</v>
+        <v>46</v>
       </c>
     </row>
     <row r="233" spans="1:7" x14ac:dyDescent="0.35">
@@ -7253,20 +7576,20 @@
         <v>38</v>
       </c>
       <c r="C233" t="s">
-        <v>478</v>
+        <v>491</v>
       </c>
       <c r="D233" t="s">
-        <v>88</v>
+        <v>40</v>
       </c>
       <c r="E233">
-        <v>3.3</v>
+        <v>5.5</v>
       </c>
       <c r="F233">
         <f t="shared" si="10"/>
-        <v>198</v>
+        <v>330</v>
       </c>
       <c r="G233" s="3" t="s">
-        <v>479</v>
+        <v>492</v>
       </c>
     </row>
     <row r="234" spans="1:7" x14ac:dyDescent="0.35">
@@ -7277,20 +7600,20 @@
         <v>38</v>
       </c>
       <c r="C234" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="D234" t="s">
-        <v>40</v>
+        <v>210</v>
       </c>
       <c r="E234">
-        <v>24.9</v>
+        <v>26.8</v>
       </c>
       <c r="F234">
         <f t="shared" si="10"/>
-        <v>1494</v>
+        <v>1608</v>
       </c>
       <c r="G234" s="3" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
     </row>
     <row r="235" spans="1:7" x14ac:dyDescent="0.35">
@@ -7301,20 +7624,20 @@
         <v>38</v>
       </c>
       <c r="C235" t="s">
-        <v>43</v>
+        <v>564</v>
       </c>
       <c r="D235" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="E235">
-        <v>170</v>
+        <v>1.5</v>
       </c>
       <c r="F235">
         <f t="shared" si="10"/>
-        <v>10200</v>
+        <v>90</v>
       </c>
       <c r="G235" s="3" t="s">
-        <v>46</v>
+        <v>565</v>
       </c>
     </row>
     <row r="236" spans="1:7" x14ac:dyDescent="0.35">
@@ -7325,20 +7648,20 @@
         <v>38</v>
       </c>
       <c r="C236" t="s">
-        <v>494</v>
+        <v>566</v>
       </c>
       <c r="D236" t="s">
-        <v>40</v>
+        <v>567</v>
       </c>
       <c r="E236">
-        <v>5.5</v>
+        <v>0.45</v>
       </c>
       <c r="F236">
         <f t="shared" si="10"/>
-        <v>330</v>
+        <v>27</v>
       </c>
       <c r="G236" s="3" t="s">
-        <v>495</v>
+        <v>568</v>
       </c>
     </row>
     <row r="237" spans="1:7" x14ac:dyDescent="0.35">
@@ -7349,20 +7672,20 @@
         <v>38</v>
       </c>
       <c r="C237" t="s">
-        <v>565</v>
+        <v>548</v>
       </c>
       <c r="D237" t="s">
-        <v>210</v>
+        <v>40</v>
       </c>
       <c r="E237">
-        <v>26.8</v>
+        <v>3.9</v>
       </c>
       <c r="F237">
         <f t="shared" si="10"/>
-        <v>1608</v>
+        <v>234</v>
       </c>
       <c r="G237" s="3" t="s">
-        <v>566</v>
+        <v>549</v>
       </c>
     </row>
     <row r="238" spans="1:7" x14ac:dyDescent="0.35">
@@ -7373,20 +7696,20 @@
         <v>38</v>
       </c>
       <c r="C238" t="s">
-        <v>567</v>
+        <v>170</v>
       </c>
       <c r="D238" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="E238">
-        <v>1.5</v>
+        <v>7.1</v>
       </c>
       <c r="F238">
         <f t="shared" si="10"/>
-        <v>90</v>
-      </c>
-      <c r="G238" s="3" t="s">
-        <v>568</v>
+        <v>426</v>
+      </c>
+      <c r="G238" s="4" t="s">
+        <v>171</v>
       </c>
     </row>
     <row r="239" spans="1:7" x14ac:dyDescent="0.35">
@@ -7400,17 +7723,17 @@
         <v>569</v>
       </c>
       <c r="D239" t="s">
-        <v>570</v>
+        <v>446</v>
       </c>
       <c r="E239">
-        <v>0.45</v>
+        <v>410</v>
       </c>
       <c r="F239">
         <f t="shared" si="10"/>
-        <v>27</v>
+        <v>24600</v>
       </c>
       <c r="G239" s="3" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
     </row>
     <row r="240" spans="1:7" x14ac:dyDescent="0.35">
@@ -7421,20 +7744,20 @@
         <v>38</v>
       </c>
       <c r="C240" t="s">
-        <v>551</v>
+        <v>198</v>
       </c>
       <c r="D240" t="s">
         <v>40</v>
       </c>
       <c r="E240">
-        <v>3.9</v>
+        <v>5.9709873654656063</v>
       </c>
       <c r="F240">
         <f t="shared" si="10"/>
-        <v>234</v>
+        <v>358.25924192793639</v>
       </c>
       <c r="G240" s="3" t="s">
-        <v>552</v>
+        <v>571</v>
       </c>
     </row>
     <row r="241" spans="1:7" x14ac:dyDescent="0.35">
@@ -7445,20 +7768,20 @@
         <v>38</v>
       </c>
       <c r="C241" t="s">
-        <v>170</v>
+        <v>495</v>
       </c>
       <c r="D241" t="s">
-        <v>42</v>
+        <v>88</v>
       </c>
       <c r="E241">
-        <v>7.1</v>
+        <v>8.1999999999999993</v>
       </c>
       <c r="F241">
         <f t="shared" si="10"/>
-        <v>426</v>
-      </c>
-      <c r="G241" s="4" t="s">
-        <v>171</v>
+        <v>491.99999999999994</v>
+      </c>
+      <c r="G241" s="3" t="s">
+        <v>496</v>
       </c>
     </row>
     <row r="242" spans="1:7" x14ac:dyDescent="0.35">
@@ -7472,14 +7795,14 @@
         <v>572</v>
       </c>
       <c r="D242" t="s">
-        <v>449</v>
+        <v>76</v>
       </c>
       <c r="E242">
-        <v>410</v>
+        <v>1.08</v>
       </c>
       <c r="F242">
         <f t="shared" si="10"/>
-        <v>24600</v>
+        <v>64.800000000000011</v>
       </c>
       <c r="G242" s="3" t="s">
         <v>573</v>
@@ -7493,20 +7816,20 @@
         <v>38</v>
       </c>
       <c r="C243" t="s">
-        <v>198</v>
+        <v>471</v>
       </c>
       <c r="D243" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="E243">
-        <v>5.9709873654656063</v>
+        <v>206</v>
       </c>
       <c r="F243">
         <f t="shared" si="10"/>
-        <v>358.25924192793639</v>
+        <v>12360</v>
       </c>
       <c r="G243" s="3" t="s">
-        <v>574</v>
+        <v>472</v>
       </c>
     </row>
     <row r="244" spans="1:7" x14ac:dyDescent="0.35">
@@ -7517,20 +7840,20 @@
         <v>38</v>
       </c>
       <c r="C244" t="s">
-        <v>498</v>
+        <v>574</v>
       </c>
       <c r="D244" t="s">
         <v>88</v>
       </c>
       <c r="E244">
-        <v>8.1999999999999993</v>
+        <v>1.83</v>
       </c>
       <c r="F244">
         <f t="shared" si="10"/>
-        <v>491.99999999999994</v>
+        <v>109.80000000000001</v>
       </c>
       <c r="G244" s="3" t="s">
-        <v>499</v>
+        <v>575</v>
       </c>
     </row>
     <row r="245" spans="1:7" x14ac:dyDescent="0.35">
@@ -7541,20 +7864,20 @@
         <v>38</v>
       </c>
       <c r="C245" t="s">
-        <v>575</v>
+        <v>491</v>
       </c>
       <c r="D245" t="s">
-        <v>76</v>
+        <v>40</v>
       </c>
       <c r="E245">
-        <v>1.08</v>
+        <v>5.5</v>
       </c>
       <c r="F245">
-        <f t="shared" si="10"/>
-        <v>64.800000000000011</v>
+        <f t="shared" ref="F245:F247" si="11">E245*60</f>
+        <v>330</v>
       </c>
       <c r="G245" s="3" t="s">
-        <v>576</v>
+        <v>492</v>
       </c>
     </row>
     <row r="246" spans="1:7" x14ac:dyDescent="0.35">
@@ -7565,20 +7888,20 @@
         <v>38</v>
       </c>
       <c r="C246" t="s">
-        <v>474</v>
+        <v>576</v>
       </c>
       <c r="D246" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="E246">
-        <v>206</v>
+        <v>5.6</v>
       </c>
       <c r="F246">
-        <f t="shared" si="10"/>
-        <v>12360</v>
+        <f t="shared" si="11"/>
+        <v>336</v>
       </c>
       <c r="G246" s="3" t="s">
-        <v>475</v>
+        <v>577</v>
       </c>
     </row>
     <row r="247" spans="1:7" x14ac:dyDescent="0.35">
@@ -7589,20 +7912,20 @@
         <v>38</v>
       </c>
       <c r="C247" t="s">
-        <v>577</v>
+        <v>572</v>
       </c>
       <c r="D247" t="s">
-        <v>88</v>
+        <v>76</v>
       </c>
       <c r="E247">
-        <v>1.83</v>
+        <v>1.08</v>
       </c>
       <c r="F247">
-        <f t="shared" si="10"/>
-        <v>109.80000000000001</v>
+        <f t="shared" si="11"/>
+        <v>64.800000000000011</v>
       </c>
       <c r="G247" s="3" t="s">
-        <v>578</v>
+        <v>573</v>
       </c>
     </row>
     <row r="248" spans="1:7" x14ac:dyDescent="0.35">
@@ -7613,7 +7936,7 @@
         <v>38</v>
       </c>
       <c r="C248" t="s">
-        <v>494</v>
+        <v>491</v>
       </c>
       <c r="D248" t="s">
         <v>40</v>
@@ -7622,11 +7945,11 @@
         <v>5.5</v>
       </c>
       <c r="F248">
-        <f t="shared" ref="F248:F250" si="11">E248*60</f>
+        <f t="shared" ref="F248:F249" si="12">E248*60</f>
         <v>330</v>
       </c>
       <c r="G248" s="3" t="s">
-        <v>495</v>
+        <v>492</v>
       </c>
     </row>
     <row r="249" spans="1:7" x14ac:dyDescent="0.35">
@@ -7637,20 +7960,20 @@
         <v>38</v>
       </c>
       <c r="C249" t="s">
+        <v>578</v>
+      </c>
+      <c r="D249" t="s">
+        <v>40</v>
+      </c>
+      <c r="E249">
+        <v>11.7</v>
+      </c>
+      <c r="F249">
+        <f t="shared" si="12"/>
+        <v>702</v>
+      </c>
+      <c r="G249" s="3" t="s">
         <v>579</v>
-      </c>
-      <c r="D249" t="s">
-        <v>45</v>
-      </c>
-      <c r="E249">
-        <v>5.6</v>
-      </c>
-      <c r="F249">
-        <f t="shared" si="11"/>
-        <v>336</v>
-      </c>
-      <c r="G249" s="3" t="s">
-        <v>580</v>
       </c>
     </row>
     <row r="250" spans="1:7" x14ac:dyDescent="0.35">
@@ -7661,20 +7984,20 @@
         <v>38</v>
       </c>
       <c r="C250" t="s">
-        <v>575</v>
+        <v>491</v>
       </c>
       <c r="D250" t="s">
-        <v>76</v>
+        <v>40</v>
       </c>
       <c r="E250">
-        <v>1.08</v>
+        <v>5.5</v>
       </c>
       <c r="F250">
-        <f t="shared" si="11"/>
-        <v>64.800000000000011</v>
+        <f t="shared" ref="F250:F252" si="13">E250*60</f>
+        <v>330</v>
       </c>
       <c r="G250" s="3" t="s">
-        <v>576</v>
+        <v>492</v>
       </c>
     </row>
     <row r="251" spans="1:7" x14ac:dyDescent="0.35">
@@ -7685,20 +8008,20 @@
         <v>38</v>
       </c>
       <c r="C251" t="s">
-        <v>494</v>
+        <v>580</v>
       </c>
       <c r="D251" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="E251">
-        <v>5.5</v>
+        <v>5.3</v>
       </c>
       <c r="F251">
-        <f t="shared" ref="F251:F252" si="12">E251*60</f>
-        <v>330</v>
+        <f t="shared" si="13"/>
+        <v>318</v>
       </c>
       <c r="G251" s="3" t="s">
-        <v>495</v>
+        <v>581</v>
       </c>
     </row>
     <row r="252" spans="1:7" x14ac:dyDescent="0.35">
@@ -7709,20 +8032,20 @@
         <v>38</v>
       </c>
       <c r="C252" t="s">
-        <v>581</v>
+        <v>582</v>
       </c>
       <c r="D252" t="s">
         <v>40</v>
       </c>
       <c r="E252">
-        <v>11.7</v>
+        <v>51.8</v>
       </c>
       <c r="F252">
-        <f t="shared" si="12"/>
-        <v>702</v>
+        <f t="shared" si="13"/>
+        <v>3108</v>
       </c>
       <c r="G252" s="3" t="s">
-        <v>582</v>
+        <v>583</v>
       </c>
     </row>
     <row r="253" spans="1:7" x14ac:dyDescent="0.35">
@@ -7733,7 +8056,7 @@
         <v>38</v>
       </c>
       <c r="C253" t="s">
-        <v>494</v>
+        <v>491</v>
       </c>
       <c r="D253" t="s">
         <v>40</v>
@@ -7742,11 +8065,11 @@
         <v>5.5</v>
       </c>
       <c r="F253">
-        <f t="shared" ref="F253:F255" si="13">E253*60</f>
+        <f t="shared" ref="F253:F257" si="14">E253*60</f>
         <v>330</v>
       </c>
       <c r="G253" s="3" t="s">
-        <v>495</v>
+        <v>492</v>
       </c>
     </row>
     <row r="254" spans="1:7" x14ac:dyDescent="0.35">
@@ -7757,20 +8080,20 @@
         <v>38</v>
       </c>
       <c r="C254" t="s">
-        <v>583</v>
+        <v>172</v>
       </c>
       <c r="D254" t="s">
-        <v>45</v>
+        <v>88</v>
       </c>
       <c r="E254">
-        <v>5.3</v>
+        <v>27.1</v>
       </c>
       <c r="F254">
-        <f t="shared" si="13"/>
-        <v>318</v>
+        <f t="shared" si="14"/>
+        <v>1626</v>
       </c>
       <c r="G254" s="3" t="s">
-        <v>584</v>
+        <v>588</v>
       </c>
     </row>
     <row r="255" spans="1:7" x14ac:dyDescent="0.35">
@@ -7781,20 +8104,20 @@
         <v>38</v>
       </c>
       <c r="C255" t="s">
-        <v>585</v>
+        <v>589</v>
       </c>
       <c r="D255" t="s">
         <v>40</v>
       </c>
       <c r="E255">
-        <v>51.8</v>
+        <v>2.6</v>
       </c>
       <c r="F255">
-        <f t="shared" si="13"/>
-        <v>3108</v>
+        <f t="shared" si="14"/>
+        <v>156</v>
       </c>
       <c r="G255" s="3" t="s">
-        <v>586</v>
+        <v>590</v>
       </c>
     </row>
     <row r="256" spans="1:7" x14ac:dyDescent="0.35">
@@ -7805,20 +8128,20 @@
         <v>38</v>
       </c>
       <c r="C256" t="s">
-        <v>494</v>
+        <v>170</v>
       </c>
       <c r="D256" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="E256">
-        <v>5.5</v>
+        <v>7.1</v>
       </c>
       <c r="F256">
-        <f t="shared" ref="F256:F260" si="14">E256*60</f>
-        <v>330</v>
-      </c>
-      <c r="G256" s="3" t="s">
-        <v>495</v>
+        <f t="shared" si="14"/>
+        <v>426</v>
+      </c>
+      <c r="G256" s="4" t="s">
+        <v>171</v>
       </c>
     </row>
     <row r="257" spans="1:7" x14ac:dyDescent="0.35">
@@ -7829,20 +8152,20 @@
         <v>38</v>
       </c>
       <c r="C257" t="s">
-        <v>172</v>
+        <v>445</v>
       </c>
       <c r="D257" t="s">
-        <v>88</v>
+        <v>446</v>
       </c>
       <c r="E257">
-        <v>27.1</v>
+        <v>7.3</v>
       </c>
       <c r="F257">
         <f t="shared" si="14"/>
-        <v>1626</v>
+        <v>438</v>
       </c>
       <c r="G257" s="3" t="s">
-        <v>591</v>
+        <v>447</v>
       </c>
     </row>
     <row r="258" spans="1:7" x14ac:dyDescent="0.35">
@@ -7853,20 +8176,16 @@
         <v>38</v>
       </c>
       <c r="C258" t="s">
-        <v>592</v>
+        <v>586</v>
       </c>
       <c r="D258" t="s">
-        <v>40</v>
+        <v>88</v>
       </c>
       <c r="E258">
-        <v>2.6</v>
-      </c>
-      <c r="F258">
-        <f t="shared" si="14"/>
-        <v>156</v>
+        <v>6.3</v>
       </c>
       <c r="G258" s="3" t="s">
-        <v>593</v>
+        <v>587</v>
       </c>
     </row>
     <row r="259" spans="1:7" x14ac:dyDescent="0.35">
@@ -7877,20 +8196,16 @@
         <v>38</v>
       </c>
       <c r="C259" t="s">
-        <v>170</v>
+        <v>584</v>
       </c>
       <c r="D259" t="s">
-        <v>42</v>
+        <v>88</v>
       </c>
       <c r="E259">
-        <v>7.1</v>
-      </c>
-      <c r="F259">
-        <f t="shared" si="14"/>
-        <v>426</v>
-      </c>
-      <c r="G259" s="4" t="s">
-        <v>171</v>
+        <v>1.87</v>
+      </c>
+      <c r="G259" s="3" t="s">
+        <v>585</v>
       </c>
     </row>
     <row r="260" spans="1:7" x14ac:dyDescent="0.35">
@@ -7901,20 +8216,20 @@
         <v>38</v>
       </c>
       <c r="C260" t="s">
-        <v>448</v>
+        <v>170</v>
       </c>
       <c r="D260" t="s">
-        <v>449</v>
+        <v>40</v>
       </c>
       <c r="E260">
-        <v>7.3</v>
+        <v>32</v>
       </c>
       <c r="F260">
-        <f t="shared" si="14"/>
-        <v>438</v>
+        <f t="shared" ref="F260" si="15">E260*60</f>
+        <v>1920</v>
       </c>
       <c r="G260" s="3" t="s">
-        <v>450</v>
+        <v>466</v>
       </c>
     </row>
     <row r="261" spans="1:7" x14ac:dyDescent="0.35">
@@ -7925,177 +8240,113 @@
         <v>38</v>
       </c>
       <c r="C261" t="s">
-        <v>589</v>
+        <v>435</v>
       </c>
       <c r="D261" t="s">
-        <v>88</v>
+        <v>45</v>
       </c>
       <c r="E261">
-        <v>6.3</v>
+        <v>221</v>
+      </c>
+      <c r="F261">
+        <f t="shared" si="0"/>
+        <v>13260</v>
       </c>
       <c r="G261" s="3" t="s">
-        <v>590</v>
+        <v>436</v>
       </c>
     </row>
     <row r="262" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A262" t="s">
-        <v>435</v>
+        <v>156</v>
       </c>
       <c r="B262" t="s">
         <v>38</v>
       </c>
       <c r="C262" t="s">
-        <v>587</v>
+        <v>158</v>
       </c>
       <c r="D262" t="s">
-        <v>88</v>
+        <v>45</v>
       </c>
       <c r="E262">
-        <v>1.87</v>
+        <v>7.5</v>
+      </c>
+      <c r="F262">
+        <f t="shared" si="0"/>
+        <v>450</v>
       </c>
       <c r="G262" s="3" t="s">
-        <v>588</v>
+        <v>159</v>
       </c>
     </row>
     <row r="263" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A263" t="s">
-        <v>436</v>
+        <v>157</v>
       </c>
       <c r="B263" t="s">
         <v>38</v>
       </c>
       <c r="C263" t="s">
-        <v>170</v>
+        <v>158</v>
       </c>
       <c r="D263" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="E263">
-        <v>32</v>
+        <v>7.5</v>
       </c>
       <c r="F263">
-        <f t="shared" ref="F263" si="15">E263*60</f>
-        <v>1920</v>
+        <f t="shared" si="0"/>
+        <v>450</v>
       </c>
       <c r="G263" s="3" t="s">
-        <v>469</v>
+        <v>159</v>
       </c>
     </row>
     <row r="264" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A264" t="s">
-        <v>437</v>
+        <v>160</v>
       </c>
       <c r="B264" t="s">
-        <v>38</v>
+        <v>16</v>
       </c>
       <c r="C264" t="s">
-        <v>438</v>
+        <v>109</v>
       </c>
       <c r="D264" t="s">
-        <v>45</v>
-      </c>
-      <c r="E264">
-        <v>221</v>
+        <v>109</v>
+      </c>
+      <c r="E264" t="s">
+        <v>109</v>
       </c>
       <c r="F264">
-        <f t="shared" si="0"/>
-        <v>13260</v>
-      </c>
-      <c r="G264" s="3" t="s">
-        <v>439</v>
+        <v>100</v>
+      </c>
+      <c r="G264" s="2" t="s">
+        <v>114</v>
       </c>
     </row>
     <row r="265" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A265" t="s">
-        <v>156</v>
+        <v>117</v>
       </c>
       <c r="B265" t="s">
-        <v>38</v>
+        <v>16</v>
       </c>
       <c r="C265" t="s">
-        <v>158</v>
+        <v>109</v>
       </c>
       <c r="D265" t="s">
-        <v>45</v>
-      </c>
-      <c r="E265">
-        <v>7.5</v>
+        <v>109</v>
+      </c>
+      <c r="E265" t="s">
+        <v>109</v>
       </c>
       <c r="F265">
-        <f t="shared" si="0"/>
-        <v>450</v>
-      </c>
-      <c r="G265" s="3" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="266" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A266" t="s">
-        <v>157</v>
-      </c>
-      <c r="B266" t="s">
-        <v>38</v>
-      </c>
-      <c r="C266" t="s">
-        <v>158</v>
-      </c>
-      <c r="D266" t="s">
-        <v>45</v>
-      </c>
-      <c r="E266">
-        <v>7.5</v>
-      </c>
-      <c r="F266">
-        <f t="shared" si="0"/>
-        <v>450</v>
-      </c>
-      <c r="G266" s="3" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="267" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A267" t="s">
-        <v>160</v>
-      </c>
-      <c r="B267" t="s">
-        <v>16</v>
-      </c>
-      <c r="C267" t="s">
-        <v>109</v>
-      </c>
-      <c r="D267" t="s">
-        <v>109</v>
-      </c>
-      <c r="E267" t="s">
-        <v>109</v>
-      </c>
-      <c r="F267">
-        <v>100</v>
-      </c>
-      <c r="G267" s="2" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="268" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A268" t="s">
-        <v>117</v>
-      </c>
-      <c r="B268" t="s">
-        <v>16</v>
-      </c>
-      <c r="C268" t="s">
-        <v>109</v>
-      </c>
-      <c r="D268" t="s">
-        <v>109</v>
-      </c>
-      <c r="E268" t="s">
-        <v>109</v>
-      </c>
-      <c r="F268">
         <v>50</v>
       </c>
-      <c r="G268" s="2" t="s">
+      <c r="G265" s="2" t="s">
         <v>114</v>
       </c>
     </row>
@@ -8103,8 +8354,8 @@
   <hyperlinks>
     <hyperlink ref="G20" r:id="rId1" xr:uid="{60D2E9C6-9172-4D4D-B418-CC567356E033}"/>
     <hyperlink ref="G2" r:id="rId2" xr:uid="{96642BA6-12F8-4451-8DFA-16265959FEFA}"/>
-    <hyperlink ref="G214" r:id="rId3" xr:uid="{DBD518FF-06AA-4F59-B32D-3D580FD3488C}"/>
-    <hyperlink ref="G213" r:id="rId4" xr:uid="{3C873BD8-C205-4B23-B8F2-C8E28D105704}"/>
+    <hyperlink ref="G211" r:id="rId3" xr:uid="{DBD518FF-06AA-4F59-B32D-3D580FD3488C}"/>
+    <hyperlink ref="G210" r:id="rId4" xr:uid="{3C873BD8-C205-4B23-B8F2-C8E28D105704}"/>
     <hyperlink ref="G30" r:id="rId5" xr:uid="{3CCDC09F-65EC-46AB-A5B6-06698DF90FD6}"/>
     <hyperlink ref="G31" r:id="rId6" xr:uid="{45B7FFC2-C775-45F6-B5E2-92E39C1EFAC1}"/>
     <hyperlink ref="G34" r:id="rId7" xr:uid="{C0F23788-2A31-4EA5-B6D6-A12E3C45A7E7}"/>
@@ -8113,10 +8364,10 @@
     <hyperlink ref="G77" r:id="rId10" xr:uid="{6C3143F8-EECE-493B-A808-BC8B1FB906E4}"/>
     <hyperlink ref="G82" r:id="rId11" xr:uid="{5F7C4001-6F89-479B-983C-BDB24868961F}"/>
     <hyperlink ref="G88" r:id="rId12" xr:uid="{B65497F5-375F-4E2A-86C4-B4310250B40D}"/>
-    <hyperlink ref="G241" r:id="rId13" xr:uid="{B850A642-752F-4050-BE9D-FD6DEF1A1A28}"/>
-    <hyperlink ref="G259" r:id="rId14" xr:uid="{733CCEAC-FE6D-4E5A-890C-C556E3FD7098}"/>
+    <hyperlink ref="G238" r:id="rId13" xr:uid="{B850A642-752F-4050-BE9D-FD6DEF1A1A28}"/>
+    <hyperlink ref="G256" r:id="rId14" xr:uid="{733CCEAC-FE6D-4E5A-890C-C556E3FD7098}"/>
     <hyperlink ref="G122" r:id="rId15" xr:uid="{3ACF0FFB-BCF3-4FD6-9FD5-CA9D90101625}"/>
-    <hyperlink ref="G172" r:id="rId16" xr:uid="{1167C813-88FC-4ED1-BAC3-35562E39F6B3}"/>
+    <hyperlink ref="G169" r:id="rId16" xr:uid="{1167C813-88FC-4ED1-BAC3-35562E39F6B3}"/>
     <hyperlink ref="G141" r:id="rId17" xr:uid="{0AC60904-9B6C-42FC-A0D6-DCDFCFACCDB7}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/data/gems/Parameters.xlsx
+++ b/data/gems/Parameters.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bras5181\Desktop\Labprojects\CulturedMeat\iSusS\data\gems\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D60AB6F4-8BD8-4A35-8EDE-9DBBA59D4DA4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8797A9B1-508A-4375-A6E7-A8D9B9FC9528}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1327" uniqueCount="665">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1364" uniqueCount="676">
   <si>
     <t>Rxn</t>
   </si>
@@ -1164,9 +1164,6 @@
     <t>5HOXINDACTOX</t>
   </si>
   <si>
-    <t>3HXKYNDCL</t>
-  </si>
-  <si>
     <t>GNMT</t>
   </si>
   <si>
@@ -1179,21 +1176,12 @@
     <t>ALR</t>
   </si>
   <si>
-    <t>PHETHPTOX2</t>
-  </si>
-  <si>
     <t>SAMHISTA</t>
   </si>
   <si>
     <t>PPOR</t>
   </si>
   <si>
-    <t>PTRCOX1</t>
-  </si>
-  <si>
-    <t>5HOXINOXDA</t>
-  </si>
-  <si>
     <t>PHYCBOXL</t>
   </si>
   <si>
@@ -1203,15 +1191,6 @@
     <t>GLNS</t>
   </si>
   <si>
-    <t>SRTN23OX</t>
-  </si>
-  <si>
-    <t>TYR3MO2</t>
-  </si>
-  <si>
-    <t>ACSOMT</t>
-  </si>
-  <si>
     <t>NOS1</t>
   </si>
   <si>
@@ -2032,6 +2011,60 @@
   </si>
   <si>
     <t>DOI: 10.1016/s0141-0229(00)00154-x</t>
+  </si>
+  <si>
+    <t>4.4.1.1</t>
+  </si>
+  <si>
+    <t>DOI: 10.1016/j.abb.2011.11.002</t>
+  </si>
+  <si>
+    <t>Oryctolagus cuniculus</t>
+  </si>
+  <si>
+    <t>2.1.1.20</t>
+  </si>
+  <si>
+    <t>PMID: 4692843</t>
+  </si>
+  <si>
+    <t>2.5.1.6</t>
+  </si>
+  <si>
+    <t>DOI: 10.1016/s0003-2697(03)00284-7</t>
+  </si>
+  <si>
+    <t>1.2.1.49</t>
+  </si>
+  <si>
+    <t>DOI: 10.1016/s0076-6879(82)89088-5</t>
+  </si>
+  <si>
+    <t>2.1.1.8</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1016/0076-6879(71)17135-2</t>
+  </si>
+  <si>
+    <t>6.3.1.2</t>
+  </si>
+  <si>
+    <t>DOI: 10.1016/s0076-6879(85)13031-4</t>
+  </si>
+  <si>
+    <t>4.2.3.1</t>
+  </si>
+  <si>
+    <t>Arabidopsis thaliana</t>
+  </si>
+  <si>
+    <t>DOI: 10.1021/bi980068f</t>
+  </si>
+  <si>
+    <t>6.3.5.4</t>
+  </si>
+  <si>
+    <t>PMID: 2868008</t>
   </si>
 </sst>
 </file>
@@ -2378,10 +2411,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G265"/>
+  <dimension ref="A1:G258"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A154" workbookViewId="0">
-      <selection activeCell="M162" sqref="M162"/>
+    <sheetView tabSelected="1" topLeftCell="A235" workbookViewId="0">
+      <selection activeCell="M252" sqref="M252"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2569,7 +2602,7 @@
         <v>620</v>
       </c>
       <c r="F8">
-        <f t="shared" ref="F8:F263" si="0">E8*60</f>
+        <f t="shared" ref="F8:F256" si="0">E8*60</f>
         <v>37200</v>
       </c>
       <c r="G8" s="3" t="s">
@@ -3304,7 +3337,7 @@
         <v>16</v>
       </c>
       <c r="C39" t="s">
-        <v>437</v>
+        <v>430</v>
       </c>
       <c r="D39" t="s">
         <v>88</v>
@@ -3317,7 +3350,7 @@
         <v>816</v>
       </c>
       <c r="G39" s="3" t="s">
-        <v>438</v>
+        <v>431</v>
       </c>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.35">
@@ -3328,7 +3361,7 @@
         <v>16</v>
       </c>
       <c r="C40" t="s">
-        <v>439</v>
+        <v>432</v>
       </c>
       <c r="D40" t="s">
         <v>45</v>
@@ -3341,7 +3374,7 @@
         <v>227.34</v>
       </c>
       <c r="G40" s="3" t="s">
-        <v>440</v>
+        <v>433</v>
       </c>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.35">
@@ -3352,7 +3385,7 @@
         <v>16</v>
       </c>
       <c r="C41" t="s">
-        <v>441</v>
+        <v>434</v>
       </c>
       <c r="D41" t="s">
         <v>45</v>
@@ -3365,7 +3398,7 @@
         <v>184.14</v>
       </c>
       <c r="G41" s="3" t="s">
-        <v>442</v>
+        <v>435</v>
       </c>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.35">
@@ -3376,7 +3409,7 @@
         <v>16</v>
       </c>
       <c r="C42" t="s">
-        <v>443</v>
+        <v>436</v>
       </c>
       <c r="D42" t="s">
         <v>45</v>
@@ -3389,7 +3422,7 @@
         <v>124.80000000000001</v>
       </c>
       <c r="G42" s="3" t="s">
-        <v>444</v>
+        <v>437</v>
       </c>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.35">
@@ -3400,10 +3433,10 @@
         <v>16</v>
       </c>
       <c r="C43" t="s">
-        <v>445</v>
+        <v>438</v>
       </c>
       <c r="D43" t="s">
-        <v>446</v>
+        <v>439</v>
       </c>
       <c r="E43">
         <v>7.3</v>
@@ -3413,7 +3446,7 @@
         <v>438</v>
       </c>
       <c r="G43" s="3" t="s">
-        <v>447</v>
+        <v>440</v>
       </c>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.35">
@@ -3448,7 +3481,7 @@
         <v>16</v>
       </c>
       <c r="C45" t="s">
-        <v>448</v>
+        <v>441</v>
       </c>
       <c r="D45" t="s">
         <v>45</v>
@@ -3461,7 +3494,7 @@
         <v>4098</v>
       </c>
       <c r="G45" s="1" t="s">
-        <v>449</v>
+        <v>442</v>
       </c>
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.35">
@@ -3472,7 +3505,7 @@
         <v>16</v>
       </c>
       <c r="C46" t="s">
-        <v>450</v>
+        <v>443</v>
       </c>
       <c r="D46" t="s">
         <v>40</v>
@@ -3485,7 +3518,7 @@
         <v>24600</v>
       </c>
       <c r="G46" s="3" t="s">
-        <v>451</v>
+        <v>444</v>
       </c>
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.35">
@@ -3496,7 +3529,7 @@
         <v>16</v>
       </c>
       <c r="C47" t="s">
-        <v>452</v>
+        <v>445</v>
       </c>
       <c r="D47" t="s">
         <v>40</v>
@@ -3509,7 +3542,7 @@
         <v>1255.9199999999998</v>
       </c>
       <c r="G47" s="3" t="s">
-        <v>453</v>
+        <v>446</v>
       </c>
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.35">
@@ -3520,7 +3553,7 @@
         <v>16</v>
       </c>
       <c r="C48" t="s">
-        <v>454</v>
+        <v>447</v>
       </c>
       <c r="D48" t="s">
         <v>40</v>
@@ -3533,7 +3566,7 @@
         <v>618</v>
       </c>
       <c r="G48" s="3" t="s">
-        <v>455</v>
+        <v>448</v>
       </c>
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.35">
@@ -3544,7 +3577,7 @@
         <v>16</v>
       </c>
       <c r="C49" t="s">
-        <v>456</v>
+        <v>449</v>
       </c>
       <c r="D49" t="s">
         <v>40</v>
@@ -3557,7 +3590,7 @@
         <v>105.6</v>
       </c>
       <c r="G49" s="3" t="s">
-        <v>457</v>
+        <v>450</v>
       </c>
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.35">
@@ -3568,7 +3601,7 @@
         <v>16</v>
       </c>
       <c r="C50" t="s">
-        <v>458</v>
+        <v>451</v>
       </c>
       <c r="D50" t="s">
         <v>45</v>
@@ -3581,7 +3614,7 @@
         <v>1.962</v>
       </c>
       <c r="G50" s="3" t="s">
-        <v>459</v>
+        <v>452</v>
       </c>
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.35">
@@ -3592,7 +3625,7 @@
         <v>16</v>
       </c>
       <c r="C51" t="s">
-        <v>460</v>
+        <v>453</v>
       </c>
       <c r="D51" t="s">
         <v>40</v>
@@ -3605,7 +3638,7 @@
         <v>21001.199999999997</v>
       </c>
       <c r="G51" s="3" t="s">
-        <v>461</v>
+        <v>454</v>
       </c>
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.35">
@@ -3616,7 +3649,7 @@
         <v>16</v>
       </c>
       <c r="C52" t="s">
-        <v>462</v>
+        <v>455</v>
       </c>
       <c r="D52" t="s">
         <v>45</v>
@@ -3629,7 +3662,7 @@
         <v>0.14399999999999999</v>
       </c>
       <c r="G52" s="3" t="s">
-        <v>463</v>
+        <v>456</v>
       </c>
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.35">
@@ -3640,7 +3673,7 @@
         <v>16</v>
       </c>
       <c r="C53" t="s">
-        <v>456</v>
+        <v>449</v>
       </c>
       <c r="D53" t="s">
         <v>40</v>
@@ -3653,7 +3686,7 @@
         <v>105.6</v>
       </c>
       <c r="G53" s="3" t="s">
-        <v>457</v>
+        <v>450</v>
       </c>
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.35">
@@ -3664,7 +3697,7 @@
         <v>16</v>
       </c>
       <c r="C54" t="s">
-        <v>443</v>
+        <v>436</v>
       </c>
       <c r="D54" t="s">
         <v>45</v>
@@ -3677,7 +3710,7 @@
         <v>124.80000000000001</v>
       </c>
       <c r="G54" s="3" t="s">
-        <v>444</v>
+        <v>437</v>
       </c>
     </row>
     <row r="55" spans="1:7" x14ac:dyDescent="0.35">
@@ -3688,7 +3721,7 @@
         <v>16</v>
       </c>
       <c r="C55" t="s">
-        <v>464</v>
+        <v>457</v>
       </c>
       <c r="D55" t="s">
         <v>45</v>
@@ -3701,7 +3734,7 @@
         <v>8280</v>
       </c>
       <c r="G55" s="3" t="s">
-        <v>465</v>
+        <v>458</v>
       </c>
     </row>
     <row r="56" spans="1:7" x14ac:dyDescent="0.35">
@@ -3712,7 +3745,7 @@
         <v>16</v>
       </c>
       <c r="C56" t="s">
-        <v>443</v>
+        <v>436</v>
       </c>
       <c r="D56" t="s">
         <v>45</v>
@@ -3725,7 +3758,7 @@
         <v>124.80000000000001</v>
       </c>
       <c r="G56" s="3" t="s">
-        <v>444</v>
+        <v>437</v>
       </c>
     </row>
     <row r="57" spans="1:7" x14ac:dyDescent="0.35">
@@ -3749,7 +3782,7 @@
         <v>1920</v>
       </c>
       <c r="G57" s="3" t="s">
-        <v>466</v>
+        <v>459</v>
       </c>
     </row>
     <row r="58" spans="1:7" x14ac:dyDescent="0.35">
@@ -3760,7 +3793,7 @@
         <v>16</v>
       </c>
       <c r="C58" t="s">
-        <v>441</v>
+        <v>434</v>
       </c>
       <c r="D58" t="s">
         <v>45</v>
@@ -3773,7 +3806,7 @@
         <v>184.14</v>
       </c>
       <c r="G58" s="3" t="s">
-        <v>442</v>
+        <v>435</v>
       </c>
     </row>
     <row r="59" spans="1:7" x14ac:dyDescent="0.35">
@@ -3784,7 +3817,7 @@
         <v>16</v>
       </c>
       <c r="C59" t="s">
-        <v>467</v>
+        <v>460</v>
       </c>
       <c r="D59" t="s">
         <v>42</v>
@@ -3797,7 +3830,7 @@
         <v>0.39479999999999998</v>
       </c>
       <c r="G59" s="3" t="s">
-        <v>468</v>
+        <v>461</v>
       </c>
     </row>
     <row r="60" spans="1:7" x14ac:dyDescent="0.35">
@@ -3808,7 +3841,7 @@
         <v>16</v>
       </c>
       <c r="C60" t="s">
-        <v>469</v>
+        <v>462</v>
       </c>
       <c r="D60" t="s">
         <v>45</v>
@@ -3821,7 +3854,7 @@
         <v>0.12</v>
       </c>
       <c r="G60" s="3" t="s">
-        <v>470</v>
+        <v>463</v>
       </c>
     </row>
     <row r="61" spans="1:7" x14ac:dyDescent="0.35">
@@ -3832,7 +3865,7 @@
         <v>16</v>
       </c>
       <c r="C61" t="s">
-        <v>471</v>
+        <v>464</v>
       </c>
       <c r="D61" t="s">
         <v>42</v>
@@ -3845,7 +3878,7 @@
         <v>12360</v>
       </c>
       <c r="G61" s="3" t="s">
-        <v>472</v>
+        <v>465</v>
       </c>
     </row>
     <row r="62" spans="1:7" x14ac:dyDescent="0.35">
@@ -3856,7 +3889,7 @@
         <v>16</v>
       </c>
       <c r="C62" t="s">
-        <v>473</v>
+        <v>466</v>
       </c>
       <c r="D62" t="s">
         <v>88</v>
@@ -3869,7 +3902,7 @@
         <v>3.516</v>
       </c>
       <c r="G62" s="3" t="s">
-        <v>474</v>
+        <v>467</v>
       </c>
     </row>
     <row r="63" spans="1:7" x14ac:dyDescent="0.35">
@@ -3880,7 +3913,7 @@
         <v>16</v>
       </c>
       <c r="C63" t="s">
-        <v>475</v>
+        <v>468</v>
       </c>
       <c r="D63" t="s">
         <v>88</v>
@@ -3893,7 +3926,7 @@
         <v>198</v>
       </c>
       <c r="G63" s="3" t="s">
-        <v>476</v>
+        <v>469</v>
       </c>
     </row>
     <row r="64" spans="1:7" x14ac:dyDescent="0.35">
@@ -3904,7 +3937,7 @@
         <v>16</v>
       </c>
       <c r="C64" t="s">
-        <v>477</v>
+        <v>470</v>
       </c>
       <c r="D64" t="s">
         <v>45</v>
@@ -3917,7 +3950,7 @@
         <v>3060</v>
       </c>
       <c r="G64" s="3" t="s">
-        <v>478</v>
+        <v>471</v>
       </c>
     </row>
     <row r="65" spans="1:7" x14ac:dyDescent="0.35">
@@ -3928,7 +3961,7 @@
         <v>16</v>
       </c>
       <c r="C65" t="s">
-        <v>479</v>
+        <v>472</v>
       </c>
       <c r="D65" t="s">
         <v>40</v>
@@ -3941,7 +3974,7 @@
         <v>8220</v>
       </c>
       <c r="G65" s="3" t="s">
-        <v>480</v>
+        <v>473</v>
       </c>
     </row>
     <row r="66" spans="1:7" x14ac:dyDescent="0.35">
@@ -3952,7 +3985,7 @@
         <v>16</v>
       </c>
       <c r="C66" t="s">
-        <v>481</v>
+        <v>474</v>
       </c>
       <c r="D66" t="s">
         <v>45</v>
@@ -3965,7 +3998,7 @@
         <v>6.4199999999999993E-2</v>
       </c>
       <c r="G66" s="1" t="s">
-        <v>482</v>
+        <v>475</v>
       </c>
     </row>
     <row r="67" spans="1:7" x14ac:dyDescent="0.35">
@@ -3976,7 +4009,7 @@
         <v>16</v>
       </c>
       <c r="C67" t="s">
-        <v>483</v>
+        <v>476</v>
       </c>
       <c r="D67" t="s">
         <v>88</v>
@@ -3989,7 +4022,7 @@
         <v>59340</v>
       </c>
       <c r="G67" s="3" t="s">
-        <v>484</v>
+        <v>477</v>
       </c>
     </row>
     <row r="68" spans="1:7" x14ac:dyDescent="0.35">
@@ -4000,7 +4033,7 @@
         <v>16</v>
       </c>
       <c r="C68" t="s">
-        <v>485</v>
+        <v>478</v>
       </c>
       <c r="D68" t="s">
         <v>45</v>
@@ -4013,7 +4046,7 @@
         <v>18.600000000000001</v>
       </c>
       <c r="G68" s="3" t="s">
-        <v>486</v>
+        <v>479</v>
       </c>
     </row>
     <row r="69" spans="1:7" x14ac:dyDescent="0.35">
@@ -4024,7 +4057,7 @@
         <v>16</v>
       </c>
       <c r="C69" t="s">
-        <v>487</v>
+        <v>480</v>
       </c>
       <c r="D69" t="s">
         <v>40</v>
@@ -4037,7 +4070,7 @@
         <v>2760</v>
       </c>
       <c r="G69" s="3" t="s">
-        <v>488</v>
+        <v>481</v>
       </c>
     </row>
     <row r="70" spans="1:7" x14ac:dyDescent="0.35">
@@ -4048,7 +4081,7 @@
         <v>16</v>
       </c>
       <c r="C70" t="s">
-        <v>489</v>
+        <v>482</v>
       </c>
       <c r="D70" t="s">
         <v>45</v>
@@ -4061,7 +4094,7 @@
         <v>48.959999999999994</v>
       </c>
       <c r="G70" s="3" t="s">
-        <v>490</v>
+        <v>483</v>
       </c>
     </row>
     <row r="71" spans="1:7" x14ac:dyDescent="0.35">
@@ -4072,7 +4105,7 @@
         <v>16</v>
       </c>
       <c r="C71" t="s">
-        <v>491</v>
+        <v>484</v>
       </c>
       <c r="D71" t="s">
         <v>40</v>
@@ -4085,7 +4118,7 @@
         <v>330</v>
       </c>
       <c r="G71" s="3" t="s">
-        <v>492</v>
+        <v>485</v>
       </c>
     </row>
     <row r="72" spans="1:7" x14ac:dyDescent="0.35">
@@ -4096,7 +4129,7 @@
         <v>16</v>
       </c>
       <c r="C72" t="s">
-        <v>487</v>
+        <v>480</v>
       </c>
       <c r="D72" t="s">
         <v>40</v>
@@ -4109,7 +4142,7 @@
         <v>2760</v>
       </c>
       <c r="G72" s="3" t="s">
-        <v>488</v>
+        <v>481</v>
       </c>
     </row>
     <row r="73" spans="1:7" x14ac:dyDescent="0.35">
@@ -4120,7 +4153,7 @@
         <v>16</v>
       </c>
       <c r="C73" t="s">
-        <v>493</v>
+        <v>486</v>
       </c>
       <c r="D73" t="s">
         <v>147</v>
@@ -4133,7 +4166,7 @@
         <v>4260</v>
       </c>
       <c r="G73" s="3" t="s">
-        <v>494</v>
+        <v>487</v>
       </c>
     </row>
     <row r="74" spans="1:7" x14ac:dyDescent="0.35">
@@ -4144,7 +4177,7 @@
         <v>16</v>
       </c>
       <c r="C74" t="s">
-        <v>441</v>
+        <v>434</v>
       </c>
       <c r="D74" t="s">
         <v>45</v>
@@ -4157,7 +4190,7 @@
         <v>184.14</v>
       </c>
       <c r="G74" s="3" t="s">
-        <v>442</v>
+        <v>435</v>
       </c>
     </row>
     <row r="75" spans="1:7" x14ac:dyDescent="0.35">
@@ -4168,7 +4201,7 @@
         <v>16</v>
       </c>
       <c r="C75" t="s">
-        <v>495</v>
+        <v>488</v>
       </c>
       <c r="D75" t="s">
         <v>88</v>
@@ -4181,7 +4214,7 @@
         <v>29.4</v>
       </c>
       <c r="G75" s="3" t="s">
-        <v>496</v>
+        <v>489</v>
       </c>
     </row>
     <row r="76" spans="1:7" x14ac:dyDescent="0.35">
@@ -4192,7 +4225,7 @@
         <v>16</v>
       </c>
       <c r="C76" t="s">
-        <v>487</v>
+        <v>480</v>
       </c>
       <c r="D76" t="s">
         <v>40</v>
@@ -4205,7 +4238,7 @@
         <v>2760</v>
       </c>
       <c r="G76" s="3" t="s">
-        <v>488</v>
+        <v>481</v>
       </c>
     </row>
     <row r="77" spans="1:7" x14ac:dyDescent="0.35">
@@ -4216,7 +4249,7 @@
         <v>16</v>
       </c>
       <c r="C77" t="s">
-        <v>481</v>
+        <v>474</v>
       </c>
       <c r="D77" t="s">
         <v>45</v>
@@ -4229,7 +4262,7 @@
         <v>6.4199999999999993E-2</v>
       </c>
       <c r="G77" s="1" t="s">
-        <v>482</v>
+        <v>475</v>
       </c>
     </row>
     <row r="78" spans="1:7" x14ac:dyDescent="0.35">
@@ -4240,7 +4273,7 @@
         <v>16</v>
       </c>
       <c r="C78" t="s">
-        <v>443</v>
+        <v>436</v>
       </c>
       <c r="D78" t="s">
         <v>45</v>
@@ -4253,7 +4286,7 @@
         <v>124.80000000000001</v>
       </c>
       <c r="G78" s="3" t="s">
-        <v>444</v>
+        <v>437</v>
       </c>
     </row>
     <row r="79" spans="1:7" x14ac:dyDescent="0.35">
@@ -4264,7 +4297,7 @@
         <v>16</v>
       </c>
       <c r="C79" t="s">
-        <v>497</v>
+        <v>490</v>
       </c>
       <c r="D79" t="s">
         <v>40</v>
@@ -4277,7 +4310,7 @@
         <v>196.27339572192511</v>
       </c>
       <c r="G79" s="3" t="s">
-        <v>498</v>
+        <v>491</v>
       </c>
     </row>
     <row r="80" spans="1:7" x14ac:dyDescent="0.35">
@@ -4288,7 +4321,7 @@
         <v>16</v>
       </c>
       <c r="C80" t="s">
-        <v>499</v>
+        <v>492</v>
       </c>
       <c r="D80" t="s">
         <v>42</v>
@@ -4301,7 +4334,7 @@
         <v>306</v>
       </c>
       <c r="G80" s="3" t="s">
-        <v>500</v>
+        <v>493</v>
       </c>
     </row>
     <row r="81" spans="1:7" x14ac:dyDescent="0.35">
@@ -4312,7 +4345,7 @@
         <v>16</v>
       </c>
       <c r="C81" t="s">
-        <v>501</v>
+        <v>494</v>
       </c>
       <c r="D81" t="s">
         <v>40</v>
@@ -4325,7 +4358,7 @@
         <v>282</v>
       </c>
       <c r="G81" s="3" t="s">
-        <v>502</v>
+        <v>495</v>
       </c>
     </row>
     <row r="82" spans="1:7" x14ac:dyDescent="0.35">
@@ -4336,7 +4369,7 @@
         <v>16</v>
       </c>
       <c r="C82" t="s">
-        <v>481</v>
+        <v>474</v>
       </c>
       <c r="D82" t="s">
         <v>45</v>
@@ -4349,7 +4382,7 @@
         <v>6.4199999999999993E-2</v>
       </c>
       <c r="G82" s="1" t="s">
-        <v>482</v>
+        <v>475</v>
       </c>
     </row>
     <row r="83" spans="1:7" x14ac:dyDescent="0.35">
@@ -4360,7 +4393,7 @@
         <v>16</v>
       </c>
       <c r="C83" t="s">
-        <v>501</v>
+        <v>494</v>
       </c>
       <c r="D83" t="s">
         <v>40</v>
@@ -4373,7 +4406,7 @@
         <v>282</v>
       </c>
       <c r="G83" s="3" t="s">
-        <v>502</v>
+        <v>495</v>
       </c>
     </row>
     <row r="84" spans="1:7" x14ac:dyDescent="0.35">
@@ -4384,10 +4417,10 @@
         <v>16</v>
       </c>
       <c r="C84" t="s">
-        <v>503</v>
+        <v>496</v>
       </c>
       <c r="D84" t="s">
-        <v>504</v>
+        <v>497</v>
       </c>
       <c r="E84">
         <v>8.75</v>
@@ -4397,7 +4430,7 @@
         <v>525</v>
       </c>
       <c r="G84" s="3" t="s">
-        <v>505</v>
+        <v>498</v>
       </c>
     </row>
     <row r="85" spans="1:7" x14ac:dyDescent="0.35">
@@ -4408,10 +4441,10 @@
         <v>16</v>
       </c>
       <c r="C85" t="s">
-        <v>503</v>
+        <v>496</v>
       </c>
       <c r="D85" t="s">
-        <v>504</v>
+        <v>497</v>
       </c>
       <c r="E85">
         <v>21</v>
@@ -4421,7 +4454,7 @@
         <v>1260</v>
       </c>
       <c r="G85" s="3" t="s">
-        <v>505</v>
+        <v>498</v>
       </c>
     </row>
     <row r="86" spans="1:7" x14ac:dyDescent="0.35">
@@ -4432,10 +4465,10 @@
         <v>16</v>
       </c>
       <c r="C86" t="s">
-        <v>503</v>
+        <v>496</v>
       </c>
       <c r="D86" t="s">
-        <v>504</v>
+        <v>497</v>
       </c>
       <c r="E86">
         <v>9.3800000000000008</v>
@@ -4445,7 +4478,7 @@
         <v>562.80000000000007</v>
       </c>
       <c r="G86" s="3" t="s">
-        <v>505</v>
+        <v>498</v>
       </c>
     </row>
     <row r="87" spans="1:7" x14ac:dyDescent="0.35">
@@ -4456,10 +4489,10 @@
         <v>16</v>
       </c>
       <c r="C87" t="s">
-        <v>506</v>
+        <v>499</v>
       </c>
       <c r="D87" t="s">
-        <v>504</v>
+        <v>497</v>
       </c>
       <c r="E87">
         <v>0.114</v>
@@ -4469,7 +4502,7 @@
         <v>6.84</v>
       </c>
       <c r="G87" s="3" t="s">
-        <v>507</v>
+        <v>500</v>
       </c>
     </row>
     <row r="88" spans="1:7" x14ac:dyDescent="0.35">
@@ -4480,7 +4513,7 @@
         <v>16</v>
       </c>
       <c r="C88" t="s">
-        <v>508</v>
+        <v>501</v>
       </c>
       <c r="D88" t="s">
         <v>45</v>
@@ -4493,7 +4526,7 @@
         <v>58.8</v>
       </c>
       <c r="G88" s="1" t="s">
-        <v>509</v>
+        <v>502</v>
       </c>
     </row>
     <row r="89" spans="1:7" x14ac:dyDescent="0.35">
@@ -4504,7 +4537,7 @@
         <v>16</v>
       </c>
       <c r="C89" t="s">
-        <v>479</v>
+        <v>472</v>
       </c>
       <c r="D89" t="s">
         <v>40</v>
@@ -4517,7 +4550,7 @@
         <v>8220</v>
       </c>
       <c r="G89" s="3" t="s">
-        <v>480</v>
+        <v>473</v>
       </c>
     </row>
     <row r="90" spans="1:7" x14ac:dyDescent="0.35">
@@ -4528,7 +4561,7 @@
         <v>16</v>
       </c>
       <c r="C90" t="s">
-        <v>510</v>
+        <v>503</v>
       </c>
       <c r="D90" t="s">
         <v>40</v>
@@ -4541,7 +4574,7 @@
         <v>70800</v>
       </c>
       <c r="G90" s="3" t="s">
-        <v>511</v>
+        <v>504</v>
       </c>
     </row>
     <row r="91" spans="1:7" x14ac:dyDescent="0.35">
@@ -4552,7 +4585,7 @@
         <v>16</v>
       </c>
       <c r="C91" t="s">
-        <v>512</v>
+        <v>505</v>
       </c>
       <c r="D91" t="s">
         <v>88</v>
@@ -4565,7 +4598,7 @@
         <v>8580</v>
       </c>
       <c r="G91" s="3" t="s">
-        <v>513</v>
+        <v>506</v>
       </c>
     </row>
     <row r="92" spans="1:7" x14ac:dyDescent="0.35">
@@ -4576,7 +4609,7 @@
         <v>16</v>
       </c>
       <c r="C92" t="s">
-        <v>514</v>
+        <v>507</v>
       </c>
       <c r="D92" t="s">
         <v>45</v>
@@ -4589,7 +4622,7 @@
         <v>102</v>
       </c>
       <c r="G92" s="3" t="s">
-        <v>515</v>
+        <v>508</v>
       </c>
     </row>
     <row r="93" spans="1:7" x14ac:dyDescent="0.35">
@@ -4600,7 +4633,7 @@
         <v>16</v>
       </c>
       <c r="C93" t="s">
-        <v>516</v>
+        <v>509</v>
       </c>
       <c r="D93" t="s">
         <v>45</v>
@@ -4613,7 +4646,7 @@
         <v>19.8</v>
       </c>
       <c r="G93" s="3" t="s">
-        <v>517</v>
+        <v>510</v>
       </c>
     </row>
     <row r="94" spans="1:7" x14ac:dyDescent="0.35">
@@ -4624,7 +4657,7 @@
         <v>16</v>
       </c>
       <c r="C94" t="s">
-        <v>518</v>
+        <v>511</v>
       </c>
       <c r="D94" t="s">
         <v>40</v>
@@ -4637,7 +4670,7 @@
         <v>2088</v>
       </c>
       <c r="G94" s="3" t="s">
-        <v>519</v>
+        <v>512</v>
       </c>
     </row>
     <row r="95" spans="1:7" x14ac:dyDescent="0.35">
@@ -4648,7 +4681,7 @@
         <v>16</v>
       </c>
       <c r="C95" t="s">
-        <v>520</v>
+        <v>513</v>
       </c>
       <c r="D95" t="s">
         <v>40</v>
@@ -4661,7 +4694,7 @@
         <v>1500</v>
       </c>
       <c r="G95" s="3" t="s">
-        <v>521</v>
+        <v>514</v>
       </c>
     </row>
     <row r="96" spans="1:7" x14ac:dyDescent="0.35">
@@ -4672,7 +4705,7 @@
         <v>16</v>
       </c>
       <c r="C96" t="s">
-        <v>522</v>
+        <v>515</v>
       </c>
       <c r="D96" t="s">
         <v>45</v>
@@ -4685,7 +4718,7 @@
         <v>894</v>
       </c>
       <c r="G96" s="3" t="s">
-        <v>523</v>
+        <v>516</v>
       </c>
     </row>
     <row r="97" spans="1:7" x14ac:dyDescent="0.35">
@@ -4696,7 +4729,7 @@
         <v>16</v>
       </c>
       <c r="C97" t="s">
-        <v>524</v>
+        <v>517</v>
       </c>
       <c r="D97" t="s">
         <v>40</v>
@@ -4709,7 +4742,7 @@
         <v>535.85619678334911</v>
       </c>
       <c r="G97" s="3" t="s">
-        <v>525</v>
+        <v>518</v>
       </c>
     </row>
     <row r="98" spans="1:7" x14ac:dyDescent="0.35">
@@ -4720,7 +4753,7 @@
         <v>16</v>
       </c>
       <c r="C98" t="s">
-        <v>526</v>
+        <v>519</v>
       </c>
       <c r="D98" t="s">
         <v>40</v>
@@ -4733,7 +4766,7 @@
         <v>156</v>
       </c>
       <c r="G98" s="3" t="s">
-        <v>527</v>
+        <v>520</v>
       </c>
     </row>
     <row r="99" spans="1:7" x14ac:dyDescent="0.35">
@@ -4744,7 +4777,7 @@
         <v>16</v>
       </c>
       <c r="C99" t="s">
-        <v>528</v>
+        <v>521</v>
       </c>
       <c r="D99" t="s">
         <v>45</v>
@@ -4757,7 +4790,7 @@
         <v>49.8</v>
       </c>
       <c r="G99" s="3" t="s">
-        <v>529</v>
+        <v>522</v>
       </c>
     </row>
     <row r="100" spans="1:7" x14ac:dyDescent="0.35">
@@ -4768,7 +4801,7 @@
         <v>16</v>
       </c>
       <c r="C100" t="s">
-        <v>530</v>
+        <v>523</v>
       </c>
       <c r="D100" t="s">
         <v>88</v>
@@ -4781,7 +4814,7 @@
         <v>41040</v>
       </c>
       <c r="G100" s="3" t="s">
-        <v>531</v>
+        <v>524</v>
       </c>
     </row>
     <row r="101" spans="1:7" x14ac:dyDescent="0.35">
@@ -4792,7 +4825,7 @@
         <v>16</v>
       </c>
       <c r="C101" t="s">
-        <v>532</v>
+        <v>525</v>
       </c>
       <c r="D101" t="s">
         <v>45</v>
@@ -4805,7 +4838,7 @@
         <v>190.2</v>
       </c>
       <c r="G101" s="3" t="s">
-        <v>533</v>
+        <v>526</v>
       </c>
     </row>
     <row r="102" spans="1:7" x14ac:dyDescent="0.35">
@@ -4816,7 +4849,7 @@
         <v>16</v>
       </c>
       <c r="C102" t="s">
-        <v>534</v>
+        <v>527</v>
       </c>
       <c r="D102" t="s">
         <v>45</v>
@@ -4829,7 +4862,7 @@
         <v>2.1599999999999997</v>
       </c>
       <c r="G102" s="3" t="s">
-        <v>535</v>
+        <v>528</v>
       </c>
     </row>
     <row r="103" spans="1:7" x14ac:dyDescent="0.35">
@@ -4840,7 +4873,7 @@
         <v>16</v>
       </c>
       <c r="C103" t="s">
-        <v>536</v>
+        <v>529</v>
       </c>
       <c r="D103" t="s">
         <v>45</v>
@@ -4853,7 +4886,7 @@
         <v>1446</v>
       </c>
       <c r="G103" s="3" t="s">
-        <v>537</v>
+        <v>530</v>
       </c>
     </row>
     <row r="104" spans="1:7" x14ac:dyDescent="0.35">
@@ -4864,7 +4897,7 @@
         <v>16</v>
       </c>
       <c r="C104" t="s">
-        <v>538</v>
+        <v>531</v>
       </c>
       <c r="D104" t="s">
         <v>112</v>
@@ -4877,7 +4910,7 @@
         <v>150</v>
       </c>
       <c r="G104" s="3" t="s">
-        <v>539</v>
+        <v>532</v>
       </c>
     </row>
     <row r="105" spans="1:7" x14ac:dyDescent="0.35">
@@ -4888,10 +4921,10 @@
         <v>16</v>
       </c>
       <c r="C105" t="s">
-        <v>503</v>
+        <v>496</v>
       </c>
       <c r="D105" t="s">
-        <v>540</v>
+        <v>533</v>
       </c>
       <c r="E105">
         <v>4.9000000000000004</v>
@@ -4901,7 +4934,7 @@
         <v>294</v>
       </c>
       <c r="G105" s="3" t="s">
-        <v>541</v>
+        <v>534</v>
       </c>
     </row>
     <row r="106" spans="1:7" x14ac:dyDescent="0.35">
@@ -4912,7 +4945,7 @@
         <v>16</v>
       </c>
       <c r="C106" t="s">
-        <v>456</v>
+        <v>449</v>
       </c>
       <c r="D106" t="s">
         <v>40</v>
@@ -4925,7 +4958,7 @@
         <v>105.6</v>
       </c>
       <c r="G106" s="3" t="s">
-        <v>457</v>
+        <v>450</v>
       </c>
     </row>
     <row r="107" spans="1:7" x14ac:dyDescent="0.35">
@@ -4936,7 +4969,7 @@
         <v>16</v>
       </c>
       <c r="C107" t="s">
-        <v>542</v>
+        <v>535</v>
       </c>
       <c r="D107" t="s">
         <v>42</v>
@@ -4949,7 +4982,7 @@
         <v>74400</v>
       </c>
       <c r="G107" s="3" t="s">
-        <v>543</v>
+        <v>536</v>
       </c>
     </row>
     <row r="108" spans="1:7" x14ac:dyDescent="0.35">
@@ -4960,7 +4993,7 @@
         <v>16</v>
       </c>
       <c r="C108" t="s">
-        <v>464</v>
+        <v>457</v>
       </c>
       <c r="D108" t="s">
         <v>45</v>
@@ -4973,7 +5006,7 @@
         <v>8280</v>
       </c>
       <c r="G108" s="3" t="s">
-        <v>465</v>
+        <v>458</v>
       </c>
     </row>
     <row r="109" spans="1:7" x14ac:dyDescent="0.35">
@@ -4984,7 +5017,7 @@
         <v>16</v>
       </c>
       <c r="C109" t="s">
-        <v>456</v>
+        <v>449</v>
       </c>
       <c r="D109" t="s">
         <v>40</v>
@@ -4997,7 +5030,7 @@
         <v>105.6</v>
       </c>
       <c r="G109" s="3" t="s">
-        <v>457</v>
+        <v>450</v>
       </c>
     </row>
     <row r="110" spans="1:7" x14ac:dyDescent="0.35">
@@ -5008,7 +5041,7 @@
         <v>16</v>
       </c>
       <c r="C110" t="s">
-        <v>544</v>
+        <v>537</v>
       </c>
       <c r="D110" t="s">
         <v>45</v>
@@ -5021,7 +5054,7 @@
         <v>43.8</v>
       </c>
       <c r="G110" s="3" t="s">
-        <v>545</v>
+        <v>538</v>
       </c>
     </row>
     <row r="111" spans="1:7" x14ac:dyDescent="0.35">
@@ -5032,7 +5065,7 @@
         <v>16</v>
       </c>
       <c r="C111" t="s">
-        <v>491</v>
+        <v>484</v>
       </c>
       <c r="D111" t="s">
         <v>40</v>
@@ -5045,7 +5078,7 @@
         <v>330</v>
       </c>
       <c r="G111" s="3" t="s">
-        <v>492</v>
+        <v>485</v>
       </c>
     </row>
     <row r="112" spans="1:7" x14ac:dyDescent="0.35">
@@ -5056,7 +5089,7 @@
         <v>16</v>
       </c>
       <c r="C112" t="s">
-        <v>464</v>
+        <v>457</v>
       </c>
       <c r="D112" t="s">
         <v>45</v>
@@ -5069,7 +5102,7 @@
         <v>8280</v>
       </c>
       <c r="G112" s="3" t="s">
-        <v>465</v>
+        <v>458</v>
       </c>
     </row>
     <row r="113" spans="1:7" x14ac:dyDescent="0.35">
@@ -5080,7 +5113,7 @@
         <v>16</v>
       </c>
       <c r="C113" t="s">
-        <v>591</v>
+        <v>584</v>
       </c>
       <c r="D113" t="s">
         <v>42</v>
@@ -5093,7 +5126,7 @@
         <v>900</v>
       </c>
       <c r="G113" s="3" t="s">
-        <v>592</v>
+        <v>585</v>
       </c>
     </row>
     <row r="114" spans="1:7" x14ac:dyDescent="0.35">
@@ -5104,7 +5137,7 @@
         <v>16</v>
       </c>
       <c r="C114" t="s">
-        <v>593</v>
+        <v>586</v>
       </c>
       <c r="D114" t="s">
         <v>45</v>
@@ -5117,7 +5150,7 @@
         <v>2.3519999999999999</v>
       </c>
       <c r="G114" s="3" t="s">
-        <v>459</v>
+        <v>452</v>
       </c>
     </row>
     <row r="115" spans="1:7" x14ac:dyDescent="0.35">
@@ -5128,7 +5161,7 @@
         <v>16</v>
       </c>
       <c r="C115" t="s">
-        <v>548</v>
+        <v>541</v>
       </c>
       <c r="D115" t="s">
         <v>40</v>
@@ -5141,7 +5174,7 @@
         <v>234</v>
       </c>
       <c r="G115" s="3" t="s">
-        <v>549</v>
+        <v>542</v>
       </c>
     </row>
     <row r="116" spans="1:7" x14ac:dyDescent="0.35">
@@ -5152,7 +5185,7 @@
         <v>16</v>
       </c>
       <c r="C116" t="s">
-        <v>594</v>
+        <v>587</v>
       </c>
       <c r="D116" t="s">
         <v>40</v>
@@ -5165,7 +5198,7 @@
         <v>93480</v>
       </c>
       <c r="G116" s="3" t="s">
-        <v>595</v>
+        <v>588</v>
       </c>
     </row>
     <row r="117" spans="1:7" x14ac:dyDescent="0.35">
@@ -5176,7 +5209,7 @@
         <v>16</v>
       </c>
       <c r="C117" t="s">
-        <v>596</v>
+        <v>589</v>
       </c>
       <c r="D117" t="s">
         <v>210</v>
@@ -5189,7 +5222,7 @@
         <v>9960</v>
       </c>
       <c r="G117" s="3" t="s">
-        <v>597</v>
+        <v>590</v>
       </c>
     </row>
     <row r="118" spans="1:7" x14ac:dyDescent="0.35">
@@ -5200,7 +5233,7 @@
         <v>16</v>
       </c>
       <c r="C118" t="s">
-        <v>598</v>
+        <v>591</v>
       </c>
       <c r="D118" t="s">
         <v>210</v>
@@ -5213,7 +5246,7 @@
         <v>52.8</v>
       </c>
       <c r="G118" s="3" t="s">
-        <v>599</v>
+        <v>592</v>
       </c>
     </row>
     <row r="119" spans="1:7" x14ac:dyDescent="0.35">
@@ -5224,7 +5257,7 @@
         <v>16</v>
       </c>
       <c r="C119" t="s">
-        <v>456</v>
+        <v>449</v>
       </c>
       <c r="D119" t="s">
         <v>40</v>
@@ -5237,7 +5270,7 @@
         <v>105.6</v>
       </c>
       <c r="G119" s="3" t="s">
-        <v>457</v>
+        <v>450</v>
       </c>
     </row>
     <row r="120" spans="1:7" x14ac:dyDescent="0.35">
@@ -5248,7 +5281,7 @@
         <v>16</v>
       </c>
       <c r="C120" t="s">
-        <v>460</v>
+        <v>453</v>
       </c>
       <c r="D120" t="s">
         <v>40</v>
@@ -5261,7 +5294,7 @@
         <v>21001.199999999997</v>
       </c>
       <c r="G120" s="3" t="s">
-        <v>461</v>
+        <v>454</v>
       </c>
     </row>
     <row r="121" spans="1:7" x14ac:dyDescent="0.35">
@@ -5272,7 +5305,7 @@
         <v>16</v>
       </c>
       <c r="C121" t="s">
-        <v>487</v>
+        <v>480</v>
       </c>
       <c r="D121" t="s">
         <v>40</v>
@@ -5285,7 +5318,7 @@
         <v>2760</v>
       </c>
       <c r="G121" s="3" t="s">
-        <v>488</v>
+        <v>481</v>
       </c>
     </row>
     <row r="122" spans="1:7" x14ac:dyDescent="0.35">
@@ -5296,7 +5329,7 @@
         <v>16</v>
       </c>
       <c r="C122" t="s">
-        <v>448</v>
+        <v>441</v>
       </c>
       <c r="D122" t="s">
         <v>45</v>
@@ -5309,7 +5342,7 @@
         <v>4098</v>
       </c>
       <c r="G122" s="1" t="s">
-        <v>449</v>
+        <v>442</v>
       </c>
     </row>
     <row r="123" spans="1:7" x14ac:dyDescent="0.35">
@@ -5320,7 +5353,7 @@
         <v>16</v>
       </c>
       <c r="C123" t="s">
-        <v>441</v>
+        <v>434</v>
       </c>
       <c r="D123" t="s">
         <v>45</v>
@@ -5333,7 +5366,7 @@
         <v>184.14</v>
       </c>
       <c r="G123" s="3" t="s">
-        <v>442</v>
+        <v>435</v>
       </c>
     </row>
     <row r="124" spans="1:7" x14ac:dyDescent="0.35">
@@ -5344,7 +5377,7 @@
         <v>16</v>
       </c>
       <c r="C124" t="s">
-        <v>600</v>
+        <v>593</v>
       </c>
       <c r="D124" t="s">
         <v>42</v>
@@ -5357,7 +5390,7 @@
         <v>4140</v>
       </c>
       <c r="G124" s="3" t="s">
-        <v>601</v>
+        <v>594</v>
       </c>
     </row>
     <row r="125" spans="1:7" x14ac:dyDescent="0.35">
@@ -5368,7 +5401,7 @@
         <v>16</v>
       </c>
       <c r="C125" t="s">
-        <v>602</v>
+        <v>595</v>
       </c>
       <c r="D125" t="s">
         <v>88</v>
@@ -5381,7 +5414,7 @@
         <v>2820</v>
       </c>
       <c r="G125" s="3" t="s">
-        <v>603</v>
+        <v>596</v>
       </c>
     </row>
     <row r="126" spans="1:7" x14ac:dyDescent="0.35">
@@ -5392,7 +5425,7 @@
         <v>16</v>
       </c>
       <c r="C126" t="s">
-        <v>604</v>
+        <v>597</v>
       </c>
       <c r="D126" t="s">
         <v>40</v>
@@ -5405,7 +5438,7 @@
         <v>2520</v>
       </c>
       <c r="G126" s="3" t="s">
-        <v>605</v>
+        <v>598</v>
       </c>
     </row>
     <row r="127" spans="1:7" x14ac:dyDescent="0.35">
@@ -5416,7 +5449,7 @@
         <v>16</v>
       </c>
       <c r="C127" t="s">
-        <v>606</v>
+        <v>599</v>
       </c>
       <c r="D127" t="s">
         <v>42</v>
@@ -5429,7 +5462,7 @@
         <v>0.89999999999999991</v>
       </c>
       <c r="G127" s="3" t="s">
-        <v>607</v>
+        <v>600</v>
       </c>
     </row>
     <row r="128" spans="1:7" x14ac:dyDescent="0.35">
@@ -5440,7 +5473,7 @@
         <v>16</v>
       </c>
       <c r="C128" t="s">
-        <v>606</v>
+        <v>599</v>
       </c>
       <c r="D128" t="s">
         <v>42</v>
@@ -5453,7 +5486,7 @@
         <v>0.89999999999999991</v>
       </c>
       <c r="G128" s="3" t="s">
-        <v>607</v>
+        <v>600</v>
       </c>
     </row>
     <row r="129" spans="1:7" x14ac:dyDescent="0.35">
@@ -5464,7 +5497,7 @@
         <v>16</v>
       </c>
       <c r="C129" t="s">
-        <v>608</v>
+        <v>601</v>
       </c>
       <c r="D129" t="s">
         <v>210</v>
@@ -5477,7 +5510,7 @@
         <v>165000</v>
       </c>
       <c r="G129" s="3" t="s">
-        <v>609</v>
+        <v>602</v>
       </c>
     </row>
     <row r="130" spans="1:7" x14ac:dyDescent="0.35">
@@ -5488,7 +5521,7 @@
         <v>16</v>
       </c>
       <c r="C130" t="s">
-        <v>608</v>
+        <v>601</v>
       </c>
       <c r="D130" t="s">
         <v>210</v>
@@ -5501,7 +5534,7 @@
         <v>165000</v>
       </c>
       <c r="G130" s="3" t="s">
-        <v>609</v>
+        <v>602</v>
       </c>
     </row>
     <row r="131" spans="1:7" x14ac:dyDescent="0.35">
@@ -5512,7 +5545,7 @@
         <v>16</v>
       </c>
       <c r="C131" t="s">
-        <v>608</v>
+        <v>601</v>
       </c>
       <c r="D131" t="s">
         <v>210</v>
@@ -5525,7 +5558,7 @@
         <v>165000</v>
       </c>
       <c r="G131" s="3" t="s">
-        <v>609</v>
+        <v>602</v>
       </c>
     </row>
     <row r="132" spans="1:7" x14ac:dyDescent="0.35">
@@ -5536,7 +5569,7 @@
         <v>16</v>
       </c>
       <c r="C132" t="s">
-        <v>608</v>
+        <v>601</v>
       </c>
       <c r="D132" t="s">
         <v>210</v>
@@ -5549,7 +5582,7 @@
         <v>165000</v>
       </c>
       <c r="G132" s="3" t="s">
-        <v>609</v>
+        <v>602</v>
       </c>
     </row>
     <row r="133" spans="1:7" x14ac:dyDescent="0.35">
@@ -5560,7 +5593,7 @@
         <v>16</v>
       </c>
       <c r="C133" t="s">
-        <v>610</v>
+        <v>603</v>
       </c>
       <c r="D133" t="s">
         <v>40</v>
@@ -5573,7 +5606,7 @@
         <v>228</v>
       </c>
       <c r="G133" s="3" t="s">
-        <v>611</v>
+        <v>604</v>
       </c>
     </row>
     <row r="134" spans="1:7" x14ac:dyDescent="0.35">
@@ -5584,7 +5617,7 @@
         <v>16</v>
       </c>
       <c r="C134" t="s">
-        <v>612</v>
+        <v>605</v>
       </c>
       <c r="D134" t="s">
         <v>40</v>
@@ -5597,7 +5630,7 @@
         <v>402</v>
       </c>
       <c r="G134" s="3" t="s">
-        <v>613</v>
+        <v>606</v>
       </c>
     </row>
     <row r="135" spans="1:7" x14ac:dyDescent="0.35">
@@ -5608,7 +5641,7 @@
         <v>16</v>
       </c>
       <c r="C135" t="s">
-        <v>614</v>
+        <v>607</v>
       </c>
       <c r="D135" t="s">
         <v>45</v>
@@ -5621,7 +5654,7 @@
         <v>5.46</v>
       </c>
       <c r="G135" s="3" t="s">
-        <v>615</v>
+        <v>608</v>
       </c>
     </row>
     <row r="136" spans="1:7" x14ac:dyDescent="0.35">
@@ -5632,10 +5665,10 @@
         <v>16</v>
       </c>
       <c r="C136" t="s">
-        <v>616</v>
+        <v>609</v>
       </c>
       <c r="D136" t="s">
-        <v>617</v>
+        <v>610</v>
       </c>
       <c r="E136">
         <v>1.7000000000000001E-2</v>
@@ -5645,7 +5678,7 @@
         <v>1.02</v>
       </c>
       <c r="G136" s="3" t="s">
-        <v>618</v>
+        <v>611</v>
       </c>
     </row>
     <row r="137" spans="1:7" x14ac:dyDescent="0.35">
@@ -5656,10 +5689,10 @@
         <v>16</v>
       </c>
       <c r="C137" t="s">
-        <v>619</v>
+        <v>612</v>
       </c>
       <c r="D137" t="s">
-        <v>617</v>
+        <v>610</v>
       </c>
       <c r="E137">
         <v>27</v>
@@ -5669,7 +5702,7 @@
         <v>1620</v>
       </c>
       <c r="G137" s="3" t="s">
-        <v>620</v>
+        <v>613</v>
       </c>
     </row>
     <row r="138" spans="1:7" x14ac:dyDescent="0.35">
@@ -5680,7 +5713,7 @@
         <v>16</v>
       </c>
       <c r="C138" t="s">
-        <v>621</v>
+        <v>614</v>
       </c>
       <c r="D138" t="s">
         <v>45</v>
@@ -5693,7 +5726,7 @@
         <v>119160</v>
       </c>
       <c r="G138" s="3" t="s">
-        <v>622</v>
+        <v>615</v>
       </c>
     </row>
     <row r="139" spans="1:7" x14ac:dyDescent="0.35">
@@ -5704,7 +5737,7 @@
         <v>16</v>
       </c>
       <c r="C139" t="s">
-        <v>623</v>
+        <v>616</v>
       </c>
       <c r="D139" t="s">
         <v>45</v>
@@ -5717,7 +5750,7 @@
         <v>22800</v>
       </c>
       <c r="G139" s="3" t="s">
-        <v>624</v>
+        <v>617</v>
       </c>
     </row>
     <row r="140" spans="1:7" x14ac:dyDescent="0.35">
@@ -5728,7 +5761,7 @@
         <v>16</v>
       </c>
       <c r="C140" t="s">
-        <v>435</v>
+        <v>428</v>
       </c>
       <c r="D140" t="s">
         <v>45</v>
@@ -5741,7 +5774,7 @@
         <v>13260</v>
       </c>
       <c r="G140" s="3" t="s">
-        <v>436</v>
+        <v>429</v>
       </c>
     </row>
     <row r="141" spans="1:7" x14ac:dyDescent="0.35">
@@ -5752,7 +5785,7 @@
         <v>16</v>
       </c>
       <c r="C141" t="s">
-        <v>625</v>
+        <v>618</v>
       </c>
       <c r="D141" t="s">
         <v>42</v>
@@ -5765,7 +5798,7 @@
         <v>8400</v>
       </c>
       <c r="G141" s="1" t="s">
-        <v>626</v>
+        <v>619</v>
       </c>
     </row>
     <row r="142" spans="1:7" x14ac:dyDescent="0.35">
@@ -5776,7 +5809,7 @@
         <v>16</v>
       </c>
       <c r="C142" t="s">
-        <v>627</v>
+        <v>620</v>
       </c>
       <c r="D142" t="s">
         <v>42</v>
@@ -5789,7 +5822,7 @@
         <v>7.8000000000000007</v>
       </c>
       <c r="G142" s="3" t="s">
-        <v>628</v>
+        <v>621</v>
       </c>
     </row>
     <row r="143" spans="1:7" x14ac:dyDescent="0.35">
@@ -5800,7 +5833,7 @@
         <v>16</v>
       </c>
       <c r="C143" t="s">
-        <v>443</v>
+        <v>436</v>
       </c>
       <c r="D143" t="s">
         <v>45</v>
@@ -5813,7 +5846,7 @@
         <v>124.80000000000001</v>
       </c>
       <c r="G143" s="3" t="s">
-        <v>444</v>
+        <v>437</v>
       </c>
     </row>
     <row r="144" spans="1:7" x14ac:dyDescent="0.35">
@@ -5824,7 +5857,7 @@
         <v>16</v>
       </c>
       <c r="C144" t="s">
-        <v>441</v>
+        <v>434</v>
       </c>
       <c r="D144" t="s">
         <v>45</v>
@@ -5837,7 +5870,7 @@
         <v>184.14</v>
       </c>
       <c r="G144" s="3" t="s">
-        <v>442</v>
+        <v>435</v>
       </c>
     </row>
     <row r="145" spans="1:7" x14ac:dyDescent="0.35">
@@ -5848,10 +5881,10 @@
         <v>16</v>
       </c>
       <c r="C145" t="s">
-        <v>631</v>
+        <v>624</v>
       </c>
       <c r="D145" t="s">
-        <v>632</v>
+        <v>625</v>
       </c>
       <c r="E145">
         <v>1.6999999999999999E-3</v>
@@ -5861,7 +5894,7 @@
         <v>0.10199999999999999</v>
       </c>
       <c r="G145" s="3" t="s">
-        <v>633</v>
+        <v>626</v>
       </c>
     </row>
     <row r="146" spans="1:7" x14ac:dyDescent="0.35">
@@ -5872,7 +5905,7 @@
         <v>16</v>
       </c>
       <c r="C146" t="s">
-        <v>634</v>
+        <v>627</v>
       </c>
       <c r="D146" t="s">
         <v>40</v>
@@ -5885,7 +5918,7 @@
         <v>1746</v>
       </c>
       <c r="G146" s="3" t="s">
-        <v>635</v>
+        <v>628</v>
       </c>
     </row>
     <row r="147" spans="1:7" x14ac:dyDescent="0.35">
@@ -5896,10 +5929,10 @@
         <v>16</v>
       </c>
       <c r="C147" t="s">
-        <v>636</v>
+        <v>629</v>
       </c>
       <c r="D147" t="s">
-        <v>637</v>
+        <v>630</v>
       </c>
       <c r="E147">
         <v>509</v>
@@ -5909,7 +5942,7 @@
         <v>30540</v>
       </c>
       <c r="G147" s="3" t="s">
-        <v>638</v>
+        <v>631</v>
       </c>
     </row>
     <row r="148" spans="1:7" x14ac:dyDescent="0.35">
@@ -5920,7 +5953,7 @@
         <v>16</v>
       </c>
       <c r="C148" t="s">
-        <v>639</v>
+        <v>632</v>
       </c>
       <c r="D148" t="s">
         <v>45</v>
@@ -5933,7 +5966,7 @@
         <v>34.199999999999996</v>
       </c>
       <c r="G148" s="3" t="s">
-        <v>640</v>
+        <v>633</v>
       </c>
     </row>
     <row r="149" spans="1:7" x14ac:dyDescent="0.35">
@@ -5968,7 +6001,7 @@
         <v>16</v>
       </c>
       <c r="C150" t="s">
-        <v>629</v>
+        <v>622</v>
       </c>
       <c r="D150" t="s">
         <v>45</v>
@@ -5981,7 +6014,7 @@
         <v>2916</v>
       </c>
       <c r="G150" s="3" t="s">
-        <v>630</v>
+        <v>623</v>
       </c>
     </row>
     <row r="151" spans="1:7" x14ac:dyDescent="0.35">
@@ -5992,7 +6025,7 @@
         <v>16</v>
       </c>
       <c r="C151" t="s">
-        <v>487</v>
+        <v>480</v>
       </c>
       <c r="D151" t="s">
         <v>40</v>
@@ -6005,7 +6038,7 @@
         <v>2760</v>
       </c>
       <c r="G151" s="3" t="s">
-        <v>488</v>
+        <v>481</v>
       </c>
     </row>
     <row r="152" spans="1:7" x14ac:dyDescent="0.35">
@@ -6016,7 +6049,7 @@
         <v>16</v>
       </c>
       <c r="C152" t="s">
-        <v>562</v>
+        <v>555</v>
       </c>
       <c r="D152" t="s">
         <v>210</v>
@@ -6029,7 +6062,7 @@
         <v>1608</v>
       </c>
       <c r="G152" s="3" t="s">
-        <v>563</v>
+        <v>556</v>
       </c>
     </row>
     <row r="153" spans="1:7" x14ac:dyDescent="0.35">
@@ -6040,7 +6073,7 @@
         <v>16</v>
       </c>
       <c r="C153" t="s">
-        <v>643</v>
+        <v>636</v>
       </c>
       <c r="D153" t="s">
         <v>45</v>
@@ -6053,7 +6086,7 @@
         <v>1260</v>
       </c>
       <c r="G153" s="3" t="s">
-        <v>644</v>
+        <v>637</v>
       </c>
     </row>
     <row r="154" spans="1:7" x14ac:dyDescent="0.35">
@@ -6064,7 +6097,7 @@
         <v>16</v>
       </c>
       <c r="C154" t="s">
-        <v>641</v>
+        <v>634</v>
       </c>
       <c r="D154" t="s">
         <v>40</v>
@@ -6077,7 +6110,7 @@
         <v>94200</v>
       </c>
       <c r="G154" s="3" t="s">
-        <v>642</v>
+        <v>635</v>
       </c>
     </row>
     <row r="155" spans="1:7" x14ac:dyDescent="0.35">
@@ -6088,7 +6121,7 @@
         <v>16</v>
       </c>
       <c r="C155" t="s">
-        <v>491</v>
+        <v>484</v>
       </c>
       <c r="D155" t="s">
         <v>40</v>
@@ -6101,7 +6134,7 @@
         <v>330</v>
       </c>
       <c r="G155" s="3" t="s">
-        <v>492</v>
+        <v>485</v>
       </c>
     </row>
     <row r="156" spans="1:7" x14ac:dyDescent="0.35">
@@ -6112,7 +6145,7 @@
         <v>16</v>
       </c>
       <c r="C156" t="s">
-        <v>645</v>
+        <v>638</v>
       </c>
       <c r="D156" t="s">
         <v>40</v>
@@ -6125,7 +6158,7 @@
         <v>198</v>
       </c>
       <c r="G156" s="3" t="s">
-        <v>646</v>
+        <v>639</v>
       </c>
     </row>
     <row r="157" spans="1:7" x14ac:dyDescent="0.35">
@@ -6136,7 +6169,7 @@
         <v>16</v>
       </c>
       <c r="C157" t="s">
-        <v>558</v>
+        <v>551</v>
       </c>
       <c r="D157" t="s">
         <v>88</v>
@@ -6145,11 +6178,11 @@
         <v>19.899999999999999</v>
       </c>
       <c r="F157">
-        <f>E157*60</f>
+        <f t="shared" ref="F157:F168" si="9">E157*60</f>
         <v>1194</v>
       </c>
       <c r="G157" s="3" t="s">
-        <v>559</v>
+        <v>552</v>
       </c>
     </row>
     <row r="158" spans="1:7" x14ac:dyDescent="0.35">
@@ -6160,7 +6193,7 @@
         <v>16</v>
       </c>
       <c r="C158" t="s">
-        <v>647</v>
+        <v>640</v>
       </c>
       <c r="D158" t="s">
         <v>42</v>
@@ -6169,11 +6202,11 @@
         <v>23.2</v>
       </c>
       <c r="F158">
-        <f>E158*60</f>
+        <f t="shared" si="9"/>
         <v>1392</v>
       </c>
       <c r="G158" s="3" t="s">
-        <v>648</v>
+        <v>641</v>
       </c>
     </row>
     <row r="159" spans="1:7" x14ac:dyDescent="0.35">
@@ -6184,7 +6217,7 @@
         <v>16</v>
       </c>
       <c r="C159" t="s">
-        <v>647</v>
+        <v>640</v>
       </c>
       <c r="D159" t="s">
         <v>42</v>
@@ -6193,11 +6226,11 @@
         <v>23.2</v>
       </c>
       <c r="F159">
-        <f>E159*60</f>
+        <f t="shared" si="9"/>
         <v>1392</v>
       </c>
       <c r="G159" s="3" t="s">
-        <v>648</v>
+        <v>641</v>
       </c>
     </row>
     <row r="160" spans="1:7" x14ac:dyDescent="0.35">
@@ -6208,7 +6241,7 @@
         <v>16</v>
       </c>
       <c r="C160" t="s">
-        <v>649</v>
+        <v>642</v>
       </c>
       <c r="D160" t="s">
         <v>40</v>
@@ -6217,11 +6250,11 @@
         <v>4.2</v>
       </c>
       <c r="F160">
-        <f>E160*60</f>
+        <f t="shared" si="9"/>
         <v>252</v>
       </c>
       <c r="G160" s="3" t="s">
-        <v>650</v>
+        <v>643</v>
       </c>
     </row>
     <row r="161" spans="1:7" x14ac:dyDescent="0.35">
@@ -6232,7 +6265,7 @@
         <v>16</v>
       </c>
       <c r="C161" t="s">
-        <v>651</v>
+        <v>644</v>
       </c>
       <c r="D161" t="s">
         <v>88</v>
@@ -6241,11 +6274,11 @@
         <v>1.82</v>
       </c>
       <c r="F161">
-        <f>E161*60</f>
+        <f t="shared" si="9"/>
         <v>109.2</v>
       </c>
       <c r="G161" s="3" t="s">
-        <v>652</v>
+        <v>645</v>
       </c>
     </row>
     <row r="162" spans="1:7" x14ac:dyDescent="0.35">
@@ -6256,7 +6289,7 @@
         <v>16</v>
       </c>
       <c r="C162" t="s">
-        <v>653</v>
+        <v>646</v>
       </c>
       <c r="D162" t="s">
         <v>147</v>
@@ -6265,11 +6298,11 @@
         <v>0.16</v>
       </c>
       <c r="F162">
-        <f>E162*60</f>
+        <f t="shared" si="9"/>
         <v>9.6</v>
       </c>
       <c r="G162" s="3" t="s">
-        <v>654</v>
+        <v>647</v>
       </c>
     </row>
     <row r="163" spans="1:7" x14ac:dyDescent="0.35">
@@ -6280,7 +6313,7 @@
         <v>16</v>
       </c>
       <c r="C163" t="s">
-        <v>655</v>
+        <v>648</v>
       </c>
       <c r="D163" t="s">
         <v>147</v>
@@ -6289,11 +6322,11 @@
         <v>0.43</v>
       </c>
       <c r="F163">
-        <f>E163*60</f>
+        <f t="shared" si="9"/>
         <v>25.8</v>
       </c>
       <c r="G163" s="3" t="s">
-        <v>656</v>
+        <v>649</v>
       </c>
     </row>
     <row r="164" spans="1:7" x14ac:dyDescent="0.35">
@@ -6304,7 +6337,7 @@
         <v>16</v>
       </c>
       <c r="C164" t="s">
-        <v>657</v>
+        <v>650</v>
       </c>
       <c r="D164" t="s">
         <v>40</v>
@@ -6313,11 +6346,11 @@
         <v>23.3</v>
       </c>
       <c r="F164">
-        <f>E164*60</f>
+        <f t="shared" si="9"/>
         <v>1398</v>
       </c>
       <c r="G164" s="3" t="s">
-        <v>658</v>
+        <v>651</v>
       </c>
     </row>
     <row r="165" spans="1:7" x14ac:dyDescent="0.35">
@@ -6328,7 +6361,7 @@
         <v>16</v>
       </c>
       <c r="C165" t="s">
-        <v>659</v>
+        <v>652</v>
       </c>
       <c r="D165" t="s">
         <v>88</v>
@@ -6337,11 +6370,11 @@
         <v>2.36</v>
       </c>
       <c r="F165">
-        <f>E165*60</f>
+        <f t="shared" si="9"/>
         <v>141.6</v>
       </c>
       <c r="G165" s="3" t="s">
-        <v>660</v>
+        <v>653</v>
       </c>
     </row>
     <row r="166" spans="1:7" x14ac:dyDescent="0.35">
@@ -6352,7 +6385,7 @@
         <v>16</v>
       </c>
       <c r="C166" t="s">
-        <v>657</v>
+        <v>650</v>
       </c>
       <c r="D166" t="s">
         <v>40</v>
@@ -6361,11 +6394,11 @@
         <v>23.3</v>
       </c>
       <c r="F166">
-        <f>E166*60</f>
+        <f t="shared" si="9"/>
         <v>1398</v>
       </c>
       <c r="G166" s="3" t="s">
-        <v>658</v>
+        <v>651</v>
       </c>
     </row>
     <row r="167" spans="1:7" x14ac:dyDescent="0.35">
@@ -6376,7 +6409,7 @@
         <v>16</v>
       </c>
       <c r="C167" t="s">
-        <v>661</v>
+        <v>654</v>
       </c>
       <c r="D167" t="s">
         <v>40</v>
@@ -6385,11 +6418,11 @@
         <v>3.74</v>
       </c>
       <c r="F167">
-        <f>E167*60</f>
+        <f t="shared" si="9"/>
         <v>224.4</v>
       </c>
       <c r="G167" s="3" t="s">
-        <v>662</v>
+        <v>655</v>
       </c>
     </row>
     <row r="168" spans="1:7" x14ac:dyDescent="0.35">
@@ -6400,7 +6433,7 @@
         <v>16</v>
       </c>
       <c r="C168" t="s">
-        <v>663</v>
+        <v>656</v>
       </c>
       <c r="D168" t="s">
         <v>40</v>
@@ -6409,11 +6442,11 @@
         <v>2.956</v>
       </c>
       <c r="F168">
-        <f>E168*60</f>
+        <f t="shared" si="9"/>
         <v>177.35999999999999</v>
       </c>
       <c r="G168" s="3" t="s">
-        <v>664</v>
+        <v>657</v>
       </c>
     </row>
     <row r="169" spans="1:7" x14ac:dyDescent="0.35">
@@ -6424,7 +6457,7 @@
         <v>16</v>
       </c>
       <c r="C169" t="s">
-        <v>448</v>
+        <v>441</v>
       </c>
       <c r="D169" t="s">
         <v>45</v>
@@ -6433,11 +6466,11 @@
         <v>68.3</v>
       </c>
       <c r="F169">
-        <f t="shared" ref="F169:F170" si="9">E169*60</f>
+        <f t="shared" ref="F169:F187" si="10">E169*60</f>
         <v>4098</v>
       </c>
       <c r="G169" s="1" t="s">
-        <v>449</v>
+        <v>442</v>
       </c>
     </row>
     <row r="170" spans="1:7" x14ac:dyDescent="0.35">
@@ -6448,7 +6481,7 @@
         <v>16</v>
       </c>
       <c r="C170" t="s">
-        <v>464</v>
+        <v>457</v>
       </c>
       <c r="D170" t="s">
         <v>45</v>
@@ -6457,11 +6490,11 @@
         <v>138</v>
       </c>
       <c r="F170">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>8280</v>
       </c>
       <c r="G170" s="3" t="s">
-        <v>465</v>
+        <v>458</v>
       </c>
     </row>
     <row r="171" spans="1:7" x14ac:dyDescent="0.35">
@@ -6471,6 +6504,22 @@
       <c r="B171" t="s">
         <v>16</v>
       </c>
+      <c r="C171" t="s">
+        <v>480</v>
+      </c>
+      <c r="D171" t="s">
+        <v>40</v>
+      </c>
+      <c r="E171">
+        <v>46</v>
+      </c>
+      <c r="F171">
+        <f t="shared" si="10"/>
+        <v>2760</v>
+      </c>
+      <c r="G171" s="3" t="s">
+        <v>481</v>
+      </c>
     </row>
     <row r="172" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A172" t="s">
@@ -6479,6 +6528,22 @@
       <c r="B172" t="s">
         <v>16</v>
       </c>
+      <c r="C172" t="s">
+        <v>658</v>
+      </c>
+      <c r="D172" t="s">
+        <v>88</v>
+      </c>
+      <c r="E172">
+        <v>24</v>
+      </c>
+      <c r="F172">
+        <f t="shared" si="10"/>
+        <v>1440</v>
+      </c>
+      <c r="G172" s="3" t="s">
+        <v>659</v>
+      </c>
     </row>
     <row r="173" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A173" t="s">
@@ -6487,6 +6552,22 @@
       <c r="B173" t="s">
         <v>16</v>
       </c>
+      <c r="C173" t="s">
+        <v>484</v>
+      </c>
+      <c r="D173" t="s">
+        <v>40</v>
+      </c>
+      <c r="E173">
+        <v>5.5</v>
+      </c>
+      <c r="F173">
+        <f t="shared" si="10"/>
+        <v>330</v>
+      </c>
+      <c r="G173" s="3" t="s">
+        <v>485</v>
+      </c>
     </row>
     <row r="174" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A174" t="s">
@@ -6495,6 +6576,22 @@
       <c r="B174" t="s">
         <v>16</v>
       </c>
+      <c r="C174" t="s">
+        <v>661</v>
+      </c>
+      <c r="D174" t="s">
+        <v>660</v>
+      </c>
+      <c r="E174">
+        <v>0.7</v>
+      </c>
+      <c r="F174">
+        <f t="shared" si="10"/>
+        <v>42</v>
+      </c>
+      <c r="G174" s="3" t="s">
+        <v>662</v>
+      </c>
     </row>
     <row r="175" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A175" t="s">
@@ -6503,6 +6600,22 @@
       <c r="B175" t="s">
         <v>16</v>
       </c>
+      <c r="C175" t="s">
+        <v>457</v>
+      </c>
+      <c r="D175" t="s">
+        <v>45</v>
+      </c>
+      <c r="E175">
+        <v>138</v>
+      </c>
+      <c r="F175">
+        <f t="shared" si="10"/>
+        <v>8280</v>
+      </c>
+      <c r="G175" s="3" t="s">
+        <v>458</v>
+      </c>
     </row>
     <row r="176" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A176" t="s">
@@ -6511,821 +6624,1125 @@
       <c r="B176" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="177" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C176" t="s">
+        <v>663</v>
+      </c>
+      <c r="D176" t="s">
+        <v>40</v>
+      </c>
+      <c r="E176">
+        <v>216</v>
+      </c>
+      <c r="F176">
+        <f t="shared" si="10"/>
+        <v>12960</v>
+      </c>
+      <c r="G176" s="3" t="s">
+        <v>664</v>
+      </c>
+    </row>
+    <row r="177" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A177" t="s">
         <v>378</v>
       </c>
       <c r="B177" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="178" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C177" t="s">
+        <v>665</v>
+      </c>
+      <c r="D177" t="s">
+        <v>88</v>
+      </c>
+      <c r="E177">
+        <v>7.25</v>
+      </c>
+      <c r="F177">
+        <f t="shared" si="10"/>
+        <v>435</v>
+      </c>
+      <c r="G177" s="3" t="s">
+        <v>666</v>
+      </c>
+    </row>
+    <row r="178" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A178" t="s">
         <v>379</v>
       </c>
       <c r="B178" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="179" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C178" t="s">
+        <v>667</v>
+      </c>
+      <c r="D178" t="s">
+        <v>45</v>
+      </c>
+      <c r="E178">
+        <v>10.4</v>
+      </c>
+      <c r="F178">
+        <f t="shared" si="10"/>
+        <v>624</v>
+      </c>
+      <c r="G178" s="1" t="s">
+        <v>668</v>
+      </c>
+    </row>
+    <row r="179" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A179" t="s">
         <v>380</v>
       </c>
       <c r="B179" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="180" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C179" t="s">
+        <v>470</v>
+      </c>
+      <c r="D179" t="s">
+        <v>45</v>
+      </c>
+      <c r="E179">
+        <v>51</v>
+      </c>
+      <c r="F179">
+        <f t="shared" si="10"/>
+        <v>3060</v>
+      </c>
+      <c r="G179" s="3" t="s">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="180" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A180" t="s">
         <v>381</v>
       </c>
       <c r="B180" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="181" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C180" t="s">
+        <v>434</v>
+      </c>
+      <c r="D180" t="s">
+        <v>45</v>
+      </c>
+      <c r="E180">
+        <v>3.069</v>
+      </c>
+      <c r="F180">
+        <f t="shared" si="10"/>
+        <v>184.14</v>
+      </c>
+      <c r="G180" s="3" t="s">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="181" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A181" t="s">
         <v>382</v>
       </c>
       <c r="B181" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="182" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C181" t="s">
+        <v>449</v>
+      </c>
+      <c r="D181" t="s">
+        <v>40</v>
+      </c>
+      <c r="E181">
+        <v>1.76</v>
+      </c>
+      <c r="F181">
+        <f t="shared" si="10"/>
+        <v>105.6</v>
+      </c>
+      <c r="G181" s="3" t="s">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="182" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A182" t="s">
         <v>383</v>
       </c>
       <c r="B182" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="183" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C182" t="s">
+        <v>669</v>
+      </c>
+      <c r="D182" t="s">
+        <v>45</v>
+      </c>
+      <c r="E182">
+        <v>1</v>
+      </c>
+      <c r="F182">
+        <f t="shared" si="10"/>
+        <v>60</v>
+      </c>
+      <c r="G182" s="3" t="s">
+        <v>670</v>
+      </c>
+    </row>
+    <row r="183" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A183" t="s">
         <v>384</v>
       </c>
       <c r="B183" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="184" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C183" t="s">
+        <v>537</v>
+      </c>
+      <c r="D183" t="s">
+        <v>45</v>
+      </c>
+      <c r="E183">
+        <v>0.73</v>
+      </c>
+      <c r="F183">
+        <f t="shared" si="10"/>
+        <v>43.8</v>
+      </c>
+      <c r="G183" s="3" t="s">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="184" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A184" t="s">
         <v>385</v>
       </c>
       <c r="B184" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="185" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C184" t="s">
+        <v>671</v>
+      </c>
+      <c r="D184" t="s">
+        <v>672</v>
+      </c>
+      <c r="E184">
+        <v>3.8</v>
+      </c>
+      <c r="F184">
+        <f t="shared" si="10"/>
+        <v>228</v>
+      </c>
+      <c r="G184" s="3" t="s">
+        <v>673</v>
+      </c>
+    </row>
+    <row r="185" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A185" t="s">
         <v>386</v>
       </c>
       <c r="B185" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="186" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C185" t="s">
+        <v>436</v>
+      </c>
+      <c r="D185" t="s">
+        <v>45</v>
+      </c>
+      <c r="E185">
+        <v>2.08</v>
+      </c>
+      <c r="F185">
+        <f t="shared" si="10"/>
+        <v>124.80000000000001</v>
+      </c>
+      <c r="G185" s="3" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="186" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A186" t="s">
         <v>387</v>
       </c>
       <c r="B186" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="187" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C186" t="s">
+        <v>674</v>
+      </c>
+      <c r="D186" t="s">
+        <v>42</v>
+      </c>
+      <c r="E186">
+        <v>0.39500000000000002</v>
+      </c>
+      <c r="F186">
+        <f t="shared" si="10"/>
+        <v>23.700000000000003</v>
+      </c>
+      <c r="G186" s="3" t="s">
+        <v>675</v>
+      </c>
+    </row>
+    <row r="187" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A187" t="s">
         <v>388</v>
       </c>
       <c r="B187" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="188" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C187" t="s">
+        <v>627</v>
+      </c>
+      <c r="D187" t="s">
+        <v>40</v>
+      </c>
+      <c r="E187">
+        <v>29.1</v>
+      </c>
+      <c r="F187">
+        <f t="shared" si="10"/>
+        <v>1746</v>
+      </c>
+      <c r="G187" s="3" t="s">
+        <v>628</v>
+      </c>
+    </row>
+    <row r="188" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A188" t="s">
-        <v>389</v>
+        <v>26</v>
       </c>
       <c r="B188" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="189" spans="1:2" x14ac:dyDescent="0.35">
+        <v>38</v>
+      </c>
+      <c r="C188" t="s">
+        <v>86</v>
+      </c>
+      <c r="D188" t="s">
+        <v>45</v>
+      </c>
+      <c r="E188">
+        <v>11</v>
+      </c>
+      <c r="F188">
+        <f t="shared" si="0"/>
+        <v>660</v>
+      </c>
+      <c r="G188" s="3" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="189" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A189" t="s">
-        <v>390</v>
+        <v>27</v>
       </c>
       <c r="B189" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="190" spans="1:2" x14ac:dyDescent="0.35">
+        <v>38</v>
+      </c>
+      <c r="C189" t="s">
+        <v>89</v>
+      </c>
+      <c r="D189" t="s">
+        <v>88</v>
+      </c>
+      <c r="E189">
+        <v>0.127</v>
+      </c>
+      <c r="F189">
+        <f t="shared" si="0"/>
+        <v>7.62</v>
+      </c>
+      <c r="G189" s="3" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="190" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A190" t="s">
-        <v>391</v>
+        <v>28</v>
       </c>
       <c r="B190" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="191" spans="1:2" x14ac:dyDescent="0.35">
+        <v>38</v>
+      </c>
+      <c r="C190" t="s">
+        <v>92</v>
+      </c>
+      <c r="D190" t="s">
+        <v>91</v>
+      </c>
+      <c r="E190">
+        <v>6.13</v>
+      </c>
+      <c r="F190">
+        <f t="shared" si="0"/>
+        <v>367.8</v>
+      </c>
+      <c r="G190" s="3" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="191" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A191" t="s">
-        <v>392</v>
+        <v>29</v>
       </c>
       <c r="B191" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="192" spans="1:2" x14ac:dyDescent="0.35">
+        <v>38</v>
+      </c>
+      <c r="C191" t="s">
+        <v>94</v>
+      </c>
+      <c r="D191" t="s">
+        <v>45</v>
+      </c>
+      <c r="E191">
+        <v>31</v>
+      </c>
+      <c r="F191">
+        <f t="shared" si="0"/>
+        <v>1860</v>
+      </c>
+      <c r="G191" s="3" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="192" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A192" t="s">
-        <v>393</v>
+        <v>30</v>
       </c>
       <c r="B192" t="s">
-        <v>16</v>
+        <v>38</v>
+      </c>
+      <c r="C192" t="s">
+        <v>97</v>
+      </c>
+      <c r="D192" t="s">
+        <v>96</v>
+      </c>
+      <c r="E192">
+        <v>252</v>
+      </c>
+      <c r="F192">
+        <f t="shared" si="0"/>
+        <v>15120</v>
+      </c>
+      <c r="G192" s="3" t="s">
+        <v>98</v>
       </c>
     </row>
     <row r="193" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A193" t="s">
-        <v>394</v>
+        <v>31</v>
       </c>
       <c r="B193" t="s">
-        <v>16</v>
+        <v>38</v>
+      </c>
+      <c r="C193" t="s">
+        <v>100</v>
+      </c>
+      <c r="D193" t="s">
+        <v>99</v>
+      </c>
+      <c r="E193">
+        <v>22.1</v>
+      </c>
+      <c r="F193">
+        <f t="shared" si="0"/>
+        <v>1326</v>
+      </c>
+      <c r="G193" s="3" t="s">
+        <v>101</v>
       </c>
     </row>
     <row r="194" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A194" t="s">
-        <v>395</v>
+        <v>32</v>
       </c>
       <c r="B194" t="s">
-        <v>16</v>
+        <v>38</v>
+      </c>
+      <c r="C194" t="s">
+        <v>102</v>
+      </c>
+      <c r="D194" t="s">
+        <v>40</v>
+      </c>
+      <c r="E194">
+        <v>3.9E-2</v>
+      </c>
+      <c r="F194">
+        <f t="shared" si="0"/>
+        <v>2.34</v>
+      </c>
+      <c r="G194" s="3" t="s">
+        <v>103</v>
       </c>
     </row>
     <row r="195" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A195" t="s">
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="B195" t="s">
         <v>38</v>
       </c>
       <c r="C195" t="s">
-        <v>86</v>
+        <v>104</v>
       </c>
       <c r="D195" t="s">
         <v>45</v>
       </c>
       <c r="E195">
-        <v>11</v>
+        <v>450</v>
       </c>
       <c r="F195">
         <f t="shared" si="0"/>
-        <v>660</v>
+        <v>27000</v>
       </c>
       <c r="G195" s="3" t="s">
-        <v>87</v>
+        <v>105</v>
       </c>
     </row>
     <row r="196" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A196" t="s">
-        <v>27</v>
+        <v>34</v>
       </c>
       <c r="B196" t="s">
         <v>38</v>
       </c>
       <c r="C196" t="s">
-        <v>89</v>
+        <v>47</v>
       </c>
       <c r="D196" t="s">
-        <v>88</v>
+        <v>45</v>
       </c>
       <c r="E196">
-        <v>0.127</v>
+        <v>182</v>
       </c>
       <c r="F196">
         <f t="shared" si="0"/>
-        <v>7.62</v>
+        <v>10920</v>
       </c>
       <c r="G196" s="3" t="s">
-        <v>90</v>
+        <v>48</v>
       </c>
     </row>
     <row r="197" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A197" t="s">
-        <v>28</v>
+        <v>35</v>
       </c>
       <c r="B197" t="s">
         <v>38</v>
       </c>
       <c r="C197" t="s">
-        <v>92</v>
+        <v>41</v>
       </c>
       <c r="D197" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="E197">
-        <v>6.13</v>
+        <v>345</v>
       </c>
       <c r="F197">
         <f t="shared" si="0"/>
-        <v>367.8</v>
+        <v>20700</v>
       </c>
       <c r="G197" s="3" t="s">
-        <v>93</v>
+        <v>106</v>
       </c>
     </row>
     <row r="198" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A198" t="s">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="B198" t="s">
         <v>38</v>
       </c>
       <c r="C198" t="s">
-        <v>94</v>
+        <v>43</v>
       </c>
       <c r="D198" t="s">
         <v>45</v>
       </c>
       <c r="E198">
-        <v>31</v>
+        <v>170</v>
       </c>
       <c r="F198">
         <f t="shared" si="0"/>
-        <v>1860</v>
+        <v>10200</v>
       </c>
       <c r="G198" s="3" t="s">
-        <v>95</v>
+        <v>46</v>
       </c>
     </row>
     <row r="199" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A199" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="B199" t="s">
-        <v>38</v>
+        <v>16</v>
       </c>
       <c r="C199" t="s">
-        <v>97</v>
+        <v>43</v>
       </c>
       <c r="D199" t="s">
-        <v>96</v>
+        <v>45</v>
       </c>
       <c r="E199">
-        <v>252</v>
+        <v>170</v>
       </c>
       <c r="F199">
         <f t="shared" si="0"/>
-        <v>15120</v>
+        <v>10200</v>
       </c>
       <c r="G199" s="3" t="s">
-        <v>98</v>
+        <v>46</v>
       </c>
     </row>
     <row r="200" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A200" t="s">
-        <v>31</v>
+        <v>44</v>
       </c>
       <c r="B200" t="s">
-        <v>38</v>
+        <v>16</v>
       </c>
       <c r="C200" t="s">
-        <v>100</v>
+        <v>47</v>
       </c>
       <c r="D200" t="s">
-        <v>99</v>
+        <v>45</v>
       </c>
       <c r="E200">
-        <v>22.1</v>
+        <v>182</v>
       </c>
       <c r="F200">
         <f t="shared" si="0"/>
-        <v>1326</v>
+        <v>10920</v>
       </c>
       <c r="G200" s="3" t="s">
-        <v>101</v>
+        <v>48</v>
       </c>
     </row>
     <row r="201" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A201" t="s">
-        <v>32</v>
+        <v>161</v>
       </c>
       <c r="B201" t="s">
         <v>38</v>
       </c>
       <c r="C201" t="s">
-        <v>102</v>
+        <v>176</v>
       </c>
       <c r="D201" t="s">
+        <v>42</v>
+      </c>
+      <c r="E201">
         <v>40</v>
-      </c>
-      <c r="E201">
-        <v>3.9E-2</v>
       </c>
       <c r="F201">
         <f t="shared" si="0"/>
-        <v>2.34</v>
+        <v>2400</v>
       </c>
       <c r="G201" s="3" t="s">
-        <v>103</v>
+        <v>175</v>
       </c>
     </row>
     <row r="202" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A202" t="s">
-        <v>33</v>
+        <v>163</v>
       </c>
       <c r="B202" t="s">
         <v>38</v>
       </c>
       <c r="C202" t="s">
-        <v>104</v>
+        <v>173</v>
       </c>
       <c r="D202" t="s">
-        <v>45</v>
+        <v>88</v>
       </c>
       <c r="E202">
-        <v>450</v>
+        <v>0.84</v>
       </c>
       <c r="F202">
         <f t="shared" si="0"/>
-        <v>27000</v>
-      </c>
-      <c r="G202" s="3" t="s">
-        <v>105</v>
+        <v>50.4</v>
+      </c>
+      <c r="G202" s="5" t="s">
+        <v>174</v>
       </c>
     </row>
     <row r="203" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A203" t="s">
-        <v>34</v>
+        <v>162</v>
       </c>
       <c r="B203" t="s">
         <v>38</v>
       </c>
       <c r="C203" t="s">
-        <v>47</v>
+        <v>172</v>
       </c>
       <c r="D203" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="E203">
-        <v>182</v>
+        <v>0.55000000000000004</v>
       </c>
       <c r="F203">
         <f t="shared" si="0"/>
-        <v>10920</v>
-      </c>
-      <c r="G203" s="3" t="s">
-        <v>48</v>
+        <v>33</v>
+      </c>
+      <c r="G203" s="6" t="s">
+        <v>171</v>
       </c>
     </row>
     <row r="204" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A204" t="s">
-        <v>35</v>
+        <v>164</v>
       </c>
       <c r="B204" t="s">
         <v>38</v>
       </c>
       <c r="C204" t="s">
-        <v>41</v>
+        <v>170</v>
       </c>
       <c r="D204" t="s">
-        <v>88</v>
+        <v>42</v>
       </c>
       <c r="E204">
-        <v>345</v>
+        <v>7.1</v>
       </c>
       <c r="F204">
         <f t="shared" si="0"/>
-        <v>20700</v>
-      </c>
-      <c r="G204" s="3" t="s">
-        <v>106</v>
+        <v>426</v>
+      </c>
+      <c r="G204" s="6" t="s">
+        <v>171</v>
       </c>
     </row>
     <row r="205" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A205" t="s">
-        <v>36</v>
+        <v>182</v>
       </c>
       <c r="B205" t="s">
         <v>38</v>
       </c>
       <c r="C205" t="s">
-        <v>43</v>
+        <v>186</v>
       </c>
       <c r="D205" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="E205">
-        <v>170</v>
+        <v>2300</v>
       </c>
       <c r="F205">
         <f t="shared" si="0"/>
-        <v>10200</v>
-      </c>
-      <c r="G205" s="3" t="s">
-        <v>46</v>
+        <v>138000</v>
+      </c>
+      <c r="G205" s="6" t="s">
+        <v>187</v>
       </c>
     </row>
     <row r="206" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A206" t="s">
-        <v>37</v>
+        <v>183</v>
       </c>
       <c r="B206" t="s">
-        <v>16</v>
+        <v>38</v>
       </c>
       <c r="C206" t="s">
-        <v>43</v>
+        <v>188</v>
       </c>
       <c r="D206" t="s">
         <v>45</v>
       </c>
       <c r="E206">
-        <v>170</v>
+        <v>0.22800000000000001</v>
       </c>
       <c r="F206">
         <f t="shared" si="0"/>
-        <v>10200</v>
-      </c>
-      <c r="G206" s="3" t="s">
-        <v>46</v>
+        <v>13.68</v>
+      </c>
+      <c r="G206" s="6" t="s">
+        <v>189</v>
       </c>
     </row>
     <row r="207" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A207" t="s">
-        <v>44</v>
+        <v>184</v>
       </c>
       <c r="B207" t="s">
-        <v>16</v>
+        <v>38</v>
       </c>
       <c r="C207" t="s">
-        <v>47</v>
+        <v>190</v>
       </c>
       <c r="D207" t="s">
         <v>45</v>
       </c>
       <c r="E207">
-        <v>182</v>
+        <v>38.6</v>
       </c>
       <c r="F207">
         <f t="shared" si="0"/>
-        <v>10920</v>
-      </c>
-      <c r="G207" s="3" t="s">
-        <v>48</v>
+        <v>2316</v>
+      </c>
+      <c r="G207" s="6" t="s">
+        <v>191</v>
       </c>
     </row>
     <row r="208" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A208" t="s">
-        <v>161</v>
+        <v>212</v>
       </c>
       <c r="B208" t="s">
         <v>38</v>
       </c>
       <c r="C208" t="s">
-        <v>176</v>
+        <v>213</v>
       </c>
       <c r="D208" t="s">
-        <v>42</v>
+        <v>88</v>
       </c>
       <c r="E208">
-        <v>40</v>
+        <v>28.3</v>
       </c>
       <c r="F208">
         <f t="shared" si="0"/>
-        <v>2400</v>
-      </c>
-      <c r="G208" s="3" t="s">
-        <v>175</v>
+        <v>1698</v>
+      </c>
+      <c r="G208" s="6" t="s">
+        <v>214</v>
       </c>
     </row>
     <row r="209" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A209" t="s">
-        <v>163</v>
+        <v>215</v>
       </c>
       <c r="B209" t="s">
         <v>38</v>
       </c>
       <c r="C209" t="s">
-        <v>173</v>
+        <v>216</v>
       </c>
       <c r="D209" t="s">
-        <v>88</v>
+        <v>45</v>
       </c>
       <c r="E209">
-        <v>0.84</v>
+        <v>5.7999999999999996E-3</v>
       </c>
       <c r="F209">
         <f t="shared" si="0"/>
-        <v>50.4</v>
-      </c>
-      <c r="G209" s="5" t="s">
-        <v>174</v>
+        <v>0.34799999999999998</v>
+      </c>
+      <c r="G209" s="6" t="s">
+        <v>217</v>
       </c>
     </row>
     <row r="210" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A210" t="s">
-        <v>162</v>
+        <v>218</v>
       </c>
       <c r="B210" t="s">
         <v>38</v>
       </c>
       <c r="C210" t="s">
-        <v>172</v>
+        <v>219</v>
       </c>
       <c r="D210" t="s">
-        <v>42</v>
+        <v>88</v>
       </c>
       <c r="E210">
-        <v>0.55000000000000004</v>
+        <v>0.185</v>
       </c>
       <c r="F210">
         <f t="shared" si="0"/>
-        <v>33</v>
+        <v>11.1</v>
       </c>
       <c r="G210" s="6" t="s">
-        <v>171</v>
+        <v>220</v>
       </c>
     </row>
     <row r="211" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A211" t="s">
-        <v>164</v>
+        <v>224</v>
       </c>
       <c r="B211" t="s">
         <v>38</v>
       </c>
       <c r="C211" t="s">
-        <v>170</v>
+        <v>225</v>
       </c>
       <c r="D211" t="s">
-        <v>42</v>
+        <v>88</v>
       </c>
       <c r="E211">
-        <v>7.1</v>
+        <v>133</v>
       </c>
       <c r="F211">
         <f t="shared" si="0"/>
-        <v>426</v>
+        <v>7980</v>
       </c>
       <c r="G211" s="6" t="s">
-        <v>171</v>
+        <v>226</v>
       </c>
     </row>
     <row r="212" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A212" t="s">
-        <v>182</v>
+        <v>227</v>
       </c>
       <c r="B212" t="s">
         <v>38</v>
       </c>
       <c r="C212" t="s">
-        <v>186</v>
+        <v>228</v>
       </c>
       <c r="D212" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="E212">
-        <v>2300</v>
+        <v>2.2999999999999998</v>
       </c>
       <c r="F212">
         <f t="shared" si="0"/>
-        <v>138000</v>
+        <v>138</v>
       </c>
       <c r="G212" s="6" t="s">
-        <v>187</v>
+        <v>229</v>
       </c>
     </row>
     <row r="213" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A213" t="s">
-        <v>183</v>
+        <v>231</v>
       </c>
       <c r="B213" t="s">
         <v>38</v>
       </c>
       <c r="C213" t="s">
-        <v>188</v>
+        <v>230</v>
       </c>
       <c r="D213" t="s">
         <v>45</v>
       </c>
       <c r="E213">
-        <v>0.22800000000000001</v>
+        <v>1334</v>
       </c>
       <c r="F213">
         <f t="shared" si="0"/>
-        <v>13.68</v>
+        <v>80040</v>
       </c>
       <c r="G213" s="6" t="s">
-        <v>189</v>
+        <v>232</v>
       </c>
     </row>
     <row r="214" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A214" t="s">
-        <v>184</v>
+        <v>233</v>
       </c>
       <c r="B214" t="s">
         <v>38</v>
       </c>
       <c r="C214" t="s">
-        <v>190</v>
+        <v>234</v>
       </c>
       <c r="D214" t="s">
         <v>45</v>
       </c>
       <c r="E214">
-        <v>38.6</v>
+        <v>220</v>
       </c>
       <c r="F214">
         <f t="shared" si="0"/>
-        <v>2316</v>
+        <v>13200</v>
       </c>
       <c r="G214" s="6" t="s">
-        <v>191</v>
+        <v>235</v>
       </c>
     </row>
     <row r="215" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A215" t="s">
-        <v>212</v>
+        <v>236</v>
       </c>
       <c r="B215" t="s">
         <v>38</v>
       </c>
       <c r="C215" t="s">
-        <v>213</v>
+        <v>237</v>
       </c>
       <c r="D215" t="s">
-        <v>88</v>
+        <v>45</v>
       </c>
       <c r="E215">
-        <v>28.3</v>
+        <v>58.2</v>
       </c>
       <c r="F215">
         <f t="shared" si="0"/>
-        <v>1698</v>
+        <v>3492</v>
       </c>
       <c r="G215" s="6" t="s">
-        <v>214</v>
+        <v>238</v>
       </c>
     </row>
     <row r="216" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A216" t="s">
-        <v>215</v>
+        <v>389</v>
       </c>
       <c r="B216" t="s">
         <v>38</v>
       </c>
       <c r="C216" t="s">
-        <v>216</v>
+        <v>539</v>
       </c>
       <c r="D216" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="E216">
-        <v>5.7999999999999996E-3</v>
+        <v>13.9</v>
       </c>
       <c r="F216">
         <f t="shared" si="0"/>
-        <v>0.34799999999999998</v>
-      </c>
-      <c r="G216" s="6" t="s">
-        <v>217</v>
+        <v>834</v>
+      </c>
+      <c r="G216" s="3" t="s">
+        <v>540</v>
       </c>
     </row>
     <row r="217" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A217" t="s">
-        <v>218</v>
+        <v>390</v>
       </c>
       <c r="B217" t="s">
         <v>38</v>
       </c>
       <c r="C217" t="s">
-        <v>219</v>
+        <v>541</v>
       </c>
       <c r="D217" t="s">
-        <v>88</v>
+        <v>40</v>
       </c>
       <c r="E217">
-        <v>0.185</v>
+        <v>3.9</v>
       </c>
       <c r="F217">
         <f t="shared" si="0"/>
-        <v>11.1</v>
-      </c>
-      <c r="G217" s="6" t="s">
-        <v>220</v>
+        <v>234</v>
+      </c>
+      <c r="G217" s="3" t="s">
+        <v>542</v>
       </c>
     </row>
     <row r="218" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A218" t="s">
-        <v>224</v>
+        <v>391</v>
       </c>
       <c r="B218" t="s">
         <v>38</v>
       </c>
       <c r="C218" t="s">
-        <v>225</v>
+        <v>547</v>
       </c>
       <c r="D218" t="s">
-        <v>88</v>
+        <v>40</v>
       </c>
       <c r="E218">
-        <v>133</v>
+        <v>430</v>
       </c>
       <c r="F218">
         <f t="shared" si="0"/>
-        <v>7980</v>
-      </c>
-      <c r="G218" s="6" t="s">
-        <v>226</v>
+        <v>25800</v>
+      </c>
+      <c r="G218" s="3" t="s">
+        <v>548</v>
       </c>
     </row>
     <row r="219" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A219" t="s">
-        <v>227</v>
+        <v>392</v>
       </c>
       <c r="B219" t="s">
         <v>38</v>
       </c>
       <c r="C219" t="s">
-        <v>228</v>
+        <v>549</v>
       </c>
       <c r="D219" t="s">
         <v>45</v>
       </c>
       <c r="E219">
-        <v>2.2999999999999998</v>
+        <v>26.4</v>
       </c>
       <c r="F219">
         <f t="shared" si="0"/>
-        <v>138</v>
-      </c>
-      <c r="G219" s="6" t="s">
-        <v>229</v>
+        <v>1584</v>
+      </c>
+      <c r="G219" s="3" t="s">
+        <v>550</v>
       </c>
     </row>
     <row r="220" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A220" t="s">
-        <v>231</v>
+        <v>393</v>
       </c>
       <c r="B220" t="s">
         <v>38</v>
       </c>
       <c r="C220" t="s">
-        <v>230</v>
+        <v>551</v>
       </c>
       <c r="D220" t="s">
-        <v>45</v>
+        <v>88</v>
       </c>
       <c r="E220">
-        <v>1334</v>
+        <v>19.899999999999999</v>
       </c>
       <c r="F220">
-        <f t="shared" si="0"/>
-        <v>80040</v>
-      </c>
-      <c r="G220" s="6" t="s">
-        <v>232</v>
+        <f>E220*60</f>
+        <v>1194</v>
+      </c>
+      <c r="G220" s="3" t="s">
+        <v>552</v>
       </c>
     </row>
     <row r="221" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A221" t="s">
-        <v>233</v>
+        <v>394</v>
       </c>
       <c r="B221" t="s">
         <v>38</v>
       </c>
       <c r="C221" t="s">
-        <v>234</v>
+        <v>545</v>
       </c>
       <c r="D221" t="s">
         <v>45</v>
       </c>
       <c r="E221">
-        <v>220</v>
+        <v>7</v>
       </c>
       <c r="F221">
-        <f t="shared" si="0"/>
-        <v>13200</v>
-      </c>
-      <c r="G221" s="6" t="s">
-        <v>235</v>
+        <f t="shared" ref="F221:F237" si="11">E221*60</f>
+        <v>420</v>
+      </c>
+      <c r="G221" s="3" t="s">
+        <v>546</v>
       </c>
     </row>
     <row r="222" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A222" t="s">
-        <v>236</v>
+        <v>395</v>
       </c>
       <c r="B222" t="s">
         <v>38</v>
       </c>
       <c r="C222" t="s">
-        <v>237</v>
+        <v>543</v>
       </c>
       <c r="D222" t="s">
         <v>45</v>
       </c>
       <c r="E222">
-        <v>58.2</v>
+        <v>2.9</v>
       </c>
       <c r="F222">
-        <f t="shared" si="0"/>
-        <v>3492</v>
-      </c>
-      <c r="G222" s="6" t="s">
-        <v>238</v>
+        <f t="shared" si="11"/>
+        <v>174</v>
+      </c>
+      <c r="G222" s="3" t="s">
+        <v>544</v>
       </c>
     </row>
     <row r="223" spans="1:7" x14ac:dyDescent="0.35">
@@ -7336,20 +7753,20 @@
         <v>38</v>
       </c>
       <c r="C223" t="s">
-        <v>546</v>
+        <v>468</v>
       </c>
       <c r="D223" t="s">
-        <v>40</v>
+        <v>88</v>
       </c>
       <c r="E223">
-        <v>13.9</v>
+        <v>3.3</v>
       </c>
       <c r="F223">
-        <f t="shared" si="0"/>
-        <v>834</v>
+        <f t="shared" si="11"/>
+        <v>198</v>
       </c>
       <c r="G223" s="3" t="s">
-        <v>547</v>
+        <v>469</v>
       </c>
     </row>
     <row r="224" spans="1:7" x14ac:dyDescent="0.35">
@@ -7360,20 +7777,20 @@
         <v>38</v>
       </c>
       <c r="C224" t="s">
-        <v>548</v>
+        <v>553</v>
       </c>
       <c r="D224" t="s">
         <v>40</v>
       </c>
       <c r="E224">
-        <v>3.9</v>
+        <v>24.9</v>
       </c>
       <c r="F224">
-        <f t="shared" si="0"/>
-        <v>234</v>
+        <f t="shared" si="11"/>
+        <v>1494</v>
       </c>
       <c r="G224" s="3" t="s">
-        <v>549</v>
+        <v>554</v>
       </c>
     </row>
     <row r="225" spans="1:7" x14ac:dyDescent="0.35">
@@ -7384,20 +7801,20 @@
         <v>38</v>
       </c>
       <c r="C225" t="s">
-        <v>554</v>
+        <v>43</v>
       </c>
       <c r="D225" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="E225">
-        <v>430</v>
+        <v>170</v>
       </c>
       <c r="F225">
-        <f t="shared" si="0"/>
-        <v>25800</v>
+        <f t="shared" si="11"/>
+        <v>10200</v>
       </c>
       <c r="G225" s="3" t="s">
-        <v>555</v>
+        <v>46</v>
       </c>
     </row>
     <row r="226" spans="1:7" x14ac:dyDescent="0.35">
@@ -7408,20 +7825,20 @@
         <v>38</v>
       </c>
       <c r="C226" t="s">
-        <v>556</v>
+        <v>484</v>
       </c>
       <c r="D226" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="E226">
-        <v>26.4</v>
+        <v>5.5</v>
       </c>
       <c r="F226">
-        <f t="shared" si="0"/>
-        <v>1584</v>
+        <f t="shared" si="11"/>
+        <v>330</v>
       </c>
       <c r="G226" s="3" t="s">
-        <v>557</v>
+        <v>485</v>
       </c>
     </row>
     <row r="227" spans="1:7" x14ac:dyDescent="0.35">
@@ -7432,20 +7849,20 @@
         <v>38</v>
       </c>
       <c r="C227" t="s">
-        <v>558</v>
+        <v>555</v>
       </c>
       <c r="D227" t="s">
-        <v>88</v>
+        <v>210</v>
       </c>
       <c r="E227">
-        <v>19.899999999999999</v>
+        <v>26.8</v>
       </c>
       <c r="F227">
-        <f>E227*60</f>
-        <v>1194</v>
+        <f t="shared" si="11"/>
+        <v>1608</v>
       </c>
       <c r="G227" s="3" t="s">
-        <v>559</v>
+        <v>556</v>
       </c>
     </row>
     <row r="228" spans="1:7" x14ac:dyDescent="0.35">
@@ -7456,20 +7873,20 @@
         <v>38</v>
       </c>
       <c r="C228" t="s">
-        <v>552</v>
+        <v>557</v>
       </c>
       <c r="D228" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="E228">
-        <v>7</v>
+        <v>1.5</v>
       </c>
       <c r="F228">
-        <f t="shared" ref="F228:F244" si="10">E228*60</f>
-        <v>420</v>
+        <f t="shared" si="11"/>
+        <v>90</v>
       </c>
       <c r="G228" s="3" t="s">
-        <v>553</v>
+        <v>558</v>
       </c>
     </row>
     <row r="229" spans="1:7" x14ac:dyDescent="0.35">
@@ -7480,20 +7897,20 @@
         <v>38</v>
       </c>
       <c r="C229" t="s">
-        <v>550</v>
+        <v>559</v>
       </c>
       <c r="D229" t="s">
-        <v>45</v>
+        <v>560</v>
       </c>
       <c r="E229">
-        <v>2.9</v>
+        <v>0.45</v>
       </c>
       <c r="F229">
-        <f t="shared" si="10"/>
-        <v>174</v>
+        <f t="shared" si="11"/>
+        <v>27</v>
       </c>
       <c r="G229" s="3" t="s">
-        <v>551</v>
+        <v>561</v>
       </c>
     </row>
     <row r="230" spans="1:7" x14ac:dyDescent="0.35">
@@ -7504,20 +7921,20 @@
         <v>38</v>
       </c>
       <c r="C230" t="s">
-        <v>475</v>
+        <v>541</v>
       </c>
       <c r="D230" t="s">
-        <v>88</v>
+        <v>40</v>
       </c>
       <c r="E230">
-        <v>3.3</v>
+        <v>3.9</v>
       </c>
       <c r="F230">
-        <f t="shared" si="10"/>
-        <v>198</v>
+        <f t="shared" si="11"/>
+        <v>234</v>
       </c>
       <c r="G230" s="3" t="s">
-        <v>476</v>
+        <v>542</v>
       </c>
     </row>
     <row r="231" spans="1:7" x14ac:dyDescent="0.35">
@@ -7528,20 +7945,20 @@
         <v>38</v>
       </c>
       <c r="C231" t="s">
-        <v>560</v>
+        <v>170</v>
       </c>
       <c r="D231" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="E231">
-        <v>24.9</v>
+        <v>7.1</v>
       </c>
       <c r="F231">
-        <f t="shared" si="10"/>
-        <v>1494</v>
-      </c>
-      <c r="G231" s="3" t="s">
-        <v>561</v>
+        <f t="shared" si="11"/>
+        <v>426</v>
+      </c>
+      <c r="G231" s="4" t="s">
+        <v>171</v>
       </c>
     </row>
     <row r="232" spans="1:7" x14ac:dyDescent="0.35">
@@ -7552,20 +7969,20 @@
         <v>38</v>
       </c>
       <c r="C232" t="s">
-        <v>43</v>
+        <v>562</v>
       </c>
       <c r="D232" t="s">
-        <v>45</v>
+        <v>439</v>
       </c>
       <c r="E232">
-        <v>170</v>
+        <v>410</v>
       </c>
       <c r="F232">
-        <f t="shared" si="10"/>
-        <v>10200</v>
+        <f t="shared" si="11"/>
+        <v>24600</v>
       </c>
       <c r="G232" s="3" t="s">
-        <v>46</v>
+        <v>563</v>
       </c>
     </row>
     <row r="233" spans="1:7" x14ac:dyDescent="0.35">
@@ -7576,20 +7993,20 @@
         <v>38</v>
       </c>
       <c r="C233" t="s">
-        <v>491</v>
+        <v>198</v>
       </c>
       <c r="D233" t="s">
         <v>40</v>
       </c>
       <c r="E233">
-        <v>5.5</v>
+        <v>5.9709873654656063</v>
       </c>
       <c r="F233">
-        <f t="shared" si="10"/>
-        <v>330</v>
+        <f t="shared" si="11"/>
+        <v>358.25924192793639</v>
       </c>
       <c r="G233" s="3" t="s">
-        <v>492</v>
+        <v>564</v>
       </c>
     </row>
     <row r="234" spans="1:7" x14ac:dyDescent="0.35">
@@ -7600,20 +8017,20 @@
         <v>38</v>
       </c>
       <c r="C234" t="s">
-        <v>562</v>
+        <v>488</v>
       </c>
       <c r="D234" t="s">
-        <v>210</v>
+        <v>88</v>
       </c>
       <c r="E234">
-        <v>26.8</v>
+        <v>8.1999999999999993</v>
       </c>
       <c r="F234">
-        <f t="shared" si="10"/>
-        <v>1608</v>
+        <f t="shared" si="11"/>
+        <v>491.99999999999994</v>
       </c>
       <c r="G234" s="3" t="s">
-        <v>563</v>
+        <v>489</v>
       </c>
     </row>
     <row r="235" spans="1:7" x14ac:dyDescent="0.35">
@@ -7624,20 +8041,20 @@
         <v>38</v>
       </c>
       <c r="C235" t="s">
-        <v>564</v>
+        <v>565</v>
       </c>
       <c r="D235" t="s">
-        <v>40</v>
+        <v>76</v>
       </c>
       <c r="E235">
-        <v>1.5</v>
+        <v>1.08</v>
       </c>
       <c r="F235">
-        <f t="shared" si="10"/>
-        <v>90</v>
+        <f t="shared" si="11"/>
+        <v>64.800000000000011</v>
       </c>
       <c r="G235" s="3" t="s">
-        <v>565</v>
+        <v>566</v>
       </c>
     </row>
     <row r="236" spans="1:7" x14ac:dyDescent="0.35">
@@ -7648,20 +8065,20 @@
         <v>38</v>
       </c>
       <c r="C236" t="s">
-        <v>566</v>
+        <v>464</v>
       </c>
       <c r="D236" t="s">
-        <v>567</v>
+        <v>42</v>
       </c>
       <c r="E236">
-        <v>0.45</v>
+        <v>206</v>
       </c>
       <c r="F236">
-        <f t="shared" si="10"/>
-        <v>27</v>
+        <f t="shared" si="11"/>
+        <v>12360</v>
       </c>
       <c r="G236" s="3" t="s">
-        <v>568</v>
+        <v>465</v>
       </c>
     </row>
     <row r="237" spans="1:7" x14ac:dyDescent="0.35">
@@ -7672,20 +8089,20 @@
         <v>38</v>
       </c>
       <c r="C237" t="s">
-        <v>548</v>
+        <v>567</v>
       </c>
       <c r="D237" t="s">
-        <v>40</v>
+        <v>88</v>
       </c>
       <c r="E237">
-        <v>3.9</v>
+        <v>1.83</v>
       </c>
       <c r="F237">
-        <f t="shared" si="10"/>
-        <v>234</v>
+        <f t="shared" si="11"/>
+        <v>109.80000000000001</v>
       </c>
       <c r="G237" s="3" t="s">
-        <v>549</v>
+        <v>568</v>
       </c>
     </row>
     <row r="238" spans="1:7" x14ac:dyDescent="0.35">
@@ -7696,20 +8113,20 @@
         <v>38</v>
       </c>
       <c r="C238" t="s">
-        <v>170</v>
+        <v>484</v>
       </c>
       <c r="D238" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="E238">
-        <v>7.1</v>
+        <v>5.5</v>
       </c>
       <c r="F238">
-        <f t="shared" si="10"/>
-        <v>426</v>
-      </c>
-      <c r="G238" s="4" t="s">
-        <v>171</v>
+        <f t="shared" ref="F238:F240" si="12">E238*60</f>
+        <v>330</v>
+      </c>
+      <c r="G238" s="3" t="s">
+        <v>485</v>
       </c>
     </row>
     <row r="239" spans="1:7" x14ac:dyDescent="0.35">
@@ -7723,14 +8140,14 @@
         <v>569</v>
       </c>
       <c r="D239" t="s">
-        <v>446</v>
+        <v>45</v>
       </c>
       <c r="E239">
-        <v>410</v>
+        <v>5.6</v>
       </c>
       <c r="F239">
-        <f t="shared" si="10"/>
-        <v>24600</v>
+        <f t="shared" si="12"/>
+        <v>336</v>
       </c>
       <c r="G239" s="3" t="s">
         <v>570</v>
@@ -7744,20 +8161,20 @@
         <v>38</v>
       </c>
       <c r="C240" t="s">
-        <v>198</v>
+        <v>565</v>
       </c>
       <c r="D240" t="s">
-        <v>40</v>
+        <v>76</v>
       </c>
       <c r="E240">
-        <v>5.9709873654656063</v>
+        <v>1.08</v>
       </c>
       <c r="F240">
-        <f t="shared" si="10"/>
-        <v>358.25924192793639</v>
+        <f t="shared" si="12"/>
+        <v>64.800000000000011</v>
       </c>
       <c r="G240" s="3" t="s">
-        <v>571</v>
+        <v>566</v>
       </c>
     </row>
     <row r="241" spans="1:7" x14ac:dyDescent="0.35">
@@ -7768,20 +8185,20 @@
         <v>38</v>
       </c>
       <c r="C241" t="s">
-        <v>495</v>
+        <v>484</v>
       </c>
       <c r="D241" t="s">
-        <v>88</v>
+        <v>40</v>
       </c>
       <c r="E241">
-        <v>8.1999999999999993</v>
+        <v>5.5</v>
       </c>
       <c r="F241">
-        <f t="shared" si="10"/>
-        <v>491.99999999999994</v>
+        <f t="shared" ref="F241:F242" si="13">E241*60</f>
+        <v>330</v>
       </c>
       <c r="G241" s="3" t="s">
-        <v>496</v>
+        <v>485</v>
       </c>
     </row>
     <row r="242" spans="1:7" x14ac:dyDescent="0.35">
@@ -7792,20 +8209,20 @@
         <v>38</v>
       </c>
       <c r="C242" t="s">
+        <v>571</v>
+      </c>
+      <c r="D242" t="s">
+        <v>40</v>
+      </c>
+      <c r="E242">
+        <v>11.7</v>
+      </c>
+      <c r="F242">
+        <f t="shared" si="13"/>
+        <v>702</v>
+      </c>
+      <c r="G242" s="3" t="s">
         <v>572</v>
-      </c>
-      <c r="D242" t="s">
-        <v>76</v>
-      </c>
-      <c r="E242">
-        <v>1.08</v>
-      </c>
-      <c r="F242">
-        <f t="shared" si="10"/>
-        <v>64.800000000000011</v>
-      </c>
-      <c r="G242" s="3" t="s">
-        <v>573</v>
       </c>
     </row>
     <row r="243" spans="1:7" x14ac:dyDescent="0.35">
@@ -7816,20 +8233,20 @@
         <v>38</v>
       </c>
       <c r="C243" t="s">
-        <v>471</v>
+        <v>484</v>
       </c>
       <c r="D243" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="E243">
-        <v>206</v>
+        <v>5.5</v>
       </c>
       <c r="F243">
-        <f t="shared" si="10"/>
-        <v>12360</v>
+        <f t="shared" ref="F243:F245" si="14">E243*60</f>
+        <v>330</v>
       </c>
       <c r="G243" s="3" t="s">
-        <v>472</v>
+        <v>485</v>
       </c>
     </row>
     <row r="244" spans="1:7" x14ac:dyDescent="0.35">
@@ -7840,20 +8257,20 @@
         <v>38</v>
       </c>
       <c r="C244" t="s">
+        <v>573</v>
+      </c>
+      <c r="D244" t="s">
+        <v>45</v>
+      </c>
+      <c r="E244">
+        <v>5.3</v>
+      </c>
+      <c r="F244">
+        <f t="shared" si="14"/>
+        <v>318</v>
+      </c>
+      <c r="G244" s="3" t="s">
         <v>574</v>
-      </c>
-      <c r="D244" t="s">
-        <v>88</v>
-      </c>
-      <c r="E244">
-        <v>1.83</v>
-      </c>
-      <c r="F244">
-        <f t="shared" si="10"/>
-        <v>109.80000000000001</v>
-      </c>
-      <c r="G244" s="3" t="s">
-        <v>575</v>
       </c>
     </row>
     <row r="245" spans="1:7" x14ac:dyDescent="0.35">
@@ -7864,20 +8281,20 @@
         <v>38</v>
       </c>
       <c r="C245" t="s">
-        <v>491</v>
+        <v>575</v>
       </c>
       <c r="D245" t="s">
         <v>40</v>
       </c>
       <c r="E245">
-        <v>5.5</v>
+        <v>51.8</v>
       </c>
       <c r="F245">
-        <f t="shared" ref="F245:F247" si="11">E245*60</f>
-        <v>330</v>
+        <f t="shared" si="14"/>
+        <v>3108</v>
       </c>
       <c r="G245" s="3" t="s">
-        <v>492</v>
+        <v>576</v>
       </c>
     </row>
     <row r="246" spans="1:7" x14ac:dyDescent="0.35">
@@ -7888,20 +8305,20 @@
         <v>38</v>
       </c>
       <c r="C246" t="s">
-        <v>576</v>
+        <v>484</v>
       </c>
       <c r="D246" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="E246">
-        <v>5.6</v>
+        <v>5.5</v>
       </c>
       <c r="F246">
-        <f t="shared" si="11"/>
-        <v>336</v>
+        <f t="shared" ref="F246:F252" si="15">E246*60</f>
+        <v>330</v>
       </c>
       <c r="G246" s="3" t="s">
-        <v>577</v>
+        <v>485</v>
       </c>
     </row>
     <row r="247" spans="1:7" x14ac:dyDescent="0.35">
@@ -7912,20 +8329,20 @@
         <v>38</v>
       </c>
       <c r="C247" t="s">
-        <v>572</v>
+        <v>172</v>
       </c>
       <c r="D247" t="s">
-        <v>76</v>
+        <v>88</v>
       </c>
       <c r="E247">
-        <v>1.08</v>
+        <v>27.1</v>
       </c>
       <c r="F247">
-        <f t="shared" si="11"/>
-        <v>64.800000000000011</v>
+        <f t="shared" si="15"/>
+        <v>1626</v>
       </c>
       <c r="G247" s="3" t="s">
-        <v>573</v>
+        <v>581</v>
       </c>
     </row>
     <row r="248" spans="1:7" x14ac:dyDescent="0.35">
@@ -7936,20 +8353,20 @@
         <v>38</v>
       </c>
       <c r="C248" t="s">
-        <v>491</v>
+        <v>582</v>
       </c>
       <c r="D248" t="s">
         <v>40</v>
       </c>
       <c r="E248">
-        <v>5.5</v>
+        <v>2.6</v>
       </c>
       <c r="F248">
-        <f t="shared" ref="F248:F249" si="12">E248*60</f>
-        <v>330</v>
+        <f t="shared" si="15"/>
+        <v>156</v>
       </c>
       <c r="G248" s="3" t="s">
-        <v>492</v>
+        <v>583</v>
       </c>
     </row>
     <row r="249" spans="1:7" x14ac:dyDescent="0.35">
@@ -7960,20 +8377,20 @@
         <v>38</v>
       </c>
       <c r="C249" t="s">
-        <v>578</v>
+        <v>170</v>
       </c>
       <c r="D249" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="E249">
-        <v>11.7</v>
+        <v>7.1</v>
       </c>
       <c r="F249">
-        <f t="shared" si="12"/>
-        <v>702</v>
-      </c>
-      <c r="G249" s="3" t="s">
-        <v>579</v>
+        <f t="shared" si="15"/>
+        <v>426</v>
+      </c>
+      <c r="G249" s="4" t="s">
+        <v>171</v>
       </c>
     </row>
     <row r="250" spans="1:7" x14ac:dyDescent="0.35">
@@ -7984,20 +8401,20 @@
         <v>38</v>
       </c>
       <c r="C250" t="s">
-        <v>491</v>
+        <v>438</v>
       </c>
       <c r="D250" t="s">
-        <v>40</v>
+        <v>439</v>
       </c>
       <c r="E250">
-        <v>5.5</v>
+        <v>7.3</v>
       </c>
       <c r="F250">
-        <f t="shared" ref="F250:F252" si="13">E250*60</f>
-        <v>330</v>
+        <f t="shared" si="15"/>
+        <v>438</v>
       </c>
       <c r="G250" s="3" t="s">
-        <v>492</v>
+        <v>440</v>
       </c>
     </row>
     <row r="251" spans="1:7" x14ac:dyDescent="0.35">
@@ -8008,20 +8425,20 @@
         <v>38</v>
       </c>
       <c r="C251" t="s">
+        <v>579</v>
+      </c>
+      <c r="D251" t="s">
+        <v>88</v>
+      </c>
+      <c r="E251">
+        <v>6.3</v>
+      </c>
+      <c r="F251">
+        <f t="shared" si="15"/>
+        <v>378</v>
+      </c>
+      <c r="G251" s="3" t="s">
         <v>580</v>
-      </c>
-      <c r="D251" t="s">
-        <v>45</v>
-      </c>
-      <c r="E251">
-        <v>5.3</v>
-      </c>
-      <c r="F251">
-        <f t="shared" si="13"/>
-        <v>318</v>
-      </c>
-      <c r="G251" s="3" t="s">
-        <v>581</v>
       </c>
     </row>
     <row r="252" spans="1:7" x14ac:dyDescent="0.35">
@@ -8032,20 +8449,20 @@
         <v>38</v>
       </c>
       <c r="C252" t="s">
-        <v>582</v>
+        <v>577</v>
       </c>
       <c r="D252" t="s">
-        <v>40</v>
+        <v>88</v>
       </c>
       <c r="E252">
-        <v>51.8</v>
+        <v>1.87</v>
       </c>
       <c r="F252">
-        <f t="shared" si="13"/>
-        <v>3108</v>
+        <f t="shared" si="15"/>
+        <v>112.2</v>
       </c>
       <c r="G252" s="3" t="s">
-        <v>583</v>
+        <v>578</v>
       </c>
     </row>
     <row r="253" spans="1:7" x14ac:dyDescent="0.35">
@@ -8056,20 +8473,20 @@
         <v>38</v>
       </c>
       <c r="C253" t="s">
-        <v>491</v>
+        <v>170</v>
       </c>
       <c r="D253" t="s">
         <v>40</v>
       </c>
       <c r="E253">
-        <v>5.5</v>
+        <v>32</v>
       </c>
       <c r="F253">
-        <f t="shared" ref="F253:F257" si="14">E253*60</f>
-        <v>330</v>
+        <f t="shared" ref="F253" si="16">E253*60</f>
+        <v>1920</v>
       </c>
       <c r="G253" s="3" t="s">
-        <v>492</v>
+        <v>459</v>
       </c>
     </row>
     <row r="254" spans="1:7" x14ac:dyDescent="0.35">
@@ -8080,273 +8497,113 @@
         <v>38</v>
       </c>
       <c r="C254" t="s">
-        <v>172</v>
+        <v>428</v>
       </c>
       <c r="D254" t="s">
-        <v>88</v>
+        <v>45</v>
       </c>
       <c r="E254">
-        <v>27.1</v>
+        <v>221</v>
       </c>
       <c r="F254">
-        <f t="shared" si="14"/>
-        <v>1626</v>
+        <f t="shared" si="0"/>
+        <v>13260</v>
       </c>
       <c r="G254" s="3" t="s">
-        <v>588</v>
+        <v>429</v>
       </c>
     </row>
     <row r="255" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A255" t="s">
-        <v>428</v>
+        <v>156</v>
       </c>
       <c r="B255" t="s">
         <v>38</v>
       </c>
       <c r="C255" t="s">
-        <v>589</v>
+        <v>158</v>
       </c>
       <c r="D255" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="E255">
-        <v>2.6</v>
+        <v>7.5</v>
       </c>
       <c r="F255">
-        <f t="shared" si="14"/>
-        <v>156</v>
+        <f t="shared" si="0"/>
+        <v>450</v>
       </c>
       <c r="G255" s="3" t="s">
-        <v>590</v>
+        <v>159</v>
       </c>
     </row>
     <row r="256" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A256" t="s">
-        <v>429</v>
+        <v>157</v>
       </c>
       <c r="B256" t="s">
         <v>38</v>
       </c>
       <c r="C256" t="s">
-        <v>170</v>
+        <v>158</v>
       </c>
       <c r="D256" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="E256">
-        <v>7.1</v>
+        <v>7.5</v>
       </c>
       <c r="F256">
-        <f t="shared" si="14"/>
-        <v>426</v>
-      </c>
-      <c r="G256" s="4" t="s">
-        <v>171</v>
+        <f t="shared" si="0"/>
+        <v>450</v>
+      </c>
+      <c r="G256" s="3" t="s">
+        <v>159</v>
       </c>
     </row>
     <row r="257" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A257" t="s">
-        <v>430</v>
+        <v>160</v>
       </c>
       <c r="B257" t="s">
-        <v>38</v>
+        <v>16</v>
       </c>
       <c r="C257" t="s">
-        <v>445</v>
+        <v>109</v>
       </c>
       <c r="D257" t="s">
-        <v>446</v>
-      </c>
-      <c r="E257">
-        <v>7.3</v>
+        <v>109</v>
+      </c>
+      <c r="E257" t="s">
+        <v>109</v>
       </c>
       <c r="F257">
-        <f t="shared" si="14"/>
-        <v>438</v>
-      </c>
-      <c r="G257" s="3" t="s">
-        <v>447</v>
+        <v>100</v>
+      </c>
+      <c r="G257" s="2" t="s">
+        <v>114</v>
       </c>
     </row>
     <row r="258" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A258" t="s">
-        <v>431</v>
+        <v>117</v>
       </c>
       <c r="B258" t="s">
-        <v>38</v>
+        <v>16</v>
       </c>
       <c r="C258" t="s">
-        <v>586</v>
+        <v>109</v>
       </c>
       <c r="D258" t="s">
-        <v>88</v>
-      </c>
-      <c r="E258">
-        <v>6.3</v>
-      </c>
-      <c r="G258" s="3" t="s">
-        <v>587</v>
-      </c>
-    </row>
-    <row r="259" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A259" t="s">
-        <v>432</v>
-      </c>
-      <c r="B259" t="s">
-        <v>38</v>
-      </c>
-      <c r="C259" t="s">
-        <v>584</v>
-      </c>
-      <c r="D259" t="s">
-        <v>88</v>
-      </c>
-      <c r="E259">
-        <v>1.87</v>
-      </c>
-      <c r="G259" s="3" t="s">
-        <v>585</v>
-      </c>
-    </row>
-    <row r="260" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A260" t="s">
-        <v>433</v>
-      </c>
-      <c r="B260" t="s">
-        <v>38</v>
-      </c>
-      <c r="C260" t="s">
-        <v>170</v>
-      </c>
-      <c r="D260" t="s">
-        <v>40</v>
-      </c>
-      <c r="E260">
-        <v>32</v>
-      </c>
-      <c r="F260">
-        <f t="shared" ref="F260" si="15">E260*60</f>
-        <v>1920</v>
-      </c>
-      <c r="G260" s="3" t="s">
-        <v>466</v>
-      </c>
-    </row>
-    <row r="261" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A261" t="s">
-        <v>434</v>
-      </c>
-      <c r="B261" t="s">
-        <v>38</v>
-      </c>
-      <c r="C261" t="s">
-        <v>435</v>
-      </c>
-      <c r="D261" t="s">
-        <v>45</v>
-      </c>
-      <c r="E261">
-        <v>221</v>
-      </c>
-      <c r="F261">
-        <f t="shared" si="0"/>
-        <v>13260</v>
-      </c>
-      <c r="G261" s="3" t="s">
-        <v>436</v>
-      </c>
-    </row>
-    <row r="262" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A262" t="s">
-        <v>156</v>
-      </c>
-      <c r="B262" t="s">
-        <v>38</v>
-      </c>
-      <c r="C262" t="s">
-        <v>158</v>
-      </c>
-      <c r="D262" t="s">
-        <v>45</v>
-      </c>
-      <c r="E262">
-        <v>7.5</v>
-      </c>
-      <c r="F262">
-        <f t="shared" si="0"/>
-        <v>450</v>
-      </c>
-      <c r="G262" s="3" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="263" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A263" t="s">
-        <v>157</v>
-      </c>
-      <c r="B263" t="s">
-        <v>38</v>
-      </c>
-      <c r="C263" t="s">
-        <v>158</v>
-      </c>
-      <c r="D263" t="s">
-        <v>45</v>
-      </c>
-      <c r="E263">
-        <v>7.5</v>
-      </c>
-      <c r="F263">
-        <f t="shared" si="0"/>
-        <v>450</v>
-      </c>
-      <c r="G263" s="3" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="264" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A264" t="s">
-        <v>160</v>
-      </c>
-      <c r="B264" t="s">
-        <v>16</v>
-      </c>
-      <c r="C264" t="s">
         <v>109</v>
       </c>
-      <c r="D264" t="s">
+      <c r="E258" t="s">
         <v>109</v>
       </c>
-      <c r="E264" t="s">
-        <v>109</v>
-      </c>
-      <c r="F264">
-        <v>100</v>
-      </c>
-      <c r="G264" s="2" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="265" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A265" t="s">
-        <v>117</v>
-      </c>
-      <c r="B265" t="s">
-        <v>16</v>
-      </c>
-      <c r="C265" t="s">
-        <v>109</v>
-      </c>
-      <c r="D265" t="s">
-        <v>109</v>
-      </c>
-      <c r="E265" t="s">
-        <v>109</v>
-      </c>
-      <c r="F265">
+      <c r="F258">
         <v>50</v>
       </c>
-      <c r="G265" s="2" t="s">
+      <c r="G258" s="2" t="s">
         <v>114</v>
       </c>
     </row>
@@ -8354,8 +8611,8 @@
   <hyperlinks>
     <hyperlink ref="G20" r:id="rId1" xr:uid="{60D2E9C6-9172-4D4D-B418-CC567356E033}"/>
     <hyperlink ref="G2" r:id="rId2" xr:uid="{96642BA6-12F8-4451-8DFA-16265959FEFA}"/>
-    <hyperlink ref="G211" r:id="rId3" xr:uid="{DBD518FF-06AA-4F59-B32D-3D580FD3488C}"/>
-    <hyperlink ref="G210" r:id="rId4" xr:uid="{3C873BD8-C205-4B23-B8F2-C8E28D105704}"/>
+    <hyperlink ref="G204" r:id="rId3" xr:uid="{DBD518FF-06AA-4F59-B32D-3D580FD3488C}"/>
+    <hyperlink ref="G203" r:id="rId4" xr:uid="{3C873BD8-C205-4B23-B8F2-C8E28D105704}"/>
     <hyperlink ref="G30" r:id="rId5" xr:uid="{3CCDC09F-65EC-46AB-A5B6-06698DF90FD6}"/>
     <hyperlink ref="G31" r:id="rId6" xr:uid="{45B7FFC2-C775-45F6-B5E2-92E39C1EFAC1}"/>
     <hyperlink ref="G34" r:id="rId7" xr:uid="{C0F23788-2A31-4EA5-B6D6-A12E3C45A7E7}"/>
@@ -8364,14 +8621,15 @@
     <hyperlink ref="G77" r:id="rId10" xr:uid="{6C3143F8-EECE-493B-A808-BC8B1FB906E4}"/>
     <hyperlink ref="G82" r:id="rId11" xr:uid="{5F7C4001-6F89-479B-983C-BDB24868961F}"/>
     <hyperlink ref="G88" r:id="rId12" xr:uid="{B65497F5-375F-4E2A-86C4-B4310250B40D}"/>
-    <hyperlink ref="G238" r:id="rId13" xr:uid="{B850A642-752F-4050-BE9D-FD6DEF1A1A28}"/>
-    <hyperlink ref="G256" r:id="rId14" xr:uid="{733CCEAC-FE6D-4E5A-890C-C556E3FD7098}"/>
+    <hyperlink ref="G231" r:id="rId13" xr:uid="{B850A642-752F-4050-BE9D-FD6DEF1A1A28}"/>
+    <hyperlink ref="G249" r:id="rId14" xr:uid="{733CCEAC-FE6D-4E5A-890C-C556E3FD7098}"/>
     <hyperlink ref="G122" r:id="rId15" xr:uid="{3ACF0FFB-BCF3-4FD6-9FD5-CA9D90101625}"/>
     <hyperlink ref="G169" r:id="rId16" xr:uid="{1167C813-88FC-4ED1-BAC3-35562E39F6B3}"/>
     <hyperlink ref="G141" r:id="rId17" xr:uid="{0AC60904-9B6C-42FC-A0D6-DCDFCFACCDB7}"/>
+    <hyperlink ref="G178" r:id="rId18" xr:uid="{87D8A670-02D9-4006-B7CD-DC020E2EACEF}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId18"/>
+  <pageSetup orientation="portrait" r:id="rId19"/>
 </worksheet>
 </file>
 
@@ -8380,7 +8638,7 @@
   <dimension ref="A1:D22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H13" sqref="H13"/>
+      <selection activeCell="J17" sqref="J17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>

--- a/data/gems/Parameters.xlsx
+++ b/data/gems/Parameters.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bras5181\Desktop\Labprojects\CulturedMeat\iSusS\data\gems\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8797A9B1-508A-4375-A6E7-A8D9B9FC9528}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4C54FB45-0285-44AF-8923-8C0D48ED66A9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1364" uniqueCount="676">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1387" uniqueCount="684">
   <si>
     <t>Rxn</t>
   </si>
@@ -387,9 +387,6 @@
     <t xml:space="preserve"> https://doi.org/10.4233/uuid:177e9f4c-f847-436d-9fd4-9ed97ba709d9</t>
   </si>
   <si>
-    <t>DOI: 10.1371/journal.pone.0018457</t>
-  </si>
-  <si>
     <t>ATPM</t>
   </si>
   <si>
@@ -672,9 +669,6 @@
     <t>Mus musculus</t>
   </si>
   <si>
-    <t>DOI: 10.1016/s0076-6879(82)89063-0</t>
-  </si>
-  <si>
     <t>SACCD3m</t>
   </si>
   <si>
@@ -864,9 +858,6 @@
     <t>PGCD</t>
   </si>
   <si>
-    <t>5HLTDL</t>
-  </si>
-  <si>
     <t>EHGLAT</t>
   </si>
   <si>
@@ -1245,9 +1236,6 @@
     <t>CBPSam</t>
   </si>
   <si>
-    <t>AGMTm</t>
-  </si>
-  <si>
     <t>3HKYNAKGATm</t>
   </si>
   <si>
@@ -1716,15 +1704,6 @@
     <t>PMID: 6249820</t>
   </si>
   <si>
-    <t>3.5.3.11</t>
-  </si>
-  <si>
-    <t>Methanocaldococcus jannaschii</t>
-  </si>
-  <si>
-    <t>DOI: 10.1021/bi300039f</t>
-  </si>
-  <si>
     <t>4.1.1.19</t>
   </si>
   <si>
@@ -2065,6 +2044,51 @@
   </si>
   <si>
     <t>PMID: 2868008</t>
+  </si>
+  <si>
+    <t>EX_succ_e</t>
+  </si>
+  <si>
+    <t>EX_pyr_e</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1093/clinchem/27.1.88</t>
+  </si>
+  <si>
+    <t>VALTAim</t>
+  </si>
+  <si>
+    <t>MMEm</t>
+  </si>
+  <si>
+    <t>MMMm</t>
+  </si>
+  <si>
+    <t>SUCOASm</t>
+  </si>
+  <si>
+    <t>5.1.99.1</t>
+  </si>
+  <si>
+    <t>DOI: 10.1016/0003-9861(85)90381-9</t>
+  </si>
+  <si>
+    <t>5.4.99.2</t>
+  </si>
+  <si>
+    <t>PMID: 7989334</t>
+  </si>
+  <si>
+    <t>6.2.1.5</t>
+  </si>
+  <si>
+    <t>Columba livia</t>
+  </si>
+  <si>
+    <t>2.6.1.42</t>
+  </si>
+  <si>
+    <t>PMID: 5922965</t>
   </si>
 </sst>
 </file>
@@ -2411,10 +2435,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G258"/>
+  <dimension ref="A1:G262"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A235" workbookViewId="0">
-      <selection activeCell="M252" sqref="M252"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L10" sqref="L10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2470,7 +2494,7 @@
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B3" t="s">
         <v>111</v>
@@ -2493,7 +2517,7 @@
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B4" t="s">
         <v>111</v>
@@ -2516,7 +2540,7 @@
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="B5" t="s">
         <v>111</v>
@@ -2539,7 +2563,7 @@
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>113</v>
+        <v>669</v>
       </c>
       <c r="B6" t="s">
         <v>111</v>
@@ -2548,1204 +2572,1201 @@
         <v>109</v>
       </c>
       <c r="D6" t="s">
-        <v>112</v>
-      </c>
-      <c r="E6">
-        <v>3.8699999999999998E-2</v>
+        <v>109</v>
+      </c>
+      <c r="E6" t="s">
+        <v>109</v>
       </c>
       <c r="F6">
-        <f>E6*60</f>
-        <v>2.3220000000000001</v>
-      </c>
-      <c r="G6" s="2" t="s">
-        <v>116</v>
+        <v>6360</v>
+      </c>
+      <c r="G6" s="4" t="s">
+        <v>109</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>4</v>
+        <v>670</v>
       </c>
       <c r="B7" t="s">
-        <v>16</v>
+        <v>111</v>
       </c>
       <c r="C7" t="s">
-        <v>49</v>
+        <v>109</v>
       </c>
       <c r="D7" t="s">
-        <v>45</v>
-      </c>
-      <c r="E7">
-        <v>191.5</v>
+        <v>109</v>
+      </c>
+      <c r="E7" t="s">
+        <v>109</v>
       </c>
       <c r="F7">
-        <f>E7*60</f>
-        <v>11490</v>
-      </c>
-      <c r="G7" s="3" t="s">
-        <v>50</v>
+        <v>6360</v>
+      </c>
+      <c r="G7" s="4" t="s">
+        <v>109</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
-        <v>6</v>
+        <v>113</v>
       </c>
       <c r="B8" t="s">
-        <v>16</v>
+        <v>111</v>
       </c>
       <c r="C8" t="s">
-        <v>51</v>
+        <v>109</v>
       </c>
       <c r="D8" t="s">
-        <v>40</v>
-      </c>
-      <c r="E8">
-        <v>620</v>
+        <v>109</v>
+      </c>
+      <c r="E8" t="s">
+        <v>109</v>
       </c>
       <c r="F8">
-        <f t="shared" ref="F8:F256" si="0">E8*60</f>
-        <v>37200</v>
-      </c>
-      <c r="G8" s="3" t="s">
-        <v>52</v>
+        <v>10</v>
+      </c>
+      <c r="G8" s="2" t="s">
+        <v>109</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="B9" t="s">
         <v>16</v>
       </c>
       <c r="C9" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="D9" t="s">
         <v>45</v>
       </c>
       <c r="E9">
+        <v>191.5</v>
+      </c>
+      <c r="F9">
+        <f>E9*60</f>
+        <v>11490</v>
+      </c>
+      <c r="G9" s="3" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A10" t="s">
+        <v>6</v>
+      </c>
+      <c r="B10" t="s">
+        <v>16</v>
+      </c>
+      <c r="C10" t="s">
+        <v>51</v>
+      </c>
+      <c r="D10" t="s">
+        <v>40</v>
+      </c>
+      <c r="E10">
+        <v>620</v>
+      </c>
+      <c r="F10">
+        <f t="shared" ref="F10:F260" si="0">E10*60</f>
+        <v>37200</v>
+      </c>
+      <c r="G10" s="3" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A11" t="s">
+        <v>7</v>
+      </c>
+      <c r="B11" t="s">
+        <v>16</v>
+      </c>
+      <c r="C11" t="s">
+        <v>53</v>
+      </c>
+      <c r="D11" t="s">
+        <v>45</v>
+      </c>
+      <c r="E11">
         <v>128</v>
       </c>
-      <c r="F9">
+      <c r="F11">
         <f t="shared" si="0"/>
         <v>7680</v>
       </c>
-      <c r="G9" s="3" t="s">
+      <c r="G11" s="3" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A10" t="s">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A12" t="s">
         <v>8</v>
       </c>
-      <c r="B10" t="s">
-        <v>16</v>
-      </c>
-      <c r="C10" t="s">
+      <c r="B12" t="s">
+        <v>16</v>
+      </c>
+      <c r="C12" t="s">
         <v>55</v>
       </c>
-      <c r="D10" t="s">
+      <c r="D12" t="s">
         <v>40</v>
       </c>
-      <c r="E10">
+      <c r="E12">
         <v>22.3</v>
       </c>
-      <c r="F10">
+      <c r="F12">
         <f t="shared" si="0"/>
         <v>1338</v>
       </c>
-      <c r="G10" s="3" t="s">
+      <c r="G12" s="3" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A11" t="s">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A13" t="s">
         <v>9</v>
       </c>
-      <c r="B11" t="s">
-        <v>16</v>
-      </c>
-      <c r="C11" t="s">
+      <c r="B13" t="s">
+        <v>16</v>
+      </c>
+      <c r="C13" t="s">
         <v>57</v>
       </c>
-      <c r="D11" t="s">
+      <c r="D13" t="s">
         <v>40</v>
       </c>
-      <c r="E11">
+      <c r="E13">
         <v>10240</v>
       </c>
-      <c r="F11">
+      <c r="F13">
         <f t="shared" si="0"/>
         <v>614400</v>
       </c>
-      <c r="G11" s="3" t="s">
+      <c r="G13" s="3" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A12" t="s">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A14" t="s">
         <v>10</v>
       </c>
-      <c r="B12" t="s">
-        <v>16</v>
-      </c>
-      <c r="C12" t="s">
+      <c r="B14" t="s">
+        <v>16</v>
+      </c>
+      <c r="C14" t="s">
         <v>59</v>
       </c>
-      <c r="D12" t="s">
+      <c r="D14" t="s">
         <v>45</v>
       </c>
-      <c r="E12">
+      <c r="E14">
         <v>80</v>
       </c>
-      <c r="F12">
+      <c r="F14">
         <f t="shared" si="0"/>
         <v>4800</v>
       </c>
-      <c r="G12" s="3" t="s">
+      <c r="G14" s="3" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A13" t="s">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A15" t="s">
         <v>11</v>
       </c>
-      <c r="B13" t="s">
-        <v>16</v>
-      </c>
-      <c r="C13" t="s">
+      <c r="B15" t="s">
+        <v>16</v>
+      </c>
+      <c r="C15" t="s">
         <v>62</v>
       </c>
-      <c r="D13" t="s">
+      <c r="D15" t="s">
         <v>45</v>
       </c>
-      <c r="E13">
+      <c r="E15">
         <v>1000</v>
       </c>
-      <c r="F13">
+      <c r="F15">
         <f t="shared" si="0"/>
         <v>60000</v>
       </c>
-      <c r="G13" s="3" t="s">
+      <c r="G15" s="3" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A14" t="s">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A16" t="s">
         <v>12</v>
       </c>
-      <c r="B14" t="s">
-        <v>16</v>
-      </c>
-      <c r="C14" t="s">
+      <c r="B16" t="s">
+        <v>16</v>
+      </c>
+      <c r="C16" t="s">
         <v>63</v>
       </c>
-      <c r="D14" t="s">
+      <c r="D16" t="s">
         <v>45</v>
       </c>
-      <c r="E14">
+      <c r="E16">
         <v>210</v>
       </c>
-      <c r="F14">
+      <c r="F16">
         <f t="shared" si="0"/>
         <v>12600</v>
       </c>
-      <c r="G14" s="3" t="s">
+      <c r="G16" s="3" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A15" t="s">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A17" t="s">
         <v>13</v>
       </c>
-      <c r="B15" t="s">
-        <v>16</v>
-      </c>
-      <c r="C15" t="s">
+      <c r="B17" t="s">
+        <v>16</v>
+      </c>
+      <c r="C17" t="s">
         <v>64</v>
       </c>
-      <c r="D15" t="s">
+      <c r="D17" t="s">
         <v>45</v>
       </c>
-      <c r="E15">
+      <c r="E17">
         <v>91</v>
       </c>
-      <c r="F15">
+      <c r="F17">
         <f t="shared" si="0"/>
         <v>5460</v>
       </c>
-      <c r="G15" s="3" t="s">
+      <c r="G17" s="3" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A16" t="s">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A18" t="s">
         <v>14</v>
       </c>
-      <c r="B16" t="s">
-        <v>16</v>
-      </c>
-      <c r="C16" t="s">
+      <c r="B18" t="s">
+        <v>16</v>
+      </c>
+      <c r="C18" t="s">
         <v>66</v>
       </c>
-      <c r="D16" t="s">
+      <c r="D18" t="s">
         <v>45</v>
       </c>
-      <c r="E16">
+      <c r="E18">
         <v>191</v>
       </c>
-      <c r="F16">
+      <c r="F18">
         <f t="shared" si="0"/>
         <v>11460</v>
       </c>
-      <c r="G16" s="3" t="s">
+      <c r="G18" s="3" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A17" t="s">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A19" t="s">
         <v>25</v>
       </c>
-      <c r="B17" t="s">
-        <v>16</v>
-      </c>
-      <c r="C17" t="s">
+      <c r="B19" t="s">
+        <v>16</v>
+      </c>
+      <c r="C19" t="s">
         <v>68</v>
       </c>
-      <c r="D17" t="s">
-        <v>210</v>
-      </c>
-      <c r="E17">
-        <v>80</v>
-      </c>
-      <c r="F17">
+      <c r="D19" t="s">
+        <v>40</v>
+      </c>
+      <c r="E19">
+        <v>458.5</v>
+      </c>
+      <c r="F19">
         <f t="shared" si="0"/>
-        <v>4800</v>
-      </c>
-      <c r="G17" s="3" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A18" t="s">
+        <v>27510</v>
+      </c>
+      <c r="G19" s="1" t="s">
+        <v>671</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A20" t="s">
         <v>5</v>
       </c>
-      <c r="B18" t="s">
-        <v>16</v>
-      </c>
-      <c r="C18" t="s">
+      <c r="B20" t="s">
+        <v>16</v>
+      </c>
+      <c r="C20" t="s">
         <v>69</v>
       </c>
-      <c r="D18" t="s">
+      <c r="D20" t="s">
         <v>45</v>
       </c>
-      <c r="E18">
+      <c r="E20">
         <v>201</v>
       </c>
-      <c r="F18">
+      <c r="F20">
         <f t="shared" si="0"/>
         <v>12060</v>
       </c>
-      <c r="G18" s="3" t="s">
+      <c r="G20" s="3" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A19" t="s">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A21" t="s">
         <v>17</v>
       </c>
-      <c r="B19" t="s">
-        <v>16</v>
-      </c>
-      <c r="C19" t="s">
+      <c r="B21" t="s">
+        <v>16</v>
+      </c>
+      <c r="C21" t="s">
         <v>71</v>
       </c>
-      <c r="D19" t="s">
+      <c r="D21" t="s">
         <v>40</v>
       </c>
-      <c r="E19">
+      <c r="E21">
         <v>1065</v>
       </c>
-      <c r="F19">
+      <c r="F21">
         <f t="shared" si="0"/>
         <v>63900</v>
       </c>
-      <c r="G19" s="3" t="s">
+      <c r="G21" s="3" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A20" t="s">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A22" t="s">
         <v>18</v>
       </c>
-      <c r="B20" t="s">
-        <v>16</v>
-      </c>
-      <c r="C20" t="s">
+      <c r="B22" t="s">
+        <v>16</v>
+      </c>
+      <c r="C22" t="s">
         <v>73</v>
       </c>
-      <c r="D20" t="s">
+      <c r="D22" t="s">
         <v>45</v>
       </c>
-      <c r="E20">
+      <c r="E22">
         <v>1.89</v>
       </c>
-      <c r="F20">
+      <c r="F22">
         <f t="shared" si="0"/>
         <v>113.39999999999999</v>
       </c>
-      <c r="G20" s="4" t="s">
+      <c r="G22" s="4" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A21" t="s">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A23" t="s">
         <v>19</v>
       </c>
-      <c r="B21" t="s">
-        <v>16</v>
-      </c>
-      <c r="C21" t="s">
+      <c r="B23" t="s">
+        <v>16</v>
+      </c>
+      <c r="C23" t="s">
         <v>75</v>
       </c>
-      <c r="D21" t="s">
+      <c r="D23" t="s">
         <v>76</v>
       </c>
-      <c r="E21">
+      <c r="E23">
         <v>1700</v>
       </c>
-      <c r="F21">
+      <c r="F23">
         <f t="shared" si="0"/>
         <v>102000</v>
       </c>
-      <c r="G21" s="3" t="s">
+      <c r="G23" s="3" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A22" t="s">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A24" t="s">
         <v>20</v>
       </c>
-      <c r="B22" t="s">
-        <v>16</v>
-      </c>
-      <c r="C22" t="s">
+      <c r="B24" t="s">
+        <v>16</v>
+      </c>
+      <c r="C24" t="s">
         <v>78</v>
       </c>
-      <c r="D22" t="s">
+      <c r="D24" t="s">
         <v>42</v>
       </c>
-      <c r="E22">
+      <c r="E24">
         <v>6570</v>
       </c>
-      <c r="F22">
+      <c r="F24">
         <f t="shared" si="0"/>
         <v>394200</v>
       </c>
-      <c r="G22" s="3" t="s">
+      <c r="G24" s="3" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A23" t="s">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A25" t="s">
         <v>21</v>
       </c>
-      <c r="B23" t="s">
-        <v>16</v>
-      </c>
-      <c r="C23" t="s">
+      <c r="B25" t="s">
+        <v>16</v>
+      </c>
+      <c r="C25" t="s">
         <v>80</v>
       </c>
-      <c r="D23" t="s">
+      <c r="D25" t="s">
         <v>45</v>
       </c>
-      <c r="E23">
+      <c r="E25">
         <v>0.88</v>
       </c>
-      <c r="F23">
+      <c r="F25">
         <f t="shared" si="0"/>
         <v>52.8</v>
       </c>
-      <c r="G23" s="3" t="s">
+      <c r="G25" s="3" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A24" t="s">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A26" t="s">
         <v>22</v>
       </c>
-      <c r="B24" t="s">
-        <v>16</v>
-      </c>
-      <c r="C24" t="s">
+      <c r="B26" t="s">
+        <v>16</v>
+      </c>
+      <c r="C26" t="s">
         <v>80</v>
       </c>
-      <c r="D24" t="s">
+      <c r="D26" t="s">
         <v>45</v>
       </c>
-      <c r="E24">
+      <c r="E26">
         <v>0.88</v>
       </c>
-      <c r="F24">
+      <c r="F26">
         <f t="shared" si="0"/>
         <v>52.8</v>
       </c>
-      <c r="G24" s="3" t="s">
+      <c r="G26" s="3" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A25" t="s">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A27" t="s">
         <v>23</v>
       </c>
-      <c r="B25" t="s">
-        <v>16</v>
-      </c>
-      <c r="C25" t="s">
+      <c r="B27" t="s">
+        <v>16</v>
+      </c>
+      <c r="C27" t="s">
         <v>82</v>
       </c>
-      <c r="D25" t="s">
+      <c r="D27" t="s">
         <v>40</v>
       </c>
-      <c r="E25">
+      <c r="E27">
         <v>15</v>
       </c>
-      <c r="F25">
+      <c r="F27">
         <f t="shared" si="0"/>
         <v>900</v>
       </c>
-      <c r="G25" s="3" t="s">
+      <c r="G27" s="3" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A26" t="s">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A28" t="s">
         <v>24</v>
       </c>
-      <c r="B26" t="s">
-        <v>16</v>
-      </c>
-      <c r="C26" t="s">
+      <c r="B28" t="s">
+        <v>16</v>
+      </c>
+      <c r="C28" t="s">
         <v>84</v>
       </c>
-      <c r="D26" t="s">
+      <c r="D28" t="s">
         <v>40</v>
       </c>
-      <c r="E26">
+      <c r="E28">
         <v>22.2</v>
       </c>
-      <c r="F26">
+      <c r="F28">
         <f t="shared" si="0"/>
         <v>1332</v>
       </c>
-      <c r="G26" s="3" t="s">
+      <c r="G28" s="3" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A27" t="s">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A29" t="s">
+        <v>164</v>
+      </c>
+      <c r="B29" t="s">
+        <v>16</v>
+      </c>
+      <c r="C29" t="s">
+        <v>92</v>
+      </c>
+      <c r="D29" t="s">
+        <v>91</v>
+      </c>
+      <c r="E29">
+        <v>6.13</v>
+      </c>
+      <c r="F29">
+        <f t="shared" ref="F29:F54" si="1">E29*60</f>
+        <v>367.8</v>
+      </c>
+      <c r="G29" s="3" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A30" t="s">
         <v>165</v>
       </c>
-      <c r="B27" t="s">
-        <v>16</v>
-      </c>
-      <c r="C27" t="s">
-        <v>92</v>
-      </c>
-      <c r="D27" t="s">
-        <v>91</v>
-      </c>
-      <c r="E27">
-        <v>6.13</v>
-      </c>
-      <c r="F27">
-        <f t="shared" ref="F27:F52" si="1">E27*60</f>
-        <v>367.8</v>
-      </c>
-      <c r="G27" s="3" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A28" t="s">
+      <c r="B30" t="s">
+        <v>16</v>
+      </c>
+      <c r="C30" t="s">
         <v>166</v>
       </c>
-      <c r="B28" t="s">
-        <v>16</v>
-      </c>
-      <c r="C28" t="s">
+      <c r="D30" t="s">
         <v>167</v>
       </c>
-      <c r="D28" t="s">
-        <v>168</v>
-      </c>
-      <c r="E28">
+      <c r="E30">
         <v>138.80000000000001</v>
       </c>
-      <c r="F28">
+      <c r="F30">
         <f t="shared" si="1"/>
         <v>8328</v>
       </c>
-      <c r="G28" s="3" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A29" t="s">
+      <c r="G30" s="3" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A31" t="s">
+        <v>176</v>
+      </c>
+      <c r="B31" t="s">
+        <v>16</v>
+      </c>
+      <c r="C31" t="s">
         <v>177</v>
       </c>
-      <c r="B29" t="s">
-        <v>16</v>
-      </c>
-      <c r="C29" t="s">
-        <v>178</v>
-      </c>
-      <c r="D29" t="s">
+      <c r="D31" t="s">
         <v>88</v>
       </c>
-      <c r="E29">
+      <c r="E31">
         <v>329</v>
       </c>
-      <c r="F29">
+      <c r="F31">
         <f t="shared" si="1"/>
         <v>19740</v>
       </c>
-      <c r="G29" s="3" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A30" t="s">
-        <v>181</v>
-      </c>
-      <c r="B30" t="s">
-        <v>16</v>
-      </c>
-      <c r="C30" t="s">
-        <v>170</v>
-      </c>
-      <c r="D30" t="s">
+      <c r="G31" s="3" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A32" t="s">
+        <v>180</v>
+      </c>
+      <c r="B32" t="s">
+        <v>16</v>
+      </c>
+      <c r="C32" t="s">
+        <v>169</v>
+      </c>
+      <c r="D32" t="s">
         <v>42</v>
       </c>
-      <c r="E30">
+      <c r="E32">
         <v>7.1</v>
       </c>
-      <c r="F30">
+      <c r="F32">
         <f t="shared" si="1"/>
         <v>426</v>
       </c>
-      <c r="G30" s="4" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A31" t="s">
-        <v>185</v>
-      </c>
-      <c r="B31" t="s">
-        <v>16</v>
-      </c>
-      <c r="C31" t="s">
+      <c r="G32" s="4" t="s">
         <v>170</v>
       </c>
-      <c r="D31" t="s">
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A33" t="s">
+        <v>184</v>
+      </c>
+      <c r="B33" t="s">
+        <v>16</v>
+      </c>
+      <c r="C33" t="s">
+        <v>169</v>
+      </c>
+      <c r="D33" t="s">
         <v>42</v>
       </c>
-      <c r="E31">
+      <c r="E33">
         <v>7.1</v>
       </c>
-      <c r="F31">
+      <c r="F33">
         <f t="shared" si="1"/>
         <v>426</v>
       </c>
-      <c r="G31" s="4" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A32" t="s">
-        <v>192</v>
-      </c>
-      <c r="B32" t="s">
-        <v>16</v>
-      </c>
-      <c r="C32" t="s">
-        <v>200</v>
-      </c>
-      <c r="D32" t="s">
+      <c r="G33" s="4" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A34" t="s">
+        <v>191</v>
+      </c>
+      <c r="B34" t="s">
+        <v>16</v>
+      </c>
+      <c r="C34" t="s">
+        <v>199</v>
+      </c>
+      <c r="D34" t="s">
         <v>88</v>
       </c>
-      <c r="E32">
+      <c r="E34">
         <v>9.94</v>
       </c>
-      <c r="F32">
+      <c r="F34">
         <f t="shared" si="1"/>
         <v>596.4</v>
       </c>
-      <c r="G32" s="4" t="s">
+      <c r="G34" s="4" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A35" t="s">
+        <v>192</v>
+      </c>
+      <c r="B35" t="s">
+        <v>16</v>
+      </c>
+      <c r="C35" t="s">
         <v>201</v>
       </c>
-    </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A33" t="s">
-        <v>193</v>
-      </c>
-      <c r="B33" t="s">
-        <v>16</v>
-      </c>
-      <c r="C33" t="s">
-        <v>202</v>
-      </c>
-      <c r="D33" t="s">
+      <c r="D35" t="s">
         <v>42</v>
       </c>
-      <c r="E33">
+      <c r="E35">
         <v>1.6</v>
       </c>
-      <c r="F33">
+      <c r="F35">
         <f t="shared" si="1"/>
         <v>96</v>
       </c>
-      <c r="G33" s="4" t="s">
+      <c r="G35" s="4" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A36" t="s">
+        <v>193</v>
+      </c>
+      <c r="B36" t="s">
+        <v>16</v>
+      </c>
+      <c r="C36" t="s">
         <v>203</v>
       </c>
-    </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A34" t="s">
-        <v>194</v>
-      </c>
-      <c r="B34" t="s">
-        <v>16</v>
-      </c>
-      <c r="C34" t="s">
-        <v>204</v>
-      </c>
-      <c r="D34" t="s">
+      <c r="D36" t="s">
         <v>88</v>
       </c>
-      <c r="E34">
+      <c r="E36">
         <v>1.54</v>
       </c>
-      <c r="F34">
+      <c r="F36">
         <f t="shared" si="1"/>
         <v>92.4</v>
       </c>
-      <c r="G34" s="4" t="s">
+      <c r="G36" s="4" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A37" t="s">
+        <v>194</v>
+      </c>
+      <c r="B37" t="s">
+        <v>16</v>
+      </c>
+      <c r="C37" t="s">
         <v>205</v>
       </c>
-    </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A35" t="s">
-        <v>195</v>
-      </c>
-      <c r="B35" t="s">
-        <v>16</v>
-      </c>
-      <c r="C35" t="s">
-        <v>206</v>
-      </c>
-      <c r="D35" t="s">
+      <c r="D37" t="s">
         <v>45</v>
       </c>
-      <c r="E35">
+      <c r="E37">
         <v>45</v>
       </c>
-      <c r="F35">
+      <c r="F37">
         <f t="shared" si="1"/>
         <v>2700</v>
       </c>
-      <c r="G35" s="4" t="s">
+      <c r="G37" s="4" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A38" t="s">
+        <v>195</v>
+      </c>
+      <c r="B38" t="s">
+        <v>16</v>
+      </c>
+      <c r="C38" t="s">
         <v>207</v>
       </c>
-    </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A36" t="s">
-        <v>196</v>
-      </c>
-      <c r="B36" t="s">
-        <v>16</v>
-      </c>
-      <c r="C36" t="s">
-        <v>208</v>
-      </c>
-      <c r="D36" t="s">
+      <c r="D38" t="s">
         <v>45</v>
       </c>
-      <c r="E36">
+      <c r="E38">
         <v>25</v>
       </c>
-      <c r="F36">
+      <c r="F38">
         <f t="shared" si="1"/>
         <v>1500</v>
       </c>
-      <c r="G36" s="4" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A37" t="s">
+      <c r="G38" s="4" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A39" t="s">
+        <v>196</v>
+      </c>
+      <c r="B39" t="s">
+        <v>16</v>
+      </c>
+      <c r="C39" t="s">
         <v>197</v>
       </c>
-      <c r="B37" t="s">
-        <v>16</v>
-      </c>
-      <c r="C37" t="s">
-        <v>198</v>
-      </c>
-      <c r="D37" t="s">
+      <c r="D39" t="s">
         <v>112</v>
       </c>
-      <c r="E37">
+      <c r="E39">
         <v>196.2</v>
       </c>
-      <c r="F37">
+      <c r="F39">
         <f t="shared" si="1"/>
         <v>11772</v>
       </c>
-      <c r="G37" s="4" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A38" t="s">
-        <v>221</v>
-      </c>
-      <c r="B38" t="s">
-        <v>16</v>
-      </c>
-      <c r="C38" t="s">
-        <v>222</v>
-      </c>
-      <c r="D38" t="s">
+      <c r="G39" s="4" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A40" t="s">
+        <v>219</v>
+      </c>
+      <c r="B40" t="s">
+        <v>16</v>
+      </c>
+      <c r="C40" t="s">
+        <v>220</v>
+      </c>
+      <c r="D40" t="s">
         <v>88</v>
       </c>
-      <c r="E38">
+      <c r="E40">
         <v>26.1</v>
       </c>
-      <c r="F38">
+      <c r="F40">
         <f t="shared" si="1"/>
         <v>1566</v>
       </c>
-      <c r="G38" s="4" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A39" t="s">
-        <v>240</v>
-      </c>
-      <c r="B39" t="s">
-        <v>16</v>
-      </c>
-      <c r="C39" t="s">
-        <v>430</v>
-      </c>
-      <c r="D39" t="s">
+      <c r="G40" s="4" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A41" t="s">
+        <v>238</v>
+      </c>
+      <c r="B41" t="s">
+        <v>16</v>
+      </c>
+      <c r="C41" t="s">
+        <v>426</v>
+      </c>
+      <c r="D41" t="s">
         <v>88</v>
       </c>
-      <c r="E39">
+      <c r="E41">
         <v>13.6</v>
       </c>
-      <c r="F39">
+      <c r="F41">
         <f t="shared" si="1"/>
         <v>816</v>
       </c>
-      <c r="G39" s="3" t="s">
-        <v>431</v>
-      </c>
-    </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A40" t="s">
-        <v>241</v>
-      </c>
-      <c r="B40" t="s">
-        <v>16</v>
-      </c>
-      <c r="C40" t="s">
-        <v>432</v>
-      </c>
-      <c r="D40" t="s">
+      <c r="G41" s="3" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A42" t="s">
+        <v>239</v>
+      </c>
+      <c r="B42" t="s">
+        <v>16</v>
+      </c>
+      <c r="C42" t="s">
+        <v>428</v>
+      </c>
+      <c r="D42" t="s">
         <v>45</v>
       </c>
-      <c r="E40">
+      <c r="E42">
         <v>3.7890000000000001</v>
       </c>
-      <c r="F40">
+      <c r="F42">
         <f t="shared" si="1"/>
         <v>227.34</v>
       </c>
-      <c r="G40" s="3" t="s">
-        <v>433</v>
-      </c>
-    </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A41" t="s">
-        <v>242</v>
-      </c>
-      <c r="B41" t="s">
-        <v>16</v>
-      </c>
-      <c r="C41" t="s">
-        <v>434</v>
-      </c>
-      <c r="D41" t="s">
+      <c r="G42" s="3" t="s">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A43" t="s">
+        <v>240</v>
+      </c>
+      <c r="B43" t="s">
+        <v>16</v>
+      </c>
+      <c r="C43" t="s">
+        <v>430</v>
+      </c>
+      <c r="D43" t="s">
         <v>45</v>
       </c>
-      <c r="E41">
+      <c r="E43">
         <v>3.069</v>
       </c>
-      <c r="F41">
+      <c r="F43">
         <f t="shared" si="1"/>
         <v>184.14</v>
       </c>
-      <c r="G41" s="3" t="s">
-        <v>435</v>
-      </c>
-    </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A42" t="s">
-        <v>243</v>
-      </c>
-      <c r="B42" t="s">
-        <v>16</v>
-      </c>
-      <c r="C42" t="s">
-        <v>436</v>
-      </c>
-      <c r="D42" t="s">
+      <c r="G43" s="3" t="s">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A44" t="s">
+        <v>241</v>
+      </c>
+      <c r="B44" t="s">
+        <v>16</v>
+      </c>
+      <c r="C44" t="s">
+        <v>432</v>
+      </c>
+      <c r="D44" t="s">
         <v>45</v>
       </c>
-      <c r="E42">
+      <c r="E44">
         <v>2.08</v>
       </c>
-      <c r="F42">
+      <c r="F44">
         <f t="shared" si="1"/>
         <v>124.80000000000001</v>
       </c>
-      <c r="G42" s="3" t="s">
-        <v>437</v>
-      </c>
-    </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A43" t="s">
-        <v>244</v>
-      </c>
-      <c r="B43" t="s">
-        <v>16</v>
-      </c>
-      <c r="C43" t="s">
-        <v>438</v>
-      </c>
-      <c r="D43" t="s">
-        <v>439</v>
-      </c>
-      <c r="E43">
+      <c r="G44" s="3" t="s">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A45" t="s">
+        <v>242</v>
+      </c>
+      <c r="B45" t="s">
+        <v>16</v>
+      </c>
+      <c r="C45" t="s">
+        <v>434</v>
+      </c>
+      <c r="D45" t="s">
+        <v>435</v>
+      </c>
+      <c r="E45">
         <v>7.3</v>
       </c>
-      <c r="F43">
+      <c r="F45">
         <f t="shared" si="1"/>
         <v>438</v>
       </c>
-      <c r="G43" s="3" t="s">
-        <v>440</v>
-      </c>
-    </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A44" t="s">
-        <v>245</v>
-      </c>
-      <c r="B44" t="s">
-        <v>16</v>
-      </c>
-      <c r="C44" t="s">
+      <c r="G45" s="3" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A46" t="s">
+        <v>243</v>
+      </c>
+      <c r="B46" t="s">
+        <v>16</v>
+      </c>
+      <c r="C46" t="s">
         <v>43</v>
       </c>
-      <c r="D44" t="s">
+      <c r="D46" t="s">
         <v>45</v>
       </c>
-      <c r="E44">
+      <c r="E46">
         <v>170</v>
       </c>
-      <c r="F44">
+      <c r="F46">
         <f t="shared" si="1"/>
         <v>10200</v>
       </c>
-      <c r="G44" s="3" t="s">
+      <c r="G46" s="3" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A45" t="s">
-        <v>246</v>
-      </c>
-      <c r="B45" t="s">
-        <v>16</v>
-      </c>
-      <c r="C45" t="s">
-        <v>441</v>
-      </c>
-      <c r="D45" t="s">
+    <row r="47" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A47" t="s">
+        <v>244</v>
+      </c>
+      <c r="B47" t="s">
+        <v>16</v>
+      </c>
+      <c r="C47" t="s">
+        <v>437</v>
+      </c>
+      <c r="D47" t="s">
         <v>45</v>
       </c>
-      <c r="E45">
+      <c r="E47">
         <v>68.3</v>
       </c>
-      <c r="F45">
+      <c r="F47">
         <f t="shared" si="1"/>
         <v>4098</v>
       </c>
-      <c r="G45" s="1" t="s">
-        <v>442</v>
-      </c>
-    </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A46" t="s">
-        <v>247</v>
-      </c>
-      <c r="B46" t="s">
-        <v>16</v>
-      </c>
-      <c r="C46" t="s">
-        <v>443</v>
-      </c>
-      <c r="D46" t="s">
+      <c r="G47" s="1" t="s">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A48" t="s">
+        <v>245</v>
+      </c>
+      <c r="B48" t="s">
+        <v>16</v>
+      </c>
+      <c r="C48" t="s">
+        <v>439</v>
+      </c>
+      <c r="D48" t="s">
         <v>40</v>
       </c>
-      <c r="E46">
+      <c r="E48">
         <v>410</v>
       </c>
-      <c r="F46">
+      <c r="F48">
         <f t="shared" si="1"/>
         <v>24600</v>
       </c>
-      <c r="G46" s="3" t="s">
-        <v>444</v>
-      </c>
-    </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A47" t="s">
-        <v>248</v>
-      </c>
-      <c r="B47" t="s">
-        <v>16</v>
-      </c>
-      <c r="C47" t="s">
-        <v>445</v>
-      </c>
-      <c r="D47" t="s">
+      <c r="G48" s="3" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A49" t="s">
+        <v>246</v>
+      </c>
+      <c r="B49" t="s">
+        <v>16</v>
+      </c>
+      <c r="C49" t="s">
+        <v>441</v>
+      </c>
+      <c r="D49" t="s">
         <v>40</v>
       </c>
-      <c r="E47">
+      <c r="E49">
         <v>20.931999999999999</v>
       </c>
-      <c r="F47">
+      <c r="F49">
         <f t="shared" si="1"/>
         <v>1255.9199999999998</v>
       </c>
-      <c r="G47" s="3" t="s">
-        <v>446</v>
-      </c>
-    </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A48" t="s">
-        <v>249</v>
-      </c>
-      <c r="B48" t="s">
-        <v>16</v>
-      </c>
-      <c r="C48" t="s">
-        <v>447</v>
-      </c>
-      <c r="D48" t="s">
+      <c r="G49" s="3" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A50" t="s">
+        <v>247</v>
+      </c>
+      <c r="B50" t="s">
+        <v>16</v>
+      </c>
+      <c r="C50" t="s">
+        <v>443</v>
+      </c>
+      <c r="D50" t="s">
         <v>40</v>
       </c>
-      <c r="E48">
+      <c r="E50">
         <v>10.3</v>
       </c>
-      <c r="F48">
+      <c r="F50">
         <f t="shared" si="1"/>
         <v>618</v>
       </c>
-      <c r="G48" s="3" t="s">
-        <v>448</v>
-      </c>
-    </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A49" t="s">
-        <v>250</v>
-      </c>
-      <c r="B49" t="s">
-        <v>16</v>
-      </c>
-      <c r="C49" t="s">
-        <v>449</v>
-      </c>
-      <c r="D49" t="s">
+      <c r="G50" s="3" t="s">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A51" t="s">
+        <v>248</v>
+      </c>
+      <c r="B51" t="s">
+        <v>16</v>
+      </c>
+      <c r="C51" t="s">
+        <v>445</v>
+      </c>
+      <c r="D51" t="s">
         <v>40</v>
       </c>
-      <c r="E49">
+      <c r="E51">
         <v>1.76</v>
       </c>
-      <c r="F49">
+      <c r="F51">
         <f t="shared" si="1"/>
         <v>105.6</v>
       </c>
-      <c r="G49" s="3" t="s">
-        <v>450</v>
-      </c>
-    </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A50" t="s">
-        <v>251</v>
-      </c>
-      <c r="B50" t="s">
-        <v>16</v>
-      </c>
-      <c r="C50" t="s">
-        <v>451</v>
-      </c>
-      <c r="D50" t="s">
+      <c r="G51" s="3" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A52" t="s">
+        <v>249</v>
+      </c>
+      <c r="B52" t="s">
+        <v>16</v>
+      </c>
+      <c r="C52" t="s">
+        <v>447</v>
+      </c>
+      <c r="D52" t="s">
         <v>45</v>
       </c>
-      <c r="E50">
+      <c r="E52">
         <v>3.27E-2</v>
       </c>
-      <c r="F50">
+      <c r="F52">
         <f t="shared" si="1"/>
         <v>1.962</v>
       </c>
-      <c r="G50" s="3" t="s">
-        <v>452</v>
-      </c>
-    </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A51" t="s">
-        <v>252</v>
-      </c>
-      <c r="B51" t="s">
-        <v>16</v>
-      </c>
-      <c r="C51" t="s">
-        <v>453</v>
-      </c>
-      <c r="D51" t="s">
+      <c r="G52" s="3" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A53" t="s">
+        <v>250</v>
+      </c>
+      <c r="B53" t="s">
+        <v>16</v>
+      </c>
+      <c r="C53" t="s">
+        <v>449</v>
+      </c>
+      <c r="D53" t="s">
         <v>40</v>
       </c>
-      <c r="E51">
+      <c r="E53">
         <v>350.02</v>
       </c>
-      <c r="F51">
+      <c r="F53">
         <f t="shared" si="1"/>
         <v>21001.199999999997</v>
       </c>
-      <c r="G51" s="3" t="s">
-        <v>454</v>
-      </c>
-    </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A52" t="s">
-        <v>253</v>
-      </c>
-      <c r="B52" t="s">
-        <v>16</v>
-      </c>
-      <c r="C52" t="s">
-        <v>455</v>
-      </c>
-      <c r="D52" t="s">
+      <c r="G53" s="3" t="s">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A54" t="s">
+        <v>251</v>
+      </c>
+      <c r="B54" t="s">
+        <v>16</v>
+      </c>
+      <c r="C54" t="s">
+        <v>451</v>
+      </c>
+      <c r="D54" t="s">
         <v>45</v>
       </c>
-      <c r="E52">
+      <c r="E54">
         <v>2.3999999999999998E-3</v>
       </c>
-      <c r="F52">
+      <c r="F54">
         <f t="shared" si="1"/>
         <v>0.14399999999999999</v>
       </c>
-      <c r="G52" s="3" t="s">
-        <v>456</v>
-      </c>
-    </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A53" t="s">
-        <v>254</v>
-      </c>
-      <c r="B53" t="s">
-        <v>16</v>
-      </c>
-      <c r="C53" t="s">
-        <v>449</v>
-      </c>
-      <c r="D53" t="s">
-        <v>40</v>
-      </c>
-      <c r="E53">
-        <v>1.76</v>
-      </c>
-      <c r="F53">
-        <f t="shared" ref="F53:F71" si="2">E53*60</f>
-        <v>105.6</v>
-      </c>
-      <c r="G53" s="3" t="s">
-        <v>450</v>
-      </c>
-    </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A54" t="s">
-        <v>255</v>
-      </c>
-      <c r="B54" t="s">
-        <v>16</v>
-      </c>
-      <c r="C54" t="s">
-        <v>436</v>
-      </c>
-      <c r="D54" t="s">
-        <v>45</v>
-      </c>
-      <c r="E54">
-        <v>2.08</v>
-      </c>
-      <c r="F54">
-        <f t="shared" si="2"/>
-        <v>124.80000000000001</v>
-      </c>
       <c r="G54" s="3" t="s">
-        <v>437</v>
+        <v>452</v>
       </c>
     </row>
     <row r="55" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A55" t="s">
-        <v>256</v>
+        <v>252</v>
       </c>
       <c r="B55" t="s">
         <v>16</v>
       </c>
       <c r="C55" t="s">
-        <v>457</v>
+        <v>445</v>
       </c>
       <c r="D55" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="E55">
-        <v>138</v>
+        <v>1.76</v>
       </c>
       <c r="F55">
-        <f t="shared" si="2"/>
-        <v>8280</v>
+        <f t="shared" ref="F55:F73" si="2">E55*60</f>
+        <v>105.6</v>
       </c>
       <c r="G55" s="3" t="s">
-        <v>458</v>
+        <v>446</v>
       </c>
     </row>
     <row r="56" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A56" t="s">
-        <v>257</v>
+        <v>253</v>
       </c>
       <c r="B56" t="s">
         <v>16</v>
       </c>
       <c r="C56" t="s">
-        <v>436</v>
+        <v>432</v>
       </c>
       <c r="D56" t="s">
         <v>45</v>
@@ -3758,1773 +3779,1773 @@
         <v>124.80000000000001</v>
       </c>
       <c r="G56" s="3" t="s">
-        <v>437</v>
+        <v>433</v>
       </c>
     </row>
     <row r="57" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A57" t="s">
-        <v>258</v>
+        <v>254</v>
       </c>
       <c r="B57" t="s">
         <v>16</v>
       </c>
       <c r="C57" t="s">
-        <v>170</v>
+        <v>453</v>
       </c>
       <c r="D57" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="E57">
-        <v>32</v>
+        <v>138</v>
       </c>
       <c r="F57">
         <f t="shared" si="2"/>
-        <v>1920</v>
+        <v>8280</v>
       </c>
       <c r="G57" s="3" t="s">
-        <v>459</v>
+        <v>454</v>
       </c>
     </row>
     <row r="58" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A58" t="s">
-        <v>259</v>
+        <v>255</v>
       </c>
       <c r="B58" t="s">
         <v>16</v>
       </c>
       <c r="C58" t="s">
-        <v>434</v>
+        <v>432</v>
       </c>
       <c r="D58" t="s">
         <v>45</v>
       </c>
       <c r="E58">
-        <v>3.069</v>
+        <v>2.08</v>
       </c>
       <c r="F58">
         <f t="shared" si="2"/>
-        <v>184.14</v>
+        <v>124.80000000000001</v>
       </c>
       <c r="G58" s="3" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
     </row>
     <row r="59" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A59" t="s">
-        <v>260</v>
+        <v>256</v>
       </c>
       <c r="B59" t="s">
         <v>16</v>
       </c>
       <c r="C59" t="s">
-        <v>460</v>
+        <v>169</v>
       </c>
       <c r="D59" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="E59">
-        <v>6.5799999999999999E-3</v>
+        <v>32</v>
       </c>
       <c r="F59">
         <f t="shared" si="2"/>
-        <v>0.39479999999999998</v>
+        <v>1920</v>
       </c>
       <c r="G59" s="3" t="s">
-        <v>461</v>
+        <v>455</v>
       </c>
     </row>
     <row r="60" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A60" t="s">
-        <v>261</v>
+        <v>257</v>
       </c>
       <c r="B60" t="s">
         <v>16</v>
       </c>
       <c r="C60" t="s">
-        <v>462</v>
+        <v>430</v>
       </c>
       <c r="D60" t="s">
         <v>45</v>
       </c>
       <c r="E60">
-        <v>2E-3</v>
+        <v>3.069</v>
       </c>
       <c r="F60">
         <f t="shared" si="2"/>
-        <v>0.12</v>
+        <v>184.14</v>
       </c>
       <c r="G60" s="3" t="s">
-        <v>463</v>
+        <v>431</v>
       </c>
     </row>
     <row r="61" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A61" t="s">
-        <v>262</v>
+        <v>258</v>
       </c>
       <c r="B61" t="s">
         <v>16</v>
       </c>
       <c r="C61" t="s">
-        <v>464</v>
+        <v>456</v>
       </c>
       <c r="D61" t="s">
         <v>42</v>
       </c>
       <c r="E61">
-        <v>206</v>
+        <v>6.5799999999999999E-3</v>
       </c>
       <c r="F61">
         <f t="shared" si="2"/>
-        <v>12360</v>
+        <v>0.39479999999999998</v>
       </c>
       <c r="G61" s="3" t="s">
-        <v>465</v>
+        <v>457</v>
       </c>
     </row>
     <row r="62" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A62" t="s">
-        <v>263</v>
+        <v>259</v>
       </c>
       <c r="B62" t="s">
         <v>16</v>
       </c>
       <c r="C62" t="s">
-        <v>466</v>
+        <v>458</v>
       </c>
       <c r="D62" t="s">
-        <v>88</v>
+        <v>45</v>
       </c>
       <c r="E62">
-        <v>5.8599999999999999E-2</v>
+        <v>2E-3</v>
       </c>
       <c r="F62">
         <f t="shared" si="2"/>
-        <v>3.516</v>
+        <v>0.12</v>
       </c>
       <c r="G62" s="3" t="s">
-        <v>467</v>
+        <v>459</v>
       </c>
     </row>
     <row r="63" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A63" t="s">
-        <v>264</v>
+        <v>260</v>
       </c>
       <c r="B63" t="s">
         <v>16</v>
       </c>
       <c r="C63" t="s">
-        <v>468</v>
+        <v>460</v>
       </c>
       <c r="D63" t="s">
-        <v>88</v>
+        <v>42</v>
       </c>
       <c r="E63">
-        <v>3.3</v>
+        <v>206</v>
       </c>
       <c r="F63">
         <f t="shared" si="2"/>
-        <v>198</v>
+        <v>12360</v>
       </c>
       <c r="G63" s="3" t="s">
-        <v>469</v>
+        <v>461</v>
       </c>
     </row>
     <row r="64" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A64" t="s">
-        <v>265</v>
+        <v>261</v>
       </c>
       <c r="B64" t="s">
         <v>16</v>
       </c>
       <c r="C64" t="s">
-        <v>470</v>
+        <v>462</v>
       </c>
       <c r="D64" t="s">
-        <v>45</v>
+        <v>88</v>
       </c>
       <c r="E64">
-        <v>51</v>
+        <v>5.8599999999999999E-2</v>
       </c>
       <c r="F64">
         <f t="shared" si="2"/>
-        <v>3060</v>
+        <v>3.516</v>
       </c>
       <c r="G64" s="3" t="s">
-        <v>471</v>
+        <v>463</v>
       </c>
     </row>
     <row r="65" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A65" t="s">
-        <v>266</v>
+        <v>262</v>
       </c>
       <c r="B65" t="s">
         <v>16</v>
       </c>
       <c r="C65" t="s">
-        <v>472</v>
+        <v>464</v>
       </c>
       <c r="D65" t="s">
-        <v>40</v>
+        <v>88</v>
       </c>
       <c r="E65">
-        <v>137</v>
+        <v>3.3</v>
       </c>
       <c r="F65">
         <f t="shared" si="2"/>
-        <v>8220</v>
+        <v>198</v>
       </c>
       <c r="G65" s="3" t="s">
-        <v>473</v>
+        <v>465</v>
       </c>
     </row>
     <row r="66" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A66" t="s">
-        <v>267</v>
+        <v>263</v>
       </c>
       <c r="B66" t="s">
         <v>16</v>
       </c>
       <c r="C66" t="s">
-        <v>474</v>
+        <v>466</v>
       </c>
       <c r="D66" t="s">
         <v>45</v>
       </c>
       <c r="E66">
-        <v>1.07E-3</v>
+        <v>51</v>
       </c>
       <c r="F66">
         <f t="shared" si="2"/>
-        <v>6.4199999999999993E-2</v>
-      </c>
-      <c r="G66" s="1" t="s">
-        <v>475</v>
+        <v>3060</v>
+      </c>
+      <c r="G66" s="3" t="s">
+        <v>467</v>
       </c>
     </row>
     <row r="67" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A67" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
       <c r="B67" t="s">
         <v>16</v>
       </c>
       <c r="C67" t="s">
-        <v>476</v>
+        <v>468</v>
       </c>
       <c r="D67" t="s">
-        <v>88</v>
+        <v>40</v>
       </c>
       <c r="E67">
-        <v>989</v>
+        <v>137</v>
       </c>
       <c r="F67">
         <f t="shared" si="2"/>
-        <v>59340</v>
+        <v>8220</v>
       </c>
       <c r="G67" s="3" t="s">
-        <v>477</v>
+        <v>469</v>
       </c>
     </row>
     <row r="68" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A68" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
       <c r="B68" t="s">
         <v>16</v>
       </c>
       <c r="C68" t="s">
-        <v>478</v>
+        <v>470</v>
       </c>
       <c r="D68" t="s">
         <v>45</v>
       </c>
       <c r="E68">
-        <v>0.31</v>
+        <v>1.07E-3</v>
       </c>
       <c r="F68">
         <f t="shared" si="2"/>
-        <v>18.600000000000001</v>
-      </c>
-      <c r="G68" s="3" t="s">
-        <v>479</v>
+        <v>6.4199999999999993E-2</v>
+      </c>
+      <c r="G68" s="1" t="s">
+        <v>471</v>
       </c>
     </row>
     <row r="69" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A69" t="s">
-        <v>270</v>
+        <v>266</v>
       </c>
       <c r="B69" t="s">
         <v>16</v>
       </c>
       <c r="C69" t="s">
-        <v>480</v>
+        <v>472</v>
       </c>
       <c r="D69" t="s">
-        <v>40</v>
+        <v>88</v>
       </c>
       <c r="E69">
-        <v>46</v>
+        <v>989</v>
       </c>
       <c r="F69">
         <f t="shared" si="2"/>
-        <v>2760</v>
+        <v>59340</v>
       </c>
       <c r="G69" s="3" t="s">
-        <v>481</v>
+        <v>473</v>
       </c>
     </row>
     <row r="70" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A70" t="s">
-        <v>271</v>
+        <v>267</v>
       </c>
       <c r="B70" t="s">
         <v>16</v>
       </c>
       <c r="C70" t="s">
-        <v>482</v>
+        <v>474</v>
       </c>
       <c r="D70" t="s">
         <v>45</v>
       </c>
       <c r="E70">
-        <v>0.81599999999999995</v>
+        <v>0.31</v>
       </c>
       <c r="F70">
         <f t="shared" si="2"/>
-        <v>48.959999999999994</v>
+        <v>18.600000000000001</v>
       </c>
       <c r="G70" s="3" t="s">
-        <v>483</v>
+        <v>475</v>
       </c>
     </row>
     <row r="71" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A71" t="s">
-        <v>272</v>
+        <v>268</v>
       </c>
       <c r="B71" t="s">
         <v>16</v>
       </c>
       <c r="C71" t="s">
-        <v>484</v>
+        <v>476</v>
       </c>
       <c r="D71" t="s">
         <v>40</v>
       </c>
       <c r="E71">
-        <v>5.5</v>
+        <v>46</v>
       </c>
       <c r="F71">
         <f t="shared" si="2"/>
-        <v>330</v>
+        <v>2760</v>
       </c>
       <c r="G71" s="3" t="s">
-        <v>485</v>
+        <v>477</v>
       </c>
     </row>
     <row r="72" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A72" t="s">
-        <v>273</v>
+        <v>269</v>
       </c>
       <c r="B72" t="s">
         <v>16</v>
       </c>
       <c r="C72" t="s">
-        <v>480</v>
+        <v>478</v>
       </c>
       <c r="D72" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="E72">
-        <v>46</v>
+        <v>0.81599999999999995</v>
       </c>
       <c r="F72">
-        <f t="shared" ref="F72:F82" si="3">E72*60</f>
-        <v>2760</v>
+        <f t="shared" si="2"/>
+        <v>48.959999999999994</v>
       </c>
       <c r="G72" s="3" t="s">
-        <v>481</v>
+        <v>479</v>
       </c>
     </row>
     <row r="73" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A73" t="s">
-        <v>274</v>
+        <v>270</v>
       </c>
       <c r="B73" t="s">
         <v>16</v>
       </c>
       <c r="C73" t="s">
-        <v>486</v>
+        <v>480</v>
       </c>
       <c r="D73" t="s">
-        <v>147</v>
+        <v>40</v>
       </c>
       <c r="E73">
+        <v>5.5</v>
+      </c>
+      <c r="F73">
+        <f t="shared" si="2"/>
+        <v>330</v>
+      </c>
+      <c r="G73" s="3" t="s">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A74" t="s">
+        <v>271</v>
+      </c>
+      <c r="B74" t="s">
+        <v>16</v>
+      </c>
+      <c r="C74" t="s">
+        <v>476</v>
+      </c>
+      <c r="D74" t="s">
+        <v>40</v>
+      </c>
+      <c r="E74">
+        <v>46</v>
+      </c>
+      <c r="F74">
+        <f t="shared" ref="F74:F83" si="3">E74*60</f>
+        <v>2760</v>
+      </c>
+      <c r="G74" s="3" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A75" t="s">
+        <v>272</v>
+      </c>
+      <c r="B75" t="s">
+        <v>16</v>
+      </c>
+      <c r="C75" t="s">
+        <v>482</v>
+      </c>
+      <c r="D75" t="s">
+        <v>146</v>
+      </c>
+      <c r="E75">
         <v>71</v>
       </c>
-      <c r="F73">
+      <c r="F75">
         <f t="shared" si="3"/>
         <v>4260</v>
       </c>
-      <c r="G73" s="3" t="s">
-        <v>487</v>
-      </c>
-    </row>
-    <row r="74" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A74" t="s">
-        <v>275</v>
-      </c>
-      <c r="B74" t="s">
-        <v>16</v>
-      </c>
-      <c r="C74" t="s">
-        <v>434</v>
-      </c>
-      <c r="D74" t="s">
-        <v>45</v>
-      </c>
-      <c r="E74">
-        <v>3.069</v>
-      </c>
-      <c r="F74">
-        <f t="shared" si="3"/>
-        <v>184.14</v>
-      </c>
-      <c r="G74" s="3" t="s">
-        <v>435</v>
-      </c>
-    </row>
-    <row r="75" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A75" t="s">
-        <v>276</v>
-      </c>
-      <c r="B75" t="s">
-        <v>16</v>
-      </c>
-      <c r="C75" t="s">
-        <v>488</v>
-      </c>
-      <c r="D75" t="s">
+      <c r="G75" s="3" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A76" t="s">
+        <v>273</v>
+      </c>
+      <c r="B76" t="s">
+        <v>16</v>
+      </c>
+      <c r="C76" t="s">
+        <v>484</v>
+      </c>
+      <c r="D76" t="s">
         <v>88</v>
       </c>
-      <c r="E75">
+      <c r="E76">
         <v>0.49</v>
       </c>
-      <c r="F75">
+      <c r="F76">
         <f t="shared" si="3"/>
         <v>29.4</v>
       </c>
-      <c r="G75" s="3" t="s">
-        <v>489</v>
-      </c>
-    </row>
-    <row r="76" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A76" t="s">
-        <v>277</v>
-      </c>
-      <c r="B76" t="s">
-        <v>16</v>
-      </c>
-      <c r="C76" t="s">
-        <v>480</v>
-      </c>
-      <c r="D76" t="s">
+      <c r="G76" s="3" t="s">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A77" t="s">
+        <v>274</v>
+      </c>
+      <c r="B77" t="s">
+        <v>16</v>
+      </c>
+      <c r="C77" t="s">
+        <v>476</v>
+      </c>
+      <c r="D77" t="s">
         <v>40</v>
       </c>
-      <c r="E76">
+      <c r="E77">
         <v>46</v>
       </c>
-      <c r="F76">
+      <c r="F77">
         <f t="shared" si="3"/>
         <v>2760</v>
       </c>
-      <c r="G76" s="3" t="s">
-        <v>481</v>
-      </c>
-    </row>
-    <row r="77" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A77" t="s">
-        <v>278</v>
-      </c>
-      <c r="B77" t="s">
-        <v>16</v>
-      </c>
-      <c r="C77" t="s">
-        <v>474</v>
-      </c>
-      <c r="D77" t="s">
+      <c r="G77" s="3" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="78" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A78" t="s">
+        <v>275</v>
+      </c>
+      <c r="B78" t="s">
+        <v>16</v>
+      </c>
+      <c r="C78" t="s">
+        <v>470</v>
+      </c>
+      <c r="D78" t="s">
         <v>45</v>
       </c>
-      <c r="E77">
+      <c r="E78">
         <v>1.07E-3</v>
       </c>
-      <c r="F77">
+      <c r="F78">
         <f t="shared" si="3"/>
         <v>6.4199999999999993E-2</v>
       </c>
-      <c r="G77" s="1" t="s">
-        <v>475</v>
-      </c>
-    </row>
-    <row r="78" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A78" t="s">
-        <v>279</v>
-      </c>
-      <c r="B78" t="s">
-        <v>16</v>
-      </c>
-      <c r="C78" t="s">
-        <v>436</v>
-      </c>
-      <c r="D78" t="s">
+      <c r="G78" s="1" t="s">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="79" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A79" t="s">
+        <v>276</v>
+      </c>
+      <c r="B79" t="s">
+        <v>16</v>
+      </c>
+      <c r="C79" t="s">
+        <v>432</v>
+      </c>
+      <c r="D79" t="s">
         <v>45</v>
       </c>
-      <c r="E78">
+      <c r="E79">
         <v>2.08</v>
       </c>
-      <c r="F78">
+      <c r="F79">
         <f t="shared" si="3"/>
         <v>124.80000000000001</v>
       </c>
-      <c r="G78" s="3" t="s">
-        <v>437</v>
-      </c>
-    </row>
-    <row r="79" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A79" t="s">
-        <v>280</v>
-      </c>
-      <c r="B79" t="s">
-        <v>16</v>
-      </c>
-      <c r="C79" t="s">
-        <v>490</v>
-      </c>
-      <c r="D79" t="s">
+      <c r="G79" s="3" t="s">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="80" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A80" t="s">
+        <v>277</v>
+      </c>
+      <c r="B80" t="s">
+        <v>16</v>
+      </c>
+      <c r="C80" t="s">
+        <v>486</v>
+      </c>
+      <c r="D80" t="s">
         <v>40</v>
       </c>
-      <c r="E79">
+      <c r="E80">
         <v>3.2712232620320854</v>
       </c>
-      <c r="F79">
+      <c r="F80">
         <f t="shared" si="3"/>
         <v>196.27339572192511</v>
       </c>
-      <c r="G79" s="3" t="s">
-        <v>491</v>
-      </c>
-    </row>
-    <row r="80" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A80" t="s">
-        <v>281</v>
-      </c>
-      <c r="B80" t="s">
-        <v>16</v>
-      </c>
-      <c r="C80" t="s">
-        <v>492</v>
-      </c>
-      <c r="D80" t="s">
+      <c r="G80" s="3" t="s">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="81" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A81" t="s">
+        <v>278</v>
+      </c>
+      <c r="B81" t="s">
+        <v>16</v>
+      </c>
+      <c r="C81" t="s">
+        <v>488</v>
+      </c>
+      <c r="D81" t="s">
         <v>42</v>
       </c>
-      <c r="E80">
+      <c r="E81">
         <v>5.0999999999999996</v>
       </c>
-      <c r="F80">
+      <c r="F81">
         <f t="shared" si="3"/>
         <v>306</v>
       </c>
-      <c r="G80" s="3" t="s">
-        <v>493</v>
-      </c>
-    </row>
-    <row r="81" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A81" t="s">
-        <v>282</v>
-      </c>
-      <c r="B81" t="s">
-        <v>16</v>
-      </c>
-      <c r="C81" t="s">
-        <v>494</v>
-      </c>
-      <c r="D81" t="s">
+      <c r="G81" s="3" t="s">
+        <v>489</v>
+      </c>
+    </row>
+    <row r="82" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A82" t="s">
+        <v>279</v>
+      </c>
+      <c r="B82" t="s">
+        <v>16</v>
+      </c>
+      <c r="C82" t="s">
+        <v>490</v>
+      </c>
+      <c r="D82" t="s">
         <v>40</v>
       </c>
-      <c r="E81">
+      <c r="E82">
         <v>4.7</v>
       </c>
-      <c r="F81">
+      <c r="F82">
         <f t="shared" si="3"/>
         <v>282</v>
       </c>
-      <c r="G81" s="3" t="s">
-        <v>495</v>
-      </c>
-    </row>
-    <row r="82" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A82" t="s">
-        <v>283</v>
-      </c>
-      <c r="B82" t="s">
-        <v>16</v>
-      </c>
-      <c r="C82" t="s">
-        <v>474</v>
-      </c>
-      <c r="D82" t="s">
+      <c r="G82" s="3" t="s">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="83" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A83" t="s">
+        <v>280</v>
+      </c>
+      <c r="B83" t="s">
+        <v>16</v>
+      </c>
+      <c r="C83" t="s">
+        <v>470</v>
+      </c>
+      <c r="D83" t="s">
         <v>45</v>
       </c>
-      <c r="E82">
+      <c r="E83">
         <v>1.07E-3</v>
       </c>
-      <c r="F82">
+      <c r="F83">
         <f t="shared" si="3"/>
         <v>6.4199999999999993E-2</v>
       </c>
-      <c r="G82" s="1" t="s">
-        <v>475</v>
-      </c>
-    </row>
-    <row r="83" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A83" t="s">
-        <v>284</v>
-      </c>
-      <c r="B83" t="s">
-        <v>16</v>
-      </c>
-      <c r="C83" t="s">
-        <v>494</v>
-      </c>
-      <c r="D83" t="s">
-        <v>40</v>
-      </c>
-      <c r="E83">
-        <v>4.7</v>
-      </c>
-      <c r="F83">
-        <f t="shared" ref="F83:F108" si="4">E83*60</f>
-        <v>282</v>
-      </c>
-      <c r="G83" s="3" t="s">
-        <v>495</v>
+      <c r="G83" s="1" t="s">
+        <v>471</v>
       </c>
     </row>
     <row r="84" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A84" t="s">
-        <v>285</v>
+        <v>281</v>
       </c>
       <c r="B84" t="s">
         <v>16</v>
       </c>
       <c r="C84" t="s">
-        <v>496</v>
+        <v>490</v>
       </c>
       <c r="D84" t="s">
-        <v>497</v>
+        <v>40</v>
       </c>
       <c r="E84">
+        <v>4.7</v>
+      </c>
+      <c r="F84">
+        <f t="shared" ref="F84:F109" si="4">E84*60</f>
+        <v>282</v>
+      </c>
+      <c r="G84" s="3" t="s">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="85" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A85" t="s">
+        <v>282</v>
+      </c>
+      <c r="B85" t="s">
+        <v>16</v>
+      </c>
+      <c r="C85" t="s">
+        <v>492</v>
+      </c>
+      <c r="D85" t="s">
+        <v>493</v>
+      </c>
+      <c r="E85">
         <v>8.75</v>
       </c>
-      <c r="F84">
+      <c r="F85">
         <f t="shared" si="4"/>
         <v>525</v>
       </c>
-      <c r="G84" s="3" t="s">
-        <v>498</v>
-      </c>
-    </row>
-    <row r="85" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A85" t="s">
-        <v>286</v>
-      </c>
-      <c r="B85" t="s">
-        <v>16</v>
-      </c>
-      <c r="C85" t="s">
-        <v>496</v>
-      </c>
-      <c r="D85" t="s">
-        <v>497</v>
-      </c>
-      <c r="E85">
+      <c r="G85" s="3" t="s">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="86" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A86" t="s">
+        <v>283</v>
+      </c>
+      <c r="B86" t="s">
+        <v>16</v>
+      </c>
+      <c r="C86" t="s">
+        <v>492</v>
+      </c>
+      <c r="D86" t="s">
+        <v>493</v>
+      </c>
+      <c r="E86">
         <v>21</v>
       </c>
-      <c r="F85">
+      <c r="F86">
         <f t="shared" si="4"/>
         <v>1260</v>
       </c>
-      <c r="G85" s="3" t="s">
-        <v>498</v>
-      </c>
-    </row>
-    <row r="86" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A86" t="s">
-        <v>287</v>
-      </c>
-      <c r="B86" t="s">
-        <v>16</v>
-      </c>
-      <c r="C86" t="s">
-        <v>496</v>
-      </c>
-      <c r="D86" t="s">
-        <v>497</v>
-      </c>
-      <c r="E86">
+      <c r="G86" s="3" t="s">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="87" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A87" t="s">
+        <v>284</v>
+      </c>
+      <c r="B87" t="s">
+        <v>16</v>
+      </c>
+      <c r="C87" t="s">
+        <v>492</v>
+      </c>
+      <c r="D87" t="s">
+        <v>493</v>
+      </c>
+      <c r="E87">
         <v>9.3800000000000008</v>
       </c>
-      <c r="F86">
+      <c r="F87">
         <f t="shared" si="4"/>
         <v>562.80000000000007</v>
       </c>
-      <c r="G86" s="3" t="s">
-        <v>498</v>
-      </c>
-    </row>
-    <row r="87" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A87" t="s">
-        <v>288</v>
-      </c>
-      <c r="B87" t="s">
-        <v>16</v>
-      </c>
-      <c r="C87" t="s">
-        <v>499</v>
-      </c>
-      <c r="D87" t="s">
-        <v>497</v>
-      </c>
-      <c r="E87">
+      <c r="G87" s="3" t="s">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="88" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A88" t="s">
+        <v>285</v>
+      </c>
+      <c r="B88" t="s">
+        <v>16</v>
+      </c>
+      <c r="C88" t="s">
+        <v>495</v>
+      </c>
+      <c r="D88" t="s">
+        <v>493</v>
+      </c>
+      <c r="E88">
         <v>0.114</v>
       </c>
-      <c r="F87">
+      <c r="F88">
         <f t="shared" si="4"/>
         <v>6.84</v>
       </c>
-      <c r="G87" s="3" t="s">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="88" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A88" t="s">
-        <v>289</v>
-      </c>
-      <c r="B88" t="s">
-        <v>16</v>
-      </c>
-      <c r="C88" t="s">
-        <v>501</v>
-      </c>
-      <c r="D88" t="s">
+      <c r="G88" s="3" t="s">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="89" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A89" t="s">
+        <v>286</v>
+      </c>
+      <c r="B89" t="s">
+        <v>16</v>
+      </c>
+      <c r="C89" t="s">
+        <v>497</v>
+      </c>
+      <c r="D89" t="s">
         <v>45</v>
       </c>
-      <c r="E88">
+      <c r="E89">
         <v>0.98</v>
       </c>
-      <c r="F88">
+      <c r="F89">
         <f t="shared" si="4"/>
         <v>58.8</v>
       </c>
-      <c r="G88" s="1" t="s">
-        <v>502</v>
-      </c>
-    </row>
-    <row r="89" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A89" t="s">
-        <v>290</v>
-      </c>
-      <c r="B89" t="s">
-        <v>16</v>
-      </c>
-      <c r="C89" t="s">
-        <v>472</v>
-      </c>
-      <c r="D89" t="s">
+      <c r="G89" s="1" t="s">
+        <v>498</v>
+      </c>
+    </row>
+    <row r="90" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A90" t="s">
+        <v>287</v>
+      </c>
+      <c r="B90" t="s">
+        <v>16</v>
+      </c>
+      <c r="C90" t="s">
+        <v>468</v>
+      </c>
+      <c r="D90" t="s">
         <v>40</v>
       </c>
-      <c r="E89">
+      <c r="E90">
         <v>137</v>
       </c>
-      <c r="F89">
+      <c r="F90">
         <f t="shared" si="4"/>
         <v>8220</v>
       </c>
-      <c r="G89" s="3" t="s">
-        <v>473</v>
-      </c>
-    </row>
-    <row r="90" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A90" t="s">
-        <v>291</v>
-      </c>
-      <c r="B90" t="s">
-        <v>16</v>
-      </c>
-      <c r="C90" t="s">
-        <v>503</v>
-      </c>
-      <c r="D90" t="s">
+      <c r="G90" s="3" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="91" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A91" t="s">
+        <v>288</v>
+      </c>
+      <c r="B91" t="s">
+        <v>16</v>
+      </c>
+      <c r="C91" t="s">
+        <v>499</v>
+      </c>
+      <c r="D91" t="s">
         <v>40</v>
       </c>
-      <c r="E90">
+      <c r="E91">
         <v>1180</v>
       </c>
-      <c r="F90">
+      <c r="F91">
         <f t="shared" si="4"/>
         <v>70800</v>
       </c>
-      <c r="G90" s="3" t="s">
-        <v>504</v>
-      </c>
-    </row>
-    <row r="91" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A91" t="s">
-        <v>292</v>
-      </c>
-      <c r="B91" t="s">
-        <v>16</v>
-      </c>
-      <c r="C91" t="s">
-        <v>505</v>
-      </c>
-      <c r="D91" t="s">
+      <c r="G91" s="3" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="92" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A92" t="s">
+        <v>289</v>
+      </c>
+      <c r="B92" t="s">
+        <v>16</v>
+      </c>
+      <c r="C92" t="s">
+        <v>501</v>
+      </c>
+      <c r="D92" t="s">
         <v>88</v>
       </c>
-      <c r="E91">
+      <c r="E92">
         <v>143</v>
       </c>
-      <c r="F91">
+      <c r="F92">
         <f t="shared" si="4"/>
         <v>8580</v>
       </c>
-      <c r="G91" s="3" t="s">
-        <v>506</v>
-      </c>
-    </row>
-    <row r="92" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A92" t="s">
-        <v>293</v>
-      </c>
-      <c r="B92" t="s">
-        <v>16</v>
-      </c>
-      <c r="C92" t="s">
-        <v>507</v>
-      </c>
-      <c r="D92" t="s">
+      <c r="G92" s="3" t="s">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="93" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A93" t="s">
+        <v>290</v>
+      </c>
+      <c r="B93" t="s">
+        <v>16</v>
+      </c>
+      <c r="C93" t="s">
+        <v>503</v>
+      </c>
+      <c r="D93" t="s">
         <v>45</v>
       </c>
-      <c r="E92">
+      <c r="E93">
         <v>1.7</v>
       </c>
-      <c r="F92">
+      <c r="F93">
         <f t="shared" si="4"/>
         <v>102</v>
       </c>
-      <c r="G92" s="3" t="s">
-        <v>508</v>
-      </c>
-    </row>
-    <row r="93" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A93" t="s">
-        <v>294</v>
-      </c>
-      <c r="B93" t="s">
-        <v>16</v>
-      </c>
-      <c r="C93" t="s">
-        <v>509</v>
-      </c>
-      <c r="D93" t="s">
+      <c r="G93" s="3" t="s">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="94" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A94" t="s">
+        <v>291</v>
+      </c>
+      <c r="B94" t="s">
+        <v>16</v>
+      </c>
+      <c r="C94" t="s">
+        <v>505</v>
+      </c>
+      <c r="D94" t="s">
         <v>45</v>
       </c>
-      <c r="E93">
+      <c r="E94">
         <v>0.33</v>
       </c>
-      <c r="F93">
+      <c r="F94">
         <f t="shared" si="4"/>
         <v>19.8</v>
       </c>
-      <c r="G93" s="3" t="s">
-        <v>510</v>
-      </c>
-    </row>
-    <row r="94" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A94" t="s">
-        <v>295</v>
-      </c>
-      <c r="B94" t="s">
-        <v>16</v>
-      </c>
-      <c r="C94" t="s">
-        <v>511</v>
-      </c>
-      <c r="D94" t="s">
+      <c r="G94" s="3" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="95" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A95" t="s">
+        <v>292</v>
+      </c>
+      <c r="B95" t="s">
+        <v>16</v>
+      </c>
+      <c r="C95" t="s">
+        <v>507</v>
+      </c>
+      <c r="D95" t="s">
         <v>40</v>
       </c>
-      <c r="E94">
+      <c r="E95">
         <v>34.799999999999997</v>
       </c>
-      <c r="F94">
+      <c r="F95">
         <f t="shared" si="4"/>
         <v>2088</v>
       </c>
-      <c r="G94" s="3" t="s">
-        <v>512</v>
-      </c>
-    </row>
-    <row r="95" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A95" t="s">
-        <v>296</v>
-      </c>
-      <c r="B95" t="s">
-        <v>16</v>
-      </c>
-      <c r="C95" t="s">
-        <v>513</v>
-      </c>
-      <c r="D95" t="s">
+      <c r="G95" s="3" t="s">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="96" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A96" t="s">
+        <v>293</v>
+      </c>
+      <c r="B96" t="s">
+        <v>16</v>
+      </c>
+      <c r="C96" t="s">
+        <v>509</v>
+      </c>
+      <c r="D96" t="s">
         <v>40</v>
       </c>
-      <c r="E95">
+      <c r="E96">
         <v>25</v>
       </c>
-      <c r="F95">
+      <c r="F96">
         <f t="shared" si="4"/>
         <v>1500</v>
       </c>
-      <c r="G95" s="3" t="s">
-        <v>514</v>
-      </c>
-    </row>
-    <row r="96" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A96" t="s">
-        <v>297</v>
-      </c>
-      <c r="B96" t="s">
-        <v>16</v>
-      </c>
-      <c r="C96" t="s">
-        <v>515</v>
-      </c>
-      <c r="D96" t="s">
+      <c r="G96" s="3" t="s">
+        <v>510</v>
+      </c>
+    </row>
+    <row r="97" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A97" t="s">
+        <v>294</v>
+      </c>
+      <c r="B97" t="s">
+        <v>16</v>
+      </c>
+      <c r="C97" t="s">
+        <v>511</v>
+      </c>
+      <c r="D97" t="s">
         <v>45</v>
       </c>
-      <c r="E96">
+      <c r="E97">
         <v>14.9</v>
       </c>
-      <c r="F96">
+      <c r="F97">
         <f t="shared" si="4"/>
         <v>894</v>
       </c>
-      <c r="G96" s="3" t="s">
-        <v>516</v>
-      </c>
-    </row>
-    <row r="97" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A97" t="s">
-        <v>298</v>
-      </c>
-      <c r="B97" t="s">
-        <v>16</v>
-      </c>
-      <c r="C97" t="s">
-        <v>517</v>
-      </c>
-      <c r="D97" t="s">
+      <c r="G97" s="3" t="s">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="98" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A98" t="s">
+        <v>295</v>
+      </c>
+      <c r="B98" t="s">
+        <v>16</v>
+      </c>
+      <c r="C98" t="s">
+        <v>513</v>
+      </c>
+      <c r="D98" t="s">
         <v>40</v>
       </c>
-      <c r="E97">
+      <c r="E98">
         <v>8.9309366130558185</v>
       </c>
-      <c r="F97">
+      <c r="F98">
         <f t="shared" si="4"/>
         <v>535.85619678334911</v>
       </c>
-      <c r="G97" s="3" t="s">
-        <v>518</v>
-      </c>
-    </row>
-    <row r="98" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A98" t="s">
-        <v>299</v>
-      </c>
-      <c r="B98" t="s">
-        <v>16</v>
-      </c>
-      <c r="C98" t="s">
-        <v>519</v>
-      </c>
-      <c r="D98" t="s">
+      <c r="G98" s="3" t="s">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="99" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A99" t="s">
+        <v>296</v>
+      </c>
+      <c r="B99" t="s">
+        <v>16</v>
+      </c>
+      <c r="C99" t="s">
+        <v>515</v>
+      </c>
+      <c r="D99" t="s">
         <v>40</v>
       </c>
-      <c r="E98">
+      <c r="E99">
         <v>2.6</v>
       </c>
-      <c r="F98">
+      <c r="F99">
         <f t="shared" si="4"/>
         <v>156</v>
       </c>
-      <c r="G98" s="3" t="s">
-        <v>520</v>
-      </c>
-    </row>
-    <row r="99" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A99" t="s">
-        <v>300</v>
-      </c>
-      <c r="B99" t="s">
-        <v>16</v>
-      </c>
-      <c r="C99" t="s">
-        <v>521</v>
-      </c>
-      <c r="D99" t="s">
+      <c r="G99" s="3" t="s">
+        <v>516</v>
+      </c>
+    </row>
+    <row r="100" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A100" t="s">
+        <v>297</v>
+      </c>
+      <c r="B100" t="s">
+        <v>16</v>
+      </c>
+      <c r="C100" t="s">
+        <v>517</v>
+      </c>
+      <c r="D100" t="s">
         <v>45</v>
       </c>
-      <c r="E99">
+      <c r="E100">
         <v>0.83</v>
       </c>
-      <c r="F99">
+      <c r="F100">
         <f t="shared" si="4"/>
         <v>49.8</v>
       </c>
-      <c r="G99" s="3" t="s">
-        <v>522</v>
-      </c>
-    </row>
-    <row r="100" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A100" t="s">
-        <v>301</v>
-      </c>
-      <c r="B100" t="s">
-        <v>16</v>
-      </c>
-      <c r="C100" t="s">
-        <v>523</v>
-      </c>
-      <c r="D100" t="s">
+      <c r="G100" s="3" t="s">
+        <v>518</v>
+      </c>
+    </row>
+    <row r="101" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A101" t="s">
+        <v>298</v>
+      </c>
+      <c r="B101" t="s">
+        <v>16</v>
+      </c>
+      <c r="C101" t="s">
+        <v>519</v>
+      </c>
+      <c r="D101" t="s">
         <v>88</v>
       </c>
-      <c r="E100">
+      <c r="E101">
         <v>684</v>
       </c>
-      <c r="F100">
+      <c r="F101">
         <f t="shared" si="4"/>
         <v>41040</v>
       </c>
-      <c r="G100" s="3" t="s">
-        <v>524</v>
-      </c>
-    </row>
-    <row r="101" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A101" t="s">
-        <v>302</v>
-      </c>
-      <c r="B101" t="s">
-        <v>16</v>
-      </c>
-      <c r="C101" t="s">
-        <v>525</v>
-      </c>
-      <c r="D101" t="s">
+      <c r="G101" s="3" t="s">
+        <v>520</v>
+      </c>
+    </row>
+    <row r="102" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A102" t="s">
+        <v>299</v>
+      </c>
+      <c r="B102" t="s">
+        <v>16</v>
+      </c>
+      <c r="C102" t="s">
+        <v>521</v>
+      </c>
+      <c r="D102" t="s">
         <v>45</v>
       </c>
-      <c r="E101">
+      <c r="E102">
         <v>3.17</v>
       </c>
-      <c r="F101">
+      <c r="F102">
         <f t="shared" si="4"/>
         <v>190.2</v>
       </c>
-      <c r="G101" s="3" t="s">
-        <v>526</v>
-      </c>
-    </row>
-    <row r="102" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A102" t="s">
-        <v>303</v>
-      </c>
-      <c r="B102" t="s">
-        <v>16</v>
-      </c>
-      <c r="C102" t="s">
-        <v>527</v>
-      </c>
-      <c r="D102" t="s">
+      <c r="G102" s="3" t="s">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="103" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A103" t="s">
+        <v>300</v>
+      </c>
+      <c r="B103" t="s">
+        <v>16</v>
+      </c>
+      <c r="C103" t="s">
+        <v>523</v>
+      </c>
+      <c r="D103" t="s">
         <v>45</v>
       </c>
-      <c r="E102">
+      <c r="E103">
         <v>3.5999999999999997E-2</v>
       </c>
-      <c r="F102">
+      <c r="F103">
         <f t="shared" si="4"/>
         <v>2.1599999999999997</v>
       </c>
-      <c r="G102" s="3" t="s">
-        <v>528</v>
-      </c>
-    </row>
-    <row r="103" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A103" t="s">
-        <v>304</v>
-      </c>
-      <c r="B103" t="s">
-        <v>16</v>
-      </c>
-      <c r="C103" t="s">
-        <v>529</v>
-      </c>
-      <c r="D103" t="s">
+      <c r="G103" s="3" t="s">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="104" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A104" t="s">
+        <v>301</v>
+      </c>
+      <c r="B104" t="s">
+        <v>16</v>
+      </c>
+      <c r="C104" t="s">
+        <v>525</v>
+      </c>
+      <c r="D104" t="s">
         <v>45</v>
       </c>
-      <c r="E103">
+      <c r="E104">
         <v>24.1</v>
       </c>
-      <c r="F103">
+      <c r="F104">
         <f t="shared" si="4"/>
         <v>1446</v>
       </c>
-      <c r="G103" s="3" t="s">
-        <v>530</v>
-      </c>
-    </row>
-    <row r="104" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A104" t="s">
-        <v>305</v>
-      </c>
-      <c r="B104" t="s">
-        <v>16</v>
-      </c>
-      <c r="C104" t="s">
-        <v>531</v>
-      </c>
-      <c r="D104" t="s">
+      <c r="G104" s="3" t="s">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="105" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A105" t="s">
+        <v>302</v>
+      </c>
+      <c r="B105" t="s">
+        <v>16</v>
+      </c>
+      <c r="C105" t="s">
+        <v>527</v>
+      </c>
+      <c r="D105" t="s">
         <v>112</v>
       </c>
-      <c r="E104">
+      <c r="E105">
         <v>2.5</v>
       </c>
-      <c r="F104">
+      <c r="F105">
         <f t="shared" si="4"/>
         <v>150</v>
       </c>
-      <c r="G104" s="3" t="s">
-        <v>532</v>
-      </c>
-    </row>
-    <row r="105" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A105" t="s">
-        <v>306</v>
-      </c>
-      <c r="B105" t="s">
-        <v>16</v>
-      </c>
-      <c r="C105" t="s">
-        <v>496</v>
-      </c>
-      <c r="D105" t="s">
-        <v>533</v>
-      </c>
-      <c r="E105">
+      <c r="G105" s="3" t="s">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="106" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A106" t="s">
+        <v>303</v>
+      </c>
+      <c r="B106" t="s">
+        <v>16</v>
+      </c>
+      <c r="C106" t="s">
+        <v>492</v>
+      </c>
+      <c r="D106" t="s">
+        <v>529</v>
+      </c>
+      <c r="E106">
         <v>4.9000000000000004</v>
       </c>
-      <c r="F105">
+      <c r="F106">
         <f t="shared" si="4"/>
         <v>294</v>
       </c>
-      <c r="G105" s="3" t="s">
-        <v>534</v>
-      </c>
-    </row>
-    <row r="106" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A106" t="s">
-        <v>307</v>
-      </c>
-      <c r="B106" t="s">
-        <v>16</v>
-      </c>
-      <c r="C106" t="s">
-        <v>449</v>
-      </c>
-      <c r="D106" t="s">
+      <c r="G106" s="3" t="s">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="107" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A107" t="s">
+        <v>304</v>
+      </c>
+      <c r="B107" t="s">
+        <v>16</v>
+      </c>
+      <c r="C107" t="s">
+        <v>445</v>
+      </c>
+      <c r="D107" t="s">
         <v>40</v>
       </c>
-      <c r="E106">
+      <c r="E107">
         <v>1.76</v>
       </c>
-      <c r="F106">
+      <c r="F107">
         <f t="shared" si="4"/>
         <v>105.6</v>
       </c>
-      <c r="G106" s="3" t="s">
-        <v>450</v>
-      </c>
-    </row>
-    <row r="107" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A107" t="s">
-        <v>308</v>
-      </c>
-      <c r="B107" t="s">
-        <v>16</v>
-      </c>
-      <c r="C107" t="s">
-        <v>535</v>
-      </c>
-      <c r="D107" t="s">
+      <c r="G107" s="3" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="108" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A108" t="s">
+        <v>305</v>
+      </c>
+      <c r="B108" t="s">
+        <v>16</v>
+      </c>
+      <c r="C108" t="s">
+        <v>531</v>
+      </c>
+      <c r="D108" t="s">
         <v>42</v>
       </c>
-      <c r="E107">
+      <c r="E108">
         <v>1240</v>
       </c>
-      <c r="F107">
+      <c r="F108">
         <f t="shared" si="4"/>
         <v>74400</v>
       </c>
-      <c r="G107" s="3" t="s">
-        <v>536</v>
-      </c>
-    </row>
-    <row r="108" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A108" t="s">
-        <v>309</v>
-      </c>
-      <c r="B108" t="s">
-        <v>16</v>
-      </c>
-      <c r="C108" t="s">
-        <v>457</v>
-      </c>
-      <c r="D108" t="s">
+      <c r="G108" s="3" t="s">
+        <v>532</v>
+      </c>
+    </row>
+    <row r="109" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A109" t="s">
+        <v>306</v>
+      </c>
+      <c r="B109" t="s">
+        <v>16</v>
+      </c>
+      <c r="C109" t="s">
+        <v>453</v>
+      </c>
+      <c r="D109" t="s">
         <v>45</v>
       </c>
-      <c r="E108">
+      <c r="E109">
         <v>138</v>
       </c>
-      <c r="F108">
+      <c r="F109">
         <f t="shared" si="4"/>
         <v>8280</v>
       </c>
-      <c r="G108" s="3" t="s">
-        <v>458</v>
-      </c>
-    </row>
-    <row r="109" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A109" t="s">
-        <v>310</v>
-      </c>
-      <c r="B109" t="s">
-        <v>16</v>
-      </c>
-      <c r="C109" t="s">
-        <v>449</v>
-      </c>
-      <c r="D109" t="s">
-        <v>40</v>
-      </c>
-      <c r="E109">
-        <v>1.76</v>
-      </c>
-      <c r="F109">
-        <f t="shared" ref="F109:F118" si="5">E109*60</f>
-        <v>105.6</v>
-      </c>
       <c r="G109" s="3" t="s">
-        <v>450</v>
+        <v>454</v>
       </c>
     </row>
     <row r="110" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A110" t="s">
-        <v>311</v>
+        <v>307</v>
       </c>
       <c r="B110" t="s">
         <v>16</v>
       </c>
       <c r="C110" t="s">
-        <v>537</v>
+        <v>445</v>
       </c>
       <c r="D110" t="s">
+        <v>40</v>
+      </c>
+      <c r="E110">
+        <v>1.76</v>
+      </c>
+      <c r="F110">
+        <f t="shared" ref="F110:F119" si="5">E110*60</f>
+        <v>105.6</v>
+      </c>
+      <c r="G110" s="3" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="111" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A111" t="s">
+        <v>308</v>
+      </c>
+      <c r="B111" t="s">
+        <v>16</v>
+      </c>
+      <c r="C111" t="s">
+        <v>533</v>
+      </c>
+      <c r="D111" t="s">
         <v>45</v>
       </c>
-      <c r="E110">
+      <c r="E111">
         <v>0.73</v>
       </c>
-      <c r="F110">
+      <c r="F111">
         <f t="shared" si="5"/>
         <v>43.8</v>
       </c>
-      <c r="G110" s="3" t="s">
-        <v>538</v>
-      </c>
-    </row>
-    <row r="111" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A111" t="s">
-        <v>312</v>
-      </c>
-      <c r="B111" t="s">
-        <v>16</v>
-      </c>
-      <c r="C111" t="s">
-        <v>484</v>
-      </c>
-      <c r="D111" t="s">
+      <c r="G111" s="3" t="s">
+        <v>534</v>
+      </c>
+    </row>
+    <row r="112" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A112" t="s">
+        <v>309</v>
+      </c>
+      <c r="B112" t="s">
+        <v>16</v>
+      </c>
+      <c r="C112" t="s">
+        <v>480</v>
+      </c>
+      <c r="D112" t="s">
         <v>40</v>
       </c>
-      <c r="E111">
+      <c r="E112">
         <v>5.5</v>
       </c>
-      <c r="F111">
+      <c r="F112">
         <f t="shared" si="5"/>
         <v>330</v>
       </c>
-      <c r="G111" s="3" t="s">
-        <v>485</v>
-      </c>
-    </row>
-    <row r="112" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A112" t="s">
-        <v>313</v>
-      </c>
-      <c r="B112" t="s">
-        <v>16</v>
-      </c>
-      <c r="C112" t="s">
-        <v>457</v>
-      </c>
-      <c r="D112" t="s">
+      <c r="G112" s="3" t="s">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="113" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A113" t="s">
+        <v>310</v>
+      </c>
+      <c r="B113" t="s">
+        <v>16</v>
+      </c>
+      <c r="C113" t="s">
+        <v>453</v>
+      </c>
+      <c r="D113" t="s">
         <v>45</v>
       </c>
-      <c r="E112">
+      <c r="E113">
         <v>138</v>
       </c>
-      <c r="F112">
+      <c r="F113">
         <f t="shared" si="5"/>
         <v>8280</v>
       </c>
-      <c r="G112" s="3" t="s">
-        <v>458</v>
-      </c>
-    </row>
-    <row r="113" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A113" t="s">
-        <v>314</v>
-      </c>
-      <c r="B113" t="s">
-        <v>16</v>
-      </c>
-      <c r="C113" t="s">
-        <v>584</v>
-      </c>
-      <c r="D113" t="s">
+      <c r="G113" s="3" t="s">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="114" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A114" t="s">
+        <v>311</v>
+      </c>
+      <c r="B114" t="s">
+        <v>16</v>
+      </c>
+      <c r="C114" t="s">
+        <v>577</v>
+      </c>
+      <c r="D114" t="s">
         <v>42</v>
       </c>
-      <c r="E113">
+      <c r="E114">
         <v>15</v>
       </c>
-      <c r="F113">
+      <c r="F114">
         <f t="shared" si="5"/>
         <v>900</v>
       </c>
-      <c r="G113" s="3" t="s">
-        <v>585</v>
-      </c>
-    </row>
-    <row r="114" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A114" t="s">
-        <v>315</v>
-      </c>
-      <c r="B114" t="s">
-        <v>16</v>
-      </c>
-      <c r="C114" t="s">
-        <v>586</v>
-      </c>
-      <c r="D114" t="s">
+      <c r="G114" s="3" t="s">
+        <v>578</v>
+      </c>
+    </row>
+    <row r="115" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A115" t="s">
+        <v>312</v>
+      </c>
+      <c r="B115" t="s">
+        <v>16</v>
+      </c>
+      <c r="C115" t="s">
+        <v>579</v>
+      </c>
+      <c r="D115" t="s">
         <v>45</v>
       </c>
-      <c r="E114">
+      <c r="E115">
         <v>3.9199999999999999E-2</v>
       </c>
-      <c r="F114">
+      <c r="F115">
         <f t="shared" si="5"/>
         <v>2.3519999999999999</v>
       </c>
-      <c r="G114" s="3" t="s">
-        <v>452</v>
-      </c>
-    </row>
-    <row r="115" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A115" t="s">
-        <v>316</v>
-      </c>
-      <c r="B115" t="s">
-        <v>16</v>
-      </c>
-      <c r="C115" t="s">
-        <v>541</v>
-      </c>
-      <c r="D115" t="s">
+      <c r="G115" s="3" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="116" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A116" t="s">
+        <v>313</v>
+      </c>
+      <c r="B116" t="s">
+        <v>16</v>
+      </c>
+      <c r="C116" t="s">
+        <v>537</v>
+      </c>
+      <c r="D116" t="s">
         <v>40</v>
       </c>
-      <c r="E115">
+      <c r="E116">
         <v>3.9</v>
       </c>
-      <c r="F115">
+      <c r="F116">
         <f t="shared" si="5"/>
         <v>234</v>
       </c>
-      <c r="G115" s="3" t="s">
-        <v>542</v>
-      </c>
-    </row>
-    <row r="116" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A116" t="s">
-        <v>317</v>
-      </c>
-      <c r="B116" t="s">
-        <v>16</v>
-      </c>
-      <c r="C116" t="s">
-        <v>587</v>
-      </c>
-      <c r="D116" t="s">
+      <c r="G116" s="3" t="s">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="117" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A117" t="s">
+        <v>314</v>
+      </c>
+      <c r="B117" t="s">
+        <v>16</v>
+      </c>
+      <c r="C117" t="s">
+        <v>580</v>
+      </c>
+      <c r="D117" t="s">
         <v>40</v>
       </c>
-      <c r="E116">
+      <c r="E117">
         <v>1558</v>
       </c>
-      <c r="F116">
+      <c r="F117">
         <f t="shared" si="5"/>
         <v>93480</v>
       </c>
-      <c r="G116" s="3" t="s">
-        <v>588</v>
-      </c>
-    </row>
-    <row r="117" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A117" t="s">
-        <v>318</v>
-      </c>
-      <c r="B117" t="s">
-        <v>16</v>
-      </c>
-      <c r="C117" t="s">
-        <v>589</v>
-      </c>
-      <c r="D117" t="s">
-        <v>210</v>
-      </c>
-      <c r="E117">
+      <c r="G117" s="3" t="s">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="118" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A118" t="s">
+        <v>315</v>
+      </c>
+      <c r="B118" t="s">
+        <v>16</v>
+      </c>
+      <c r="C118" t="s">
+        <v>582</v>
+      </c>
+      <c r="D118" t="s">
+        <v>209</v>
+      </c>
+      <c r="E118">
         <v>166</v>
       </c>
-      <c r="F117">
+      <c r="F118">
         <f t="shared" si="5"/>
         <v>9960</v>
       </c>
-      <c r="G117" s="3" t="s">
-        <v>590</v>
-      </c>
-    </row>
-    <row r="118" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A118" t="s">
-        <v>319</v>
-      </c>
-      <c r="B118" t="s">
-        <v>16</v>
-      </c>
-      <c r="C118" t="s">
-        <v>591</v>
-      </c>
-      <c r="D118" t="s">
-        <v>210</v>
-      </c>
-      <c r="E118">
+      <c r="G118" s="3" t="s">
+        <v>583</v>
+      </c>
+    </row>
+    <row r="119" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A119" t="s">
+        <v>316</v>
+      </c>
+      <c r="B119" t="s">
+        <v>16</v>
+      </c>
+      <c r="C119" t="s">
+        <v>584</v>
+      </c>
+      <c r="D119" t="s">
+        <v>209</v>
+      </c>
+      <c r="E119">
         <v>0.88</v>
       </c>
-      <c r="F118">
+      <c r="F119">
         <f t="shared" si="5"/>
         <v>52.8</v>
       </c>
-      <c r="G118" s="3" t="s">
-        <v>592</v>
-      </c>
-    </row>
-    <row r="119" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A119" t="s">
-        <v>320</v>
-      </c>
-      <c r="B119" t="s">
-        <v>16</v>
-      </c>
-      <c r="C119" t="s">
-        <v>449</v>
-      </c>
-      <c r="D119" t="s">
-        <v>40</v>
-      </c>
-      <c r="E119">
-        <v>1.76</v>
-      </c>
-      <c r="F119">
-        <f t="shared" ref="F119:F127" si="6">E119*60</f>
-        <v>105.6</v>
-      </c>
       <c r="G119" s="3" t="s">
-        <v>450</v>
+        <v>585</v>
       </c>
     </row>
     <row r="120" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A120" t="s">
-        <v>321</v>
+        <v>317</v>
       </c>
       <c r="B120" t="s">
         <v>16</v>
       </c>
       <c r="C120" t="s">
-        <v>453</v>
+        <v>445</v>
       </c>
       <c r="D120" t="s">
         <v>40</v>
       </c>
       <c r="E120">
+        <v>1.76</v>
+      </c>
+      <c r="F120">
+        <f t="shared" ref="F120:F128" si="6">E120*60</f>
+        <v>105.6</v>
+      </c>
+      <c r="G120" s="3" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="121" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A121" t="s">
+        <v>318</v>
+      </c>
+      <c r="B121" t="s">
+        <v>16</v>
+      </c>
+      <c r="C121" t="s">
+        <v>449</v>
+      </c>
+      <c r="D121" t="s">
+        <v>40</v>
+      </c>
+      <c r="E121">
         <v>350.02</v>
       </c>
-      <c r="F120">
+      <c r="F121">
         <f t="shared" si="6"/>
         <v>21001.199999999997</v>
       </c>
-      <c r="G120" s="3" t="s">
-        <v>454</v>
-      </c>
-    </row>
-    <row r="121" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A121" t="s">
-        <v>322</v>
-      </c>
-      <c r="B121" t="s">
-        <v>16</v>
-      </c>
-      <c r="C121" t="s">
-        <v>480</v>
-      </c>
-      <c r="D121" t="s">
+      <c r="G121" s="3" t="s">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="122" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A122" t="s">
+        <v>319</v>
+      </c>
+      <c r="B122" t="s">
+        <v>16</v>
+      </c>
+      <c r="C122" t="s">
+        <v>476</v>
+      </c>
+      <c r="D122" t="s">
         <v>40</v>
       </c>
-      <c r="E121">
+      <c r="E122">
         <v>46</v>
       </c>
-      <c r="F121">
+      <c r="F122">
         <f t="shared" si="6"/>
         <v>2760</v>
       </c>
-      <c r="G121" s="3" t="s">
-        <v>481</v>
-      </c>
-    </row>
-    <row r="122" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A122" t="s">
-        <v>323</v>
-      </c>
-      <c r="B122" t="s">
-        <v>16</v>
-      </c>
-      <c r="C122" t="s">
-        <v>441</v>
-      </c>
-      <c r="D122" t="s">
+      <c r="G122" s="3" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="123" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A123" t="s">
+        <v>320</v>
+      </c>
+      <c r="B123" t="s">
+        <v>16</v>
+      </c>
+      <c r="C123" t="s">
+        <v>437</v>
+      </c>
+      <c r="D123" t="s">
         <v>45</v>
       </c>
-      <c r="E122">
+      <c r="E123">
         <v>68.3</v>
       </c>
-      <c r="F122">
+      <c r="F123">
         <f t="shared" si="6"/>
         <v>4098</v>
       </c>
-      <c r="G122" s="1" t="s">
-        <v>442</v>
-      </c>
-    </row>
-    <row r="123" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A123" t="s">
-        <v>324</v>
-      </c>
-      <c r="B123" t="s">
-        <v>16</v>
-      </c>
-      <c r="C123" t="s">
-        <v>434</v>
-      </c>
-      <c r="D123" t="s">
+      <c r="G123" s="1" t="s">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="124" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A124" t="s">
+        <v>321</v>
+      </c>
+      <c r="B124" t="s">
+        <v>16</v>
+      </c>
+      <c r="C124" t="s">
+        <v>430</v>
+      </c>
+      <c r="D124" t="s">
         <v>45</v>
       </c>
-      <c r="E123">
+      <c r="E124">
         <v>3.069</v>
       </c>
-      <c r="F123">
+      <c r="F124">
         <f t="shared" si="6"/>
         <v>184.14</v>
       </c>
-      <c r="G123" s="3" t="s">
-        <v>435</v>
-      </c>
-    </row>
-    <row r="124" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A124" t="s">
-        <v>325</v>
-      </c>
-      <c r="B124" t="s">
-        <v>16</v>
-      </c>
-      <c r="C124" t="s">
-        <v>593</v>
-      </c>
-      <c r="D124" t="s">
+      <c r="G124" s="3" t="s">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="125" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A125" t="s">
+        <v>322</v>
+      </c>
+      <c r="B125" t="s">
+        <v>16</v>
+      </c>
+      <c r="C125" t="s">
+        <v>586</v>
+      </c>
+      <c r="D125" t="s">
         <v>42</v>
       </c>
-      <c r="E124">
+      <c r="E125">
         <v>69</v>
       </c>
-      <c r="F124">
+      <c r="F125">
         <f t="shared" si="6"/>
         <v>4140</v>
       </c>
-      <c r="G124" s="3" t="s">
-        <v>594</v>
-      </c>
-    </row>
-    <row r="125" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A125" t="s">
-        <v>326</v>
-      </c>
-      <c r="B125" t="s">
-        <v>16</v>
-      </c>
-      <c r="C125" t="s">
-        <v>595</v>
-      </c>
-      <c r="D125" t="s">
+      <c r="G125" s="3" t="s">
+        <v>587</v>
+      </c>
+    </row>
+    <row r="126" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A126" t="s">
+        <v>323</v>
+      </c>
+      <c r="B126" t="s">
+        <v>16</v>
+      </c>
+      <c r="C126" t="s">
+        <v>588</v>
+      </c>
+      <c r="D126" t="s">
         <v>88</v>
       </c>
-      <c r="E125">
+      <c r="E126">
         <v>47</v>
       </c>
-      <c r="F125">
+      <c r="F126">
         <f t="shared" si="6"/>
         <v>2820</v>
       </c>
-      <c r="G125" s="3" t="s">
-        <v>596</v>
-      </c>
-    </row>
-    <row r="126" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A126" t="s">
-        <v>327</v>
-      </c>
-      <c r="B126" t="s">
-        <v>16</v>
-      </c>
-      <c r="C126" t="s">
-        <v>597</v>
-      </c>
-      <c r="D126" t="s">
+      <c r="G126" s="3" t="s">
+        <v>589</v>
+      </c>
+    </row>
+    <row r="127" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A127" t="s">
+        <v>324</v>
+      </c>
+      <c r="B127" t="s">
+        <v>16</v>
+      </c>
+      <c r="C127" t="s">
+        <v>590</v>
+      </c>
+      <c r="D127" t="s">
         <v>40</v>
       </c>
-      <c r="E126">
+      <c r="E127">
         <v>42</v>
       </c>
-      <c r="F126">
+      <c r="F127">
         <f t="shared" si="6"/>
         <v>2520</v>
       </c>
-      <c r="G126" s="3" t="s">
-        <v>598</v>
-      </c>
-    </row>
-    <row r="127" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A127" t="s">
-        <v>328</v>
-      </c>
-      <c r="B127" t="s">
-        <v>16</v>
-      </c>
-      <c r="C127" t="s">
-        <v>599</v>
-      </c>
-      <c r="D127" t="s">
+      <c r="G127" s="3" t="s">
+        <v>591</v>
+      </c>
+    </row>
+    <row r="128" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A128" t="s">
+        <v>325</v>
+      </c>
+      <c r="B128" t="s">
+        <v>16</v>
+      </c>
+      <c r="C128" t="s">
+        <v>592</v>
+      </c>
+      <c r="D128" t="s">
         <v>42</v>
       </c>
-      <c r="E127">
+      <c r="E128">
         <v>1.4999999999999999E-2</v>
       </c>
-      <c r="F127">
+      <c r="F128">
         <f t="shared" si="6"/>
         <v>0.89999999999999991</v>
       </c>
-      <c r="G127" s="3" t="s">
-        <v>600</v>
-      </c>
-    </row>
-    <row r="128" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A128" t="s">
-        <v>329</v>
-      </c>
-      <c r="B128" t="s">
-        <v>16</v>
-      </c>
-      <c r="C128" t="s">
-        <v>599</v>
-      </c>
-      <c r="D128" t="s">
-        <v>42</v>
-      </c>
-      <c r="E128">
-        <v>1.4999999999999999E-2</v>
-      </c>
-      <c r="F128">
-        <f t="shared" ref="F128:F151" si="7">E128*60</f>
-        <v>0.89999999999999991</v>
-      </c>
       <c r="G128" s="3" t="s">
-        <v>600</v>
+        <v>593</v>
       </c>
     </row>
     <row r="129" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A129" t="s">
-        <v>330</v>
+        <v>326</v>
       </c>
       <c r="B129" t="s">
         <v>16</v>
       </c>
       <c r="C129" t="s">
-        <v>601</v>
+        <v>592</v>
       </c>
       <c r="D129" t="s">
-        <v>210</v>
+        <v>42</v>
       </c>
       <c r="E129">
-        <v>2750</v>
+        <v>1.4999999999999999E-2</v>
       </c>
       <c r="F129">
-        <f t="shared" si="7"/>
-        <v>165000</v>
+        <f t="shared" ref="F129:F152" si="7">E129*60</f>
+        <v>0.89999999999999991</v>
       </c>
       <c r="G129" s="3" t="s">
-        <v>602</v>
+        <v>593</v>
       </c>
     </row>
     <row r="130" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A130" t="s">
-        <v>331</v>
+        <v>327</v>
       </c>
       <c r="B130" t="s">
         <v>16</v>
       </c>
       <c r="C130" t="s">
-        <v>601</v>
+        <v>594</v>
       </c>
       <c r="D130" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="E130">
         <v>2750</v>
@@ -5534,21 +5555,21 @@
         <v>165000</v>
       </c>
       <c r="G130" s="3" t="s">
-        <v>602</v>
+        <v>595</v>
       </c>
     </row>
     <row r="131" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A131" t="s">
-        <v>332</v>
+        <v>328</v>
       </c>
       <c r="B131" t="s">
         <v>16</v>
       </c>
       <c r="C131" t="s">
-        <v>601</v>
+        <v>594</v>
       </c>
       <c r="D131" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="E131">
         <v>2750</v>
@@ -5558,21 +5579,21 @@
         <v>165000</v>
       </c>
       <c r="G131" s="3" t="s">
-        <v>602</v>
+        <v>595</v>
       </c>
     </row>
     <row r="132" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A132" t="s">
-        <v>333</v>
+        <v>329</v>
       </c>
       <c r="B132" t="s">
         <v>16</v>
       </c>
       <c r="C132" t="s">
-        <v>601</v>
+        <v>594</v>
       </c>
       <c r="D132" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="E132">
         <v>2750</v>
@@ -5582,642 +5603,642 @@
         <v>165000</v>
       </c>
       <c r="G132" s="3" t="s">
-        <v>602</v>
+        <v>595</v>
       </c>
     </row>
     <row r="133" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A133" t="s">
-        <v>334</v>
+        <v>330</v>
       </c>
       <c r="B133" t="s">
         <v>16</v>
       </c>
       <c r="C133" t="s">
-        <v>603</v>
+        <v>594</v>
       </c>
       <c r="D133" t="s">
-        <v>40</v>
+        <v>209</v>
       </c>
       <c r="E133">
-        <v>3.8</v>
+        <v>2750</v>
       </c>
       <c r="F133">
         <f t="shared" si="7"/>
-        <v>228</v>
+        <v>165000</v>
       </c>
       <c r="G133" s="3" t="s">
-        <v>604</v>
+        <v>595</v>
       </c>
     </row>
     <row r="134" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A134" t="s">
-        <v>335</v>
+        <v>331</v>
       </c>
       <c r="B134" t="s">
         <v>16</v>
       </c>
       <c r="C134" t="s">
-        <v>605</v>
+        <v>596</v>
       </c>
       <c r="D134" t="s">
         <v>40</v>
       </c>
       <c r="E134">
-        <v>6.7</v>
+        <v>3.8</v>
       </c>
       <c r="F134">
         <f t="shared" si="7"/>
-        <v>402</v>
+        <v>228</v>
       </c>
       <c r="G134" s="3" t="s">
-        <v>606</v>
+        <v>597</v>
       </c>
     </row>
     <row r="135" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A135" t="s">
-        <v>336</v>
+        <v>332</v>
       </c>
       <c r="B135" t="s">
         <v>16</v>
       </c>
       <c r="C135" t="s">
-        <v>607</v>
+        <v>598</v>
       </c>
       <c r="D135" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="E135">
-        <v>9.0999999999999998E-2</v>
+        <v>6.7</v>
       </c>
       <c r="F135">
         <f t="shared" si="7"/>
-        <v>5.46</v>
+        <v>402</v>
       </c>
       <c r="G135" s="3" t="s">
-        <v>608</v>
+        <v>599</v>
       </c>
     </row>
     <row r="136" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A136" t="s">
-        <v>337</v>
+        <v>333</v>
       </c>
       <c r="B136" t="s">
         <v>16</v>
       </c>
       <c r="C136" t="s">
-        <v>609</v>
+        <v>600</v>
       </c>
       <c r="D136" t="s">
-        <v>610</v>
+        <v>45</v>
       </c>
       <c r="E136">
-        <v>1.7000000000000001E-2</v>
+        <v>9.0999999999999998E-2</v>
       </c>
       <c r="F136">
         <f t="shared" si="7"/>
-        <v>1.02</v>
+        <v>5.46</v>
       </c>
       <c r="G136" s="3" t="s">
-        <v>611</v>
+        <v>601</v>
       </c>
     </row>
     <row r="137" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A137" t="s">
-        <v>338</v>
+        <v>334</v>
       </c>
       <c r="B137" t="s">
         <v>16</v>
       </c>
       <c r="C137" t="s">
-        <v>612</v>
+        <v>602</v>
       </c>
       <c r="D137" t="s">
-        <v>610</v>
+        <v>603</v>
       </c>
       <c r="E137">
-        <v>27</v>
+        <v>1.7000000000000001E-2</v>
       </c>
       <c r="F137">
         <f t="shared" si="7"/>
-        <v>1620</v>
+        <v>1.02</v>
       </c>
       <c r="G137" s="3" t="s">
-        <v>613</v>
+        <v>604</v>
       </c>
     </row>
     <row r="138" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A138" t="s">
-        <v>339</v>
+        <v>335</v>
       </c>
       <c r="B138" t="s">
         <v>16</v>
       </c>
       <c r="C138" t="s">
-        <v>614</v>
+        <v>605</v>
       </c>
       <c r="D138" t="s">
-        <v>45</v>
+        <v>603</v>
       </c>
       <c r="E138">
-        <v>1986</v>
+        <v>27</v>
       </c>
       <c r="F138">
         <f t="shared" si="7"/>
-        <v>119160</v>
+        <v>1620</v>
       </c>
       <c r="G138" s="3" t="s">
-        <v>615</v>
+        <v>606</v>
       </c>
     </row>
     <row r="139" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A139" t="s">
-        <v>340</v>
+        <v>336</v>
       </c>
       <c r="B139" t="s">
         <v>16</v>
       </c>
       <c r="C139" t="s">
-        <v>616</v>
+        <v>607</v>
       </c>
       <c r="D139" t="s">
         <v>45</v>
       </c>
       <c r="E139">
-        <v>380</v>
+        <v>1986</v>
       </c>
       <c r="F139">
         <f t="shared" si="7"/>
-        <v>22800</v>
+        <v>119160</v>
       </c>
       <c r="G139" s="3" t="s">
-        <v>617</v>
+        <v>608</v>
       </c>
     </row>
     <row r="140" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A140" t="s">
-        <v>341</v>
+        <v>337</v>
       </c>
       <c r="B140" t="s">
         <v>16</v>
       </c>
       <c r="C140" t="s">
-        <v>428</v>
+        <v>609</v>
       </c>
       <c r="D140" t="s">
         <v>45</v>
       </c>
       <c r="E140">
-        <v>221</v>
+        <v>380</v>
       </c>
       <c r="F140">
         <f t="shared" si="7"/>
-        <v>13260</v>
+        <v>22800</v>
       </c>
       <c r="G140" s="3" t="s">
-        <v>429</v>
+        <v>610</v>
       </c>
     </row>
     <row r="141" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A141" t="s">
-        <v>342</v>
+        <v>338</v>
       </c>
       <c r="B141" t="s">
         <v>16</v>
       </c>
       <c r="C141" t="s">
-        <v>618</v>
+        <v>424</v>
       </c>
       <c r="D141" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="E141">
-        <v>140</v>
+        <v>221</v>
       </c>
       <c r="F141">
         <f t="shared" si="7"/>
-        <v>8400</v>
-      </c>
-      <c r="G141" s="1" t="s">
-        <v>619</v>
+        <v>13260</v>
+      </c>
+      <c r="G141" s="3" t="s">
+        <v>425</v>
       </c>
     </row>
     <row r="142" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A142" t="s">
-        <v>343</v>
+        <v>339</v>
       </c>
       <c r="B142" t="s">
         <v>16</v>
       </c>
       <c r="C142" t="s">
-        <v>620</v>
+        <v>611</v>
       </c>
       <c r="D142" t="s">
         <v>42</v>
       </c>
       <c r="E142">
-        <v>0.13</v>
+        <v>140</v>
       </c>
       <c r="F142">
         <f t="shared" si="7"/>
-        <v>7.8000000000000007</v>
-      </c>
-      <c r="G142" s="3" t="s">
-        <v>621</v>
+        <v>8400</v>
+      </c>
+      <c r="G142" s="1" t="s">
+        <v>612</v>
       </c>
     </row>
     <row r="143" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A143" t="s">
-        <v>344</v>
+        <v>340</v>
       </c>
       <c r="B143" t="s">
         <v>16</v>
       </c>
       <c r="C143" t="s">
-        <v>436</v>
+        <v>613</v>
       </c>
       <c r="D143" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="E143">
-        <v>2.08</v>
+        <v>0.13</v>
       </c>
       <c r="F143">
         <f t="shared" si="7"/>
-        <v>124.80000000000001</v>
+        <v>7.8000000000000007</v>
       </c>
       <c r="G143" s="3" t="s">
-        <v>437</v>
+        <v>614</v>
       </c>
     </row>
     <row r="144" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A144" t="s">
-        <v>345</v>
+        <v>341</v>
       </c>
       <c r="B144" t="s">
         <v>16</v>
       </c>
       <c r="C144" t="s">
-        <v>434</v>
+        <v>432</v>
       </c>
       <c r="D144" t="s">
         <v>45</v>
       </c>
       <c r="E144">
-        <v>3.069</v>
+        <v>2.08</v>
       </c>
       <c r="F144">
         <f t="shared" si="7"/>
-        <v>184.14</v>
+        <v>124.80000000000001</v>
       </c>
       <c r="G144" s="3" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
     </row>
     <row r="145" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A145" t="s">
-        <v>346</v>
+        <v>342</v>
       </c>
       <c r="B145" t="s">
         <v>16</v>
       </c>
       <c r="C145" t="s">
-        <v>624</v>
+        <v>430</v>
       </c>
       <c r="D145" t="s">
-        <v>625</v>
+        <v>45</v>
       </c>
       <c r="E145">
-        <v>1.6999999999999999E-3</v>
+        <v>3.069</v>
       </c>
       <c r="F145">
         <f t="shared" si="7"/>
-        <v>0.10199999999999999</v>
+        <v>184.14</v>
       </c>
       <c r="G145" s="3" t="s">
-        <v>626</v>
+        <v>431</v>
       </c>
     </row>
     <row r="146" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A146" t="s">
-        <v>347</v>
+        <v>343</v>
       </c>
       <c r="B146" t="s">
         <v>16</v>
       </c>
       <c r="C146" t="s">
-        <v>627</v>
+        <v>617</v>
       </c>
       <c r="D146" t="s">
-        <v>40</v>
+        <v>618</v>
       </c>
       <c r="E146">
-        <v>29.1</v>
+        <v>1.6999999999999999E-3</v>
       </c>
       <c r="F146">
         <f t="shared" si="7"/>
-        <v>1746</v>
+        <v>0.10199999999999999</v>
       </c>
       <c r="G146" s="3" t="s">
-        <v>628</v>
+        <v>619</v>
       </c>
     </row>
     <row r="147" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A147" t="s">
-        <v>348</v>
+        <v>344</v>
       </c>
       <c r="B147" t="s">
         <v>16</v>
       </c>
       <c r="C147" t="s">
-        <v>629</v>
+        <v>620</v>
       </c>
       <c r="D147" t="s">
-        <v>630</v>
+        <v>40</v>
       </c>
       <c r="E147">
-        <v>509</v>
+        <v>29.1</v>
       </c>
       <c r="F147">
         <f t="shared" si="7"/>
-        <v>30540</v>
+        <v>1746</v>
       </c>
       <c r="G147" s="3" t="s">
-        <v>631</v>
+        <v>621</v>
       </c>
     </row>
     <row r="148" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A148" t="s">
-        <v>349</v>
+        <v>345</v>
       </c>
       <c r="B148" t="s">
         <v>16</v>
       </c>
       <c r="C148" t="s">
-        <v>632</v>
+        <v>622</v>
       </c>
       <c r="D148" t="s">
-        <v>45</v>
+        <v>623</v>
       </c>
       <c r="E148">
-        <v>0.56999999999999995</v>
+        <v>509</v>
       </c>
       <c r="F148">
         <f t="shared" si="7"/>
-        <v>34.199999999999996</v>
+        <v>30540</v>
       </c>
       <c r="G148" s="3" t="s">
-        <v>633</v>
+        <v>624</v>
       </c>
     </row>
     <row r="149" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A149" t="s">
-        <v>350</v>
+        <v>346</v>
       </c>
       <c r="B149" t="s">
         <v>16</v>
       </c>
       <c r="C149" t="s">
-        <v>190</v>
+        <v>625</v>
       </c>
       <c r="D149" t="s">
         <v>45</v>
       </c>
       <c r="E149">
-        <v>38.6</v>
+        <v>0.56999999999999995</v>
       </c>
       <c r="F149">
         <f t="shared" si="7"/>
-        <v>2316</v>
+        <v>34.199999999999996</v>
       </c>
       <c r="G149" s="3" t="s">
-        <v>191</v>
+        <v>626</v>
       </c>
     </row>
     <row r="150" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A150" t="s">
-        <v>351</v>
+        <v>347</v>
       </c>
       <c r="B150" t="s">
         <v>16</v>
       </c>
       <c r="C150" t="s">
-        <v>622</v>
+        <v>189</v>
       </c>
       <c r="D150" t="s">
         <v>45</v>
       </c>
       <c r="E150">
-        <v>48.6</v>
+        <v>38.6</v>
       </c>
       <c r="F150">
         <f t="shared" si="7"/>
-        <v>2916</v>
+        <v>2316</v>
       </c>
       <c r="G150" s="3" t="s">
-        <v>623</v>
+        <v>190</v>
       </c>
     </row>
     <row r="151" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A151" t="s">
-        <v>352</v>
+        <v>348</v>
       </c>
       <c r="B151" t="s">
         <v>16</v>
       </c>
       <c r="C151" t="s">
-        <v>480</v>
+        <v>615</v>
       </c>
       <c r="D151" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="E151">
-        <v>46</v>
+        <v>48.6</v>
       </c>
       <c r="F151">
         <f t="shared" si="7"/>
-        <v>2760</v>
+        <v>2916</v>
       </c>
       <c r="G151" s="3" t="s">
-        <v>481</v>
+        <v>616</v>
       </c>
     </row>
     <row r="152" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A152" t="s">
-        <v>353</v>
+        <v>349</v>
       </c>
       <c r="B152" t="s">
         <v>16</v>
       </c>
       <c r="C152" t="s">
-        <v>555</v>
+        <v>476</v>
       </c>
       <c r="D152" t="s">
-        <v>210</v>
+        <v>40</v>
       </c>
       <c r="E152">
-        <v>26.8</v>
+        <v>46</v>
       </c>
       <c r="F152">
-        <f t="shared" ref="F152:F156" si="8">E152*60</f>
-        <v>1608</v>
+        <f t="shared" si="7"/>
+        <v>2760</v>
       </c>
       <c r="G152" s="3" t="s">
-        <v>556</v>
+        <v>477</v>
       </c>
     </row>
     <row r="153" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A153" t="s">
-        <v>354</v>
+        <v>350</v>
       </c>
       <c r="B153" t="s">
         <v>16</v>
       </c>
       <c r="C153" t="s">
-        <v>636</v>
+        <v>551</v>
       </c>
       <c r="D153" t="s">
+        <v>209</v>
+      </c>
+      <c r="E153">
+        <v>26.8</v>
+      </c>
+      <c r="F153">
+        <f t="shared" ref="F153:F157" si="8">E153*60</f>
+        <v>1608</v>
+      </c>
+      <c r="G153" s="3" t="s">
+        <v>552</v>
+      </c>
+    </row>
+    <row r="154" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A154" t="s">
+        <v>351</v>
+      </c>
+      <c r="B154" t="s">
+        <v>16</v>
+      </c>
+      <c r="C154" t="s">
+        <v>629</v>
+      </c>
+      <c r="D154" t="s">
         <v>45</v>
       </c>
-      <c r="E153">
+      <c r="E154">
         <v>21</v>
       </c>
-      <c r="F153">
+      <c r="F154">
         <f t="shared" si="8"/>
         <v>1260</v>
       </c>
-      <c r="G153" s="3" t="s">
-        <v>637</v>
-      </c>
-    </row>
-    <row r="154" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A154" t="s">
-        <v>355</v>
-      </c>
-      <c r="B154" t="s">
-        <v>16</v>
-      </c>
-      <c r="C154" t="s">
-        <v>634</v>
-      </c>
-      <c r="D154" t="s">
+      <c r="G154" s="3" t="s">
+        <v>630</v>
+      </c>
+    </row>
+    <row r="155" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A155" t="s">
+        <v>352</v>
+      </c>
+      <c r="B155" t="s">
+        <v>16</v>
+      </c>
+      <c r="C155" t="s">
+        <v>627</v>
+      </c>
+      <c r="D155" t="s">
         <v>40</v>
       </c>
-      <c r="E154">
+      <c r="E155">
         <v>1570</v>
       </c>
-      <c r="F154">
+      <c r="F155">
         <f t="shared" si="8"/>
         <v>94200</v>
       </c>
-      <c r="G154" s="3" t="s">
-        <v>635</v>
-      </c>
-    </row>
-    <row r="155" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A155" t="s">
-        <v>356</v>
-      </c>
-      <c r="B155" t="s">
-        <v>16</v>
-      </c>
-      <c r="C155" t="s">
-        <v>484</v>
-      </c>
-      <c r="D155" t="s">
+      <c r="G155" s="3" t="s">
+        <v>628</v>
+      </c>
+    </row>
+    <row r="156" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A156" t="s">
+        <v>353</v>
+      </c>
+      <c r="B156" t="s">
+        <v>16</v>
+      </c>
+      <c r="C156" t="s">
+        <v>480</v>
+      </c>
+      <c r="D156" t="s">
         <v>40</v>
       </c>
-      <c r="E155">
+      <c r="E156">
         <v>5.5</v>
       </c>
-      <c r="F155">
+      <c r="F156">
         <f t="shared" si="8"/>
         <v>330</v>
       </c>
-      <c r="G155" s="3" t="s">
-        <v>485</v>
-      </c>
-    </row>
-    <row r="156" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A156" t="s">
-        <v>357</v>
-      </c>
-      <c r="B156" t="s">
-        <v>16</v>
-      </c>
-      <c r="C156" t="s">
-        <v>638</v>
-      </c>
-      <c r="D156" t="s">
+      <c r="G156" s="3" t="s">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="157" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A157" t="s">
+        <v>354</v>
+      </c>
+      <c r="B157" t="s">
+        <v>16</v>
+      </c>
+      <c r="C157" t="s">
+        <v>631</v>
+      </c>
+      <c r="D157" t="s">
         <v>40</v>
       </c>
-      <c r="E156">
+      <c r="E157">
         <v>3.3</v>
       </c>
-      <c r="F156">
+      <c r="F157">
         <f t="shared" si="8"/>
         <v>198</v>
       </c>
-      <c r="G156" s="3" t="s">
-        <v>639</v>
-      </c>
-    </row>
-    <row r="157" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A157" t="s">
-        <v>358</v>
-      </c>
-      <c r="B157" t="s">
-        <v>16</v>
-      </c>
-      <c r="C157" t="s">
-        <v>551</v>
-      </c>
-      <c r="D157" t="s">
-        <v>88</v>
-      </c>
-      <c r="E157">
-        <v>19.899999999999999</v>
-      </c>
-      <c r="F157">
-        <f t="shared" ref="F157:F168" si="9">E157*60</f>
-        <v>1194</v>
-      </c>
       <c r="G157" s="3" t="s">
-        <v>552</v>
+        <v>632</v>
       </c>
     </row>
     <row r="158" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A158" t="s">
-        <v>359</v>
+        <v>355</v>
       </c>
       <c r="B158" t="s">
         <v>16</v>
       </c>
       <c r="C158" t="s">
-        <v>640</v>
+        <v>547</v>
       </c>
       <c r="D158" t="s">
-        <v>42</v>
+        <v>88</v>
       </c>
       <c r="E158">
-        <v>23.2</v>
+        <v>19.899999999999999</v>
       </c>
       <c r="F158">
-        <f t="shared" si="9"/>
-        <v>1392</v>
+        <f t="shared" ref="F158:F169" si="9">E158*60</f>
+        <v>1194</v>
       </c>
       <c r="G158" s="3" t="s">
-        <v>641</v>
+        <v>548</v>
       </c>
     </row>
     <row r="159" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A159" t="s">
-        <v>360</v>
+        <v>356</v>
       </c>
       <c r="B159" t="s">
         <v>16</v>
       </c>
       <c r="C159" t="s">
-        <v>640</v>
+        <v>633</v>
       </c>
       <c r="D159" t="s">
         <v>42</v>
@@ -6230,951 +6251,951 @@
         <v>1392</v>
       </c>
       <c r="G159" s="3" t="s">
-        <v>641</v>
+        <v>634</v>
       </c>
     </row>
     <row r="160" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A160" t="s">
-        <v>361</v>
+        <v>357</v>
       </c>
       <c r="B160" t="s">
         <v>16</v>
       </c>
       <c r="C160" t="s">
-        <v>642</v>
+        <v>633</v>
       </c>
       <c r="D160" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="E160">
-        <v>4.2</v>
+        <v>23.2</v>
       </c>
       <c r="F160">
         <f t="shared" si="9"/>
-        <v>252</v>
+        <v>1392</v>
       </c>
       <c r="G160" s="3" t="s">
-        <v>643</v>
+        <v>634</v>
       </c>
     </row>
     <row r="161" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A161" t="s">
-        <v>362</v>
+        <v>358</v>
       </c>
       <c r="B161" t="s">
         <v>16</v>
       </c>
       <c r="C161" t="s">
-        <v>644</v>
+        <v>635</v>
       </c>
       <c r="D161" t="s">
-        <v>88</v>
+        <v>40</v>
       </c>
       <c r="E161">
-        <v>1.82</v>
+        <v>4.2</v>
       </c>
       <c r="F161">
         <f t="shared" si="9"/>
-        <v>109.2</v>
+        <v>252</v>
       </c>
       <c r="G161" s="3" t="s">
-        <v>645</v>
+        <v>636</v>
       </c>
     </row>
     <row r="162" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A162" t="s">
-        <v>363</v>
+        <v>359</v>
       </c>
       <c r="B162" t="s">
         <v>16</v>
       </c>
       <c r="C162" t="s">
-        <v>646</v>
+        <v>637</v>
       </c>
       <c r="D162" t="s">
-        <v>147</v>
+        <v>88</v>
       </c>
       <c r="E162">
-        <v>0.16</v>
+        <v>1.82</v>
       </c>
       <c r="F162">
         <f t="shared" si="9"/>
-        <v>9.6</v>
+        <v>109.2</v>
       </c>
       <c r="G162" s="3" t="s">
-        <v>647</v>
+        <v>638</v>
       </c>
     </row>
     <row r="163" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A163" t="s">
-        <v>364</v>
+        <v>360</v>
       </c>
       <c r="B163" t="s">
         <v>16</v>
       </c>
       <c r="C163" t="s">
-        <v>648</v>
+        <v>639</v>
       </c>
       <c r="D163" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="E163">
-        <v>0.43</v>
+        <v>0.16</v>
       </c>
       <c r="F163">
         <f t="shared" si="9"/>
-        <v>25.8</v>
+        <v>9.6</v>
       </c>
       <c r="G163" s="3" t="s">
-        <v>649</v>
+        <v>640</v>
       </c>
     </row>
     <row r="164" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A164" t="s">
-        <v>365</v>
+        <v>361</v>
       </c>
       <c r="B164" t="s">
         <v>16</v>
       </c>
       <c r="C164" t="s">
-        <v>650</v>
+        <v>641</v>
       </c>
       <c r="D164" t="s">
-        <v>40</v>
+        <v>146</v>
       </c>
       <c r="E164">
-        <v>23.3</v>
+        <v>0.43</v>
       </c>
       <c r="F164">
         <f t="shared" si="9"/>
-        <v>1398</v>
+        <v>25.8</v>
       </c>
       <c r="G164" s="3" t="s">
-        <v>651</v>
+        <v>642</v>
       </c>
     </row>
     <row r="165" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A165" t="s">
-        <v>366</v>
+        <v>362</v>
       </c>
       <c r="B165" t="s">
         <v>16</v>
       </c>
       <c r="C165" t="s">
-        <v>652</v>
+        <v>643</v>
       </c>
       <c r="D165" t="s">
-        <v>88</v>
+        <v>40</v>
       </c>
       <c r="E165">
-        <v>2.36</v>
+        <v>23.3</v>
       </c>
       <c r="F165">
         <f t="shared" si="9"/>
-        <v>141.6</v>
+        <v>1398</v>
       </c>
       <c r="G165" s="3" t="s">
-        <v>653</v>
+        <v>644</v>
       </c>
     </row>
     <row r="166" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A166" t="s">
-        <v>367</v>
+        <v>363</v>
       </c>
       <c r="B166" t="s">
         <v>16</v>
       </c>
       <c r="C166" t="s">
-        <v>650</v>
+        <v>645</v>
       </c>
       <c r="D166" t="s">
-        <v>40</v>
+        <v>88</v>
       </c>
       <c r="E166">
-        <v>23.3</v>
+        <v>2.36</v>
       </c>
       <c r="F166">
         <f t="shared" si="9"/>
-        <v>1398</v>
+        <v>141.6</v>
       </c>
       <c r="G166" s="3" t="s">
-        <v>651</v>
+        <v>646</v>
       </c>
     </row>
     <row r="167" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A167" t="s">
-        <v>368</v>
+        <v>364</v>
       </c>
       <c r="B167" t="s">
         <v>16</v>
       </c>
       <c r="C167" t="s">
-        <v>654</v>
+        <v>643</v>
       </c>
       <c r="D167" t="s">
         <v>40</v>
       </c>
       <c r="E167">
-        <v>3.74</v>
+        <v>23.3</v>
       </c>
       <c r="F167">
         <f t="shared" si="9"/>
-        <v>224.4</v>
+        <v>1398</v>
       </c>
       <c r="G167" s="3" t="s">
-        <v>655</v>
+        <v>644</v>
       </c>
     </row>
     <row r="168" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A168" t="s">
-        <v>369</v>
+        <v>365</v>
       </c>
       <c r="B168" t="s">
         <v>16</v>
       </c>
       <c r="C168" t="s">
-        <v>656</v>
+        <v>647</v>
       </c>
       <c r="D168" t="s">
         <v>40</v>
       </c>
       <c r="E168">
-        <v>2.956</v>
+        <v>3.74</v>
       </c>
       <c r="F168">
         <f t="shared" si="9"/>
-        <v>177.35999999999999</v>
+        <v>224.4</v>
       </c>
       <c r="G168" s="3" t="s">
-        <v>657</v>
+        <v>648</v>
       </c>
     </row>
     <row r="169" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A169" t="s">
-        <v>370</v>
+        <v>366</v>
       </c>
       <c r="B169" t="s">
         <v>16</v>
       </c>
       <c r="C169" t="s">
-        <v>441</v>
+        <v>649</v>
       </c>
       <c r="D169" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="E169">
-        <v>68.3</v>
+        <v>2.956</v>
       </c>
       <c r="F169">
-        <f t="shared" ref="F169:F187" si="10">E169*60</f>
-        <v>4098</v>
-      </c>
-      <c r="G169" s="1" t="s">
-        <v>442</v>
+        <f t="shared" si="9"/>
+        <v>177.35999999999999</v>
+      </c>
+      <c r="G169" s="3" t="s">
+        <v>650</v>
       </c>
     </row>
     <row r="170" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A170" t="s">
-        <v>371</v>
+        <v>367</v>
       </c>
       <c r="B170" t="s">
         <v>16</v>
       </c>
       <c r="C170" t="s">
-        <v>457</v>
+        <v>437</v>
       </c>
       <c r="D170" t="s">
         <v>45</v>
       </c>
       <c r="E170">
+        <v>68.3</v>
+      </c>
+      <c r="F170">
+        <f t="shared" ref="F170:F188" si="10">E170*60</f>
+        <v>4098</v>
+      </c>
+      <c r="G170" s="1" t="s">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="171" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A171" t="s">
+        <v>368</v>
+      </c>
+      <c r="B171" t="s">
+        <v>16</v>
+      </c>
+      <c r="C171" t="s">
+        <v>453</v>
+      </c>
+      <c r="D171" t="s">
+        <v>45</v>
+      </c>
+      <c r="E171">
         <v>138</v>
       </c>
-      <c r="F170">
+      <c r="F171">
         <f t="shared" si="10"/>
         <v>8280</v>
       </c>
-      <c r="G170" s="3" t="s">
-        <v>458</v>
-      </c>
-    </row>
-    <row r="171" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A171" t="s">
-        <v>372</v>
-      </c>
-      <c r="B171" t="s">
-        <v>16</v>
-      </c>
-      <c r="C171" t="s">
-        <v>480</v>
-      </c>
-      <c r="D171" t="s">
+      <c r="G171" s="3" t="s">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="172" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A172" t="s">
+        <v>369</v>
+      </c>
+      <c r="B172" t="s">
+        <v>16</v>
+      </c>
+      <c r="C172" t="s">
+        <v>476</v>
+      </c>
+      <c r="D172" t="s">
         <v>40</v>
       </c>
-      <c r="E171">
+      <c r="E172">
         <v>46</v>
       </c>
-      <c r="F171">
+      <c r="F172">
         <f t="shared" si="10"/>
         <v>2760</v>
       </c>
-      <c r="G171" s="3" t="s">
-        <v>481</v>
-      </c>
-    </row>
-    <row r="172" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A172" t="s">
-        <v>373</v>
-      </c>
-      <c r="B172" t="s">
-        <v>16</v>
-      </c>
-      <c r="C172" t="s">
-        <v>658</v>
-      </c>
-      <c r="D172" t="s">
+      <c r="G172" s="3" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="173" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A173" t="s">
+        <v>370</v>
+      </c>
+      <c r="B173" t="s">
+        <v>16</v>
+      </c>
+      <c r="C173" t="s">
+        <v>651</v>
+      </c>
+      <c r="D173" t="s">
         <v>88</v>
       </c>
-      <c r="E172">
+      <c r="E173">
         <v>24</v>
       </c>
-      <c r="F172">
+      <c r="F173">
         <f t="shared" si="10"/>
         <v>1440</v>
       </c>
-      <c r="G172" s="3" t="s">
-        <v>659</v>
-      </c>
-    </row>
-    <row r="173" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A173" t="s">
-        <v>374</v>
-      </c>
-      <c r="B173" t="s">
-        <v>16</v>
-      </c>
-      <c r="C173" t="s">
-        <v>484</v>
-      </c>
-      <c r="D173" t="s">
+      <c r="G173" s="3" t="s">
+        <v>652</v>
+      </c>
+    </row>
+    <row r="174" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A174" t="s">
+        <v>371</v>
+      </c>
+      <c r="B174" t="s">
+        <v>16</v>
+      </c>
+      <c r="C174" t="s">
+        <v>480</v>
+      </c>
+      <c r="D174" t="s">
         <v>40</v>
       </c>
-      <c r="E173">
+      <c r="E174">
         <v>5.5</v>
       </c>
-      <c r="F173">
+      <c r="F174">
         <f t="shared" si="10"/>
         <v>330</v>
       </c>
-      <c r="G173" s="3" t="s">
-        <v>485</v>
-      </c>
-    </row>
-    <row r="174" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A174" t="s">
-        <v>375</v>
-      </c>
-      <c r="B174" t="s">
-        <v>16</v>
-      </c>
-      <c r="C174" t="s">
-        <v>661</v>
-      </c>
-      <c r="D174" t="s">
-        <v>660</v>
-      </c>
-      <c r="E174">
+      <c r="G174" s="3" t="s">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="175" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A175" t="s">
+        <v>372</v>
+      </c>
+      <c r="B175" t="s">
+        <v>16</v>
+      </c>
+      <c r="C175" t="s">
+        <v>654</v>
+      </c>
+      <c r="D175" t="s">
+        <v>653</v>
+      </c>
+      <c r="E175">
         <v>0.7</v>
       </c>
-      <c r="F174">
+      <c r="F175">
         <f t="shared" si="10"/>
         <v>42</v>
       </c>
-      <c r="G174" s="3" t="s">
-        <v>662</v>
-      </c>
-    </row>
-    <row r="175" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A175" t="s">
-        <v>376</v>
-      </c>
-      <c r="B175" t="s">
-        <v>16</v>
-      </c>
-      <c r="C175" t="s">
-        <v>457</v>
-      </c>
-      <c r="D175" t="s">
+      <c r="G175" s="3" t="s">
+        <v>655</v>
+      </c>
+    </row>
+    <row r="176" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A176" t="s">
+        <v>373</v>
+      </c>
+      <c r="B176" t="s">
+        <v>16</v>
+      </c>
+      <c r="C176" t="s">
+        <v>453</v>
+      </c>
+      <c r="D176" t="s">
         <v>45</v>
       </c>
-      <c r="E175">
+      <c r="E176">
         <v>138</v>
       </c>
-      <c r="F175">
+      <c r="F176">
         <f t="shared" si="10"/>
         <v>8280</v>
       </c>
-      <c r="G175" s="3" t="s">
-        <v>458</v>
-      </c>
-    </row>
-    <row r="176" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A176" t="s">
-        <v>377</v>
-      </c>
-      <c r="B176" t="s">
-        <v>16</v>
-      </c>
-      <c r="C176" t="s">
-        <v>663</v>
-      </c>
-      <c r="D176" t="s">
+      <c r="G176" s="3" t="s">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="177" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A177" t="s">
+        <v>374</v>
+      </c>
+      <c r="B177" t="s">
+        <v>16</v>
+      </c>
+      <c r="C177" t="s">
+        <v>656</v>
+      </c>
+      <c r="D177" t="s">
         <v>40</v>
       </c>
-      <c r="E176">
+      <c r="E177">
         <v>216</v>
       </c>
-      <c r="F176">
+      <c r="F177">
         <f t="shared" si="10"/>
         <v>12960</v>
       </c>
-      <c r="G176" s="3" t="s">
-        <v>664</v>
-      </c>
-    </row>
-    <row r="177" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A177" t="s">
-        <v>378</v>
-      </c>
-      <c r="B177" t="s">
-        <v>16</v>
-      </c>
-      <c r="C177" t="s">
-        <v>665</v>
-      </c>
-      <c r="D177" t="s">
+      <c r="G177" s="3" t="s">
+        <v>657</v>
+      </c>
+    </row>
+    <row r="178" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A178" t="s">
+        <v>375</v>
+      </c>
+      <c r="B178" t="s">
+        <v>16</v>
+      </c>
+      <c r="C178" t="s">
+        <v>658</v>
+      </c>
+      <c r="D178" t="s">
         <v>88</v>
       </c>
-      <c r="E177">
+      <c r="E178">
         <v>7.25</v>
       </c>
-      <c r="F177">
+      <c r="F178">
         <f t="shared" si="10"/>
         <v>435</v>
       </c>
-      <c r="G177" s="3" t="s">
-        <v>666</v>
-      </c>
-    </row>
-    <row r="178" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A178" t="s">
-        <v>379</v>
-      </c>
-      <c r="B178" t="s">
-        <v>16</v>
-      </c>
-      <c r="C178" t="s">
-        <v>667</v>
-      </c>
-      <c r="D178" t="s">
+      <c r="G178" s="3" t="s">
+        <v>659</v>
+      </c>
+    </row>
+    <row r="179" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A179" t="s">
+        <v>376</v>
+      </c>
+      <c r="B179" t="s">
+        <v>16</v>
+      </c>
+      <c r="C179" t="s">
+        <v>660</v>
+      </c>
+      <c r="D179" t="s">
         <v>45</v>
       </c>
-      <c r="E178">
+      <c r="E179">
         <v>10.4</v>
       </c>
-      <c r="F178">
+      <c r="F179">
         <f t="shared" si="10"/>
         <v>624</v>
       </c>
-      <c r="G178" s="1" t="s">
-        <v>668</v>
-      </c>
-    </row>
-    <row r="179" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A179" t="s">
-        <v>380</v>
-      </c>
-      <c r="B179" t="s">
-        <v>16</v>
-      </c>
-      <c r="C179" t="s">
-        <v>470</v>
-      </c>
-      <c r="D179" t="s">
+      <c r="G179" s="1" t="s">
+        <v>661</v>
+      </c>
+    </row>
+    <row r="180" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A180" t="s">
+        <v>377</v>
+      </c>
+      <c r="B180" t="s">
+        <v>16</v>
+      </c>
+      <c r="C180" t="s">
+        <v>466</v>
+      </c>
+      <c r="D180" t="s">
         <v>45</v>
       </c>
-      <c r="E179">
+      <c r="E180">
         <v>51</v>
       </c>
-      <c r="F179">
+      <c r="F180">
         <f t="shared" si="10"/>
         <v>3060</v>
       </c>
-      <c r="G179" s="3" t="s">
-        <v>471</v>
-      </c>
-    </row>
-    <row r="180" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A180" t="s">
-        <v>381</v>
-      </c>
-      <c r="B180" t="s">
-        <v>16</v>
-      </c>
-      <c r="C180" t="s">
-        <v>434</v>
-      </c>
-      <c r="D180" t="s">
+      <c r="G180" s="3" t="s">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="181" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A181" t="s">
+        <v>378</v>
+      </c>
+      <c r="B181" t="s">
+        <v>16</v>
+      </c>
+      <c r="C181" t="s">
+        <v>430</v>
+      </c>
+      <c r="D181" t="s">
         <v>45</v>
       </c>
-      <c r="E180">
+      <c r="E181">
         <v>3.069</v>
       </c>
-      <c r="F180">
+      <c r="F181">
         <f t="shared" si="10"/>
         <v>184.14</v>
       </c>
-      <c r="G180" s="3" t="s">
-        <v>435</v>
-      </c>
-    </row>
-    <row r="181" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A181" t="s">
-        <v>382</v>
-      </c>
-      <c r="B181" t="s">
-        <v>16</v>
-      </c>
-      <c r="C181" t="s">
-        <v>449</v>
-      </c>
-      <c r="D181" t="s">
+      <c r="G181" s="3" t="s">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="182" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A182" t="s">
+        <v>379</v>
+      </c>
+      <c r="B182" t="s">
+        <v>16</v>
+      </c>
+      <c r="C182" t="s">
+        <v>445</v>
+      </c>
+      <c r="D182" t="s">
         <v>40</v>
       </c>
-      <c r="E181">
+      <c r="E182">
         <v>1.76</v>
       </c>
-      <c r="F181">
+      <c r="F182">
         <f t="shared" si="10"/>
         <v>105.6</v>
       </c>
-      <c r="G181" s="3" t="s">
-        <v>450</v>
-      </c>
-    </row>
-    <row r="182" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A182" t="s">
-        <v>383</v>
-      </c>
-      <c r="B182" t="s">
-        <v>16</v>
-      </c>
-      <c r="C182" t="s">
-        <v>669</v>
-      </c>
-      <c r="D182" t="s">
+      <c r="G182" s="3" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="183" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A183" t="s">
+        <v>380</v>
+      </c>
+      <c r="B183" t="s">
+        <v>16</v>
+      </c>
+      <c r="C183" t="s">
+        <v>662</v>
+      </c>
+      <c r="D183" t="s">
         <v>45</v>
       </c>
-      <c r="E182">
+      <c r="E183">
         <v>1</v>
       </c>
-      <c r="F182">
+      <c r="F183">
         <f t="shared" si="10"/>
         <v>60</v>
       </c>
-      <c r="G182" s="3" t="s">
-        <v>670</v>
-      </c>
-    </row>
-    <row r="183" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A183" t="s">
-        <v>384</v>
-      </c>
-      <c r="B183" t="s">
-        <v>16</v>
-      </c>
-      <c r="C183" t="s">
-        <v>537</v>
-      </c>
-      <c r="D183" t="s">
+      <c r="G183" s="3" t="s">
+        <v>663</v>
+      </c>
+    </row>
+    <row r="184" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A184" t="s">
+        <v>381</v>
+      </c>
+      <c r="B184" t="s">
+        <v>16</v>
+      </c>
+      <c r="C184" t="s">
+        <v>533</v>
+      </c>
+      <c r="D184" t="s">
         <v>45</v>
       </c>
-      <c r="E183">
+      <c r="E184">
         <v>0.73</v>
       </c>
-      <c r="F183">
+      <c r="F184">
         <f t="shared" si="10"/>
         <v>43.8</v>
       </c>
-      <c r="G183" s="3" t="s">
-        <v>538</v>
-      </c>
-    </row>
-    <row r="184" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A184" t="s">
-        <v>385</v>
-      </c>
-      <c r="B184" t="s">
-        <v>16</v>
-      </c>
-      <c r="C184" t="s">
-        <v>671</v>
-      </c>
-      <c r="D184" t="s">
-        <v>672</v>
-      </c>
-      <c r="E184">
+      <c r="G184" s="3" t="s">
+        <v>534</v>
+      </c>
+    </row>
+    <row r="185" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A185" t="s">
+        <v>382</v>
+      </c>
+      <c r="B185" t="s">
+        <v>16</v>
+      </c>
+      <c r="C185" t="s">
+        <v>664</v>
+      </c>
+      <c r="D185" t="s">
+        <v>665</v>
+      </c>
+      <c r="E185">
         <v>3.8</v>
       </c>
-      <c r="F184">
+      <c r="F185">
         <f t="shared" si="10"/>
         <v>228</v>
       </c>
-      <c r="G184" s="3" t="s">
-        <v>673</v>
-      </c>
-    </row>
-    <row r="185" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A185" t="s">
-        <v>386</v>
-      </c>
-      <c r="B185" t="s">
-        <v>16</v>
-      </c>
-      <c r="C185" t="s">
-        <v>436</v>
-      </c>
-      <c r="D185" t="s">
+      <c r="G185" s="3" t="s">
+        <v>666</v>
+      </c>
+    </row>
+    <row r="186" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A186" t="s">
+        <v>383</v>
+      </c>
+      <c r="B186" t="s">
+        <v>16</v>
+      </c>
+      <c r="C186" t="s">
+        <v>432</v>
+      </c>
+      <c r="D186" t="s">
         <v>45</v>
       </c>
-      <c r="E185">
+      <c r="E186">
         <v>2.08</v>
       </c>
-      <c r="F185">
+      <c r="F186">
         <f t="shared" si="10"/>
         <v>124.80000000000001</v>
       </c>
-      <c r="G185" s="3" t="s">
-        <v>437</v>
-      </c>
-    </row>
-    <row r="186" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A186" t="s">
-        <v>387</v>
-      </c>
-      <c r="B186" t="s">
-        <v>16</v>
-      </c>
-      <c r="C186" t="s">
-        <v>674</v>
-      </c>
-      <c r="D186" t="s">
+      <c r="G186" s="3" t="s">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="187" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A187" t="s">
+        <v>384</v>
+      </c>
+      <c r="B187" t="s">
+        <v>16</v>
+      </c>
+      <c r="C187" t="s">
+        <v>667</v>
+      </c>
+      <c r="D187" t="s">
         <v>42</v>
       </c>
-      <c r="E186">
+      <c r="E187">
         <v>0.39500000000000002</v>
       </c>
-      <c r="F186">
+      <c r="F187">
         <f t="shared" si="10"/>
         <v>23.700000000000003</v>
       </c>
-      <c r="G186" s="3" t="s">
-        <v>675</v>
-      </c>
-    </row>
-    <row r="187" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A187" t="s">
-        <v>388</v>
-      </c>
-      <c r="B187" t="s">
-        <v>16</v>
-      </c>
-      <c r="C187" t="s">
-        <v>627</v>
-      </c>
-      <c r="D187" t="s">
+      <c r="G187" s="3" t="s">
+        <v>668</v>
+      </c>
+    </row>
+    <row r="188" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A188" t="s">
+        <v>385</v>
+      </c>
+      <c r="B188" t="s">
+        <v>16</v>
+      </c>
+      <c r="C188" t="s">
+        <v>620</v>
+      </c>
+      <c r="D188" t="s">
         <v>40</v>
       </c>
-      <c r="E187">
+      <c r="E188">
         <v>29.1</v>
       </c>
-      <c r="F187">
+      <c r="F188">
         <f t="shared" si="10"/>
         <v>1746</v>
       </c>
-      <c r="G187" s="3" t="s">
-        <v>628</v>
-      </c>
-    </row>
-    <row r="188" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A188" t="s">
+      <c r="G188" s="3" t="s">
+        <v>621</v>
+      </c>
+    </row>
+    <row r="189" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A189" t="s">
         <v>26</v>
       </c>
-      <c r="B188" t="s">
+      <c r="B189" t="s">
         <v>38</v>
       </c>
-      <c r="C188" t="s">
+      <c r="C189" t="s">
         <v>86</v>
       </c>
-      <c r="D188" t="s">
+      <c r="D189" t="s">
         <v>45</v>
       </c>
-      <c r="E188">
+      <c r="E189">
         <v>11</v>
       </c>
-      <c r="F188">
+      <c r="F189">
         <f t="shared" si="0"/>
         <v>660</v>
       </c>
-      <c r="G188" s="3" t="s">
+      <c r="G189" s="3" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="189" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A189" t="s">
+    <row r="190" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A190" t="s">
         <v>27</v>
       </c>
-      <c r="B189" t="s">
+      <c r="B190" t="s">
         <v>38</v>
       </c>
-      <c r="C189" t="s">
+      <c r="C190" t="s">
         <v>89</v>
       </c>
-      <c r="D189" t="s">
+      <c r="D190" t="s">
         <v>88</v>
       </c>
-      <c r="E189">
+      <c r="E190">
         <v>0.127</v>
       </c>
-      <c r="F189">
+      <c r="F190">
         <f t="shared" si="0"/>
         <v>7.62</v>
       </c>
-      <c r="G189" s="3" t="s">
+      <c r="G190" s="3" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="190" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A190" t="s">
+    <row r="191" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A191" t="s">
         <v>28</v>
       </c>
-      <c r="B190" t="s">
+      <c r="B191" t="s">
         <v>38</v>
       </c>
-      <c r="C190" t="s">
+      <c r="C191" t="s">
         <v>92</v>
       </c>
-      <c r="D190" t="s">
+      <c r="D191" t="s">
         <v>91</v>
       </c>
-      <c r="E190">
+      <c r="E191">
         <v>6.13</v>
       </c>
-      <c r="F190">
+      <c r="F191">
         <f t="shared" si="0"/>
         <v>367.8</v>
       </c>
-      <c r="G190" s="3" t="s">
+      <c r="G191" s="3" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="191" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A191" t="s">
+    <row r="192" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A192" t="s">
         <v>29</v>
       </c>
-      <c r="B191" t="s">
+      <c r="B192" t="s">
         <v>38</v>
       </c>
-      <c r="C191" t="s">
+      <c r="C192" t="s">
         <v>94</v>
       </c>
-      <c r="D191" t="s">
+      <c r="D192" t="s">
         <v>45</v>
       </c>
-      <c r="E191">
+      <c r="E192">
         <v>31</v>
       </c>
-      <c r="F191">
+      <c r="F192">
         <f t="shared" si="0"/>
         <v>1860</v>
       </c>
-      <c r="G191" s="3" t="s">
+      <c r="G192" s="3" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="192" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A192" t="s">
+    <row r="193" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A193" t="s">
         <v>30</v>
       </c>
-      <c r="B192" t="s">
+      <c r="B193" t="s">
         <v>38</v>
       </c>
-      <c r="C192" t="s">
+      <c r="C193" t="s">
         <v>97</v>
       </c>
-      <c r="D192" t="s">
+      <c r="D193" t="s">
         <v>96</v>
       </c>
-      <c r="E192">
+      <c r="E193">
         <v>252</v>
       </c>
-      <c r="F192">
+      <c r="F193">
         <f t="shared" si="0"/>
         <v>15120</v>
       </c>
-      <c r="G192" s="3" t="s">
+      <c r="G193" s="3" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="193" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A193" t="s">
+    <row r="194" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A194" t="s">
         <v>31</v>
       </c>
-      <c r="B193" t="s">
+      <c r="B194" t="s">
         <v>38</v>
       </c>
-      <c r="C193" t="s">
+      <c r="C194" t="s">
         <v>100</v>
       </c>
-      <c r="D193" t="s">
+      <c r="D194" t="s">
         <v>99</v>
       </c>
-      <c r="E193">
+      <c r="E194">
         <v>22.1</v>
       </c>
-      <c r="F193">
+      <c r="F194">
         <f t="shared" si="0"/>
         <v>1326</v>
       </c>
-      <c r="G193" s="3" t="s">
+      <c r="G194" s="3" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="194" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A194" t="s">
+    <row r="195" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A195" t="s">
         <v>32</v>
       </c>
-      <c r="B194" t="s">
+      <c r="B195" t="s">
         <v>38</v>
       </c>
-      <c r="C194" t="s">
+      <c r="C195" t="s">
         <v>102</v>
       </c>
-      <c r="D194" t="s">
+      <c r="D195" t="s">
         <v>40</v>
       </c>
-      <c r="E194">
+      <c r="E195">
         <v>3.9E-2</v>
       </c>
-      <c r="F194">
+      <c r="F195">
         <f t="shared" si="0"/>
         <v>2.34</v>
       </c>
-      <c r="G194" s="3" t="s">
+      <c r="G195" s="3" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="195" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A195" t="s">
+    <row r="196" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A196" t="s">
         <v>33</v>
       </c>
-      <c r="B195" t="s">
+      <c r="B196" t="s">
         <v>38</v>
       </c>
-      <c r="C195" t="s">
+      <c r="C196" t="s">
         <v>104</v>
       </c>
-      <c r="D195" t="s">
+      <c r="D196" t="s">
         <v>45</v>
       </c>
-      <c r="E195">
+      <c r="E196">
         <v>450</v>
       </c>
-      <c r="F195">
+      <c r="F196">
         <f t="shared" si="0"/>
         <v>27000</v>
       </c>
-      <c r="G195" s="3" t="s">
+      <c r="G196" s="3" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="196" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A196" t="s">
+    <row r="197" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A197" t="s">
         <v>34</v>
       </c>
-      <c r="B196" t="s">
+      <c r="B197" t="s">
         <v>38</v>
       </c>
-      <c r="C196" t="s">
+      <c r="C197" t="s">
         <v>47</v>
       </c>
-      <c r="D196" t="s">
+      <c r="D197" t="s">
         <v>45</v>
       </c>
-      <c r="E196">
+      <c r="E197">
         <v>182</v>
       </c>
-      <c r="F196">
+      <c r="F197">
         <f t="shared" si="0"/>
         <v>10920</v>
       </c>
-      <c r="G196" s="3" t="s">
+      <c r="G197" s="3" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="197" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A197" t="s">
+    <row r="198" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A198" t="s">
         <v>35</v>
       </c>
-      <c r="B197" t="s">
+      <c r="B198" t="s">
         <v>38</v>
       </c>
-      <c r="C197" t="s">
+      <c r="C198" t="s">
         <v>41</v>
       </c>
-      <c r="D197" t="s">
+      <c r="D198" t="s">
         <v>88</v>
       </c>
-      <c r="E197">
+      <c r="E198">
         <v>345</v>
       </c>
-      <c r="F197">
+      <c r="F198">
         <f t="shared" si="0"/>
         <v>20700</v>
       </c>
-      <c r="G197" s="3" t="s">
+      <c r="G198" s="3" t="s">
         <v>106</v>
-      </c>
-    </row>
-    <row r="198" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A198" t="s">
-        <v>36</v>
-      </c>
-      <c r="B198" t="s">
-        <v>38</v>
-      </c>
-      <c r="C198" t="s">
-        <v>43</v>
-      </c>
-      <c r="D198" t="s">
-        <v>45</v>
-      </c>
-      <c r="E198">
-        <v>170</v>
-      </c>
-      <c r="F198">
-        <f t="shared" si="0"/>
-        <v>10200</v>
-      </c>
-      <c r="G198" s="3" t="s">
-        <v>46</v>
       </c>
     </row>
     <row r="199" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A199" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B199" t="s">
-        <v>16</v>
+        <v>38</v>
       </c>
       <c r="C199" t="s">
         <v>43</v>
@@ -7195,73 +7216,73 @@
     </row>
     <row r="200" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A200" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="B200" t="s">
         <v>16</v>
       </c>
       <c r="C200" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="D200" t="s">
         <v>45</v>
       </c>
       <c r="E200">
-        <v>182</v>
+        <v>170</v>
       </c>
       <c r="F200">
         <f t="shared" si="0"/>
-        <v>10920</v>
+        <v>10200</v>
       </c>
       <c r="G200" s="3" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="201" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A201" t="s">
-        <v>161</v>
+        <v>44</v>
       </c>
       <c r="B201" t="s">
-        <v>38</v>
+        <v>16</v>
       </c>
       <c r="C201" t="s">
-        <v>176</v>
+        <v>47</v>
       </c>
       <c r="D201" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="E201">
-        <v>40</v>
+        <v>182</v>
       </c>
       <c r="F201">
         <f t="shared" si="0"/>
-        <v>2400</v>
+        <v>10920</v>
       </c>
       <c r="G201" s="3" t="s">
-        <v>175</v>
+        <v>48</v>
       </c>
     </row>
     <row r="202" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A202" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="B202" t="s">
         <v>38</v>
       </c>
       <c r="C202" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="D202" t="s">
-        <v>88</v>
+        <v>42</v>
       </c>
       <c r="E202">
-        <v>0.84</v>
+        <v>40</v>
       </c>
       <c r="F202">
         <f t="shared" si="0"/>
-        <v>50.4</v>
-      </c>
-      <c r="G202" s="5" t="s">
+        <v>2400</v>
+      </c>
+      <c r="G202" s="3" t="s">
         <v>174</v>
       </c>
     </row>
@@ -7276,652 +7297,652 @@
         <v>172</v>
       </c>
       <c r="D203" t="s">
-        <v>42</v>
+        <v>88</v>
       </c>
       <c r="E203">
-        <v>0.55000000000000004</v>
+        <v>0.84</v>
       </c>
       <c r="F203">
         <f t="shared" si="0"/>
-        <v>33</v>
-      </c>
-      <c r="G203" s="6" t="s">
-        <v>171</v>
+        <v>50.4</v>
+      </c>
+      <c r="G203" s="5" t="s">
+        <v>173</v>
       </c>
     </row>
     <row r="204" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A204" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="B204" t="s">
         <v>38</v>
       </c>
       <c r="C204" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="D204" t="s">
         <v>42</v>
       </c>
       <c r="E204">
-        <v>7.1</v>
+        <v>0.55000000000000004</v>
       </c>
       <c r="F204">
         <f t="shared" si="0"/>
-        <v>426</v>
+        <v>33</v>
       </c>
       <c r="G204" s="6" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="205" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A205" t="s">
-        <v>182</v>
+        <v>163</v>
       </c>
       <c r="B205" t="s">
         <v>38</v>
       </c>
       <c r="C205" t="s">
-        <v>186</v>
+        <v>169</v>
       </c>
       <c r="D205" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="E205">
-        <v>2300</v>
+        <v>7.1</v>
       </c>
       <c r="F205">
         <f t="shared" si="0"/>
-        <v>138000</v>
+        <v>426</v>
       </c>
       <c r="G205" s="6" t="s">
-        <v>187</v>
+        <v>170</v>
       </c>
     </row>
     <row r="206" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A206" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="B206" t="s">
         <v>38</v>
       </c>
       <c r="C206" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="D206" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="E206">
-        <v>0.22800000000000001</v>
+        <v>2300</v>
       </c>
       <c r="F206">
         <f t="shared" si="0"/>
-        <v>13.68</v>
+        <v>138000</v>
       </c>
       <c r="G206" s="6" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
     </row>
     <row r="207" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A207" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="B207" t="s">
         <v>38</v>
       </c>
       <c r="C207" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="D207" t="s">
         <v>45</v>
       </c>
       <c r="E207">
-        <v>38.6</v>
+        <v>0.22800000000000001</v>
       </c>
       <c r="F207">
         <f t="shared" si="0"/>
-        <v>2316</v>
+        <v>13.68</v>
       </c>
       <c r="G207" s="6" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
     </row>
     <row r="208" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A208" t="s">
-        <v>212</v>
+        <v>183</v>
       </c>
       <c r="B208" t="s">
         <v>38</v>
       </c>
       <c r="C208" t="s">
-        <v>213</v>
+        <v>189</v>
       </c>
       <c r="D208" t="s">
-        <v>88</v>
+        <v>45</v>
       </c>
       <c r="E208">
-        <v>28.3</v>
+        <v>38.6</v>
       </c>
       <c r="F208">
         <f t="shared" si="0"/>
-        <v>1698</v>
+        <v>2316</v>
       </c>
       <c r="G208" s="6" t="s">
-        <v>214</v>
+        <v>190</v>
       </c>
     </row>
     <row r="209" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A209" t="s">
-        <v>215</v>
+        <v>210</v>
       </c>
       <c r="B209" t="s">
         <v>38</v>
       </c>
       <c r="C209" t="s">
-        <v>216</v>
+        <v>211</v>
       </c>
       <c r="D209" t="s">
-        <v>45</v>
+        <v>88</v>
       </c>
       <c r="E209">
-        <v>5.7999999999999996E-3</v>
+        <v>28.3</v>
       </c>
       <c r="F209">
         <f t="shared" si="0"/>
-        <v>0.34799999999999998</v>
+        <v>1698</v>
       </c>
       <c r="G209" s="6" t="s">
-        <v>217</v>
+        <v>212</v>
       </c>
     </row>
     <row r="210" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A210" t="s">
-        <v>218</v>
+        <v>213</v>
       </c>
       <c r="B210" t="s">
         <v>38</v>
       </c>
       <c r="C210" t="s">
-        <v>219</v>
+        <v>214</v>
       </c>
       <c r="D210" t="s">
-        <v>88</v>
+        <v>45</v>
       </c>
       <c r="E210">
-        <v>0.185</v>
+        <v>5.7999999999999996E-3</v>
       </c>
       <c r="F210">
         <f t="shared" si="0"/>
-        <v>11.1</v>
+        <v>0.34799999999999998</v>
       </c>
       <c r="G210" s="6" t="s">
-        <v>220</v>
+        <v>215</v>
       </c>
     </row>
     <row r="211" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A211" t="s">
-        <v>224</v>
+        <v>216</v>
       </c>
       <c r="B211" t="s">
         <v>38</v>
       </c>
       <c r="C211" t="s">
-        <v>225</v>
+        <v>217</v>
       </c>
       <c r="D211" t="s">
         <v>88</v>
       </c>
       <c r="E211">
-        <v>133</v>
+        <v>0.185</v>
       </c>
       <c r="F211">
         <f t="shared" si="0"/>
-        <v>7980</v>
+        <v>11.1</v>
       </c>
       <c r="G211" s="6" t="s">
-        <v>226</v>
+        <v>218</v>
       </c>
     </row>
     <row r="212" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A212" t="s">
-        <v>227</v>
+        <v>222</v>
       </c>
       <c r="B212" t="s">
         <v>38</v>
       </c>
       <c r="C212" t="s">
-        <v>228</v>
+        <v>223</v>
       </c>
       <c r="D212" t="s">
-        <v>45</v>
+        <v>88</v>
       </c>
       <c r="E212">
-        <v>2.2999999999999998</v>
+        <v>133</v>
       </c>
       <c r="F212">
         <f t="shared" si="0"/>
-        <v>138</v>
+        <v>7980</v>
       </c>
       <c r="G212" s="6" t="s">
-        <v>229</v>
+        <v>224</v>
       </c>
     </row>
     <row r="213" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A213" t="s">
-        <v>231</v>
+        <v>225</v>
       </c>
       <c r="B213" t="s">
         <v>38</v>
       </c>
       <c r="C213" t="s">
-        <v>230</v>
+        <v>226</v>
       </c>
       <c r="D213" t="s">
         <v>45</v>
       </c>
       <c r="E213">
-        <v>1334</v>
+        <v>2.2999999999999998</v>
       </c>
       <c r="F213">
         <f t="shared" si="0"/>
-        <v>80040</v>
+        <v>138</v>
       </c>
       <c r="G213" s="6" t="s">
-        <v>232</v>
+        <v>227</v>
       </c>
     </row>
     <row r="214" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A214" t="s">
-        <v>233</v>
+        <v>229</v>
       </c>
       <c r="B214" t="s">
         <v>38</v>
       </c>
       <c r="C214" t="s">
-        <v>234</v>
+        <v>228</v>
       </c>
       <c r="D214" t="s">
         <v>45</v>
       </c>
       <c r="E214">
-        <v>220</v>
+        <v>1334</v>
       </c>
       <c r="F214">
         <f t="shared" si="0"/>
-        <v>13200</v>
+        <v>80040</v>
       </c>
       <c r="G214" s="6" t="s">
-        <v>235</v>
+        <v>230</v>
       </c>
     </row>
     <row r="215" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A215" t="s">
-        <v>236</v>
+        <v>231</v>
       </c>
       <c r="B215" t="s">
         <v>38</v>
       </c>
       <c r="C215" t="s">
-        <v>237</v>
+        <v>232</v>
       </c>
       <c r="D215" t="s">
         <v>45</v>
       </c>
       <c r="E215">
-        <v>58.2</v>
+        <v>220</v>
       </c>
       <c r="F215">
         <f t="shared" si="0"/>
-        <v>3492</v>
+        <v>13200</v>
       </c>
       <c r="G215" s="6" t="s">
-        <v>238</v>
+        <v>233</v>
       </c>
     </row>
     <row r="216" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A216" t="s">
-        <v>389</v>
+        <v>234</v>
       </c>
       <c r="B216" t="s">
         <v>38</v>
       </c>
       <c r="C216" t="s">
-        <v>539</v>
+        <v>235</v>
       </c>
       <c r="D216" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="E216">
-        <v>13.9</v>
+        <v>58.2</v>
       </c>
       <c r="F216">
         <f t="shared" si="0"/>
-        <v>834</v>
-      </c>
-      <c r="G216" s="3" t="s">
-        <v>540</v>
+        <v>3492</v>
+      </c>
+      <c r="G216" s="6" t="s">
+        <v>236</v>
       </c>
     </row>
     <row r="217" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A217" t="s">
-        <v>390</v>
+        <v>386</v>
       </c>
       <c r="B217" t="s">
         <v>38</v>
       </c>
       <c r="C217" t="s">
-        <v>541</v>
+        <v>535</v>
       </c>
       <c r="D217" t="s">
         <v>40</v>
       </c>
       <c r="E217">
-        <v>3.9</v>
+        <v>13.9</v>
       </c>
       <c r="F217">
         <f t="shared" si="0"/>
-        <v>234</v>
+        <v>834</v>
       </c>
       <c r="G217" s="3" t="s">
-        <v>542</v>
+        <v>536</v>
       </c>
     </row>
     <row r="218" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A218" t="s">
-        <v>391</v>
+        <v>387</v>
       </c>
       <c r="B218" t="s">
         <v>38</v>
       </c>
       <c r="C218" t="s">
-        <v>547</v>
+        <v>537</v>
       </c>
       <c r="D218" t="s">
         <v>40</v>
       </c>
       <c r="E218">
-        <v>430</v>
+        <v>3.9</v>
       </c>
       <c r="F218">
         <f t="shared" si="0"/>
-        <v>25800</v>
+        <v>234</v>
       </c>
       <c r="G218" s="3" t="s">
-        <v>548</v>
+        <v>538</v>
       </c>
     </row>
     <row r="219" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A219" t="s">
-        <v>392</v>
+        <v>388</v>
       </c>
       <c r="B219" t="s">
         <v>38</v>
       </c>
       <c r="C219" t="s">
-        <v>549</v>
+        <v>543</v>
       </c>
       <c r="D219" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="E219">
-        <v>26.4</v>
+        <v>430</v>
       </c>
       <c r="F219">
         <f t="shared" si="0"/>
-        <v>1584</v>
+        <v>25800</v>
       </c>
       <c r="G219" s="3" t="s">
-        <v>550</v>
+        <v>544</v>
       </c>
     </row>
     <row r="220" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A220" t="s">
-        <v>393</v>
+        <v>389</v>
       </c>
       <c r="B220" t="s">
         <v>38</v>
       </c>
       <c r="C220" t="s">
-        <v>551</v>
+        <v>545</v>
       </c>
       <c r="D220" t="s">
-        <v>88</v>
+        <v>45</v>
       </c>
       <c r="E220">
-        <v>19.899999999999999</v>
+        <v>26.4</v>
       </c>
       <c r="F220">
-        <f>E220*60</f>
-        <v>1194</v>
+        <f t="shared" si="0"/>
+        <v>1584</v>
       </c>
       <c r="G220" s="3" t="s">
-        <v>552</v>
+        <v>546</v>
       </c>
     </row>
     <row r="221" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A221" t="s">
-        <v>394</v>
+        <v>390</v>
       </c>
       <c r="B221" t="s">
         <v>38</v>
       </c>
       <c r="C221" t="s">
-        <v>545</v>
+        <v>547</v>
       </c>
       <c r="D221" t="s">
-        <v>45</v>
+        <v>88</v>
       </c>
       <c r="E221">
-        <v>7</v>
+        <v>19.899999999999999</v>
       </c>
       <c r="F221">
-        <f t="shared" ref="F221:F237" si="11">E221*60</f>
-        <v>420</v>
+        <f>E221*60</f>
+        <v>1194</v>
       </c>
       <c r="G221" s="3" t="s">
-        <v>546</v>
+        <v>548</v>
       </c>
     </row>
     <row r="222" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A222" t="s">
-        <v>395</v>
+        <v>391</v>
       </c>
       <c r="B222" t="s">
         <v>38</v>
       </c>
       <c r="C222" t="s">
-        <v>543</v>
+        <v>541</v>
       </c>
       <c r="D222" t="s">
         <v>45</v>
       </c>
       <c r="E222">
+        <v>7</v>
+      </c>
+      <c r="F222">
+        <f t="shared" ref="F222:F237" si="11">E222*60</f>
+        <v>420</v>
+      </c>
+      <c r="G222" s="3" t="s">
+        <v>542</v>
+      </c>
+    </row>
+    <row r="223" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A223" t="s">
+        <v>392</v>
+      </c>
+      <c r="B223" t="s">
+        <v>38</v>
+      </c>
+      <c r="C223" t="s">
+        <v>539</v>
+      </c>
+      <c r="D223" t="s">
+        <v>45</v>
+      </c>
+      <c r="E223">
         <v>2.9</v>
       </c>
-      <c r="F222">
+      <c r="F223">
         <f t="shared" si="11"/>
         <v>174</v>
       </c>
-      <c r="G222" s="3" t="s">
-        <v>544</v>
-      </c>
-    </row>
-    <row r="223" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A223" t="s">
-        <v>396</v>
-      </c>
-      <c r="B223" t="s">
+      <c r="G223" s="3" t="s">
+        <v>540</v>
+      </c>
+    </row>
+    <row r="224" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A224" t="s">
+        <v>393</v>
+      </c>
+      <c r="B224" t="s">
         <v>38</v>
       </c>
-      <c r="C223" t="s">
-        <v>468</v>
-      </c>
-      <c r="D223" t="s">
+      <c r="C224" t="s">
+        <v>464</v>
+      </c>
+      <c r="D224" t="s">
         <v>88</v>
       </c>
-      <c r="E223">
+      <c r="E224">
         <v>3.3</v>
       </c>
-      <c r="F223">
+      <c r="F224">
         <f t="shared" si="11"/>
         <v>198</v>
       </c>
-      <c r="G223" s="3" t="s">
-        <v>469</v>
-      </c>
-    </row>
-    <row r="224" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A224" t="s">
-        <v>397</v>
-      </c>
-      <c r="B224" t="s">
+      <c r="G224" s="3" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="225" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A225" t="s">
+        <v>394</v>
+      </c>
+      <c r="B225" t="s">
         <v>38</v>
       </c>
-      <c r="C224" t="s">
-        <v>553</v>
-      </c>
-      <c r="D224" t="s">
+      <c r="C225" t="s">
+        <v>549</v>
+      </c>
+      <c r="D225" t="s">
         <v>40</v>
       </c>
-      <c r="E224">
+      <c r="E225">
         <v>24.9</v>
       </c>
-      <c r="F224">
+      <c r="F225">
         <f t="shared" si="11"/>
         <v>1494</v>
       </c>
-      <c r="G224" s="3" t="s">
-        <v>554</v>
-      </c>
-    </row>
-    <row r="225" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A225" t="s">
-        <v>398</v>
-      </c>
-      <c r="B225" t="s">
+      <c r="G225" s="3" t="s">
+        <v>550</v>
+      </c>
+    </row>
+    <row r="226" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A226" t="s">
+        <v>395</v>
+      </c>
+      <c r="B226" t="s">
         <v>38</v>
       </c>
-      <c r="C225" t="s">
+      <c r="C226" t="s">
         <v>43</v>
       </c>
-      <c r="D225" t="s">
+      <c r="D226" t="s">
         <v>45</v>
       </c>
-      <c r="E225">
+      <c r="E226">
         <v>170</v>
       </c>
-      <c r="F225">
+      <c r="F226">
         <f t="shared" si="11"/>
         <v>10200</v>
       </c>
-      <c r="G225" s="3" t="s">
+      <c r="G226" s="3" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="226" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A226" t="s">
-        <v>399</v>
-      </c>
-      <c r="B226" t="s">
+    <row r="227" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A227" t="s">
+        <v>396</v>
+      </c>
+      <c r="B227" t="s">
         <v>38</v>
       </c>
-      <c r="C226" t="s">
-        <v>484</v>
-      </c>
-      <c r="D226" t="s">
+      <c r="C227" t="s">
+        <v>480</v>
+      </c>
+      <c r="D227" t="s">
         <v>40</v>
       </c>
-      <c r="E226">
+      <c r="E227">
         <v>5.5</v>
       </c>
-      <c r="F226">
+      <c r="F227">
         <f t="shared" si="11"/>
         <v>330</v>
       </c>
-      <c r="G226" s="3" t="s">
-        <v>485</v>
-      </c>
-    </row>
-    <row r="227" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A227" t="s">
-        <v>400</v>
-      </c>
-      <c r="B227" t="s">
+      <c r="G227" s="3" t="s">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="228" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A228" t="s">
+        <v>397</v>
+      </c>
+      <c r="B228" t="s">
         <v>38</v>
       </c>
-      <c r="C227" t="s">
-        <v>555</v>
-      </c>
-      <c r="D227" t="s">
-        <v>210</v>
-      </c>
-      <c r="E227">
+      <c r="C228" t="s">
+        <v>551</v>
+      </c>
+      <c r="D228" t="s">
+        <v>209</v>
+      </c>
+      <c r="E228">
         <v>26.8</v>
       </c>
-      <c r="F227">
+      <c r="F228">
         <f t="shared" si="11"/>
         <v>1608</v>
       </c>
-      <c r="G227" s="3" t="s">
-        <v>556</v>
-      </c>
-    </row>
-    <row r="228" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A228" t="s">
-        <v>401</v>
-      </c>
-      <c r="B228" t="s">
+      <c r="G228" s="3" t="s">
+        <v>552</v>
+      </c>
+    </row>
+    <row r="229" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A229" t="s">
+        <v>398</v>
+      </c>
+      <c r="B229" t="s">
         <v>38</v>
       </c>
-      <c r="C228" t="s">
-        <v>557</v>
-      </c>
-      <c r="D228" t="s">
+      <c r="C229" t="s">
+        <v>553</v>
+      </c>
+      <c r="D229" t="s">
         <v>40</v>
       </c>
-      <c r="E228">
+      <c r="E229">
         <v>1.5</v>
       </c>
-      <c r="F228">
+      <c r="F229">
         <f t="shared" si="11"/>
         <v>90</v>
       </c>
-      <c r="G228" s="3" t="s">
-        <v>558</v>
-      </c>
-    </row>
-    <row r="229" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A229" t="s">
-        <v>402</v>
-      </c>
-      <c r="B229" t="s">
-        <v>38</v>
-      </c>
-      <c r="C229" t="s">
-        <v>559</v>
-      </c>
-      <c r="D229" t="s">
-        <v>560</v>
-      </c>
-      <c r="E229">
-        <v>0.45</v>
-      </c>
-      <c r="F229">
-        <f t="shared" si="11"/>
-        <v>27</v>
-      </c>
       <c r="G229" s="3" t="s">
-        <v>561</v>
+        <v>554</v>
       </c>
     </row>
     <row r="230" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A230" t="s">
-        <v>403</v>
+        <v>399</v>
       </c>
       <c r="B230" t="s">
         <v>38</v>
       </c>
       <c r="C230" t="s">
-        <v>541</v>
+        <v>537</v>
       </c>
       <c r="D230" t="s">
         <v>40</v>
@@ -7934,18 +7955,18 @@
         <v>234</v>
       </c>
       <c r="G230" s="3" t="s">
-        <v>542</v>
+        <v>538</v>
       </c>
     </row>
     <row r="231" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A231" t="s">
-        <v>404</v>
+        <v>400</v>
       </c>
       <c r="B231" t="s">
         <v>38</v>
       </c>
       <c r="C231" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="D231" t="s">
         <v>42</v>
@@ -7958,21 +7979,21 @@
         <v>426</v>
       </c>
       <c r="G231" s="4" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="232" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A232" t="s">
-        <v>405</v>
+        <v>401</v>
       </c>
       <c r="B232" t="s">
         <v>38</v>
       </c>
       <c r="C232" t="s">
-        <v>562</v>
+        <v>555</v>
       </c>
       <c r="D232" t="s">
-        <v>439</v>
+        <v>435</v>
       </c>
       <c r="E232">
         <v>410</v>
@@ -7982,18 +8003,18 @@
         <v>24600</v>
       </c>
       <c r="G232" s="3" t="s">
-        <v>563</v>
+        <v>556</v>
       </c>
     </row>
     <row r="233" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A233" t="s">
-        <v>406</v>
+        <v>402</v>
       </c>
       <c r="B233" t="s">
         <v>38</v>
       </c>
       <c r="C233" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="D233" t="s">
         <v>40</v>
@@ -8006,18 +8027,18 @@
         <v>358.25924192793639</v>
       </c>
       <c r="G233" s="3" t="s">
-        <v>564</v>
+        <v>557</v>
       </c>
     </row>
     <row r="234" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A234" t="s">
-        <v>407</v>
+        <v>403</v>
       </c>
       <c r="B234" t="s">
         <v>38</v>
       </c>
       <c r="C234" t="s">
-        <v>488</v>
+        <v>484</v>
       </c>
       <c r="D234" t="s">
         <v>88</v>
@@ -8030,18 +8051,18 @@
         <v>491.99999999999994</v>
       </c>
       <c r="G234" s="3" t="s">
-        <v>489</v>
+        <v>485</v>
       </c>
     </row>
     <row r="235" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A235" t="s">
-        <v>408</v>
+        <v>404</v>
       </c>
       <c r="B235" t="s">
         <v>38</v>
       </c>
       <c r="C235" t="s">
-        <v>565</v>
+        <v>558</v>
       </c>
       <c r="D235" t="s">
         <v>76</v>
@@ -8054,18 +8075,18 @@
         <v>64.800000000000011</v>
       </c>
       <c r="G235" s="3" t="s">
-        <v>566</v>
+        <v>559</v>
       </c>
     </row>
     <row r="236" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A236" t="s">
-        <v>409</v>
+        <v>405</v>
       </c>
       <c r="B236" t="s">
         <v>38</v>
       </c>
       <c r="C236" t="s">
-        <v>464</v>
+        <v>460</v>
       </c>
       <c r="D236" t="s">
         <v>42</v>
@@ -8078,18 +8099,18 @@
         <v>12360</v>
       </c>
       <c r="G236" s="3" t="s">
-        <v>465</v>
+        <v>461</v>
       </c>
     </row>
     <row r="237" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A237" t="s">
-        <v>410</v>
+        <v>406</v>
       </c>
       <c r="B237" t="s">
         <v>38</v>
       </c>
       <c r="C237" t="s">
-        <v>567</v>
+        <v>560</v>
       </c>
       <c r="D237" t="s">
         <v>88</v>
@@ -8102,18 +8123,18 @@
         <v>109.80000000000001</v>
       </c>
       <c r="G237" s="3" t="s">
-        <v>568</v>
+        <v>561</v>
       </c>
     </row>
     <row r="238" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A238" t="s">
-        <v>411</v>
+        <v>407</v>
       </c>
       <c r="B238" t="s">
         <v>38</v>
       </c>
       <c r="C238" t="s">
-        <v>484</v>
+        <v>480</v>
       </c>
       <c r="D238" t="s">
         <v>40</v>
@@ -8126,18 +8147,18 @@
         <v>330</v>
       </c>
       <c r="G238" s="3" t="s">
-        <v>485</v>
+        <v>481</v>
       </c>
     </row>
     <row r="239" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A239" t="s">
-        <v>412</v>
+        <v>408</v>
       </c>
       <c r="B239" t="s">
         <v>38</v>
       </c>
       <c r="C239" t="s">
-        <v>569</v>
+        <v>562</v>
       </c>
       <c r="D239" t="s">
         <v>45</v>
@@ -8150,18 +8171,18 @@
         <v>336</v>
       </c>
       <c r="G239" s="3" t="s">
-        <v>570</v>
+        <v>563</v>
       </c>
     </row>
     <row r="240" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A240" t="s">
-        <v>413</v>
+        <v>409</v>
       </c>
       <c r="B240" t="s">
         <v>38</v>
       </c>
       <c r="C240" t="s">
-        <v>565</v>
+        <v>558</v>
       </c>
       <c r="D240" t="s">
         <v>76</v>
@@ -8174,18 +8195,18 @@
         <v>64.800000000000011</v>
       </c>
       <c r="G240" s="3" t="s">
-        <v>566</v>
+        <v>559</v>
       </c>
     </row>
     <row r="241" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A241" t="s">
-        <v>414</v>
+        <v>410</v>
       </c>
       <c r="B241" t="s">
         <v>38</v>
       </c>
       <c r="C241" t="s">
-        <v>484</v>
+        <v>480</v>
       </c>
       <c r="D241" t="s">
         <v>40</v>
@@ -8198,18 +8219,18 @@
         <v>330</v>
       </c>
       <c r="G241" s="3" t="s">
-        <v>485</v>
+        <v>481</v>
       </c>
     </row>
     <row r="242" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A242" t="s">
-        <v>415</v>
+        <v>411</v>
       </c>
       <c r="B242" t="s">
         <v>38</v>
       </c>
       <c r="C242" t="s">
-        <v>571</v>
+        <v>564</v>
       </c>
       <c r="D242" t="s">
         <v>40</v>
@@ -8222,18 +8243,18 @@
         <v>702</v>
       </c>
       <c r="G242" s="3" t="s">
-        <v>572</v>
+        <v>565</v>
       </c>
     </row>
     <row r="243" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A243" t="s">
-        <v>416</v>
+        <v>412</v>
       </c>
       <c r="B243" t="s">
         <v>38</v>
       </c>
       <c r="C243" t="s">
-        <v>484</v>
+        <v>480</v>
       </c>
       <c r="D243" t="s">
         <v>40</v>
@@ -8246,18 +8267,18 @@
         <v>330</v>
       </c>
       <c r="G243" s="3" t="s">
-        <v>485</v>
+        <v>481</v>
       </c>
     </row>
     <row r="244" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A244" t="s">
-        <v>417</v>
+        <v>413</v>
       </c>
       <c r="B244" t="s">
         <v>38</v>
       </c>
       <c r="C244" t="s">
-        <v>573</v>
+        <v>566</v>
       </c>
       <c r="D244" t="s">
         <v>45</v>
@@ -8270,18 +8291,18 @@
         <v>318</v>
       </c>
       <c r="G244" s="3" t="s">
-        <v>574</v>
+        <v>567</v>
       </c>
     </row>
     <row r="245" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A245" t="s">
-        <v>418</v>
+        <v>414</v>
       </c>
       <c r="B245" t="s">
         <v>38</v>
       </c>
       <c r="C245" t="s">
-        <v>575</v>
+        <v>568</v>
       </c>
       <c r="D245" t="s">
         <v>40</v>
@@ -8294,18 +8315,18 @@
         <v>3108</v>
       </c>
       <c r="G245" s="3" t="s">
-        <v>576</v>
+        <v>569</v>
       </c>
     </row>
     <row r="246" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A246" t="s">
-        <v>419</v>
+        <v>415</v>
       </c>
       <c r="B246" t="s">
         <v>38</v>
       </c>
       <c r="C246" t="s">
-        <v>484</v>
+        <v>480</v>
       </c>
       <c r="D246" t="s">
         <v>40</v>
@@ -8318,18 +8339,18 @@
         <v>330</v>
       </c>
       <c r="G246" s="3" t="s">
-        <v>485</v>
+        <v>481</v>
       </c>
     </row>
     <row r="247" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A247" t="s">
-        <v>420</v>
+        <v>416</v>
       </c>
       <c r="B247" t="s">
         <v>38</v>
       </c>
       <c r="C247" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="D247" t="s">
         <v>88</v>
@@ -8342,18 +8363,18 @@
         <v>1626</v>
       </c>
       <c r="G247" s="3" t="s">
-        <v>581</v>
+        <v>574</v>
       </c>
     </row>
     <row r="248" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A248" t="s">
-        <v>421</v>
+        <v>417</v>
       </c>
       <c r="B248" t="s">
         <v>38</v>
       </c>
       <c r="C248" t="s">
-        <v>582</v>
+        <v>575</v>
       </c>
       <c r="D248" t="s">
         <v>40</v>
@@ -8366,18 +8387,18 @@
         <v>156</v>
       </c>
       <c r="G248" s="3" t="s">
-        <v>583</v>
+        <v>576</v>
       </c>
     </row>
     <row r="249" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A249" t="s">
-        <v>422</v>
+        <v>418</v>
       </c>
       <c r="B249" t="s">
         <v>38</v>
       </c>
       <c r="C249" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="D249" t="s">
         <v>42</v>
@@ -8390,21 +8411,21 @@
         <v>426</v>
       </c>
       <c r="G249" s="4" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="250" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A250" t="s">
-        <v>423</v>
+        <v>419</v>
       </c>
       <c r="B250" t="s">
         <v>38</v>
       </c>
       <c r="C250" t="s">
-        <v>438</v>
+        <v>434</v>
       </c>
       <c r="D250" t="s">
-        <v>439</v>
+        <v>435</v>
       </c>
       <c r="E250">
         <v>7.3</v>
@@ -8414,18 +8435,18 @@
         <v>438</v>
       </c>
       <c r="G250" s="3" t="s">
-        <v>440</v>
+        <v>436</v>
       </c>
     </row>
     <row r="251" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A251" t="s">
-        <v>424</v>
+        <v>420</v>
       </c>
       <c r="B251" t="s">
         <v>38</v>
       </c>
       <c r="C251" t="s">
-        <v>579</v>
+        <v>572</v>
       </c>
       <c r="D251" t="s">
         <v>88</v>
@@ -8438,18 +8459,18 @@
         <v>378</v>
       </c>
       <c r="G251" s="3" t="s">
-        <v>580</v>
+        <v>573</v>
       </c>
     </row>
     <row r="252" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A252" t="s">
-        <v>425</v>
+        <v>421</v>
       </c>
       <c r="B252" t="s">
         <v>38</v>
       </c>
       <c r="C252" t="s">
-        <v>577</v>
+        <v>570</v>
       </c>
       <c r="D252" t="s">
         <v>88</v>
@@ -8462,18 +8483,18 @@
         <v>112.2</v>
       </c>
       <c r="G252" s="3" t="s">
-        <v>578</v>
+        <v>571</v>
       </c>
     </row>
     <row r="253" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A253" t="s">
-        <v>426</v>
+        <v>422</v>
       </c>
       <c r="B253" t="s">
         <v>38</v>
       </c>
       <c r="C253" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="D253" t="s">
         <v>40</v>
@@ -8486,18 +8507,18 @@
         <v>1920</v>
       </c>
       <c r="G253" s="3" t="s">
-        <v>459</v>
+        <v>455</v>
       </c>
     </row>
     <row r="254" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A254" t="s">
-        <v>427</v>
+        <v>423</v>
       </c>
       <c r="B254" t="s">
         <v>38</v>
       </c>
       <c r="C254" t="s">
-        <v>428</v>
+        <v>424</v>
       </c>
       <c r="D254" t="s">
         <v>45</v>
@@ -8510,126 +8531,223 @@
         <v>13260</v>
       </c>
       <c r="G254" s="3" t="s">
-        <v>429</v>
+        <v>425</v>
       </c>
     </row>
     <row r="255" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A255" t="s">
-        <v>156</v>
+        <v>672</v>
       </c>
       <c r="B255" t="s">
         <v>38</v>
       </c>
       <c r="C255" t="s">
-        <v>158</v>
+        <v>682</v>
       </c>
       <c r="D255" t="s">
         <v>45</v>
       </c>
       <c r="E255">
-        <v>7.5</v>
+        <v>53</v>
       </c>
       <c r="F255">
         <f t="shared" si="0"/>
-        <v>450</v>
+        <v>3180</v>
       </c>
       <c r="G255" s="3" t="s">
-        <v>159</v>
+        <v>683</v>
       </c>
     </row>
     <row r="256" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A256" t="s">
-        <v>157</v>
+        <v>673</v>
       </c>
       <c r="B256" t="s">
         <v>38</v>
       </c>
       <c r="C256" t="s">
-        <v>158</v>
+        <v>676</v>
       </c>
       <c r="D256" t="s">
-        <v>45</v>
+        <v>88</v>
       </c>
       <c r="E256">
-        <v>7.5</v>
+        <v>8400</v>
       </c>
       <c r="F256">
         <f t="shared" si="0"/>
-        <v>450</v>
+        <v>504000</v>
       </c>
       <c r="G256" s="3" t="s">
-        <v>159</v>
+        <v>677</v>
       </c>
     </row>
     <row r="257" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A257" t="s">
-        <v>160</v>
+        <v>674</v>
       </c>
       <c r="B257" t="s">
-        <v>16</v>
+        <v>38</v>
       </c>
       <c r="C257" t="s">
-        <v>109</v>
+        <v>678</v>
       </c>
       <c r="D257" t="s">
-        <v>109</v>
-      </c>
-      <c r="E257" t="s">
-        <v>109</v>
+        <v>40</v>
+      </c>
+      <c r="E257">
+        <v>67.400000000000006</v>
       </c>
       <c r="F257">
-        <v>100</v>
-      </c>
-      <c r="G257" s="2" t="s">
-        <v>114</v>
+        <f t="shared" si="0"/>
+        <v>4044.0000000000005</v>
+      </c>
+      <c r="G257" s="3" t="s">
+        <v>679</v>
       </c>
     </row>
     <row r="258" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A258" t="s">
-        <v>117</v>
+        <v>675</v>
       </c>
       <c r="B258" t="s">
-        <v>16</v>
+        <v>38</v>
       </c>
       <c r="C258" t="s">
+        <v>680</v>
+      </c>
+      <c r="D258" t="s">
+        <v>681</v>
+      </c>
+      <c r="E258">
+        <v>6.61</v>
+      </c>
+      <c r="F258">
+        <f t="shared" si="0"/>
+        <v>396.6</v>
+      </c>
+      <c r="G258" s="3" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="259" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A259" t="s">
+        <v>155</v>
+      </c>
+      <c r="B259" t="s">
+        <v>38</v>
+      </c>
+      <c r="C259" t="s">
+        <v>157</v>
+      </c>
+      <c r="D259" t="s">
+        <v>45</v>
+      </c>
+      <c r="E259">
+        <v>7.5</v>
+      </c>
+      <c r="F259">
+        <f t="shared" si="0"/>
+        <v>450</v>
+      </c>
+      <c r="G259" s="3" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="260" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A260" t="s">
+        <v>156</v>
+      </c>
+      <c r="B260" t="s">
+        <v>38</v>
+      </c>
+      <c r="C260" t="s">
+        <v>157</v>
+      </c>
+      <c r="D260" t="s">
+        <v>45</v>
+      </c>
+      <c r="E260">
+        <v>7.5</v>
+      </c>
+      <c r="F260">
+        <f t="shared" si="0"/>
+        <v>450</v>
+      </c>
+      <c r="G260" s="3" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="261" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A261" t="s">
+        <v>159</v>
+      </c>
+      <c r="B261" t="s">
+        <v>16</v>
+      </c>
+      <c r="C261" t="s">
         <v>109</v>
       </c>
-      <c r="D258" t="s">
+      <c r="D261" t="s">
         <v>109</v>
       </c>
-      <c r="E258" t="s">
+      <c r="E261" t="s">
         <v>109</v>
       </c>
-      <c r="F258">
+      <c r="F261">
+        <v>100</v>
+      </c>
+      <c r="G261" s="2" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="262" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A262" t="s">
+        <v>116</v>
+      </c>
+      <c r="B262" t="s">
+        <v>16</v>
+      </c>
+      <c r="C262" t="s">
+        <v>109</v>
+      </c>
+      <c r="D262" t="s">
+        <v>109</v>
+      </c>
+      <c r="E262" t="s">
+        <v>109</v>
+      </c>
+      <c r="F262">
         <v>50</v>
       </c>
-      <c r="G258" s="2" t="s">
+      <c r="G262" s="2" t="s">
         <v>114</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="G20" r:id="rId1" xr:uid="{60D2E9C6-9172-4D4D-B418-CC567356E033}"/>
+    <hyperlink ref="G22" r:id="rId1" xr:uid="{60D2E9C6-9172-4D4D-B418-CC567356E033}"/>
     <hyperlink ref="G2" r:id="rId2" xr:uid="{96642BA6-12F8-4451-8DFA-16265959FEFA}"/>
-    <hyperlink ref="G204" r:id="rId3" xr:uid="{DBD518FF-06AA-4F59-B32D-3D580FD3488C}"/>
-    <hyperlink ref="G203" r:id="rId4" xr:uid="{3C873BD8-C205-4B23-B8F2-C8E28D105704}"/>
-    <hyperlink ref="G30" r:id="rId5" xr:uid="{3CCDC09F-65EC-46AB-A5B6-06698DF90FD6}"/>
-    <hyperlink ref="G31" r:id="rId6" xr:uid="{45B7FFC2-C775-45F6-B5E2-92E39C1EFAC1}"/>
-    <hyperlink ref="G34" r:id="rId7" xr:uid="{C0F23788-2A31-4EA5-B6D6-A12E3C45A7E7}"/>
-    <hyperlink ref="G45" r:id="rId8" xr:uid="{E16DED46-B1DD-492F-AAE6-8FA6CA99D4AD}"/>
-    <hyperlink ref="G66" r:id="rId9" xr:uid="{8712DF9D-4B59-405A-AA32-2B4423750FF0}"/>
-    <hyperlink ref="G77" r:id="rId10" xr:uid="{6C3143F8-EECE-493B-A808-BC8B1FB906E4}"/>
-    <hyperlink ref="G82" r:id="rId11" xr:uid="{5F7C4001-6F89-479B-983C-BDB24868961F}"/>
-    <hyperlink ref="G88" r:id="rId12" xr:uid="{B65497F5-375F-4E2A-86C4-B4310250B40D}"/>
+    <hyperlink ref="G205" r:id="rId3" xr:uid="{DBD518FF-06AA-4F59-B32D-3D580FD3488C}"/>
+    <hyperlink ref="G204" r:id="rId4" xr:uid="{3C873BD8-C205-4B23-B8F2-C8E28D105704}"/>
+    <hyperlink ref="G32" r:id="rId5" xr:uid="{3CCDC09F-65EC-46AB-A5B6-06698DF90FD6}"/>
+    <hyperlink ref="G33" r:id="rId6" xr:uid="{45B7FFC2-C775-45F6-B5E2-92E39C1EFAC1}"/>
+    <hyperlink ref="G36" r:id="rId7" xr:uid="{C0F23788-2A31-4EA5-B6D6-A12E3C45A7E7}"/>
+    <hyperlink ref="G47" r:id="rId8" xr:uid="{E16DED46-B1DD-492F-AAE6-8FA6CA99D4AD}"/>
+    <hyperlink ref="G68" r:id="rId9" xr:uid="{8712DF9D-4B59-405A-AA32-2B4423750FF0}"/>
+    <hyperlink ref="G78" r:id="rId10" xr:uid="{6C3143F8-EECE-493B-A808-BC8B1FB906E4}"/>
+    <hyperlink ref="G83" r:id="rId11" xr:uid="{5F7C4001-6F89-479B-983C-BDB24868961F}"/>
+    <hyperlink ref="G89" r:id="rId12" xr:uid="{B65497F5-375F-4E2A-86C4-B4310250B40D}"/>
     <hyperlink ref="G231" r:id="rId13" xr:uid="{B850A642-752F-4050-BE9D-FD6DEF1A1A28}"/>
     <hyperlink ref="G249" r:id="rId14" xr:uid="{733CCEAC-FE6D-4E5A-890C-C556E3FD7098}"/>
-    <hyperlink ref="G122" r:id="rId15" xr:uid="{3ACF0FFB-BCF3-4FD6-9FD5-CA9D90101625}"/>
-    <hyperlink ref="G169" r:id="rId16" xr:uid="{1167C813-88FC-4ED1-BAC3-35562E39F6B3}"/>
-    <hyperlink ref="G141" r:id="rId17" xr:uid="{0AC60904-9B6C-42FC-A0D6-DCDFCFACCDB7}"/>
-    <hyperlink ref="G178" r:id="rId18" xr:uid="{87D8A670-02D9-4006-B7CD-DC020E2EACEF}"/>
+    <hyperlink ref="G123" r:id="rId15" xr:uid="{3ACF0FFB-BCF3-4FD6-9FD5-CA9D90101625}"/>
+    <hyperlink ref="G170" r:id="rId16" xr:uid="{1167C813-88FC-4ED1-BAC3-35562E39F6B3}"/>
+    <hyperlink ref="G142" r:id="rId17" xr:uid="{0AC60904-9B6C-42FC-A0D6-DCDFCFACCDB7}"/>
+    <hyperlink ref="G179" r:id="rId18" xr:uid="{87D8A670-02D9-4006-B7CD-DC020E2EACEF}"/>
+    <hyperlink ref="G19" r:id="rId19" xr:uid="{7DAABD84-8696-4ABA-AB3E-8DD3400DB458}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId19"/>
+  <pageSetup orientation="portrait" r:id="rId20"/>
 </worksheet>
 </file>
 
@@ -8651,10 +8769,10 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C1" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="D1" t="s">
         <v>3</v>
@@ -8668,281 +8786,281 @@
         <v>30</v>
       </c>
       <c r="C2" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D2" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B3">
         <v>0.29499999999999998</v>
       </c>
       <c r="C3" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D3" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B4">
         <v>0.11600000000000001</v>
       </c>
       <c r="C4" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D4" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B5">
         <v>6.8599999999999994E-2</v>
       </c>
       <c r="C5" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D5" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B6">
         <v>0.23599999999999999</v>
       </c>
       <c r="C6" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D6" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B7">
         <v>0.12</v>
       </c>
       <c r="C7" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D7" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B8">
         <v>0.97799999999999998</v>
       </c>
       <c r="C8" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D8" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B9">
         <v>2.5100000000000001E-2</v>
       </c>
       <c r="C9" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D9" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B10">
         <v>1.6400000000000001E-2</v>
       </c>
       <c r="C10" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D10" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B11">
         <v>0.123</v>
       </c>
       <c r="C11" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D11" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B12">
         <v>4.7199999999999999E-2</v>
       </c>
       <c r="C12" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D12" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B13">
         <v>1.1000000000000001</v>
       </c>
       <c r="C13" t="s">
+        <v>139</v>
+      </c>
+      <c r="D13" t="s">
         <v>140</v>
-      </c>
-      <c r="D13" t="s">
-        <v>141</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B14">
         <v>2.15</v>
       </c>
       <c r="C14" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D14" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B15">
         <v>1.2699999999999999E-2</v>
       </c>
       <c r="C15" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D15" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B16">
         <v>0.109</v>
       </c>
       <c r="C16" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D16" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B17">
         <v>2.6440000000000001</v>
       </c>
       <c r="C17" t="s">
+        <v>146</v>
+      </c>
+      <c r="D17" t="s">
         <v>147</v>
-      </c>
-      <c r="D17" t="s">
-        <v>148</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B18">
         <v>0.02</v>
       </c>
       <c r="C18" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D18" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B19">
         <v>1.4200000000000001E-2</v>
       </c>
       <c r="C19" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D19" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B20">
         <v>0.12</v>
       </c>
       <c r="C20" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="D20" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B21">
         <v>2.1399999999999999E-2</v>
       </c>
       <c r="C21" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D21" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B22">
         <v>0.43</v>
@@ -8951,7 +9069,7 @@
         <v>109</v>
       </c>
       <c r="D22" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
   </sheetData>

--- a/data/gems/Parameters.xlsx
+++ b/data/gems/Parameters.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bras5181\Desktop\Labprojects\CulturedMeat\iSusS\data\gems\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4C54FB45-0285-44AF-8923-8C0D48ED66A9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4C27A557-45C9-4584-814B-4CDABE5E11A0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1387" uniqueCount="684">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1412" uniqueCount="702">
   <si>
     <t>Rxn</t>
   </si>
@@ -2089,6 +2089,60 @@
   </si>
   <si>
     <t>PMID: 5922965</t>
+  </si>
+  <si>
+    <t>GLYCLm</t>
+  </si>
+  <si>
+    <t>ASPCT</t>
+  </si>
+  <si>
+    <t>DHORTS</t>
+  </si>
+  <si>
+    <t>DHORD_NAD</t>
+  </si>
+  <si>
+    <t>ORPT</t>
+  </si>
+  <si>
+    <t>1.4.4.2</t>
+  </si>
+  <si>
+    <t>PMID: 7440562</t>
+  </si>
+  <si>
+    <t>2.1.3.2</t>
+  </si>
+  <si>
+    <t>Drosophila melanogaster</t>
+  </si>
+  <si>
+    <t>DOI: 10.1111/j.1432-1033.1978.tb12404.x</t>
+  </si>
+  <si>
+    <t>3.5.2.3</t>
+  </si>
+  <si>
+    <t>Cricetinae</t>
+  </si>
+  <si>
+    <t>DOI: 10.1016/s0076-6879(78)51020-3</t>
+  </si>
+  <si>
+    <t>1.3.1.14</t>
+  </si>
+  <si>
+    <t>Lactococcus lactis</t>
+  </si>
+  <si>
+    <t>DOI: 10.1128/jb.176.13.3975-3982.1994</t>
+  </si>
+  <si>
+    <t>2.4.2.10</t>
+  </si>
+  <si>
+    <t>DOI: 10.1021/bi00561a024</t>
   </si>
 </sst>
 </file>
@@ -2435,10 +2489,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G262"/>
+  <dimension ref="A1:G267"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L10" sqref="L10"/>
+    <sheetView tabSelected="1" topLeftCell="A181" workbookViewId="0">
+      <selection activeCell="M197" sqref="M197"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2671,7 +2725,7 @@
         <v>620</v>
       </c>
       <c r="F10">
-        <f t="shared" ref="F10:F260" si="0">E10*60</f>
+        <f t="shared" ref="F10:F265" si="0">E10*60</f>
         <v>37200</v>
       </c>
       <c r="G10" s="3" t="s">
@@ -6511,7 +6565,7 @@
         <v>68.3</v>
       </c>
       <c r="F170">
-        <f t="shared" ref="F170:F188" si="10">E170*60</f>
+        <f t="shared" ref="F170:F192" si="10">E170*60</f>
         <v>4098</v>
       </c>
       <c r="G170" s="1" t="s">
@@ -6952,298 +7006,298 @@
     </row>
     <row r="189" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A189" t="s">
+        <v>685</v>
+      </c>
+      <c r="B189" t="s">
+        <v>16</v>
+      </c>
+      <c r="C189" t="s">
+        <v>691</v>
+      </c>
+      <c r="D189" t="s">
+        <v>692</v>
+      </c>
+      <c r="E189">
+        <v>0.68</v>
+      </c>
+      <c r="F189">
+        <f t="shared" si="10"/>
+        <v>40.800000000000004</v>
+      </c>
+      <c r="G189" s="3" t="s">
+        <v>693</v>
+      </c>
+    </row>
+    <row r="190" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A190" t="s">
+        <v>686</v>
+      </c>
+      <c r="B190" t="s">
+        <v>16</v>
+      </c>
+      <c r="C190" t="s">
+        <v>694</v>
+      </c>
+      <c r="D190" t="s">
+        <v>695</v>
+      </c>
+      <c r="E190">
+        <v>2.66</v>
+      </c>
+      <c r="F190">
+        <f t="shared" si="10"/>
+        <v>159.60000000000002</v>
+      </c>
+      <c r="G190" s="3" t="s">
+        <v>696</v>
+      </c>
+    </row>
+    <row r="191" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A191" t="s">
+        <v>687</v>
+      </c>
+      <c r="B191" t="s">
+        <v>16</v>
+      </c>
+      <c r="C191" t="s">
+        <v>697</v>
+      </c>
+      <c r="D191" t="s">
+        <v>698</v>
+      </c>
+      <c r="E191">
+        <v>0.05</v>
+      </c>
+      <c r="F191">
+        <f t="shared" si="10"/>
+        <v>3</v>
+      </c>
+      <c r="G191" s="3" t="s">
+        <v>699</v>
+      </c>
+    </row>
+    <row r="192" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A192" t="s">
+        <v>688</v>
+      </c>
+      <c r="B192" t="s">
+        <v>16</v>
+      </c>
+      <c r="C192" t="s">
+        <v>700</v>
+      </c>
+      <c r="D192" t="s">
+        <v>209</v>
+      </c>
+      <c r="E192">
+        <v>0.69</v>
+      </c>
+      <c r="F192">
+        <f t="shared" si="10"/>
+        <v>41.4</v>
+      </c>
+      <c r="G192" s="3" t="s">
+        <v>701</v>
+      </c>
+    </row>
+    <row r="193" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A193" t="s">
         <v>26</v>
       </c>
-      <c r="B189" t="s">
+      <c r="B193" t="s">
         <v>38</v>
       </c>
-      <c r="C189" t="s">
+      <c r="C193" t="s">
         <v>86</v>
       </c>
-      <c r="D189" t="s">
+      <c r="D193" t="s">
         <v>45</v>
       </c>
-      <c r="E189">
+      <c r="E193">
         <v>11</v>
       </c>
-      <c r="F189">
+      <c r="F193">
         <f t="shared" si="0"/>
         <v>660</v>
       </c>
-      <c r="G189" s="3" t="s">
+      <c r="G193" s="3" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="190" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A190" t="s">
+    <row r="194" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A194" t="s">
         <v>27</v>
       </c>
-      <c r="B190" t="s">
+      <c r="B194" t="s">
         <v>38</v>
       </c>
-      <c r="C190" t="s">
+      <c r="C194" t="s">
         <v>89</v>
       </c>
-      <c r="D190" t="s">
+      <c r="D194" t="s">
         <v>88</v>
       </c>
-      <c r="E190">
+      <c r="E194">
         <v>0.127</v>
       </c>
-      <c r="F190">
+      <c r="F194">
         <f t="shared" si="0"/>
         <v>7.62</v>
       </c>
-      <c r="G190" s="3" t="s">
+      <c r="G194" s="3" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="191" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A191" t="s">
+    <row r="195" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A195" t="s">
         <v>28</v>
       </c>
-      <c r="B191" t="s">
+      <c r="B195" t="s">
         <v>38</v>
       </c>
-      <c r="C191" t="s">
+      <c r="C195" t="s">
         <v>92</v>
       </c>
-      <c r="D191" t="s">
+      <c r="D195" t="s">
         <v>91</v>
       </c>
-      <c r="E191">
+      <c r="E195">
         <v>6.13</v>
       </c>
-      <c r="F191">
+      <c r="F195">
         <f t="shared" si="0"/>
         <v>367.8</v>
       </c>
-      <c r="G191" s="3" t="s">
+      <c r="G195" s="3" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="192" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A192" t="s">
+    <row r="196" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A196" t="s">
         <v>29</v>
       </c>
-      <c r="B192" t="s">
+      <c r="B196" t="s">
         <v>38</v>
       </c>
-      <c r="C192" t="s">
+      <c r="C196" t="s">
         <v>94</v>
       </c>
-      <c r="D192" t="s">
+      <c r="D196" t="s">
         <v>45</v>
       </c>
-      <c r="E192">
+      <c r="E196">
         <v>31</v>
       </c>
-      <c r="F192">
+      <c r="F196">
         <f t="shared" si="0"/>
         <v>1860</v>
       </c>
-      <c r="G192" s="3" t="s">
+      <c r="G196" s="3" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="193" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A193" t="s">
+    <row r="197" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A197" t="s">
         <v>30</v>
       </c>
-      <c r="B193" t="s">
+      <c r="B197" t="s">
         <v>38</v>
       </c>
-      <c r="C193" t="s">
+      <c r="C197" t="s">
         <v>97</v>
       </c>
-      <c r="D193" t="s">
+      <c r="D197" t="s">
         <v>96</v>
       </c>
-      <c r="E193">
+      <c r="E197">
         <v>252</v>
       </c>
-      <c r="F193">
+      <c r="F197">
         <f t="shared" si="0"/>
         <v>15120</v>
       </c>
-      <c r="G193" s="3" t="s">
+      <c r="G197" s="3" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="194" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A194" t="s">
+    <row r="198" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A198" t="s">
         <v>31</v>
       </c>
-      <c r="B194" t="s">
+      <c r="B198" t="s">
         <v>38</v>
       </c>
-      <c r="C194" t="s">
+      <c r="C198" t="s">
         <v>100</v>
       </c>
-      <c r="D194" t="s">
+      <c r="D198" t="s">
         <v>99</v>
       </c>
-      <c r="E194">
+      <c r="E198">
         <v>22.1</v>
       </c>
-      <c r="F194">
+      <c r="F198">
         <f t="shared" si="0"/>
         <v>1326</v>
       </c>
-      <c r="G194" s="3" t="s">
+      <c r="G198" s="3" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="195" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A195" t="s">
+    <row r="199" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A199" t="s">
         <v>32</v>
       </c>
-      <c r="B195" t="s">
+      <c r="B199" t="s">
         <v>38</v>
       </c>
-      <c r="C195" t="s">
+      <c r="C199" t="s">
         <v>102</v>
       </c>
-      <c r="D195" t="s">
+      <c r="D199" t="s">
         <v>40</v>
       </c>
-      <c r="E195">
+      <c r="E199">
         <v>3.9E-2</v>
       </c>
-      <c r="F195">
+      <c r="F199">
         <f t="shared" si="0"/>
         <v>2.34</v>
       </c>
-      <c r="G195" s="3" t="s">
+      <c r="G199" s="3" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="196" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A196" t="s">
+    <row r="200" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A200" t="s">
         <v>33</v>
       </c>
-      <c r="B196" t="s">
+      <c r="B200" t="s">
         <v>38</v>
       </c>
-      <c r="C196" t="s">
+      <c r="C200" t="s">
         <v>104</v>
       </c>
-      <c r="D196" t="s">
+      <c r="D200" t="s">
         <v>45</v>
       </c>
-      <c r="E196">
+      <c r="E200">
         <v>450</v>
       </c>
-      <c r="F196">
+      <c r="F200">
         <f t="shared" si="0"/>
         <v>27000</v>
       </c>
-      <c r="G196" s="3" t="s">
+      <c r="G200" s="3" t="s">
         <v>105</v>
-      </c>
-    </row>
-    <row r="197" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A197" t="s">
-        <v>34</v>
-      </c>
-      <c r="B197" t="s">
-        <v>38</v>
-      </c>
-      <c r="C197" t="s">
-        <v>47</v>
-      </c>
-      <c r="D197" t="s">
-        <v>45</v>
-      </c>
-      <c r="E197">
-        <v>182</v>
-      </c>
-      <c r="F197">
-        <f t="shared" si="0"/>
-        <v>10920</v>
-      </c>
-      <c r="G197" s="3" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="198" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A198" t="s">
-        <v>35</v>
-      </c>
-      <c r="B198" t="s">
-        <v>38</v>
-      </c>
-      <c r="C198" t="s">
-        <v>41</v>
-      </c>
-      <c r="D198" t="s">
-        <v>88</v>
-      </c>
-      <c r="E198">
-        <v>345</v>
-      </c>
-      <c r="F198">
-        <f t="shared" si="0"/>
-        <v>20700</v>
-      </c>
-      <c r="G198" s="3" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="199" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A199" t="s">
-        <v>36</v>
-      </c>
-      <c r="B199" t="s">
-        <v>38</v>
-      </c>
-      <c r="C199" t="s">
-        <v>43</v>
-      </c>
-      <c r="D199" t="s">
-        <v>45</v>
-      </c>
-      <c r="E199">
-        <v>170</v>
-      </c>
-      <c r="F199">
-        <f t="shared" si="0"/>
-        <v>10200</v>
-      </c>
-      <c r="G199" s="3" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="200" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A200" t="s">
-        <v>37</v>
-      </c>
-      <c r="B200" t="s">
-        <v>16</v>
-      </c>
-      <c r="C200" t="s">
-        <v>43</v>
-      </c>
-      <c r="D200" t="s">
-        <v>45</v>
-      </c>
-      <c r="E200">
-        <v>170</v>
-      </c>
-      <c r="F200">
-        <f t="shared" si="0"/>
-        <v>10200</v>
-      </c>
-      <c r="G200" s="3" t="s">
-        <v>46</v>
       </c>
     </row>
     <row r="201" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A201" t="s">
-        <v>44</v>
+        <v>34</v>
       </c>
       <c r="B201" t="s">
-        <v>16</v>
+        <v>38</v>
       </c>
       <c r="C201" t="s">
         <v>47</v>
@@ -7264,1463 +7318,1583 @@
     </row>
     <row r="202" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A202" t="s">
-        <v>160</v>
+        <v>35</v>
       </c>
       <c r="B202" t="s">
         <v>38</v>
       </c>
       <c r="C202" t="s">
-        <v>175</v>
+        <v>41</v>
       </c>
       <c r="D202" t="s">
-        <v>42</v>
+        <v>88</v>
       </c>
       <c r="E202">
-        <v>40</v>
+        <v>345</v>
       </c>
       <c r="F202">
         <f t="shared" si="0"/>
-        <v>2400</v>
+        <v>20700</v>
       </c>
       <c r="G202" s="3" t="s">
-        <v>174</v>
+        <v>106</v>
       </c>
     </row>
     <row r="203" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A203" t="s">
-        <v>162</v>
+        <v>36</v>
       </c>
       <c r="B203" t="s">
         <v>38</v>
       </c>
       <c r="C203" t="s">
-        <v>172</v>
+        <v>43</v>
       </c>
       <c r="D203" t="s">
-        <v>88</v>
+        <v>45</v>
       </c>
       <c r="E203">
-        <v>0.84</v>
+        <v>170</v>
       </c>
       <c r="F203">
         <f t="shared" si="0"/>
-        <v>50.4</v>
-      </c>
-      <c r="G203" s="5" t="s">
-        <v>173</v>
+        <v>10200</v>
+      </c>
+      <c r="G203" s="3" t="s">
+        <v>46</v>
       </c>
     </row>
     <row r="204" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A204" t="s">
-        <v>161</v>
+        <v>37</v>
       </c>
       <c r="B204" t="s">
-        <v>38</v>
+        <v>16</v>
       </c>
       <c r="C204" t="s">
-        <v>171</v>
+        <v>43</v>
       </c>
       <c r="D204" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="E204">
-        <v>0.55000000000000004</v>
+        <v>170</v>
       </c>
       <c r="F204">
         <f t="shared" si="0"/>
-        <v>33</v>
-      </c>
-      <c r="G204" s="6" t="s">
-        <v>170</v>
+        <v>10200</v>
+      </c>
+      <c r="G204" s="3" t="s">
+        <v>46</v>
       </c>
     </row>
     <row r="205" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A205" t="s">
-        <v>163</v>
+        <v>44</v>
       </c>
       <c r="B205" t="s">
-        <v>38</v>
+        <v>16</v>
       </c>
       <c r="C205" t="s">
-        <v>169</v>
+        <v>47</v>
       </c>
       <c r="D205" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="E205">
-        <v>7.1</v>
+        <v>182</v>
       </c>
       <c r="F205">
         <f t="shared" si="0"/>
-        <v>426</v>
-      </c>
-      <c r="G205" s="6" t="s">
-        <v>170</v>
+        <v>10920</v>
+      </c>
+      <c r="G205" s="3" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="206" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A206" t="s">
-        <v>181</v>
+        <v>160</v>
       </c>
       <c r="B206" t="s">
         <v>38</v>
       </c>
       <c r="C206" t="s">
-        <v>185</v>
+        <v>175</v>
       </c>
       <c r="D206" t="s">
+        <v>42</v>
+      </c>
+      <c r="E206">
         <v>40</v>
-      </c>
-      <c r="E206">
-        <v>2300</v>
       </c>
       <c r="F206">
         <f t="shared" si="0"/>
-        <v>138000</v>
-      </c>
-      <c r="G206" s="6" t="s">
-        <v>186</v>
+        <v>2400</v>
+      </c>
+      <c r="G206" s="3" t="s">
+        <v>174</v>
       </c>
     </row>
     <row r="207" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A207" t="s">
-        <v>182</v>
+        <v>162</v>
       </c>
       <c r="B207" t="s">
         <v>38</v>
       </c>
       <c r="C207" t="s">
-        <v>187</v>
+        <v>172</v>
       </c>
       <c r="D207" t="s">
-        <v>45</v>
+        <v>88</v>
       </c>
       <c r="E207">
-        <v>0.22800000000000001</v>
+        <v>0.84</v>
       </c>
       <c r="F207">
         <f t="shared" si="0"/>
-        <v>13.68</v>
-      </c>
-      <c r="G207" s="6" t="s">
-        <v>188</v>
+        <v>50.4</v>
+      </c>
+      <c r="G207" s="5" t="s">
+        <v>173</v>
       </c>
     </row>
     <row r="208" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A208" t="s">
-        <v>183</v>
+        <v>161</v>
       </c>
       <c r="B208" t="s">
         <v>38</v>
       </c>
       <c r="C208" t="s">
-        <v>189</v>
+        <v>171</v>
       </c>
       <c r="D208" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="E208">
-        <v>38.6</v>
+        <v>0.55000000000000004</v>
       </c>
       <c r="F208">
         <f t="shared" si="0"/>
-        <v>2316</v>
+        <v>33</v>
       </c>
       <c r="G208" s="6" t="s">
-        <v>190</v>
+        <v>170</v>
       </c>
     </row>
     <row r="209" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A209" t="s">
-        <v>210</v>
+        <v>163</v>
       </c>
       <c r="B209" t="s">
         <v>38</v>
       </c>
       <c r="C209" t="s">
-        <v>211</v>
+        <v>169</v>
       </c>
       <c r="D209" t="s">
-        <v>88</v>
+        <v>42</v>
       </c>
       <c r="E209">
-        <v>28.3</v>
+        <v>7.1</v>
       </c>
       <c r="F209">
         <f t="shared" si="0"/>
-        <v>1698</v>
+        <v>426</v>
       </c>
       <c r="G209" s="6" t="s">
-        <v>212</v>
+        <v>170</v>
       </c>
     </row>
     <row r="210" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A210" t="s">
-        <v>213</v>
+        <v>181</v>
       </c>
       <c r="B210" t="s">
         <v>38</v>
       </c>
       <c r="C210" t="s">
-        <v>214</v>
+        <v>185</v>
       </c>
       <c r="D210" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="E210">
-        <v>5.7999999999999996E-3</v>
+        <v>2300</v>
       </c>
       <c r="F210">
         <f t="shared" si="0"/>
-        <v>0.34799999999999998</v>
+        <v>138000</v>
       </c>
       <c r="G210" s="6" t="s">
-        <v>215</v>
+        <v>186</v>
       </c>
     </row>
     <row r="211" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A211" t="s">
-        <v>216</v>
+        <v>182</v>
       </c>
       <c r="B211" t="s">
         <v>38</v>
       </c>
       <c r="C211" t="s">
-        <v>217</v>
+        <v>187</v>
       </c>
       <c r="D211" t="s">
-        <v>88</v>
+        <v>45</v>
       </c>
       <c r="E211">
-        <v>0.185</v>
+        <v>0.22800000000000001</v>
       </c>
       <c r="F211">
         <f t="shared" si="0"/>
-        <v>11.1</v>
+        <v>13.68</v>
       </c>
       <c r="G211" s="6" t="s">
-        <v>218</v>
+        <v>188</v>
       </c>
     </row>
     <row r="212" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A212" t="s">
-        <v>222</v>
+        <v>183</v>
       </c>
       <c r="B212" t="s">
         <v>38</v>
       </c>
       <c r="C212" t="s">
-        <v>223</v>
+        <v>189</v>
       </c>
       <c r="D212" t="s">
-        <v>88</v>
+        <v>45</v>
       </c>
       <c r="E212">
-        <v>133</v>
+        <v>38.6</v>
       </c>
       <c r="F212">
         <f t="shared" si="0"/>
-        <v>7980</v>
+        <v>2316</v>
       </c>
       <c r="G212" s="6" t="s">
-        <v>224</v>
+        <v>190</v>
       </c>
     </row>
     <row r="213" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A213" t="s">
-        <v>225</v>
+        <v>210</v>
       </c>
       <c r="B213" t="s">
         <v>38</v>
       </c>
       <c r="C213" t="s">
-        <v>226</v>
+        <v>211</v>
       </c>
       <c r="D213" t="s">
-        <v>45</v>
+        <v>88</v>
       </c>
       <c r="E213">
-        <v>2.2999999999999998</v>
+        <v>28.3</v>
       </c>
       <c r="F213">
         <f t="shared" si="0"/>
-        <v>138</v>
+        <v>1698</v>
       </c>
       <c r="G213" s="6" t="s">
-        <v>227</v>
+        <v>212</v>
       </c>
     </row>
     <row r="214" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A214" t="s">
-        <v>229</v>
+        <v>213</v>
       </c>
       <c r="B214" t="s">
         <v>38</v>
       </c>
       <c r="C214" t="s">
-        <v>228</v>
+        <v>214</v>
       </c>
       <c r="D214" t="s">
         <v>45</v>
       </c>
       <c r="E214">
-        <v>1334</v>
+        <v>5.7999999999999996E-3</v>
       </c>
       <c r="F214">
         <f t="shared" si="0"/>
-        <v>80040</v>
+        <v>0.34799999999999998</v>
       </c>
       <c r="G214" s="6" t="s">
-        <v>230</v>
+        <v>215</v>
       </c>
     </row>
     <row r="215" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A215" t="s">
-        <v>231</v>
+        <v>216</v>
       </c>
       <c r="B215" t="s">
         <v>38</v>
       </c>
       <c r="C215" t="s">
-        <v>232</v>
+        <v>217</v>
       </c>
       <c r="D215" t="s">
-        <v>45</v>
+        <v>88</v>
       </c>
       <c r="E215">
-        <v>220</v>
+        <v>0.185</v>
       </c>
       <c r="F215">
         <f t="shared" si="0"/>
-        <v>13200</v>
+        <v>11.1</v>
       </c>
       <c r="G215" s="6" t="s">
-        <v>233</v>
+        <v>218</v>
       </c>
     </row>
     <row r="216" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A216" t="s">
-        <v>234</v>
+        <v>222</v>
       </c>
       <c r="B216" t="s">
         <v>38</v>
       </c>
       <c r="C216" t="s">
-        <v>235</v>
+        <v>223</v>
       </c>
       <c r="D216" t="s">
-        <v>45</v>
+        <v>88</v>
       </c>
       <c r="E216">
-        <v>58.2</v>
+        <v>133</v>
       </c>
       <c r="F216">
         <f t="shared" si="0"/>
-        <v>3492</v>
+        <v>7980</v>
       </c>
       <c r="G216" s="6" t="s">
-        <v>236</v>
+        <v>224</v>
       </c>
     </row>
     <row r="217" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A217" t="s">
-        <v>386</v>
+        <v>225</v>
       </c>
       <c r="B217" t="s">
         <v>38</v>
       </c>
       <c r="C217" t="s">
-        <v>535</v>
+        <v>226</v>
       </c>
       <c r="D217" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="E217">
-        <v>13.9</v>
+        <v>2.2999999999999998</v>
       </c>
       <c r="F217">
         <f t="shared" si="0"/>
-        <v>834</v>
-      </c>
-      <c r="G217" s="3" t="s">
-        <v>536</v>
+        <v>138</v>
+      </c>
+      <c r="G217" s="6" t="s">
+        <v>227</v>
       </c>
     </row>
     <row r="218" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A218" t="s">
-        <v>387</v>
+        <v>229</v>
       </c>
       <c r="B218" t="s">
         <v>38</v>
       </c>
       <c r="C218" t="s">
-        <v>537</v>
+        <v>228</v>
       </c>
       <c r="D218" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="E218">
-        <v>3.9</v>
+        <v>1334</v>
       </c>
       <c r="F218">
         <f t="shared" si="0"/>
-        <v>234</v>
-      </c>
-      <c r="G218" s="3" t="s">
-        <v>538</v>
+        <v>80040</v>
+      </c>
+      <c r="G218" s="6" t="s">
+        <v>230</v>
       </c>
     </row>
     <row r="219" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A219" t="s">
-        <v>388</v>
+        <v>231</v>
       </c>
       <c r="B219" t="s">
         <v>38</v>
       </c>
       <c r="C219" t="s">
-        <v>543</v>
+        <v>232</v>
       </c>
       <c r="D219" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="E219">
-        <v>430</v>
+        <v>220</v>
       </c>
       <c r="F219">
         <f t="shared" si="0"/>
-        <v>25800</v>
-      </c>
-      <c r="G219" s="3" t="s">
-        <v>544</v>
+        <v>13200</v>
+      </c>
+      <c r="G219" s="6" t="s">
+        <v>233</v>
       </c>
     </row>
     <row r="220" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A220" t="s">
-        <v>389</v>
+        <v>234</v>
       </c>
       <c r="B220" t="s">
         <v>38</v>
       </c>
       <c r="C220" t="s">
-        <v>545</v>
+        <v>235</v>
       </c>
       <c r="D220" t="s">
         <v>45</v>
       </c>
       <c r="E220">
-        <v>26.4</v>
+        <v>58.2</v>
       </c>
       <c r="F220">
         <f t="shared" si="0"/>
-        <v>1584</v>
-      </c>
-      <c r="G220" s="3" t="s">
-        <v>546</v>
+        <v>3492</v>
+      </c>
+      <c r="G220" s="6" t="s">
+        <v>236</v>
       </c>
     </row>
     <row r="221" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A221" t="s">
-        <v>390</v>
+        <v>386</v>
       </c>
       <c r="B221" t="s">
         <v>38</v>
       </c>
       <c r="C221" t="s">
-        <v>547</v>
+        <v>535</v>
       </c>
       <c r="D221" t="s">
-        <v>88</v>
+        <v>40</v>
       </c>
       <c r="E221">
-        <v>19.899999999999999</v>
+        <v>13.9</v>
       </c>
       <c r="F221">
-        <f>E221*60</f>
-        <v>1194</v>
+        <f t="shared" si="0"/>
+        <v>834</v>
       </c>
       <c r="G221" s="3" t="s">
-        <v>548</v>
+        <v>536</v>
       </c>
     </row>
     <row r="222" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A222" t="s">
-        <v>391</v>
+        <v>387</v>
       </c>
       <c r="B222" t="s">
         <v>38</v>
       </c>
       <c r="C222" t="s">
-        <v>541</v>
+        <v>537</v>
       </c>
       <c r="D222" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="E222">
-        <v>7</v>
+        <v>3.9</v>
       </c>
       <c r="F222">
-        <f t="shared" ref="F222:F237" si="11">E222*60</f>
-        <v>420</v>
+        <f t="shared" si="0"/>
+        <v>234</v>
       </c>
       <c r="G222" s="3" t="s">
-        <v>542</v>
+        <v>538</v>
       </c>
     </row>
     <row r="223" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A223" t="s">
-        <v>392</v>
+        <v>388</v>
       </c>
       <c r="B223" t="s">
         <v>38</v>
       </c>
       <c r="C223" t="s">
+        <v>543</v>
+      </c>
+      <c r="D223" t="s">
+        <v>40</v>
+      </c>
+      <c r="E223">
+        <v>430</v>
+      </c>
+      <c r="F223">
+        <f t="shared" si="0"/>
+        <v>25800</v>
+      </c>
+      <c r="G223" s="3" t="s">
+        <v>544</v>
+      </c>
+    </row>
+    <row r="224" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A224" t="s">
+        <v>389</v>
+      </c>
+      <c r="B224" t="s">
+        <v>38</v>
+      </c>
+      <c r="C224" t="s">
+        <v>545</v>
+      </c>
+      <c r="D224" t="s">
+        <v>45</v>
+      </c>
+      <c r="E224">
+        <v>26.4</v>
+      </c>
+      <c r="F224">
+        <f t="shared" si="0"/>
+        <v>1584</v>
+      </c>
+      <c r="G224" s="3" t="s">
+        <v>546</v>
+      </c>
+    </row>
+    <row r="225" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A225" t="s">
+        <v>390</v>
+      </c>
+      <c r="B225" t="s">
+        <v>38</v>
+      </c>
+      <c r="C225" t="s">
+        <v>547</v>
+      </c>
+      <c r="D225" t="s">
+        <v>88</v>
+      </c>
+      <c r="E225">
+        <v>19.899999999999999</v>
+      </c>
+      <c r="F225">
+        <f>E225*60</f>
+        <v>1194</v>
+      </c>
+      <c r="G225" s="3" t="s">
+        <v>548</v>
+      </c>
+    </row>
+    <row r="226" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A226" t="s">
+        <v>391</v>
+      </c>
+      <c r="B226" t="s">
+        <v>38</v>
+      </c>
+      <c r="C226" t="s">
+        <v>541</v>
+      </c>
+      <c r="D226" t="s">
+        <v>45</v>
+      </c>
+      <c r="E226">
+        <v>7</v>
+      </c>
+      <c r="F226">
+        <f t="shared" ref="F226:F241" si="11">E226*60</f>
+        <v>420</v>
+      </c>
+      <c r="G226" s="3" t="s">
+        <v>542</v>
+      </c>
+    </row>
+    <row r="227" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A227" t="s">
+        <v>392</v>
+      </c>
+      <c r="B227" t="s">
+        <v>38</v>
+      </c>
+      <c r="C227" t="s">
         <v>539</v>
       </c>
-      <c r="D223" t="s">
+      <c r="D227" t="s">
         <v>45</v>
       </c>
-      <c r="E223">
+      <c r="E227">
         <v>2.9</v>
       </c>
-      <c r="F223">
+      <c r="F227">
         <f t="shared" si="11"/>
         <v>174</v>
       </c>
-      <c r="G223" s="3" t="s">
+      <c r="G227" s="3" t="s">
         <v>540</v>
       </c>
     </row>
-    <row r="224" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A224" t="s">
+    <row r="228" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A228" t="s">
         <v>393</v>
       </c>
-      <c r="B224" t="s">
+      <c r="B228" t="s">
         <v>38</v>
       </c>
-      <c r="C224" t="s">
+      <c r="C228" t="s">
         <v>464</v>
       </c>
-      <c r="D224" t="s">
+      <c r="D228" t="s">
         <v>88</v>
       </c>
-      <c r="E224">
+      <c r="E228">
         <v>3.3</v>
       </c>
-      <c r="F224">
+      <c r="F228">
         <f t="shared" si="11"/>
         <v>198</v>
       </c>
-      <c r="G224" s="3" t="s">
+      <c r="G228" s="3" t="s">
         <v>465</v>
       </c>
     </row>
-    <row r="225" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A225" t="s">
+    <row r="229" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A229" t="s">
         <v>394</v>
       </c>
-      <c r="B225" t="s">
+      <c r="B229" t="s">
         <v>38</v>
       </c>
-      <c r="C225" t="s">
+      <c r="C229" t="s">
         <v>549</v>
       </c>
-      <c r="D225" t="s">
+      <c r="D229" t="s">
         <v>40</v>
       </c>
-      <c r="E225">
+      <c r="E229">
         <v>24.9</v>
       </c>
-      <c r="F225">
+      <c r="F229">
         <f t="shared" si="11"/>
         <v>1494</v>
       </c>
-      <c r="G225" s="3" t="s">
+      <c r="G229" s="3" t="s">
         <v>550</v>
       </c>
     </row>
-    <row r="226" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A226" t="s">
+    <row r="230" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A230" t="s">
         <v>395</v>
       </c>
-      <c r="B226" t="s">
+      <c r="B230" t="s">
         <v>38</v>
       </c>
-      <c r="C226" t="s">
+      <c r="C230" t="s">
         <v>43</v>
       </c>
-      <c r="D226" t="s">
+      <c r="D230" t="s">
         <v>45</v>
       </c>
-      <c r="E226">
+      <c r="E230">
         <v>170</v>
       </c>
-      <c r="F226">
+      <c r="F230">
         <f t="shared" si="11"/>
         <v>10200</v>
       </c>
-      <c r="G226" s="3" t="s">
+      <c r="G230" s="3" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="227" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A227" t="s">
+    <row r="231" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A231" t="s">
         <v>396</v>
       </c>
-      <c r="B227" t="s">
+      <c r="B231" t="s">
         <v>38</v>
       </c>
-      <c r="C227" t="s">
+      <c r="C231" t="s">
         <v>480</v>
       </c>
-      <c r="D227" t="s">
+      <c r="D231" t="s">
         <v>40</v>
       </c>
-      <c r="E227">
+      <c r="E231">
         <v>5.5</v>
       </c>
-      <c r="F227">
+      <c r="F231">
         <f t="shared" si="11"/>
         <v>330</v>
       </c>
-      <c r="G227" s="3" t="s">
+      <c r="G231" s="3" t="s">
         <v>481</v>
       </c>
     </row>
-    <row r="228" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A228" t="s">
+    <row r="232" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A232" t="s">
         <v>397</v>
       </c>
-      <c r="B228" t="s">
+      <c r="B232" t="s">
         <v>38</v>
       </c>
-      <c r="C228" t="s">
+      <c r="C232" t="s">
         <v>551</v>
       </c>
-      <c r="D228" t="s">
+      <c r="D232" t="s">
         <v>209</v>
       </c>
-      <c r="E228">
+      <c r="E232">
         <v>26.8</v>
       </c>
-      <c r="F228">
+      <c r="F232">
         <f t="shared" si="11"/>
         <v>1608</v>
       </c>
-      <c r="G228" s="3" t="s">
+      <c r="G232" s="3" t="s">
         <v>552</v>
       </c>
     </row>
-    <row r="229" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A229" t="s">
+    <row r="233" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A233" t="s">
         <v>398</v>
       </c>
-      <c r="B229" t="s">
+      <c r="B233" t="s">
         <v>38</v>
       </c>
-      <c r="C229" t="s">
+      <c r="C233" t="s">
         <v>553</v>
       </c>
-      <c r="D229" t="s">
+      <c r="D233" t="s">
         <v>40</v>
       </c>
-      <c r="E229">
+      <c r="E233">
         <v>1.5</v>
       </c>
-      <c r="F229">
+      <c r="F233">
         <f t="shared" si="11"/>
         <v>90</v>
       </c>
-      <c r="G229" s="3" t="s">
+      <c r="G233" s="3" t="s">
         <v>554</v>
       </c>
     </row>
-    <row r="230" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A230" t="s">
+    <row r="234" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A234" t="s">
         <v>399</v>
       </c>
-      <c r="B230" t="s">
+      <c r="B234" t="s">
         <v>38</v>
       </c>
-      <c r="C230" t="s">
+      <c r="C234" t="s">
         <v>537</v>
       </c>
-      <c r="D230" t="s">
+      <c r="D234" t="s">
         <v>40</v>
       </c>
-      <c r="E230">
+      <c r="E234">
         <v>3.9</v>
       </c>
-      <c r="F230">
+      <c r="F234">
         <f t="shared" si="11"/>
         <v>234</v>
       </c>
-      <c r="G230" s="3" t="s">
+      <c r="G234" s="3" t="s">
         <v>538</v>
       </c>
     </row>
-    <row r="231" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A231" t="s">
+    <row r="235" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A235" t="s">
         <v>400</v>
       </c>
-      <c r="B231" t="s">
+      <c r="B235" t="s">
         <v>38</v>
       </c>
-      <c r="C231" t="s">
+      <c r="C235" t="s">
         <v>169</v>
       </c>
-      <c r="D231" t="s">
+      <c r="D235" t="s">
         <v>42</v>
       </c>
-      <c r="E231">
+      <c r="E235">
         <v>7.1</v>
       </c>
-      <c r="F231">
+      <c r="F235">
         <f t="shared" si="11"/>
         <v>426</v>
       </c>
-      <c r="G231" s="4" t="s">
+      <c r="G235" s="4" t="s">
         <v>170</v>
       </c>
     </row>
-    <row r="232" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A232" t="s">
+    <row r="236" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A236" t="s">
         <v>401</v>
       </c>
-      <c r="B232" t="s">
+      <c r="B236" t="s">
         <v>38</v>
       </c>
-      <c r="C232" t="s">
+      <c r="C236" t="s">
         <v>555</v>
       </c>
-      <c r="D232" t="s">
+      <c r="D236" t="s">
         <v>435</v>
       </c>
-      <c r="E232">
+      <c r="E236">
         <v>410</v>
       </c>
-      <c r="F232">
+      <c r="F236">
         <f t="shared" si="11"/>
         <v>24600</v>
       </c>
-      <c r="G232" s="3" t="s">
+      <c r="G236" s="3" t="s">
         <v>556</v>
       </c>
     </row>
-    <row r="233" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A233" t="s">
+    <row r="237" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A237" t="s">
         <v>402</v>
       </c>
-      <c r="B233" t="s">
+      <c r="B237" t="s">
         <v>38</v>
       </c>
-      <c r="C233" t="s">
+      <c r="C237" t="s">
         <v>197</v>
       </c>
-      <c r="D233" t="s">
+      <c r="D237" t="s">
         <v>40</v>
       </c>
-      <c r="E233">
+      <c r="E237">
         <v>5.9709873654656063</v>
       </c>
-      <c r="F233">
+      <c r="F237">
         <f t="shared" si="11"/>
         <v>358.25924192793639</v>
       </c>
-      <c r="G233" s="3" t="s">
+      <c r="G237" s="3" t="s">
         <v>557</v>
       </c>
     </row>
-    <row r="234" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A234" t="s">
+    <row r="238" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A238" t="s">
         <v>403</v>
       </c>
-      <c r="B234" t="s">
+      <c r="B238" t="s">
         <v>38</v>
       </c>
-      <c r="C234" t="s">
+      <c r="C238" t="s">
         <v>484</v>
       </c>
-      <c r="D234" t="s">
+      <c r="D238" t="s">
         <v>88</v>
       </c>
-      <c r="E234">
+      <c r="E238">
         <v>8.1999999999999993</v>
       </c>
-      <c r="F234">
+      <c r="F238">
         <f t="shared" si="11"/>
         <v>491.99999999999994</v>
       </c>
-      <c r="G234" s="3" t="s">
+      <c r="G238" s="3" t="s">
         <v>485</v>
       </c>
     </row>
-    <row r="235" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A235" t="s">
+    <row r="239" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A239" t="s">
         <v>404</v>
       </c>
-      <c r="B235" t="s">
+      <c r="B239" t="s">
         <v>38</v>
       </c>
-      <c r="C235" t="s">
+      <c r="C239" t="s">
         <v>558</v>
       </c>
-      <c r="D235" t="s">
+      <c r="D239" t="s">
         <v>76</v>
       </c>
-      <c r="E235">
+      <c r="E239">
         <v>1.08</v>
       </c>
-      <c r="F235">
+      <c r="F239">
         <f t="shared" si="11"/>
         <v>64.800000000000011</v>
       </c>
-      <c r="G235" s="3" t="s">
+      <c r="G239" s="3" t="s">
         <v>559</v>
       </c>
     </row>
-    <row r="236" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A236" t="s">
+    <row r="240" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A240" t="s">
         <v>405</v>
       </c>
-      <c r="B236" t="s">
+      <c r="B240" t="s">
         <v>38</v>
       </c>
-      <c r="C236" t="s">
+      <c r="C240" t="s">
         <v>460</v>
       </c>
-      <c r="D236" t="s">
+      <c r="D240" t="s">
         <v>42</v>
       </c>
-      <c r="E236">
+      <c r="E240">
         <v>206</v>
       </c>
-      <c r="F236">
+      <c r="F240">
         <f t="shared" si="11"/>
         <v>12360</v>
       </c>
-      <c r="G236" s="3" t="s">
+      <c r="G240" s="3" t="s">
         <v>461</v>
       </c>
     </row>
-    <row r="237" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A237" t="s">
+    <row r="241" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A241" t="s">
         <v>406</v>
       </c>
-      <c r="B237" t="s">
+      <c r="B241" t="s">
         <v>38</v>
       </c>
-      <c r="C237" t="s">
+      <c r="C241" t="s">
         <v>560</v>
       </c>
-      <c r="D237" t="s">
+      <c r="D241" t="s">
         <v>88</v>
       </c>
-      <c r="E237">
+      <c r="E241">
         <v>1.83</v>
       </c>
-      <c r="F237">
+      <c r="F241">
         <f t="shared" si="11"/>
         <v>109.80000000000001</v>
       </c>
-      <c r="G237" s="3" t="s">
+      <c r="G241" s="3" t="s">
         <v>561</v>
       </c>
     </row>
-    <row r="238" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A238" t="s">
+    <row r="242" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A242" t="s">
         <v>407</v>
       </c>
-      <c r="B238" t="s">
+      <c r="B242" t="s">
         <v>38</v>
       </c>
-      <c r="C238" t="s">
+      <c r="C242" t="s">
         <v>480</v>
       </c>
-      <c r="D238" t="s">
+      <c r="D242" t="s">
         <v>40</v>
       </c>
-      <c r="E238">
+      <c r="E242">
         <v>5.5</v>
       </c>
-      <c r="F238">
-        <f t="shared" ref="F238:F240" si="12">E238*60</f>
+      <c r="F242">
+        <f t="shared" ref="F242:F244" si="12">E242*60</f>
         <v>330</v>
       </c>
-      <c r="G238" s="3" t="s">
+      <c r="G242" s="3" t="s">
         <v>481</v>
       </c>
     </row>
-    <row r="239" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A239" t="s">
+    <row r="243" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A243" t="s">
         <v>408</v>
       </c>
-      <c r="B239" t="s">
+      <c r="B243" t="s">
         <v>38</v>
       </c>
-      <c r="C239" t="s">
+      <c r="C243" t="s">
         <v>562</v>
       </c>
-      <c r="D239" t="s">
+      <c r="D243" t="s">
         <v>45</v>
       </c>
-      <c r="E239">
+      <c r="E243">
         <v>5.6</v>
       </c>
-      <c r="F239">
+      <c r="F243">
         <f t="shared" si="12"/>
         <v>336</v>
       </c>
-      <c r="G239" s="3" t="s">
+      <c r="G243" s="3" t="s">
         <v>563</v>
       </c>
     </row>
-    <row r="240" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A240" t="s">
+    <row r="244" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A244" t="s">
         <v>409</v>
       </c>
-      <c r="B240" t="s">
+      <c r="B244" t="s">
         <v>38</v>
       </c>
-      <c r="C240" t="s">
+      <c r="C244" t="s">
         <v>558</v>
       </c>
-      <c r="D240" t="s">
+      <c r="D244" t="s">
         <v>76</v>
       </c>
-      <c r="E240">
+      <c r="E244">
         <v>1.08</v>
       </c>
-      <c r="F240">
+      <c r="F244">
         <f t="shared" si="12"/>
         <v>64.800000000000011</v>
       </c>
-      <c r="G240" s="3" t="s">
+      <c r="G244" s="3" t="s">
         <v>559</v>
       </c>
     </row>
-    <row r="241" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A241" t="s">
+    <row r="245" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A245" t="s">
         <v>410</v>
       </c>
-      <c r="B241" t="s">
+      <c r="B245" t="s">
         <v>38</v>
       </c>
-      <c r="C241" t="s">
+      <c r="C245" t="s">
         <v>480</v>
       </c>
-      <c r="D241" t="s">
+      <c r="D245" t="s">
         <v>40</v>
       </c>
-      <c r="E241">
+      <c r="E245">
         <v>5.5</v>
       </c>
-      <c r="F241">
-        <f t="shared" ref="F241:F242" si="13">E241*60</f>
+      <c r="F245">
+        <f t="shared" ref="F245:F246" si="13">E245*60</f>
         <v>330</v>
       </c>
-      <c r="G241" s="3" t="s">
+      <c r="G245" s="3" t="s">
         <v>481</v>
       </c>
     </row>
-    <row r="242" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A242" t="s">
+    <row r="246" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A246" t="s">
         <v>411</v>
       </c>
-      <c r="B242" t="s">
+      <c r="B246" t="s">
         <v>38</v>
       </c>
-      <c r="C242" t="s">
+      <c r="C246" t="s">
         <v>564</v>
       </c>
-      <c r="D242" t="s">
+      <c r="D246" t="s">
         <v>40</v>
       </c>
-      <c r="E242">
+      <c r="E246">
         <v>11.7</v>
       </c>
-      <c r="F242">
+      <c r="F246">
         <f t="shared" si="13"/>
         <v>702</v>
       </c>
-      <c r="G242" s="3" t="s">
+      <c r="G246" s="3" t="s">
         <v>565</v>
       </c>
     </row>
-    <row r="243" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A243" t="s">
+    <row r="247" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A247" t="s">
         <v>412</v>
       </c>
-      <c r="B243" t="s">
+      <c r="B247" t="s">
         <v>38</v>
       </c>
-      <c r="C243" t="s">
+      <c r="C247" t="s">
         <v>480</v>
       </c>
-      <c r="D243" t="s">
+      <c r="D247" t="s">
         <v>40</v>
       </c>
-      <c r="E243">
+      <c r="E247">
         <v>5.5</v>
       </c>
-      <c r="F243">
-        <f t="shared" ref="F243:F245" si="14">E243*60</f>
+      <c r="F247">
+        <f t="shared" ref="F247:F249" si="14">E247*60</f>
         <v>330</v>
       </c>
-      <c r="G243" s="3" t="s">
+      <c r="G247" s="3" t="s">
         <v>481</v>
       </c>
     </row>
-    <row r="244" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A244" t="s">
+    <row r="248" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A248" t="s">
         <v>413</v>
       </c>
-      <c r="B244" t="s">
+      <c r="B248" t="s">
         <v>38</v>
       </c>
-      <c r="C244" t="s">
+      <c r="C248" t="s">
         <v>566</v>
       </c>
-      <c r="D244" t="s">
+      <c r="D248" t="s">
         <v>45</v>
       </c>
-      <c r="E244">
+      <c r="E248">
         <v>5.3</v>
       </c>
-      <c r="F244">
+      <c r="F248">
         <f t="shared" si="14"/>
         <v>318</v>
       </c>
-      <c r="G244" s="3" t="s">
+      <c r="G248" s="3" t="s">
         <v>567</v>
       </c>
     </row>
-    <row r="245" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A245" t="s">
+    <row r="249" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A249" t="s">
         <v>414</v>
       </c>
-      <c r="B245" t="s">
+      <c r="B249" t="s">
         <v>38</v>
       </c>
-      <c r="C245" t="s">
+      <c r="C249" t="s">
         <v>568</v>
       </c>
-      <c r="D245" t="s">
+      <c r="D249" t="s">
         <v>40</v>
       </c>
-      <c r="E245">
+      <c r="E249">
         <v>51.8</v>
       </c>
-      <c r="F245">
+      <c r="F249">
         <f t="shared" si="14"/>
         <v>3108</v>
       </c>
-      <c r="G245" s="3" t="s">
+      <c r="G249" s="3" t="s">
         <v>569</v>
       </c>
     </row>
-    <row r="246" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A246" t="s">
+    <row r="250" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A250" t="s">
         <v>415</v>
       </c>
-      <c r="B246" t="s">
+      <c r="B250" t="s">
         <v>38</v>
       </c>
-      <c r="C246" t="s">
+      <c r="C250" t="s">
         <v>480</v>
       </c>
-      <c r="D246" t="s">
+      <c r="D250" t="s">
         <v>40</v>
       </c>
-      <c r="E246">
+      <c r="E250">
         <v>5.5</v>
       </c>
-      <c r="F246">
-        <f t="shared" ref="F246:F252" si="15">E246*60</f>
+      <c r="F250">
+        <f t="shared" ref="F250:F256" si="15">E250*60</f>
         <v>330</v>
       </c>
-      <c r="G246" s="3" t="s">
+      <c r="G250" s="3" t="s">
         <v>481</v>
       </c>
     </row>
-    <row r="247" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A247" t="s">
+    <row r="251" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A251" t="s">
         <v>416</v>
       </c>
-      <c r="B247" t="s">
+      <c r="B251" t="s">
         <v>38</v>
       </c>
-      <c r="C247" t="s">
+      <c r="C251" t="s">
         <v>171</v>
       </c>
-      <c r="D247" t="s">
+      <c r="D251" t="s">
         <v>88</v>
       </c>
-      <c r="E247">
+      <c r="E251">
         <v>27.1</v>
       </c>
-      <c r="F247">
+      <c r="F251">
         <f t="shared" si="15"/>
         <v>1626</v>
       </c>
-      <c r="G247" s="3" t="s">
+      <c r="G251" s="3" t="s">
         <v>574</v>
       </c>
     </row>
-    <row r="248" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A248" t="s">
+    <row r="252" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A252" t="s">
         <v>417</v>
       </c>
-      <c r="B248" t="s">
+      <c r="B252" t="s">
         <v>38</v>
       </c>
-      <c r="C248" t="s">
+      <c r="C252" t="s">
         <v>575</v>
       </c>
-      <c r="D248" t="s">
+      <c r="D252" t="s">
         <v>40</v>
       </c>
-      <c r="E248">
+      <c r="E252">
         <v>2.6</v>
       </c>
-      <c r="F248">
+      <c r="F252">
         <f t="shared" si="15"/>
         <v>156</v>
       </c>
-      <c r="G248" s="3" t="s">
+      <c r="G252" s="3" t="s">
         <v>576</v>
       </c>
     </row>
-    <row r="249" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A249" t="s">
+    <row r="253" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A253" t="s">
         <v>418</v>
       </c>
-      <c r="B249" t="s">
+      <c r="B253" t="s">
         <v>38</v>
       </c>
-      <c r="C249" t="s">
+      <c r="C253" t="s">
         <v>169</v>
       </c>
-      <c r="D249" t="s">
+      <c r="D253" t="s">
         <v>42</v>
       </c>
-      <c r="E249">
+      <c r="E253">
         <v>7.1</v>
       </c>
-      <c r="F249">
+      <c r="F253">
         <f t="shared" si="15"/>
         <v>426</v>
       </c>
-      <c r="G249" s="4" t="s">
+      <c r="G253" s="4" t="s">
         <v>170</v>
       </c>
     </row>
-    <row r="250" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A250" t="s">
+    <row r="254" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A254" t="s">
         <v>419</v>
       </c>
-      <c r="B250" t="s">
+      <c r="B254" t="s">
         <v>38</v>
       </c>
-      <c r="C250" t="s">
+      <c r="C254" t="s">
         <v>434</v>
       </c>
-      <c r="D250" t="s">
+      <c r="D254" t="s">
         <v>435</v>
       </c>
-      <c r="E250">
+      <c r="E254">
         <v>7.3</v>
       </c>
-      <c r="F250">
+      <c r="F254">
         <f t="shared" si="15"/>
         <v>438</v>
       </c>
-      <c r="G250" s="3" t="s">
+      <c r="G254" s="3" t="s">
         <v>436</v>
       </c>
     </row>
-    <row r="251" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A251" t="s">
+    <row r="255" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A255" t="s">
         <v>420</v>
       </c>
-      <c r="B251" t="s">
+      <c r="B255" t="s">
         <v>38</v>
       </c>
-      <c r="C251" t="s">
+      <c r="C255" t="s">
         <v>572</v>
       </c>
-      <c r="D251" t="s">
+      <c r="D255" t="s">
         <v>88</v>
       </c>
-      <c r="E251">
+      <c r="E255">
         <v>6.3</v>
       </c>
-      <c r="F251">
+      <c r="F255">
         <f t="shared" si="15"/>
         <v>378</v>
       </c>
-      <c r="G251" s="3" t="s">
+      <c r="G255" s="3" t="s">
         <v>573</v>
       </c>
     </row>
-    <row r="252" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A252" t="s">
+    <row r="256" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A256" t="s">
         <v>421</v>
       </c>
-      <c r="B252" t="s">
+      <c r="B256" t="s">
         <v>38</v>
       </c>
-      <c r="C252" t="s">
+      <c r="C256" t="s">
         <v>570</v>
       </c>
-      <c r="D252" t="s">
+      <c r="D256" t="s">
         <v>88</v>
       </c>
-      <c r="E252">
+      <c r="E256">
         <v>1.87</v>
       </c>
-      <c r="F252">
+      <c r="F256">
         <f t="shared" si="15"/>
         <v>112.2</v>
       </c>
-      <c r="G252" s="3" t="s">
+      <c r="G256" s="3" t="s">
         <v>571</v>
       </c>
     </row>
-    <row r="253" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A253" t="s">
+    <row r="257" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A257" t="s">
         <v>422</v>
       </c>
-      <c r="B253" t="s">
+      <c r="B257" t="s">
         <v>38</v>
       </c>
-      <c r="C253" t="s">
+      <c r="C257" t="s">
         <v>169</v>
       </c>
-      <c r="D253" t="s">
+      <c r="D257" t="s">
         <v>40</v>
       </c>
-      <c r="E253">
+      <c r="E257">
         <v>32</v>
       </c>
-      <c r="F253">
-        <f t="shared" ref="F253" si="16">E253*60</f>
+      <c r="F257">
+        <f t="shared" ref="F257" si="16">E257*60</f>
         <v>1920</v>
       </c>
-      <c r="G253" s="3" t="s">
+      <c r="G257" s="3" t="s">
         <v>455</v>
       </c>
     </row>
-    <row r="254" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A254" t="s">
+    <row r="258" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A258" t="s">
         <v>423</v>
       </c>
-      <c r="B254" t="s">
+      <c r="B258" t="s">
         <v>38</v>
       </c>
-      <c r="C254" t="s">
+      <c r="C258" t="s">
         <v>424</v>
       </c>
-      <c r="D254" t="s">
+      <c r="D258" t="s">
         <v>45</v>
       </c>
-      <c r="E254">
+      <c r="E258">
         <v>221</v>
       </c>
-      <c r="F254">
+      <c r="F258">
         <f t="shared" si="0"/>
         <v>13260</v>
       </c>
-      <c r="G254" s="3" t="s">
+      <c r="G258" s="3" t="s">
         <v>425</v>
       </c>
     </row>
-    <row r="255" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A255" t="s">
+    <row r="259" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A259" t="s">
         <v>672</v>
       </c>
-      <c r="B255" t="s">
+      <c r="B259" t="s">
         <v>38</v>
       </c>
-      <c r="C255" t="s">
+      <c r="C259" t="s">
         <v>682</v>
       </c>
-      <c r="D255" t="s">
+      <c r="D259" t="s">
         <v>45</v>
       </c>
-      <c r="E255">
+      <c r="E259">
         <v>53</v>
       </c>
-      <c r="F255">
+      <c r="F259">
         <f t="shared" si="0"/>
         <v>3180</v>
       </c>
-      <c r="G255" s="3" t="s">
+      <c r="G259" s="3" t="s">
         <v>683</v>
       </c>
     </row>
-    <row r="256" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A256" t="s">
+    <row r="260" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A260" t="s">
         <v>673</v>
       </c>
-      <c r="B256" t="s">
+      <c r="B260" t="s">
         <v>38</v>
       </c>
-      <c r="C256" t="s">
+      <c r="C260" t="s">
         <v>676</v>
       </c>
-      <c r="D256" t="s">
+      <c r="D260" t="s">
         <v>88</v>
       </c>
-      <c r="E256">
+      <c r="E260">
         <v>8400</v>
       </c>
-      <c r="F256">
+      <c r="F260">
         <f t="shared" si="0"/>
         <v>504000</v>
       </c>
-      <c r="G256" s="3" t="s">
+      <c r="G260" s="3" t="s">
         <v>677</v>
       </c>
     </row>
-    <row r="257" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A257" t="s">
+    <row r="261" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A261" t="s">
         <v>674</v>
       </c>
-      <c r="B257" t="s">
+      <c r="B261" t="s">
         <v>38</v>
       </c>
-      <c r="C257" t="s">
+      <c r="C261" t="s">
         <v>678</v>
       </c>
-      <c r="D257" t="s">
+      <c r="D261" t="s">
         <v>40</v>
       </c>
-      <c r="E257">
+      <c r="E261">
         <v>67.400000000000006</v>
       </c>
-      <c r="F257">
+      <c r="F261">
         <f t="shared" si="0"/>
         <v>4044.0000000000005</v>
       </c>
-      <c r="G257" s="3" t="s">
+      <c r="G261" s="3" t="s">
         <v>679</v>
       </c>
     </row>
-    <row r="258" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A258" t="s">
+    <row r="262" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A262" t="s">
         <v>675</v>
       </c>
-      <c r="B258" t="s">
+      <c r="B262" t="s">
         <v>38</v>
       </c>
-      <c r="C258" t="s">
+      <c r="C262" t="s">
         <v>680</v>
       </c>
-      <c r="D258" t="s">
+      <c r="D262" t="s">
         <v>681</v>
       </c>
-      <c r="E258">
+      <c r="E262">
         <v>6.61</v>
       </c>
-      <c r="F258">
+      <c r="F262">
         <f t="shared" si="0"/>
         <v>396.6</v>
       </c>
-      <c r="G258" s="3" t="s">
+      <c r="G262" s="3" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="259" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A259" t="s">
+    <row r="263" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A263" t="s">
+        <v>684</v>
+      </c>
+      <c r="B263" t="s">
+        <v>38</v>
+      </c>
+      <c r="C263" t="s">
+        <v>689</v>
+      </c>
+      <c r="D263" t="s">
+        <v>146</v>
+      </c>
+      <c r="E263">
+        <v>4.13</v>
+      </c>
+      <c r="F263">
+        <f t="shared" si="0"/>
+        <v>247.79999999999998</v>
+      </c>
+      <c r="G263" s="3" t="s">
+        <v>690</v>
+      </c>
+    </row>
+    <row r="264" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A264" t="s">
         <v>155</v>
       </c>
-      <c r="B259" t="s">
+      <c r="B264" t="s">
         <v>38</v>
       </c>
-      <c r="C259" t="s">
+      <c r="C264" t="s">
         <v>157</v>
       </c>
-      <c r="D259" t="s">
+      <c r="D264" t="s">
         <v>45</v>
       </c>
-      <c r="E259">
+      <c r="E264">
         <v>7.5</v>
       </c>
-      <c r="F259">
+      <c r="F264">
         <f t="shared" si="0"/>
         <v>450</v>
       </c>
-      <c r="G259" s="3" t="s">
+      <c r="G264" s="3" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="260" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A260" t="s">
+    <row r="265" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A265" t="s">
         <v>156</v>
       </c>
-      <c r="B260" t="s">
+      <c r="B265" t="s">
         <v>38</v>
       </c>
-      <c r="C260" t="s">
+      <c r="C265" t="s">
         <v>157</v>
       </c>
-      <c r="D260" t="s">
+      <c r="D265" t="s">
         <v>45</v>
       </c>
-      <c r="E260">
+      <c r="E265">
         <v>7.5</v>
       </c>
-      <c r="F260">
+      <c r="F265">
         <f t="shared" si="0"/>
         <v>450</v>
       </c>
-      <c r="G260" s="3" t="s">
+      <c r="G265" s="3" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="261" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A261" t="s">
+    <row r="266" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A266" t="s">
         <v>159</v>
       </c>
-      <c r="B261" t="s">
-        <v>16</v>
-      </c>
-      <c r="C261" t="s">
+      <c r="B266" t="s">
+        <v>16</v>
+      </c>
+      <c r="C266" t="s">
         <v>109</v>
       </c>
-      <c r="D261" t="s">
+      <c r="D266" t="s">
         <v>109</v>
       </c>
-      <c r="E261" t="s">
+      <c r="E266" t="s">
         <v>109</v>
       </c>
-      <c r="F261">
+      <c r="F266">
         <v>100</v>
       </c>
-      <c r="G261" s="2" t="s">
+      <c r="G266" s="2" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="262" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A262" t="s">
+    <row r="267" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A267" t="s">
         <v>116</v>
       </c>
-      <c r="B262" t="s">
-        <v>16</v>
-      </c>
-      <c r="C262" t="s">
+      <c r="B267" t="s">
+        <v>16</v>
+      </c>
+      <c r="C267" t="s">
         <v>109</v>
       </c>
-      <c r="D262" t="s">
+      <c r="D267" t="s">
         <v>109</v>
       </c>
-      <c r="E262" t="s">
+      <c r="E267" t="s">
         <v>109</v>
       </c>
-      <c r="F262">
+      <c r="F267">
         <v>50</v>
       </c>
-      <c r="G262" s="2" t="s">
+      <c r="G267" s="2" t="s">
         <v>114</v>
       </c>
     </row>
@@ -8728,8 +8902,8 @@
   <hyperlinks>
     <hyperlink ref="G22" r:id="rId1" xr:uid="{60D2E9C6-9172-4D4D-B418-CC567356E033}"/>
     <hyperlink ref="G2" r:id="rId2" xr:uid="{96642BA6-12F8-4451-8DFA-16265959FEFA}"/>
-    <hyperlink ref="G205" r:id="rId3" xr:uid="{DBD518FF-06AA-4F59-B32D-3D580FD3488C}"/>
-    <hyperlink ref="G204" r:id="rId4" xr:uid="{3C873BD8-C205-4B23-B8F2-C8E28D105704}"/>
+    <hyperlink ref="G209" r:id="rId3" xr:uid="{DBD518FF-06AA-4F59-B32D-3D580FD3488C}"/>
+    <hyperlink ref="G208" r:id="rId4" xr:uid="{3C873BD8-C205-4B23-B8F2-C8E28D105704}"/>
     <hyperlink ref="G32" r:id="rId5" xr:uid="{3CCDC09F-65EC-46AB-A5B6-06698DF90FD6}"/>
     <hyperlink ref="G33" r:id="rId6" xr:uid="{45B7FFC2-C775-45F6-B5E2-92E39C1EFAC1}"/>
     <hyperlink ref="G36" r:id="rId7" xr:uid="{C0F23788-2A31-4EA5-B6D6-A12E3C45A7E7}"/>
@@ -8738,8 +8912,8 @@
     <hyperlink ref="G78" r:id="rId10" xr:uid="{6C3143F8-EECE-493B-A808-BC8B1FB906E4}"/>
     <hyperlink ref="G83" r:id="rId11" xr:uid="{5F7C4001-6F89-479B-983C-BDB24868961F}"/>
     <hyperlink ref="G89" r:id="rId12" xr:uid="{B65497F5-375F-4E2A-86C4-B4310250B40D}"/>
-    <hyperlink ref="G231" r:id="rId13" xr:uid="{B850A642-752F-4050-BE9D-FD6DEF1A1A28}"/>
-    <hyperlink ref="G249" r:id="rId14" xr:uid="{733CCEAC-FE6D-4E5A-890C-C556E3FD7098}"/>
+    <hyperlink ref="G235" r:id="rId13" xr:uid="{B850A642-752F-4050-BE9D-FD6DEF1A1A28}"/>
+    <hyperlink ref="G253" r:id="rId14" xr:uid="{733CCEAC-FE6D-4E5A-890C-C556E3FD7098}"/>
     <hyperlink ref="G123" r:id="rId15" xr:uid="{3ACF0FFB-BCF3-4FD6-9FD5-CA9D90101625}"/>
     <hyperlink ref="G170" r:id="rId16" xr:uid="{1167C813-88FC-4ED1-BAC3-35562E39F6B3}"/>
     <hyperlink ref="G142" r:id="rId17" xr:uid="{0AC60904-9B6C-42FC-A0D6-DCDFCFACCDB7}"/>

--- a/data/gems/Parameters.xlsx
+++ b/data/gems/Parameters.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bras5181\Desktop\Labprojects\CulturedMeat\iSusS\data\gems\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bras5181\Desktop\Labprojects\CulturedMeat\PigGEM2025\data\gems\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4C27A557-45C9-4584-814B-4CDABE5E11A0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D79565AC-282B-41CE-B899-88CB8B05A605}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1412" uniqueCount="702">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1412" uniqueCount="703">
   <si>
     <t>Rxn</t>
   </si>
@@ -2143,6 +2143,9 @@
   </si>
   <si>
     <t>DOI: 10.1021/bi00561a024</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1002/bit.27605</t>
   </si>
 </sst>
 </file>
@@ -2491,8 +2494,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G267"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A181" workbookViewId="0">
-      <selection activeCell="M197" sqref="M197"/>
+    <sheetView tabSelected="1" topLeftCell="A247" workbookViewId="0">
+      <selection activeCell="L263" sqref="L263"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -8869,10 +8872,10 @@
         <v>109</v>
       </c>
       <c r="F266">
-        <v>100</v>
-      </c>
-      <c r="G266" s="2" t="s">
-        <v>114</v>
+        <v>107.4</v>
+      </c>
+      <c r="G266" s="1" t="s">
+        <v>702</v>
       </c>
     </row>
     <row r="267" spans="1:7" x14ac:dyDescent="0.35">
@@ -8919,9 +8922,10 @@
     <hyperlink ref="G142" r:id="rId17" xr:uid="{0AC60904-9B6C-42FC-A0D6-DCDFCFACCDB7}"/>
     <hyperlink ref="G179" r:id="rId18" xr:uid="{87D8A670-02D9-4006-B7CD-DC020E2EACEF}"/>
     <hyperlink ref="G19" r:id="rId19" xr:uid="{7DAABD84-8696-4ABA-AB3E-8DD3400DB458}"/>
+    <hyperlink ref="G266" r:id="rId20" xr:uid="{DC28AAB8-6E94-4F29-B774-317596ED75E1}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId20"/>
+  <pageSetup orientation="portrait" r:id="rId21"/>
 </worksheet>
 </file>
 

--- a/data/gems/Parameters.xlsx
+++ b/data/gems/Parameters.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28526"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28623"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bras5181\Desktop\Labprojects\CulturedMeat\PigGEM2025\data\gems\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D79565AC-282B-41CE-B899-88CB8B05A605}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{38C4F20B-BAC5-44C6-9CA1-DC2243E2FC9D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1412" uniqueCount="703">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1399" uniqueCount="701">
   <si>
     <t>Rxn</t>
   </si>
@@ -750,9 +750,6 @@
     <t>DOI: 10.1042/bj1750999</t>
   </si>
   <si>
-    <t>EX_urea_e</t>
-  </si>
-  <si>
     <t>ACITL</t>
   </si>
   <si>
@@ -2046,12 +2043,6 @@
     <t>PMID: 2868008</t>
   </si>
   <si>
-    <t>EX_succ_e</t>
-  </si>
-  <si>
-    <t>EX_pyr_e</t>
-  </si>
-  <si>
     <t>https://doi.org/10.1093/clinchem/27.1.88</t>
   </si>
   <si>
@@ -2146,6 +2137,9 @@
   </si>
   <si>
     <t>https://doi.org/10.1002/bit.27605</t>
+  </si>
+  <si>
+    <t>FUM</t>
   </si>
 </sst>
 </file>
@@ -2492,10 +2486,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G267"/>
+  <dimension ref="A1:G265"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A247" workbookViewId="0">
-      <selection activeCell="L263" sqref="L263"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="O6" sqref="O6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2597,7 +2591,7 @@
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>237</v>
+        <v>113</v>
       </c>
       <c r="B5" t="s">
         <v>111</v>
@@ -2612,1578 +2606,1581 @@
         <v>109</v>
       </c>
       <c r="F5">
-        <v>6360</v>
-      </c>
-      <c r="G5" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="G5" s="2" t="s">
         <v>109</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>669</v>
+        <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>111</v>
+        <v>16</v>
       </c>
       <c r="C6" t="s">
-        <v>109</v>
+        <v>49</v>
       </c>
       <c r="D6" t="s">
-        <v>109</v>
-      </c>
-      <c r="E6" t="s">
-        <v>109</v>
+        <v>45</v>
+      </c>
+      <c r="E6">
+        <v>191.5</v>
       </c>
       <c r="F6">
-        <v>6360</v>
-      </c>
-      <c r="G6" s="4" t="s">
-        <v>109</v>
+        <f>E6*60</f>
+        <v>11490</v>
+      </c>
+      <c r="G6" s="3" t="s">
+        <v>50</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>670</v>
+        <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>111</v>
+        <v>16</v>
       </c>
       <c r="C7" t="s">
-        <v>109</v>
+        <v>51</v>
       </c>
       <c r="D7" t="s">
-        <v>109</v>
-      </c>
-      <c r="E7" t="s">
-        <v>109</v>
+        <v>40</v>
+      </c>
+      <c r="E7">
+        <v>620</v>
       </c>
       <c r="F7">
-        <v>6360</v>
-      </c>
-      <c r="G7" s="4" t="s">
-        <v>109</v>
+        <f t="shared" ref="F7:F263" si="0">E7*60</f>
+        <v>37200</v>
+      </c>
+      <c r="G7" s="3" t="s">
+        <v>52</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
-        <v>113</v>
+        <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>111</v>
+        <v>16</v>
       </c>
       <c r="C8" t="s">
-        <v>109</v>
+        <v>53</v>
       </c>
       <c r="D8" t="s">
-        <v>109</v>
-      </c>
-      <c r="E8" t="s">
-        <v>109</v>
+        <v>45</v>
+      </c>
+      <c r="E8">
+        <v>128</v>
       </c>
       <c r="F8">
-        <v>10</v>
-      </c>
-      <c r="G8" s="2" t="s">
-        <v>109</v>
+        <f t="shared" si="0"/>
+        <v>7680</v>
+      </c>
+      <c r="G8" s="3" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="B9" t="s">
         <v>16</v>
       </c>
       <c r="C9" t="s">
-        <v>49</v>
+        <v>55</v>
       </c>
       <c r="D9" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="E9">
-        <v>191.5</v>
+        <v>22.3</v>
       </c>
       <c r="F9">
-        <f>E9*60</f>
-        <v>11490</v>
+        <f t="shared" si="0"/>
+        <v>1338</v>
       </c>
       <c r="G9" s="3" t="s">
-        <v>50</v>
+        <v>56</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="B10" t="s">
         <v>16</v>
       </c>
       <c r="C10" t="s">
-        <v>51</v>
+        <v>57</v>
       </c>
       <c r="D10" t="s">
         <v>40</v>
       </c>
       <c r="E10">
-        <v>620</v>
+        <v>10240</v>
       </c>
       <c r="F10">
-        <f t="shared" ref="F10:F265" si="0">E10*60</f>
-        <v>37200</v>
+        <f t="shared" si="0"/>
+        <v>614400</v>
       </c>
       <c r="G10" s="3" t="s">
-        <v>52</v>
+        <v>58</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="B11" t="s">
         <v>16</v>
       </c>
       <c r="C11" t="s">
-        <v>53</v>
+        <v>59</v>
       </c>
       <c r="D11" t="s">
         <v>45</v>
       </c>
       <c r="E11">
-        <v>128</v>
+        <v>80</v>
       </c>
       <c r="F11">
         <f t="shared" si="0"/>
-        <v>7680</v>
+        <v>4800</v>
       </c>
       <c r="G11" s="3" t="s">
-        <v>54</v>
+        <v>60</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="B12" t="s">
         <v>16</v>
       </c>
       <c r="C12" t="s">
-        <v>55</v>
+        <v>62</v>
       </c>
       <c r="D12" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="E12">
-        <v>22.3</v>
+        <v>1000</v>
       </c>
       <c r="F12">
         <f t="shared" si="0"/>
-        <v>1338</v>
+        <v>60000</v>
       </c>
       <c r="G12" s="3" t="s">
-        <v>56</v>
+        <v>61</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="B13" t="s">
         <v>16</v>
       </c>
       <c r="C13" t="s">
-        <v>57</v>
+        <v>63</v>
       </c>
       <c r="D13" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="E13">
-        <v>10240</v>
+        <v>210</v>
       </c>
       <c r="F13">
         <f t="shared" si="0"/>
-        <v>614400</v>
+        <v>12600</v>
       </c>
       <c r="G13" s="3" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="B14" t="s">
         <v>16</v>
       </c>
       <c r="C14" t="s">
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="D14" t="s">
         <v>45</v>
       </c>
       <c r="E14">
-        <v>80</v>
+        <v>91</v>
       </c>
       <c r="F14">
         <f t="shared" si="0"/>
-        <v>4800</v>
+        <v>5460</v>
       </c>
       <c r="G14" s="3" t="s">
-        <v>60</v>
+        <v>65</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="B15" t="s">
         <v>16</v>
       </c>
       <c r="C15" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="D15" t="s">
         <v>45</v>
       </c>
       <c r="E15">
-        <v>1000</v>
+        <v>191</v>
       </c>
       <c r="F15">
         <f t="shared" si="0"/>
-        <v>60000</v>
+        <v>11460</v>
       </c>
       <c r="G15" s="3" t="s">
-        <v>61</v>
+        <v>67</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
-        <v>12</v>
+        <v>25</v>
       </c>
       <c r="B16" t="s">
         <v>16</v>
       </c>
       <c r="C16" t="s">
-        <v>63</v>
+        <v>68</v>
       </c>
       <c r="D16" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="E16">
-        <v>210</v>
+        <v>458.5</v>
       </c>
       <c r="F16">
         <f t="shared" si="0"/>
-        <v>12600</v>
-      </c>
-      <c r="G16" s="3" t="s">
-        <v>60</v>
+        <v>27510</v>
+      </c>
+      <c r="G16" s="1" t="s">
+        <v>668</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="B17" t="s">
         <v>16</v>
       </c>
       <c r="C17" t="s">
-        <v>64</v>
+        <v>69</v>
       </c>
       <c r="D17" t="s">
         <v>45</v>
       </c>
       <c r="E17">
-        <v>91</v>
+        <v>201</v>
       </c>
       <c r="F17">
         <f t="shared" si="0"/>
-        <v>5460</v>
+        <v>12060</v>
       </c>
       <c r="G17" s="3" t="s">
-        <v>65</v>
+        <v>70</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="B18" t="s">
         <v>16</v>
       </c>
       <c r="C18" t="s">
-        <v>66</v>
+        <v>71</v>
       </c>
       <c r="D18" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="E18">
-        <v>191</v>
+        <v>1065</v>
       </c>
       <c r="F18">
         <f t="shared" si="0"/>
-        <v>11460</v>
+        <v>63900</v>
       </c>
       <c r="G18" s="3" t="s">
-        <v>67</v>
+        <v>72</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="B19" t="s">
         <v>16</v>
       </c>
       <c r="C19" t="s">
-        <v>68</v>
+        <v>73</v>
       </c>
       <c r="D19" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="E19">
-        <v>458.5</v>
+        <v>1.89</v>
       </c>
       <c r="F19">
         <f t="shared" si="0"/>
-        <v>27510</v>
-      </c>
-      <c r="G19" s="1" t="s">
-        <v>671</v>
+        <v>113.39999999999999</v>
+      </c>
+      <c r="G19" s="4" t="s">
+        <v>74</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
-        <v>5</v>
+        <v>19</v>
       </c>
       <c r="B20" t="s">
         <v>16</v>
       </c>
       <c r="C20" t="s">
-        <v>69</v>
+        <v>75</v>
       </c>
       <c r="D20" t="s">
-        <v>45</v>
+        <v>76</v>
       </c>
       <c r="E20">
-        <v>201</v>
+        <v>1700</v>
       </c>
       <c r="F20">
         <f t="shared" si="0"/>
-        <v>12060</v>
+        <v>102000</v>
       </c>
       <c r="G20" s="3" t="s">
-        <v>70</v>
+        <v>77</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="B21" t="s">
         <v>16</v>
       </c>
       <c r="C21" t="s">
-        <v>71</v>
+        <v>78</v>
       </c>
       <c r="D21" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="E21">
-        <v>1065</v>
+        <v>6570</v>
       </c>
       <c r="F21">
         <f t="shared" si="0"/>
-        <v>63900</v>
+        <v>394200</v>
       </c>
       <c r="G21" s="3" t="s">
-        <v>72</v>
+        <v>79</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="B22" t="s">
         <v>16</v>
       </c>
       <c r="C22" t="s">
-        <v>73</v>
+        <v>80</v>
       </c>
       <c r="D22" t="s">
         <v>45</v>
       </c>
       <c r="E22">
-        <v>1.89</v>
+        <v>0.88</v>
       </c>
       <c r="F22">
         <f t="shared" si="0"/>
-        <v>113.39999999999999</v>
-      </c>
-      <c r="G22" s="4" t="s">
-        <v>74</v>
+        <v>52.8</v>
+      </c>
+      <c r="G22" s="3" t="s">
+        <v>81</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="B23" t="s">
         <v>16</v>
       </c>
       <c r="C23" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="D23" t="s">
-        <v>76</v>
+        <v>45</v>
       </c>
       <c r="E23">
-        <v>1700</v>
+        <v>0.88</v>
       </c>
       <c r="F23">
         <f t="shared" si="0"/>
-        <v>102000</v>
+        <v>52.8</v>
       </c>
       <c r="G23" s="3" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="B24" t="s">
         <v>16</v>
       </c>
       <c r="C24" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="D24" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="E24">
-        <v>6570</v>
+        <v>15</v>
       </c>
       <c r="F24">
         <f t="shared" si="0"/>
-        <v>394200</v>
+        <v>900</v>
       </c>
       <c r="G24" s="3" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="B25" t="s">
         <v>16</v>
       </c>
       <c r="C25" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="D25" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="E25">
-        <v>0.88</v>
+        <v>22.2</v>
       </c>
       <c r="F25">
         <f t="shared" si="0"/>
-        <v>52.8</v>
+        <v>1332</v>
       </c>
       <c r="G25" s="3" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
-        <v>22</v>
+        <v>164</v>
       </c>
       <c r="B26" t="s">
         <v>16</v>
       </c>
       <c r="C26" t="s">
-        <v>80</v>
+        <v>92</v>
       </c>
       <c r="D26" t="s">
-        <v>45</v>
+        <v>91</v>
       </c>
       <c r="E26">
-        <v>0.88</v>
+        <v>6.13</v>
       </c>
       <c r="F26">
-        <f t="shared" si="0"/>
-        <v>52.8</v>
+        <f t="shared" ref="F26:F51" si="1">E26*60</f>
+        <v>367.8</v>
       </c>
       <c r="G26" s="3" t="s">
-        <v>81</v>
+        <v>93</v>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
-        <v>23</v>
+        <v>165</v>
       </c>
       <c r="B27" t="s">
         <v>16</v>
       </c>
       <c r="C27" t="s">
-        <v>82</v>
+        <v>166</v>
       </c>
       <c r="D27" t="s">
-        <v>40</v>
+        <v>167</v>
       </c>
       <c r="E27">
-        <v>15</v>
+        <v>138.80000000000001</v>
       </c>
       <c r="F27">
-        <f t="shared" si="0"/>
-        <v>900</v>
+        <f t="shared" si="1"/>
+        <v>8328</v>
       </c>
       <c r="G27" s="3" t="s">
-        <v>83</v>
+        <v>168</v>
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
-        <v>24</v>
+        <v>176</v>
       </c>
       <c r="B28" t="s">
         <v>16</v>
       </c>
       <c r="C28" t="s">
-        <v>84</v>
+        <v>177</v>
       </c>
       <c r="D28" t="s">
-        <v>40</v>
+        <v>88</v>
       </c>
       <c r="E28">
-        <v>22.2</v>
+        <v>329</v>
       </c>
       <c r="F28">
-        <f t="shared" si="0"/>
-        <v>1332</v>
+        <f t="shared" si="1"/>
+        <v>19740</v>
       </c>
       <c r="G28" s="3" t="s">
-        <v>85</v>
+        <v>178</v>
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
-        <v>164</v>
+        <v>180</v>
       </c>
       <c r="B29" t="s">
         <v>16</v>
       </c>
       <c r="C29" t="s">
-        <v>92</v>
+        <v>169</v>
       </c>
       <c r="D29" t="s">
-        <v>91</v>
+        <v>42</v>
       </c>
       <c r="E29">
-        <v>6.13</v>
+        <v>7.1</v>
       </c>
       <c r="F29">
-        <f t="shared" ref="F29:F54" si="1">E29*60</f>
-        <v>367.8</v>
-      </c>
-      <c r="G29" s="3" t="s">
-        <v>93</v>
+        <f t="shared" si="1"/>
+        <v>426</v>
+      </c>
+      <c r="G29" s="4" t="s">
+        <v>170</v>
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
-        <v>165</v>
+        <v>184</v>
       </c>
       <c r="B30" t="s">
         <v>16</v>
       </c>
       <c r="C30" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="D30" t="s">
-        <v>167</v>
+        <v>42</v>
       </c>
       <c r="E30">
-        <v>138.80000000000001</v>
+        <v>7.1</v>
       </c>
       <c r="F30">
         <f t="shared" si="1"/>
-        <v>8328</v>
-      </c>
-      <c r="G30" s="3" t="s">
-        <v>168</v>
+        <v>426</v>
+      </c>
+      <c r="G30" s="4" t="s">
+        <v>170</v>
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
-        <v>176</v>
+        <v>191</v>
       </c>
       <c r="B31" t="s">
         <v>16</v>
       </c>
       <c r="C31" t="s">
-        <v>177</v>
+        <v>199</v>
       </c>
       <c r="D31" t="s">
         <v>88</v>
       </c>
       <c r="E31">
-        <v>329</v>
+        <v>9.94</v>
       </c>
       <c r="F31">
         <f t="shared" si="1"/>
-        <v>19740</v>
-      </c>
-      <c r="G31" s="3" t="s">
-        <v>178</v>
+        <v>596.4</v>
+      </c>
+      <c r="G31" s="4" t="s">
+        <v>200</v>
       </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
-        <v>180</v>
+        <v>192</v>
       </c>
       <c r="B32" t="s">
         <v>16</v>
       </c>
       <c r="C32" t="s">
-        <v>169</v>
+        <v>201</v>
       </c>
       <c r="D32" t="s">
         <v>42</v>
       </c>
       <c r="E32">
-        <v>7.1</v>
+        <v>1.6</v>
       </c>
       <c r="F32">
         <f t="shared" si="1"/>
-        <v>426</v>
+        <v>96</v>
       </c>
       <c r="G32" s="4" t="s">
-        <v>170</v>
+        <v>202</v>
       </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
-        <v>184</v>
+        <v>193</v>
       </c>
       <c r="B33" t="s">
         <v>16</v>
       </c>
       <c r="C33" t="s">
-        <v>169</v>
+        <v>203</v>
       </c>
       <c r="D33" t="s">
-        <v>42</v>
+        <v>88</v>
       </c>
       <c r="E33">
-        <v>7.1</v>
+        <v>1.54</v>
       </c>
       <c r="F33">
         <f t="shared" si="1"/>
-        <v>426</v>
+        <v>92.4</v>
       </c>
       <c r="G33" s="4" t="s">
-        <v>170</v>
+        <v>204</v>
       </c>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
-        <v>191</v>
+        <v>194</v>
       </c>
       <c r="B34" t="s">
         <v>16</v>
       </c>
       <c r="C34" t="s">
-        <v>199</v>
+        <v>205</v>
       </c>
       <c r="D34" t="s">
-        <v>88</v>
+        <v>45</v>
       </c>
       <c r="E34">
-        <v>9.94</v>
+        <v>45</v>
       </c>
       <c r="F34">
         <f t="shared" si="1"/>
-        <v>596.4</v>
+        <v>2700</v>
       </c>
       <c r="G34" s="4" t="s">
-        <v>200</v>
+        <v>206</v>
       </c>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
-        <v>192</v>
+        <v>195</v>
       </c>
       <c r="B35" t="s">
         <v>16</v>
       </c>
       <c r="C35" t="s">
-        <v>201</v>
+        <v>207</v>
       </c>
       <c r="D35" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="E35">
-        <v>1.6</v>
+        <v>25</v>
       </c>
       <c r="F35">
         <f t="shared" si="1"/>
-        <v>96</v>
+        <v>1500</v>
       </c>
       <c r="G35" s="4" t="s">
-        <v>202</v>
+        <v>208</v>
       </c>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
-        <v>193</v>
+        <v>196</v>
       </c>
       <c r="B36" t="s">
         <v>16</v>
       </c>
       <c r="C36" t="s">
-        <v>203</v>
+        <v>197</v>
       </c>
       <c r="D36" t="s">
-        <v>88</v>
+        <v>112</v>
       </c>
       <c r="E36">
-        <v>1.54</v>
+        <v>196.2</v>
       </c>
       <c r="F36">
         <f t="shared" si="1"/>
-        <v>92.4</v>
+        <v>11772</v>
       </c>
       <c r="G36" s="4" t="s">
-        <v>204</v>
+        <v>198</v>
       </c>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A37" t="s">
-        <v>194</v>
+        <v>219</v>
       </c>
       <c r="B37" t="s">
         <v>16</v>
       </c>
       <c r="C37" t="s">
-        <v>205</v>
+        <v>220</v>
       </c>
       <c r="D37" t="s">
-        <v>45</v>
+        <v>88</v>
       </c>
       <c r="E37">
-        <v>45</v>
+        <v>26.1</v>
       </c>
       <c r="F37">
         <f t="shared" si="1"/>
-        <v>2700</v>
+        <v>1566</v>
       </c>
       <c r="G37" s="4" t="s">
-        <v>206</v>
+        <v>221</v>
       </c>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A38" t="s">
-        <v>195</v>
+        <v>237</v>
       </c>
       <c r="B38" t="s">
         <v>16</v>
       </c>
       <c r="C38" t="s">
-        <v>207</v>
+        <v>425</v>
       </c>
       <c r="D38" t="s">
-        <v>45</v>
+        <v>88</v>
       </c>
       <c r="E38">
-        <v>25</v>
+        <v>13.6</v>
       </c>
       <c r="F38">
         <f t="shared" si="1"/>
-        <v>1500</v>
-      </c>
-      <c r="G38" s="4" t="s">
-        <v>208</v>
+        <v>816</v>
+      </c>
+      <c r="G38" s="3" t="s">
+        <v>426</v>
       </c>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A39" t="s">
-        <v>196</v>
+        <v>238</v>
       </c>
       <c r="B39" t="s">
         <v>16</v>
       </c>
       <c r="C39" t="s">
-        <v>197</v>
+        <v>427</v>
       </c>
       <c r="D39" t="s">
-        <v>112</v>
+        <v>45</v>
       </c>
       <c r="E39">
-        <v>196.2</v>
+        <v>3.7890000000000001</v>
       </c>
       <c r="F39">
         <f t="shared" si="1"/>
-        <v>11772</v>
-      </c>
-      <c r="G39" s="4" t="s">
-        <v>198</v>
+        <v>227.34</v>
+      </c>
+      <c r="G39" s="3" t="s">
+        <v>428</v>
       </c>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A40" t="s">
-        <v>219</v>
+        <v>239</v>
       </c>
       <c r="B40" t="s">
         <v>16</v>
       </c>
       <c r="C40" t="s">
-        <v>220</v>
+        <v>429</v>
       </c>
       <c r="D40" t="s">
-        <v>88</v>
+        <v>45</v>
       </c>
       <c r="E40">
-        <v>26.1</v>
+        <v>3.069</v>
       </c>
       <c r="F40">
         <f t="shared" si="1"/>
-        <v>1566</v>
-      </c>
-      <c r="G40" s="4" t="s">
-        <v>221</v>
+        <v>184.14</v>
+      </c>
+      <c r="G40" s="3" t="s">
+        <v>430</v>
       </c>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A41" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="B41" t="s">
         <v>16</v>
       </c>
       <c r="C41" t="s">
-        <v>426</v>
+        <v>431</v>
       </c>
       <c r="D41" t="s">
-        <v>88</v>
+        <v>45</v>
       </c>
       <c r="E41">
-        <v>13.6</v>
+        <v>2.08</v>
       </c>
       <c r="F41">
         <f t="shared" si="1"/>
-        <v>816</v>
+        <v>124.80000000000001</v>
       </c>
       <c r="G41" s="3" t="s">
-        <v>427</v>
+        <v>432</v>
       </c>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A42" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="B42" t="s">
         <v>16</v>
       </c>
       <c r="C42" t="s">
-        <v>428</v>
+        <v>433</v>
       </c>
       <c r="D42" t="s">
-        <v>45</v>
+        <v>434</v>
       </c>
       <c r="E42">
-        <v>3.7890000000000001</v>
+        <v>7.3</v>
       </c>
       <c r="F42">
         <f t="shared" si="1"/>
-        <v>227.34</v>
+        <v>438</v>
       </c>
       <c r="G42" s="3" t="s">
-        <v>429</v>
+        <v>435</v>
       </c>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A43" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="B43" t="s">
         <v>16</v>
       </c>
       <c r="C43" t="s">
-        <v>430</v>
+        <v>43</v>
       </c>
       <c r="D43" t="s">
         <v>45</v>
       </c>
       <c r="E43">
-        <v>3.069</v>
+        <v>170</v>
       </c>
       <c r="F43">
         <f t="shared" si="1"/>
-        <v>184.14</v>
+        <v>10200</v>
       </c>
       <c r="G43" s="3" t="s">
-        <v>431</v>
+        <v>46</v>
       </c>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A44" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="B44" t="s">
         <v>16</v>
       </c>
       <c r="C44" t="s">
-        <v>432</v>
+        <v>436</v>
       </c>
       <c r="D44" t="s">
         <v>45</v>
       </c>
       <c r="E44">
-        <v>2.08</v>
+        <v>68.3</v>
       </c>
       <c r="F44">
         <f t="shared" si="1"/>
-        <v>124.80000000000001</v>
-      </c>
-      <c r="G44" s="3" t="s">
-        <v>433</v>
+        <v>4098</v>
+      </c>
+      <c r="G44" s="1" t="s">
+        <v>437</v>
       </c>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A45" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="B45" t="s">
         <v>16</v>
       </c>
       <c r="C45" t="s">
-        <v>434</v>
+        <v>438</v>
       </c>
       <c r="D45" t="s">
-        <v>435</v>
+        <v>40</v>
       </c>
       <c r="E45">
-        <v>7.3</v>
+        <v>410</v>
       </c>
       <c r="F45">
         <f t="shared" si="1"/>
-        <v>438</v>
+        <v>24600</v>
       </c>
       <c r="G45" s="3" t="s">
-        <v>436</v>
+        <v>439</v>
       </c>
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A46" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="B46" t="s">
         <v>16</v>
       </c>
       <c r="C46" t="s">
-        <v>43</v>
+        <v>440</v>
       </c>
       <c r="D46" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="E46">
-        <v>170</v>
+        <v>20.931999999999999</v>
       </c>
       <c r="F46">
         <f t="shared" si="1"/>
-        <v>10200</v>
+        <v>1255.9199999999998</v>
       </c>
       <c r="G46" s="3" t="s">
-        <v>46</v>
+        <v>441</v>
       </c>
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A47" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="B47" t="s">
         <v>16</v>
       </c>
       <c r="C47" t="s">
-        <v>437</v>
+        <v>442</v>
       </c>
       <c r="D47" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="E47">
-        <v>68.3</v>
+        <v>10.3</v>
       </c>
       <c r="F47">
         <f t="shared" si="1"/>
-        <v>4098</v>
-      </c>
-      <c r="G47" s="1" t="s">
-        <v>438</v>
+        <v>618</v>
+      </c>
+      <c r="G47" s="3" t="s">
+        <v>443</v>
       </c>
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A48" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="B48" t="s">
         <v>16</v>
       </c>
       <c r="C48" t="s">
-        <v>439</v>
+        <v>444</v>
       </c>
       <c r="D48" t="s">
         <v>40</v>
       </c>
       <c r="E48">
-        <v>410</v>
+        <v>1.76</v>
       </c>
       <c r="F48">
         <f t="shared" si="1"/>
-        <v>24600</v>
+        <v>105.6</v>
       </c>
       <c r="G48" s="3" t="s">
-        <v>440</v>
+        <v>445</v>
       </c>
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A49" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="B49" t="s">
         <v>16</v>
       </c>
       <c r="C49" t="s">
-        <v>441</v>
+        <v>446</v>
       </c>
       <c r="D49" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="E49">
-        <v>20.931999999999999</v>
+        <v>3.27E-2</v>
       </c>
       <c r="F49">
         <f t="shared" si="1"/>
-        <v>1255.9199999999998</v>
+        <v>1.962</v>
       </c>
       <c r="G49" s="3" t="s">
-        <v>442</v>
+        <v>447</v>
       </c>
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A50" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="B50" t="s">
         <v>16</v>
       </c>
       <c r="C50" t="s">
-        <v>443</v>
+        <v>448</v>
       </c>
       <c r="D50" t="s">
         <v>40</v>
       </c>
       <c r="E50">
-        <v>10.3</v>
+        <v>350.02</v>
       </c>
       <c r="F50">
         <f t="shared" si="1"/>
-        <v>618</v>
+        <v>21001.199999999997</v>
       </c>
       <c r="G50" s="3" t="s">
-        <v>444</v>
+        <v>449</v>
       </c>
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A51" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="B51" t="s">
         <v>16</v>
       </c>
       <c r="C51" t="s">
-        <v>445</v>
+        <v>450</v>
       </c>
       <c r="D51" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="E51">
-        <v>1.76</v>
+        <v>2.3999999999999998E-3</v>
       </c>
       <c r="F51">
         <f t="shared" si="1"/>
-        <v>105.6</v>
+        <v>0.14399999999999999</v>
       </c>
       <c r="G51" s="3" t="s">
-        <v>446</v>
+        <v>451</v>
       </c>
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A52" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="B52" t="s">
         <v>16</v>
       </c>
       <c r="C52" t="s">
-        <v>447</v>
+        <v>444</v>
       </c>
       <c r="D52" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="E52">
-        <v>3.27E-2</v>
+        <v>1.76</v>
       </c>
       <c r="F52">
-        <f t="shared" si="1"/>
-        <v>1.962</v>
+        <f t="shared" ref="F52:F70" si="2">E52*60</f>
+        <v>105.6</v>
       </c>
       <c r="G52" s="3" t="s">
-        <v>448</v>
+        <v>445</v>
       </c>
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A53" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="B53" t="s">
         <v>16</v>
       </c>
       <c r="C53" t="s">
-        <v>449</v>
+        <v>431</v>
       </c>
       <c r="D53" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="E53">
-        <v>350.02</v>
+        <v>2.08</v>
       </c>
       <c r="F53">
-        <f t="shared" si="1"/>
-        <v>21001.199999999997</v>
+        <f t="shared" si="2"/>
+        <v>124.80000000000001</v>
       </c>
       <c r="G53" s="3" t="s">
-        <v>450</v>
+        <v>432</v>
       </c>
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A54" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="B54" t="s">
         <v>16</v>
       </c>
       <c r="C54" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="D54" t="s">
         <v>45</v>
       </c>
       <c r="E54">
-        <v>2.3999999999999998E-3</v>
+        <v>138</v>
       </c>
       <c r="F54">
-        <f t="shared" si="1"/>
-        <v>0.14399999999999999</v>
+        <f t="shared" si="2"/>
+        <v>8280</v>
       </c>
       <c r="G54" s="3" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
     </row>
     <row r="55" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A55" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="B55" t="s">
         <v>16</v>
       </c>
       <c r="C55" t="s">
-        <v>445</v>
+        <v>431</v>
       </c>
       <c r="D55" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="E55">
-        <v>1.76</v>
+        <v>2.08</v>
       </c>
       <c r="F55">
-        <f t="shared" ref="F55:F73" si="2">E55*60</f>
-        <v>105.6</v>
+        <f t="shared" si="2"/>
+        <v>124.80000000000001</v>
       </c>
       <c r="G55" s="3" t="s">
-        <v>446</v>
+        <v>432</v>
       </c>
     </row>
     <row r="56" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A56" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="B56" t="s">
         <v>16</v>
       </c>
       <c r="C56" t="s">
-        <v>432</v>
+        <v>169</v>
       </c>
       <c r="D56" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="E56">
-        <v>2.08</v>
+        <v>32</v>
       </c>
       <c r="F56">
         <f t="shared" si="2"/>
-        <v>124.80000000000001</v>
+        <v>1920</v>
       </c>
       <c r="G56" s="3" t="s">
-        <v>433</v>
+        <v>454</v>
       </c>
     </row>
     <row r="57" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A57" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="B57" t="s">
         <v>16</v>
       </c>
       <c r="C57" t="s">
-        <v>453</v>
+        <v>429</v>
       </c>
       <c r="D57" t="s">
         <v>45</v>
       </c>
       <c r="E57">
-        <v>138</v>
+        <v>3.069</v>
       </c>
       <c r="F57">
         <f t="shared" si="2"/>
-        <v>8280</v>
+        <v>184.14</v>
       </c>
       <c r="G57" s="3" t="s">
-        <v>454</v>
+        <v>430</v>
       </c>
     </row>
     <row r="58" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A58" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="B58" t="s">
         <v>16</v>
       </c>
       <c r="C58" t="s">
-        <v>432</v>
+        <v>455</v>
       </c>
       <c r="D58" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="E58">
-        <v>2.08</v>
+        <v>6.5799999999999999E-3</v>
       </c>
       <c r="F58">
         <f t="shared" si="2"/>
-        <v>124.80000000000001</v>
+        <v>0.39479999999999998</v>
       </c>
       <c r="G58" s="3" t="s">
-        <v>433</v>
+        <v>456</v>
       </c>
     </row>
     <row r="59" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A59" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="B59" t="s">
         <v>16</v>
       </c>
       <c r="C59" t="s">
-        <v>169</v>
+        <v>457</v>
       </c>
       <c r="D59" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="E59">
-        <v>32</v>
+        <v>2E-3</v>
       </c>
       <c r="F59">
         <f t="shared" si="2"/>
-        <v>1920</v>
+        <v>0.12</v>
       </c>
       <c r="G59" s="3" t="s">
-        <v>455</v>
+        <v>458</v>
       </c>
     </row>
     <row r="60" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A60" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="B60" t="s">
         <v>16</v>
       </c>
       <c r="C60" t="s">
-        <v>430</v>
+        <v>459</v>
       </c>
       <c r="D60" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="E60">
-        <v>3.069</v>
+        <v>206</v>
       </c>
       <c r="F60">
         <f t="shared" si="2"/>
-        <v>184.14</v>
+        <v>12360</v>
       </c>
       <c r="G60" s="3" t="s">
-        <v>431</v>
+        <v>460</v>
       </c>
     </row>
     <row r="61" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A61" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="B61" t="s">
         <v>16</v>
       </c>
       <c r="C61" t="s">
-        <v>456</v>
+        <v>461</v>
       </c>
       <c r="D61" t="s">
-        <v>42</v>
+        <v>88</v>
       </c>
       <c r="E61">
-        <v>6.5799999999999999E-3</v>
+        <v>5.8599999999999999E-2</v>
       </c>
       <c r="F61">
         <f t="shared" si="2"/>
-        <v>0.39479999999999998</v>
+        <v>3.516</v>
       </c>
       <c r="G61" s="3" t="s">
-        <v>457</v>
+        <v>462</v>
       </c>
     </row>
     <row r="62" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A62" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="B62" t="s">
         <v>16</v>
       </c>
       <c r="C62" t="s">
-        <v>458</v>
+        <v>463</v>
       </c>
       <c r="D62" t="s">
-        <v>45</v>
+        <v>88</v>
       </c>
       <c r="E62">
-        <v>2E-3</v>
+        <v>3.3</v>
       </c>
       <c r="F62">
         <f t="shared" si="2"/>
-        <v>0.12</v>
+        <v>198</v>
       </c>
       <c r="G62" s="3" t="s">
-        <v>459</v>
+        <v>464</v>
       </c>
     </row>
     <row r="63" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A63" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="B63" t="s">
         <v>16</v>
       </c>
       <c r="C63" t="s">
-        <v>460</v>
+        <v>465</v>
       </c>
       <c r="D63" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="E63">
-        <v>206</v>
+        <v>51</v>
       </c>
       <c r="F63">
         <f t="shared" si="2"/>
-        <v>12360</v>
+        <v>3060</v>
       </c>
       <c r="G63" s="3" t="s">
-        <v>461</v>
+        <v>466</v>
       </c>
     </row>
     <row r="64" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A64" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="B64" t="s">
         <v>16</v>
       </c>
       <c r="C64" t="s">
-        <v>462</v>
+        <v>467</v>
       </c>
       <c r="D64" t="s">
-        <v>88</v>
+        <v>40</v>
       </c>
       <c r="E64">
-        <v>5.8599999999999999E-2</v>
+        <v>137</v>
       </c>
       <c r="F64">
         <f t="shared" si="2"/>
-        <v>3.516</v>
+        <v>8220</v>
       </c>
       <c r="G64" s="3" t="s">
-        <v>463</v>
+        <v>468</v>
       </c>
     </row>
     <row r="65" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A65" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="B65" t="s">
         <v>16</v>
       </c>
       <c r="C65" t="s">
-        <v>464</v>
+        <v>469</v>
       </c>
       <c r="D65" t="s">
-        <v>88</v>
+        <v>45</v>
       </c>
       <c r="E65">
-        <v>3.3</v>
+        <v>1.07E-3</v>
       </c>
       <c r="F65">
         <f t="shared" si="2"/>
-        <v>198</v>
-      </c>
-      <c r="G65" s="3" t="s">
-        <v>465</v>
+        <v>6.4199999999999993E-2</v>
+      </c>
+      <c r="G65" s="1" t="s">
+        <v>470</v>
       </c>
     </row>
     <row r="66" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A66" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="B66" t="s">
         <v>16</v>
       </c>
       <c r="C66" t="s">
-        <v>466</v>
+        <v>471</v>
       </c>
       <c r="D66" t="s">
-        <v>45</v>
+        <v>88</v>
       </c>
       <c r="E66">
-        <v>51</v>
+        <v>989</v>
       </c>
       <c r="F66">
         <f t="shared" si="2"/>
-        <v>3060</v>
+        <v>59340</v>
       </c>
       <c r="G66" s="3" t="s">
-        <v>467</v>
+        <v>472</v>
       </c>
     </row>
     <row r="67" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A67" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="B67" t="s">
         <v>16</v>
       </c>
       <c r="C67" t="s">
-        <v>468</v>
+        <v>473</v>
       </c>
       <c r="D67" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="E67">
-        <v>137</v>
+        <v>0.31</v>
       </c>
       <c r="F67">
         <f t="shared" si="2"/>
-        <v>8220</v>
+        <v>18.600000000000001</v>
       </c>
       <c r="G67" s="3" t="s">
-        <v>469</v>
+        <v>474</v>
       </c>
     </row>
     <row r="68" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A68" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="B68" t="s">
         <v>16</v>
       </c>
       <c r="C68" t="s">
-        <v>470</v>
+        <v>475</v>
       </c>
       <c r="D68" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="E68">
-        <v>1.07E-3</v>
+        <v>46</v>
       </c>
       <c r="F68">
         <f t="shared" si="2"/>
-        <v>6.4199999999999993E-2</v>
-      </c>
-      <c r="G68" s="1" t="s">
-        <v>471</v>
+        <v>2760</v>
+      </c>
+      <c r="G68" s="3" t="s">
+        <v>476</v>
       </c>
     </row>
     <row r="69" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A69" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="B69" t="s">
         <v>16</v>
       </c>
       <c r="C69" t="s">
-        <v>472</v>
+        <v>477</v>
       </c>
       <c r="D69" t="s">
-        <v>88</v>
+        <v>45</v>
       </c>
       <c r="E69">
-        <v>989</v>
+        <v>0.81599999999999995</v>
       </c>
       <c r="F69">
         <f t="shared" si="2"/>
-        <v>59340</v>
+        <v>48.959999999999994</v>
       </c>
       <c r="G69" s="3" t="s">
-        <v>473</v>
+        <v>478</v>
       </c>
     </row>
     <row r="70" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A70" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="B70" t="s">
         <v>16</v>
       </c>
       <c r="C70" t="s">
-        <v>474</v>
+        <v>479</v>
       </c>
       <c r="D70" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="E70">
-        <v>0.31</v>
+        <v>5.5</v>
       </c>
       <c r="F70">
         <f t="shared" si="2"/>
-        <v>18.600000000000001</v>
+        <v>330</v>
       </c>
       <c r="G70" s="3" t="s">
-        <v>475</v>
+        <v>480</v>
       </c>
     </row>
     <row r="71" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A71" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="B71" t="s">
         <v>16</v>
       </c>
       <c r="C71" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="D71" t="s">
         <v>40</v>
@@ -4192,70 +4189,70 @@
         <v>46</v>
       </c>
       <c r="F71">
-        <f t="shared" si="2"/>
+        <f t="shared" ref="F71:F80" si="3">E71*60</f>
         <v>2760</v>
       </c>
       <c r="G71" s="3" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
     </row>
     <row r="72" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A72" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="B72" t="s">
         <v>16</v>
       </c>
       <c r="C72" t="s">
-        <v>478</v>
+        <v>481</v>
       </c>
       <c r="D72" t="s">
-        <v>45</v>
+        <v>146</v>
       </c>
       <c r="E72">
-        <v>0.81599999999999995</v>
+        <v>71</v>
       </c>
       <c r="F72">
-        <f t="shared" si="2"/>
-        <v>48.959999999999994</v>
+        <f t="shared" si="3"/>
+        <v>4260</v>
       </c>
       <c r="G72" s="3" t="s">
-        <v>479</v>
+        <v>482</v>
       </c>
     </row>
     <row r="73" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A73" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="B73" t="s">
         <v>16</v>
       </c>
       <c r="C73" t="s">
-        <v>480</v>
+        <v>483</v>
       </c>
       <c r="D73" t="s">
-        <v>40</v>
+        <v>88</v>
       </c>
       <c r="E73">
-        <v>5.5</v>
+        <v>0.49</v>
       </c>
       <c r="F73">
-        <f t="shared" si="2"/>
-        <v>330</v>
+        <f t="shared" si="3"/>
+        <v>29.4</v>
       </c>
       <c r="G73" s="3" t="s">
-        <v>481</v>
+        <v>484</v>
       </c>
     </row>
     <row r="74" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A74" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="B74" t="s">
         <v>16</v>
       </c>
       <c r="C74" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="D74" t="s">
         <v>40</v>
@@ -4264,790 +4261,790 @@
         <v>46</v>
       </c>
       <c r="F74">
-        <f t="shared" ref="F74:F83" si="3">E74*60</f>
+        <f t="shared" si="3"/>
         <v>2760</v>
       </c>
       <c r="G74" s="3" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
     </row>
     <row r="75" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A75" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="B75" t="s">
         <v>16</v>
       </c>
       <c r="C75" t="s">
-        <v>482</v>
+        <v>469</v>
       </c>
       <c r="D75" t="s">
-        <v>146</v>
+        <v>45</v>
       </c>
       <c r="E75">
-        <v>71</v>
+        <v>1.07E-3</v>
       </c>
       <c r="F75">
         <f t="shared" si="3"/>
-        <v>4260</v>
-      </c>
-      <c r="G75" s="3" t="s">
-        <v>483</v>
+        <v>6.4199999999999993E-2</v>
+      </c>
+      <c r="G75" s="1" t="s">
+        <v>470</v>
       </c>
     </row>
     <row r="76" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A76" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="B76" t="s">
         <v>16</v>
       </c>
       <c r="C76" t="s">
-        <v>484</v>
+        <v>431</v>
       </c>
       <c r="D76" t="s">
-        <v>88</v>
+        <v>45</v>
       </c>
       <c r="E76">
-        <v>0.49</v>
+        <v>2.08</v>
       </c>
       <c r="F76">
         <f t="shared" si="3"/>
-        <v>29.4</v>
+        <v>124.80000000000001</v>
       </c>
       <c r="G76" s="3" t="s">
-        <v>485</v>
+        <v>432</v>
       </c>
     </row>
     <row r="77" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A77" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="B77" t="s">
         <v>16</v>
       </c>
       <c r="C77" t="s">
-        <v>476</v>
+        <v>485</v>
       </c>
       <c r="D77" t="s">
         <v>40</v>
       </c>
       <c r="E77">
-        <v>46</v>
+        <v>3.2712232620320854</v>
       </c>
       <c r="F77">
         <f t="shared" si="3"/>
-        <v>2760</v>
+        <v>196.27339572192511</v>
       </c>
       <c r="G77" s="3" t="s">
-        <v>477</v>
+        <v>486</v>
       </c>
     </row>
     <row r="78" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A78" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="B78" t="s">
         <v>16</v>
       </c>
       <c r="C78" t="s">
-        <v>470</v>
+        <v>487</v>
       </c>
       <c r="D78" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="E78">
-        <v>1.07E-3</v>
+        <v>5.0999999999999996</v>
       </c>
       <c r="F78">
         <f t="shared" si="3"/>
-        <v>6.4199999999999993E-2</v>
-      </c>
-      <c r="G78" s="1" t="s">
-        <v>471</v>
+        <v>306</v>
+      </c>
+      <c r="G78" s="3" t="s">
+        <v>488</v>
       </c>
     </row>
     <row r="79" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A79" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="B79" t="s">
         <v>16</v>
       </c>
       <c r="C79" t="s">
-        <v>432</v>
+        <v>489</v>
       </c>
       <c r="D79" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="E79">
-        <v>2.08</v>
+        <v>4.7</v>
       </c>
       <c r="F79">
         <f t="shared" si="3"/>
-        <v>124.80000000000001</v>
+        <v>282</v>
       </c>
       <c r="G79" s="3" t="s">
-        <v>433</v>
+        <v>490</v>
       </c>
     </row>
     <row r="80" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A80" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="B80" t="s">
         <v>16</v>
       </c>
       <c r="C80" t="s">
-        <v>486</v>
+        <v>469</v>
       </c>
       <c r="D80" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="E80">
-        <v>3.2712232620320854</v>
+        <v>1.07E-3</v>
       </c>
       <c r="F80">
         <f t="shared" si="3"/>
-        <v>196.27339572192511</v>
-      </c>
-      <c r="G80" s="3" t="s">
-        <v>487</v>
+        <v>6.4199999999999993E-2</v>
+      </c>
+      <c r="G80" s="1" t="s">
+        <v>470</v>
       </c>
     </row>
     <row r="81" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A81" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="B81" t="s">
         <v>16</v>
       </c>
       <c r="C81" t="s">
-        <v>488</v>
+        <v>489</v>
       </c>
       <c r="D81" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="E81">
-        <v>5.0999999999999996</v>
+        <v>4.7</v>
       </c>
       <c r="F81">
-        <f t="shared" si="3"/>
-        <v>306</v>
+        <f t="shared" ref="F81:F106" si="4">E81*60</f>
+        <v>282</v>
       </c>
       <c r="G81" s="3" t="s">
-        <v>489</v>
+        <v>490</v>
       </c>
     </row>
     <row r="82" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A82" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="B82" t="s">
         <v>16</v>
       </c>
       <c r="C82" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c r="D82" t="s">
-        <v>40</v>
+        <v>492</v>
       </c>
       <c r="E82">
-        <v>4.7</v>
+        <v>8.75</v>
       </c>
       <c r="F82">
-        <f t="shared" si="3"/>
-        <v>282</v>
+        <f t="shared" si="4"/>
+        <v>525</v>
       </c>
       <c r="G82" s="3" t="s">
-        <v>491</v>
+        <v>493</v>
       </c>
     </row>
     <row r="83" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A83" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="B83" t="s">
         <v>16</v>
       </c>
       <c r="C83" t="s">
-        <v>470</v>
+        <v>491</v>
       </c>
       <c r="D83" t="s">
-        <v>45</v>
+        <v>492</v>
       </c>
       <c r="E83">
-        <v>1.07E-3</v>
+        <v>21</v>
       </c>
       <c r="F83">
-        <f t="shared" si="3"/>
-        <v>6.4199999999999993E-2</v>
-      </c>
-      <c r="G83" s="1" t="s">
-        <v>471</v>
+        <f t="shared" si="4"/>
+        <v>1260</v>
+      </c>
+      <c r="G83" s="3" t="s">
+        <v>493</v>
       </c>
     </row>
     <row r="84" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A84" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="B84" t="s">
         <v>16</v>
       </c>
       <c r="C84" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c r="D84" t="s">
-        <v>40</v>
+        <v>492</v>
       </c>
       <c r="E84">
-        <v>4.7</v>
+        <v>9.3800000000000008</v>
       </c>
       <c r="F84">
-        <f t="shared" ref="F84:F109" si="4">E84*60</f>
-        <v>282</v>
+        <f t="shared" si="4"/>
+        <v>562.80000000000007</v>
       </c>
       <c r="G84" s="3" t="s">
-        <v>491</v>
+        <v>493</v>
       </c>
     </row>
     <row r="85" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A85" t="s">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="B85" t="s">
         <v>16</v>
       </c>
       <c r="C85" t="s">
+        <v>494</v>
+      </c>
+      <c r="D85" t="s">
         <v>492</v>
       </c>
-      <c r="D85" t="s">
-        <v>493</v>
-      </c>
       <c r="E85">
-        <v>8.75</v>
+        <v>0.114</v>
       </c>
       <c r="F85">
         <f t="shared" si="4"/>
-        <v>525</v>
+        <v>6.84</v>
       </c>
       <c r="G85" s="3" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
     </row>
     <row r="86" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A86" t="s">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="B86" t="s">
         <v>16</v>
       </c>
       <c r="C86" t="s">
-        <v>492</v>
+        <v>496</v>
       </c>
       <c r="D86" t="s">
-        <v>493</v>
+        <v>45</v>
       </c>
       <c r="E86">
-        <v>21</v>
+        <v>0.98</v>
       </c>
       <c r="F86">
         <f t="shared" si="4"/>
-        <v>1260</v>
-      </c>
-      <c r="G86" s="3" t="s">
-        <v>494</v>
+        <v>58.8</v>
+      </c>
+      <c r="G86" s="1" t="s">
+        <v>497</v>
       </c>
     </row>
     <row r="87" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A87" t="s">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="B87" t="s">
         <v>16</v>
       </c>
       <c r="C87" t="s">
-        <v>492</v>
+        <v>467</v>
       </c>
       <c r="D87" t="s">
-        <v>493</v>
+        <v>40</v>
       </c>
       <c r="E87">
-        <v>9.3800000000000008</v>
+        <v>137</v>
       </c>
       <c r="F87">
         <f t="shared" si="4"/>
-        <v>562.80000000000007</v>
+        <v>8220</v>
       </c>
       <c r="G87" s="3" t="s">
-        <v>494</v>
+        <v>468</v>
       </c>
     </row>
     <row r="88" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A88" t="s">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="B88" t="s">
         <v>16</v>
       </c>
       <c r="C88" t="s">
-        <v>495</v>
+        <v>498</v>
       </c>
       <c r="D88" t="s">
-        <v>493</v>
+        <v>40</v>
       </c>
       <c r="E88">
-        <v>0.114</v>
+        <v>1180</v>
       </c>
       <c r="F88">
         <f t="shared" si="4"/>
-        <v>6.84</v>
+        <v>70800</v>
       </c>
       <c r="G88" s="3" t="s">
-        <v>496</v>
+        <v>499</v>
       </c>
     </row>
     <row r="89" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A89" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="B89" t="s">
         <v>16</v>
       </c>
       <c r="C89" t="s">
-        <v>497</v>
+        <v>500</v>
       </c>
       <c r="D89" t="s">
-        <v>45</v>
+        <v>88</v>
       </c>
       <c r="E89">
-        <v>0.98</v>
+        <v>143</v>
       </c>
       <c r="F89">
         <f t="shared" si="4"/>
-        <v>58.8</v>
-      </c>
-      <c r="G89" s="1" t="s">
-        <v>498</v>
+        <v>8580</v>
+      </c>
+      <c r="G89" s="3" t="s">
+        <v>501</v>
       </c>
     </row>
     <row r="90" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A90" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="B90" t="s">
         <v>16</v>
       </c>
       <c r="C90" t="s">
-        <v>468</v>
+        <v>502</v>
       </c>
       <c r="D90" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="E90">
-        <v>137</v>
+        <v>1.7</v>
       </c>
       <c r="F90">
         <f t="shared" si="4"/>
-        <v>8220</v>
+        <v>102</v>
       </c>
       <c r="G90" s="3" t="s">
-        <v>469</v>
+        <v>503</v>
       </c>
     </row>
     <row r="91" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A91" t="s">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="B91" t="s">
         <v>16</v>
       </c>
       <c r="C91" t="s">
-        <v>499</v>
+        <v>504</v>
       </c>
       <c r="D91" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="E91">
-        <v>1180</v>
+        <v>0.33</v>
       </c>
       <c r="F91">
         <f t="shared" si="4"/>
-        <v>70800</v>
+        <v>19.8</v>
       </c>
       <c r="G91" s="3" t="s">
-        <v>500</v>
+        <v>505</v>
       </c>
     </row>
     <row r="92" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A92" t="s">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="B92" t="s">
         <v>16</v>
       </c>
       <c r="C92" t="s">
-        <v>501</v>
+        <v>506</v>
       </c>
       <c r="D92" t="s">
-        <v>88</v>
+        <v>40</v>
       </c>
       <c r="E92">
-        <v>143</v>
+        <v>34.799999999999997</v>
       </c>
       <c r="F92">
         <f t="shared" si="4"/>
-        <v>8580</v>
+        <v>2088</v>
       </c>
       <c r="G92" s="3" t="s">
-        <v>502</v>
+        <v>507</v>
       </c>
     </row>
     <row r="93" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A93" t="s">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="B93" t="s">
         <v>16</v>
       </c>
       <c r="C93" t="s">
-        <v>503</v>
+        <v>508</v>
       </c>
       <c r="D93" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="E93">
-        <v>1.7</v>
+        <v>25</v>
       </c>
       <c r="F93">
         <f t="shared" si="4"/>
-        <v>102</v>
+        <v>1500</v>
       </c>
       <c r="G93" s="3" t="s">
-        <v>504</v>
+        <v>509</v>
       </c>
     </row>
     <row r="94" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A94" t="s">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="B94" t="s">
         <v>16</v>
       </c>
       <c r="C94" t="s">
-        <v>505</v>
+        <v>510</v>
       </c>
       <c r="D94" t="s">
         <v>45</v>
       </c>
       <c r="E94">
-        <v>0.33</v>
+        <v>14.9</v>
       </c>
       <c r="F94">
         <f t="shared" si="4"/>
-        <v>19.8</v>
+        <v>894</v>
       </c>
       <c r="G94" s="3" t="s">
-        <v>506</v>
+        <v>511</v>
       </c>
     </row>
     <row r="95" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A95" t="s">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="B95" t="s">
         <v>16</v>
       </c>
       <c r="C95" t="s">
-        <v>507</v>
+        <v>512</v>
       </c>
       <c r="D95" t="s">
         <v>40</v>
       </c>
       <c r="E95">
-        <v>34.799999999999997</v>
+        <v>8.9309366130558185</v>
       </c>
       <c r="F95">
         <f t="shared" si="4"/>
-        <v>2088</v>
+        <v>535.85619678334911</v>
       </c>
       <c r="G95" s="3" t="s">
-        <v>508</v>
+        <v>513</v>
       </c>
     </row>
     <row r="96" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A96" t="s">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="B96" t="s">
         <v>16</v>
       </c>
       <c r="C96" t="s">
-        <v>509</v>
+        <v>514</v>
       </c>
       <c r="D96" t="s">
         <v>40</v>
       </c>
       <c r="E96">
-        <v>25</v>
+        <v>2.6</v>
       </c>
       <c r="F96">
         <f t="shared" si="4"/>
-        <v>1500</v>
+        <v>156</v>
       </c>
       <c r="G96" s="3" t="s">
-        <v>510</v>
+        <v>515</v>
       </c>
     </row>
     <row r="97" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A97" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="B97" t="s">
         <v>16</v>
       </c>
       <c r="C97" t="s">
-        <v>511</v>
+        <v>516</v>
       </c>
       <c r="D97" t="s">
         <v>45</v>
       </c>
       <c r="E97">
-        <v>14.9</v>
+        <v>0.83</v>
       </c>
       <c r="F97">
         <f t="shared" si="4"/>
-        <v>894</v>
+        <v>49.8</v>
       </c>
       <c r="G97" s="3" t="s">
-        <v>512</v>
+        <v>517</v>
       </c>
     </row>
     <row r="98" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A98" t="s">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="B98" t="s">
         <v>16</v>
       </c>
       <c r="C98" t="s">
-        <v>513</v>
+        <v>518</v>
       </c>
       <c r="D98" t="s">
-        <v>40</v>
+        <v>88</v>
       </c>
       <c r="E98">
-        <v>8.9309366130558185</v>
+        <v>684</v>
       </c>
       <c r="F98">
         <f t="shared" si="4"/>
-        <v>535.85619678334911</v>
+        <v>41040</v>
       </c>
       <c r="G98" s="3" t="s">
-        <v>514</v>
+        <v>519</v>
       </c>
     </row>
     <row r="99" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A99" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="B99" t="s">
         <v>16</v>
       </c>
       <c r="C99" t="s">
-        <v>515</v>
+        <v>520</v>
       </c>
       <c r="D99" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="E99">
-        <v>2.6</v>
+        <v>3.17</v>
       </c>
       <c r="F99">
         <f t="shared" si="4"/>
-        <v>156</v>
+        <v>190.2</v>
       </c>
       <c r="G99" s="3" t="s">
-        <v>516</v>
+        <v>521</v>
       </c>
     </row>
     <row r="100" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A100" t="s">
-        <v>297</v>
+        <v>299</v>
       </c>
       <c r="B100" t="s">
         <v>16</v>
       </c>
       <c r="C100" t="s">
-        <v>517</v>
+        <v>522</v>
       </c>
       <c r="D100" t="s">
         <v>45</v>
       </c>
       <c r="E100">
-        <v>0.83</v>
+        <v>3.5999999999999997E-2</v>
       </c>
       <c r="F100">
         <f t="shared" si="4"/>
-        <v>49.8</v>
+        <v>2.1599999999999997</v>
       </c>
       <c r="G100" s="3" t="s">
-        <v>518</v>
+        <v>523</v>
       </c>
     </row>
     <row r="101" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A101" t="s">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="B101" t="s">
         <v>16</v>
       </c>
       <c r="C101" t="s">
-        <v>519</v>
+        <v>524</v>
       </c>
       <c r="D101" t="s">
-        <v>88</v>
+        <v>45</v>
       </c>
       <c r="E101">
-        <v>684</v>
+        <v>24.1</v>
       </c>
       <c r="F101">
         <f t="shared" si="4"/>
-        <v>41040</v>
+        <v>1446</v>
       </c>
       <c r="G101" s="3" t="s">
-        <v>520</v>
+        <v>525</v>
       </c>
     </row>
     <row r="102" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A102" t="s">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="B102" t="s">
         <v>16</v>
       </c>
       <c r="C102" t="s">
-        <v>521</v>
+        <v>526</v>
       </c>
       <c r="D102" t="s">
-        <v>45</v>
+        <v>112</v>
       </c>
       <c r="E102">
-        <v>3.17</v>
+        <v>2.5</v>
       </c>
       <c r="F102">
         <f t="shared" si="4"/>
-        <v>190.2</v>
+        <v>150</v>
       </c>
       <c r="G102" s="3" t="s">
-        <v>522</v>
+        <v>527</v>
       </c>
     </row>
     <row r="103" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A103" t="s">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="B103" t="s">
         <v>16</v>
       </c>
       <c r="C103" t="s">
-        <v>523</v>
+        <v>491</v>
       </c>
       <c r="D103" t="s">
-        <v>45</v>
+        <v>528</v>
       </c>
       <c r="E103">
-        <v>3.5999999999999997E-2</v>
+        <v>4.9000000000000004</v>
       </c>
       <c r="F103">
         <f t="shared" si="4"/>
-        <v>2.1599999999999997</v>
+        <v>294</v>
       </c>
       <c r="G103" s="3" t="s">
-        <v>524</v>
+        <v>529</v>
       </c>
     </row>
     <row r="104" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A104" t="s">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="B104" t="s">
         <v>16</v>
       </c>
       <c r="C104" t="s">
-        <v>525</v>
+        <v>444</v>
       </c>
       <c r="D104" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="E104">
-        <v>24.1</v>
+        <v>1.76</v>
       </c>
       <c r="F104">
         <f t="shared" si="4"/>
-        <v>1446</v>
+        <v>105.6</v>
       </c>
       <c r="G104" s="3" t="s">
-        <v>526</v>
+        <v>445</v>
       </c>
     </row>
     <row r="105" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A105" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="B105" t="s">
         <v>16</v>
       </c>
       <c r="C105" t="s">
-        <v>527</v>
+        <v>530</v>
       </c>
       <c r="D105" t="s">
-        <v>112</v>
+        <v>42</v>
       </c>
       <c r="E105">
-        <v>2.5</v>
+        <v>1240</v>
       </c>
       <c r="F105">
         <f t="shared" si="4"/>
-        <v>150</v>
+        <v>74400</v>
       </c>
       <c r="G105" s="3" t="s">
-        <v>528</v>
+        <v>531</v>
       </c>
     </row>
     <row r="106" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A106" t="s">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="B106" t="s">
         <v>16</v>
       </c>
       <c r="C106" t="s">
-        <v>492</v>
+        <v>452</v>
       </c>
       <c r="D106" t="s">
-        <v>529</v>
+        <v>45</v>
       </c>
       <c r="E106">
-        <v>4.9000000000000004</v>
+        <v>138</v>
       </c>
       <c r="F106">
         <f t="shared" si="4"/>
-        <v>294</v>
+        <v>8280</v>
       </c>
       <c r="G106" s="3" t="s">
-        <v>530</v>
+        <v>453</v>
       </c>
     </row>
     <row r="107" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A107" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="B107" t="s">
         <v>16</v>
       </c>
       <c r="C107" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="D107" t="s">
         <v>40</v>
@@ -5056,550 +5053,550 @@
         <v>1.76</v>
       </c>
       <c r="F107">
-        <f t="shared" si="4"/>
+        <f t="shared" ref="F107:F116" si="5">E107*60</f>
         <v>105.6</v>
       </c>
       <c r="G107" s="3" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
     </row>
     <row r="108" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A108" t="s">
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="B108" t="s">
         <v>16</v>
       </c>
       <c r="C108" t="s">
-        <v>531</v>
+        <v>532</v>
       </c>
       <c r="D108" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="E108">
-        <v>1240</v>
+        <v>0.73</v>
       </c>
       <c r="F108">
-        <f t="shared" si="4"/>
-        <v>74400</v>
+        <f t="shared" si="5"/>
+        <v>43.8</v>
       </c>
       <c r="G108" s="3" t="s">
-        <v>532</v>
+        <v>533</v>
       </c>
     </row>
     <row r="109" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A109" t="s">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="B109" t="s">
         <v>16</v>
       </c>
       <c r="C109" t="s">
-        <v>453</v>
+        <v>479</v>
       </c>
       <c r="D109" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="E109">
-        <v>138</v>
+        <v>5.5</v>
       </c>
       <c r="F109">
-        <f t="shared" si="4"/>
-        <v>8280</v>
+        <f t="shared" si="5"/>
+        <v>330</v>
       </c>
       <c r="G109" s="3" t="s">
-        <v>454</v>
+        <v>480</v>
       </c>
     </row>
     <row r="110" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A110" t="s">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="B110" t="s">
         <v>16</v>
       </c>
       <c r="C110" t="s">
-        <v>445</v>
+        <v>452</v>
       </c>
       <c r="D110" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="E110">
-        <v>1.76</v>
+        <v>138</v>
       </c>
       <c r="F110">
-        <f t="shared" ref="F110:F119" si="5">E110*60</f>
-        <v>105.6</v>
+        <f t="shared" si="5"/>
+        <v>8280</v>
       </c>
       <c r="G110" s="3" t="s">
-        <v>446</v>
+        <v>453</v>
       </c>
     </row>
     <row r="111" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A111" t="s">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="B111" t="s">
         <v>16</v>
       </c>
       <c r="C111" t="s">
-        <v>533</v>
+        <v>576</v>
       </c>
       <c r="D111" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="E111">
-        <v>0.73</v>
+        <v>15</v>
       </c>
       <c r="F111">
         <f t="shared" si="5"/>
-        <v>43.8</v>
+        <v>900</v>
       </c>
       <c r="G111" s="3" t="s">
-        <v>534</v>
+        <v>577</v>
       </c>
     </row>
     <row r="112" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A112" t="s">
-        <v>309</v>
+        <v>311</v>
       </c>
       <c r="B112" t="s">
         <v>16</v>
       </c>
       <c r="C112" t="s">
-        <v>480</v>
+        <v>578</v>
       </c>
       <c r="D112" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="E112">
-        <v>5.5</v>
+        <v>3.9199999999999999E-2</v>
       </c>
       <c r="F112">
         <f t="shared" si="5"/>
-        <v>330</v>
+        <v>2.3519999999999999</v>
       </c>
       <c r="G112" s="3" t="s">
-        <v>481</v>
+        <v>447</v>
       </c>
     </row>
     <row r="113" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A113" t="s">
-        <v>310</v>
+        <v>312</v>
       </c>
       <c r="B113" t="s">
         <v>16</v>
       </c>
       <c r="C113" t="s">
-        <v>453</v>
+        <v>536</v>
       </c>
       <c r="D113" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="E113">
-        <v>138</v>
+        <v>3.9</v>
       </c>
       <c r="F113">
         <f t="shared" si="5"/>
-        <v>8280</v>
+        <v>234</v>
       </c>
       <c r="G113" s="3" t="s">
-        <v>454</v>
+        <v>537</v>
       </c>
     </row>
     <row r="114" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A114" t="s">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="B114" t="s">
         <v>16</v>
       </c>
       <c r="C114" t="s">
-        <v>577</v>
+        <v>579</v>
       </c>
       <c r="D114" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="E114">
-        <v>15</v>
+        <v>1558</v>
       </c>
       <c r="F114">
         <f t="shared" si="5"/>
-        <v>900</v>
+        <v>93480</v>
       </c>
       <c r="G114" s="3" t="s">
-        <v>578</v>
+        <v>580</v>
       </c>
     </row>
     <row r="115" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A115" t="s">
-        <v>312</v>
+        <v>314</v>
       </c>
       <c r="B115" t="s">
         <v>16</v>
       </c>
       <c r="C115" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
       <c r="D115" t="s">
-        <v>45</v>
+        <v>209</v>
       </c>
       <c r="E115">
-        <v>3.9199999999999999E-2</v>
+        <v>166</v>
       </c>
       <c r="F115">
         <f t="shared" si="5"/>
-        <v>2.3519999999999999</v>
+        <v>9960</v>
       </c>
       <c r="G115" s="3" t="s">
-        <v>448</v>
+        <v>582</v>
       </c>
     </row>
     <row r="116" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A116" t="s">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="B116" t="s">
         <v>16</v>
       </c>
       <c r="C116" t="s">
-        <v>537</v>
+        <v>583</v>
       </c>
       <c r="D116" t="s">
-        <v>40</v>
+        <v>209</v>
       </c>
       <c r="E116">
-        <v>3.9</v>
+        <v>0.88</v>
       </c>
       <c r="F116">
         <f t="shared" si="5"/>
-        <v>234</v>
+        <v>52.8</v>
       </c>
       <c r="G116" s="3" t="s">
-        <v>538</v>
+        <v>584</v>
       </c>
     </row>
     <row r="117" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A117" t="s">
-        <v>314</v>
+        <v>316</v>
       </c>
       <c r="B117" t="s">
         <v>16</v>
       </c>
       <c r="C117" t="s">
-        <v>580</v>
+        <v>444</v>
       </c>
       <c r="D117" t="s">
         <v>40</v>
       </c>
       <c r="E117">
-        <v>1558</v>
+        <v>1.76</v>
       </c>
       <c r="F117">
-        <f t="shared" si="5"/>
-        <v>93480</v>
+        <f t="shared" ref="F117:F125" si="6">E117*60</f>
+        <v>105.6</v>
       </c>
       <c r="G117" s="3" t="s">
-        <v>581</v>
+        <v>445</v>
       </c>
     </row>
     <row r="118" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A118" t="s">
-        <v>315</v>
+        <v>317</v>
       </c>
       <c r="B118" t="s">
         <v>16</v>
       </c>
       <c r="C118" t="s">
-        <v>582</v>
+        <v>448</v>
       </c>
       <c r="D118" t="s">
-        <v>209</v>
+        <v>40</v>
       </c>
       <c r="E118">
-        <v>166</v>
+        <v>350.02</v>
       </c>
       <c r="F118">
-        <f t="shared" si="5"/>
-        <v>9960</v>
+        <f t="shared" si="6"/>
+        <v>21001.199999999997</v>
       </c>
       <c r="G118" s="3" t="s">
-        <v>583</v>
+        <v>449</v>
       </c>
     </row>
     <row r="119" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A119" t="s">
-        <v>316</v>
+        <v>318</v>
       </c>
       <c r="B119" t="s">
         <v>16</v>
       </c>
       <c r="C119" t="s">
-        <v>584</v>
+        <v>475</v>
       </c>
       <c r="D119" t="s">
-        <v>209</v>
+        <v>40</v>
       </c>
       <c r="E119">
-        <v>0.88</v>
+        <v>46</v>
       </c>
       <c r="F119">
-        <f t="shared" si="5"/>
-        <v>52.8</v>
+        <f t="shared" si="6"/>
+        <v>2760</v>
       </c>
       <c r="G119" s="3" t="s">
-        <v>585</v>
+        <v>476</v>
       </c>
     </row>
     <row r="120" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A120" t="s">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="B120" t="s">
         <v>16</v>
       </c>
       <c r="C120" t="s">
-        <v>445</v>
+        <v>436</v>
       </c>
       <c r="D120" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="E120">
-        <v>1.76</v>
+        <v>68.3</v>
       </c>
       <c r="F120">
-        <f t="shared" ref="F120:F128" si="6">E120*60</f>
-        <v>105.6</v>
-      </c>
-      <c r="G120" s="3" t="s">
-        <v>446</v>
+        <f t="shared" si="6"/>
+        <v>4098</v>
+      </c>
+      <c r="G120" s="1" t="s">
+        <v>437</v>
       </c>
     </row>
     <row r="121" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A121" t="s">
-        <v>318</v>
+        <v>320</v>
       </c>
       <c r="B121" t="s">
         <v>16</v>
       </c>
       <c r="C121" t="s">
-        <v>449</v>
+        <v>429</v>
       </c>
       <c r="D121" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="E121">
-        <v>350.02</v>
+        <v>3.069</v>
       </c>
       <c r="F121">
         <f t="shared" si="6"/>
-        <v>21001.199999999997</v>
+        <v>184.14</v>
       </c>
       <c r="G121" s="3" t="s">
-        <v>450</v>
+        <v>430</v>
       </c>
     </row>
     <row r="122" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A122" t="s">
-        <v>319</v>
+        <v>321</v>
       </c>
       <c r="B122" t="s">
         <v>16</v>
       </c>
       <c r="C122" t="s">
-        <v>476</v>
+        <v>585</v>
       </c>
       <c r="D122" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="E122">
-        <v>46</v>
+        <v>69</v>
       </c>
       <c r="F122">
         <f t="shared" si="6"/>
-        <v>2760</v>
+        <v>4140</v>
       </c>
       <c r="G122" s="3" t="s">
-        <v>477</v>
+        <v>586</v>
       </c>
     </row>
     <row r="123" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A123" t="s">
-        <v>320</v>
+        <v>322</v>
       </c>
       <c r="B123" t="s">
         <v>16</v>
       </c>
       <c r="C123" t="s">
-        <v>437</v>
+        <v>587</v>
       </c>
       <c r="D123" t="s">
-        <v>45</v>
+        <v>88</v>
       </c>
       <c r="E123">
-        <v>68.3</v>
+        <v>47</v>
       </c>
       <c r="F123">
         <f t="shared" si="6"/>
-        <v>4098</v>
-      </c>
-      <c r="G123" s="1" t="s">
-        <v>438</v>
+        <v>2820</v>
+      </c>
+      <c r="G123" s="3" t="s">
+        <v>588</v>
       </c>
     </row>
     <row r="124" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A124" t="s">
-        <v>321</v>
+        <v>323</v>
       </c>
       <c r="B124" t="s">
         <v>16</v>
       </c>
       <c r="C124" t="s">
-        <v>430</v>
+        <v>589</v>
       </c>
       <c r="D124" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="E124">
-        <v>3.069</v>
+        <v>42</v>
       </c>
       <c r="F124">
         <f t="shared" si="6"/>
-        <v>184.14</v>
+        <v>2520</v>
       </c>
       <c r="G124" s="3" t="s">
-        <v>431</v>
+        <v>590</v>
       </c>
     </row>
     <row r="125" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A125" t="s">
-        <v>322</v>
+        <v>324</v>
       </c>
       <c r="B125" t="s">
         <v>16</v>
       </c>
       <c r="C125" t="s">
-        <v>586</v>
+        <v>591</v>
       </c>
       <c r="D125" t="s">
         <v>42</v>
       </c>
       <c r="E125">
-        <v>69</v>
+        <v>1.4999999999999999E-2</v>
       </c>
       <c r="F125">
         <f t="shared" si="6"/>
-        <v>4140</v>
+        <v>0.89999999999999991</v>
       </c>
       <c r="G125" s="3" t="s">
-        <v>587</v>
+        <v>592</v>
       </c>
     </row>
     <row r="126" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A126" t="s">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="B126" t="s">
         <v>16</v>
       </c>
       <c r="C126" t="s">
-        <v>588</v>
+        <v>591</v>
       </c>
       <c r="D126" t="s">
-        <v>88</v>
+        <v>42</v>
       </c>
       <c r="E126">
-        <v>47</v>
+        <v>1.4999999999999999E-2</v>
       </c>
       <c r="F126">
-        <f t="shared" si="6"/>
-        <v>2820</v>
+        <f t="shared" ref="F126:F149" si="7">E126*60</f>
+        <v>0.89999999999999991</v>
       </c>
       <c r="G126" s="3" t="s">
-        <v>589</v>
+        <v>592</v>
       </c>
     </row>
     <row r="127" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A127" t="s">
-        <v>324</v>
+        <v>326</v>
       </c>
       <c r="B127" t="s">
         <v>16</v>
       </c>
       <c r="C127" t="s">
-        <v>590</v>
+        <v>593</v>
       </c>
       <c r="D127" t="s">
-        <v>40</v>
+        <v>209</v>
       </c>
       <c r="E127">
-        <v>42</v>
+        <v>2750</v>
       </c>
       <c r="F127">
-        <f t="shared" si="6"/>
-        <v>2520</v>
+        <f t="shared" si="7"/>
+        <v>165000</v>
       </c>
       <c r="G127" s="3" t="s">
-        <v>591</v>
+        <v>594</v>
       </c>
     </row>
     <row r="128" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A128" t="s">
-        <v>325</v>
+        <v>327</v>
       </c>
       <c r="B128" t="s">
         <v>16</v>
       </c>
       <c r="C128" t="s">
-        <v>592</v>
+        <v>593</v>
       </c>
       <c r="D128" t="s">
-        <v>42</v>
+        <v>209</v>
       </c>
       <c r="E128">
-        <v>1.4999999999999999E-2</v>
+        <v>2750</v>
       </c>
       <c r="F128">
-        <f t="shared" si="6"/>
-        <v>0.89999999999999991</v>
+        <f t="shared" si="7"/>
+        <v>165000</v>
       </c>
       <c r="G128" s="3" t="s">
-        <v>593</v>
+        <v>594</v>
       </c>
     </row>
     <row r="129" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A129" t="s">
-        <v>326</v>
+        <v>328</v>
       </c>
       <c r="B129" t="s">
         <v>16</v>
       </c>
       <c r="C129" t="s">
-        <v>592</v>
+        <v>593</v>
       </c>
       <c r="D129" t="s">
-        <v>42</v>
+        <v>209</v>
       </c>
       <c r="E129">
-        <v>1.4999999999999999E-2</v>
+        <v>2750</v>
       </c>
       <c r="F129">
-        <f t="shared" ref="F129:F152" si="7">E129*60</f>
-        <v>0.89999999999999991</v>
+        <f t="shared" si="7"/>
+        <v>165000</v>
       </c>
       <c r="G129" s="3" t="s">
-        <v>593</v>
+        <v>594</v>
       </c>
     </row>
     <row r="130" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A130" t="s">
-        <v>327</v>
+        <v>329</v>
       </c>
       <c r="B130" t="s">
         <v>16</v>
       </c>
       <c r="C130" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="D130" t="s">
         <v>209</v>
@@ -5612,1399 +5609,1399 @@
         <v>165000</v>
       </c>
       <c r="G130" s="3" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
     </row>
     <row r="131" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A131" t="s">
-        <v>328</v>
+        <v>330</v>
       </c>
       <c r="B131" t="s">
         <v>16</v>
       </c>
       <c r="C131" t="s">
-        <v>594</v>
+        <v>595</v>
       </c>
       <c r="D131" t="s">
-        <v>209</v>
+        <v>40</v>
       </c>
       <c r="E131">
-        <v>2750</v>
+        <v>3.8</v>
       </c>
       <c r="F131">
         <f t="shared" si="7"/>
-        <v>165000</v>
+        <v>228</v>
       </c>
       <c r="G131" s="3" t="s">
-        <v>595</v>
+        <v>596</v>
       </c>
     </row>
     <row r="132" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A132" t="s">
-        <v>329</v>
+        <v>331</v>
       </c>
       <c r="B132" t="s">
         <v>16</v>
       </c>
       <c r="C132" t="s">
-        <v>594</v>
+        <v>597</v>
       </c>
       <c r="D132" t="s">
-        <v>209</v>
+        <v>40</v>
       </c>
       <c r="E132">
-        <v>2750</v>
+        <v>6.7</v>
       </c>
       <c r="F132">
         <f t="shared" si="7"/>
-        <v>165000</v>
+        <v>402</v>
       </c>
       <c r="G132" s="3" t="s">
-        <v>595</v>
+        <v>598</v>
       </c>
     </row>
     <row r="133" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A133" t="s">
-        <v>330</v>
+        <v>332</v>
       </c>
       <c r="B133" t="s">
         <v>16</v>
       </c>
       <c r="C133" t="s">
-        <v>594</v>
+        <v>599</v>
       </c>
       <c r="D133" t="s">
-        <v>209</v>
+        <v>45</v>
       </c>
       <c r="E133">
-        <v>2750</v>
+        <v>9.0999999999999998E-2</v>
       </c>
       <c r="F133">
         <f t="shared" si="7"/>
-        <v>165000</v>
+        <v>5.46</v>
       </c>
       <c r="G133" s="3" t="s">
-        <v>595</v>
+        <v>600</v>
       </c>
     </row>
     <row r="134" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A134" t="s">
-        <v>331</v>
+        <v>333</v>
       </c>
       <c r="B134" t="s">
         <v>16</v>
       </c>
       <c r="C134" t="s">
-        <v>596</v>
+        <v>601</v>
       </c>
       <c r="D134" t="s">
-        <v>40</v>
+        <v>602</v>
       </c>
       <c r="E134">
-        <v>3.8</v>
+        <v>1.7000000000000001E-2</v>
       </c>
       <c r="F134">
         <f t="shared" si="7"/>
-        <v>228</v>
+        <v>1.02</v>
       </c>
       <c r="G134" s="3" t="s">
-        <v>597</v>
+        <v>603</v>
       </c>
     </row>
     <row r="135" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A135" t="s">
-        <v>332</v>
+        <v>334</v>
       </c>
       <c r="B135" t="s">
         <v>16</v>
       </c>
       <c r="C135" t="s">
-        <v>598</v>
+        <v>604</v>
       </c>
       <c r="D135" t="s">
-        <v>40</v>
+        <v>602</v>
       </c>
       <c r="E135">
-        <v>6.7</v>
+        <v>27</v>
       </c>
       <c r="F135">
         <f t="shared" si="7"/>
-        <v>402</v>
+        <v>1620</v>
       </c>
       <c r="G135" s="3" t="s">
-        <v>599</v>
+        <v>605</v>
       </c>
     </row>
     <row r="136" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A136" t="s">
-        <v>333</v>
+        <v>335</v>
       </c>
       <c r="B136" t="s">
         <v>16</v>
       </c>
       <c r="C136" t="s">
-        <v>600</v>
+        <v>606</v>
       </c>
       <c r="D136" t="s">
         <v>45</v>
       </c>
       <c r="E136">
-        <v>9.0999999999999998E-2</v>
+        <v>1986</v>
       </c>
       <c r="F136">
         <f t="shared" si="7"/>
-        <v>5.46</v>
+        <v>119160</v>
       </c>
       <c r="G136" s="3" t="s">
-        <v>601</v>
+        <v>607</v>
       </c>
     </row>
     <row r="137" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A137" t="s">
-        <v>334</v>
+        <v>336</v>
       </c>
       <c r="B137" t="s">
         <v>16</v>
       </c>
       <c r="C137" t="s">
-        <v>602</v>
+        <v>608</v>
       </c>
       <c r="D137" t="s">
-        <v>603</v>
+        <v>45</v>
       </c>
       <c r="E137">
-        <v>1.7000000000000001E-2</v>
+        <v>380</v>
       </c>
       <c r="F137">
         <f t="shared" si="7"/>
-        <v>1.02</v>
+        <v>22800</v>
       </c>
       <c r="G137" s="3" t="s">
-        <v>604</v>
+        <v>609</v>
       </c>
     </row>
     <row r="138" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A138" t="s">
-        <v>335</v>
+        <v>337</v>
       </c>
       <c r="B138" t="s">
         <v>16</v>
       </c>
       <c r="C138" t="s">
-        <v>605</v>
+        <v>423</v>
       </c>
       <c r="D138" t="s">
-        <v>603</v>
+        <v>45</v>
       </c>
       <c r="E138">
-        <v>27</v>
+        <v>221</v>
       </c>
       <c r="F138">
         <f t="shared" si="7"/>
-        <v>1620</v>
+        <v>13260</v>
       </c>
       <c r="G138" s="3" t="s">
-        <v>606</v>
+        <v>424</v>
       </c>
     </row>
     <row r="139" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A139" t="s">
-        <v>336</v>
+        <v>338</v>
       </c>
       <c r="B139" t="s">
         <v>16</v>
       </c>
       <c r="C139" t="s">
-        <v>607</v>
+        <v>610</v>
       </c>
       <c r="D139" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="E139">
-        <v>1986</v>
+        <v>140</v>
       </c>
       <c r="F139">
         <f t="shared" si="7"/>
-        <v>119160</v>
-      </c>
-      <c r="G139" s="3" t="s">
-        <v>608</v>
+        <v>8400</v>
+      </c>
+      <c r="G139" s="1" t="s">
+        <v>611</v>
       </c>
     </row>
     <row r="140" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A140" t="s">
-        <v>337</v>
+        <v>339</v>
       </c>
       <c r="B140" t="s">
         <v>16</v>
       </c>
       <c r="C140" t="s">
-        <v>609</v>
+        <v>612</v>
       </c>
       <c r="D140" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="E140">
-        <v>380</v>
+        <v>0.13</v>
       </c>
       <c r="F140">
         <f t="shared" si="7"/>
-        <v>22800</v>
+        <v>7.8000000000000007</v>
       </c>
       <c r="G140" s="3" t="s">
-        <v>610</v>
+        <v>613</v>
       </c>
     </row>
     <row r="141" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A141" t="s">
-        <v>338</v>
+        <v>340</v>
       </c>
       <c r="B141" t="s">
         <v>16</v>
       </c>
       <c r="C141" t="s">
-        <v>424</v>
+        <v>431</v>
       </c>
       <c r="D141" t="s">
         <v>45</v>
       </c>
       <c r="E141">
-        <v>221</v>
+        <v>2.08</v>
       </c>
       <c r="F141">
         <f t="shared" si="7"/>
-        <v>13260</v>
+        <v>124.80000000000001</v>
       </c>
       <c r="G141" s="3" t="s">
-        <v>425</v>
+        <v>432</v>
       </c>
     </row>
     <row r="142" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A142" t="s">
-        <v>339</v>
+        <v>341</v>
       </c>
       <c r="B142" t="s">
         <v>16</v>
       </c>
       <c r="C142" t="s">
-        <v>611</v>
+        <v>429</v>
       </c>
       <c r="D142" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="E142">
-        <v>140</v>
+        <v>3.069</v>
       </c>
       <c r="F142">
         <f t="shared" si="7"/>
-        <v>8400</v>
-      </c>
-      <c r="G142" s="1" t="s">
-        <v>612</v>
+        <v>184.14</v>
+      </c>
+      <c r="G142" s="3" t="s">
+        <v>430</v>
       </c>
     </row>
     <row r="143" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A143" t="s">
-        <v>340</v>
+        <v>342</v>
       </c>
       <c r="B143" t="s">
         <v>16</v>
       </c>
       <c r="C143" t="s">
-        <v>613</v>
+        <v>616</v>
       </c>
       <c r="D143" t="s">
-        <v>42</v>
+        <v>617</v>
       </c>
       <c r="E143">
-        <v>0.13</v>
+        <v>1.6999999999999999E-3</v>
       </c>
       <c r="F143">
         <f t="shared" si="7"/>
-        <v>7.8000000000000007</v>
+        <v>0.10199999999999999</v>
       </c>
       <c r="G143" s="3" t="s">
-        <v>614</v>
+        <v>618</v>
       </c>
     </row>
     <row r="144" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A144" t="s">
-        <v>341</v>
+        <v>343</v>
       </c>
       <c r="B144" t="s">
         <v>16</v>
       </c>
       <c r="C144" t="s">
-        <v>432</v>
+        <v>619</v>
       </c>
       <c r="D144" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="E144">
-        <v>2.08</v>
+        <v>29.1</v>
       </c>
       <c r="F144">
         <f t="shared" si="7"/>
-        <v>124.80000000000001</v>
+        <v>1746</v>
       </c>
       <c r="G144" s="3" t="s">
-        <v>433</v>
+        <v>620</v>
       </c>
     </row>
     <row r="145" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A145" t="s">
-        <v>342</v>
+        <v>344</v>
       </c>
       <c r="B145" t="s">
         <v>16</v>
       </c>
       <c r="C145" t="s">
-        <v>430</v>
+        <v>621</v>
       </c>
       <c r="D145" t="s">
-        <v>45</v>
+        <v>622</v>
       </c>
       <c r="E145">
-        <v>3.069</v>
+        <v>509</v>
       </c>
       <c r="F145">
         <f t="shared" si="7"/>
-        <v>184.14</v>
+        <v>30540</v>
       </c>
       <c r="G145" s="3" t="s">
-        <v>431</v>
+        <v>623</v>
       </c>
     </row>
     <row r="146" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A146" t="s">
-        <v>343</v>
+        <v>345</v>
       </c>
       <c r="B146" t="s">
         <v>16</v>
       </c>
       <c r="C146" t="s">
-        <v>617</v>
+        <v>624</v>
       </c>
       <c r="D146" t="s">
-        <v>618</v>
+        <v>45</v>
       </c>
       <c r="E146">
-        <v>1.6999999999999999E-3</v>
+        <v>0.56999999999999995</v>
       </c>
       <c r="F146">
         <f t="shared" si="7"/>
-        <v>0.10199999999999999</v>
+        <v>34.199999999999996</v>
       </c>
       <c r="G146" s="3" t="s">
-        <v>619</v>
+        <v>625</v>
       </c>
     </row>
     <row r="147" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A147" t="s">
-        <v>344</v>
+        <v>346</v>
       </c>
       <c r="B147" t="s">
         <v>16</v>
       </c>
       <c r="C147" t="s">
-        <v>620</v>
+        <v>189</v>
       </c>
       <c r="D147" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="E147">
-        <v>29.1</v>
+        <v>38.6</v>
       </c>
       <c r="F147">
         <f t="shared" si="7"/>
-        <v>1746</v>
+        <v>2316</v>
       </c>
       <c r="G147" s="3" t="s">
-        <v>621</v>
+        <v>190</v>
       </c>
     </row>
     <row r="148" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A148" t="s">
-        <v>345</v>
+        <v>347</v>
       </c>
       <c r="B148" t="s">
         <v>16</v>
       </c>
       <c r="C148" t="s">
-        <v>622</v>
+        <v>614</v>
       </c>
       <c r="D148" t="s">
-        <v>623</v>
+        <v>45</v>
       </c>
       <c r="E148">
-        <v>509</v>
+        <v>48.6</v>
       </c>
       <c r="F148">
         <f t="shared" si="7"/>
-        <v>30540</v>
+        <v>2916</v>
       </c>
       <c r="G148" s="3" t="s">
-        <v>624</v>
+        <v>615</v>
       </c>
     </row>
     <row r="149" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A149" t="s">
-        <v>346</v>
+        <v>348</v>
       </c>
       <c r="B149" t="s">
         <v>16</v>
       </c>
       <c r="C149" t="s">
-        <v>625</v>
+        <v>475</v>
       </c>
       <c r="D149" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="E149">
-        <v>0.56999999999999995</v>
+        <v>46</v>
       </c>
       <c r="F149">
         <f t="shared" si="7"/>
-        <v>34.199999999999996</v>
+        <v>2760</v>
       </c>
       <c r="G149" s="3" t="s">
-        <v>626</v>
+        <v>476</v>
       </c>
     </row>
     <row r="150" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A150" t="s">
-        <v>347</v>
+        <v>349</v>
       </c>
       <c r="B150" t="s">
         <v>16</v>
       </c>
       <c r="C150" t="s">
-        <v>189</v>
+        <v>550</v>
       </c>
       <c r="D150" t="s">
-        <v>45</v>
+        <v>209</v>
       </c>
       <c r="E150">
-        <v>38.6</v>
+        <v>26.8</v>
       </c>
       <c r="F150">
-        <f t="shared" si="7"/>
-        <v>2316</v>
+        <f t="shared" ref="F150:F154" si="8">E150*60</f>
+        <v>1608</v>
       </c>
       <c r="G150" s="3" t="s">
-        <v>190</v>
+        <v>551</v>
       </c>
     </row>
     <row r="151" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A151" t="s">
-        <v>348</v>
+        <v>350</v>
       </c>
       <c r="B151" t="s">
         <v>16</v>
       </c>
       <c r="C151" t="s">
-        <v>615</v>
+        <v>628</v>
       </c>
       <c r="D151" t="s">
         <v>45</v>
       </c>
       <c r="E151">
-        <v>48.6</v>
+        <v>21</v>
       </c>
       <c r="F151">
-        <f t="shared" si="7"/>
-        <v>2916</v>
+        <f t="shared" si="8"/>
+        <v>1260</v>
       </c>
       <c r="G151" s="3" t="s">
-        <v>616</v>
+        <v>629</v>
       </c>
     </row>
     <row r="152" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A152" t="s">
-        <v>349</v>
+        <v>351</v>
       </c>
       <c r="B152" t="s">
         <v>16</v>
       </c>
       <c r="C152" t="s">
-        <v>476</v>
+        <v>626</v>
       </c>
       <c r="D152" t="s">
         <v>40</v>
       </c>
       <c r="E152">
-        <v>46</v>
+        <v>1570</v>
       </c>
       <c r="F152">
-        <f t="shared" si="7"/>
-        <v>2760</v>
+        <f t="shared" si="8"/>
+        <v>94200</v>
       </c>
       <c r="G152" s="3" t="s">
-        <v>477</v>
+        <v>627</v>
       </c>
     </row>
     <row r="153" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A153" t="s">
-        <v>350</v>
+        <v>352</v>
       </c>
       <c r="B153" t="s">
         <v>16</v>
       </c>
       <c r="C153" t="s">
-        <v>551</v>
+        <v>479</v>
       </c>
       <c r="D153" t="s">
-        <v>209</v>
+        <v>40</v>
       </c>
       <c r="E153">
-        <v>26.8</v>
+        <v>5.5</v>
       </c>
       <c r="F153">
-        <f t="shared" ref="F153:F157" si="8">E153*60</f>
-        <v>1608</v>
+        <f t="shared" si="8"/>
+        <v>330</v>
       </c>
       <c r="G153" s="3" t="s">
-        <v>552</v>
+        <v>480</v>
       </c>
     </row>
     <row r="154" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A154" t="s">
-        <v>351</v>
+        <v>353</v>
       </c>
       <c r="B154" t="s">
         <v>16</v>
       </c>
       <c r="C154" t="s">
-        <v>629</v>
+        <v>630</v>
       </c>
       <c r="D154" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="E154">
-        <v>21</v>
+        <v>3.3</v>
       </c>
       <c r="F154">
         <f t="shared" si="8"/>
-        <v>1260</v>
+        <v>198</v>
       </c>
       <c r="G154" s="3" t="s">
-        <v>630</v>
+        <v>631</v>
       </c>
     </row>
     <row r="155" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A155" t="s">
-        <v>352</v>
+        <v>354</v>
       </c>
       <c r="B155" t="s">
         <v>16</v>
       </c>
       <c r="C155" t="s">
-        <v>627</v>
+        <v>546</v>
       </c>
       <c r="D155" t="s">
-        <v>40</v>
+        <v>88</v>
       </c>
       <c r="E155">
-        <v>1570</v>
+        <v>19.899999999999999</v>
       </c>
       <c r="F155">
-        <f t="shared" si="8"/>
-        <v>94200</v>
+        <f t="shared" ref="F155:F166" si="9">E155*60</f>
+        <v>1194</v>
       </c>
       <c r="G155" s="3" t="s">
-        <v>628</v>
+        <v>547</v>
       </c>
     </row>
     <row r="156" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A156" t="s">
-        <v>353</v>
+        <v>355</v>
       </c>
       <c r="B156" t="s">
         <v>16</v>
       </c>
       <c r="C156" t="s">
-        <v>480</v>
+        <v>632</v>
       </c>
       <c r="D156" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="E156">
-        <v>5.5</v>
+        <v>23.2</v>
       </c>
       <c r="F156">
-        <f t="shared" si="8"/>
-        <v>330</v>
+        <f t="shared" si="9"/>
+        <v>1392</v>
       </c>
       <c r="G156" s="3" t="s">
-        <v>481</v>
+        <v>633</v>
       </c>
     </row>
     <row r="157" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A157" t="s">
-        <v>354</v>
+        <v>356</v>
       </c>
       <c r="B157" t="s">
         <v>16</v>
       </c>
       <c r="C157" t="s">
-        <v>631</v>
+        <v>632</v>
       </c>
       <c r="D157" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="E157">
-        <v>3.3</v>
+        <v>23.2</v>
       </c>
       <c r="F157">
-        <f t="shared" si="8"/>
-        <v>198</v>
+        <f t="shared" si="9"/>
+        <v>1392</v>
       </c>
       <c r="G157" s="3" t="s">
-        <v>632</v>
+        <v>633</v>
       </c>
     </row>
     <row r="158" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A158" t="s">
-        <v>355</v>
+        <v>357</v>
       </c>
       <c r="B158" t="s">
         <v>16</v>
       </c>
       <c r="C158" t="s">
-        <v>547</v>
+        <v>634</v>
       </c>
       <c r="D158" t="s">
-        <v>88</v>
+        <v>40</v>
       </c>
       <c r="E158">
-        <v>19.899999999999999</v>
+        <v>4.2</v>
       </c>
       <c r="F158">
-        <f t="shared" ref="F158:F169" si="9">E158*60</f>
-        <v>1194</v>
+        <f t="shared" si="9"/>
+        <v>252</v>
       </c>
       <c r="G158" s="3" t="s">
-        <v>548</v>
+        <v>635</v>
       </c>
     </row>
     <row r="159" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A159" t="s">
-        <v>356</v>
+        <v>358</v>
       </c>
       <c r="B159" t="s">
         <v>16</v>
       </c>
       <c r="C159" t="s">
-        <v>633</v>
+        <v>636</v>
       </c>
       <c r="D159" t="s">
-        <v>42</v>
+        <v>88</v>
       </c>
       <c r="E159">
-        <v>23.2</v>
+        <v>1.82</v>
       </c>
       <c r="F159">
         <f t="shared" si="9"/>
-        <v>1392</v>
+        <v>109.2</v>
       </c>
       <c r="G159" s="3" t="s">
-        <v>634</v>
+        <v>637</v>
       </c>
     </row>
     <row r="160" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A160" t="s">
-        <v>357</v>
+        <v>359</v>
       </c>
       <c r="B160" t="s">
         <v>16</v>
       </c>
       <c r="C160" t="s">
-        <v>633</v>
+        <v>638</v>
       </c>
       <c r="D160" t="s">
-        <v>42</v>
+        <v>146</v>
       </c>
       <c r="E160">
-        <v>23.2</v>
+        <v>0.16</v>
       </c>
       <c r="F160">
         <f t="shared" si="9"/>
-        <v>1392</v>
+        <v>9.6</v>
       </c>
       <c r="G160" s="3" t="s">
-        <v>634</v>
+        <v>639</v>
       </c>
     </row>
     <row r="161" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A161" t="s">
-        <v>358</v>
+        <v>360</v>
       </c>
       <c r="B161" t="s">
         <v>16</v>
       </c>
       <c r="C161" t="s">
-        <v>635</v>
+        <v>640</v>
       </c>
       <c r="D161" t="s">
-        <v>40</v>
+        <v>146</v>
       </c>
       <c r="E161">
-        <v>4.2</v>
+        <v>0.43</v>
       </c>
       <c r="F161">
         <f t="shared" si="9"/>
-        <v>252</v>
+        <v>25.8</v>
       </c>
       <c r="G161" s="3" t="s">
-        <v>636</v>
+        <v>641</v>
       </c>
     </row>
     <row r="162" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A162" t="s">
-        <v>359</v>
+        <v>361</v>
       </c>
       <c r="B162" t="s">
         <v>16</v>
       </c>
       <c r="C162" t="s">
-        <v>637</v>
+        <v>642</v>
       </c>
       <c r="D162" t="s">
-        <v>88</v>
+        <v>40</v>
       </c>
       <c r="E162">
-        <v>1.82</v>
+        <v>23.3</v>
       </c>
       <c r="F162">
         <f t="shared" si="9"/>
-        <v>109.2</v>
+        <v>1398</v>
       </c>
       <c r="G162" s="3" t="s">
-        <v>638</v>
+        <v>643</v>
       </c>
     </row>
     <row r="163" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A163" t="s">
-        <v>360</v>
+        <v>362</v>
       </c>
       <c r="B163" t="s">
         <v>16</v>
       </c>
       <c r="C163" t="s">
-        <v>639</v>
+        <v>644</v>
       </c>
       <c r="D163" t="s">
-        <v>146</v>
+        <v>88</v>
       </c>
       <c r="E163">
-        <v>0.16</v>
+        <v>2.36</v>
       </c>
       <c r="F163">
         <f t="shared" si="9"/>
-        <v>9.6</v>
+        <v>141.6</v>
       </c>
       <c r="G163" s="3" t="s">
-        <v>640</v>
+        <v>645</v>
       </c>
     </row>
     <row r="164" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A164" t="s">
-        <v>361</v>
+        <v>363</v>
       </c>
       <c r="B164" t="s">
         <v>16</v>
       </c>
       <c r="C164" t="s">
-        <v>641</v>
+        <v>642</v>
       </c>
       <c r="D164" t="s">
-        <v>146</v>
+        <v>40</v>
       </c>
       <c r="E164">
-        <v>0.43</v>
+        <v>23.3</v>
       </c>
       <c r="F164">
         <f t="shared" si="9"/>
-        <v>25.8</v>
+        <v>1398</v>
       </c>
       <c r="G164" s="3" t="s">
-        <v>642</v>
+        <v>643</v>
       </c>
     </row>
     <row r="165" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A165" t="s">
-        <v>362</v>
+        <v>364</v>
       </c>
       <c r="B165" t="s">
         <v>16</v>
       </c>
       <c r="C165" t="s">
-        <v>643</v>
+        <v>646</v>
       </c>
       <c r="D165" t="s">
         <v>40</v>
       </c>
       <c r="E165">
-        <v>23.3</v>
+        <v>3.74</v>
       </c>
       <c r="F165">
         <f t="shared" si="9"/>
-        <v>1398</v>
+        <v>224.4</v>
       </c>
       <c r="G165" s="3" t="s">
-        <v>644</v>
+        <v>647</v>
       </c>
     </row>
     <row r="166" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A166" t="s">
-        <v>363</v>
+        <v>365</v>
       </c>
       <c r="B166" t="s">
         <v>16</v>
       </c>
       <c r="C166" t="s">
-        <v>645</v>
+        <v>648</v>
       </c>
       <c r="D166" t="s">
-        <v>88</v>
+        <v>40</v>
       </c>
       <c r="E166">
-        <v>2.36</v>
+        <v>2.956</v>
       </c>
       <c r="F166">
         <f t="shared" si="9"/>
-        <v>141.6</v>
+        <v>177.35999999999999</v>
       </c>
       <c r="G166" s="3" t="s">
-        <v>646</v>
+        <v>649</v>
       </c>
     </row>
     <row r="167" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A167" t="s">
-        <v>364</v>
+        <v>366</v>
       </c>
       <c r="B167" t="s">
         <v>16</v>
       </c>
       <c r="C167" t="s">
-        <v>643</v>
+        <v>436</v>
       </c>
       <c r="D167" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="E167">
-        <v>23.3</v>
+        <v>68.3</v>
       </c>
       <c r="F167">
-        <f t="shared" si="9"/>
-        <v>1398</v>
-      </c>
-      <c r="G167" s="3" t="s">
-        <v>644</v>
+        <f t="shared" ref="F167:F189" si="10">E167*60</f>
+        <v>4098</v>
+      </c>
+      <c r="G167" s="1" t="s">
+        <v>437</v>
       </c>
     </row>
     <row r="168" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A168" t="s">
-        <v>365</v>
+        <v>367</v>
       </c>
       <c r="B168" t="s">
         <v>16</v>
       </c>
       <c r="C168" t="s">
-        <v>647</v>
+        <v>452</v>
       </c>
       <c r="D168" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="E168">
-        <v>3.74</v>
+        <v>138</v>
       </c>
       <c r="F168">
-        <f t="shared" si="9"/>
-        <v>224.4</v>
+        <f t="shared" si="10"/>
+        <v>8280</v>
       </c>
       <c r="G168" s="3" t="s">
-        <v>648</v>
+        <v>453</v>
       </c>
     </row>
     <row r="169" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A169" t="s">
-        <v>366</v>
+        <v>368</v>
       </c>
       <c r="B169" t="s">
         <v>16</v>
       </c>
       <c r="C169" t="s">
-        <v>649</v>
+        <v>475</v>
       </c>
       <c r="D169" t="s">
         <v>40</v>
       </c>
       <c r="E169">
-        <v>2.956</v>
+        <v>46</v>
       </c>
       <c r="F169">
-        <f t="shared" si="9"/>
-        <v>177.35999999999999</v>
+        <f t="shared" si="10"/>
+        <v>2760</v>
       </c>
       <c r="G169" s="3" t="s">
-        <v>650</v>
+        <v>476</v>
       </c>
     </row>
     <row r="170" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A170" t="s">
-        <v>367</v>
+        <v>369</v>
       </c>
       <c r="B170" t="s">
         <v>16</v>
       </c>
       <c r="C170" t="s">
-        <v>437</v>
+        <v>650</v>
       </c>
       <c r="D170" t="s">
-        <v>45</v>
+        <v>88</v>
       </c>
       <c r="E170">
-        <v>68.3</v>
+        <v>24</v>
       </c>
       <c r="F170">
-        <f t="shared" ref="F170:F192" si="10">E170*60</f>
-        <v>4098</v>
-      </c>
-      <c r="G170" s="1" t="s">
-        <v>438</v>
+        <f t="shared" si="10"/>
+        <v>1440</v>
+      </c>
+      <c r="G170" s="3" t="s">
+        <v>651</v>
       </c>
     </row>
     <row r="171" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A171" t="s">
-        <v>368</v>
+        <v>370</v>
       </c>
       <c r="B171" t="s">
         <v>16</v>
       </c>
       <c r="C171" t="s">
-        <v>453</v>
+        <v>479</v>
       </c>
       <c r="D171" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="E171">
-        <v>138</v>
+        <v>5.5</v>
       </c>
       <c r="F171">
         <f t="shared" si="10"/>
-        <v>8280</v>
+        <v>330</v>
       </c>
       <c r="G171" s="3" t="s">
-        <v>454</v>
+        <v>480</v>
       </c>
     </row>
     <row r="172" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A172" t="s">
-        <v>369</v>
+        <v>371</v>
       </c>
       <c r="B172" t="s">
         <v>16</v>
       </c>
       <c r="C172" t="s">
-        <v>476</v>
+        <v>653</v>
       </c>
       <c r="D172" t="s">
-        <v>40</v>
+        <v>652</v>
       </c>
       <c r="E172">
-        <v>46</v>
+        <v>0.7</v>
       </c>
       <c r="F172">
         <f t="shared" si="10"/>
-        <v>2760</v>
+        <v>42</v>
       </c>
       <c r="G172" s="3" t="s">
-        <v>477</v>
+        <v>654</v>
       </c>
     </row>
     <row r="173" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A173" t="s">
-        <v>370</v>
+        <v>372</v>
       </c>
       <c r="B173" t="s">
         <v>16</v>
       </c>
       <c r="C173" t="s">
-        <v>651</v>
+        <v>452</v>
       </c>
       <c r="D173" t="s">
-        <v>88</v>
+        <v>45</v>
       </c>
       <c r="E173">
-        <v>24</v>
+        <v>138</v>
       </c>
       <c r="F173">
         <f t="shared" si="10"/>
-        <v>1440</v>
+        <v>8280</v>
       </c>
       <c r="G173" s="3" t="s">
-        <v>652</v>
+        <v>453</v>
       </c>
     </row>
     <row r="174" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A174" t="s">
-        <v>371</v>
+        <v>373</v>
       </c>
       <c r="B174" t="s">
         <v>16</v>
       </c>
       <c r="C174" t="s">
-        <v>480</v>
+        <v>655</v>
       </c>
       <c r="D174" t="s">
         <v>40</v>
       </c>
       <c r="E174">
-        <v>5.5</v>
+        <v>216</v>
       </c>
       <c r="F174">
         <f t="shared" si="10"/>
-        <v>330</v>
+        <v>12960</v>
       </c>
       <c r="G174" s="3" t="s">
-        <v>481</v>
+        <v>656</v>
       </c>
     </row>
     <row r="175" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A175" t="s">
-        <v>372</v>
+        <v>374</v>
       </c>
       <c r="B175" t="s">
         <v>16</v>
       </c>
       <c r="C175" t="s">
-        <v>654</v>
+        <v>657</v>
       </c>
       <c r="D175" t="s">
-        <v>653</v>
+        <v>88</v>
       </c>
       <c r="E175">
-        <v>0.7</v>
+        <v>7.25</v>
       </c>
       <c r="F175">
         <f t="shared" si="10"/>
-        <v>42</v>
+        <v>435</v>
       </c>
       <c r="G175" s="3" t="s">
-        <v>655</v>
+        <v>658</v>
       </c>
     </row>
     <row r="176" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A176" t="s">
-        <v>373</v>
+        <v>375</v>
       </c>
       <c r="B176" t="s">
         <v>16</v>
       </c>
       <c r="C176" t="s">
-        <v>453</v>
+        <v>659</v>
       </c>
       <c r="D176" t="s">
         <v>45</v>
       </c>
       <c r="E176">
-        <v>138</v>
+        <v>10.4</v>
       </c>
       <c r="F176">
         <f t="shared" si="10"/>
-        <v>8280</v>
-      </c>
-      <c r="G176" s="3" t="s">
-        <v>454</v>
+        <v>624</v>
+      </c>
+      <c r="G176" s="1" t="s">
+        <v>660</v>
       </c>
     </row>
     <row r="177" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A177" t="s">
-        <v>374</v>
+        <v>376</v>
       </c>
       <c r="B177" t="s">
         <v>16</v>
       </c>
       <c r="C177" t="s">
-        <v>656</v>
+        <v>465</v>
       </c>
       <c r="D177" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="E177">
-        <v>216</v>
+        <v>51</v>
       </c>
       <c r="F177">
         <f t="shared" si="10"/>
-        <v>12960</v>
+        <v>3060</v>
       </c>
       <c r="G177" s="3" t="s">
-        <v>657</v>
+        <v>466</v>
       </c>
     </row>
     <row r="178" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A178" t="s">
-        <v>375</v>
+        <v>377</v>
       </c>
       <c r="B178" t="s">
         <v>16</v>
       </c>
       <c r="C178" t="s">
-        <v>658</v>
+        <v>429</v>
       </c>
       <c r="D178" t="s">
-        <v>88</v>
+        <v>45</v>
       </c>
       <c r="E178">
-        <v>7.25</v>
+        <v>3.069</v>
       </c>
       <c r="F178">
         <f t="shared" si="10"/>
-        <v>435</v>
+        <v>184.14</v>
       </c>
       <c r="G178" s="3" t="s">
-        <v>659</v>
+        <v>430</v>
       </c>
     </row>
     <row r="179" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A179" t="s">
-        <v>376</v>
+        <v>378</v>
       </c>
       <c r="B179" t="s">
         <v>16</v>
       </c>
       <c r="C179" t="s">
-        <v>660</v>
+        <v>444</v>
       </c>
       <c r="D179" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="E179">
-        <v>10.4</v>
+        <v>1.76</v>
       </c>
       <c r="F179">
         <f t="shared" si="10"/>
-        <v>624</v>
-      </c>
-      <c r="G179" s="1" t="s">
-        <v>661</v>
+        <v>105.6</v>
+      </c>
+      <c r="G179" s="3" t="s">
+        <v>445</v>
       </c>
     </row>
     <row r="180" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A180" t="s">
-        <v>377</v>
+        <v>379</v>
       </c>
       <c r="B180" t="s">
         <v>16</v>
       </c>
       <c r="C180" t="s">
-        <v>466</v>
+        <v>661</v>
       </c>
       <c r="D180" t="s">
         <v>45</v>
       </c>
       <c r="E180">
-        <v>51</v>
+        <v>1</v>
       </c>
       <c r="F180">
         <f t="shared" si="10"/>
-        <v>3060</v>
+        <v>60</v>
       </c>
       <c r="G180" s="3" t="s">
-        <v>467</v>
+        <v>662</v>
       </c>
     </row>
     <row r="181" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A181" t="s">
-        <v>378</v>
+        <v>380</v>
       </c>
       <c r="B181" t="s">
         <v>16</v>
       </c>
       <c r="C181" t="s">
-        <v>430</v>
+        <v>532</v>
       </c>
       <c r="D181" t="s">
         <v>45</v>
       </c>
       <c r="E181">
-        <v>3.069</v>
+        <v>0.73</v>
       </c>
       <c r="F181">
         <f t="shared" si="10"/>
-        <v>184.14</v>
+        <v>43.8</v>
       </c>
       <c r="G181" s="3" t="s">
-        <v>431</v>
+        <v>533</v>
       </c>
     </row>
     <row r="182" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A182" t="s">
-        <v>379</v>
+        <v>381</v>
       </c>
       <c r="B182" t="s">
         <v>16</v>
       </c>
       <c r="C182" t="s">
-        <v>445</v>
+        <v>663</v>
       </c>
       <c r="D182" t="s">
-        <v>40</v>
+        <v>664</v>
       </c>
       <c r="E182">
-        <v>1.76</v>
+        <v>3.8</v>
       </c>
       <c r="F182">
         <f t="shared" si="10"/>
-        <v>105.6</v>
+        <v>228</v>
       </c>
       <c r="G182" s="3" t="s">
-        <v>446</v>
+        <v>665</v>
       </c>
     </row>
     <row r="183" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A183" t="s">
-        <v>380</v>
+        <v>382</v>
       </c>
       <c r="B183" t="s">
         <v>16</v>
       </c>
       <c r="C183" t="s">
-        <v>662</v>
+        <v>431</v>
       </c>
       <c r="D183" t="s">
         <v>45</v>
       </c>
       <c r="E183">
-        <v>1</v>
+        <v>2.08</v>
       </c>
       <c r="F183">
         <f t="shared" si="10"/>
-        <v>60</v>
+        <v>124.80000000000001</v>
       </c>
       <c r="G183" s="3" t="s">
-        <v>663</v>
+        <v>432</v>
       </c>
     </row>
     <row r="184" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A184" t="s">
-        <v>381</v>
+        <v>383</v>
       </c>
       <c r="B184" t="s">
         <v>16</v>
       </c>
       <c r="C184" t="s">
-        <v>533</v>
+        <v>666</v>
       </c>
       <c r="D184" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="E184">
-        <v>0.73</v>
+        <v>0.39500000000000002</v>
       </c>
       <c r="F184">
         <f t="shared" si="10"/>
-        <v>43.8</v>
+        <v>23.700000000000003</v>
       </c>
       <c r="G184" s="3" t="s">
-        <v>534</v>
+        <v>667</v>
       </c>
     </row>
     <row r="185" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A185" t="s">
-        <v>382</v>
+        <v>384</v>
       </c>
       <c r="B185" t="s">
         <v>16</v>
       </c>
       <c r="C185" t="s">
-        <v>664</v>
+        <v>619</v>
       </c>
       <c r="D185" t="s">
-        <v>665</v>
+        <v>40</v>
       </c>
       <c r="E185">
-        <v>3.8</v>
+        <v>29.1</v>
       </c>
       <c r="F185">
         <f t="shared" si="10"/>
-        <v>228</v>
+        <v>1746</v>
       </c>
       <c r="G185" s="3" t="s">
-        <v>666</v>
+        <v>620</v>
       </c>
     </row>
     <row r="186" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A186" t="s">
-        <v>383</v>
+        <v>682</v>
       </c>
       <c r="B186" t="s">
         <v>16</v>
       </c>
       <c r="C186" t="s">
-        <v>432</v>
+        <v>688</v>
       </c>
       <c r="D186" t="s">
-        <v>45</v>
+        <v>689</v>
       </c>
       <c r="E186">
-        <v>2.08</v>
+        <v>0.68</v>
       </c>
       <c r="F186">
         <f t="shared" si="10"/>
-        <v>124.80000000000001</v>
+        <v>40.800000000000004</v>
       </c>
       <c r="G186" s="3" t="s">
-        <v>433</v>
+        <v>690</v>
       </c>
     </row>
     <row r="187" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A187" t="s">
-        <v>384</v>
+        <v>683</v>
       </c>
       <c r="B187" t="s">
         <v>16</v>
       </c>
       <c r="C187" t="s">
-        <v>667</v>
+        <v>691</v>
       </c>
       <c r="D187" t="s">
-        <v>42</v>
+        <v>692</v>
       </c>
       <c r="E187">
-        <v>0.39500000000000002</v>
+        <v>2.66</v>
       </c>
       <c r="F187">
         <f t="shared" si="10"/>
-        <v>23.700000000000003</v>
+        <v>159.60000000000002</v>
       </c>
       <c r="G187" s="3" t="s">
-        <v>668</v>
+        <v>693</v>
       </c>
     </row>
     <row r="188" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A188" t="s">
-        <v>385</v>
+        <v>684</v>
       </c>
       <c r="B188" t="s">
         <v>16</v>
       </c>
       <c r="C188" t="s">
-        <v>620</v>
+        <v>694</v>
       </c>
       <c r="D188" t="s">
-        <v>40</v>
+        <v>695</v>
       </c>
       <c r="E188">
-        <v>29.1</v>
+        <v>0.05</v>
       </c>
       <c r="F188">
         <f t="shared" si="10"/>
-        <v>1746</v>
+        <v>3</v>
       </c>
       <c r="G188" s="3" t="s">
-        <v>621</v>
+        <v>696</v>
       </c>
     </row>
     <row r="189" spans="1:7" x14ac:dyDescent="0.35">
@@ -7015,1351 +7012,1351 @@
         <v>16</v>
       </c>
       <c r="C189" t="s">
-        <v>691</v>
+        <v>697</v>
       </c>
       <c r="D189" t="s">
-        <v>692</v>
+        <v>209</v>
       </c>
       <c r="E189">
-        <v>0.68</v>
+        <v>0.69</v>
       </c>
       <c r="F189">
         <f t="shared" si="10"/>
-        <v>40.800000000000004</v>
+        <v>41.4</v>
       </c>
       <c r="G189" s="3" t="s">
-        <v>693</v>
+        <v>698</v>
       </c>
     </row>
     <row r="190" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A190" t="s">
-        <v>686</v>
+        <v>26</v>
       </c>
       <c r="B190" t="s">
-        <v>16</v>
+        <v>38</v>
       </c>
       <c r="C190" t="s">
-        <v>694</v>
+        <v>86</v>
       </c>
       <c r="D190" t="s">
-        <v>695</v>
+        <v>45</v>
       </c>
       <c r="E190">
-        <v>2.66</v>
+        <v>11</v>
       </c>
       <c r="F190">
-        <f t="shared" si="10"/>
-        <v>159.60000000000002</v>
+        <f t="shared" si="0"/>
+        <v>660</v>
       </c>
       <c r="G190" s="3" t="s">
-        <v>696</v>
+        <v>87</v>
       </c>
     </row>
     <row r="191" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A191" t="s">
-        <v>687</v>
+        <v>27</v>
       </c>
       <c r="B191" t="s">
-        <v>16</v>
+        <v>38</v>
       </c>
       <c r="C191" t="s">
-        <v>697</v>
+        <v>89</v>
       </c>
       <c r="D191" t="s">
-        <v>698</v>
+        <v>88</v>
       </c>
       <c r="E191">
-        <v>0.05</v>
+        <v>0.127</v>
       </c>
       <c r="F191">
-        <f t="shared" si="10"/>
-        <v>3</v>
+        <f t="shared" si="0"/>
+        <v>7.62</v>
       </c>
       <c r="G191" s="3" t="s">
-        <v>699</v>
+        <v>90</v>
       </c>
     </row>
     <row r="192" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A192" t="s">
-        <v>688</v>
+        <v>28</v>
       </c>
       <c r="B192" t="s">
-        <v>16</v>
+        <v>38</v>
       </c>
       <c r="C192" t="s">
-        <v>700</v>
+        <v>92</v>
       </c>
       <c r="D192" t="s">
-        <v>209</v>
+        <v>91</v>
       </c>
       <c r="E192">
-        <v>0.69</v>
+        <v>6.13</v>
       </c>
       <c r="F192">
-        <f t="shared" si="10"/>
-        <v>41.4</v>
+        <f t="shared" si="0"/>
+        <v>367.8</v>
       </c>
       <c r="G192" s="3" t="s">
-        <v>701</v>
+        <v>93</v>
       </c>
     </row>
     <row r="193" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A193" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="B193" t="s">
         <v>38</v>
       </c>
       <c r="C193" t="s">
-        <v>86</v>
+        <v>94</v>
       </c>
       <c r="D193" t="s">
         <v>45</v>
       </c>
       <c r="E193">
-        <v>11</v>
+        <v>31</v>
       </c>
       <c r="F193">
         <f t="shared" si="0"/>
-        <v>660</v>
+        <v>1860</v>
       </c>
       <c r="G193" s="3" t="s">
-        <v>87</v>
+        <v>95</v>
       </c>
     </row>
     <row r="194" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A194" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="B194" t="s">
         <v>38</v>
       </c>
       <c r="C194" t="s">
-        <v>89</v>
+        <v>97</v>
       </c>
       <c r="D194" t="s">
-        <v>88</v>
+        <v>96</v>
       </c>
       <c r="E194">
-        <v>0.127</v>
+        <v>252</v>
       </c>
       <c r="F194">
         <f t="shared" si="0"/>
-        <v>7.62</v>
+        <v>15120</v>
       </c>
       <c r="G194" s="3" t="s">
-        <v>90</v>
+        <v>98</v>
       </c>
     </row>
     <row r="195" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A195" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="B195" t="s">
         <v>38</v>
       </c>
       <c r="C195" t="s">
-        <v>92</v>
+        <v>100</v>
       </c>
       <c r="D195" t="s">
-        <v>91</v>
+        <v>99</v>
       </c>
       <c r="E195">
-        <v>6.13</v>
+        <v>22.1</v>
       </c>
       <c r="F195">
         <f t="shared" si="0"/>
-        <v>367.8</v>
+        <v>1326</v>
       </c>
       <c r="G195" s="3" t="s">
-        <v>93</v>
+        <v>101</v>
       </c>
     </row>
     <row r="196" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A196" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="B196" t="s">
         <v>38</v>
       </c>
       <c r="C196" t="s">
-        <v>94</v>
+        <v>102</v>
       </c>
       <c r="D196" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="E196">
-        <v>31</v>
+        <v>3.9E-2</v>
       </c>
       <c r="F196">
         <f t="shared" si="0"/>
-        <v>1860</v>
+        <v>2.34</v>
       </c>
       <c r="G196" s="3" t="s">
-        <v>95</v>
+        <v>103</v>
       </c>
     </row>
     <row r="197" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A197" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="B197" t="s">
         <v>38</v>
       </c>
       <c r="C197" t="s">
-        <v>97</v>
+        <v>104</v>
       </c>
       <c r="D197" t="s">
-        <v>96</v>
+        <v>45</v>
       </c>
       <c r="E197">
-        <v>252</v>
+        <v>450</v>
       </c>
       <c r="F197">
         <f t="shared" si="0"/>
-        <v>15120</v>
+        <v>27000</v>
       </c>
       <c r="G197" s="3" t="s">
-        <v>98</v>
+        <v>105</v>
       </c>
     </row>
     <row r="198" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A198" t="s">
-        <v>31</v>
+        <v>700</v>
       </c>
       <c r="B198" t="s">
-        <v>38</v>
+        <v>16</v>
       </c>
       <c r="C198" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="D198" t="s">
-        <v>99</v>
+        <v>45</v>
       </c>
       <c r="E198">
-        <v>22.1</v>
+        <v>450</v>
       </c>
       <c r="F198">
-        <f t="shared" si="0"/>
-        <v>1326</v>
+        <f t="shared" ref="F198" si="11">E198*60</f>
+        <v>27000</v>
       </c>
       <c r="G198" s="3" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
     </row>
     <row r="199" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A199" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B199" t="s">
         <v>38</v>
       </c>
       <c r="C199" t="s">
-        <v>102</v>
+        <v>47</v>
       </c>
       <c r="D199" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="E199">
-        <v>3.9E-2</v>
+        <v>182</v>
       </c>
       <c r="F199">
         <f t="shared" si="0"/>
-        <v>2.34</v>
+        <v>10920</v>
       </c>
       <c r="G199" s="3" t="s">
-        <v>103</v>
+        <v>48</v>
       </c>
     </row>
     <row r="200" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A200" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B200" t="s">
         <v>38</v>
       </c>
       <c r="C200" t="s">
-        <v>104</v>
+        <v>41</v>
       </c>
       <c r="D200" t="s">
-        <v>45</v>
+        <v>88</v>
       </c>
       <c r="E200">
-        <v>450</v>
+        <v>345</v>
       </c>
       <c r="F200">
         <f t="shared" si="0"/>
-        <v>27000</v>
+        <v>20700</v>
       </c>
       <c r="G200" s="3" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
     </row>
     <row r="201" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A201" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B201" t="s">
         <v>38</v>
       </c>
       <c r="C201" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="D201" t="s">
         <v>45</v>
       </c>
       <c r="E201">
-        <v>182</v>
+        <v>170</v>
       </c>
       <c r="F201">
         <f t="shared" si="0"/>
-        <v>10920</v>
+        <v>10200</v>
       </c>
       <c r="G201" s="3" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="202" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A202" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B202" t="s">
-        <v>38</v>
+        <v>16</v>
       </c>
       <c r="C202" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="D202" t="s">
-        <v>88</v>
+        <v>45</v>
       </c>
       <c r="E202">
-        <v>345</v>
+        <v>170</v>
       </c>
       <c r="F202">
         <f t="shared" si="0"/>
-        <v>20700</v>
+        <v>10200</v>
       </c>
       <c r="G202" s="3" t="s">
-        <v>106</v>
+        <v>46</v>
       </c>
     </row>
     <row r="203" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A203" t="s">
-        <v>36</v>
+        <v>44</v>
       </c>
       <c r="B203" t="s">
-        <v>38</v>
+        <v>16</v>
       </c>
       <c r="C203" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="D203" t="s">
         <v>45</v>
       </c>
       <c r="E203">
-        <v>170</v>
+        <v>182</v>
       </c>
       <c r="F203">
         <f t="shared" si="0"/>
-        <v>10200</v>
+        <v>10920</v>
       </c>
       <c r="G203" s="3" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
     </row>
     <row r="204" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A204" t="s">
-        <v>37</v>
+        <v>160</v>
       </c>
       <c r="B204" t="s">
-        <v>16</v>
+        <v>38</v>
       </c>
       <c r="C204" t="s">
-        <v>43</v>
+        <v>175</v>
       </c>
       <c r="D204" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="E204">
-        <v>170</v>
+        <v>40</v>
       </c>
       <c r="F204">
         <f t="shared" si="0"/>
-        <v>10200</v>
+        <v>2400</v>
       </c>
       <c r="G204" s="3" t="s">
-        <v>46</v>
+        <v>174</v>
       </c>
     </row>
     <row r="205" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A205" t="s">
-        <v>44</v>
+        <v>162</v>
       </c>
       <c r="B205" t="s">
-        <v>16</v>
+        <v>38</v>
       </c>
       <c r="C205" t="s">
-        <v>47</v>
+        <v>172</v>
       </c>
       <c r="D205" t="s">
-        <v>45</v>
+        <v>88</v>
       </c>
       <c r="E205">
-        <v>182</v>
+        <v>0.84</v>
       </c>
       <c r="F205">
         <f t="shared" si="0"/>
-        <v>10920</v>
-      </c>
-      <c r="G205" s="3" t="s">
-        <v>48</v>
+        <v>50.4</v>
+      </c>
+      <c r="G205" s="5" t="s">
+        <v>173</v>
       </c>
     </row>
     <row r="206" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A206" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="B206" t="s">
         <v>38</v>
       </c>
       <c r="C206" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="D206" t="s">
         <v>42</v>
       </c>
       <c r="E206">
-        <v>40</v>
+        <v>0.55000000000000004</v>
       </c>
       <c r="F206">
         <f t="shared" si="0"/>
-        <v>2400</v>
-      </c>
-      <c r="G206" s="3" t="s">
-        <v>174</v>
+        <v>33</v>
+      </c>
+      <c r="G206" s="6" t="s">
+        <v>170</v>
       </c>
     </row>
     <row r="207" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A207" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="B207" t="s">
         <v>38</v>
       </c>
       <c r="C207" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="D207" t="s">
-        <v>88</v>
+        <v>42</v>
       </c>
       <c r="E207">
-        <v>0.84</v>
+        <v>7.1</v>
       </c>
       <c r="F207">
         <f t="shared" si="0"/>
-        <v>50.4</v>
-      </c>
-      <c r="G207" s="5" t="s">
-        <v>173</v>
+        <v>426</v>
+      </c>
+      <c r="G207" s="6" t="s">
+        <v>170</v>
       </c>
     </row>
     <row r="208" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A208" t="s">
-        <v>161</v>
+        <v>181</v>
       </c>
       <c r="B208" t="s">
         <v>38</v>
       </c>
       <c r="C208" t="s">
-        <v>171</v>
+        <v>185</v>
       </c>
       <c r="D208" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="E208">
-        <v>0.55000000000000004</v>
+        <v>2300</v>
       </c>
       <c r="F208">
         <f t="shared" si="0"/>
-        <v>33</v>
+        <v>138000</v>
       </c>
       <c r="G208" s="6" t="s">
-        <v>170</v>
+        <v>186</v>
       </c>
     </row>
     <row r="209" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A209" t="s">
-        <v>163</v>
+        <v>182</v>
       </c>
       <c r="B209" t="s">
         <v>38</v>
       </c>
       <c r="C209" t="s">
-        <v>169</v>
+        <v>187</v>
       </c>
       <c r="D209" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="E209">
-        <v>7.1</v>
+        <v>0.22800000000000001</v>
       </c>
       <c r="F209">
         <f t="shared" si="0"/>
-        <v>426</v>
+        <v>13.68</v>
       </c>
       <c r="G209" s="6" t="s">
-        <v>170</v>
+        <v>188</v>
       </c>
     </row>
     <row r="210" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A210" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="B210" t="s">
         <v>38</v>
       </c>
       <c r="C210" t="s">
-        <v>185</v>
+        <v>189</v>
       </c>
       <c r="D210" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="E210">
-        <v>2300</v>
+        <v>38.6</v>
       </c>
       <c r="F210">
         <f t="shared" si="0"/>
-        <v>138000</v>
+        <v>2316</v>
       </c>
       <c r="G210" s="6" t="s">
-        <v>186</v>
+        <v>190</v>
       </c>
     </row>
     <row r="211" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A211" t="s">
-        <v>182</v>
+        <v>210</v>
       </c>
       <c r="B211" t="s">
         <v>38</v>
       </c>
       <c r="C211" t="s">
-        <v>187</v>
+        <v>211</v>
       </c>
       <c r="D211" t="s">
-        <v>45</v>
+        <v>88</v>
       </c>
       <c r="E211">
-        <v>0.22800000000000001</v>
+        <v>28.3</v>
       </c>
       <c r="F211">
         <f t="shared" si="0"/>
-        <v>13.68</v>
+        <v>1698</v>
       </c>
       <c r="G211" s="6" t="s">
-        <v>188</v>
+        <v>212</v>
       </c>
     </row>
     <row r="212" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A212" t="s">
-        <v>183</v>
+        <v>213</v>
       </c>
       <c r="B212" t="s">
         <v>38</v>
       </c>
       <c r="C212" t="s">
-        <v>189</v>
+        <v>214</v>
       </c>
       <c r="D212" t="s">
         <v>45</v>
       </c>
       <c r="E212">
-        <v>38.6</v>
+        <v>5.7999999999999996E-3</v>
       </c>
       <c r="F212">
         <f t="shared" si="0"/>
-        <v>2316</v>
+        <v>0.34799999999999998</v>
       </c>
       <c r="G212" s="6" t="s">
-        <v>190</v>
+        <v>215</v>
       </c>
     </row>
     <row r="213" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A213" t="s">
-        <v>210</v>
+        <v>216</v>
       </c>
       <c r="B213" t="s">
         <v>38</v>
       </c>
       <c r="C213" t="s">
-        <v>211</v>
+        <v>217</v>
       </c>
       <c r="D213" t="s">
         <v>88</v>
       </c>
       <c r="E213">
-        <v>28.3</v>
+        <v>0.185</v>
       </c>
       <c r="F213">
         <f t="shared" si="0"/>
-        <v>1698</v>
+        <v>11.1</v>
       </c>
       <c r="G213" s="6" t="s">
-        <v>212</v>
+        <v>218</v>
       </c>
     </row>
     <row r="214" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A214" t="s">
-        <v>213</v>
+        <v>222</v>
       </c>
       <c r="B214" t="s">
         <v>38</v>
       </c>
       <c r="C214" t="s">
-        <v>214</v>
+        <v>223</v>
       </c>
       <c r="D214" t="s">
-        <v>45</v>
+        <v>88</v>
       </c>
       <c r="E214">
-        <v>5.7999999999999996E-3</v>
+        <v>133</v>
       </c>
       <c r="F214">
         <f t="shared" si="0"/>
-        <v>0.34799999999999998</v>
+        <v>7980</v>
       </c>
       <c r="G214" s="6" t="s">
-        <v>215</v>
+        <v>224</v>
       </c>
     </row>
     <row r="215" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A215" t="s">
-        <v>216</v>
+        <v>225</v>
       </c>
       <c r="B215" t="s">
         <v>38</v>
       </c>
       <c r="C215" t="s">
-        <v>217</v>
+        <v>226</v>
       </c>
       <c r="D215" t="s">
-        <v>88</v>
+        <v>45</v>
       </c>
       <c r="E215">
-        <v>0.185</v>
+        <v>2.2999999999999998</v>
       </c>
       <c r="F215">
         <f t="shared" si="0"/>
-        <v>11.1</v>
+        <v>138</v>
       </c>
       <c r="G215" s="6" t="s">
-        <v>218</v>
+        <v>227</v>
       </c>
     </row>
     <row r="216" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A216" t="s">
-        <v>222</v>
+        <v>229</v>
       </c>
       <c r="B216" t="s">
         <v>38</v>
       </c>
       <c r="C216" t="s">
-        <v>223</v>
+        <v>228</v>
       </c>
       <c r="D216" t="s">
-        <v>88</v>
+        <v>45</v>
       </c>
       <c r="E216">
-        <v>133</v>
+        <v>1334</v>
       </c>
       <c r="F216">
         <f t="shared" si="0"/>
-        <v>7980</v>
+        <v>80040</v>
       </c>
       <c r="G216" s="6" t="s">
-        <v>224</v>
+        <v>230</v>
       </c>
     </row>
     <row r="217" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A217" t="s">
-        <v>225</v>
+        <v>231</v>
       </c>
       <c r="B217" t="s">
         <v>38</v>
       </c>
       <c r="C217" t="s">
-        <v>226</v>
+        <v>232</v>
       </c>
       <c r="D217" t="s">
         <v>45</v>
       </c>
       <c r="E217">
-        <v>2.2999999999999998</v>
+        <v>220</v>
       </c>
       <c r="F217">
         <f t="shared" si="0"/>
-        <v>138</v>
+        <v>13200</v>
       </c>
       <c r="G217" s="6" t="s">
-        <v>227</v>
+        <v>233</v>
       </c>
     </row>
     <row r="218" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A218" t="s">
-        <v>229</v>
+        <v>234</v>
       </c>
       <c r="B218" t="s">
         <v>38</v>
       </c>
       <c r="C218" t="s">
-        <v>228</v>
+        <v>235</v>
       </c>
       <c r="D218" t="s">
         <v>45</v>
       </c>
       <c r="E218">
-        <v>1334</v>
+        <v>58.2</v>
       </c>
       <c r="F218">
         <f t="shared" si="0"/>
-        <v>80040</v>
+        <v>3492</v>
       </c>
       <c r="G218" s="6" t="s">
-        <v>230</v>
+        <v>236</v>
       </c>
     </row>
     <row r="219" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A219" t="s">
-        <v>231</v>
+        <v>385</v>
       </c>
       <c r="B219" t="s">
         <v>38</v>
       </c>
       <c r="C219" t="s">
-        <v>232</v>
+        <v>534</v>
       </c>
       <c r="D219" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="E219">
-        <v>220</v>
+        <v>13.9</v>
       </c>
       <c r="F219">
         <f t="shared" si="0"/>
-        <v>13200</v>
-      </c>
-      <c r="G219" s="6" t="s">
-        <v>233</v>
+        <v>834</v>
+      </c>
+      <c r="G219" s="3" t="s">
+        <v>535</v>
       </c>
     </row>
     <row r="220" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A220" t="s">
-        <v>234</v>
+        <v>386</v>
       </c>
       <c r="B220" t="s">
         <v>38</v>
       </c>
       <c r="C220" t="s">
-        <v>235</v>
+        <v>536</v>
       </c>
       <c r="D220" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="E220">
-        <v>58.2</v>
+        <v>3.9</v>
       </c>
       <c r="F220">
         <f t="shared" si="0"/>
-        <v>3492</v>
-      </c>
-      <c r="G220" s="6" t="s">
-        <v>236</v>
+        <v>234</v>
+      </c>
+      <c r="G220" s="3" t="s">
+        <v>537</v>
       </c>
     </row>
     <row r="221" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A221" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="B221" t="s">
         <v>38</v>
       </c>
       <c r="C221" t="s">
-        <v>535</v>
+        <v>542</v>
       </c>
       <c r="D221" t="s">
         <v>40</v>
       </c>
       <c r="E221">
-        <v>13.9</v>
+        <v>430</v>
       </c>
       <c r="F221">
         <f t="shared" si="0"/>
-        <v>834</v>
+        <v>25800</v>
       </c>
       <c r="G221" s="3" t="s">
-        <v>536</v>
+        <v>543</v>
       </c>
     </row>
     <row r="222" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A222" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="B222" t="s">
         <v>38</v>
       </c>
       <c r="C222" t="s">
-        <v>537</v>
+        <v>544</v>
       </c>
       <c r="D222" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="E222">
-        <v>3.9</v>
+        <v>26.4</v>
       </c>
       <c r="F222">
         <f t="shared" si="0"/>
-        <v>234</v>
+        <v>1584</v>
       </c>
       <c r="G222" s="3" t="s">
-        <v>538</v>
+        <v>545</v>
       </c>
     </row>
     <row r="223" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A223" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="B223" t="s">
         <v>38</v>
       </c>
       <c r="C223" t="s">
-        <v>543</v>
+        <v>546</v>
       </c>
       <c r="D223" t="s">
-        <v>40</v>
+        <v>88</v>
       </c>
       <c r="E223">
-        <v>430</v>
+        <v>19.899999999999999</v>
       </c>
       <c r="F223">
-        <f t="shared" si="0"/>
-        <v>25800</v>
+        <f>E223*60</f>
+        <v>1194</v>
       </c>
       <c r="G223" s="3" t="s">
-        <v>544</v>
+        <v>547</v>
       </c>
     </row>
     <row r="224" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A224" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="B224" t="s">
         <v>38</v>
       </c>
       <c r="C224" t="s">
-        <v>545</v>
+        <v>540</v>
       </c>
       <c r="D224" t="s">
         <v>45</v>
       </c>
       <c r="E224">
-        <v>26.4</v>
+        <v>7</v>
       </c>
       <c r="F224">
-        <f t="shared" si="0"/>
-        <v>1584</v>
+        <f t="shared" ref="F224:F239" si="12">E224*60</f>
+        <v>420</v>
       </c>
       <c r="G224" s="3" t="s">
-        <v>546</v>
+        <v>541</v>
       </c>
     </row>
     <row r="225" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A225" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="B225" t="s">
         <v>38</v>
       </c>
       <c r="C225" t="s">
-        <v>547</v>
+        <v>538</v>
       </c>
       <c r="D225" t="s">
-        <v>88</v>
+        <v>45</v>
       </c>
       <c r="E225">
-        <v>19.899999999999999</v>
+        <v>2.9</v>
       </c>
       <c r="F225">
-        <f>E225*60</f>
-        <v>1194</v>
+        <f t="shared" si="12"/>
+        <v>174</v>
       </c>
       <c r="G225" s="3" t="s">
-        <v>548</v>
+        <v>539</v>
       </c>
     </row>
     <row r="226" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A226" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="B226" t="s">
         <v>38</v>
       </c>
       <c r="C226" t="s">
-        <v>541</v>
+        <v>463</v>
       </c>
       <c r="D226" t="s">
-        <v>45</v>
+        <v>88</v>
       </c>
       <c r="E226">
-        <v>7</v>
+        <v>3.3</v>
       </c>
       <c r="F226">
-        <f t="shared" ref="F226:F241" si="11">E226*60</f>
-        <v>420</v>
+        <f t="shared" si="12"/>
+        <v>198</v>
       </c>
       <c r="G226" s="3" t="s">
-        <v>542</v>
+        <v>464</v>
       </c>
     </row>
     <row r="227" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A227" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="B227" t="s">
         <v>38</v>
       </c>
       <c r="C227" t="s">
-        <v>539</v>
+        <v>548</v>
       </c>
       <c r="D227" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="E227">
-        <v>2.9</v>
+        <v>24.9</v>
       </c>
       <c r="F227">
-        <f t="shared" si="11"/>
-        <v>174</v>
+        <f t="shared" si="12"/>
+        <v>1494</v>
       </c>
       <c r="G227" s="3" t="s">
-        <v>540</v>
+        <v>549</v>
       </c>
     </row>
     <row r="228" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A228" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="B228" t="s">
         <v>38</v>
       </c>
       <c r="C228" t="s">
-        <v>464</v>
+        <v>43</v>
       </c>
       <c r="D228" t="s">
-        <v>88</v>
+        <v>45</v>
       </c>
       <c r="E228">
-        <v>3.3</v>
+        <v>170</v>
       </c>
       <c r="F228">
-        <f t="shared" si="11"/>
-        <v>198</v>
+        <f t="shared" si="12"/>
+        <v>10200</v>
       </c>
       <c r="G228" s="3" t="s">
-        <v>465</v>
+        <v>46</v>
       </c>
     </row>
     <row r="229" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A229" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="B229" t="s">
         <v>38</v>
       </c>
       <c r="C229" t="s">
-        <v>549</v>
+        <v>479</v>
       </c>
       <c r="D229" t="s">
         <v>40</v>
       </c>
       <c r="E229">
-        <v>24.9</v>
+        <v>5.5</v>
       </c>
       <c r="F229">
-        <f t="shared" si="11"/>
-        <v>1494</v>
+        <f t="shared" si="12"/>
+        <v>330</v>
       </c>
       <c r="G229" s="3" t="s">
-        <v>550</v>
+        <v>480</v>
       </c>
     </row>
     <row r="230" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A230" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="B230" t="s">
         <v>38</v>
       </c>
       <c r="C230" t="s">
-        <v>43</v>
+        <v>550</v>
       </c>
       <c r="D230" t="s">
-        <v>45</v>
+        <v>209</v>
       </c>
       <c r="E230">
-        <v>170</v>
+        <v>26.8</v>
       </c>
       <c r="F230">
-        <f t="shared" si="11"/>
-        <v>10200</v>
+        <f t="shared" si="12"/>
+        <v>1608</v>
       </c>
       <c r="G230" s="3" t="s">
-        <v>46</v>
+        <v>551</v>
       </c>
     </row>
     <row r="231" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A231" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="B231" t="s">
         <v>38</v>
       </c>
       <c r="C231" t="s">
-        <v>480</v>
+        <v>552</v>
       </c>
       <c r="D231" t="s">
         <v>40</v>
       </c>
       <c r="E231">
-        <v>5.5</v>
+        <v>1.5</v>
       </c>
       <c r="F231">
-        <f t="shared" si="11"/>
-        <v>330</v>
+        <f t="shared" si="12"/>
+        <v>90</v>
       </c>
       <c r="G231" s="3" t="s">
-        <v>481</v>
+        <v>553</v>
       </c>
     </row>
     <row r="232" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A232" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="B232" t="s">
         <v>38</v>
       </c>
       <c r="C232" t="s">
-        <v>551</v>
+        <v>536</v>
       </c>
       <c r="D232" t="s">
-        <v>209</v>
+        <v>40</v>
       </c>
       <c r="E232">
-        <v>26.8</v>
+        <v>3.9</v>
       </c>
       <c r="F232">
-        <f t="shared" si="11"/>
-        <v>1608</v>
+        <f t="shared" si="12"/>
+        <v>234</v>
       </c>
       <c r="G232" s="3" t="s">
-        <v>552</v>
+        <v>537</v>
       </c>
     </row>
     <row r="233" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A233" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="B233" t="s">
         <v>38</v>
       </c>
       <c r="C233" t="s">
-        <v>553</v>
+        <v>169</v>
       </c>
       <c r="D233" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="E233">
-        <v>1.5</v>
+        <v>7.1</v>
       </c>
       <c r="F233">
-        <f t="shared" si="11"/>
-        <v>90</v>
-      </c>
-      <c r="G233" s="3" t="s">
-        <v>554</v>
+        <f t="shared" si="12"/>
+        <v>426</v>
+      </c>
+      <c r="G233" s="4" t="s">
+        <v>170</v>
       </c>
     </row>
     <row r="234" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A234" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="B234" t="s">
         <v>38</v>
       </c>
       <c r="C234" t="s">
-        <v>537</v>
+        <v>554</v>
       </c>
       <c r="D234" t="s">
-        <v>40</v>
+        <v>434</v>
       </c>
       <c r="E234">
-        <v>3.9</v>
+        <v>410</v>
       </c>
       <c r="F234">
-        <f t="shared" si="11"/>
-        <v>234</v>
+        <f t="shared" si="12"/>
+        <v>24600</v>
       </c>
       <c r="G234" s="3" t="s">
-        <v>538</v>
+        <v>555</v>
       </c>
     </row>
     <row r="235" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A235" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="B235" t="s">
         <v>38</v>
       </c>
       <c r="C235" t="s">
-        <v>169</v>
+        <v>197</v>
       </c>
       <c r="D235" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="E235">
-        <v>7.1</v>
+        <v>5.9709873654656063</v>
       </c>
       <c r="F235">
-        <f t="shared" si="11"/>
-        <v>426</v>
-      </c>
-      <c r="G235" s="4" t="s">
-        <v>170</v>
+        <f t="shared" si="12"/>
+        <v>358.25924192793639</v>
+      </c>
+      <c r="G235" s="3" t="s">
+        <v>556</v>
       </c>
     </row>
     <row r="236" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A236" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="B236" t="s">
         <v>38</v>
       </c>
       <c r="C236" t="s">
-        <v>555</v>
+        <v>483</v>
       </c>
       <c r="D236" t="s">
-        <v>435</v>
+        <v>88</v>
       </c>
       <c r="E236">
-        <v>410</v>
+        <v>8.1999999999999993</v>
       </c>
       <c r="F236">
-        <f t="shared" si="11"/>
-        <v>24600</v>
+        <f t="shared" si="12"/>
+        <v>491.99999999999994</v>
       </c>
       <c r="G236" s="3" t="s">
-        <v>556</v>
+        <v>484</v>
       </c>
     </row>
     <row r="237" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A237" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="B237" t="s">
         <v>38</v>
       </c>
       <c r="C237" t="s">
-        <v>197</v>
+        <v>557</v>
       </c>
       <c r="D237" t="s">
-        <v>40</v>
+        <v>76</v>
       </c>
       <c r="E237">
-        <v>5.9709873654656063</v>
+        <v>1.08</v>
       </c>
       <c r="F237">
-        <f t="shared" si="11"/>
-        <v>358.25924192793639</v>
+        <f t="shared" si="12"/>
+        <v>64.800000000000011</v>
       </c>
       <c r="G237" s="3" t="s">
-        <v>557</v>
+        <v>558</v>
       </c>
     </row>
     <row r="238" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A238" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="B238" t="s">
         <v>38</v>
       </c>
       <c r="C238" t="s">
-        <v>484</v>
+        <v>459</v>
       </c>
       <c r="D238" t="s">
-        <v>88</v>
+        <v>42</v>
       </c>
       <c r="E238">
-        <v>8.1999999999999993</v>
+        <v>206</v>
       </c>
       <c r="F238">
-        <f t="shared" si="11"/>
-        <v>491.99999999999994</v>
+        <f t="shared" si="12"/>
+        <v>12360</v>
       </c>
       <c r="G238" s="3" t="s">
-        <v>485</v>
+        <v>460</v>
       </c>
     </row>
     <row r="239" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A239" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="B239" t="s">
         <v>38</v>
       </c>
       <c r="C239" t="s">
-        <v>558</v>
+        <v>559</v>
       </c>
       <c r="D239" t="s">
-        <v>76</v>
+        <v>88</v>
       </c>
       <c r="E239">
-        <v>1.08</v>
+        <v>1.83</v>
       </c>
       <c r="F239">
-        <f t="shared" si="11"/>
-        <v>64.800000000000011</v>
+        <f t="shared" si="12"/>
+        <v>109.80000000000001</v>
       </c>
       <c r="G239" s="3" t="s">
-        <v>559</v>
+        <v>560</v>
       </c>
     </row>
     <row r="240" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A240" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="B240" t="s">
         <v>38</v>
       </c>
       <c r="C240" t="s">
-        <v>460</v>
+        <v>479</v>
       </c>
       <c r="D240" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="E240">
-        <v>206</v>
+        <v>5.5</v>
       </c>
       <c r="F240">
-        <f t="shared" si="11"/>
-        <v>12360</v>
+        <f t="shared" ref="F240:F242" si="13">E240*60</f>
+        <v>330</v>
       </c>
       <c r="G240" s="3" t="s">
-        <v>461</v>
+        <v>480</v>
       </c>
     </row>
     <row r="241" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A241" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="B241" t="s">
         <v>38</v>
       </c>
       <c r="C241" t="s">
-        <v>560</v>
+        <v>561</v>
       </c>
       <c r="D241" t="s">
-        <v>88</v>
+        <v>45</v>
       </c>
       <c r="E241">
-        <v>1.83</v>
+        <v>5.6</v>
       </c>
       <c r="F241">
-        <f t="shared" si="11"/>
-        <v>109.80000000000001</v>
+        <f t="shared" si="13"/>
+        <v>336</v>
       </c>
       <c r="G241" s="3" t="s">
-        <v>561</v>
+        <v>562</v>
       </c>
     </row>
     <row r="242" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A242" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="B242" t="s">
         <v>38</v>
       </c>
       <c r="C242" t="s">
-        <v>480</v>
+        <v>557</v>
       </c>
       <c r="D242" t="s">
-        <v>40</v>
+        <v>76</v>
       </c>
       <c r="E242">
-        <v>5.5</v>
+        <v>1.08</v>
       </c>
       <c r="F242">
-        <f t="shared" ref="F242:F244" si="12">E242*60</f>
-        <v>330</v>
+        <f t="shared" si="13"/>
+        <v>64.800000000000011</v>
       </c>
       <c r="G242" s="3" t="s">
-        <v>481</v>
+        <v>558</v>
       </c>
     </row>
     <row r="243" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A243" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="B243" t="s">
         <v>38</v>
       </c>
       <c r="C243" t="s">
-        <v>562</v>
+        <v>479</v>
       </c>
       <c r="D243" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="E243">
-        <v>5.6</v>
+        <v>5.5</v>
       </c>
       <c r="F243">
-        <f t="shared" si="12"/>
-        <v>336</v>
+        <f t="shared" ref="F243:F244" si="14">E243*60</f>
+        <v>330</v>
       </c>
       <c r="G243" s="3" t="s">
-        <v>563</v>
+        <v>480</v>
       </c>
     </row>
     <row r="244" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A244" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="B244" t="s">
         <v>38</v>
       </c>
       <c r="C244" t="s">
-        <v>558</v>
+        <v>563</v>
       </c>
       <c r="D244" t="s">
-        <v>76</v>
+        <v>40</v>
       </c>
       <c r="E244">
-        <v>1.08</v>
+        <v>11.7</v>
       </c>
       <c r="F244">
-        <f t="shared" si="12"/>
-        <v>64.800000000000011</v>
+        <f t="shared" si="14"/>
+        <v>702</v>
       </c>
       <c r="G244" s="3" t="s">
-        <v>559</v>
+        <v>564</v>
       </c>
     </row>
     <row r="245" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A245" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="B245" t="s">
         <v>38</v>
       </c>
       <c r="C245" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="D245" t="s">
         <v>40</v>
@@ -8368,561 +8365,513 @@
         <v>5.5</v>
       </c>
       <c r="F245">
-        <f t="shared" ref="F245:F246" si="13">E245*60</f>
+        <f t="shared" ref="F245:F247" si="15">E245*60</f>
         <v>330</v>
       </c>
       <c r="G245" s="3" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
     </row>
     <row r="246" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A246" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="B246" t="s">
         <v>38</v>
       </c>
       <c r="C246" t="s">
-        <v>564</v>
+        <v>565</v>
       </c>
       <c r="D246" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="E246">
-        <v>11.7</v>
+        <v>5.3</v>
       </c>
       <c r="F246">
-        <f t="shared" si="13"/>
-        <v>702</v>
+        <f t="shared" si="15"/>
+        <v>318</v>
       </c>
       <c r="G246" s="3" t="s">
-        <v>565</v>
+        <v>566</v>
       </c>
     </row>
     <row r="247" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A247" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="B247" t="s">
         <v>38</v>
       </c>
       <c r="C247" t="s">
-        <v>480</v>
+        <v>567</v>
       </c>
       <c r="D247" t="s">
         <v>40</v>
       </c>
       <c r="E247">
-        <v>5.5</v>
+        <v>51.8</v>
       </c>
       <c r="F247">
-        <f t="shared" ref="F247:F249" si="14">E247*60</f>
-        <v>330</v>
+        <f t="shared" si="15"/>
+        <v>3108</v>
       </c>
       <c r="G247" s="3" t="s">
-        <v>481</v>
+        <v>568</v>
       </c>
     </row>
     <row r="248" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A248" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="B248" t="s">
         <v>38</v>
       </c>
       <c r="C248" t="s">
-        <v>566</v>
+        <v>479</v>
       </c>
       <c r="D248" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="E248">
-        <v>5.3</v>
+        <v>5.5</v>
       </c>
       <c r="F248">
-        <f t="shared" si="14"/>
-        <v>318</v>
+        <f t="shared" ref="F248:F254" si="16">E248*60</f>
+        <v>330</v>
       </c>
       <c r="G248" s="3" t="s">
-        <v>567</v>
+        <v>480</v>
       </c>
     </row>
     <row r="249" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A249" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="B249" t="s">
         <v>38</v>
       </c>
       <c r="C249" t="s">
-        <v>568</v>
+        <v>171</v>
       </c>
       <c r="D249" t="s">
-        <v>40</v>
+        <v>88</v>
       </c>
       <c r="E249">
-        <v>51.8</v>
+        <v>27.1</v>
       </c>
       <c r="F249">
-        <f t="shared" si="14"/>
-        <v>3108</v>
+        <f t="shared" si="16"/>
+        <v>1626</v>
       </c>
       <c r="G249" s="3" t="s">
-        <v>569</v>
+        <v>573</v>
       </c>
     </row>
     <row r="250" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A250" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="B250" t="s">
         <v>38</v>
       </c>
       <c r="C250" t="s">
-        <v>480</v>
+        <v>574</v>
       </c>
       <c r="D250" t="s">
         <v>40</v>
       </c>
       <c r="E250">
-        <v>5.5</v>
+        <v>2.6</v>
       </c>
       <c r="F250">
-        <f t="shared" ref="F250:F256" si="15">E250*60</f>
-        <v>330</v>
+        <f t="shared" si="16"/>
+        <v>156</v>
       </c>
       <c r="G250" s="3" t="s">
-        <v>481</v>
+        <v>575</v>
       </c>
     </row>
     <row r="251" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A251" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="B251" t="s">
         <v>38</v>
       </c>
       <c r="C251" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="D251" t="s">
-        <v>88</v>
+        <v>42</v>
       </c>
       <c r="E251">
-        <v>27.1</v>
+        <v>7.1</v>
       </c>
       <c r="F251">
-        <f t="shared" si="15"/>
-        <v>1626</v>
-      </c>
-      <c r="G251" s="3" t="s">
-        <v>574</v>
+        <f t="shared" si="16"/>
+        <v>426</v>
+      </c>
+      <c r="G251" s="4" t="s">
+        <v>170</v>
       </c>
     </row>
     <row r="252" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A252" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="B252" t="s">
         <v>38</v>
       </c>
       <c r="C252" t="s">
-        <v>575</v>
+        <v>433</v>
       </c>
       <c r="D252" t="s">
-        <v>40</v>
+        <v>434</v>
       </c>
       <c r="E252">
-        <v>2.6</v>
+        <v>7.3</v>
       </c>
       <c r="F252">
-        <f t="shared" si="15"/>
-        <v>156</v>
+        <f t="shared" si="16"/>
+        <v>438</v>
       </c>
       <c r="G252" s="3" t="s">
-        <v>576</v>
+        <v>435</v>
       </c>
     </row>
     <row r="253" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A253" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="B253" t="s">
         <v>38</v>
       </c>
       <c r="C253" t="s">
-        <v>169</v>
+        <v>571</v>
       </c>
       <c r="D253" t="s">
-        <v>42</v>
+        <v>88</v>
       </c>
       <c r="E253">
-        <v>7.1</v>
+        <v>6.3</v>
       </c>
       <c r="F253">
-        <f t="shared" si="15"/>
-        <v>426</v>
-      </c>
-      <c r="G253" s="4" t="s">
-        <v>170</v>
+        <f t="shared" si="16"/>
+        <v>378</v>
+      </c>
+      <c r="G253" s="3" t="s">
+        <v>572</v>
       </c>
     </row>
     <row r="254" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A254" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="B254" t="s">
         <v>38</v>
       </c>
       <c r="C254" t="s">
-        <v>434</v>
+        <v>569</v>
       </c>
       <c r="D254" t="s">
-        <v>435</v>
+        <v>88</v>
       </c>
       <c r="E254">
-        <v>7.3</v>
+        <v>1.87</v>
       </c>
       <c r="F254">
-        <f t="shared" si="15"/>
-        <v>438</v>
+        <f t="shared" si="16"/>
+        <v>112.2</v>
       </c>
       <c r="G254" s="3" t="s">
-        <v>436</v>
+        <v>570</v>
       </c>
     </row>
     <row r="255" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A255" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="B255" t="s">
         <v>38</v>
       </c>
       <c r="C255" t="s">
-        <v>572</v>
+        <v>169</v>
       </c>
       <c r="D255" t="s">
-        <v>88</v>
+        <v>40</v>
       </c>
       <c r="E255">
-        <v>6.3</v>
+        <v>32</v>
       </c>
       <c r="F255">
-        <f t="shared" si="15"/>
-        <v>378</v>
+        <f t="shared" ref="F255" si="17">E255*60</f>
+        <v>1920</v>
       </c>
       <c r="G255" s="3" t="s">
-        <v>573</v>
+        <v>454</v>
       </c>
     </row>
     <row r="256" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A256" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="B256" t="s">
         <v>38</v>
       </c>
       <c r="C256" t="s">
-        <v>570</v>
+        <v>423</v>
       </c>
       <c r="D256" t="s">
-        <v>88</v>
+        <v>45</v>
       </c>
       <c r="E256">
-        <v>1.87</v>
+        <v>221</v>
       </c>
       <c r="F256">
-        <f t="shared" si="15"/>
-        <v>112.2</v>
+        <f t="shared" si="0"/>
+        <v>13260</v>
       </c>
       <c r="G256" s="3" t="s">
-        <v>571</v>
+        <v>424</v>
       </c>
     </row>
     <row r="257" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A257" t="s">
-        <v>422</v>
+        <v>669</v>
       </c>
       <c r="B257" t="s">
         <v>38</v>
       </c>
       <c r="C257" t="s">
-        <v>169</v>
+        <v>679</v>
       </c>
       <c r="D257" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="E257">
-        <v>32</v>
+        <v>53</v>
       </c>
       <c r="F257">
-        <f t="shared" ref="F257" si="16">E257*60</f>
-        <v>1920</v>
+        <f t="shared" si="0"/>
+        <v>3180</v>
       </c>
       <c r="G257" s="3" t="s">
-        <v>455</v>
+        <v>680</v>
       </c>
     </row>
     <row r="258" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A258" t="s">
-        <v>423</v>
+        <v>670</v>
       </c>
       <c r="B258" t="s">
         <v>38</v>
       </c>
       <c r="C258" t="s">
-        <v>424</v>
+        <v>673</v>
       </c>
       <c r="D258" t="s">
-        <v>45</v>
+        <v>88</v>
       </c>
       <c r="E258">
-        <v>221</v>
+        <v>8400</v>
       </c>
       <c r="F258">
         <f t="shared" si="0"/>
-        <v>13260</v>
+        <v>504000</v>
       </c>
       <c r="G258" s="3" t="s">
-        <v>425</v>
+        <v>674</v>
       </c>
     </row>
     <row r="259" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A259" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
       <c r="B259" t="s">
         <v>38</v>
       </c>
       <c r="C259" t="s">
-        <v>682</v>
+        <v>675</v>
       </c>
       <c r="D259" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="E259">
-        <v>53</v>
+        <v>67.400000000000006</v>
       </c>
       <c r="F259">
         <f t="shared" si="0"/>
-        <v>3180</v>
+        <v>4044.0000000000005</v>
       </c>
       <c r="G259" s="3" t="s">
-        <v>683</v>
+        <v>676</v>
       </c>
     </row>
     <row r="260" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A260" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
       <c r="B260" t="s">
         <v>38</v>
       </c>
       <c r="C260" t="s">
-        <v>676</v>
+        <v>677</v>
       </c>
       <c r="D260" t="s">
-        <v>88</v>
+        <v>678</v>
       </c>
       <c r="E260">
-        <v>8400</v>
+        <v>6.61</v>
       </c>
       <c r="F260">
         <f t="shared" si="0"/>
-        <v>504000</v>
+        <v>396.6</v>
       </c>
       <c r="G260" s="3" t="s">
-        <v>677</v>
+        <v>101</v>
       </c>
     </row>
     <row r="261" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A261" t="s">
-        <v>674</v>
+        <v>681</v>
       </c>
       <c r="B261" t="s">
         <v>38</v>
       </c>
       <c r="C261" t="s">
-        <v>678</v>
+        <v>686</v>
       </c>
       <c r="D261" t="s">
-        <v>40</v>
+        <v>146</v>
       </c>
       <c r="E261">
-        <v>67.400000000000006</v>
+        <v>4.13</v>
       </c>
       <c r="F261">
         <f t="shared" si="0"/>
-        <v>4044.0000000000005</v>
+        <v>247.79999999999998</v>
       </c>
       <c r="G261" s="3" t="s">
-        <v>679</v>
+        <v>687</v>
       </c>
     </row>
     <row r="262" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A262" t="s">
-        <v>675</v>
+        <v>155</v>
       </c>
       <c r="B262" t="s">
         <v>38</v>
       </c>
       <c r="C262" t="s">
-        <v>680</v>
+        <v>157</v>
       </c>
       <c r="D262" t="s">
-        <v>681</v>
+        <v>45</v>
       </c>
       <c r="E262">
-        <v>6.61</v>
+        <v>7.5</v>
       </c>
       <c r="F262">
         <f t="shared" si="0"/>
-        <v>396.6</v>
+        <v>450</v>
       </c>
       <c r="G262" s="3" t="s">
-        <v>101</v>
+        <v>158</v>
       </c>
     </row>
     <row r="263" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A263" t="s">
-        <v>684</v>
+        <v>156</v>
       </c>
       <c r="B263" t="s">
         <v>38</v>
       </c>
       <c r="C263" t="s">
-        <v>689</v>
+        <v>157</v>
       </c>
       <c r="D263" t="s">
-        <v>146</v>
+        <v>45</v>
       </c>
       <c r="E263">
-        <v>4.13</v>
+        <v>7.5</v>
       </c>
       <c r="F263">
         <f t="shared" si="0"/>
-        <v>247.79999999999998</v>
+        <v>450</v>
       </c>
       <c r="G263" s="3" t="s">
-        <v>690</v>
+        <v>158</v>
       </c>
     </row>
     <row r="264" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A264" t="s">
-        <v>155</v>
+        <v>159</v>
       </c>
       <c r="B264" t="s">
-        <v>38</v>
+        <v>16</v>
       </c>
       <c r="C264" t="s">
-        <v>157</v>
+        <v>109</v>
       </c>
       <c r="D264" t="s">
-        <v>45</v>
-      </c>
-      <c r="E264">
-        <v>7.5</v>
+        <v>109</v>
+      </c>
+      <c r="E264" t="s">
+        <v>109</v>
       </c>
       <c r="F264">
-        <f t="shared" si="0"/>
-        <v>450</v>
-      </c>
-      <c r="G264" s="3" t="s">
-        <v>158</v>
+        <v>107.4</v>
+      </c>
+      <c r="G264" s="1" t="s">
+        <v>699</v>
       </c>
     </row>
     <row r="265" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A265" t="s">
-        <v>156</v>
+        <v>116</v>
       </c>
       <c r="B265" t="s">
-        <v>38</v>
+        <v>16</v>
       </c>
       <c r="C265" t="s">
-        <v>157</v>
+        <v>109</v>
       </c>
       <c r="D265" t="s">
-        <v>45</v>
-      </c>
-      <c r="E265">
-        <v>7.5</v>
+        <v>109</v>
+      </c>
+      <c r="E265" t="s">
+        <v>109</v>
       </c>
       <c r="F265">
-        <f t="shared" si="0"/>
-        <v>450</v>
-      </c>
-      <c r="G265" s="3" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="266" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A266" t="s">
-        <v>159</v>
-      </c>
-      <c r="B266" t="s">
-        <v>16</v>
-      </c>
-      <c r="C266" t="s">
-        <v>109</v>
-      </c>
-      <c r="D266" t="s">
-        <v>109</v>
-      </c>
-      <c r="E266" t="s">
-        <v>109</v>
-      </c>
-      <c r="F266">
-        <v>107.4</v>
-      </c>
-      <c r="G266" s="1" t="s">
-        <v>702</v>
-      </c>
-    </row>
-    <row r="267" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A267" t="s">
-        <v>116</v>
-      </c>
-      <c r="B267" t="s">
-        <v>16</v>
-      </c>
-      <c r="C267" t="s">
-        <v>109</v>
-      </c>
-      <c r="D267" t="s">
-        <v>109</v>
-      </c>
-      <c r="E267" t="s">
-        <v>109</v>
-      </c>
-      <c r="F267">
         <v>50</v>
       </c>
-      <c r="G267" s="2" t="s">
+      <c r="G265" s="2" t="s">
         <v>114</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="G22" r:id="rId1" xr:uid="{60D2E9C6-9172-4D4D-B418-CC567356E033}"/>
+    <hyperlink ref="G19" r:id="rId1" xr:uid="{60D2E9C6-9172-4D4D-B418-CC567356E033}"/>
     <hyperlink ref="G2" r:id="rId2" xr:uid="{96642BA6-12F8-4451-8DFA-16265959FEFA}"/>
-    <hyperlink ref="G209" r:id="rId3" xr:uid="{DBD518FF-06AA-4F59-B32D-3D580FD3488C}"/>
-    <hyperlink ref="G208" r:id="rId4" xr:uid="{3C873BD8-C205-4B23-B8F2-C8E28D105704}"/>
-    <hyperlink ref="G32" r:id="rId5" xr:uid="{3CCDC09F-65EC-46AB-A5B6-06698DF90FD6}"/>
-    <hyperlink ref="G33" r:id="rId6" xr:uid="{45B7FFC2-C775-45F6-B5E2-92E39C1EFAC1}"/>
-    <hyperlink ref="G36" r:id="rId7" xr:uid="{C0F23788-2A31-4EA5-B6D6-A12E3C45A7E7}"/>
-    <hyperlink ref="G47" r:id="rId8" xr:uid="{E16DED46-B1DD-492F-AAE6-8FA6CA99D4AD}"/>
-    <hyperlink ref="G68" r:id="rId9" xr:uid="{8712DF9D-4B59-405A-AA32-2B4423750FF0}"/>
-    <hyperlink ref="G78" r:id="rId10" xr:uid="{6C3143F8-EECE-493B-A808-BC8B1FB906E4}"/>
-    <hyperlink ref="G83" r:id="rId11" xr:uid="{5F7C4001-6F89-479B-983C-BDB24868961F}"/>
-    <hyperlink ref="G89" r:id="rId12" xr:uid="{B65497F5-375F-4E2A-86C4-B4310250B40D}"/>
-    <hyperlink ref="G235" r:id="rId13" xr:uid="{B850A642-752F-4050-BE9D-FD6DEF1A1A28}"/>
-    <hyperlink ref="G253" r:id="rId14" xr:uid="{733CCEAC-FE6D-4E5A-890C-C556E3FD7098}"/>
-    <hyperlink ref="G123" r:id="rId15" xr:uid="{3ACF0FFB-BCF3-4FD6-9FD5-CA9D90101625}"/>
-    <hyperlink ref="G170" r:id="rId16" xr:uid="{1167C813-88FC-4ED1-BAC3-35562E39F6B3}"/>
-    <hyperlink ref="G142" r:id="rId17" xr:uid="{0AC60904-9B6C-42FC-A0D6-DCDFCFACCDB7}"/>
-    <hyperlink ref="G179" r:id="rId18" xr:uid="{87D8A670-02D9-4006-B7CD-DC020E2EACEF}"/>
-    <hyperlink ref="G19" r:id="rId19" xr:uid="{7DAABD84-8696-4ABA-AB3E-8DD3400DB458}"/>
-    <hyperlink ref="G266" r:id="rId20" xr:uid="{DC28AAB8-6E94-4F29-B774-317596ED75E1}"/>
+    <hyperlink ref="G207" r:id="rId3" xr:uid="{DBD518FF-06AA-4F59-B32D-3D580FD3488C}"/>
+    <hyperlink ref="G206" r:id="rId4" xr:uid="{3C873BD8-C205-4B23-B8F2-C8E28D105704}"/>
+    <hyperlink ref="G29" r:id="rId5" xr:uid="{3CCDC09F-65EC-46AB-A5B6-06698DF90FD6}"/>
+    <hyperlink ref="G30" r:id="rId6" xr:uid="{45B7FFC2-C775-45F6-B5E2-92E39C1EFAC1}"/>
+    <hyperlink ref="G33" r:id="rId7" xr:uid="{C0F23788-2A31-4EA5-B6D6-A12E3C45A7E7}"/>
+    <hyperlink ref="G44" r:id="rId8" xr:uid="{E16DED46-B1DD-492F-AAE6-8FA6CA99D4AD}"/>
+    <hyperlink ref="G65" r:id="rId9" xr:uid="{8712DF9D-4B59-405A-AA32-2B4423750FF0}"/>
+    <hyperlink ref="G75" r:id="rId10" xr:uid="{6C3143F8-EECE-493B-A808-BC8B1FB906E4}"/>
+    <hyperlink ref="G80" r:id="rId11" xr:uid="{5F7C4001-6F89-479B-983C-BDB24868961F}"/>
+    <hyperlink ref="G86" r:id="rId12" xr:uid="{B65497F5-375F-4E2A-86C4-B4310250B40D}"/>
+    <hyperlink ref="G233" r:id="rId13" xr:uid="{B850A642-752F-4050-BE9D-FD6DEF1A1A28}"/>
+    <hyperlink ref="G251" r:id="rId14" xr:uid="{733CCEAC-FE6D-4E5A-890C-C556E3FD7098}"/>
+    <hyperlink ref="G120" r:id="rId15" xr:uid="{3ACF0FFB-BCF3-4FD6-9FD5-CA9D90101625}"/>
+    <hyperlink ref="G167" r:id="rId16" xr:uid="{1167C813-88FC-4ED1-BAC3-35562E39F6B3}"/>
+    <hyperlink ref="G139" r:id="rId17" xr:uid="{0AC60904-9B6C-42FC-A0D6-DCDFCFACCDB7}"/>
+    <hyperlink ref="G176" r:id="rId18" xr:uid="{87D8A670-02D9-4006-B7CD-DC020E2EACEF}"/>
+    <hyperlink ref="G16" r:id="rId19" xr:uid="{7DAABD84-8696-4ABA-AB3E-8DD3400DB458}"/>
+    <hyperlink ref="G264" r:id="rId20" xr:uid="{DC28AAB8-6E94-4F29-B774-317596ED75E1}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId21"/>

--- a/data/gems/Parameters.xlsx
+++ b/data/gems/Parameters.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28623"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28730"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bras5181\Desktop\Labprojects\CulturedMeat\PigGEM2025\data\gems\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{38C4F20B-BAC5-44C6-9CA1-DC2243E2FC9D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{73AD5D84-273A-4A72-B61A-0C28884A7347}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1399" uniqueCount="701">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1423" uniqueCount="708">
   <si>
     <t>Rxn</t>
   </si>
@@ -378,9 +378,6 @@
     <t>Saccharomyces cerevisiae</t>
   </si>
   <si>
-    <t>EX_aa_e</t>
-  </si>
-  <si>
     <t>Estimated</t>
   </si>
   <si>
@@ -2140,6 +2137,30 @@
   </si>
   <si>
     <t>FUM</t>
+  </si>
+  <si>
+    <t>RPI_rev</t>
+  </si>
+  <si>
+    <t>RPE_rev</t>
+  </si>
+  <si>
+    <t>TKT1_rev</t>
+  </si>
+  <si>
+    <t>TKT2_rev</t>
+  </si>
+  <si>
+    <t>TALA_rev</t>
+  </si>
+  <si>
+    <t>GLYATm</t>
+  </si>
+  <si>
+    <t>2.3.1.29</t>
+  </si>
+  <si>
+    <t>PMID: 8307963</t>
   </si>
 </sst>
 </file>
@@ -2486,10 +2507,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G265"/>
+  <dimension ref="A1:G270"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O6" sqref="O6"/>
+    <sheetView tabSelected="1" topLeftCell="A255" workbookViewId="0">
+      <selection activeCell="M263" sqref="M263"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2545,7 +2566,7 @@
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B3" t="s">
         <v>111</v>
@@ -2563,12 +2584,12 @@
         <v>6360</v>
       </c>
       <c r="G3" s="4" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B4" t="s">
         <v>111</v>
@@ -2586,371 +2607,372 @@
         <v>6360</v>
       </c>
       <c r="G4" s="4" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>113</v>
+        <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>111</v>
+        <v>16</v>
       </c>
       <c r="C5" t="s">
-        <v>109</v>
+        <v>49</v>
       </c>
       <c r="D5" t="s">
-        <v>109</v>
-      </c>
-      <c r="E5" t="s">
-        <v>109</v>
+        <v>45</v>
+      </c>
+      <c r="E5">
+        <v>191.5</v>
       </c>
       <c r="F5">
-        <v>10</v>
-      </c>
-      <c r="G5" s="2" t="s">
-        <v>109</v>
+        <f>E5*60</f>
+        <v>11490</v>
+      </c>
+      <c r="G5" s="3" t="s">
+        <v>50</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B6" t="s">
         <v>16</v>
       </c>
       <c r="C6" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="D6" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="E6">
-        <v>191.5</v>
+        <v>620</v>
       </c>
       <c r="F6">
-        <f>E6*60</f>
-        <v>11490</v>
+        <f t="shared" ref="F6:F268" si="0">E6*60</f>
+        <v>37200</v>
       </c>
       <c r="G6" s="3" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B7" t="s">
         <v>16</v>
       </c>
       <c r="C7" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="D7" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="E7">
-        <v>620</v>
+        <v>128</v>
       </c>
       <c r="F7">
-        <f t="shared" ref="F7:F263" si="0">E7*60</f>
-        <v>37200</v>
+        <f t="shared" si="0"/>
+        <v>7680</v>
       </c>
       <c r="G7" s="3" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B8" t="s">
         <v>16</v>
       </c>
       <c r="C8" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="D8" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="E8">
-        <v>128</v>
+        <v>22.3</v>
       </c>
       <c r="F8">
         <f t="shared" si="0"/>
-        <v>7680</v>
+        <v>1338</v>
       </c>
       <c r="G8" s="3" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B9" t="s">
         <v>16</v>
       </c>
       <c r="C9" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="D9" t="s">
         <v>40</v>
       </c>
       <c r="E9">
-        <v>22.3</v>
+        <v>10240</v>
       </c>
       <c r="F9">
         <f t="shared" si="0"/>
-        <v>1338</v>
+        <v>614400</v>
       </c>
       <c r="G9" s="3" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B10" t="s">
         <v>16</v>
       </c>
       <c r="C10" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="D10" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="E10">
-        <v>10240</v>
+        <v>80</v>
       </c>
       <c r="F10">
         <f t="shared" si="0"/>
-        <v>614400</v>
+        <v>4800</v>
       </c>
       <c r="G10" s="3" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B11" t="s">
         <v>16</v>
       </c>
       <c r="C11" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="D11" t="s">
         <v>45</v>
       </c>
       <c r="E11">
-        <v>80</v>
+        <v>1000</v>
       </c>
       <c r="F11">
         <f t="shared" si="0"/>
-        <v>4800</v>
+        <v>60000</v>
       </c>
       <c r="G11" s="3" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B12" t="s">
         <v>16</v>
       </c>
       <c r="C12" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="D12" t="s">
         <v>45</v>
       </c>
       <c r="E12">
-        <v>1000</v>
+        <v>210</v>
       </c>
       <c r="F12">
         <f t="shared" si="0"/>
-        <v>60000</v>
+        <v>12600</v>
       </c>
       <c r="G12" s="3" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B13" t="s">
         <v>16</v>
       </c>
       <c r="C13" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="D13" t="s">
         <v>45</v>
       </c>
       <c r="E13">
-        <v>210</v>
+        <v>91</v>
       </c>
       <c r="F13">
         <f t="shared" si="0"/>
-        <v>12600</v>
+        <v>5460</v>
       </c>
       <c r="G13" s="3" t="s">
-        <v>60</v>
+        <v>65</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B14" t="s">
         <v>16</v>
       </c>
       <c r="C14" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="D14" t="s">
         <v>45</v>
       </c>
       <c r="E14">
-        <v>91</v>
+        <v>191</v>
       </c>
       <c r="F14">
         <f t="shared" si="0"/>
-        <v>5460</v>
+        <v>11460</v>
       </c>
       <c r="G14" s="3" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
-        <v>14</v>
+        <v>25</v>
       </c>
       <c r="B15" t="s">
         <v>16</v>
       </c>
       <c r="C15" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="D15" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="E15">
-        <v>191</v>
+        <v>458.5</v>
       </c>
       <c r="F15">
         <f t="shared" si="0"/>
-        <v>11460</v>
-      </c>
-      <c r="G15" s="3" t="s">
-        <v>67</v>
+        <v>27510</v>
+      </c>
+      <c r="G15" s="1" t="s">
+        <v>667</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
-        <v>25</v>
+        <v>5</v>
       </c>
       <c r="B16" t="s">
         <v>16</v>
       </c>
       <c r="C16" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="D16" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="E16">
-        <v>458.5</v>
+        <v>201</v>
       </c>
       <c r="F16">
         <f t="shared" si="0"/>
-        <v>27510</v>
-      </c>
-      <c r="G16" s="1" t="s">
-        <v>668</v>
+        <v>12060</v>
+      </c>
+      <c r="G16" s="3" t="s">
+        <v>70</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
-        <v>5</v>
+        <v>17</v>
       </c>
       <c r="B17" t="s">
         <v>16</v>
       </c>
       <c r="C17" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="D17" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="E17">
-        <v>201</v>
+        <v>1065</v>
       </c>
       <c r="F17">
         <f t="shared" si="0"/>
-        <v>12060</v>
+        <v>63900</v>
       </c>
       <c r="G17" s="3" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B18" t="s">
         <v>16</v>
       </c>
       <c r="C18" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="D18" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="E18">
-        <v>1065</v>
+        <v>1.89</v>
       </c>
       <c r="F18">
         <f t="shared" si="0"/>
-        <v>63900</v>
-      </c>
-      <c r="G18" s="3" t="s">
-        <v>72</v>
+        <v>113.39999999999999</v>
+      </c>
+      <c r="G18" s="4" t="s">
+        <v>74</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B19" t="s">
         <v>16</v>
       </c>
       <c r="C19" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="D19" t="s">
-        <v>45</v>
+        <v>76</v>
       </c>
       <c r="E19">
-        <v>1.89</v>
+        <v>1700</v>
       </c>
       <c r="F19">
         <f t="shared" si="0"/>
-        <v>113.39999999999999</v>
-      </c>
-      <c r="G19" s="4" t="s">
-        <v>74</v>
+        <v>102000</v>
+      </c>
+      <c r="G19" s="3" t="s">
+        <v>77</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
-        <v>19</v>
+        <v>700</v>
       </c>
       <c r="B20" t="s">
         <v>16</v>
@@ -2965,7 +2987,7 @@
         <v>1700</v>
       </c>
       <c r="F20">
-        <f t="shared" si="0"/>
+        <f t="shared" ref="F20" si="1">E20*60</f>
         <v>102000</v>
       </c>
       <c r="G20" s="3" t="s">
@@ -2998,31 +3020,31 @@
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
-        <v>21</v>
+        <v>701</v>
       </c>
       <c r="B22" t="s">
         <v>16</v>
       </c>
       <c r="C22" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="D22" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="E22">
-        <v>0.88</v>
+        <v>6570</v>
       </c>
       <c r="F22">
-        <f t="shared" si="0"/>
-        <v>52.8</v>
+        <f t="shared" ref="F22" si="2">E22*60</f>
+        <v>394200</v>
       </c>
       <c r="G22" s="3" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B23" t="s">
         <v>16</v>
@@ -3046,685 +3068,685 @@
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
+        <v>702</v>
+      </c>
+      <c r="B24" t="s">
+        <v>16</v>
+      </c>
+      <c r="C24" t="s">
+        <v>80</v>
+      </c>
+      <c r="D24" t="s">
+        <v>45</v>
+      </c>
+      <c r="E24">
+        <v>0.88</v>
+      </c>
+      <c r="F24">
+        <f t="shared" ref="F24" si="3">E24*60</f>
+        <v>52.8</v>
+      </c>
+      <c r="G24" s="3" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A25" t="s">
+        <v>22</v>
+      </c>
+      <c r="B25" t="s">
+        <v>16</v>
+      </c>
+      <c r="C25" t="s">
+        <v>80</v>
+      </c>
+      <c r="D25" t="s">
+        <v>45</v>
+      </c>
+      <c r="E25">
+        <v>0.88</v>
+      </c>
+      <c r="F25">
+        <f t="shared" si="0"/>
+        <v>52.8</v>
+      </c>
+      <c r="G25" s="3" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A26" t="s">
+        <v>703</v>
+      </c>
+      <c r="B26" t="s">
+        <v>16</v>
+      </c>
+      <c r="C26" t="s">
+        <v>80</v>
+      </c>
+      <c r="D26" t="s">
+        <v>45</v>
+      </c>
+      <c r="E26">
+        <v>0.88</v>
+      </c>
+      <c r="F26">
+        <f t="shared" ref="F26" si="4">E26*60</f>
+        <v>52.8</v>
+      </c>
+      <c r="G26" s="3" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A27" t="s">
         <v>23</v>
       </c>
-      <c r="B24" t="s">
-        <v>16</v>
-      </c>
-      <c r="C24" t="s">
+      <c r="B27" t="s">
+        <v>16</v>
+      </c>
+      <c r="C27" t="s">
         <v>82</v>
       </c>
-      <c r="D24" t="s">
+      <c r="D27" t="s">
         <v>40</v>
       </c>
-      <c r="E24">
+      <c r="E27">
         <v>15</v>
       </c>
-      <c r="F24">
+      <c r="F27">
         <f t="shared" si="0"/>
         <v>900</v>
       </c>
-      <c r="G24" s="3" t="s">
+      <c r="G27" s="3" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A25" t="s">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A28" t="s">
+        <v>704</v>
+      </c>
+      <c r="B28" t="s">
+        <v>16</v>
+      </c>
+      <c r="C28" t="s">
+        <v>82</v>
+      </c>
+      <c r="D28" t="s">
+        <v>40</v>
+      </c>
+      <c r="E28">
+        <v>15</v>
+      </c>
+      <c r="F28">
+        <f t="shared" ref="F28" si="5">E28*60</f>
+        <v>900</v>
+      </c>
+      <c r="G28" s="3" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A29" t="s">
         <v>24</v>
       </c>
-      <c r="B25" t="s">
-        <v>16</v>
-      </c>
-      <c r="C25" t="s">
+      <c r="B29" t="s">
+        <v>16</v>
+      </c>
+      <c r="C29" t="s">
         <v>84</v>
       </c>
-      <c r="D25" t="s">
+      <c r="D29" t="s">
         <v>40</v>
       </c>
-      <c r="E25">
+      <c r="E29">
         <v>22.2</v>
       </c>
-      <c r="F25">
+      <c r="F29">
         <f t="shared" si="0"/>
         <v>1332</v>
       </c>
-      <c r="G25" s="3" t="s">
+      <c r="G29" s="3" t="s">
         <v>85</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A26" t="s">
-        <v>164</v>
-      </c>
-      <c r="B26" t="s">
-        <v>16</v>
-      </c>
-      <c r="C26" t="s">
-        <v>92</v>
-      </c>
-      <c r="D26" t="s">
-        <v>91</v>
-      </c>
-      <c r="E26">
-        <v>6.13</v>
-      </c>
-      <c r="F26">
-        <f t="shared" ref="F26:F51" si="1">E26*60</f>
-        <v>367.8</v>
-      </c>
-      <c r="G26" s="3" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A27" t="s">
-        <v>165</v>
-      </c>
-      <c r="B27" t="s">
-        <v>16</v>
-      </c>
-      <c r="C27" t="s">
-        <v>166</v>
-      </c>
-      <c r="D27" t="s">
-        <v>167</v>
-      </c>
-      <c r="E27">
-        <v>138.80000000000001</v>
-      </c>
-      <c r="F27">
-        <f t="shared" si="1"/>
-        <v>8328</v>
-      </c>
-      <c r="G27" s="3" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A28" t="s">
-        <v>176</v>
-      </c>
-      <c r="B28" t="s">
-        <v>16</v>
-      </c>
-      <c r="C28" t="s">
-        <v>177</v>
-      </c>
-      <c r="D28" t="s">
-        <v>88</v>
-      </c>
-      <c r="E28">
-        <v>329</v>
-      </c>
-      <c r="F28">
-        <f t="shared" si="1"/>
-        <v>19740</v>
-      </c>
-      <c r="G28" s="3" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A29" t="s">
-        <v>180</v>
-      </c>
-      <c r="B29" t="s">
-        <v>16</v>
-      </c>
-      <c r="C29" t="s">
-        <v>169</v>
-      </c>
-      <c r="D29" t="s">
-        <v>42</v>
-      </c>
-      <c r="E29">
-        <v>7.1</v>
-      </c>
-      <c r="F29">
-        <f t="shared" si="1"/>
-        <v>426</v>
-      </c>
-      <c r="G29" s="4" t="s">
-        <v>170</v>
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
-        <v>184</v>
+        <v>163</v>
       </c>
       <c r="B30" t="s">
         <v>16</v>
       </c>
       <c r="C30" t="s">
-        <v>169</v>
+        <v>92</v>
       </c>
       <c r="D30" t="s">
-        <v>42</v>
+        <v>91</v>
       </c>
       <c r="E30">
-        <v>7.1</v>
+        <v>6.13</v>
       </c>
       <c r="F30">
-        <f t="shared" si="1"/>
-        <v>426</v>
-      </c>
-      <c r="G30" s="4" t="s">
-        <v>170</v>
+        <f t="shared" ref="F30:F55" si="6">E30*60</f>
+        <v>367.8</v>
+      </c>
+      <c r="G30" s="3" t="s">
+        <v>93</v>
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
-        <v>191</v>
+        <v>164</v>
       </c>
       <c r="B31" t="s">
         <v>16</v>
       </c>
       <c r="C31" t="s">
-        <v>199</v>
+        <v>165</v>
       </c>
       <c r="D31" t="s">
-        <v>88</v>
+        <v>166</v>
       </c>
       <c r="E31">
-        <v>9.94</v>
+        <v>138.80000000000001</v>
       </c>
       <c r="F31">
-        <f t="shared" si="1"/>
-        <v>596.4</v>
-      </c>
-      <c r="G31" s="4" t="s">
-        <v>200</v>
+        <f t="shared" si="6"/>
+        <v>8328</v>
+      </c>
+      <c r="G31" s="3" t="s">
+        <v>167</v>
       </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
-        <v>192</v>
+        <v>175</v>
       </c>
       <c r="B32" t="s">
         <v>16</v>
       </c>
       <c r="C32" t="s">
-        <v>201</v>
+        <v>176</v>
       </c>
       <c r="D32" t="s">
-        <v>42</v>
+        <v>88</v>
       </c>
       <c r="E32">
-        <v>1.6</v>
+        <v>329</v>
       </c>
       <c r="F32">
-        <f t="shared" si="1"/>
-        <v>96</v>
-      </c>
-      <c r="G32" s="4" t="s">
-        <v>202</v>
+        <f t="shared" si="6"/>
+        <v>19740</v>
+      </c>
+      <c r="G32" s="3" t="s">
+        <v>177</v>
       </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
-        <v>193</v>
+        <v>179</v>
       </c>
       <c r="B33" t="s">
         <v>16</v>
       </c>
       <c r="C33" t="s">
-        <v>203</v>
+        <v>168</v>
       </c>
       <c r="D33" t="s">
-        <v>88</v>
+        <v>42</v>
       </c>
       <c r="E33">
-        <v>1.54</v>
+        <v>7.1</v>
       </c>
       <c r="F33">
-        <f t="shared" si="1"/>
-        <v>92.4</v>
+        <f t="shared" si="6"/>
+        <v>426</v>
       </c>
       <c r="G33" s="4" t="s">
-        <v>204</v>
+        <v>169</v>
       </c>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
-        <v>194</v>
+        <v>183</v>
       </c>
       <c r="B34" t="s">
         <v>16</v>
       </c>
       <c r="C34" t="s">
-        <v>205</v>
+        <v>168</v>
       </c>
       <c r="D34" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="E34">
-        <v>45</v>
+        <v>7.1</v>
       </c>
       <c r="F34">
-        <f t="shared" si="1"/>
-        <v>2700</v>
+        <f t="shared" si="6"/>
+        <v>426</v>
       </c>
       <c r="G34" s="4" t="s">
-        <v>206</v>
+        <v>169</v>
       </c>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
-        <v>195</v>
+        <v>190</v>
       </c>
       <c r="B35" t="s">
         <v>16</v>
       </c>
       <c r="C35" t="s">
-        <v>207</v>
+        <v>198</v>
       </c>
       <c r="D35" t="s">
-        <v>45</v>
+        <v>88</v>
       </c>
       <c r="E35">
-        <v>25</v>
+        <v>9.94</v>
       </c>
       <c r="F35">
-        <f t="shared" si="1"/>
-        <v>1500</v>
+        <f t="shared" si="6"/>
+        <v>596.4</v>
       </c>
       <c r="G35" s="4" t="s">
-        <v>208</v>
+        <v>199</v>
       </c>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
-        <v>196</v>
+        <v>191</v>
       </c>
       <c r="B36" t="s">
         <v>16</v>
       </c>
       <c r="C36" t="s">
-        <v>197</v>
+        <v>200</v>
       </c>
       <c r="D36" t="s">
-        <v>112</v>
+        <v>42</v>
       </c>
       <c r="E36">
-        <v>196.2</v>
+        <v>1.6</v>
       </c>
       <c r="F36">
-        <f t="shared" si="1"/>
-        <v>11772</v>
+        <f t="shared" si="6"/>
+        <v>96</v>
       </c>
       <c r="G36" s="4" t="s">
-        <v>198</v>
+        <v>201</v>
       </c>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A37" t="s">
-        <v>219</v>
+        <v>192</v>
       </c>
       <c r="B37" t="s">
         <v>16</v>
       </c>
       <c r="C37" t="s">
-        <v>220</v>
+        <v>202</v>
       </c>
       <c r="D37" t="s">
         <v>88</v>
       </c>
       <c r="E37">
-        <v>26.1</v>
+        <v>1.54</v>
       </c>
       <c r="F37">
-        <f t="shared" si="1"/>
-        <v>1566</v>
+        <f t="shared" si="6"/>
+        <v>92.4</v>
       </c>
       <c r="G37" s="4" t="s">
-        <v>221</v>
+        <v>203</v>
       </c>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A38" t="s">
-        <v>237</v>
+        <v>193</v>
       </c>
       <c r="B38" t="s">
         <v>16</v>
       </c>
       <c r="C38" t="s">
-        <v>425</v>
+        <v>204</v>
       </c>
       <c r="D38" t="s">
-        <v>88</v>
+        <v>45</v>
       </c>
       <c r="E38">
-        <v>13.6</v>
+        <v>45</v>
       </c>
       <c r="F38">
-        <f t="shared" si="1"/>
-        <v>816</v>
-      </c>
-      <c r="G38" s="3" t="s">
-        <v>426</v>
+        <f t="shared" si="6"/>
+        <v>2700</v>
+      </c>
+      <c r="G38" s="4" t="s">
+        <v>205</v>
       </c>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A39" t="s">
-        <v>238</v>
+        <v>194</v>
       </c>
       <c r="B39" t="s">
         <v>16</v>
       </c>
       <c r="C39" t="s">
-        <v>427</v>
+        <v>206</v>
       </c>
       <c r="D39" t="s">
         <v>45</v>
       </c>
       <c r="E39">
-        <v>3.7890000000000001</v>
+        <v>25</v>
       </c>
       <c r="F39">
-        <f t="shared" si="1"/>
-        <v>227.34</v>
-      </c>
-      <c r="G39" s="3" t="s">
-        <v>428</v>
+        <f t="shared" si="6"/>
+        <v>1500</v>
+      </c>
+      <c r="G39" s="4" t="s">
+        <v>207</v>
       </c>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A40" t="s">
-        <v>239</v>
+        <v>195</v>
       </c>
       <c r="B40" t="s">
         <v>16</v>
       </c>
       <c r="C40" t="s">
-        <v>429</v>
+        <v>196</v>
       </c>
       <c r="D40" t="s">
-        <v>45</v>
+        <v>112</v>
       </c>
       <c r="E40">
-        <v>3.069</v>
+        <v>196.2</v>
       </c>
       <c r="F40">
-        <f t="shared" si="1"/>
-        <v>184.14</v>
-      </c>
-      <c r="G40" s="3" t="s">
-        <v>430</v>
+        <f t="shared" si="6"/>
+        <v>11772</v>
+      </c>
+      <c r="G40" s="4" t="s">
+        <v>197</v>
       </c>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A41" t="s">
-        <v>240</v>
+        <v>218</v>
       </c>
       <c r="B41" t="s">
         <v>16</v>
       </c>
       <c r="C41" t="s">
-        <v>431</v>
+        <v>219</v>
       </c>
       <c r="D41" t="s">
-        <v>45</v>
+        <v>88</v>
       </c>
       <c r="E41">
-        <v>2.08</v>
+        <v>26.1</v>
       </c>
       <c r="F41">
-        <f t="shared" si="1"/>
-        <v>124.80000000000001</v>
-      </c>
-      <c r="G41" s="3" t="s">
-        <v>432</v>
+        <f t="shared" si="6"/>
+        <v>1566</v>
+      </c>
+      <c r="G41" s="4" t="s">
+        <v>220</v>
       </c>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A42" t="s">
-        <v>241</v>
+        <v>236</v>
       </c>
       <c r="B42" t="s">
         <v>16</v>
       </c>
       <c r="C42" t="s">
-        <v>433</v>
+        <v>424</v>
       </c>
       <c r="D42" t="s">
-        <v>434</v>
+        <v>88</v>
       </c>
       <c r="E42">
-        <v>7.3</v>
+        <v>13.6</v>
       </c>
       <c r="F42">
-        <f t="shared" si="1"/>
-        <v>438</v>
+        <f t="shared" si="6"/>
+        <v>816</v>
       </c>
       <c r="G42" s="3" t="s">
-        <v>435</v>
+        <v>425</v>
       </c>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A43" t="s">
-        <v>242</v>
+        <v>237</v>
       </c>
       <c r="B43" t="s">
         <v>16</v>
       </c>
       <c r="C43" t="s">
-        <v>43</v>
+        <v>426</v>
       </c>
       <c r="D43" t="s">
         <v>45</v>
       </c>
       <c r="E43">
-        <v>170</v>
+        <v>3.7890000000000001</v>
       </c>
       <c r="F43">
-        <f t="shared" si="1"/>
-        <v>10200</v>
+        <f t="shared" si="6"/>
+        <v>227.34</v>
       </c>
       <c r="G43" s="3" t="s">
-        <v>46</v>
+        <v>427</v>
       </c>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A44" t="s">
-        <v>243</v>
+        <v>238</v>
       </c>
       <c r="B44" t="s">
         <v>16</v>
       </c>
       <c r="C44" t="s">
-        <v>436</v>
+        <v>428</v>
       </c>
       <c r="D44" t="s">
         <v>45</v>
       </c>
       <c r="E44">
-        <v>68.3</v>
+        <v>3.069</v>
       </c>
       <c r="F44">
-        <f t="shared" si="1"/>
-        <v>4098</v>
-      </c>
-      <c r="G44" s="1" t="s">
-        <v>437</v>
+        <f t="shared" si="6"/>
+        <v>184.14</v>
+      </c>
+      <c r="G44" s="3" t="s">
+        <v>429</v>
       </c>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A45" t="s">
-        <v>244</v>
+        <v>239</v>
       </c>
       <c r="B45" t="s">
         <v>16</v>
       </c>
       <c r="C45" t="s">
-        <v>438</v>
+        <v>430</v>
       </c>
       <c r="D45" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="E45">
-        <v>410</v>
+        <v>2.08</v>
       </c>
       <c r="F45">
-        <f t="shared" si="1"/>
-        <v>24600</v>
+        <f t="shared" si="6"/>
+        <v>124.80000000000001</v>
       </c>
       <c r="G45" s="3" t="s">
-        <v>439</v>
+        <v>431</v>
       </c>
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A46" t="s">
-        <v>245</v>
+        <v>240</v>
       </c>
       <c r="B46" t="s">
         <v>16</v>
       </c>
       <c r="C46" t="s">
-        <v>440</v>
+        <v>432</v>
       </c>
       <c r="D46" t="s">
-        <v>40</v>
+        <v>433</v>
       </c>
       <c r="E46">
-        <v>20.931999999999999</v>
+        <v>7.3</v>
       </c>
       <c r="F46">
-        <f t="shared" si="1"/>
-        <v>1255.9199999999998</v>
+        <f t="shared" si="6"/>
+        <v>438</v>
       </c>
       <c r="G46" s="3" t="s">
-        <v>441</v>
+        <v>434</v>
       </c>
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A47" t="s">
-        <v>246</v>
+        <v>241</v>
       </c>
       <c r="B47" t="s">
         <v>16</v>
       </c>
       <c r="C47" t="s">
-        <v>442</v>
+        <v>43</v>
       </c>
       <c r="D47" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="E47">
-        <v>10.3</v>
+        <v>170</v>
       </c>
       <c r="F47">
-        <f t="shared" si="1"/>
-        <v>618</v>
+        <f t="shared" si="6"/>
+        <v>10200</v>
       </c>
       <c r="G47" s="3" t="s">
-        <v>443</v>
+        <v>46</v>
       </c>
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A48" t="s">
-        <v>247</v>
+        <v>242</v>
       </c>
       <c r="B48" t="s">
         <v>16</v>
       </c>
       <c r="C48" t="s">
-        <v>444</v>
+        <v>435</v>
       </c>
       <c r="D48" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="E48">
-        <v>1.76</v>
+        <v>68.3</v>
       </c>
       <c r="F48">
-        <f t="shared" si="1"/>
-        <v>105.6</v>
-      </c>
-      <c r="G48" s="3" t="s">
-        <v>445</v>
+        <f t="shared" si="6"/>
+        <v>4098</v>
+      </c>
+      <c r="G48" s="1" t="s">
+        <v>436</v>
       </c>
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A49" t="s">
-        <v>248</v>
+        <v>243</v>
       </c>
       <c r="B49" t="s">
         <v>16</v>
       </c>
       <c r="C49" t="s">
-        <v>446</v>
+        <v>437</v>
       </c>
       <c r="D49" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="E49">
-        <v>3.27E-2</v>
+        <v>410</v>
       </c>
       <c r="F49">
-        <f t="shared" si="1"/>
-        <v>1.962</v>
+        <f t="shared" si="6"/>
+        <v>24600</v>
       </c>
       <c r="G49" s="3" t="s">
-        <v>447</v>
+        <v>438</v>
       </c>
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A50" t="s">
-        <v>249</v>
+        <v>244</v>
       </c>
       <c r="B50" t="s">
         <v>16</v>
       </c>
       <c r="C50" t="s">
-        <v>448</v>
+        <v>439</v>
       </c>
       <c r="D50" t="s">
         <v>40</v>
       </c>
       <c r="E50">
-        <v>350.02</v>
+        <v>20.931999999999999</v>
       </c>
       <c r="F50">
-        <f t="shared" si="1"/>
-        <v>21001.199999999997</v>
+        <f t="shared" si="6"/>
+        <v>1255.9199999999998</v>
       </c>
       <c r="G50" s="3" t="s">
-        <v>449</v>
+        <v>440</v>
       </c>
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A51" t="s">
-        <v>250</v>
+        <v>245</v>
       </c>
       <c r="B51" t="s">
         <v>16</v>
       </c>
       <c r="C51" t="s">
-        <v>450</v>
+        <v>441</v>
       </c>
       <c r="D51" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="E51">
-        <v>2.3999999999999998E-3</v>
+        <v>10.3</v>
       </c>
       <c r="F51">
-        <f t="shared" si="1"/>
-        <v>0.14399999999999999</v>
+        <f t="shared" si="6"/>
+        <v>618</v>
       </c>
       <c r="G51" s="3" t="s">
-        <v>451</v>
+        <v>442</v>
       </c>
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A52" t="s">
-        <v>251</v>
+        <v>246</v>
       </c>
       <c r="B52" t="s">
         <v>16</v>
       </c>
       <c r="C52" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="D52" t="s">
         <v>40</v>
@@ -3733,1390 +3755,1390 @@
         <v>1.76</v>
       </c>
       <c r="F52">
-        <f t="shared" ref="F52:F70" si="2">E52*60</f>
+        <f t="shared" si="6"/>
         <v>105.6</v>
       </c>
       <c r="G52" s="3" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A53" t="s">
-        <v>252</v>
+        <v>247</v>
       </c>
       <c r="B53" t="s">
         <v>16</v>
       </c>
       <c r="C53" t="s">
-        <v>431</v>
+        <v>445</v>
       </c>
       <c r="D53" t="s">
         <v>45</v>
       </c>
       <c r="E53">
-        <v>2.08</v>
+        <v>3.27E-2</v>
       </c>
       <c r="F53">
-        <f t="shared" si="2"/>
-        <v>124.80000000000001</v>
+        <f t="shared" si="6"/>
+        <v>1.962</v>
       </c>
       <c r="G53" s="3" t="s">
-        <v>432</v>
+        <v>446</v>
       </c>
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A54" t="s">
-        <v>253</v>
+        <v>248</v>
       </c>
       <c r="B54" t="s">
         <v>16</v>
       </c>
       <c r="C54" t="s">
-        <v>452</v>
+        <v>447</v>
       </c>
       <c r="D54" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="E54">
-        <v>138</v>
+        <v>350.02</v>
       </c>
       <c r="F54">
-        <f t="shared" si="2"/>
-        <v>8280</v>
+        <f t="shared" si="6"/>
+        <v>21001.199999999997</v>
       </c>
       <c r="G54" s="3" t="s">
-        <v>453</v>
+        <v>448</v>
       </c>
     </row>
     <row r="55" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A55" t="s">
-        <v>254</v>
+        <v>249</v>
       </c>
       <c r="B55" t="s">
         <v>16</v>
       </c>
       <c r="C55" t="s">
-        <v>431</v>
+        <v>449</v>
       </c>
       <c r="D55" t="s">
         <v>45</v>
       </c>
       <c r="E55">
-        <v>2.08</v>
+        <v>2.3999999999999998E-3</v>
       </c>
       <c r="F55">
-        <f t="shared" si="2"/>
-        <v>124.80000000000001</v>
+        <f t="shared" si="6"/>
+        <v>0.14399999999999999</v>
       </c>
       <c r="G55" s="3" t="s">
-        <v>432</v>
+        <v>450</v>
       </c>
     </row>
     <row r="56" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A56" t="s">
-        <v>255</v>
+        <v>250</v>
       </c>
       <c r="B56" t="s">
         <v>16</v>
       </c>
       <c r="C56" t="s">
-        <v>169</v>
+        <v>443</v>
       </c>
       <c r="D56" t="s">
         <v>40</v>
       </c>
       <c r="E56">
-        <v>32</v>
+        <v>1.76</v>
       </c>
       <c r="F56">
-        <f t="shared" si="2"/>
-        <v>1920</v>
+        <f t="shared" ref="F56:F74" si="7">E56*60</f>
+        <v>105.6</v>
       </c>
       <c r="G56" s="3" t="s">
-        <v>454</v>
+        <v>444</v>
       </c>
     </row>
     <row r="57" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A57" t="s">
-        <v>256</v>
+        <v>251</v>
       </c>
       <c r="B57" t="s">
         <v>16</v>
       </c>
       <c r="C57" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="D57" t="s">
         <v>45</v>
       </c>
       <c r="E57">
-        <v>3.069</v>
+        <v>2.08</v>
       </c>
       <c r="F57">
-        <f t="shared" si="2"/>
-        <v>184.14</v>
+        <f t="shared" si="7"/>
+        <v>124.80000000000001</v>
       </c>
       <c r="G57" s="3" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
     </row>
     <row r="58" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A58" t="s">
-        <v>257</v>
+        <v>252</v>
       </c>
       <c r="B58" t="s">
         <v>16</v>
       </c>
       <c r="C58" t="s">
-        <v>455</v>
+        <v>451</v>
       </c>
       <c r="D58" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="E58">
-        <v>6.5799999999999999E-3</v>
+        <v>138</v>
       </c>
       <c r="F58">
-        <f t="shared" si="2"/>
-        <v>0.39479999999999998</v>
+        <f t="shared" si="7"/>
+        <v>8280</v>
       </c>
       <c r="G58" s="3" t="s">
-        <v>456</v>
+        <v>452</v>
       </c>
     </row>
     <row r="59" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A59" t="s">
-        <v>258</v>
+        <v>253</v>
       </c>
       <c r="B59" t="s">
         <v>16</v>
       </c>
       <c r="C59" t="s">
-        <v>457</v>
+        <v>430</v>
       </c>
       <c r="D59" t="s">
         <v>45</v>
       </c>
       <c r="E59">
-        <v>2E-3</v>
+        <v>2.08</v>
       </c>
       <c r="F59">
-        <f t="shared" si="2"/>
-        <v>0.12</v>
+        <f t="shared" si="7"/>
+        <v>124.80000000000001</v>
       </c>
       <c r="G59" s="3" t="s">
-        <v>458</v>
+        <v>431</v>
       </c>
     </row>
     <row r="60" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A60" t="s">
-        <v>259</v>
+        <v>254</v>
       </c>
       <c r="B60" t="s">
         <v>16</v>
       </c>
       <c r="C60" t="s">
-        <v>459</v>
+        <v>168</v>
       </c>
       <c r="D60" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="E60">
-        <v>206</v>
+        <v>32</v>
       </c>
       <c r="F60">
-        <f t="shared" si="2"/>
-        <v>12360</v>
+        <f t="shared" si="7"/>
+        <v>1920</v>
       </c>
       <c r="G60" s="3" t="s">
-        <v>460</v>
+        <v>453</v>
       </c>
     </row>
     <row r="61" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A61" t="s">
-        <v>260</v>
+        <v>255</v>
       </c>
       <c r="B61" t="s">
         <v>16</v>
       </c>
       <c r="C61" t="s">
-        <v>461</v>
+        <v>428</v>
       </c>
       <c r="D61" t="s">
-        <v>88</v>
+        <v>45</v>
       </c>
       <c r="E61">
-        <v>5.8599999999999999E-2</v>
+        <v>3.069</v>
       </c>
       <c r="F61">
-        <f t="shared" si="2"/>
-        <v>3.516</v>
+        <f t="shared" si="7"/>
+        <v>184.14</v>
       </c>
       <c r="G61" s="3" t="s">
-        <v>462</v>
+        <v>429</v>
       </c>
     </row>
     <row r="62" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A62" t="s">
-        <v>261</v>
+        <v>256</v>
       </c>
       <c r="B62" t="s">
         <v>16</v>
       </c>
       <c r="C62" t="s">
-        <v>463</v>
+        <v>454</v>
       </c>
       <c r="D62" t="s">
-        <v>88</v>
+        <v>42</v>
       </c>
       <c r="E62">
-        <v>3.3</v>
+        <v>6.5799999999999999E-3</v>
       </c>
       <c r="F62">
-        <f t="shared" si="2"/>
-        <v>198</v>
+        <f t="shared" si="7"/>
+        <v>0.39479999999999998</v>
       </c>
       <c r="G62" s="3" t="s">
-        <v>464</v>
+        <v>455</v>
       </c>
     </row>
     <row r="63" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A63" t="s">
-        <v>262</v>
+        <v>257</v>
       </c>
       <c r="B63" t="s">
         <v>16</v>
       </c>
       <c r="C63" t="s">
-        <v>465</v>
+        <v>456</v>
       </c>
       <c r="D63" t="s">
         <v>45</v>
       </c>
       <c r="E63">
-        <v>51</v>
+        <v>2E-3</v>
       </c>
       <c r="F63">
-        <f t="shared" si="2"/>
-        <v>3060</v>
+        <f t="shared" si="7"/>
+        <v>0.12</v>
       </c>
       <c r="G63" s="3" t="s">
-        <v>466</v>
+        <v>457</v>
       </c>
     </row>
     <row r="64" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A64" t="s">
-        <v>263</v>
+        <v>258</v>
       </c>
       <c r="B64" t="s">
         <v>16</v>
       </c>
       <c r="C64" t="s">
-        <v>467</v>
+        <v>458</v>
       </c>
       <c r="D64" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="E64">
-        <v>137</v>
+        <v>206</v>
       </c>
       <c r="F64">
-        <f t="shared" si="2"/>
-        <v>8220</v>
+        <f t="shared" si="7"/>
+        <v>12360</v>
       </c>
       <c r="G64" s="3" t="s">
-        <v>468</v>
+        <v>459</v>
       </c>
     </row>
     <row r="65" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A65" t="s">
-        <v>264</v>
+        <v>259</v>
       </c>
       <c r="B65" t="s">
         <v>16</v>
       </c>
       <c r="C65" t="s">
-        <v>469</v>
+        <v>460</v>
       </c>
       <c r="D65" t="s">
-        <v>45</v>
+        <v>88</v>
       </c>
       <c r="E65">
-        <v>1.07E-3</v>
+        <v>5.8599999999999999E-2</v>
       </c>
       <c r="F65">
-        <f t="shared" si="2"/>
-        <v>6.4199999999999993E-2</v>
-      </c>
-      <c r="G65" s="1" t="s">
-        <v>470</v>
+        <f t="shared" si="7"/>
+        <v>3.516</v>
+      </c>
+      <c r="G65" s="3" t="s">
+        <v>461</v>
       </c>
     </row>
     <row r="66" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A66" t="s">
-        <v>265</v>
+        <v>260</v>
       </c>
       <c r="B66" t="s">
         <v>16</v>
       </c>
       <c r="C66" t="s">
-        <v>471</v>
+        <v>462</v>
       </c>
       <c r="D66" t="s">
         <v>88</v>
       </c>
       <c r="E66">
-        <v>989</v>
+        <v>3.3</v>
       </c>
       <c r="F66">
-        <f t="shared" si="2"/>
-        <v>59340</v>
+        <f t="shared" si="7"/>
+        <v>198</v>
       </c>
       <c r="G66" s="3" t="s">
-        <v>472</v>
+        <v>463</v>
       </c>
     </row>
     <row r="67" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A67" t="s">
-        <v>266</v>
+        <v>261</v>
       </c>
       <c r="B67" t="s">
         <v>16</v>
       </c>
       <c r="C67" t="s">
-        <v>473</v>
+        <v>464</v>
       </c>
       <c r="D67" t="s">
         <v>45</v>
       </c>
       <c r="E67">
-        <v>0.31</v>
+        <v>51</v>
       </c>
       <c r="F67">
-        <f t="shared" si="2"/>
-        <v>18.600000000000001</v>
+        <f t="shared" si="7"/>
+        <v>3060</v>
       </c>
       <c r="G67" s="3" t="s">
-        <v>474</v>
+        <v>465</v>
       </c>
     </row>
     <row r="68" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A68" t="s">
-        <v>267</v>
+        <v>262</v>
       </c>
       <c r="B68" t="s">
         <v>16</v>
       </c>
       <c r="C68" t="s">
-        <v>475</v>
+        <v>466</v>
       </c>
       <c r="D68" t="s">
         <v>40</v>
       </c>
       <c r="E68">
-        <v>46</v>
+        <v>137</v>
       </c>
       <c r="F68">
-        <f t="shared" si="2"/>
-        <v>2760</v>
+        <f t="shared" si="7"/>
+        <v>8220</v>
       </c>
       <c r="G68" s="3" t="s">
-        <v>476</v>
+        <v>467</v>
       </c>
     </row>
     <row r="69" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A69" t="s">
-        <v>268</v>
+        <v>263</v>
       </c>
       <c r="B69" t="s">
         <v>16</v>
       </c>
       <c r="C69" t="s">
-        <v>477</v>
+        <v>468</v>
       </c>
       <c r="D69" t="s">
         <v>45</v>
       </c>
       <c r="E69">
-        <v>0.81599999999999995</v>
+        <v>1.07E-3</v>
       </c>
       <c r="F69">
-        <f t="shared" si="2"/>
-        <v>48.959999999999994</v>
-      </c>
-      <c r="G69" s="3" t="s">
-        <v>478</v>
+        <f t="shared" si="7"/>
+        <v>6.4199999999999993E-2</v>
+      </c>
+      <c r="G69" s="1" t="s">
+        <v>469</v>
       </c>
     </row>
     <row r="70" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A70" t="s">
-        <v>269</v>
+        <v>264</v>
       </c>
       <c r="B70" t="s">
         <v>16</v>
       </c>
       <c r="C70" t="s">
-        <v>479</v>
+        <v>470</v>
       </c>
       <c r="D70" t="s">
-        <v>40</v>
+        <v>88</v>
       </c>
       <c r="E70">
-        <v>5.5</v>
+        <v>989</v>
       </c>
       <c r="F70">
-        <f t="shared" si="2"/>
-        <v>330</v>
+        <f t="shared" si="7"/>
+        <v>59340</v>
       </c>
       <c r="G70" s="3" t="s">
-        <v>480</v>
+        <v>471</v>
       </c>
     </row>
     <row r="71" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A71" t="s">
-        <v>270</v>
+        <v>265</v>
       </c>
       <c r="B71" t="s">
         <v>16</v>
       </c>
       <c r="C71" t="s">
-        <v>475</v>
+        <v>472</v>
       </c>
       <c r="D71" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="E71">
-        <v>46</v>
+        <v>0.31</v>
       </c>
       <c r="F71">
-        <f t="shared" ref="F71:F80" si="3">E71*60</f>
-        <v>2760</v>
+        <f t="shared" si="7"/>
+        <v>18.600000000000001</v>
       </c>
       <c r="G71" s="3" t="s">
-        <v>476</v>
+        <v>473</v>
       </c>
     </row>
     <row r="72" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A72" t="s">
-        <v>271</v>
+        <v>266</v>
       </c>
       <c r="B72" t="s">
         <v>16</v>
       </c>
       <c r="C72" t="s">
-        <v>481</v>
+        <v>474</v>
       </c>
       <c r="D72" t="s">
-        <v>146</v>
+        <v>40</v>
       </c>
       <c r="E72">
-        <v>71</v>
+        <v>46</v>
       </c>
       <c r="F72">
-        <f t="shared" si="3"/>
-        <v>4260</v>
+        <f t="shared" si="7"/>
+        <v>2760</v>
       </c>
       <c r="G72" s="3" t="s">
-        <v>482</v>
+        <v>475</v>
       </c>
     </row>
     <row r="73" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A73" t="s">
-        <v>272</v>
+        <v>267</v>
       </c>
       <c r="B73" t="s">
         <v>16</v>
       </c>
       <c r="C73" t="s">
-        <v>483</v>
+        <v>476</v>
       </c>
       <c r="D73" t="s">
-        <v>88</v>
+        <v>45</v>
       </c>
       <c r="E73">
-        <v>0.49</v>
+        <v>0.81599999999999995</v>
       </c>
       <c r="F73">
-        <f t="shared" si="3"/>
-        <v>29.4</v>
+        <f t="shared" si="7"/>
+        <v>48.959999999999994</v>
       </c>
       <c r="G73" s="3" t="s">
-        <v>484</v>
+        <v>477</v>
       </c>
     </row>
     <row r="74" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A74" t="s">
-        <v>273</v>
+        <v>268</v>
       </c>
       <c r="B74" t="s">
         <v>16</v>
       </c>
       <c r="C74" t="s">
-        <v>475</v>
+        <v>478</v>
       </c>
       <c r="D74" t="s">
         <v>40</v>
       </c>
       <c r="E74">
-        <v>46</v>
+        <v>5.5</v>
       </c>
       <c r="F74">
-        <f t="shared" si="3"/>
-        <v>2760</v>
+        <f t="shared" si="7"/>
+        <v>330</v>
       </c>
       <c r="G74" s="3" t="s">
-        <v>476</v>
+        <v>479</v>
       </c>
     </row>
     <row r="75" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A75" t="s">
-        <v>274</v>
+        <v>269</v>
       </c>
       <c r="B75" t="s">
         <v>16</v>
       </c>
       <c r="C75" t="s">
-        <v>469</v>
+        <v>474</v>
       </c>
       <c r="D75" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="E75">
-        <v>1.07E-3</v>
+        <v>46</v>
       </c>
       <c r="F75">
-        <f t="shared" si="3"/>
-        <v>6.4199999999999993E-2</v>
-      </c>
-      <c r="G75" s="1" t="s">
-        <v>470</v>
+        <f t="shared" ref="F75:F84" si="8">E75*60</f>
+        <v>2760</v>
+      </c>
+      <c r="G75" s="3" t="s">
+        <v>475</v>
       </c>
     </row>
     <row r="76" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A76" t="s">
-        <v>275</v>
+        <v>270</v>
       </c>
       <c r="B76" t="s">
         <v>16</v>
       </c>
       <c r="C76" t="s">
-        <v>431</v>
+        <v>480</v>
       </c>
       <c r="D76" t="s">
-        <v>45</v>
+        <v>145</v>
       </c>
       <c r="E76">
-        <v>2.08</v>
+        <v>71</v>
       </c>
       <c r="F76">
-        <f t="shared" si="3"/>
-        <v>124.80000000000001</v>
+        <f t="shared" si="8"/>
+        <v>4260</v>
       </c>
       <c r="G76" s="3" t="s">
-        <v>432</v>
+        <v>481</v>
       </c>
     </row>
     <row r="77" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A77" t="s">
-        <v>276</v>
+        <v>271</v>
       </c>
       <c r="B77" t="s">
         <v>16</v>
       </c>
       <c r="C77" t="s">
-        <v>485</v>
+        <v>482</v>
       </c>
       <c r="D77" t="s">
-        <v>40</v>
+        <v>88</v>
       </c>
       <c r="E77">
-        <v>3.2712232620320854</v>
+        <v>0.49</v>
       </c>
       <c r="F77">
-        <f t="shared" si="3"/>
-        <v>196.27339572192511</v>
+        <f t="shared" si="8"/>
+        <v>29.4</v>
       </c>
       <c r="G77" s="3" t="s">
-        <v>486</v>
+        <v>483</v>
       </c>
     </row>
     <row r="78" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A78" t="s">
-        <v>277</v>
+        <v>272</v>
       </c>
       <c r="B78" t="s">
         <v>16</v>
       </c>
       <c r="C78" t="s">
-        <v>487</v>
+        <v>474</v>
       </c>
       <c r="D78" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="E78">
-        <v>5.0999999999999996</v>
+        <v>46</v>
       </c>
       <c r="F78">
-        <f t="shared" si="3"/>
-        <v>306</v>
+        <f t="shared" si="8"/>
+        <v>2760</v>
       </c>
       <c r="G78" s="3" t="s">
-        <v>488</v>
+        <v>475</v>
       </c>
     </row>
     <row r="79" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A79" t="s">
-        <v>278</v>
+        <v>273</v>
       </c>
       <c r="B79" t="s">
         <v>16</v>
       </c>
       <c r="C79" t="s">
-        <v>489</v>
+        <v>468</v>
       </c>
       <c r="D79" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="E79">
-        <v>4.7</v>
+        <v>1.07E-3</v>
       </c>
       <c r="F79">
-        <f t="shared" si="3"/>
-        <v>282</v>
-      </c>
-      <c r="G79" s="3" t="s">
-        <v>490</v>
+        <f t="shared" si="8"/>
+        <v>6.4199999999999993E-2</v>
+      </c>
+      <c r="G79" s="1" t="s">
+        <v>469</v>
       </c>
     </row>
     <row r="80" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A80" t="s">
-        <v>279</v>
+        <v>274</v>
       </c>
       <c r="B80" t="s">
         <v>16</v>
       </c>
       <c r="C80" t="s">
-        <v>469</v>
+        <v>430</v>
       </c>
       <c r="D80" t="s">
         <v>45</v>
       </c>
       <c r="E80">
-        <v>1.07E-3</v>
+        <v>2.08</v>
       </c>
       <c r="F80">
-        <f t="shared" si="3"/>
-        <v>6.4199999999999993E-2</v>
-      </c>
-      <c r="G80" s="1" t="s">
-        <v>470</v>
+        <f t="shared" si="8"/>
+        <v>124.80000000000001</v>
+      </c>
+      <c r="G80" s="3" t="s">
+        <v>431</v>
       </c>
     </row>
     <row r="81" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A81" t="s">
-        <v>280</v>
+        <v>275</v>
       </c>
       <c r="B81" t="s">
         <v>16</v>
       </c>
       <c r="C81" t="s">
-        <v>489</v>
+        <v>484</v>
       </c>
       <c r="D81" t="s">
         <v>40</v>
       </c>
       <c r="E81">
-        <v>4.7</v>
+        <v>3.2712232620320854</v>
       </c>
       <c r="F81">
-        <f t="shared" ref="F81:F106" si="4">E81*60</f>
-        <v>282</v>
+        <f t="shared" si="8"/>
+        <v>196.27339572192511</v>
       </c>
       <c r="G81" s="3" t="s">
-        <v>490</v>
+        <v>485</v>
       </c>
     </row>
     <row r="82" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A82" t="s">
-        <v>281</v>
+        <v>276</v>
       </c>
       <c r="B82" t="s">
         <v>16</v>
       </c>
       <c r="C82" t="s">
-        <v>491</v>
+        <v>486</v>
       </c>
       <c r="D82" t="s">
-        <v>492</v>
+        <v>42</v>
       </c>
       <c r="E82">
-        <v>8.75</v>
+        <v>5.0999999999999996</v>
       </c>
       <c r="F82">
-        <f t="shared" si="4"/>
-        <v>525</v>
+        <f t="shared" si="8"/>
+        <v>306</v>
       </c>
       <c r="G82" s="3" t="s">
-        <v>493</v>
+        <v>487</v>
       </c>
     </row>
     <row r="83" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A83" t="s">
+        <v>277</v>
+      </c>
+      <c r="B83" t="s">
+        <v>16</v>
+      </c>
+      <c r="C83" t="s">
+        <v>488</v>
+      </c>
+      <c r="D83" t="s">
+        <v>40</v>
+      </c>
+      <c r="E83">
+        <v>4.7</v>
+      </c>
+      <c r="F83">
+        <f t="shared" si="8"/>
         <v>282</v>
       </c>
-      <c r="B83" t="s">
-        <v>16</v>
-      </c>
-      <c r="C83" t="s">
-        <v>491</v>
-      </c>
-      <c r="D83" t="s">
-        <v>492</v>
-      </c>
-      <c r="E83">
-        <v>21</v>
-      </c>
-      <c r="F83">
-        <f t="shared" si="4"/>
-        <v>1260</v>
-      </c>
       <c r="G83" s="3" t="s">
-        <v>493</v>
+        <v>489</v>
       </c>
     </row>
     <row r="84" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A84" t="s">
-        <v>283</v>
+        <v>278</v>
       </c>
       <c r="B84" t="s">
         <v>16</v>
       </c>
       <c r="C84" t="s">
-        <v>491</v>
+        <v>468</v>
       </c>
       <c r="D84" t="s">
-        <v>492</v>
+        <v>45</v>
       </c>
       <c r="E84">
-        <v>9.3800000000000008</v>
+        <v>1.07E-3</v>
       </c>
       <c r="F84">
-        <f t="shared" si="4"/>
-        <v>562.80000000000007</v>
-      </c>
-      <c r="G84" s="3" t="s">
-        <v>493</v>
+        <f t="shared" si="8"/>
+        <v>6.4199999999999993E-2</v>
+      </c>
+      <c r="G84" s="1" t="s">
+        <v>469</v>
       </c>
     </row>
     <row r="85" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A85" t="s">
-        <v>284</v>
+        <v>279</v>
       </c>
       <c r="B85" t="s">
         <v>16</v>
       </c>
       <c r="C85" t="s">
-        <v>494</v>
+        <v>488</v>
       </c>
       <c r="D85" t="s">
-        <v>492</v>
+        <v>40</v>
       </c>
       <c r="E85">
-        <v>0.114</v>
+        <v>4.7</v>
       </c>
       <c r="F85">
-        <f t="shared" si="4"/>
-        <v>6.84</v>
+        <f t="shared" ref="F85:F110" si="9">E85*60</f>
+        <v>282</v>
       </c>
       <c r="G85" s="3" t="s">
-        <v>495</v>
+        <v>489</v>
       </c>
     </row>
     <row r="86" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A86" t="s">
-        <v>285</v>
+        <v>280</v>
       </c>
       <c r="B86" t="s">
         <v>16</v>
       </c>
       <c r="C86" t="s">
-        <v>496</v>
+        <v>490</v>
       </c>
       <c r="D86" t="s">
-        <v>45</v>
+        <v>491</v>
       </c>
       <c r="E86">
-        <v>0.98</v>
+        <v>8.75</v>
       </c>
       <c r="F86">
-        <f t="shared" si="4"/>
-        <v>58.8</v>
-      </c>
-      <c r="G86" s="1" t="s">
-        <v>497</v>
+        <f t="shared" si="9"/>
+        <v>525</v>
+      </c>
+      <c r="G86" s="3" t="s">
+        <v>492</v>
       </c>
     </row>
     <row r="87" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A87" t="s">
-        <v>286</v>
+        <v>281</v>
       </c>
       <c r="B87" t="s">
         <v>16</v>
       </c>
       <c r="C87" t="s">
-        <v>467</v>
+        <v>490</v>
       </c>
       <c r="D87" t="s">
-        <v>40</v>
+        <v>491</v>
       </c>
       <c r="E87">
-        <v>137</v>
+        <v>21</v>
       </c>
       <c r="F87">
-        <f t="shared" si="4"/>
-        <v>8220</v>
+        <f t="shared" si="9"/>
+        <v>1260</v>
       </c>
       <c r="G87" s="3" t="s">
-        <v>468</v>
+        <v>492</v>
       </c>
     </row>
     <row r="88" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A88" t="s">
-        <v>287</v>
+        <v>282</v>
       </c>
       <c r="B88" t="s">
         <v>16</v>
       </c>
       <c r="C88" t="s">
-        <v>498</v>
+        <v>490</v>
       </c>
       <c r="D88" t="s">
-        <v>40</v>
+        <v>491</v>
       </c>
       <c r="E88">
-        <v>1180</v>
+        <v>9.3800000000000008</v>
       </c>
       <c r="F88">
-        <f t="shared" si="4"/>
-        <v>70800</v>
+        <f t="shared" si="9"/>
+        <v>562.80000000000007</v>
       </c>
       <c r="G88" s="3" t="s">
-        <v>499</v>
+        <v>492</v>
       </c>
     </row>
     <row r="89" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A89" t="s">
-        <v>288</v>
+        <v>283</v>
       </c>
       <c r="B89" t="s">
         <v>16</v>
       </c>
       <c r="C89" t="s">
-        <v>500</v>
+        <v>493</v>
       </c>
       <c r="D89" t="s">
-        <v>88</v>
+        <v>491</v>
       </c>
       <c r="E89">
-        <v>143</v>
+        <v>0.114</v>
       </c>
       <c r="F89">
-        <f t="shared" si="4"/>
-        <v>8580</v>
+        <f t="shared" si="9"/>
+        <v>6.84</v>
       </c>
       <c r="G89" s="3" t="s">
-        <v>501</v>
+        <v>494</v>
       </c>
     </row>
     <row r="90" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A90" t="s">
-        <v>289</v>
+        <v>284</v>
       </c>
       <c r="B90" t="s">
         <v>16</v>
       </c>
       <c r="C90" t="s">
-        <v>502</v>
+        <v>495</v>
       </c>
       <c r="D90" t="s">
         <v>45</v>
       </c>
       <c r="E90">
-        <v>1.7</v>
+        <v>0.98</v>
       </c>
       <c r="F90">
-        <f t="shared" si="4"/>
-        <v>102</v>
-      </c>
-      <c r="G90" s="3" t="s">
-        <v>503</v>
+        <f t="shared" si="9"/>
+        <v>58.8</v>
+      </c>
+      <c r="G90" s="1" t="s">
+        <v>496</v>
       </c>
     </row>
     <row r="91" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A91" t="s">
-        <v>290</v>
+        <v>285</v>
       </c>
       <c r="B91" t="s">
         <v>16</v>
       </c>
       <c r="C91" t="s">
-        <v>504</v>
+        <v>466</v>
       </c>
       <c r="D91" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="E91">
-        <v>0.33</v>
+        <v>137</v>
       </c>
       <c r="F91">
-        <f t="shared" si="4"/>
-        <v>19.8</v>
+        <f t="shared" si="9"/>
+        <v>8220</v>
       </c>
       <c r="G91" s="3" t="s">
-        <v>505</v>
+        <v>467</v>
       </c>
     </row>
     <row r="92" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A92" t="s">
-        <v>291</v>
+        <v>286</v>
       </c>
       <c r="B92" t="s">
         <v>16</v>
       </c>
       <c r="C92" t="s">
-        <v>506</v>
+        <v>497</v>
       </c>
       <c r="D92" t="s">
         <v>40</v>
       </c>
       <c r="E92">
-        <v>34.799999999999997</v>
+        <v>1180</v>
       </c>
       <c r="F92">
-        <f t="shared" si="4"/>
-        <v>2088</v>
+        <f t="shared" si="9"/>
+        <v>70800</v>
       </c>
       <c r="G92" s="3" t="s">
-        <v>507</v>
+        <v>498</v>
       </c>
     </row>
     <row r="93" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A93" t="s">
-        <v>292</v>
+        <v>287</v>
       </c>
       <c r="B93" t="s">
         <v>16</v>
       </c>
       <c r="C93" t="s">
-        <v>508</v>
+        <v>499</v>
       </c>
       <c r="D93" t="s">
-        <v>40</v>
+        <v>88</v>
       </c>
       <c r="E93">
-        <v>25</v>
+        <v>143</v>
       </c>
       <c r="F93">
-        <f t="shared" si="4"/>
-        <v>1500</v>
+        <f t="shared" si="9"/>
+        <v>8580</v>
       </c>
       <c r="G93" s="3" t="s">
-        <v>509</v>
+        <v>500</v>
       </c>
     </row>
     <row r="94" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A94" t="s">
-        <v>293</v>
+        <v>288</v>
       </c>
       <c r="B94" t="s">
         <v>16</v>
       </c>
       <c r="C94" t="s">
-        <v>510</v>
+        <v>501</v>
       </c>
       <c r="D94" t="s">
         <v>45</v>
       </c>
       <c r="E94">
-        <v>14.9</v>
+        <v>1.7</v>
       </c>
       <c r="F94">
-        <f t="shared" si="4"/>
-        <v>894</v>
+        <f t="shared" si="9"/>
+        <v>102</v>
       </c>
       <c r="G94" s="3" t="s">
-        <v>511</v>
+        <v>502</v>
       </c>
     </row>
     <row r="95" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A95" t="s">
-        <v>294</v>
+        <v>289</v>
       </c>
       <c r="B95" t="s">
         <v>16</v>
       </c>
       <c r="C95" t="s">
-        <v>512</v>
+        <v>503</v>
       </c>
       <c r="D95" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="E95">
-        <v>8.9309366130558185</v>
+        <v>0.33</v>
       </c>
       <c r="F95">
-        <f t="shared" si="4"/>
-        <v>535.85619678334911</v>
+        <f t="shared" si="9"/>
+        <v>19.8</v>
       </c>
       <c r="G95" s="3" t="s">
-        <v>513</v>
+        <v>504</v>
       </c>
     </row>
     <row r="96" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A96" t="s">
-        <v>295</v>
+        <v>290</v>
       </c>
       <c r="B96" t="s">
         <v>16</v>
       </c>
       <c r="C96" t="s">
-        <v>514</v>
+        <v>505</v>
       </c>
       <c r="D96" t="s">
         <v>40</v>
       </c>
       <c r="E96">
-        <v>2.6</v>
+        <v>34.799999999999997</v>
       </c>
       <c r="F96">
-        <f t="shared" si="4"/>
-        <v>156</v>
+        <f t="shared" si="9"/>
+        <v>2088</v>
       </c>
       <c r="G96" s="3" t="s">
-        <v>515</v>
+        <v>506</v>
       </c>
     </row>
     <row r="97" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A97" t="s">
-        <v>296</v>
+        <v>291</v>
       </c>
       <c r="B97" t="s">
         <v>16</v>
       </c>
       <c r="C97" t="s">
-        <v>516</v>
+        <v>507</v>
       </c>
       <c r="D97" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="E97">
-        <v>0.83</v>
+        <v>25</v>
       </c>
       <c r="F97">
-        <f t="shared" si="4"/>
-        <v>49.8</v>
+        <f t="shared" si="9"/>
+        <v>1500</v>
       </c>
       <c r="G97" s="3" t="s">
-        <v>517</v>
+        <v>508</v>
       </c>
     </row>
     <row r="98" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A98" t="s">
-        <v>297</v>
+        <v>292</v>
       </c>
       <c r="B98" t="s">
         <v>16</v>
       </c>
       <c r="C98" t="s">
-        <v>518</v>
+        <v>509</v>
       </c>
       <c r="D98" t="s">
-        <v>88</v>
+        <v>45</v>
       </c>
       <c r="E98">
-        <v>684</v>
+        <v>14.9</v>
       </c>
       <c r="F98">
-        <f t="shared" si="4"/>
-        <v>41040</v>
+        <f t="shared" si="9"/>
+        <v>894</v>
       </c>
       <c r="G98" s="3" t="s">
-        <v>519</v>
+        <v>510</v>
       </c>
     </row>
     <row r="99" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A99" t="s">
-        <v>298</v>
+        <v>293</v>
       </c>
       <c r="B99" t="s">
         <v>16</v>
       </c>
       <c r="C99" t="s">
-        <v>520</v>
+        <v>511</v>
       </c>
       <c r="D99" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="E99">
-        <v>3.17</v>
+        <v>8.9309366130558185</v>
       </c>
       <c r="F99">
-        <f t="shared" si="4"/>
-        <v>190.2</v>
+        <f t="shared" si="9"/>
+        <v>535.85619678334911</v>
       </c>
       <c r="G99" s="3" t="s">
-        <v>521</v>
+        <v>512</v>
       </c>
     </row>
     <row r="100" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A100" t="s">
-        <v>299</v>
+        <v>294</v>
       </c>
       <c r="B100" t="s">
         <v>16</v>
       </c>
       <c r="C100" t="s">
-        <v>522</v>
+        <v>513</v>
       </c>
       <c r="D100" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="E100">
-        <v>3.5999999999999997E-2</v>
+        <v>2.6</v>
       </c>
       <c r="F100">
-        <f t="shared" si="4"/>
-        <v>2.1599999999999997</v>
+        <f t="shared" si="9"/>
+        <v>156</v>
       </c>
       <c r="G100" s="3" t="s">
-        <v>523</v>
+        <v>514</v>
       </c>
     </row>
     <row r="101" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A101" t="s">
-        <v>300</v>
+        <v>295</v>
       </c>
       <c r="B101" t="s">
         <v>16</v>
       </c>
       <c r="C101" t="s">
-        <v>524</v>
+        <v>515</v>
       </c>
       <c r="D101" t="s">
         <v>45</v>
       </c>
       <c r="E101">
-        <v>24.1</v>
+        <v>0.83</v>
       </c>
       <c r="F101">
-        <f t="shared" si="4"/>
-        <v>1446</v>
+        <f t="shared" si="9"/>
+        <v>49.8</v>
       </c>
       <c r="G101" s="3" t="s">
-        <v>525</v>
+        <v>516</v>
       </c>
     </row>
     <row r="102" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A102" t="s">
-        <v>301</v>
+        <v>296</v>
       </c>
       <c r="B102" t="s">
         <v>16</v>
       </c>
       <c r="C102" t="s">
-        <v>526</v>
+        <v>517</v>
       </c>
       <c r="D102" t="s">
-        <v>112</v>
+        <v>88</v>
       </c>
       <c r="E102">
-        <v>2.5</v>
+        <v>684</v>
       </c>
       <c r="F102">
-        <f t="shared" si="4"/>
-        <v>150</v>
+        <f t="shared" si="9"/>
+        <v>41040</v>
       </c>
       <c r="G102" s="3" t="s">
-        <v>527</v>
+        <v>518</v>
       </c>
     </row>
     <row r="103" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A103" t="s">
-        <v>302</v>
+        <v>297</v>
       </c>
       <c r="B103" t="s">
         <v>16</v>
       </c>
       <c r="C103" t="s">
-        <v>491</v>
+        <v>519</v>
       </c>
       <c r="D103" t="s">
-        <v>528</v>
+        <v>45</v>
       </c>
       <c r="E103">
-        <v>4.9000000000000004</v>
+        <v>3.17</v>
       </c>
       <c r="F103">
-        <f t="shared" si="4"/>
-        <v>294</v>
+        <f t="shared" si="9"/>
+        <v>190.2</v>
       </c>
       <c r="G103" s="3" t="s">
-        <v>529</v>
+        <v>520</v>
       </c>
     </row>
     <row r="104" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A104" t="s">
-        <v>303</v>
+        <v>298</v>
       </c>
       <c r="B104" t="s">
         <v>16</v>
       </c>
       <c r="C104" t="s">
-        <v>444</v>
+        <v>521</v>
       </c>
       <c r="D104" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="E104">
-        <v>1.76</v>
+        <v>3.5999999999999997E-2</v>
       </c>
       <c r="F104">
-        <f t="shared" si="4"/>
-        <v>105.6</v>
+        <f t="shared" si="9"/>
+        <v>2.1599999999999997</v>
       </c>
       <c r="G104" s="3" t="s">
-        <v>445</v>
+        <v>522</v>
       </c>
     </row>
     <row r="105" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A105" t="s">
-        <v>304</v>
+        <v>299</v>
       </c>
       <c r="B105" t="s">
         <v>16</v>
       </c>
       <c r="C105" t="s">
-        <v>530</v>
+        <v>523</v>
       </c>
       <c r="D105" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="E105">
-        <v>1240</v>
+        <v>24.1</v>
       </c>
       <c r="F105">
-        <f t="shared" si="4"/>
-        <v>74400</v>
+        <f t="shared" si="9"/>
+        <v>1446</v>
       </c>
       <c r="G105" s="3" t="s">
-        <v>531</v>
+        <v>524</v>
       </c>
     </row>
     <row r="106" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A106" t="s">
-        <v>305</v>
+        <v>300</v>
       </c>
       <c r="B106" t="s">
         <v>16</v>
       </c>
       <c r="C106" t="s">
-        <v>452</v>
+        <v>525</v>
       </c>
       <c r="D106" t="s">
-        <v>45</v>
+        <v>112</v>
       </c>
       <c r="E106">
-        <v>138</v>
+        <v>2.5</v>
       </c>
       <c r="F106">
-        <f t="shared" si="4"/>
-        <v>8280</v>
+        <f t="shared" si="9"/>
+        <v>150</v>
       </c>
       <c r="G106" s="3" t="s">
-        <v>453</v>
+        <v>526</v>
       </c>
     </row>
     <row r="107" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A107" t="s">
-        <v>306</v>
+        <v>301</v>
       </c>
       <c r="B107" t="s">
         <v>16</v>
       </c>
       <c r="C107" t="s">
-        <v>444</v>
+        <v>490</v>
       </c>
       <c r="D107" t="s">
-        <v>40</v>
+        <v>527</v>
       </c>
       <c r="E107">
-        <v>1.76</v>
+        <v>4.9000000000000004</v>
       </c>
       <c r="F107">
-        <f t="shared" ref="F107:F116" si="5">E107*60</f>
-        <v>105.6</v>
+        <f t="shared" si="9"/>
+        <v>294</v>
       </c>
       <c r="G107" s="3" t="s">
-        <v>445</v>
+        <v>528</v>
       </c>
     </row>
     <row r="108" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A108" t="s">
-        <v>307</v>
+        <v>302</v>
       </c>
       <c r="B108" t="s">
         <v>16</v>
       </c>
       <c r="C108" t="s">
-        <v>532</v>
+        <v>443</v>
       </c>
       <c r="D108" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="E108">
-        <v>0.73</v>
+        <v>1.76</v>
       </c>
       <c r="F108">
-        <f t="shared" si="5"/>
-        <v>43.8</v>
+        <f t="shared" si="9"/>
+        <v>105.6</v>
       </c>
       <c r="G108" s="3" t="s">
-        <v>533</v>
+        <v>444</v>
       </c>
     </row>
     <row r="109" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A109" t="s">
-        <v>308</v>
+        <v>303</v>
       </c>
       <c r="B109" t="s">
         <v>16</v>
       </c>
       <c r="C109" t="s">
-        <v>479</v>
+        <v>529</v>
       </c>
       <c r="D109" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="E109">
-        <v>5.5</v>
+        <v>1240</v>
       </c>
       <c r="F109">
-        <f t="shared" si="5"/>
-        <v>330</v>
+        <f t="shared" si="9"/>
+        <v>74400</v>
       </c>
       <c r="G109" s="3" t="s">
-        <v>480</v>
+        <v>530</v>
       </c>
     </row>
     <row r="110" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A110" t="s">
-        <v>309</v>
+        <v>304</v>
       </c>
       <c r="B110" t="s">
         <v>16</v>
       </c>
       <c r="C110" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="D110" t="s">
         <v>45</v>
@@ -5125,2227 +5147,2227 @@
         <v>138</v>
       </c>
       <c r="F110">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>8280</v>
       </c>
       <c r="G110" s="3" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
     </row>
     <row r="111" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A111" t="s">
-        <v>310</v>
+        <v>305</v>
       </c>
       <c r="B111" t="s">
         <v>16</v>
       </c>
       <c r="C111" t="s">
-        <v>576</v>
+        <v>443</v>
       </c>
       <c r="D111" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="E111">
-        <v>15</v>
+        <v>1.76</v>
       </c>
       <c r="F111">
-        <f t="shared" si="5"/>
-        <v>900</v>
+        <f t="shared" ref="F111:F120" si="10">E111*60</f>
+        <v>105.6</v>
       </c>
       <c r="G111" s="3" t="s">
-        <v>577</v>
+        <v>444</v>
       </c>
     </row>
     <row r="112" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A112" t="s">
-        <v>311</v>
+        <v>306</v>
       </c>
       <c r="B112" t="s">
         <v>16</v>
       </c>
       <c r="C112" t="s">
-        <v>578</v>
+        <v>531</v>
       </c>
       <c r="D112" t="s">
         <v>45</v>
       </c>
       <c r="E112">
-        <v>3.9199999999999999E-2</v>
+        <v>0.73</v>
       </c>
       <c r="F112">
-        <f t="shared" si="5"/>
-        <v>2.3519999999999999</v>
+        <f t="shared" si="10"/>
+        <v>43.8</v>
       </c>
       <c r="G112" s="3" t="s">
-        <v>447</v>
+        <v>532</v>
       </c>
     </row>
     <row r="113" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A113" t="s">
-        <v>312</v>
+        <v>307</v>
       </c>
       <c r="B113" t="s">
         <v>16</v>
       </c>
       <c r="C113" t="s">
-        <v>536</v>
+        <v>478</v>
       </c>
       <c r="D113" t="s">
         <v>40</v>
       </c>
       <c r="E113">
-        <v>3.9</v>
+        <v>5.5</v>
       </c>
       <c r="F113">
-        <f t="shared" si="5"/>
-        <v>234</v>
+        <f t="shared" si="10"/>
+        <v>330</v>
       </c>
       <c r="G113" s="3" t="s">
-        <v>537</v>
+        <v>479</v>
       </c>
     </row>
     <row r="114" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A114" t="s">
-        <v>313</v>
+        <v>308</v>
       </c>
       <c r="B114" t="s">
         <v>16</v>
       </c>
       <c r="C114" t="s">
-        <v>579</v>
+        <v>451</v>
       </c>
       <c r="D114" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="E114">
-        <v>1558</v>
+        <v>138</v>
       </c>
       <c r="F114">
-        <f t="shared" si="5"/>
-        <v>93480</v>
+        <f t="shared" si="10"/>
+        <v>8280</v>
       </c>
       <c r="G114" s="3" t="s">
-        <v>580</v>
+        <v>452</v>
       </c>
     </row>
     <row r="115" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A115" t="s">
-        <v>314</v>
+        <v>309</v>
       </c>
       <c r="B115" t="s">
         <v>16</v>
       </c>
       <c r="C115" t="s">
-        <v>581</v>
+        <v>575</v>
       </c>
       <c r="D115" t="s">
-        <v>209</v>
+        <v>42</v>
       </c>
       <c r="E115">
-        <v>166</v>
+        <v>15</v>
       </c>
       <c r="F115">
-        <f t="shared" si="5"/>
-        <v>9960</v>
+        <f t="shared" si="10"/>
+        <v>900</v>
       </c>
       <c r="G115" s="3" t="s">
-        <v>582</v>
+        <v>576</v>
       </c>
     </row>
     <row r="116" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A116" t="s">
-        <v>315</v>
+        <v>310</v>
       </c>
       <c r="B116" t="s">
         <v>16</v>
       </c>
       <c r="C116" t="s">
-        <v>583</v>
+        <v>577</v>
       </c>
       <c r="D116" t="s">
-        <v>209</v>
+        <v>45</v>
       </c>
       <c r="E116">
-        <v>0.88</v>
+        <v>3.9199999999999999E-2</v>
       </c>
       <c r="F116">
-        <f t="shared" si="5"/>
-        <v>52.8</v>
+        <f t="shared" si="10"/>
+        <v>2.3519999999999999</v>
       </c>
       <c r="G116" s="3" t="s">
-        <v>584</v>
+        <v>446</v>
       </c>
     </row>
     <row r="117" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A117" t="s">
-        <v>316</v>
+        <v>311</v>
       </c>
       <c r="B117" t="s">
         <v>16</v>
       </c>
       <c r="C117" t="s">
-        <v>444</v>
+        <v>535</v>
       </c>
       <c r="D117" t="s">
         <v>40</v>
       </c>
       <c r="E117">
-        <v>1.76</v>
+        <v>3.9</v>
       </c>
       <c r="F117">
-        <f t="shared" ref="F117:F125" si="6">E117*60</f>
-        <v>105.6</v>
+        <f t="shared" si="10"/>
+        <v>234</v>
       </c>
       <c r="G117" s="3" t="s">
-        <v>445</v>
+        <v>536</v>
       </c>
     </row>
     <row r="118" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A118" t="s">
-        <v>317</v>
+        <v>312</v>
       </c>
       <c r="B118" t="s">
         <v>16</v>
       </c>
       <c r="C118" t="s">
-        <v>448</v>
+        <v>578</v>
       </c>
       <c r="D118" t="s">
         <v>40</v>
       </c>
       <c r="E118">
-        <v>350.02</v>
+        <v>1558</v>
       </c>
       <c r="F118">
-        <f t="shared" si="6"/>
-        <v>21001.199999999997</v>
+        <f t="shared" si="10"/>
+        <v>93480</v>
       </c>
       <c r="G118" s="3" t="s">
-        <v>449</v>
+        <v>579</v>
       </c>
     </row>
     <row r="119" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A119" t="s">
-        <v>318</v>
+        <v>313</v>
       </c>
       <c r="B119" t="s">
         <v>16</v>
       </c>
       <c r="C119" t="s">
-        <v>475</v>
+        <v>580</v>
       </c>
       <c r="D119" t="s">
-        <v>40</v>
+        <v>208</v>
       </c>
       <c r="E119">
-        <v>46</v>
+        <v>166</v>
       </c>
       <c r="F119">
-        <f t="shared" si="6"/>
-        <v>2760</v>
+        <f t="shared" si="10"/>
+        <v>9960</v>
       </c>
       <c r="G119" s="3" t="s">
-        <v>476</v>
+        <v>581</v>
       </c>
     </row>
     <row r="120" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A120" t="s">
-        <v>319</v>
+        <v>314</v>
       </c>
       <c r="B120" t="s">
         <v>16</v>
       </c>
       <c r="C120" t="s">
-        <v>436</v>
+        <v>582</v>
       </c>
       <c r="D120" t="s">
-        <v>45</v>
+        <v>208</v>
       </c>
       <c r="E120">
-        <v>68.3</v>
+        <v>0.88</v>
       </c>
       <c r="F120">
-        <f t="shared" si="6"/>
-        <v>4098</v>
-      </c>
-      <c r="G120" s="1" t="s">
-        <v>437</v>
+        <f t="shared" si="10"/>
+        <v>52.8</v>
+      </c>
+      <c r="G120" s="3" t="s">
+        <v>583</v>
       </c>
     </row>
     <row r="121" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A121" t="s">
-        <v>320</v>
+        <v>315</v>
       </c>
       <c r="B121" t="s">
         <v>16</v>
       </c>
       <c r="C121" t="s">
-        <v>429</v>
+        <v>443</v>
       </c>
       <c r="D121" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="E121">
-        <v>3.069</v>
+        <v>1.76</v>
       </c>
       <c r="F121">
-        <f t="shared" si="6"/>
-        <v>184.14</v>
+        <f t="shared" ref="F121:F129" si="11">E121*60</f>
+        <v>105.6</v>
       </c>
       <c r="G121" s="3" t="s">
-        <v>430</v>
+        <v>444</v>
       </c>
     </row>
     <row r="122" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A122" t="s">
-        <v>321</v>
+        <v>316</v>
       </c>
       <c r="B122" t="s">
         <v>16</v>
       </c>
       <c r="C122" t="s">
-        <v>585</v>
+        <v>447</v>
       </c>
       <c r="D122" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="E122">
-        <v>69</v>
+        <v>350.02</v>
       </c>
       <c r="F122">
-        <f t="shared" si="6"/>
-        <v>4140</v>
+        <f t="shared" si="11"/>
+        <v>21001.199999999997</v>
       </c>
       <c r="G122" s="3" t="s">
-        <v>586</v>
+        <v>448</v>
       </c>
     </row>
     <row r="123" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A123" t="s">
-        <v>322</v>
+        <v>317</v>
       </c>
       <c r="B123" t="s">
         <v>16</v>
       </c>
       <c r="C123" t="s">
-        <v>587</v>
+        <v>474</v>
       </c>
       <c r="D123" t="s">
-        <v>88</v>
+        <v>40</v>
       </c>
       <c r="E123">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F123">
-        <f t="shared" si="6"/>
-        <v>2820</v>
+        <f t="shared" si="11"/>
+        <v>2760</v>
       </c>
       <c r="G123" s="3" t="s">
-        <v>588</v>
+        <v>475</v>
       </c>
     </row>
     <row r="124" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A124" t="s">
-        <v>323</v>
+        <v>318</v>
       </c>
       <c r="B124" t="s">
         <v>16</v>
       </c>
       <c r="C124" t="s">
-        <v>589</v>
+        <v>435</v>
       </c>
       <c r="D124" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="E124">
-        <v>42</v>
+        <v>68.3</v>
       </c>
       <c r="F124">
-        <f t="shared" si="6"/>
-        <v>2520</v>
-      </c>
-      <c r="G124" s="3" t="s">
-        <v>590</v>
+        <f t="shared" si="11"/>
+        <v>4098</v>
+      </c>
+      <c r="G124" s="1" t="s">
+        <v>436</v>
       </c>
     </row>
     <row r="125" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A125" t="s">
-        <v>324</v>
+        <v>319</v>
       </c>
       <c r="B125" t="s">
         <v>16</v>
       </c>
       <c r="C125" t="s">
-        <v>591</v>
+        <v>428</v>
       </c>
       <c r="D125" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="E125">
-        <v>1.4999999999999999E-2</v>
+        <v>3.069</v>
       </c>
       <c r="F125">
-        <f t="shared" si="6"/>
-        <v>0.89999999999999991</v>
+        <f t="shared" si="11"/>
+        <v>184.14</v>
       </c>
       <c r="G125" s="3" t="s">
-        <v>592</v>
+        <v>429</v>
       </c>
     </row>
     <row r="126" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A126" t="s">
-        <v>325</v>
+        <v>320</v>
       </c>
       <c r="B126" t="s">
         <v>16</v>
       </c>
       <c r="C126" t="s">
-        <v>591</v>
+        <v>584</v>
       </c>
       <c r="D126" t="s">
         <v>42</v>
       </c>
       <c r="E126">
-        <v>1.4999999999999999E-2</v>
+        <v>69</v>
       </c>
       <c r="F126">
-        <f t="shared" ref="F126:F149" si="7">E126*60</f>
-        <v>0.89999999999999991</v>
+        <f t="shared" si="11"/>
+        <v>4140</v>
       </c>
       <c r="G126" s="3" t="s">
-        <v>592</v>
+        <v>585</v>
       </c>
     </row>
     <row r="127" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A127" t="s">
-        <v>326</v>
+        <v>321</v>
       </c>
       <c r="B127" t="s">
         <v>16</v>
       </c>
       <c r="C127" t="s">
-        <v>593</v>
+        <v>586</v>
       </c>
       <c r="D127" t="s">
-        <v>209</v>
+        <v>88</v>
       </c>
       <c r="E127">
-        <v>2750</v>
+        <v>47</v>
       </c>
       <c r="F127">
-        <f t="shared" si="7"/>
-        <v>165000</v>
+        <f t="shared" si="11"/>
+        <v>2820</v>
       </c>
       <c r="G127" s="3" t="s">
-        <v>594</v>
+        <v>587</v>
       </c>
     </row>
     <row r="128" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A128" t="s">
-        <v>327</v>
+        <v>322</v>
       </c>
       <c r="B128" t="s">
         <v>16</v>
       </c>
       <c r="C128" t="s">
-        <v>593</v>
+        <v>588</v>
       </c>
       <c r="D128" t="s">
-        <v>209</v>
+        <v>40</v>
       </c>
       <c r="E128">
-        <v>2750</v>
+        <v>42</v>
       </c>
       <c r="F128">
-        <f t="shared" si="7"/>
-        <v>165000</v>
+        <f t="shared" si="11"/>
+        <v>2520</v>
       </c>
       <c r="G128" s="3" t="s">
-        <v>594</v>
+        <v>589</v>
       </c>
     </row>
     <row r="129" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A129" t="s">
-        <v>328</v>
+        <v>323</v>
       </c>
       <c r="B129" t="s">
         <v>16</v>
       </c>
       <c r="C129" t="s">
-        <v>593</v>
+        <v>590</v>
       </c>
       <c r="D129" t="s">
-        <v>209</v>
+        <v>42</v>
       </c>
       <c r="E129">
-        <v>2750</v>
+        <v>1.4999999999999999E-2</v>
       </c>
       <c r="F129">
-        <f t="shared" si="7"/>
-        <v>165000</v>
+        <f t="shared" si="11"/>
+        <v>0.89999999999999991</v>
       </c>
       <c r="G129" s="3" t="s">
-        <v>594</v>
+        <v>591</v>
       </c>
     </row>
     <row r="130" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A130" t="s">
-        <v>329</v>
+        <v>324</v>
       </c>
       <c r="B130" t="s">
         <v>16</v>
       </c>
       <c r="C130" t="s">
-        <v>593</v>
+        <v>590</v>
       </c>
       <c r="D130" t="s">
-        <v>209</v>
+        <v>42</v>
       </c>
       <c r="E130">
-        <v>2750</v>
+        <v>1.4999999999999999E-2</v>
       </c>
       <c r="F130">
-        <f t="shared" si="7"/>
-        <v>165000</v>
+        <f t="shared" ref="F130:F153" si="12">E130*60</f>
+        <v>0.89999999999999991</v>
       </c>
       <c r="G130" s="3" t="s">
-        <v>594</v>
+        <v>591</v>
       </c>
     </row>
     <row r="131" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A131" t="s">
-        <v>330</v>
+        <v>325</v>
       </c>
       <c r="B131" t="s">
         <v>16</v>
       </c>
       <c r="C131" t="s">
-        <v>595</v>
+        <v>592</v>
       </c>
       <c r="D131" t="s">
-        <v>40</v>
+        <v>208</v>
       </c>
       <c r="E131">
-        <v>3.8</v>
+        <v>2750</v>
       </c>
       <c r="F131">
-        <f t="shared" si="7"/>
-        <v>228</v>
+        <f t="shared" si="12"/>
+        <v>165000</v>
       </c>
       <c r="G131" s="3" t="s">
-        <v>596</v>
+        <v>593</v>
       </c>
     </row>
     <row r="132" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A132" t="s">
-        <v>331</v>
+        <v>326</v>
       </c>
       <c r="B132" t="s">
         <v>16</v>
       </c>
       <c r="C132" t="s">
-        <v>597</v>
+        <v>592</v>
       </c>
       <c r="D132" t="s">
-        <v>40</v>
+        <v>208</v>
       </c>
       <c r="E132">
-        <v>6.7</v>
+        <v>2750</v>
       </c>
       <c r="F132">
-        <f t="shared" si="7"/>
-        <v>402</v>
+        <f t="shared" si="12"/>
+        <v>165000</v>
       </c>
       <c r="G132" s="3" t="s">
-        <v>598</v>
+        <v>593</v>
       </c>
     </row>
     <row r="133" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A133" t="s">
-        <v>332</v>
+        <v>327</v>
       </c>
       <c r="B133" t="s">
         <v>16</v>
       </c>
       <c r="C133" t="s">
-        <v>599</v>
+        <v>592</v>
       </c>
       <c r="D133" t="s">
-        <v>45</v>
+        <v>208</v>
       </c>
       <c r="E133">
-        <v>9.0999999999999998E-2</v>
+        <v>2750</v>
       </c>
       <c r="F133">
-        <f t="shared" si="7"/>
-        <v>5.46</v>
+        <f t="shared" si="12"/>
+        <v>165000</v>
       </c>
       <c r="G133" s="3" t="s">
-        <v>600</v>
+        <v>593</v>
       </c>
     </row>
     <row r="134" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A134" t="s">
-        <v>333</v>
+        <v>328</v>
       </c>
       <c r="B134" t="s">
         <v>16</v>
       </c>
       <c r="C134" t="s">
-        <v>601</v>
+        <v>592</v>
       </c>
       <c r="D134" t="s">
-        <v>602</v>
+        <v>208</v>
       </c>
       <c r="E134">
-        <v>1.7000000000000001E-2</v>
+        <v>2750</v>
       </c>
       <c r="F134">
-        <f t="shared" si="7"/>
-        <v>1.02</v>
+        <f t="shared" si="12"/>
+        <v>165000</v>
       </c>
       <c r="G134" s="3" t="s">
-        <v>603</v>
+        <v>593</v>
       </c>
     </row>
     <row r="135" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A135" t="s">
-        <v>334</v>
+        <v>329</v>
       </c>
       <c r="B135" t="s">
         <v>16</v>
       </c>
       <c r="C135" t="s">
-        <v>604</v>
+        <v>594</v>
       </c>
       <c r="D135" t="s">
-        <v>602</v>
+        <v>40</v>
       </c>
       <c r="E135">
-        <v>27</v>
+        <v>3.8</v>
       </c>
       <c r="F135">
-        <f t="shared" si="7"/>
-        <v>1620</v>
+        <f t="shared" si="12"/>
+        <v>228</v>
       </c>
       <c r="G135" s="3" t="s">
-        <v>605</v>
+        <v>595</v>
       </c>
     </row>
     <row r="136" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A136" t="s">
-        <v>335</v>
+        <v>330</v>
       </c>
       <c r="B136" t="s">
         <v>16</v>
       </c>
       <c r="C136" t="s">
-        <v>606</v>
+        <v>596</v>
       </c>
       <c r="D136" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="E136">
-        <v>1986</v>
+        <v>6.7</v>
       </c>
       <c r="F136">
-        <f t="shared" si="7"/>
-        <v>119160</v>
+        <f t="shared" si="12"/>
+        <v>402</v>
       </c>
       <c r="G136" s="3" t="s">
-        <v>607</v>
+        <v>597</v>
       </c>
     </row>
     <row r="137" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A137" t="s">
-        <v>336</v>
+        <v>331</v>
       </c>
       <c r="B137" t="s">
         <v>16</v>
       </c>
       <c r="C137" t="s">
-        <v>608</v>
+        <v>598</v>
       </c>
       <c r="D137" t="s">
         <v>45</v>
       </c>
       <c r="E137">
-        <v>380</v>
+        <v>9.0999999999999998E-2</v>
       </c>
       <c r="F137">
-        <f t="shared" si="7"/>
-        <v>22800</v>
+        <f t="shared" si="12"/>
+        <v>5.46</v>
       </c>
       <c r="G137" s="3" t="s">
-        <v>609</v>
+        <v>599</v>
       </c>
     </row>
     <row r="138" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A138" t="s">
-        <v>337</v>
+        <v>332</v>
       </c>
       <c r="B138" t="s">
         <v>16</v>
       </c>
       <c r="C138" t="s">
-        <v>423</v>
+        <v>600</v>
       </c>
       <c r="D138" t="s">
-        <v>45</v>
+        <v>601</v>
       </c>
       <c r="E138">
-        <v>221</v>
+        <v>1.7000000000000001E-2</v>
       </c>
       <c r="F138">
-        <f t="shared" si="7"/>
-        <v>13260</v>
+        <f t="shared" si="12"/>
+        <v>1.02</v>
       </c>
       <c r="G138" s="3" t="s">
-        <v>424</v>
+        <v>602</v>
       </c>
     </row>
     <row r="139" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A139" t="s">
-        <v>338</v>
+        <v>333</v>
       </c>
       <c r="B139" t="s">
         <v>16</v>
       </c>
       <c r="C139" t="s">
-        <v>610</v>
+        <v>603</v>
       </c>
       <c r="D139" t="s">
-        <v>42</v>
+        <v>601</v>
       </c>
       <c r="E139">
-        <v>140</v>
+        <v>27</v>
       </c>
       <c r="F139">
-        <f t="shared" si="7"/>
-        <v>8400</v>
-      </c>
-      <c r="G139" s="1" t="s">
-        <v>611</v>
+        <f t="shared" si="12"/>
+        <v>1620</v>
+      </c>
+      <c r="G139" s="3" t="s">
+        <v>604</v>
       </c>
     </row>
     <row r="140" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A140" t="s">
-        <v>339</v>
+        <v>334</v>
       </c>
       <c r="B140" t="s">
         <v>16</v>
       </c>
       <c r="C140" t="s">
-        <v>612</v>
+        <v>605</v>
       </c>
       <c r="D140" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="E140">
-        <v>0.13</v>
+        <v>1986</v>
       </c>
       <c r="F140">
-        <f t="shared" si="7"/>
-        <v>7.8000000000000007</v>
+        <f t="shared" si="12"/>
+        <v>119160</v>
       </c>
       <c r="G140" s="3" t="s">
-        <v>613</v>
+        <v>606</v>
       </c>
     </row>
     <row r="141" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A141" t="s">
-        <v>340</v>
+        <v>335</v>
       </c>
       <c r="B141" t="s">
         <v>16</v>
       </c>
       <c r="C141" t="s">
-        <v>431</v>
+        <v>607</v>
       </c>
       <c r="D141" t="s">
         <v>45</v>
       </c>
       <c r="E141">
-        <v>2.08</v>
+        <v>380</v>
       </c>
       <c r="F141">
-        <f t="shared" si="7"/>
-        <v>124.80000000000001</v>
+        <f t="shared" si="12"/>
+        <v>22800</v>
       </c>
       <c r="G141" s="3" t="s">
-        <v>432</v>
+        <v>608</v>
       </c>
     </row>
     <row r="142" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A142" t="s">
-        <v>341</v>
+        <v>336</v>
       </c>
       <c r="B142" t="s">
         <v>16</v>
       </c>
       <c r="C142" t="s">
-        <v>429</v>
+        <v>422</v>
       </c>
       <c r="D142" t="s">
         <v>45</v>
       </c>
       <c r="E142">
-        <v>3.069</v>
+        <v>221</v>
       </c>
       <c r="F142">
-        <f t="shared" si="7"/>
-        <v>184.14</v>
+        <f t="shared" si="12"/>
+        <v>13260</v>
       </c>
       <c r="G142" s="3" t="s">
-        <v>430</v>
+        <v>423</v>
       </c>
     </row>
     <row r="143" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A143" t="s">
-        <v>342</v>
+        <v>337</v>
       </c>
       <c r="B143" t="s">
         <v>16</v>
       </c>
       <c r="C143" t="s">
-        <v>616</v>
+        <v>609</v>
       </c>
       <c r="D143" t="s">
-        <v>617</v>
+        <v>42</v>
       </c>
       <c r="E143">
-        <v>1.6999999999999999E-3</v>
+        <v>140</v>
       </c>
       <c r="F143">
-        <f t="shared" si="7"/>
-        <v>0.10199999999999999</v>
-      </c>
-      <c r="G143" s="3" t="s">
-        <v>618</v>
+        <f t="shared" si="12"/>
+        <v>8400</v>
+      </c>
+      <c r="G143" s="1" t="s">
+        <v>610</v>
       </c>
     </row>
     <row r="144" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A144" t="s">
-        <v>343</v>
+        <v>338</v>
       </c>
       <c r="B144" t="s">
         <v>16</v>
       </c>
       <c r="C144" t="s">
-        <v>619</v>
+        <v>611</v>
       </c>
       <c r="D144" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="E144">
-        <v>29.1</v>
+        <v>0.13</v>
       </c>
       <c r="F144">
-        <f t="shared" si="7"/>
-        <v>1746</v>
+        <f t="shared" si="12"/>
+        <v>7.8000000000000007</v>
       </c>
       <c r="G144" s="3" t="s">
-        <v>620</v>
+        <v>612</v>
       </c>
     </row>
     <row r="145" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A145" t="s">
-        <v>344</v>
+        <v>339</v>
       </c>
       <c r="B145" t="s">
         <v>16</v>
       </c>
       <c r="C145" t="s">
-        <v>621</v>
+        <v>430</v>
       </c>
       <c r="D145" t="s">
-        <v>622</v>
+        <v>45</v>
       </c>
       <c r="E145">
-        <v>509</v>
+        <v>2.08</v>
       </c>
       <c r="F145">
-        <f t="shared" si="7"/>
-        <v>30540</v>
+        <f t="shared" si="12"/>
+        <v>124.80000000000001</v>
       </c>
       <c r="G145" s="3" t="s">
-        <v>623</v>
+        <v>431</v>
       </c>
     </row>
     <row r="146" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A146" t="s">
-        <v>345</v>
+        <v>340</v>
       </c>
       <c r="B146" t="s">
         <v>16</v>
       </c>
       <c r="C146" t="s">
-        <v>624</v>
+        <v>428</v>
       </c>
       <c r="D146" t="s">
         <v>45</v>
       </c>
       <c r="E146">
-        <v>0.56999999999999995</v>
+        <v>3.069</v>
       </c>
       <c r="F146">
-        <f t="shared" si="7"/>
-        <v>34.199999999999996</v>
+        <f t="shared" si="12"/>
+        <v>184.14</v>
       </c>
       <c r="G146" s="3" t="s">
-        <v>625</v>
+        <v>429</v>
       </c>
     </row>
     <row r="147" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A147" t="s">
-        <v>346</v>
+        <v>341</v>
       </c>
       <c r="B147" t="s">
         <v>16</v>
       </c>
       <c r="C147" t="s">
-        <v>189</v>
+        <v>615</v>
       </c>
       <c r="D147" t="s">
-        <v>45</v>
+        <v>616</v>
       </c>
       <c r="E147">
-        <v>38.6</v>
+        <v>1.6999999999999999E-3</v>
       </c>
       <c r="F147">
-        <f t="shared" si="7"/>
-        <v>2316</v>
+        <f t="shared" si="12"/>
+        <v>0.10199999999999999</v>
       </c>
       <c r="G147" s="3" t="s">
-        <v>190</v>
+        <v>617</v>
       </c>
     </row>
     <row r="148" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A148" t="s">
-        <v>347</v>
+        <v>342</v>
       </c>
       <c r="B148" t="s">
         <v>16</v>
       </c>
       <c r="C148" t="s">
-        <v>614</v>
+        <v>618</v>
       </c>
       <c r="D148" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="E148">
-        <v>48.6</v>
+        <v>29.1</v>
       </c>
       <c r="F148">
-        <f t="shared" si="7"/>
-        <v>2916</v>
+        <f t="shared" si="12"/>
+        <v>1746</v>
       </c>
       <c r="G148" s="3" t="s">
-        <v>615</v>
+        <v>619</v>
       </c>
     </row>
     <row r="149" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A149" t="s">
-        <v>348</v>
+        <v>343</v>
       </c>
       <c r="B149" t="s">
         <v>16</v>
       </c>
       <c r="C149" t="s">
-        <v>475</v>
+        <v>620</v>
       </c>
       <c r="D149" t="s">
-        <v>40</v>
+        <v>621</v>
       </c>
       <c r="E149">
-        <v>46</v>
+        <v>509</v>
       </c>
       <c r="F149">
-        <f t="shared" si="7"/>
-        <v>2760</v>
+        <f t="shared" si="12"/>
+        <v>30540</v>
       </c>
       <c r="G149" s="3" t="s">
-        <v>476</v>
+        <v>622</v>
       </c>
     </row>
     <row r="150" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A150" t="s">
-        <v>349</v>
+        <v>344</v>
       </c>
       <c r="B150" t="s">
         <v>16</v>
       </c>
       <c r="C150" t="s">
-        <v>550</v>
+        <v>623</v>
       </c>
       <c r="D150" t="s">
-        <v>209</v>
+        <v>45</v>
       </c>
       <c r="E150">
-        <v>26.8</v>
+        <v>0.56999999999999995</v>
       </c>
       <c r="F150">
-        <f t="shared" ref="F150:F154" si="8">E150*60</f>
-        <v>1608</v>
+        <f t="shared" si="12"/>
+        <v>34.199999999999996</v>
       </c>
       <c r="G150" s="3" t="s">
-        <v>551</v>
+        <v>624</v>
       </c>
     </row>
     <row r="151" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A151" t="s">
-        <v>350</v>
+        <v>345</v>
       </c>
       <c r="B151" t="s">
         <v>16</v>
       </c>
       <c r="C151" t="s">
-        <v>628</v>
+        <v>188</v>
       </c>
       <c r="D151" t="s">
         <v>45</v>
       </c>
       <c r="E151">
-        <v>21</v>
+        <v>38.6</v>
       </c>
       <c r="F151">
-        <f t="shared" si="8"/>
-        <v>1260</v>
+        <f t="shared" si="12"/>
+        <v>2316</v>
       </c>
       <c r="G151" s="3" t="s">
-        <v>629</v>
+        <v>189</v>
       </c>
     </row>
     <row r="152" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A152" t="s">
-        <v>351</v>
+        <v>346</v>
       </c>
       <c r="B152" t="s">
         <v>16</v>
       </c>
       <c r="C152" t="s">
-        <v>626</v>
+        <v>613</v>
       </c>
       <c r="D152" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="E152">
-        <v>1570</v>
+        <v>48.6</v>
       </c>
       <c r="F152">
-        <f t="shared" si="8"/>
-        <v>94200</v>
+        <f t="shared" si="12"/>
+        <v>2916</v>
       </c>
       <c r="G152" s="3" t="s">
-        <v>627</v>
+        <v>614</v>
       </c>
     </row>
     <row r="153" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A153" t="s">
-        <v>352</v>
+        <v>347</v>
       </c>
       <c r="B153" t="s">
         <v>16</v>
       </c>
       <c r="C153" t="s">
-        <v>479</v>
+        <v>474</v>
       </c>
       <c r="D153" t="s">
         <v>40</v>
       </c>
       <c r="E153">
-        <v>5.5</v>
+        <v>46</v>
       </c>
       <c r="F153">
-        <f t="shared" si="8"/>
-        <v>330</v>
+        <f t="shared" si="12"/>
+        <v>2760</v>
       </c>
       <c r="G153" s="3" t="s">
-        <v>480</v>
+        <v>475</v>
       </c>
     </row>
     <row r="154" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A154" t="s">
-        <v>353</v>
+        <v>348</v>
       </c>
       <c r="B154" t="s">
         <v>16</v>
       </c>
       <c r="C154" t="s">
-        <v>630</v>
+        <v>549</v>
       </c>
       <c r="D154" t="s">
-        <v>40</v>
+        <v>208</v>
       </c>
       <c r="E154">
-        <v>3.3</v>
+        <v>26.8</v>
       </c>
       <c r="F154">
-        <f t="shared" si="8"/>
-        <v>198</v>
+        <f t="shared" ref="F154:F158" si="13">E154*60</f>
+        <v>1608</v>
       </c>
       <c r="G154" s="3" t="s">
-        <v>631</v>
+        <v>550</v>
       </c>
     </row>
     <row r="155" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A155" t="s">
-        <v>354</v>
+        <v>349</v>
       </c>
       <c r="B155" t="s">
         <v>16</v>
       </c>
       <c r="C155" t="s">
-        <v>546</v>
+        <v>627</v>
       </c>
       <c r="D155" t="s">
-        <v>88</v>
+        <v>45</v>
       </c>
       <c r="E155">
-        <v>19.899999999999999</v>
+        <v>21</v>
       </c>
       <c r="F155">
-        <f t="shared" ref="F155:F166" si="9">E155*60</f>
-        <v>1194</v>
+        <f t="shared" si="13"/>
+        <v>1260</v>
       </c>
       <c r="G155" s="3" t="s">
-        <v>547</v>
+        <v>628</v>
       </c>
     </row>
     <row r="156" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A156" t="s">
-        <v>355</v>
+        <v>350</v>
       </c>
       <c r="B156" t="s">
         <v>16</v>
       </c>
       <c r="C156" t="s">
-        <v>632</v>
+        <v>625</v>
       </c>
       <c r="D156" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="E156">
-        <v>23.2</v>
+        <v>1570</v>
       </c>
       <c r="F156">
-        <f t="shared" si="9"/>
-        <v>1392</v>
+        <f t="shared" si="13"/>
+        <v>94200</v>
       </c>
       <c r="G156" s="3" t="s">
-        <v>633</v>
+        <v>626</v>
       </c>
     </row>
     <row r="157" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A157" t="s">
-        <v>356</v>
+        <v>351</v>
       </c>
       <c r="B157" t="s">
         <v>16</v>
       </c>
       <c r="C157" t="s">
-        <v>632</v>
+        <v>478</v>
       </c>
       <c r="D157" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="E157">
-        <v>23.2</v>
+        <v>5.5</v>
       </c>
       <c r="F157">
-        <f t="shared" si="9"/>
-        <v>1392</v>
+        <f t="shared" si="13"/>
+        <v>330</v>
       </c>
       <c r="G157" s="3" t="s">
-        <v>633</v>
+        <v>479</v>
       </c>
     </row>
     <row r="158" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A158" t="s">
-        <v>357</v>
+        <v>352</v>
       </c>
       <c r="B158" t="s">
         <v>16</v>
       </c>
       <c r="C158" t="s">
-        <v>634</v>
+        <v>629</v>
       </c>
       <c r="D158" t="s">
         <v>40</v>
       </c>
       <c r="E158">
-        <v>4.2</v>
+        <v>3.3</v>
       </c>
       <c r="F158">
-        <f t="shared" si="9"/>
-        <v>252</v>
+        <f t="shared" si="13"/>
+        <v>198</v>
       </c>
       <c r="G158" s="3" t="s">
-        <v>635</v>
+        <v>630</v>
       </c>
     </row>
     <row r="159" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A159" t="s">
-        <v>358</v>
+        <v>353</v>
       </c>
       <c r="B159" t="s">
         <v>16</v>
       </c>
       <c r="C159" t="s">
-        <v>636</v>
+        <v>545</v>
       </c>
       <c r="D159" t="s">
         <v>88</v>
       </c>
       <c r="E159">
-        <v>1.82</v>
+        <v>19.899999999999999</v>
       </c>
       <c r="F159">
-        <f t="shared" si="9"/>
-        <v>109.2</v>
+        <f t="shared" ref="F159:F170" si="14">E159*60</f>
+        <v>1194</v>
       </c>
       <c r="G159" s="3" t="s">
-        <v>637</v>
+        <v>546</v>
       </c>
     </row>
     <row r="160" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A160" t="s">
-        <v>359</v>
+        <v>354</v>
       </c>
       <c r="B160" t="s">
         <v>16</v>
       </c>
       <c r="C160" t="s">
-        <v>638</v>
+        <v>631</v>
       </c>
       <c r="D160" t="s">
-        <v>146</v>
+        <v>42</v>
       </c>
       <c r="E160">
-        <v>0.16</v>
+        <v>23.2</v>
       </c>
       <c r="F160">
-        <f t="shared" si="9"/>
-        <v>9.6</v>
+        <f t="shared" si="14"/>
+        <v>1392</v>
       </c>
       <c r="G160" s="3" t="s">
-        <v>639</v>
+        <v>632</v>
       </c>
     </row>
     <row r="161" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A161" t="s">
-        <v>360</v>
+        <v>355</v>
       </c>
       <c r="B161" t="s">
         <v>16</v>
       </c>
       <c r="C161" t="s">
-        <v>640</v>
+        <v>631</v>
       </c>
       <c r="D161" t="s">
-        <v>146</v>
+        <v>42</v>
       </c>
       <c r="E161">
-        <v>0.43</v>
+        <v>23.2</v>
       </c>
       <c r="F161">
-        <f t="shared" si="9"/>
-        <v>25.8</v>
+        <f t="shared" si="14"/>
+        <v>1392</v>
       </c>
       <c r="G161" s="3" t="s">
-        <v>641</v>
+        <v>632</v>
       </c>
     </row>
     <row r="162" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A162" t="s">
-        <v>361</v>
+        <v>356</v>
       </c>
       <c r="B162" t="s">
         <v>16</v>
       </c>
       <c r="C162" t="s">
-        <v>642</v>
+        <v>633</v>
       </c>
       <c r="D162" t="s">
         <v>40</v>
       </c>
       <c r="E162">
-        <v>23.3</v>
+        <v>4.2</v>
       </c>
       <c r="F162">
-        <f t="shared" si="9"/>
-        <v>1398</v>
+        <f t="shared" si="14"/>
+        <v>252</v>
       </c>
       <c r="G162" s="3" t="s">
-        <v>643</v>
+        <v>634</v>
       </c>
     </row>
     <row r="163" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A163" t="s">
-        <v>362</v>
+        <v>357</v>
       </c>
       <c r="B163" t="s">
         <v>16</v>
       </c>
       <c r="C163" t="s">
-        <v>644</v>
+        <v>635</v>
       </c>
       <c r="D163" t="s">
         <v>88</v>
       </c>
       <c r="E163">
-        <v>2.36</v>
+        <v>1.82</v>
       </c>
       <c r="F163">
-        <f t="shared" si="9"/>
-        <v>141.6</v>
+        <f t="shared" si="14"/>
+        <v>109.2</v>
       </c>
       <c r="G163" s="3" t="s">
-        <v>645</v>
+        <v>636</v>
       </c>
     </row>
     <row r="164" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A164" t="s">
-        <v>363</v>
+        <v>358</v>
       </c>
       <c r="B164" t="s">
         <v>16</v>
       </c>
       <c r="C164" t="s">
-        <v>642</v>
+        <v>637</v>
       </c>
       <c r="D164" t="s">
-        <v>40</v>
+        <v>145</v>
       </c>
       <c r="E164">
-        <v>23.3</v>
+        <v>0.16</v>
       </c>
       <c r="F164">
-        <f t="shared" si="9"/>
-        <v>1398</v>
+        <f t="shared" si="14"/>
+        <v>9.6</v>
       </c>
       <c r="G164" s="3" t="s">
-        <v>643</v>
+        <v>638</v>
       </c>
     </row>
     <row r="165" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A165" t="s">
-        <v>364</v>
+        <v>359</v>
       </c>
       <c r="B165" t="s">
         <v>16</v>
       </c>
       <c r="C165" t="s">
-        <v>646</v>
+        <v>639</v>
       </c>
       <c r="D165" t="s">
-        <v>40</v>
+        <v>145</v>
       </c>
       <c r="E165">
-        <v>3.74</v>
+        <v>0.43</v>
       </c>
       <c r="F165">
-        <f t="shared" si="9"/>
-        <v>224.4</v>
+        <f t="shared" si="14"/>
+        <v>25.8</v>
       </c>
       <c r="G165" s="3" t="s">
-        <v>647</v>
+        <v>640</v>
       </c>
     </row>
     <row r="166" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A166" t="s">
-        <v>365</v>
+        <v>360</v>
       </c>
       <c r="B166" t="s">
         <v>16</v>
       </c>
       <c r="C166" t="s">
-        <v>648</v>
+        <v>641</v>
       </c>
       <c r="D166" t="s">
         <v>40</v>
       </c>
       <c r="E166">
-        <v>2.956</v>
+        <v>23.3</v>
       </c>
       <c r="F166">
-        <f t="shared" si="9"/>
-        <v>177.35999999999999</v>
+        <f t="shared" si="14"/>
+        <v>1398</v>
       </c>
       <c r="G166" s="3" t="s">
-        <v>649</v>
+        <v>642</v>
       </c>
     </row>
     <row r="167" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A167" t="s">
-        <v>366</v>
+        <v>361</v>
       </c>
       <c r="B167" t="s">
         <v>16</v>
       </c>
       <c r="C167" t="s">
-        <v>436</v>
+        <v>643</v>
       </c>
       <c r="D167" t="s">
-        <v>45</v>
+        <v>88</v>
       </c>
       <c r="E167">
-        <v>68.3</v>
+        <v>2.36</v>
       </c>
       <c r="F167">
-        <f t="shared" ref="F167:F189" si="10">E167*60</f>
-        <v>4098</v>
-      </c>
-      <c r="G167" s="1" t="s">
-        <v>437</v>
+        <f t="shared" si="14"/>
+        <v>141.6</v>
+      </c>
+      <c r="G167" s="3" t="s">
+        <v>644</v>
       </c>
     </row>
     <row r="168" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A168" t="s">
-        <v>367</v>
+        <v>362</v>
       </c>
       <c r="B168" t="s">
         <v>16</v>
       </c>
       <c r="C168" t="s">
-        <v>452</v>
+        <v>641</v>
       </c>
       <c r="D168" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="E168">
-        <v>138</v>
+        <v>23.3</v>
       </c>
       <c r="F168">
-        <f t="shared" si="10"/>
-        <v>8280</v>
+        <f t="shared" si="14"/>
+        <v>1398</v>
       </c>
       <c r="G168" s="3" t="s">
-        <v>453</v>
+        <v>642</v>
       </c>
     </row>
     <row r="169" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A169" t="s">
-        <v>368</v>
+        <v>363</v>
       </c>
       <c r="B169" t="s">
         <v>16</v>
       </c>
       <c r="C169" t="s">
-        <v>475</v>
+        <v>645</v>
       </c>
       <c r="D169" t="s">
         <v>40</v>
       </c>
       <c r="E169">
-        <v>46</v>
+        <v>3.74</v>
       </c>
       <c r="F169">
-        <f t="shared" si="10"/>
-        <v>2760</v>
+        <f t="shared" si="14"/>
+        <v>224.4</v>
       </c>
       <c r="G169" s="3" t="s">
-        <v>476</v>
+        <v>646</v>
       </c>
     </row>
     <row r="170" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A170" t="s">
-        <v>369</v>
+        <v>364</v>
       </c>
       <c r="B170" t="s">
         <v>16</v>
       </c>
       <c r="C170" t="s">
-        <v>650</v>
+        <v>647</v>
       </c>
       <c r="D170" t="s">
-        <v>88</v>
+        <v>40</v>
       </c>
       <c r="E170">
-        <v>24</v>
+        <v>2.956</v>
       </c>
       <c r="F170">
-        <f t="shared" si="10"/>
-        <v>1440</v>
+        <f t="shared" si="14"/>
+        <v>177.35999999999999</v>
       </c>
       <c r="G170" s="3" t="s">
-        <v>651</v>
+        <v>648</v>
       </c>
     </row>
     <row r="171" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A171" t="s">
-        <v>370</v>
+        <v>365</v>
       </c>
       <c r="B171" t="s">
         <v>16</v>
       </c>
       <c r="C171" t="s">
-        <v>479</v>
+        <v>435</v>
       </c>
       <c r="D171" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="E171">
-        <v>5.5</v>
+        <v>68.3</v>
       </c>
       <c r="F171">
-        <f t="shared" si="10"/>
-        <v>330</v>
-      </c>
-      <c r="G171" s="3" t="s">
-        <v>480</v>
+        <f t="shared" ref="F171:F193" si="15">E171*60</f>
+        <v>4098</v>
+      </c>
+      <c r="G171" s="1" t="s">
+        <v>436</v>
       </c>
     </row>
     <row r="172" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A172" t="s">
-        <v>371</v>
+        <v>366</v>
       </c>
       <c r="B172" t="s">
         <v>16</v>
       </c>
       <c r="C172" t="s">
-        <v>653</v>
+        <v>451</v>
       </c>
       <c r="D172" t="s">
-        <v>652</v>
+        <v>45</v>
       </c>
       <c r="E172">
-        <v>0.7</v>
+        <v>138</v>
       </c>
       <c r="F172">
-        <f t="shared" si="10"/>
-        <v>42</v>
+        <f t="shared" si="15"/>
+        <v>8280</v>
       </c>
       <c r="G172" s="3" t="s">
-        <v>654</v>
+        <v>452</v>
       </c>
     </row>
     <row r="173" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A173" t="s">
-        <v>372</v>
+        <v>367</v>
       </c>
       <c r="B173" t="s">
         <v>16</v>
       </c>
       <c r="C173" t="s">
-        <v>452</v>
+        <v>474</v>
       </c>
       <c r="D173" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="E173">
-        <v>138</v>
+        <v>46</v>
       </c>
       <c r="F173">
-        <f t="shared" si="10"/>
-        <v>8280</v>
+        <f t="shared" si="15"/>
+        <v>2760</v>
       </c>
       <c r="G173" s="3" t="s">
-        <v>453</v>
+        <v>475</v>
       </c>
     </row>
     <row r="174" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A174" t="s">
-        <v>373</v>
+        <v>368</v>
       </c>
       <c r="B174" t="s">
         <v>16</v>
       </c>
       <c r="C174" t="s">
-        <v>655</v>
+        <v>649</v>
       </c>
       <c r="D174" t="s">
-        <v>40</v>
+        <v>88</v>
       </c>
       <c r="E174">
-        <v>216</v>
+        <v>24</v>
       </c>
       <c r="F174">
-        <f t="shared" si="10"/>
-        <v>12960</v>
+        <f t="shared" si="15"/>
+        <v>1440</v>
       </c>
       <c r="G174" s="3" t="s">
-        <v>656</v>
+        <v>650</v>
       </c>
     </row>
     <row r="175" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A175" t="s">
-        <v>374</v>
+        <v>369</v>
       </c>
       <c r="B175" t="s">
         <v>16</v>
       </c>
       <c r="C175" t="s">
-        <v>657</v>
+        <v>478</v>
       </c>
       <c r="D175" t="s">
-        <v>88</v>
+        <v>40</v>
       </c>
       <c r="E175">
-        <v>7.25</v>
+        <v>5.5</v>
       </c>
       <c r="F175">
-        <f t="shared" si="10"/>
-        <v>435</v>
+        <f t="shared" si="15"/>
+        <v>330</v>
       </c>
       <c r="G175" s="3" t="s">
-        <v>658</v>
+        <v>479</v>
       </c>
     </row>
     <row r="176" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A176" t="s">
-        <v>375</v>
+        <v>370</v>
       </c>
       <c r="B176" t="s">
         <v>16</v>
       </c>
       <c r="C176" t="s">
-        <v>659</v>
+        <v>652</v>
       </c>
       <c r="D176" t="s">
-        <v>45</v>
+        <v>651</v>
       </c>
       <c r="E176">
-        <v>10.4</v>
+        <v>0.7</v>
       </c>
       <c r="F176">
-        <f t="shared" si="10"/>
-        <v>624</v>
-      </c>
-      <c r="G176" s="1" t="s">
-        <v>660</v>
+        <f t="shared" si="15"/>
+        <v>42</v>
+      </c>
+      <c r="G176" s="3" t="s">
+        <v>653</v>
       </c>
     </row>
     <row r="177" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A177" t="s">
-        <v>376</v>
+        <v>371</v>
       </c>
       <c r="B177" t="s">
         <v>16</v>
       </c>
       <c r="C177" t="s">
-        <v>465</v>
+        <v>451</v>
       </c>
       <c r="D177" t="s">
         <v>45</v>
       </c>
       <c r="E177">
-        <v>51</v>
+        <v>138</v>
       </c>
       <c r="F177">
-        <f t="shared" si="10"/>
-        <v>3060</v>
+        <f t="shared" si="15"/>
+        <v>8280</v>
       </c>
       <c r="G177" s="3" t="s">
-        <v>466</v>
+        <v>452</v>
       </c>
     </row>
     <row r="178" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A178" t="s">
-        <v>377</v>
+        <v>372</v>
       </c>
       <c r="B178" t="s">
         <v>16</v>
       </c>
       <c r="C178" t="s">
-        <v>429</v>
+        <v>654</v>
       </c>
       <c r="D178" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="E178">
-        <v>3.069</v>
+        <v>216</v>
       </c>
       <c r="F178">
-        <f t="shared" si="10"/>
-        <v>184.14</v>
+        <f t="shared" si="15"/>
+        <v>12960</v>
       </c>
       <c r="G178" s="3" t="s">
-        <v>430</v>
+        <v>655</v>
       </c>
     </row>
     <row r="179" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A179" t="s">
-        <v>378</v>
+        <v>373</v>
       </c>
       <c r="B179" t="s">
         <v>16</v>
       </c>
       <c r="C179" t="s">
-        <v>444</v>
+        <v>656</v>
       </c>
       <c r="D179" t="s">
-        <v>40</v>
+        <v>88</v>
       </c>
       <c r="E179">
-        <v>1.76</v>
+        <v>7.25</v>
       </c>
       <c r="F179">
-        <f t="shared" si="10"/>
-        <v>105.6</v>
+        <f t="shared" si="15"/>
+        <v>435</v>
       </c>
       <c r="G179" s="3" t="s">
-        <v>445</v>
+        <v>657</v>
       </c>
     </row>
     <row r="180" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A180" t="s">
-        <v>379</v>
+        <v>374</v>
       </c>
       <c r="B180" t="s">
         <v>16</v>
       </c>
       <c r="C180" t="s">
-        <v>661</v>
+        <v>658</v>
       </c>
       <c r="D180" t="s">
         <v>45</v>
       </c>
       <c r="E180">
-        <v>1</v>
+        <v>10.4</v>
       </c>
       <c r="F180">
-        <f t="shared" si="10"/>
-        <v>60</v>
-      </c>
-      <c r="G180" s="3" t="s">
-        <v>662</v>
+        <f t="shared" si="15"/>
+        <v>624</v>
+      </c>
+      <c r="G180" s="1" t="s">
+        <v>659</v>
       </c>
     </row>
     <row r="181" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A181" t="s">
-        <v>380</v>
+        <v>375</v>
       </c>
       <c r="B181" t="s">
         <v>16</v>
       </c>
       <c r="C181" t="s">
-        <v>532</v>
+        <v>464</v>
       </c>
       <c r="D181" t="s">
         <v>45</v>
       </c>
       <c r="E181">
-        <v>0.73</v>
+        <v>51</v>
       </c>
       <c r="F181">
-        <f t="shared" si="10"/>
-        <v>43.8</v>
+        <f t="shared" si="15"/>
+        <v>3060</v>
       </c>
       <c r="G181" s="3" t="s">
-        <v>533</v>
+        <v>465</v>
       </c>
     </row>
     <row r="182" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A182" t="s">
-        <v>381</v>
+        <v>376</v>
       </c>
       <c r="B182" t="s">
         <v>16</v>
       </c>
       <c r="C182" t="s">
-        <v>663</v>
+        <v>428</v>
       </c>
       <c r="D182" t="s">
-        <v>664</v>
+        <v>45</v>
       </c>
       <c r="E182">
-        <v>3.8</v>
+        <v>3.069</v>
       </c>
       <c r="F182">
-        <f t="shared" si="10"/>
-        <v>228</v>
+        <f t="shared" si="15"/>
+        <v>184.14</v>
       </c>
       <c r="G182" s="3" t="s">
-        <v>665</v>
+        <v>429</v>
       </c>
     </row>
     <row r="183" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A183" t="s">
-        <v>382</v>
+        <v>377</v>
       </c>
       <c r="B183" t="s">
         <v>16</v>
       </c>
       <c r="C183" t="s">
-        <v>431</v>
+        <v>443</v>
       </c>
       <c r="D183" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="E183">
-        <v>2.08</v>
+        <v>1.76</v>
       </c>
       <c r="F183">
-        <f t="shared" si="10"/>
-        <v>124.80000000000001</v>
+        <f t="shared" si="15"/>
+        <v>105.6</v>
       </c>
       <c r="G183" s="3" t="s">
-        <v>432</v>
+        <v>444</v>
       </c>
     </row>
     <row r="184" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A184" t="s">
-        <v>383</v>
+        <v>378</v>
       </c>
       <c r="B184" t="s">
         <v>16</v>
       </c>
       <c r="C184" t="s">
-        <v>666</v>
+        <v>660</v>
       </c>
       <c r="D184" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="E184">
-        <v>0.39500000000000002</v>
+        <v>1</v>
       </c>
       <c r="F184">
-        <f t="shared" si="10"/>
-        <v>23.700000000000003</v>
+        <f t="shared" si="15"/>
+        <v>60</v>
       </c>
       <c r="G184" s="3" t="s">
-        <v>667</v>
+        <v>661</v>
       </c>
     </row>
     <row r="185" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A185" t="s">
-        <v>384</v>
+        <v>379</v>
       </c>
       <c r="B185" t="s">
         <v>16</v>
       </c>
       <c r="C185" t="s">
-        <v>619</v>
+        <v>531</v>
       </c>
       <c r="D185" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="E185">
-        <v>29.1</v>
+        <v>0.73</v>
       </c>
       <c r="F185">
-        <f t="shared" si="10"/>
-        <v>1746</v>
+        <f t="shared" si="15"/>
+        <v>43.8</v>
       </c>
       <c r="G185" s="3" t="s">
-        <v>620</v>
+        <v>532</v>
       </c>
     </row>
     <row r="186" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A186" t="s">
-        <v>682</v>
+        <v>380</v>
       </c>
       <c r="B186" t="s">
         <v>16</v>
       </c>
       <c r="C186" t="s">
-        <v>688</v>
+        <v>662</v>
       </c>
       <c r="D186" t="s">
-        <v>689</v>
+        <v>663</v>
       </c>
       <c r="E186">
-        <v>0.68</v>
+        <v>3.8</v>
       </c>
       <c r="F186">
-        <f t="shared" si="10"/>
-        <v>40.800000000000004</v>
+        <f t="shared" si="15"/>
+        <v>228</v>
       </c>
       <c r="G186" s="3" t="s">
-        <v>690</v>
+        <v>664</v>
       </c>
     </row>
     <row r="187" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A187" t="s">
-        <v>683</v>
+        <v>381</v>
       </c>
       <c r="B187" t="s">
         <v>16</v>
       </c>
       <c r="C187" t="s">
-        <v>691</v>
+        <v>430</v>
       </c>
       <c r="D187" t="s">
-        <v>692</v>
+        <v>45</v>
       </c>
       <c r="E187">
-        <v>2.66</v>
+        <v>2.08</v>
       </c>
       <c r="F187">
-        <f t="shared" si="10"/>
-        <v>159.60000000000002</v>
+        <f t="shared" si="15"/>
+        <v>124.80000000000001</v>
       </c>
       <c r="G187" s="3" t="s">
-        <v>693</v>
+        <v>431</v>
       </c>
     </row>
     <row r="188" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A188" t="s">
-        <v>684</v>
+        <v>382</v>
       </c>
       <c r="B188" t="s">
         <v>16</v>
       </c>
       <c r="C188" t="s">
-        <v>694</v>
+        <v>665</v>
       </c>
       <c r="D188" t="s">
-        <v>695</v>
+        <v>42</v>
       </c>
       <c r="E188">
-        <v>0.05</v>
+        <v>0.39500000000000002</v>
       </c>
       <c r="F188">
-        <f t="shared" si="10"/>
-        <v>3</v>
+        <f t="shared" si="15"/>
+        <v>23.700000000000003</v>
       </c>
       <c r="G188" s="3" t="s">
-        <v>696</v>
+        <v>666</v>
       </c>
     </row>
     <row r="189" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A189" t="s">
-        <v>685</v>
+        <v>383</v>
       </c>
       <c r="B189" t="s">
         <v>16</v>
       </c>
       <c r="C189" t="s">
-        <v>697</v>
+        <v>618</v>
       </c>
       <c r="D189" t="s">
-        <v>209</v>
+        <v>40</v>
       </c>
       <c r="E189">
-        <v>0.69</v>
+        <v>29.1</v>
       </c>
       <c r="F189">
-        <f t="shared" si="10"/>
-        <v>41.4</v>
+        <f t="shared" si="15"/>
+        <v>1746</v>
       </c>
       <c r="G189" s="3" t="s">
-        <v>698</v>
+        <v>619</v>
       </c>
     </row>
     <row r="190" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A190" t="s">
+        <v>681</v>
+      </c>
+      <c r="B190" t="s">
+        <v>16</v>
+      </c>
+      <c r="C190" t="s">
+        <v>687</v>
+      </c>
+      <c r="D190" t="s">
+        <v>688</v>
+      </c>
+      <c r="E190">
+        <v>0.68</v>
+      </c>
+      <c r="F190">
+        <f t="shared" si="15"/>
+        <v>40.800000000000004</v>
+      </c>
+      <c r="G190" s="3" t="s">
+        <v>689</v>
+      </c>
+    </row>
+    <row r="191" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A191" t="s">
+        <v>682</v>
+      </c>
+      <c r="B191" t="s">
+        <v>16</v>
+      </c>
+      <c r="C191" t="s">
+        <v>690</v>
+      </c>
+      <c r="D191" t="s">
+        <v>691</v>
+      </c>
+      <c r="E191">
+        <v>2.66</v>
+      </c>
+      <c r="F191">
+        <f t="shared" si="15"/>
+        <v>159.60000000000002</v>
+      </c>
+      <c r="G191" s="3" t="s">
+        <v>692</v>
+      </c>
+    </row>
+    <row r="192" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A192" t="s">
+        <v>683</v>
+      </c>
+      <c r="B192" t="s">
+        <v>16</v>
+      </c>
+      <c r="C192" t="s">
+        <v>693</v>
+      </c>
+      <c r="D192" t="s">
+        <v>694</v>
+      </c>
+      <c r="E192">
+        <v>0.05</v>
+      </c>
+      <c r="F192">
+        <f t="shared" si="15"/>
+        <v>3</v>
+      </c>
+      <c r="G192" s="3" t="s">
+        <v>695</v>
+      </c>
+    </row>
+    <row r="193" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A193" t="s">
+        <v>684</v>
+      </c>
+      <c r="B193" t="s">
+        <v>16</v>
+      </c>
+      <c r="C193" t="s">
+        <v>696</v>
+      </c>
+      <c r="D193" t="s">
+        <v>208</v>
+      </c>
+      <c r="E193">
+        <v>0.69</v>
+      </c>
+      <c r="F193">
+        <f t="shared" si="15"/>
+        <v>41.4</v>
+      </c>
+      <c r="G193" s="3" t="s">
+        <v>697</v>
+      </c>
+    </row>
+    <row r="194" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A194" t="s">
         <v>26</v>
       </c>
-      <c r="B190" t="s">
+      <c r="B194" t="s">
         <v>38</v>
       </c>
-      <c r="C190" t="s">
+      <c r="C194" t="s">
         <v>86</v>
       </c>
-      <c r="D190" t="s">
+      <c r="D194" t="s">
         <v>45</v>
       </c>
-      <c r="E190">
+      <c r="E194">
         <v>11</v>
       </c>
-      <c r="F190">
+      <c r="F194">
         <f t="shared" si="0"/>
         <v>660</v>
       </c>
-      <c r="G190" s="3" t="s">
+      <c r="G194" s="3" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="191" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A191" t="s">
+    <row r="195" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A195" t="s">
         <v>27</v>
       </c>
-      <c r="B191" t="s">
+      <c r="B195" t="s">
         <v>38</v>
       </c>
-      <c r="C191" t="s">
+      <c r="C195" t="s">
         <v>89</v>
       </c>
-      <c r="D191" t="s">
+      <c r="D195" t="s">
         <v>88</v>
       </c>
-      <c r="E191">
+      <c r="E195">
         <v>0.127</v>
       </c>
-      <c r="F191">
+      <c r="F195">
         <f t="shared" si="0"/>
         <v>7.62</v>
       </c>
-      <c r="G191" s="3" t="s">
+      <c r="G195" s="3" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="192" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A192" t="s">
+    <row r="196" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A196" t="s">
         <v>28</v>
       </c>
-      <c r="B192" t="s">
+      <c r="B196" t="s">
         <v>38</v>
       </c>
-      <c r="C192" t="s">
+      <c r="C196" t="s">
         <v>92</v>
       </c>
-      <c r="D192" t="s">
+      <c r="D196" t="s">
         <v>91</v>
       </c>
-      <c r="E192">
+      <c r="E196">
         <v>6.13</v>
       </c>
-      <c r="F192">
+      <c r="F196">
         <f t="shared" si="0"/>
         <v>367.8</v>
       </c>
-      <c r="G192" s="3" t="s">
+      <c r="G196" s="3" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="193" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A193" t="s">
+    <row r="197" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A197" t="s">
         <v>29</v>
       </c>
-      <c r="B193" t="s">
+      <c r="B197" t="s">
         <v>38</v>
       </c>
-      <c r="C193" t="s">
+      <c r="C197" t="s">
         <v>94</v>
       </c>
-      <c r="D193" t="s">
+      <c r="D197" t="s">
         <v>45</v>
       </c>
-      <c r="E193">
+      <c r="E197">
         <v>31</v>
       </c>
-      <c r="F193">
+      <c r="F197">
         <f t="shared" si="0"/>
         <v>1860</v>
       </c>
-      <c r="G193" s="3" t="s">
+      <c r="G197" s="3" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="194" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A194" t="s">
+    <row r="198" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A198" t="s">
         <v>30</v>
       </c>
-      <c r="B194" t="s">
+      <c r="B198" t="s">
         <v>38</v>
       </c>
-      <c r="C194" t="s">
+      <c r="C198" t="s">
         <v>97</v>
       </c>
-      <c r="D194" t="s">
+      <c r="D198" t="s">
         <v>96</v>
       </c>
-      <c r="E194">
+      <c r="E198">
         <v>252</v>
       </c>
-      <c r="F194">
+      <c r="F198">
         <f t="shared" si="0"/>
         <v>15120</v>
       </c>
-      <c r="G194" s="3" t="s">
+      <c r="G198" s="3" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="195" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A195" t="s">
+    <row r="199" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A199" t="s">
         <v>31</v>
       </c>
-      <c r="B195" t="s">
+      <c r="B199" t="s">
         <v>38</v>
       </c>
-      <c r="C195" t="s">
+      <c r="C199" t="s">
         <v>100</v>
       </c>
-      <c r="D195" t="s">
+      <c r="D199" t="s">
         <v>99</v>
       </c>
-      <c r="E195">
+      <c r="E199">
         <v>22.1</v>
       </c>
-      <c r="F195">
+      <c r="F199">
         <f t="shared" si="0"/>
         <v>1326</v>
       </c>
-      <c r="G195" s="3" t="s">
+      <c r="G199" s="3" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="196" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A196" t="s">
+    <row r="200" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A200" t="s">
         <v>32</v>
       </c>
-      <c r="B196" t="s">
+      <c r="B200" t="s">
         <v>38</v>
       </c>
-      <c r="C196" t="s">
+      <c r="C200" t="s">
         <v>102</v>
       </c>
-      <c r="D196" t="s">
+      <c r="D200" t="s">
         <v>40</v>
       </c>
-      <c r="E196">
+      <c r="E200">
         <v>3.9E-2</v>
       </c>
-      <c r="F196">
+      <c r="F200">
         <f t="shared" si="0"/>
         <v>2.34</v>
       </c>
-      <c r="G196" s="3" t="s">
+      <c r="G200" s="3" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="197" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A197" t="s">
+    <row r="201" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A201" t="s">
         <v>33</v>
       </c>
-      <c r="B197" t="s">
+      <c r="B201" t="s">
         <v>38</v>
       </c>
-      <c r="C197" t="s">
+      <c r="C201" t="s">
         <v>104</v>
       </c>
-      <c r="D197" t="s">
+      <c r="D201" t="s">
         <v>45</v>
       </c>
-      <c r="E197">
+      <c r="E201">
         <v>450</v>
       </c>
-      <c r="F197">
+      <c r="F201">
         <f t="shared" si="0"/>
         <v>27000</v>
       </c>
-      <c r="G197" s="3" t="s">
+      <c r="G201" s="3" t="s">
         <v>105</v>
-      </c>
-    </row>
-    <row r="198" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A198" t="s">
-        <v>700</v>
-      </c>
-      <c r="B198" t="s">
-        <v>16</v>
-      </c>
-      <c r="C198" t="s">
-        <v>104</v>
-      </c>
-      <c r="D198" t="s">
-        <v>45</v>
-      </c>
-      <c r="E198">
-        <v>450</v>
-      </c>
-      <c r="F198">
-        <f t="shared" ref="F198" si="11">E198*60</f>
-        <v>27000</v>
-      </c>
-      <c r="G198" s="3" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="199" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A199" t="s">
-        <v>34</v>
-      </c>
-      <c r="B199" t="s">
-        <v>38</v>
-      </c>
-      <c r="C199" t="s">
-        <v>47</v>
-      </c>
-      <c r="D199" t="s">
-        <v>45</v>
-      </c>
-      <c r="E199">
-        <v>182</v>
-      </c>
-      <c r="F199">
-        <f t="shared" si="0"/>
-        <v>10920</v>
-      </c>
-      <c r="G199" s="3" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="200" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A200" t="s">
-        <v>35</v>
-      </c>
-      <c r="B200" t="s">
-        <v>38</v>
-      </c>
-      <c r="C200" t="s">
-        <v>41</v>
-      </c>
-      <c r="D200" t="s">
-        <v>88</v>
-      </c>
-      <c r="E200">
-        <v>345</v>
-      </c>
-      <c r="F200">
-        <f t="shared" si="0"/>
-        <v>20700</v>
-      </c>
-      <c r="G200" s="3" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="201" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A201" t="s">
-        <v>36</v>
-      </c>
-      <c r="B201" t="s">
-        <v>38</v>
-      </c>
-      <c r="C201" t="s">
-        <v>43</v>
-      </c>
-      <c r="D201" t="s">
-        <v>45</v>
-      </c>
-      <c r="E201">
-        <v>170</v>
-      </c>
-      <c r="F201">
-        <f t="shared" si="0"/>
-        <v>10200</v>
-      </c>
-      <c r="G201" s="3" t="s">
-        <v>46</v>
       </c>
     </row>
     <row r="202" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A202" t="s">
-        <v>37</v>
+        <v>699</v>
       </c>
       <c r="B202" t="s">
         <v>16</v>
       </c>
       <c r="C202" t="s">
-        <v>43</v>
+        <v>104</v>
       </c>
       <c r="D202" t="s">
         <v>45</v>
       </c>
       <c r="E202">
-        <v>170</v>
+        <v>450</v>
       </c>
       <c r="F202">
-        <f t="shared" si="0"/>
-        <v>10200</v>
+        <f t="shared" ref="F202" si="16">E202*60</f>
+        <v>27000</v>
       </c>
       <c r="G202" s="3" t="s">
-        <v>46</v>
+        <v>105</v>
       </c>
     </row>
     <row r="203" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A203" t="s">
-        <v>44</v>
+        <v>34</v>
       </c>
       <c r="B203" t="s">
-        <v>16</v>
+        <v>38</v>
       </c>
       <c r="C203" t="s">
         <v>47</v>
@@ -7366,1199 +7388,1199 @@
     </row>
     <row r="204" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A204" t="s">
-        <v>160</v>
+        <v>35</v>
       </c>
       <c r="B204" t="s">
         <v>38</v>
       </c>
       <c r="C204" t="s">
-        <v>175</v>
+        <v>41</v>
       </c>
       <c r="D204" t="s">
-        <v>42</v>
+        <v>88</v>
       </c>
       <c r="E204">
-        <v>40</v>
+        <v>345</v>
       </c>
       <c r="F204">
         <f t="shared" si="0"/>
-        <v>2400</v>
+        <v>20700</v>
       </c>
       <c r="G204" s="3" t="s">
-        <v>174</v>
+        <v>106</v>
       </c>
     </row>
     <row r="205" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A205" t="s">
-        <v>162</v>
+        <v>36</v>
       </c>
       <c r="B205" t="s">
         <v>38</v>
       </c>
       <c r="C205" t="s">
-        <v>172</v>
+        <v>43</v>
       </c>
       <c r="D205" t="s">
-        <v>88</v>
+        <v>45</v>
       </c>
       <c r="E205">
-        <v>0.84</v>
+        <v>170</v>
       </c>
       <c r="F205">
         <f t="shared" si="0"/>
-        <v>50.4</v>
-      </c>
-      <c r="G205" s="5" t="s">
-        <v>173</v>
+        <v>10200</v>
+      </c>
+      <c r="G205" s="3" t="s">
+        <v>46</v>
       </c>
     </row>
     <row r="206" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A206" t="s">
-        <v>161</v>
+        <v>37</v>
       </c>
       <c r="B206" t="s">
-        <v>38</v>
+        <v>16</v>
       </c>
       <c r="C206" t="s">
-        <v>171</v>
+        <v>43</v>
       </c>
       <c r="D206" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="E206">
-        <v>0.55000000000000004</v>
+        <v>170</v>
       </c>
       <c r="F206">
         <f t="shared" si="0"/>
-        <v>33</v>
-      </c>
-      <c r="G206" s="6" t="s">
-        <v>170</v>
+        <v>10200</v>
+      </c>
+      <c r="G206" s="3" t="s">
+        <v>46</v>
       </c>
     </row>
     <row r="207" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A207" t="s">
-        <v>163</v>
+        <v>44</v>
       </c>
       <c r="B207" t="s">
-        <v>38</v>
+        <v>16</v>
       </c>
       <c r="C207" t="s">
-        <v>169</v>
+        <v>47</v>
       </c>
       <c r="D207" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="E207">
-        <v>7.1</v>
+        <v>182</v>
       </c>
       <c r="F207">
         <f t="shared" si="0"/>
-        <v>426</v>
-      </c>
-      <c r="G207" s="6" t="s">
-        <v>170</v>
+        <v>10920</v>
+      </c>
+      <c r="G207" s="3" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="208" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A208" t="s">
-        <v>181</v>
+        <v>159</v>
       </c>
       <c r="B208" t="s">
         <v>38</v>
       </c>
       <c r="C208" t="s">
-        <v>185</v>
+        <v>174</v>
       </c>
       <c r="D208" t="s">
+        <v>42</v>
+      </c>
+      <c r="E208">
         <v>40</v>
-      </c>
-      <c r="E208">
-        <v>2300</v>
       </c>
       <c r="F208">
         <f t="shared" si="0"/>
-        <v>138000</v>
-      </c>
-      <c r="G208" s="6" t="s">
-        <v>186</v>
+        <v>2400</v>
+      </c>
+      <c r="G208" s="3" t="s">
+        <v>173</v>
       </c>
     </row>
     <row r="209" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A209" t="s">
-        <v>182</v>
+        <v>161</v>
       </c>
       <c r="B209" t="s">
         <v>38</v>
       </c>
       <c r="C209" t="s">
-        <v>187</v>
+        <v>171</v>
       </c>
       <c r="D209" t="s">
-        <v>45</v>
+        <v>88</v>
       </c>
       <c r="E209">
-        <v>0.22800000000000001</v>
+        <v>0.84</v>
       </c>
       <c r="F209">
         <f t="shared" si="0"/>
-        <v>13.68</v>
-      </c>
-      <c r="G209" s="6" t="s">
-        <v>188</v>
+        <v>50.4</v>
+      </c>
+      <c r="G209" s="5" t="s">
+        <v>172</v>
       </c>
     </row>
     <row r="210" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A210" t="s">
-        <v>183</v>
+        <v>160</v>
       </c>
       <c r="B210" t="s">
         <v>38</v>
       </c>
       <c r="C210" t="s">
-        <v>189</v>
+        <v>170</v>
       </c>
       <c r="D210" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="E210">
-        <v>38.6</v>
+        <v>0.55000000000000004</v>
       </c>
       <c r="F210">
         <f t="shared" si="0"/>
-        <v>2316</v>
+        <v>33</v>
       </c>
       <c r="G210" s="6" t="s">
-        <v>190</v>
+        <v>169</v>
       </c>
     </row>
     <row r="211" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A211" t="s">
-        <v>210</v>
+        <v>162</v>
       </c>
       <c r="B211" t="s">
         <v>38</v>
       </c>
       <c r="C211" t="s">
-        <v>211</v>
+        <v>168</v>
       </c>
       <c r="D211" t="s">
-        <v>88</v>
+        <v>42</v>
       </c>
       <c r="E211">
-        <v>28.3</v>
+        <v>7.1</v>
       </c>
       <c r="F211">
         <f t="shared" si="0"/>
-        <v>1698</v>
+        <v>426</v>
       </c>
       <c r="G211" s="6" t="s">
-        <v>212</v>
+        <v>169</v>
       </c>
     </row>
     <row r="212" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A212" t="s">
-        <v>213</v>
+        <v>180</v>
       </c>
       <c r="B212" t="s">
         <v>38</v>
       </c>
       <c r="C212" t="s">
-        <v>214</v>
+        <v>184</v>
       </c>
       <c r="D212" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="E212">
-        <v>5.7999999999999996E-3</v>
+        <v>2300</v>
       </c>
       <c r="F212">
         <f t="shared" si="0"/>
-        <v>0.34799999999999998</v>
+        <v>138000</v>
       </c>
       <c r="G212" s="6" t="s">
-        <v>215</v>
+        <v>185</v>
       </c>
     </row>
     <row r="213" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A213" t="s">
-        <v>216</v>
+        <v>181</v>
       </c>
       <c r="B213" t="s">
         <v>38</v>
       </c>
       <c r="C213" t="s">
-        <v>217</v>
+        <v>186</v>
       </c>
       <c r="D213" t="s">
-        <v>88</v>
+        <v>45</v>
       </c>
       <c r="E213">
-        <v>0.185</v>
+        <v>0.22800000000000001</v>
       </c>
       <c r="F213">
         <f t="shared" si="0"/>
-        <v>11.1</v>
+        <v>13.68</v>
       </c>
       <c r="G213" s="6" t="s">
-        <v>218</v>
+        <v>187</v>
       </c>
     </row>
     <row r="214" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A214" t="s">
-        <v>222</v>
+        <v>182</v>
       </c>
       <c r="B214" t="s">
         <v>38</v>
       </c>
       <c r="C214" t="s">
-        <v>223</v>
+        <v>188</v>
       </c>
       <c r="D214" t="s">
-        <v>88</v>
+        <v>45</v>
       </c>
       <c r="E214">
-        <v>133</v>
+        <v>38.6</v>
       </c>
       <c r="F214">
         <f t="shared" si="0"/>
-        <v>7980</v>
+        <v>2316</v>
       </c>
       <c r="G214" s="6" t="s">
-        <v>224</v>
+        <v>189</v>
       </c>
     </row>
     <row r="215" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A215" t="s">
-        <v>225</v>
+        <v>209</v>
       </c>
       <c r="B215" t="s">
         <v>38</v>
       </c>
       <c r="C215" t="s">
-        <v>226</v>
+        <v>210</v>
       </c>
       <c r="D215" t="s">
-        <v>45</v>
+        <v>88</v>
       </c>
       <c r="E215">
-        <v>2.2999999999999998</v>
+        <v>28.3</v>
       </c>
       <c r="F215">
         <f t="shared" si="0"/>
-        <v>138</v>
+        <v>1698</v>
       </c>
       <c r="G215" s="6" t="s">
-        <v>227</v>
+        <v>211</v>
       </c>
     </row>
     <row r="216" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A216" t="s">
-        <v>229</v>
+        <v>212</v>
       </c>
       <c r="B216" t="s">
         <v>38</v>
       </c>
       <c r="C216" t="s">
-        <v>228</v>
+        <v>213</v>
       </c>
       <c r="D216" t="s">
         <v>45</v>
       </c>
       <c r="E216">
-        <v>1334</v>
+        <v>5.7999999999999996E-3</v>
       </c>
       <c r="F216">
         <f t="shared" si="0"/>
-        <v>80040</v>
+        <v>0.34799999999999998</v>
       </c>
       <c r="G216" s="6" t="s">
-        <v>230</v>
+        <v>214</v>
       </c>
     </row>
     <row r="217" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A217" t="s">
-        <v>231</v>
+        <v>215</v>
       </c>
       <c r="B217" t="s">
         <v>38</v>
       </c>
       <c r="C217" t="s">
-        <v>232</v>
+        <v>216</v>
       </c>
       <c r="D217" t="s">
-        <v>45</v>
+        <v>88</v>
       </c>
       <c r="E217">
-        <v>220</v>
+        <v>0.185</v>
       </c>
       <c r="F217">
         <f t="shared" si="0"/>
-        <v>13200</v>
+        <v>11.1</v>
       </c>
       <c r="G217" s="6" t="s">
-        <v>233</v>
+        <v>217</v>
       </c>
     </row>
     <row r="218" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A218" t="s">
-        <v>234</v>
+        <v>221</v>
       </c>
       <c r="B218" t="s">
         <v>38</v>
       </c>
       <c r="C218" t="s">
-        <v>235</v>
+        <v>222</v>
       </c>
       <c r="D218" t="s">
-        <v>45</v>
+        <v>88</v>
       </c>
       <c r="E218">
-        <v>58.2</v>
+        <v>133</v>
       </c>
       <c r="F218">
         <f t="shared" si="0"/>
-        <v>3492</v>
+        <v>7980</v>
       </c>
       <c r="G218" s="6" t="s">
-        <v>236</v>
+        <v>223</v>
       </c>
     </row>
     <row r="219" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A219" t="s">
-        <v>385</v>
+        <v>224</v>
       </c>
       <c r="B219" t="s">
         <v>38</v>
       </c>
       <c r="C219" t="s">
-        <v>534</v>
+        <v>225</v>
       </c>
       <c r="D219" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="E219">
-        <v>13.9</v>
+        <v>2.2999999999999998</v>
       </c>
       <c r="F219">
         <f t="shared" si="0"/>
-        <v>834</v>
-      </c>
-      <c r="G219" s="3" t="s">
-        <v>535</v>
+        <v>138</v>
+      </c>
+      <c r="G219" s="6" t="s">
+        <v>226</v>
       </c>
     </row>
     <row r="220" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A220" t="s">
-        <v>386</v>
+        <v>228</v>
       </c>
       <c r="B220" t="s">
         <v>38</v>
       </c>
       <c r="C220" t="s">
-        <v>536</v>
+        <v>227</v>
       </c>
       <c r="D220" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="E220">
-        <v>3.9</v>
+        <v>1334</v>
       </c>
       <c r="F220">
         <f t="shared" si="0"/>
-        <v>234</v>
-      </c>
-      <c r="G220" s="3" t="s">
-        <v>537</v>
+        <v>80040</v>
+      </c>
+      <c r="G220" s="6" t="s">
+        <v>229</v>
       </c>
     </row>
     <row r="221" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A221" t="s">
-        <v>387</v>
+        <v>230</v>
       </c>
       <c r="B221" t="s">
         <v>38</v>
       </c>
       <c r="C221" t="s">
-        <v>542</v>
+        <v>231</v>
       </c>
       <c r="D221" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="E221">
-        <v>430</v>
+        <v>220</v>
       </c>
       <c r="F221">
         <f t="shared" si="0"/>
-        <v>25800</v>
-      </c>
-      <c r="G221" s="3" t="s">
-        <v>543</v>
+        <v>13200</v>
+      </c>
+      <c r="G221" s="6" t="s">
+        <v>232</v>
       </c>
     </row>
     <row r="222" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A222" t="s">
-        <v>388</v>
+        <v>233</v>
       </c>
       <c r="B222" t="s">
         <v>38</v>
       </c>
       <c r="C222" t="s">
-        <v>544</v>
+        <v>234</v>
       </c>
       <c r="D222" t="s">
         <v>45</v>
       </c>
       <c r="E222">
-        <v>26.4</v>
+        <v>58.2</v>
       </c>
       <c r="F222">
         <f t="shared" si="0"/>
-        <v>1584</v>
-      </c>
-      <c r="G222" s="3" t="s">
-        <v>545</v>
+        <v>3492</v>
+      </c>
+      <c r="G222" s="6" t="s">
+        <v>235</v>
       </c>
     </row>
     <row r="223" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A223" t="s">
-        <v>389</v>
+        <v>384</v>
       </c>
       <c r="B223" t="s">
         <v>38</v>
       </c>
       <c r="C223" t="s">
-        <v>546</v>
+        <v>533</v>
       </c>
       <c r="D223" t="s">
-        <v>88</v>
+        <v>40</v>
       </c>
       <c r="E223">
-        <v>19.899999999999999</v>
+        <v>13.9</v>
       </c>
       <c r="F223">
-        <f>E223*60</f>
-        <v>1194</v>
+        <f t="shared" si="0"/>
+        <v>834</v>
       </c>
       <c r="G223" s="3" t="s">
-        <v>547</v>
+        <v>534</v>
       </c>
     </row>
     <row r="224" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A224" t="s">
-        <v>390</v>
+        <v>385</v>
       </c>
       <c r="B224" t="s">
         <v>38</v>
       </c>
       <c r="C224" t="s">
-        <v>540</v>
+        <v>535</v>
       </c>
       <c r="D224" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="E224">
-        <v>7</v>
+        <v>3.9</v>
       </c>
       <c r="F224">
-        <f t="shared" ref="F224:F239" si="12">E224*60</f>
-        <v>420</v>
+        <f t="shared" si="0"/>
+        <v>234</v>
       </c>
       <c r="G224" s="3" t="s">
-        <v>541</v>
+        <v>536</v>
       </c>
     </row>
     <row r="225" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A225" t="s">
-        <v>391</v>
+        <v>386</v>
       </c>
       <c r="B225" t="s">
         <v>38</v>
       </c>
       <c r="C225" t="s">
-        <v>538</v>
+        <v>541</v>
       </c>
       <c r="D225" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="E225">
-        <v>2.9</v>
+        <v>430</v>
       </c>
       <c r="F225">
-        <f t="shared" si="12"/>
-        <v>174</v>
+        <f t="shared" si="0"/>
+        <v>25800</v>
       </c>
       <c r="G225" s="3" t="s">
-        <v>539</v>
+        <v>542</v>
       </c>
     </row>
     <row r="226" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A226" t="s">
-        <v>392</v>
+        <v>387</v>
       </c>
       <c r="B226" t="s">
         <v>38</v>
       </c>
       <c r="C226" t="s">
-        <v>463</v>
+        <v>543</v>
       </c>
       <c r="D226" t="s">
-        <v>88</v>
+        <v>45</v>
       </c>
       <c r="E226">
-        <v>3.3</v>
+        <v>26.4</v>
       </c>
       <c r="F226">
-        <f t="shared" si="12"/>
-        <v>198</v>
+        <f t="shared" si="0"/>
+        <v>1584</v>
       </c>
       <c r="G226" s="3" t="s">
-        <v>464</v>
+        <v>544</v>
       </c>
     </row>
     <row r="227" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A227" t="s">
-        <v>393</v>
+        <v>388</v>
       </c>
       <c r="B227" t="s">
         <v>38</v>
       </c>
       <c r="C227" t="s">
-        <v>548</v>
+        <v>545</v>
       </c>
       <c r="D227" t="s">
-        <v>40</v>
+        <v>88</v>
       </c>
       <c r="E227">
-        <v>24.9</v>
+        <v>19.899999999999999</v>
       </c>
       <c r="F227">
-        <f t="shared" si="12"/>
-        <v>1494</v>
+        <f>E227*60</f>
+        <v>1194</v>
       </c>
       <c r="G227" s="3" t="s">
-        <v>549</v>
+        <v>546</v>
       </c>
     </row>
     <row r="228" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A228" t="s">
-        <v>394</v>
+        <v>389</v>
       </c>
       <c r="B228" t="s">
         <v>38</v>
       </c>
       <c r="C228" t="s">
-        <v>43</v>
+        <v>539</v>
       </c>
       <c r="D228" t="s">
         <v>45</v>
       </c>
       <c r="E228">
-        <v>170</v>
+        <v>7</v>
       </c>
       <c r="F228">
-        <f t="shared" si="12"/>
-        <v>10200</v>
+        <f t="shared" ref="F228:F243" si="17">E228*60</f>
+        <v>420</v>
       </c>
       <c r="G228" s="3" t="s">
-        <v>46</v>
+        <v>540</v>
       </c>
     </row>
     <row r="229" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A229" t="s">
-        <v>395</v>
+        <v>390</v>
       </c>
       <c r="B229" t="s">
         <v>38</v>
       </c>
       <c r="C229" t="s">
-        <v>479</v>
+        <v>537</v>
       </c>
       <c r="D229" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="E229">
-        <v>5.5</v>
+        <v>2.9</v>
       </c>
       <c r="F229">
-        <f t="shared" si="12"/>
-        <v>330</v>
+        <f t="shared" si="17"/>
+        <v>174</v>
       </c>
       <c r="G229" s="3" t="s">
-        <v>480</v>
+        <v>538</v>
       </c>
     </row>
     <row r="230" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A230" t="s">
-        <v>396</v>
+        <v>391</v>
       </c>
       <c r="B230" t="s">
         <v>38</v>
       </c>
       <c r="C230" t="s">
-        <v>550</v>
+        <v>462</v>
       </c>
       <c r="D230" t="s">
-        <v>209</v>
+        <v>88</v>
       </c>
       <c r="E230">
-        <v>26.8</v>
+        <v>3.3</v>
       </c>
       <c r="F230">
-        <f t="shared" si="12"/>
-        <v>1608</v>
+        <f t="shared" si="17"/>
+        <v>198</v>
       </c>
       <c r="G230" s="3" t="s">
-        <v>551</v>
+        <v>463</v>
       </c>
     </row>
     <row r="231" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A231" t="s">
-        <v>397</v>
+        <v>392</v>
       </c>
       <c r="B231" t="s">
         <v>38</v>
       </c>
       <c r="C231" t="s">
-        <v>552</v>
+        <v>547</v>
       </c>
       <c r="D231" t="s">
         <v>40</v>
       </c>
       <c r="E231">
-        <v>1.5</v>
+        <v>24.9</v>
       </c>
       <c r="F231">
-        <f t="shared" si="12"/>
-        <v>90</v>
+        <f t="shared" si="17"/>
+        <v>1494</v>
       </c>
       <c r="G231" s="3" t="s">
-        <v>553</v>
+        <v>548</v>
       </c>
     </row>
     <row r="232" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A232" t="s">
-        <v>398</v>
+        <v>393</v>
       </c>
       <c r="B232" t="s">
         <v>38</v>
       </c>
       <c r="C232" t="s">
-        <v>536</v>
+        <v>43</v>
       </c>
       <c r="D232" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="E232">
-        <v>3.9</v>
+        <v>170</v>
       </c>
       <c r="F232">
-        <f t="shared" si="12"/>
-        <v>234</v>
+        <f t="shared" si="17"/>
+        <v>10200</v>
       </c>
       <c r="G232" s="3" t="s">
-        <v>537</v>
+        <v>46</v>
       </c>
     </row>
     <row r="233" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A233" t="s">
-        <v>399</v>
+        <v>394</v>
       </c>
       <c r="B233" t="s">
         <v>38</v>
       </c>
       <c r="C233" t="s">
-        <v>169</v>
+        <v>478</v>
       </c>
       <c r="D233" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="E233">
-        <v>7.1</v>
+        <v>5.5</v>
       </c>
       <c r="F233">
-        <f t="shared" si="12"/>
-        <v>426</v>
-      </c>
-      <c r="G233" s="4" t="s">
-        <v>170</v>
+        <f t="shared" si="17"/>
+        <v>330</v>
+      </c>
+      <c r="G233" s="3" t="s">
+        <v>479</v>
       </c>
     </row>
     <row r="234" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A234" t="s">
-        <v>400</v>
+        <v>395</v>
       </c>
       <c r="B234" t="s">
         <v>38</v>
       </c>
       <c r="C234" t="s">
-        <v>554</v>
+        <v>549</v>
       </c>
       <c r="D234" t="s">
-        <v>434</v>
+        <v>208</v>
       </c>
       <c r="E234">
-        <v>410</v>
+        <v>26.8</v>
       </c>
       <c r="F234">
-        <f t="shared" si="12"/>
-        <v>24600</v>
+        <f t="shared" si="17"/>
+        <v>1608</v>
       </c>
       <c r="G234" s="3" t="s">
-        <v>555</v>
+        <v>550</v>
       </c>
     </row>
     <row r="235" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A235" t="s">
-        <v>401</v>
+        <v>396</v>
       </c>
       <c r="B235" t="s">
         <v>38</v>
       </c>
       <c r="C235" t="s">
-        <v>197</v>
+        <v>551</v>
       </c>
       <c r="D235" t="s">
         <v>40</v>
       </c>
       <c r="E235">
-        <v>5.9709873654656063</v>
+        <v>1.5</v>
       </c>
       <c r="F235">
-        <f t="shared" si="12"/>
-        <v>358.25924192793639</v>
+        <f t="shared" si="17"/>
+        <v>90</v>
       </c>
       <c r="G235" s="3" t="s">
-        <v>556</v>
+        <v>552</v>
       </c>
     </row>
     <row r="236" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A236" t="s">
-        <v>402</v>
+        <v>397</v>
       </c>
       <c r="B236" t="s">
         <v>38</v>
       </c>
       <c r="C236" t="s">
-        <v>483</v>
+        <v>535</v>
       </c>
       <c r="D236" t="s">
-        <v>88</v>
+        <v>40</v>
       </c>
       <c r="E236">
-        <v>8.1999999999999993</v>
+        <v>3.9</v>
       </c>
       <c r="F236">
-        <f t="shared" si="12"/>
-        <v>491.99999999999994</v>
+        <f t="shared" si="17"/>
+        <v>234</v>
       </c>
       <c r="G236" s="3" t="s">
-        <v>484</v>
+        <v>536</v>
       </c>
     </row>
     <row r="237" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A237" t="s">
-        <v>403</v>
+        <v>398</v>
       </c>
       <c r="B237" t="s">
         <v>38</v>
       </c>
       <c r="C237" t="s">
-        <v>557</v>
+        <v>168</v>
       </c>
       <c r="D237" t="s">
-        <v>76</v>
+        <v>42</v>
       </c>
       <c r="E237">
-        <v>1.08</v>
+        <v>7.1</v>
       </c>
       <c r="F237">
-        <f t="shared" si="12"/>
-        <v>64.800000000000011</v>
-      </c>
-      <c r="G237" s="3" t="s">
-        <v>558</v>
+        <f t="shared" si="17"/>
+        <v>426</v>
+      </c>
+      <c r="G237" s="4" t="s">
+        <v>169</v>
       </c>
     </row>
     <row r="238" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A238" t="s">
-        <v>404</v>
+        <v>399</v>
       </c>
       <c r="B238" t="s">
         <v>38</v>
       </c>
       <c r="C238" t="s">
-        <v>459</v>
+        <v>553</v>
       </c>
       <c r="D238" t="s">
-        <v>42</v>
+        <v>433</v>
       </c>
       <c r="E238">
-        <v>206</v>
+        <v>410</v>
       </c>
       <c r="F238">
-        <f t="shared" si="12"/>
-        <v>12360</v>
+        <f t="shared" si="17"/>
+        <v>24600</v>
       </c>
       <c r="G238" s="3" t="s">
-        <v>460</v>
+        <v>554</v>
       </c>
     </row>
     <row r="239" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A239" t="s">
-        <v>405</v>
+        <v>400</v>
       </c>
       <c r="B239" t="s">
         <v>38</v>
       </c>
       <c r="C239" t="s">
-        <v>559</v>
+        <v>196</v>
       </c>
       <c r="D239" t="s">
-        <v>88</v>
+        <v>40</v>
       </c>
       <c r="E239">
-        <v>1.83</v>
+        <v>5.9709873654656063</v>
       </c>
       <c r="F239">
-        <f t="shared" si="12"/>
-        <v>109.80000000000001</v>
+        <f t="shared" si="17"/>
+        <v>358.25924192793639</v>
       </c>
       <c r="G239" s="3" t="s">
-        <v>560</v>
+        <v>555</v>
       </c>
     </row>
     <row r="240" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A240" t="s">
-        <v>406</v>
+        <v>401</v>
       </c>
       <c r="B240" t="s">
         <v>38</v>
       </c>
       <c r="C240" t="s">
-        <v>479</v>
+        <v>482</v>
       </c>
       <c r="D240" t="s">
-        <v>40</v>
+        <v>88</v>
       </c>
       <c r="E240">
-        <v>5.5</v>
+        <v>8.1999999999999993</v>
       </c>
       <c r="F240">
-        <f t="shared" ref="F240:F242" si="13">E240*60</f>
-        <v>330</v>
+        <f t="shared" si="17"/>
+        <v>491.99999999999994</v>
       </c>
       <c r="G240" s="3" t="s">
-        <v>480</v>
+        <v>483</v>
       </c>
     </row>
     <row r="241" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A241" t="s">
-        <v>407</v>
+        <v>402</v>
       </c>
       <c r="B241" t="s">
         <v>38</v>
       </c>
       <c r="C241" t="s">
-        <v>561</v>
+        <v>556</v>
       </c>
       <c r="D241" t="s">
-        <v>45</v>
+        <v>76</v>
       </c>
       <c r="E241">
-        <v>5.6</v>
+        <v>1.08</v>
       </c>
       <c r="F241">
-        <f t="shared" si="13"/>
-        <v>336</v>
+        <f t="shared" si="17"/>
+        <v>64.800000000000011</v>
       </c>
       <c r="G241" s="3" t="s">
-        <v>562</v>
+        <v>557</v>
       </c>
     </row>
     <row r="242" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A242" t="s">
-        <v>408</v>
+        <v>403</v>
       </c>
       <c r="B242" t="s">
         <v>38</v>
       </c>
       <c r="C242" t="s">
-        <v>557</v>
+        <v>458</v>
       </c>
       <c r="D242" t="s">
-        <v>76</v>
+        <v>42</v>
       </c>
       <c r="E242">
-        <v>1.08</v>
+        <v>206</v>
       </c>
       <c r="F242">
-        <f t="shared" si="13"/>
-        <v>64.800000000000011</v>
+        <f t="shared" si="17"/>
+        <v>12360</v>
       </c>
       <c r="G242" s="3" t="s">
-        <v>558</v>
+        <v>459</v>
       </c>
     </row>
     <row r="243" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A243" t="s">
-        <v>409</v>
+        <v>404</v>
       </c>
       <c r="B243" t="s">
         <v>38</v>
       </c>
       <c r="C243" t="s">
-        <v>479</v>
+        <v>558</v>
       </c>
       <c r="D243" t="s">
-        <v>40</v>
+        <v>88</v>
       </c>
       <c r="E243">
-        <v>5.5</v>
+        <v>1.83</v>
       </c>
       <c r="F243">
-        <f t="shared" ref="F243:F244" si="14">E243*60</f>
-        <v>330</v>
+        <f t="shared" si="17"/>
+        <v>109.80000000000001</v>
       </c>
       <c r="G243" s="3" t="s">
-        <v>480</v>
+        <v>559</v>
       </c>
     </row>
     <row r="244" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A244" t="s">
-        <v>410</v>
+        <v>405</v>
       </c>
       <c r="B244" t="s">
         <v>38</v>
       </c>
       <c r="C244" t="s">
-        <v>563</v>
+        <v>478</v>
       </c>
       <c r="D244" t="s">
         <v>40</v>
       </c>
       <c r="E244">
-        <v>11.7</v>
+        <v>5.5</v>
       </c>
       <c r="F244">
-        <f t="shared" si="14"/>
-        <v>702</v>
+        <f t="shared" ref="F244:F246" si="18">E244*60</f>
+        <v>330</v>
       </c>
       <c r="G244" s="3" t="s">
-        <v>564</v>
+        <v>479</v>
       </c>
     </row>
     <row r="245" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A245" t="s">
-        <v>411</v>
+        <v>406</v>
       </c>
       <c r="B245" t="s">
         <v>38</v>
       </c>
       <c r="C245" t="s">
-        <v>479</v>
+        <v>560</v>
       </c>
       <c r="D245" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="E245">
-        <v>5.5</v>
+        <v>5.6</v>
       </c>
       <c r="F245">
-        <f t="shared" ref="F245:F247" si="15">E245*60</f>
-        <v>330</v>
+        <f t="shared" si="18"/>
+        <v>336</v>
       </c>
       <c r="G245" s="3" t="s">
-        <v>480</v>
+        <v>561</v>
       </c>
     </row>
     <row r="246" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A246" t="s">
-        <v>412</v>
+        <v>407</v>
       </c>
       <c r="B246" t="s">
         <v>38</v>
       </c>
       <c r="C246" t="s">
-        <v>565</v>
+        <v>556</v>
       </c>
       <c r="D246" t="s">
-        <v>45</v>
+        <v>76</v>
       </c>
       <c r="E246">
-        <v>5.3</v>
+        <v>1.08</v>
       </c>
       <c r="F246">
-        <f t="shared" si="15"/>
-        <v>318</v>
+        <f t="shared" si="18"/>
+        <v>64.800000000000011</v>
       </c>
       <c r="G246" s="3" t="s">
-        <v>566</v>
+        <v>557</v>
       </c>
     </row>
     <row r="247" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A247" t="s">
-        <v>413</v>
+        <v>408</v>
       </c>
       <c r="B247" t="s">
         <v>38</v>
       </c>
       <c r="C247" t="s">
-        <v>567</v>
+        <v>478</v>
       </c>
       <c r="D247" t="s">
         <v>40</v>
       </c>
       <c r="E247">
-        <v>51.8</v>
+        <v>5.5</v>
       </c>
       <c r="F247">
-        <f t="shared" si="15"/>
-        <v>3108</v>
+        <f t="shared" ref="F247:F248" si="19">E247*60</f>
+        <v>330</v>
       </c>
       <c r="G247" s="3" t="s">
-        <v>568</v>
+        <v>479</v>
       </c>
     </row>
     <row r="248" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A248" t="s">
-        <v>414</v>
+        <v>409</v>
       </c>
       <c r="B248" t="s">
         <v>38</v>
       </c>
       <c r="C248" t="s">
-        <v>479</v>
+        <v>562</v>
       </c>
       <c r="D248" t="s">
         <v>40</v>
       </c>
       <c r="E248">
-        <v>5.5</v>
+        <v>11.7</v>
       </c>
       <c r="F248">
-        <f t="shared" ref="F248:F254" si="16">E248*60</f>
-        <v>330</v>
+        <f t="shared" si="19"/>
+        <v>702</v>
       </c>
       <c r="G248" s="3" t="s">
-        <v>480</v>
+        <v>563</v>
       </c>
     </row>
     <row r="249" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A249" t="s">
-        <v>415</v>
+        <v>410</v>
       </c>
       <c r="B249" t="s">
         <v>38</v>
       </c>
       <c r="C249" t="s">
-        <v>171</v>
+        <v>478</v>
       </c>
       <c r="D249" t="s">
-        <v>88</v>
+        <v>40</v>
       </c>
       <c r="E249">
-        <v>27.1</v>
+        <v>5.5</v>
       </c>
       <c r="F249">
-        <f t="shared" si="16"/>
-        <v>1626</v>
+        <f t="shared" ref="F249:F251" si="20">E249*60</f>
+        <v>330</v>
       </c>
       <c r="G249" s="3" t="s">
-        <v>573</v>
+        <v>479</v>
       </c>
     </row>
     <row r="250" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A250" t="s">
-        <v>416</v>
+        <v>411</v>
       </c>
       <c r="B250" t="s">
         <v>38</v>
       </c>
       <c r="C250" t="s">
-        <v>574</v>
+        <v>564</v>
       </c>
       <c r="D250" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="E250">
-        <v>2.6</v>
+        <v>5.3</v>
       </c>
       <c r="F250">
-        <f t="shared" si="16"/>
-        <v>156</v>
+        <f t="shared" si="20"/>
+        <v>318</v>
       </c>
       <c r="G250" s="3" t="s">
-        <v>575</v>
+        <v>565</v>
       </c>
     </row>
     <row r="251" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A251" t="s">
-        <v>417</v>
+        <v>412</v>
       </c>
       <c r="B251" t="s">
         <v>38</v>
       </c>
       <c r="C251" t="s">
-        <v>169</v>
+        <v>566</v>
       </c>
       <c r="D251" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="E251">
-        <v>7.1</v>
+        <v>51.8</v>
       </c>
       <c r="F251">
-        <f t="shared" si="16"/>
-        <v>426</v>
-      </c>
-      <c r="G251" s="4" t="s">
-        <v>170</v>
+        <f t="shared" si="20"/>
+        <v>3108</v>
+      </c>
+      <c r="G251" s="3" t="s">
+        <v>567</v>
       </c>
     </row>
     <row r="252" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A252" t="s">
-        <v>418</v>
+        <v>413</v>
       </c>
       <c r="B252" t="s">
         <v>38</v>
       </c>
       <c r="C252" t="s">
-        <v>433</v>
+        <v>478</v>
       </c>
       <c r="D252" t="s">
-        <v>434</v>
+        <v>40</v>
       </c>
       <c r="E252">
-        <v>7.3</v>
+        <v>5.5</v>
       </c>
       <c r="F252">
-        <f t="shared" si="16"/>
-        <v>438</v>
+        <f t="shared" ref="F252:F258" si="21">E252*60</f>
+        <v>330</v>
       </c>
       <c r="G252" s="3" t="s">
-        <v>435</v>
+        <v>479</v>
       </c>
     </row>
     <row r="253" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A253" t="s">
-        <v>419</v>
+        <v>414</v>
       </c>
       <c r="B253" t="s">
         <v>38</v>
       </c>
       <c r="C253" t="s">
-        <v>571</v>
+        <v>170</v>
       </c>
       <c r="D253" t="s">
         <v>88</v>
       </c>
       <c r="E253">
-        <v>6.3</v>
+        <v>27.1</v>
       </c>
       <c r="F253">
-        <f t="shared" si="16"/>
-        <v>378</v>
+        <f t="shared" si="21"/>
+        <v>1626</v>
       </c>
       <c r="G253" s="3" t="s">
         <v>572</v>
@@ -8566,312 +8588,432 @@
     </row>
     <row r="254" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A254" t="s">
-        <v>420</v>
+        <v>415</v>
       </c>
       <c r="B254" t="s">
         <v>38</v>
       </c>
       <c r="C254" t="s">
-        <v>569</v>
+        <v>573</v>
       </c>
       <c r="D254" t="s">
-        <v>88</v>
+        <v>40</v>
       </c>
       <c r="E254">
-        <v>1.87</v>
+        <v>2.6</v>
       </c>
       <c r="F254">
-        <f t="shared" si="16"/>
-        <v>112.2</v>
+        <f t="shared" si="21"/>
+        <v>156</v>
       </c>
       <c r="G254" s="3" t="s">
-        <v>570</v>
+        <v>574</v>
       </c>
     </row>
     <row r="255" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A255" t="s">
-        <v>421</v>
+        <v>416</v>
       </c>
       <c r="B255" t="s">
         <v>38</v>
       </c>
       <c r="C255" t="s">
+        <v>168</v>
+      </c>
+      <c r="D255" t="s">
+        <v>42</v>
+      </c>
+      <c r="E255">
+        <v>7.1</v>
+      </c>
+      <c r="F255">
+        <f t="shared" si="21"/>
+        <v>426</v>
+      </c>
+      <c r="G255" s="4" t="s">
         <v>169</v>
-      </c>
-      <c r="D255" t="s">
-        <v>40</v>
-      </c>
-      <c r="E255">
-        <v>32</v>
-      </c>
-      <c r="F255">
-        <f t="shared" ref="F255" si="17">E255*60</f>
-        <v>1920</v>
-      </c>
-      <c r="G255" s="3" t="s">
-        <v>454</v>
       </c>
     </row>
     <row r="256" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A256" t="s">
-        <v>422</v>
+        <v>417</v>
       </c>
       <c r="B256" t="s">
         <v>38</v>
       </c>
       <c r="C256" t="s">
-        <v>423</v>
+        <v>432</v>
       </c>
       <c r="D256" t="s">
+        <v>433</v>
+      </c>
+      <c r="E256">
+        <v>7.3</v>
+      </c>
+      <c r="F256">
+        <f t="shared" si="21"/>
+        <v>438</v>
+      </c>
+      <c r="G256" s="3" t="s">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="257" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A257" t="s">
+        <v>418</v>
+      </c>
+      <c r="B257" t="s">
+        <v>38</v>
+      </c>
+      <c r="C257" t="s">
+        <v>570</v>
+      </c>
+      <c r="D257" t="s">
+        <v>88</v>
+      </c>
+      <c r="E257">
+        <v>6.3</v>
+      </c>
+      <c r="F257">
+        <f t="shared" si="21"/>
+        <v>378</v>
+      </c>
+      <c r="G257" s="3" t="s">
+        <v>571</v>
+      </c>
+    </row>
+    <row r="258" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A258" t="s">
+        <v>419</v>
+      </c>
+      <c r="B258" t="s">
+        <v>38</v>
+      </c>
+      <c r="C258" t="s">
+        <v>568</v>
+      </c>
+      <c r="D258" t="s">
+        <v>88</v>
+      </c>
+      <c r="E258">
+        <v>1.87</v>
+      </c>
+      <c r="F258">
+        <f t="shared" si="21"/>
+        <v>112.2</v>
+      </c>
+      <c r="G258" s="3" t="s">
+        <v>569</v>
+      </c>
+    </row>
+    <row r="259" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A259" t="s">
+        <v>420</v>
+      </c>
+      <c r="B259" t="s">
+        <v>38</v>
+      </c>
+      <c r="C259" t="s">
+        <v>168</v>
+      </c>
+      <c r="D259" t="s">
+        <v>40</v>
+      </c>
+      <c r="E259">
+        <v>32</v>
+      </c>
+      <c r="F259">
+        <f t="shared" ref="F259" si="22">E259*60</f>
+        <v>1920</v>
+      </c>
+      <c r="G259" s="3" t="s">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="260" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A260" t="s">
+        <v>421</v>
+      </c>
+      <c r="B260" t="s">
+        <v>38</v>
+      </c>
+      <c r="C260" t="s">
+        <v>422</v>
+      </c>
+      <c r="D260" t="s">
         <v>45</v>
       </c>
-      <c r="E256">
+      <c r="E260">
         <v>221</v>
       </c>
-      <c r="F256">
+      <c r="F260">
         <f t="shared" si="0"/>
         <v>13260</v>
       </c>
-      <c r="G256" s="3" t="s">
-        <v>424</v>
-      </c>
-    </row>
-    <row r="257" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A257" t="s">
-        <v>669</v>
-      </c>
-      <c r="B257" t="s">
+      <c r="G260" s="3" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="261" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A261" t="s">
+        <v>668</v>
+      </c>
+      <c r="B261" t="s">
         <v>38</v>
       </c>
-      <c r="C257" t="s">
-        <v>679</v>
-      </c>
-      <c r="D257" t="s">
+      <c r="C261" t="s">
+        <v>678</v>
+      </c>
+      <c r="D261" t="s">
         <v>45</v>
       </c>
-      <c r="E257">
+      <c r="E261">
         <v>53</v>
       </c>
-      <c r="F257">
+      <c r="F261">
         <f t="shared" si="0"/>
         <v>3180</v>
       </c>
-      <c r="G257" s="3" t="s">
-        <v>680</v>
-      </c>
-    </row>
-    <row r="258" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A258" t="s">
-        <v>670</v>
-      </c>
-      <c r="B258" t="s">
+      <c r="G261" s="3" t="s">
+        <v>679</v>
+      </c>
+    </row>
+    <row r="262" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A262" t="s">
+        <v>669</v>
+      </c>
+      <c r="B262" t="s">
         <v>38</v>
       </c>
-      <c r="C258" t="s">
-        <v>673</v>
-      </c>
-      <c r="D258" t="s">
+      <c r="C262" t="s">
+        <v>672</v>
+      </c>
+      <c r="D262" t="s">
         <v>88</v>
       </c>
-      <c r="E258">
+      <c r="E262">
         <v>8400</v>
       </c>
-      <c r="F258">
+      <c r="F262">
         <f t="shared" si="0"/>
         <v>504000</v>
       </c>
-      <c r="G258" s="3" t="s">
+      <c r="G262" s="3" t="s">
+        <v>673</v>
+      </c>
+    </row>
+    <row r="263" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A263" t="s">
+        <v>670</v>
+      </c>
+      <c r="B263" t="s">
+        <v>38</v>
+      </c>
+      <c r="C263" t="s">
         <v>674</v>
       </c>
-    </row>
-    <row r="259" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A259" t="s">
-        <v>671</v>
-      </c>
-      <c r="B259" t="s">
-        <v>38</v>
-      </c>
-      <c r="C259" t="s">
-        <v>675</v>
-      </c>
-      <c r="D259" t="s">
+      <c r="D263" t="s">
         <v>40</v>
       </c>
-      <c r="E259">
+      <c r="E263">
         <v>67.400000000000006</v>
       </c>
-      <c r="F259">
+      <c r="F263">
         <f t="shared" si="0"/>
         <v>4044.0000000000005</v>
       </c>
-      <c r="G259" s="3" t="s">
+      <c r="G263" s="3" t="s">
+        <v>675</v>
+      </c>
+    </row>
+    <row r="264" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A264" t="s">
+        <v>671</v>
+      </c>
+      <c r="B264" t="s">
+        <v>38</v>
+      </c>
+      <c r="C264" t="s">
         <v>676</v>
       </c>
-    </row>
-    <row r="260" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A260" t="s">
-        <v>672</v>
-      </c>
-      <c r="B260" t="s">
-        <v>38</v>
-      </c>
-      <c r="C260" t="s">
+      <c r="D264" t="s">
         <v>677</v>
       </c>
-      <c r="D260" t="s">
-        <v>678</v>
-      </c>
-      <c r="E260">
+      <c r="E264">
         <v>6.61</v>
       </c>
-      <c r="F260">
+      <c r="F264">
         <f t="shared" si="0"/>
         <v>396.6</v>
       </c>
-      <c r="G260" s="3" t="s">
+      <c r="G264" s="3" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="261" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A261" t="s">
-        <v>681</v>
-      </c>
-      <c r="B261" t="s">
+    <row r="265" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A265" t="s">
+        <v>680</v>
+      </c>
+      <c r="B265" t="s">
         <v>38</v>
       </c>
-      <c r="C261" t="s">
-        <v>686</v>
-      </c>
-      <c r="D261" t="s">
-        <v>146</v>
-      </c>
-      <c r="E261">
+      <c r="C265" t="s">
+        <v>685</v>
+      </c>
+      <c r="D265" t="s">
+        <v>145</v>
+      </c>
+      <c r="E265">
         <v>4.13</v>
       </c>
-      <c r="F261">
+      <c r="F265">
         <f t="shared" si="0"/>
         <v>247.79999999999998</v>
       </c>
-      <c r="G261" s="3" t="s">
-        <v>687</v>
-      </c>
-    </row>
-    <row r="262" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A262" t="s">
-        <v>155</v>
-      </c>
-      <c r="B262" t="s">
+      <c r="G265" s="3" t="s">
+        <v>686</v>
+      </c>
+    </row>
+    <row r="266" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A266" t="s">
+        <v>705</v>
+      </c>
+      <c r="B266" t="s">
         <v>38</v>
       </c>
-      <c r="C262" t="s">
-        <v>157</v>
-      </c>
-      <c r="D262" t="s">
+      <c r="C266" t="s">
+        <v>706</v>
+      </c>
+      <c r="D266" t="s">
+        <v>42</v>
+      </c>
+      <c r="E266">
+        <v>18</v>
+      </c>
+      <c r="F266">
+        <f t="shared" si="0"/>
+        <v>1080</v>
+      </c>
+      <c r="G266" s="3" t="s">
+        <v>707</v>
+      </c>
+    </row>
+    <row r="267" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A267" t="s">
+        <v>154</v>
+      </c>
+      <c r="B267" t="s">
+        <v>38</v>
+      </c>
+      <c r="C267" t="s">
+        <v>156</v>
+      </c>
+      <c r="D267" t="s">
         <v>45</v>
       </c>
-      <c r="E262">
+      <c r="E267">
         <v>7.5</v>
       </c>
-      <c r="F262">
+      <c r="F267">
         <f t="shared" si="0"/>
         <v>450</v>
       </c>
-      <c r="G262" s="3" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="263" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A263" t="s">
+      <c r="G267" s="3" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="268" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A268" t="s">
+        <v>155</v>
+      </c>
+      <c r="B268" t="s">
+        <v>38</v>
+      </c>
+      <c r="C268" t="s">
         <v>156</v>
       </c>
-      <c r="B263" t="s">
-        <v>38</v>
-      </c>
-      <c r="C263" t="s">
-        <v>157</v>
-      </c>
-      <c r="D263" t="s">
+      <c r="D268" t="s">
         <v>45</v>
       </c>
-      <c r="E263">
+      <c r="E268">
         <v>7.5</v>
       </c>
-      <c r="F263">
+      <c r="F268">
         <f t="shared" si="0"/>
         <v>450</v>
       </c>
-      <c r="G263" s="3" t="s">
+      <c r="G268" s="3" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="269" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A269" t="s">
         <v>158</v>
       </c>
-    </row>
-    <row r="264" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A264" t="s">
-        <v>159</v>
-      </c>
-      <c r="B264" t="s">
-        <v>16</v>
-      </c>
-      <c r="C264" t="s">
+      <c r="B269" t="s">
+        <v>16</v>
+      </c>
+      <c r="C269" t="s">
         <v>109</v>
       </c>
-      <c r="D264" t="s">
+      <c r="D269" t="s">
         <v>109</v>
       </c>
-      <c r="E264" t="s">
+      <c r="E269" t="s">
         <v>109</v>
       </c>
-      <c r="F264">
+      <c r="F269">
         <v>107.4</v>
       </c>
-      <c r="G264" s="1" t="s">
-        <v>699</v>
-      </c>
-    </row>
-    <row r="265" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A265" t="s">
-        <v>116</v>
-      </c>
-      <c r="B265" t="s">
-        <v>16</v>
-      </c>
-      <c r="C265" t="s">
+      <c r="G269" s="1" t="s">
+        <v>698</v>
+      </c>
+    </row>
+    <row r="270" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A270" t="s">
+        <v>115</v>
+      </c>
+      <c r="B270" t="s">
+        <v>16</v>
+      </c>
+      <c r="C270" t="s">
         <v>109</v>
       </c>
-      <c r="D265" t="s">
+      <c r="D270" t="s">
         <v>109</v>
       </c>
-      <c r="E265" t="s">
+      <c r="E270" t="s">
         <v>109</v>
       </c>
-      <c r="F265">
+      <c r="F270">
         <v>50</v>
       </c>
-      <c r="G265" s="2" t="s">
-        <v>114</v>
+      <c r="G270" s="2" t="s">
+        <v>113</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="G19" r:id="rId1" xr:uid="{60D2E9C6-9172-4D4D-B418-CC567356E033}"/>
+    <hyperlink ref="G18" r:id="rId1" xr:uid="{60D2E9C6-9172-4D4D-B418-CC567356E033}"/>
     <hyperlink ref="G2" r:id="rId2" xr:uid="{96642BA6-12F8-4451-8DFA-16265959FEFA}"/>
-    <hyperlink ref="G207" r:id="rId3" xr:uid="{DBD518FF-06AA-4F59-B32D-3D580FD3488C}"/>
-    <hyperlink ref="G206" r:id="rId4" xr:uid="{3C873BD8-C205-4B23-B8F2-C8E28D105704}"/>
-    <hyperlink ref="G29" r:id="rId5" xr:uid="{3CCDC09F-65EC-46AB-A5B6-06698DF90FD6}"/>
-    <hyperlink ref="G30" r:id="rId6" xr:uid="{45B7FFC2-C775-45F6-B5E2-92E39C1EFAC1}"/>
-    <hyperlink ref="G33" r:id="rId7" xr:uid="{C0F23788-2A31-4EA5-B6D6-A12E3C45A7E7}"/>
-    <hyperlink ref="G44" r:id="rId8" xr:uid="{E16DED46-B1DD-492F-AAE6-8FA6CA99D4AD}"/>
-    <hyperlink ref="G65" r:id="rId9" xr:uid="{8712DF9D-4B59-405A-AA32-2B4423750FF0}"/>
-    <hyperlink ref="G75" r:id="rId10" xr:uid="{6C3143F8-EECE-493B-A808-BC8B1FB906E4}"/>
-    <hyperlink ref="G80" r:id="rId11" xr:uid="{5F7C4001-6F89-479B-983C-BDB24868961F}"/>
-    <hyperlink ref="G86" r:id="rId12" xr:uid="{B65497F5-375F-4E2A-86C4-B4310250B40D}"/>
-    <hyperlink ref="G233" r:id="rId13" xr:uid="{B850A642-752F-4050-BE9D-FD6DEF1A1A28}"/>
-    <hyperlink ref="G251" r:id="rId14" xr:uid="{733CCEAC-FE6D-4E5A-890C-C556E3FD7098}"/>
-    <hyperlink ref="G120" r:id="rId15" xr:uid="{3ACF0FFB-BCF3-4FD6-9FD5-CA9D90101625}"/>
-    <hyperlink ref="G167" r:id="rId16" xr:uid="{1167C813-88FC-4ED1-BAC3-35562E39F6B3}"/>
-    <hyperlink ref="G139" r:id="rId17" xr:uid="{0AC60904-9B6C-42FC-A0D6-DCDFCFACCDB7}"/>
-    <hyperlink ref="G176" r:id="rId18" xr:uid="{87D8A670-02D9-4006-B7CD-DC020E2EACEF}"/>
-    <hyperlink ref="G16" r:id="rId19" xr:uid="{7DAABD84-8696-4ABA-AB3E-8DD3400DB458}"/>
-    <hyperlink ref="G264" r:id="rId20" xr:uid="{DC28AAB8-6E94-4F29-B774-317596ED75E1}"/>
+    <hyperlink ref="G211" r:id="rId3" xr:uid="{DBD518FF-06AA-4F59-B32D-3D580FD3488C}"/>
+    <hyperlink ref="G210" r:id="rId4" xr:uid="{3C873BD8-C205-4B23-B8F2-C8E28D105704}"/>
+    <hyperlink ref="G33" r:id="rId5" xr:uid="{3CCDC09F-65EC-46AB-A5B6-06698DF90FD6}"/>
+    <hyperlink ref="G34" r:id="rId6" xr:uid="{45B7FFC2-C775-45F6-B5E2-92E39C1EFAC1}"/>
+    <hyperlink ref="G37" r:id="rId7" xr:uid="{C0F23788-2A31-4EA5-B6D6-A12E3C45A7E7}"/>
+    <hyperlink ref="G48" r:id="rId8" xr:uid="{E16DED46-B1DD-492F-AAE6-8FA6CA99D4AD}"/>
+    <hyperlink ref="G69" r:id="rId9" xr:uid="{8712DF9D-4B59-405A-AA32-2B4423750FF0}"/>
+    <hyperlink ref="G79" r:id="rId10" xr:uid="{6C3143F8-EECE-493B-A808-BC8B1FB906E4}"/>
+    <hyperlink ref="G84" r:id="rId11" xr:uid="{5F7C4001-6F89-479B-983C-BDB24868961F}"/>
+    <hyperlink ref="G90" r:id="rId12" xr:uid="{B65497F5-375F-4E2A-86C4-B4310250B40D}"/>
+    <hyperlink ref="G237" r:id="rId13" xr:uid="{B850A642-752F-4050-BE9D-FD6DEF1A1A28}"/>
+    <hyperlink ref="G255" r:id="rId14" xr:uid="{733CCEAC-FE6D-4E5A-890C-C556E3FD7098}"/>
+    <hyperlink ref="G124" r:id="rId15" xr:uid="{3ACF0FFB-BCF3-4FD6-9FD5-CA9D90101625}"/>
+    <hyperlink ref="G171" r:id="rId16" xr:uid="{1167C813-88FC-4ED1-BAC3-35562E39F6B3}"/>
+    <hyperlink ref="G143" r:id="rId17" xr:uid="{0AC60904-9B6C-42FC-A0D6-DCDFCFACCDB7}"/>
+    <hyperlink ref="G180" r:id="rId18" xr:uid="{87D8A670-02D9-4006-B7CD-DC020E2EACEF}"/>
+    <hyperlink ref="G15" r:id="rId19" xr:uid="{7DAABD84-8696-4ABA-AB3E-8DD3400DB458}"/>
+    <hyperlink ref="G269" r:id="rId20" xr:uid="{DC28AAB8-6E94-4F29-B774-317596ED75E1}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId21"/>
@@ -8896,10 +9038,10 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C1" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D1" t="s">
         <v>3</v>
@@ -8913,281 +9055,281 @@
         <v>30</v>
       </c>
       <c r="C2" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D2" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B3">
         <v>0.29499999999999998</v>
       </c>
       <c r="C3" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="D3" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B4">
         <v>0.11600000000000001</v>
       </c>
       <c r="C4" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D4" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B5">
         <v>6.8599999999999994E-2</v>
       </c>
       <c r="C5" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D5" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B6">
         <v>0.23599999999999999</v>
       </c>
       <c r="C6" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="D6" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B7">
         <v>0.12</v>
       </c>
       <c r="C7" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="D7" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B8">
         <v>0.97799999999999998</v>
       </c>
       <c r="C8" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="D8" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B9">
         <v>2.5100000000000001E-2</v>
       </c>
       <c r="C9" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="D9" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B10">
         <v>1.6400000000000001E-2</v>
       </c>
       <c r="C10" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="D10" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B11">
         <v>0.123</v>
       </c>
       <c r="C11" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D11" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B12">
         <v>4.7199999999999999E-2</v>
       </c>
       <c r="C12" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="D12" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B13">
         <v>1.1000000000000001</v>
       </c>
       <c r="C13" t="s">
+        <v>138</v>
+      </c>
+      <c r="D13" t="s">
         <v>139</v>
-      </c>
-      <c r="D13" t="s">
-        <v>140</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B14">
         <v>2.15</v>
       </c>
       <c r="C14" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="D14" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B15">
         <v>1.2699999999999999E-2</v>
       </c>
       <c r="C15" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="D15" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B16">
         <v>0.109</v>
       </c>
       <c r="C16" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D16" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B17">
         <v>2.6440000000000001</v>
       </c>
       <c r="C17" t="s">
+        <v>145</v>
+      </c>
+      <c r="D17" t="s">
         <v>146</v>
-      </c>
-      <c r="D17" t="s">
-        <v>147</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B18">
         <v>0.02</v>
       </c>
       <c r="C18" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="D18" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B19">
         <v>1.4200000000000001E-2</v>
       </c>
       <c r="C19" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="D19" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B20">
         <v>0.12</v>
       </c>
       <c r="C20" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="D20" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B21">
         <v>2.1399999999999999E-2</v>
       </c>
       <c r="C21" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="D21" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B22">
         <v>0.43</v>
@@ -9196,7 +9338,7 @@
         <v>109</v>
       </c>
       <c r="D22" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
   </sheetData>

--- a/data/gems/Parameters.xlsx
+++ b/data/gems/Parameters.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28827"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bras5181\Desktop\Labprojects\CulturedMeat\PigGEM2025\data\gems\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{73AD5D84-273A-4A72-B61A-0C28884A7347}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{252028F7-D7B8-498C-A2DA-343B49AF8F45}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1423" uniqueCount="708">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1429" uniqueCount="709">
   <si>
     <t>Rxn</t>
   </si>
@@ -2161,6 +2161,9 @@
   </si>
   <si>
     <t>PMID: 8307963</t>
+  </si>
+  <si>
+    <t>EX_aa_e</t>
   </si>
 </sst>
 </file>
@@ -2507,10 +2510,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G270"/>
+  <dimension ref="A1:G271"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A255" workbookViewId="0">
-      <selection activeCell="M263" sqref="M263"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="O7" sqref="O7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2612,487 +2615,486 @@
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>4</v>
+        <v>708</v>
       </c>
       <c r="B5" t="s">
-        <v>16</v>
+        <v>111</v>
       </c>
       <c r="C5" t="s">
-        <v>49</v>
+        <v>109</v>
       </c>
       <c r="D5" t="s">
-        <v>45</v>
-      </c>
-      <c r="E5">
-        <v>191.5</v>
+        <v>109</v>
+      </c>
+      <c r="E5" t="s">
+        <v>109</v>
       </c>
       <c r="F5">
-        <f>E5*60</f>
-        <v>11490</v>
-      </c>
-      <c r="G5" s="3" t="s">
-        <v>50</v>
+        <v>7.1999999999999993</v>
+      </c>
+      <c r="G5" s="4" t="s">
+        <v>109</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B6" t="s">
         <v>16</v>
       </c>
       <c r="C6" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="D6" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="E6">
-        <v>620</v>
+        <v>191.5</v>
       </c>
       <c r="F6">
-        <f t="shared" ref="F6:F268" si="0">E6*60</f>
-        <v>37200</v>
+        <f>E6*60</f>
+        <v>11490</v>
       </c>
       <c r="G6" s="3" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
+        <v>6</v>
+      </c>
+      <c r="B7" t="s">
+        <v>16</v>
+      </c>
+      <c r="C7" t="s">
+        <v>51</v>
+      </c>
+      <c r="D7" t="s">
+        <v>40</v>
+      </c>
+      <c r="E7">
+        <v>620</v>
+      </c>
+      <c r="F7">
+        <f t="shared" ref="F7:F269" si="0">E7*60</f>
+        <v>37200</v>
+      </c>
+      <c r="G7" s="3" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A8" t="s">
         <v>7</v>
       </c>
-      <c r="B7" t="s">
-        <v>16</v>
-      </c>
-      <c r="C7" t="s">
+      <c r="B8" t="s">
+        <v>16</v>
+      </c>
+      <c r="C8" t="s">
         <v>53</v>
       </c>
-      <c r="D7" t="s">
+      <c r="D8" t="s">
         <v>45</v>
       </c>
-      <c r="E7">
+      <c r="E8">
         <v>128</v>
       </c>
-      <c r="F7">
+      <c r="F8">
         <f t="shared" si="0"/>
         <v>7680</v>
       </c>
-      <c r="G7" s="3" t="s">
+      <c r="G8" s="3" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A8" t="s">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A9" t="s">
         <v>8</v>
       </c>
-      <c r="B8" t="s">
-        <v>16</v>
-      </c>
-      <c r="C8" t="s">
+      <c r="B9" t="s">
+        <v>16</v>
+      </c>
+      <c r="C9" t="s">
         <v>55</v>
       </c>
-      <c r="D8" t="s">
+      <c r="D9" t="s">
         <v>40</v>
       </c>
-      <c r="E8">
+      <c r="E9">
         <v>22.3</v>
       </c>
-      <c r="F8">
+      <c r="F9">
         <f t="shared" si="0"/>
         <v>1338</v>
       </c>
-      <c r="G8" s="3" t="s">
+      <c r="G9" s="3" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A9" t="s">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A10" t="s">
         <v>9</v>
       </c>
-      <c r="B9" t="s">
-        <v>16</v>
-      </c>
-      <c r="C9" t="s">
+      <c r="B10" t="s">
+        <v>16</v>
+      </c>
+      <c r="C10" t="s">
         <v>57</v>
       </c>
-      <c r="D9" t="s">
+      <c r="D10" t="s">
         <v>40</v>
       </c>
-      <c r="E9">
+      <c r="E10">
         <v>10240</v>
       </c>
-      <c r="F9">
+      <c r="F10">
         <f t="shared" si="0"/>
         <v>614400</v>
       </c>
-      <c r="G9" s="3" t="s">
+      <c r="G10" s="3" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A10" t="s">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A11" t="s">
         <v>10</v>
       </c>
-      <c r="B10" t="s">
-        <v>16</v>
-      </c>
-      <c r="C10" t="s">
+      <c r="B11" t="s">
+        <v>16</v>
+      </c>
+      <c r="C11" t="s">
         <v>59</v>
       </c>
-      <c r="D10" t="s">
+      <c r="D11" t="s">
         <v>45</v>
       </c>
-      <c r="E10">
+      <c r="E11">
         <v>80</v>
       </c>
-      <c r="F10">
+      <c r="F11">
         <f t="shared" si="0"/>
         <v>4800</v>
       </c>
-      <c r="G10" s="3" t="s">
+      <c r="G11" s="3" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A11" t="s">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A12" t="s">
         <v>11</v>
       </c>
-      <c r="B11" t="s">
-        <v>16</v>
-      </c>
-      <c r="C11" t="s">
+      <c r="B12" t="s">
+        <v>16</v>
+      </c>
+      <c r="C12" t="s">
         <v>62</v>
       </c>
-      <c r="D11" t="s">
+      <c r="D12" t="s">
         <v>45</v>
       </c>
-      <c r="E11">
+      <c r="E12">
         <v>1000</v>
       </c>
-      <c r="F11">
+      <c r="F12">
         <f t="shared" si="0"/>
         <v>60000</v>
       </c>
-      <c r="G11" s="3" t="s">
+      <c r="G12" s="3" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A12" t="s">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A13" t="s">
         <v>12</v>
       </c>
-      <c r="B12" t="s">
-        <v>16</v>
-      </c>
-      <c r="C12" t="s">
+      <c r="B13" t="s">
+        <v>16</v>
+      </c>
+      <c r="C13" t="s">
         <v>63</v>
       </c>
-      <c r="D12" t="s">
+      <c r="D13" t="s">
         <v>45</v>
       </c>
-      <c r="E12">
+      <c r="E13">
         <v>210</v>
       </c>
-      <c r="F12">
+      <c r="F13">
         <f t="shared" si="0"/>
         <v>12600</v>
       </c>
-      <c r="G12" s="3" t="s">
+      <c r="G13" s="3" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A13" t="s">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A14" t="s">
         <v>13</v>
       </c>
-      <c r="B13" t="s">
-        <v>16</v>
-      </c>
-      <c r="C13" t="s">
+      <c r="B14" t="s">
+        <v>16</v>
+      </c>
+      <c r="C14" t="s">
         <v>64</v>
       </c>
-      <c r="D13" t="s">
+      <c r="D14" t="s">
         <v>45</v>
       </c>
-      <c r="E13">
+      <c r="E14">
         <v>91</v>
       </c>
-      <c r="F13">
+      <c r="F14">
         <f t="shared" si="0"/>
         <v>5460</v>
       </c>
-      <c r="G13" s="3" t="s">
+      <c r="G14" s="3" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A14" t="s">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A15" t="s">
         <v>14</v>
       </c>
-      <c r="B14" t="s">
-        <v>16</v>
-      </c>
-      <c r="C14" t="s">
+      <c r="B15" t="s">
+        <v>16</v>
+      </c>
+      <c r="C15" t="s">
         <v>66</v>
       </c>
-      <c r="D14" t="s">
+      <c r="D15" t="s">
         <v>45</v>
       </c>
-      <c r="E14">
+      <c r="E15">
         <v>191</v>
       </c>
-      <c r="F14">
+      <c r="F15">
         <f t="shared" si="0"/>
         <v>11460</v>
       </c>
-      <c r="G14" s="3" t="s">
+      <c r="G15" s="3" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A15" t="s">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A16" t="s">
         <v>25</v>
       </c>
-      <c r="B15" t="s">
-        <v>16</v>
-      </c>
-      <c r="C15" t="s">
+      <c r="B16" t="s">
+        <v>16</v>
+      </c>
+      <c r="C16" t="s">
         <v>68</v>
       </c>
-      <c r="D15" t="s">
+      <c r="D16" t="s">
         <v>40</v>
       </c>
-      <c r="E15">
+      <c r="E16">
         <v>458.5</v>
       </c>
-      <c r="F15">
+      <c r="F16">
         <f t="shared" si="0"/>
         <v>27510</v>
       </c>
-      <c r="G15" s="1" t="s">
+      <c r="G16" s="1" t="s">
         <v>667</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A16" t="s">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A17" t="s">
         <v>5</v>
       </c>
-      <c r="B16" t="s">
-        <v>16</v>
-      </c>
-      <c r="C16" t="s">
+      <c r="B17" t="s">
+        <v>16</v>
+      </c>
+      <c r="C17" t="s">
         <v>69</v>
       </c>
-      <c r="D16" t="s">
+      <c r="D17" t="s">
         <v>45</v>
       </c>
-      <c r="E16">
+      <c r="E17">
         <v>201</v>
       </c>
-      <c r="F16">
+      <c r="F17">
         <f t="shared" si="0"/>
         <v>12060</v>
       </c>
-      <c r="G16" s="3" t="s">
+      <c r="G17" s="3" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A17" t="s">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A18" t="s">
         <v>17</v>
       </c>
-      <c r="B17" t="s">
-        <v>16</v>
-      </c>
-      <c r="C17" t="s">
+      <c r="B18" t="s">
+        <v>16</v>
+      </c>
+      <c r="C18" t="s">
         <v>71</v>
       </c>
-      <c r="D17" t="s">
+      <c r="D18" t="s">
         <v>40</v>
       </c>
-      <c r="E17">
+      <c r="E18">
         <v>1065</v>
       </c>
-      <c r="F17">
+      <c r="F18">
         <f t="shared" si="0"/>
         <v>63900</v>
       </c>
-      <c r="G17" s="3" t="s">
+      <c r="G18" s="3" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A18" t="s">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A19" t="s">
         <v>18</v>
       </c>
-      <c r="B18" t="s">
-        <v>16</v>
-      </c>
-      <c r="C18" t="s">
+      <c r="B19" t="s">
+        <v>16</v>
+      </c>
+      <c r="C19" t="s">
         <v>73</v>
       </c>
-      <c r="D18" t="s">
+      <c r="D19" t="s">
         <v>45</v>
       </c>
-      <c r="E18">
+      <c r="E19">
         <v>1.89</v>
       </c>
-      <c r="F18">
+      <c r="F19">
         <f t="shared" si="0"/>
         <v>113.39999999999999</v>
       </c>
-      <c r="G18" s="4" t="s">
+      <c r="G19" s="4" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A19" t="s">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A20" t="s">
         <v>19</v>
       </c>
-      <c r="B19" t="s">
-        <v>16</v>
-      </c>
-      <c r="C19" t="s">
+      <c r="B20" t="s">
+        <v>16</v>
+      </c>
+      <c r="C20" t="s">
         <v>75</v>
       </c>
-      <c r="D19" t="s">
+      <c r="D20" t="s">
         <v>76</v>
       </c>
-      <c r="E19">
+      <c r="E20">
         <v>1700</v>
       </c>
-      <c r="F19">
+      <c r="F20">
         <f t="shared" si="0"/>
         <v>102000</v>
       </c>
-      <c r="G19" s="3" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A20" t="s">
-        <v>700</v>
-      </c>
-      <c r="B20" t="s">
-        <v>16</v>
-      </c>
-      <c r="C20" t="s">
-        <v>75</v>
-      </c>
-      <c r="D20" t="s">
-        <v>76</v>
-      </c>
-      <c r="E20">
-        <v>1700</v>
-      </c>
-      <c r="F20">
-        <f t="shared" ref="F20" si="1">E20*60</f>
-        <v>102000</v>
-      </c>
       <c r="G20" s="3" t="s">
         <v>77</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
+        <v>700</v>
+      </c>
+      <c r="B21" t="s">
+        <v>16</v>
+      </c>
+      <c r="C21" t="s">
+        <v>75</v>
+      </c>
+      <c r="D21" t="s">
+        <v>76</v>
+      </c>
+      <c r="E21">
+        <v>1700</v>
+      </c>
+      <c r="F21">
+        <f t="shared" ref="F21" si="1">E21*60</f>
+        <v>102000</v>
+      </c>
+      <c r="G21" s="3" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A22" t="s">
         <v>20</v>
       </c>
-      <c r="B21" t="s">
-        <v>16</v>
-      </c>
-      <c r="C21" t="s">
+      <c r="B22" t="s">
+        <v>16</v>
+      </c>
+      <c r="C22" t="s">
         <v>78</v>
       </c>
-      <c r="D21" t="s">
+      <c r="D22" t="s">
         <v>42</v>
       </c>
-      <c r="E21">
+      <c r="E22">
         <v>6570</v>
       </c>
-      <c r="F21">
+      <c r="F22">
         <f t="shared" si="0"/>
         <v>394200</v>
       </c>
-      <c r="G21" s="3" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A22" t="s">
-        <v>701</v>
-      </c>
-      <c r="B22" t="s">
-        <v>16</v>
-      </c>
-      <c r="C22" t="s">
-        <v>78</v>
-      </c>
-      <c r="D22" t="s">
-        <v>42</v>
-      </c>
-      <c r="E22">
-        <v>6570</v>
-      </c>
-      <c r="F22">
-        <f t="shared" ref="F22" si="2">E22*60</f>
-        <v>394200</v>
-      </c>
       <c r="G22" s="3" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
+        <v>701</v>
+      </c>
+      <c r="B23" t="s">
+        <v>16</v>
+      </c>
+      <c r="C23" t="s">
+        <v>78</v>
+      </c>
+      <c r="D23" t="s">
+        <v>42</v>
+      </c>
+      <c r="E23">
+        <v>6570</v>
+      </c>
+      <c r="F23">
+        <f t="shared" ref="F23" si="2">E23*60</f>
+        <v>394200</v>
+      </c>
+      <c r="G23" s="3" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A24" t="s">
         <v>21</v>
       </c>
-      <c r="B23" t="s">
-        <v>16</v>
-      </c>
-      <c r="C23" t="s">
+      <c r="B24" t="s">
+        <v>16</v>
+      </c>
+      <c r="C24" t="s">
         <v>80</v>
       </c>
-      <c r="D23" t="s">
+      <c r="D24" t="s">
         <v>45</v>
       </c>
-      <c r="E23">
+      <c r="E24">
         <v>0.88</v>
       </c>
-      <c r="F23">
+      <c r="F24">
         <f t="shared" si="0"/>
         <v>52.8</v>
       </c>
-      <c r="G23" s="3" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A24" t="s">
-        <v>702</v>
-      </c>
-      <c r="B24" t="s">
-        <v>16</v>
-      </c>
-      <c r="C24" t="s">
-        <v>80</v>
-      </c>
-      <c r="D24" t="s">
-        <v>45</v>
-      </c>
-      <c r="E24">
-        <v>0.88</v>
-      </c>
-      <c r="F24">
-        <f t="shared" ref="F24" si="3">E24*60</f>
-        <v>52.8</v>
-      </c>
       <c r="G24" s="3" t="s">
         <v>81</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
-        <v>22</v>
+        <v>702</v>
       </c>
       <c r="B25" t="s">
         <v>16</v>
@@ -3107,208 +3109,208 @@
         <v>0.88</v>
       </c>
       <c r="F25">
+        <f t="shared" ref="F25" si="3">E25*60</f>
+        <v>52.8</v>
+      </c>
+      <c r="G25" s="3" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A26" t="s">
+        <v>22</v>
+      </c>
+      <c r="B26" t="s">
+        <v>16</v>
+      </c>
+      <c r="C26" t="s">
+        <v>80</v>
+      </c>
+      <c r="D26" t="s">
+        <v>45</v>
+      </c>
+      <c r="E26">
+        <v>0.88</v>
+      </c>
+      <c r="F26">
         <f t="shared" si="0"/>
         <v>52.8</v>
       </c>
-      <c r="G25" s="3" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A26" t="s">
-        <v>703</v>
-      </c>
-      <c r="B26" t="s">
-        <v>16</v>
-      </c>
-      <c r="C26" t="s">
-        <v>80</v>
-      </c>
-      <c r="D26" t="s">
-        <v>45</v>
-      </c>
-      <c r="E26">
-        <v>0.88</v>
-      </c>
-      <c r="F26">
-        <f t="shared" ref="F26" si="4">E26*60</f>
-        <v>52.8</v>
-      </c>
       <c r="G26" s="3" t="s">
         <v>81</v>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
+        <v>703</v>
+      </c>
+      <c r="B27" t="s">
+        <v>16</v>
+      </c>
+      <c r="C27" t="s">
+        <v>80</v>
+      </c>
+      <c r="D27" t="s">
+        <v>45</v>
+      </c>
+      <c r="E27">
+        <v>0.88</v>
+      </c>
+      <c r="F27">
+        <f t="shared" ref="F27" si="4">E27*60</f>
+        <v>52.8</v>
+      </c>
+      <c r="G27" s="3" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A28" t="s">
         <v>23</v>
       </c>
-      <c r="B27" t="s">
-        <v>16</v>
-      </c>
-      <c r="C27" t="s">
+      <c r="B28" t="s">
+        <v>16</v>
+      </c>
+      <c r="C28" t="s">
         <v>82</v>
       </c>
-      <c r="D27" t="s">
+      <c r="D28" t="s">
         <v>40</v>
       </c>
-      <c r="E27">
+      <c r="E28">
         <v>15</v>
       </c>
-      <c r="F27">
+      <c r="F28">
         <f t="shared" si="0"/>
         <v>900</v>
       </c>
-      <c r="G27" s="3" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A28" t="s">
-        <v>704</v>
-      </c>
-      <c r="B28" t="s">
-        <v>16</v>
-      </c>
-      <c r="C28" t="s">
-        <v>82</v>
-      </c>
-      <c r="D28" t="s">
-        <v>40</v>
-      </c>
-      <c r="E28">
-        <v>15</v>
-      </c>
-      <c r="F28">
-        <f t="shared" ref="F28" si="5">E28*60</f>
-        <v>900</v>
-      </c>
       <c r="G28" s="3" t="s">
         <v>83</v>
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
-        <v>24</v>
+        <v>704</v>
       </c>
       <c r="B29" t="s">
         <v>16</v>
       </c>
       <c r="C29" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="D29" t="s">
         <v>40</v>
       </c>
       <c r="E29">
+        <v>15</v>
+      </c>
+      <c r="F29">
+        <f t="shared" ref="F29" si="5">E29*60</f>
+        <v>900</v>
+      </c>
+      <c r="G29" s="3" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A30" t="s">
+        <v>24</v>
+      </c>
+      <c r="B30" t="s">
+        <v>16</v>
+      </c>
+      <c r="C30" t="s">
+        <v>84</v>
+      </c>
+      <c r="D30" t="s">
+        <v>40</v>
+      </c>
+      <c r="E30">
         <v>22.2</v>
       </c>
-      <c r="F29">
+      <c r="F30">
         <f t="shared" si="0"/>
         <v>1332</v>
       </c>
-      <c r="G29" s="3" t="s">
+      <c r="G30" s="3" t="s">
         <v>85</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A30" t="s">
-        <v>163</v>
-      </c>
-      <c r="B30" t="s">
-        <v>16</v>
-      </c>
-      <c r="C30" t="s">
-        <v>92</v>
-      </c>
-      <c r="D30" t="s">
-        <v>91</v>
-      </c>
-      <c r="E30">
-        <v>6.13</v>
-      </c>
-      <c r="F30">
-        <f t="shared" ref="F30:F55" si="6">E30*60</f>
-        <v>367.8</v>
-      </c>
-      <c r="G30" s="3" t="s">
-        <v>93</v>
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
+        <v>163</v>
+      </c>
+      <c r="B31" t="s">
+        <v>16</v>
+      </c>
+      <c r="C31" t="s">
+        <v>92</v>
+      </c>
+      <c r="D31" t="s">
+        <v>91</v>
+      </c>
+      <c r="E31">
+        <v>6.13</v>
+      </c>
+      <c r="F31">
+        <f t="shared" ref="F31:F56" si="6">E31*60</f>
+        <v>367.8</v>
+      </c>
+      <c r="G31" s="3" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A32" t="s">
         <v>164</v>
       </c>
-      <c r="B31" t="s">
-        <v>16</v>
-      </c>
-      <c r="C31" t="s">
+      <c r="B32" t="s">
+        <v>16</v>
+      </c>
+      <c r="C32" t="s">
         <v>165</v>
       </c>
-      <c r="D31" t="s">
+      <c r="D32" t="s">
         <v>166</v>
       </c>
-      <c r="E31">
+      <c r="E32">
         <v>138.80000000000001</v>
       </c>
-      <c r="F31">
+      <c r="F32">
         <f t="shared" si="6"/>
         <v>8328</v>
       </c>
-      <c r="G31" s="3" t="s">
+      <c r="G32" s="3" t="s">
         <v>167</v>
       </c>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A32" t="s">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A33" t="s">
         <v>175</v>
       </c>
-      <c r="B32" t="s">
-        <v>16</v>
-      </c>
-      <c r="C32" t="s">
+      <c r="B33" t="s">
+        <v>16</v>
+      </c>
+      <c r="C33" t="s">
         <v>176</v>
       </c>
-      <c r="D32" t="s">
+      <c r="D33" t="s">
         <v>88</v>
       </c>
-      <c r="E32">
+      <c r="E33">
         <v>329</v>
       </c>
-      <c r="F32">
+      <c r="F33">
         <f t="shared" si="6"/>
         <v>19740</v>
       </c>
-      <c r="G32" s="3" t="s">
+      <c r="G33" s="3" t="s">
         <v>177</v>
-      </c>
-    </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A33" t="s">
-        <v>179</v>
-      </c>
-      <c r="B33" t="s">
-        <v>16</v>
-      </c>
-      <c r="C33" t="s">
-        <v>168</v>
-      </c>
-      <c r="D33" t="s">
-        <v>42</v>
-      </c>
-      <c r="E33">
-        <v>7.1</v>
-      </c>
-      <c r="F33">
-        <f t="shared" si="6"/>
-        <v>426</v>
-      </c>
-      <c r="G33" s="4" t="s">
-        <v>169</v>
       </c>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="B34" t="s">
         <v>16</v>
@@ -3332,2335 +3334,2335 @@
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
-        <v>190</v>
+        <v>183</v>
       </c>
       <c r="B35" t="s">
         <v>16</v>
       </c>
       <c r="C35" t="s">
-        <v>198</v>
+        <v>168</v>
       </c>
       <c r="D35" t="s">
-        <v>88</v>
+        <v>42</v>
       </c>
       <c r="E35">
-        <v>9.94</v>
+        <v>7.1</v>
       </c>
       <c r="F35">
         <f t="shared" si="6"/>
-        <v>596.4</v>
+        <v>426</v>
       </c>
       <c r="G35" s="4" t="s">
-        <v>199</v>
+        <v>169</v>
       </c>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="B36" t="s">
         <v>16</v>
       </c>
       <c r="C36" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="D36" t="s">
-        <v>42</v>
+        <v>88</v>
       </c>
       <c r="E36">
-        <v>1.6</v>
+        <v>9.94</v>
       </c>
       <c r="F36">
         <f t="shared" si="6"/>
-        <v>96</v>
+        <v>596.4</v>
       </c>
       <c r="G36" s="4" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A37" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="B37" t="s">
         <v>16</v>
       </c>
       <c r="C37" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="D37" t="s">
-        <v>88</v>
+        <v>42</v>
       </c>
       <c r="E37">
-        <v>1.54</v>
+        <v>1.6</v>
       </c>
       <c r="F37">
         <f t="shared" si="6"/>
-        <v>92.4</v>
+        <v>96</v>
       </c>
       <c r="G37" s="4" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A38" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="B38" t="s">
         <v>16</v>
       </c>
       <c r="C38" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="D38" t="s">
-        <v>45</v>
+        <v>88</v>
       </c>
       <c r="E38">
-        <v>45</v>
+        <v>1.54</v>
       </c>
       <c r="F38">
         <f t="shared" si="6"/>
-        <v>2700</v>
+        <v>92.4</v>
       </c>
       <c r="G38" s="4" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A39" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="B39" t="s">
         <v>16</v>
       </c>
       <c r="C39" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="D39" t="s">
         <v>45</v>
       </c>
       <c r="E39">
-        <v>25</v>
+        <v>45</v>
       </c>
       <c r="F39">
         <f t="shared" si="6"/>
-        <v>1500</v>
+        <v>2700</v>
       </c>
       <c r="G39" s="4" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A40" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B40" t="s">
         <v>16</v>
       </c>
       <c r="C40" t="s">
-        <v>196</v>
+        <v>206</v>
       </c>
       <c r="D40" t="s">
-        <v>112</v>
+        <v>45</v>
       </c>
       <c r="E40">
-        <v>196.2</v>
+        <v>25</v>
       </c>
       <c r="F40">
         <f t="shared" si="6"/>
-        <v>11772</v>
+        <v>1500</v>
       </c>
       <c r="G40" s="4" t="s">
-        <v>197</v>
+        <v>207</v>
       </c>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A41" t="s">
-        <v>218</v>
+        <v>195</v>
       </c>
       <c r="B41" t="s">
         <v>16</v>
       </c>
       <c r="C41" t="s">
-        <v>219</v>
+        <v>196</v>
       </c>
       <c r="D41" t="s">
-        <v>88</v>
+        <v>112</v>
       </c>
       <c r="E41">
-        <v>26.1</v>
+        <v>196.2</v>
       </c>
       <c r="F41">
         <f t="shared" si="6"/>
-        <v>1566</v>
+        <v>11772</v>
       </c>
       <c r="G41" s="4" t="s">
-        <v>220</v>
+        <v>197</v>
       </c>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A42" t="s">
-        <v>236</v>
+        <v>218</v>
       </c>
       <c r="B42" t="s">
         <v>16</v>
       </c>
       <c r="C42" t="s">
-        <v>424</v>
+        <v>219</v>
       </c>
       <c r="D42" t="s">
         <v>88</v>
       </c>
       <c r="E42">
-        <v>13.6</v>
+        <v>26.1</v>
       </c>
       <c r="F42">
         <f t="shared" si="6"/>
-        <v>816</v>
-      </c>
-      <c r="G42" s="3" t="s">
-        <v>425</v>
+        <v>1566</v>
+      </c>
+      <c r="G42" s="4" t="s">
+        <v>220</v>
       </c>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A43" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="B43" t="s">
         <v>16</v>
       </c>
       <c r="C43" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
       <c r="D43" t="s">
-        <v>45</v>
+        <v>88</v>
       </c>
       <c r="E43">
-        <v>3.7890000000000001</v>
+        <v>13.6</v>
       </c>
       <c r="F43">
         <f t="shared" si="6"/>
-        <v>227.34</v>
+        <v>816</v>
       </c>
       <c r="G43" s="3" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A44" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="B44" t="s">
         <v>16</v>
       </c>
       <c r="C44" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
       <c r="D44" t="s">
         <v>45</v>
       </c>
       <c r="E44">
-        <v>3.069</v>
+        <v>3.7890000000000001</v>
       </c>
       <c r="F44">
         <f t="shared" si="6"/>
-        <v>184.14</v>
+        <v>227.34</v>
       </c>
       <c r="G44" s="3" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A45" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="B45" t="s">
         <v>16</v>
       </c>
       <c r="C45" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
       <c r="D45" t="s">
         <v>45</v>
       </c>
       <c r="E45">
-        <v>2.08</v>
+        <v>3.069</v>
       </c>
       <c r="F45">
         <f t="shared" si="6"/>
-        <v>124.80000000000001</v>
+        <v>184.14</v>
       </c>
       <c r="G45" s="3" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A46" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="B46" t="s">
         <v>16</v>
       </c>
       <c r="C46" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
       <c r="D46" t="s">
-        <v>433</v>
+        <v>45</v>
       </c>
       <c r="E46">
-        <v>7.3</v>
+        <v>2.08</v>
       </c>
       <c r="F46">
         <f t="shared" si="6"/>
-        <v>438</v>
+        <v>124.80000000000001</v>
       </c>
       <c r="G46" s="3" t="s">
-        <v>434</v>
+        <v>431</v>
       </c>
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A47" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="B47" t="s">
         <v>16</v>
       </c>
       <c r="C47" t="s">
-        <v>43</v>
+        <v>432</v>
       </c>
       <c r="D47" t="s">
-        <v>45</v>
+        <v>433</v>
       </c>
       <c r="E47">
-        <v>170</v>
+        <v>7.3</v>
       </c>
       <c r="F47">
         <f t="shared" si="6"/>
-        <v>10200</v>
+        <v>438</v>
       </c>
       <c r="G47" s="3" t="s">
-        <v>46</v>
+        <v>434</v>
       </c>
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A48" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="B48" t="s">
         <v>16</v>
       </c>
       <c r="C48" t="s">
-        <v>435</v>
+        <v>43</v>
       </c>
       <c r="D48" t="s">
         <v>45</v>
       </c>
       <c r="E48">
-        <v>68.3</v>
+        <v>170</v>
       </c>
       <c r="F48">
         <f t="shared" si="6"/>
-        <v>4098</v>
-      </c>
-      <c r="G48" s="1" t="s">
-        <v>436</v>
+        <v>10200</v>
+      </c>
+      <c r="G48" s="3" t="s">
+        <v>46</v>
       </c>
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A49" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="B49" t="s">
         <v>16</v>
       </c>
       <c r="C49" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
       <c r="D49" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="E49">
-        <v>410</v>
+        <v>68.3</v>
       </c>
       <c r="F49">
         <f t="shared" si="6"/>
-        <v>24600</v>
-      </c>
-      <c r="G49" s="3" t="s">
-        <v>438</v>
+        <v>4098</v>
+      </c>
+      <c r="G49" s="1" t="s">
+        <v>436</v>
       </c>
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A50" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="B50" t="s">
         <v>16</v>
       </c>
       <c r="C50" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
       <c r="D50" t="s">
         <v>40</v>
       </c>
       <c r="E50">
-        <v>20.931999999999999</v>
+        <v>410</v>
       </c>
       <c r="F50">
         <f t="shared" si="6"/>
-        <v>1255.9199999999998</v>
+        <v>24600</v>
       </c>
       <c r="G50" s="3" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A51" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="B51" t="s">
         <v>16</v>
       </c>
       <c r="C51" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="D51" t="s">
         <v>40</v>
       </c>
       <c r="E51">
-        <v>10.3</v>
+        <v>20.931999999999999</v>
       </c>
       <c r="F51">
         <f t="shared" si="6"/>
-        <v>618</v>
+        <v>1255.9199999999998</v>
       </c>
       <c r="G51" s="3" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A52" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="B52" t="s">
         <v>16</v>
       </c>
       <c r="C52" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
       <c r="D52" t="s">
         <v>40</v>
       </c>
       <c r="E52">
-        <v>1.76</v>
+        <v>10.3</v>
       </c>
       <c r="F52">
         <f t="shared" si="6"/>
-        <v>105.6</v>
+        <v>618</v>
       </c>
       <c r="G52" s="3" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A53" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="B53" t="s">
         <v>16</v>
       </c>
       <c r="C53" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
       <c r="D53" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="E53">
-        <v>3.27E-2</v>
+        <v>1.76</v>
       </c>
       <c r="F53">
         <f t="shared" si="6"/>
-        <v>1.962</v>
+        <v>105.6</v>
       </c>
       <c r="G53" s="3" t="s">
-        <v>446</v>
+        <v>444</v>
       </c>
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A54" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="B54" t="s">
         <v>16</v>
       </c>
       <c r="C54" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
       <c r="D54" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="E54">
-        <v>350.02</v>
+        <v>3.27E-2</v>
       </c>
       <c r="F54">
         <f t="shared" si="6"/>
-        <v>21001.199999999997</v>
+        <v>1.962</v>
       </c>
       <c r="G54" s="3" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
     </row>
     <row r="55" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A55" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="B55" t="s">
         <v>16</v>
       </c>
       <c r="C55" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
       <c r="D55" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="E55">
-        <v>2.3999999999999998E-3</v>
+        <v>350.02</v>
       </c>
       <c r="F55">
         <f t="shared" si="6"/>
-        <v>0.14399999999999999</v>
+        <v>21001.199999999997</v>
       </c>
       <c r="G55" s="3" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
     </row>
     <row r="56" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A56" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="B56" t="s">
         <v>16</v>
       </c>
       <c r="C56" t="s">
-        <v>443</v>
+        <v>449</v>
       </c>
       <c r="D56" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="E56">
-        <v>1.76</v>
+        <v>2.3999999999999998E-3</v>
       </c>
       <c r="F56">
-        <f t="shared" ref="F56:F74" si="7">E56*60</f>
-        <v>105.6</v>
+        <f t="shared" si="6"/>
+        <v>0.14399999999999999</v>
       </c>
       <c r="G56" s="3" t="s">
-        <v>444</v>
+        <v>450</v>
       </c>
     </row>
     <row r="57" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A57" t="s">
+        <v>250</v>
+      </c>
+      <c r="B57" t="s">
+        <v>16</v>
+      </c>
+      <c r="C57" t="s">
+        <v>443</v>
+      </c>
+      <c r="D57" t="s">
+        <v>40</v>
+      </c>
+      <c r="E57">
+        <v>1.76</v>
+      </c>
+      <c r="F57">
+        <f t="shared" ref="F57:F75" si="7">E57*60</f>
+        <v>105.6</v>
+      </c>
+      <c r="G57" s="3" t="s">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A58" t="s">
         <v>251</v>
       </c>
-      <c r="B57" t="s">
-        <v>16</v>
-      </c>
-      <c r="C57" t="s">
+      <c r="B58" t="s">
+        <v>16</v>
+      </c>
+      <c r="C58" t="s">
         <v>430</v>
       </c>
-      <c r="D57" t="s">
+      <c r="D58" t="s">
         <v>45</v>
       </c>
-      <c r="E57">
+      <c r="E58">
         <v>2.08</v>
       </c>
-      <c r="F57">
+      <c r="F58">
         <f t="shared" si="7"/>
         <v>124.80000000000001</v>
       </c>
-      <c r="G57" s="3" t="s">
+      <c r="G58" s="3" t="s">
         <v>431</v>
       </c>
     </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A58" t="s">
+    <row r="59" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A59" t="s">
         <v>252</v>
       </c>
-      <c r="B58" t="s">
-        <v>16</v>
-      </c>
-      <c r="C58" t="s">
+      <c r="B59" t="s">
+        <v>16</v>
+      </c>
+      <c r="C59" t="s">
         <v>451</v>
       </c>
-      <c r="D58" t="s">
+      <c r="D59" t="s">
         <v>45</v>
       </c>
-      <c r="E58">
+      <c r="E59">
         <v>138</v>
       </c>
-      <c r="F58">
+      <c r="F59">
         <f t="shared" si="7"/>
         <v>8280</v>
       </c>
-      <c r="G58" s="3" t="s">
+      <c r="G59" s="3" t="s">
         <v>452</v>
       </c>
     </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A59" t="s">
+    <row r="60" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A60" t="s">
         <v>253</v>
       </c>
-      <c r="B59" t="s">
-        <v>16</v>
-      </c>
-      <c r="C59" t="s">
+      <c r="B60" t="s">
+        <v>16</v>
+      </c>
+      <c r="C60" t="s">
         <v>430</v>
       </c>
-      <c r="D59" t="s">
+      <c r="D60" t="s">
         <v>45</v>
       </c>
-      <c r="E59">
+      <c r="E60">
         <v>2.08</v>
       </c>
-      <c r="F59">
+      <c r="F60">
         <f t="shared" si="7"/>
         <v>124.80000000000001</v>
       </c>
-      <c r="G59" s="3" t="s">
+      <c r="G60" s="3" t="s">
         <v>431</v>
       </c>
     </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A60" t="s">
+    <row r="61" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A61" t="s">
         <v>254</v>
       </c>
-      <c r="B60" t="s">
-        <v>16</v>
-      </c>
-      <c r="C60" t="s">
+      <c r="B61" t="s">
+        <v>16</v>
+      </c>
+      <c r="C61" t="s">
         <v>168</v>
       </c>
-      <c r="D60" t="s">
+      <c r="D61" t="s">
         <v>40</v>
       </c>
-      <c r="E60">
+      <c r="E61">
         <v>32</v>
       </c>
-      <c r="F60">
+      <c r="F61">
         <f t="shared" si="7"/>
         <v>1920</v>
       </c>
-      <c r="G60" s="3" t="s">
+      <c r="G61" s="3" t="s">
         <v>453</v>
       </c>
     </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A61" t="s">
+    <row r="62" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A62" t="s">
         <v>255</v>
       </c>
-      <c r="B61" t="s">
-        <v>16</v>
-      </c>
-      <c r="C61" t="s">
+      <c r="B62" t="s">
+        <v>16</v>
+      </c>
+      <c r="C62" t="s">
         <v>428</v>
       </c>
-      <c r="D61" t="s">
+      <c r="D62" t="s">
         <v>45</v>
       </c>
-      <c r="E61">
+      <c r="E62">
         <v>3.069</v>
       </c>
-      <c r="F61">
+      <c r="F62">
         <f t="shared" si="7"/>
         <v>184.14</v>
       </c>
-      <c r="G61" s="3" t="s">
+      <c r="G62" s="3" t="s">
         <v>429</v>
       </c>
     </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A62" t="s">
+    <row r="63" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A63" t="s">
         <v>256</v>
       </c>
-      <c r="B62" t="s">
-        <v>16</v>
-      </c>
-      <c r="C62" t="s">
+      <c r="B63" t="s">
+        <v>16</v>
+      </c>
+      <c r="C63" t="s">
         <v>454</v>
       </c>
-      <c r="D62" t="s">
+      <c r="D63" t="s">
         <v>42</v>
       </c>
-      <c r="E62">
+      <c r="E63">
         <v>6.5799999999999999E-3</v>
       </c>
-      <c r="F62">
+      <c r="F63">
         <f t="shared" si="7"/>
         <v>0.39479999999999998</v>
       </c>
-      <c r="G62" s="3" t="s">
+      <c r="G63" s="3" t="s">
         <v>455</v>
       </c>
     </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A63" t="s">
+    <row r="64" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A64" t="s">
         <v>257</v>
       </c>
-      <c r="B63" t="s">
-        <v>16</v>
-      </c>
-      <c r="C63" t="s">
+      <c r="B64" t="s">
+        <v>16</v>
+      </c>
+      <c r="C64" t="s">
         <v>456</v>
       </c>
-      <c r="D63" t="s">
+      <c r="D64" t="s">
         <v>45</v>
       </c>
-      <c r="E63">
+      <c r="E64">
         <v>2E-3</v>
       </c>
-      <c r="F63">
+      <c r="F64">
         <f t="shared" si="7"/>
         <v>0.12</v>
       </c>
-      <c r="G63" s="3" t="s">
+      <c r="G64" s="3" t="s">
         <v>457</v>
       </c>
     </row>
-    <row r="64" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A64" t="s">
+    <row r="65" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A65" t="s">
         <v>258</v>
       </c>
-      <c r="B64" t="s">
-        <v>16</v>
-      </c>
-      <c r="C64" t="s">
+      <c r="B65" t="s">
+        <v>16</v>
+      </c>
+      <c r="C65" t="s">
         <v>458</v>
       </c>
-      <c r="D64" t="s">
+      <c r="D65" t="s">
         <v>42</v>
       </c>
-      <c r="E64">
+      <c r="E65">
         <v>206</v>
       </c>
-      <c r="F64">
+      <c r="F65">
         <f t="shared" si="7"/>
         <v>12360</v>
       </c>
-      <c r="G64" s="3" t="s">
+      <c r="G65" s="3" t="s">
         <v>459</v>
       </c>
     </row>
-    <row r="65" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A65" t="s">
+    <row r="66" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A66" t="s">
         <v>259</v>
       </c>
-      <c r="B65" t="s">
-        <v>16</v>
-      </c>
-      <c r="C65" t="s">
+      <c r="B66" t="s">
+        <v>16</v>
+      </c>
+      <c r="C66" t="s">
         <v>460</v>
       </c>
-      <c r="D65" t="s">
+      <c r="D66" t="s">
         <v>88</v>
       </c>
-      <c r="E65">
+      <c r="E66">
         <v>5.8599999999999999E-2</v>
       </c>
-      <c r="F65">
+      <c r="F66">
         <f t="shared" si="7"/>
         <v>3.516</v>
       </c>
-      <c r="G65" s="3" t="s">
+      <c r="G66" s="3" t="s">
         <v>461</v>
       </c>
     </row>
-    <row r="66" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A66" t="s">
+    <row r="67" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A67" t="s">
         <v>260</v>
       </c>
-      <c r="B66" t="s">
-        <v>16</v>
-      </c>
-      <c r="C66" t="s">
+      <c r="B67" t="s">
+        <v>16</v>
+      </c>
+      <c r="C67" t="s">
         <v>462</v>
       </c>
-      <c r="D66" t="s">
+      <c r="D67" t="s">
         <v>88</v>
       </c>
-      <c r="E66">
+      <c r="E67">
         <v>3.3</v>
       </c>
-      <c r="F66">
+      <c r="F67">
         <f t="shared" si="7"/>
         <v>198</v>
       </c>
-      <c r="G66" s="3" t="s">
+      <c r="G67" s="3" t="s">
         <v>463</v>
       </c>
     </row>
-    <row r="67" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A67" t="s">
+    <row r="68" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A68" t="s">
         <v>261</v>
       </c>
-      <c r="B67" t="s">
-        <v>16</v>
-      </c>
-      <c r="C67" t="s">
+      <c r="B68" t="s">
+        <v>16</v>
+      </c>
+      <c r="C68" t="s">
         <v>464</v>
       </c>
-      <c r="D67" t="s">
+      <c r="D68" t="s">
         <v>45</v>
       </c>
-      <c r="E67">
+      <c r="E68">
         <v>51</v>
       </c>
-      <c r="F67">
+      <c r="F68">
         <f t="shared" si="7"/>
         <v>3060</v>
       </c>
-      <c r="G67" s="3" t="s">
+      <c r="G68" s="3" t="s">
         <v>465</v>
       </c>
     </row>
-    <row r="68" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A68" t="s">
+    <row r="69" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A69" t="s">
         <v>262</v>
       </c>
-      <c r="B68" t="s">
-        <v>16</v>
-      </c>
-      <c r="C68" t="s">
+      <c r="B69" t="s">
+        <v>16</v>
+      </c>
+      <c r="C69" t="s">
         <v>466</v>
       </c>
-      <c r="D68" t="s">
+      <c r="D69" t="s">
         <v>40</v>
       </c>
-      <c r="E68">
+      <c r="E69">
         <v>137</v>
       </c>
-      <c r="F68">
+      <c r="F69">
         <f t="shared" si="7"/>
         <v>8220</v>
       </c>
-      <c r="G68" s="3" t="s">
+      <c r="G69" s="3" t="s">
         <v>467</v>
       </c>
     </row>
-    <row r="69" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A69" t="s">
+    <row r="70" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A70" t="s">
         <v>263</v>
       </c>
-      <c r="B69" t="s">
-        <v>16</v>
-      </c>
-      <c r="C69" t="s">
+      <c r="B70" t="s">
+        <v>16</v>
+      </c>
+      <c r="C70" t="s">
         <v>468</v>
       </c>
-      <c r="D69" t="s">
+      <c r="D70" t="s">
         <v>45</v>
       </c>
-      <c r="E69">
+      <c r="E70">
         <v>1.07E-3</v>
       </c>
-      <c r="F69">
+      <c r="F70">
         <f t="shared" si="7"/>
         <v>6.4199999999999993E-2</v>
       </c>
-      <c r="G69" s="1" t="s">
+      <c r="G70" s="1" t="s">
         <v>469</v>
       </c>
     </row>
-    <row r="70" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A70" t="s">
+    <row r="71" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A71" t="s">
         <v>264</v>
       </c>
-      <c r="B70" t="s">
-        <v>16</v>
-      </c>
-      <c r="C70" t="s">
+      <c r="B71" t="s">
+        <v>16</v>
+      </c>
+      <c r="C71" t="s">
         <v>470</v>
       </c>
-      <c r="D70" t="s">
+      <c r="D71" t="s">
         <v>88</v>
       </c>
-      <c r="E70">
+      <c r="E71">
         <v>989</v>
       </c>
-      <c r="F70">
+      <c r="F71">
         <f t="shared" si="7"/>
         <v>59340</v>
       </c>
-      <c r="G70" s="3" t="s">
+      <c r="G71" s="3" t="s">
         <v>471</v>
       </c>
     </row>
-    <row r="71" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A71" t="s">
+    <row r="72" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A72" t="s">
         <v>265</v>
       </c>
-      <c r="B71" t="s">
-        <v>16</v>
-      </c>
-      <c r="C71" t="s">
+      <c r="B72" t="s">
+        <v>16</v>
+      </c>
+      <c r="C72" t="s">
         <v>472</v>
       </c>
-      <c r="D71" t="s">
+      <c r="D72" t="s">
         <v>45</v>
       </c>
-      <c r="E71">
+      <c r="E72">
         <v>0.31</v>
       </c>
-      <c r="F71">
+      <c r="F72">
         <f t="shared" si="7"/>
         <v>18.600000000000001</v>
       </c>
-      <c r="G71" s="3" t="s">
+      <c r="G72" s="3" t="s">
         <v>473</v>
       </c>
     </row>
-    <row r="72" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A72" t="s">
+    <row r="73" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A73" t="s">
         <v>266</v>
       </c>
-      <c r="B72" t="s">
-        <v>16</v>
-      </c>
-      <c r="C72" t="s">
+      <c r="B73" t="s">
+        <v>16</v>
+      </c>
+      <c r="C73" t="s">
         <v>474</v>
       </c>
-      <c r="D72" t="s">
+      <c r="D73" t="s">
         <v>40</v>
       </c>
-      <c r="E72">
+      <c r="E73">
         <v>46</v>
       </c>
-      <c r="F72">
+      <c r="F73">
         <f t="shared" si="7"/>
         <v>2760</v>
       </c>
-      <c r="G72" s="3" t="s">
+      <c r="G73" s="3" t="s">
         <v>475</v>
       </c>
     </row>
-    <row r="73" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A73" t="s">
+    <row r="74" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A74" t="s">
         <v>267</v>
       </c>
-      <c r="B73" t="s">
-        <v>16</v>
-      </c>
-      <c r="C73" t="s">
+      <c r="B74" t="s">
+        <v>16</v>
+      </c>
+      <c r="C74" t="s">
         <v>476</v>
       </c>
-      <c r="D73" t="s">
+      <c r="D74" t="s">
         <v>45</v>
       </c>
-      <c r="E73">
+      <c r="E74">
         <v>0.81599999999999995</v>
       </c>
-      <c r="F73">
+      <c r="F74">
         <f t="shared" si="7"/>
         <v>48.959999999999994</v>
       </c>
-      <c r="G73" s="3" t="s">
+      <c r="G74" s="3" t="s">
         <v>477</v>
       </c>
     </row>
-    <row r="74" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A74" t="s">
+    <row r="75" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A75" t="s">
         <v>268</v>
       </c>
-      <c r="B74" t="s">
-        <v>16</v>
-      </c>
-      <c r="C74" t="s">
+      <c r="B75" t="s">
+        <v>16</v>
+      </c>
+      <c r="C75" t="s">
         <v>478</v>
       </c>
-      <c r="D74" t="s">
+      <c r="D75" t="s">
         <v>40</v>
       </c>
-      <c r="E74">
+      <c r="E75">
         <v>5.5</v>
       </c>
-      <c r="F74">
+      <c r="F75">
         <f t="shared" si="7"/>
         <v>330</v>
       </c>
-      <c r="G74" s="3" t="s">
+      <c r="G75" s="3" t="s">
         <v>479</v>
-      </c>
-    </row>
-    <row r="75" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A75" t="s">
-        <v>269</v>
-      </c>
-      <c r="B75" t="s">
-        <v>16</v>
-      </c>
-      <c r="C75" t="s">
-        <v>474</v>
-      </c>
-      <c r="D75" t="s">
-        <v>40</v>
-      </c>
-      <c r="E75">
-        <v>46</v>
-      </c>
-      <c r="F75">
-        <f t="shared" ref="F75:F84" si="8">E75*60</f>
-        <v>2760</v>
-      </c>
-      <c r="G75" s="3" t="s">
-        <v>475</v>
       </c>
     </row>
     <row r="76" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A76" t="s">
+        <v>269</v>
+      </c>
+      <c r="B76" t="s">
+        <v>16</v>
+      </c>
+      <c r="C76" t="s">
+        <v>474</v>
+      </c>
+      <c r="D76" t="s">
+        <v>40</v>
+      </c>
+      <c r="E76">
+        <v>46</v>
+      </c>
+      <c r="F76">
+        <f t="shared" ref="F76:F85" si="8">E76*60</f>
+        <v>2760</v>
+      </c>
+      <c r="G76" s="3" t="s">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A77" t="s">
         <v>270</v>
       </c>
-      <c r="B76" t="s">
-        <v>16</v>
-      </c>
-      <c r="C76" t="s">
+      <c r="B77" t="s">
+        <v>16</v>
+      </c>
+      <c r="C77" t="s">
         <v>480</v>
       </c>
-      <c r="D76" t="s">
+      <c r="D77" t="s">
         <v>145</v>
       </c>
-      <c r="E76">
+      <c r="E77">
         <v>71</v>
       </c>
-      <c r="F76">
+      <c r="F77">
         <f t="shared" si="8"/>
         <v>4260</v>
       </c>
-      <c r="G76" s="3" t="s">
+      <c r="G77" s="3" t="s">
         <v>481</v>
       </c>
     </row>
-    <row r="77" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A77" t="s">
+    <row r="78" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A78" t="s">
         <v>271</v>
       </c>
-      <c r="B77" t="s">
-        <v>16</v>
-      </c>
-      <c r="C77" t="s">
+      <c r="B78" t="s">
+        <v>16</v>
+      </c>
+      <c r="C78" t="s">
         <v>482</v>
       </c>
-      <c r="D77" t="s">
+      <c r="D78" t="s">
         <v>88</v>
       </c>
-      <c r="E77">
+      <c r="E78">
         <v>0.49</v>
       </c>
-      <c r="F77">
+      <c r="F78">
         <f t="shared" si="8"/>
         <v>29.4</v>
       </c>
-      <c r="G77" s="3" t="s">
+      <c r="G78" s="3" t="s">
         <v>483</v>
       </c>
     </row>
-    <row r="78" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A78" t="s">
+    <row r="79" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A79" t="s">
         <v>272</v>
       </c>
-      <c r="B78" t="s">
-        <v>16</v>
-      </c>
-      <c r="C78" t="s">
+      <c r="B79" t="s">
+        <v>16</v>
+      </c>
+      <c r="C79" t="s">
         <v>474</v>
       </c>
-      <c r="D78" t="s">
+      <c r="D79" t="s">
         <v>40</v>
       </c>
-      <c r="E78">
+      <c r="E79">
         <v>46</v>
       </c>
-      <c r="F78">
+      <c r="F79">
         <f t="shared" si="8"/>
         <v>2760</v>
       </c>
-      <c r="G78" s="3" t="s">
+      <c r="G79" s="3" t="s">
         <v>475</v>
       </c>
     </row>
-    <row r="79" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A79" t="s">
+    <row r="80" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A80" t="s">
         <v>273</v>
       </c>
-      <c r="B79" t="s">
-        <v>16</v>
-      </c>
-      <c r="C79" t="s">
+      <c r="B80" t="s">
+        <v>16</v>
+      </c>
+      <c r="C80" t="s">
         <v>468</v>
       </c>
-      <c r="D79" t="s">
+      <c r="D80" t="s">
         <v>45</v>
       </c>
-      <c r="E79">
+      <c r="E80">
         <v>1.07E-3</v>
       </c>
-      <c r="F79">
+      <c r="F80">
         <f t="shared" si="8"/>
         <v>6.4199999999999993E-2</v>
       </c>
-      <c r="G79" s="1" t="s">
+      <c r="G80" s="1" t="s">
         <v>469</v>
       </c>
     </row>
-    <row r="80" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A80" t="s">
+    <row r="81" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A81" t="s">
         <v>274</v>
       </c>
-      <c r="B80" t="s">
-        <v>16</v>
-      </c>
-      <c r="C80" t="s">
+      <c r="B81" t="s">
+        <v>16</v>
+      </c>
+      <c r="C81" t="s">
         <v>430</v>
       </c>
-      <c r="D80" t="s">
+      <c r="D81" t="s">
         <v>45</v>
       </c>
-      <c r="E80">
+      <c r="E81">
         <v>2.08</v>
       </c>
-      <c r="F80">
+      <c r="F81">
         <f t="shared" si="8"/>
         <v>124.80000000000001</v>
       </c>
-      <c r="G80" s="3" t="s">
+      <c r="G81" s="3" t="s">
         <v>431</v>
       </c>
     </row>
-    <row r="81" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A81" t="s">
+    <row r="82" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A82" t="s">
         <v>275</v>
       </c>
-      <c r="B81" t="s">
-        <v>16</v>
-      </c>
-      <c r="C81" t="s">
+      <c r="B82" t="s">
+        <v>16</v>
+      </c>
+      <c r="C82" t="s">
         <v>484</v>
       </c>
-      <c r="D81" t="s">
+      <c r="D82" t="s">
         <v>40</v>
       </c>
-      <c r="E81">
+      <c r="E82">
         <v>3.2712232620320854</v>
       </c>
-      <c r="F81">
+      <c r="F82">
         <f t="shared" si="8"/>
         <v>196.27339572192511</v>
       </c>
-      <c r="G81" s="3" t="s">
+      <c r="G82" s="3" t="s">
         <v>485</v>
       </c>
     </row>
-    <row r="82" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A82" t="s">
+    <row r="83" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A83" t="s">
         <v>276</v>
       </c>
-      <c r="B82" t="s">
-        <v>16</v>
-      </c>
-      <c r="C82" t="s">
+      <c r="B83" t="s">
+        <v>16</v>
+      </c>
+      <c r="C83" t="s">
         <v>486</v>
       </c>
-      <c r="D82" t="s">
+      <c r="D83" t="s">
         <v>42</v>
       </c>
-      <c r="E82">
+      <c r="E83">
         <v>5.0999999999999996</v>
       </c>
-      <c r="F82">
+      <c r="F83">
         <f t="shared" si="8"/>
         <v>306</v>
       </c>
-      <c r="G82" s="3" t="s">
+      <c r="G83" s="3" t="s">
         <v>487</v>
       </c>
     </row>
-    <row r="83" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A83" t="s">
+    <row r="84" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A84" t="s">
         <v>277</v>
       </c>
-      <c r="B83" t="s">
-        <v>16</v>
-      </c>
-      <c r="C83" t="s">
+      <c r="B84" t="s">
+        <v>16</v>
+      </c>
+      <c r="C84" t="s">
         <v>488</v>
       </c>
-      <c r="D83" t="s">
+      <c r="D84" t="s">
         <v>40</v>
       </c>
-      <c r="E83">
+      <c r="E84">
         <v>4.7</v>
       </c>
-      <c r="F83">
+      <c r="F84">
         <f t="shared" si="8"/>
         <v>282</v>
       </c>
-      <c r="G83" s="3" t="s">
+      <c r="G84" s="3" t="s">
         <v>489</v>
       </c>
     </row>
-    <row r="84" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A84" t="s">
+    <row r="85" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A85" t="s">
         <v>278</v>
       </c>
-      <c r="B84" t="s">
-        <v>16</v>
-      </c>
-      <c r="C84" t="s">
+      <c r="B85" t="s">
+        <v>16</v>
+      </c>
+      <c r="C85" t="s">
         <v>468</v>
       </c>
-      <c r="D84" t="s">
+      <c r="D85" t="s">
         <v>45</v>
       </c>
-      <c r="E84">
+      <c r="E85">
         <v>1.07E-3</v>
       </c>
-      <c r="F84">
+      <c r="F85">
         <f t="shared" si="8"/>
         <v>6.4199999999999993E-2</v>
       </c>
-      <c r="G84" s="1" t="s">
+      <c r="G85" s="1" t="s">
         <v>469</v>
-      </c>
-    </row>
-    <row r="85" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A85" t="s">
-        <v>279</v>
-      </c>
-      <c r="B85" t="s">
-        <v>16</v>
-      </c>
-      <c r="C85" t="s">
-        <v>488</v>
-      </c>
-      <c r="D85" t="s">
-        <v>40</v>
-      </c>
-      <c r="E85">
-        <v>4.7</v>
-      </c>
-      <c r="F85">
-        <f t="shared" ref="F85:F110" si="9">E85*60</f>
-        <v>282</v>
-      </c>
-      <c r="G85" s="3" t="s">
-        <v>489</v>
       </c>
     </row>
     <row r="86" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A86" t="s">
+        <v>279</v>
+      </c>
+      <c r="B86" t="s">
+        <v>16</v>
+      </c>
+      <c r="C86" t="s">
+        <v>488</v>
+      </c>
+      <c r="D86" t="s">
+        <v>40</v>
+      </c>
+      <c r="E86">
+        <v>4.7</v>
+      </c>
+      <c r="F86">
+        <f t="shared" ref="F86:F111" si="9">E86*60</f>
+        <v>282</v>
+      </c>
+      <c r="G86" s="3" t="s">
+        <v>489</v>
+      </c>
+    </row>
+    <row r="87" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A87" t="s">
         <v>280</v>
       </c>
-      <c r="B86" t="s">
-        <v>16</v>
-      </c>
-      <c r="C86" t="s">
+      <c r="B87" t="s">
+        <v>16</v>
+      </c>
+      <c r="C87" t="s">
         <v>490</v>
       </c>
-      <c r="D86" t="s">
+      <c r="D87" t="s">
         <v>491</v>
       </c>
-      <c r="E86">
+      <c r="E87">
         <v>8.75</v>
       </c>
-      <c r="F86">
+      <c r="F87">
         <f t="shared" si="9"/>
         <v>525</v>
       </c>
-      <c r="G86" s="3" t="s">
+      <c r="G87" s="3" t="s">
         <v>492</v>
       </c>
     </row>
-    <row r="87" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A87" t="s">
+    <row r="88" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A88" t="s">
         <v>281</v>
       </c>
-      <c r="B87" t="s">
-        <v>16</v>
-      </c>
-      <c r="C87" t="s">
+      <c r="B88" t="s">
+        <v>16</v>
+      </c>
+      <c r="C88" t="s">
         <v>490</v>
       </c>
-      <c r="D87" t="s">
+      <c r="D88" t="s">
         <v>491</v>
       </c>
-      <c r="E87">
+      <c r="E88">
         <v>21</v>
       </c>
-      <c r="F87">
+      <c r="F88">
         <f t="shared" si="9"/>
         <v>1260</v>
       </c>
-      <c r="G87" s="3" t="s">
+      <c r="G88" s="3" t="s">
         <v>492</v>
       </c>
     </row>
-    <row r="88" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A88" t="s">
+    <row r="89" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A89" t="s">
         <v>282</v>
       </c>
-      <c r="B88" t="s">
-        <v>16</v>
-      </c>
-      <c r="C88" t="s">
+      <c r="B89" t="s">
+        <v>16</v>
+      </c>
+      <c r="C89" t="s">
         <v>490</v>
       </c>
-      <c r="D88" t="s">
+      <c r="D89" t="s">
         <v>491</v>
       </c>
-      <c r="E88">
+      <c r="E89">
         <v>9.3800000000000008</v>
       </c>
-      <c r="F88">
+      <c r="F89">
         <f t="shared" si="9"/>
         <v>562.80000000000007</v>
       </c>
-      <c r="G88" s="3" t="s">
+      <c r="G89" s="3" t="s">
         <v>492</v>
       </c>
     </row>
-    <row r="89" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A89" t="s">
+    <row r="90" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A90" t="s">
         <v>283</v>
       </c>
-      <c r="B89" t="s">
-        <v>16</v>
-      </c>
-      <c r="C89" t="s">
+      <c r="B90" t="s">
+        <v>16</v>
+      </c>
+      <c r="C90" t="s">
         <v>493</v>
       </c>
-      <c r="D89" t="s">
+      <c r="D90" t="s">
         <v>491</v>
       </c>
-      <c r="E89">
+      <c r="E90">
         <v>0.114</v>
       </c>
-      <c r="F89">
+      <c r="F90">
         <f t="shared" si="9"/>
         <v>6.84</v>
       </c>
-      <c r="G89" s="3" t="s">
+      <c r="G90" s="3" t="s">
         <v>494</v>
       </c>
     </row>
-    <row r="90" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A90" t="s">
+    <row r="91" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A91" t="s">
         <v>284</v>
       </c>
-      <c r="B90" t="s">
-        <v>16</v>
-      </c>
-      <c r="C90" t="s">
+      <c r="B91" t="s">
+        <v>16</v>
+      </c>
+      <c r="C91" t="s">
         <v>495</v>
       </c>
-      <c r="D90" t="s">
+      <c r="D91" t="s">
         <v>45</v>
       </c>
-      <c r="E90">
+      <c r="E91">
         <v>0.98</v>
       </c>
-      <c r="F90">
+      <c r="F91">
         <f t="shared" si="9"/>
         <v>58.8</v>
       </c>
-      <c r="G90" s="1" t="s">
+      <c r="G91" s="1" t="s">
         <v>496</v>
       </c>
     </row>
-    <row r="91" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A91" t="s">
+    <row r="92" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A92" t="s">
         <v>285</v>
       </c>
-      <c r="B91" t="s">
-        <v>16</v>
-      </c>
-      <c r="C91" t="s">
+      <c r="B92" t="s">
+        <v>16</v>
+      </c>
+      <c r="C92" t="s">
         <v>466</v>
       </c>
-      <c r="D91" t="s">
+      <c r="D92" t="s">
         <v>40</v>
       </c>
-      <c r="E91">
+      <c r="E92">
         <v>137</v>
       </c>
-      <c r="F91">
+      <c r="F92">
         <f t="shared" si="9"/>
         <v>8220</v>
       </c>
-      <c r="G91" s="3" t="s">
+      <c r="G92" s="3" t="s">
         <v>467</v>
       </c>
     </row>
-    <row r="92" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A92" t="s">
+    <row r="93" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A93" t="s">
         <v>286</v>
       </c>
-      <c r="B92" t="s">
-        <v>16</v>
-      </c>
-      <c r="C92" t="s">
+      <c r="B93" t="s">
+        <v>16</v>
+      </c>
+      <c r="C93" t="s">
         <v>497</v>
       </c>
-      <c r="D92" t="s">
+      <c r="D93" t="s">
         <v>40</v>
       </c>
-      <c r="E92">
+      <c r="E93">
         <v>1180</v>
       </c>
-      <c r="F92">
+      <c r="F93">
         <f t="shared" si="9"/>
         <v>70800</v>
       </c>
-      <c r="G92" s="3" t="s">
+      <c r="G93" s="3" t="s">
         <v>498</v>
       </c>
     </row>
-    <row r="93" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A93" t="s">
+    <row r="94" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A94" t="s">
         <v>287</v>
       </c>
-      <c r="B93" t="s">
-        <v>16</v>
-      </c>
-      <c r="C93" t="s">
+      <c r="B94" t="s">
+        <v>16</v>
+      </c>
+      <c r="C94" t="s">
         <v>499</v>
       </c>
-      <c r="D93" t="s">
+      <c r="D94" t="s">
         <v>88</v>
       </c>
-      <c r="E93">
+      <c r="E94">
         <v>143</v>
       </c>
-      <c r="F93">
+      <c r="F94">
         <f t="shared" si="9"/>
         <v>8580</v>
       </c>
-      <c r="G93" s="3" t="s">
+      <c r="G94" s="3" t="s">
         <v>500</v>
       </c>
     </row>
-    <row r="94" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A94" t="s">
+    <row r="95" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A95" t="s">
         <v>288</v>
       </c>
-      <c r="B94" t="s">
-        <v>16</v>
-      </c>
-      <c r="C94" t="s">
+      <c r="B95" t="s">
+        <v>16</v>
+      </c>
+      <c r="C95" t="s">
         <v>501</v>
       </c>
-      <c r="D94" t="s">
+      <c r="D95" t="s">
         <v>45</v>
       </c>
-      <c r="E94">
+      <c r="E95">
         <v>1.7</v>
       </c>
-      <c r="F94">
+      <c r="F95">
         <f t="shared" si="9"/>
         <v>102</v>
       </c>
-      <c r="G94" s="3" t="s">
+      <c r="G95" s="3" t="s">
         <v>502</v>
       </c>
     </row>
-    <row r="95" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A95" t="s">
+    <row r="96" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A96" t="s">
         <v>289</v>
       </c>
-      <c r="B95" t="s">
-        <v>16</v>
-      </c>
-      <c r="C95" t="s">
+      <c r="B96" t="s">
+        <v>16</v>
+      </c>
+      <c r="C96" t="s">
         <v>503</v>
       </c>
-      <c r="D95" t="s">
+      <c r="D96" t="s">
         <v>45</v>
       </c>
-      <c r="E95">
+      <c r="E96">
         <v>0.33</v>
       </c>
-      <c r="F95">
+      <c r="F96">
         <f t="shared" si="9"/>
         <v>19.8</v>
       </c>
-      <c r="G95" s="3" t="s">
+      <c r="G96" s="3" t="s">
         <v>504</v>
       </c>
     </row>
-    <row r="96" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A96" t="s">
+    <row r="97" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A97" t="s">
         <v>290</v>
       </c>
-      <c r="B96" t="s">
-        <v>16</v>
-      </c>
-      <c r="C96" t="s">
+      <c r="B97" t="s">
+        <v>16</v>
+      </c>
+      <c r="C97" t="s">
         <v>505</v>
       </c>
-      <c r="D96" t="s">
+      <c r="D97" t="s">
         <v>40</v>
       </c>
-      <c r="E96">
+      <c r="E97">
         <v>34.799999999999997</v>
       </c>
-      <c r="F96">
+      <c r="F97">
         <f t="shared" si="9"/>
         <v>2088</v>
       </c>
-      <c r="G96" s="3" t="s">
+      <c r="G97" s="3" t="s">
         <v>506</v>
       </c>
     </row>
-    <row r="97" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A97" t="s">
+    <row r="98" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A98" t="s">
         <v>291</v>
       </c>
-      <c r="B97" t="s">
-        <v>16</v>
-      </c>
-      <c r="C97" t="s">
+      <c r="B98" t="s">
+        <v>16</v>
+      </c>
+      <c r="C98" t="s">
         <v>507</v>
       </c>
-      <c r="D97" t="s">
+      <c r="D98" t="s">
         <v>40</v>
       </c>
-      <c r="E97">
+      <c r="E98">
         <v>25</v>
       </c>
-      <c r="F97">
+      <c r="F98">
         <f t="shared" si="9"/>
         <v>1500</v>
       </c>
-      <c r="G97" s="3" t="s">
+      <c r="G98" s="3" t="s">
         <v>508</v>
       </c>
     </row>
-    <row r="98" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A98" t="s">
+    <row r="99" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A99" t="s">
         <v>292</v>
       </c>
-      <c r="B98" t="s">
-        <v>16</v>
-      </c>
-      <c r="C98" t="s">
+      <c r="B99" t="s">
+        <v>16</v>
+      </c>
+      <c r="C99" t="s">
         <v>509</v>
       </c>
-      <c r="D98" t="s">
+      <c r="D99" t="s">
         <v>45</v>
       </c>
-      <c r="E98">
+      <c r="E99">
         <v>14.9</v>
       </c>
-      <c r="F98">
+      <c r="F99">
         <f t="shared" si="9"/>
         <v>894</v>
       </c>
-      <c r="G98" s="3" t="s">
+      <c r="G99" s="3" t="s">
         <v>510</v>
       </c>
     </row>
-    <row r="99" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A99" t="s">
+    <row r="100" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A100" t="s">
         <v>293</v>
       </c>
-      <c r="B99" t="s">
-        <v>16</v>
-      </c>
-      <c r="C99" t="s">
+      <c r="B100" t="s">
+        <v>16</v>
+      </c>
+      <c r="C100" t="s">
         <v>511</v>
       </c>
-      <c r="D99" t="s">
+      <c r="D100" t="s">
         <v>40</v>
       </c>
-      <c r="E99">
+      <c r="E100">
         <v>8.9309366130558185</v>
       </c>
-      <c r="F99">
+      <c r="F100">
         <f t="shared" si="9"/>
         <v>535.85619678334911</v>
       </c>
-      <c r="G99" s="3" t="s">
+      <c r="G100" s="3" t="s">
         <v>512</v>
       </c>
     </row>
-    <row r="100" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A100" t="s">
+    <row r="101" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A101" t="s">
         <v>294</v>
       </c>
-      <c r="B100" t="s">
-        <v>16</v>
-      </c>
-      <c r="C100" t="s">
+      <c r="B101" t="s">
+        <v>16</v>
+      </c>
+      <c r="C101" t="s">
         <v>513</v>
       </c>
-      <c r="D100" t="s">
+      <c r="D101" t="s">
         <v>40</v>
       </c>
-      <c r="E100">
+      <c r="E101">
         <v>2.6</v>
       </c>
-      <c r="F100">
+      <c r="F101">
         <f t="shared" si="9"/>
         <v>156</v>
       </c>
-      <c r="G100" s="3" t="s">
+      <c r="G101" s="3" t="s">
         <v>514</v>
       </c>
     </row>
-    <row r="101" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A101" t="s">
+    <row r="102" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A102" t="s">
         <v>295</v>
       </c>
-      <c r="B101" t="s">
-        <v>16</v>
-      </c>
-      <c r="C101" t="s">
+      <c r="B102" t="s">
+        <v>16</v>
+      </c>
+      <c r="C102" t="s">
         <v>515</v>
       </c>
-      <c r="D101" t="s">
+      <c r="D102" t="s">
         <v>45</v>
       </c>
-      <c r="E101">
+      <c r="E102">
         <v>0.83</v>
       </c>
-      <c r="F101">
+      <c r="F102">
         <f t="shared" si="9"/>
         <v>49.8</v>
       </c>
-      <c r="G101" s="3" t="s">
+      <c r="G102" s="3" t="s">
         <v>516</v>
       </c>
     </row>
-    <row r="102" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A102" t="s">
+    <row r="103" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A103" t="s">
         <v>296</v>
       </c>
-      <c r="B102" t="s">
-        <v>16</v>
-      </c>
-      <c r="C102" t="s">
+      <c r="B103" t="s">
+        <v>16</v>
+      </c>
+      <c r="C103" t="s">
         <v>517</v>
       </c>
-      <c r="D102" t="s">
+      <c r="D103" t="s">
         <v>88</v>
       </c>
-      <c r="E102">
+      <c r="E103">
         <v>684</v>
       </c>
-      <c r="F102">
+      <c r="F103">
         <f t="shared" si="9"/>
         <v>41040</v>
       </c>
-      <c r="G102" s="3" t="s">
+      <c r="G103" s="3" t="s">
         <v>518</v>
       </c>
     </row>
-    <row r="103" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A103" t="s">
+    <row r="104" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A104" t="s">
         <v>297</v>
       </c>
-      <c r="B103" t="s">
-        <v>16</v>
-      </c>
-      <c r="C103" t="s">
+      <c r="B104" t="s">
+        <v>16</v>
+      </c>
+      <c r="C104" t="s">
         <v>519</v>
       </c>
-      <c r="D103" t="s">
+      <c r="D104" t="s">
         <v>45</v>
       </c>
-      <c r="E103">
+      <c r="E104">
         <v>3.17</v>
       </c>
-      <c r="F103">
+      <c r="F104">
         <f t="shared" si="9"/>
         <v>190.2</v>
       </c>
-      <c r="G103" s="3" t="s">
+      <c r="G104" s="3" t="s">
         <v>520</v>
       </c>
     </row>
-    <row r="104" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A104" t="s">
+    <row r="105" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A105" t="s">
         <v>298</v>
       </c>
-      <c r="B104" t="s">
-        <v>16</v>
-      </c>
-      <c r="C104" t="s">
+      <c r="B105" t="s">
+        <v>16</v>
+      </c>
+      <c r="C105" t="s">
         <v>521</v>
       </c>
-      <c r="D104" t="s">
+      <c r="D105" t="s">
         <v>45</v>
       </c>
-      <c r="E104">
+      <c r="E105">
         <v>3.5999999999999997E-2</v>
       </c>
-      <c r="F104">
+      <c r="F105">
         <f t="shared" si="9"/>
         <v>2.1599999999999997</v>
       </c>
-      <c r="G104" s="3" t="s">
+      <c r="G105" s="3" t="s">
         <v>522</v>
       </c>
     </row>
-    <row r="105" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A105" t="s">
+    <row r="106" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A106" t="s">
         <v>299</v>
       </c>
-      <c r="B105" t="s">
-        <v>16</v>
-      </c>
-      <c r="C105" t="s">
+      <c r="B106" t="s">
+        <v>16</v>
+      </c>
+      <c r="C106" t="s">
         <v>523</v>
       </c>
-      <c r="D105" t="s">
+      <c r="D106" t="s">
         <v>45</v>
       </c>
-      <c r="E105">
+      <c r="E106">
         <v>24.1</v>
       </c>
-      <c r="F105">
+      <c r="F106">
         <f t="shared" si="9"/>
         <v>1446</v>
       </c>
-      <c r="G105" s="3" t="s">
+      <c r="G106" s="3" t="s">
         <v>524</v>
       </c>
     </row>
-    <row r="106" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A106" t="s">
+    <row r="107" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A107" t="s">
         <v>300</v>
       </c>
-      <c r="B106" t="s">
-        <v>16</v>
-      </c>
-      <c r="C106" t="s">
+      <c r="B107" t="s">
+        <v>16</v>
+      </c>
+      <c r="C107" t="s">
         <v>525</v>
       </c>
-      <c r="D106" t="s">
+      <c r="D107" t="s">
         <v>112</v>
       </c>
-      <c r="E106">
+      <c r="E107">
         <v>2.5</v>
       </c>
-      <c r="F106">
+      <c r="F107">
         <f t="shared" si="9"/>
         <v>150</v>
       </c>
-      <c r="G106" s="3" t="s">
+      <c r="G107" s="3" t="s">
         <v>526</v>
       </c>
     </row>
-    <row r="107" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A107" t="s">
+    <row r="108" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A108" t="s">
         <v>301</v>
       </c>
-      <c r="B107" t="s">
-        <v>16</v>
-      </c>
-      <c r="C107" t="s">
+      <c r="B108" t="s">
+        <v>16</v>
+      </c>
+      <c r="C108" t="s">
         <v>490</v>
       </c>
-      <c r="D107" t="s">
+      <c r="D108" t="s">
         <v>527</v>
       </c>
-      <c r="E107">
+      <c r="E108">
         <v>4.9000000000000004</v>
       </c>
-      <c r="F107">
+      <c r="F108">
         <f t="shared" si="9"/>
         <v>294</v>
       </c>
-      <c r="G107" s="3" t="s">
+      <c r="G108" s="3" t="s">
         <v>528</v>
       </c>
     </row>
-    <row r="108" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A108" t="s">
+    <row r="109" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A109" t="s">
         <v>302</v>
       </c>
-      <c r="B108" t="s">
-        <v>16</v>
-      </c>
-      <c r="C108" t="s">
+      <c r="B109" t="s">
+        <v>16</v>
+      </c>
+      <c r="C109" t="s">
         <v>443</v>
       </c>
-      <c r="D108" t="s">
+      <c r="D109" t="s">
         <v>40</v>
       </c>
-      <c r="E108">
+      <c r="E109">
         <v>1.76</v>
       </c>
-      <c r="F108">
+      <c r="F109">
         <f t="shared" si="9"/>
         <v>105.6</v>
       </c>
-      <c r="G108" s="3" t="s">
+      <c r="G109" s="3" t="s">
         <v>444</v>
       </c>
     </row>
-    <row r="109" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A109" t="s">
+    <row r="110" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A110" t="s">
         <v>303</v>
       </c>
-      <c r="B109" t="s">
-        <v>16</v>
-      </c>
-      <c r="C109" t="s">
+      <c r="B110" t="s">
+        <v>16</v>
+      </c>
+      <c r="C110" t="s">
         <v>529</v>
       </c>
-      <c r="D109" t="s">
+      <c r="D110" t="s">
         <v>42</v>
       </c>
-      <c r="E109">
+      <c r="E110">
         <v>1240</v>
       </c>
-      <c r="F109">
+      <c r="F110">
         <f t="shared" si="9"/>
         <v>74400</v>
       </c>
-      <c r="G109" s="3" t="s">
+      <c r="G110" s="3" t="s">
         <v>530</v>
       </c>
     </row>
-    <row r="110" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A110" t="s">
+    <row r="111" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A111" t="s">
         <v>304</v>
       </c>
-      <c r="B110" t="s">
-        <v>16</v>
-      </c>
-      <c r="C110" t="s">
+      <c r="B111" t="s">
+        <v>16</v>
+      </c>
+      <c r="C111" t="s">
         <v>451</v>
       </c>
-      <c r="D110" t="s">
+      <c r="D111" t="s">
         <v>45</v>
       </c>
-      <c r="E110">
+      <c r="E111">
         <v>138</v>
       </c>
-      <c r="F110">
+      <c r="F111">
         <f t="shared" si="9"/>
         <v>8280</v>
       </c>
-      <c r="G110" s="3" t="s">
+      <c r="G111" s="3" t="s">
         <v>452</v>
-      </c>
-    </row>
-    <row r="111" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A111" t="s">
-        <v>305</v>
-      </c>
-      <c r="B111" t="s">
-        <v>16</v>
-      </c>
-      <c r="C111" t="s">
-        <v>443</v>
-      </c>
-      <c r="D111" t="s">
-        <v>40</v>
-      </c>
-      <c r="E111">
-        <v>1.76</v>
-      </c>
-      <c r="F111">
-        <f t="shared" ref="F111:F120" si="10">E111*60</f>
-        <v>105.6</v>
-      </c>
-      <c r="G111" s="3" t="s">
-        <v>444</v>
       </c>
     </row>
     <row r="112" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A112" t="s">
+        <v>305</v>
+      </c>
+      <c r="B112" t="s">
+        <v>16</v>
+      </c>
+      <c r="C112" t="s">
+        <v>443</v>
+      </c>
+      <c r="D112" t="s">
+        <v>40</v>
+      </c>
+      <c r="E112">
+        <v>1.76</v>
+      </c>
+      <c r="F112">
+        <f t="shared" ref="F112:F121" si="10">E112*60</f>
+        <v>105.6</v>
+      </c>
+      <c r="G112" s="3" t="s">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="113" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A113" t="s">
         <v>306</v>
       </c>
-      <c r="B112" t="s">
-        <v>16</v>
-      </c>
-      <c r="C112" t="s">
+      <c r="B113" t="s">
+        <v>16</v>
+      </c>
+      <c r="C113" t="s">
         <v>531</v>
       </c>
-      <c r="D112" t="s">
+      <c r="D113" t="s">
         <v>45</v>
       </c>
-      <c r="E112">
+      <c r="E113">
         <v>0.73</v>
       </c>
-      <c r="F112">
+      <c r="F113">
         <f t="shared" si="10"/>
         <v>43.8</v>
       </c>
-      <c r="G112" s="3" t="s">
+      <c r="G113" s="3" t="s">
         <v>532</v>
       </c>
     </row>
-    <row r="113" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A113" t="s">
+    <row r="114" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A114" t="s">
         <v>307</v>
       </c>
-      <c r="B113" t="s">
-        <v>16</v>
-      </c>
-      <c r="C113" t="s">
+      <c r="B114" t="s">
+        <v>16</v>
+      </c>
+      <c r="C114" t="s">
         <v>478</v>
       </c>
-      <c r="D113" t="s">
+      <c r="D114" t="s">
         <v>40</v>
       </c>
-      <c r="E113">
+      <c r="E114">
         <v>5.5</v>
       </c>
-      <c r="F113">
+      <c r="F114">
         <f t="shared" si="10"/>
         <v>330</v>
       </c>
-      <c r="G113" s="3" t="s">
+      <c r="G114" s="3" t="s">
         <v>479</v>
       </c>
     </row>
-    <row r="114" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A114" t="s">
+    <row r="115" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A115" t="s">
         <v>308</v>
       </c>
-      <c r="B114" t="s">
-        <v>16</v>
-      </c>
-      <c r="C114" t="s">
+      <c r="B115" t="s">
+        <v>16</v>
+      </c>
+      <c r="C115" t="s">
         <v>451</v>
       </c>
-      <c r="D114" t="s">
+      <c r="D115" t="s">
         <v>45</v>
       </c>
-      <c r="E114">
+      <c r="E115">
         <v>138</v>
       </c>
-      <c r="F114">
+      <c r="F115">
         <f t="shared" si="10"/>
         <v>8280</v>
       </c>
-      <c r="G114" s="3" t="s">
+      <c r="G115" s="3" t="s">
         <v>452</v>
       </c>
     </row>
-    <row r="115" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A115" t="s">
+    <row r="116" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A116" t="s">
         <v>309</v>
       </c>
-      <c r="B115" t="s">
-        <v>16</v>
-      </c>
-      <c r="C115" t="s">
+      <c r="B116" t="s">
+        <v>16</v>
+      </c>
+      <c r="C116" t="s">
         <v>575</v>
       </c>
-      <c r="D115" t="s">
+      <c r="D116" t="s">
         <v>42</v>
       </c>
-      <c r="E115">
+      <c r="E116">
         <v>15</v>
       </c>
-      <c r="F115">
+      <c r="F116">
         <f t="shared" si="10"/>
         <v>900</v>
       </c>
-      <c r="G115" s="3" t="s">
+      <c r="G116" s="3" t="s">
         <v>576</v>
       </c>
     </row>
-    <row r="116" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A116" t="s">
+    <row r="117" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A117" t="s">
         <v>310</v>
       </c>
-      <c r="B116" t="s">
-        <v>16</v>
-      </c>
-      <c r="C116" t="s">
+      <c r="B117" t="s">
+        <v>16</v>
+      </c>
+      <c r="C117" t="s">
         <v>577</v>
       </c>
-      <c r="D116" t="s">
+      <c r="D117" t="s">
         <v>45</v>
       </c>
-      <c r="E116">
+      <c r="E117">
         <v>3.9199999999999999E-2</v>
       </c>
-      <c r="F116">
+      <c r="F117">
         <f t="shared" si="10"/>
         <v>2.3519999999999999</v>
       </c>
-      <c r="G116" s="3" t="s">
+      <c r="G117" s="3" t="s">
         <v>446</v>
       </c>
     </row>
-    <row r="117" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A117" t="s">
+    <row r="118" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A118" t="s">
         <v>311</v>
       </c>
-      <c r="B117" t="s">
-        <v>16</v>
-      </c>
-      <c r="C117" t="s">
+      <c r="B118" t="s">
+        <v>16</v>
+      </c>
+      <c r="C118" t="s">
         <v>535</v>
       </c>
-      <c r="D117" t="s">
+      <c r="D118" t="s">
         <v>40</v>
       </c>
-      <c r="E117">
+      <c r="E118">
         <v>3.9</v>
       </c>
-      <c r="F117">
+      <c r="F118">
         <f t="shared" si="10"/>
         <v>234</v>
       </c>
-      <c r="G117" s="3" t="s">
+      <c r="G118" s="3" t="s">
         <v>536</v>
       </c>
     </row>
-    <row r="118" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A118" t="s">
+    <row r="119" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A119" t="s">
         <v>312</v>
       </c>
-      <c r="B118" t="s">
-        <v>16</v>
-      </c>
-      <c r="C118" t="s">
+      <c r="B119" t="s">
+        <v>16</v>
+      </c>
+      <c r="C119" t="s">
         <v>578</v>
       </c>
-      <c r="D118" t="s">
+      <c r="D119" t="s">
         <v>40</v>
       </c>
-      <c r="E118">
+      <c r="E119">
         <v>1558</v>
       </c>
-      <c r="F118">
+      <c r="F119">
         <f t="shared" si="10"/>
         <v>93480</v>
       </c>
-      <c r="G118" s="3" t="s">
+      <c r="G119" s="3" t="s">
         <v>579</v>
       </c>
     </row>
-    <row r="119" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A119" t="s">
+    <row r="120" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A120" t="s">
         <v>313</v>
       </c>
-      <c r="B119" t="s">
-        <v>16</v>
-      </c>
-      <c r="C119" t="s">
+      <c r="B120" t="s">
+        <v>16</v>
+      </c>
+      <c r="C120" t="s">
         <v>580</v>
       </c>
-      <c r="D119" t="s">
+      <c r="D120" t="s">
         <v>208</v>
       </c>
-      <c r="E119">
+      <c r="E120">
         <v>166</v>
       </c>
-      <c r="F119">
+      <c r="F120">
         <f t="shared" si="10"/>
         <v>9960</v>
       </c>
-      <c r="G119" s="3" t="s">
+      <c r="G120" s="3" t="s">
         <v>581</v>
       </c>
     </row>
-    <row r="120" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A120" t="s">
+    <row r="121" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A121" t="s">
         <v>314</v>
       </c>
-      <c r="B120" t="s">
-        <v>16</v>
-      </c>
-      <c r="C120" t="s">
+      <c r="B121" t="s">
+        <v>16</v>
+      </c>
+      <c r="C121" t="s">
         <v>582</v>
       </c>
-      <c r="D120" t="s">
+      <c r="D121" t="s">
         <v>208</v>
       </c>
-      <c r="E120">
+      <c r="E121">
         <v>0.88</v>
       </c>
-      <c r="F120">
+      <c r="F121">
         <f t="shared" si="10"/>
         <v>52.8</v>
       </c>
-      <c r="G120" s="3" t="s">
+      <c r="G121" s="3" t="s">
         <v>583</v>
-      </c>
-    </row>
-    <row r="121" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A121" t="s">
-        <v>315</v>
-      </c>
-      <c r="B121" t="s">
-        <v>16</v>
-      </c>
-      <c r="C121" t="s">
-        <v>443</v>
-      </c>
-      <c r="D121" t="s">
-        <v>40</v>
-      </c>
-      <c r="E121">
-        <v>1.76</v>
-      </c>
-      <c r="F121">
-        <f t="shared" ref="F121:F129" si="11">E121*60</f>
-        <v>105.6</v>
-      </c>
-      <c r="G121" s="3" t="s">
-        <v>444</v>
       </c>
     </row>
     <row r="122" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A122" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="B122" t="s">
         <v>16</v>
       </c>
       <c r="C122" t="s">
-        <v>447</v>
+        <v>443</v>
       </c>
       <c r="D122" t="s">
         <v>40</v>
       </c>
       <c r="E122">
+        <v>1.76</v>
+      </c>
+      <c r="F122">
+        <f t="shared" ref="F122:F130" si="11">E122*60</f>
+        <v>105.6</v>
+      </c>
+      <c r="G122" s="3" t="s">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="123" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A123" t="s">
+        <v>316</v>
+      </c>
+      <c r="B123" t="s">
+        <v>16</v>
+      </c>
+      <c r="C123" t="s">
+        <v>447</v>
+      </c>
+      <c r="D123" t="s">
+        <v>40</v>
+      </c>
+      <c r="E123">
         <v>350.02</v>
       </c>
-      <c r="F122">
+      <c r="F123">
         <f t="shared" si="11"/>
         <v>21001.199999999997</v>
       </c>
-      <c r="G122" s="3" t="s">
+      <c r="G123" s="3" t="s">
         <v>448</v>
       </c>
     </row>
-    <row r="123" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A123" t="s">
+    <row r="124" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A124" t="s">
         <v>317</v>
       </c>
-      <c r="B123" t="s">
-        <v>16</v>
-      </c>
-      <c r="C123" t="s">
+      <c r="B124" t="s">
+        <v>16</v>
+      </c>
+      <c r="C124" t="s">
         <v>474</v>
       </c>
-      <c r="D123" t="s">
+      <c r="D124" t="s">
         <v>40</v>
       </c>
-      <c r="E123">
+      <c r="E124">
         <v>46</v>
       </c>
-      <c r="F123">
+      <c r="F124">
         <f t="shared" si="11"/>
         <v>2760</v>
       </c>
-      <c r="G123" s="3" t="s">
+      <c r="G124" s="3" t="s">
         <v>475</v>
       </c>
     </row>
-    <row r="124" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A124" t="s">
+    <row r="125" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A125" t="s">
         <v>318</v>
       </c>
-      <c r="B124" t="s">
-        <v>16</v>
-      </c>
-      <c r="C124" t="s">
+      <c r="B125" t="s">
+        <v>16</v>
+      </c>
+      <c r="C125" t="s">
         <v>435</v>
       </c>
-      <c r="D124" t="s">
+      <c r="D125" t="s">
         <v>45</v>
       </c>
-      <c r="E124">
+      <c r="E125">
         <v>68.3</v>
       </c>
-      <c r="F124">
+      <c r="F125">
         <f t="shared" si="11"/>
         <v>4098</v>
       </c>
-      <c r="G124" s="1" t="s">
+      <c r="G125" s="1" t="s">
         <v>436</v>
       </c>
     </row>
-    <row r="125" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A125" t="s">
+    <row r="126" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A126" t="s">
         <v>319</v>
       </c>
-      <c r="B125" t="s">
-        <v>16</v>
-      </c>
-      <c r="C125" t="s">
+      <c r="B126" t="s">
+        <v>16</v>
+      </c>
+      <c r="C126" t="s">
         <v>428</v>
       </c>
-      <c r="D125" t="s">
+      <c r="D126" t="s">
         <v>45</v>
       </c>
-      <c r="E125">
+      <c r="E126">
         <v>3.069</v>
       </c>
-      <c r="F125">
+      <c r="F126">
         <f t="shared" si="11"/>
         <v>184.14</v>
       </c>
-      <c r="G125" s="3" t="s">
+      <c r="G126" s="3" t="s">
         <v>429</v>
       </c>
     </row>
-    <row r="126" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A126" t="s">
+    <row r="127" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A127" t="s">
         <v>320</v>
       </c>
-      <c r="B126" t="s">
-        <v>16</v>
-      </c>
-      <c r="C126" t="s">
+      <c r="B127" t="s">
+        <v>16</v>
+      </c>
+      <c r="C127" t="s">
         <v>584</v>
       </c>
-      <c r="D126" t="s">
+      <c r="D127" t="s">
         <v>42</v>
       </c>
-      <c r="E126">
+      <c r="E127">
         <v>69</v>
       </c>
-      <c r="F126">
+      <c r="F127">
         <f t="shared" si="11"/>
         <v>4140</v>
       </c>
-      <c r="G126" s="3" t="s">
+      <c r="G127" s="3" t="s">
         <v>585</v>
       </c>
     </row>
-    <row r="127" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A127" t="s">
+    <row r="128" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A128" t="s">
         <v>321</v>
       </c>
-      <c r="B127" t="s">
-        <v>16</v>
-      </c>
-      <c r="C127" t="s">
+      <c r="B128" t="s">
+        <v>16</v>
+      </c>
+      <c r="C128" t="s">
         <v>586</v>
       </c>
-      <c r="D127" t="s">
+      <c r="D128" t="s">
         <v>88</v>
       </c>
-      <c r="E127">
+      <c r="E128">
         <v>47</v>
       </c>
-      <c r="F127">
+      <c r="F128">
         <f t="shared" si="11"/>
         <v>2820</v>
       </c>
-      <c r="G127" s="3" t="s">
+      <c r="G128" s="3" t="s">
         <v>587</v>
       </c>
     </row>
-    <row r="128" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A128" t="s">
+    <row r="129" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A129" t="s">
         <v>322</v>
       </c>
-      <c r="B128" t="s">
-        <v>16</v>
-      </c>
-      <c r="C128" t="s">
+      <c r="B129" t="s">
+        <v>16</v>
+      </c>
+      <c r="C129" t="s">
         <v>588</v>
       </c>
-      <c r="D128" t="s">
+      <c r="D129" t="s">
         <v>40</v>
       </c>
-      <c r="E128">
+      <c r="E129">
         <v>42</v>
       </c>
-      <c r="F128">
+      <c r="F129">
         <f t="shared" si="11"/>
         <v>2520</v>
       </c>
-      <c r="G128" s="3" t="s">
+      <c r="G129" s="3" t="s">
         <v>589</v>
       </c>
     </row>
-    <row r="129" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A129" t="s">
+    <row r="130" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A130" t="s">
         <v>323</v>
       </c>
-      <c r="B129" t="s">
-        <v>16</v>
-      </c>
-      <c r="C129" t="s">
+      <c r="B130" t="s">
+        <v>16</v>
+      </c>
+      <c r="C130" t="s">
         <v>590</v>
       </c>
-      <c r="D129" t="s">
+      <c r="D130" t="s">
         <v>42</v>
       </c>
-      <c r="E129">
+      <c r="E130">
         <v>1.4999999999999999E-2</v>
       </c>
-      <c r="F129">
+      <c r="F130">
         <f t="shared" si="11"/>
         <v>0.89999999999999991</v>
       </c>
-      <c r="G129" s="3" t="s">
-        <v>591</v>
-      </c>
-    </row>
-    <row r="130" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A130" t="s">
-        <v>324</v>
-      </c>
-      <c r="B130" t="s">
-        <v>16</v>
-      </c>
-      <c r="C130" t="s">
-        <v>590</v>
-      </c>
-      <c r="D130" t="s">
-        <v>42</v>
-      </c>
-      <c r="E130">
-        <v>1.4999999999999999E-2</v>
-      </c>
-      <c r="F130">
-        <f t="shared" ref="F130:F153" si="12">E130*60</f>
-        <v>0.89999999999999991</v>
-      </c>
       <c r="G130" s="3" t="s">
         <v>591</v>
       </c>
     </row>
     <row r="131" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A131" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="B131" t="s">
         <v>16</v>
       </c>
       <c r="C131" t="s">
-        <v>592</v>
+        <v>590</v>
       </c>
       <c r="D131" t="s">
-        <v>208</v>
+        <v>42</v>
       </c>
       <c r="E131">
-        <v>2750</v>
+        <v>1.4999999999999999E-2</v>
       </c>
       <c r="F131">
-        <f t="shared" si="12"/>
-        <v>165000</v>
+        <f t="shared" ref="F131:F154" si="12">E131*60</f>
+        <v>0.89999999999999991</v>
       </c>
       <c r="G131" s="3" t="s">
-        <v>593</v>
+        <v>591</v>
       </c>
     </row>
     <row r="132" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A132" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="B132" t="s">
         <v>16</v>
@@ -5684,7 +5686,7 @@
     </row>
     <row r="133" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A133" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="B133" t="s">
         <v>16</v>
@@ -5708,7 +5710,7 @@
     </row>
     <row r="134" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A134" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="B134" t="s">
         <v>16</v>
@@ -5732,631 +5734,631 @@
     </row>
     <row r="135" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A135" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="B135" t="s">
         <v>16</v>
       </c>
       <c r="C135" t="s">
-        <v>594</v>
+        <v>592</v>
       </c>
       <c r="D135" t="s">
-        <v>40</v>
+        <v>208</v>
       </c>
       <c r="E135">
-        <v>3.8</v>
+        <v>2750</v>
       </c>
       <c r="F135">
         <f t="shared" si="12"/>
-        <v>228</v>
+        <v>165000</v>
       </c>
       <c r="G135" s="3" t="s">
-        <v>595</v>
+        <v>593</v>
       </c>
     </row>
     <row r="136" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A136" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="B136" t="s">
         <v>16</v>
       </c>
       <c r="C136" t="s">
-        <v>596</v>
+        <v>594</v>
       </c>
       <c r="D136" t="s">
         <v>40</v>
       </c>
       <c r="E136">
-        <v>6.7</v>
+        <v>3.8</v>
       </c>
       <c r="F136">
         <f t="shared" si="12"/>
-        <v>402</v>
+        <v>228</v>
       </c>
       <c r="G136" s="3" t="s">
-        <v>597</v>
+        <v>595</v>
       </c>
     </row>
     <row r="137" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A137" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="B137" t="s">
         <v>16</v>
       </c>
       <c r="C137" t="s">
-        <v>598</v>
+        <v>596</v>
       </c>
       <c r="D137" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="E137">
-        <v>9.0999999999999998E-2</v>
+        <v>6.7</v>
       </c>
       <c r="F137">
         <f t="shared" si="12"/>
-        <v>5.46</v>
+        <v>402</v>
       </c>
       <c r="G137" s="3" t="s">
-        <v>599</v>
+        <v>597</v>
       </c>
     </row>
     <row r="138" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A138" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="B138" t="s">
         <v>16</v>
       </c>
       <c r="C138" t="s">
-        <v>600</v>
+        <v>598</v>
       </c>
       <c r="D138" t="s">
-        <v>601</v>
+        <v>45</v>
       </c>
       <c r="E138">
-        <v>1.7000000000000001E-2</v>
+        <v>9.0999999999999998E-2</v>
       </c>
       <c r="F138">
         <f t="shared" si="12"/>
-        <v>1.02</v>
+        <v>5.46</v>
       </c>
       <c r="G138" s="3" t="s">
-        <v>602</v>
+        <v>599</v>
       </c>
     </row>
     <row r="139" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A139" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="B139" t="s">
         <v>16</v>
       </c>
       <c r="C139" t="s">
-        <v>603</v>
+        <v>600</v>
       </c>
       <c r="D139" t="s">
         <v>601</v>
       </c>
       <c r="E139">
-        <v>27</v>
+        <v>1.7000000000000001E-2</v>
       </c>
       <c r="F139">
         <f t="shared" si="12"/>
-        <v>1620</v>
+        <v>1.02</v>
       </c>
       <c r="G139" s="3" t="s">
-        <v>604</v>
+        <v>602</v>
       </c>
     </row>
     <row r="140" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A140" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="B140" t="s">
         <v>16</v>
       </c>
       <c r="C140" t="s">
-        <v>605</v>
+        <v>603</v>
       </c>
       <c r="D140" t="s">
-        <v>45</v>
+        <v>601</v>
       </c>
       <c r="E140">
-        <v>1986</v>
+        <v>27</v>
       </c>
       <c r="F140">
         <f t="shared" si="12"/>
-        <v>119160</v>
+        <v>1620</v>
       </c>
       <c r="G140" s="3" t="s">
-        <v>606</v>
+        <v>604</v>
       </c>
     </row>
     <row r="141" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A141" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="B141" t="s">
         <v>16</v>
       </c>
       <c r="C141" t="s">
-        <v>607</v>
+        <v>605</v>
       </c>
       <c r="D141" t="s">
         <v>45</v>
       </c>
       <c r="E141">
-        <v>380</v>
+        <v>1986</v>
       </c>
       <c r="F141">
         <f t="shared" si="12"/>
-        <v>22800</v>
+        <v>119160</v>
       </c>
       <c r="G141" s="3" t="s">
-        <v>608</v>
+        <v>606</v>
       </c>
     </row>
     <row r="142" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A142" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="B142" t="s">
         <v>16</v>
       </c>
       <c r="C142" t="s">
-        <v>422</v>
+        <v>607</v>
       </c>
       <c r="D142" t="s">
         <v>45</v>
       </c>
       <c r="E142">
-        <v>221</v>
+        <v>380</v>
       </c>
       <c r="F142">
         <f t="shared" si="12"/>
-        <v>13260</v>
+        <v>22800</v>
       </c>
       <c r="G142" s="3" t="s">
-        <v>423</v>
+        <v>608</v>
       </c>
     </row>
     <row r="143" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A143" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="B143" t="s">
         <v>16</v>
       </c>
       <c r="C143" t="s">
-        <v>609</v>
+        <v>422</v>
       </c>
       <c r="D143" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="E143">
-        <v>140</v>
+        <v>221</v>
       </c>
       <c r="F143">
         <f t="shared" si="12"/>
-        <v>8400</v>
-      </c>
-      <c r="G143" s="1" t="s">
-        <v>610</v>
+        <v>13260</v>
+      </c>
+      <c r="G143" s="3" t="s">
+        <v>423</v>
       </c>
     </row>
     <row r="144" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A144" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="B144" t="s">
         <v>16</v>
       </c>
       <c r="C144" t="s">
-        <v>611</v>
+        <v>609</v>
       </c>
       <c r="D144" t="s">
         <v>42</v>
       </c>
       <c r="E144">
-        <v>0.13</v>
+        <v>140</v>
       </c>
       <c r="F144">
         <f t="shared" si="12"/>
-        <v>7.8000000000000007</v>
-      </c>
-      <c r="G144" s="3" t="s">
-        <v>612</v>
+        <v>8400</v>
+      </c>
+      <c r="G144" s="1" t="s">
+        <v>610</v>
       </c>
     </row>
     <row r="145" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A145" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="B145" t="s">
         <v>16</v>
       </c>
       <c r="C145" t="s">
-        <v>430</v>
+        <v>611</v>
       </c>
       <c r="D145" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="E145">
-        <v>2.08</v>
+        <v>0.13</v>
       </c>
       <c r="F145">
         <f t="shared" si="12"/>
-        <v>124.80000000000001</v>
+        <v>7.8000000000000007</v>
       </c>
       <c r="G145" s="3" t="s">
-        <v>431</v>
+        <v>612</v>
       </c>
     </row>
     <row r="146" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A146" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="B146" t="s">
         <v>16</v>
       </c>
       <c r="C146" t="s">
-        <v>428</v>
+        <v>430</v>
       </c>
       <c r="D146" t="s">
         <v>45</v>
       </c>
       <c r="E146">
-        <v>3.069</v>
+        <v>2.08</v>
       </c>
       <c r="F146">
         <f t="shared" si="12"/>
-        <v>184.14</v>
+        <v>124.80000000000001</v>
       </c>
       <c r="G146" s="3" t="s">
-        <v>429</v>
+        <v>431</v>
       </c>
     </row>
     <row r="147" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A147" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="B147" t="s">
         <v>16</v>
       </c>
       <c r="C147" t="s">
-        <v>615</v>
+        <v>428</v>
       </c>
       <c r="D147" t="s">
-        <v>616</v>
+        <v>45</v>
       </c>
       <c r="E147">
-        <v>1.6999999999999999E-3</v>
+        <v>3.069</v>
       </c>
       <c r="F147">
         <f t="shared" si="12"/>
-        <v>0.10199999999999999</v>
+        <v>184.14</v>
       </c>
       <c r="G147" s="3" t="s">
-        <v>617</v>
+        <v>429</v>
       </c>
     </row>
     <row r="148" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A148" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="B148" t="s">
         <v>16</v>
       </c>
       <c r="C148" t="s">
-        <v>618</v>
+        <v>615</v>
       </c>
       <c r="D148" t="s">
-        <v>40</v>
+        <v>616</v>
       </c>
       <c r="E148">
-        <v>29.1</v>
+        <v>1.6999999999999999E-3</v>
       </c>
       <c r="F148">
         <f t="shared" si="12"/>
-        <v>1746</v>
+        <v>0.10199999999999999</v>
       </c>
       <c r="G148" s="3" t="s">
-        <v>619</v>
+        <v>617</v>
       </c>
     </row>
     <row r="149" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A149" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="B149" t="s">
         <v>16</v>
       </c>
       <c r="C149" t="s">
-        <v>620</v>
+        <v>618</v>
       </c>
       <c r="D149" t="s">
-        <v>621</v>
+        <v>40</v>
       </c>
       <c r="E149">
-        <v>509</v>
+        <v>29.1</v>
       </c>
       <c r="F149">
         <f t="shared" si="12"/>
-        <v>30540</v>
+        <v>1746</v>
       </c>
       <c r="G149" s="3" t="s">
-        <v>622</v>
+        <v>619</v>
       </c>
     </row>
     <row r="150" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A150" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="B150" t="s">
         <v>16</v>
       </c>
       <c r="C150" t="s">
-        <v>623</v>
+        <v>620</v>
       </c>
       <c r="D150" t="s">
-        <v>45</v>
+        <v>621</v>
       </c>
       <c r="E150">
-        <v>0.56999999999999995</v>
+        <v>509</v>
       </c>
       <c r="F150">
         <f t="shared" si="12"/>
-        <v>34.199999999999996</v>
+        <v>30540</v>
       </c>
       <c r="G150" s="3" t="s">
-        <v>624</v>
+        <v>622</v>
       </c>
     </row>
     <row r="151" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A151" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="B151" t="s">
         <v>16</v>
       </c>
       <c r="C151" t="s">
-        <v>188</v>
+        <v>623</v>
       </c>
       <c r="D151" t="s">
         <v>45</v>
       </c>
       <c r="E151">
-        <v>38.6</v>
+        <v>0.56999999999999995</v>
       </c>
       <c r="F151">
         <f t="shared" si="12"/>
-        <v>2316</v>
+        <v>34.199999999999996</v>
       </c>
       <c r="G151" s="3" t="s">
-        <v>189</v>
+        <v>624</v>
       </c>
     </row>
     <row r="152" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A152" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="B152" t="s">
         <v>16</v>
       </c>
       <c r="C152" t="s">
-        <v>613</v>
+        <v>188</v>
       </c>
       <c r="D152" t="s">
         <v>45</v>
       </c>
       <c r="E152">
-        <v>48.6</v>
+        <v>38.6</v>
       </c>
       <c r="F152">
         <f t="shared" si="12"/>
-        <v>2916</v>
+        <v>2316</v>
       </c>
       <c r="G152" s="3" t="s">
-        <v>614</v>
+        <v>189</v>
       </c>
     </row>
     <row r="153" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A153" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="B153" t="s">
         <v>16</v>
       </c>
       <c r="C153" t="s">
-        <v>474</v>
+        <v>613</v>
       </c>
       <c r="D153" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="E153">
-        <v>46</v>
+        <v>48.6</v>
       </c>
       <c r="F153">
         <f t="shared" si="12"/>
-        <v>2760</v>
+        <v>2916</v>
       </c>
       <c r="G153" s="3" t="s">
-        <v>475</v>
+        <v>614</v>
       </c>
     </row>
     <row r="154" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A154" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="B154" t="s">
         <v>16</v>
       </c>
       <c r="C154" t="s">
-        <v>549</v>
+        <v>474</v>
       </c>
       <c r="D154" t="s">
-        <v>208</v>
+        <v>40</v>
       </c>
       <c r="E154">
-        <v>26.8</v>
+        <v>46</v>
       </c>
       <c r="F154">
-        <f t="shared" ref="F154:F158" si="13">E154*60</f>
-        <v>1608</v>
+        <f t="shared" si="12"/>
+        <v>2760</v>
       </c>
       <c r="G154" s="3" t="s">
-        <v>550</v>
+        <v>475</v>
       </c>
     </row>
     <row r="155" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A155" t="s">
+        <v>348</v>
+      </c>
+      <c r="B155" t="s">
+        <v>16</v>
+      </c>
+      <c r="C155" t="s">
+        <v>549</v>
+      </c>
+      <c r="D155" t="s">
+        <v>208</v>
+      </c>
+      <c r="E155">
+        <v>26.8</v>
+      </c>
+      <c r="F155">
+        <f t="shared" ref="F155:F159" si="13">E155*60</f>
+        <v>1608</v>
+      </c>
+      <c r="G155" s="3" t="s">
+        <v>550</v>
+      </c>
+    </row>
+    <row r="156" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A156" t="s">
         <v>349</v>
       </c>
-      <c r="B155" t="s">
-        <v>16</v>
-      </c>
-      <c r="C155" t="s">
+      <c r="B156" t="s">
+        <v>16</v>
+      </c>
+      <c r="C156" t="s">
         <v>627</v>
       </c>
-      <c r="D155" t="s">
+      <c r="D156" t="s">
         <v>45</v>
       </c>
-      <c r="E155">
+      <c r="E156">
         <v>21</v>
       </c>
-      <c r="F155">
+      <c r="F156">
         <f t="shared" si="13"/>
         <v>1260</v>
       </c>
-      <c r="G155" s="3" t="s">
+      <c r="G156" s="3" t="s">
         <v>628</v>
       </c>
     </row>
-    <row r="156" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A156" t="s">
+    <row r="157" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A157" t="s">
         <v>350</v>
       </c>
-      <c r="B156" t="s">
-        <v>16</v>
-      </c>
-      <c r="C156" t="s">
+      <c r="B157" t="s">
+        <v>16</v>
+      </c>
+      <c r="C157" t="s">
         <v>625</v>
       </c>
-      <c r="D156" t="s">
+      <c r="D157" t="s">
         <v>40</v>
       </c>
-      <c r="E156">
+      <c r="E157">
         <v>1570</v>
       </c>
-      <c r="F156">
+      <c r="F157">
         <f t="shared" si="13"/>
         <v>94200</v>
       </c>
-      <c r="G156" s="3" t="s">
+      <c r="G157" s="3" t="s">
         <v>626</v>
       </c>
     </row>
-    <row r="157" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A157" t="s">
+    <row r="158" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A158" t="s">
         <v>351</v>
       </c>
-      <c r="B157" t="s">
-        <v>16</v>
-      </c>
-      <c r="C157" t="s">
+      <c r="B158" t="s">
+        <v>16</v>
+      </c>
+      <c r="C158" t="s">
         <v>478</v>
       </c>
-      <c r="D157" t="s">
+      <c r="D158" t="s">
         <v>40</v>
       </c>
-      <c r="E157">
+      <c r="E158">
         <v>5.5</v>
       </c>
-      <c r="F157">
+      <c r="F158">
         <f t="shared" si="13"/>
         <v>330</v>
       </c>
-      <c r="G157" s="3" t="s">
+      <c r="G158" s="3" t="s">
         <v>479</v>
       </c>
     </row>
-    <row r="158" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A158" t="s">
+    <row r="159" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A159" t="s">
         <v>352</v>
       </c>
-      <c r="B158" t="s">
-        <v>16</v>
-      </c>
-      <c r="C158" t="s">
+      <c r="B159" t="s">
+        <v>16</v>
+      </c>
+      <c r="C159" t="s">
         <v>629</v>
       </c>
-      <c r="D158" t="s">
+      <c r="D159" t="s">
         <v>40</v>
       </c>
-      <c r="E158">
+      <c r="E159">
         <v>3.3</v>
       </c>
-      <c r="F158">
+      <c r="F159">
         <f t="shared" si="13"/>
         <v>198</v>
       </c>
-      <c r="G158" s="3" t="s">
+      <c r="G159" s="3" t="s">
         <v>630</v>
-      </c>
-    </row>
-    <row r="159" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A159" t="s">
-        <v>353</v>
-      </c>
-      <c r="B159" t="s">
-        <v>16</v>
-      </c>
-      <c r="C159" t="s">
-        <v>545</v>
-      </c>
-      <c r="D159" t="s">
-        <v>88</v>
-      </c>
-      <c r="E159">
-        <v>19.899999999999999</v>
-      </c>
-      <c r="F159">
-        <f t="shared" ref="F159:F170" si="14">E159*60</f>
-        <v>1194</v>
-      </c>
-      <c r="G159" s="3" t="s">
-        <v>546</v>
       </c>
     </row>
     <row r="160" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A160" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="B160" t="s">
         <v>16</v>
       </c>
       <c r="C160" t="s">
-        <v>631</v>
+        <v>545</v>
       </c>
       <c r="D160" t="s">
-        <v>42</v>
+        <v>88</v>
       </c>
       <c r="E160">
-        <v>23.2</v>
+        <v>19.899999999999999</v>
       </c>
       <c r="F160">
-        <f t="shared" si="14"/>
-        <v>1392</v>
+        <f t="shared" ref="F160:F171" si="14">E160*60</f>
+        <v>1194</v>
       </c>
       <c r="G160" s="3" t="s">
-        <v>632</v>
+        <v>546</v>
       </c>
     </row>
     <row r="161" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A161" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="B161" t="s">
         <v>16</v>
@@ -6380,1066 +6382,1066 @@
     </row>
     <row r="162" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A162" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="B162" t="s">
         <v>16</v>
       </c>
       <c r="C162" t="s">
-        <v>633</v>
+        <v>631</v>
       </c>
       <c r="D162" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="E162">
-        <v>4.2</v>
+        <v>23.2</v>
       </c>
       <c r="F162">
         <f t="shared" si="14"/>
-        <v>252</v>
+        <v>1392</v>
       </c>
       <c r="G162" s="3" t="s">
-        <v>634</v>
+        <v>632</v>
       </c>
     </row>
     <row r="163" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A163" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="B163" t="s">
         <v>16</v>
       </c>
       <c r="C163" t="s">
-        <v>635</v>
+        <v>633</v>
       </c>
       <c r="D163" t="s">
-        <v>88</v>
+        <v>40</v>
       </c>
       <c r="E163">
-        <v>1.82</v>
+        <v>4.2</v>
       </c>
       <c r="F163">
         <f t="shared" si="14"/>
-        <v>109.2</v>
+        <v>252</v>
       </c>
       <c r="G163" s="3" t="s">
-        <v>636</v>
+        <v>634</v>
       </c>
     </row>
     <row r="164" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A164" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="B164" t="s">
         <v>16</v>
       </c>
       <c r="C164" t="s">
-        <v>637</v>
+        <v>635</v>
       </c>
       <c r="D164" t="s">
-        <v>145</v>
+        <v>88</v>
       </c>
       <c r="E164">
-        <v>0.16</v>
+        <v>1.82</v>
       </c>
       <c r="F164">
         <f t="shared" si="14"/>
-        <v>9.6</v>
+        <v>109.2</v>
       </c>
       <c r="G164" s="3" t="s">
-        <v>638</v>
+        <v>636</v>
       </c>
     </row>
     <row r="165" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A165" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="B165" t="s">
         <v>16</v>
       </c>
       <c r="C165" t="s">
-        <v>639</v>
+        <v>637</v>
       </c>
       <c r="D165" t="s">
         <v>145</v>
       </c>
       <c r="E165">
-        <v>0.43</v>
+        <v>0.16</v>
       </c>
       <c r="F165">
         <f t="shared" si="14"/>
-        <v>25.8</v>
+        <v>9.6</v>
       </c>
       <c r="G165" s="3" t="s">
-        <v>640</v>
+        <v>638</v>
       </c>
     </row>
     <row r="166" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A166" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="B166" t="s">
         <v>16</v>
       </c>
       <c r="C166" t="s">
-        <v>641</v>
+        <v>639</v>
       </c>
       <c r="D166" t="s">
-        <v>40</v>
+        <v>145</v>
       </c>
       <c r="E166">
-        <v>23.3</v>
+        <v>0.43</v>
       </c>
       <c r="F166">
         <f t="shared" si="14"/>
-        <v>1398</v>
+        <v>25.8</v>
       </c>
       <c r="G166" s="3" t="s">
-        <v>642</v>
+        <v>640</v>
       </c>
     </row>
     <row r="167" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A167" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="B167" t="s">
         <v>16</v>
       </c>
       <c r="C167" t="s">
-        <v>643</v>
+        <v>641</v>
       </c>
       <c r="D167" t="s">
-        <v>88</v>
+        <v>40</v>
       </c>
       <c r="E167">
-        <v>2.36</v>
+        <v>23.3</v>
       </c>
       <c r="F167">
         <f t="shared" si="14"/>
-        <v>141.6</v>
+        <v>1398</v>
       </c>
       <c r="G167" s="3" t="s">
-        <v>644</v>
+        <v>642</v>
       </c>
     </row>
     <row r="168" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A168" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="B168" t="s">
         <v>16</v>
       </c>
       <c r="C168" t="s">
-        <v>641</v>
+        <v>643</v>
       </c>
       <c r="D168" t="s">
-        <v>40</v>
+        <v>88</v>
       </c>
       <c r="E168">
-        <v>23.3</v>
+        <v>2.36</v>
       </c>
       <c r="F168">
         <f t="shared" si="14"/>
-        <v>1398</v>
+        <v>141.6</v>
       </c>
       <c r="G168" s="3" t="s">
-        <v>642</v>
+        <v>644</v>
       </c>
     </row>
     <row r="169" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A169" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="B169" t="s">
         <v>16</v>
       </c>
       <c r="C169" t="s">
-        <v>645</v>
+        <v>641</v>
       </c>
       <c r="D169" t="s">
         <v>40</v>
       </c>
       <c r="E169">
-        <v>3.74</v>
+        <v>23.3</v>
       </c>
       <c r="F169">
         <f t="shared" si="14"/>
-        <v>224.4</v>
+        <v>1398</v>
       </c>
       <c r="G169" s="3" t="s">
-        <v>646</v>
+        <v>642</v>
       </c>
     </row>
     <row r="170" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A170" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="B170" t="s">
         <v>16</v>
       </c>
       <c r="C170" t="s">
-        <v>647</v>
+        <v>645</v>
       </c>
       <c r="D170" t="s">
         <v>40</v>
       </c>
       <c r="E170">
-        <v>2.956</v>
+        <v>3.74</v>
       </c>
       <c r="F170">
         <f t="shared" si="14"/>
-        <v>177.35999999999999</v>
+        <v>224.4</v>
       </c>
       <c r="G170" s="3" t="s">
-        <v>648</v>
+        <v>646</v>
       </c>
     </row>
     <row r="171" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A171" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="B171" t="s">
         <v>16</v>
       </c>
       <c r="C171" t="s">
-        <v>435</v>
+        <v>647</v>
       </c>
       <c r="D171" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="E171">
-        <v>68.3</v>
+        <v>2.956</v>
       </c>
       <c r="F171">
-        <f t="shared" ref="F171:F193" si="15">E171*60</f>
-        <v>4098</v>
-      </c>
-      <c r="G171" s="1" t="s">
-        <v>436</v>
+        <f t="shared" si="14"/>
+        <v>177.35999999999999</v>
+      </c>
+      <c r="G171" s="3" t="s">
+        <v>648</v>
       </c>
     </row>
     <row r="172" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A172" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="B172" t="s">
         <v>16</v>
       </c>
       <c r="C172" t="s">
-        <v>451</v>
+        <v>435</v>
       </c>
       <c r="D172" t="s">
         <v>45</v>
       </c>
       <c r="E172">
+        <v>68.3</v>
+      </c>
+      <c r="F172">
+        <f t="shared" ref="F172:F194" si="15">E172*60</f>
+        <v>4098</v>
+      </c>
+      <c r="G172" s="1" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="173" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A173" t="s">
+        <v>366</v>
+      </c>
+      <c r="B173" t="s">
+        <v>16</v>
+      </c>
+      <c r="C173" t="s">
+        <v>451</v>
+      </c>
+      <c r="D173" t="s">
+        <v>45</v>
+      </c>
+      <c r="E173">
         <v>138</v>
       </c>
-      <c r="F172">
+      <c r="F173">
         <f t="shared" si="15"/>
         <v>8280</v>
       </c>
-      <c r="G172" s="3" t="s">
+      <c r="G173" s="3" t="s">
         <v>452</v>
       </c>
     </row>
-    <row r="173" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A173" t="s">
+    <row r="174" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A174" t="s">
         <v>367</v>
       </c>
-      <c r="B173" t="s">
-        <v>16</v>
-      </c>
-      <c r="C173" t="s">
+      <c r="B174" t="s">
+        <v>16</v>
+      </c>
+      <c r="C174" t="s">
         <v>474</v>
       </c>
-      <c r="D173" t="s">
+      <c r="D174" t="s">
         <v>40</v>
       </c>
-      <c r="E173">
+      <c r="E174">
         <v>46</v>
       </c>
-      <c r="F173">
+      <c r="F174">
         <f t="shared" si="15"/>
         <v>2760</v>
       </c>
-      <c r="G173" s="3" t="s">
+      <c r="G174" s="3" t="s">
         <v>475</v>
       </c>
     </row>
-    <row r="174" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A174" t="s">
+    <row r="175" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A175" t="s">
         <v>368</v>
       </c>
-      <c r="B174" t="s">
-        <v>16</v>
-      </c>
-      <c r="C174" t="s">
+      <c r="B175" t="s">
+        <v>16</v>
+      </c>
+      <c r="C175" t="s">
         <v>649</v>
       </c>
-      <c r="D174" t="s">
+      <c r="D175" t="s">
         <v>88</v>
       </c>
-      <c r="E174">
+      <c r="E175">
         <v>24</v>
       </c>
-      <c r="F174">
+      <c r="F175">
         <f t="shared" si="15"/>
         <v>1440</v>
       </c>
-      <c r="G174" s="3" t="s">
+      <c r="G175" s="3" t="s">
         <v>650</v>
       </c>
     </row>
-    <row r="175" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A175" t="s">
+    <row r="176" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A176" t="s">
         <v>369</v>
       </c>
-      <c r="B175" t="s">
-        <v>16</v>
-      </c>
-      <c r="C175" t="s">
+      <c r="B176" t="s">
+        <v>16</v>
+      </c>
+      <c r="C176" t="s">
         <v>478</v>
       </c>
-      <c r="D175" t="s">
+      <c r="D176" t="s">
         <v>40</v>
       </c>
-      <c r="E175">
+      <c r="E176">
         <v>5.5</v>
       </c>
-      <c r="F175">
+      <c r="F176">
         <f t="shared" si="15"/>
         <v>330</v>
       </c>
-      <c r="G175" s="3" t="s">
+      <c r="G176" s="3" t="s">
         <v>479</v>
       </c>
     </row>
-    <row r="176" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A176" t="s">
+    <row r="177" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A177" t="s">
         <v>370</v>
       </c>
-      <c r="B176" t="s">
-        <v>16</v>
-      </c>
-      <c r="C176" t="s">
+      <c r="B177" t="s">
+        <v>16</v>
+      </c>
+      <c r="C177" t="s">
         <v>652</v>
       </c>
-      <c r="D176" t="s">
+      <c r="D177" t="s">
         <v>651</v>
       </c>
-      <c r="E176">
+      <c r="E177">
         <v>0.7</v>
       </c>
-      <c r="F176">
+      <c r="F177">
         <f t="shared" si="15"/>
         <v>42</v>
       </c>
-      <c r="G176" s="3" t="s">
+      <c r="G177" s="3" t="s">
         <v>653</v>
       </c>
     </row>
-    <row r="177" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A177" t="s">
+    <row r="178" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A178" t="s">
         <v>371</v>
       </c>
-      <c r="B177" t="s">
-        <v>16</v>
-      </c>
-      <c r="C177" t="s">
+      <c r="B178" t="s">
+        <v>16</v>
+      </c>
+      <c r="C178" t="s">
         <v>451</v>
       </c>
-      <c r="D177" t="s">
+      <c r="D178" t="s">
         <v>45</v>
       </c>
-      <c r="E177">
+      <c r="E178">
         <v>138</v>
       </c>
-      <c r="F177">
+      <c r="F178">
         <f t="shared" si="15"/>
         <v>8280</v>
       </c>
-      <c r="G177" s="3" t="s">
+      <c r="G178" s="3" t="s">
         <v>452</v>
       </c>
     </row>
-    <row r="178" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A178" t="s">
+    <row r="179" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A179" t="s">
         <v>372</v>
       </c>
-      <c r="B178" t="s">
-        <v>16</v>
-      </c>
-      <c r="C178" t="s">
+      <c r="B179" t="s">
+        <v>16</v>
+      </c>
+      <c r="C179" t="s">
         <v>654</v>
       </c>
-      <c r="D178" t="s">
+      <c r="D179" t="s">
         <v>40</v>
       </c>
-      <c r="E178">
+      <c r="E179">
         <v>216</v>
       </c>
-      <c r="F178">
+      <c r="F179">
         <f t="shared" si="15"/>
         <v>12960</v>
       </c>
-      <c r="G178" s="3" t="s">
+      <c r="G179" s="3" t="s">
         <v>655</v>
       </c>
     </row>
-    <row r="179" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A179" t="s">
+    <row r="180" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A180" t="s">
         <v>373</v>
       </c>
-      <c r="B179" t="s">
-        <v>16</v>
-      </c>
-      <c r="C179" t="s">
+      <c r="B180" t="s">
+        <v>16</v>
+      </c>
+      <c r="C180" t="s">
         <v>656</v>
       </c>
-      <c r="D179" t="s">
+      <c r="D180" t="s">
         <v>88</v>
       </c>
-      <c r="E179">
+      <c r="E180">
         <v>7.25</v>
       </c>
-      <c r="F179">
+      <c r="F180">
         <f t="shared" si="15"/>
         <v>435</v>
       </c>
-      <c r="G179" s="3" t="s">
+      <c r="G180" s="3" t="s">
         <v>657</v>
       </c>
     </row>
-    <row r="180" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A180" t="s">
+    <row r="181" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A181" t="s">
         <v>374</v>
       </c>
-      <c r="B180" t="s">
-        <v>16</v>
-      </c>
-      <c r="C180" t="s">
+      <c r="B181" t="s">
+        <v>16</v>
+      </c>
+      <c r="C181" t="s">
         <v>658</v>
       </c>
-      <c r="D180" t="s">
+      <c r="D181" t="s">
         <v>45</v>
       </c>
-      <c r="E180">
+      <c r="E181">
         <v>10.4</v>
       </c>
-      <c r="F180">
+      <c r="F181">
         <f t="shared" si="15"/>
         <v>624</v>
       </c>
-      <c r="G180" s="1" t="s">
+      <c r="G181" s="1" t="s">
         <v>659</v>
       </c>
     </row>
-    <row r="181" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A181" t="s">
+    <row r="182" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A182" t="s">
         <v>375</v>
       </c>
-      <c r="B181" t="s">
-        <v>16</v>
-      </c>
-      <c r="C181" t="s">
+      <c r="B182" t="s">
+        <v>16</v>
+      </c>
+      <c r="C182" t="s">
         <v>464</v>
       </c>
-      <c r="D181" t="s">
+      <c r="D182" t="s">
         <v>45</v>
       </c>
-      <c r="E181">
+      <c r="E182">
         <v>51</v>
       </c>
-      <c r="F181">
+      <c r="F182">
         <f t="shared" si="15"/>
         <v>3060</v>
       </c>
-      <c r="G181" s="3" t="s">
+      <c r="G182" s="3" t="s">
         <v>465</v>
       </c>
     </row>
-    <row r="182" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A182" t="s">
+    <row r="183" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A183" t="s">
         <v>376</v>
       </c>
-      <c r="B182" t="s">
-        <v>16</v>
-      </c>
-      <c r="C182" t="s">
+      <c r="B183" t="s">
+        <v>16</v>
+      </c>
+      <c r="C183" t="s">
         <v>428</v>
       </c>
-      <c r="D182" t="s">
+      <c r="D183" t="s">
         <v>45</v>
       </c>
-      <c r="E182">
+      <c r="E183">
         <v>3.069</v>
       </c>
-      <c r="F182">
+      <c r="F183">
         <f t="shared" si="15"/>
         <v>184.14</v>
       </c>
-      <c r="G182" s="3" t="s">
+      <c r="G183" s="3" t="s">
         <v>429</v>
       </c>
     </row>
-    <row r="183" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A183" t="s">
+    <row r="184" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A184" t="s">
         <v>377</v>
       </c>
-      <c r="B183" t="s">
-        <v>16</v>
-      </c>
-      <c r="C183" t="s">
+      <c r="B184" t="s">
+        <v>16</v>
+      </c>
+      <c r="C184" t="s">
         <v>443</v>
       </c>
-      <c r="D183" t="s">
+      <c r="D184" t="s">
         <v>40</v>
       </c>
-      <c r="E183">
+      <c r="E184">
         <v>1.76</v>
       </c>
-      <c r="F183">
+      <c r="F184">
         <f t="shared" si="15"/>
         <v>105.6</v>
       </c>
-      <c r="G183" s="3" t="s">
+      <c r="G184" s="3" t="s">
         <v>444</v>
       </c>
     </row>
-    <row r="184" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A184" t="s">
+    <row r="185" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A185" t="s">
         <v>378</v>
       </c>
-      <c r="B184" t="s">
-        <v>16</v>
-      </c>
-      <c r="C184" t="s">
+      <c r="B185" t="s">
+        <v>16</v>
+      </c>
+      <c r="C185" t="s">
         <v>660</v>
       </c>
-      <c r="D184" t="s">
+      <c r="D185" t="s">
         <v>45</v>
       </c>
-      <c r="E184">
+      <c r="E185">
         <v>1</v>
       </c>
-      <c r="F184">
+      <c r="F185">
         <f t="shared" si="15"/>
         <v>60</v>
       </c>
-      <c r="G184" s="3" t="s">
+      <c r="G185" s="3" t="s">
         <v>661</v>
       </c>
     </row>
-    <row r="185" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A185" t="s">
+    <row r="186" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A186" t="s">
         <v>379</v>
       </c>
-      <c r="B185" t="s">
-        <v>16</v>
-      </c>
-      <c r="C185" t="s">
+      <c r="B186" t="s">
+        <v>16</v>
+      </c>
+      <c r="C186" t="s">
         <v>531</v>
       </c>
-      <c r="D185" t="s">
+      <c r="D186" t="s">
         <v>45</v>
       </c>
-      <c r="E185">
+      <c r="E186">
         <v>0.73</v>
       </c>
-      <c r="F185">
+      <c r="F186">
         <f t="shared" si="15"/>
         <v>43.8</v>
       </c>
-      <c r="G185" s="3" t="s">
+      <c r="G186" s="3" t="s">
         <v>532</v>
       </c>
     </row>
-    <row r="186" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A186" t="s">
+    <row r="187" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A187" t="s">
         <v>380</v>
       </c>
-      <c r="B186" t="s">
-        <v>16</v>
-      </c>
-      <c r="C186" t="s">
+      <c r="B187" t="s">
+        <v>16</v>
+      </c>
+      <c r="C187" t="s">
         <v>662</v>
       </c>
-      <c r="D186" t="s">
+      <c r="D187" t="s">
         <v>663</v>
       </c>
-      <c r="E186">
+      <c r="E187">
         <v>3.8</v>
       </c>
-      <c r="F186">
+      <c r="F187">
         <f t="shared" si="15"/>
         <v>228</v>
       </c>
-      <c r="G186" s="3" t="s">
+      <c r="G187" s="3" t="s">
         <v>664</v>
       </c>
     </row>
-    <row r="187" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A187" t="s">
+    <row r="188" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A188" t="s">
         <v>381</v>
       </c>
-      <c r="B187" t="s">
-        <v>16</v>
-      </c>
-      <c r="C187" t="s">
+      <c r="B188" t="s">
+        <v>16</v>
+      </c>
+      <c r="C188" t="s">
         <v>430</v>
       </c>
-      <c r="D187" t="s">
+      <c r="D188" t="s">
         <v>45</v>
       </c>
-      <c r="E187">
+      <c r="E188">
         <v>2.08</v>
       </c>
-      <c r="F187">
+      <c r="F188">
         <f t="shared" si="15"/>
         <v>124.80000000000001</v>
       </c>
-      <c r="G187" s="3" t="s">
+      <c r="G188" s="3" t="s">
         <v>431</v>
       </c>
     </row>
-    <row r="188" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A188" t="s">
+    <row r="189" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A189" t="s">
         <v>382</v>
       </c>
-      <c r="B188" t="s">
-        <v>16</v>
-      </c>
-      <c r="C188" t="s">
+      <c r="B189" t="s">
+        <v>16</v>
+      </c>
+      <c r="C189" t="s">
         <v>665</v>
       </c>
-      <c r="D188" t="s">
+      <c r="D189" t="s">
         <v>42</v>
       </c>
-      <c r="E188">
+      <c r="E189">
         <v>0.39500000000000002</v>
       </c>
-      <c r="F188">
+      <c r="F189">
         <f t="shared" si="15"/>
         <v>23.700000000000003</v>
       </c>
-      <c r="G188" s="3" t="s">
+      <c r="G189" s="3" t="s">
         <v>666</v>
       </c>
     </row>
-    <row r="189" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A189" t="s">
+    <row r="190" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A190" t="s">
         <v>383</v>
       </c>
-      <c r="B189" t="s">
-        <v>16</v>
-      </c>
-      <c r="C189" t="s">
+      <c r="B190" t="s">
+        <v>16</v>
+      </c>
+      <c r="C190" t="s">
         <v>618</v>
       </c>
-      <c r="D189" t="s">
+      <c r="D190" t="s">
         <v>40</v>
       </c>
-      <c r="E189">
+      <c r="E190">
         <v>29.1</v>
       </c>
-      <c r="F189">
+      <c r="F190">
         <f t="shared" si="15"/>
         <v>1746</v>
       </c>
-      <c r="G189" s="3" t="s">
+      <c r="G190" s="3" t="s">
         <v>619</v>
       </c>
     </row>
-    <row r="190" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A190" t="s">
+    <row r="191" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A191" t="s">
         <v>681</v>
       </c>
-      <c r="B190" t="s">
-        <v>16</v>
-      </c>
-      <c r="C190" t="s">
+      <c r="B191" t="s">
+        <v>16</v>
+      </c>
+      <c r="C191" t="s">
         <v>687</v>
       </c>
-      <c r="D190" t="s">
+      <c r="D191" t="s">
         <v>688</v>
       </c>
-      <c r="E190">
+      <c r="E191">
         <v>0.68</v>
       </c>
-      <c r="F190">
+      <c r="F191">
         <f t="shared" si="15"/>
         <v>40.800000000000004</v>
       </c>
-      <c r="G190" s="3" t="s">
+      <c r="G191" s="3" t="s">
         <v>689</v>
       </c>
     </row>
-    <row r="191" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A191" t="s">
+    <row r="192" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A192" t="s">
         <v>682</v>
       </c>
-      <c r="B191" t="s">
-        <v>16</v>
-      </c>
-      <c r="C191" t="s">
+      <c r="B192" t="s">
+        <v>16</v>
+      </c>
+      <c r="C192" t="s">
         <v>690</v>
       </c>
-      <c r="D191" t="s">
+      <c r="D192" t="s">
         <v>691</v>
       </c>
-      <c r="E191">
+      <c r="E192">
         <v>2.66</v>
       </c>
-      <c r="F191">
+      <c r="F192">
         <f t="shared" si="15"/>
         <v>159.60000000000002</v>
       </c>
-      <c r="G191" s="3" t="s">
+      <c r="G192" s="3" t="s">
         <v>692</v>
       </c>
     </row>
-    <row r="192" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A192" t="s">
+    <row r="193" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A193" t="s">
         <v>683</v>
       </c>
-      <c r="B192" t="s">
-        <v>16</v>
-      </c>
-      <c r="C192" t="s">
+      <c r="B193" t="s">
+        <v>16</v>
+      </c>
+      <c r="C193" t="s">
         <v>693</v>
       </c>
-      <c r="D192" t="s">
+      <c r="D193" t="s">
         <v>694</v>
       </c>
-      <c r="E192">
+      <c r="E193">
         <v>0.05</v>
       </c>
-      <c r="F192">
+      <c r="F193">
         <f t="shared" si="15"/>
         <v>3</v>
       </c>
-      <c r="G192" s="3" t="s">
+      <c r="G193" s="3" t="s">
         <v>695</v>
       </c>
     </row>
-    <row r="193" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A193" t="s">
+    <row r="194" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A194" t="s">
         <v>684</v>
       </c>
-      <c r="B193" t="s">
-        <v>16</v>
-      </c>
-      <c r="C193" t="s">
+      <c r="B194" t="s">
+        <v>16</v>
+      </c>
+      <c r="C194" t="s">
         <v>696</v>
       </c>
-      <c r="D193" t="s">
+      <c r="D194" t="s">
         <v>208</v>
       </c>
-      <c r="E193">
+      <c r="E194">
         <v>0.69</v>
       </c>
-      <c r="F193">
+      <c r="F194">
         <f t="shared" si="15"/>
         <v>41.4</v>
       </c>
-      <c r="G193" s="3" t="s">
+      <c r="G194" s="3" t="s">
         <v>697</v>
       </c>
     </row>
-    <row r="194" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A194" t="s">
+    <row r="195" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A195" t="s">
         <v>26</v>
       </c>
-      <c r="B194" t="s">
+      <c r="B195" t="s">
         <v>38</v>
       </c>
-      <c r="C194" t="s">
+      <c r="C195" t="s">
         <v>86</v>
       </c>
-      <c r="D194" t="s">
+      <c r="D195" t="s">
         <v>45</v>
       </c>
-      <c r="E194">
+      <c r="E195">
         <v>11</v>
       </c>
-      <c r="F194">
+      <c r="F195">
         <f t="shared" si="0"/>
         <v>660</v>
       </c>
-      <c r="G194" s="3" t="s">
+      <c r="G195" s="3" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="195" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A195" t="s">
+    <row r="196" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A196" t="s">
         <v>27</v>
       </c>
-      <c r="B195" t="s">
+      <c r="B196" t="s">
         <v>38</v>
       </c>
-      <c r="C195" t="s">
+      <c r="C196" t="s">
         <v>89</v>
       </c>
-      <c r="D195" t="s">
+      <c r="D196" t="s">
         <v>88</v>
       </c>
-      <c r="E195">
+      <c r="E196">
         <v>0.127</v>
       </c>
-      <c r="F195">
+      <c r="F196">
         <f t="shared" si="0"/>
         <v>7.62</v>
       </c>
-      <c r="G195" s="3" t="s">
+      <c r="G196" s="3" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="196" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A196" t="s">
+    <row r="197" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A197" t="s">
         <v>28</v>
       </c>
-      <c r="B196" t="s">
+      <c r="B197" t="s">
         <v>38</v>
       </c>
-      <c r="C196" t="s">
+      <c r="C197" t="s">
         <v>92</v>
       </c>
-      <c r="D196" t="s">
+      <c r="D197" t="s">
         <v>91</v>
       </c>
-      <c r="E196">
+      <c r="E197">
         <v>6.13</v>
       </c>
-      <c r="F196">
+      <c r="F197">
         <f t="shared" si="0"/>
         <v>367.8</v>
       </c>
-      <c r="G196" s="3" t="s">
+      <c r="G197" s="3" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="197" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A197" t="s">
+    <row r="198" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A198" t="s">
         <v>29</v>
       </c>
-      <c r="B197" t="s">
+      <c r="B198" t="s">
         <v>38</v>
       </c>
-      <c r="C197" t="s">
+      <c r="C198" t="s">
         <v>94</v>
       </c>
-      <c r="D197" t="s">
+      <c r="D198" t="s">
         <v>45</v>
       </c>
-      <c r="E197">
+      <c r="E198">
         <v>31</v>
       </c>
-      <c r="F197">
+      <c r="F198">
         <f t="shared" si="0"/>
         <v>1860</v>
       </c>
-      <c r="G197" s="3" t="s">
+      <c r="G198" s="3" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="198" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A198" t="s">
+    <row r="199" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A199" t="s">
         <v>30</v>
       </c>
-      <c r="B198" t="s">
+      <c r="B199" t="s">
         <v>38</v>
       </c>
-      <c r="C198" t="s">
+      <c r="C199" t="s">
         <v>97</v>
       </c>
-      <c r="D198" t="s">
+      <c r="D199" t="s">
         <v>96</v>
       </c>
-      <c r="E198">
+      <c r="E199">
         <v>252</v>
       </c>
-      <c r="F198">
+      <c r="F199">
         <f t="shared" si="0"/>
         <v>15120</v>
       </c>
-      <c r="G198" s="3" t="s">
+      <c r="G199" s="3" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="199" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A199" t="s">
+    <row r="200" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A200" t="s">
         <v>31</v>
       </c>
-      <c r="B199" t="s">
+      <c r="B200" t="s">
         <v>38</v>
       </c>
-      <c r="C199" t="s">
+      <c r="C200" t="s">
         <v>100</v>
       </c>
-      <c r="D199" t="s">
+      <c r="D200" t="s">
         <v>99</v>
       </c>
-      <c r="E199">
+      <c r="E200">
         <v>22.1</v>
       </c>
-      <c r="F199">
+      <c r="F200">
         <f t="shared" si="0"/>
         <v>1326</v>
       </c>
-      <c r="G199" s="3" t="s">
+      <c r="G200" s="3" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="200" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A200" t="s">
+    <row r="201" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A201" t="s">
         <v>32</v>
       </c>
-      <c r="B200" t="s">
+      <c r="B201" t="s">
         <v>38</v>
       </c>
-      <c r="C200" t="s">
+      <c r="C201" t="s">
         <v>102</v>
       </c>
-      <c r="D200" t="s">
+      <c r="D201" t="s">
         <v>40</v>
       </c>
-      <c r="E200">
+      <c r="E201">
         <v>3.9E-2</v>
       </c>
-      <c r="F200">
+      <c r="F201">
         <f t="shared" si="0"/>
         <v>2.34</v>
       </c>
-      <c r="G200" s="3" t="s">
+      <c r="G201" s="3" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="201" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A201" t="s">
+    <row r="202" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A202" t="s">
         <v>33</v>
       </c>
-      <c r="B201" t="s">
+      <c r="B202" t="s">
         <v>38</v>
       </c>
-      <c r="C201" t="s">
+      <c r="C202" t="s">
         <v>104</v>
       </c>
-      <c r="D201" t="s">
+      <c r="D202" t="s">
         <v>45</v>
       </c>
-      <c r="E201">
+      <c r="E202">
         <v>450</v>
       </c>
-      <c r="F201">
+      <c r="F202">
         <f t="shared" si="0"/>
         <v>27000</v>
       </c>
-      <c r="G201" s="3" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="202" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A202" t="s">
-        <v>699</v>
-      </c>
-      <c r="B202" t="s">
-        <v>16</v>
-      </c>
-      <c r="C202" t="s">
-        <v>104</v>
-      </c>
-      <c r="D202" t="s">
-        <v>45</v>
-      </c>
-      <c r="E202">
-        <v>450</v>
-      </c>
-      <c r="F202">
-        <f t="shared" ref="F202" si="16">E202*60</f>
-        <v>27000</v>
-      </c>
       <c r="G202" s="3" t="s">
         <v>105</v>
       </c>
     </row>
     <row r="203" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A203" t="s">
-        <v>34</v>
+        <v>699</v>
       </c>
       <c r="B203" t="s">
-        <v>38</v>
+        <v>16</v>
       </c>
       <c r="C203" t="s">
-        <v>47</v>
+        <v>104</v>
       </c>
       <c r="D203" t="s">
         <v>45</v>
       </c>
       <c r="E203">
+        <v>450</v>
+      </c>
+      <c r="F203">
+        <f t="shared" ref="F203" si="16">E203*60</f>
+        <v>27000</v>
+      </c>
+      <c r="G203" s="3" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="204" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A204" t="s">
+        <v>34</v>
+      </c>
+      <c r="B204" t="s">
+        <v>38</v>
+      </c>
+      <c r="C204" t="s">
+        <v>47</v>
+      </c>
+      <c r="D204" t="s">
+        <v>45</v>
+      </c>
+      <c r="E204">
         <v>182</v>
       </c>
-      <c r="F203">
+      <c r="F204">
         <f t="shared" si="0"/>
         <v>10920</v>
       </c>
-      <c r="G203" s="3" t="s">
+      <c r="G204" s="3" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="204" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A204" t="s">
+    <row r="205" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A205" t="s">
         <v>35</v>
       </c>
-      <c r="B204" t="s">
+      <c r="B205" t="s">
         <v>38</v>
       </c>
-      <c r="C204" t="s">
+      <c r="C205" t="s">
         <v>41</v>
       </c>
-      <c r="D204" t="s">
+      <c r="D205" t="s">
         <v>88</v>
       </c>
-      <c r="E204">
+      <c r="E205">
         <v>345</v>
       </c>
-      <c r="F204">
+      <c r="F205">
         <f t="shared" si="0"/>
         <v>20700</v>
       </c>
-      <c r="G204" s="3" t="s">
+      <c r="G205" s="3" t="s">
         <v>106</v>
-      </c>
-    </row>
-    <row r="205" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A205" t="s">
-        <v>36</v>
-      </c>
-      <c r="B205" t="s">
-        <v>38</v>
-      </c>
-      <c r="C205" t="s">
-        <v>43</v>
-      </c>
-      <c r="D205" t="s">
-        <v>45</v>
-      </c>
-      <c r="E205">
-        <v>170</v>
-      </c>
-      <c r="F205">
-        <f t="shared" si="0"/>
-        <v>10200</v>
-      </c>
-      <c r="G205" s="3" t="s">
-        <v>46</v>
       </c>
     </row>
     <row r="206" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A206" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B206" t="s">
-        <v>16</v>
+        <v>38</v>
       </c>
       <c r="C206" t="s">
         <v>43</v>
@@ -7460,119 +7462,119 @@
     </row>
     <row r="207" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A207" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="B207" t="s">
         <v>16</v>
       </c>
       <c r="C207" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="D207" t="s">
         <v>45</v>
       </c>
       <c r="E207">
-        <v>182</v>
+        <v>170</v>
       </c>
       <c r="F207">
         <f t="shared" si="0"/>
-        <v>10920</v>
+        <v>10200</v>
       </c>
       <c r="G207" s="3" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="208" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A208" t="s">
-        <v>159</v>
+        <v>44</v>
       </c>
       <c r="B208" t="s">
-        <v>38</v>
+        <v>16</v>
       </c>
       <c r="C208" t="s">
-        <v>174</v>
+        <v>47</v>
       </c>
       <c r="D208" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="E208">
-        <v>40</v>
+        <v>182</v>
       </c>
       <c r="F208">
         <f t="shared" si="0"/>
-        <v>2400</v>
+        <v>10920</v>
       </c>
       <c r="G208" s="3" t="s">
-        <v>173</v>
+        <v>48</v>
       </c>
     </row>
     <row r="209" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A209" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="B209" t="s">
         <v>38</v>
       </c>
       <c r="C209" t="s">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="D209" t="s">
-        <v>88</v>
+        <v>42</v>
       </c>
       <c r="E209">
-        <v>0.84</v>
+        <v>40</v>
       </c>
       <c r="F209">
         <f t="shared" si="0"/>
-        <v>50.4</v>
-      </c>
-      <c r="G209" s="5" t="s">
-        <v>172</v>
+        <v>2400</v>
+      </c>
+      <c r="G209" s="3" t="s">
+        <v>173</v>
       </c>
     </row>
     <row r="210" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A210" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="B210" t="s">
         <v>38</v>
       </c>
       <c r="C210" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="D210" t="s">
-        <v>42</v>
+        <v>88</v>
       </c>
       <c r="E210">
-        <v>0.55000000000000004</v>
+        <v>0.84</v>
       </c>
       <c r="F210">
         <f t="shared" si="0"/>
-        <v>33</v>
-      </c>
-      <c r="G210" s="6" t="s">
-        <v>169</v>
+        <v>50.4</v>
+      </c>
+      <c r="G210" s="5" t="s">
+        <v>172</v>
       </c>
     </row>
     <row r="211" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A211" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="B211" t="s">
         <v>38</v>
       </c>
       <c r="C211" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="D211" t="s">
         <v>42</v>
       </c>
       <c r="E211">
-        <v>7.1</v>
+        <v>0.55000000000000004</v>
       </c>
       <c r="F211">
         <f t="shared" si="0"/>
-        <v>426</v>
+        <v>33</v>
       </c>
       <c r="G211" s="6" t="s">
         <v>169</v>
@@ -7580,1351 +7582,1351 @@
     </row>
     <row r="212" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A212" t="s">
-        <v>180</v>
+        <v>162</v>
       </c>
       <c r="B212" t="s">
         <v>38</v>
       </c>
       <c r="C212" t="s">
-        <v>184</v>
+        <v>168</v>
       </c>
       <c r="D212" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="E212">
-        <v>2300</v>
+        <v>7.1</v>
       </c>
       <c r="F212">
         <f t="shared" si="0"/>
-        <v>138000</v>
+        <v>426</v>
       </c>
       <c r="G212" s="6" t="s">
-        <v>185</v>
+        <v>169</v>
       </c>
     </row>
     <row r="213" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A213" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B213" t="s">
         <v>38</v>
       </c>
       <c r="C213" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="D213" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="E213">
-        <v>0.22800000000000001</v>
+        <v>2300</v>
       </c>
       <c r="F213">
         <f t="shared" si="0"/>
-        <v>13.68</v>
+        <v>138000</v>
       </c>
       <c r="G213" s="6" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
     </row>
     <row r="214" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A214" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="B214" t="s">
         <v>38</v>
       </c>
       <c r="C214" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="D214" t="s">
         <v>45</v>
       </c>
       <c r="E214">
-        <v>38.6</v>
+        <v>0.22800000000000001</v>
       </c>
       <c r="F214">
         <f t="shared" si="0"/>
-        <v>2316</v>
+        <v>13.68</v>
       </c>
       <c r="G214" s="6" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
     </row>
     <row r="215" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A215" t="s">
-        <v>209</v>
+        <v>182</v>
       </c>
       <c r="B215" t="s">
         <v>38</v>
       </c>
       <c r="C215" t="s">
-        <v>210</v>
+        <v>188</v>
       </c>
       <c r="D215" t="s">
-        <v>88</v>
+        <v>45</v>
       </c>
       <c r="E215">
-        <v>28.3</v>
+        <v>38.6</v>
       </c>
       <c r="F215">
         <f t="shared" si="0"/>
-        <v>1698</v>
+        <v>2316</v>
       </c>
       <c r="G215" s="6" t="s">
-        <v>211</v>
+        <v>189</v>
       </c>
     </row>
     <row r="216" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A216" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="B216" t="s">
         <v>38</v>
       </c>
       <c r="C216" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="D216" t="s">
-        <v>45</v>
+        <v>88</v>
       </c>
       <c r="E216">
-        <v>5.7999999999999996E-3</v>
+        <v>28.3</v>
       </c>
       <c r="F216">
         <f t="shared" si="0"/>
-        <v>0.34799999999999998</v>
+        <v>1698</v>
       </c>
       <c r="G216" s="6" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
     </row>
     <row r="217" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A217" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="B217" t="s">
         <v>38</v>
       </c>
       <c r="C217" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="D217" t="s">
-        <v>88</v>
+        <v>45</v>
       </c>
       <c r="E217">
-        <v>0.185</v>
+        <v>5.7999999999999996E-3</v>
       </c>
       <c r="F217">
         <f t="shared" si="0"/>
-        <v>11.1</v>
+        <v>0.34799999999999998</v>
       </c>
       <c r="G217" s="6" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
     </row>
     <row r="218" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A218" t="s">
-        <v>221</v>
+        <v>215</v>
       </c>
       <c r="B218" t="s">
         <v>38</v>
       </c>
       <c r="C218" t="s">
-        <v>222</v>
+        <v>216</v>
       </c>
       <c r="D218" t="s">
         <v>88</v>
       </c>
       <c r="E218">
-        <v>133</v>
+        <v>0.185</v>
       </c>
       <c r="F218">
         <f t="shared" si="0"/>
-        <v>7980</v>
+        <v>11.1</v>
       </c>
       <c r="G218" s="6" t="s">
-        <v>223</v>
+        <v>217</v>
       </c>
     </row>
     <row r="219" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A219" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="B219" t="s">
         <v>38</v>
       </c>
       <c r="C219" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="D219" t="s">
-        <v>45</v>
+        <v>88</v>
       </c>
       <c r="E219">
-        <v>2.2999999999999998</v>
+        <v>133</v>
       </c>
       <c r="F219">
         <f t="shared" si="0"/>
-        <v>138</v>
+        <v>7980</v>
       </c>
       <c r="G219" s="6" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
     </row>
     <row r="220" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A220" t="s">
-        <v>228</v>
+        <v>224</v>
       </c>
       <c r="B220" t="s">
         <v>38</v>
       </c>
       <c r="C220" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="D220" t="s">
         <v>45</v>
       </c>
       <c r="E220">
-        <v>1334</v>
+        <v>2.2999999999999998</v>
       </c>
       <c r="F220">
         <f t="shared" si="0"/>
-        <v>80040</v>
+        <v>138</v>
       </c>
       <c r="G220" s="6" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
     </row>
     <row r="221" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A221" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="B221" t="s">
         <v>38</v>
       </c>
       <c r="C221" t="s">
-        <v>231</v>
+        <v>227</v>
       </c>
       <c r="D221" t="s">
         <v>45</v>
       </c>
       <c r="E221">
-        <v>220</v>
+        <v>1334</v>
       </c>
       <c r="F221">
         <f t="shared" si="0"/>
-        <v>13200</v>
+        <v>80040</v>
       </c>
       <c r="G221" s="6" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
     </row>
     <row r="222" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A222" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="B222" t="s">
         <v>38</v>
       </c>
       <c r="C222" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="D222" t="s">
         <v>45</v>
       </c>
       <c r="E222">
-        <v>58.2</v>
+        <v>220</v>
       </c>
       <c r="F222">
         <f t="shared" si="0"/>
-        <v>3492</v>
+        <v>13200</v>
       </c>
       <c r="G222" s="6" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
     </row>
     <row r="223" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A223" t="s">
-        <v>384</v>
+        <v>233</v>
       </c>
       <c r="B223" t="s">
         <v>38</v>
       </c>
       <c r="C223" t="s">
-        <v>533</v>
+        <v>234</v>
       </c>
       <c r="D223" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="E223">
-        <v>13.9</v>
+        <v>58.2</v>
       </c>
       <c r="F223">
         <f t="shared" si="0"/>
-        <v>834</v>
-      </c>
-      <c r="G223" s="3" t="s">
-        <v>534</v>
+        <v>3492</v>
+      </c>
+      <c r="G223" s="6" t="s">
+        <v>235</v>
       </c>
     </row>
     <row r="224" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A224" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="B224" t="s">
         <v>38</v>
       </c>
       <c r="C224" t="s">
-        <v>535</v>
+        <v>533</v>
       </c>
       <c r="D224" t="s">
         <v>40</v>
       </c>
       <c r="E224">
-        <v>3.9</v>
+        <v>13.9</v>
       </c>
       <c r="F224">
         <f t="shared" si="0"/>
-        <v>234</v>
+        <v>834</v>
       </c>
       <c r="G224" s="3" t="s">
-        <v>536</v>
+        <v>534</v>
       </c>
     </row>
     <row r="225" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A225" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="B225" t="s">
         <v>38</v>
       </c>
       <c r="C225" t="s">
-        <v>541</v>
+        <v>535</v>
       </c>
       <c r="D225" t="s">
         <v>40</v>
       </c>
       <c r="E225">
-        <v>430</v>
+        <v>3.9</v>
       </c>
       <c r="F225">
         <f t="shared" si="0"/>
-        <v>25800</v>
+        <v>234</v>
       </c>
       <c r="G225" s="3" t="s">
-        <v>542</v>
+        <v>536</v>
       </c>
     </row>
     <row r="226" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A226" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="B226" t="s">
         <v>38</v>
       </c>
       <c r="C226" t="s">
-        <v>543</v>
+        <v>541</v>
       </c>
       <c r="D226" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="E226">
-        <v>26.4</v>
+        <v>430</v>
       </c>
       <c r="F226">
         <f t="shared" si="0"/>
-        <v>1584</v>
+        <v>25800</v>
       </c>
       <c r="G226" s="3" t="s">
-        <v>544</v>
+        <v>542</v>
       </c>
     </row>
     <row r="227" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A227" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="B227" t="s">
         <v>38</v>
       </c>
       <c r="C227" t="s">
-        <v>545</v>
+        <v>543</v>
       </c>
       <c r="D227" t="s">
-        <v>88</v>
+        <v>45</v>
       </c>
       <c r="E227">
-        <v>19.899999999999999</v>
+        <v>26.4</v>
       </c>
       <c r="F227">
-        <f>E227*60</f>
-        <v>1194</v>
+        <f t="shared" si="0"/>
+        <v>1584</v>
       </c>
       <c r="G227" s="3" t="s">
-        <v>546</v>
+        <v>544</v>
       </c>
     </row>
     <row r="228" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A228" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="B228" t="s">
         <v>38</v>
       </c>
       <c r="C228" t="s">
-        <v>539</v>
+        <v>545</v>
       </c>
       <c r="D228" t="s">
-        <v>45</v>
+        <v>88</v>
       </c>
       <c r="E228">
-        <v>7</v>
+        <v>19.899999999999999</v>
       </c>
       <c r="F228">
-        <f t="shared" ref="F228:F243" si="17">E228*60</f>
-        <v>420</v>
+        <f>E228*60</f>
+        <v>1194</v>
       </c>
       <c r="G228" s="3" t="s">
-        <v>540</v>
+        <v>546</v>
       </c>
     </row>
     <row r="229" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A229" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="B229" t="s">
         <v>38</v>
       </c>
       <c r="C229" t="s">
-        <v>537</v>
+        <v>539</v>
       </c>
       <c r="D229" t="s">
         <v>45</v>
       </c>
       <c r="E229">
+        <v>7</v>
+      </c>
+      <c r="F229">
+        <f t="shared" ref="F229:F244" si="17">E229*60</f>
+        <v>420</v>
+      </c>
+      <c r="G229" s="3" t="s">
+        <v>540</v>
+      </c>
+    </row>
+    <row r="230" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A230" t="s">
+        <v>390</v>
+      </c>
+      <c r="B230" t="s">
+        <v>38</v>
+      </c>
+      <c r="C230" t="s">
+        <v>537</v>
+      </c>
+      <c r="D230" t="s">
+        <v>45</v>
+      </c>
+      <c r="E230">
         <v>2.9</v>
       </c>
-      <c r="F229">
+      <c r="F230">
         <f t="shared" si="17"/>
         <v>174</v>
       </c>
-      <c r="G229" s="3" t="s">
+      <c r="G230" s="3" t="s">
         <v>538</v>
       </c>
     </row>
-    <row r="230" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A230" t="s">
+    <row r="231" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A231" t="s">
         <v>391</v>
       </c>
-      <c r="B230" t="s">
+      <c r="B231" t="s">
         <v>38</v>
       </c>
-      <c r="C230" t="s">
+      <c r="C231" t="s">
         <v>462</v>
       </c>
-      <c r="D230" t="s">
+      <c r="D231" t="s">
         <v>88</v>
       </c>
-      <c r="E230">
+      <c r="E231">
         <v>3.3</v>
       </c>
-      <c r="F230">
+      <c r="F231">
         <f t="shared" si="17"/>
         <v>198</v>
       </c>
-      <c r="G230" s="3" t="s">
+      <c r="G231" s="3" t="s">
         <v>463</v>
       </c>
     </row>
-    <row r="231" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A231" t="s">
+    <row r="232" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A232" t="s">
         <v>392</v>
       </c>
-      <c r="B231" t="s">
+      <c r="B232" t="s">
         <v>38</v>
       </c>
-      <c r="C231" t="s">
+      <c r="C232" t="s">
         <v>547</v>
       </c>
-      <c r="D231" t="s">
+      <c r="D232" t="s">
         <v>40</v>
       </c>
-      <c r="E231">
+      <c r="E232">
         <v>24.9</v>
       </c>
-      <c r="F231">
+      <c r="F232">
         <f t="shared" si="17"/>
         <v>1494</v>
       </c>
-      <c r="G231" s="3" t="s">
+      <c r="G232" s="3" t="s">
         <v>548</v>
       </c>
     </row>
-    <row r="232" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A232" t="s">
+    <row r="233" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A233" t="s">
         <v>393</v>
       </c>
-      <c r="B232" t="s">
+      <c r="B233" t="s">
         <v>38</v>
       </c>
-      <c r="C232" t="s">
+      <c r="C233" t="s">
         <v>43</v>
       </c>
-      <c r="D232" t="s">
+      <c r="D233" t="s">
         <v>45</v>
       </c>
-      <c r="E232">
+      <c r="E233">
         <v>170</v>
       </c>
-      <c r="F232">
+      <c r="F233">
         <f t="shared" si="17"/>
         <v>10200</v>
       </c>
-      <c r="G232" s="3" t="s">
+      <c r="G233" s="3" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="233" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A233" t="s">
+    <row r="234" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A234" t="s">
         <v>394</v>
       </c>
-      <c r="B233" t="s">
+      <c r="B234" t="s">
         <v>38</v>
       </c>
-      <c r="C233" t="s">
+      <c r="C234" t="s">
         <v>478</v>
       </c>
-      <c r="D233" t="s">
+      <c r="D234" t="s">
         <v>40</v>
       </c>
-      <c r="E233">
+      <c r="E234">
         <v>5.5</v>
       </c>
-      <c r="F233">
+      <c r="F234">
         <f t="shared" si="17"/>
         <v>330</v>
       </c>
-      <c r="G233" s="3" t="s">
+      <c r="G234" s="3" t="s">
         <v>479</v>
       </c>
     </row>
-    <row r="234" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A234" t="s">
+    <row r="235" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A235" t="s">
         <v>395</v>
       </c>
-      <c r="B234" t="s">
+      <c r="B235" t="s">
         <v>38</v>
       </c>
-      <c r="C234" t="s">
+      <c r="C235" t="s">
         <v>549</v>
       </c>
-      <c r="D234" t="s">
+      <c r="D235" t="s">
         <v>208</v>
       </c>
-      <c r="E234">
+      <c r="E235">
         <v>26.8</v>
       </c>
-      <c r="F234">
+      <c r="F235">
         <f t="shared" si="17"/>
         <v>1608</v>
       </c>
-      <c r="G234" s="3" t="s">
+      <c r="G235" s="3" t="s">
         <v>550</v>
       </c>
     </row>
-    <row r="235" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A235" t="s">
+    <row r="236" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A236" t="s">
         <v>396</v>
       </c>
-      <c r="B235" t="s">
+      <c r="B236" t="s">
         <v>38</v>
       </c>
-      <c r="C235" t="s">
+      <c r="C236" t="s">
         <v>551</v>
       </c>
-      <c r="D235" t="s">
+      <c r="D236" t="s">
         <v>40</v>
       </c>
-      <c r="E235">
+      <c r="E236">
         <v>1.5</v>
       </c>
-      <c r="F235">
+      <c r="F236">
         <f t="shared" si="17"/>
         <v>90</v>
       </c>
-      <c r="G235" s="3" t="s">
+      <c r="G236" s="3" t="s">
         <v>552</v>
       </c>
     </row>
-    <row r="236" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A236" t="s">
+    <row r="237" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A237" t="s">
         <v>397</v>
       </c>
-      <c r="B236" t="s">
+      <c r="B237" t="s">
         <v>38</v>
       </c>
-      <c r="C236" t="s">
+      <c r="C237" t="s">
         <v>535</v>
       </c>
-      <c r="D236" t="s">
+      <c r="D237" t="s">
         <v>40</v>
       </c>
-      <c r="E236">
+      <c r="E237">
         <v>3.9</v>
       </c>
-      <c r="F236">
+      <c r="F237">
         <f t="shared" si="17"/>
         <v>234</v>
       </c>
-      <c r="G236" s="3" t="s">
+      <c r="G237" s="3" t="s">
         <v>536</v>
       </c>
     </row>
-    <row r="237" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A237" t="s">
+    <row r="238" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A238" t="s">
         <v>398</v>
       </c>
-      <c r="B237" t="s">
+      <c r="B238" t="s">
         <v>38</v>
       </c>
-      <c r="C237" t="s">
+      <c r="C238" t="s">
         <v>168</v>
       </c>
-      <c r="D237" t="s">
+      <c r="D238" t="s">
         <v>42</v>
       </c>
-      <c r="E237">
+      <c r="E238">
         <v>7.1</v>
       </c>
-      <c r="F237">
+      <c r="F238">
         <f t="shared" si="17"/>
         <v>426</v>
       </c>
-      <c r="G237" s="4" t="s">
+      <c r="G238" s="4" t="s">
         <v>169</v>
       </c>
     </row>
-    <row r="238" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A238" t="s">
+    <row r="239" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A239" t="s">
         <v>399</v>
       </c>
-      <c r="B238" t="s">
+      <c r="B239" t="s">
         <v>38</v>
       </c>
-      <c r="C238" t="s">
+      <c r="C239" t="s">
         <v>553</v>
       </c>
-      <c r="D238" t="s">
+      <c r="D239" t="s">
         <v>433</v>
       </c>
-      <c r="E238">
+      <c r="E239">
         <v>410</v>
       </c>
-      <c r="F238">
+      <c r="F239">
         <f t="shared" si="17"/>
         <v>24600</v>
       </c>
-      <c r="G238" s="3" t="s">
+      <c r="G239" s="3" t="s">
         <v>554</v>
       </c>
     </row>
-    <row r="239" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A239" t="s">
+    <row r="240" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A240" t="s">
         <v>400</v>
       </c>
-      <c r="B239" t="s">
+      <c r="B240" t="s">
         <v>38</v>
       </c>
-      <c r="C239" t="s">
+      <c r="C240" t="s">
         <v>196</v>
       </c>
-      <c r="D239" t="s">
+      <c r="D240" t="s">
         <v>40</v>
       </c>
-      <c r="E239">
+      <c r="E240">
         <v>5.9709873654656063</v>
       </c>
-      <c r="F239">
+      <c r="F240">
         <f t="shared" si="17"/>
         <v>358.25924192793639</v>
       </c>
-      <c r="G239" s="3" t="s">
+      <c r="G240" s="3" t="s">
         <v>555</v>
       </c>
     </row>
-    <row r="240" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A240" t="s">
+    <row r="241" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A241" t="s">
         <v>401</v>
       </c>
-      <c r="B240" t="s">
+      <c r="B241" t="s">
         <v>38</v>
       </c>
-      <c r="C240" t="s">
+      <c r="C241" t="s">
         <v>482</v>
       </c>
-      <c r="D240" t="s">
+      <c r="D241" t="s">
         <v>88</v>
       </c>
-      <c r="E240">
+      <c r="E241">
         <v>8.1999999999999993</v>
       </c>
-      <c r="F240">
+      <c r="F241">
         <f t="shared" si="17"/>
         <v>491.99999999999994</v>
       </c>
-      <c r="G240" s="3" t="s">
+      <c r="G241" s="3" t="s">
         <v>483</v>
       </c>
     </row>
-    <row r="241" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A241" t="s">
+    <row r="242" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A242" t="s">
         <v>402</v>
       </c>
-      <c r="B241" t="s">
+      <c r="B242" t="s">
         <v>38</v>
       </c>
-      <c r="C241" t="s">
+      <c r="C242" t="s">
         <v>556</v>
       </c>
-      <c r="D241" t="s">
+      <c r="D242" t="s">
         <v>76</v>
       </c>
-      <c r="E241">
+      <c r="E242">
         <v>1.08</v>
       </c>
-      <c r="F241">
+      <c r="F242">
         <f t="shared" si="17"/>
         <v>64.800000000000011</v>
       </c>
-      <c r="G241" s="3" t="s">
+      <c r="G242" s="3" t="s">
         <v>557</v>
       </c>
     </row>
-    <row r="242" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A242" t="s">
+    <row r="243" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A243" t="s">
         <v>403</v>
       </c>
-      <c r="B242" t="s">
+      <c r="B243" t="s">
         <v>38</v>
       </c>
-      <c r="C242" t="s">
+      <c r="C243" t="s">
         <v>458</v>
       </c>
-      <c r="D242" t="s">
+      <c r="D243" t="s">
         <v>42</v>
       </c>
-      <c r="E242">
+      <c r="E243">
         <v>206</v>
       </c>
-      <c r="F242">
+      <c r="F243">
         <f t="shared" si="17"/>
         <v>12360</v>
       </c>
-      <c r="G242" s="3" t="s">
+      <c r="G243" s="3" t="s">
         <v>459</v>
       </c>
     </row>
-    <row r="243" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A243" t="s">
+    <row r="244" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A244" t="s">
         <v>404</v>
       </c>
-      <c r="B243" t="s">
+      <c r="B244" t="s">
         <v>38</v>
       </c>
-      <c r="C243" t="s">
+      <c r="C244" t="s">
         <v>558</v>
       </c>
-      <c r="D243" t="s">
+      <c r="D244" t="s">
         <v>88</v>
       </c>
-      <c r="E243">
+      <c r="E244">
         <v>1.83</v>
       </c>
-      <c r="F243">
+      <c r="F244">
         <f t="shared" si="17"/>
         <v>109.80000000000001</v>
       </c>
-      <c r="G243" s="3" t="s">
+      <c r="G244" s="3" t="s">
         <v>559</v>
-      </c>
-    </row>
-    <row r="244" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A244" t="s">
-        <v>405</v>
-      </c>
-      <c r="B244" t="s">
-        <v>38</v>
-      </c>
-      <c r="C244" t="s">
-        <v>478</v>
-      </c>
-      <c r="D244" t="s">
-        <v>40</v>
-      </c>
-      <c r="E244">
-        <v>5.5</v>
-      </c>
-      <c r="F244">
-        <f t="shared" ref="F244:F246" si="18">E244*60</f>
-        <v>330</v>
-      </c>
-      <c r="G244" s="3" t="s">
-        <v>479</v>
       </c>
     </row>
     <row r="245" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A245" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="B245" t="s">
         <v>38</v>
       </c>
       <c r="C245" t="s">
+        <v>478</v>
+      </c>
+      <c r="D245" t="s">
+        <v>40</v>
+      </c>
+      <c r="E245">
+        <v>5.5</v>
+      </c>
+      <c r="F245">
+        <f t="shared" ref="F245:F247" si="18">E245*60</f>
+        <v>330</v>
+      </c>
+      <c r="G245" s="3" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="246" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A246" t="s">
+        <v>406</v>
+      </c>
+      <c r="B246" t="s">
+        <v>38</v>
+      </c>
+      <c r="C246" t="s">
         <v>560</v>
       </c>
-      <c r="D245" t="s">
+      <c r="D246" t="s">
         <v>45</v>
       </c>
-      <c r="E245">
+      <c r="E246">
         <v>5.6</v>
       </c>
-      <c r="F245">
+      <c r="F246">
         <f t="shared" si="18"/>
         <v>336</v>
       </c>
-      <c r="G245" s="3" t="s">
+      <c r="G246" s="3" t="s">
         <v>561</v>
       </c>
     </row>
-    <row r="246" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A246" t="s">
+    <row r="247" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A247" t="s">
         <v>407</v>
       </c>
-      <c r="B246" t="s">
+      <c r="B247" t="s">
         <v>38</v>
       </c>
-      <c r="C246" t="s">
+      <c r="C247" t="s">
         <v>556</v>
       </c>
-      <c r="D246" t="s">
+      <c r="D247" t="s">
         <v>76</v>
       </c>
-      <c r="E246">
+      <c r="E247">
         <v>1.08</v>
       </c>
-      <c r="F246">
+      <c r="F247">
         <f t="shared" si="18"/>
         <v>64.800000000000011</v>
       </c>
-      <c r="G246" s="3" t="s">
+      <c r="G247" s="3" t="s">
         <v>557</v>
-      </c>
-    </row>
-    <row r="247" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A247" t="s">
-        <v>408</v>
-      </c>
-      <c r="B247" t="s">
-        <v>38</v>
-      </c>
-      <c r="C247" t="s">
-        <v>478</v>
-      </c>
-      <c r="D247" t="s">
-        <v>40</v>
-      </c>
-      <c r="E247">
-        <v>5.5</v>
-      </c>
-      <c r="F247">
-        <f t="shared" ref="F247:F248" si="19">E247*60</f>
-        <v>330</v>
-      </c>
-      <c r="G247" s="3" t="s">
-        <v>479</v>
       </c>
     </row>
     <row r="248" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A248" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="B248" t="s">
         <v>38</v>
       </c>
       <c r="C248" t="s">
-        <v>562</v>
+        <v>478</v>
       </c>
       <c r="D248" t="s">
         <v>40</v>
       </c>
       <c r="E248">
+        <v>5.5</v>
+      </c>
+      <c r="F248">
+        <f t="shared" ref="F248:F249" si="19">E248*60</f>
+        <v>330</v>
+      </c>
+      <c r="G248" s="3" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="249" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A249" t="s">
+        <v>409</v>
+      </c>
+      <c r="B249" t="s">
+        <v>38</v>
+      </c>
+      <c r="C249" t="s">
+        <v>562</v>
+      </c>
+      <c r="D249" t="s">
+        <v>40</v>
+      </c>
+      <c r="E249">
         <v>11.7</v>
       </c>
-      <c r="F248">
+      <c r="F249">
         <f t="shared" si="19"/>
         <v>702</v>
       </c>
-      <c r="G248" s="3" t="s">
+      <c r="G249" s="3" t="s">
         <v>563</v>
-      </c>
-    </row>
-    <row r="249" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A249" t="s">
-        <v>410</v>
-      </c>
-      <c r="B249" t="s">
-        <v>38</v>
-      </c>
-      <c r="C249" t="s">
-        <v>478</v>
-      </c>
-      <c r="D249" t="s">
-        <v>40</v>
-      </c>
-      <c r="E249">
-        <v>5.5</v>
-      </c>
-      <c r="F249">
-        <f t="shared" ref="F249:F251" si="20">E249*60</f>
-        <v>330</v>
-      </c>
-      <c r="G249" s="3" t="s">
-        <v>479</v>
       </c>
     </row>
     <row r="250" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A250" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="B250" t="s">
         <v>38</v>
       </c>
       <c r="C250" t="s">
+        <v>478</v>
+      </c>
+      <c r="D250" t="s">
+        <v>40</v>
+      </c>
+      <c r="E250">
+        <v>5.5</v>
+      </c>
+      <c r="F250">
+        <f t="shared" ref="F250:F252" si="20">E250*60</f>
+        <v>330</v>
+      </c>
+      <c r="G250" s="3" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="251" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A251" t="s">
+        <v>411</v>
+      </c>
+      <c r="B251" t="s">
+        <v>38</v>
+      </c>
+      <c r="C251" t="s">
         <v>564</v>
       </c>
-      <c r="D250" t="s">
+      <c r="D251" t="s">
         <v>45</v>
       </c>
-      <c r="E250">
+      <c r="E251">
         <v>5.3</v>
       </c>
-      <c r="F250">
+      <c r="F251">
         <f t="shared" si="20"/>
         <v>318</v>
       </c>
-      <c r="G250" s="3" t="s">
+      <c r="G251" s="3" t="s">
         <v>565</v>
       </c>
     </row>
-    <row r="251" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A251" t="s">
+    <row r="252" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A252" t="s">
         <v>412</v>
       </c>
-      <c r="B251" t="s">
+      <c r="B252" t="s">
         <v>38</v>
       </c>
-      <c r="C251" t="s">
+      <c r="C252" t="s">
         <v>566</v>
       </c>
-      <c r="D251" t="s">
+      <c r="D252" t="s">
         <v>40</v>
       </c>
-      <c r="E251">
+      <c r="E252">
         <v>51.8</v>
       </c>
-      <c r="F251">
+      <c r="F252">
         <f t="shared" si="20"/>
         <v>3108</v>
       </c>
-      <c r="G251" s="3" t="s">
+      <c r="G252" s="3" t="s">
         <v>567</v>
-      </c>
-    </row>
-    <row r="252" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A252" t="s">
-        <v>413</v>
-      </c>
-      <c r="B252" t="s">
-        <v>38</v>
-      </c>
-      <c r="C252" t="s">
-        <v>478</v>
-      </c>
-      <c r="D252" t="s">
-        <v>40</v>
-      </c>
-      <c r="E252">
-        <v>5.5</v>
-      </c>
-      <c r="F252">
-        <f t="shared" ref="F252:F258" si="21">E252*60</f>
-        <v>330</v>
-      </c>
-      <c r="G252" s="3" t="s">
-        <v>479</v>
       </c>
     </row>
     <row r="253" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A253" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="B253" t="s">
         <v>38</v>
       </c>
       <c r="C253" t="s">
+        <v>478</v>
+      </c>
+      <c r="D253" t="s">
+        <v>40</v>
+      </c>
+      <c r="E253">
+        <v>5.5</v>
+      </c>
+      <c r="F253">
+        <f t="shared" ref="F253:F259" si="21">E253*60</f>
+        <v>330</v>
+      </c>
+      <c r="G253" s="3" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="254" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A254" t="s">
+        <v>414</v>
+      </c>
+      <c r="B254" t="s">
+        <v>38</v>
+      </c>
+      <c r="C254" t="s">
         <v>170</v>
       </c>
-      <c r="D253" t="s">
+      <c r="D254" t="s">
         <v>88</v>
       </c>
-      <c r="E253">
+      <c r="E254">
         <v>27.1</v>
       </c>
-      <c r="F253">
+      <c r="F254">
         <f t="shared" si="21"/>
         <v>1626</v>
       </c>
-      <c r="G253" s="3" t="s">
+      <c r="G254" s="3" t="s">
         <v>572</v>
       </c>
     </row>
-    <row r="254" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A254" t="s">
+    <row r="255" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A255" t="s">
         <v>415</v>
       </c>
-      <c r="B254" t="s">
+      <c r="B255" t="s">
         <v>38</v>
       </c>
-      <c r="C254" t="s">
+      <c r="C255" t="s">
         <v>573</v>
       </c>
-      <c r="D254" t="s">
+      <c r="D255" t="s">
         <v>40</v>
       </c>
-      <c r="E254">
+      <c r="E255">
         <v>2.6</v>
       </c>
-      <c r="F254">
+      <c r="F255">
         <f t="shared" si="21"/>
         <v>156</v>
       </c>
-      <c r="G254" s="3" t="s">
+      <c r="G255" s="3" t="s">
         <v>574</v>
       </c>
     </row>
-    <row r="255" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A255" t="s">
+    <row r="256" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A256" t="s">
         <v>416</v>
       </c>
-      <c r="B255" t="s">
+      <c r="B256" t="s">
         <v>38</v>
       </c>
-      <c r="C255" t="s">
+      <c r="C256" t="s">
         <v>168</v>
       </c>
-      <c r="D255" t="s">
+      <c r="D256" t="s">
         <v>42</v>
       </c>
-      <c r="E255">
+      <c r="E256">
         <v>7.1</v>
       </c>
-      <c r="F255">
+      <c r="F256">
         <f t="shared" si="21"/>
         <v>426</v>
       </c>
-      <c r="G255" s="4" t="s">
+      <c r="G256" s="4" t="s">
         <v>169</v>
       </c>
     </row>
-    <row r="256" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A256" t="s">
+    <row r="257" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A257" t="s">
         <v>417</v>
       </c>
-      <c r="B256" t="s">
+      <c r="B257" t="s">
         <v>38</v>
       </c>
-      <c r="C256" t="s">
+      <c r="C257" t="s">
         <v>432</v>
       </c>
-      <c r="D256" t="s">
+      <c r="D257" t="s">
         <v>433</v>
       </c>
-      <c r="E256">
+      <c r="E257">
         <v>7.3</v>
       </c>
-      <c r="F256">
+      <c r="F257">
         <f t="shared" si="21"/>
         <v>438</v>
       </c>
-      <c r="G256" s="3" t="s">
+      <c r="G257" s="3" t="s">
         <v>434</v>
       </c>
     </row>
-    <row r="257" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A257" t="s">
+    <row r="258" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A258" t="s">
         <v>418</v>
       </c>
-      <c r="B257" t="s">
+      <c r="B258" t="s">
         <v>38</v>
       </c>
-      <c r="C257" t="s">
+      <c r="C258" t="s">
         <v>570</v>
       </c>
-      <c r="D257" t="s">
+      <c r="D258" t="s">
         <v>88</v>
       </c>
-      <c r="E257">
+      <c r="E258">
         <v>6.3</v>
       </c>
-      <c r="F257">
+      <c r="F258">
         <f t="shared" si="21"/>
         <v>378</v>
       </c>
-      <c r="G257" s="3" t="s">
+      <c r="G258" s="3" t="s">
         <v>571</v>
       </c>
     </row>
-    <row r="258" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A258" t="s">
+    <row r="259" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A259" t="s">
         <v>419</v>
       </c>
-      <c r="B258" t="s">
+      <c r="B259" t="s">
         <v>38</v>
       </c>
-      <c r="C258" t="s">
+      <c r="C259" t="s">
         <v>568</v>
       </c>
-      <c r="D258" t="s">
+      <c r="D259" t="s">
         <v>88</v>
       </c>
-      <c r="E258">
+      <c r="E259">
         <v>1.87</v>
       </c>
-      <c r="F258">
+      <c r="F259">
         <f t="shared" si="21"/>
         <v>112.2</v>
       </c>
-      <c r="G258" s="3" t="s">
+      <c r="G259" s="3" t="s">
         <v>569</v>
-      </c>
-    </row>
-    <row r="259" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A259" t="s">
-        <v>420</v>
-      </c>
-      <c r="B259" t="s">
-        <v>38</v>
-      </c>
-      <c r="C259" t="s">
-        <v>168</v>
-      </c>
-      <c r="D259" t="s">
-        <v>40</v>
-      </c>
-      <c r="E259">
-        <v>32</v>
-      </c>
-      <c r="F259">
-        <f t="shared" ref="F259" si="22">E259*60</f>
-        <v>1920</v>
-      </c>
-      <c r="G259" s="3" t="s">
-        <v>453</v>
       </c>
     </row>
     <row r="260" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A260" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="B260" t="s">
         <v>38</v>
       </c>
       <c r="C260" t="s">
+        <v>168</v>
+      </c>
+      <c r="D260" t="s">
+        <v>40</v>
+      </c>
+      <c r="E260">
+        <v>32</v>
+      </c>
+      <c r="F260">
+        <f t="shared" ref="F260" si="22">E260*60</f>
+        <v>1920</v>
+      </c>
+      <c r="G260" s="3" t="s">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="261" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A261" t="s">
+        <v>421</v>
+      </c>
+      <c r="B261" t="s">
+        <v>38</v>
+      </c>
+      <c r="C261" t="s">
         <v>422</v>
       </c>
-      <c r="D260" t="s">
+      <c r="D261" t="s">
         <v>45</v>
       </c>
-      <c r="E260">
+      <c r="E261">
         <v>221</v>
       </c>
-      <c r="F260">
+      <c r="F261">
         <f t="shared" si="0"/>
         <v>13260</v>
       </c>
-      <c r="G260" s="3" t="s">
+      <c r="G261" s="3" t="s">
         <v>423</v>
       </c>
     </row>
-    <row r="261" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A261" t="s">
+    <row r="262" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A262" t="s">
         <v>668</v>
       </c>
-      <c r="B261" t="s">
+      <c r="B262" t="s">
         <v>38</v>
       </c>
-      <c r="C261" t="s">
+      <c r="C262" t="s">
         <v>678</v>
       </c>
-      <c r="D261" t="s">
+      <c r="D262" t="s">
         <v>45</v>
       </c>
-      <c r="E261">
+      <c r="E262">
         <v>53</v>
       </c>
-      <c r="F261">
+      <c r="F262">
         <f t="shared" si="0"/>
         <v>3180</v>
       </c>
-      <c r="G261" s="3" t="s">
+      <c r="G262" s="3" t="s">
         <v>679</v>
       </c>
     </row>
-    <row r="262" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A262" t="s">
+    <row r="263" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A263" t="s">
         <v>669</v>
       </c>
-      <c r="B262" t="s">
+      <c r="B263" t="s">
         <v>38</v>
       </c>
-      <c r="C262" t="s">
+      <c r="C263" t="s">
         <v>672</v>
       </c>
-      <c r="D262" t="s">
+      <c r="D263" t="s">
         <v>88</v>
       </c>
-      <c r="E262">
+      <c r="E263">
         <v>8400</v>
       </c>
-      <c r="F262">
+      <c r="F263">
         <f t="shared" si="0"/>
         <v>504000</v>
       </c>
-      <c r="G262" s="3" t="s">
+      <c r="G263" s="3" t="s">
         <v>673</v>
       </c>
     </row>
-    <row r="263" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A263" t="s">
+    <row r="264" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A264" t="s">
         <v>670</v>
       </c>
-      <c r="B263" t="s">
+      <c r="B264" t="s">
         <v>38</v>
       </c>
-      <c r="C263" t="s">
+      <c r="C264" t="s">
         <v>674</v>
       </c>
-      <c r="D263" t="s">
+      <c r="D264" t="s">
         <v>40</v>
       </c>
-      <c r="E263">
+      <c r="E264">
         <v>67.400000000000006</v>
       </c>
-      <c r="F263">
+      <c r="F264">
         <f t="shared" si="0"/>
         <v>4044.0000000000005</v>
       </c>
-      <c r="G263" s="3" t="s">
+      <c r="G264" s="3" t="s">
         <v>675</v>
       </c>
     </row>
-    <row r="264" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A264" t="s">
+    <row r="265" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A265" t="s">
         <v>671</v>
       </c>
-      <c r="B264" t="s">
+      <c r="B265" t="s">
         <v>38</v>
       </c>
-      <c r="C264" t="s">
+      <c r="C265" t="s">
         <v>676</v>
       </c>
-      <c r="D264" t="s">
+      <c r="D265" t="s">
         <v>677</v>
       </c>
-      <c r="E264">
+      <c r="E265">
         <v>6.61</v>
       </c>
-      <c r="F264">
+      <c r="F265">
         <f t="shared" si="0"/>
         <v>396.6</v>
       </c>
-      <c r="G264" s="3" t="s">
+      <c r="G265" s="3" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="265" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A265" t="s">
+    <row r="266" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A266" t="s">
         <v>680</v>
       </c>
-      <c r="B265" t="s">
+      <c r="B266" t="s">
         <v>38</v>
       </c>
-      <c r="C265" t="s">
+      <c r="C266" t="s">
         <v>685</v>
       </c>
-      <c r="D265" t="s">
+      <c r="D266" t="s">
         <v>145</v>
       </c>
-      <c r="E265">
+      <c r="E266">
         <v>4.13</v>
       </c>
-      <c r="F265">
+      <c r="F266">
         <f t="shared" si="0"/>
         <v>247.79999999999998</v>
       </c>
-      <c r="G265" s="3" t="s">
+      <c r="G266" s="3" t="s">
         <v>686</v>
       </c>
     </row>
-    <row r="266" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A266" t="s">
+    <row r="267" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A267" t="s">
         <v>705</v>
       </c>
-      <c r="B266" t="s">
+      <c r="B267" t="s">
         <v>38</v>
       </c>
-      <c r="C266" t="s">
+      <c r="C267" t="s">
         <v>706</v>
       </c>
-      <c r="D266" t="s">
+      <c r="D267" t="s">
         <v>42</v>
       </c>
-      <c r="E266">
+      <c r="E267">
         <v>18</v>
       </c>
-      <c r="F266">
+      <c r="F267">
         <f t="shared" si="0"/>
         <v>1080</v>
       </c>
-      <c r="G266" s="3" t="s">
+      <c r="G267" s="3" t="s">
         <v>707</v>
-      </c>
-    </row>
-    <row r="267" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A267" t="s">
-        <v>154</v>
-      </c>
-      <c r="B267" t="s">
-        <v>38</v>
-      </c>
-      <c r="C267" t="s">
-        <v>156</v>
-      </c>
-      <c r="D267" t="s">
-        <v>45</v>
-      </c>
-      <c r="E267">
-        <v>7.5</v>
-      </c>
-      <c r="F267">
-        <f t="shared" si="0"/>
-        <v>450</v>
-      </c>
-      <c r="G267" s="3" t="s">
-        <v>157</v>
       </c>
     </row>
     <row r="268" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A268" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B268" t="s">
         <v>38</v>
@@ -8948,30 +8950,31 @@
     </row>
     <row r="269" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A269" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="B269" t="s">
-        <v>16</v>
+        <v>38</v>
       </c>
       <c r="C269" t="s">
-        <v>109</v>
+        <v>156</v>
       </c>
       <c r="D269" t="s">
-        <v>109</v>
-      </c>
-      <c r="E269" t="s">
-        <v>109</v>
+        <v>45</v>
+      </c>
+      <c r="E269">
+        <v>7.5</v>
       </c>
       <c r="F269">
-        <v>107.4</v>
-      </c>
-      <c r="G269" s="1" t="s">
-        <v>698</v>
+        <f t="shared" si="0"/>
+        <v>450</v>
+      </c>
+      <c r="G269" s="3" t="s">
+        <v>157</v>
       </c>
     </row>
     <row r="270" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A270" t="s">
-        <v>115</v>
+        <v>158</v>
       </c>
       <c r="B270" t="s">
         <v>16</v>
@@ -8986,34 +8989,57 @@
         <v>109</v>
       </c>
       <c r="F270">
+        <v>107.4</v>
+      </c>
+      <c r="G270" s="1" t="s">
+        <v>698</v>
+      </c>
+    </row>
+    <row r="271" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A271" t="s">
+        <v>115</v>
+      </c>
+      <c r="B271" t="s">
+        <v>16</v>
+      </c>
+      <c r="C271" t="s">
+        <v>109</v>
+      </c>
+      <c r="D271" t="s">
+        <v>109</v>
+      </c>
+      <c r="E271" t="s">
+        <v>109</v>
+      </c>
+      <c r="F271">
         <v>50</v>
       </c>
-      <c r="G270" s="2" t="s">
+      <c r="G271" s="2" t="s">
         <v>113</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="G18" r:id="rId1" xr:uid="{60D2E9C6-9172-4D4D-B418-CC567356E033}"/>
+    <hyperlink ref="G19" r:id="rId1" xr:uid="{60D2E9C6-9172-4D4D-B418-CC567356E033}"/>
     <hyperlink ref="G2" r:id="rId2" xr:uid="{96642BA6-12F8-4451-8DFA-16265959FEFA}"/>
-    <hyperlink ref="G211" r:id="rId3" xr:uid="{DBD518FF-06AA-4F59-B32D-3D580FD3488C}"/>
-    <hyperlink ref="G210" r:id="rId4" xr:uid="{3C873BD8-C205-4B23-B8F2-C8E28D105704}"/>
-    <hyperlink ref="G33" r:id="rId5" xr:uid="{3CCDC09F-65EC-46AB-A5B6-06698DF90FD6}"/>
-    <hyperlink ref="G34" r:id="rId6" xr:uid="{45B7FFC2-C775-45F6-B5E2-92E39C1EFAC1}"/>
-    <hyperlink ref="G37" r:id="rId7" xr:uid="{C0F23788-2A31-4EA5-B6D6-A12E3C45A7E7}"/>
-    <hyperlink ref="G48" r:id="rId8" xr:uid="{E16DED46-B1DD-492F-AAE6-8FA6CA99D4AD}"/>
-    <hyperlink ref="G69" r:id="rId9" xr:uid="{8712DF9D-4B59-405A-AA32-2B4423750FF0}"/>
-    <hyperlink ref="G79" r:id="rId10" xr:uid="{6C3143F8-EECE-493B-A808-BC8B1FB906E4}"/>
-    <hyperlink ref="G84" r:id="rId11" xr:uid="{5F7C4001-6F89-479B-983C-BDB24868961F}"/>
-    <hyperlink ref="G90" r:id="rId12" xr:uid="{B65497F5-375F-4E2A-86C4-B4310250B40D}"/>
-    <hyperlink ref="G237" r:id="rId13" xr:uid="{B850A642-752F-4050-BE9D-FD6DEF1A1A28}"/>
-    <hyperlink ref="G255" r:id="rId14" xr:uid="{733CCEAC-FE6D-4E5A-890C-C556E3FD7098}"/>
-    <hyperlink ref="G124" r:id="rId15" xr:uid="{3ACF0FFB-BCF3-4FD6-9FD5-CA9D90101625}"/>
-    <hyperlink ref="G171" r:id="rId16" xr:uid="{1167C813-88FC-4ED1-BAC3-35562E39F6B3}"/>
-    <hyperlink ref="G143" r:id="rId17" xr:uid="{0AC60904-9B6C-42FC-A0D6-DCDFCFACCDB7}"/>
-    <hyperlink ref="G180" r:id="rId18" xr:uid="{87D8A670-02D9-4006-B7CD-DC020E2EACEF}"/>
-    <hyperlink ref="G15" r:id="rId19" xr:uid="{7DAABD84-8696-4ABA-AB3E-8DD3400DB458}"/>
-    <hyperlink ref="G269" r:id="rId20" xr:uid="{DC28AAB8-6E94-4F29-B774-317596ED75E1}"/>
+    <hyperlink ref="G212" r:id="rId3" xr:uid="{DBD518FF-06AA-4F59-B32D-3D580FD3488C}"/>
+    <hyperlink ref="G211" r:id="rId4" xr:uid="{3C873BD8-C205-4B23-B8F2-C8E28D105704}"/>
+    <hyperlink ref="G34" r:id="rId5" xr:uid="{3CCDC09F-65EC-46AB-A5B6-06698DF90FD6}"/>
+    <hyperlink ref="G35" r:id="rId6" xr:uid="{45B7FFC2-C775-45F6-B5E2-92E39C1EFAC1}"/>
+    <hyperlink ref="G38" r:id="rId7" xr:uid="{C0F23788-2A31-4EA5-B6D6-A12E3C45A7E7}"/>
+    <hyperlink ref="G49" r:id="rId8" xr:uid="{E16DED46-B1DD-492F-AAE6-8FA6CA99D4AD}"/>
+    <hyperlink ref="G70" r:id="rId9" xr:uid="{8712DF9D-4B59-405A-AA32-2B4423750FF0}"/>
+    <hyperlink ref="G80" r:id="rId10" xr:uid="{6C3143F8-EECE-493B-A808-BC8B1FB906E4}"/>
+    <hyperlink ref="G85" r:id="rId11" xr:uid="{5F7C4001-6F89-479B-983C-BDB24868961F}"/>
+    <hyperlink ref="G91" r:id="rId12" xr:uid="{B65497F5-375F-4E2A-86C4-B4310250B40D}"/>
+    <hyperlink ref="G238" r:id="rId13" xr:uid="{B850A642-752F-4050-BE9D-FD6DEF1A1A28}"/>
+    <hyperlink ref="G256" r:id="rId14" xr:uid="{733CCEAC-FE6D-4E5A-890C-C556E3FD7098}"/>
+    <hyperlink ref="G125" r:id="rId15" xr:uid="{3ACF0FFB-BCF3-4FD6-9FD5-CA9D90101625}"/>
+    <hyperlink ref="G172" r:id="rId16" xr:uid="{1167C813-88FC-4ED1-BAC3-35562E39F6B3}"/>
+    <hyperlink ref="G144" r:id="rId17" xr:uid="{0AC60904-9B6C-42FC-A0D6-DCDFCFACCDB7}"/>
+    <hyperlink ref="G181" r:id="rId18" xr:uid="{87D8A670-02D9-4006-B7CD-DC020E2EACEF}"/>
+    <hyperlink ref="G16" r:id="rId19" xr:uid="{7DAABD84-8696-4ABA-AB3E-8DD3400DB458}"/>
+    <hyperlink ref="G270" r:id="rId20" xr:uid="{DC28AAB8-6E94-4F29-B774-317596ED75E1}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId21"/>

--- a/data/gems/Parameters.xlsx
+++ b/data/gems/Parameters.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bras5181\Desktop\Labprojects\CulturedMeat\PigGEM2025\data\gems\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{252028F7-D7B8-498C-A2DA-343B49AF8F45}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E57886B3-BF6A-4698-AEE3-AA8980C2D7F3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2512,8 +2512,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G271"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O7" sqref="O7"/>
+    <sheetView tabSelected="1" topLeftCell="A262" workbookViewId="0">
+      <selection activeCell="K274" sqref="K274"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -9012,7 +9012,7 @@
         <v>109</v>
       </c>
       <c r="F271">
-        <v>50</v>
+        <v>20</v>
       </c>
       <c r="G271" s="2" t="s">
         <v>113</v>

--- a/data/gems/Parameters.xlsx
+++ b/data/gems/Parameters.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bras5181\Desktop\Labprojects\CulturedMeat\PigGEM2025\data\gems\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E57886B3-BF6A-4698-AEE3-AA8980C2D7F3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1EE1144C-6532-4AEB-A84F-85A7F67E70B1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -555,9 +555,6 @@
     <t>1.4.1.2</t>
   </si>
   <si>
-    <t>DOI: 10.1038/emm.2005.47</t>
-  </si>
-  <si>
     <t>DOI: 10.1016/0167-4838(85)90307-3</t>
   </si>
   <si>
@@ -2164,6 +2161,9 @@
   </si>
   <si>
     <t>EX_aa_e</t>
+  </si>
+  <si>
+    <t>DOI: 10.1111/j.1432-1033.1995.340_1.x</t>
   </si>
 </sst>
 </file>
@@ -2512,8 +2512,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G271"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A262" workbookViewId="0">
-      <selection activeCell="K274" sqref="K274"/>
+    <sheetView tabSelected="1" topLeftCell="A198" workbookViewId="0">
+      <selection activeCell="N208" sqref="N208"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2592,7 +2592,7 @@
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B4" t="s">
         <v>111</v>
@@ -2615,7 +2615,7 @@
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
       <c r="B5" t="s">
         <v>111</v>
@@ -2897,7 +2897,7 @@
         <v>27510</v>
       </c>
       <c r="G16" s="1" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.35">
@@ -2998,7 +2998,7 @@
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
       <c r="B21" t="s">
         <v>16</v>
@@ -3046,7 +3046,7 @@
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
       <c r="B23" t="s">
         <v>16</v>
@@ -3094,7 +3094,7 @@
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
       <c r="B25" t="s">
         <v>16</v>
@@ -3142,7 +3142,7 @@
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
       <c r="B27" t="s">
         <v>16</v>
@@ -3190,7 +3190,7 @@
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
-        <v>704</v>
+        <v>703</v>
       </c>
       <c r="B29" t="s">
         <v>16</v>
@@ -3286,13 +3286,13 @@
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
+        <v>174</v>
+      </c>
+      <c r="B33" t="s">
+        <v>16</v>
+      </c>
+      <c r="C33" t="s">
         <v>175</v>
-      </c>
-      <c r="B33" t="s">
-        <v>16</v>
-      </c>
-      <c r="C33" t="s">
-        <v>176</v>
       </c>
       <c r="D33" t="s">
         <v>88</v>
@@ -3305,12 +3305,12 @@
         <v>19740</v>
       </c>
       <c r="G33" s="3" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B34" t="s">
         <v>16</v>
@@ -3334,7 +3334,7 @@
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="B35" t="s">
         <v>16</v>
@@ -3358,13 +3358,13 @@
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="B36" t="s">
         <v>16</v>
       </c>
       <c r="C36" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="D36" t="s">
         <v>88</v>
@@ -3377,18 +3377,18 @@
         <v>596.4</v>
       </c>
       <c r="G36" s="4" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A37" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="B37" t="s">
         <v>16</v>
       </c>
       <c r="C37" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="D37" t="s">
         <v>42</v>
@@ -3401,18 +3401,18 @@
         <v>96</v>
       </c>
       <c r="G37" s="4" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A38" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="B38" t="s">
         <v>16</v>
       </c>
       <c r="C38" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="D38" t="s">
         <v>88</v>
@@ -3425,18 +3425,18 @@
         <v>92.4</v>
       </c>
       <c r="G38" s="4" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A39" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="B39" t="s">
         <v>16</v>
       </c>
       <c r="C39" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="D39" t="s">
         <v>45</v>
@@ -3449,18 +3449,18 @@
         <v>2700</v>
       </c>
       <c r="G39" s="4" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A40" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="B40" t="s">
         <v>16</v>
       </c>
       <c r="C40" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="D40" t="s">
         <v>45</v>
@@ -3473,18 +3473,18 @@
         <v>1500</v>
       </c>
       <c r="G40" s="4" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A41" t="s">
+        <v>194</v>
+      </c>
+      <c r="B41" t="s">
+        <v>16</v>
+      </c>
+      <c r="C41" t="s">
         <v>195</v>
-      </c>
-      <c r="B41" t="s">
-        <v>16</v>
-      </c>
-      <c r="C41" t="s">
-        <v>196</v>
       </c>
       <c r="D41" t="s">
         <v>112</v>
@@ -3497,18 +3497,18 @@
         <v>11772</v>
       </c>
       <c r="G41" s="4" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A42" t="s">
+        <v>217</v>
+      </c>
+      <c r="B42" t="s">
+        <v>16</v>
+      </c>
+      <c r="C42" t="s">
         <v>218</v>
-      </c>
-      <c r="B42" t="s">
-        <v>16</v>
-      </c>
-      <c r="C42" t="s">
-        <v>219</v>
       </c>
       <c r="D42" t="s">
         <v>88</v>
@@ -3521,18 +3521,18 @@
         <v>1566</v>
       </c>
       <c r="G42" s="4" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A43" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="B43" t="s">
         <v>16</v>
       </c>
       <c r="C43" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="D43" t="s">
         <v>88</v>
@@ -3545,18 +3545,18 @@
         <v>816</v>
       </c>
       <c r="G43" s="3" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A44" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="B44" t="s">
         <v>16</v>
       </c>
       <c r="C44" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="D44" t="s">
         <v>45</v>
@@ -3569,18 +3569,18 @@
         <v>227.34</v>
       </c>
       <c r="G44" s="3" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A45" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="B45" t="s">
         <v>16</v>
       </c>
       <c r="C45" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="D45" t="s">
         <v>45</v>
@@ -3593,18 +3593,18 @@
         <v>184.14</v>
       </c>
       <c r="G45" s="3" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A46" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="B46" t="s">
         <v>16</v>
       </c>
       <c r="C46" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="D46" t="s">
         <v>45</v>
@@ -3617,21 +3617,21 @@
         <v>124.80000000000001</v>
       </c>
       <c r="G46" s="3" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A47" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="B47" t="s">
         <v>16</v>
       </c>
       <c r="C47" t="s">
+        <v>431</v>
+      </c>
+      <c r="D47" t="s">
         <v>432</v>
-      </c>
-      <c r="D47" t="s">
-        <v>433</v>
       </c>
       <c r="E47">
         <v>7.3</v>
@@ -3641,12 +3641,12 @@
         <v>438</v>
       </c>
       <c r="G47" s="3" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A48" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="B48" t="s">
         <v>16</v>
@@ -3670,13 +3670,13 @@
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A49" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="B49" t="s">
         <v>16</v>
       </c>
       <c r="C49" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="D49" t="s">
         <v>45</v>
@@ -3689,18 +3689,18 @@
         <v>4098</v>
       </c>
       <c r="G49" s="1" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A50" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="B50" t="s">
         <v>16</v>
       </c>
       <c r="C50" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="D50" t="s">
         <v>40</v>
@@ -3713,18 +3713,18 @@
         <v>24600</v>
       </c>
       <c r="G50" s="3" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A51" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="B51" t="s">
         <v>16</v>
       </c>
       <c r="C51" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="D51" t="s">
         <v>40</v>
@@ -3737,18 +3737,18 @@
         <v>1255.9199999999998</v>
       </c>
       <c r="G51" s="3" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A52" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="B52" t="s">
         <v>16</v>
       </c>
       <c r="C52" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="D52" t="s">
         <v>40</v>
@@ -3761,18 +3761,18 @@
         <v>618</v>
       </c>
       <c r="G52" s="3" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A53" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="B53" t="s">
         <v>16</v>
       </c>
       <c r="C53" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="D53" t="s">
         <v>40</v>
@@ -3785,18 +3785,18 @@
         <v>105.6</v>
       </c>
       <c r="G53" s="3" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A54" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="B54" t="s">
         <v>16</v>
       </c>
       <c r="C54" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="D54" t="s">
         <v>45</v>
@@ -3809,18 +3809,18 @@
         <v>1.962</v>
       </c>
       <c r="G54" s="3" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
     </row>
     <row r="55" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A55" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="B55" t="s">
         <v>16</v>
       </c>
       <c r="C55" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="D55" t="s">
         <v>40</v>
@@ -3833,18 +3833,18 @@
         <v>21001.199999999997</v>
       </c>
       <c r="G55" s="3" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
     </row>
     <row r="56" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A56" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="B56" t="s">
         <v>16</v>
       </c>
       <c r="C56" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="D56" t="s">
         <v>45</v>
@@ -3857,18 +3857,18 @@
         <v>0.14399999999999999</v>
       </c>
       <c r="G56" s="3" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
     </row>
     <row r="57" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A57" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="B57" t="s">
         <v>16</v>
       </c>
       <c r="C57" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="D57" t="s">
         <v>40</v>
@@ -3881,18 +3881,18 @@
         <v>105.6</v>
       </c>
       <c r="G57" s="3" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
     </row>
     <row r="58" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A58" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="B58" t="s">
         <v>16</v>
       </c>
       <c r="C58" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="D58" t="s">
         <v>45</v>
@@ -3905,18 +3905,18 @@
         <v>124.80000000000001</v>
       </c>
       <c r="G58" s="3" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
     </row>
     <row r="59" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A59" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="B59" t="s">
         <v>16</v>
       </c>
       <c r="C59" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="D59" t="s">
         <v>45</v>
@@ -3929,18 +3929,18 @@
         <v>8280</v>
       </c>
       <c r="G59" s="3" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
     </row>
     <row r="60" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A60" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="B60" t="s">
         <v>16</v>
       </c>
       <c r="C60" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="D60" t="s">
         <v>45</v>
@@ -3953,12 +3953,12 @@
         <v>124.80000000000001</v>
       </c>
       <c r="G60" s="3" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
     </row>
     <row r="61" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A61" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="B61" t="s">
         <v>16</v>
@@ -3977,18 +3977,18 @@
         <v>1920</v>
       </c>
       <c r="G61" s="3" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
     </row>
     <row r="62" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A62" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="B62" t="s">
         <v>16</v>
       </c>
       <c r="C62" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="D62" t="s">
         <v>45</v>
@@ -4001,18 +4001,18 @@
         <v>184.14</v>
       </c>
       <c r="G62" s="3" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
     </row>
     <row r="63" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A63" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="B63" t="s">
         <v>16</v>
       </c>
       <c r="C63" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="D63" t="s">
         <v>42</v>
@@ -4025,18 +4025,18 @@
         <v>0.39479999999999998</v>
       </c>
       <c r="G63" s="3" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
     </row>
     <row r="64" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A64" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="B64" t="s">
         <v>16</v>
       </c>
       <c r="C64" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="D64" t="s">
         <v>45</v>
@@ -4049,18 +4049,18 @@
         <v>0.12</v>
       </c>
       <c r="G64" s="3" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
     </row>
     <row r="65" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A65" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="B65" t="s">
         <v>16</v>
       </c>
       <c r="C65" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="D65" t="s">
         <v>42</v>
@@ -4073,18 +4073,18 @@
         <v>12360</v>
       </c>
       <c r="G65" s="3" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
     </row>
     <row r="66" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A66" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="B66" t="s">
         <v>16</v>
       </c>
       <c r="C66" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="D66" t="s">
         <v>88</v>
@@ -4097,18 +4097,18 @@
         <v>3.516</v>
       </c>
       <c r="G66" s="3" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
     </row>
     <row r="67" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A67" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="B67" t="s">
         <v>16</v>
       </c>
       <c r="C67" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="D67" t="s">
         <v>88</v>
@@ -4121,18 +4121,18 @@
         <v>198</v>
       </c>
       <c r="G67" s="3" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
     </row>
     <row r="68" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A68" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="B68" t="s">
         <v>16</v>
       </c>
       <c r="C68" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="D68" t="s">
         <v>45</v>
@@ -4145,18 +4145,18 @@
         <v>3060</v>
       </c>
       <c r="G68" s="3" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
     </row>
     <row r="69" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A69" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="B69" t="s">
         <v>16</v>
       </c>
       <c r="C69" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="D69" t="s">
         <v>40</v>
@@ -4169,18 +4169,18 @@
         <v>8220</v>
       </c>
       <c r="G69" s="3" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
     </row>
     <row r="70" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A70" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="B70" t="s">
         <v>16</v>
       </c>
       <c r="C70" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="D70" t="s">
         <v>45</v>
@@ -4193,18 +4193,18 @@
         <v>6.4199999999999993E-2</v>
       </c>
       <c r="G70" s="1" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
     </row>
     <row r="71" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A71" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="B71" t="s">
         <v>16</v>
       </c>
       <c r="C71" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="D71" t="s">
         <v>88</v>
@@ -4217,18 +4217,18 @@
         <v>59340</v>
       </c>
       <c r="G71" s="3" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
     </row>
     <row r="72" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A72" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="B72" t="s">
         <v>16</v>
       </c>
       <c r="C72" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="D72" t="s">
         <v>45</v>
@@ -4241,18 +4241,18 @@
         <v>18.600000000000001</v>
       </c>
       <c r="G72" s="3" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
     </row>
     <row r="73" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A73" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="B73" t="s">
         <v>16</v>
       </c>
       <c r="C73" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="D73" t="s">
         <v>40</v>
@@ -4265,18 +4265,18 @@
         <v>2760</v>
       </c>
       <c r="G73" s="3" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
     </row>
     <row r="74" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A74" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="B74" t="s">
         <v>16</v>
       </c>
       <c r="C74" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="D74" t="s">
         <v>45</v>
@@ -4289,18 +4289,18 @@
         <v>48.959999999999994</v>
       </c>
       <c r="G74" s="3" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
     </row>
     <row r="75" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A75" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="B75" t="s">
         <v>16</v>
       </c>
       <c r="C75" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="D75" t="s">
         <v>40</v>
@@ -4313,18 +4313,18 @@
         <v>330</v>
       </c>
       <c r="G75" s="3" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
     </row>
     <row r="76" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A76" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="B76" t="s">
         <v>16</v>
       </c>
       <c r="C76" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="D76" t="s">
         <v>40</v>
@@ -4337,18 +4337,18 @@
         <v>2760</v>
       </c>
       <c r="G76" s="3" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
     </row>
     <row r="77" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A77" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="B77" t="s">
         <v>16</v>
       </c>
       <c r="C77" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="D77" t="s">
         <v>145</v>
@@ -4361,18 +4361,18 @@
         <v>4260</v>
       </c>
       <c r="G77" s="3" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
     </row>
     <row r="78" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A78" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="B78" t="s">
         <v>16</v>
       </c>
       <c r="C78" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="D78" t="s">
         <v>88</v>
@@ -4385,18 +4385,18 @@
         <v>29.4</v>
       </c>
       <c r="G78" s="3" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
     </row>
     <row r="79" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A79" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="B79" t="s">
         <v>16</v>
       </c>
       <c r="C79" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="D79" t="s">
         <v>40</v>
@@ -4409,18 +4409,18 @@
         <v>2760</v>
       </c>
       <c r="G79" s="3" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
     </row>
     <row r="80" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A80" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="B80" t="s">
         <v>16</v>
       </c>
       <c r="C80" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="D80" t="s">
         <v>45</v>
@@ -4433,18 +4433,18 @@
         <v>6.4199999999999993E-2</v>
       </c>
       <c r="G80" s="1" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
     </row>
     <row r="81" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A81" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="B81" t="s">
         <v>16</v>
       </c>
       <c r="C81" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="D81" t="s">
         <v>45</v>
@@ -4457,18 +4457,18 @@
         <v>124.80000000000001</v>
       </c>
       <c r="G81" s="3" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
     </row>
     <row r="82" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A82" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="B82" t="s">
         <v>16</v>
       </c>
       <c r="C82" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="D82" t="s">
         <v>40</v>
@@ -4481,18 +4481,18 @@
         <v>196.27339572192511</v>
       </c>
       <c r="G82" s="3" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
     </row>
     <row r="83" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A83" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="B83" t="s">
         <v>16</v>
       </c>
       <c r="C83" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="D83" t="s">
         <v>42</v>
@@ -4505,18 +4505,18 @@
         <v>306</v>
       </c>
       <c r="G83" s="3" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
     </row>
     <row r="84" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A84" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="B84" t="s">
         <v>16</v>
       </c>
       <c r="C84" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="D84" t="s">
         <v>40</v>
@@ -4529,18 +4529,18 @@
         <v>282</v>
       </c>
       <c r="G84" s="3" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
     </row>
     <row r="85" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A85" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="B85" t="s">
         <v>16</v>
       </c>
       <c r="C85" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="D85" t="s">
         <v>45</v>
@@ -4553,18 +4553,18 @@
         <v>6.4199999999999993E-2</v>
       </c>
       <c r="G85" s="1" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
     </row>
     <row r="86" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A86" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="B86" t="s">
         <v>16</v>
       </c>
       <c r="C86" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="D86" t="s">
         <v>40</v>
@@ -4577,21 +4577,21 @@
         <v>282</v>
       </c>
       <c r="G86" s="3" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
     </row>
     <row r="87" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A87" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="B87" t="s">
         <v>16</v>
       </c>
       <c r="C87" t="s">
+        <v>489</v>
+      </c>
+      <c r="D87" t="s">
         <v>490</v>
-      </c>
-      <c r="D87" t="s">
-        <v>491</v>
       </c>
       <c r="E87">
         <v>8.75</v>
@@ -4601,21 +4601,21 @@
         <v>525</v>
       </c>
       <c r="G87" s="3" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
     </row>
     <row r="88" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A88" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="B88" t="s">
         <v>16</v>
       </c>
       <c r="C88" t="s">
+        <v>489</v>
+      </c>
+      <c r="D88" t="s">
         <v>490</v>
-      </c>
-      <c r="D88" t="s">
-        <v>491</v>
       </c>
       <c r="E88">
         <v>21</v>
@@ -4625,21 +4625,21 @@
         <v>1260</v>
       </c>
       <c r="G88" s="3" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
     </row>
     <row r="89" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A89" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="B89" t="s">
         <v>16</v>
       </c>
       <c r="C89" t="s">
+        <v>489</v>
+      </c>
+      <c r="D89" t="s">
         <v>490</v>
-      </c>
-      <c r="D89" t="s">
-        <v>491</v>
       </c>
       <c r="E89">
         <v>9.3800000000000008</v>
@@ -4649,21 +4649,21 @@
         <v>562.80000000000007</v>
       </c>
       <c r="G89" s="3" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
     </row>
     <row r="90" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A90" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="B90" t="s">
         <v>16</v>
       </c>
       <c r="C90" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="D90" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="E90">
         <v>0.114</v>
@@ -4673,18 +4673,18 @@
         <v>6.84</v>
       </c>
       <c r="G90" s="3" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
     </row>
     <row r="91" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A91" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="B91" t="s">
         <v>16</v>
       </c>
       <c r="C91" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="D91" t="s">
         <v>45</v>
@@ -4697,18 +4697,18 @@
         <v>58.8</v>
       </c>
       <c r="G91" s="1" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
     </row>
     <row r="92" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A92" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B92" t="s">
         <v>16</v>
       </c>
       <c r="C92" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="D92" t="s">
         <v>40</v>
@@ -4721,18 +4721,18 @@
         <v>8220</v>
       </c>
       <c r="G92" s="3" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
     </row>
     <row r="93" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A93" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="B93" t="s">
         <v>16</v>
       </c>
       <c r="C93" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="D93" t="s">
         <v>40</v>
@@ -4745,18 +4745,18 @@
         <v>70800</v>
       </c>
       <c r="G93" s="3" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
     </row>
     <row r="94" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A94" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="B94" t="s">
         <v>16</v>
       </c>
       <c r="C94" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="D94" t="s">
         <v>88</v>
@@ -4769,18 +4769,18 @@
         <v>8580</v>
       </c>
       <c r="G94" s="3" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
     </row>
     <row r="95" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A95" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="B95" t="s">
         <v>16</v>
       </c>
       <c r="C95" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="D95" t="s">
         <v>45</v>
@@ -4793,18 +4793,18 @@
         <v>102</v>
       </c>
       <c r="G95" s="3" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
     </row>
     <row r="96" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A96" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="B96" t="s">
         <v>16</v>
       </c>
       <c r="C96" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="D96" t="s">
         <v>45</v>
@@ -4817,18 +4817,18 @@
         <v>19.8</v>
       </c>
       <c r="G96" s="3" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
     </row>
     <row r="97" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A97" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="B97" t="s">
         <v>16</v>
       </c>
       <c r="C97" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="D97" t="s">
         <v>40</v>
@@ -4841,18 +4841,18 @@
         <v>2088</v>
       </c>
       <c r="G97" s="3" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
     </row>
     <row r="98" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A98" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="B98" t="s">
         <v>16</v>
       </c>
       <c r="C98" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="D98" t="s">
         <v>40</v>
@@ -4865,18 +4865,18 @@
         <v>1500</v>
       </c>
       <c r="G98" s="3" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
     </row>
     <row r="99" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A99" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="B99" t="s">
         <v>16</v>
       </c>
       <c r="C99" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="D99" t="s">
         <v>45</v>
@@ -4889,18 +4889,18 @@
         <v>894</v>
       </c>
       <c r="G99" s="3" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
     </row>
     <row r="100" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A100" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="B100" t="s">
         <v>16</v>
       </c>
       <c r="C100" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="D100" t="s">
         <v>40</v>
@@ -4913,18 +4913,18 @@
         <v>535.85619678334911</v>
       </c>
       <c r="G100" s="3" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
     </row>
     <row r="101" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A101" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="B101" t="s">
         <v>16</v>
       </c>
       <c r="C101" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="D101" t="s">
         <v>40</v>
@@ -4937,18 +4937,18 @@
         <v>156</v>
       </c>
       <c r="G101" s="3" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
     </row>
     <row r="102" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A102" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="B102" t="s">
         <v>16</v>
       </c>
       <c r="C102" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="D102" t="s">
         <v>45</v>
@@ -4961,18 +4961,18 @@
         <v>49.8</v>
       </c>
       <c r="G102" s="3" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
     </row>
     <row r="103" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A103" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="B103" t="s">
         <v>16</v>
       </c>
       <c r="C103" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="D103" t="s">
         <v>88</v>
@@ -4985,18 +4985,18 @@
         <v>41040</v>
       </c>
       <c r="G103" s="3" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
     </row>
     <row r="104" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A104" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="B104" t="s">
         <v>16</v>
       </c>
       <c r="C104" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="D104" t="s">
         <v>45</v>
@@ -5009,18 +5009,18 @@
         <v>190.2</v>
       </c>
       <c r="G104" s="3" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
     </row>
     <row r="105" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A105" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="B105" t="s">
         <v>16</v>
       </c>
       <c r="C105" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="D105" t="s">
         <v>45</v>
@@ -5033,18 +5033,18 @@
         <v>2.1599999999999997</v>
       </c>
       <c r="G105" s="3" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
     </row>
     <row r="106" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A106" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="B106" t="s">
         <v>16</v>
       </c>
       <c r="C106" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="D106" t="s">
         <v>45</v>
@@ -5057,18 +5057,18 @@
         <v>1446</v>
       </c>
       <c r="G106" s="3" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
     </row>
     <row r="107" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A107" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="B107" t="s">
         <v>16</v>
       </c>
       <c r="C107" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="D107" t="s">
         <v>112</v>
@@ -5081,21 +5081,21 @@
         <v>150</v>
       </c>
       <c r="G107" s="3" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
     </row>
     <row r="108" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A108" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="B108" t="s">
         <v>16</v>
       </c>
       <c r="C108" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="D108" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="E108">
         <v>4.9000000000000004</v>
@@ -5105,18 +5105,18 @@
         <v>294</v>
       </c>
       <c r="G108" s="3" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
     </row>
     <row r="109" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A109" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="B109" t="s">
         <v>16</v>
       </c>
       <c r="C109" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="D109" t="s">
         <v>40</v>
@@ -5129,18 +5129,18 @@
         <v>105.6</v>
       </c>
       <c r="G109" s="3" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
     </row>
     <row r="110" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A110" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="B110" t="s">
         <v>16</v>
       </c>
       <c r="C110" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="D110" t="s">
         <v>42</v>
@@ -5153,18 +5153,18 @@
         <v>74400</v>
       </c>
       <c r="G110" s="3" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
     </row>
     <row r="111" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A111" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="B111" t="s">
         <v>16</v>
       </c>
       <c r="C111" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="D111" t="s">
         <v>45</v>
@@ -5177,18 +5177,18 @@
         <v>8280</v>
       </c>
       <c r="G111" s="3" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
     </row>
     <row r="112" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A112" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="B112" t="s">
         <v>16</v>
       </c>
       <c r="C112" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="D112" t="s">
         <v>40</v>
@@ -5201,18 +5201,18 @@
         <v>105.6</v>
       </c>
       <c r="G112" s="3" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
     </row>
     <row r="113" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A113" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="B113" t="s">
         <v>16</v>
       </c>
       <c r="C113" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="D113" t="s">
         <v>45</v>
@@ -5225,18 +5225,18 @@
         <v>43.8</v>
       </c>
       <c r="G113" s="3" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
     </row>
     <row r="114" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A114" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="B114" t="s">
         <v>16</v>
       </c>
       <c r="C114" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="D114" t="s">
         <v>40</v>
@@ -5249,18 +5249,18 @@
         <v>330</v>
       </c>
       <c r="G114" s="3" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
     </row>
     <row r="115" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A115" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="B115" t="s">
         <v>16</v>
       </c>
       <c r="C115" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="D115" t="s">
         <v>45</v>
@@ -5273,18 +5273,18 @@
         <v>8280</v>
       </c>
       <c r="G115" s="3" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
     </row>
     <row r="116" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A116" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="B116" t="s">
         <v>16</v>
       </c>
       <c r="C116" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="D116" t="s">
         <v>42</v>
@@ -5297,18 +5297,18 @@
         <v>900</v>
       </c>
       <c r="G116" s="3" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
     </row>
     <row r="117" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A117" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="B117" t="s">
         <v>16</v>
       </c>
       <c r="C117" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="D117" t="s">
         <v>45</v>
@@ -5321,18 +5321,18 @@
         <v>2.3519999999999999</v>
       </c>
       <c r="G117" s="3" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
     </row>
     <row r="118" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A118" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="B118" t="s">
         <v>16</v>
       </c>
       <c r="C118" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="D118" t="s">
         <v>40</v>
@@ -5345,18 +5345,18 @@
         <v>234</v>
       </c>
       <c r="G118" s="3" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
     </row>
     <row r="119" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A119" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="B119" t="s">
         <v>16</v>
       </c>
       <c r="C119" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="D119" t="s">
         <v>40</v>
@@ -5369,21 +5369,21 @@
         <v>93480</v>
       </c>
       <c r="G119" s="3" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
     </row>
     <row r="120" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A120" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="B120" t="s">
         <v>16</v>
       </c>
       <c r="C120" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="D120" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="E120">
         <v>166</v>
@@ -5393,21 +5393,21 @@
         <v>9960</v>
       </c>
       <c r="G120" s="3" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
     </row>
     <row r="121" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A121" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="B121" t="s">
         <v>16</v>
       </c>
       <c r="C121" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="D121" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="E121">
         <v>0.88</v>
@@ -5417,18 +5417,18 @@
         <v>52.8</v>
       </c>
       <c r="G121" s="3" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
     </row>
     <row r="122" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A122" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="B122" t="s">
         <v>16</v>
       </c>
       <c r="C122" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="D122" t="s">
         <v>40</v>
@@ -5441,18 +5441,18 @@
         <v>105.6</v>
       </c>
       <c r="G122" s="3" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
     </row>
     <row r="123" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A123" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="B123" t="s">
         <v>16</v>
       </c>
       <c r="C123" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="D123" t="s">
         <v>40</v>
@@ -5465,18 +5465,18 @@
         <v>21001.199999999997</v>
       </c>
       <c r="G123" s="3" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
     </row>
     <row r="124" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A124" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="B124" t="s">
         <v>16</v>
       </c>
       <c r="C124" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="D124" t="s">
         <v>40</v>
@@ -5489,18 +5489,18 @@
         <v>2760</v>
       </c>
       <c r="G124" s="3" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
     </row>
     <row r="125" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A125" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="B125" t="s">
         <v>16</v>
       </c>
       <c r="C125" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="D125" t="s">
         <v>45</v>
@@ -5513,18 +5513,18 @@
         <v>4098</v>
       </c>
       <c r="G125" s="1" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
     </row>
     <row r="126" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A126" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="B126" t="s">
         <v>16</v>
       </c>
       <c r="C126" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="D126" t="s">
         <v>45</v>
@@ -5537,18 +5537,18 @@
         <v>184.14</v>
       </c>
       <c r="G126" s="3" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
     </row>
     <row r="127" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A127" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="B127" t="s">
         <v>16</v>
       </c>
       <c r="C127" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="D127" t="s">
         <v>42</v>
@@ -5561,18 +5561,18 @@
         <v>4140</v>
       </c>
       <c r="G127" s="3" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
     </row>
     <row r="128" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A128" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="B128" t="s">
         <v>16</v>
       </c>
       <c r="C128" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="D128" t="s">
         <v>88</v>
@@ -5585,18 +5585,18 @@
         <v>2820</v>
       </c>
       <c r="G128" s="3" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
     </row>
     <row r="129" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A129" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="B129" t="s">
         <v>16</v>
       </c>
       <c r="C129" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="D129" t="s">
         <v>40</v>
@@ -5609,18 +5609,18 @@
         <v>2520</v>
       </c>
       <c r="G129" s="3" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
     </row>
     <row r="130" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A130" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="B130" t="s">
         <v>16</v>
       </c>
       <c r="C130" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="D130" t="s">
         <v>42</v>
@@ -5633,18 +5633,18 @@
         <v>0.89999999999999991</v>
       </c>
       <c r="G130" s="3" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
     </row>
     <row r="131" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A131" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="B131" t="s">
         <v>16</v>
       </c>
       <c r="C131" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="D131" t="s">
         <v>42</v>
@@ -5657,21 +5657,21 @@
         <v>0.89999999999999991</v>
       </c>
       <c r="G131" s="3" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
     </row>
     <row r="132" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A132" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="B132" t="s">
         <v>16</v>
       </c>
       <c r="C132" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="D132" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="E132">
         <v>2750</v>
@@ -5681,21 +5681,21 @@
         <v>165000</v>
       </c>
       <c r="G132" s="3" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
     </row>
     <row r="133" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A133" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="B133" t="s">
         <v>16</v>
       </c>
       <c r="C133" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="D133" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="E133">
         <v>2750</v>
@@ -5705,21 +5705,21 @@
         <v>165000</v>
       </c>
       <c r="G133" s="3" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
     </row>
     <row r="134" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A134" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="B134" t="s">
         <v>16</v>
       </c>
       <c r="C134" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="D134" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="E134">
         <v>2750</v>
@@ -5729,21 +5729,21 @@
         <v>165000</v>
       </c>
       <c r="G134" s="3" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
     </row>
     <row r="135" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A135" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="B135" t="s">
         <v>16</v>
       </c>
       <c r="C135" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="D135" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="E135">
         <v>2750</v>
@@ -5753,18 +5753,18 @@
         <v>165000</v>
       </c>
       <c r="G135" s="3" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
     </row>
     <row r="136" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A136" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="B136" t="s">
         <v>16</v>
       </c>
       <c r="C136" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="D136" t="s">
         <v>40</v>
@@ -5777,18 +5777,18 @@
         <v>228</v>
       </c>
       <c r="G136" s="3" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
     </row>
     <row r="137" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A137" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="B137" t="s">
         <v>16</v>
       </c>
       <c r="C137" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="D137" t="s">
         <v>40</v>
@@ -5801,18 +5801,18 @@
         <v>402</v>
       </c>
       <c r="G137" s="3" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
     </row>
     <row r="138" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A138" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="B138" t="s">
         <v>16</v>
       </c>
       <c r="C138" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="D138" t="s">
         <v>45</v>
@@ -5825,21 +5825,21 @@
         <v>5.46</v>
       </c>
       <c r="G138" s="3" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
     </row>
     <row r="139" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A139" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="B139" t="s">
         <v>16</v>
       </c>
       <c r="C139" t="s">
+        <v>599</v>
+      </c>
+      <c r="D139" t="s">
         <v>600</v>
-      </c>
-      <c r="D139" t="s">
-        <v>601</v>
       </c>
       <c r="E139">
         <v>1.7000000000000001E-2</v>
@@ -5849,21 +5849,21 @@
         <v>1.02</v>
       </c>
       <c r="G139" s="3" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
     </row>
     <row r="140" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A140" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="B140" t="s">
         <v>16</v>
       </c>
       <c r="C140" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="D140" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="E140">
         <v>27</v>
@@ -5873,18 +5873,18 @@
         <v>1620</v>
       </c>
       <c r="G140" s="3" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
     </row>
     <row r="141" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A141" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="B141" t="s">
         <v>16</v>
       </c>
       <c r="C141" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="D141" t="s">
         <v>45</v>
@@ -5897,18 +5897,18 @@
         <v>119160</v>
       </c>
       <c r="G141" s="3" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
     </row>
     <row r="142" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A142" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="B142" t="s">
         <v>16</v>
       </c>
       <c r="C142" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="D142" t="s">
         <v>45</v>
@@ -5921,18 +5921,18 @@
         <v>22800</v>
       </c>
       <c r="G142" s="3" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
     </row>
     <row r="143" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A143" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="B143" t="s">
         <v>16</v>
       </c>
       <c r="C143" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="D143" t="s">
         <v>45</v>
@@ -5945,18 +5945,18 @@
         <v>13260</v>
       </c>
       <c r="G143" s="3" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
     </row>
     <row r="144" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A144" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="B144" t="s">
         <v>16</v>
       </c>
       <c r="C144" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="D144" t="s">
         <v>42</v>
@@ -5969,18 +5969,18 @@
         <v>8400</v>
       </c>
       <c r="G144" s="1" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
     </row>
     <row r="145" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A145" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="B145" t="s">
         <v>16</v>
       </c>
       <c r="C145" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="D145" t="s">
         <v>42</v>
@@ -5993,18 +5993,18 @@
         <v>7.8000000000000007</v>
       </c>
       <c r="G145" s="3" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
     </row>
     <row r="146" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A146" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="B146" t="s">
         <v>16</v>
       </c>
       <c r="C146" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="D146" t="s">
         <v>45</v>
@@ -6017,18 +6017,18 @@
         <v>124.80000000000001</v>
       </c>
       <c r="G146" s="3" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
     </row>
     <row r="147" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A147" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="B147" t="s">
         <v>16</v>
       </c>
       <c r="C147" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="D147" t="s">
         <v>45</v>
@@ -6041,21 +6041,21 @@
         <v>184.14</v>
       </c>
       <c r="G147" s="3" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
     </row>
     <row r="148" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A148" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="B148" t="s">
         <v>16</v>
       </c>
       <c r="C148" t="s">
+        <v>614</v>
+      </c>
+      <c r="D148" t="s">
         <v>615</v>
-      </c>
-      <c r="D148" t="s">
-        <v>616</v>
       </c>
       <c r="E148">
         <v>1.6999999999999999E-3</v>
@@ -6065,18 +6065,18 @@
         <v>0.10199999999999999</v>
       </c>
       <c r="G148" s="3" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
     </row>
     <row r="149" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A149" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="B149" t="s">
         <v>16</v>
       </c>
       <c r="C149" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="D149" t="s">
         <v>40</v>
@@ -6089,21 +6089,21 @@
         <v>1746</v>
       </c>
       <c r="G149" s="3" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
     </row>
     <row r="150" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A150" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="B150" t="s">
         <v>16</v>
       </c>
       <c r="C150" t="s">
+        <v>619</v>
+      </c>
+      <c r="D150" t="s">
         <v>620</v>
-      </c>
-      <c r="D150" t="s">
-        <v>621</v>
       </c>
       <c r="E150">
         <v>509</v>
@@ -6113,18 +6113,18 @@
         <v>30540</v>
       </c>
       <c r="G150" s="3" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
     </row>
     <row r="151" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A151" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="B151" t="s">
         <v>16</v>
       </c>
       <c r="C151" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="D151" t="s">
         <v>45</v>
@@ -6137,18 +6137,18 @@
         <v>34.199999999999996</v>
       </c>
       <c r="G151" s="3" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
     </row>
     <row r="152" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A152" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="B152" t="s">
         <v>16</v>
       </c>
       <c r="C152" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="D152" t="s">
         <v>45</v>
@@ -6161,18 +6161,18 @@
         <v>2316</v>
       </c>
       <c r="G152" s="3" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
     <row r="153" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A153" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="B153" t="s">
         <v>16</v>
       </c>
       <c r="C153" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="D153" t="s">
         <v>45</v>
@@ -6185,18 +6185,18 @@
         <v>2916</v>
       </c>
       <c r="G153" s="3" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
     </row>
     <row r="154" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A154" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="B154" t="s">
         <v>16</v>
       </c>
       <c r="C154" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="D154" t="s">
         <v>40</v>
@@ -6209,21 +6209,21 @@
         <v>2760</v>
       </c>
       <c r="G154" s="3" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
     </row>
     <row r="155" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A155" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="B155" t="s">
         <v>16</v>
       </c>
       <c r="C155" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="D155" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="E155">
         <v>26.8</v>
@@ -6233,18 +6233,18 @@
         <v>1608</v>
       </c>
       <c r="G155" s="3" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
     </row>
     <row r="156" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A156" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="B156" t="s">
         <v>16</v>
       </c>
       <c r="C156" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="D156" t="s">
         <v>45</v>
@@ -6257,18 +6257,18 @@
         <v>1260</v>
       </c>
       <c r="G156" s="3" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
     </row>
     <row r="157" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A157" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="B157" t="s">
         <v>16</v>
       </c>
       <c r="C157" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="D157" t="s">
         <v>40</v>
@@ -6281,18 +6281,18 @@
         <v>94200</v>
       </c>
       <c r="G157" s="3" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
     </row>
     <row r="158" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A158" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="B158" t="s">
         <v>16</v>
       </c>
       <c r="C158" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="D158" t="s">
         <v>40</v>
@@ -6305,18 +6305,18 @@
         <v>330</v>
       </c>
       <c r="G158" s="3" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
     </row>
     <row r="159" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A159" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="B159" t="s">
         <v>16</v>
       </c>
       <c r="C159" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="D159" t="s">
         <v>40</v>
@@ -6329,18 +6329,18 @@
         <v>198</v>
       </c>
       <c r="G159" s="3" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
     </row>
     <row r="160" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A160" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="B160" t="s">
         <v>16</v>
       </c>
       <c r="C160" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="D160" t="s">
         <v>88</v>
@@ -6353,18 +6353,18 @@
         <v>1194</v>
       </c>
       <c r="G160" s="3" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
     </row>
     <row r="161" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A161" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="B161" t="s">
         <v>16</v>
       </c>
       <c r="C161" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="D161" t="s">
         <v>42</v>
@@ -6377,18 +6377,18 @@
         <v>1392</v>
       </c>
       <c r="G161" s="3" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
     </row>
     <row r="162" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A162" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="B162" t="s">
         <v>16</v>
       </c>
       <c r="C162" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="D162" t="s">
         <v>42</v>
@@ -6401,18 +6401,18 @@
         <v>1392</v>
       </c>
       <c r="G162" s="3" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
     </row>
     <row r="163" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A163" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="B163" t="s">
         <v>16</v>
       </c>
       <c r="C163" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
       <c r="D163" t="s">
         <v>40</v>
@@ -6425,18 +6425,18 @@
         <v>252</v>
       </c>
       <c r="G163" s="3" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
     </row>
     <row r="164" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A164" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="B164" t="s">
         <v>16</v>
       </c>
       <c r="C164" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="D164" t="s">
         <v>88</v>
@@ -6449,18 +6449,18 @@
         <v>109.2</v>
       </c>
       <c r="G164" s="3" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
     </row>
     <row r="165" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A165" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="B165" t="s">
         <v>16</v>
       </c>
       <c r="C165" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
       <c r="D165" t="s">
         <v>145</v>
@@ -6473,18 +6473,18 @@
         <v>9.6</v>
       </c>
       <c r="G165" s="3" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
     </row>
     <row r="166" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A166" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="B166" t="s">
         <v>16</v>
       </c>
       <c r="C166" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
       <c r="D166" t="s">
         <v>145</v>
@@ -6497,18 +6497,18 @@
         <v>25.8</v>
       </c>
       <c r="G166" s="3" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
     </row>
     <row r="167" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A167" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="B167" t="s">
         <v>16</v>
       </c>
       <c r="C167" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
       <c r="D167" t="s">
         <v>40</v>
@@ -6521,18 +6521,18 @@
         <v>1398</v>
       </c>
       <c r="G167" s="3" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
     </row>
     <row r="168" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A168" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="B168" t="s">
         <v>16</v>
       </c>
       <c r="C168" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="D168" t="s">
         <v>88</v>
@@ -6545,18 +6545,18 @@
         <v>141.6</v>
       </c>
       <c r="G168" s="3" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
     </row>
     <row r="169" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A169" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="B169" t="s">
         <v>16</v>
       </c>
       <c r="C169" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
       <c r="D169" t="s">
         <v>40</v>
@@ -6569,18 +6569,18 @@
         <v>1398</v>
       </c>
       <c r="G169" s="3" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
     </row>
     <row r="170" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A170" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="B170" t="s">
         <v>16</v>
       </c>
       <c r="C170" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
       <c r="D170" t="s">
         <v>40</v>
@@ -6593,18 +6593,18 @@
         <v>224.4</v>
       </c>
       <c r="G170" s="3" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
     </row>
     <row r="171" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A171" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="B171" t="s">
         <v>16</v>
       </c>
       <c r="C171" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
       <c r="D171" t="s">
         <v>40</v>
@@ -6617,18 +6617,18 @@
         <v>177.35999999999999</v>
       </c>
       <c r="G171" s="3" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
     </row>
     <row r="172" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A172" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="B172" t="s">
         <v>16</v>
       </c>
       <c r="C172" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="D172" t="s">
         <v>45</v>
@@ -6641,18 +6641,18 @@
         <v>4098</v>
       </c>
       <c r="G172" s="1" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
     </row>
     <row r="173" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A173" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="B173" t="s">
         <v>16</v>
       </c>
       <c r="C173" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="D173" t="s">
         <v>45</v>
@@ -6665,18 +6665,18 @@
         <v>8280</v>
       </c>
       <c r="G173" s="3" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
     </row>
     <row r="174" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A174" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="B174" t="s">
         <v>16</v>
       </c>
       <c r="C174" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="D174" t="s">
         <v>40</v>
@@ -6689,18 +6689,18 @@
         <v>2760</v>
       </c>
       <c r="G174" s="3" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
     </row>
     <row r="175" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A175" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="B175" t="s">
         <v>16</v>
       </c>
       <c r="C175" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="D175" t="s">
         <v>88</v>
@@ -6713,18 +6713,18 @@
         <v>1440</v>
       </c>
       <c r="G175" s="3" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
     </row>
     <row r="176" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A176" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="B176" t="s">
         <v>16</v>
       </c>
       <c r="C176" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="D176" t="s">
         <v>40</v>
@@ -6737,21 +6737,21 @@
         <v>330</v>
       </c>
       <c r="G176" s="3" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
     </row>
     <row r="177" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A177" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="B177" t="s">
         <v>16</v>
       </c>
       <c r="C177" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="D177" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="E177">
         <v>0.7</v>
@@ -6761,18 +6761,18 @@
         <v>42</v>
       </c>
       <c r="G177" s="3" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
     </row>
     <row r="178" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A178" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="B178" t="s">
         <v>16</v>
       </c>
       <c r="C178" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="D178" t="s">
         <v>45</v>
@@ -6785,18 +6785,18 @@
         <v>8280</v>
       </c>
       <c r="G178" s="3" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
     </row>
     <row r="179" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A179" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="B179" t="s">
         <v>16</v>
       </c>
       <c r="C179" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
       <c r="D179" t="s">
         <v>40</v>
@@ -6809,18 +6809,18 @@
         <v>12960</v>
       </c>
       <c r="G179" s="3" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
     </row>
     <row r="180" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A180" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="B180" t="s">
         <v>16</v>
       </c>
       <c r="C180" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
       <c r="D180" t="s">
         <v>88</v>
@@ -6833,18 +6833,18 @@
         <v>435</v>
       </c>
       <c r="G180" s="3" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
     </row>
     <row r="181" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A181" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="B181" t="s">
         <v>16</v>
       </c>
       <c r="C181" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
       <c r="D181" t="s">
         <v>45</v>
@@ -6857,18 +6857,18 @@
         <v>624</v>
       </c>
       <c r="G181" s="1" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
     </row>
     <row r="182" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A182" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="B182" t="s">
         <v>16</v>
       </c>
       <c r="C182" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="D182" t="s">
         <v>45</v>
@@ -6881,18 +6881,18 @@
         <v>3060</v>
       </c>
       <c r="G182" s="3" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
     </row>
     <row r="183" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A183" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="B183" t="s">
         <v>16</v>
       </c>
       <c r="C183" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="D183" t="s">
         <v>45</v>
@@ -6905,18 +6905,18 @@
         <v>184.14</v>
       </c>
       <c r="G183" s="3" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
     </row>
     <row r="184" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A184" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="B184" t="s">
         <v>16</v>
       </c>
       <c r="C184" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="D184" t="s">
         <v>40</v>
@@ -6929,18 +6929,18 @@
         <v>105.6</v>
       </c>
       <c r="G184" s="3" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
     </row>
     <row r="185" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A185" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="B185" t="s">
         <v>16</v>
       </c>
       <c r="C185" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="D185" t="s">
         <v>45</v>
@@ -6953,18 +6953,18 @@
         <v>60</v>
       </c>
       <c r="G185" s="3" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
     </row>
     <row r="186" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A186" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="B186" t="s">
         <v>16</v>
       </c>
       <c r="C186" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="D186" t="s">
         <v>45</v>
@@ -6977,21 +6977,21 @@
         <v>43.8</v>
       </c>
       <c r="G186" s="3" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
     </row>
     <row r="187" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A187" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="B187" t="s">
         <v>16</v>
       </c>
       <c r="C187" t="s">
+        <v>661</v>
+      </c>
+      <c r="D187" t="s">
         <v>662</v>
-      </c>
-      <c r="D187" t="s">
-        <v>663</v>
       </c>
       <c r="E187">
         <v>3.8</v>
@@ -7001,18 +7001,18 @@
         <v>228</v>
       </c>
       <c r="G187" s="3" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
     </row>
     <row r="188" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A188" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="B188" t="s">
         <v>16</v>
       </c>
       <c r="C188" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="D188" t="s">
         <v>45</v>
@@ -7025,18 +7025,18 @@
         <v>124.80000000000001</v>
       </c>
       <c r="G188" s="3" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
     </row>
     <row r="189" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A189" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="B189" t="s">
         <v>16</v>
       </c>
       <c r="C189" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
       <c r="D189" t="s">
         <v>42</v>
@@ -7049,18 +7049,18 @@
         <v>23.700000000000003</v>
       </c>
       <c r="G189" s="3" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
     </row>
     <row r="190" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A190" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="B190" t="s">
         <v>16</v>
       </c>
       <c r="C190" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="D190" t="s">
         <v>40</v>
@@ -7073,21 +7073,21 @@
         <v>1746</v>
       </c>
       <c r="G190" s="3" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
     </row>
     <row r="191" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A191" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="B191" t="s">
         <v>16</v>
       </c>
       <c r="C191" t="s">
+        <v>686</v>
+      </c>
+      <c r="D191" t="s">
         <v>687</v>
-      </c>
-      <c r="D191" t="s">
-        <v>688</v>
       </c>
       <c r="E191">
         <v>0.68</v>
@@ -7097,21 +7097,21 @@
         <v>40.800000000000004</v>
       </c>
       <c r="G191" s="3" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
     </row>
     <row r="192" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A192" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="B192" t="s">
         <v>16</v>
       </c>
       <c r="C192" t="s">
+        <v>689</v>
+      </c>
+      <c r="D192" t="s">
         <v>690</v>
-      </c>
-      <c r="D192" t="s">
-        <v>691</v>
       </c>
       <c r="E192">
         <v>2.66</v>
@@ -7121,21 +7121,21 @@
         <v>159.60000000000002</v>
       </c>
       <c r="G192" s="3" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
     </row>
     <row r="193" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A193" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="B193" t="s">
         <v>16</v>
       </c>
       <c r="C193" t="s">
+        <v>692</v>
+      </c>
+      <c r="D193" t="s">
         <v>693</v>
-      </c>
-      <c r="D193" t="s">
-        <v>694</v>
       </c>
       <c r="E193">
         <v>0.05</v>
@@ -7145,21 +7145,21 @@
         <v>3</v>
       </c>
       <c r="G193" s="3" t="s">
-        <v>695</v>
+        <v>694</v>
       </c>
     </row>
     <row r="194" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A194" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
       <c r="B194" t="s">
         <v>16</v>
       </c>
       <c r="C194" t="s">
-        <v>696</v>
+        <v>695</v>
       </c>
       <c r="D194" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="E194">
         <v>0.69</v>
@@ -7169,7 +7169,7 @@
         <v>41.4</v>
       </c>
       <c r="G194" s="3" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
     </row>
     <row r="195" spans="1:7" x14ac:dyDescent="0.35">
@@ -7366,7 +7366,7 @@
     </row>
     <row r="203" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A203" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
       <c r="B203" t="s">
         <v>16</v>
@@ -7516,7 +7516,7 @@
         <v>38</v>
       </c>
       <c r="C209" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="D209" t="s">
         <v>42</v>
@@ -7529,7 +7529,7 @@
         <v>2400</v>
       </c>
       <c r="G209" s="3" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="210" spans="1:7" x14ac:dyDescent="0.35">
@@ -7543,17 +7543,17 @@
         <v>171</v>
       </c>
       <c r="D210" t="s">
-        <v>88</v>
+        <v>42</v>
       </c>
       <c r="E210">
-        <v>0.84</v>
+        <v>167</v>
       </c>
       <c r="F210">
         <f t="shared" si="0"/>
-        <v>50.4</v>
+        <v>10020</v>
       </c>
       <c r="G210" s="5" t="s">
-        <v>172</v>
+        <v>708</v>
       </c>
     </row>
     <row r="211" spans="1:7" x14ac:dyDescent="0.35">
@@ -7606,13 +7606,13 @@
     </row>
     <row r="213" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A213" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B213" t="s">
         <v>38</v>
       </c>
       <c r="C213" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="D213" t="s">
         <v>40</v>
@@ -7625,18 +7625,18 @@
         <v>138000</v>
       </c>
       <c r="G213" s="6" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="214" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A214" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B214" t="s">
         <v>38</v>
       </c>
       <c r="C214" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="D214" t="s">
         <v>45</v>
@@ -7649,18 +7649,18 @@
         <v>13.68</v>
       </c>
       <c r="G214" s="6" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="215" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A215" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="B215" t="s">
         <v>38</v>
       </c>
       <c r="C215" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="D215" t="s">
         <v>45</v>
@@ -7673,18 +7673,18 @@
         <v>2316</v>
       </c>
       <c r="G215" s="6" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
     <row r="216" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A216" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="B216" t="s">
         <v>38</v>
       </c>
       <c r="C216" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="D216" t="s">
         <v>88</v>
@@ -7697,18 +7697,18 @@
         <v>1698</v>
       </c>
       <c r="G216" s="6" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
     </row>
     <row r="217" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A217" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="B217" t="s">
         <v>38</v>
       </c>
       <c r="C217" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="D217" t="s">
         <v>45</v>
@@ -7721,18 +7721,18 @@
         <v>0.34799999999999998</v>
       </c>
       <c r="G217" s="6" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
     </row>
     <row r="218" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A218" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="B218" t="s">
         <v>38</v>
       </c>
       <c r="C218" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="D218" t="s">
         <v>88</v>
@@ -7745,18 +7745,18 @@
         <v>11.1</v>
       </c>
       <c r="G218" s="6" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
     </row>
     <row r="219" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A219" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="B219" t="s">
         <v>38</v>
       </c>
       <c r="C219" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="D219" t="s">
         <v>88</v>
@@ -7769,18 +7769,18 @@
         <v>7980</v>
       </c>
       <c r="G219" s="6" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
     </row>
     <row r="220" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A220" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="B220" t="s">
         <v>38</v>
       </c>
       <c r="C220" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="D220" t="s">
         <v>45</v>
@@ -7793,18 +7793,18 @@
         <v>138</v>
       </c>
       <c r="G220" s="6" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
     </row>
     <row r="221" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A221" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="B221" t="s">
         <v>38</v>
       </c>
       <c r="C221" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="D221" t="s">
         <v>45</v>
@@ -7817,18 +7817,18 @@
         <v>80040</v>
       </c>
       <c r="G221" s="6" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
     </row>
     <row r="222" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A222" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="B222" t="s">
         <v>38</v>
       </c>
       <c r="C222" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="D222" t="s">
         <v>45</v>
@@ -7841,18 +7841,18 @@
         <v>13200</v>
       </c>
       <c r="G222" s="6" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
     </row>
     <row r="223" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A223" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="B223" t="s">
         <v>38</v>
       </c>
       <c r="C223" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="D223" t="s">
         <v>45</v>
@@ -7865,18 +7865,18 @@
         <v>3492</v>
       </c>
       <c r="G223" s="6" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
     </row>
     <row r="224" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A224" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="B224" t="s">
         <v>38</v>
       </c>
       <c r="C224" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="D224" t="s">
         <v>40</v>
@@ -7889,18 +7889,18 @@
         <v>834</v>
       </c>
       <c r="G224" s="3" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
     </row>
     <row r="225" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A225" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="B225" t="s">
         <v>38</v>
       </c>
       <c r="C225" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="D225" t="s">
         <v>40</v>
@@ -7913,18 +7913,18 @@
         <v>234</v>
       </c>
       <c r="G225" s="3" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
     </row>
     <row r="226" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A226" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="B226" t="s">
         <v>38</v>
       </c>
       <c r="C226" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="D226" t="s">
         <v>40</v>
@@ -7937,18 +7937,18 @@
         <v>25800</v>
       </c>
       <c r="G226" s="3" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
     </row>
     <row r="227" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A227" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="B227" t="s">
         <v>38</v>
       </c>
       <c r="C227" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="D227" t="s">
         <v>45</v>
@@ -7961,18 +7961,18 @@
         <v>1584</v>
       </c>
       <c r="G227" s="3" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
     </row>
     <row r="228" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A228" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="B228" t="s">
         <v>38</v>
       </c>
       <c r="C228" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="D228" t="s">
         <v>88</v>
@@ -7985,18 +7985,18 @@
         <v>1194</v>
       </c>
       <c r="G228" s="3" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
     </row>
     <row r="229" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A229" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="B229" t="s">
         <v>38</v>
       </c>
       <c r="C229" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="D229" t="s">
         <v>45</v>
@@ -8009,18 +8009,18 @@
         <v>420</v>
       </c>
       <c r="G229" s="3" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
     </row>
     <row r="230" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A230" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="B230" t="s">
         <v>38</v>
       </c>
       <c r="C230" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="D230" t="s">
         <v>45</v>
@@ -8033,18 +8033,18 @@
         <v>174</v>
       </c>
       <c r="G230" s="3" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
     </row>
     <row r="231" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A231" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="B231" t="s">
         <v>38</v>
       </c>
       <c r="C231" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="D231" t="s">
         <v>88</v>
@@ -8057,18 +8057,18 @@
         <v>198</v>
       </c>
       <c r="G231" s="3" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
     </row>
     <row r="232" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A232" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="B232" t="s">
         <v>38</v>
       </c>
       <c r="C232" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="D232" t="s">
         <v>40</v>
@@ -8081,12 +8081,12 @@
         <v>1494</v>
       </c>
       <c r="G232" s="3" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
     </row>
     <row r="233" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A233" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="B233" t="s">
         <v>38</v>
@@ -8110,13 +8110,13 @@
     </row>
     <row r="234" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A234" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="B234" t="s">
         <v>38</v>
       </c>
       <c r="C234" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="D234" t="s">
         <v>40</v>
@@ -8129,21 +8129,21 @@
         <v>330</v>
       </c>
       <c r="G234" s="3" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
     </row>
     <row r="235" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A235" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="B235" t="s">
         <v>38</v>
       </c>
       <c r="C235" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="D235" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="E235">
         <v>26.8</v>
@@ -8153,18 +8153,18 @@
         <v>1608</v>
       </c>
       <c r="G235" s="3" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
     </row>
     <row r="236" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A236" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="B236" t="s">
         <v>38</v>
       </c>
       <c r="C236" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="D236" t="s">
         <v>40</v>
@@ -8177,18 +8177,18 @@
         <v>90</v>
       </c>
       <c r="G236" s="3" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
     </row>
     <row r="237" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A237" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="B237" t="s">
         <v>38</v>
       </c>
       <c r="C237" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="D237" t="s">
         <v>40</v>
@@ -8201,12 +8201,12 @@
         <v>234</v>
       </c>
       <c r="G237" s="3" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
     </row>
     <row r="238" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A238" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="B238" t="s">
         <v>38</v>
@@ -8230,16 +8230,16 @@
     </row>
     <row r="239" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A239" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="B239" t="s">
         <v>38</v>
       </c>
       <c r="C239" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="D239" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="E239">
         <v>410</v>
@@ -8249,18 +8249,18 @@
         <v>24600</v>
       </c>
       <c r="G239" s="3" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
     </row>
     <row r="240" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A240" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="B240" t="s">
         <v>38</v>
       </c>
       <c r="C240" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="D240" t="s">
         <v>40</v>
@@ -8273,18 +8273,18 @@
         <v>358.25924192793639</v>
       </c>
       <c r="G240" s="3" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
     </row>
     <row r="241" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A241" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="B241" t="s">
         <v>38</v>
       </c>
       <c r="C241" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="D241" t="s">
         <v>88</v>
@@ -8297,18 +8297,18 @@
         <v>491.99999999999994</v>
       </c>
       <c r="G241" s="3" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
     </row>
     <row r="242" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A242" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="B242" t="s">
         <v>38</v>
       </c>
       <c r="C242" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="D242" t="s">
         <v>76</v>
@@ -8321,18 +8321,18 @@
         <v>64.800000000000011</v>
       </c>
       <c r="G242" s="3" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
     </row>
     <row r="243" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A243" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="B243" t="s">
         <v>38</v>
       </c>
       <c r="C243" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="D243" t="s">
         <v>42</v>
@@ -8345,18 +8345,18 @@
         <v>12360</v>
       </c>
       <c r="G243" s="3" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
     </row>
     <row r="244" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A244" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="B244" t="s">
         <v>38</v>
       </c>
       <c r="C244" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="D244" t="s">
         <v>88</v>
@@ -8369,18 +8369,18 @@
         <v>109.80000000000001</v>
       </c>
       <c r="G244" s="3" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
     </row>
     <row r="245" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A245" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="B245" t="s">
         <v>38</v>
       </c>
       <c r="C245" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="D245" t="s">
         <v>40</v>
@@ -8393,18 +8393,18 @@
         <v>330</v>
       </c>
       <c r="G245" s="3" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
     </row>
     <row r="246" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A246" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="B246" t="s">
         <v>38</v>
       </c>
       <c r="C246" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="D246" t="s">
         <v>45</v>
@@ -8417,18 +8417,18 @@
         <v>336</v>
       </c>
       <c r="G246" s="3" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
     </row>
     <row r="247" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A247" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="B247" t="s">
         <v>38</v>
       </c>
       <c r="C247" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="D247" t="s">
         <v>76</v>
@@ -8441,18 +8441,18 @@
         <v>64.800000000000011</v>
       </c>
       <c r="G247" s="3" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
     </row>
     <row r="248" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A248" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="B248" t="s">
         <v>38</v>
       </c>
       <c r="C248" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="D248" t="s">
         <v>40</v>
@@ -8465,18 +8465,18 @@
         <v>330</v>
       </c>
       <c r="G248" s="3" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
     </row>
     <row r="249" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A249" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="B249" t="s">
         <v>38</v>
       </c>
       <c r="C249" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="D249" t="s">
         <v>40</v>
@@ -8489,18 +8489,18 @@
         <v>702</v>
       </c>
       <c r="G249" s="3" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
     </row>
     <row r="250" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A250" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="B250" t="s">
         <v>38</v>
       </c>
       <c r="C250" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="D250" t="s">
         <v>40</v>
@@ -8513,18 +8513,18 @@
         <v>330</v>
       </c>
       <c r="G250" s="3" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
     </row>
     <row r="251" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A251" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="B251" t="s">
         <v>38</v>
       </c>
       <c r="C251" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="D251" t="s">
         <v>45</v>
@@ -8537,18 +8537,18 @@
         <v>318</v>
       </c>
       <c r="G251" s="3" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
     </row>
     <row r="252" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A252" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="B252" t="s">
         <v>38</v>
       </c>
       <c r="C252" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="D252" t="s">
         <v>40</v>
@@ -8561,18 +8561,18 @@
         <v>3108</v>
       </c>
       <c r="G252" s="3" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
     </row>
     <row r="253" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A253" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="B253" t="s">
         <v>38</v>
       </c>
       <c r="C253" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="D253" t="s">
         <v>40</v>
@@ -8585,12 +8585,12 @@
         <v>330</v>
       </c>
       <c r="G253" s="3" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
     </row>
     <row r="254" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A254" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="B254" t="s">
         <v>38</v>
@@ -8609,18 +8609,18 @@
         <v>1626</v>
       </c>
       <c r="G254" s="3" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
     </row>
     <row r="255" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A255" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="B255" t="s">
         <v>38</v>
       </c>
       <c r="C255" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="D255" t="s">
         <v>40</v>
@@ -8633,12 +8633,12 @@
         <v>156</v>
       </c>
       <c r="G255" s="3" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
     </row>
     <row r="256" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A256" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="B256" t="s">
         <v>38</v>
@@ -8662,16 +8662,16 @@
     </row>
     <row r="257" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A257" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="B257" t="s">
         <v>38</v>
       </c>
       <c r="C257" t="s">
+        <v>431</v>
+      </c>
+      <c r="D257" t="s">
         <v>432</v>
-      </c>
-      <c r="D257" t="s">
-        <v>433</v>
       </c>
       <c r="E257">
         <v>7.3</v>
@@ -8681,18 +8681,18 @@
         <v>438</v>
       </c>
       <c r="G257" s="3" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
     </row>
     <row r="258" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A258" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="B258" t="s">
         <v>38</v>
       </c>
       <c r="C258" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="D258" t="s">
         <v>88</v>
@@ -8705,18 +8705,18 @@
         <v>378</v>
       </c>
       <c r="G258" s="3" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
     </row>
     <row r="259" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A259" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="B259" t="s">
         <v>38</v>
       </c>
       <c r="C259" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="D259" t="s">
         <v>88</v>
@@ -8729,12 +8729,12 @@
         <v>112.2</v>
       </c>
       <c r="G259" s="3" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
     </row>
     <row r="260" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A260" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="B260" t="s">
         <v>38</v>
@@ -8753,18 +8753,18 @@
         <v>1920</v>
       </c>
       <c r="G260" s="3" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
     </row>
     <row r="261" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A261" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="B261" t="s">
         <v>38</v>
       </c>
       <c r="C261" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="D261" t="s">
         <v>45</v>
@@ -8777,18 +8777,18 @@
         <v>13260</v>
       </c>
       <c r="G261" s="3" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
     </row>
     <row r="262" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A262" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="B262" t="s">
         <v>38</v>
       </c>
       <c r="C262" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
       <c r="D262" t="s">
         <v>45</v>
@@ -8801,18 +8801,18 @@
         <v>3180</v>
       </c>
       <c r="G262" s="3" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
     </row>
     <row r="263" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A263" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
       <c r="B263" t="s">
         <v>38</v>
       </c>
       <c r="C263" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
       <c r="D263" t="s">
         <v>88</v>
@@ -8825,18 +8825,18 @@
         <v>504000</v>
       </c>
       <c r="G263" s="3" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
     </row>
     <row r="264" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A264" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
       <c r="B264" t="s">
         <v>38</v>
       </c>
       <c r="C264" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
       <c r="D264" t="s">
         <v>40</v>
@@ -8849,21 +8849,21 @@
         <v>4044.0000000000005</v>
       </c>
       <c r="G264" s="3" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
     </row>
     <row r="265" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A265" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
       <c r="B265" t="s">
         <v>38</v>
       </c>
       <c r="C265" t="s">
+        <v>675</v>
+      </c>
+      <c r="D265" t="s">
         <v>676</v>
-      </c>
-      <c r="D265" t="s">
-        <v>677</v>
       </c>
       <c r="E265">
         <v>6.61</v>
@@ -8878,13 +8878,13 @@
     </row>
     <row r="266" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A266" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="B266" t="s">
         <v>38</v>
       </c>
       <c r="C266" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
       <c r="D266" t="s">
         <v>145</v>
@@ -8897,18 +8897,18 @@
         <v>247.79999999999998</v>
       </c>
       <c r="G266" s="3" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
     </row>
     <row r="267" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A267" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
       <c r="B267" t="s">
         <v>38</v>
       </c>
       <c r="C267" t="s">
-        <v>706</v>
+        <v>705</v>
       </c>
       <c r="D267" t="s">
         <v>42</v>
@@ -8921,7 +8921,7 @@
         <v>1080</v>
       </c>
       <c r="G267" s="3" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
     </row>
     <row r="268" spans="1:7" x14ac:dyDescent="0.35">
@@ -8992,7 +8992,7 @@
         <v>107.4</v>
       </c>
       <c r="G270" s="1" t="s">
-        <v>698</v>
+        <v>697</v>
       </c>
     </row>
     <row r="271" spans="1:7" x14ac:dyDescent="0.35">

--- a/data/gems/Parameters.xlsx
+++ b/data/gems/Parameters.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bras5181\Desktop\Labprojects\CulturedMeat\PigGEM2025\data\gems\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1EE1144C-6532-4AEB-A84F-85A7F67E70B1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{266F5768-4E92-499D-AA52-9EE65220F01E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1429" uniqueCount="709">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1434" uniqueCount="712">
   <si>
     <t>Rxn</t>
   </si>
@@ -2164,6 +2164,15 @@
   </si>
   <si>
     <t>DOI: 10.1111/j.1432-1033.1995.340_1.x</t>
+  </si>
+  <si>
+    <t>ALATA_L</t>
+  </si>
+  <si>
+    <t>2.6.1.2</t>
+  </si>
+  <si>
+    <t>DOI: 10.1016/0005-2744(79)90178-5</t>
   </si>
 </sst>
 </file>
@@ -2510,10 +2519,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G271"/>
+  <dimension ref="A1:G272"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A198" workbookViewId="0">
-      <selection activeCell="N208" sqref="N208"/>
+    <sheetView tabSelected="1" topLeftCell="A33" workbookViewId="0">
+      <selection activeCell="M41" sqref="M41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2677,7 +2686,7 @@
         <v>620</v>
       </c>
       <c r="F7">
-        <f t="shared" ref="F7:F269" si="0">E7*60</f>
+        <f t="shared" ref="F7:F270" si="0">E7*60</f>
         <v>37200</v>
       </c>
       <c r="G7" s="3" t="s">
@@ -3253,7 +3262,7 @@
         <v>6.13</v>
       </c>
       <c r="F31">
-        <f t="shared" ref="F31:F56" si="6">E31*60</f>
+        <f t="shared" ref="F31:F57" si="6">E31*60</f>
         <v>367.8</v>
       </c>
       <c r="G31" s="3" t="s">
@@ -3526,2167 +3535,2167 @@
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A43" t="s">
-        <v>235</v>
+        <v>709</v>
       </c>
       <c r="B43" t="s">
         <v>16</v>
       </c>
       <c r="C43" t="s">
-        <v>423</v>
+        <v>710</v>
       </c>
       <c r="D43" t="s">
-        <v>88</v>
+        <v>45</v>
       </c>
       <c r="E43">
-        <v>13.6</v>
+        <v>213</v>
       </c>
       <c r="F43">
         <f t="shared" si="6"/>
-        <v>816</v>
-      </c>
-      <c r="G43" s="3" t="s">
-        <v>424</v>
+        <v>12780</v>
+      </c>
+      <c r="G43" s="4" t="s">
+        <v>711</v>
       </c>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A44" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="B44" t="s">
         <v>16</v>
       </c>
       <c r="C44" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
       <c r="D44" t="s">
-        <v>45</v>
+        <v>88</v>
       </c>
       <c r="E44">
-        <v>3.7890000000000001</v>
+        <v>13.6</v>
       </c>
       <c r="F44">
         <f t="shared" si="6"/>
-        <v>227.34</v>
+        <v>816</v>
       </c>
       <c r="G44" s="3" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A45" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="B45" t="s">
         <v>16</v>
       </c>
       <c r="C45" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
       <c r="D45" t="s">
         <v>45</v>
       </c>
       <c r="E45">
-        <v>3.069</v>
+        <v>3.7890000000000001</v>
       </c>
       <c r="F45">
         <f t="shared" si="6"/>
-        <v>184.14</v>
+        <v>227.34</v>
       </c>
       <c r="G45" s="3" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A46" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="B46" t="s">
         <v>16</v>
       </c>
       <c r="C46" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
       <c r="D46" t="s">
         <v>45</v>
       </c>
       <c r="E46">
-        <v>2.08</v>
+        <v>3.069</v>
       </c>
       <c r="F46">
         <f t="shared" si="6"/>
-        <v>124.80000000000001</v>
+        <v>184.14</v>
       </c>
       <c r="G46" s="3" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A47" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="B47" t="s">
         <v>16</v>
       </c>
       <c r="C47" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
       <c r="D47" t="s">
-        <v>432</v>
+        <v>45</v>
       </c>
       <c r="E47">
-        <v>7.3</v>
+        <v>2.08</v>
       </c>
       <c r="F47">
         <f t="shared" si="6"/>
-        <v>438</v>
+        <v>124.80000000000001</v>
       </c>
       <c r="G47" s="3" t="s">
-        <v>433</v>
+        <v>430</v>
       </c>
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A48" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="B48" t="s">
         <v>16</v>
       </c>
       <c r="C48" t="s">
-        <v>43</v>
+        <v>431</v>
       </c>
       <c r="D48" t="s">
-        <v>45</v>
+        <v>432</v>
       </c>
       <c r="E48">
-        <v>170</v>
+        <v>7.3</v>
       </c>
       <c r="F48">
         <f t="shared" si="6"/>
-        <v>10200</v>
+        <v>438</v>
       </c>
       <c r="G48" s="3" t="s">
-        <v>46</v>
+        <v>433</v>
       </c>
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A49" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="B49" t="s">
         <v>16</v>
       </c>
       <c r="C49" t="s">
-        <v>434</v>
+        <v>43</v>
       </c>
       <c r="D49" t="s">
         <v>45</v>
       </c>
       <c r="E49">
-        <v>68.3</v>
+        <v>170</v>
       </c>
       <c r="F49">
         <f t="shared" si="6"/>
-        <v>4098</v>
-      </c>
-      <c r="G49" s="1" t="s">
-        <v>435</v>
+        <v>10200</v>
+      </c>
+      <c r="G49" s="3" t="s">
+        <v>46</v>
       </c>
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A50" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="B50" t="s">
         <v>16</v>
       </c>
       <c r="C50" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
       <c r="D50" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="E50">
-        <v>410</v>
+        <v>68.3</v>
       </c>
       <c r="F50">
         <f t="shared" si="6"/>
-        <v>24600</v>
-      </c>
-      <c r="G50" s="3" t="s">
-        <v>437</v>
+        <v>4098</v>
+      </c>
+      <c r="G50" s="1" t="s">
+        <v>435</v>
       </c>
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A51" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="B51" t="s">
         <v>16</v>
       </c>
       <c r="C51" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
       <c r="D51" t="s">
         <v>40</v>
       </c>
       <c r="E51">
-        <v>20.931999999999999</v>
+        <v>410</v>
       </c>
       <c r="F51">
         <f t="shared" si="6"/>
-        <v>1255.9199999999998</v>
+        <v>24600</v>
       </c>
       <c r="G51" s="3" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A52" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="B52" t="s">
         <v>16</v>
       </c>
       <c r="C52" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
       <c r="D52" t="s">
         <v>40</v>
       </c>
       <c r="E52">
-        <v>10.3</v>
+        <v>20.931999999999999</v>
       </c>
       <c r="F52">
         <f t="shared" si="6"/>
-        <v>618</v>
+        <v>1255.9199999999998</v>
       </c>
       <c r="G52" s="3" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A53" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="B53" t="s">
         <v>16</v>
       </c>
       <c r="C53" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="D53" t="s">
         <v>40</v>
       </c>
       <c r="E53">
-        <v>1.76</v>
+        <v>10.3</v>
       </c>
       <c r="F53">
         <f t="shared" si="6"/>
-        <v>105.6</v>
+        <v>618</v>
       </c>
       <c r="G53" s="3" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A54" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="B54" t="s">
         <v>16</v>
       </c>
       <c r="C54" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="D54" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="E54">
-        <v>3.27E-2</v>
+        <v>1.76</v>
       </c>
       <c r="F54">
         <f t="shared" si="6"/>
-        <v>1.962</v>
+        <v>105.6</v>
       </c>
       <c r="G54" s="3" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
     </row>
     <row r="55" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A55" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="B55" t="s">
         <v>16</v>
       </c>
       <c r="C55" t="s">
-        <v>446</v>
+        <v>444</v>
       </c>
       <c r="D55" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="E55">
-        <v>350.02</v>
+        <v>3.27E-2</v>
       </c>
       <c r="F55">
         <f t="shared" si="6"/>
-        <v>21001.199999999997</v>
+        <v>1.962</v>
       </c>
       <c r="G55" s="3" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
     </row>
     <row r="56" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A56" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="B56" t="s">
         <v>16</v>
       </c>
       <c r="C56" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
       <c r="D56" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="E56">
-        <v>2.3999999999999998E-3</v>
+        <v>350.02</v>
       </c>
       <c r="F56">
         <f t="shared" si="6"/>
-        <v>0.14399999999999999</v>
+        <v>21001.199999999997</v>
       </c>
       <c r="G56" s="3" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
     </row>
     <row r="57" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A57" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="B57" t="s">
         <v>16</v>
       </c>
       <c r="C57" t="s">
-        <v>442</v>
+        <v>448</v>
       </c>
       <c r="D57" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="E57">
-        <v>1.76</v>
+        <v>2.3999999999999998E-3</v>
       </c>
       <c r="F57">
-        <f t="shared" ref="F57:F75" si="7">E57*60</f>
-        <v>105.6</v>
+        <f t="shared" si="6"/>
+        <v>0.14399999999999999</v>
       </c>
       <c r="G57" s="3" t="s">
-        <v>443</v>
+        <v>449</v>
       </c>
     </row>
     <row r="58" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A58" t="s">
+        <v>249</v>
+      </c>
+      <c r="B58" t="s">
+        <v>16</v>
+      </c>
+      <c r="C58" t="s">
+        <v>442</v>
+      </c>
+      <c r="D58" t="s">
+        <v>40</v>
+      </c>
+      <c r="E58">
+        <v>1.76</v>
+      </c>
+      <c r="F58">
+        <f t="shared" ref="F58:F76" si="7">E58*60</f>
+        <v>105.6</v>
+      </c>
+      <c r="G58" s="3" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A59" t="s">
         <v>250</v>
       </c>
-      <c r="B58" t="s">
-        <v>16</v>
-      </c>
-      <c r="C58" t="s">
+      <c r="B59" t="s">
+        <v>16</v>
+      </c>
+      <c r="C59" t="s">
         <v>429</v>
       </c>
-      <c r="D58" t="s">
+      <c r="D59" t="s">
         <v>45</v>
       </c>
-      <c r="E58">
+      <c r="E59">
         <v>2.08</v>
       </c>
-      <c r="F58">
+      <c r="F59">
         <f t="shared" si="7"/>
         <v>124.80000000000001</v>
       </c>
-      <c r="G58" s="3" t="s">
+      <c r="G59" s="3" t="s">
         <v>430</v>
       </c>
     </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A59" t="s">
+    <row r="60" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A60" t="s">
         <v>251</v>
       </c>
-      <c r="B59" t="s">
-        <v>16</v>
-      </c>
-      <c r="C59" t="s">
+      <c r="B60" t="s">
+        <v>16</v>
+      </c>
+      <c r="C60" t="s">
         <v>450</v>
       </c>
-      <c r="D59" t="s">
+      <c r="D60" t="s">
         <v>45</v>
       </c>
-      <c r="E59">
+      <c r="E60">
         <v>138</v>
       </c>
-      <c r="F59">
+      <c r="F60">
         <f t="shared" si="7"/>
         <v>8280</v>
       </c>
-      <c r="G59" s="3" t="s">
+      <c r="G60" s="3" t="s">
         <v>451</v>
       </c>
     </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A60" t="s">
+    <row r="61" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A61" t="s">
         <v>252</v>
       </c>
-      <c r="B60" t="s">
-        <v>16</v>
-      </c>
-      <c r="C60" t="s">
+      <c r="B61" t="s">
+        <v>16</v>
+      </c>
+      <c r="C61" t="s">
         <v>429</v>
       </c>
-      <c r="D60" t="s">
+      <c r="D61" t="s">
         <v>45</v>
       </c>
-      <c r="E60">
+      <c r="E61">
         <v>2.08</v>
       </c>
-      <c r="F60">
+      <c r="F61">
         <f t="shared" si="7"/>
         <v>124.80000000000001</v>
       </c>
-      <c r="G60" s="3" t="s">
+      <c r="G61" s="3" t="s">
         <v>430</v>
       </c>
     </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A61" t="s">
+    <row r="62" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A62" t="s">
         <v>253</v>
       </c>
-      <c r="B61" t="s">
-        <v>16</v>
-      </c>
-      <c r="C61" t="s">
+      <c r="B62" t="s">
+        <v>16</v>
+      </c>
+      <c r="C62" t="s">
         <v>168</v>
       </c>
-      <c r="D61" t="s">
+      <c r="D62" t="s">
         <v>40</v>
       </c>
-      <c r="E61">
+      <c r="E62">
         <v>32</v>
       </c>
-      <c r="F61">
+      <c r="F62">
         <f t="shared" si="7"/>
         <v>1920</v>
       </c>
-      <c r="G61" s="3" t="s">
+      <c r="G62" s="3" t="s">
         <v>452</v>
       </c>
     </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A62" t="s">
+    <row r="63" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A63" t="s">
         <v>254</v>
       </c>
-      <c r="B62" t="s">
-        <v>16</v>
-      </c>
-      <c r="C62" t="s">
+      <c r="B63" t="s">
+        <v>16</v>
+      </c>
+      <c r="C63" t="s">
         <v>427</v>
       </c>
-      <c r="D62" t="s">
+      <c r="D63" t="s">
         <v>45</v>
       </c>
-      <c r="E62">
+      <c r="E63">
         <v>3.069</v>
       </c>
-      <c r="F62">
+      <c r="F63">
         <f t="shared" si="7"/>
         <v>184.14</v>
       </c>
-      <c r="G62" s="3" t="s">
+      <c r="G63" s="3" t="s">
         <v>428</v>
       </c>
     </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A63" t="s">
+    <row r="64" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A64" t="s">
         <v>255</v>
       </c>
-      <c r="B63" t="s">
-        <v>16</v>
-      </c>
-      <c r="C63" t="s">
+      <c r="B64" t="s">
+        <v>16</v>
+      </c>
+      <c r="C64" t="s">
         <v>453</v>
       </c>
-      <c r="D63" t="s">
+      <c r="D64" t="s">
         <v>42</v>
       </c>
-      <c r="E63">
+      <c r="E64">
         <v>6.5799999999999999E-3</v>
       </c>
-      <c r="F63">
+      <c r="F64">
         <f t="shared" si="7"/>
         <v>0.39479999999999998</v>
       </c>
-      <c r="G63" s="3" t="s">
+      <c r="G64" s="3" t="s">
         <v>454</v>
       </c>
     </row>
-    <row r="64" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A64" t="s">
+    <row r="65" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A65" t="s">
         <v>256</v>
       </c>
-      <c r="B64" t="s">
-        <v>16</v>
-      </c>
-      <c r="C64" t="s">
+      <c r="B65" t="s">
+        <v>16</v>
+      </c>
+      <c r="C65" t="s">
         <v>455</v>
       </c>
-      <c r="D64" t="s">
+      <c r="D65" t="s">
         <v>45</v>
       </c>
-      <c r="E64">
+      <c r="E65">
         <v>2E-3</v>
       </c>
-      <c r="F64">
+      <c r="F65">
         <f t="shared" si="7"/>
         <v>0.12</v>
       </c>
-      <c r="G64" s="3" t="s">
+      <c r="G65" s="3" t="s">
         <v>456</v>
       </c>
     </row>
-    <row r="65" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A65" t="s">
+    <row r="66" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A66" t="s">
         <v>257</v>
       </c>
-      <c r="B65" t="s">
-        <v>16</v>
-      </c>
-      <c r="C65" t="s">
+      <c r="B66" t="s">
+        <v>16</v>
+      </c>
+      <c r="C66" t="s">
         <v>457</v>
       </c>
-      <c r="D65" t="s">
+      <c r="D66" t="s">
         <v>42</v>
       </c>
-      <c r="E65">
+      <c r="E66">
         <v>206</v>
       </c>
-      <c r="F65">
+      <c r="F66">
         <f t="shared" si="7"/>
         <v>12360</v>
       </c>
-      <c r="G65" s="3" t="s">
+      <c r="G66" s="3" t="s">
         <v>458</v>
       </c>
     </row>
-    <row r="66" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A66" t="s">
+    <row r="67" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A67" t="s">
         <v>258</v>
       </c>
-      <c r="B66" t="s">
-        <v>16</v>
-      </c>
-      <c r="C66" t="s">
+      <c r="B67" t="s">
+        <v>16</v>
+      </c>
+      <c r="C67" t="s">
         <v>459</v>
       </c>
-      <c r="D66" t="s">
+      <c r="D67" t="s">
         <v>88</v>
       </c>
-      <c r="E66">
+      <c r="E67">
         <v>5.8599999999999999E-2</v>
       </c>
-      <c r="F66">
+      <c r="F67">
         <f t="shared" si="7"/>
         <v>3.516</v>
       </c>
-      <c r="G66" s="3" t="s">
+      <c r="G67" s="3" t="s">
         <v>460</v>
       </c>
     </row>
-    <row r="67" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A67" t="s">
+    <row r="68" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A68" t="s">
         <v>259</v>
       </c>
-      <c r="B67" t="s">
-        <v>16</v>
-      </c>
-      <c r="C67" t="s">
+      <c r="B68" t="s">
+        <v>16</v>
+      </c>
+      <c r="C68" t="s">
         <v>461</v>
       </c>
-      <c r="D67" t="s">
+      <c r="D68" t="s">
         <v>88</v>
       </c>
-      <c r="E67">
+      <c r="E68">
         <v>3.3</v>
       </c>
-      <c r="F67">
+      <c r="F68">
         <f t="shared" si="7"/>
         <v>198</v>
       </c>
-      <c r="G67" s="3" t="s">
+      <c r="G68" s="3" t="s">
         <v>462</v>
       </c>
     </row>
-    <row r="68" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A68" t="s">
+    <row r="69" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A69" t="s">
         <v>260</v>
       </c>
-      <c r="B68" t="s">
-        <v>16</v>
-      </c>
-      <c r="C68" t="s">
+      <c r="B69" t="s">
+        <v>16</v>
+      </c>
+      <c r="C69" t="s">
         <v>463</v>
       </c>
-      <c r="D68" t="s">
+      <c r="D69" t="s">
         <v>45</v>
       </c>
-      <c r="E68">
+      <c r="E69">
         <v>51</v>
       </c>
-      <c r="F68">
+      <c r="F69">
         <f t="shared" si="7"/>
         <v>3060</v>
       </c>
-      <c r="G68" s="3" t="s">
+      <c r="G69" s="3" t="s">
         <v>464</v>
       </c>
     </row>
-    <row r="69" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A69" t="s">
+    <row r="70" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A70" t="s">
         <v>261</v>
       </c>
-      <c r="B69" t="s">
-        <v>16</v>
-      </c>
-      <c r="C69" t="s">
+      <c r="B70" t="s">
+        <v>16</v>
+      </c>
+      <c r="C70" t="s">
         <v>465</v>
       </c>
-      <c r="D69" t="s">
+      <c r="D70" t="s">
         <v>40</v>
       </c>
-      <c r="E69">
+      <c r="E70">
         <v>137</v>
       </c>
-      <c r="F69">
+      <c r="F70">
         <f t="shared" si="7"/>
         <v>8220</v>
       </c>
-      <c r="G69" s="3" t="s">
+      <c r="G70" s="3" t="s">
         <v>466</v>
       </c>
     </row>
-    <row r="70" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A70" t="s">
+    <row r="71" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A71" t="s">
         <v>262</v>
       </c>
-      <c r="B70" t="s">
-        <v>16</v>
-      </c>
-      <c r="C70" t="s">
+      <c r="B71" t="s">
+        <v>16</v>
+      </c>
+      <c r="C71" t="s">
         <v>467</v>
       </c>
-      <c r="D70" t="s">
+      <c r="D71" t="s">
         <v>45</v>
       </c>
-      <c r="E70">
+      <c r="E71">
         <v>1.07E-3</v>
       </c>
-      <c r="F70">
+      <c r="F71">
         <f t="shared" si="7"/>
         <v>6.4199999999999993E-2</v>
       </c>
-      <c r="G70" s="1" t="s">
+      <c r="G71" s="1" t="s">
         <v>468</v>
       </c>
     </row>
-    <row r="71" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A71" t="s">
+    <row r="72" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A72" t="s">
         <v>263</v>
       </c>
-      <c r="B71" t="s">
-        <v>16</v>
-      </c>
-      <c r="C71" t="s">
+      <c r="B72" t="s">
+        <v>16</v>
+      </c>
+      <c r="C72" t="s">
         <v>469</v>
       </c>
-      <c r="D71" t="s">
+      <c r="D72" t="s">
         <v>88</v>
       </c>
-      <c r="E71">
+      <c r="E72">
         <v>989</v>
       </c>
-      <c r="F71">
+      <c r="F72">
         <f t="shared" si="7"/>
         <v>59340</v>
       </c>
-      <c r="G71" s="3" t="s">
+      <c r="G72" s="3" t="s">
         <v>470</v>
       </c>
     </row>
-    <row r="72" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A72" t="s">
+    <row r="73" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A73" t="s">
         <v>264</v>
       </c>
-      <c r="B72" t="s">
-        <v>16</v>
-      </c>
-      <c r="C72" t="s">
+      <c r="B73" t="s">
+        <v>16</v>
+      </c>
+      <c r="C73" t="s">
         <v>471</v>
       </c>
-      <c r="D72" t="s">
+      <c r="D73" t="s">
         <v>45</v>
       </c>
-      <c r="E72">
+      <c r="E73">
         <v>0.31</v>
       </c>
-      <c r="F72">
+      <c r="F73">
         <f t="shared" si="7"/>
         <v>18.600000000000001</v>
       </c>
-      <c r="G72" s="3" t="s">
+      <c r="G73" s="3" t="s">
         <v>472</v>
       </c>
     </row>
-    <row r="73" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A73" t="s">
+    <row r="74" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A74" t="s">
         <v>265</v>
       </c>
-      <c r="B73" t="s">
-        <v>16</v>
-      </c>
-      <c r="C73" t="s">
+      <c r="B74" t="s">
+        <v>16</v>
+      </c>
+      <c r="C74" t="s">
         <v>473</v>
       </c>
-      <c r="D73" t="s">
+      <c r="D74" t="s">
         <v>40</v>
       </c>
-      <c r="E73">
+      <c r="E74">
         <v>46</v>
       </c>
-      <c r="F73">
+      <c r="F74">
         <f t="shared" si="7"/>
         <v>2760</v>
       </c>
-      <c r="G73" s="3" t="s">
+      <c r="G74" s="3" t="s">
         <v>474</v>
       </c>
     </row>
-    <row r="74" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A74" t="s">
+    <row r="75" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A75" t="s">
         <v>266</v>
       </c>
-      <c r="B74" t="s">
-        <v>16</v>
-      </c>
-      <c r="C74" t="s">
+      <c r="B75" t="s">
+        <v>16</v>
+      </c>
+      <c r="C75" t="s">
         <v>475</v>
       </c>
-      <c r="D74" t="s">
+      <c r="D75" t="s">
         <v>45</v>
       </c>
-      <c r="E74">
+      <c r="E75">
         <v>0.81599999999999995</v>
       </c>
-      <c r="F74">
+      <c r="F75">
         <f t="shared" si="7"/>
         <v>48.959999999999994</v>
       </c>
-      <c r="G74" s="3" t="s">
+      <c r="G75" s="3" t="s">
         <v>476</v>
       </c>
     </row>
-    <row r="75" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A75" t="s">
+    <row r="76" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A76" t="s">
         <v>267</v>
       </c>
-      <c r="B75" t="s">
-        <v>16</v>
-      </c>
-      <c r="C75" t="s">
+      <c r="B76" t="s">
+        <v>16</v>
+      </c>
+      <c r="C76" t="s">
         <v>477</v>
       </c>
-      <c r="D75" t="s">
+      <c r="D76" t="s">
         <v>40</v>
       </c>
-      <c r="E75">
+      <c r="E76">
         <v>5.5</v>
       </c>
-      <c r="F75">
+      <c r="F76">
         <f t="shared" si="7"/>
         <v>330</v>
       </c>
-      <c r="G75" s="3" t="s">
+      <c r="G76" s="3" t="s">
         <v>478</v>
-      </c>
-    </row>
-    <row r="76" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A76" t="s">
-        <v>268</v>
-      </c>
-      <c r="B76" t="s">
-        <v>16</v>
-      </c>
-      <c r="C76" t="s">
-        <v>473</v>
-      </c>
-      <c r="D76" t="s">
-        <v>40</v>
-      </c>
-      <c r="E76">
-        <v>46</v>
-      </c>
-      <c r="F76">
-        <f t="shared" ref="F76:F85" si="8">E76*60</f>
-        <v>2760</v>
-      </c>
-      <c r="G76" s="3" t="s">
-        <v>474</v>
       </c>
     </row>
     <row r="77" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A77" t="s">
+        <v>268</v>
+      </c>
+      <c r="B77" t="s">
+        <v>16</v>
+      </c>
+      <c r="C77" t="s">
+        <v>473</v>
+      </c>
+      <c r="D77" t="s">
+        <v>40</v>
+      </c>
+      <c r="E77">
+        <v>46</v>
+      </c>
+      <c r="F77">
+        <f t="shared" ref="F77:F86" si="8">E77*60</f>
+        <v>2760</v>
+      </c>
+      <c r="G77" s="3" t="s">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="78" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A78" t="s">
         <v>269</v>
       </c>
-      <c r="B77" t="s">
-        <v>16</v>
-      </c>
-      <c r="C77" t="s">
+      <c r="B78" t="s">
+        <v>16</v>
+      </c>
+      <c r="C78" t="s">
         <v>479</v>
       </c>
-      <c r="D77" t="s">
+      <c r="D78" t="s">
         <v>145</v>
       </c>
-      <c r="E77">
+      <c r="E78">
         <v>71</v>
       </c>
-      <c r="F77">
+      <c r="F78">
         <f t="shared" si="8"/>
         <v>4260</v>
       </c>
-      <c r="G77" s="3" t="s">
+      <c r="G78" s="3" t="s">
         <v>480</v>
       </c>
     </row>
-    <row r="78" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A78" t="s">
+    <row r="79" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A79" t="s">
         <v>270</v>
       </c>
-      <c r="B78" t="s">
-        <v>16</v>
-      </c>
-      <c r="C78" t="s">
+      <c r="B79" t="s">
+        <v>16</v>
+      </c>
+      <c r="C79" t="s">
         <v>481</v>
       </c>
-      <c r="D78" t="s">
+      <c r="D79" t="s">
         <v>88</v>
       </c>
-      <c r="E78">
+      <c r="E79">
         <v>0.49</v>
       </c>
-      <c r="F78">
+      <c r="F79">
         <f t="shared" si="8"/>
         <v>29.4</v>
       </c>
-      <c r="G78" s="3" t="s">
+      <c r="G79" s="3" t="s">
         <v>482</v>
       </c>
     </row>
-    <row r="79" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A79" t="s">
+    <row r="80" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A80" t="s">
         <v>271</v>
       </c>
-      <c r="B79" t="s">
-        <v>16</v>
-      </c>
-      <c r="C79" t="s">
+      <c r="B80" t="s">
+        <v>16</v>
+      </c>
+      <c r="C80" t="s">
         <v>473</v>
       </c>
-      <c r="D79" t="s">
+      <c r="D80" t="s">
         <v>40</v>
       </c>
-      <c r="E79">
+      <c r="E80">
         <v>46</v>
       </c>
-      <c r="F79">
+      <c r="F80">
         <f t="shared" si="8"/>
         <v>2760</v>
       </c>
-      <c r="G79" s="3" t="s">
+      <c r="G80" s="3" t="s">
         <v>474</v>
       </c>
     </row>
-    <row r="80" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A80" t="s">
+    <row r="81" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A81" t="s">
         <v>272</v>
       </c>
-      <c r="B80" t="s">
-        <v>16</v>
-      </c>
-      <c r="C80" t="s">
+      <c r="B81" t="s">
+        <v>16</v>
+      </c>
+      <c r="C81" t="s">
         <v>467</v>
       </c>
-      <c r="D80" t="s">
+      <c r="D81" t="s">
         <v>45</v>
       </c>
-      <c r="E80">
+      <c r="E81">
         <v>1.07E-3</v>
       </c>
-      <c r="F80">
+      <c r="F81">
         <f t="shared" si="8"/>
         <v>6.4199999999999993E-2</v>
       </c>
-      <c r="G80" s="1" t="s">
+      <c r="G81" s="1" t="s">
         <v>468</v>
       </c>
     </row>
-    <row r="81" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A81" t="s">
+    <row r="82" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A82" t="s">
         <v>273</v>
       </c>
-      <c r="B81" t="s">
-        <v>16</v>
-      </c>
-      <c r="C81" t="s">
+      <c r="B82" t="s">
+        <v>16</v>
+      </c>
+      <c r="C82" t="s">
         <v>429</v>
       </c>
-      <c r="D81" t="s">
+      <c r="D82" t="s">
         <v>45</v>
       </c>
-      <c r="E81">
+      <c r="E82">
         <v>2.08</v>
       </c>
-      <c r="F81">
+      <c r="F82">
         <f t="shared" si="8"/>
         <v>124.80000000000001</v>
       </c>
-      <c r="G81" s="3" t="s">
+      <c r="G82" s="3" t="s">
         <v>430</v>
       </c>
     </row>
-    <row r="82" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A82" t="s">
+    <row r="83" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A83" t="s">
         <v>274</v>
       </c>
-      <c r="B82" t="s">
-        <v>16</v>
-      </c>
-      <c r="C82" t="s">
+      <c r="B83" t="s">
+        <v>16</v>
+      </c>
+      <c r="C83" t="s">
         <v>483</v>
       </c>
-      <c r="D82" t="s">
+      <c r="D83" t="s">
         <v>40</v>
       </c>
-      <c r="E82">
+      <c r="E83">
         <v>3.2712232620320854</v>
       </c>
-      <c r="F82">
+      <c r="F83">
         <f t="shared" si="8"/>
         <v>196.27339572192511</v>
       </c>
-      <c r="G82" s="3" t="s">
+      <c r="G83" s="3" t="s">
         <v>484</v>
       </c>
     </row>
-    <row r="83" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A83" t="s">
+    <row r="84" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A84" t="s">
         <v>275</v>
       </c>
-      <c r="B83" t="s">
-        <v>16</v>
-      </c>
-      <c r="C83" t="s">
+      <c r="B84" t="s">
+        <v>16</v>
+      </c>
+      <c r="C84" t="s">
         <v>485</v>
       </c>
-      <c r="D83" t="s">
+      <c r="D84" t="s">
         <v>42</v>
       </c>
-      <c r="E83">
+      <c r="E84">
         <v>5.0999999999999996</v>
       </c>
-      <c r="F83">
+      <c r="F84">
         <f t="shared" si="8"/>
         <v>306</v>
       </c>
-      <c r="G83" s="3" t="s">
+      <c r="G84" s="3" t="s">
         <v>486</v>
       </c>
     </row>
-    <row r="84" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A84" t="s">
+    <row r="85" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A85" t="s">
         <v>276</v>
       </c>
-      <c r="B84" t="s">
-        <v>16</v>
-      </c>
-      <c r="C84" t="s">
+      <c r="B85" t="s">
+        <v>16</v>
+      </c>
+      <c r="C85" t="s">
         <v>487</v>
       </c>
-      <c r="D84" t="s">
+      <c r="D85" t="s">
         <v>40</v>
       </c>
-      <c r="E84">
+      <c r="E85">
         <v>4.7</v>
       </c>
-      <c r="F84">
+      <c r="F85">
         <f t="shared" si="8"/>
         <v>282</v>
       </c>
-      <c r="G84" s="3" t="s">
+      <c r="G85" s="3" t="s">
         <v>488</v>
       </c>
     </row>
-    <row r="85" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A85" t="s">
+    <row r="86" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A86" t="s">
         <v>277</v>
       </c>
-      <c r="B85" t="s">
-        <v>16</v>
-      </c>
-      <c r="C85" t="s">
+      <c r="B86" t="s">
+        <v>16</v>
+      </c>
+      <c r="C86" t="s">
         <v>467</v>
       </c>
-      <c r="D85" t="s">
+      <c r="D86" t="s">
         <v>45</v>
       </c>
-      <c r="E85">
+      <c r="E86">
         <v>1.07E-3</v>
       </c>
-      <c r="F85">
+      <c r="F86">
         <f t="shared" si="8"/>
         <v>6.4199999999999993E-2</v>
       </c>
-      <c r="G85" s="1" t="s">
+      <c r="G86" s="1" t="s">
         <v>468</v>
-      </c>
-    </row>
-    <row r="86" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A86" t="s">
-        <v>278</v>
-      </c>
-      <c r="B86" t="s">
-        <v>16</v>
-      </c>
-      <c r="C86" t="s">
-        <v>487</v>
-      </c>
-      <c r="D86" t="s">
-        <v>40</v>
-      </c>
-      <c r="E86">
-        <v>4.7</v>
-      </c>
-      <c r="F86">
-        <f t="shared" ref="F86:F111" si="9">E86*60</f>
-        <v>282</v>
-      </c>
-      <c r="G86" s="3" t="s">
-        <v>488</v>
       </c>
     </row>
     <row r="87" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A87" t="s">
+        <v>278</v>
+      </c>
+      <c r="B87" t="s">
+        <v>16</v>
+      </c>
+      <c r="C87" t="s">
+        <v>487</v>
+      </c>
+      <c r="D87" t="s">
+        <v>40</v>
+      </c>
+      <c r="E87">
+        <v>4.7</v>
+      </c>
+      <c r="F87">
+        <f t="shared" ref="F87:F112" si="9">E87*60</f>
+        <v>282</v>
+      </c>
+      <c r="G87" s="3" t="s">
+        <v>488</v>
+      </c>
+    </row>
+    <row r="88" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A88" t="s">
         <v>279</v>
       </c>
-      <c r="B87" t="s">
-        <v>16</v>
-      </c>
-      <c r="C87" t="s">
+      <c r="B88" t="s">
+        <v>16</v>
+      </c>
+      <c r="C88" t="s">
         <v>489</v>
       </c>
-      <c r="D87" t="s">
+      <c r="D88" t="s">
         <v>490</v>
       </c>
-      <c r="E87">
+      <c r="E88">
         <v>8.75</v>
       </c>
-      <c r="F87">
+      <c r="F88">
         <f t="shared" si="9"/>
         <v>525</v>
       </c>
-      <c r="G87" s="3" t="s">
+      <c r="G88" s="3" t="s">
         <v>491</v>
       </c>
     </row>
-    <row r="88" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A88" t="s">
+    <row r="89" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A89" t="s">
         <v>280</v>
       </c>
-      <c r="B88" t="s">
-        <v>16</v>
-      </c>
-      <c r="C88" t="s">
+      <c r="B89" t="s">
+        <v>16</v>
+      </c>
+      <c r="C89" t="s">
         <v>489</v>
       </c>
-      <c r="D88" t="s">
+      <c r="D89" t="s">
         <v>490</v>
       </c>
-      <c r="E88">
+      <c r="E89">
         <v>21</v>
       </c>
-      <c r="F88">
+      <c r="F89">
         <f t="shared" si="9"/>
         <v>1260</v>
       </c>
-      <c r="G88" s="3" t="s">
+      <c r="G89" s="3" t="s">
         <v>491</v>
       </c>
     </row>
-    <row r="89" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A89" t="s">
+    <row r="90" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A90" t="s">
         <v>281</v>
       </c>
-      <c r="B89" t="s">
-        <v>16</v>
-      </c>
-      <c r="C89" t="s">
+      <c r="B90" t="s">
+        <v>16</v>
+      </c>
+      <c r="C90" t="s">
         <v>489</v>
       </c>
-      <c r="D89" t="s">
+      <c r="D90" t="s">
         <v>490</v>
       </c>
-      <c r="E89">
+      <c r="E90">
         <v>9.3800000000000008</v>
       </c>
-      <c r="F89">
+      <c r="F90">
         <f t="shared" si="9"/>
         <v>562.80000000000007</v>
       </c>
-      <c r="G89" s="3" t="s">
+      <c r="G90" s="3" t="s">
         <v>491</v>
       </c>
     </row>
-    <row r="90" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A90" t="s">
+    <row r="91" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A91" t="s">
         <v>282</v>
       </c>
-      <c r="B90" t="s">
-        <v>16</v>
-      </c>
-      <c r="C90" t="s">
+      <c r="B91" t="s">
+        <v>16</v>
+      </c>
+      <c r="C91" t="s">
         <v>492</v>
       </c>
-      <c r="D90" t="s">
+      <c r="D91" t="s">
         <v>490</v>
       </c>
-      <c r="E90">
+      <c r="E91">
         <v>0.114</v>
       </c>
-      <c r="F90">
+      <c r="F91">
         <f t="shared" si="9"/>
         <v>6.84</v>
       </c>
-      <c r="G90" s="3" t="s">
+      <c r="G91" s="3" t="s">
         <v>493</v>
       </c>
     </row>
-    <row r="91" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A91" t="s">
+    <row r="92" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A92" t="s">
         <v>283</v>
       </c>
-      <c r="B91" t="s">
-        <v>16</v>
-      </c>
-      <c r="C91" t="s">
+      <c r="B92" t="s">
+        <v>16</v>
+      </c>
+      <c r="C92" t="s">
         <v>494</v>
       </c>
-      <c r="D91" t="s">
+      <c r="D92" t="s">
         <v>45</v>
       </c>
-      <c r="E91">
+      <c r="E92">
         <v>0.98</v>
       </c>
-      <c r="F91">
+      <c r="F92">
         <f t="shared" si="9"/>
         <v>58.8</v>
       </c>
-      <c r="G91" s="1" t="s">
+      <c r="G92" s="1" t="s">
         <v>495</v>
       </c>
     </row>
-    <row r="92" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A92" t="s">
+    <row r="93" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A93" t="s">
         <v>284</v>
       </c>
-      <c r="B92" t="s">
-        <v>16</v>
-      </c>
-      <c r="C92" t="s">
+      <c r="B93" t="s">
+        <v>16</v>
+      </c>
+      <c r="C93" t="s">
         <v>465</v>
       </c>
-      <c r="D92" t="s">
+      <c r="D93" t="s">
         <v>40</v>
       </c>
-      <c r="E92">
+      <c r="E93">
         <v>137</v>
       </c>
-      <c r="F92">
+      <c r="F93">
         <f t="shared" si="9"/>
         <v>8220</v>
       </c>
-      <c r="G92" s="3" t="s">
+      <c r="G93" s="3" t="s">
         <v>466</v>
       </c>
     </row>
-    <row r="93" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A93" t="s">
+    <row r="94" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A94" t="s">
         <v>285</v>
       </c>
-      <c r="B93" t="s">
-        <v>16</v>
-      </c>
-      <c r="C93" t="s">
+      <c r="B94" t="s">
+        <v>16</v>
+      </c>
+      <c r="C94" t="s">
         <v>496</v>
       </c>
-      <c r="D93" t="s">
+      <c r="D94" t="s">
         <v>40</v>
       </c>
-      <c r="E93">
+      <c r="E94">
         <v>1180</v>
       </c>
-      <c r="F93">
+      <c r="F94">
         <f t="shared" si="9"/>
         <v>70800</v>
       </c>
-      <c r="G93" s="3" t="s">
+      <c r="G94" s="3" t="s">
         <v>497</v>
       </c>
     </row>
-    <row r="94" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A94" t="s">
+    <row r="95" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A95" t="s">
         <v>286</v>
       </c>
-      <c r="B94" t="s">
-        <v>16</v>
-      </c>
-      <c r="C94" t="s">
+      <c r="B95" t="s">
+        <v>16</v>
+      </c>
+      <c r="C95" t="s">
         <v>498</v>
       </c>
-      <c r="D94" t="s">
+      <c r="D95" t="s">
         <v>88</v>
       </c>
-      <c r="E94">
+      <c r="E95">
         <v>143</v>
       </c>
-      <c r="F94">
+      <c r="F95">
         <f t="shared" si="9"/>
         <v>8580</v>
       </c>
-      <c r="G94" s="3" t="s">
+      <c r="G95" s="3" t="s">
         <v>499</v>
       </c>
     </row>
-    <row r="95" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A95" t="s">
+    <row r="96" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A96" t="s">
         <v>287</v>
       </c>
-      <c r="B95" t="s">
-        <v>16</v>
-      </c>
-      <c r="C95" t="s">
+      <c r="B96" t="s">
+        <v>16</v>
+      </c>
+      <c r="C96" t="s">
         <v>500</v>
       </c>
-      <c r="D95" t="s">
+      <c r="D96" t="s">
         <v>45</v>
       </c>
-      <c r="E95">
+      <c r="E96">
         <v>1.7</v>
       </c>
-      <c r="F95">
+      <c r="F96">
         <f t="shared" si="9"/>
         <v>102</v>
       </c>
-      <c r="G95" s="3" t="s">
+      <c r="G96" s="3" t="s">
         <v>501</v>
       </c>
     </row>
-    <row r="96" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A96" t="s">
+    <row r="97" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A97" t="s">
         <v>288</v>
       </c>
-      <c r="B96" t="s">
-        <v>16</v>
-      </c>
-      <c r="C96" t="s">
+      <c r="B97" t="s">
+        <v>16</v>
+      </c>
+      <c r="C97" t="s">
         <v>502</v>
       </c>
-      <c r="D96" t="s">
+      <c r="D97" t="s">
         <v>45</v>
       </c>
-      <c r="E96">
+      <c r="E97">
         <v>0.33</v>
       </c>
-      <c r="F96">
+      <c r="F97">
         <f t="shared" si="9"/>
         <v>19.8</v>
       </c>
-      <c r="G96" s="3" t="s">
+      <c r="G97" s="3" t="s">
         <v>503</v>
       </c>
     </row>
-    <row r="97" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A97" t="s">
+    <row r="98" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A98" t="s">
         <v>289</v>
       </c>
-      <c r="B97" t="s">
-        <v>16</v>
-      </c>
-      <c r="C97" t="s">
+      <c r="B98" t="s">
+        <v>16</v>
+      </c>
+      <c r="C98" t="s">
         <v>504</v>
       </c>
-      <c r="D97" t="s">
+      <c r="D98" t="s">
         <v>40</v>
       </c>
-      <c r="E97">
+      <c r="E98">
         <v>34.799999999999997</v>
       </c>
-      <c r="F97">
+      <c r="F98">
         <f t="shared" si="9"/>
         <v>2088</v>
       </c>
-      <c r="G97" s="3" t="s">
+      <c r="G98" s="3" t="s">
         <v>505</v>
       </c>
     </row>
-    <row r="98" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A98" t="s">
+    <row r="99" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A99" t="s">
         <v>290</v>
       </c>
-      <c r="B98" t="s">
-        <v>16</v>
-      </c>
-      <c r="C98" t="s">
+      <c r="B99" t="s">
+        <v>16</v>
+      </c>
+      <c r="C99" t="s">
         <v>506</v>
       </c>
-      <c r="D98" t="s">
+      <c r="D99" t="s">
         <v>40</v>
       </c>
-      <c r="E98">
+      <c r="E99">
         <v>25</v>
       </c>
-      <c r="F98">
+      <c r="F99">
         <f t="shared" si="9"/>
         <v>1500</v>
       </c>
-      <c r="G98" s="3" t="s">
+      <c r="G99" s="3" t="s">
         <v>507</v>
       </c>
     </row>
-    <row r="99" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A99" t="s">
+    <row r="100" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A100" t="s">
         <v>291</v>
       </c>
-      <c r="B99" t="s">
-        <v>16</v>
-      </c>
-      <c r="C99" t="s">
+      <c r="B100" t="s">
+        <v>16</v>
+      </c>
+      <c r="C100" t="s">
         <v>508</v>
       </c>
-      <c r="D99" t="s">
+      <c r="D100" t="s">
         <v>45</v>
       </c>
-      <c r="E99">
+      <c r="E100">
         <v>14.9</v>
       </c>
-      <c r="F99">
+      <c r="F100">
         <f t="shared" si="9"/>
         <v>894</v>
       </c>
-      <c r="G99" s="3" t="s">
+      <c r="G100" s="3" t="s">
         <v>509</v>
       </c>
     </row>
-    <row r="100" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A100" t="s">
+    <row r="101" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A101" t="s">
         <v>292</v>
       </c>
-      <c r="B100" t="s">
-        <v>16</v>
-      </c>
-      <c r="C100" t="s">
+      <c r="B101" t="s">
+        <v>16</v>
+      </c>
+      <c r="C101" t="s">
         <v>510</v>
       </c>
-      <c r="D100" t="s">
+      <c r="D101" t="s">
         <v>40</v>
       </c>
-      <c r="E100">
+      <c r="E101">
         <v>8.9309366130558185</v>
       </c>
-      <c r="F100">
+      <c r="F101">
         <f t="shared" si="9"/>
         <v>535.85619678334911</v>
       </c>
-      <c r="G100" s="3" t="s">
+      <c r="G101" s="3" t="s">
         <v>511</v>
       </c>
     </row>
-    <row r="101" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A101" t="s">
+    <row r="102" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A102" t="s">
         <v>293</v>
       </c>
-      <c r="B101" t="s">
-        <v>16</v>
-      </c>
-      <c r="C101" t="s">
+      <c r="B102" t="s">
+        <v>16</v>
+      </c>
+      <c r="C102" t="s">
         <v>512</v>
       </c>
-      <c r="D101" t="s">
+      <c r="D102" t="s">
         <v>40</v>
       </c>
-      <c r="E101">
+      <c r="E102">
         <v>2.6</v>
       </c>
-      <c r="F101">
+      <c r="F102">
         <f t="shared" si="9"/>
         <v>156</v>
       </c>
-      <c r="G101" s="3" t="s">
+      <c r="G102" s="3" t="s">
         <v>513</v>
       </c>
     </row>
-    <row r="102" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A102" t="s">
+    <row r="103" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A103" t="s">
         <v>294</v>
       </c>
-      <c r="B102" t="s">
-        <v>16</v>
-      </c>
-      <c r="C102" t="s">
+      <c r="B103" t="s">
+        <v>16</v>
+      </c>
+      <c r="C103" t="s">
         <v>514</v>
       </c>
-      <c r="D102" t="s">
+      <c r="D103" t="s">
         <v>45</v>
       </c>
-      <c r="E102">
+      <c r="E103">
         <v>0.83</v>
       </c>
-      <c r="F102">
+      <c r="F103">
         <f t="shared" si="9"/>
         <v>49.8</v>
       </c>
-      <c r="G102" s="3" t="s">
+      <c r="G103" s="3" t="s">
         <v>515</v>
       </c>
     </row>
-    <row r="103" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A103" t="s">
+    <row r="104" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A104" t="s">
         <v>295</v>
       </c>
-      <c r="B103" t="s">
-        <v>16</v>
-      </c>
-      <c r="C103" t="s">
+      <c r="B104" t="s">
+        <v>16</v>
+      </c>
+      <c r="C104" t="s">
         <v>516</v>
       </c>
-      <c r="D103" t="s">
+      <c r="D104" t="s">
         <v>88</v>
       </c>
-      <c r="E103">
+      <c r="E104">
         <v>684</v>
       </c>
-      <c r="F103">
+      <c r="F104">
         <f t="shared" si="9"/>
         <v>41040</v>
       </c>
-      <c r="G103" s="3" t="s">
+      <c r="G104" s="3" t="s">
         <v>517</v>
       </c>
     </row>
-    <row r="104" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A104" t="s">
+    <row r="105" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A105" t="s">
         <v>296</v>
       </c>
-      <c r="B104" t="s">
-        <v>16</v>
-      </c>
-      <c r="C104" t="s">
+      <c r="B105" t="s">
+        <v>16</v>
+      </c>
+      <c r="C105" t="s">
         <v>518</v>
       </c>
-      <c r="D104" t="s">
+      <c r="D105" t="s">
         <v>45</v>
       </c>
-      <c r="E104">
+      <c r="E105">
         <v>3.17</v>
       </c>
-      <c r="F104">
+      <c r="F105">
         <f t="shared" si="9"/>
         <v>190.2</v>
       </c>
-      <c r="G104" s="3" t="s">
+      <c r="G105" s="3" t="s">
         <v>519</v>
       </c>
     </row>
-    <row r="105" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A105" t="s">
+    <row r="106" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A106" t="s">
         <v>297</v>
       </c>
-      <c r="B105" t="s">
-        <v>16</v>
-      </c>
-      <c r="C105" t="s">
+      <c r="B106" t="s">
+        <v>16</v>
+      </c>
+      <c r="C106" t="s">
         <v>520</v>
       </c>
-      <c r="D105" t="s">
+      <c r="D106" t="s">
         <v>45</v>
       </c>
-      <c r="E105">
+      <c r="E106">
         <v>3.5999999999999997E-2</v>
       </c>
-      <c r="F105">
+      <c r="F106">
         <f t="shared" si="9"/>
         <v>2.1599999999999997</v>
       </c>
-      <c r="G105" s="3" t="s">
+      <c r="G106" s="3" t="s">
         <v>521</v>
       </c>
     </row>
-    <row r="106" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A106" t="s">
+    <row r="107" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A107" t="s">
         <v>298</v>
       </c>
-      <c r="B106" t="s">
-        <v>16</v>
-      </c>
-      <c r="C106" t="s">
+      <c r="B107" t="s">
+        <v>16</v>
+      </c>
+      <c r="C107" t="s">
         <v>522</v>
       </c>
-      <c r="D106" t="s">
+      <c r="D107" t="s">
         <v>45</v>
       </c>
-      <c r="E106">
+      <c r="E107">
         <v>24.1</v>
       </c>
-      <c r="F106">
+      <c r="F107">
         <f t="shared" si="9"/>
         <v>1446</v>
       </c>
-      <c r="G106" s="3" t="s">
+      <c r="G107" s="3" t="s">
         <v>523</v>
       </c>
     </row>
-    <row r="107" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A107" t="s">
+    <row r="108" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A108" t="s">
         <v>299</v>
       </c>
-      <c r="B107" t="s">
-        <v>16</v>
-      </c>
-      <c r="C107" t="s">
+      <c r="B108" t="s">
+        <v>16</v>
+      </c>
+      <c r="C108" t="s">
         <v>524</v>
       </c>
-      <c r="D107" t="s">
+      <c r="D108" t="s">
         <v>112</v>
       </c>
-      <c r="E107">
+      <c r="E108">
         <v>2.5</v>
       </c>
-      <c r="F107">
+      <c r="F108">
         <f t="shared" si="9"/>
         <v>150</v>
       </c>
-      <c r="G107" s="3" t="s">
+      <c r="G108" s="3" t="s">
         <v>525</v>
       </c>
     </row>
-    <row r="108" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A108" t="s">
+    <row r="109" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A109" t="s">
         <v>300</v>
       </c>
-      <c r="B108" t="s">
-        <v>16</v>
-      </c>
-      <c r="C108" t="s">
+      <c r="B109" t="s">
+        <v>16</v>
+      </c>
+      <c r="C109" t="s">
         <v>489</v>
       </c>
-      <c r="D108" t="s">
+      <c r="D109" t="s">
         <v>526</v>
       </c>
-      <c r="E108">
+      <c r="E109">
         <v>4.9000000000000004</v>
       </c>
-      <c r="F108">
+      <c r="F109">
         <f t="shared" si="9"/>
         <v>294</v>
       </c>
-      <c r="G108" s="3" t="s">
+      <c r="G109" s="3" t="s">
         <v>527</v>
       </c>
     </row>
-    <row r="109" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A109" t="s">
+    <row r="110" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A110" t="s">
         <v>301</v>
       </c>
-      <c r="B109" t="s">
-        <v>16</v>
-      </c>
-      <c r="C109" t="s">
+      <c r="B110" t="s">
+        <v>16</v>
+      </c>
+      <c r="C110" t="s">
         <v>442</v>
       </c>
-      <c r="D109" t="s">
+      <c r="D110" t="s">
         <v>40</v>
       </c>
-      <c r="E109">
+      <c r="E110">
         <v>1.76</v>
       </c>
-      <c r="F109">
+      <c r="F110">
         <f t="shared" si="9"/>
         <v>105.6</v>
       </c>
-      <c r="G109" s="3" t="s">
+      <c r="G110" s="3" t="s">
         <v>443</v>
       </c>
     </row>
-    <row r="110" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A110" t="s">
+    <row r="111" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A111" t="s">
         <v>302</v>
       </c>
-      <c r="B110" t="s">
-        <v>16</v>
-      </c>
-      <c r="C110" t="s">
+      <c r="B111" t="s">
+        <v>16</v>
+      </c>
+      <c r="C111" t="s">
         <v>528</v>
       </c>
-      <c r="D110" t="s">
+      <c r="D111" t="s">
         <v>42</v>
       </c>
-      <c r="E110">
+      <c r="E111">
         <v>1240</v>
       </c>
-      <c r="F110">
+      <c r="F111">
         <f t="shared" si="9"/>
         <v>74400</v>
       </c>
-      <c r="G110" s="3" t="s">
+      <c r="G111" s="3" t="s">
         <v>529</v>
       </c>
     </row>
-    <row r="111" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A111" t="s">
+    <row r="112" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A112" t="s">
         <v>303</v>
       </c>
-      <c r="B111" t="s">
-        <v>16</v>
-      </c>
-      <c r="C111" t="s">
+      <c r="B112" t="s">
+        <v>16</v>
+      </c>
+      <c r="C112" t="s">
         <v>450</v>
       </c>
-      <c r="D111" t="s">
+      <c r="D112" t="s">
         <v>45</v>
       </c>
-      <c r="E111">
+      <c r="E112">
         <v>138</v>
       </c>
-      <c r="F111">
+      <c r="F112">
         <f t="shared" si="9"/>
         <v>8280</v>
       </c>
-      <c r="G111" s="3" t="s">
+      <c r="G112" s="3" t="s">
         <v>451</v>
-      </c>
-    </row>
-    <row r="112" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A112" t="s">
-        <v>304</v>
-      </c>
-      <c r="B112" t="s">
-        <v>16</v>
-      </c>
-      <c r="C112" t="s">
-        <v>442</v>
-      </c>
-      <c r="D112" t="s">
-        <v>40</v>
-      </c>
-      <c r="E112">
-        <v>1.76</v>
-      </c>
-      <c r="F112">
-        <f t="shared" ref="F112:F121" si="10">E112*60</f>
-        <v>105.6</v>
-      </c>
-      <c r="G112" s="3" t="s">
-        <v>443</v>
       </c>
     </row>
     <row r="113" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A113" t="s">
+        <v>304</v>
+      </c>
+      <c r="B113" t="s">
+        <v>16</v>
+      </c>
+      <c r="C113" t="s">
+        <v>442</v>
+      </c>
+      <c r="D113" t="s">
+        <v>40</v>
+      </c>
+      <c r="E113">
+        <v>1.76</v>
+      </c>
+      <c r="F113">
+        <f t="shared" ref="F113:F122" si="10">E113*60</f>
+        <v>105.6</v>
+      </c>
+      <c r="G113" s="3" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="114" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A114" t="s">
         <v>305</v>
       </c>
-      <c r="B113" t="s">
-        <v>16</v>
-      </c>
-      <c r="C113" t="s">
+      <c r="B114" t="s">
+        <v>16</v>
+      </c>
+      <c r="C114" t="s">
         <v>530</v>
       </c>
-      <c r="D113" t="s">
+      <c r="D114" t="s">
         <v>45</v>
       </c>
-      <c r="E113">
+      <c r="E114">
         <v>0.73</v>
       </c>
-      <c r="F113">
+      <c r="F114">
         <f t="shared" si="10"/>
         <v>43.8</v>
       </c>
-      <c r="G113" s="3" t="s">
+      <c r="G114" s="3" t="s">
         <v>531</v>
       </c>
     </row>
-    <row r="114" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A114" t="s">
+    <row r="115" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A115" t="s">
         <v>306</v>
       </c>
-      <c r="B114" t="s">
-        <v>16</v>
-      </c>
-      <c r="C114" t="s">
+      <c r="B115" t="s">
+        <v>16</v>
+      </c>
+      <c r="C115" t="s">
         <v>477</v>
       </c>
-      <c r="D114" t="s">
+      <c r="D115" t="s">
         <v>40</v>
       </c>
-      <c r="E114">
+      <c r="E115">
         <v>5.5</v>
       </c>
-      <c r="F114">
+      <c r="F115">
         <f t="shared" si="10"/>
         <v>330</v>
       </c>
-      <c r="G114" s="3" t="s">
+      <c r="G115" s="3" t="s">
         <v>478</v>
       </c>
     </row>
-    <row r="115" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A115" t="s">
+    <row r="116" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A116" t="s">
         <v>307</v>
       </c>
-      <c r="B115" t="s">
-        <v>16</v>
-      </c>
-      <c r="C115" t="s">
+      <c r="B116" t="s">
+        <v>16</v>
+      </c>
+      <c r="C116" t="s">
         <v>450</v>
       </c>
-      <c r="D115" t="s">
+      <c r="D116" t="s">
         <v>45</v>
       </c>
-      <c r="E115">
+      <c r="E116">
         <v>138</v>
       </c>
-      <c r="F115">
+      <c r="F116">
         <f t="shared" si="10"/>
         <v>8280</v>
       </c>
-      <c r="G115" s="3" t="s">
+      <c r="G116" s="3" t="s">
         <v>451</v>
       </c>
     </row>
-    <row r="116" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A116" t="s">
+    <row r="117" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A117" t="s">
         <v>308</v>
       </c>
-      <c r="B116" t="s">
-        <v>16</v>
-      </c>
-      <c r="C116" t="s">
+      <c r="B117" t="s">
+        <v>16</v>
+      </c>
+      <c r="C117" t="s">
         <v>574</v>
       </c>
-      <c r="D116" t="s">
+      <c r="D117" t="s">
         <v>42</v>
       </c>
-      <c r="E116">
+      <c r="E117">
         <v>15</v>
       </c>
-      <c r="F116">
+      <c r="F117">
         <f t="shared" si="10"/>
         <v>900</v>
       </c>
-      <c r="G116" s="3" t="s">
+      <c r="G117" s="3" t="s">
         <v>575</v>
       </c>
     </row>
-    <row r="117" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A117" t="s">
+    <row r="118" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A118" t="s">
         <v>309</v>
       </c>
-      <c r="B117" t="s">
-        <v>16</v>
-      </c>
-      <c r="C117" t="s">
+      <c r="B118" t="s">
+        <v>16</v>
+      </c>
+      <c r="C118" t="s">
         <v>576</v>
       </c>
-      <c r="D117" t="s">
+      <c r="D118" t="s">
         <v>45</v>
       </c>
-      <c r="E117">
+      <c r="E118">
         <v>3.9199999999999999E-2</v>
       </c>
-      <c r="F117">
+      <c r="F118">
         <f t="shared" si="10"/>
         <v>2.3519999999999999</v>
       </c>
-      <c r="G117" s="3" t="s">
+      <c r="G118" s="3" t="s">
         <v>445</v>
       </c>
     </row>
-    <row r="118" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A118" t="s">
+    <row r="119" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A119" t="s">
         <v>310</v>
       </c>
-      <c r="B118" t="s">
-        <v>16</v>
-      </c>
-      <c r="C118" t="s">
+      <c r="B119" t="s">
+        <v>16</v>
+      </c>
+      <c r="C119" t="s">
         <v>534</v>
       </c>
-      <c r="D118" t="s">
+      <c r="D119" t="s">
         <v>40</v>
       </c>
-      <c r="E118">
+      <c r="E119">
         <v>3.9</v>
       </c>
-      <c r="F118">
+      <c r="F119">
         <f t="shared" si="10"/>
         <v>234</v>
       </c>
-      <c r="G118" s="3" t="s">
+      <c r="G119" s="3" t="s">
         <v>535</v>
       </c>
     </row>
-    <row r="119" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A119" t="s">
+    <row r="120" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A120" t="s">
         <v>311</v>
       </c>
-      <c r="B119" t="s">
-        <v>16</v>
-      </c>
-      <c r="C119" t="s">
+      <c r="B120" t="s">
+        <v>16</v>
+      </c>
+      <c r="C120" t="s">
         <v>577</v>
       </c>
-      <c r="D119" t="s">
+      <c r="D120" t="s">
         <v>40</v>
       </c>
-      <c r="E119">
+      <c r="E120">
         <v>1558</v>
       </c>
-      <c r="F119">
+      <c r="F120">
         <f t="shared" si="10"/>
         <v>93480</v>
       </c>
-      <c r="G119" s="3" t="s">
+      <c r="G120" s="3" t="s">
         <v>578</v>
       </c>
     </row>
-    <row r="120" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A120" t="s">
+    <row r="121" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A121" t="s">
         <v>312</v>
       </c>
-      <c r="B120" t="s">
-        <v>16</v>
-      </c>
-      <c r="C120" t="s">
+      <c r="B121" t="s">
+        <v>16</v>
+      </c>
+      <c r="C121" t="s">
         <v>579</v>
       </c>
-      <c r="D120" t="s">
+      <c r="D121" t="s">
         <v>207</v>
       </c>
-      <c r="E120">
+      <c r="E121">
         <v>166</v>
       </c>
-      <c r="F120">
+      <c r="F121">
         <f t="shared" si="10"/>
         <v>9960</v>
       </c>
-      <c r="G120" s="3" t="s">
+      <c r="G121" s="3" t="s">
         <v>580</v>
       </c>
     </row>
-    <row r="121" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A121" t="s">
+    <row r="122" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A122" t="s">
         <v>313</v>
       </c>
-      <c r="B121" t="s">
-        <v>16</v>
-      </c>
-      <c r="C121" t="s">
+      <c r="B122" t="s">
+        <v>16</v>
+      </c>
+      <c r="C122" t="s">
         <v>581</v>
       </c>
-      <c r="D121" t="s">
+      <c r="D122" t="s">
         <v>207</v>
       </c>
-      <c r="E121">
+      <c r="E122">
         <v>0.88</v>
       </c>
-      <c r="F121">
+      <c r="F122">
         <f t="shared" si="10"/>
         <v>52.8</v>
       </c>
-      <c r="G121" s="3" t="s">
+      <c r="G122" s="3" t="s">
         <v>582</v>
-      </c>
-    </row>
-    <row r="122" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A122" t="s">
-        <v>314</v>
-      </c>
-      <c r="B122" t="s">
-        <v>16</v>
-      </c>
-      <c r="C122" t="s">
-        <v>442</v>
-      </c>
-      <c r="D122" t="s">
-        <v>40</v>
-      </c>
-      <c r="E122">
-        <v>1.76</v>
-      </c>
-      <c r="F122">
-        <f t="shared" ref="F122:F130" si="11">E122*60</f>
-        <v>105.6</v>
-      </c>
-      <c r="G122" s="3" t="s">
-        <v>443</v>
       </c>
     </row>
     <row r="123" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A123" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="B123" t="s">
         <v>16</v>
       </c>
       <c r="C123" t="s">
-        <v>446</v>
+        <v>442</v>
       </c>
       <c r="D123" t="s">
         <v>40</v>
       </c>
       <c r="E123">
+        <v>1.76</v>
+      </c>
+      <c r="F123">
+        <f t="shared" ref="F123:F131" si="11">E123*60</f>
+        <v>105.6</v>
+      </c>
+      <c r="G123" s="3" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="124" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A124" t="s">
+        <v>315</v>
+      </c>
+      <c r="B124" t="s">
+        <v>16</v>
+      </c>
+      <c r="C124" t="s">
+        <v>446</v>
+      </c>
+      <c r="D124" t="s">
+        <v>40</v>
+      </c>
+      <c r="E124">
         <v>350.02</v>
       </c>
-      <c r="F123">
+      <c r="F124">
         <f t="shared" si="11"/>
         <v>21001.199999999997</v>
       </c>
-      <c r="G123" s="3" t="s">
+      <c r="G124" s="3" t="s">
         <v>447</v>
       </c>
     </row>
-    <row r="124" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A124" t="s">
+    <row r="125" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A125" t="s">
         <v>316</v>
       </c>
-      <c r="B124" t="s">
-        <v>16</v>
-      </c>
-      <c r="C124" t="s">
+      <c r="B125" t="s">
+        <v>16</v>
+      </c>
+      <c r="C125" t="s">
         <v>473</v>
       </c>
-      <c r="D124" t="s">
+      <c r="D125" t="s">
         <v>40</v>
       </c>
-      <c r="E124">
+      <c r="E125">
         <v>46</v>
       </c>
-      <c r="F124">
+      <c r="F125">
         <f t="shared" si="11"/>
         <v>2760</v>
       </c>
-      <c r="G124" s="3" t="s">
+      <c r="G125" s="3" t="s">
         <v>474</v>
       </c>
     </row>
-    <row r="125" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A125" t="s">
+    <row r="126" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A126" t="s">
         <v>317</v>
       </c>
-      <c r="B125" t="s">
-        <v>16</v>
-      </c>
-      <c r="C125" t="s">
+      <c r="B126" t="s">
+        <v>16</v>
+      </c>
+      <c r="C126" t="s">
         <v>434</v>
       </c>
-      <c r="D125" t="s">
+      <c r="D126" t="s">
         <v>45</v>
       </c>
-      <c r="E125">
+      <c r="E126">
         <v>68.3</v>
       </c>
-      <c r="F125">
+      <c r="F126">
         <f t="shared" si="11"/>
         <v>4098</v>
       </c>
-      <c r="G125" s="1" t="s">
+      <c r="G126" s="1" t="s">
         <v>435</v>
       </c>
     </row>
-    <row r="126" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A126" t="s">
+    <row r="127" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A127" t="s">
         <v>318</v>
       </c>
-      <c r="B126" t="s">
-        <v>16</v>
-      </c>
-      <c r="C126" t="s">
+      <c r="B127" t="s">
+        <v>16</v>
+      </c>
+      <c r="C127" t="s">
         <v>427</v>
       </c>
-      <c r="D126" t="s">
+      <c r="D127" t="s">
         <v>45</v>
       </c>
-      <c r="E126">
+      <c r="E127">
         <v>3.069</v>
       </c>
-      <c r="F126">
+      <c r="F127">
         <f t="shared" si="11"/>
         <v>184.14</v>
       </c>
-      <c r="G126" s="3" t="s">
+      <c r="G127" s="3" t="s">
         <v>428</v>
       </c>
     </row>
-    <row r="127" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A127" t="s">
+    <row r="128" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A128" t="s">
         <v>319</v>
       </c>
-      <c r="B127" t="s">
-        <v>16</v>
-      </c>
-      <c r="C127" t="s">
+      <c r="B128" t="s">
+        <v>16</v>
+      </c>
+      <c r="C128" t="s">
         <v>583</v>
       </c>
-      <c r="D127" t="s">
+      <c r="D128" t="s">
         <v>42</v>
       </c>
-      <c r="E127">
+      <c r="E128">
         <v>69</v>
       </c>
-      <c r="F127">
+      <c r="F128">
         <f t="shared" si="11"/>
         <v>4140</v>
       </c>
-      <c r="G127" s="3" t="s">
+      <c r="G128" s="3" t="s">
         <v>584</v>
       </c>
     </row>
-    <row r="128" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A128" t="s">
+    <row r="129" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A129" t="s">
         <v>320</v>
       </c>
-      <c r="B128" t="s">
-        <v>16</v>
-      </c>
-      <c r="C128" t="s">
+      <c r="B129" t="s">
+        <v>16</v>
+      </c>
+      <c r="C129" t="s">
         <v>585</v>
       </c>
-      <c r="D128" t="s">
+      <c r="D129" t="s">
         <v>88</v>
       </c>
-      <c r="E128">
+      <c r="E129">
         <v>47</v>
       </c>
-      <c r="F128">
+      <c r="F129">
         <f t="shared" si="11"/>
         <v>2820</v>
       </c>
-      <c r="G128" s="3" t="s">
+      <c r="G129" s="3" t="s">
         <v>586</v>
       </c>
     </row>
-    <row r="129" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A129" t="s">
+    <row r="130" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A130" t="s">
         <v>321</v>
       </c>
-      <c r="B129" t="s">
-        <v>16</v>
-      </c>
-      <c r="C129" t="s">
+      <c r="B130" t="s">
+        <v>16</v>
+      </c>
+      <c r="C130" t="s">
         <v>587</v>
       </c>
-      <c r="D129" t="s">
+      <c r="D130" t="s">
         <v>40</v>
       </c>
-      <c r="E129">
+      <c r="E130">
         <v>42</v>
       </c>
-      <c r="F129">
+      <c r="F130">
         <f t="shared" si="11"/>
         <v>2520</v>
       </c>
-      <c r="G129" s="3" t="s">
+      <c r="G130" s="3" t="s">
         <v>588</v>
       </c>
     </row>
-    <row r="130" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A130" t="s">
+    <row r="131" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A131" t="s">
         <v>322</v>
       </c>
-      <c r="B130" t="s">
-        <v>16</v>
-      </c>
-      <c r="C130" t="s">
+      <c r="B131" t="s">
+        <v>16</v>
+      </c>
+      <c r="C131" t="s">
         <v>589</v>
       </c>
-      <c r="D130" t="s">
+      <c r="D131" t="s">
         <v>42</v>
       </c>
-      <c r="E130">
+      <c r="E131">
         <v>1.4999999999999999E-2</v>
       </c>
-      <c r="F130">
+      <c r="F131">
         <f t="shared" si="11"/>
         <v>0.89999999999999991</v>
       </c>
-      <c r="G130" s="3" t="s">
-        <v>590</v>
-      </c>
-    </row>
-    <row r="131" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A131" t="s">
-        <v>323</v>
-      </c>
-      <c r="B131" t="s">
-        <v>16</v>
-      </c>
-      <c r="C131" t="s">
-        <v>589</v>
-      </c>
-      <c r="D131" t="s">
-        <v>42</v>
-      </c>
-      <c r="E131">
-        <v>1.4999999999999999E-2</v>
-      </c>
-      <c r="F131">
-        <f t="shared" ref="F131:F154" si="12">E131*60</f>
-        <v>0.89999999999999991</v>
-      </c>
       <c r="G131" s="3" t="s">
         <v>590</v>
       </c>
     </row>
     <row r="132" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A132" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="B132" t="s">
         <v>16</v>
       </c>
       <c r="C132" t="s">
-        <v>591</v>
+        <v>589</v>
       </c>
       <c r="D132" t="s">
-        <v>207</v>
+        <v>42</v>
       </c>
       <c r="E132">
-        <v>2750</v>
+        <v>1.4999999999999999E-2</v>
       </c>
       <c r="F132">
-        <f t="shared" si="12"/>
-        <v>165000</v>
+        <f t="shared" ref="F132:F155" si="12">E132*60</f>
+        <v>0.89999999999999991</v>
       </c>
       <c r="G132" s="3" t="s">
-        <v>592</v>
+        <v>590</v>
       </c>
     </row>
     <row r="133" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A133" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="B133" t="s">
         <v>16</v>
@@ -5710,7 +5719,7 @@
     </row>
     <row r="134" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A134" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="B134" t="s">
         <v>16</v>
@@ -5734,7 +5743,7 @@
     </row>
     <row r="135" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A135" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="B135" t="s">
         <v>16</v>
@@ -5758,631 +5767,631 @@
     </row>
     <row r="136" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A136" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="B136" t="s">
         <v>16</v>
       </c>
       <c r="C136" t="s">
-        <v>593</v>
+        <v>591</v>
       </c>
       <c r="D136" t="s">
-        <v>40</v>
+        <v>207</v>
       </c>
       <c r="E136">
-        <v>3.8</v>
+        <v>2750</v>
       </c>
       <c r="F136">
         <f t="shared" si="12"/>
-        <v>228</v>
+        <v>165000</v>
       </c>
       <c r="G136" s="3" t="s">
-        <v>594</v>
+        <v>592</v>
       </c>
     </row>
     <row r="137" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A137" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="B137" t="s">
         <v>16</v>
       </c>
       <c r="C137" t="s">
-        <v>595</v>
+        <v>593</v>
       </c>
       <c r="D137" t="s">
         <v>40</v>
       </c>
       <c r="E137">
-        <v>6.7</v>
+        <v>3.8</v>
       </c>
       <c r="F137">
         <f t="shared" si="12"/>
-        <v>402</v>
+        <v>228</v>
       </c>
       <c r="G137" s="3" t="s">
-        <v>596</v>
+        <v>594</v>
       </c>
     </row>
     <row r="138" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A138" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="B138" t="s">
         <v>16</v>
       </c>
       <c r="C138" t="s">
-        <v>597</v>
+        <v>595</v>
       </c>
       <c r="D138" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="E138">
-        <v>9.0999999999999998E-2</v>
+        <v>6.7</v>
       </c>
       <c r="F138">
         <f t="shared" si="12"/>
-        <v>5.46</v>
+        <v>402</v>
       </c>
       <c r="G138" s="3" t="s">
-        <v>598</v>
+        <v>596</v>
       </c>
     </row>
     <row r="139" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A139" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="B139" t="s">
         <v>16</v>
       </c>
       <c r="C139" t="s">
-        <v>599</v>
+        <v>597</v>
       </c>
       <c r="D139" t="s">
-        <v>600</v>
+        <v>45</v>
       </c>
       <c r="E139">
-        <v>1.7000000000000001E-2</v>
+        <v>9.0999999999999998E-2</v>
       </c>
       <c r="F139">
         <f t="shared" si="12"/>
-        <v>1.02</v>
+        <v>5.46</v>
       </c>
       <c r="G139" s="3" t="s">
-        <v>601</v>
+        <v>598</v>
       </c>
     </row>
     <row r="140" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A140" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="B140" t="s">
         <v>16</v>
       </c>
       <c r="C140" t="s">
-        <v>602</v>
+        <v>599</v>
       </c>
       <c r="D140" t="s">
         <v>600</v>
       </c>
       <c r="E140">
-        <v>27</v>
+        <v>1.7000000000000001E-2</v>
       </c>
       <c r="F140">
         <f t="shared" si="12"/>
-        <v>1620</v>
+        <v>1.02</v>
       </c>
       <c r="G140" s="3" t="s">
-        <v>603</v>
+        <v>601</v>
       </c>
     </row>
     <row r="141" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A141" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="B141" t="s">
         <v>16</v>
       </c>
       <c r="C141" t="s">
-        <v>604</v>
+        <v>602</v>
       </c>
       <c r="D141" t="s">
-        <v>45</v>
+        <v>600</v>
       </c>
       <c r="E141">
-        <v>1986</v>
+        <v>27</v>
       </c>
       <c r="F141">
         <f t="shared" si="12"/>
-        <v>119160</v>
+        <v>1620</v>
       </c>
       <c r="G141" s="3" t="s">
-        <v>605</v>
+        <v>603</v>
       </c>
     </row>
     <row r="142" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A142" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="B142" t="s">
         <v>16</v>
       </c>
       <c r="C142" t="s">
-        <v>606</v>
+        <v>604</v>
       </c>
       <c r="D142" t="s">
         <v>45</v>
       </c>
       <c r="E142">
-        <v>380</v>
+        <v>1986</v>
       </c>
       <c r="F142">
         <f t="shared" si="12"/>
-        <v>22800</v>
+        <v>119160</v>
       </c>
       <c r="G142" s="3" t="s">
-        <v>607</v>
+        <v>605</v>
       </c>
     </row>
     <row r="143" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A143" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="B143" t="s">
         <v>16</v>
       </c>
       <c r="C143" t="s">
-        <v>421</v>
+        <v>606</v>
       </c>
       <c r="D143" t="s">
         <v>45</v>
       </c>
       <c r="E143">
-        <v>221</v>
+        <v>380</v>
       </c>
       <c r="F143">
         <f t="shared" si="12"/>
-        <v>13260</v>
+        <v>22800</v>
       </c>
       <c r="G143" s="3" t="s">
-        <v>422</v>
+        <v>607</v>
       </c>
     </row>
     <row r="144" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A144" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="B144" t="s">
         <v>16</v>
       </c>
       <c r="C144" t="s">
-        <v>608</v>
+        <v>421</v>
       </c>
       <c r="D144" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="E144">
-        <v>140</v>
+        <v>221</v>
       </c>
       <c r="F144">
         <f t="shared" si="12"/>
-        <v>8400</v>
-      </c>
-      <c r="G144" s="1" t="s">
-        <v>609</v>
+        <v>13260</v>
+      </c>
+      <c r="G144" s="3" t="s">
+        <v>422</v>
       </c>
     </row>
     <row r="145" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A145" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="B145" t="s">
         <v>16</v>
       </c>
       <c r="C145" t="s">
-        <v>610</v>
+        <v>608</v>
       </c>
       <c r="D145" t="s">
         <v>42</v>
       </c>
       <c r="E145">
-        <v>0.13</v>
+        <v>140</v>
       </c>
       <c r="F145">
         <f t="shared" si="12"/>
-        <v>7.8000000000000007</v>
-      </c>
-      <c r="G145" s="3" t="s">
-        <v>611</v>
+        <v>8400</v>
+      </c>
+      <c r="G145" s="1" t="s">
+        <v>609</v>
       </c>
     </row>
     <row r="146" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A146" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="B146" t="s">
         <v>16</v>
       </c>
       <c r="C146" t="s">
-        <v>429</v>
+        <v>610</v>
       </c>
       <c r="D146" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="E146">
-        <v>2.08</v>
+        <v>0.13</v>
       </c>
       <c r="F146">
         <f t="shared" si="12"/>
-        <v>124.80000000000001</v>
+        <v>7.8000000000000007</v>
       </c>
       <c r="G146" s="3" t="s">
-        <v>430</v>
+        <v>611</v>
       </c>
     </row>
     <row r="147" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A147" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="B147" t="s">
         <v>16</v>
       </c>
       <c r="C147" t="s">
-        <v>427</v>
+        <v>429</v>
       </c>
       <c r="D147" t="s">
         <v>45</v>
       </c>
       <c r="E147">
-        <v>3.069</v>
+        <v>2.08</v>
       </c>
       <c r="F147">
         <f t="shared" si="12"/>
-        <v>184.14</v>
+        <v>124.80000000000001</v>
       </c>
       <c r="G147" s="3" t="s">
-        <v>428</v>
+        <v>430</v>
       </c>
     </row>
     <row r="148" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A148" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="B148" t="s">
         <v>16</v>
       </c>
       <c r="C148" t="s">
-        <v>614</v>
+        <v>427</v>
       </c>
       <c r="D148" t="s">
-        <v>615</v>
+        <v>45</v>
       </c>
       <c r="E148">
-        <v>1.6999999999999999E-3</v>
+        <v>3.069</v>
       </c>
       <c r="F148">
         <f t="shared" si="12"/>
-        <v>0.10199999999999999</v>
+        <v>184.14</v>
       </c>
       <c r="G148" s="3" t="s">
-        <v>616</v>
+        <v>428</v>
       </c>
     </row>
     <row r="149" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A149" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="B149" t="s">
         <v>16</v>
       </c>
       <c r="C149" t="s">
-        <v>617</v>
+        <v>614</v>
       </c>
       <c r="D149" t="s">
-        <v>40</v>
+        <v>615</v>
       </c>
       <c r="E149">
-        <v>29.1</v>
+        <v>1.6999999999999999E-3</v>
       </c>
       <c r="F149">
         <f t="shared" si="12"/>
-        <v>1746</v>
+        <v>0.10199999999999999</v>
       </c>
       <c r="G149" s="3" t="s">
-        <v>618</v>
+        <v>616</v>
       </c>
     </row>
     <row r="150" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A150" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="B150" t="s">
         <v>16</v>
       </c>
       <c r="C150" t="s">
-        <v>619</v>
+        <v>617</v>
       </c>
       <c r="D150" t="s">
-        <v>620</v>
+        <v>40</v>
       </c>
       <c r="E150">
-        <v>509</v>
+        <v>29.1</v>
       </c>
       <c r="F150">
         <f t="shared" si="12"/>
-        <v>30540</v>
+        <v>1746</v>
       </c>
       <c r="G150" s="3" t="s">
-        <v>621</v>
+        <v>618</v>
       </c>
     </row>
     <row r="151" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A151" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="B151" t="s">
         <v>16</v>
       </c>
       <c r="C151" t="s">
-        <v>622</v>
+        <v>619</v>
       </c>
       <c r="D151" t="s">
-        <v>45</v>
+        <v>620</v>
       </c>
       <c r="E151">
-        <v>0.56999999999999995</v>
+        <v>509</v>
       </c>
       <c r="F151">
         <f t="shared" si="12"/>
-        <v>34.199999999999996</v>
+        <v>30540</v>
       </c>
       <c r="G151" s="3" t="s">
-        <v>623</v>
+        <v>621</v>
       </c>
     </row>
     <row r="152" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A152" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="B152" t="s">
         <v>16</v>
       </c>
       <c r="C152" t="s">
-        <v>187</v>
+        <v>622</v>
       </c>
       <c r="D152" t="s">
         <v>45</v>
       </c>
       <c r="E152">
-        <v>38.6</v>
+        <v>0.56999999999999995</v>
       </c>
       <c r="F152">
         <f t="shared" si="12"/>
-        <v>2316</v>
+        <v>34.199999999999996</v>
       </c>
       <c r="G152" s="3" t="s">
-        <v>188</v>
+        <v>623</v>
       </c>
     </row>
     <row r="153" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A153" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="B153" t="s">
         <v>16</v>
       </c>
       <c r="C153" t="s">
-        <v>612</v>
+        <v>187</v>
       </c>
       <c r="D153" t="s">
         <v>45</v>
       </c>
       <c r="E153">
-        <v>48.6</v>
+        <v>38.6</v>
       </c>
       <c r="F153">
         <f t="shared" si="12"/>
-        <v>2916</v>
+        <v>2316</v>
       </c>
       <c r="G153" s="3" t="s">
-        <v>613</v>
+        <v>188</v>
       </c>
     </row>
     <row r="154" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A154" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="B154" t="s">
         <v>16</v>
       </c>
       <c r="C154" t="s">
-        <v>473</v>
+        <v>612</v>
       </c>
       <c r="D154" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="E154">
-        <v>46</v>
+        <v>48.6</v>
       </c>
       <c r="F154">
         <f t="shared" si="12"/>
-        <v>2760</v>
+        <v>2916</v>
       </c>
       <c r="G154" s="3" t="s">
-        <v>474</v>
+        <v>613</v>
       </c>
     </row>
     <row r="155" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A155" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="B155" t="s">
         <v>16</v>
       </c>
       <c r="C155" t="s">
-        <v>548</v>
+        <v>473</v>
       </c>
       <c r="D155" t="s">
-        <v>207</v>
+        <v>40</v>
       </c>
       <c r="E155">
-        <v>26.8</v>
+        <v>46</v>
       </c>
       <c r="F155">
-        <f t="shared" ref="F155:F159" si="13">E155*60</f>
-        <v>1608</v>
+        <f t="shared" si="12"/>
+        <v>2760</v>
       </c>
       <c r="G155" s="3" t="s">
-        <v>549</v>
+        <v>474</v>
       </c>
     </row>
     <row r="156" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A156" t="s">
+        <v>347</v>
+      </c>
+      <c r="B156" t="s">
+        <v>16</v>
+      </c>
+      <c r="C156" t="s">
+        <v>548</v>
+      </c>
+      <c r="D156" t="s">
+        <v>207</v>
+      </c>
+      <c r="E156">
+        <v>26.8</v>
+      </c>
+      <c r="F156">
+        <f t="shared" ref="F156:F160" si="13">E156*60</f>
+        <v>1608</v>
+      </c>
+      <c r="G156" s="3" t="s">
+        <v>549</v>
+      </c>
+    </row>
+    <row r="157" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A157" t="s">
         <v>348</v>
       </c>
-      <c r="B156" t="s">
-        <v>16</v>
-      </c>
-      <c r="C156" t="s">
+      <c r="B157" t="s">
+        <v>16</v>
+      </c>
+      <c r="C157" t="s">
         <v>626</v>
       </c>
-      <c r="D156" t="s">
+      <c r="D157" t="s">
         <v>45</v>
       </c>
-      <c r="E156">
+      <c r="E157">
         <v>21</v>
       </c>
-      <c r="F156">
+      <c r="F157">
         <f t="shared" si="13"/>
         <v>1260</v>
       </c>
-      <c r="G156" s="3" t="s">
+      <c r="G157" s="3" t="s">
         <v>627</v>
       </c>
     </row>
-    <row r="157" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A157" t="s">
+    <row r="158" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A158" t="s">
         <v>349</v>
       </c>
-      <c r="B157" t="s">
-        <v>16</v>
-      </c>
-      <c r="C157" t="s">
+      <c r="B158" t="s">
+        <v>16</v>
+      </c>
+      <c r="C158" t="s">
         <v>624</v>
       </c>
-      <c r="D157" t="s">
+      <c r="D158" t="s">
         <v>40</v>
       </c>
-      <c r="E157">
+      <c r="E158">
         <v>1570</v>
       </c>
-      <c r="F157">
+      <c r="F158">
         <f t="shared" si="13"/>
         <v>94200</v>
       </c>
-      <c r="G157" s="3" t="s">
+      <c r="G158" s="3" t="s">
         <v>625</v>
       </c>
     </row>
-    <row r="158" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A158" t="s">
+    <row r="159" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A159" t="s">
         <v>350</v>
       </c>
-      <c r="B158" t="s">
-        <v>16</v>
-      </c>
-      <c r="C158" t="s">
+      <c r="B159" t="s">
+        <v>16</v>
+      </c>
+      <c r="C159" t="s">
         <v>477</v>
       </c>
-      <c r="D158" t="s">
+      <c r="D159" t="s">
         <v>40</v>
       </c>
-      <c r="E158">
+      <c r="E159">
         <v>5.5</v>
       </c>
-      <c r="F158">
+      <c r="F159">
         <f t="shared" si="13"/>
         <v>330</v>
       </c>
-      <c r="G158" s="3" t="s">
+      <c r="G159" s="3" t="s">
         <v>478</v>
       </c>
     </row>
-    <row r="159" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A159" t="s">
+    <row r="160" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A160" t="s">
         <v>351</v>
       </c>
-      <c r="B159" t="s">
-        <v>16</v>
-      </c>
-      <c r="C159" t="s">
+      <c r="B160" t="s">
+        <v>16</v>
+      </c>
+      <c r="C160" t="s">
         <v>628</v>
       </c>
-      <c r="D159" t="s">
+      <c r="D160" t="s">
         <v>40</v>
       </c>
-      <c r="E159">
+      <c r="E160">
         <v>3.3</v>
       </c>
-      <c r="F159">
+      <c r="F160">
         <f t="shared" si="13"/>
         <v>198</v>
       </c>
-      <c r="G159" s="3" t="s">
+      <c r="G160" s="3" t="s">
         <v>629</v>
-      </c>
-    </row>
-    <row r="160" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A160" t="s">
-        <v>352</v>
-      </c>
-      <c r="B160" t="s">
-        <v>16</v>
-      </c>
-      <c r="C160" t="s">
-        <v>544</v>
-      </c>
-      <c r="D160" t="s">
-        <v>88</v>
-      </c>
-      <c r="E160">
-        <v>19.899999999999999</v>
-      </c>
-      <c r="F160">
-        <f t="shared" ref="F160:F171" si="14">E160*60</f>
-        <v>1194</v>
-      </c>
-      <c r="G160" s="3" t="s">
-        <v>545</v>
       </c>
     </row>
     <row r="161" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A161" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="B161" t="s">
         <v>16</v>
       </c>
       <c r="C161" t="s">
-        <v>630</v>
+        <v>544</v>
       </c>
       <c r="D161" t="s">
-        <v>42</v>
+        <v>88</v>
       </c>
       <c r="E161">
-        <v>23.2</v>
+        <v>19.899999999999999</v>
       </c>
       <c r="F161">
-        <f t="shared" si="14"/>
-        <v>1392</v>
+        <f t="shared" ref="F161:F172" si="14">E161*60</f>
+        <v>1194</v>
       </c>
       <c r="G161" s="3" t="s">
-        <v>631</v>
+        <v>545</v>
       </c>
     </row>
     <row r="162" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A162" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="B162" t="s">
         <v>16</v>
@@ -6406,1066 +6415,1066 @@
     </row>
     <row r="163" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A163" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="B163" t="s">
         <v>16</v>
       </c>
       <c r="C163" t="s">
-        <v>632</v>
+        <v>630</v>
       </c>
       <c r="D163" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="E163">
-        <v>4.2</v>
+        <v>23.2</v>
       </c>
       <c r="F163">
         <f t="shared" si="14"/>
-        <v>252</v>
+        <v>1392</v>
       </c>
       <c r="G163" s="3" t="s">
-        <v>633</v>
+        <v>631</v>
       </c>
     </row>
     <row r="164" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A164" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="B164" t="s">
         <v>16</v>
       </c>
       <c r="C164" t="s">
-        <v>634</v>
+        <v>632</v>
       </c>
       <c r="D164" t="s">
-        <v>88</v>
+        <v>40</v>
       </c>
       <c r="E164">
-        <v>1.82</v>
+        <v>4.2</v>
       </c>
       <c r="F164">
         <f t="shared" si="14"/>
-        <v>109.2</v>
+        <v>252</v>
       </c>
       <c r="G164" s="3" t="s">
-        <v>635</v>
+        <v>633</v>
       </c>
     </row>
     <row r="165" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A165" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="B165" t="s">
         <v>16</v>
       </c>
       <c r="C165" t="s">
-        <v>636</v>
+        <v>634</v>
       </c>
       <c r="D165" t="s">
-        <v>145</v>
+        <v>88</v>
       </c>
       <c r="E165">
-        <v>0.16</v>
+        <v>1.82</v>
       </c>
       <c r="F165">
         <f t="shared" si="14"/>
-        <v>9.6</v>
+        <v>109.2</v>
       </c>
       <c r="G165" s="3" t="s">
-        <v>637</v>
+        <v>635</v>
       </c>
     </row>
     <row r="166" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A166" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="B166" t="s">
         <v>16</v>
       </c>
       <c r="C166" t="s">
-        <v>638</v>
+        <v>636</v>
       </c>
       <c r="D166" t="s">
         <v>145</v>
       </c>
       <c r="E166">
-        <v>0.43</v>
+        <v>0.16</v>
       </c>
       <c r="F166">
         <f t="shared" si="14"/>
-        <v>25.8</v>
+        <v>9.6</v>
       </c>
       <c r="G166" s="3" t="s">
-        <v>639</v>
+        <v>637</v>
       </c>
     </row>
     <row r="167" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A167" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="B167" t="s">
         <v>16</v>
       </c>
       <c r="C167" t="s">
-        <v>640</v>
+        <v>638</v>
       </c>
       <c r="D167" t="s">
-        <v>40</v>
+        <v>145</v>
       </c>
       <c r="E167">
-        <v>23.3</v>
+        <v>0.43</v>
       </c>
       <c r="F167">
         <f t="shared" si="14"/>
-        <v>1398</v>
+        <v>25.8</v>
       </c>
       <c r="G167" s="3" t="s">
-        <v>641</v>
+        <v>639</v>
       </c>
     </row>
     <row r="168" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A168" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="B168" t="s">
         <v>16</v>
       </c>
       <c r="C168" t="s">
-        <v>642</v>
+        <v>640</v>
       </c>
       <c r="D168" t="s">
-        <v>88</v>
+        <v>40</v>
       </c>
       <c r="E168">
-        <v>2.36</v>
+        <v>23.3</v>
       </c>
       <c r="F168">
         <f t="shared" si="14"/>
-        <v>141.6</v>
+        <v>1398</v>
       </c>
       <c r="G168" s="3" t="s">
-        <v>643</v>
+        <v>641</v>
       </c>
     </row>
     <row r="169" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A169" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="B169" t="s">
         <v>16</v>
       </c>
       <c r="C169" t="s">
-        <v>640</v>
+        <v>642</v>
       </c>
       <c r="D169" t="s">
-        <v>40</v>
+        <v>88</v>
       </c>
       <c r="E169">
-        <v>23.3</v>
+        <v>2.36</v>
       </c>
       <c r="F169">
         <f t="shared" si="14"/>
-        <v>1398</v>
+        <v>141.6</v>
       </c>
       <c r="G169" s="3" t="s">
-        <v>641</v>
+        <v>643</v>
       </c>
     </row>
     <row r="170" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A170" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="B170" t="s">
         <v>16</v>
       </c>
       <c r="C170" t="s">
-        <v>644</v>
+        <v>640</v>
       </c>
       <c r="D170" t="s">
         <v>40</v>
       </c>
       <c r="E170">
-        <v>3.74</v>
+        <v>23.3</v>
       </c>
       <c r="F170">
         <f t="shared" si="14"/>
-        <v>224.4</v>
+        <v>1398</v>
       </c>
       <c r="G170" s="3" t="s">
-        <v>645</v>
+        <v>641</v>
       </c>
     </row>
     <row r="171" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A171" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="B171" t="s">
         <v>16</v>
       </c>
       <c r="C171" t="s">
-        <v>646</v>
+        <v>644</v>
       </c>
       <c r="D171" t="s">
         <v>40</v>
       </c>
       <c r="E171">
-        <v>2.956</v>
+        <v>3.74</v>
       </c>
       <c r="F171">
         <f t="shared" si="14"/>
-        <v>177.35999999999999</v>
+        <v>224.4</v>
       </c>
       <c r="G171" s="3" t="s">
-        <v>647</v>
+        <v>645</v>
       </c>
     </row>
     <row r="172" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A172" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="B172" t="s">
         <v>16</v>
       </c>
       <c r="C172" t="s">
-        <v>434</v>
+        <v>646</v>
       </c>
       <c r="D172" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="E172">
-        <v>68.3</v>
+        <v>2.956</v>
       </c>
       <c r="F172">
-        <f t="shared" ref="F172:F194" si="15">E172*60</f>
-        <v>4098</v>
-      </c>
-      <c r="G172" s="1" t="s">
-        <v>435</v>
+        <f t="shared" si="14"/>
+        <v>177.35999999999999</v>
+      </c>
+      <c r="G172" s="3" t="s">
+        <v>647</v>
       </c>
     </row>
     <row r="173" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A173" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="B173" t="s">
         <v>16</v>
       </c>
       <c r="C173" t="s">
-        <v>450</v>
+        <v>434</v>
       </c>
       <c r="D173" t="s">
         <v>45</v>
       </c>
       <c r="E173">
+        <v>68.3</v>
+      </c>
+      <c r="F173">
+        <f t="shared" ref="F173:F195" si="15">E173*60</f>
+        <v>4098</v>
+      </c>
+      <c r="G173" s="1" t="s">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="174" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A174" t="s">
+        <v>365</v>
+      </c>
+      <c r="B174" t="s">
+        <v>16</v>
+      </c>
+      <c r="C174" t="s">
+        <v>450</v>
+      </c>
+      <c r="D174" t="s">
+        <v>45</v>
+      </c>
+      <c r="E174">
         <v>138</v>
       </c>
-      <c r="F173">
+      <c r="F174">
         <f t="shared" si="15"/>
         <v>8280</v>
       </c>
-      <c r="G173" s="3" t="s">
+      <c r="G174" s="3" t="s">
         <v>451</v>
       </c>
     </row>
-    <row r="174" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A174" t="s">
+    <row r="175" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A175" t="s">
         <v>366</v>
       </c>
-      <c r="B174" t="s">
-        <v>16</v>
-      </c>
-      <c r="C174" t="s">
+      <c r="B175" t="s">
+        <v>16</v>
+      </c>
+      <c r="C175" t="s">
         <v>473</v>
       </c>
-      <c r="D174" t="s">
+      <c r="D175" t="s">
         <v>40</v>
       </c>
-      <c r="E174">
+      <c r="E175">
         <v>46</v>
       </c>
-      <c r="F174">
+      <c r="F175">
         <f t="shared" si="15"/>
         <v>2760</v>
       </c>
-      <c r="G174" s="3" t="s">
+      <c r="G175" s="3" t="s">
         <v>474</v>
       </c>
     </row>
-    <row r="175" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A175" t="s">
+    <row r="176" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A176" t="s">
         <v>367</v>
       </c>
-      <c r="B175" t="s">
-        <v>16</v>
-      </c>
-      <c r="C175" t="s">
+      <c r="B176" t="s">
+        <v>16</v>
+      </c>
+      <c r="C176" t="s">
         <v>648</v>
       </c>
-      <c r="D175" t="s">
+      <c r="D176" t="s">
         <v>88</v>
       </c>
-      <c r="E175">
+      <c r="E176">
         <v>24</v>
       </c>
-      <c r="F175">
+      <c r="F176">
         <f t="shared" si="15"/>
         <v>1440</v>
       </c>
-      <c r="G175" s="3" t="s">
+      <c r="G176" s="3" t="s">
         <v>649</v>
       </c>
     </row>
-    <row r="176" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A176" t="s">
+    <row r="177" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A177" t="s">
         <v>368</v>
       </c>
-      <c r="B176" t="s">
-        <v>16</v>
-      </c>
-      <c r="C176" t="s">
+      <c r="B177" t="s">
+        <v>16</v>
+      </c>
+      <c r="C177" t="s">
         <v>477</v>
       </c>
-      <c r="D176" t="s">
+      <c r="D177" t="s">
         <v>40</v>
       </c>
-      <c r="E176">
+      <c r="E177">
         <v>5.5</v>
       </c>
-      <c r="F176">
+      <c r="F177">
         <f t="shared" si="15"/>
         <v>330</v>
       </c>
-      <c r="G176" s="3" t="s">
+      <c r="G177" s="3" t="s">
         <v>478</v>
       </c>
     </row>
-    <row r="177" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A177" t="s">
+    <row r="178" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A178" t="s">
         <v>369</v>
       </c>
-      <c r="B177" t="s">
-        <v>16</v>
-      </c>
-      <c r="C177" t="s">
+      <c r="B178" t="s">
+        <v>16</v>
+      </c>
+      <c r="C178" t="s">
         <v>651</v>
       </c>
-      <c r="D177" t="s">
+      <c r="D178" t="s">
         <v>650</v>
       </c>
-      <c r="E177">
+      <c r="E178">
         <v>0.7</v>
       </c>
-      <c r="F177">
+      <c r="F178">
         <f t="shared" si="15"/>
         <v>42</v>
       </c>
-      <c r="G177" s="3" t="s">
+      <c r="G178" s="3" t="s">
         <v>652</v>
       </c>
     </row>
-    <row r="178" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A178" t="s">
+    <row r="179" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A179" t="s">
         <v>370</v>
       </c>
-      <c r="B178" t="s">
-        <v>16</v>
-      </c>
-      <c r="C178" t="s">
+      <c r="B179" t="s">
+        <v>16</v>
+      </c>
+      <c r="C179" t="s">
         <v>450</v>
       </c>
-      <c r="D178" t="s">
+      <c r="D179" t="s">
         <v>45</v>
       </c>
-      <c r="E178">
+      <c r="E179">
         <v>138</v>
       </c>
-      <c r="F178">
+      <c r="F179">
         <f t="shared" si="15"/>
         <v>8280</v>
       </c>
-      <c r="G178" s="3" t="s">
+      <c r="G179" s="3" t="s">
         <v>451</v>
       </c>
     </row>
-    <row r="179" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A179" t="s">
+    <row r="180" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A180" t="s">
         <v>371</v>
       </c>
-      <c r="B179" t="s">
-        <v>16</v>
-      </c>
-      <c r="C179" t="s">
+      <c r="B180" t="s">
+        <v>16</v>
+      </c>
+      <c r="C180" t="s">
         <v>653</v>
       </c>
-      <c r="D179" t="s">
+      <c r="D180" t="s">
         <v>40</v>
       </c>
-      <c r="E179">
+      <c r="E180">
         <v>216</v>
       </c>
-      <c r="F179">
+      <c r="F180">
         <f t="shared" si="15"/>
         <v>12960</v>
       </c>
-      <c r="G179" s="3" t="s">
+      <c r="G180" s="3" t="s">
         <v>654</v>
       </c>
     </row>
-    <row r="180" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A180" t="s">
+    <row r="181" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A181" t="s">
         <v>372</v>
       </c>
-      <c r="B180" t="s">
-        <v>16</v>
-      </c>
-      <c r="C180" t="s">
+      <c r="B181" t="s">
+        <v>16</v>
+      </c>
+      <c r="C181" t="s">
         <v>655</v>
       </c>
-      <c r="D180" t="s">
+      <c r="D181" t="s">
         <v>88</v>
       </c>
-      <c r="E180">
+      <c r="E181">
         <v>7.25</v>
       </c>
-      <c r="F180">
+      <c r="F181">
         <f t="shared" si="15"/>
         <v>435</v>
       </c>
-      <c r="G180" s="3" t="s">
+      <c r="G181" s="3" t="s">
         <v>656</v>
       </c>
     </row>
-    <row r="181" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A181" t="s">
+    <row r="182" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A182" t="s">
         <v>373</v>
       </c>
-      <c r="B181" t="s">
-        <v>16</v>
-      </c>
-      <c r="C181" t="s">
+      <c r="B182" t="s">
+        <v>16</v>
+      </c>
+      <c r="C182" t="s">
         <v>657</v>
       </c>
-      <c r="D181" t="s">
+      <c r="D182" t="s">
         <v>45</v>
       </c>
-      <c r="E181">
+      <c r="E182">
         <v>10.4</v>
       </c>
-      <c r="F181">
+      <c r="F182">
         <f t="shared" si="15"/>
         <v>624</v>
       </c>
-      <c r="G181" s="1" t="s">
+      <c r="G182" s="1" t="s">
         <v>658</v>
       </c>
     </row>
-    <row r="182" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A182" t="s">
+    <row r="183" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A183" t="s">
         <v>374</v>
       </c>
-      <c r="B182" t="s">
-        <v>16</v>
-      </c>
-      <c r="C182" t="s">
+      <c r="B183" t="s">
+        <v>16</v>
+      </c>
+      <c r="C183" t="s">
         <v>463</v>
       </c>
-      <c r="D182" t="s">
+      <c r="D183" t="s">
         <v>45</v>
       </c>
-      <c r="E182">
+      <c r="E183">
         <v>51</v>
       </c>
-      <c r="F182">
+      <c r="F183">
         <f t="shared" si="15"/>
         <v>3060</v>
       </c>
-      <c r="G182" s="3" t="s">
+      <c r="G183" s="3" t="s">
         <v>464</v>
       </c>
     </row>
-    <row r="183" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A183" t="s">
+    <row r="184" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A184" t="s">
         <v>375</v>
       </c>
-      <c r="B183" t="s">
-        <v>16</v>
-      </c>
-      <c r="C183" t="s">
+      <c r="B184" t="s">
+        <v>16</v>
+      </c>
+      <c r="C184" t="s">
         <v>427</v>
       </c>
-      <c r="D183" t="s">
+      <c r="D184" t="s">
         <v>45</v>
       </c>
-      <c r="E183">
+      <c r="E184">
         <v>3.069</v>
       </c>
-      <c r="F183">
+      <c r="F184">
         <f t="shared" si="15"/>
         <v>184.14</v>
       </c>
-      <c r="G183" s="3" t="s">
+      <c r="G184" s="3" t="s">
         <v>428</v>
       </c>
     </row>
-    <row r="184" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A184" t="s">
+    <row r="185" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A185" t="s">
         <v>376</v>
       </c>
-      <c r="B184" t="s">
-        <v>16</v>
-      </c>
-      <c r="C184" t="s">
+      <c r="B185" t="s">
+        <v>16</v>
+      </c>
+      <c r="C185" t="s">
         <v>442</v>
       </c>
-      <c r="D184" t="s">
+      <c r="D185" t="s">
         <v>40</v>
       </c>
-      <c r="E184">
+      <c r="E185">
         <v>1.76</v>
       </c>
-      <c r="F184">
+      <c r="F185">
         <f t="shared" si="15"/>
         <v>105.6</v>
       </c>
-      <c r="G184" s="3" t="s">
+      <c r="G185" s="3" t="s">
         <v>443</v>
       </c>
     </row>
-    <row r="185" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A185" t="s">
+    <row r="186" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A186" t="s">
         <v>377</v>
       </c>
-      <c r="B185" t="s">
-        <v>16</v>
-      </c>
-      <c r="C185" t="s">
+      <c r="B186" t="s">
+        <v>16</v>
+      </c>
+      <c r="C186" t="s">
         <v>659</v>
       </c>
-      <c r="D185" t="s">
+      <c r="D186" t="s">
         <v>45</v>
       </c>
-      <c r="E185">
+      <c r="E186">
         <v>1</v>
       </c>
-      <c r="F185">
+      <c r="F186">
         <f t="shared" si="15"/>
         <v>60</v>
       </c>
-      <c r="G185" s="3" t="s">
+      <c r="G186" s="3" t="s">
         <v>660</v>
       </c>
     </row>
-    <row r="186" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A186" t="s">
+    <row r="187" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A187" t="s">
         <v>378</v>
       </c>
-      <c r="B186" t="s">
-        <v>16</v>
-      </c>
-      <c r="C186" t="s">
+      <c r="B187" t="s">
+        <v>16</v>
+      </c>
+      <c r="C187" t="s">
         <v>530</v>
       </c>
-      <c r="D186" t="s">
+      <c r="D187" t="s">
         <v>45</v>
       </c>
-      <c r="E186">
+      <c r="E187">
         <v>0.73</v>
       </c>
-      <c r="F186">
+      <c r="F187">
         <f t="shared" si="15"/>
         <v>43.8</v>
       </c>
-      <c r="G186" s="3" t="s">
+      <c r="G187" s="3" t="s">
         <v>531</v>
       </c>
     </row>
-    <row r="187" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A187" t="s">
+    <row r="188" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A188" t="s">
         <v>379</v>
       </c>
-      <c r="B187" t="s">
-        <v>16</v>
-      </c>
-      <c r="C187" t="s">
+      <c r="B188" t="s">
+        <v>16</v>
+      </c>
+      <c r="C188" t="s">
         <v>661</v>
       </c>
-      <c r="D187" t="s">
+      <c r="D188" t="s">
         <v>662</v>
       </c>
-      <c r="E187">
+      <c r="E188">
         <v>3.8</v>
       </c>
-      <c r="F187">
+      <c r="F188">
         <f t="shared" si="15"/>
         <v>228</v>
       </c>
-      <c r="G187" s="3" t="s">
+      <c r="G188" s="3" t="s">
         <v>663</v>
       </c>
     </row>
-    <row r="188" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A188" t="s">
+    <row r="189" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A189" t="s">
         <v>380</v>
       </c>
-      <c r="B188" t="s">
-        <v>16</v>
-      </c>
-      <c r="C188" t="s">
+      <c r="B189" t="s">
+        <v>16</v>
+      </c>
+      <c r="C189" t="s">
         <v>429</v>
       </c>
-      <c r="D188" t="s">
+      <c r="D189" t="s">
         <v>45</v>
       </c>
-      <c r="E188">
+      <c r="E189">
         <v>2.08</v>
       </c>
-      <c r="F188">
+      <c r="F189">
         <f t="shared" si="15"/>
         <v>124.80000000000001</v>
       </c>
-      <c r="G188" s="3" t="s">
+      <c r="G189" s="3" t="s">
         <v>430</v>
       </c>
     </row>
-    <row r="189" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A189" t="s">
+    <row r="190" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A190" t="s">
         <v>381</v>
       </c>
-      <c r="B189" t="s">
-        <v>16</v>
-      </c>
-      <c r="C189" t="s">
+      <c r="B190" t="s">
+        <v>16</v>
+      </c>
+      <c r="C190" t="s">
         <v>664</v>
       </c>
-      <c r="D189" t="s">
+      <c r="D190" t="s">
         <v>42</v>
       </c>
-      <c r="E189">
+      <c r="E190">
         <v>0.39500000000000002</v>
       </c>
-      <c r="F189">
+      <c r="F190">
         <f t="shared" si="15"/>
         <v>23.700000000000003</v>
       </c>
-      <c r="G189" s="3" t="s">
+      <c r="G190" s="3" t="s">
         <v>665</v>
       </c>
     </row>
-    <row r="190" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A190" t="s">
+    <row r="191" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A191" t="s">
         <v>382</v>
       </c>
-      <c r="B190" t="s">
-        <v>16</v>
-      </c>
-      <c r="C190" t="s">
+      <c r="B191" t="s">
+        <v>16</v>
+      </c>
+      <c r="C191" t="s">
         <v>617</v>
       </c>
-      <c r="D190" t="s">
+      <c r="D191" t="s">
         <v>40</v>
       </c>
-      <c r="E190">
+      <c r="E191">
         <v>29.1</v>
       </c>
-      <c r="F190">
+      <c r="F191">
         <f t="shared" si="15"/>
         <v>1746</v>
       </c>
-      <c r="G190" s="3" t="s">
+      <c r="G191" s="3" t="s">
         <v>618</v>
       </c>
     </row>
-    <row r="191" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A191" t="s">
+    <row r="192" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A192" t="s">
         <v>680</v>
       </c>
-      <c r="B191" t="s">
-        <v>16</v>
-      </c>
-      <c r="C191" t="s">
+      <c r="B192" t="s">
+        <v>16</v>
+      </c>
+      <c r="C192" t="s">
         <v>686</v>
       </c>
-      <c r="D191" t="s">
+      <c r="D192" t="s">
         <v>687</v>
       </c>
-      <c r="E191">
+      <c r="E192">
         <v>0.68</v>
       </c>
-      <c r="F191">
+      <c r="F192">
         <f t="shared" si="15"/>
         <v>40.800000000000004</v>
       </c>
-      <c r="G191" s="3" t="s">
+      <c r="G192" s="3" t="s">
         <v>688</v>
       </c>
     </row>
-    <row r="192" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A192" t="s">
+    <row r="193" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A193" t="s">
         <v>681</v>
       </c>
-      <c r="B192" t="s">
-        <v>16</v>
-      </c>
-      <c r="C192" t="s">
+      <c r="B193" t="s">
+        <v>16</v>
+      </c>
+      <c r="C193" t="s">
         <v>689</v>
       </c>
-      <c r="D192" t="s">
+      <c r="D193" t="s">
         <v>690</v>
       </c>
-      <c r="E192">
+      <c r="E193">
         <v>2.66</v>
       </c>
-      <c r="F192">
+      <c r="F193">
         <f t="shared" si="15"/>
         <v>159.60000000000002</v>
       </c>
-      <c r="G192" s="3" t="s">
+      <c r="G193" s="3" t="s">
         <v>691</v>
       </c>
     </row>
-    <row r="193" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A193" t="s">
+    <row r="194" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A194" t="s">
         <v>682</v>
       </c>
-      <c r="B193" t="s">
-        <v>16</v>
-      </c>
-      <c r="C193" t="s">
+      <c r="B194" t="s">
+        <v>16</v>
+      </c>
+      <c r="C194" t="s">
         <v>692</v>
       </c>
-      <c r="D193" t="s">
+      <c r="D194" t="s">
         <v>693</v>
       </c>
-      <c r="E193">
+      <c r="E194">
         <v>0.05</v>
       </c>
-      <c r="F193">
+      <c r="F194">
         <f t="shared" si="15"/>
         <v>3</v>
       </c>
-      <c r="G193" s="3" t="s">
+      <c r="G194" s="3" t="s">
         <v>694</v>
       </c>
     </row>
-    <row r="194" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A194" t="s">
+    <row r="195" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A195" t="s">
         <v>683</v>
       </c>
-      <c r="B194" t="s">
-        <v>16</v>
-      </c>
-      <c r="C194" t="s">
+      <c r="B195" t="s">
+        <v>16</v>
+      </c>
+      <c r="C195" t="s">
         <v>695</v>
       </c>
-      <c r="D194" t="s">
+      <c r="D195" t="s">
         <v>207</v>
       </c>
-      <c r="E194">
+      <c r="E195">
         <v>0.69</v>
       </c>
-      <c r="F194">
+      <c r="F195">
         <f t="shared" si="15"/>
         <v>41.4</v>
       </c>
-      <c r="G194" s="3" t="s">
+      <c r="G195" s="3" t="s">
         <v>696</v>
       </c>
     </row>
-    <row r="195" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A195" t="s">
+    <row r="196" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A196" t="s">
         <v>26</v>
       </c>
-      <c r="B195" t="s">
+      <c r="B196" t="s">
         <v>38</v>
       </c>
-      <c r="C195" t="s">
+      <c r="C196" t="s">
         <v>86</v>
       </c>
-      <c r="D195" t="s">
+      <c r="D196" t="s">
         <v>45</v>
       </c>
-      <c r="E195">
+      <c r="E196">
         <v>11</v>
       </c>
-      <c r="F195">
+      <c r="F196">
         <f t="shared" si="0"/>
         <v>660</v>
       </c>
-      <c r="G195" s="3" t="s">
+      <c r="G196" s="3" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="196" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A196" t="s">
+    <row r="197" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A197" t="s">
         <v>27</v>
       </c>
-      <c r="B196" t="s">
+      <c r="B197" t="s">
         <v>38</v>
       </c>
-      <c r="C196" t="s">
+      <c r="C197" t="s">
         <v>89</v>
       </c>
-      <c r="D196" t="s">
+      <c r="D197" t="s">
         <v>88</v>
       </c>
-      <c r="E196">
+      <c r="E197">
         <v>0.127</v>
       </c>
-      <c r="F196">
+      <c r="F197">
         <f t="shared" si="0"/>
         <v>7.62</v>
       </c>
-      <c r="G196" s="3" t="s">
+      <c r="G197" s="3" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="197" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A197" t="s">
+    <row r="198" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A198" t="s">
         <v>28</v>
       </c>
-      <c r="B197" t="s">
+      <c r="B198" t="s">
         <v>38</v>
       </c>
-      <c r="C197" t="s">
+      <c r="C198" t="s">
         <v>92</v>
       </c>
-      <c r="D197" t="s">
+      <c r="D198" t="s">
         <v>91</v>
       </c>
-      <c r="E197">
+      <c r="E198">
         <v>6.13</v>
       </c>
-      <c r="F197">
+      <c r="F198">
         <f t="shared" si="0"/>
         <v>367.8</v>
       </c>
-      <c r="G197" s="3" t="s">
+      <c r="G198" s="3" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="198" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A198" t="s">
+    <row r="199" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A199" t="s">
         <v>29</v>
       </c>
-      <c r="B198" t="s">
+      <c r="B199" t="s">
         <v>38</v>
       </c>
-      <c r="C198" t="s">
+      <c r="C199" t="s">
         <v>94</v>
       </c>
-      <c r="D198" t="s">
+      <c r="D199" t="s">
         <v>45</v>
       </c>
-      <c r="E198">
+      <c r="E199">
         <v>31</v>
       </c>
-      <c r="F198">
+      <c r="F199">
         <f t="shared" si="0"/>
         <v>1860</v>
       </c>
-      <c r="G198" s="3" t="s">
+      <c r="G199" s="3" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="199" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A199" t="s">
+    <row r="200" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A200" t="s">
         <v>30</v>
       </c>
-      <c r="B199" t="s">
+      <c r="B200" t="s">
         <v>38</v>
       </c>
-      <c r="C199" t="s">
+      <c r="C200" t="s">
         <v>97</v>
       </c>
-      <c r="D199" t="s">
+      <c r="D200" t="s">
         <v>96</v>
       </c>
-      <c r="E199">
+      <c r="E200">
         <v>252</v>
       </c>
-      <c r="F199">
+      <c r="F200">
         <f t="shared" si="0"/>
         <v>15120</v>
       </c>
-      <c r="G199" s="3" t="s">
+      <c r="G200" s="3" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="200" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A200" t="s">
+    <row r="201" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A201" t="s">
         <v>31</v>
       </c>
-      <c r="B200" t="s">
+      <c r="B201" t="s">
         <v>38</v>
       </c>
-      <c r="C200" t="s">
+      <c r="C201" t="s">
         <v>100</v>
       </c>
-      <c r="D200" t="s">
+      <c r="D201" t="s">
         <v>99</v>
       </c>
-      <c r="E200">
+      <c r="E201">
         <v>22.1</v>
       </c>
-      <c r="F200">
+      <c r="F201">
         <f t="shared" si="0"/>
         <v>1326</v>
       </c>
-      <c r="G200" s="3" t="s">
+      <c r="G201" s="3" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="201" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A201" t="s">
+    <row r="202" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A202" t="s">
         <v>32</v>
       </c>
-      <c r="B201" t="s">
+      <c r="B202" t="s">
         <v>38</v>
       </c>
-      <c r="C201" t="s">
+      <c r="C202" t="s">
         <v>102</v>
       </c>
-      <c r="D201" t="s">
+      <c r="D202" t="s">
         <v>40</v>
       </c>
-      <c r="E201">
+      <c r="E202">
         <v>3.9E-2</v>
       </c>
-      <c r="F201">
+      <c r="F202">
         <f t="shared" si="0"/>
         <v>2.34</v>
       </c>
-      <c r="G201" s="3" t="s">
+      <c r="G202" s="3" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="202" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A202" t="s">
+    <row r="203" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A203" t="s">
         <v>33</v>
       </c>
-      <c r="B202" t="s">
+      <c r="B203" t="s">
         <v>38</v>
       </c>
-      <c r="C202" t="s">
+      <c r="C203" t="s">
         <v>104</v>
       </c>
-      <c r="D202" t="s">
+      <c r="D203" t="s">
         <v>45</v>
       </c>
-      <c r="E202">
+      <c r="E203">
         <v>450</v>
       </c>
-      <c r="F202">
+      <c r="F203">
         <f t="shared" si="0"/>
         <v>27000</v>
       </c>
-      <c r="G202" s="3" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="203" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A203" t="s">
-        <v>698</v>
-      </c>
-      <c r="B203" t="s">
-        <v>16</v>
-      </c>
-      <c r="C203" t="s">
-        <v>104</v>
-      </c>
-      <c r="D203" t="s">
-        <v>45</v>
-      </c>
-      <c r="E203">
-        <v>450</v>
-      </c>
-      <c r="F203">
-        <f t="shared" ref="F203" si="16">E203*60</f>
-        <v>27000</v>
-      </c>
       <c r="G203" s="3" t="s">
         <v>105</v>
       </c>
     </row>
     <row r="204" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A204" t="s">
-        <v>34</v>
+        <v>698</v>
       </c>
       <c r="B204" t="s">
-        <v>38</v>
+        <v>16</v>
       </c>
       <c r="C204" t="s">
-        <v>47</v>
+        <v>104</v>
       </c>
       <c r="D204" t="s">
         <v>45</v>
       </c>
       <c r="E204">
+        <v>450</v>
+      </c>
+      <c r="F204">
+        <f t="shared" ref="F204" si="16">E204*60</f>
+        <v>27000</v>
+      </c>
+      <c r="G204" s="3" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="205" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A205" t="s">
+        <v>34</v>
+      </c>
+      <c r="B205" t="s">
+        <v>38</v>
+      </c>
+      <c r="C205" t="s">
+        <v>47</v>
+      </c>
+      <c r="D205" t="s">
+        <v>45</v>
+      </c>
+      <c r="E205">
         <v>182</v>
       </c>
-      <c r="F204">
+      <c r="F205">
         <f t="shared" si="0"/>
         <v>10920</v>
       </c>
-      <c r="G204" s="3" t="s">
+      <c r="G205" s="3" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="205" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A205" t="s">
+    <row r="206" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A206" t="s">
         <v>35</v>
       </c>
-      <c r="B205" t="s">
+      <c r="B206" t="s">
         <v>38</v>
       </c>
-      <c r="C205" t="s">
+      <c r="C206" t="s">
         <v>41</v>
       </c>
-      <c r="D205" t="s">
+      <c r="D206" t="s">
         <v>88</v>
       </c>
-      <c r="E205">
+      <c r="E206">
         <v>345</v>
       </c>
-      <c r="F205">
+      <c r="F206">
         <f t="shared" si="0"/>
         <v>20700</v>
       </c>
-      <c r="G205" s="3" t="s">
+      <c r="G206" s="3" t="s">
         <v>106</v>
-      </c>
-    </row>
-    <row r="206" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A206" t="s">
-        <v>36</v>
-      </c>
-      <c r="B206" t="s">
-        <v>38</v>
-      </c>
-      <c r="C206" t="s">
-        <v>43</v>
-      </c>
-      <c r="D206" t="s">
-        <v>45</v>
-      </c>
-      <c r="E206">
-        <v>170</v>
-      </c>
-      <c r="F206">
-        <f t="shared" si="0"/>
-        <v>10200</v>
-      </c>
-      <c r="G206" s="3" t="s">
-        <v>46</v>
       </c>
     </row>
     <row r="207" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A207" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B207" t="s">
-        <v>16</v>
+        <v>38</v>
       </c>
       <c r="C207" t="s">
         <v>43</v>
@@ -7486,119 +7495,119 @@
     </row>
     <row r="208" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A208" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="B208" t="s">
         <v>16</v>
       </c>
       <c r="C208" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="D208" t="s">
         <v>45</v>
       </c>
       <c r="E208">
-        <v>182</v>
+        <v>170</v>
       </c>
       <c r="F208">
         <f t="shared" si="0"/>
-        <v>10920</v>
+        <v>10200</v>
       </c>
       <c r="G208" s="3" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="209" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A209" t="s">
-        <v>159</v>
+        <v>44</v>
       </c>
       <c r="B209" t="s">
-        <v>38</v>
+        <v>16</v>
       </c>
       <c r="C209" t="s">
-        <v>173</v>
+        <v>47</v>
       </c>
       <c r="D209" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="E209">
-        <v>40</v>
+        <v>182</v>
       </c>
       <c r="F209">
         <f t="shared" si="0"/>
-        <v>2400</v>
+        <v>10920</v>
       </c>
       <c r="G209" s="3" t="s">
-        <v>172</v>
+        <v>48</v>
       </c>
     </row>
     <row r="210" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A210" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="B210" t="s">
         <v>38</v>
       </c>
       <c r="C210" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="D210" t="s">
         <v>42</v>
       </c>
       <c r="E210">
-        <v>167</v>
+        <v>40</v>
       </c>
       <c r="F210">
         <f t="shared" si="0"/>
-        <v>10020</v>
-      </c>
-      <c r="G210" s="5" t="s">
-        <v>708</v>
+        <v>2400</v>
+      </c>
+      <c r="G210" s="3" t="s">
+        <v>172</v>
       </c>
     </row>
     <row r="211" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A211" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="B211" t="s">
         <v>38</v>
       </c>
       <c r="C211" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="D211" t="s">
         <v>42</v>
       </c>
       <c r="E211">
-        <v>0.55000000000000004</v>
+        <v>167</v>
       </c>
       <c r="F211">
         <f t="shared" si="0"/>
-        <v>33</v>
-      </c>
-      <c r="G211" s="6" t="s">
-        <v>169</v>
+        <v>10020</v>
+      </c>
+      <c r="G211" s="5" t="s">
+        <v>708</v>
       </c>
     </row>
     <row r="212" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A212" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="B212" t="s">
         <v>38</v>
       </c>
       <c r="C212" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="D212" t="s">
         <v>42</v>
       </c>
       <c r="E212">
-        <v>7.1</v>
+        <v>0.55000000000000004</v>
       </c>
       <c r="F212">
         <f t="shared" si="0"/>
-        <v>426</v>
+        <v>33</v>
       </c>
       <c r="G212" s="6" t="s">
         <v>169</v>
@@ -7606,1351 +7615,1351 @@
     </row>
     <row r="213" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A213" t="s">
-        <v>179</v>
+        <v>162</v>
       </c>
       <c r="B213" t="s">
         <v>38</v>
       </c>
       <c r="C213" t="s">
-        <v>183</v>
+        <v>168</v>
       </c>
       <c r="D213" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="E213">
-        <v>2300</v>
+        <v>7.1</v>
       </c>
       <c r="F213">
         <f t="shared" si="0"/>
-        <v>138000</v>
+        <v>426</v>
       </c>
       <c r="G213" s="6" t="s">
-        <v>184</v>
+        <v>169</v>
       </c>
     </row>
     <row r="214" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A214" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B214" t="s">
         <v>38</v>
       </c>
       <c r="C214" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="D214" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="E214">
-        <v>0.22800000000000001</v>
+        <v>2300</v>
       </c>
       <c r="F214">
         <f t="shared" si="0"/>
-        <v>13.68</v>
+        <v>138000</v>
       </c>
       <c r="G214" s="6" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
     </row>
     <row r="215" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A215" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B215" t="s">
         <v>38</v>
       </c>
       <c r="C215" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="D215" t="s">
         <v>45</v>
       </c>
       <c r="E215">
-        <v>38.6</v>
+        <v>0.22800000000000001</v>
       </c>
       <c r="F215">
         <f t="shared" si="0"/>
-        <v>2316</v>
+        <v>13.68</v>
       </c>
       <c r="G215" s="6" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
     </row>
     <row r="216" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A216" t="s">
-        <v>208</v>
+        <v>181</v>
       </c>
       <c r="B216" t="s">
         <v>38</v>
       </c>
       <c r="C216" t="s">
-        <v>209</v>
+        <v>187</v>
       </c>
       <c r="D216" t="s">
-        <v>88</v>
+        <v>45</v>
       </c>
       <c r="E216">
-        <v>28.3</v>
+        <v>38.6</v>
       </c>
       <c r="F216">
         <f t="shared" si="0"/>
-        <v>1698</v>
+        <v>2316</v>
       </c>
       <c r="G216" s="6" t="s">
-        <v>210</v>
+        <v>188</v>
       </c>
     </row>
     <row r="217" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A217" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="B217" t="s">
         <v>38</v>
       </c>
       <c r="C217" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="D217" t="s">
-        <v>45</v>
+        <v>88</v>
       </c>
       <c r="E217">
-        <v>5.7999999999999996E-3</v>
+        <v>28.3</v>
       </c>
       <c r="F217">
         <f t="shared" si="0"/>
-        <v>0.34799999999999998</v>
+        <v>1698</v>
       </c>
       <c r="G217" s="6" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
     </row>
     <row r="218" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A218" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="B218" t="s">
         <v>38</v>
       </c>
       <c r="C218" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="D218" t="s">
-        <v>88</v>
+        <v>45</v>
       </c>
       <c r="E218">
-        <v>0.185</v>
+        <v>5.7999999999999996E-3</v>
       </c>
       <c r="F218">
         <f t="shared" si="0"/>
-        <v>11.1</v>
+        <v>0.34799999999999998</v>
       </c>
       <c r="G218" s="6" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
     </row>
     <row r="219" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A219" t="s">
-        <v>220</v>
+        <v>214</v>
       </c>
       <c r="B219" t="s">
         <v>38</v>
       </c>
       <c r="C219" t="s">
-        <v>221</v>
+        <v>215</v>
       </c>
       <c r="D219" t="s">
         <v>88</v>
       </c>
       <c r="E219">
-        <v>133</v>
+        <v>0.185</v>
       </c>
       <c r="F219">
         <f t="shared" si="0"/>
-        <v>7980</v>
+        <v>11.1</v>
       </c>
       <c r="G219" s="6" t="s">
-        <v>222</v>
+        <v>216</v>
       </c>
     </row>
     <row r="220" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A220" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="B220" t="s">
         <v>38</v>
       </c>
       <c r="C220" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="D220" t="s">
-        <v>45</v>
+        <v>88</v>
       </c>
       <c r="E220">
-        <v>2.2999999999999998</v>
+        <v>133</v>
       </c>
       <c r="F220">
         <f t="shared" si="0"/>
-        <v>138</v>
+        <v>7980</v>
       </c>
       <c r="G220" s="6" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
     </row>
     <row r="221" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A221" t="s">
-        <v>227</v>
+        <v>223</v>
       </c>
       <c r="B221" t="s">
         <v>38</v>
       </c>
       <c r="C221" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="D221" t="s">
         <v>45</v>
       </c>
       <c r="E221">
-        <v>1334</v>
+        <v>2.2999999999999998</v>
       </c>
       <c r="F221">
         <f t="shared" si="0"/>
-        <v>80040</v>
+        <v>138</v>
       </c>
       <c r="G221" s="6" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
     </row>
     <row r="222" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A222" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="B222" t="s">
         <v>38</v>
       </c>
       <c r="C222" t="s">
-        <v>230</v>
+        <v>226</v>
       </c>
       <c r="D222" t="s">
         <v>45</v>
       </c>
       <c r="E222">
-        <v>220</v>
+        <v>1334</v>
       </c>
       <c r="F222">
         <f t="shared" si="0"/>
-        <v>13200</v>
+        <v>80040</v>
       </c>
       <c r="G222" s="6" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
     </row>
     <row r="223" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A223" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="B223" t="s">
         <v>38</v>
       </c>
       <c r="C223" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="D223" t="s">
         <v>45</v>
       </c>
       <c r="E223">
-        <v>58.2</v>
+        <v>220</v>
       </c>
       <c r="F223">
         <f t="shared" si="0"/>
-        <v>3492</v>
+        <v>13200</v>
       </c>
       <c r="G223" s="6" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
     </row>
     <row r="224" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A224" t="s">
-        <v>383</v>
+        <v>232</v>
       </c>
       <c r="B224" t="s">
         <v>38</v>
       </c>
       <c r="C224" t="s">
-        <v>532</v>
+        <v>233</v>
       </c>
       <c r="D224" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="E224">
-        <v>13.9</v>
+        <v>58.2</v>
       </c>
       <c r="F224">
         <f t="shared" si="0"/>
-        <v>834</v>
-      </c>
-      <c r="G224" s="3" t="s">
-        <v>533</v>
+        <v>3492</v>
+      </c>
+      <c r="G224" s="6" t="s">
+        <v>234</v>
       </c>
     </row>
     <row r="225" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A225" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="B225" t="s">
         <v>38</v>
       </c>
       <c r="C225" t="s">
-        <v>534</v>
+        <v>532</v>
       </c>
       <c r="D225" t="s">
         <v>40</v>
       </c>
       <c r="E225">
-        <v>3.9</v>
+        <v>13.9</v>
       </c>
       <c r="F225">
         <f t="shared" si="0"/>
-        <v>234</v>
+        <v>834</v>
       </c>
       <c r="G225" s="3" t="s">
-        <v>535</v>
+        <v>533</v>
       </c>
     </row>
     <row r="226" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A226" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="B226" t="s">
         <v>38</v>
       </c>
       <c r="C226" t="s">
-        <v>540</v>
+        <v>534</v>
       </c>
       <c r="D226" t="s">
         <v>40</v>
       </c>
       <c r="E226">
-        <v>430</v>
+        <v>3.9</v>
       </c>
       <c r="F226">
         <f t="shared" si="0"/>
-        <v>25800</v>
+        <v>234</v>
       </c>
       <c r="G226" s="3" t="s">
-        <v>541</v>
+        <v>535</v>
       </c>
     </row>
     <row r="227" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A227" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="B227" t="s">
         <v>38</v>
       </c>
       <c r="C227" t="s">
-        <v>542</v>
+        <v>540</v>
       </c>
       <c r="D227" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="E227">
-        <v>26.4</v>
+        <v>430</v>
       </c>
       <c r="F227">
         <f t="shared" si="0"/>
-        <v>1584</v>
+        <v>25800</v>
       </c>
       <c r="G227" s="3" t="s">
-        <v>543</v>
+        <v>541</v>
       </c>
     </row>
     <row r="228" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A228" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="B228" t="s">
         <v>38</v>
       </c>
       <c r="C228" t="s">
-        <v>544</v>
+        <v>542</v>
       </c>
       <c r="D228" t="s">
-        <v>88</v>
+        <v>45</v>
       </c>
       <c r="E228">
-        <v>19.899999999999999</v>
+        <v>26.4</v>
       </c>
       <c r="F228">
-        <f>E228*60</f>
-        <v>1194</v>
+        <f t="shared" si="0"/>
+        <v>1584</v>
       </c>
       <c r="G228" s="3" t="s">
-        <v>545</v>
+        <v>543</v>
       </c>
     </row>
     <row r="229" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A229" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="B229" t="s">
         <v>38</v>
       </c>
       <c r="C229" t="s">
-        <v>538</v>
+        <v>544</v>
       </c>
       <c r="D229" t="s">
-        <v>45</v>
+        <v>88</v>
       </c>
       <c r="E229">
-        <v>7</v>
+        <v>19.899999999999999</v>
       </c>
       <c r="F229">
-        <f t="shared" ref="F229:F244" si="17">E229*60</f>
-        <v>420</v>
+        <f>E229*60</f>
+        <v>1194</v>
       </c>
       <c r="G229" s="3" t="s">
-        <v>539</v>
+        <v>545</v>
       </c>
     </row>
     <row r="230" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A230" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="B230" t="s">
         <v>38</v>
       </c>
       <c r="C230" t="s">
-        <v>536</v>
+        <v>538</v>
       </c>
       <c r="D230" t="s">
         <v>45</v>
       </c>
       <c r="E230">
+        <v>7</v>
+      </c>
+      <c r="F230">
+        <f t="shared" ref="F230:F245" si="17">E230*60</f>
+        <v>420</v>
+      </c>
+      <c r="G230" s="3" t="s">
+        <v>539</v>
+      </c>
+    </row>
+    <row r="231" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A231" t="s">
+        <v>389</v>
+      </c>
+      <c r="B231" t="s">
+        <v>38</v>
+      </c>
+      <c r="C231" t="s">
+        <v>536</v>
+      </c>
+      <c r="D231" t="s">
+        <v>45</v>
+      </c>
+      <c r="E231">
         <v>2.9</v>
       </c>
-      <c r="F230">
+      <c r="F231">
         <f t="shared" si="17"/>
         <v>174</v>
       </c>
-      <c r="G230" s="3" t="s">
+      <c r="G231" s="3" t="s">
         <v>537</v>
       </c>
     </row>
-    <row r="231" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A231" t="s">
+    <row r="232" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A232" t="s">
         <v>390</v>
       </c>
-      <c r="B231" t="s">
+      <c r="B232" t="s">
         <v>38</v>
       </c>
-      <c r="C231" t="s">
+      <c r="C232" t="s">
         <v>461</v>
       </c>
-      <c r="D231" t="s">
+      <c r="D232" t="s">
         <v>88</v>
       </c>
-      <c r="E231">
+      <c r="E232">
         <v>3.3</v>
       </c>
-      <c r="F231">
+      <c r="F232">
         <f t="shared" si="17"/>
         <v>198</v>
       </c>
-      <c r="G231" s="3" t="s">
+      <c r="G232" s="3" t="s">
         <v>462</v>
       </c>
     </row>
-    <row r="232" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A232" t="s">
+    <row r="233" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A233" t="s">
         <v>391</v>
       </c>
-      <c r="B232" t="s">
+      <c r="B233" t="s">
         <v>38</v>
       </c>
-      <c r="C232" t="s">
+      <c r="C233" t="s">
         <v>546</v>
       </c>
-      <c r="D232" t="s">
+      <c r="D233" t="s">
         <v>40</v>
       </c>
-      <c r="E232">
+      <c r="E233">
         <v>24.9</v>
       </c>
-      <c r="F232">
+      <c r="F233">
         <f t="shared" si="17"/>
         <v>1494</v>
       </c>
-      <c r="G232" s="3" t="s">
+      <c r="G233" s="3" t="s">
         <v>547</v>
       </c>
     </row>
-    <row r="233" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A233" t="s">
+    <row r="234" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A234" t="s">
         <v>392</v>
       </c>
-      <c r="B233" t="s">
+      <c r="B234" t="s">
         <v>38</v>
       </c>
-      <c r="C233" t="s">
+      <c r="C234" t="s">
         <v>43</v>
       </c>
-      <c r="D233" t="s">
+      <c r="D234" t="s">
         <v>45</v>
       </c>
-      <c r="E233">
+      <c r="E234">
         <v>170</v>
       </c>
-      <c r="F233">
+      <c r="F234">
         <f t="shared" si="17"/>
         <v>10200</v>
       </c>
-      <c r="G233" s="3" t="s">
+      <c r="G234" s="3" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="234" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A234" t="s">
+    <row r="235" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A235" t="s">
         <v>393</v>
       </c>
-      <c r="B234" t="s">
+      <c r="B235" t="s">
         <v>38</v>
       </c>
-      <c r="C234" t="s">
+      <c r="C235" t="s">
         <v>477</v>
       </c>
-      <c r="D234" t="s">
+      <c r="D235" t="s">
         <v>40</v>
       </c>
-      <c r="E234">
+      <c r="E235">
         <v>5.5</v>
       </c>
-      <c r="F234">
+      <c r="F235">
         <f t="shared" si="17"/>
         <v>330</v>
       </c>
-      <c r="G234" s="3" t="s">
+      <c r="G235" s="3" t="s">
         <v>478</v>
       </c>
     </row>
-    <row r="235" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A235" t="s">
+    <row r="236" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A236" t="s">
         <v>394</v>
       </c>
-      <c r="B235" t="s">
+      <c r="B236" t="s">
         <v>38</v>
       </c>
-      <c r="C235" t="s">
+      <c r="C236" t="s">
         <v>548</v>
       </c>
-      <c r="D235" t="s">
+      <c r="D236" t="s">
         <v>207</v>
       </c>
-      <c r="E235">
+      <c r="E236">
         <v>26.8</v>
       </c>
-      <c r="F235">
+      <c r="F236">
         <f t="shared" si="17"/>
         <v>1608</v>
       </c>
-      <c r="G235" s="3" t="s">
+      <c r="G236" s="3" t="s">
         <v>549</v>
       </c>
     </row>
-    <row r="236" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A236" t="s">
+    <row r="237" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A237" t="s">
         <v>395</v>
       </c>
-      <c r="B236" t="s">
+      <c r="B237" t="s">
         <v>38</v>
       </c>
-      <c r="C236" t="s">
+      <c r="C237" t="s">
         <v>550</v>
       </c>
-      <c r="D236" t="s">
+      <c r="D237" t="s">
         <v>40</v>
       </c>
-      <c r="E236">
+      <c r="E237">
         <v>1.5</v>
       </c>
-      <c r="F236">
+      <c r="F237">
         <f t="shared" si="17"/>
         <v>90</v>
       </c>
-      <c r="G236" s="3" t="s">
+      <c r="G237" s="3" t="s">
         <v>551</v>
       </c>
     </row>
-    <row r="237" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A237" t="s">
+    <row r="238" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A238" t="s">
         <v>396</v>
       </c>
-      <c r="B237" t="s">
+      <c r="B238" t="s">
         <v>38</v>
       </c>
-      <c r="C237" t="s">
+      <c r="C238" t="s">
         <v>534</v>
       </c>
-      <c r="D237" t="s">
+      <c r="D238" t="s">
         <v>40</v>
       </c>
-      <c r="E237">
+      <c r="E238">
         <v>3.9</v>
       </c>
-      <c r="F237">
+      <c r="F238">
         <f t="shared" si="17"/>
         <v>234</v>
       </c>
-      <c r="G237" s="3" t="s">
+      <c r="G238" s="3" t="s">
         <v>535</v>
       </c>
     </row>
-    <row r="238" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A238" t="s">
+    <row r="239" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A239" t="s">
         <v>397</v>
       </c>
-      <c r="B238" t="s">
+      <c r="B239" t="s">
         <v>38</v>
       </c>
-      <c r="C238" t="s">
+      <c r="C239" t="s">
         <v>168</v>
       </c>
-      <c r="D238" t="s">
+      <c r="D239" t="s">
         <v>42</v>
       </c>
-      <c r="E238">
+      <c r="E239">
         <v>7.1</v>
       </c>
-      <c r="F238">
+      <c r="F239">
         <f t="shared" si="17"/>
         <v>426</v>
       </c>
-      <c r="G238" s="4" t="s">
+      <c r="G239" s="4" t="s">
         <v>169</v>
       </c>
     </row>
-    <row r="239" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A239" t="s">
+    <row r="240" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A240" t="s">
         <v>398</v>
       </c>
-      <c r="B239" t="s">
+      <c r="B240" t="s">
         <v>38</v>
       </c>
-      <c r="C239" t="s">
+      <c r="C240" t="s">
         <v>552</v>
       </c>
-      <c r="D239" t="s">
+      <c r="D240" t="s">
         <v>432</v>
       </c>
-      <c r="E239">
+      <c r="E240">
         <v>410</v>
       </c>
-      <c r="F239">
+      <c r="F240">
         <f t="shared" si="17"/>
         <v>24600</v>
       </c>
-      <c r="G239" s="3" t="s">
+      <c r="G240" s="3" t="s">
         <v>553</v>
       </c>
     </row>
-    <row r="240" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A240" t="s">
+    <row r="241" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A241" t="s">
         <v>399</v>
       </c>
-      <c r="B240" t="s">
+      <c r="B241" t="s">
         <v>38</v>
       </c>
-      <c r="C240" t="s">
+      <c r="C241" t="s">
         <v>195</v>
       </c>
-      <c r="D240" t="s">
+      <c r="D241" t="s">
         <v>40</v>
       </c>
-      <c r="E240">
+      <c r="E241">
         <v>5.9709873654656063</v>
       </c>
-      <c r="F240">
+      <c r="F241">
         <f t="shared" si="17"/>
         <v>358.25924192793639</v>
       </c>
-      <c r="G240" s="3" t="s">
+      <c r="G241" s="3" t="s">
         <v>554</v>
       </c>
     </row>
-    <row r="241" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A241" t="s">
+    <row r="242" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A242" t="s">
         <v>400</v>
       </c>
-      <c r="B241" t="s">
+      <c r="B242" t="s">
         <v>38</v>
       </c>
-      <c r="C241" t="s">
+      <c r="C242" t="s">
         <v>481</v>
       </c>
-      <c r="D241" t="s">
+      <c r="D242" t="s">
         <v>88</v>
       </c>
-      <c r="E241">
+      <c r="E242">
         <v>8.1999999999999993</v>
       </c>
-      <c r="F241">
+      <c r="F242">
         <f t="shared" si="17"/>
         <v>491.99999999999994</v>
       </c>
-      <c r="G241" s="3" t="s">
+      <c r="G242" s="3" t="s">
         <v>482</v>
       </c>
     </row>
-    <row r="242" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A242" t="s">
+    <row r="243" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A243" t="s">
         <v>401</v>
       </c>
-      <c r="B242" t="s">
+      <c r="B243" t="s">
         <v>38</v>
       </c>
-      <c r="C242" t="s">
+      <c r="C243" t="s">
         <v>555</v>
       </c>
-      <c r="D242" t="s">
+      <c r="D243" t="s">
         <v>76</v>
       </c>
-      <c r="E242">
+      <c r="E243">
         <v>1.08</v>
       </c>
-      <c r="F242">
+      <c r="F243">
         <f t="shared" si="17"/>
         <v>64.800000000000011</v>
       </c>
-      <c r="G242" s="3" t="s">
+      <c r="G243" s="3" t="s">
         <v>556</v>
       </c>
     </row>
-    <row r="243" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A243" t="s">
+    <row r="244" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A244" t="s">
         <v>402</v>
       </c>
-      <c r="B243" t="s">
+      <c r="B244" t="s">
         <v>38</v>
       </c>
-      <c r="C243" t="s">
+      <c r="C244" t="s">
         <v>457</v>
       </c>
-      <c r="D243" t="s">
+      <c r="D244" t="s">
         <v>42</v>
       </c>
-      <c r="E243">
+      <c r="E244">
         <v>206</v>
       </c>
-      <c r="F243">
+      <c r="F244">
         <f t="shared" si="17"/>
         <v>12360</v>
       </c>
-      <c r="G243" s="3" t="s">
+      <c r="G244" s="3" t="s">
         <v>458</v>
       </c>
     </row>
-    <row r="244" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A244" t="s">
+    <row r="245" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A245" t="s">
         <v>403</v>
       </c>
-      <c r="B244" t="s">
+      <c r="B245" t="s">
         <v>38</v>
       </c>
-      <c r="C244" t="s">
+      <c r="C245" t="s">
         <v>557</v>
       </c>
-      <c r="D244" t="s">
+      <c r="D245" t="s">
         <v>88</v>
       </c>
-      <c r="E244">
+      <c r="E245">
         <v>1.83</v>
       </c>
-      <c r="F244">
+      <c r="F245">
         <f t="shared" si="17"/>
         <v>109.80000000000001</v>
       </c>
-      <c r="G244" s="3" t="s">
+      <c r="G245" s="3" t="s">
         <v>558</v>
-      </c>
-    </row>
-    <row r="245" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A245" t="s">
-        <v>404</v>
-      </c>
-      <c r="B245" t="s">
-        <v>38</v>
-      </c>
-      <c r="C245" t="s">
-        <v>477</v>
-      </c>
-      <c r="D245" t="s">
-        <v>40</v>
-      </c>
-      <c r="E245">
-        <v>5.5</v>
-      </c>
-      <c r="F245">
-        <f t="shared" ref="F245:F247" si="18">E245*60</f>
-        <v>330</v>
-      </c>
-      <c r="G245" s="3" t="s">
-        <v>478</v>
       </c>
     </row>
     <row r="246" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A246" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="B246" t="s">
         <v>38</v>
       </c>
       <c r="C246" t="s">
+        <v>477</v>
+      </c>
+      <c r="D246" t="s">
+        <v>40</v>
+      </c>
+      <c r="E246">
+        <v>5.5</v>
+      </c>
+      <c r="F246">
+        <f t="shared" ref="F246:F248" si="18">E246*60</f>
+        <v>330</v>
+      </c>
+      <c r="G246" s="3" t="s">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="247" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A247" t="s">
+        <v>405</v>
+      </c>
+      <c r="B247" t="s">
+        <v>38</v>
+      </c>
+      <c r="C247" t="s">
         <v>559</v>
       </c>
-      <c r="D246" t="s">
+      <c r="D247" t="s">
         <v>45</v>
       </c>
-      <c r="E246">
+      <c r="E247">
         <v>5.6</v>
       </c>
-      <c r="F246">
+      <c r="F247">
         <f t="shared" si="18"/>
         <v>336</v>
       </c>
-      <c r="G246" s="3" t="s">
+      <c r="G247" s="3" t="s">
         <v>560</v>
       </c>
     </row>
-    <row r="247" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A247" t="s">
+    <row r="248" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A248" t="s">
         <v>406</v>
       </c>
-      <c r="B247" t="s">
+      <c r="B248" t="s">
         <v>38</v>
       </c>
-      <c r="C247" t="s">
+      <c r="C248" t="s">
         <v>555</v>
       </c>
-      <c r="D247" t="s">
+      <c r="D248" t="s">
         <v>76</v>
       </c>
-      <c r="E247">
+      <c r="E248">
         <v>1.08</v>
       </c>
-      <c r="F247">
+      <c r="F248">
         <f t="shared" si="18"/>
         <v>64.800000000000011</v>
       </c>
-      <c r="G247" s="3" t="s">
+      <c r="G248" s="3" t="s">
         <v>556</v>
-      </c>
-    </row>
-    <row r="248" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A248" t="s">
-        <v>407</v>
-      </c>
-      <c r="B248" t="s">
-        <v>38</v>
-      </c>
-      <c r="C248" t="s">
-        <v>477</v>
-      </c>
-      <c r="D248" t="s">
-        <v>40</v>
-      </c>
-      <c r="E248">
-        <v>5.5</v>
-      </c>
-      <c r="F248">
-        <f t="shared" ref="F248:F249" si="19">E248*60</f>
-        <v>330</v>
-      </c>
-      <c r="G248" s="3" t="s">
-        <v>478</v>
       </c>
     </row>
     <row r="249" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A249" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="B249" t="s">
         <v>38</v>
       </c>
       <c r="C249" t="s">
-        <v>561</v>
+        <v>477</v>
       </c>
       <c r="D249" t="s">
         <v>40</v>
       </c>
       <c r="E249">
+        <v>5.5</v>
+      </c>
+      <c r="F249">
+        <f t="shared" ref="F249:F250" si="19">E249*60</f>
+        <v>330</v>
+      </c>
+      <c r="G249" s="3" t="s">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="250" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A250" t="s">
+        <v>408</v>
+      </c>
+      <c r="B250" t="s">
+        <v>38</v>
+      </c>
+      <c r="C250" t="s">
+        <v>561</v>
+      </c>
+      <c r="D250" t="s">
+        <v>40</v>
+      </c>
+      <c r="E250">
         <v>11.7</v>
       </c>
-      <c r="F249">
+      <c r="F250">
         <f t="shared" si="19"/>
         <v>702</v>
       </c>
-      <c r="G249" s="3" t="s">
+      <c r="G250" s="3" t="s">
         <v>562</v>
-      </c>
-    </row>
-    <row r="250" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A250" t="s">
-        <v>409</v>
-      </c>
-      <c r="B250" t="s">
-        <v>38</v>
-      </c>
-      <c r="C250" t="s">
-        <v>477</v>
-      </c>
-      <c r="D250" t="s">
-        <v>40</v>
-      </c>
-      <c r="E250">
-        <v>5.5</v>
-      </c>
-      <c r="F250">
-        <f t="shared" ref="F250:F252" si="20">E250*60</f>
-        <v>330</v>
-      </c>
-      <c r="G250" s="3" t="s">
-        <v>478</v>
       </c>
     </row>
     <row r="251" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A251" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="B251" t="s">
         <v>38</v>
       </c>
       <c r="C251" t="s">
+        <v>477</v>
+      </c>
+      <c r="D251" t="s">
+        <v>40</v>
+      </c>
+      <c r="E251">
+        <v>5.5</v>
+      </c>
+      <c r="F251">
+        <f t="shared" ref="F251:F253" si="20">E251*60</f>
+        <v>330</v>
+      </c>
+      <c r="G251" s="3" t="s">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="252" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A252" t="s">
+        <v>410</v>
+      </c>
+      <c r="B252" t="s">
+        <v>38</v>
+      </c>
+      <c r="C252" t="s">
         <v>563</v>
       </c>
-      <c r="D251" t="s">
+      <c r="D252" t="s">
         <v>45</v>
       </c>
-      <c r="E251">
+      <c r="E252">
         <v>5.3</v>
       </c>
-      <c r="F251">
+      <c r="F252">
         <f t="shared" si="20"/>
         <v>318</v>
       </c>
-      <c r="G251" s="3" t="s">
+      <c r="G252" s="3" t="s">
         <v>564</v>
       </c>
     </row>
-    <row r="252" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A252" t="s">
+    <row r="253" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A253" t="s">
         <v>411</v>
       </c>
-      <c r="B252" t="s">
+      <c r="B253" t="s">
         <v>38</v>
       </c>
-      <c r="C252" t="s">
+      <c r="C253" t="s">
         <v>565</v>
       </c>
-      <c r="D252" t="s">
+      <c r="D253" t="s">
         <v>40</v>
       </c>
-      <c r="E252">
+      <c r="E253">
         <v>51.8</v>
       </c>
-      <c r="F252">
+      <c r="F253">
         <f t="shared" si="20"/>
         <v>3108</v>
       </c>
-      <c r="G252" s="3" t="s">
+      <c r="G253" s="3" t="s">
         <v>566</v>
-      </c>
-    </row>
-    <row r="253" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A253" t="s">
-        <v>412</v>
-      </c>
-      <c r="B253" t="s">
-        <v>38</v>
-      </c>
-      <c r="C253" t="s">
-        <v>477</v>
-      </c>
-      <c r="D253" t="s">
-        <v>40</v>
-      </c>
-      <c r="E253">
-        <v>5.5</v>
-      </c>
-      <c r="F253">
-        <f t="shared" ref="F253:F259" si="21">E253*60</f>
-        <v>330</v>
-      </c>
-      <c r="G253" s="3" t="s">
-        <v>478</v>
       </c>
     </row>
     <row r="254" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A254" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="B254" t="s">
         <v>38</v>
       </c>
       <c r="C254" t="s">
+        <v>477</v>
+      </c>
+      <c r="D254" t="s">
+        <v>40</v>
+      </c>
+      <c r="E254">
+        <v>5.5</v>
+      </c>
+      <c r="F254">
+        <f t="shared" ref="F254:F260" si="21">E254*60</f>
+        <v>330</v>
+      </c>
+      <c r="G254" s="3" t="s">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="255" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A255" t="s">
+        <v>413</v>
+      </c>
+      <c r="B255" t="s">
+        <v>38</v>
+      </c>
+      <c r="C255" t="s">
         <v>170</v>
       </c>
-      <c r="D254" t="s">
+      <c r="D255" t="s">
         <v>88</v>
       </c>
-      <c r="E254">
+      <c r="E255">
         <v>27.1</v>
       </c>
-      <c r="F254">
+      <c r="F255">
         <f t="shared" si="21"/>
         <v>1626</v>
       </c>
-      <c r="G254" s="3" t="s">
+      <c r="G255" s="3" t="s">
         <v>571</v>
       </c>
     </row>
-    <row r="255" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A255" t="s">
+    <row r="256" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A256" t="s">
         <v>414</v>
       </c>
-      <c r="B255" t="s">
+      <c r="B256" t="s">
         <v>38</v>
       </c>
-      <c r="C255" t="s">
+      <c r="C256" t="s">
         <v>572</v>
       </c>
-      <c r="D255" t="s">
+      <c r="D256" t="s">
         <v>40</v>
       </c>
-      <c r="E255">
+      <c r="E256">
         <v>2.6</v>
       </c>
-      <c r="F255">
+      <c r="F256">
         <f t="shared" si="21"/>
         <v>156</v>
       </c>
-      <c r="G255" s="3" t="s">
+      <c r="G256" s="3" t="s">
         <v>573</v>
       </c>
     </row>
-    <row r="256" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A256" t="s">
+    <row r="257" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A257" t="s">
         <v>415</v>
       </c>
-      <c r="B256" t="s">
+      <c r="B257" t="s">
         <v>38</v>
       </c>
-      <c r="C256" t="s">
+      <c r="C257" t="s">
         <v>168</v>
       </c>
-      <c r="D256" t="s">
+      <c r="D257" t="s">
         <v>42</v>
       </c>
-      <c r="E256">
+      <c r="E257">
         <v>7.1</v>
       </c>
-      <c r="F256">
+      <c r="F257">
         <f t="shared" si="21"/>
         <v>426</v>
       </c>
-      <c r="G256" s="4" t="s">
+      <c r="G257" s="4" t="s">
         <v>169</v>
       </c>
     </row>
-    <row r="257" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A257" t="s">
+    <row r="258" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A258" t="s">
         <v>416</v>
       </c>
-      <c r="B257" t="s">
+      <c r="B258" t="s">
         <v>38</v>
       </c>
-      <c r="C257" t="s">
+      <c r="C258" t="s">
         <v>431</v>
       </c>
-      <c r="D257" t="s">
+      <c r="D258" t="s">
         <v>432</v>
       </c>
-      <c r="E257">
+      <c r="E258">
         <v>7.3</v>
       </c>
-      <c r="F257">
+      <c r="F258">
         <f t="shared" si="21"/>
         <v>438</v>
       </c>
-      <c r="G257" s="3" t="s">
+      <c r="G258" s="3" t="s">
         <v>433</v>
       </c>
     </row>
-    <row r="258" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A258" t="s">
+    <row r="259" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A259" t="s">
         <v>417</v>
       </c>
-      <c r="B258" t="s">
+      <c r="B259" t="s">
         <v>38</v>
       </c>
-      <c r="C258" t="s">
+      <c r="C259" t="s">
         <v>569</v>
       </c>
-      <c r="D258" t="s">
+      <c r="D259" t="s">
         <v>88</v>
       </c>
-      <c r="E258">
+      <c r="E259">
         <v>6.3</v>
       </c>
-      <c r="F258">
+      <c r="F259">
         <f t="shared" si="21"/>
         <v>378</v>
       </c>
-      <c r="G258" s="3" t="s">
+      <c r="G259" s="3" t="s">
         <v>570</v>
       </c>
     </row>
-    <row r="259" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A259" t="s">
+    <row r="260" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A260" t="s">
         <v>418</v>
       </c>
-      <c r="B259" t="s">
+      <c r="B260" t="s">
         <v>38</v>
       </c>
-      <c r="C259" t="s">
+      <c r="C260" t="s">
         <v>567</v>
       </c>
-      <c r="D259" t="s">
+      <c r="D260" t="s">
         <v>88</v>
       </c>
-      <c r="E259">
+      <c r="E260">
         <v>1.87</v>
       </c>
-      <c r="F259">
+      <c r="F260">
         <f t="shared" si="21"/>
         <v>112.2</v>
       </c>
-      <c r="G259" s="3" t="s">
+      <c r="G260" s="3" t="s">
         <v>568</v>
-      </c>
-    </row>
-    <row r="260" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A260" t="s">
-        <v>419</v>
-      </c>
-      <c r="B260" t="s">
-        <v>38</v>
-      </c>
-      <c r="C260" t="s">
-        <v>168</v>
-      </c>
-      <c r="D260" t="s">
-        <v>40</v>
-      </c>
-      <c r="E260">
-        <v>32</v>
-      </c>
-      <c r="F260">
-        <f t="shared" ref="F260" si="22">E260*60</f>
-        <v>1920</v>
-      </c>
-      <c r="G260" s="3" t="s">
-        <v>452</v>
       </c>
     </row>
     <row r="261" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A261" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="B261" t="s">
         <v>38</v>
       </c>
       <c r="C261" t="s">
+        <v>168</v>
+      </c>
+      <c r="D261" t="s">
+        <v>40</v>
+      </c>
+      <c r="E261">
+        <v>32</v>
+      </c>
+      <c r="F261">
+        <f t="shared" ref="F261" si="22">E261*60</f>
+        <v>1920</v>
+      </c>
+      <c r="G261" s="3" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="262" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A262" t="s">
+        <v>420</v>
+      </c>
+      <c r="B262" t="s">
+        <v>38</v>
+      </c>
+      <c r="C262" t="s">
         <v>421</v>
       </c>
-      <c r="D261" t="s">
+      <c r="D262" t="s">
         <v>45</v>
       </c>
-      <c r="E261">
+      <c r="E262">
         <v>221</v>
       </c>
-      <c r="F261">
+      <c r="F262">
         <f t="shared" si="0"/>
         <v>13260</v>
       </c>
-      <c r="G261" s="3" t="s">
+      <c r="G262" s="3" t="s">
         <v>422</v>
       </c>
     </row>
-    <row r="262" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A262" t="s">
+    <row r="263" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A263" t="s">
         <v>667</v>
       </c>
-      <c r="B262" t="s">
+      <c r="B263" t="s">
         <v>38</v>
       </c>
-      <c r="C262" t="s">
+      <c r="C263" t="s">
         <v>677</v>
       </c>
-      <c r="D262" t="s">
+      <c r="D263" t="s">
         <v>45</v>
       </c>
-      <c r="E262">
+      <c r="E263">
         <v>53</v>
       </c>
-      <c r="F262">
+      <c r="F263">
         <f t="shared" si="0"/>
         <v>3180</v>
       </c>
-      <c r="G262" s="3" t="s">
+      <c r="G263" s="3" t="s">
         <v>678</v>
       </c>
     </row>
-    <row r="263" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A263" t="s">
+    <row r="264" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A264" t="s">
         <v>668</v>
       </c>
-      <c r="B263" t="s">
+      <c r="B264" t="s">
         <v>38</v>
       </c>
-      <c r="C263" t="s">
+      <c r="C264" t="s">
         <v>671</v>
       </c>
-      <c r="D263" t="s">
+      <c r="D264" t="s">
         <v>88</v>
       </c>
-      <c r="E263">
+      <c r="E264">
         <v>8400</v>
       </c>
-      <c r="F263">
+      <c r="F264">
         <f t="shared" si="0"/>
         <v>504000</v>
       </c>
-      <c r="G263" s="3" t="s">
+      <c r="G264" s="3" t="s">
         <v>672</v>
       </c>
     </row>
-    <row r="264" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A264" t="s">
+    <row r="265" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A265" t="s">
         <v>669</v>
       </c>
-      <c r="B264" t="s">
+      <c r="B265" t="s">
         <v>38</v>
       </c>
-      <c r="C264" t="s">
+      <c r="C265" t="s">
         <v>673</v>
       </c>
-      <c r="D264" t="s">
+      <c r="D265" t="s">
         <v>40</v>
       </c>
-      <c r="E264">
+      <c r="E265">
         <v>67.400000000000006</v>
       </c>
-      <c r="F264">
+      <c r="F265">
         <f t="shared" si="0"/>
         <v>4044.0000000000005</v>
       </c>
-      <c r="G264" s="3" t="s">
+      <c r="G265" s="3" t="s">
         <v>674</v>
       </c>
     </row>
-    <row r="265" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A265" t="s">
+    <row r="266" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A266" t="s">
         <v>670</v>
       </c>
-      <c r="B265" t="s">
+      <c r="B266" t="s">
         <v>38</v>
       </c>
-      <c r="C265" t="s">
+      <c r="C266" t="s">
         <v>675</v>
       </c>
-      <c r="D265" t="s">
+      <c r="D266" t="s">
         <v>676</v>
       </c>
-      <c r="E265">
+      <c r="E266">
         <v>6.61</v>
       </c>
-      <c r="F265">
+      <c r="F266">
         <f t="shared" si="0"/>
         <v>396.6</v>
       </c>
-      <c r="G265" s="3" t="s">
+      <c r="G266" s="3" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="266" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A266" t="s">
+    <row r="267" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A267" t="s">
         <v>679</v>
       </c>
-      <c r="B266" t="s">
+      <c r="B267" t="s">
         <v>38</v>
       </c>
-      <c r="C266" t="s">
+      <c r="C267" t="s">
         <v>684</v>
       </c>
-      <c r="D266" t="s">
+      <c r="D267" t="s">
         <v>145</v>
       </c>
-      <c r="E266">
+      <c r="E267">
         <v>4.13</v>
       </c>
-      <c r="F266">
+      <c r="F267">
         <f t="shared" si="0"/>
         <v>247.79999999999998</v>
       </c>
-      <c r="G266" s="3" t="s">
+      <c r="G267" s="3" t="s">
         <v>685</v>
       </c>
     </row>
-    <row r="267" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A267" t="s">
+    <row r="268" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A268" t="s">
         <v>704</v>
       </c>
-      <c r="B267" t="s">
+      <c r="B268" t="s">
         <v>38</v>
       </c>
-      <c r="C267" t="s">
+      <c r="C268" t="s">
         <v>705</v>
       </c>
-      <c r="D267" t="s">
+      <c r="D268" t="s">
         <v>42</v>
       </c>
-      <c r="E267">
+      <c r="E268">
         <v>18</v>
       </c>
-      <c r="F267">
+      <c r="F268">
         <f t="shared" si="0"/>
         <v>1080</v>
       </c>
-      <c r="G267" s="3" t="s">
+      <c r="G268" s="3" t="s">
         <v>706</v>
-      </c>
-    </row>
-    <row r="268" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A268" t="s">
-        <v>154</v>
-      </c>
-      <c r="B268" t="s">
-        <v>38</v>
-      </c>
-      <c r="C268" t="s">
-        <v>156</v>
-      </c>
-      <c r="D268" t="s">
-        <v>45</v>
-      </c>
-      <c r="E268">
-        <v>7.5</v>
-      </c>
-      <c r="F268">
-        <f t="shared" si="0"/>
-        <v>450</v>
-      </c>
-      <c r="G268" s="3" t="s">
-        <v>157</v>
       </c>
     </row>
     <row r="269" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A269" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B269" t="s">
         <v>38</v>
@@ -8974,30 +8983,31 @@
     </row>
     <row r="270" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A270" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="B270" t="s">
-        <v>16</v>
+        <v>38</v>
       </c>
       <c r="C270" t="s">
-        <v>109</v>
+        <v>156</v>
       </c>
       <c r="D270" t="s">
-        <v>109</v>
-      </c>
-      <c r="E270" t="s">
-        <v>109</v>
+        <v>45</v>
+      </c>
+      <c r="E270">
+        <v>7.5</v>
       </c>
       <c r="F270">
-        <v>107.4</v>
-      </c>
-      <c r="G270" s="1" t="s">
-        <v>697</v>
+        <f t="shared" si="0"/>
+        <v>450</v>
+      </c>
+      <c r="G270" s="3" t="s">
+        <v>157</v>
       </c>
     </row>
     <row r="271" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A271" t="s">
-        <v>115</v>
+        <v>158</v>
       </c>
       <c r="B271" t="s">
         <v>16</v>
@@ -9012,9 +9022,32 @@
         <v>109</v>
       </c>
       <c r="F271">
+        <v>107.4</v>
+      </c>
+      <c r="G271" s="1" t="s">
+        <v>697</v>
+      </c>
+    </row>
+    <row r="272" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A272" t="s">
+        <v>115</v>
+      </c>
+      <c r="B272" t="s">
+        <v>16</v>
+      </c>
+      <c r="C272" t="s">
+        <v>109</v>
+      </c>
+      <c r="D272" t="s">
+        <v>109</v>
+      </c>
+      <c r="E272" t="s">
+        <v>109</v>
+      </c>
+      <c r="F272">
         <v>20</v>
       </c>
-      <c r="G271" s="2" t="s">
+      <c r="G272" s="2" t="s">
         <v>113</v>
       </c>
     </row>
@@ -9022,24 +9055,24 @@
   <hyperlinks>
     <hyperlink ref="G19" r:id="rId1" xr:uid="{60D2E9C6-9172-4D4D-B418-CC567356E033}"/>
     <hyperlink ref="G2" r:id="rId2" xr:uid="{96642BA6-12F8-4451-8DFA-16265959FEFA}"/>
-    <hyperlink ref="G212" r:id="rId3" xr:uid="{DBD518FF-06AA-4F59-B32D-3D580FD3488C}"/>
-    <hyperlink ref="G211" r:id="rId4" xr:uid="{3C873BD8-C205-4B23-B8F2-C8E28D105704}"/>
+    <hyperlink ref="G213" r:id="rId3" xr:uid="{DBD518FF-06AA-4F59-B32D-3D580FD3488C}"/>
+    <hyperlink ref="G212" r:id="rId4" xr:uid="{3C873BD8-C205-4B23-B8F2-C8E28D105704}"/>
     <hyperlink ref="G34" r:id="rId5" xr:uid="{3CCDC09F-65EC-46AB-A5B6-06698DF90FD6}"/>
     <hyperlink ref="G35" r:id="rId6" xr:uid="{45B7FFC2-C775-45F6-B5E2-92E39C1EFAC1}"/>
     <hyperlink ref="G38" r:id="rId7" xr:uid="{C0F23788-2A31-4EA5-B6D6-A12E3C45A7E7}"/>
-    <hyperlink ref="G49" r:id="rId8" xr:uid="{E16DED46-B1DD-492F-AAE6-8FA6CA99D4AD}"/>
-    <hyperlink ref="G70" r:id="rId9" xr:uid="{8712DF9D-4B59-405A-AA32-2B4423750FF0}"/>
-    <hyperlink ref="G80" r:id="rId10" xr:uid="{6C3143F8-EECE-493B-A808-BC8B1FB906E4}"/>
-    <hyperlink ref="G85" r:id="rId11" xr:uid="{5F7C4001-6F89-479B-983C-BDB24868961F}"/>
-    <hyperlink ref="G91" r:id="rId12" xr:uid="{B65497F5-375F-4E2A-86C4-B4310250B40D}"/>
-    <hyperlink ref="G238" r:id="rId13" xr:uid="{B850A642-752F-4050-BE9D-FD6DEF1A1A28}"/>
-    <hyperlink ref="G256" r:id="rId14" xr:uid="{733CCEAC-FE6D-4E5A-890C-C556E3FD7098}"/>
-    <hyperlink ref="G125" r:id="rId15" xr:uid="{3ACF0FFB-BCF3-4FD6-9FD5-CA9D90101625}"/>
-    <hyperlink ref="G172" r:id="rId16" xr:uid="{1167C813-88FC-4ED1-BAC3-35562E39F6B3}"/>
-    <hyperlink ref="G144" r:id="rId17" xr:uid="{0AC60904-9B6C-42FC-A0D6-DCDFCFACCDB7}"/>
-    <hyperlink ref="G181" r:id="rId18" xr:uid="{87D8A670-02D9-4006-B7CD-DC020E2EACEF}"/>
+    <hyperlink ref="G50" r:id="rId8" xr:uid="{E16DED46-B1DD-492F-AAE6-8FA6CA99D4AD}"/>
+    <hyperlink ref="G71" r:id="rId9" xr:uid="{8712DF9D-4B59-405A-AA32-2B4423750FF0}"/>
+    <hyperlink ref="G81" r:id="rId10" xr:uid="{6C3143F8-EECE-493B-A808-BC8B1FB906E4}"/>
+    <hyperlink ref="G86" r:id="rId11" xr:uid="{5F7C4001-6F89-479B-983C-BDB24868961F}"/>
+    <hyperlink ref="G92" r:id="rId12" xr:uid="{B65497F5-375F-4E2A-86C4-B4310250B40D}"/>
+    <hyperlink ref="G239" r:id="rId13" xr:uid="{B850A642-752F-4050-BE9D-FD6DEF1A1A28}"/>
+    <hyperlink ref="G257" r:id="rId14" xr:uid="{733CCEAC-FE6D-4E5A-890C-C556E3FD7098}"/>
+    <hyperlink ref="G126" r:id="rId15" xr:uid="{3ACF0FFB-BCF3-4FD6-9FD5-CA9D90101625}"/>
+    <hyperlink ref="G173" r:id="rId16" xr:uid="{1167C813-88FC-4ED1-BAC3-35562E39F6B3}"/>
+    <hyperlink ref="G145" r:id="rId17" xr:uid="{0AC60904-9B6C-42FC-A0D6-DCDFCFACCDB7}"/>
+    <hyperlink ref="G182" r:id="rId18" xr:uid="{87D8A670-02D9-4006-B7CD-DC020E2EACEF}"/>
     <hyperlink ref="G16" r:id="rId19" xr:uid="{7DAABD84-8696-4ABA-AB3E-8DD3400DB458}"/>
-    <hyperlink ref="G270" r:id="rId20" xr:uid="{DC28AAB8-6E94-4F29-B774-317596ED75E1}"/>
+    <hyperlink ref="G271" r:id="rId20" xr:uid="{DC28AAB8-6E94-4F29-B774-317596ED75E1}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId21"/>

--- a/data/gems/Parameters.xlsx
+++ b/data/gems/Parameters.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bras5181\Desktop\Labprojects\CulturedMeat\PigGEM2025\data\gems\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{266F5768-4E92-499D-AA52-9EE65220F01E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F3B45C2E-EB4B-403A-8AD7-2194E3435F23}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -186,9 +186,6 @@
     <t>DOI: 10.1021/la1040882</t>
   </si>
   <si>
-    <t xml:space="preserve"> 2.7.1.1</t>
-  </si>
-  <si>
     <t>DOI: 10.1016/0003-9861(83)90303-x</t>
   </si>
   <si>
@@ -306,12 +303,6 @@
     <t>Rattus norvegicus</t>
   </si>
   <si>
-    <t>2.3.3.1</t>
-  </si>
-  <si>
-    <t>DOI: 10.1161/01.hyp.35.4.875</t>
-  </si>
-  <si>
     <t>Rattus rattus</t>
   </si>
   <si>
@@ -348,9 +339,6 @@
     <t>1.3.5.1</t>
   </si>
   <si>
-    <t>DOI: 10.1016/j.bbrc.2003.10.065</t>
-  </si>
-  <si>
     <t>4.2.1.2</t>
   </si>
   <si>
@@ -2173,6 +2161,18 @@
   </si>
   <si>
     <t>DOI: 10.1016/0005-2744(79)90178-5</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1016/0076-6879(67)10045-1</t>
+  </si>
+  <si>
+    <t>2.3.3.16</t>
+  </si>
+  <si>
+    <t>DOI: 10.1046/j.1432-1327.2000.01558.x</t>
+  </si>
+  <si>
+    <t>2.7.1.1</t>
   </si>
 </sst>
 </file>
@@ -2521,8 +2521,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G272"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A33" workbookViewId="0">
-      <selection activeCell="M41" sqref="M41"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="N15" sqref="N15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2547,7 +2547,7 @@
         <v>39</v>
       </c>
       <c r="F1" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="G1" s="3" t="s">
         <v>3</v>
@@ -2555,13 +2555,13 @@
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="B2" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="C2" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="D2" t="s">
         <v>40</v>
@@ -2573,76 +2573,76 @@
         <v>7.1999999999999993</v>
       </c>
       <c r="G2" s="4" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="B3" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="C3" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="D3" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="E3" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="F3">
         <v>6360</v>
       </c>
       <c r="G3" s="4" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="B4" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="C4" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="D4" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="E4" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="F4">
         <v>6360</v>
       </c>
       <c r="G4" s="4" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>707</v>
+        <v>703</v>
       </c>
       <c r="B5" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="C5" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="D5" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="E5" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="F5">
         <v>7.1999999999999993</v>
       </c>
       <c r="G5" s="4" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.35">
@@ -2653,7 +2653,7 @@
         <v>16</v>
       </c>
       <c r="C6" t="s">
-        <v>49</v>
+        <v>711</v>
       </c>
       <c r="D6" t="s">
         <v>45</v>
@@ -2666,7 +2666,7 @@
         <v>11490</v>
       </c>
       <c r="G6" s="3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.35">
@@ -2677,7 +2677,7 @@
         <v>16</v>
       </c>
       <c r="C7" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D7" t="s">
         <v>40</v>
@@ -2690,7 +2690,7 @@
         <v>37200</v>
       </c>
       <c r="G7" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.35">
@@ -2701,7 +2701,7 @@
         <v>16</v>
       </c>
       <c r="C8" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D8" t="s">
         <v>45</v>
@@ -2714,7 +2714,7 @@
         <v>7680</v>
       </c>
       <c r="G8" s="3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.35">
@@ -2725,7 +2725,7 @@
         <v>16</v>
       </c>
       <c r="C9" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D9" t="s">
         <v>40</v>
@@ -2738,7 +2738,7 @@
         <v>1338</v>
       </c>
       <c r="G9" s="3" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.35">
@@ -2749,7 +2749,7 @@
         <v>16</v>
       </c>
       <c r="C10" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D10" t="s">
         <v>40</v>
@@ -2762,7 +2762,7 @@
         <v>614400</v>
       </c>
       <c r="G10" s="3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.35">
@@ -2773,7 +2773,7 @@
         <v>16</v>
       </c>
       <c r="C11" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D11" t="s">
         <v>45</v>
@@ -2786,7 +2786,7 @@
         <v>4800</v>
       </c>
       <c r="G11" s="3" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.35">
@@ -2797,7 +2797,7 @@
         <v>16</v>
       </c>
       <c r="C12" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D12" t="s">
         <v>45</v>
@@ -2810,7 +2810,7 @@
         <v>60000</v>
       </c>
       <c r="G12" s="3" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.35">
@@ -2821,7 +2821,7 @@
         <v>16</v>
       </c>
       <c r="C13" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D13" t="s">
         <v>45</v>
@@ -2834,7 +2834,7 @@
         <v>12600</v>
       </c>
       <c r="G13" s="3" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.35">
@@ -2845,7 +2845,7 @@
         <v>16</v>
       </c>
       <c r="C14" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D14" t="s">
         <v>45</v>
@@ -2858,7 +2858,7 @@
         <v>5460</v>
       </c>
       <c r="G14" s="3" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.35">
@@ -2869,7 +2869,7 @@
         <v>16</v>
       </c>
       <c r="C15" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D15" t="s">
         <v>45</v>
@@ -2882,7 +2882,7 @@
         <v>11460</v>
       </c>
       <c r="G15" s="3" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.35">
@@ -2893,7 +2893,7 @@
         <v>16</v>
       </c>
       <c r="C16" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D16" t="s">
         <v>40</v>
@@ -2906,7 +2906,7 @@
         <v>27510</v>
       </c>
       <c r="G16" s="1" t="s">
-        <v>666</v>
+        <v>662</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.35">
@@ -2917,7 +2917,7 @@
         <v>16</v>
       </c>
       <c r="C17" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D17" t="s">
         <v>45</v>
@@ -2930,7 +2930,7 @@
         <v>12060</v>
       </c>
       <c r="G17" s="3" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.35">
@@ -2941,7 +2941,7 @@
         <v>16</v>
       </c>
       <c r="C18" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D18" t="s">
         <v>40</v>
@@ -2954,7 +2954,7 @@
         <v>63900</v>
       </c>
       <c r="G18" s="3" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.35">
@@ -2965,7 +2965,7 @@
         <v>16</v>
       </c>
       <c r="C19" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D19" t="s">
         <v>45</v>
@@ -2978,7 +2978,7 @@
         <v>113.39999999999999</v>
       </c>
       <c r="G19" s="4" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.35">
@@ -2989,10 +2989,10 @@
         <v>16</v>
       </c>
       <c r="C20" t="s">
+        <v>74</v>
+      </c>
+      <c r="D20" t="s">
         <v>75</v>
-      </c>
-      <c r="D20" t="s">
-        <v>76</v>
       </c>
       <c r="E20">
         <v>1700</v>
@@ -3002,21 +3002,21 @@
         <v>102000</v>
       </c>
       <c r="G20" s="3" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
-        <v>699</v>
+        <v>695</v>
       </c>
       <c r="B21" t="s">
         <v>16</v>
       </c>
       <c r="C21" t="s">
+        <v>74</v>
+      </c>
+      <c r="D21" t="s">
         <v>75</v>
-      </c>
-      <c r="D21" t="s">
-        <v>76</v>
       </c>
       <c r="E21">
         <v>1700</v>
@@ -3026,7 +3026,7 @@
         <v>102000</v>
       </c>
       <c r="G21" s="3" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.35">
@@ -3037,7 +3037,7 @@
         <v>16</v>
       </c>
       <c r="C22" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D22" t="s">
         <v>42</v>
@@ -3050,18 +3050,18 @@
         <v>394200</v>
       </c>
       <c r="G22" s="3" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
-        <v>700</v>
+        <v>696</v>
       </c>
       <c r="B23" t="s">
         <v>16</v>
       </c>
       <c r="C23" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D23" t="s">
         <v>42</v>
@@ -3074,7 +3074,7 @@
         <v>394200</v>
       </c>
       <c r="G23" s="3" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.35">
@@ -3085,7 +3085,7 @@
         <v>16</v>
       </c>
       <c r="C24" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D24" t="s">
         <v>45</v>
@@ -3098,18 +3098,18 @@
         <v>52.8</v>
       </c>
       <c r="G24" s="3" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
-        <v>701</v>
+        <v>697</v>
       </c>
       <c r="B25" t="s">
         <v>16</v>
       </c>
       <c r="C25" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D25" t="s">
         <v>45</v>
@@ -3122,7 +3122,7 @@
         <v>52.8</v>
       </c>
       <c r="G25" s="3" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.35">
@@ -3133,7 +3133,7 @@
         <v>16</v>
       </c>
       <c r="C26" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D26" t="s">
         <v>45</v>
@@ -3146,18 +3146,18 @@
         <v>52.8</v>
       </c>
       <c r="G26" s="3" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
-        <v>702</v>
+        <v>698</v>
       </c>
       <c r="B27" t="s">
         <v>16</v>
       </c>
       <c r="C27" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D27" t="s">
         <v>45</v>
@@ -3170,7 +3170,7 @@
         <v>52.8</v>
       </c>
       <c r="G27" s="3" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.35">
@@ -3181,7 +3181,7 @@
         <v>16</v>
       </c>
       <c r="C28" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D28" t="s">
         <v>40</v>
@@ -3194,18 +3194,18 @@
         <v>900</v>
       </c>
       <c r="G28" s="3" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
-        <v>703</v>
+        <v>699</v>
       </c>
       <c r="B29" t="s">
         <v>16</v>
       </c>
       <c r="C29" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D29" t="s">
         <v>40</v>
@@ -3218,7 +3218,7 @@
         <v>900</v>
       </c>
       <c r="G29" s="3" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.35">
@@ -3229,7 +3229,7 @@
         <v>16</v>
       </c>
       <c r="C30" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D30" t="s">
         <v>40</v>
@@ -3242,21 +3242,21 @@
         <v>1332</v>
       </c>
       <c r="G30" s="3" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="B31" t="s">
         <v>16</v>
       </c>
       <c r="C31" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="D31" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="E31">
         <v>6.13</v>
@@ -3266,21 +3266,21 @@
         <v>367.8</v>
       </c>
       <c r="G31" s="3" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="B32" t="s">
         <v>16</v>
       </c>
       <c r="C32" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="D32" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="E32">
         <v>138.80000000000001</v>
@@ -3290,21 +3290,21 @@
         <v>8328</v>
       </c>
       <c r="G32" s="3" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
       <c r="B33" t="s">
         <v>16</v>
       </c>
       <c r="C33" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="D33" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="E33">
         <v>329</v>
@@ -3314,18 +3314,18 @@
         <v>19740</v>
       </c>
       <c r="G33" s="3" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="B34" t="s">
         <v>16</v>
       </c>
       <c r="C34" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="D34" t="s">
         <v>42</v>
@@ -3338,18 +3338,18 @@
         <v>426</v>
       </c>
       <c r="G34" s="4" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="B35" t="s">
         <v>16</v>
       </c>
       <c r="C35" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="D35" t="s">
         <v>42</v>
@@ -3362,21 +3362,21 @@
         <v>426</v>
       </c>
       <c r="G35" s="4" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="B36" t="s">
         <v>16</v>
       </c>
       <c r="C36" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="D36" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="E36">
         <v>9.94</v>
@@ -3386,18 +3386,18 @@
         <v>596.4</v>
       </c>
       <c r="G36" s="4" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A37" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="B37" t="s">
         <v>16</v>
       </c>
       <c r="C37" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
       <c r="D37" t="s">
         <v>42</v>
@@ -3410,21 +3410,21 @@
         <v>96</v>
       </c>
       <c r="G37" s="4" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A38" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="B38" t="s">
         <v>16</v>
       </c>
       <c r="C38" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="D38" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="E38">
         <v>1.54</v>
@@ -3434,18 +3434,18 @@
         <v>92.4</v>
       </c>
       <c r="G38" s="4" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A39" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="B39" t="s">
         <v>16</v>
       </c>
       <c r="C39" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
       <c r="D39" t="s">
         <v>45</v>
@@ -3458,18 +3458,18 @@
         <v>2700</v>
       </c>
       <c r="G39" s="4" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A40" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
       <c r="B40" t="s">
         <v>16</v>
       </c>
       <c r="C40" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
       <c r="D40" t="s">
         <v>45</v>
@@ -3482,21 +3482,21 @@
         <v>1500</v>
       </c>
       <c r="G40" s="4" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A41" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="B41" t="s">
         <v>16</v>
       </c>
       <c r="C41" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="D41" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="E41">
         <v>196.2</v>
@@ -3506,21 +3506,21 @@
         <v>11772</v>
       </c>
       <c r="G41" s="4" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A42" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
       <c r="B42" t="s">
         <v>16</v>
       </c>
       <c r="C42" t="s">
-        <v>218</v>
+        <v>214</v>
       </c>
       <c r="D42" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="E42">
         <v>26.1</v>
@@ -3530,18 +3530,18 @@
         <v>1566</v>
       </c>
       <c r="G42" s="4" t="s">
-        <v>219</v>
+        <v>215</v>
       </c>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A43" t="s">
-        <v>709</v>
+        <v>705</v>
       </c>
       <c r="B43" t="s">
         <v>16</v>
       </c>
       <c r="C43" t="s">
-        <v>710</v>
+        <v>706</v>
       </c>
       <c r="D43" t="s">
         <v>45</v>
@@ -3554,21 +3554,21 @@
         <v>12780</v>
       </c>
       <c r="G43" s="4" t="s">
-        <v>711</v>
+        <v>707</v>
       </c>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A44" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
       <c r="B44" t="s">
         <v>16</v>
       </c>
       <c r="C44" t="s">
-        <v>423</v>
+        <v>419</v>
       </c>
       <c r="D44" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="E44">
         <v>13.6</v>
@@ -3578,18 +3578,18 @@
         <v>816</v>
       </c>
       <c r="G44" s="3" t="s">
-        <v>424</v>
+        <v>420</v>
       </c>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A45" t="s">
-        <v>236</v>
+        <v>232</v>
       </c>
       <c r="B45" t="s">
         <v>16</v>
       </c>
       <c r="C45" t="s">
-        <v>425</v>
+        <v>421</v>
       </c>
       <c r="D45" t="s">
         <v>45</v>
@@ -3602,18 +3602,18 @@
         <v>227.34</v>
       </c>
       <c r="G45" s="3" t="s">
-        <v>426</v>
+        <v>422</v>
       </c>
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A46" t="s">
-        <v>237</v>
+        <v>233</v>
       </c>
       <c r="B46" t="s">
         <v>16</v>
       </c>
       <c r="C46" t="s">
-        <v>427</v>
+        <v>423</v>
       </c>
       <c r="D46" t="s">
         <v>45</v>
@@ -3626,18 +3626,18 @@
         <v>184.14</v>
       </c>
       <c r="G46" s="3" t="s">
-        <v>428</v>
+        <v>424</v>
       </c>
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A47" t="s">
-        <v>238</v>
+        <v>234</v>
       </c>
       <c r="B47" t="s">
         <v>16</v>
       </c>
       <c r="C47" t="s">
-        <v>429</v>
+        <v>425</v>
       </c>
       <c r="D47" t="s">
         <v>45</v>
@@ -3650,21 +3650,21 @@
         <v>124.80000000000001</v>
       </c>
       <c r="G47" s="3" t="s">
-        <v>430</v>
+        <v>426</v>
       </c>
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A48" t="s">
-        <v>239</v>
+        <v>235</v>
       </c>
       <c r="B48" t="s">
         <v>16</v>
       </c>
       <c r="C48" t="s">
-        <v>431</v>
+        <v>427</v>
       </c>
       <c r="D48" t="s">
-        <v>432</v>
+        <v>428</v>
       </c>
       <c r="E48">
         <v>7.3</v>
@@ -3674,12 +3674,12 @@
         <v>438</v>
       </c>
       <c r="G48" s="3" t="s">
-        <v>433</v>
+        <v>429</v>
       </c>
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A49" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="B49" t="s">
         <v>16</v>
@@ -3703,13 +3703,13 @@
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A50" t="s">
-        <v>241</v>
+        <v>237</v>
       </c>
       <c r="B50" t="s">
         <v>16</v>
       </c>
       <c r="C50" t="s">
-        <v>434</v>
+        <v>430</v>
       </c>
       <c r="D50" t="s">
         <v>45</v>
@@ -3722,18 +3722,18 @@
         <v>4098</v>
       </c>
       <c r="G50" s="1" t="s">
-        <v>435</v>
+        <v>431</v>
       </c>
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A51" t="s">
-        <v>242</v>
+        <v>238</v>
       </c>
       <c r="B51" t="s">
         <v>16</v>
       </c>
       <c r="C51" t="s">
-        <v>436</v>
+        <v>432</v>
       </c>
       <c r="D51" t="s">
         <v>40</v>
@@ -3746,18 +3746,18 @@
         <v>24600</v>
       </c>
       <c r="G51" s="3" t="s">
-        <v>437</v>
+        <v>433</v>
       </c>
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A52" t="s">
-        <v>243</v>
+        <v>239</v>
       </c>
       <c r="B52" t="s">
         <v>16</v>
       </c>
       <c r="C52" t="s">
-        <v>438</v>
+        <v>434</v>
       </c>
       <c r="D52" t="s">
         <v>40</v>
@@ -3770,18 +3770,18 @@
         <v>1255.9199999999998</v>
       </c>
       <c r="G52" s="3" t="s">
-        <v>439</v>
+        <v>435</v>
       </c>
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A53" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
       <c r="B53" t="s">
         <v>16</v>
       </c>
       <c r="C53" t="s">
-        <v>440</v>
+        <v>436</v>
       </c>
       <c r="D53" t="s">
         <v>40</v>
@@ -3794,18 +3794,18 @@
         <v>618</v>
       </c>
       <c r="G53" s="3" t="s">
-        <v>441</v>
+        <v>437</v>
       </c>
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A54" t="s">
-        <v>245</v>
+        <v>241</v>
       </c>
       <c r="B54" t="s">
         <v>16</v>
       </c>
       <c r="C54" t="s">
-        <v>442</v>
+        <v>438</v>
       </c>
       <c r="D54" t="s">
         <v>40</v>
@@ -3818,18 +3818,18 @@
         <v>105.6</v>
       </c>
       <c r="G54" s="3" t="s">
-        <v>443</v>
+        <v>439</v>
       </c>
     </row>
     <row r="55" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A55" t="s">
-        <v>246</v>
+        <v>242</v>
       </c>
       <c r="B55" t="s">
         <v>16</v>
       </c>
       <c r="C55" t="s">
-        <v>444</v>
+        <v>440</v>
       </c>
       <c r="D55" t="s">
         <v>45</v>
@@ -3842,18 +3842,18 @@
         <v>1.962</v>
       </c>
       <c r="G55" s="3" t="s">
-        <v>445</v>
+        <v>441</v>
       </c>
     </row>
     <row r="56" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A56" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
       <c r="B56" t="s">
         <v>16</v>
       </c>
       <c r="C56" t="s">
-        <v>446</v>
+        <v>442</v>
       </c>
       <c r="D56" t="s">
         <v>40</v>
@@ -3866,18 +3866,18 @@
         <v>21001.199999999997</v>
       </c>
       <c r="G56" s="3" t="s">
-        <v>447</v>
+        <v>443</v>
       </c>
     </row>
     <row r="57" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A57" t="s">
-        <v>248</v>
+        <v>244</v>
       </c>
       <c r="B57" t="s">
         <v>16</v>
       </c>
       <c r="C57" t="s">
-        <v>448</v>
+        <v>444</v>
       </c>
       <c r="D57" t="s">
         <v>45</v>
@@ -3890,18 +3890,18 @@
         <v>0.14399999999999999</v>
       </c>
       <c r="G57" s="3" t="s">
-        <v>449</v>
+        <v>445</v>
       </c>
     </row>
     <row r="58" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A58" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
       <c r="B58" t="s">
         <v>16</v>
       </c>
       <c r="C58" t="s">
-        <v>442</v>
+        <v>438</v>
       </c>
       <c r="D58" t="s">
         <v>40</v>
@@ -3914,18 +3914,18 @@
         <v>105.6</v>
       </c>
       <c r="G58" s="3" t="s">
-        <v>443</v>
+        <v>439</v>
       </c>
     </row>
     <row r="59" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A59" t="s">
-        <v>250</v>
+        <v>246</v>
       </c>
       <c r="B59" t="s">
         <v>16</v>
       </c>
       <c r="C59" t="s">
-        <v>429</v>
+        <v>425</v>
       </c>
       <c r="D59" t="s">
         <v>45</v>
@@ -3938,18 +3938,18 @@
         <v>124.80000000000001</v>
       </c>
       <c r="G59" s="3" t="s">
-        <v>430</v>
+        <v>426</v>
       </c>
     </row>
     <row r="60" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A60" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
       <c r="B60" t="s">
         <v>16</v>
       </c>
       <c r="C60" t="s">
-        <v>450</v>
+        <v>446</v>
       </c>
       <c r="D60" t="s">
         <v>45</v>
@@ -3962,18 +3962,18 @@
         <v>8280</v>
       </c>
       <c r="G60" s="3" t="s">
-        <v>451</v>
+        <v>447</v>
       </c>
     </row>
     <row r="61" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A61" t="s">
-        <v>252</v>
+        <v>248</v>
       </c>
       <c r="B61" t="s">
         <v>16</v>
       </c>
       <c r="C61" t="s">
-        <v>429</v>
+        <v>425</v>
       </c>
       <c r="D61" t="s">
         <v>45</v>
@@ -3986,18 +3986,18 @@
         <v>124.80000000000001</v>
       </c>
       <c r="G61" s="3" t="s">
-        <v>430</v>
+        <v>426</v>
       </c>
     </row>
     <row r="62" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A62" t="s">
-        <v>253</v>
+        <v>249</v>
       </c>
       <c r="B62" t="s">
         <v>16</v>
       </c>
       <c r="C62" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="D62" t="s">
         <v>40</v>
@@ -4010,18 +4010,18 @@
         <v>1920</v>
       </c>
       <c r="G62" s="3" t="s">
-        <v>452</v>
+        <v>448</v>
       </c>
     </row>
     <row r="63" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A63" t="s">
-        <v>254</v>
+        <v>250</v>
       </c>
       <c r="B63" t="s">
         <v>16</v>
       </c>
       <c r="C63" t="s">
-        <v>427</v>
+        <v>423</v>
       </c>
       <c r="D63" t="s">
         <v>45</v>
@@ -4034,18 +4034,18 @@
         <v>184.14</v>
       </c>
       <c r="G63" s="3" t="s">
-        <v>428</v>
+        <v>424</v>
       </c>
     </row>
     <row r="64" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A64" t="s">
-        <v>255</v>
+        <v>251</v>
       </c>
       <c r="B64" t="s">
         <v>16</v>
       </c>
       <c r="C64" t="s">
-        <v>453</v>
+        <v>449</v>
       </c>
       <c r="D64" t="s">
         <v>42</v>
@@ -4058,18 +4058,18 @@
         <v>0.39479999999999998</v>
       </c>
       <c r="G64" s="3" t="s">
-        <v>454</v>
+        <v>450</v>
       </c>
     </row>
     <row r="65" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A65" t="s">
-        <v>256</v>
+        <v>252</v>
       </c>
       <c r="B65" t="s">
         <v>16</v>
       </c>
       <c r="C65" t="s">
-        <v>455</v>
+        <v>451</v>
       </c>
       <c r="D65" t="s">
         <v>45</v>
@@ -4082,18 +4082,18 @@
         <v>0.12</v>
       </c>
       <c r="G65" s="3" t="s">
-        <v>456</v>
+        <v>452</v>
       </c>
     </row>
     <row r="66" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A66" t="s">
-        <v>257</v>
+        <v>253</v>
       </c>
       <c r="B66" t="s">
         <v>16</v>
       </c>
       <c r="C66" t="s">
-        <v>457</v>
+        <v>453</v>
       </c>
       <c r="D66" t="s">
         <v>42</v>
@@ -4106,21 +4106,21 @@
         <v>12360</v>
       </c>
       <c r="G66" s="3" t="s">
-        <v>458</v>
+        <v>454</v>
       </c>
     </row>
     <row r="67" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A67" t="s">
-        <v>258</v>
+        <v>254</v>
       </c>
       <c r="B67" t="s">
         <v>16</v>
       </c>
       <c r="C67" t="s">
-        <v>459</v>
+        <v>455</v>
       </c>
       <c r="D67" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="E67">
         <v>5.8599999999999999E-2</v>
@@ -4130,21 +4130,21 @@
         <v>3.516</v>
       </c>
       <c r="G67" s="3" t="s">
-        <v>460</v>
+        <v>456</v>
       </c>
     </row>
     <row r="68" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A68" t="s">
-        <v>259</v>
+        <v>255</v>
       </c>
       <c r="B68" t="s">
         <v>16</v>
       </c>
       <c r="C68" t="s">
-        <v>461</v>
+        <v>457</v>
       </c>
       <c r="D68" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="E68">
         <v>3.3</v>
@@ -4154,18 +4154,18 @@
         <v>198</v>
       </c>
       <c r="G68" s="3" t="s">
-        <v>462</v>
+        <v>458</v>
       </c>
     </row>
     <row r="69" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A69" t="s">
-        <v>260</v>
+        <v>256</v>
       </c>
       <c r="B69" t="s">
         <v>16</v>
       </c>
       <c r="C69" t="s">
-        <v>463</v>
+        <v>459</v>
       </c>
       <c r="D69" t="s">
         <v>45</v>
@@ -4178,18 +4178,18 @@
         <v>3060</v>
       </c>
       <c r="G69" s="3" t="s">
-        <v>464</v>
+        <v>460</v>
       </c>
     </row>
     <row r="70" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A70" t="s">
-        <v>261</v>
+        <v>257</v>
       </c>
       <c r="B70" t="s">
         <v>16</v>
       </c>
       <c r="C70" t="s">
-        <v>465</v>
+        <v>461</v>
       </c>
       <c r="D70" t="s">
         <v>40</v>
@@ -4202,18 +4202,18 @@
         <v>8220</v>
       </c>
       <c r="G70" s="3" t="s">
-        <v>466</v>
+        <v>462</v>
       </c>
     </row>
     <row r="71" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A71" t="s">
-        <v>262</v>
+        <v>258</v>
       </c>
       <c r="B71" t="s">
         <v>16</v>
       </c>
       <c r="C71" t="s">
-        <v>467</v>
+        <v>463</v>
       </c>
       <c r="D71" t="s">
         <v>45</v>
@@ -4226,21 +4226,21 @@
         <v>6.4199999999999993E-2</v>
       </c>
       <c r="G71" s="1" t="s">
-        <v>468</v>
+        <v>464</v>
       </c>
     </row>
     <row r="72" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A72" t="s">
-        <v>263</v>
+        <v>259</v>
       </c>
       <c r="B72" t="s">
         <v>16</v>
       </c>
       <c r="C72" t="s">
-        <v>469</v>
+        <v>465</v>
       </c>
       <c r="D72" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="E72">
         <v>989</v>
@@ -4250,18 +4250,18 @@
         <v>59340</v>
       </c>
       <c r="G72" s="3" t="s">
-        <v>470</v>
+        <v>466</v>
       </c>
     </row>
     <row r="73" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A73" t="s">
-        <v>264</v>
+        <v>260</v>
       </c>
       <c r="B73" t="s">
         <v>16</v>
       </c>
       <c r="C73" t="s">
-        <v>471</v>
+        <v>467</v>
       </c>
       <c r="D73" t="s">
         <v>45</v>
@@ -4274,18 +4274,18 @@
         <v>18.600000000000001</v>
       </c>
       <c r="G73" s="3" t="s">
-        <v>472</v>
+        <v>468</v>
       </c>
     </row>
     <row r="74" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A74" t="s">
-        <v>265</v>
+        <v>261</v>
       </c>
       <c r="B74" t="s">
         <v>16</v>
       </c>
       <c r="C74" t="s">
-        <v>473</v>
+        <v>469</v>
       </c>
       <c r="D74" t="s">
         <v>40</v>
@@ -4298,18 +4298,18 @@
         <v>2760</v>
       </c>
       <c r="G74" s="3" t="s">
-        <v>474</v>
+        <v>470</v>
       </c>
     </row>
     <row r="75" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A75" t="s">
-        <v>266</v>
+        <v>262</v>
       </c>
       <c r="B75" t="s">
         <v>16</v>
       </c>
       <c r="C75" t="s">
-        <v>475</v>
+        <v>471</v>
       </c>
       <c r="D75" t="s">
         <v>45</v>
@@ -4322,18 +4322,18 @@
         <v>48.959999999999994</v>
       </c>
       <c r="G75" s="3" t="s">
-        <v>476</v>
+        <v>472</v>
       </c>
     </row>
     <row r="76" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A76" t="s">
-        <v>267</v>
+        <v>263</v>
       </c>
       <c r="B76" t="s">
         <v>16</v>
       </c>
       <c r="C76" t="s">
-        <v>477</v>
+        <v>473</v>
       </c>
       <c r="D76" t="s">
         <v>40</v>
@@ -4346,18 +4346,18 @@
         <v>330</v>
       </c>
       <c r="G76" s="3" t="s">
-        <v>478</v>
+        <v>474</v>
       </c>
     </row>
     <row r="77" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A77" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
       <c r="B77" t="s">
         <v>16</v>
       </c>
       <c r="C77" t="s">
-        <v>473</v>
+        <v>469</v>
       </c>
       <c r="D77" t="s">
         <v>40</v>
@@ -4370,21 +4370,21 @@
         <v>2760</v>
       </c>
       <c r="G77" s="3" t="s">
-        <v>474</v>
+        <v>470</v>
       </c>
     </row>
     <row r="78" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A78" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
       <c r="B78" t="s">
         <v>16</v>
       </c>
       <c r="C78" t="s">
-        <v>479</v>
+        <v>475</v>
       </c>
       <c r="D78" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="E78">
         <v>71</v>
@@ -4394,21 +4394,21 @@
         <v>4260</v>
       </c>
       <c r="G78" s="3" t="s">
-        <v>480</v>
+        <v>476</v>
       </c>
     </row>
     <row r="79" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A79" t="s">
-        <v>270</v>
+        <v>266</v>
       </c>
       <c r="B79" t="s">
         <v>16</v>
       </c>
       <c r="C79" t="s">
-        <v>481</v>
+        <v>477</v>
       </c>
       <c r="D79" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="E79">
         <v>0.49</v>
@@ -4418,18 +4418,18 @@
         <v>29.4</v>
       </c>
       <c r="G79" s="3" t="s">
-        <v>482</v>
+        <v>478</v>
       </c>
     </row>
     <row r="80" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A80" t="s">
-        <v>271</v>
+        <v>267</v>
       </c>
       <c r="B80" t="s">
         <v>16</v>
       </c>
       <c r="C80" t="s">
-        <v>473</v>
+        <v>469</v>
       </c>
       <c r="D80" t="s">
         <v>40</v>
@@ -4442,18 +4442,18 @@
         <v>2760</v>
       </c>
       <c r="G80" s="3" t="s">
-        <v>474</v>
+        <v>470</v>
       </c>
     </row>
     <row r="81" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A81" t="s">
-        <v>272</v>
+        <v>268</v>
       </c>
       <c r="B81" t="s">
         <v>16</v>
       </c>
       <c r="C81" t="s">
-        <v>467</v>
+        <v>463</v>
       </c>
       <c r="D81" t="s">
         <v>45</v>
@@ -4466,18 +4466,18 @@
         <v>6.4199999999999993E-2</v>
       </c>
       <c r="G81" s="1" t="s">
-        <v>468</v>
+        <v>464</v>
       </c>
     </row>
     <row r="82" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A82" t="s">
-        <v>273</v>
+        <v>269</v>
       </c>
       <c r="B82" t="s">
         <v>16</v>
       </c>
       <c r="C82" t="s">
-        <v>429</v>
+        <v>425</v>
       </c>
       <c r="D82" t="s">
         <v>45</v>
@@ -4490,18 +4490,18 @@
         <v>124.80000000000001</v>
       </c>
       <c r="G82" s="3" t="s">
-        <v>430</v>
+        <v>426</v>
       </c>
     </row>
     <row r="83" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A83" t="s">
-        <v>274</v>
+        <v>270</v>
       </c>
       <c r="B83" t="s">
         <v>16</v>
       </c>
       <c r="C83" t="s">
-        <v>483</v>
+        <v>479</v>
       </c>
       <c r="D83" t="s">
         <v>40</v>
@@ -4514,18 +4514,18 @@
         <v>196.27339572192511</v>
       </c>
       <c r="G83" s="3" t="s">
-        <v>484</v>
+        <v>480</v>
       </c>
     </row>
     <row r="84" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A84" t="s">
-        <v>275</v>
+        <v>271</v>
       </c>
       <c r="B84" t="s">
         <v>16</v>
       </c>
       <c r="C84" t="s">
-        <v>485</v>
+        <v>481</v>
       </c>
       <c r="D84" t="s">
         <v>42</v>
@@ -4538,18 +4538,18 @@
         <v>306</v>
       </c>
       <c r="G84" s="3" t="s">
-        <v>486</v>
+        <v>482</v>
       </c>
     </row>
     <row r="85" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A85" t="s">
-        <v>276</v>
+        <v>272</v>
       </c>
       <c r="B85" t="s">
         <v>16</v>
       </c>
       <c r="C85" t="s">
-        <v>487</v>
+        <v>483</v>
       </c>
       <c r="D85" t="s">
         <v>40</v>
@@ -4562,18 +4562,18 @@
         <v>282</v>
       </c>
       <c r="G85" s="3" t="s">
-        <v>488</v>
+        <v>484</v>
       </c>
     </row>
     <row r="86" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A86" t="s">
-        <v>277</v>
+        <v>273</v>
       </c>
       <c r="B86" t="s">
         <v>16</v>
       </c>
       <c r="C86" t="s">
-        <v>467</v>
+        <v>463</v>
       </c>
       <c r="D86" t="s">
         <v>45</v>
@@ -4586,18 +4586,18 @@
         <v>6.4199999999999993E-2</v>
       </c>
       <c r="G86" s="1" t="s">
-        <v>468</v>
+        <v>464</v>
       </c>
     </row>
     <row r="87" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A87" t="s">
-        <v>278</v>
+        <v>274</v>
       </c>
       <c r="B87" t="s">
         <v>16</v>
       </c>
       <c r="C87" t="s">
-        <v>487</v>
+        <v>483</v>
       </c>
       <c r="D87" t="s">
         <v>40</v>
@@ -4610,21 +4610,21 @@
         <v>282</v>
       </c>
       <c r="G87" s="3" t="s">
-        <v>488</v>
+        <v>484</v>
       </c>
     </row>
     <row r="88" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A88" t="s">
-        <v>279</v>
+        <v>275</v>
       </c>
       <c r="B88" t="s">
         <v>16</v>
       </c>
       <c r="C88" t="s">
-        <v>489</v>
+        <v>485</v>
       </c>
       <c r="D88" t="s">
-        <v>490</v>
+        <v>486</v>
       </c>
       <c r="E88">
         <v>8.75</v>
@@ -4634,21 +4634,21 @@
         <v>525</v>
       </c>
       <c r="G88" s="3" t="s">
-        <v>491</v>
+        <v>487</v>
       </c>
     </row>
     <row r="89" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A89" t="s">
-        <v>280</v>
+        <v>276</v>
       </c>
       <c r="B89" t="s">
         <v>16</v>
       </c>
       <c r="C89" t="s">
-        <v>489</v>
+        <v>485</v>
       </c>
       <c r="D89" t="s">
-        <v>490</v>
+        <v>486</v>
       </c>
       <c r="E89">
         <v>21</v>
@@ -4658,21 +4658,21 @@
         <v>1260</v>
       </c>
       <c r="G89" s="3" t="s">
-        <v>491</v>
+        <v>487</v>
       </c>
     </row>
     <row r="90" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A90" t="s">
-        <v>281</v>
+        <v>277</v>
       </c>
       <c r="B90" t="s">
         <v>16</v>
       </c>
       <c r="C90" t="s">
-        <v>489</v>
+        <v>485</v>
       </c>
       <c r="D90" t="s">
-        <v>490</v>
+        <v>486</v>
       </c>
       <c r="E90">
         <v>9.3800000000000008</v>
@@ -4682,21 +4682,21 @@
         <v>562.80000000000007</v>
       </c>
       <c r="G90" s="3" t="s">
-        <v>491</v>
+        <v>487</v>
       </c>
     </row>
     <row r="91" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A91" t="s">
-        <v>282</v>
+        <v>278</v>
       </c>
       <c r="B91" t="s">
         <v>16</v>
       </c>
       <c r="C91" t="s">
-        <v>492</v>
+        <v>488</v>
       </c>
       <c r="D91" t="s">
-        <v>490</v>
+        <v>486</v>
       </c>
       <c r="E91">
         <v>0.114</v>
@@ -4706,18 +4706,18 @@
         <v>6.84</v>
       </c>
       <c r="G91" s="3" t="s">
-        <v>493</v>
+        <v>489</v>
       </c>
     </row>
     <row r="92" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A92" t="s">
-        <v>283</v>
+        <v>279</v>
       </c>
       <c r="B92" t="s">
         <v>16</v>
       </c>
       <c r="C92" t="s">
-        <v>494</v>
+        <v>490</v>
       </c>
       <c r="D92" t="s">
         <v>45</v>
@@ -4730,18 +4730,18 @@
         <v>58.8</v>
       </c>
       <c r="G92" s="1" t="s">
-        <v>495</v>
+        <v>491</v>
       </c>
     </row>
     <row r="93" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A93" t="s">
-        <v>284</v>
+        <v>280</v>
       </c>
       <c r="B93" t="s">
         <v>16</v>
       </c>
       <c r="C93" t="s">
-        <v>465</v>
+        <v>461</v>
       </c>
       <c r="D93" t="s">
         <v>40</v>
@@ -4754,18 +4754,18 @@
         <v>8220</v>
       </c>
       <c r="G93" s="3" t="s">
-        <v>466</v>
+        <v>462</v>
       </c>
     </row>
     <row r="94" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A94" t="s">
-        <v>285</v>
+        <v>281</v>
       </c>
       <c r="B94" t="s">
         <v>16</v>
       </c>
       <c r="C94" t="s">
-        <v>496</v>
+        <v>492</v>
       </c>
       <c r="D94" t="s">
         <v>40</v>
@@ -4778,21 +4778,21 @@
         <v>70800</v>
       </c>
       <c r="G94" s="3" t="s">
-        <v>497</v>
+        <v>493</v>
       </c>
     </row>
     <row r="95" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A95" t="s">
-        <v>286</v>
+        <v>282</v>
       </c>
       <c r="B95" t="s">
         <v>16</v>
       </c>
       <c r="C95" t="s">
-        <v>498</v>
+        <v>494</v>
       </c>
       <c r="D95" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="E95">
         <v>143</v>
@@ -4802,18 +4802,18 @@
         <v>8580</v>
       </c>
       <c r="G95" s="3" t="s">
-        <v>499</v>
+        <v>495</v>
       </c>
     </row>
     <row r="96" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A96" t="s">
-        <v>287</v>
+        <v>283</v>
       </c>
       <c r="B96" t="s">
         <v>16</v>
       </c>
       <c r="C96" t="s">
-        <v>500</v>
+        <v>496</v>
       </c>
       <c r="D96" t="s">
         <v>45</v>
@@ -4826,18 +4826,18 @@
         <v>102</v>
       </c>
       <c r="G96" s="3" t="s">
-        <v>501</v>
+        <v>497</v>
       </c>
     </row>
     <row r="97" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A97" t="s">
-        <v>288</v>
+        <v>284</v>
       </c>
       <c r="B97" t="s">
         <v>16</v>
       </c>
       <c r="C97" t="s">
-        <v>502</v>
+        <v>498</v>
       </c>
       <c r="D97" t="s">
         <v>45</v>
@@ -4850,18 +4850,18 @@
         <v>19.8</v>
       </c>
       <c r="G97" s="3" t="s">
-        <v>503</v>
+        <v>499</v>
       </c>
     </row>
     <row r="98" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A98" t="s">
-        <v>289</v>
+        <v>285</v>
       </c>
       <c r="B98" t="s">
         <v>16</v>
       </c>
       <c r="C98" t="s">
-        <v>504</v>
+        <v>500</v>
       </c>
       <c r="D98" t="s">
         <v>40</v>
@@ -4874,18 +4874,18 @@
         <v>2088</v>
       </c>
       <c r="G98" s="3" t="s">
-        <v>505</v>
+        <v>501</v>
       </c>
     </row>
     <row r="99" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A99" t="s">
-        <v>290</v>
+        <v>286</v>
       </c>
       <c r="B99" t="s">
         <v>16</v>
       </c>
       <c r="C99" t="s">
-        <v>506</v>
+        <v>502</v>
       </c>
       <c r="D99" t="s">
         <v>40</v>
@@ -4898,18 +4898,18 @@
         <v>1500</v>
       </c>
       <c r="G99" s="3" t="s">
-        <v>507</v>
+        <v>503</v>
       </c>
     </row>
     <row r="100" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A100" t="s">
-        <v>291</v>
+        <v>287</v>
       </c>
       <c r="B100" t="s">
         <v>16</v>
       </c>
       <c r="C100" t="s">
-        <v>508</v>
+        <v>504</v>
       </c>
       <c r="D100" t="s">
         <v>45</v>
@@ -4922,18 +4922,18 @@
         <v>894</v>
       </c>
       <c r="G100" s="3" t="s">
-        <v>509</v>
+        <v>505</v>
       </c>
     </row>
     <row r="101" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A101" t="s">
-        <v>292</v>
+        <v>288</v>
       </c>
       <c r="B101" t="s">
         <v>16</v>
       </c>
       <c r="C101" t="s">
-        <v>510</v>
+        <v>506</v>
       </c>
       <c r="D101" t="s">
         <v>40</v>
@@ -4946,18 +4946,18 @@
         <v>535.85619678334911</v>
       </c>
       <c r="G101" s="3" t="s">
-        <v>511</v>
+        <v>507</v>
       </c>
     </row>
     <row r="102" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A102" t="s">
-        <v>293</v>
+        <v>289</v>
       </c>
       <c r="B102" t="s">
         <v>16</v>
       </c>
       <c r="C102" t="s">
-        <v>512</v>
+        <v>508</v>
       </c>
       <c r="D102" t="s">
         <v>40</v>
@@ -4970,18 +4970,18 @@
         <v>156</v>
       </c>
       <c r="G102" s="3" t="s">
-        <v>513</v>
+        <v>509</v>
       </c>
     </row>
     <row r="103" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A103" t="s">
-        <v>294</v>
+        <v>290</v>
       </c>
       <c r="B103" t="s">
         <v>16</v>
       </c>
       <c r="C103" t="s">
-        <v>514</v>
+        <v>510</v>
       </c>
       <c r="D103" t="s">
         <v>45</v>
@@ -4994,21 +4994,21 @@
         <v>49.8</v>
       </c>
       <c r="G103" s="3" t="s">
-        <v>515</v>
+        <v>511</v>
       </c>
     </row>
     <row r="104" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A104" t="s">
-        <v>295</v>
+        <v>291</v>
       </c>
       <c r="B104" t="s">
         <v>16</v>
       </c>
       <c r="C104" t="s">
-        <v>516</v>
+        <v>512</v>
       </c>
       <c r="D104" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="E104">
         <v>684</v>
@@ -5018,18 +5018,18 @@
         <v>41040</v>
       </c>
       <c r="G104" s="3" t="s">
-        <v>517</v>
+        <v>513</v>
       </c>
     </row>
     <row r="105" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A105" t="s">
-        <v>296</v>
+        <v>292</v>
       </c>
       <c r="B105" t="s">
         <v>16</v>
       </c>
       <c r="C105" t="s">
-        <v>518</v>
+        <v>514</v>
       </c>
       <c r="D105" t="s">
         <v>45</v>
@@ -5042,18 +5042,18 @@
         <v>190.2</v>
       </c>
       <c r="G105" s="3" t="s">
-        <v>519</v>
+        <v>515</v>
       </c>
     </row>
     <row r="106" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A106" t="s">
-        <v>297</v>
+        <v>293</v>
       </c>
       <c r="B106" t="s">
         <v>16</v>
       </c>
       <c r="C106" t="s">
-        <v>520</v>
+        <v>516</v>
       </c>
       <c r="D106" t="s">
         <v>45</v>
@@ -5066,18 +5066,18 @@
         <v>2.1599999999999997</v>
       </c>
       <c r="G106" s="3" t="s">
-        <v>521</v>
+        <v>517</v>
       </c>
     </row>
     <row r="107" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A107" t="s">
-        <v>298</v>
+        <v>294</v>
       </c>
       <c r="B107" t="s">
         <v>16</v>
       </c>
       <c r="C107" t="s">
-        <v>522</v>
+        <v>518</v>
       </c>
       <c r="D107" t="s">
         <v>45</v>
@@ -5090,21 +5090,21 @@
         <v>1446</v>
       </c>
       <c r="G107" s="3" t="s">
-        <v>523</v>
+        <v>519</v>
       </c>
     </row>
     <row r="108" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A108" t="s">
-        <v>299</v>
+        <v>295</v>
       </c>
       <c r="B108" t="s">
         <v>16</v>
       </c>
       <c r="C108" t="s">
-        <v>524</v>
+        <v>520</v>
       </c>
       <c r="D108" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="E108">
         <v>2.5</v>
@@ -5114,21 +5114,21 @@
         <v>150</v>
       </c>
       <c r="G108" s="3" t="s">
-        <v>525</v>
+        <v>521</v>
       </c>
     </row>
     <row r="109" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A109" t="s">
-        <v>300</v>
+        <v>296</v>
       </c>
       <c r="B109" t="s">
         <v>16</v>
       </c>
       <c r="C109" t="s">
-        <v>489</v>
+        <v>485</v>
       </c>
       <c r="D109" t="s">
-        <v>526</v>
+        <v>522</v>
       </c>
       <c r="E109">
         <v>4.9000000000000004</v>
@@ -5138,18 +5138,18 @@
         <v>294</v>
       </c>
       <c r="G109" s="3" t="s">
-        <v>527</v>
+        <v>523</v>
       </c>
     </row>
     <row r="110" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A110" t="s">
-        <v>301</v>
+        <v>297</v>
       </c>
       <c r="B110" t="s">
         <v>16</v>
       </c>
       <c r="C110" t="s">
-        <v>442</v>
+        <v>438</v>
       </c>
       <c r="D110" t="s">
         <v>40</v>
@@ -5162,18 +5162,18 @@
         <v>105.6</v>
       </c>
       <c r="G110" s="3" t="s">
-        <v>443</v>
+        <v>439</v>
       </c>
     </row>
     <row r="111" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A111" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="B111" t="s">
         <v>16</v>
       </c>
       <c r="C111" t="s">
-        <v>528</v>
+        <v>524</v>
       </c>
       <c r="D111" t="s">
         <v>42</v>
@@ -5186,18 +5186,18 @@
         <v>74400</v>
       </c>
       <c r="G111" s="3" t="s">
-        <v>529</v>
+        <v>525</v>
       </c>
     </row>
     <row r="112" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A112" t="s">
-        <v>303</v>
+        <v>299</v>
       </c>
       <c r="B112" t="s">
         <v>16</v>
       </c>
       <c r="C112" t="s">
-        <v>450</v>
+        <v>446</v>
       </c>
       <c r="D112" t="s">
         <v>45</v>
@@ -5210,18 +5210,18 @@
         <v>8280</v>
       </c>
       <c r="G112" s="3" t="s">
-        <v>451</v>
+        <v>447</v>
       </c>
     </row>
     <row r="113" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A113" t="s">
-        <v>304</v>
+        <v>300</v>
       </c>
       <c r="B113" t="s">
         <v>16</v>
       </c>
       <c r="C113" t="s">
-        <v>442</v>
+        <v>438</v>
       </c>
       <c r="D113" t="s">
         <v>40</v>
@@ -5234,18 +5234,18 @@
         <v>105.6</v>
       </c>
       <c r="G113" s="3" t="s">
-        <v>443</v>
+        <v>439</v>
       </c>
     </row>
     <row r="114" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A114" t="s">
-        <v>305</v>
+        <v>301</v>
       </c>
       <c r="B114" t="s">
         <v>16</v>
       </c>
       <c r="C114" t="s">
-        <v>530</v>
+        <v>526</v>
       </c>
       <c r="D114" t="s">
         <v>45</v>
@@ -5258,18 +5258,18 @@
         <v>43.8</v>
       </c>
       <c r="G114" s="3" t="s">
-        <v>531</v>
+        <v>527</v>
       </c>
     </row>
     <row r="115" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A115" t="s">
-        <v>306</v>
+        <v>302</v>
       </c>
       <c r="B115" t="s">
         <v>16</v>
       </c>
       <c r="C115" t="s">
-        <v>477</v>
+        <v>473</v>
       </c>
       <c r="D115" t="s">
         <v>40</v>
@@ -5282,18 +5282,18 @@
         <v>330</v>
       </c>
       <c r="G115" s="3" t="s">
-        <v>478</v>
+        <v>474</v>
       </c>
     </row>
     <row r="116" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A116" t="s">
-        <v>307</v>
+        <v>303</v>
       </c>
       <c r="B116" t="s">
         <v>16</v>
       </c>
       <c r="C116" t="s">
-        <v>450</v>
+        <v>446</v>
       </c>
       <c r="D116" t="s">
         <v>45</v>
@@ -5306,18 +5306,18 @@
         <v>8280</v>
       </c>
       <c r="G116" s="3" t="s">
-        <v>451</v>
+        <v>447</v>
       </c>
     </row>
     <row r="117" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A117" t="s">
-        <v>308</v>
+        <v>304</v>
       </c>
       <c r="B117" t="s">
         <v>16</v>
       </c>
       <c r="C117" t="s">
-        <v>574</v>
+        <v>570</v>
       </c>
       <c r="D117" t="s">
         <v>42</v>
@@ -5330,18 +5330,18 @@
         <v>900</v>
       </c>
       <c r="G117" s="3" t="s">
-        <v>575</v>
+        <v>571</v>
       </c>
     </row>
     <row r="118" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A118" t="s">
-        <v>309</v>
+        <v>305</v>
       </c>
       <c r="B118" t="s">
         <v>16</v>
       </c>
       <c r="C118" t="s">
-        <v>576</v>
+        <v>572</v>
       </c>
       <c r="D118" t="s">
         <v>45</v>
@@ -5354,18 +5354,18 @@
         <v>2.3519999999999999</v>
       </c>
       <c r="G118" s="3" t="s">
-        <v>445</v>
+        <v>441</v>
       </c>
     </row>
     <row r="119" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A119" t="s">
-        <v>310</v>
+        <v>306</v>
       </c>
       <c r="B119" t="s">
         <v>16</v>
       </c>
       <c r="C119" t="s">
-        <v>534</v>
+        <v>530</v>
       </c>
       <c r="D119" t="s">
         <v>40</v>
@@ -5378,18 +5378,18 @@
         <v>234</v>
       </c>
       <c r="G119" s="3" t="s">
-        <v>535</v>
+        <v>531</v>
       </c>
     </row>
     <row r="120" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A120" t="s">
-        <v>311</v>
+        <v>307</v>
       </c>
       <c r="B120" t="s">
         <v>16</v>
       </c>
       <c r="C120" t="s">
-        <v>577</v>
+        <v>573</v>
       </c>
       <c r="D120" t="s">
         <v>40</v>
@@ -5402,21 +5402,21 @@
         <v>93480</v>
       </c>
       <c r="G120" s="3" t="s">
-        <v>578</v>
+        <v>574</v>
       </c>
     </row>
     <row r="121" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A121" t="s">
-        <v>312</v>
+        <v>308</v>
       </c>
       <c r="B121" t="s">
         <v>16</v>
       </c>
       <c r="C121" t="s">
-        <v>579</v>
+        <v>575</v>
       </c>
       <c r="D121" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
       <c r="E121">
         <v>166</v>
@@ -5426,21 +5426,21 @@
         <v>9960</v>
       </c>
       <c r="G121" s="3" t="s">
-        <v>580</v>
+        <v>576</v>
       </c>
     </row>
     <row r="122" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A122" t="s">
-        <v>313</v>
+        <v>309</v>
       </c>
       <c r="B122" t="s">
         <v>16</v>
       </c>
       <c r="C122" t="s">
-        <v>581</v>
+        <v>577</v>
       </c>
       <c r="D122" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
       <c r="E122">
         <v>0.88</v>
@@ -5450,18 +5450,18 @@
         <v>52.8</v>
       </c>
       <c r="G122" s="3" t="s">
-        <v>582</v>
+        <v>578</v>
       </c>
     </row>
     <row r="123" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A123" t="s">
-        <v>314</v>
+        <v>310</v>
       </c>
       <c r="B123" t="s">
         <v>16</v>
       </c>
       <c r="C123" t="s">
-        <v>442</v>
+        <v>438</v>
       </c>
       <c r="D123" t="s">
         <v>40</v>
@@ -5474,18 +5474,18 @@
         <v>105.6</v>
       </c>
       <c r="G123" s="3" t="s">
-        <v>443</v>
+        <v>439</v>
       </c>
     </row>
     <row r="124" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A124" t="s">
-        <v>315</v>
+        <v>311</v>
       </c>
       <c r="B124" t="s">
         <v>16</v>
       </c>
       <c r="C124" t="s">
-        <v>446</v>
+        <v>442</v>
       </c>
       <c r="D124" t="s">
         <v>40</v>
@@ -5498,18 +5498,18 @@
         <v>21001.199999999997</v>
       </c>
       <c r="G124" s="3" t="s">
-        <v>447</v>
+        <v>443</v>
       </c>
     </row>
     <row r="125" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A125" t="s">
-        <v>316</v>
+        <v>312</v>
       </c>
       <c r="B125" t="s">
         <v>16</v>
       </c>
       <c r="C125" t="s">
-        <v>473</v>
+        <v>469</v>
       </c>
       <c r="D125" t="s">
         <v>40</v>
@@ -5522,18 +5522,18 @@
         <v>2760</v>
       </c>
       <c r="G125" s="3" t="s">
-        <v>474</v>
+        <v>470</v>
       </c>
     </row>
     <row r="126" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A126" t="s">
-        <v>317</v>
+        <v>313</v>
       </c>
       <c r="B126" t="s">
         <v>16</v>
       </c>
       <c r="C126" t="s">
-        <v>434</v>
+        <v>430</v>
       </c>
       <c r="D126" t="s">
         <v>45</v>
@@ -5546,18 +5546,18 @@
         <v>4098</v>
       </c>
       <c r="G126" s="1" t="s">
-        <v>435</v>
+        <v>431</v>
       </c>
     </row>
     <row r="127" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A127" t="s">
-        <v>318</v>
+        <v>314</v>
       </c>
       <c r="B127" t="s">
         <v>16</v>
       </c>
       <c r="C127" t="s">
-        <v>427</v>
+        <v>423</v>
       </c>
       <c r="D127" t="s">
         <v>45</v>
@@ -5570,18 +5570,18 @@
         <v>184.14</v>
       </c>
       <c r="G127" s="3" t="s">
-        <v>428</v>
+        <v>424</v>
       </c>
     </row>
     <row r="128" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A128" t="s">
-        <v>319</v>
+        <v>315</v>
       </c>
       <c r="B128" t="s">
         <v>16</v>
       </c>
       <c r="C128" t="s">
-        <v>583</v>
+        <v>579</v>
       </c>
       <c r="D128" t="s">
         <v>42</v>
@@ -5594,21 +5594,21 @@
         <v>4140</v>
       </c>
       <c r="G128" s="3" t="s">
-        <v>584</v>
+        <v>580</v>
       </c>
     </row>
     <row r="129" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A129" t="s">
-        <v>320</v>
+        <v>316</v>
       </c>
       <c r="B129" t="s">
         <v>16</v>
       </c>
       <c r="C129" t="s">
-        <v>585</v>
+        <v>581</v>
       </c>
       <c r="D129" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="E129">
         <v>47</v>
@@ -5618,18 +5618,18 @@
         <v>2820</v>
       </c>
       <c r="G129" s="3" t="s">
-        <v>586</v>
+        <v>582</v>
       </c>
     </row>
     <row r="130" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A130" t="s">
-        <v>321</v>
+        <v>317</v>
       </c>
       <c r="B130" t="s">
         <v>16</v>
       </c>
       <c r="C130" t="s">
-        <v>587</v>
+        <v>583</v>
       </c>
       <c r="D130" t="s">
         <v>40</v>
@@ -5642,18 +5642,18 @@
         <v>2520</v>
       </c>
       <c r="G130" s="3" t="s">
-        <v>588</v>
+        <v>584</v>
       </c>
     </row>
     <row r="131" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A131" t="s">
-        <v>322</v>
+        <v>318</v>
       </c>
       <c r="B131" t="s">
         <v>16</v>
       </c>
       <c r="C131" t="s">
-        <v>589</v>
+        <v>585</v>
       </c>
       <c r="D131" t="s">
         <v>42</v>
@@ -5666,18 +5666,18 @@
         <v>0.89999999999999991</v>
       </c>
       <c r="G131" s="3" t="s">
-        <v>590</v>
+        <v>586</v>
       </c>
     </row>
     <row r="132" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A132" t="s">
-        <v>323</v>
+        <v>319</v>
       </c>
       <c r="B132" t="s">
         <v>16</v>
       </c>
       <c r="C132" t="s">
-        <v>589</v>
+        <v>585</v>
       </c>
       <c r="D132" t="s">
         <v>42</v>
@@ -5690,21 +5690,21 @@
         <v>0.89999999999999991</v>
       </c>
       <c r="G132" s="3" t="s">
-        <v>590</v>
+        <v>586</v>
       </c>
     </row>
     <row r="133" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A133" t="s">
-        <v>324</v>
+        <v>320</v>
       </c>
       <c r="B133" t="s">
         <v>16</v>
       </c>
       <c r="C133" t="s">
-        <v>591</v>
+        <v>587</v>
       </c>
       <c r="D133" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
       <c r="E133">
         <v>2750</v>
@@ -5714,21 +5714,21 @@
         <v>165000</v>
       </c>
       <c r="G133" s="3" t="s">
-        <v>592</v>
+        <v>588</v>
       </c>
     </row>
     <row r="134" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A134" t="s">
-        <v>325</v>
+        <v>321</v>
       </c>
       <c r="B134" t="s">
         <v>16</v>
       </c>
       <c r="C134" t="s">
-        <v>591</v>
+        <v>587</v>
       </c>
       <c r="D134" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
       <c r="E134">
         <v>2750</v>
@@ -5738,21 +5738,21 @@
         <v>165000</v>
       </c>
       <c r="G134" s="3" t="s">
-        <v>592</v>
+        <v>588</v>
       </c>
     </row>
     <row r="135" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A135" t="s">
-        <v>326</v>
+        <v>322</v>
       </c>
       <c r="B135" t="s">
         <v>16</v>
       </c>
       <c r="C135" t="s">
-        <v>591</v>
+        <v>587</v>
       </c>
       <c r="D135" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
       <c r="E135">
         <v>2750</v>
@@ -5762,21 +5762,21 @@
         <v>165000</v>
       </c>
       <c r="G135" s="3" t="s">
-        <v>592</v>
+        <v>588</v>
       </c>
     </row>
     <row r="136" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A136" t="s">
-        <v>327</v>
+        <v>323</v>
       </c>
       <c r="B136" t="s">
         <v>16</v>
       </c>
       <c r="C136" t="s">
-        <v>591</v>
+        <v>587</v>
       </c>
       <c r="D136" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
       <c r="E136">
         <v>2750</v>
@@ -5786,18 +5786,18 @@
         <v>165000</v>
       </c>
       <c r="G136" s="3" t="s">
-        <v>592</v>
+        <v>588</v>
       </c>
     </row>
     <row r="137" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A137" t="s">
-        <v>328</v>
+        <v>324</v>
       </c>
       <c r="B137" t="s">
         <v>16</v>
       </c>
       <c r="C137" t="s">
-        <v>593</v>
+        <v>589</v>
       </c>
       <c r="D137" t="s">
         <v>40</v>
@@ -5810,18 +5810,18 @@
         <v>228</v>
       </c>
       <c r="G137" s="3" t="s">
-        <v>594</v>
+        <v>590</v>
       </c>
     </row>
     <row r="138" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A138" t="s">
-        <v>329</v>
+        <v>325</v>
       </c>
       <c r="B138" t="s">
         <v>16</v>
       </c>
       <c r="C138" t="s">
-        <v>595</v>
+        <v>591</v>
       </c>
       <c r="D138" t="s">
         <v>40</v>
@@ -5834,18 +5834,18 @@
         <v>402</v>
       </c>
       <c r="G138" s="3" t="s">
-        <v>596</v>
+        <v>592</v>
       </c>
     </row>
     <row r="139" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A139" t="s">
-        <v>330</v>
+        <v>326</v>
       </c>
       <c r="B139" t="s">
         <v>16</v>
       </c>
       <c r="C139" t="s">
-        <v>597</v>
+        <v>593</v>
       </c>
       <c r="D139" t="s">
         <v>45</v>
@@ -5858,21 +5858,21 @@
         <v>5.46</v>
       </c>
       <c r="G139" s="3" t="s">
-        <v>598</v>
+        <v>594</v>
       </c>
     </row>
     <row r="140" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A140" t="s">
-        <v>331</v>
+        <v>327</v>
       </c>
       <c r="B140" t="s">
         <v>16</v>
       </c>
       <c r="C140" t="s">
-        <v>599</v>
+        <v>595</v>
       </c>
       <c r="D140" t="s">
-        <v>600</v>
+        <v>596</v>
       </c>
       <c r="E140">
         <v>1.7000000000000001E-2</v>
@@ -5882,21 +5882,21 @@
         <v>1.02</v>
       </c>
       <c r="G140" s="3" t="s">
-        <v>601</v>
+        <v>597</v>
       </c>
     </row>
     <row r="141" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A141" t="s">
-        <v>332</v>
+        <v>328</v>
       </c>
       <c r="B141" t="s">
         <v>16</v>
       </c>
       <c r="C141" t="s">
-        <v>602</v>
+        <v>598</v>
       </c>
       <c r="D141" t="s">
-        <v>600</v>
+        <v>596</v>
       </c>
       <c r="E141">
         <v>27</v>
@@ -5906,18 +5906,18 @@
         <v>1620</v>
       </c>
       <c r="G141" s="3" t="s">
-        <v>603</v>
+        <v>599</v>
       </c>
     </row>
     <row r="142" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A142" t="s">
-        <v>333</v>
+        <v>329</v>
       </c>
       <c r="B142" t="s">
         <v>16</v>
       </c>
       <c r="C142" t="s">
-        <v>604</v>
+        <v>600</v>
       </c>
       <c r="D142" t="s">
         <v>45</v>
@@ -5930,18 +5930,18 @@
         <v>119160</v>
       </c>
       <c r="G142" s="3" t="s">
-        <v>605</v>
+        <v>601</v>
       </c>
     </row>
     <row r="143" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A143" t="s">
-        <v>334</v>
+        <v>330</v>
       </c>
       <c r="B143" t="s">
         <v>16</v>
       </c>
       <c r="C143" t="s">
-        <v>606</v>
+        <v>602</v>
       </c>
       <c r="D143" t="s">
         <v>45</v>
@@ -5954,18 +5954,18 @@
         <v>22800</v>
       </c>
       <c r="G143" s="3" t="s">
-        <v>607</v>
+        <v>603</v>
       </c>
     </row>
     <row r="144" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A144" t="s">
-        <v>335</v>
+        <v>331</v>
       </c>
       <c r="B144" t="s">
         <v>16</v>
       </c>
       <c r="C144" t="s">
-        <v>421</v>
+        <v>417</v>
       </c>
       <c r="D144" t="s">
         <v>45</v>
@@ -5978,18 +5978,18 @@
         <v>13260</v>
       </c>
       <c r="G144" s="3" t="s">
-        <v>422</v>
+        <v>418</v>
       </c>
     </row>
     <row r="145" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A145" t="s">
-        <v>336</v>
+        <v>332</v>
       </c>
       <c r="B145" t="s">
         <v>16</v>
       </c>
       <c r="C145" t="s">
-        <v>608</v>
+        <v>604</v>
       </c>
       <c r="D145" t="s">
         <v>42</v>
@@ -6002,18 +6002,18 @@
         <v>8400</v>
       </c>
       <c r="G145" s="1" t="s">
-        <v>609</v>
+        <v>605</v>
       </c>
     </row>
     <row r="146" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A146" t="s">
-        <v>337</v>
+        <v>333</v>
       </c>
       <c r="B146" t="s">
         <v>16</v>
       </c>
       <c r="C146" t="s">
-        <v>610</v>
+        <v>606</v>
       </c>
       <c r="D146" t="s">
         <v>42</v>
@@ -6026,18 +6026,18 @@
         <v>7.8000000000000007</v>
       </c>
       <c r="G146" s="3" t="s">
-        <v>611</v>
+        <v>607</v>
       </c>
     </row>
     <row r="147" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A147" t="s">
-        <v>338</v>
+        <v>334</v>
       </c>
       <c r="B147" t="s">
         <v>16</v>
       </c>
       <c r="C147" t="s">
-        <v>429</v>
+        <v>425</v>
       </c>
       <c r="D147" t="s">
         <v>45</v>
@@ -6050,18 +6050,18 @@
         <v>124.80000000000001</v>
       </c>
       <c r="G147" s="3" t="s">
-        <v>430</v>
+        <v>426</v>
       </c>
     </row>
     <row r="148" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A148" t="s">
-        <v>339</v>
+        <v>335</v>
       </c>
       <c r="B148" t="s">
         <v>16</v>
       </c>
       <c r="C148" t="s">
-        <v>427</v>
+        <v>423</v>
       </c>
       <c r="D148" t="s">
         <v>45</v>
@@ -6074,21 +6074,21 @@
         <v>184.14</v>
       </c>
       <c r="G148" s="3" t="s">
-        <v>428</v>
+        <v>424</v>
       </c>
     </row>
     <row r="149" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A149" t="s">
-        <v>340</v>
+        <v>336</v>
       </c>
       <c r="B149" t="s">
         <v>16</v>
       </c>
       <c r="C149" t="s">
-        <v>614</v>
+        <v>610</v>
       </c>
       <c r="D149" t="s">
-        <v>615</v>
+        <v>611</v>
       </c>
       <c r="E149">
         <v>1.6999999999999999E-3</v>
@@ -6098,18 +6098,18 @@
         <v>0.10199999999999999</v>
       </c>
       <c r="G149" s="3" t="s">
-        <v>616</v>
+        <v>612</v>
       </c>
     </row>
     <row r="150" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A150" t="s">
-        <v>341</v>
+        <v>337</v>
       </c>
       <c r="B150" t="s">
         <v>16</v>
       </c>
       <c r="C150" t="s">
-        <v>617</v>
+        <v>613</v>
       </c>
       <c r="D150" t="s">
         <v>40</v>
@@ -6122,21 +6122,21 @@
         <v>1746</v>
       </c>
       <c r="G150" s="3" t="s">
-        <v>618</v>
+        <v>614</v>
       </c>
     </row>
     <row r="151" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A151" t="s">
-        <v>342</v>
+        <v>338</v>
       </c>
       <c r="B151" t="s">
         <v>16</v>
       </c>
       <c r="C151" t="s">
-        <v>619</v>
+        <v>615</v>
       </c>
       <c r="D151" t="s">
-        <v>620</v>
+        <v>616</v>
       </c>
       <c r="E151">
         <v>509</v>
@@ -6146,18 +6146,18 @@
         <v>30540</v>
       </c>
       <c r="G151" s="3" t="s">
-        <v>621</v>
+        <v>617</v>
       </c>
     </row>
     <row r="152" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A152" t="s">
-        <v>343</v>
+        <v>339</v>
       </c>
       <c r="B152" t="s">
         <v>16</v>
       </c>
       <c r="C152" t="s">
-        <v>622</v>
+        <v>618</v>
       </c>
       <c r="D152" t="s">
         <v>45</v>
@@ -6170,18 +6170,18 @@
         <v>34.199999999999996</v>
       </c>
       <c r="G152" s="3" t="s">
-        <v>623</v>
+        <v>619</v>
       </c>
     </row>
     <row r="153" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A153" t="s">
-        <v>344</v>
+        <v>340</v>
       </c>
       <c r="B153" t="s">
         <v>16</v>
       </c>
       <c r="C153" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="D153" t="s">
         <v>45</v>
@@ -6194,18 +6194,18 @@
         <v>2316</v>
       </c>
       <c r="G153" s="3" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
     </row>
     <row r="154" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A154" t="s">
-        <v>345</v>
+        <v>341</v>
       </c>
       <c r="B154" t="s">
         <v>16</v>
       </c>
       <c r="C154" t="s">
-        <v>612</v>
+        <v>608</v>
       </c>
       <c r="D154" t="s">
         <v>45</v>
@@ -6218,18 +6218,18 @@
         <v>2916</v>
       </c>
       <c r="G154" s="3" t="s">
-        <v>613</v>
+        <v>609</v>
       </c>
     </row>
     <row r="155" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A155" t="s">
-        <v>346</v>
+        <v>342</v>
       </c>
       <c r="B155" t="s">
         <v>16</v>
       </c>
       <c r="C155" t="s">
-        <v>473</v>
+        <v>469</v>
       </c>
       <c r="D155" t="s">
         <v>40</v>
@@ -6242,21 +6242,21 @@
         <v>2760</v>
       </c>
       <c r="G155" s="3" t="s">
-        <v>474</v>
+        <v>470</v>
       </c>
     </row>
     <row r="156" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A156" t="s">
-        <v>347</v>
+        <v>343</v>
       </c>
       <c r="B156" t="s">
         <v>16</v>
       </c>
       <c r="C156" t="s">
-        <v>548</v>
+        <v>544</v>
       </c>
       <c r="D156" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
       <c r="E156">
         <v>26.8</v>
@@ -6266,18 +6266,18 @@
         <v>1608</v>
       </c>
       <c r="G156" s="3" t="s">
-        <v>549</v>
+        <v>545</v>
       </c>
     </row>
     <row r="157" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A157" t="s">
-        <v>348</v>
+        <v>344</v>
       </c>
       <c r="B157" t="s">
         <v>16</v>
       </c>
       <c r="C157" t="s">
-        <v>626</v>
+        <v>622</v>
       </c>
       <c r="D157" t="s">
         <v>45</v>
@@ -6290,18 +6290,18 @@
         <v>1260</v>
       </c>
       <c r="G157" s="3" t="s">
-        <v>627</v>
+        <v>623</v>
       </c>
     </row>
     <row r="158" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A158" t="s">
-        <v>349</v>
+        <v>345</v>
       </c>
       <c r="B158" t="s">
         <v>16</v>
       </c>
       <c r="C158" t="s">
-        <v>624</v>
+        <v>620</v>
       </c>
       <c r="D158" t="s">
         <v>40</v>
@@ -6314,18 +6314,18 @@
         <v>94200</v>
       </c>
       <c r="G158" s="3" t="s">
-        <v>625</v>
+        <v>621</v>
       </c>
     </row>
     <row r="159" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A159" t="s">
-        <v>350</v>
+        <v>346</v>
       </c>
       <c r="B159" t="s">
         <v>16</v>
       </c>
       <c r="C159" t="s">
-        <v>477</v>
+        <v>473</v>
       </c>
       <c r="D159" t="s">
         <v>40</v>
@@ -6338,18 +6338,18 @@
         <v>330</v>
       </c>
       <c r="G159" s="3" t="s">
-        <v>478</v>
+        <v>474</v>
       </c>
     </row>
     <row r="160" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A160" t="s">
-        <v>351</v>
+        <v>347</v>
       </c>
       <c r="B160" t="s">
         <v>16</v>
       </c>
       <c r="C160" t="s">
-        <v>628</v>
+        <v>624</v>
       </c>
       <c r="D160" t="s">
         <v>40</v>
@@ -6362,21 +6362,21 @@
         <v>198</v>
       </c>
       <c r="G160" s="3" t="s">
-        <v>629</v>
+        <v>625</v>
       </c>
     </row>
     <row r="161" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A161" t="s">
-        <v>352</v>
+        <v>348</v>
       </c>
       <c r="B161" t="s">
         <v>16</v>
       </c>
       <c r="C161" t="s">
-        <v>544</v>
+        <v>540</v>
       </c>
       <c r="D161" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="E161">
         <v>19.899999999999999</v>
@@ -6386,18 +6386,18 @@
         <v>1194</v>
       </c>
       <c r="G161" s="3" t="s">
-        <v>545</v>
+        <v>541</v>
       </c>
     </row>
     <row r="162" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A162" t="s">
-        <v>353</v>
+        <v>349</v>
       </c>
       <c r="B162" t="s">
         <v>16</v>
       </c>
       <c r="C162" t="s">
-        <v>630</v>
+        <v>626</v>
       </c>
       <c r="D162" t="s">
         <v>42</v>
@@ -6410,18 +6410,18 @@
         <v>1392</v>
       </c>
       <c r="G162" s="3" t="s">
-        <v>631</v>
+        <v>627</v>
       </c>
     </row>
     <row r="163" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A163" t="s">
-        <v>354</v>
+        <v>350</v>
       </c>
       <c r="B163" t="s">
         <v>16</v>
       </c>
       <c r="C163" t="s">
-        <v>630</v>
+        <v>626</v>
       </c>
       <c r="D163" t="s">
         <v>42</v>
@@ -6434,18 +6434,18 @@
         <v>1392</v>
       </c>
       <c r="G163" s="3" t="s">
-        <v>631</v>
+        <v>627</v>
       </c>
     </row>
     <row r="164" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A164" t="s">
-        <v>355</v>
+        <v>351</v>
       </c>
       <c r="B164" t="s">
         <v>16</v>
       </c>
       <c r="C164" t="s">
-        <v>632</v>
+        <v>628</v>
       </c>
       <c r="D164" t="s">
         <v>40</v>
@@ -6458,21 +6458,21 @@
         <v>252</v>
       </c>
       <c r="G164" s="3" t="s">
-        <v>633</v>
+        <v>629</v>
       </c>
     </row>
     <row r="165" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A165" t="s">
-        <v>356</v>
+        <v>352</v>
       </c>
       <c r="B165" t="s">
         <v>16</v>
       </c>
       <c r="C165" t="s">
-        <v>634</v>
+        <v>630</v>
       </c>
       <c r="D165" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="E165">
         <v>1.82</v>
@@ -6482,21 +6482,21 @@
         <v>109.2</v>
       </c>
       <c r="G165" s="3" t="s">
-        <v>635</v>
+        <v>631</v>
       </c>
     </row>
     <row r="166" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A166" t="s">
-        <v>357</v>
+        <v>353</v>
       </c>
       <c r="B166" t="s">
         <v>16</v>
       </c>
       <c r="C166" t="s">
-        <v>636</v>
+        <v>632</v>
       </c>
       <c r="D166" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="E166">
         <v>0.16</v>
@@ -6506,21 +6506,21 @@
         <v>9.6</v>
       </c>
       <c r="G166" s="3" t="s">
-        <v>637</v>
+        <v>633</v>
       </c>
     </row>
     <row r="167" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A167" t="s">
-        <v>358</v>
+        <v>354</v>
       </c>
       <c r="B167" t="s">
         <v>16</v>
       </c>
       <c r="C167" t="s">
-        <v>638</v>
+        <v>634</v>
       </c>
       <c r="D167" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="E167">
         <v>0.43</v>
@@ -6530,18 +6530,18 @@
         <v>25.8</v>
       </c>
       <c r="G167" s="3" t="s">
-        <v>639</v>
+        <v>635</v>
       </c>
     </row>
     <row r="168" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A168" t="s">
-        <v>359</v>
+        <v>355</v>
       </c>
       <c r="B168" t="s">
         <v>16</v>
       </c>
       <c r="C168" t="s">
-        <v>640</v>
+        <v>636</v>
       </c>
       <c r="D168" t="s">
         <v>40</v>
@@ -6554,21 +6554,21 @@
         <v>1398</v>
       </c>
       <c r="G168" s="3" t="s">
-        <v>641</v>
+        <v>637</v>
       </c>
     </row>
     <row r="169" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A169" t="s">
-        <v>360</v>
+        <v>356</v>
       </c>
       <c r="B169" t="s">
         <v>16</v>
       </c>
       <c r="C169" t="s">
-        <v>642</v>
+        <v>638</v>
       </c>
       <c r="D169" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="E169">
         <v>2.36</v>
@@ -6578,18 +6578,18 @@
         <v>141.6</v>
       </c>
       <c r="G169" s="3" t="s">
-        <v>643</v>
+        <v>639</v>
       </c>
     </row>
     <row r="170" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A170" t="s">
-        <v>361</v>
+        <v>357</v>
       </c>
       <c r="B170" t="s">
         <v>16</v>
       </c>
       <c r="C170" t="s">
-        <v>640</v>
+        <v>636</v>
       </c>
       <c r="D170" t="s">
         <v>40</v>
@@ -6602,18 +6602,18 @@
         <v>1398</v>
       </c>
       <c r="G170" s="3" t="s">
-        <v>641</v>
+        <v>637</v>
       </c>
     </row>
     <row r="171" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A171" t="s">
-        <v>362</v>
+        <v>358</v>
       </c>
       <c r="B171" t="s">
         <v>16</v>
       </c>
       <c r="C171" t="s">
-        <v>644</v>
+        <v>640</v>
       </c>
       <c r="D171" t="s">
         <v>40</v>
@@ -6626,18 +6626,18 @@
         <v>224.4</v>
       </c>
       <c r="G171" s="3" t="s">
-        <v>645</v>
+        <v>641</v>
       </c>
     </row>
     <row r="172" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A172" t="s">
-        <v>363</v>
+        <v>359</v>
       </c>
       <c r="B172" t="s">
         <v>16</v>
       </c>
       <c r="C172" t="s">
-        <v>646</v>
+        <v>642</v>
       </c>
       <c r="D172" t="s">
         <v>40</v>
@@ -6650,18 +6650,18 @@
         <v>177.35999999999999</v>
       </c>
       <c r="G172" s="3" t="s">
-        <v>647</v>
+        <v>643</v>
       </c>
     </row>
     <row r="173" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A173" t="s">
-        <v>364</v>
+        <v>360</v>
       </c>
       <c r="B173" t="s">
         <v>16</v>
       </c>
       <c r="C173" t="s">
-        <v>434</v>
+        <v>430</v>
       </c>
       <c r="D173" t="s">
         <v>45</v>
@@ -6674,18 +6674,18 @@
         <v>4098</v>
       </c>
       <c r="G173" s="1" t="s">
-        <v>435</v>
+        <v>431</v>
       </c>
     </row>
     <row r="174" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A174" t="s">
-        <v>365</v>
+        <v>361</v>
       </c>
       <c r="B174" t="s">
         <v>16</v>
       </c>
       <c r="C174" t="s">
-        <v>450</v>
+        <v>446</v>
       </c>
       <c r="D174" t="s">
         <v>45</v>
@@ -6698,18 +6698,18 @@
         <v>8280</v>
       </c>
       <c r="G174" s="3" t="s">
-        <v>451</v>
+        <v>447</v>
       </c>
     </row>
     <row r="175" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A175" t="s">
-        <v>366</v>
+        <v>362</v>
       </c>
       <c r="B175" t="s">
         <v>16</v>
       </c>
       <c r="C175" t="s">
-        <v>473</v>
+        <v>469</v>
       </c>
       <c r="D175" t="s">
         <v>40</v>
@@ -6722,21 +6722,21 @@
         <v>2760</v>
       </c>
       <c r="G175" s="3" t="s">
-        <v>474</v>
+        <v>470</v>
       </c>
     </row>
     <row r="176" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A176" t="s">
-        <v>367</v>
+        <v>363</v>
       </c>
       <c r="B176" t="s">
         <v>16</v>
       </c>
       <c r="C176" t="s">
-        <v>648</v>
+        <v>644</v>
       </c>
       <c r="D176" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="E176">
         <v>24</v>
@@ -6746,18 +6746,18 @@
         <v>1440</v>
       </c>
       <c r="G176" s="3" t="s">
-        <v>649</v>
+        <v>645</v>
       </c>
     </row>
     <row r="177" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A177" t="s">
-        <v>368</v>
+        <v>364</v>
       </c>
       <c r="B177" t="s">
         <v>16</v>
       </c>
       <c r="C177" t="s">
-        <v>477</v>
+        <v>473</v>
       </c>
       <c r="D177" t="s">
         <v>40</v>
@@ -6770,21 +6770,21 @@
         <v>330</v>
       </c>
       <c r="G177" s="3" t="s">
-        <v>478</v>
+        <v>474</v>
       </c>
     </row>
     <row r="178" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A178" t="s">
-        <v>369</v>
+        <v>365</v>
       </c>
       <c r="B178" t="s">
         <v>16</v>
       </c>
       <c r="C178" t="s">
-        <v>651</v>
+        <v>647</v>
       </c>
       <c r="D178" t="s">
-        <v>650</v>
+        <v>646</v>
       </c>
       <c r="E178">
         <v>0.7</v>
@@ -6794,18 +6794,18 @@
         <v>42</v>
       </c>
       <c r="G178" s="3" t="s">
-        <v>652</v>
+        <v>648</v>
       </c>
     </row>
     <row r="179" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A179" t="s">
-        <v>370</v>
+        <v>366</v>
       </c>
       <c r="B179" t="s">
         <v>16</v>
       </c>
       <c r="C179" t="s">
-        <v>450</v>
+        <v>446</v>
       </c>
       <c r="D179" t="s">
         <v>45</v>
@@ -6818,18 +6818,18 @@
         <v>8280</v>
       </c>
       <c r="G179" s="3" t="s">
-        <v>451</v>
+        <v>447</v>
       </c>
     </row>
     <row r="180" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A180" t="s">
-        <v>371</v>
+        <v>367</v>
       </c>
       <c r="B180" t="s">
         <v>16</v>
       </c>
       <c r="C180" t="s">
-        <v>653</v>
+        <v>649</v>
       </c>
       <c r="D180" t="s">
         <v>40</v>
@@ -6842,21 +6842,21 @@
         <v>12960</v>
       </c>
       <c r="G180" s="3" t="s">
-        <v>654</v>
+        <v>650</v>
       </c>
     </row>
     <row r="181" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A181" t="s">
-        <v>372</v>
+        <v>368</v>
       </c>
       <c r="B181" t="s">
         <v>16</v>
       </c>
       <c r="C181" t="s">
-        <v>655</v>
+        <v>651</v>
       </c>
       <c r="D181" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="E181">
         <v>7.25</v>
@@ -6866,18 +6866,18 @@
         <v>435</v>
       </c>
       <c r="G181" s="3" t="s">
-        <v>656</v>
+        <v>652</v>
       </c>
     </row>
     <row r="182" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A182" t="s">
-        <v>373</v>
+        <v>369</v>
       </c>
       <c r="B182" t="s">
         <v>16</v>
       </c>
       <c r="C182" t="s">
-        <v>657</v>
+        <v>653</v>
       </c>
       <c r="D182" t="s">
         <v>45</v>
@@ -6890,18 +6890,18 @@
         <v>624</v>
       </c>
       <c r="G182" s="1" t="s">
-        <v>658</v>
+        <v>654</v>
       </c>
     </row>
     <row r="183" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A183" t="s">
-        <v>374</v>
+        <v>370</v>
       </c>
       <c r="B183" t="s">
         <v>16</v>
       </c>
       <c r="C183" t="s">
-        <v>463</v>
+        <v>459</v>
       </c>
       <c r="D183" t="s">
         <v>45</v>
@@ -6914,18 +6914,18 @@
         <v>3060</v>
       </c>
       <c r="G183" s="3" t="s">
-        <v>464</v>
+        <v>460</v>
       </c>
     </row>
     <row r="184" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A184" t="s">
-        <v>375</v>
+        <v>371</v>
       </c>
       <c r="B184" t="s">
         <v>16</v>
       </c>
       <c r="C184" t="s">
-        <v>427</v>
+        <v>423</v>
       </c>
       <c r="D184" t="s">
         <v>45</v>
@@ -6938,18 +6938,18 @@
         <v>184.14</v>
       </c>
       <c r="G184" s="3" t="s">
-        <v>428</v>
+        <v>424</v>
       </c>
     </row>
     <row r="185" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A185" t="s">
-        <v>376</v>
+        <v>372</v>
       </c>
       <c r="B185" t="s">
         <v>16</v>
       </c>
       <c r="C185" t="s">
-        <v>442</v>
+        <v>438</v>
       </c>
       <c r="D185" t="s">
         <v>40</v>
@@ -6962,18 +6962,18 @@
         <v>105.6</v>
       </c>
       <c r="G185" s="3" t="s">
-        <v>443</v>
+        <v>439</v>
       </c>
     </row>
     <row r="186" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A186" t="s">
-        <v>377</v>
+        <v>373</v>
       </c>
       <c r="B186" t="s">
         <v>16</v>
       </c>
       <c r="C186" t="s">
-        <v>659</v>
+        <v>655</v>
       </c>
       <c r="D186" t="s">
         <v>45</v>
@@ -6986,18 +6986,18 @@
         <v>60</v>
       </c>
       <c r="G186" s="3" t="s">
-        <v>660</v>
+        <v>656</v>
       </c>
     </row>
     <row r="187" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A187" t="s">
-        <v>378</v>
+        <v>374</v>
       </c>
       <c r="B187" t="s">
         <v>16</v>
       </c>
       <c r="C187" t="s">
-        <v>530</v>
+        <v>526</v>
       </c>
       <c r="D187" t="s">
         <v>45</v>
@@ -7010,21 +7010,21 @@
         <v>43.8</v>
       </c>
       <c r="G187" s="3" t="s">
-        <v>531</v>
+        <v>527</v>
       </c>
     </row>
     <row r="188" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A188" t="s">
-        <v>379</v>
+        <v>375</v>
       </c>
       <c r="B188" t="s">
         <v>16</v>
       </c>
       <c r="C188" t="s">
-        <v>661</v>
+        <v>657</v>
       </c>
       <c r="D188" t="s">
-        <v>662</v>
+        <v>658</v>
       </c>
       <c r="E188">
         <v>3.8</v>
@@ -7034,18 +7034,18 @@
         <v>228</v>
       </c>
       <c r="G188" s="3" t="s">
-        <v>663</v>
+        <v>659</v>
       </c>
     </row>
     <row r="189" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A189" t="s">
-        <v>380</v>
+        <v>376</v>
       </c>
       <c r="B189" t="s">
         <v>16</v>
       </c>
       <c r="C189" t="s">
-        <v>429</v>
+        <v>425</v>
       </c>
       <c r="D189" t="s">
         <v>45</v>
@@ -7058,18 +7058,18 @@
         <v>124.80000000000001</v>
       </c>
       <c r="G189" s="3" t="s">
-        <v>430</v>
+        <v>426</v>
       </c>
     </row>
     <row r="190" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A190" t="s">
-        <v>381</v>
+        <v>377</v>
       </c>
       <c r="B190" t="s">
         <v>16</v>
       </c>
       <c r="C190" t="s">
-        <v>664</v>
+        <v>660</v>
       </c>
       <c r="D190" t="s">
         <v>42</v>
@@ -7082,18 +7082,18 @@
         <v>23.700000000000003</v>
       </c>
       <c r="G190" s="3" t="s">
-        <v>665</v>
+        <v>661</v>
       </c>
     </row>
     <row r="191" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A191" t="s">
-        <v>382</v>
+        <v>378</v>
       </c>
       <c r="B191" t="s">
         <v>16</v>
       </c>
       <c r="C191" t="s">
-        <v>617</v>
+        <v>613</v>
       </c>
       <c r="D191" t="s">
         <v>40</v>
@@ -7106,21 +7106,21 @@
         <v>1746</v>
       </c>
       <c r="G191" s="3" t="s">
-        <v>618</v>
+        <v>614</v>
       </c>
     </row>
     <row r="192" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A192" t="s">
-        <v>680</v>
+        <v>676</v>
       </c>
       <c r="B192" t="s">
         <v>16</v>
       </c>
       <c r="C192" t="s">
-        <v>686</v>
+        <v>682</v>
       </c>
       <c r="D192" t="s">
-        <v>687</v>
+        <v>683</v>
       </c>
       <c r="E192">
         <v>0.68</v>
@@ -7130,21 +7130,21 @@
         <v>40.800000000000004</v>
       </c>
       <c r="G192" s="3" t="s">
-        <v>688</v>
+        <v>684</v>
       </c>
     </row>
     <row r="193" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A193" t="s">
-        <v>681</v>
+        <v>677</v>
       </c>
       <c r="B193" t="s">
         <v>16</v>
       </c>
       <c r="C193" t="s">
-        <v>689</v>
+        <v>685</v>
       </c>
       <c r="D193" t="s">
-        <v>690</v>
+        <v>686</v>
       </c>
       <c r="E193">
         <v>2.66</v>
@@ -7154,21 +7154,21 @@
         <v>159.60000000000002</v>
       </c>
       <c r="G193" s="3" t="s">
-        <v>691</v>
+        <v>687</v>
       </c>
     </row>
     <row r="194" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A194" t="s">
-        <v>682</v>
+        <v>678</v>
       </c>
       <c r="B194" t="s">
         <v>16</v>
       </c>
       <c r="C194" t="s">
-        <v>692</v>
+        <v>688</v>
       </c>
       <c r="D194" t="s">
-        <v>693</v>
+        <v>689</v>
       </c>
       <c r="E194">
         <v>0.05</v>
@@ -7178,21 +7178,21 @@
         <v>3</v>
       </c>
       <c r="G194" s="3" t="s">
-        <v>694</v>
+        <v>690</v>
       </c>
     </row>
     <row r="195" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A195" t="s">
-        <v>683</v>
+        <v>679</v>
       </c>
       <c r="B195" t="s">
         <v>16</v>
       </c>
       <c r="C195" t="s">
-        <v>695</v>
+        <v>691</v>
       </c>
       <c r="D195" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
       <c r="E195">
         <v>0.69</v>
@@ -7202,7 +7202,7 @@
         <v>41.4</v>
       </c>
       <c r="G195" s="3" t="s">
-        <v>696</v>
+        <v>692</v>
       </c>
     </row>
     <row r="196" spans="1:7" x14ac:dyDescent="0.35">
@@ -7213,7 +7213,7 @@
         <v>38</v>
       </c>
       <c r="C196" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D196" t="s">
         <v>45</v>
@@ -7226,7 +7226,7 @@
         <v>660</v>
       </c>
       <c r="G196" s="3" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="197" spans="1:7" x14ac:dyDescent="0.35">
@@ -7237,20 +7237,20 @@
         <v>38</v>
       </c>
       <c r="C197" t="s">
-        <v>89</v>
+        <v>709</v>
       </c>
       <c r="D197" t="s">
-        <v>88</v>
+        <v>108</v>
       </c>
       <c r="E197">
-        <v>0.127</v>
+        <v>213</v>
       </c>
       <c r="F197">
         <f t="shared" si="0"/>
-        <v>7.62</v>
+        <v>12780</v>
       </c>
       <c r="G197" s="3" t="s">
-        <v>90</v>
+        <v>710</v>
       </c>
     </row>
     <row r="198" spans="1:7" x14ac:dyDescent="0.35">
@@ -7261,10 +7261,10 @@
         <v>38</v>
       </c>
       <c r="C198" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="D198" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="E198">
         <v>6.13</v>
@@ -7274,7 +7274,7 @@
         <v>367.8</v>
       </c>
       <c r="G198" s="3" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
     </row>
     <row r="199" spans="1:7" x14ac:dyDescent="0.35">
@@ -7285,7 +7285,7 @@
         <v>38</v>
       </c>
       <c r="C199" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="D199" t="s">
         <v>45</v>
@@ -7298,7 +7298,7 @@
         <v>1860</v>
       </c>
       <c r="G199" s="3" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
     </row>
     <row r="200" spans="1:7" x14ac:dyDescent="0.35">
@@ -7309,10 +7309,10 @@
         <v>38</v>
       </c>
       <c r="C200" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="D200" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="E200">
         <v>252</v>
@@ -7322,7 +7322,7 @@
         <v>15120</v>
       </c>
       <c r="G200" s="3" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
     </row>
     <row r="201" spans="1:7" x14ac:dyDescent="0.35">
@@ -7333,10 +7333,10 @@
         <v>38</v>
       </c>
       <c r="C201" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="D201" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="E201">
         <v>22.1</v>
@@ -7346,7 +7346,7 @@
         <v>1326</v>
       </c>
       <c r="G201" s="3" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
     </row>
     <row r="202" spans="1:7" x14ac:dyDescent="0.35">
@@ -7357,20 +7357,20 @@
         <v>38</v>
       </c>
       <c r="C202" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="D202" t="s">
         <v>40</v>
       </c>
       <c r="E202">
-        <v>3.9E-2</v>
+        <v>56</v>
       </c>
       <c r="F202">
         <f t="shared" si="0"/>
-        <v>2.34</v>
-      </c>
-      <c r="G202" s="3" t="s">
-        <v>103</v>
+        <v>3360</v>
+      </c>
+      <c r="G202" s="1" t="s">
+        <v>708</v>
       </c>
     </row>
     <row r="203" spans="1:7" x14ac:dyDescent="0.35">
@@ -7381,7 +7381,7 @@
         <v>38</v>
       </c>
       <c r="C203" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="D203" t="s">
         <v>45</v>
@@ -7394,18 +7394,18 @@
         <v>27000</v>
       </c>
       <c r="G203" s="3" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
     </row>
     <row r="204" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A204" t="s">
-        <v>698</v>
+        <v>694</v>
       </c>
       <c r="B204" t="s">
         <v>16</v>
       </c>
       <c r="C204" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="D204" t="s">
         <v>45</v>
@@ -7418,7 +7418,7 @@
         <v>27000</v>
       </c>
       <c r="G204" s="3" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
     </row>
     <row r="205" spans="1:7" x14ac:dyDescent="0.35">
@@ -7456,7 +7456,7 @@
         <v>41</v>
       </c>
       <c r="D206" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="E206">
         <v>345</v>
@@ -7466,7 +7466,7 @@
         <v>20700</v>
       </c>
       <c r="G206" s="3" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
     </row>
     <row r="207" spans="1:7" x14ac:dyDescent="0.35">
@@ -7543,13 +7543,13 @@
     </row>
     <row r="210" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A210" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="B210" t="s">
         <v>38</v>
       </c>
       <c r="C210" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="D210" t="s">
         <v>42</v>
@@ -7562,18 +7562,18 @@
         <v>2400</v>
       </c>
       <c r="G210" s="3" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
     </row>
     <row r="211" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A211" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="B211" t="s">
         <v>38</v>
       </c>
       <c r="C211" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="D211" t="s">
         <v>42</v>
@@ -7586,18 +7586,18 @@
         <v>10020</v>
       </c>
       <c r="G211" s="5" t="s">
-        <v>708</v>
+        <v>704</v>
       </c>
     </row>
     <row r="212" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A212" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="B212" t="s">
         <v>38</v>
       </c>
       <c r="C212" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="D212" t="s">
         <v>42</v>
@@ -7610,18 +7610,18 @@
         <v>33</v>
       </c>
       <c r="G212" s="6" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
     </row>
     <row r="213" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A213" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="B213" t="s">
         <v>38</v>
       </c>
       <c r="C213" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="D213" t="s">
         <v>42</v>
@@ -7634,18 +7634,18 @@
         <v>426</v>
       </c>
       <c r="G213" s="6" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
     </row>
     <row r="214" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A214" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="B214" t="s">
         <v>38</v>
       </c>
       <c r="C214" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="D214" t="s">
         <v>40</v>
@@ -7658,18 +7658,18 @@
         <v>138000</v>
       </c>
       <c r="G214" s="6" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
     </row>
     <row r="215" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A215" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="B215" t="s">
         <v>38</v>
       </c>
       <c r="C215" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="D215" t="s">
         <v>45</v>
@@ -7682,18 +7682,18 @@
         <v>13.68</v>
       </c>
       <c r="G215" s="6" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
     </row>
     <row r="216" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A216" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="B216" t="s">
         <v>38</v>
       </c>
       <c r="C216" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="D216" t="s">
         <v>45</v>
@@ -7706,21 +7706,21 @@
         <v>2316</v>
       </c>
       <c r="G216" s="6" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
     </row>
     <row r="217" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A217" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="B217" t="s">
         <v>38</v>
       </c>
       <c r="C217" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="D217" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="E217">
         <v>28.3</v>
@@ -7730,18 +7730,18 @@
         <v>1698</v>
       </c>
       <c r="G217" s="6" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
     </row>
     <row r="218" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A218" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
       <c r="B218" t="s">
         <v>38</v>
       </c>
       <c r="C218" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="D218" t="s">
         <v>45</v>
@@ -7754,21 +7754,21 @@
         <v>0.34799999999999998</v>
       </c>
       <c r="G218" s="6" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
     </row>
     <row r="219" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A219" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="B219" t="s">
         <v>38</v>
       </c>
       <c r="C219" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="D219" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="E219">
         <v>0.185</v>
@@ -7778,21 +7778,21 @@
         <v>11.1</v>
       </c>
       <c r="G219" s="6" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
     </row>
     <row r="220" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A220" t="s">
-        <v>220</v>
+        <v>216</v>
       </c>
       <c r="B220" t="s">
         <v>38</v>
       </c>
       <c r="C220" t="s">
-        <v>221</v>
+        <v>217</v>
       </c>
       <c r="D220" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="E220">
         <v>133</v>
@@ -7802,18 +7802,18 @@
         <v>7980</v>
       </c>
       <c r="G220" s="6" t="s">
-        <v>222</v>
+        <v>218</v>
       </c>
     </row>
     <row r="221" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A221" t="s">
-        <v>223</v>
+        <v>219</v>
       </c>
       <c r="B221" t="s">
         <v>38</v>
       </c>
       <c r="C221" t="s">
-        <v>224</v>
+        <v>220</v>
       </c>
       <c r="D221" t="s">
         <v>45</v>
@@ -7826,18 +7826,18 @@
         <v>138</v>
       </c>
       <c r="G221" s="6" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
     </row>
     <row r="222" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A222" t="s">
-        <v>227</v>
+        <v>223</v>
       </c>
       <c r="B222" t="s">
         <v>38</v>
       </c>
       <c r="C222" t="s">
-        <v>226</v>
+        <v>222</v>
       </c>
       <c r="D222" t="s">
         <v>45</v>
@@ -7850,18 +7850,18 @@
         <v>80040</v>
       </c>
       <c r="G222" s="6" t="s">
-        <v>228</v>
+        <v>224</v>
       </c>
     </row>
     <row r="223" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A223" t="s">
-        <v>229</v>
+        <v>225</v>
       </c>
       <c r="B223" t="s">
         <v>38</v>
       </c>
       <c r="C223" t="s">
-        <v>230</v>
+        <v>226</v>
       </c>
       <c r="D223" t="s">
         <v>45</v>
@@ -7874,18 +7874,18 @@
         <v>13200</v>
       </c>
       <c r="G223" s="6" t="s">
-        <v>231</v>
+        <v>227</v>
       </c>
     </row>
     <row r="224" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A224" t="s">
-        <v>232</v>
+        <v>228</v>
       </c>
       <c r="B224" t="s">
         <v>38</v>
       </c>
       <c r="C224" t="s">
-        <v>233</v>
+        <v>229</v>
       </c>
       <c r="D224" t="s">
         <v>45</v>
@@ -7898,18 +7898,18 @@
         <v>3492</v>
       </c>
       <c r="G224" s="6" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
     </row>
     <row r="225" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A225" t="s">
-        <v>383</v>
+        <v>379</v>
       </c>
       <c r="B225" t="s">
         <v>38</v>
       </c>
       <c r="C225" t="s">
-        <v>532</v>
+        <v>528</v>
       </c>
       <c r="D225" t="s">
         <v>40</v>
@@ -7922,18 +7922,18 @@
         <v>834</v>
       </c>
       <c r="G225" s="3" t="s">
-        <v>533</v>
+        <v>529</v>
       </c>
     </row>
     <row r="226" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A226" t="s">
-        <v>384</v>
+        <v>380</v>
       </c>
       <c r="B226" t="s">
         <v>38</v>
       </c>
       <c r="C226" t="s">
-        <v>534</v>
+        <v>530</v>
       </c>
       <c r="D226" t="s">
         <v>40</v>
@@ -7946,18 +7946,18 @@
         <v>234</v>
       </c>
       <c r="G226" s="3" t="s">
-        <v>535</v>
+        <v>531</v>
       </c>
     </row>
     <row r="227" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A227" t="s">
-        <v>385</v>
+        <v>381</v>
       </c>
       <c r="B227" t="s">
         <v>38</v>
       </c>
       <c r="C227" t="s">
-        <v>540</v>
+        <v>536</v>
       </c>
       <c r="D227" t="s">
         <v>40</v>
@@ -7970,18 +7970,18 @@
         <v>25800</v>
       </c>
       <c r="G227" s="3" t="s">
-        <v>541</v>
+        <v>537</v>
       </c>
     </row>
     <row r="228" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A228" t="s">
-        <v>386</v>
+        <v>382</v>
       </c>
       <c r="B228" t="s">
         <v>38</v>
       </c>
       <c r="C228" t="s">
-        <v>542</v>
+        <v>538</v>
       </c>
       <c r="D228" t="s">
         <v>45</v>
@@ -7994,21 +7994,21 @@
         <v>1584</v>
       </c>
       <c r="G228" s="3" t="s">
-        <v>543</v>
+        <v>539</v>
       </c>
     </row>
     <row r="229" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A229" t="s">
-        <v>387</v>
+        <v>383</v>
       </c>
       <c r="B229" t="s">
         <v>38</v>
       </c>
       <c r="C229" t="s">
-        <v>544</v>
+        <v>540</v>
       </c>
       <c r="D229" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="E229">
         <v>19.899999999999999</v>
@@ -8018,18 +8018,18 @@
         <v>1194</v>
       </c>
       <c r="G229" s="3" t="s">
-        <v>545</v>
+        <v>541</v>
       </c>
     </row>
     <row r="230" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A230" t="s">
-        <v>388</v>
+        <v>384</v>
       </c>
       <c r="B230" t="s">
         <v>38</v>
       </c>
       <c r="C230" t="s">
-        <v>538</v>
+        <v>534</v>
       </c>
       <c r="D230" t="s">
         <v>45</v>
@@ -8042,18 +8042,18 @@
         <v>420</v>
       </c>
       <c r="G230" s="3" t="s">
-        <v>539</v>
+        <v>535</v>
       </c>
     </row>
     <row r="231" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A231" t="s">
-        <v>389</v>
+        <v>385</v>
       </c>
       <c r="B231" t="s">
         <v>38</v>
       </c>
       <c r="C231" t="s">
-        <v>536</v>
+        <v>532</v>
       </c>
       <c r="D231" t="s">
         <v>45</v>
@@ -8066,21 +8066,21 @@
         <v>174</v>
       </c>
       <c r="G231" s="3" t="s">
-        <v>537</v>
+        <v>533</v>
       </c>
     </row>
     <row r="232" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A232" t="s">
-        <v>390</v>
+        <v>386</v>
       </c>
       <c r="B232" t="s">
         <v>38</v>
       </c>
       <c r="C232" t="s">
-        <v>461</v>
+        <v>457</v>
       </c>
       <c r="D232" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="E232">
         <v>3.3</v>
@@ -8090,18 +8090,18 @@
         <v>198</v>
       </c>
       <c r="G232" s="3" t="s">
-        <v>462</v>
+        <v>458</v>
       </c>
     </row>
     <row r="233" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A233" t="s">
-        <v>391</v>
+        <v>387</v>
       </c>
       <c r="B233" t="s">
         <v>38</v>
       </c>
       <c r="C233" t="s">
-        <v>546</v>
+        <v>542</v>
       </c>
       <c r="D233" t="s">
         <v>40</v>
@@ -8114,12 +8114,12 @@
         <v>1494</v>
       </c>
       <c r="G233" s="3" t="s">
-        <v>547</v>
+        <v>543</v>
       </c>
     </row>
     <row r="234" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A234" t="s">
-        <v>392</v>
+        <v>388</v>
       </c>
       <c r="B234" t="s">
         <v>38</v>
@@ -8143,13 +8143,13 @@
     </row>
     <row r="235" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A235" t="s">
-        <v>393</v>
+        <v>389</v>
       </c>
       <c r="B235" t="s">
         <v>38</v>
       </c>
       <c r="C235" t="s">
-        <v>477</v>
+        <v>473</v>
       </c>
       <c r="D235" t="s">
         <v>40</v>
@@ -8162,21 +8162,21 @@
         <v>330</v>
       </c>
       <c r="G235" s="3" t="s">
-        <v>478</v>
+        <v>474</v>
       </c>
     </row>
     <row r="236" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A236" t="s">
-        <v>394</v>
+        <v>390</v>
       </c>
       <c r="B236" t="s">
         <v>38</v>
       </c>
       <c r="C236" t="s">
-        <v>548</v>
+        <v>544</v>
       </c>
       <c r="D236" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
       <c r="E236">
         <v>26.8</v>
@@ -8186,18 +8186,18 @@
         <v>1608</v>
       </c>
       <c r="G236" s="3" t="s">
-        <v>549</v>
+        <v>545</v>
       </c>
     </row>
     <row r="237" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A237" t="s">
-        <v>395</v>
+        <v>391</v>
       </c>
       <c r="B237" t="s">
         <v>38</v>
       </c>
       <c r="C237" t="s">
-        <v>550</v>
+        <v>546</v>
       </c>
       <c r="D237" t="s">
         <v>40</v>
@@ -8210,18 +8210,18 @@
         <v>90</v>
       </c>
       <c r="G237" s="3" t="s">
-        <v>551</v>
+        <v>547</v>
       </c>
     </row>
     <row r="238" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A238" t="s">
-        <v>396</v>
+        <v>392</v>
       </c>
       <c r="B238" t="s">
         <v>38</v>
       </c>
       <c r="C238" t="s">
-        <v>534</v>
+        <v>530</v>
       </c>
       <c r="D238" t="s">
         <v>40</v>
@@ -8234,18 +8234,18 @@
         <v>234</v>
       </c>
       <c r="G238" s="3" t="s">
-        <v>535</v>
+        <v>531</v>
       </c>
     </row>
     <row r="239" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A239" t="s">
-        <v>397</v>
+        <v>393</v>
       </c>
       <c r="B239" t="s">
         <v>38</v>
       </c>
       <c r="C239" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="D239" t="s">
         <v>42</v>
@@ -8258,21 +8258,21 @@
         <v>426</v>
       </c>
       <c r="G239" s="4" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
     </row>
     <row r="240" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A240" t="s">
-        <v>398</v>
+        <v>394</v>
       </c>
       <c r="B240" t="s">
         <v>38</v>
       </c>
       <c r="C240" t="s">
-        <v>552</v>
+        <v>548</v>
       </c>
       <c r="D240" t="s">
-        <v>432</v>
+        <v>428</v>
       </c>
       <c r="E240">
         <v>410</v>
@@ -8282,18 +8282,18 @@
         <v>24600</v>
       </c>
       <c r="G240" s="3" t="s">
-        <v>553</v>
+        <v>549</v>
       </c>
     </row>
     <row r="241" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A241" t="s">
-        <v>399</v>
+        <v>395</v>
       </c>
       <c r="B241" t="s">
         <v>38</v>
       </c>
       <c r="C241" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="D241" t="s">
         <v>40</v>
@@ -8306,21 +8306,21 @@
         <v>358.25924192793639</v>
       </c>
       <c r="G241" s="3" t="s">
-        <v>554</v>
+        <v>550</v>
       </c>
     </row>
     <row r="242" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A242" t="s">
-        <v>400</v>
+        <v>396</v>
       </c>
       <c r="B242" t="s">
         <v>38</v>
       </c>
       <c r="C242" t="s">
-        <v>481</v>
+        <v>477</v>
       </c>
       <c r="D242" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="E242">
         <v>8.1999999999999993</v>
@@ -8330,21 +8330,21 @@
         <v>491.99999999999994</v>
       </c>
       <c r="G242" s="3" t="s">
-        <v>482</v>
+        <v>478</v>
       </c>
     </row>
     <row r="243" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A243" t="s">
-        <v>401</v>
+        <v>397</v>
       </c>
       <c r="B243" t="s">
         <v>38</v>
       </c>
       <c r="C243" t="s">
-        <v>555</v>
+        <v>551</v>
       </c>
       <c r="D243" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E243">
         <v>1.08</v>
@@ -8354,18 +8354,18 @@
         <v>64.800000000000011</v>
       </c>
       <c r="G243" s="3" t="s">
-        <v>556</v>
+        <v>552</v>
       </c>
     </row>
     <row r="244" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A244" t="s">
-        <v>402</v>
+        <v>398</v>
       </c>
       <c r="B244" t="s">
         <v>38</v>
       </c>
       <c r="C244" t="s">
-        <v>457</v>
+        <v>453</v>
       </c>
       <c r="D244" t="s">
         <v>42</v>
@@ -8378,21 +8378,21 @@
         <v>12360</v>
       </c>
       <c r="G244" s="3" t="s">
-        <v>458</v>
+        <v>454</v>
       </c>
     </row>
     <row r="245" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A245" t="s">
-        <v>403</v>
+        <v>399</v>
       </c>
       <c r="B245" t="s">
         <v>38</v>
       </c>
       <c r="C245" t="s">
-        <v>557</v>
+        <v>553</v>
       </c>
       <c r="D245" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="E245">
         <v>1.83</v>
@@ -8402,18 +8402,18 @@
         <v>109.80000000000001</v>
       </c>
       <c r="G245" s="3" t="s">
-        <v>558</v>
+        <v>554</v>
       </c>
     </row>
     <row r="246" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A246" t="s">
-        <v>404</v>
+        <v>400</v>
       </c>
       <c r="B246" t="s">
         <v>38</v>
       </c>
       <c r="C246" t="s">
-        <v>477</v>
+        <v>473</v>
       </c>
       <c r="D246" t="s">
         <v>40</v>
@@ -8426,18 +8426,18 @@
         <v>330</v>
       </c>
       <c r="G246" s="3" t="s">
-        <v>478</v>
+        <v>474</v>
       </c>
     </row>
     <row r="247" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A247" t="s">
-        <v>405</v>
+        <v>401</v>
       </c>
       <c r="B247" t="s">
         <v>38</v>
       </c>
       <c r="C247" t="s">
-        <v>559</v>
+        <v>555</v>
       </c>
       <c r="D247" t="s">
         <v>45</v>
@@ -8450,21 +8450,21 @@
         <v>336</v>
       </c>
       <c r="G247" s="3" t="s">
-        <v>560</v>
+        <v>556</v>
       </c>
     </row>
     <row r="248" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A248" t="s">
-        <v>406</v>
+        <v>402</v>
       </c>
       <c r="B248" t="s">
         <v>38</v>
       </c>
       <c r="C248" t="s">
-        <v>555</v>
+        <v>551</v>
       </c>
       <c r="D248" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E248">
         <v>1.08</v>
@@ -8474,18 +8474,18 @@
         <v>64.800000000000011</v>
       </c>
       <c r="G248" s="3" t="s">
-        <v>556</v>
+        <v>552</v>
       </c>
     </row>
     <row r="249" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A249" t="s">
-        <v>407</v>
+        <v>403</v>
       </c>
       <c r="B249" t="s">
         <v>38</v>
       </c>
       <c r="C249" t="s">
-        <v>477</v>
+        <v>473</v>
       </c>
       <c r="D249" t="s">
         <v>40</v>
@@ -8498,18 +8498,18 @@
         <v>330</v>
       </c>
       <c r="G249" s="3" t="s">
-        <v>478</v>
+        <v>474</v>
       </c>
     </row>
     <row r="250" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A250" t="s">
-        <v>408</v>
+        <v>404</v>
       </c>
       <c r="B250" t="s">
         <v>38</v>
       </c>
       <c r="C250" t="s">
-        <v>561</v>
+        <v>557</v>
       </c>
       <c r="D250" t="s">
         <v>40</v>
@@ -8522,18 +8522,18 @@
         <v>702</v>
       </c>
       <c r="G250" s="3" t="s">
-        <v>562</v>
+        <v>558</v>
       </c>
     </row>
     <row r="251" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A251" t="s">
-        <v>409</v>
+        <v>405</v>
       </c>
       <c r="B251" t="s">
         <v>38</v>
       </c>
       <c r="C251" t="s">
-        <v>477</v>
+        <v>473</v>
       </c>
       <c r="D251" t="s">
         <v>40</v>
@@ -8546,18 +8546,18 @@
         <v>330</v>
       </c>
       <c r="G251" s="3" t="s">
-        <v>478</v>
+        <v>474</v>
       </c>
     </row>
     <row r="252" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A252" t="s">
-        <v>410</v>
+        <v>406</v>
       </c>
       <c r="B252" t="s">
         <v>38</v>
       </c>
       <c r="C252" t="s">
-        <v>563</v>
+        <v>559</v>
       </c>
       <c r="D252" t="s">
         <v>45</v>
@@ -8570,18 +8570,18 @@
         <v>318</v>
       </c>
       <c r="G252" s="3" t="s">
-        <v>564</v>
+        <v>560</v>
       </c>
     </row>
     <row r="253" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A253" t="s">
-        <v>411</v>
+        <v>407</v>
       </c>
       <c r="B253" t="s">
         <v>38</v>
       </c>
       <c r="C253" t="s">
-        <v>565</v>
+        <v>561</v>
       </c>
       <c r="D253" t="s">
         <v>40</v>
@@ -8594,18 +8594,18 @@
         <v>3108</v>
       </c>
       <c r="G253" s="3" t="s">
-        <v>566</v>
+        <v>562</v>
       </c>
     </row>
     <row r="254" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A254" t="s">
-        <v>412</v>
+        <v>408</v>
       </c>
       <c r="B254" t="s">
         <v>38</v>
       </c>
       <c r="C254" t="s">
-        <v>477</v>
+        <v>473</v>
       </c>
       <c r="D254" t="s">
         <v>40</v>
@@ -8618,21 +8618,21 @@
         <v>330</v>
       </c>
       <c r="G254" s="3" t="s">
-        <v>478</v>
+        <v>474</v>
       </c>
     </row>
     <row r="255" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A255" t="s">
-        <v>413</v>
+        <v>409</v>
       </c>
       <c r="B255" t="s">
         <v>38</v>
       </c>
       <c r="C255" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="D255" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="E255">
         <v>27.1</v>
@@ -8642,18 +8642,18 @@
         <v>1626</v>
       </c>
       <c r="G255" s="3" t="s">
-        <v>571</v>
+        <v>567</v>
       </c>
     </row>
     <row r="256" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A256" t="s">
-        <v>414</v>
+        <v>410</v>
       </c>
       <c r="B256" t="s">
         <v>38</v>
       </c>
       <c r="C256" t="s">
-        <v>572</v>
+        <v>568</v>
       </c>
       <c r="D256" t="s">
         <v>40</v>
@@ -8666,18 +8666,18 @@
         <v>156</v>
       </c>
       <c r="G256" s="3" t="s">
-        <v>573</v>
+        <v>569</v>
       </c>
     </row>
     <row r="257" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A257" t="s">
-        <v>415</v>
+        <v>411</v>
       </c>
       <c r="B257" t="s">
         <v>38</v>
       </c>
       <c r="C257" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="D257" t="s">
         <v>42</v>
@@ -8690,21 +8690,21 @@
         <v>426</v>
       </c>
       <c r="G257" s="4" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
     </row>
     <row r="258" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A258" t="s">
-        <v>416</v>
+        <v>412</v>
       </c>
       <c r="B258" t="s">
         <v>38</v>
       </c>
       <c r="C258" t="s">
-        <v>431</v>
+        <v>427</v>
       </c>
       <c r="D258" t="s">
-        <v>432</v>
+        <v>428</v>
       </c>
       <c r="E258">
         <v>7.3</v>
@@ -8714,21 +8714,21 @@
         <v>438</v>
       </c>
       <c r="G258" s="3" t="s">
-        <v>433</v>
+        <v>429</v>
       </c>
     </row>
     <row r="259" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A259" t="s">
-        <v>417</v>
+        <v>413</v>
       </c>
       <c r="B259" t="s">
         <v>38</v>
       </c>
       <c r="C259" t="s">
-        <v>569</v>
+        <v>565</v>
       </c>
       <c r="D259" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="E259">
         <v>6.3</v>
@@ -8738,21 +8738,21 @@
         <v>378</v>
       </c>
       <c r="G259" s="3" t="s">
-        <v>570</v>
+        <v>566</v>
       </c>
     </row>
     <row r="260" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A260" t="s">
-        <v>418</v>
+        <v>414</v>
       </c>
       <c r="B260" t="s">
         <v>38</v>
       </c>
       <c r="C260" t="s">
-        <v>567</v>
+        <v>563</v>
       </c>
       <c r="D260" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="E260">
         <v>1.87</v>
@@ -8762,18 +8762,18 @@
         <v>112.2</v>
       </c>
       <c r="G260" s="3" t="s">
-        <v>568</v>
+        <v>564</v>
       </c>
     </row>
     <row r="261" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A261" t="s">
-        <v>419</v>
+        <v>415</v>
       </c>
       <c r="B261" t="s">
         <v>38</v>
       </c>
       <c r="C261" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="D261" t="s">
         <v>40</v>
@@ -8786,18 +8786,18 @@
         <v>1920</v>
       </c>
       <c r="G261" s="3" t="s">
-        <v>452</v>
+        <v>448</v>
       </c>
     </row>
     <row r="262" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A262" t="s">
-        <v>420</v>
+        <v>416</v>
       </c>
       <c r="B262" t="s">
         <v>38</v>
       </c>
       <c r="C262" t="s">
-        <v>421</v>
+        <v>417</v>
       </c>
       <c r="D262" t="s">
         <v>45</v>
@@ -8810,18 +8810,18 @@
         <v>13260</v>
       </c>
       <c r="G262" s="3" t="s">
-        <v>422</v>
+        <v>418</v>
       </c>
     </row>
     <row r="263" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A263" t="s">
-        <v>667</v>
+        <v>663</v>
       </c>
       <c r="B263" t="s">
         <v>38</v>
       </c>
       <c r="C263" t="s">
-        <v>677</v>
+        <v>673</v>
       </c>
       <c r="D263" t="s">
         <v>45</v>
@@ -8834,21 +8834,21 @@
         <v>3180</v>
       </c>
       <c r="G263" s="3" t="s">
-        <v>678</v>
+        <v>674</v>
       </c>
     </row>
     <row r="264" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A264" t="s">
-        <v>668</v>
+        <v>664</v>
       </c>
       <c r="B264" t="s">
         <v>38</v>
       </c>
       <c r="C264" t="s">
-        <v>671</v>
+        <v>667</v>
       </c>
       <c r="D264" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="E264">
         <v>8400</v>
@@ -8858,18 +8858,18 @@
         <v>504000</v>
       </c>
       <c r="G264" s="3" t="s">
-        <v>672</v>
+        <v>668</v>
       </c>
     </row>
     <row r="265" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A265" t="s">
-        <v>669</v>
+        <v>665</v>
       </c>
       <c r="B265" t="s">
         <v>38</v>
       </c>
       <c r="C265" t="s">
-        <v>673</v>
+        <v>669</v>
       </c>
       <c r="D265" t="s">
         <v>40</v>
@@ -8882,21 +8882,21 @@
         <v>4044.0000000000005</v>
       </c>
       <c r="G265" s="3" t="s">
-        <v>674</v>
+        <v>670</v>
       </c>
     </row>
     <row r="266" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A266" t="s">
-        <v>670</v>
+        <v>666</v>
       </c>
       <c r="B266" t="s">
         <v>38</v>
       </c>
       <c r="C266" t="s">
-        <v>675</v>
+        <v>671</v>
       </c>
       <c r="D266" t="s">
-        <v>676</v>
+        <v>672</v>
       </c>
       <c r="E266">
         <v>6.61</v>
@@ -8906,21 +8906,21 @@
         <v>396.6</v>
       </c>
       <c r="G266" s="3" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
     </row>
     <row r="267" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A267" t="s">
-        <v>679</v>
+        <v>675</v>
       </c>
       <c r="B267" t="s">
         <v>38</v>
       </c>
       <c r="C267" t="s">
-        <v>684</v>
+        <v>680</v>
       </c>
       <c r="D267" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="E267">
         <v>4.13</v>
@@ -8930,18 +8930,18 @@
         <v>247.79999999999998</v>
       </c>
       <c r="G267" s="3" t="s">
-        <v>685</v>
+        <v>681</v>
       </c>
     </row>
     <row r="268" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A268" t="s">
-        <v>704</v>
+        <v>700</v>
       </c>
       <c r="B268" t="s">
         <v>38</v>
       </c>
       <c r="C268" t="s">
-        <v>705</v>
+        <v>701</v>
       </c>
       <c r="D268" t="s">
         <v>42</v>
@@ -8954,18 +8954,18 @@
         <v>1080</v>
       </c>
       <c r="G268" s="3" t="s">
-        <v>706</v>
+        <v>702</v>
       </c>
     </row>
     <row r="269" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A269" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="B269" t="s">
         <v>38</v>
       </c>
       <c r="C269" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="D269" t="s">
         <v>45</v>
@@ -8978,18 +8978,18 @@
         <v>450</v>
       </c>
       <c r="G269" s="3" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
     </row>
     <row r="270" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A270" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="B270" t="s">
         <v>38</v>
       </c>
       <c r="C270" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="D270" t="s">
         <v>45</v>
@@ -9002,53 +9002,53 @@
         <v>450</v>
       </c>
       <c r="G270" s="3" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
     </row>
     <row r="271" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A271" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="B271" t="s">
         <v>16</v>
       </c>
       <c r="C271" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="D271" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="E271" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="F271">
         <v>107.4</v>
       </c>
       <c r="G271" s="1" t="s">
-        <v>697</v>
+        <v>693</v>
       </c>
     </row>
     <row r="272" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A272" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="B272" t="s">
         <v>16</v>
       </c>
       <c r="C272" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="D272" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="E272" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="F272">
         <v>20</v>
       </c>
       <c r="G272" s="2" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
     </row>
   </sheetData>
@@ -9073,9 +9073,10 @@
     <hyperlink ref="G182" r:id="rId18" xr:uid="{87D8A670-02D9-4006-B7CD-DC020E2EACEF}"/>
     <hyperlink ref="G16" r:id="rId19" xr:uid="{7DAABD84-8696-4ABA-AB3E-8DD3400DB458}"/>
     <hyperlink ref="G271" r:id="rId20" xr:uid="{DC28AAB8-6E94-4F29-B774-317596ED75E1}"/>
+    <hyperlink ref="G202" r:id="rId21" xr:uid="{B9EC4F91-5A42-4BB1-ADC3-DE2BEE9FF1EF}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId21"/>
+  <pageSetup orientation="portrait" r:id="rId22"/>
 </worksheet>
 </file>
 
@@ -9097,10 +9098,10 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="C1" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="D1" t="s">
         <v>3</v>
@@ -9108,296 +9109,296 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="B2">
         <v>30</v>
       </c>
       <c r="C2" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="D2" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="B3">
         <v>0.29499999999999998</v>
       </c>
       <c r="C3" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="D3" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="B4">
         <v>0.11600000000000001</v>
       </c>
       <c r="C4" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="D4" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="B5">
         <v>6.85999999